--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -409,69 +409,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9916351073362261</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9874694765955244</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9846043529350416</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9824136634757923</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.981738430913055</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9861715093027626</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9839313997071085</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9808987362394714</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.981063509475783</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9883055889472779</v>
+        <v>0.9920477121553201</v>
       </c>
       <c r="D3">
-        <v>0.9795578723687814</v>
+        <v>0.9884708463142409</v>
       </c>
       <c r="E3">
-        <v>0.9717394564696312</v>
+        <v>0.9860266841107488</v>
       </c>
       <c r="F3">
-        <v>0.9698608926835838</v>
+        <v>0.9838381718779083</v>
       </c>
       <c r="G3">
-        <v>0.9691768833680512</v>
+        <v>0.9835831784848432</v>
       </c>
       <c r="H3">
-        <v>0.9786287290565927</v>
+        <v>0.987341302053801</v>
       </c>
       <c r="I3">
-        <v>0.9658009642133418</v>
+        <v>0.9857728261979333</v>
       </c>
       <c r="J3">
-        <v>0.9686670441918117</v>
+        <v>0.9819052477650043</v>
       </c>
       <c r="K3">
-        <v>0.9684931982845651</v>
+        <v>0.9833286882646357</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,66 +412,66 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9916351073362261</v>
+        <v>0.9928361827011722</v>
       </c>
       <c r="D2">
-        <v>0.9874694765955244</v>
+        <v>0.9903879364656761</v>
       </c>
       <c r="E2">
-        <v>0.9846043529350416</v>
+        <v>0.9888371763086995</v>
       </c>
       <c r="F2">
-        <v>0.9824136634757923</v>
+        <v>0.9877024200826462</v>
       </c>
       <c r="G2">
-        <v>0.981738430913055</v>
+        <v>0.9874484315947928</v>
       </c>
       <c r="H2">
-        <v>0.9861715093027626</v>
+        <v>0.9894950174892205</v>
       </c>
       <c r="I2">
-        <v>0.9839313997071085</v>
+        <v>0.9884238278115318</v>
       </c>
       <c r="J2">
-        <v>0.9808987362394714</v>
+        <v>0.9868227351850104</v>
       </c>
       <c r="K2">
-        <v>0.981063509475783</v>
+        <v>0.9871949401390503</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9920477121553201</v>
+        <v>0.9921304709980312</v>
       </c>
       <c r="D3">
-        <v>0.9884708463142409</v>
+        <v>0.9886694792882724</v>
       </c>
       <c r="E3">
-        <v>0.9860266841107488</v>
+        <v>0.9862627769166961</v>
       </c>
       <c r="F3">
-        <v>0.9838381718779083</v>
+        <v>0.9844330407305483</v>
       </c>
       <c r="G3">
-        <v>0.9835831784848432</v>
+        <v>0.9838640240589219</v>
       </c>
       <c r="H3">
-        <v>0.987341302053801</v>
+        <v>0.9876184567772021</v>
       </c>
       <c r="I3">
-        <v>0.9857728261979333</v>
+        <v>0.9856876591753841</v>
       </c>
       <c r="J3">
-        <v>0.9819052477650043</v>
+        <v>0.9831730129293942</v>
       </c>
       <c r="K3">
-        <v>0.9833286882646357</v>
+        <v>0.9832953605726014</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,31 +412,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9928361827011722</v>
+        <v>0.9924103225367714</v>
       </c>
       <c r="D2">
-        <v>0.9903879364656761</v>
+        <v>0.9893507164298303</v>
       </c>
       <c r="E2">
-        <v>0.9888371763086995</v>
+        <v>0.9870165942294384</v>
       </c>
       <c r="F2">
-        <v>0.9877024200826462</v>
+        <v>0.9852512239794504</v>
       </c>
       <c r="G2">
-        <v>0.9874484315947928</v>
+        <v>0.9846826812237981</v>
       </c>
       <c r="H2">
-        <v>0.9894950174892205</v>
+        <v>0.9886288825500764</v>
       </c>
       <c r="I2">
-        <v>0.9884238278115318</v>
+        <v>0.9864497497322546</v>
       </c>
       <c r="J2">
-        <v>0.9868227351850104</v>
+        <v>0.9840551166785567</v>
       </c>
       <c r="K2">
-        <v>0.9871949401390503</v>
+        <v>0.9841144907194314</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9921304709980312</v>
+        <v>0.9921102638630729</v>
       </c>
       <c r="D3">
-        <v>0.9886694792882724</v>
+        <v>0.9886227993609457</v>
       </c>
       <c r="E3">
-        <v>0.9862627769166961</v>
+        <v>0.9858921260135189</v>
       </c>
       <c r="F3">
-        <v>0.9844330407305483</v>
+        <v>0.9837305165780009</v>
       </c>
       <c r="G3">
-        <v>0.9838640240589219</v>
+        <v>0.983145360042834</v>
       </c>
       <c r="H3">
-        <v>0.9876184567772021</v>
+        <v>0.9878691377634767</v>
       </c>
       <c r="I3">
-        <v>0.9856876591753841</v>
+        <v>0.9853246338141393</v>
       </c>
       <c r="J3">
-        <v>0.9831730129293942</v>
+        <v>0.9821546118731845</v>
       </c>
       <c r="K3">
-        <v>0.9832953605726014</v>
+        <v>0.9825605506901943</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,66 +412,66 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9924103225367714</v>
+        <v>0.9922585908535627</v>
       </c>
       <c r="D2">
-        <v>0.9893507164298303</v>
+        <v>0.9889836772684093</v>
       </c>
       <c r="E2">
-        <v>0.9870165942294384</v>
+        <v>0.9862778073417557</v>
       </c>
       <c r="F2">
-        <v>0.9852512239794504</v>
+        <v>0.9841564766679306</v>
       </c>
       <c r="G2">
-        <v>0.9846826812237981</v>
+        <v>0.9835794370713831</v>
       </c>
       <c r="H2">
-        <v>0.9886288825500764</v>
+        <v>0.9884179622745842</v>
       </c>
       <c r="I2">
-        <v>0.9864497497322546</v>
+        <v>0.9856948587662394</v>
       </c>
       <c r="J2">
-        <v>0.9840551166785567</v>
+        <v>0.982612749617203</v>
       </c>
       <c r="K2">
-        <v>0.9841144907194314</v>
+        <v>0.9830027475698611</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9921102638630729</v>
+        <v>0.9909954405439588</v>
       </c>
       <c r="D3">
-        <v>0.9886227993609457</v>
+        <v>0.9859472664852262</v>
       </c>
       <c r="E3">
-        <v>0.9858921260135189</v>
+        <v>0.981468109601405</v>
       </c>
       <c r="F3">
-        <v>0.9837305165780009</v>
+        <v>0.9772445948654507</v>
       </c>
       <c r="G3">
-        <v>0.983145360042834</v>
+        <v>0.9755282528757017</v>
       </c>
       <c r="H3">
-        <v>0.9878691377634767</v>
+        <v>0.9853798060817364</v>
       </c>
       <c r="I3">
-        <v>0.9853246338141393</v>
+        <v>0.9812130695001218</v>
       </c>
       <c r="J3">
-        <v>0.9821546118731845</v>
+        <v>0.974737429727234</v>
       </c>
       <c r="K3">
-        <v>0.9825605506901943</v>
+        <v>0.9738119368096106</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,31 +412,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9922585908535627</v>
+        <v>0.9931674706421231</v>
       </c>
       <c r="D2">
-        <v>0.9889836772684093</v>
+        <v>0.9911988362902867</v>
       </c>
       <c r="E2">
-        <v>0.9862778073417557</v>
+        <v>0.9899038524349963</v>
       </c>
       <c r="F2">
-        <v>0.9841564766679306</v>
+        <v>0.989083283285945</v>
       </c>
       <c r="G2">
-        <v>0.9835794370713831</v>
+        <v>0.9888296519732972</v>
       </c>
       <c r="H2">
-        <v>0.9884179622745842</v>
+        <v>0.9905303689921979</v>
       </c>
       <c r="I2">
-        <v>0.9856948587662394</v>
+        <v>0.989432384460235</v>
       </c>
       <c r="J2">
-        <v>0.982612749617203</v>
+        <v>0.9885176257931687</v>
       </c>
       <c r="K2">
-        <v>0.9830027475698611</v>
+        <v>0.9885765155212325</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9909954405439588</v>
+        <v>0.9934611064312664</v>
       </c>
       <c r="D3">
-        <v>0.9859472664852262</v>
+        <v>0.9919198326531968</v>
       </c>
       <c r="E3">
-        <v>0.981468109601405</v>
+        <v>0.991052411202241</v>
       </c>
       <c r="F3">
-        <v>0.9772445948654507</v>
+        <v>0.9904409546753616</v>
       </c>
       <c r="G3">
-        <v>0.9755282528757017</v>
+        <v>0.9901876735579727</v>
       </c>
       <c r="H3">
-        <v>0.9853798060817364</v>
+        <v>0.9912518525686499</v>
       </c>
       <c r="I3">
-        <v>0.9812130695001218</v>
+        <v>0.990799843963233</v>
       </c>
       <c r="J3">
-        <v>0.974737429727234</v>
+        <v>0.9900842022715296</v>
       </c>
       <c r="K3">
-        <v>0.9738119368096106</v>
+        <v>0.9899348851777835</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,31 +412,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9931674706421231</v>
+        <v>0.9929469801700437</v>
       </c>
       <c r="D2">
-        <v>0.9911988362902867</v>
+        <v>0.9906592172174936</v>
       </c>
       <c r="E2">
-        <v>0.9899038524349963</v>
+        <v>0.9890449847496111</v>
       </c>
       <c r="F2">
-        <v>0.989083283285945</v>
+        <v>0.9879000139922177</v>
       </c>
       <c r="G2">
-        <v>0.9888296519732972</v>
+        <v>0.9872181000527039</v>
       </c>
       <c r="H2">
-        <v>0.9905303689921979</v>
+        <v>0.9899903855518227</v>
       </c>
       <c r="I2">
-        <v>0.989432384460235</v>
+        <v>0.9885783176584192</v>
       </c>
       <c r="J2">
-        <v>0.9885176257931687</v>
+        <v>0.9874380216483714</v>
       </c>
       <c r="K2">
-        <v>0.9885765155212325</v>
+        <v>0.986536487502668</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9934611064312664</v>
+        <v>0.9937848563851051</v>
       </c>
       <c r="D3">
-        <v>0.9919198326531968</v>
+        <v>0.9927181891540343</v>
       </c>
       <c r="E3">
-        <v>0.991052411202241</v>
+        <v>0.9922425175851967</v>
       </c>
       <c r="F3">
-        <v>0.9904409546753616</v>
+        <v>0.9921294707230744</v>
       </c>
       <c r="G3">
-        <v>0.9901876735579727</v>
+        <v>0.9924782735034794</v>
       </c>
       <c r="H3">
-        <v>0.9912518525686499</v>
+        <v>0.9921338365876234</v>
       </c>
       <c r="I3">
-        <v>0.990799843963233</v>
+        <v>0.991883817748153</v>
       </c>
       <c r="J3">
-        <v>0.9900842022715296</v>
+        <v>0.991669451080431</v>
       </c>
       <c r="K3">
-        <v>0.9899348851777835</v>
+        <v>0.9928279172211114</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,31 +412,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9929469801700437</v>
+        <v>0.9930596151657844</v>
       </c>
       <c r="D2">
-        <v>0.9906592172174936</v>
+        <v>0.9909344415323827</v>
       </c>
       <c r="E2">
-        <v>0.9890449847496111</v>
+        <v>0.9895245005161247</v>
       </c>
       <c r="F2">
-        <v>0.9879000139922177</v>
+        <v>0.9888078757926734</v>
       </c>
       <c r="G2">
-        <v>0.9872181000527039</v>
+        <v>0.9885541733233728</v>
       </c>
       <c r="H2">
-        <v>0.9899903855518227</v>
+        <v>0.9902241707883631</v>
       </c>
       <c r="I2">
-        <v>0.9885783176584192</v>
+        <v>0.9888340581782735</v>
       </c>
       <c r="J2">
-        <v>0.9874380216483714</v>
+        <v>0.9883463079841026</v>
       </c>
       <c r="K2">
-        <v>0.986536487502668</v>
+        <v>0.9883009661467992</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9937848563851051</v>
+        <v>0.9932390842901279</v>
       </c>
       <c r="D3">
-        <v>0.9927181891540343</v>
+        <v>0.9913746284966506</v>
       </c>
       <c r="E3">
-        <v>0.9922425175851967</v>
+        <v>0.9901838685145413</v>
       </c>
       <c r="F3">
-        <v>0.9921294707230744</v>
+        <v>0.9892489151262839</v>
       </c>
       <c r="G3">
-        <v>0.9924782735034794</v>
+        <v>0.9887765198516294</v>
       </c>
       <c r="H3">
-        <v>0.9921338365876234</v>
+        <v>0.990706279951861</v>
       </c>
       <c r="I3">
-        <v>0.991883817748153</v>
+        <v>0.9899310791617033</v>
       </c>
       <c r="J3">
-        <v>0.991669451080431</v>
+        <v>0.9887875539090357</v>
       </c>
       <c r="K3">
-        <v>0.9928279172211114</v>
+        <v>0.9883045137749286</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -412,66 +412,66 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9930596151657844</v>
+        <v>0.9909978336781939</v>
       </c>
       <c r="D2">
-        <v>0.9909344415323827</v>
+        <v>0.9859273163094625</v>
       </c>
       <c r="E2">
-        <v>0.9895245005161247</v>
+        <v>0.9836697137479801</v>
       </c>
       <c r="F2">
-        <v>0.9888078757926734</v>
+        <v>0.9820982118971932</v>
       </c>
       <c r="G2">
-        <v>0.9885541733233728</v>
+        <v>0.9814122514125772</v>
       </c>
       <c r="H2">
-        <v>0.9902241707883631</v>
+        <v>0.9831167317301314</v>
       </c>
       <c r="I2">
-        <v>0.9888340581782735</v>
+        <v>0.982985637787423</v>
       </c>
       <c r="J2">
-        <v>0.9883463079841026</v>
+        <v>0.9812134968852803</v>
       </c>
       <c r="K2">
-        <v>0.9883009661467992</v>
+        <v>0.9807265980869618</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9932390842901279</v>
+        <v>0.990662199492934</v>
       </c>
       <c r="D3">
-        <v>0.9913746284966506</v>
+        <v>0.9851223533008366</v>
       </c>
       <c r="E3">
-        <v>0.9901838685145413</v>
+        <v>0.9821868714552735</v>
       </c>
       <c r="F3">
-        <v>0.9892489151262839</v>
+        <v>0.9799379429934298</v>
       </c>
       <c r="G3">
-        <v>0.9887765198516294</v>
+        <v>0.9792504638022622</v>
       </c>
       <c r="H3">
-        <v>0.990706279951861</v>
+        <v>0.9825197307608055</v>
       </c>
       <c r="I3">
-        <v>0.9899310791617033</v>
+        <v>0.9815017607672354</v>
       </c>
       <c r="J3">
-        <v>0.9887875539090357</v>
+        <v>0.9783770057337925</v>
       </c>
       <c r="K3">
-        <v>0.9883045137749286</v>
+        <v>0.9785632939529811</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,2722 +3103,2722 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049737819897074</v>
+        <v>1.049823934652852</v>
       </c>
       <c r="D2">
-        <v>1.049624552961605</v>
+        <v>1.049757590663703</v>
       </c>
       <c r="E2">
-        <v>1.049612678513032</v>
+        <v>1.049750635423549</v>
       </c>
       <c r="F2">
-        <v>1.04960155402062</v>
+        <v>1.049744119455758</v>
       </c>
       <c r="G2">
-        <v>1.049591855061738</v>
+        <v>1.049738438467596</v>
       </c>
       <c r="H2">
-        <v>1.049576575395413</v>
+        <v>1.049729488680874</v>
       </c>
       <c r="I2">
-        <v>1.048536108037055</v>
+        <v>1.049120050900493</v>
       </c>
       <c r="J2">
-        <v>1.048489507484707</v>
+        <v>1.049092755206487</v>
       </c>
       <c r="K2">
-        <v>1.048450720995997</v>
+        <v>1.049070036494181</v>
       </c>
       <c r="L2">
-        <v>1.048416682777464</v>
+        <v>1.049050099016507</v>
       </c>
       <c r="M2">
-        <v>1.048391283843039</v>
+        <v>1.049035221891676</v>
       </c>
       <c r="N2">
-        <v>1.04836744050235</v>
+        <v>1.049021255934284</v>
       </c>
       <c r="O2">
-        <v>1.0483527790293</v>
+        <v>1.049012668146743</v>
       </c>
       <c r="P2">
-        <v>1.048316278545628</v>
+        <v>1.048991288407376</v>
       </c>
       <c r="Q2">
-        <v>1.048020594872913</v>
+        <v>1.048818094825655</v>
       </c>
       <c r="R2">
-        <v>1.048020594872915</v>
+        <v>1.048818094825654</v>
       </c>
       <c r="S2">
-        <v>1.047662029710801</v>
+        <v>1.048608068445486</v>
       </c>
       <c r="T2">
-        <v>1.048020594872916</v>
+        <v>1.048818094825654</v>
       </c>
       <c r="U2">
-        <v>1.047637358314698</v>
+        <v>1.048593617367412</v>
       </c>
       <c r="V2">
-        <v>1.048020594872916</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="W2">
-        <v>1.047609655227867</v>
+        <v>1.048577390496199</v>
       </c>
       <c r="X2">
-        <v>1.048020594872917</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="Y2">
-        <v>1.047564549022661</v>
+        <v>1.048550969872657</v>
       </c>
       <c r="Z2">
-        <v>1.048020594872917</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="AA2">
-        <v>1.047482489997002</v>
+        <v>1.048502904381789</v>
       </c>
       <c r="AB2">
-        <v>1.048020594872917</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="AC2">
-        <v>1.047422923361717</v>
+        <v>1.048386778883015</v>
       </c>
       <c r="AD2">
-        <v>1.04649355716555</v>
+        <v>1.047976975811914</v>
       </c>
       <c r="AE2">
-        <v>1.048020594872917</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="AF2">
-        <v>1.047417894308709</v>
+        <v>1.048364649951207</v>
       </c>
       <c r="AG2">
-        <v>1.047411837254199</v>
+        <v>1.048377174477741</v>
       </c>
       <c r="AH2">
-        <v>1.046230290239965</v>
+        <v>1.047836965786082</v>
       </c>
       <c r="AI2">
-        <v>1.048020594872918</v>
+        <v>1.048818094825653</v>
       </c>
       <c r="AJ2">
-        <v>1.047406377422443</v>
+        <v>1.048313973143612</v>
       </c>
       <c r="AK2">
-        <v>1.047411461822222</v>
+        <v>1.048376849223743</v>
       </c>
       <c r="AL2">
-        <v>1.04616278486919</v>
+        <v>1.047764243471386</v>
       </c>
       <c r="AM2">
-        <v>1.045470932494472</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="AN2">
-        <v>1.048020594872918</v>
+        <v>1.048818094825654</v>
       </c>
       <c r="AO2">
-        <v>1.047410922018941</v>
+        <v>1.048376381567319</v>
       </c>
       <c r="AP2">
-        <v>1.046161536028686</v>
+        <v>1.047761807169723</v>
       </c>
       <c r="AQ2">
-        <v>1.046147130658605</v>
+        <v>1.04775230543107</v>
       </c>
       <c r="AR2">
-        <v>1.044943994227604</v>
+        <v>1.047186782239813</v>
       </c>
       <c r="AS2">
-        <v>1.045470932494471</v>
+        <v>1.047453134641679</v>
       </c>
       <c r="AT2">
-        <v>1.048020594872918</v>
+        <v>1.048818094825654</v>
       </c>
       <c r="AU2">
-        <v>1.047410229758079</v>
+        <v>1.048375781829878</v>
       </c>
       <c r="AV2">
-        <v>1.046160973138903</v>
+        <v>1.047760709055672</v>
       </c>
       <c r="AW2">
-        <v>1.046109463668939</v>
+        <v>1.04772358024849</v>
       </c>
       <c r="AX2">
-        <v>1.044545812666432</v>
+        <v>1.04698551168014</v>
       </c>
       <c r="AY2">
-        <v>1.045470932494471</v>
+        <v>1.047453134641678</v>
       </c>
       <c r="AZ2">
-        <v>1.048020594872918</v>
+        <v>1.048818094825654</v>
       </c>
       <c r="BA2">
-        <v>1.047408543791091</v>
+        <v>1.048374321199097</v>
       </c>
       <c r="BB2">
-        <v>1.046160376596236</v>
+        <v>1.047759545289861</v>
       </c>
       <c r="BC2">
-        <v>1.044488403121373</v>
+        <v>1.046956492555071</v>
       </c>
       <c r="BD2">
-        <v>1.044545812666435</v>
+        <v>1.046985511680143</v>
       </c>
       <c r="BE2">
-        <v>1.045470932494471</v>
+        <v>1.047453134641677</v>
       </c>
       <c r="BF2">
-        <v>1.048020594872919</v>
+        <v>1.048818094825655</v>
       </c>
       <c r="BG2">
-        <v>1.047407100295542</v>
+        <v>1.048373070632486</v>
       </c>
       <c r="BH2">
-        <v>1.04615980843063</v>
+        <v>1.047758436883471</v>
       </c>
       <c r="BI2">
-        <v>1.044228353724781</v>
+        <v>1.046825043694392</v>
       </c>
       <c r="BJ2">
-        <v>1.044545812666435</v>
+        <v>1.046985511680144</v>
       </c>
       <c r="BK2">
-        <v>1.04547093249447</v>
+        <v>1.047453134641677</v>
       </c>
       <c r="BL2">
-        <v>1.048020594872919</v>
+        <v>1.048818094825656</v>
       </c>
       <c r="BM2">
-        <v>1.047400180695603</v>
+        <v>1.048367075864746</v>
       </c>
       <c r="BN2">
-        <v>1.04615946815563</v>
+        <v>1.047757773057678</v>
       </c>
       <c r="BO2">
-        <v>1.044177534435782</v>
+        <v>1.046799919957274</v>
       </c>
       <c r="BP2">
-        <v>1.044150867312216</v>
+        <v>1.046764646963654</v>
       </c>
       <c r="BQ2">
-        <v>1.044545812666435</v>
+        <v>1.046985511680144</v>
       </c>
       <c r="BR2">
-        <v>1.04547093249447</v>
+        <v>1.047453134641676</v>
       </c>
       <c r="BS2">
-        <v>1.04802059487292</v>
+        <v>1.048818094825657</v>
       </c>
       <c r="BT2">
-        <v>1.047375722283953</v>
+        <v>1.048345886418464</v>
       </c>
       <c r="BU2">
-        <v>1.046158800561064</v>
+        <v>1.047756470680217</v>
       </c>
       <c r="BV2">
-        <v>1.043577126386407</v>
+        <v>1.046503092693633</v>
       </c>
       <c r="BW2">
-        <v>1.044141700429768</v>
+        <v>1.046752124488353</v>
       </c>
       <c r="BX2">
-        <v>1.044122159373624</v>
+        <v>1.046747647938045</v>
       </c>
       <c r="BY2">
-        <v>1.044545812666436</v>
+        <v>1.046985511680143</v>
       </c>
       <c r="BZ2">
-        <v>1.045470932494469</v>
+        <v>1.047453134641676</v>
       </c>
       <c r="CA2">
-        <v>1.048020594872922</v>
+        <v>1.048818094825663</v>
       </c>
       <c r="CB2">
-        <v>1.046155417166262</v>
+        <v>1.047749870181483</v>
       </c>
       <c r="CC2">
-        <v>1.043367840966086</v>
+        <v>1.046399626545435</v>
       </c>
       <c r="CD2">
-        <v>1.044545812666436</v>
+        <v>1.046985511680143</v>
       </c>
       <c r="CE2">
-        <v>1.045470932494466</v>
+        <v>1.047453134641673</v>
       </c>
       <c r="CF2">
-        <v>1.048020594872925</v>
+        <v>1.048818094825671</v>
       </c>
       <c r="CG2">
-        <v>1.046142667781167</v>
+        <v>1.047724998033386</v>
       </c>
       <c r="CH2">
-        <v>1.043322168125789</v>
+        <v>1.046377046855943</v>
       </c>
       <c r="CI2">
-        <v>1.044545812666436</v>
+        <v>1.046985511680143</v>
       </c>
       <c r="CJ2">
-        <v>1.045470932494461</v>
+        <v>1.047453134641669</v>
       </c>
       <c r="CK2">
-        <v>1.048020594872927</v>
+        <v>1.048818094825675</v>
       </c>
       <c r="CL2">
-        <v>1.043229550910691</v>
+        <v>1.046331258820597</v>
       </c>
       <c r="CM2">
-        <v>1.044545812666436</v>
+        <v>1.046985511680143</v>
       </c>
       <c r="CN2">
-        <v>1.04547093249446</v>
+        <v>1.047453134641668</v>
       </c>
       <c r="CO2">
-        <v>1.048020594872928</v>
+        <v>1.048818094825677</v>
       </c>
       <c r="CP2">
-        <v>1.043142208695754</v>
+        <v>1.046288078591403</v>
       </c>
       <c r="CQ2">
-        <v>1.04547093249446</v>
+        <v>1.047453134641668</v>
       </c>
       <c r="CR2">
-        <v>1.048020594872928</v>
+        <v>1.048818094825677</v>
       </c>
       <c r="CS2">
-        <v>1.043091442188414</v>
+        <v>1.046262980634245</v>
       </c>
       <c r="CT2">
-        <v>1.045470932494459</v>
+        <v>1.047453134641667</v>
       </c>
       <c r="CU2">
-        <v>1.048020594872928</v>
+        <v>1.048818094825678</v>
       </c>
       <c r="CV2">
-        <v>1.043057914723968</v>
+        <v>1.046246405310875</v>
       </c>
       <c r="CW2">
-        <v>1.045470932494459</v>
+        <v>1.047453134641667</v>
       </c>
       <c r="CX2">
-        <v>1.048020594872928</v>
+        <v>1.048818094825678</v>
       </c>
       <c r="CY2">
-        <v>1.04301162267715</v>
+        <v>1.046223519416829</v>
       </c>
       <c r="CZ2">
-        <v>1.045470932494449</v>
+        <v>1.047453134641677</v>
       </c>
       <c r="DA2">
-        <v>1.048020594872928</v>
+        <v>1.048818094825678</v>
       </c>
       <c r="DB2">
-        <v>1.043010595668651</v>
+        <v>1.046222897801378</v>
       </c>
       <c r="DC2">
-        <v>1.042987008158658</v>
+        <v>1.0462119923122</v>
       </c>
       <c r="DD2">
-        <v>1.045470932494448</v>
+        <v>1.047453134641677</v>
       </c>
       <c r="DE2">
-        <v>1.04300935313077</v>
+        <v>1.046222145732687</v>
       </c>
       <c r="DF2">
-        <v>1.042973050510401</v>
+        <v>1.046205455872787</v>
       </c>
       <c r="DG2">
-        <v>1.045470932494447</v>
+        <v>1.047453134641677</v>
       </c>
       <c r="DH2">
-        <v>1.043007912941754</v>
+        <v>1.04622127403179</v>
       </c>
       <c r="DI2">
-        <v>1.042422321457411</v>
+        <v>1.045947545719572</v>
       </c>
       <c r="DJ2">
-        <v>1.045470932494422</v>
+        <v>1.047453134641679</v>
       </c>
       <c r="DK2">
-        <v>1.043005717082817</v>
+        <v>1.046219944947245</v>
       </c>
       <c r="DL2">
-        <v>1.042367150667556</v>
+        <v>1.045921708770901</v>
       </c>
       <c r="DM2">
-        <v>1.045470932494401</v>
+        <v>1.047453134641681</v>
       </c>
       <c r="DN2">
-        <v>1.043002894012432</v>
+        <v>1.046218236230348</v>
       </c>
       <c r="DO2">
-        <v>1.042365520905424</v>
+        <v>1.04592006668065</v>
       </c>
       <c r="DP2">
-        <v>1.042218541639111</v>
+        <v>1.045860702630763</v>
       </c>
       <c r="DQ2">
-        <v>1.045470932494399</v>
+        <v>1.047453134641681</v>
       </c>
       <c r="DR2">
-        <v>1.04300086732027</v>
+        <v>1.046217009535827</v>
       </c>
       <c r="DS2">
-        <v>1.042365520905422</v>
+        <v>1.045920066680649</v>
       </c>
       <c r="DT2">
-        <v>1.042364727384569</v>
+        <v>1.045919267157316</v>
       </c>
       <c r="DU2">
-        <v>1.041950547520735</v>
+        <v>1.045750686309868</v>
       </c>
       <c r="DV2">
-        <v>1.045470932494397</v>
+        <v>1.047453134641681</v>
       </c>
       <c r="DW2">
-        <v>1.042998003622909</v>
+        <v>1.046215276226841</v>
       </c>
       <c r="DX2">
-        <v>1.042365520905421</v>
+        <v>1.045920066680649</v>
       </c>
       <c r="DY2">
-        <v>1.042360999693652</v>
+        <v>1.045915511268816</v>
       </c>
       <c r="DZ2">
-        <v>1.041830031905224</v>
+        <v>1.045701212148027</v>
       </c>
       <c r="EA2">
-        <v>1.045470932494396</v>
+        <v>1.047453134641681</v>
       </c>
       <c r="EB2">
-        <v>1.042994905313119</v>
+        <v>1.046213400912863</v>
       </c>
       <c r="EC2">
-        <v>1.04236552090542</v>
+        <v>1.045920066680649</v>
       </c>
       <c r="ED2">
-        <v>1.042348260845071</v>
+        <v>1.045895702168696</v>
       </c>
       <c r="EE2">
-        <v>1.042352437063596</v>
+        <v>1.045907895914241</v>
       </c>
       <c r="EF2">
-        <v>1.041794175344989</v>
+        <v>1.045686492241139</v>
       </c>
       <c r="EG2">
-        <v>1.045470932494392</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="EH2">
-        <v>1.042991983362267</v>
+        <v>1.046211632342499</v>
       </c>
       <c r="EI2">
-        <v>1.042365520905419</v>
+        <v>1.045920066680649</v>
       </c>
       <c r="EJ2">
-        <v>1.042347163781238</v>
+        <v>1.045893996217988</v>
       </c>
       <c r="EK2">
-        <v>1.04234606694736</v>
+        <v>1.045902230515156</v>
       </c>
       <c r="EL2">
-        <v>1.041753700464863</v>
+        <v>1.045669876387744</v>
       </c>
       <c r="EM2">
-        <v>1.045470932494388</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="EN2">
-        <v>1.042987179218538</v>
+        <v>1.046208724534048</v>
       </c>
       <c r="EO2">
-        <v>1.042365520905418</v>
+        <v>1.045920066680649</v>
       </c>
       <c r="EP2">
-        <v>1.042346087353216</v>
+        <v>1.045892322356271</v>
       </c>
       <c r="EQ2">
-        <v>1.042341801050362</v>
+        <v>1.045898436547181</v>
       </c>
       <c r="ER2">
-        <v>1.041715634658529</v>
+        <v>1.045654249489818</v>
       </c>
       <c r="ES2">
-        <v>1.045470932494388</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="ET2">
-        <v>1.042964336730386</v>
+        <v>1.046194898598761</v>
       </c>
       <c r="EU2">
-        <v>1.042365520905418</v>
+        <v>1.045920066680648</v>
       </c>
       <c r="EV2">
-        <v>1.042345218183185</v>
+        <v>1.045890970783834</v>
       </c>
       <c r="EW2">
-        <v>1.042338765649961</v>
+        <v>1.045896948876434</v>
       </c>
       <c r="EX2">
-        <v>1.042319065231054</v>
+        <v>1.045855715604359</v>
       </c>
       <c r="EY2">
-        <v>1.041671219227883</v>
+        <v>1.04563601589443</v>
       </c>
       <c r="EZ2">
-        <v>1.045470932494388</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="FA2">
-        <v>1.042959360649656</v>
+        <v>1.04619188670363</v>
       </c>
       <c r="FB2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="FC2">
-        <v>1.042343913628033</v>
+        <v>1.045888942180995</v>
       </c>
       <c r="FD2">
-        <v>1.04233071561229</v>
+        <v>1.045893003491078</v>
       </c>
       <c r="FE2">
-        <v>1.042317681383051</v>
+        <v>1.045853115333521</v>
       </c>
       <c r="FF2">
-        <v>1.041658438937702</v>
+        <v>1.045630769274164</v>
       </c>
       <c r="FG2">
-        <v>1.045470932494388</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="FH2">
-        <v>1.042932777974643</v>
+        <v>1.04613096633798</v>
       </c>
       <c r="FI2">
-        <v>1.042941467768336</v>
+        <v>1.04618261797782</v>
       </c>
       <c r="FJ2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="FK2">
-        <v>1.042342340841042</v>
+        <v>1.045886496473613</v>
       </c>
       <c r="FL2">
-        <v>1.042327919402718</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="FM2">
-        <v>1.042316417164612</v>
+        <v>1.045850739848416</v>
       </c>
       <c r="FN2">
-        <v>1.041585832225249</v>
+        <v>1.045600962401686</v>
       </c>
       <c r="FO2">
-        <v>1.045470932494388</v>
+        <v>1.04745313464168</v>
       </c>
       <c r="FP2">
-        <v>1.04292775605846</v>
+        <v>1.046119457453525</v>
       </c>
       <c r="FQ2">
-        <v>1.042917713334529</v>
+        <v>1.046170312829811</v>
       </c>
       <c r="FR2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="FS2">
-        <v>1.042341152633081</v>
+        <v>1.045884648792387</v>
       </c>
       <c r="FT2">
-        <v>1.042327919402709</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="FU2">
-        <v>1.042281745164411</v>
+        <v>1.045869002855239</v>
       </c>
       <c r="FV2">
-        <v>1.042315891990912</v>
+        <v>1.045849753039289</v>
       </c>
       <c r="FW2">
-        <v>1.041544823642233</v>
+        <v>1.045584127315004</v>
       </c>
       <c r="FX2">
-        <v>1.042917394833872</v>
+        <v>1.046095712308115</v>
       </c>
       <c r="FY2">
-        <v>1.042916738313587</v>
+        <v>1.046169187607409</v>
       </c>
       <c r="FZ2">
-        <v>1.042837561382731</v>
+        <v>1.046145218523099</v>
       </c>
       <c r="GA2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="GB2">
-        <v>1.042339777669638</v>
+        <v>1.045882510703573</v>
       </c>
       <c r="GC2">
-        <v>1.042327919402707</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="GD2">
-        <v>1.042276758303334</v>
+        <v>1.045866558773305</v>
       </c>
       <c r="GE2">
-        <v>1.042314759985209</v>
+        <v>1.045847625983885</v>
       </c>
       <c r="GF2">
-        <v>1.041514381900206</v>
+        <v>1.045571630173228</v>
       </c>
       <c r="GG2">
-        <v>1.042912901348827</v>
+        <v>1.046164759561138</v>
       </c>
       <c r="GH2">
-        <v>1.042505829831025</v>
+        <v>1.046041358545494</v>
       </c>
       <c r="GI2">
-        <v>1.042365520905418</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="GJ2">
-        <v>1.042338484849208</v>
+        <v>1.045880500348371</v>
       </c>
       <c r="GK2">
-        <v>1.042327919402708</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="GL2">
-        <v>1.042327919402707</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="GM2">
-        <v>1.042271934636459</v>
+        <v>1.045864194673515</v>
       </c>
       <c r="GN2">
-        <v>1.042311876780358</v>
+        <v>1.04584220839952</v>
       </c>
       <c r="GO2">
-        <v>1.041487013398974</v>
+        <v>1.045560394665634</v>
       </c>
       <c r="GP2">
-        <v>1.042906050649138</v>
+        <v>1.046156853519856</v>
       </c>
       <c r="GQ2">
-        <v>1.042468811524754</v>
+        <v>1.046030727591325</v>
       </c>
       <c r="GR2">
-        <v>1.042489752811699</v>
+        <v>1.046035770873232</v>
       </c>
       <c r="GS2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="GT2">
-        <v>1.042337093850472</v>
+        <v>1.045878337324419</v>
       </c>
       <c r="GU2">
-        <v>1.042327919402708</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="GV2">
-        <v>1.042327919402706</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="GW2">
-        <v>1.042268076186448</v>
+        <v>1.045862303630619</v>
       </c>
       <c r="GX2">
-        <v>1.042310185218623</v>
+        <v>1.045839029930149</v>
       </c>
       <c r="GY2">
-        <v>1.041453014009381</v>
+        <v>1.045546436982987</v>
       </c>
       <c r="GZ2">
-        <v>1.042893875134877</v>
+        <v>1.046144564721926</v>
       </c>
       <c r="HA2">
-        <v>1.042904973951379</v>
+        <v>1.046155510772944</v>
       </c>
       <c r="HB2">
-        <v>1.04237522013026</v>
+        <v>1.046003849914141</v>
       </c>
       <c r="HC2">
-        <v>1.042487480309147</v>
+        <v>1.046034981050215</v>
       </c>
       <c r="HD2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="HE2">
-        <v>1.042334967430904</v>
+        <v>1.045875030709998</v>
       </c>
       <c r="HF2">
-        <v>1.042327919402706</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="HG2">
-        <v>1.04226500262685</v>
+        <v>1.045860797265865</v>
       </c>
       <c r="HH2">
-        <v>1.042309000443099</v>
+        <v>1.045836803719536</v>
       </c>
       <c r="HI2">
-        <v>1.041390273960456</v>
+        <v>1.045520680422457</v>
       </c>
       <c r="HJ2">
-        <v>1.042854023059931</v>
+        <v>1.046104341854215</v>
       </c>
       <c r="HK2">
-        <v>1.042903030697811</v>
+        <v>1.046153087347077</v>
       </c>
       <c r="HL2">
-        <v>1.042485647600146</v>
+        <v>1.046034344080297</v>
       </c>
       <c r="HM2">
-        <v>1.042365520905417</v>
+        <v>1.045920066680647</v>
       </c>
       <c r="HN2">
-        <v>1.042329160407256</v>
+        <v>1.045866000700749</v>
       </c>
       <c r="HO2">
-        <v>1.042327919402706</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="HP2">
-        <v>1.042258504629704</v>
+        <v>1.045857612569524</v>
       </c>
       <c r="HQ2">
-        <v>1.042306721411829</v>
+        <v>1.045832521386342</v>
       </c>
       <c r="HR2">
-        <v>1.041335574760324</v>
+        <v>1.045498224806078</v>
       </c>
       <c r="HS2">
-        <v>1.042836843498503</v>
+        <v>1.046087002450113</v>
       </c>
       <c r="HT2">
-        <v>1.042902336848301</v>
+        <v>1.046152222049527</v>
       </c>
       <c r="HU2">
-        <v>1.042484182994431</v>
+        <v>1.046033835047065</v>
       </c>
       <c r="HV2">
-        <v>1.042328665281718</v>
+        <v>1.045865230773072</v>
       </c>
       <c r="HW2">
-        <v>1.042327919402704</v>
+        <v>1.045891633045171</v>
       </c>
       <c r="HX2">
-        <v>1.04225338730219</v>
+        <v>1.045855104545265</v>
       </c>
       <c r="HY2">
-        <v>1.042305587057987</v>
+        <v>1.045830389918845</v>
       </c>
       <c r="HZ2">
-        <v>1.041298365900759</v>
+        <v>1.045482949457172</v>
       </c>
       <c r="IA2">
-        <v>1.042824904170498</v>
+        <v>1.046055655724797</v>
       </c>
       <c r="IB2">
-        <v>1.042902336848301</v>
+        <v>1.046152222049527</v>
       </c>
       <c r="IC2">
-        <v>1.042481947259814</v>
+        <v>1.046033058002967</v>
       </c>
       <c r="ID2">
-        <v>1.042328436587872</v>
+        <v>1.045864875150692</v>
       </c>
       <c r="IE2">
-        <v>1.042327919402704</v>
+        <v>1.04589163304517</v>
       </c>
       <c r="IF2">
-        <v>1.042249837668861</v>
+        <v>1.045853364854657</v>
       </c>
       <c r="IG2">
-        <v>1.042304781596717</v>
+        <v>1.045828876445319</v>
       </c>
       <c r="IH2">
-        <v>1.041273922906541</v>
+        <v>1.045472914865511</v>
       </c>
       <c r="II2">
-        <v>1.042813659252904</v>
+        <v>1.046041632184232</v>
       </c>
       <c r="IJ2">
-        <v>1.042479326528402</v>
+        <v>1.046032147150723</v>
       </c>
       <c r="IK2">
-        <v>1.042328191972119</v>
+        <v>1.045864494769508</v>
       </c>
       <c r="IL2">
-        <v>1.042327919402704</v>
+        <v>1.04589163304517</v>
       </c>
       <c r="IM2">
-        <v>1.042246296491817</v>
+        <v>1.045851629308493</v>
       </c>
       <c r="IN2">
-        <v>1.042295567464095</v>
+        <v>1.045811562955575</v>
       </c>
       <c r="IO2">
-        <v>1.041221317528623</v>
+        <v>1.045451318727513</v>
       </c>
       <c r="IP2">
-        <v>1.042790945356934</v>
+        <v>1.046005172076447</v>
       </c>
       <c r="IQ2">
-        <v>1.04280185723008</v>
+        <v>1.046035047479802</v>
       </c>
       <c r="IR2">
-        <v>1.042475301240668</v>
+        <v>1.046030748135778</v>
       </c>
       <c r="IS2">
-        <v>1.042327958230996</v>
+        <v>1.045864131298536</v>
       </c>
       <c r="IT2">
-        <v>1.042327919402704</v>
+        <v>1.04589163304517</v>
       </c>
       <c r="IU2">
-        <v>1.042241115907813</v>
+        <v>1.045849090281865</v>
       </c>
       <c r="IV2">
-        <v>1.042292850367295</v>
+        <v>1.045806457491162</v>
       </c>
       <c r="IW2">
-        <v>1.04121144461146</v>
+        <v>1.045441485753938</v>
       </c>
       <c r="IX2">
-        <v>1.041186934826139</v>
+        <v>1.045437464324037</v>
       </c>
       <c r="IY2">
-        <v>1.042460571428669</v>
+        <v>1.046025628693595</v>
       </c>
       <c r="IZ2">
-        <v>1.042327697833369</v>
+        <v>1.045863726376298</v>
       </c>
       <c r="JA2">
-        <v>1.042327919402703</v>
+        <v>1.04589163304517</v>
       </c>
       <c r="JB2">
-        <v>1.042221631474455</v>
+        <v>1.045839540876462</v>
       </c>
       <c r="JC2">
-        <v>1.04229224247207</v>
+        <v>1.045805315247198</v>
       </c>
       <c r="JD2">
-        <v>1.04121007982963</v>
+        <v>1.045440126493707</v>
       </c>
       <c r="JE2">
-        <v>1.041058005268267</v>
+        <v>1.045385512391123</v>
       </c>
       <c r="JF2">
-        <v>1.042388881441406</v>
+        <v>1.046000712367223</v>
       </c>
       <c r="JG2">
-        <v>1.042327160336156</v>
+        <v>1.045862890560026</v>
       </c>
       <c r="JH2">
-        <v>1.042327919402703</v>
+        <v>1.045891633045169</v>
       </c>
       <c r="JI2">
-        <v>1.042217083789032</v>
+        <v>1.04583731203601</v>
       </c>
       <c r="JJ2">
-        <v>1.042287778514775</v>
+        <v>1.045804084808119</v>
       </c>
       <c r="JK2">
-        <v>1.042291869753374</v>
+        <v>1.04580436918205</v>
       </c>
       <c r="JL2">
-        <v>1.041209452389269</v>
+        <v>1.045439501591828</v>
       </c>
       <c r="JM2">
-        <v>1.041052487985478</v>
+        <v>1.045372192849357</v>
       </c>
       <c r="JN2">
-        <v>1.041015030649232</v>
+        <v>1.045368866394408</v>
       </c>
       <c r="JO2">
-        <v>1.04232660053626</v>
+        <v>1.045862020062742</v>
       </c>
       <c r="JP2">
-        <v>1.042327919402703</v>
+        <v>1.04589163304517</v>
       </c>
       <c r="JQ2">
-        <v>1.042215000375921</v>
+        <v>1.045836290946151</v>
       </c>
       <c r="JR2">
-        <v>1.042283354578034</v>
+        <v>1.045802865400228</v>
       </c>
       <c r="JS2">
-        <v>1.04229143276416</v>
+        <v>1.045803259980204</v>
       </c>
       <c r="JT2">
-        <v>1.041208707169928</v>
+        <v>1.045438759387475</v>
       </c>
       <c r="JU2">
-        <v>1.041052086939596</v>
+        <v>1.045371224664935</v>
       </c>
       <c r="JV2">
-        <v>1.040859248471848</v>
+        <v>1.045308524730868</v>
       </c>
       <c r="JW2">
-        <v>1.042324471816508</v>
+        <v>1.045858709871402</v>
       </c>
       <c r="JX2">
-        <v>1.042327919402703</v>
+        <v>1.045891633045169</v>
       </c>
       <c r="JY2">
-        <v>1.042213630689161</v>
+        <v>1.04583561965669</v>
       </c>
       <c r="JZ2">
-        <v>1.042291037847482</v>
+        <v>1.04580225757032</v>
       </c>
       <c r="KA2">
-        <v>1.041207557385698</v>
+        <v>1.045437614255012</v>
       </c>
       <c r="KB2">
-        <v>1.041051756385035</v>
+        <v>1.045370426657048</v>
       </c>
       <c r="KC2">
-        <v>1.040816934602131</v>
+        <v>1.045274469840246</v>
       </c>
       <c r="KD2">
-        <v>1.040835824962155</v>
+        <v>1.045304864470744</v>
       </c>
       <c r="KE2">
-        <v>1.042313170139793</v>
+        <v>1.045841135593204</v>
       </c>
       <c r="KF2">
-        <v>1.042327919402703</v>
+        <v>1.045891633045169</v>
       </c>
       <c r="KG2">
-        <v>1.042206793016458</v>
+        <v>1.045833617538984</v>
       </c>
       <c r="KH2">
-        <v>1.042213287228086</v>
+        <v>1.045835284929381</v>
       </c>
       <c r="KI2">
-        <v>1.042290637875837</v>
+        <v>1.045801242329511</v>
       </c>
       <c r="KJ2">
-        <v>1.041206532847074</v>
+        <v>1.045436593861439</v>
       </c>
       <c r="KK2">
-        <v>1.041051286857775</v>
+        <v>1.0453692931484</v>
       </c>
       <c r="KL2">
-        <v>1.040797458457303</v>
+        <v>1.045258795120072</v>
       </c>
       <c r="KM2">
-        <v>1.040737658267308</v>
+        <v>1.045289524461412</v>
       </c>
       <c r="KN2">
-        <v>1.042203652079329</v>
+        <v>1.045832697850921</v>
       </c>
       <c r="KO2">
-        <v>1.042213044148427</v>
+        <v>1.04583504803092</v>
       </c>
       <c r="KP2">
-        <v>1.042290207825453</v>
+        <v>1.045800150740383</v>
       </c>
       <c r="KQ2">
-        <v>1.041205736291511</v>
+        <v>1.045435800528559</v>
       </c>
       <c r="KR2">
-        <v>1.041049177953111</v>
+        <v>1.045364201938882</v>
       </c>
       <c r="KS2">
-        <v>1.040670227543026</v>
+        <v>1.045156397566202</v>
       </c>
       <c r="KT2">
-        <v>1.040715989122524</v>
+        <v>1.045286138323222</v>
       </c>
       <c r="KU2">
-        <v>1.042198336100964</v>
+        <v>1.045831141295751</v>
       </c>
       <c r="KV2">
-        <v>1.04221276127534</v>
+        <v>1.045834772350926</v>
       </c>
       <c r="KW2">
-        <v>1.042287713771952</v>
+        <v>1.04579382012948</v>
       </c>
       <c r="KX2">
-        <v>1.041204744779507</v>
+        <v>1.045434813027988</v>
       </c>
       <c r="KY2">
-        <v>1.041048771966604</v>
+        <v>1.045363221827082</v>
       </c>
       <c r="KZ2">
-        <v>1.040660724429102</v>
+        <v>1.045148749300031</v>
       </c>
       <c r="LA2">
-        <v>1.040708788912062</v>
+        <v>1.045285013178344</v>
       </c>
       <c r="LB2">
-        <v>1.042188132426267</v>
+        <v>1.045828153589254</v>
       </c>
       <c r="LC2">
-        <v>1.042212220229597</v>
+        <v>1.04583424506327</v>
       </c>
       <c r="LD2">
-        <v>1.042277164869545</v>
+        <v>1.045767044042743</v>
       </c>
       <c r="LE2">
-        <v>1.041203719267025</v>
+        <v>1.045433791664498</v>
       </c>
       <c r="LF2">
-        <v>1.041048471366976</v>
+        <v>1.045362496134879</v>
       </c>
       <c r="LG2">
-        <v>1.040657136375311</v>
+        <v>1.045144299964325</v>
       </c>
       <c r="LH2">
-        <v>1.040502981163251</v>
+        <v>1.045028886180583</v>
       </c>
       <c r="LI2">
-        <v>1.040705030909969</v>
+        <v>1.045284425931885</v>
       </c>
       <c r="LJ2">
-        <v>1.042158091092484</v>
+        <v>1.045819357278322</v>
       </c>
       <c r="LK2">
-        <v>1.04221014522509</v>
+        <v>1.045832222823418</v>
       </c>
       <c r="LL2">
-        <v>1.041202509619419</v>
+        <v>1.045432586910852</v>
       </c>
       <c r="LM2">
-        <v>1.041048125108793</v>
+        <v>1.045361660216141</v>
       </c>
       <c r="LN2">
-        <v>1.040638656817166</v>
+        <v>1.045121384545064</v>
       </c>
       <c r="LO2">
-        <v>1.040427280321107</v>
+        <v>1.04497136395041</v>
       </c>
       <c r="LP2">
-        <v>1.040701813943957</v>
+        <v>1.045283923230657</v>
       </c>
       <c r="LQ2">
-        <v>1.042203064022099</v>
+        <v>1.045825321686168</v>
       </c>
       <c r="LR2">
-        <v>1.041201820281287</v>
+        <v>1.045431900361627</v>
       </c>
       <c r="LS2">
-        <v>1.041047781625663</v>
+        <v>1.045360830996793</v>
       </c>
       <c r="LT2">
-        <v>1.040632205252564</v>
+        <v>1.045113384337233</v>
       </c>
       <c r="LU2">
-        <v>1.040320157144282</v>
+        <v>1.044934484642007</v>
       </c>
       <c r="LV2">
-        <v>1.040313334824977</v>
+        <v>1.04487151567568</v>
       </c>
       <c r="LW2">
-        <v>1.040698155222822</v>
+        <v>1.045283351498175</v>
       </c>
       <c r="LX2">
-        <v>1.041198706128922</v>
+        <v>1.04542879880842</v>
       </c>
       <c r="LY2">
-        <v>1.041044764088328</v>
+        <v>1.045353546213103</v>
       </c>
       <c r="LZ2">
-        <v>1.040618163840804</v>
+        <v>1.045095972404153</v>
       </c>
       <c r="MA2">
-        <v>1.040277731073154</v>
+        <v>1.044919878609585</v>
       </c>
       <c r="MB2">
-        <v>1.040274331121726</v>
+        <v>1.044819997022458</v>
       </c>
       <c r="MC2">
-        <v>1.040295458034314</v>
+        <v>1.044857110742687</v>
       </c>
       <c r="MD2">
-        <v>1.040695272781212</v>
+        <v>1.045282901071446</v>
       </c>
       <c r="ME2">
-        <v>1.041197494165496</v>
+        <v>1.045427591748325</v>
       </c>
       <c r="MF2">
-        <v>1.041038595837934</v>
+        <v>1.045338655140269</v>
       </c>
       <c r="MG2">
-        <v>1.040613378789048</v>
+        <v>1.045093292547561</v>
       </c>
       <c r="MH2">
-        <v>1.040614999696584</v>
+        <v>1.04509051778868</v>
       </c>
       <c r="MI2">
-        <v>1.040254721831716</v>
+        <v>1.044794095785519</v>
       </c>
       <c r="MJ2">
-        <v>1.040280142863683</v>
+        <v>1.044844769935924</v>
       </c>
       <c r="MK2">
-        <v>1.040692856158638</v>
+        <v>1.045282523436194</v>
       </c>
       <c r="ML2">
-        <v>1.041197073130544</v>
+        <v>1.045427172416785</v>
       </c>
       <c r="MM2">
-        <v>1.040606218908195</v>
+        <v>1.045089282673691</v>
       </c>
       <c r="MN2">
-        <v>1.040614559119528</v>
+        <v>1.045089758285243</v>
       </c>
       <c r="MO2">
-        <v>1.040252896994982</v>
+        <v>1.044791685421468</v>
       </c>
       <c r="MP2">
-        <v>1.040269370069657</v>
+        <v>1.044836089329066</v>
       </c>
       <c r="MQ2">
-        <v>1.040690675600957</v>
+        <v>1.045282182689746</v>
       </c>
       <c r="MR2">
-        <v>1.041196755936723</v>
+        <v>1.04542685650626</v>
       </c>
       <c r="MS2">
-        <v>1.040614080621869</v>
+        <v>1.045088933411114</v>
       </c>
       <c r="MT2">
-        <v>1.040252143360169</v>
+        <v>1.044790689971177</v>
       </c>
       <c r="MU2">
-        <v>1.040255758420876</v>
+        <v>1.044825121201733</v>
       </c>
       <c r="MV2">
-        <v>1.040688870894653</v>
+        <v>1.04528190067596</v>
       </c>
       <c r="MW2">
-        <v>1.041196523863227</v>
+        <v>1.045426625371681</v>
       </c>
       <c r="MX2">
-        <v>1.040613661492291</v>
+        <v>1.045088210880628</v>
       </c>
       <c r="MY2">
-        <v>1.040251611592689</v>
+        <v>1.044789987577811</v>
       </c>
       <c r="MZ2">
-        <v>1.040247229474895</v>
+        <v>1.044818248664059</v>
       </c>
       <c r="NA2">
-        <v>1.040686777328794</v>
+        <v>1.045281573523282</v>
       </c>
       <c r="NB2">
-        <v>1.041196406014992</v>
+        <v>1.045426508000234</v>
       </c>
       <c r="NC2">
-        <v>1.040613216167111</v>
+        <v>1.045087443191983</v>
       </c>
       <c r="ND2">
-        <v>1.040251067677186</v>
+        <v>1.044789269138542</v>
       </c>
       <c r="NE2">
-        <v>1.040234132362053</v>
+        <v>1.044807695143741</v>
       </c>
       <c r="NF2">
-        <v>1.040684476353942</v>
+        <v>1.045281213959635</v>
       </c>
       <c r="NG2">
-        <v>1.041196232753069</v>
+        <v>1.045426335439289</v>
       </c>
       <c r="NH2">
-        <v>1.040612580592764</v>
+        <v>1.045086347535978</v>
       </c>
       <c r="NI2">
-        <v>1.040250425895742</v>
+        <v>1.04478842143152</v>
       </c>
       <c r="NJ2">
-        <v>1.040221076077688</v>
+        <v>1.044797174522131</v>
       </c>
       <c r="NK2">
-        <v>1.040671932257619</v>
+        <v>1.045279253745732</v>
       </c>
       <c r="NL2">
-        <v>1.041195942309501</v>
+        <v>1.045426046170788</v>
       </c>
       <c r="NM2">
-        <v>1.040611807935632</v>
+        <v>1.04508501556525</v>
       </c>
       <c r="NN2">
-        <v>1.040249616334278</v>
+        <v>1.044787352109646</v>
       </c>
       <c r="NO2">
-        <v>1.040206426521356</v>
+        <v>1.044785370057565</v>
       </c>
       <c r="NP2">
-        <v>1.040582634822208</v>
+        <v>1.04521067300286</v>
       </c>
       <c r="NQ2">
-        <v>1.040663522767601</v>
+        <v>1.045365766445719</v>
       </c>
       <c r="NR2">
-        <v>1.041194646805677</v>
+        <v>1.045424755908276</v>
       </c>
       <c r="NS2">
-        <v>1.040607018759912</v>
+        <v>1.045076759585276</v>
       </c>
       <c r="NT2">
-        <v>1.0402488912932</v>
+        <v>1.044786394427842</v>
       </c>
       <c r="NU2">
-        <v>1.040195825587624</v>
+        <v>1.044776827931844</v>
       </c>
       <c r="NV2">
-        <v>1.040497108630999</v>
+        <v>1.045144988497964</v>
       </c>
       <c r="NW2">
-        <v>1.04061188737495</v>
+        <v>1.045896966996056</v>
       </c>
       <c r="NX2">
-        <v>1.040663522767608</v>
+        <v>1.045365766445721</v>
       </c>
       <c r="NY2">
-        <v>1.041189884570147</v>
+        <v>1.04542001293966</v>
       </c>
       <c r="NZ2">
-        <v>1.040590631490238</v>
+        <v>1.045048509846064</v>
       </c>
       <c r="OA2">
-        <v>1.040248317586446</v>
+        <v>1.044785636638339</v>
       </c>
       <c r="OB2">
-        <v>1.040183190248668</v>
+        <v>1.044766646502467</v>
       </c>
       <c r="OC2">
-        <v>1.040493301257011</v>
+        <v>1.045142064415312</v>
       </c>
       <c r="OD2">
-        <v>1.040593015926599</v>
+        <v>1.046091107983631</v>
       </c>
       <c r="OE2">
-        <v>1.040663522767647</v>
+        <v>1.045365766445733</v>
       </c>
       <c r="OF2">
-        <v>1.040247332967649</v>
+        <v>1.044784336089264</v>
       </c>
       <c r="OG2">
-        <v>1.040164856568529</v>
+        <v>1.044751873406156</v>
       </c>
       <c r="OH2">
-        <v>1.040399640670787</v>
+        <v>1.045118147058619</v>
       </c>
       <c r="OI2">
-        <v>1.040439350657277</v>
+        <v>1.045092517157388</v>
       </c>
       <c r="OJ2">
-        <v>1.040591095060575</v>
+        <v>1.046110869003838</v>
       </c>
       <c r="OK2">
-        <v>1.04066352276765</v>
+        <v>1.045365766445734</v>
       </c>
       <c r="OL2">
-        <v>1.040243895769652</v>
+        <v>1.044779796012772</v>
       </c>
       <c r="OM2">
-        <v>1.040151264385018</v>
+        <v>1.044740920959873</v>
       </c>
       <c r="ON2">
-        <v>1.040391058944876</v>
+        <v>1.045115955611267</v>
       </c>
       <c r="OO2">
-        <v>1.040413322591083</v>
+        <v>1.045068613445368</v>
       </c>
       <c r="OP2">
-        <v>1.040589754547397</v>
+        <v>1.046124659612031</v>
       </c>
       <c r="OQ2">
-        <v>1.040663522767651</v>
+        <v>1.045365766445734</v>
       </c>
       <c r="OR2">
-        <v>1.040222882013905</v>
+        <v>1.044752039666902</v>
       </c>
       <c r="OS2">
-        <v>1.040138152542426</v>
+        <v>1.044730355567049</v>
       </c>
       <c r="OT2">
-        <v>1.040386180411039</v>
+        <v>1.045114709818699</v>
       </c>
       <c r="OU2">
-        <v>1.040334800165468</v>
+        <v>1.044996499828183</v>
       </c>
       <c r="OV2">
-        <v>1.040413322591077</v>
+        <v>1.045068613445363</v>
       </c>
       <c r="OW2">
-        <v>1.040588365894858</v>
+        <v>1.046138945457979</v>
       </c>
       <c r="OX2">
-        <v>1.040663522767651</v>
+        <v>1.045365766445735</v>
       </c>
       <c r="OY2">
-        <v>1.040125320002016</v>
+        <v>1.044720015232701</v>
       </c>
       <c r="OZ2">
-        <v>1.040382867769419</v>
+        <v>1.045113863895617</v>
       </c>
       <c r="PA2">
-        <v>1.040222965284971</v>
+        <v>1.044893792582184</v>
       </c>
       <c r="PB2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445362</v>
       </c>
       <c r="PC2">
-        <v>1.040582534364692</v>
+        <v>1.046198937686578</v>
       </c>
       <c r="PD2">
-        <v>1.040663522767653</v>
+        <v>1.045365766445735</v>
       </c>
       <c r="PE2">
-        <v>1.040109886936936</v>
+        <v>1.044707579420659</v>
       </c>
       <c r="PF2">
-        <v>1.040377469040438</v>
+        <v>1.045112485264884</v>
       </c>
       <c r="PG2">
-        <v>1.040199562605923</v>
+        <v>1.044872299952879</v>
       </c>
       <c r="PH2">
-        <v>1.040413322591075</v>
+        <v>1.045068613445361</v>
       </c>
       <c r="PI2">
-        <v>1.040581110441845</v>
+        <v>1.046213586384626</v>
       </c>
       <c r="PJ2">
-        <v>1.040663522767669</v>
+        <v>1.045365766445742</v>
       </c>
       <c r="PK2">
-        <v>1.04008403939562</v>
+        <v>1.044686751724653</v>
       </c>
       <c r="PL2">
-        <v>1.040109886936936</v>
+        <v>1.044707579420659</v>
       </c>
       <c r="PM2">
-        <v>1.040359523336417</v>
+        <v>1.045107902612116</v>
       </c>
       <c r="PN2">
-        <v>1.040193581155892</v>
+        <v>1.044866806688685</v>
       </c>
       <c r="PO2">
-        <v>1.040413322591074</v>
+        <v>1.04506861344536</v>
       </c>
       <c r="PP2">
-        <v>1.040579752174394</v>
+        <v>1.046227559649776</v>
       </c>
       <c r="PQ2">
-        <v>1.040663522767676</v>
+        <v>1.045365766445744</v>
       </c>
       <c r="PR2">
-        <v>1.039996857584161</v>
+        <v>1.044616501460196</v>
       </c>
       <c r="PS2">
-        <v>1.04008403939562</v>
+        <v>1.044686751724653</v>
       </c>
       <c r="PT2">
-        <v>1.040339544144009</v>
+        <v>1.045102800683066</v>
       </c>
       <c r="PU2">
-        <v>1.040190447561157</v>
+        <v>1.04486392884734</v>
       </c>
       <c r="PV2">
-        <v>1.040413322591073</v>
+        <v>1.04506861344536</v>
       </c>
       <c r="PW2">
-        <v>1.040578401294658</v>
+        <v>1.046241456914527</v>
       </c>
       <c r="PX2">
-        <v>1.040663522767678</v>
+        <v>1.045365766445745</v>
       </c>
       <c r="PY2">
-        <v>1.039873547981202</v>
+        <v>1.044517139733785</v>
       </c>
       <c r="PZ2">
-        <v>1.039996857584161</v>
+        <v>1.044616501460196</v>
       </c>
       <c r="QA2">
-        <v>1.0403283079256</v>
+        <v>1.045099931378257</v>
       </c>
       <c r="QB2">
-        <v>1.040187849848268</v>
+        <v>1.044861543150941</v>
       </c>
       <c r="QC2">
-        <v>1.040413322591073</v>
+        <v>1.045068613445359</v>
       </c>
       <c r="QD2">
-        <v>1.040576851661502</v>
+        <v>1.046257398869719</v>
       </c>
       <c r="QE2">
-        <v>1.040663522767681</v>
+        <v>1.045365766445747</v>
       </c>
       <c r="QF2">
-        <v>1.039785066327526</v>
+        <v>1.044445842018113</v>
       </c>
       <c r="QG2">
-        <v>1.039873547981202</v>
+        <v>1.044517139733785</v>
       </c>
       <c r="QH2">
-        <v>1.040317752690467</v>
+        <v>1.045097235970673</v>
       </c>
       <c r="QI2">
-        <v>1.040185744546819</v>
+        <v>1.04485960967701</v>
       </c>
       <c r="QJ2">
-        <v>1.040413322591073</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="QK2">
-        <v>1.040571500094876</v>
+        <v>1.046312453482865</v>
       </c>
       <c r="QL2">
-        <v>1.040663522767684</v>
+        <v>1.045365766445749</v>
       </c>
       <c r="QM2">
-        <v>1.039758221022739</v>
+        <v>1.044424210310279</v>
       </c>
       <c r="QN2">
-        <v>1.039785066327526</v>
+        <v>1.044445842018113</v>
       </c>
       <c r="QO2">
-        <v>1.040307682125592</v>
+        <v>1.045094664329419</v>
       </c>
       <c r="QP2">
-        <v>1.040182526449084</v>
+        <v>1.044856654229382</v>
       </c>
       <c r="QQ2">
-        <v>1.040413322591073</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="QR2">
-        <v>1.040545420862561</v>
+        <v>1.046580745662083</v>
       </c>
       <c r="QS2">
-        <v>1.040663522767687</v>
+        <v>1.04536576644575</v>
       </c>
       <c r="QT2">
-        <v>1.039685490785099</v>
+        <v>1.044366931103472</v>
       </c>
       <c r="QU2">
-        <v>1.039758221022739</v>
+        <v>1.044424210310279</v>
       </c>
       <c r="QV2">
-        <v>1.039747068663272</v>
+        <v>1.044413021872023</v>
       </c>
       <c r="QW2">
-        <v>1.040291147761623</v>
+        <v>1.045090442078196</v>
       </c>
       <c r="QX2">
-        <v>1.040179625383514</v>
+        <v>1.044853989938795</v>
       </c>
       <c r="QY2">
-        <v>1.040413322591073</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="QZ2">
-        <v>1.04066352276769</v>
+        <v>1.045365766445752</v>
       </c>
       <c r="RA2">
-        <v>1.039604684107875</v>
+        <v>1.044303291221492</v>
       </c>
       <c r="RB2">
-        <v>1.039685490785099</v>
+        <v>1.044366931103472</v>
       </c>
       <c r="RC2">
-        <v>1.039685490785099</v>
+        <v>1.044366931103472</v>
       </c>
       <c r="RD2">
-        <v>1.039745439999454</v>
+        <v>1.044411387939344</v>
       </c>
       <c r="RE2">
-        <v>1.04027963126362</v>
+        <v>1.04508750119999</v>
       </c>
       <c r="RF2">
-        <v>1.040176864284672</v>
+        <v>1.044851454191293</v>
       </c>
       <c r="RG2">
-        <v>1.040413322591073</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="RH2">
-        <v>1.040663522767705</v>
+        <v>1.04536576644576</v>
       </c>
       <c r="RI2">
-        <v>1.039575072588333</v>
+        <v>1.044279970450573</v>
       </c>
       <c r="RJ2">
-        <v>1.039604684107875</v>
+        <v>1.044303291221492</v>
       </c>
       <c r="RK2">
-        <v>1.039744551931674</v>
+        <v>1.044410496998593</v>
       </c>
       <c r="RL2">
-        <v>1.040271539518968</v>
+        <v>1.045085434874231</v>
       </c>
       <c r="RM2">
-        <v>1.040173753739518</v>
+        <v>1.044848597518031</v>
       </c>
       <c r="RN2">
-        <v>1.040413322591074</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="RO2">
-        <v>1.040663522767705</v>
+        <v>1.04536576644576</v>
       </c>
       <c r="RP2">
-        <v>1.03951905724116</v>
+        <v>1.044237366582359</v>
       </c>
       <c r="RQ2">
-        <v>1.039575072588333</v>
+        <v>1.044279970450573</v>
       </c>
       <c r="RR2">
-        <v>1.039539265308779</v>
+        <v>1.044243605957926</v>
       </c>
       <c r="RS2">
-        <v>1.039743950335413</v>
+        <v>1.044409893456118</v>
       </c>
       <c r="RT2">
-        <v>1.040267673235161</v>
+        <v>1.045084447571448</v>
       </c>
       <c r="RU2">
-        <v>1.04017046800314</v>
+        <v>1.044845579951991</v>
       </c>
       <c r="RV2">
-        <v>1.040413322591074</v>
+        <v>1.045068613445359</v>
       </c>
       <c r="RW2">
-        <v>1.040663522767705</v>
+        <v>1.04536576644576</v>
       </c>
       <c r="RX2">
-        <v>1.039438774085771</v>
+        <v>1.044176305210235</v>
       </c>
       <c r="RY2">
-        <v>1.03951905724116</v>
+        <v>1.044237366582359</v>
       </c>
       <c r="RZ2">
-        <v>1.039539064569502</v>
+        <v>1.044243406122827</v>
       </c>
       <c r="SA2">
-        <v>1.03952648986655</v>
+        <v>1.044230603328199</v>
       </c>
       <c r="SB2">
-        <v>1.039743036549324</v>
+        <v>1.044408976713857</v>
       </c>
       <c r="SC2">
-        <v>1.040265224050413</v>
+        <v>1.045083822142205</v>
       </c>
       <c r="SD2">
-        <v>1.040163283829276</v>
+        <v>1.044838982125133</v>
       </c>
       <c r="SE2">
-        <v>1.040413322591075</v>
+        <v>1.045068613445359</v>
       </c>
       <c r="SF2">
-        <v>1.040663522767706</v>
+        <v>1.04536576644576</v>
       </c>
       <c r="SG2">
-        <v>1.039389780003614</v>
+        <v>1.04413904151916</v>
       </c>
       <c r="SH2">
-        <v>1.039438774085771</v>
+        <v>1.044176305210235</v>
       </c>
       <c r="SI2">
-        <v>1.039538979721768</v>
+        <v>1.044243321657268</v>
       </c>
       <c r="SJ2">
-        <v>1.039518315039131</v>
+        <v>1.044222283126674</v>
       </c>
       <c r="SK2">
-        <v>1.039741649788742</v>
+        <v>1.044407585466991</v>
       </c>
       <c r="SL2">
-        <v>1.040263568099813</v>
+        <v>1.045083399274989</v>
       </c>
       <c r="SM2">
-        <v>1.040000345032832</v>
+        <v>1.044689341748488</v>
       </c>
       <c r="SN2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445359</v>
       </c>
       <c r="SO2">
-        <v>1.040663522767706</v>
+        <v>1.04536576644576</v>
       </c>
       <c r="SP2">
-        <v>1.039381342725783</v>
+        <v>1.044132624332859</v>
       </c>
       <c r="SQ2">
-        <v>1.039389780003614</v>
+        <v>1.04413904151916</v>
       </c>
       <c r="SR2">
-        <v>1.039538929866905</v>
+        <v>1.044243272026963</v>
       </c>
       <c r="SS2">
-        <v>1.039740665927924</v>
+        <v>1.044406598423303</v>
       </c>
       <c r="ST2">
-        <v>1.040261258249094</v>
+        <v>1.045082809426383</v>
       </c>
       <c r="SU2">
-        <v>1.039999136056945</v>
+        <v>1.044677508290056</v>
       </c>
       <c r="SV2">
-        <v>1.03997536487904</v>
+        <v>1.044667014160372</v>
       </c>
       <c r="SW2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445359</v>
       </c>
       <c r="SX2">
-        <v>1.039369991188412</v>
+        <v>1.044124157346753</v>
       </c>
       <c r="SY2">
-        <v>1.039381342725783</v>
+        <v>1.044132624332859</v>
       </c>
       <c r="SZ2">
-        <v>1.039312052045092</v>
+        <v>1.044079093530852</v>
       </c>
       <c r="TA2">
-        <v>1.039538883985427</v>
+        <v>1.044243226352147</v>
       </c>
       <c r="TB2">
-        <v>1.039739993742537</v>
+        <v>1.044405924063341</v>
       </c>
       <c r="TC2">
-        <v>1.040259495352878</v>
+        <v>1.045082359249288</v>
       </c>
       <c r="TD2">
-        <v>1.039998069903968</v>
+        <v>1.044667072783137</v>
       </c>
       <c r="TE2">
-        <v>1.039961888803049</v>
+        <v>1.044654969065741</v>
       </c>
       <c r="TF2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="TG2">
-        <v>1.039361635105999</v>
+        <v>1.044117924636963</v>
       </c>
       <c r="TH2">
-        <v>1.039369991188412</v>
+        <v>1.044124157346753</v>
       </c>
       <c r="TI2">
-        <v>1.039271106763375</v>
+        <v>1.044047461091923</v>
       </c>
       <c r="TJ2">
-        <v>1.039538843108887</v>
+        <v>1.044243185659724</v>
       </c>
       <c r="TK2">
-        <v>1.039739462584171</v>
+        <v>1.044405391186634</v>
       </c>
       <c r="TL2">
-        <v>1.040246914936344</v>
+        <v>1.045079146686077</v>
       </c>
       <c r="TM2">
-        <v>1.039959876230499</v>
+        <v>1.044653170201724</v>
       </c>
       <c r="TN2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="TO2">
-        <v>1.039350258291488</v>
+        <v>1.044109438795859</v>
       </c>
       <c r="TP2">
-        <v>1.039361635105999</v>
+        <v>1.044117924636963</v>
       </c>
       <c r="TQ2">
-        <v>1.039238663929664</v>
+        <v>1.044022397256883</v>
       </c>
       <c r="TR2">
-        <v>1.039538800704121</v>
+        <v>1.044243143445959</v>
       </c>
       <c r="TS2">
-        <v>1.039737759549162</v>
+        <v>1.044403682642168</v>
       </c>
       <c r="TT2">
-        <v>1.040244771802448</v>
+        <v>1.045073297256012</v>
       </c>
       <c r="TU2">
-        <v>1.040124331166655</v>
+        <v>1.045063241361528</v>
       </c>
       <c r="TV2">
-        <v>1.039958339960165</v>
+        <v>1.044651797062922</v>
       </c>
       <c r="TW2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="TX2">
-        <v>1.039342207416262</v>
+        <v>1.044103433736003</v>
       </c>
       <c r="TY2">
-        <v>1.039350258291488</v>
+        <v>1.044109438795859</v>
       </c>
       <c r="TZ2">
-        <v>1.039225258307821</v>
+        <v>1.044012040693618</v>
       </c>
       <c r="UA2">
-        <v>1.039538672690976</v>
+        <v>1.044243016009417</v>
       </c>
       <c r="UB2">
-        <v>1.039723984529351</v>
+        <v>1.044389863059032</v>
       </c>
       <c r="UC2">
-        <v>1.040242405293086</v>
+        <v>1.045066838149218</v>
       </c>
       <c r="UD2">
-        <v>1.039956903150672</v>
+        <v>1.044650512823526</v>
       </c>
       <c r="UE2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="UF2">
-        <v>1.039319692786735</v>
+        <v>1.044086640318242</v>
       </c>
       <c r="UG2">
-        <v>1.039342207416262</v>
+        <v>1.044103433736003</v>
       </c>
       <c r="UH2">
-        <v>1.039223727481444</v>
+        <v>1.044010892897861</v>
       </c>
       <c r="UI2">
-        <v>1.039189908464415</v>
+        <v>1.043984272614953</v>
       </c>
       <c r="UJ2">
-        <v>1.039538543684484</v>
+        <v>1.044242887584002</v>
       </c>
       <c r="UK2">
-        <v>1.039723298546873</v>
+        <v>1.044389174857343</v>
       </c>
       <c r="UL2">
-        <v>1.04023599071631</v>
+        <v>1.045049330322988</v>
       </c>
       <c r="UM2">
-        <v>1.039955370972613</v>
+        <v>1.044649143342424</v>
       </c>
       <c r="UN2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="UO2">
-        <v>1.039303389990273</v>
+        <v>1.04407448023784</v>
       </c>
       <c r="UP2">
-        <v>1.039319692786735</v>
+        <v>1.044086640318242</v>
       </c>
       <c r="UQ2">
-        <v>1.039223164183665</v>
+        <v>1.04401047054376</v>
       </c>
       <c r="UR2">
-        <v>1.039163166117369</v>
+        <v>1.043963265918738</v>
       </c>
       <c r="US2">
-        <v>1.039537338297199</v>
+        <v>1.044241687626074</v>
       </c>
       <c r="UT2">
-        <v>1.039722757282751</v>
+        <v>1.044388631842187</v>
       </c>
       <c r="UU2">
-        <v>1.039954015182031</v>
+        <v>1.04464793151878</v>
       </c>
       <c r="UV2">
-        <v>1.040413322591076</v>
+        <v>1.045068613445358</v>
       </c>
       <c r="UW2">
-        <v>1.039301554195713</v>
+        <v>1.04407286984788</v>
       </c>
       <c r="UX2">
-        <v>1.039303389990273</v>
+        <v>1.04407448023784</v>
       </c>
       <c r="UY2">
-        <v>1.039275425936045</v>
+        <v>1.044057409369225</v>
       </c>
       <c r="UZ2">
-        <v>1.039222325109684</v>
+        <v>1.04400984141588</v>
       </c>
       <c r="VA2">
-        <v>1.039722145368963</v>
+        <v>1.044388017948806</v>
       </c>
       <c r="VB2">
-        <v>1.039952628449024</v>
+        <v>1.044646692038372</v>
       </c>
       <c r="VC2">
-        <v>1.03930111951328</v>
+        <v>1.044072488537115</v>
       </c>
       <c r="VD2">
-        <v>1.039301554195713</v>
+        <v>1.04407286984788</v>
       </c>
       <c r="VE2">
-        <v>1.039271890789117</v>
+        <v>1.044055251311944</v>
       </c>
       <c r="VF2">
-        <v>1.039221820219699</v>
+        <v>1.044009462855261</v>
       </c>
       <c r="VG2">
-        <v>1.03972160074632</v>
+        <v>1.044387471564263</v>
       </c>
       <c r="VH2">
-        <v>1.039945471124738</v>
+        <v>1.044640294726521</v>
       </c>
       <c r="VI2">
-        <v>1.039289335442962</v>
+        <v>1.044062151351625</v>
       </c>
       <c r="VJ2">
-        <v>1.03930111951328</v>
+        <v>1.044072488537115</v>
       </c>
       <c r="VK2">
-        <v>1.039301119513285</v>
+        <v>1.044072488537116</v>
       </c>
       <c r="VL2">
-        <v>1.039269282085186</v>
+        <v>1.044053658808814</v>
       </c>
       <c r="VM2">
-        <v>1.039221211003529</v>
+        <v>1.044009006072085</v>
       </c>
       <c r="VN2">
-        <v>1.039720973885677</v>
+        <v>1.044386842675674</v>
       </c>
       <c r="VO2">
-        <v>1.039935735706</v>
+        <v>1.044630382581883</v>
       </c>
       <c r="VP2">
-        <v>1.039930437979196</v>
+        <v>1.044626908260406</v>
       </c>
       <c r="VQ2">
-        <v>1.039281076999109</v>
+        <v>1.044054906904985</v>
       </c>
       <c r="VR2">
-        <v>1.039289335442962</v>
+        <v>1.044062151351625</v>
       </c>
       <c r="VS2">
-        <v>1.039301119513286</v>
+        <v>1.044072488537117</v>
       </c>
       <c r="VT2">
-        <v>1.039266743796279</v>
+        <v>1.044052109291061</v>
       </c>
       <c r="VU2">
-        <v>1.039220676085882</v>
+        <v>1.044008604997075</v>
       </c>
       <c r="VV2">
-        <v>1.039720331140219</v>
+        <v>1.04438619785088</v>
       </c>
       <c r="VW2">
-        <v>1.039935174681906</v>
+        <v>1.044629811373585</v>
       </c>
       <c r="VX2">
-        <v>1.039858599353181</v>
+        <v>1.044562938571296</v>
       </c>
       <c r="VY2">
-        <v>1.03927633339595</v>
+        <v>1.044048126082717</v>
       </c>
       <c r="VZ2">
-        <v>1.039279676577943</v>
+        <v>1.044053989246537</v>
       </c>
       <c r="WA2">
-        <v>1.039301119513287</v>
+        <v>1.044072488537117</v>
       </c>
       <c r="WB2">
-        <v>1.039242900014841</v>
+        <v>1.044037553673058</v>
       </c>
       <c r="WC2">
-        <v>1.039217175763594</v>
+        <v>1.044005980496268</v>
       </c>
       <c r="WD2">
-        <v>1.039719558562722</v>
+        <v>1.044385422774031</v>
       </c>
       <c r="WE2">
-        <v>1.039934892914814</v>
+        <v>1.044629524491609</v>
       </c>
       <c r="WF2">
-        <v>1.039837726524472</v>
+        <v>1.044542159736228</v>
       </c>
       <c r="WG2">
-        <v>1.039776650655618</v>
+        <v>1.044490230722547</v>
       </c>
       <c r="WH2">
-        <v>1.039272103124463</v>
+        <v>1.044042079051209</v>
       </c>
       <c r="WI2">
-        <v>1.03927633339595</v>
+        <v>1.044048126082717</v>
       </c>
       <c r="WJ2">
-        <v>1.03927633339595</v>
+        <v>1.044048126082717</v>
       </c>
       <c r="WK2">
-        <v>1.03921732567558</v>
+        <v>1.04401313253607</v>
       </c>
       <c r="WL2">
-        <v>1.039279676577943</v>
+        <v>1.044053989246537</v>
       </c>
       <c r="WM2">
-        <v>1.039301119513288</v>
+        <v>1.044072488537117</v>
       </c>
       <c r="WN2">
-        <v>1.039231802905876</v>
+        <v>1.044030779358099</v>
       </c>
       <c r="WO2">
-        <v>1.039191366851613</v>
+        <v>1.043986629275296</v>
       </c>
       <c r="WP2">
-        <v>1.039719074211655</v>
+        <v>1.044384936856047</v>
       </c>
       <c r="WQ2">
-        <v>1.03993465663783</v>
+        <v>1.044629283925516</v>
       </c>
       <c r="WR2">
-        <v>1.039826711873072</v>
+        <v>1.044531194685533</v>
       </c>
       <c r="WS2">
-        <v>1.03969815861141</v>
+        <v>1.044420589698518</v>
       </c>
       <c r="WT2">
-        <v>1.039262874474371</v>
+        <v>1.044028886990892</v>
       </c>
       <c r="WU2">
-        <v>1.039272103124463</v>
+        <v>1.044042079051209</v>
       </c>
       <c r="WV2">
-        <v>1.039272103124463</v>
+        <v>1.044042079051209</v>
       </c>
       <c r="WW2">
-        <v>1.039202650161404</v>
+        <v>1.04400351610301</v>
       </c>
       <c r="WX2">
-        <v>1.039301119513289</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="WY2">
-        <v>1.039226594582356</v>
+        <v>1.044027599897154</v>
       </c>
       <c r="WZ2">
-        <v>1.039716992633636</v>
+        <v>1.044382848543949</v>
       </c>
       <c r="XA2">
-        <v>1.039934463962216</v>
+        <v>1.044629087752285</v>
       </c>
       <c r="XB2">
-        <v>1.039695779958742</v>
+        <v>1.044412136271824</v>
       </c>
       <c r="XC2">
-        <v>1.039676508510002</v>
+        <v>1.044402539348894</v>
       </c>
       <c r="XD2">
-        <v>1.03925030293075</v>
+        <v>1.044010916371493</v>
       </c>
       <c r="XE2">
-        <v>1.039301119513289</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="XF2">
-        <v>1.039223120550192</v>
+        <v>1.044025479147617</v>
       </c>
       <c r="XG2">
-        <v>1.039708216947857</v>
+        <v>1.04437404446809</v>
       </c>
       <c r="XH2">
-        <v>1.039934161517795</v>
+        <v>1.044628779817627</v>
       </c>
       <c r="XI2">
-        <v>1.039695196706478</v>
+        <v>1.04441006346808</v>
       </c>
       <c r="XJ2">
-        <v>1.039671527484793</v>
+        <v>1.044398386515688</v>
       </c>
       <c r="XK2">
-        <v>1.039246615556752</v>
+        <v>1.044005645388415</v>
       </c>
       <c r="XL2">
-        <v>1.03930111951329</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="XM2">
-        <v>1.039217809401978</v>
+        <v>1.044022236916487</v>
       </c>
       <c r="XN2">
-        <v>1.039933440321588</v>
+        <v>1.04462804552963</v>
       </c>
       <c r="XO2">
-        <v>1.039694796203286</v>
+        <v>1.044408640131112</v>
       </c>
       <c r="XP2">
-        <v>1.039669055661917</v>
+        <v>1.044396325681197</v>
       </c>
       <c r="XQ2">
-        <v>1.039234411036472</v>
+        <v>1.04398819941766</v>
       </c>
       <c r="XR2">
-        <v>1.03930111951329</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="XS2">
-        <v>1.039207436792627</v>
+        <v>1.044015904877508</v>
       </c>
       <c r="XT2">
-        <v>1.0399329413706</v>
+        <v>1.044627537521244</v>
       </c>
       <c r="XU2">
-        <v>1.039694241019162</v>
+        <v>1.044406667077963</v>
       </c>
       <c r="XV2">
-        <v>1.039666339322139</v>
+        <v>1.044394060985403</v>
       </c>
       <c r="XW2">
-        <v>1.039301119513291</v>
+        <v>1.044072488537119</v>
       </c>
       <c r="XX2">
-        <v>1.039204569537332</v>
+        <v>1.044014154539483</v>
       </c>
       <c r="XY2">
-        <v>1.039932306957443</v>
+        <v>1.04462689159166</v>
       </c>
       <c r="XZ2">
-        <v>1.03969292451175</v>
+        <v>1.044401988379591</v>
       </c>
       <c r="YA2">
-        <v>1.039663205070958</v>
+        <v>1.044391447863969</v>
       </c>
       <c r="YB2">
-        <v>1.039301119513291</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="YC2">
-        <v>1.039203737127145</v>
+        <v>1.044013646388288</v>
       </c>
       <c r="YD2">
-        <v>1.039931921556851</v>
+        <v>1.044626499194937</v>
       </c>
       <c r="YE2">
-        <v>1.039691923749242</v>
+        <v>1.044398431798144</v>
       </c>
       <c r="YF2">
-        <v>1.039660036556906</v>
+        <v>1.044388806176432</v>
       </c>
       <c r="YG2">
-        <v>1.039301119513292</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="YH2">
-        <v>1.03920333621088</v>
+        <v>1.0440133330231</v>
       </c>
       <c r="YI2">
-        <v>1.039202031180249</v>
+        <v>1.044012969481404</v>
       </c>
       <c r="YJ2">
-        <v>1.039931573622314</v>
+        <v>1.044626144944386</v>
       </c>
       <c r="YK2">
-        <v>1.039691221229173</v>
+        <v>1.044395935132057</v>
       </c>
       <c r="YL2">
-        <v>1.03965652385031</v>
+        <v>1.044385877524884</v>
       </c>
       <c r="YM2">
-        <v>1.039301119513292</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="YN2">
-        <v>1.039202960987334</v>
+        <v>1.04401303973992</v>
       </c>
       <c r="YO2">
-        <v>1.039199780071288</v>
+        <v>1.044012076258312</v>
       </c>
       <c r="YP2">
-        <v>1.03993098681842</v>
+        <v>1.044625547488309</v>
       </c>
       <c r="YQ2">
-        <v>1.03969048527795</v>
+        <v>1.044393319655972</v>
       </c>
       <c r="YR2">
-        <v>1.039651415640229</v>
+        <v>1.044381618652791</v>
       </c>
       <c r="YS2">
-        <v>1.039301119513292</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="YT2">
-        <v>1.039202574458665</v>
+        <v>1.044012737620401</v>
       </c>
       <c r="YU2">
-        <v>1.039190427923647</v>
+        <v>1.044008365396442</v>
       </c>
       <c r="YV2">
-        <v>1.039930409910817</v>
+        <v>1.04462496010817</v>
       </c>
       <c r="YW2">
-        <v>1.039689881054722</v>
+        <v>1.044391172324274</v>
       </c>
       <c r="YX2">
-        <v>1.039645506454931</v>
+        <v>1.044377459668416</v>
       </c>
       <c r="YY2">
-        <v>1.039639762486947</v>
+        <v>1.044371595707176</v>
       </c>
       <c r="YZ2">
-        <v>1.039301119513293</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="ZA2">
-        <v>1.039199779769581</v>
+        <v>1.044010553228427</v>
       </c>
       <c r="ZB2">
-        <v>1.039186456291064</v>
+        <v>1.044006789482459</v>
       </c>
       <c r="ZC2">
-        <v>1.039930136949588</v>
+        <v>1.044624682191907</v>
       </c>
       <c r="ZD2">
-        <v>1.039688880627386</v>
+        <v>1.044387616934137</v>
       </c>
       <c r="ZE2">
-        <v>1.03964195798958</v>
+        <v>1.044374962198578</v>
       </c>
       <c r="ZF2">
-        <v>1.039565972231903</v>
+        <v>1.044308128249318</v>
       </c>
       <c r="ZG2">
-        <v>1.039301119513293</v>
+        <v>1.044072488537118</v>
       </c>
       <c r="ZH2">
-        <v>1.039179428534618</v>
+        <v>1.043994646244275</v>
       </c>
       <c r="ZI2">
-        <v>1.039929837138706</v>
+        <v>1.044624376938594</v>
       </c>
       <c r="ZJ2">
-        <v>1.039685647542728</v>
+        <v>1.044376126967262</v>
       </c>
       <c r="ZK2">
-        <v>1.039638666274421</v>
+        <v>1.04437264543385</v>
       </c>
       <c r="ZL2">
-        <v>1.039513153511682</v>
+        <v>1.044262698511695</v>
       </c>
       <c r="ZM2">
-        <v>1.039929549384449</v>
+        <v>1.044624083960767</v>
       </c>
       <c r="ZN2">
-        <v>1.039678093040115</v>
+        <v>1.044349279239073</v>
       </c>
       <c r="ZO2">
-        <v>1.039635454439505</v>
+        <v>1.044370384890176</v>
       </c>
       <c r="ZP2">
-        <v>1.039460171881655</v>
+        <v>1.044210337551217</v>
       </c>
       <c r="ZQ2">
-        <v>1.039378344499176</v>
+        <v>1.044148839328709</v>
       </c>
       <c r="ZR2">
-        <v>1.039929202355206</v>
+        <v>1.044623730631943</v>
       </c>
       <c r="ZS2">
-        <v>1.039633045348046</v>
+        <v>1.044368689330902</v>
       </c>
       <c r="ZT2">
-        <v>1.039456913475772</v>
+        <v>1.044207164967605</v>
       </c>
       <c r="ZU2">
-        <v>1.039455437768982</v>
+        <v>1.044205525869768</v>
       </c>
       <c r="ZV2">
-        <v>1.039340215363417</v>
+        <v>1.044128122906617</v>
       </c>
       <c r="ZW2">
-        <v>1.03935238517885</v>
+        <v>1.044126281801551</v>
       </c>
       <c r="ZX2">
-        <v>1.039928648799609</v>
+        <v>1.044623167027714</v>
       </c>
       <c r="ZY2">
-        <v>1.039629218347689</v>
+        <v>1.044365995823375</v>
       </c>
       <c r="ZZ2">
-        <v>1.039455893900295</v>
+        <v>1.044206172246449</v>
       </c>
       <c r="AAA2">
-        <v>1.0394457936377</v>
+        <v>1.044195723718705</v>
       </c>
       <c r="AAB2">
-        <v>1.039318126148412</v>
+        <v>1.044116121335424</v>
       </c>
       <c r="AAC2">
-        <v>1.039303860359846</v>
+        <v>1.044084135050981</v>
       </c>
       <c r="AAD2">
-        <v>1.039927133779483</v>
+        <v>1.044621624505603</v>
       </c>
       <c r="AAE2">
-        <v>1.039622765876682</v>
+        <v>1.044361454465202</v>
       </c>
       <c r="AAF2">
-        <v>1.039455238342789</v>
+        <v>1.044205533955496</v>
       </c>
       <c r="AAG2">
-        <v>1.039175860166974</v>
+        <v>1.043972959083876</v>
       </c>
       <c r="AAH2">
-        <v>1.039303860359846</v>
+        <v>1.044084135050981</v>
       </c>
       <c r="AAI2">
-        <v>1.039925117565797</v>
+        <v>1.044619571691823</v>
       </c>
       <c r="AAJ2">
-        <v>1.039574417887182</v>
+        <v>1.044327426331573</v>
       </c>
       <c r="AAK2">
-        <v>1.039454842928916</v>
+        <v>1.044205148956321</v>
       </c>
       <c r="AAL2">
-        <v>1.039032125994731</v>
+        <v>1.043870313747873</v>
       </c>
       <c r="AAM2">
-        <v>1.039165672724882</v>
+        <v>1.043935502081627</v>
       </c>
       <c r="AAN2">
-        <v>1.039303860359846</v>
+        <v>1.044084135050982</v>
       </c>
       <c r="AAO2">
-        <v>1.039924925528001</v>
+        <v>1.044619376167988</v>
       </c>
       <c r="AAP2">
-        <v>1.03953475459732</v>
+        <v>1.04429951063488</v>
       </c>
       <c r="AAQ2">
-        <v>1.039454443279278</v>
+        <v>1.044204759832946</v>
       </c>
       <c r="AAR2">
-        <v>1.038883776982117</v>
+        <v>1.043764372697139</v>
       </c>
       <c r="AAS2">
-        <v>1.03916458213545</v>
+        <v>1.043931492222425</v>
       </c>
       <c r="AAT2">
-        <v>1.039303860359845</v>
+        <v>1.044084135050983</v>
       </c>
       <c r="AAU2">
-        <v>1.039924773653592</v>
+        <v>1.044619221536619</v>
       </c>
       <c r="AAV2">
-        <v>1.039522187889599</v>
+        <v>1.044290665972343</v>
       </c>
       <c r="AAW2">
-        <v>1.039454086308066</v>
+        <v>1.044204412263902</v>
       </c>
       <c r="AAX2">
-        <v>1.0388375161047</v>
+        <v>1.043732079526184</v>
       </c>
       <c r="AAY2">
-        <v>1.038770568468462</v>
+        <v>1.043678290518526</v>
       </c>
       <c r="AAZ2">
-        <v>1.039164165733302</v>
+        <v>1.043929961202661</v>
       </c>
       <c r="ABA2">
-        <v>1.039303860359844</v>
+        <v>1.044084135050983</v>
       </c>
       <c r="ABB2">
-        <v>1.03992462614714</v>
+        <v>1.044619071352499</v>
       </c>
       <c r="ABC2">
-        <v>1.039510747508221</v>
+        <v>1.044282614037298</v>
       </c>
       <c r="ABD2">
-        <v>1.039453684125531</v>
+        <v>1.044204020674343</v>
       </c>
       <c r="ABE2">
-        <v>1.038774654824764</v>
+        <v>1.043688198153183</v>
       </c>
       <c r="ABF2">
-        <v>1.038755382365215</v>
+        <v>1.043666743215902</v>
       </c>
       <c r="ABG2">
-        <v>1.039163725262243</v>
+        <v>1.043928341686778</v>
       </c>
       <c r="ABH2">
-        <v>1.039303860359843</v>
+        <v>1.044084135050982</v>
       </c>
       <c r="ABI2">
-        <v>1.03992446815183</v>
+        <v>1.044618910489118</v>
       </c>
       <c r="ABJ2">
-        <v>1.039504516464365</v>
+        <v>1.044278228522572</v>
       </c>
       <c r="ABK2">
-        <v>1.039453361896035</v>
+        <v>1.044203706931963</v>
       </c>
       <c r="ABL2">
-        <v>1.03870105700682</v>
+        <v>1.043636821935382</v>
       </c>
       <c r="ABM2">
-        <v>1.038747403939346</v>
+        <v>1.043660676531253</v>
       </c>
       <c r="ABN2">
-        <v>1.039163359709484</v>
+        <v>1.043926997629128</v>
       </c>
       <c r="ABO2">
-        <v>1.039303860359841</v>
+        <v>1.044084135050981</v>
       </c>
       <c r="ABP2">
-        <v>1.039924322073236</v>
+        <v>1.044618761758776</v>
       </c>
       <c r="ABQ2">
-        <v>1.039499539999229</v>
+        <v>1.044274726001675</v>
       </c>
       <c r="ABR2">
-        <v>1.039452975381522</v>
+        <v>1.044203330597751</v>
       </c>
       <c r="ABS2">
-        <v>1.038641960973986</v>
+        <v>1.043595568918407</v>
       </c>
       <c r="ABT2">
-        <v>1.038735358150137</v>
+        <v>1.043648861807346</v>
       </c>
       <c r="ABU2">
-        <v>1.038746319282152</v>
+        <v>1.043659938433086</v>
       </c>
       <c r="ABV2">
-        <v>1.039162926805146</v>
+        <v>1.043925405934437</v>
       </c>
       <c r="ABW2">
-        <v>1.039303860359839</v>
+        <v>1.044084135050981</v>
       </c>
       <c r="ABX2">
-        <v>1.039924184409601</v>
+        <v>1.044618621596148</v>
       </c>
       <c r="ABY2">
-        <v>1.039495296489342</v>
+        <v>1.044271739347144</v>
       </c>
       <c r="ABZ2">
-        <v>1.039452558865905</v>
+        <v>1.044202925052625</v>
       </c>
       <c r="ACA2">
-        <v>1.038625484876834</v>
+        <v>1.043584489002934</v>
       </c>
       <c r="ACB2">
-        <v>1.038590499726497</v>
+        <v>1.043555679386929</v>
       </c>
       <c r="ACC2">
-        <v>1.038725566416123</v>
+        <v>1.043639257900775</v>
       </c>
       <c r="ACD2">
-        <v>1.038745534919109</v>
+        <v>1.043659404682028</v>
       </c>
       <c r="ACE2">
-        <v>1.039162504618185</v>
+        <v>1.043923853645209</v>
       </c>
       <c r="ACF2">
-        <v>1.039303860359838</v>
+        <v>1.04408413505098</v>
       </c>
       <c r="ACG2">
-        <v>1.039923992945826</v>
+        <v>1.044618426656754</v>
       </c>
       <c r="ACH2">
-        <v>1.039490316700783</v>
+        <v>1.044268234487122</v>
       </c>
       <c r="ACI2">
-        <v>1.039451798954886</v>
+        <v>1.044202185156696</v>
       </c>
       <c r="ACJ2">
-        <v>1.038602769132672</v>
+        <v>1.043569213021196</v>
       </c>
       <c r="ACK2">
-        <v>1.03854748488477</v>
+        <v>1.043522336977426</v>
       </c>
       <c r="ACL2">
-        <v>1.038744872986636</v>
+        <v>1.043658954243725</v>
       </c>
       <c r="ACM2">
-        <v>1.039161924201514</v>
+        <v>1.043921719579911</v>
       </c>
       <c r="ACN2">
-        <v>1.039303860359836</v>
+        <v>1.044084135050979</v>
       </c>
       <c r="ACO2">
-        <v>1.03992375831481</v>
+        <v>1.044618187766507</v>
       </c>
       <c r="ACP2">
-        <v>1.039485766469693</v>
+        <v>1.044265031956942</v>
       </c>
       <c r="ACQ2">
-        <v>1.039446113634479</v>
+        <v>1.044196649580396</v>
       </c>
       <c r="ACR2">
-        <v>1.038546887722092</v>
+        <v>1.043531633638692</v>
       </c>
       <c r="ACS2">
-        <v>1.038532495322008</v>
+        <v>1.043514136810146</v>
       </c>
       <c r="ACT2">
-        <v>1.038546894803908</v>
+        <v>1.043521755790141</v>
       </c>
       <c r="ACU2">
-        <v>1.038743754906124</v>
+        <v>1.043658193401328</v>
       </c>
       <c r="ACV2">
-        <v>1.039161125744416</v>
+        <v>1.043918783827623</v>
       </c>
       <c r="ACW2">
-        <v>1.039303860359836</v>
+        <v>1.044084135050978</v>
       </c>
       <c r="ACX2">
-        <v>1.03992264622467</v>
+        <v>1.044617055488716</v>
       </c>
       <c r="ACY2">
-        <v>1.039478707328699</v>
+        <v>1.044260063613177</v>
       </c>
       <c r="ACZ2">
-        <v>1.039428691003935</v>
+        <v>1.044179685839744</v>
       </c>
       <c r="ADA2">
-        <v>1.038501595057674</v>
+        <v>1.043501175013247</v>
       </c>
       <c r="ADB2">
-        <v>1.038517807158982</v>
+        <v>1.043506101525839</v>
       </c>
       <c r="ADC2">
-        <v>1.038546330610908</v>
+        <v>1.043521200100542</v>
       </c>
       <c r="ADD2">
-        <v>1.03874218916673</v>
+        <v>1.04365712793162</v>
       </c>
       <c r="ADE2">
-        <v>1.039160280750721</v>
+        <v>1.043915676970457</v>
       </c>
       <c r="ADF2">
-        <v>1.039303860359835</v>
+        <v>1.044084135050977</v>
       </c>
       <c r="ADG2">
-        <v>1.039913137537929</v>
+        <v>1.04460737419183</v>
       </c>
       <c r="ADH2">
-        <v>1.039464455625679</v>
+        <v>1.044250033021504</v>
       </c>
       <c r="ADI2">
-        <v>1.038466204709764</v>
+        <v>1.043477375537879</v>
       </c>
       <c r="ADJ2">
-        <v>1.038545722381381</v>
+        <v>1.043520601038125</v>
       </c>
       <c r="ADK2">
-        <v>1.03874102735147</v>
+        <v>1.043656337328169</v>
       </c>
       <c r="ADL2">
-        <v>1.039159719444538</v>
+        <v>1.043913613170299</v>
       </c>
       <c r="ADM2">
-        <v>1.039303860359835</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="ADN2">
-        <v>1.03946160520275</v>
+        <v>1.044248501541703</v>
       </c>
       <c r="ADO2">
-        <v>1.039456069145233</v>
+        <v>1.044241300520161</v>
       </c>
       <c r="ADP2">
-        <v>1.038434218688291</v>
+        <v>1.043455865415716</v>
       </c>
       <c r="ADQ2">
-        <v>1.038545179278881</v>
+        <v>1.043520066121154</v>
       </c>
       <c r="ADR2">
-        <v>1.038739102756134</v>
+        <v>1.043655027660643</v>
       </c>
       <c r="ADS2">
-        <v>1.039159148169916</v>
+        <v>1.043911512718378</v>
       </c>
       <c r="ADT2">
-        <v>1.039303860359835</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="ADU2">
-        <v>1.039459119365036</v>
+        <v>1.044247165946824</v>
       </c>
       <c r="ADV2">
-        <v>1.039442649557014</v>
+        <v>1.044227327248222</v>
       </c>
       <c r="ADW2">
-        <v>1.038432047408285</v>
+        <v>1.043453512768908</v>
       </c>
       <c r="ADX2">
-        <v>1.03842204732675</v>
+        <v>1.043451114849563</v>
       </c>
       <c r="ADY2">
-        <v>1.038544579512677</v>
+        <v>1.043519475394503</v>
       </c>
       <c r="ADZ2">
-        <v>1.038725744103901</v>
+        <v>1.043645937233712</v>
       </c>
       <c r="AEA2">
-        <v>1.039158875018982</v>
+        <v>1.043910508402101</v>
       </c>
       <c r="AEB2">
-        <v>1.039303860359834</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="AEC2">
-        <v>1.039457063464078</v>
+        <v>1.04424606134905</v>
       </c>
       <c r="AED2">
-        <v>1.039431183832531</v>
+        <v>1.044215388455232</v>
       </c>
       <c r="AEE2">
-        <v>1.038429870424047</v>
+        <v>1.043451153941392</v>
       </c>
       <c r="AEF2">
-        <v>1.038402600626312</v>
+        <v>1.043443524695723</v>
       </c>
       <c r="AEG2">
-        <v>1.03842204732675</v>
+        <v>1.043451114849563</v>
       </c>
       <c r="AEH2">
-        <v>1.038544192823696</v>
+        <v>1.043519094533619</v>
       </c>
       <c r="AEI2">
-        <v>1.038696236491492</v>
+        <v>1.043625857602902</v>
       </c>
       <c r="AEJ2">
-        <v>1.039158440539314</v>
+        <v>1.043908910915341</v>
       </c>
       <c r="AEK2">
-        <v>1.039303860359834</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="AEL2">
-        <v>1.039455464695624</v>
+        <v>1.04424520236016</v>
       </c>
       <c r="AEM2">
-        <v>1.039424694682115</v>
+        <v>1.044208631566605</v>
       </c>
       <c r="AEN2">
-        <v>1.038427689214478</v>
+        <v>1.0434487905356</v>
       </c>
       <c r="AEO2">
-        <v>1.038386295230286</v>
+        <v>1.043437160608514</v>
       </c>
       <c r="AEP2">
-        <v>1.038402600626312</v>
+        <v>1.043443524695723</v>
       </c>
       <c r="AEQ2">
-        <v>1.03854359889584</v>
+        <v>1.04351850955732</v>
       </c>
       <c r="AER2">
-        <v>1.039158032659403</v>
+        <v>1.043907411230076</v>
       </c>
       <c r="AES2">
-        <v>1.039303860359834</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="AET2">
-        <v>1.039453838649155</v>
+        <v>1.044244328715292</v>
       </c>
       <c r="AEU2">
-        <v>1.038425521209106</v>
+        <v>1.043446441436947</v>
       </c>
       <c r="AEV2">
-        <v>1.038368767348229</v>
+        <v>1.043430319376432</v>
       </c>
       <c r="AEW2">
-        <v>1.038386295230286</v>
+        <v>1.043437160608514</v>
       </c>
       <c r="AEX2">
-        <v>1.038538713689058</v>
+        <v>1.043513697979363</v>
       </c>
       <c r="AEY2">
-        <v>1.03915744986683</v>
+        <v>1.043905268429203</v>
       </c>
       <c r="AEZ2">
-        <v>1.039303860359834</v>
+        <v>1.044084135050976</v>
       </c>
       <c r="AFA2">
-        <v>1.039452427529927</v>
+        <v>1.044243570546876</v>
       </c>
       <c r="AFB2">
-        <v>1.038423344964267</v>
+        <v>1.043444083410582</v>
       </c>
       <c r="AFC2">
-        <v>1.03835437634005</v>
+        <v>1.043424702482722</v>
       </c>
       <c r="AFD2">
-        <v>1.038368767348229</v>
+        <v>1.043430319376432</v>
       </c>
       <c r="AFE2">
-        <v>1.038521877059812</v>
+        <v>1.043497115108286</v>
       </c>
       <c r="AFF2">
-        <v>1.039151298095339</v>
+        <v>1.043882649711206</v>
       </c>
       <c r="AFG2">
-        <v>1.039451414042588</v>
+        <v>1.044243026018761</v>
       </c>
       <c r="AFH2">
-        <v>1.038421170198336</v>
+        <v>1.043441726986656</v>
       </c>
       <c r="AFI2">
-        <v>1.038338926012638</v>
+        <v>1.043418672129236</v>
       </c>
       <c r="AFJ2">
-        <v>1.03835437634005</v>
+        <v>1.043424702482722</v>
       </c>
       <c r="AFK2">
-        <v>1.039148837541755</v>
+        <v>1.043873602794352</v>
       </c>
       <c r="AFL2">
-        <v>1.03945023738193</v>
+        <v>1.044242393820619</v>
       </c>
       <c r="AFM2">
-        <v>1.038418994059272</v>
+        <v>1.043439369074894</v>
       </c>
       <c r="AFN2">
-        <v>1.038257409299257</v>
+        <v>1.043386855857579</v>
       </c>
       <c r="AFO2">
-        <v>1.038338926012638</v>
+        <v>1.043418672129238</v>
       </c>
       <c r="AFP2">
-        <v>1.038338926012638</v>
+        <v>1.043418672129236</v>
       </c>
       <c r="AFQ2">
-        <v>1.039147588076984</v>
+        <v>1.043869008786013</v>
       </c>
       <c r="AFR2">
-        <v>1.039448464726824</v>
+        <v>1.044241441405615</v>
       </c>
       <c r="AFS2">
-        <v>1.038417931816917</v>
+        <v>1.043438218103531</v>
       </c>
       <c r="AFT2">
-        <v>1.0382454831681</v>
+        <v>1.043382201044343</v>
       </c>
       <c r="AFU2">
-        <v>1.038338926012637</v>
+        <v>1.043418672129239</v>
       </c>
       <c r="AFV2">
-        <v>1.038338926012638</v>
+        <v>1.043418672129238</v>
       </c>
       <c r="AFW2">
-        <v>1.03914731159463</v>
+        <v>1.043867992220957</v>
       </c>
       <c r="AFX2">
-        <v>1.039445568565937</v>
+        <v>1.044239885351598</v>
       </c>
       <c r="AFY2">
-        <v>1.038394057771362</v>
+        <v>1.043412349860901</v>
       </c>
       <c r="AFZ2">
-        <v>1.038211884569111</v>
+        <v>1.043369087385705</v>
       </c>
       <c r="AGA2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129243</v>
       </c>
       <c r="AGB2">
-        <v>1.038338926012637</v>
+        <v>1.043418672129239</v>
       </c>
       <c r="AGC2">
-        <v>1.039147093851221</v>
+        <v>1.043867191626132</v>
       </c>
       <c r="AGD2">
-        <v>1.039434154742069</v>
+        <v>1.044233650088888</v>
       </c>
       <c r="AGE2">
-        <v>1.039414078261107</v>
+        <v>1.044223239991062</v>
       </c>
       <c r="AGF2">
-        <v>1.038378532935133</v>
+        <v>1.04339552823616</v>
       </c>
       <c r="AGG2">
-        <v>1.038172431391324</v>
+        <v>1.043353688661588</v>
       </c>
       <c r="AGH2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129244</v>
       </c>
       <c r="AGI2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129243</v>
       </c>
       <c r="AGJ2">
-        <v>1.039146860553415</v>
+        <v>1.043866333841203</v>
       </c>
       <c r="AGK2">
-        <v>1.03836495490976</v>
+        <v>1.043380816039114</v>
       </c>
       <c r="AGL2">
-        <v>1.038167313462674</v>
+        <v>1.04335169111461</v>
       </c>
       <c r="AGM2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129245</v>
       </c>
       <c r="AGN2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129244</v>
       </c>
       <c r="AGO2">
-        <v>1.039146673898128</v>
+        <v>1.043865647550599</v>
       </c>
       <c r="AGP2">
-        <v>1.03835071245502</v>
+        <v>1.043365383912819</v>
       </c>
       <c r="AGQ2">
-        <v>1.038162520575937</v>
+        <v>1.043350773502413</v>
       </c>
       <c r="AGR2">
-        <v>1.038163664566694</v>
+        <v>1.04334814646199</v>
       </c>
       <c r="AGS2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129244</v>
       </c>
       <c r="AGT2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129245</v>
       </c>
       <c r="AGU2">
-        <v>1.0391464926635</v>
+        <v>1.043864981190571</v>
       </c>
       <c r="AGV2">
-        <v>1.038326393699119</v>
+        <v>1.04333903381209</v>
       </c>
       <c r="AGW2">
-        <v>1.038158085589826</v>
+        <v>1.043349924411324</v>
       </c>
       <c r="AGX2">
-        <v>1.038155125167681</v>
+        <v>1.043339851020501</v>
       </c>
       <c r="AGY2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129244</v>
       </c>
       <c r="AGZ2">
-        <v>1.038338926012636</v>
+        <v>1.043418672129244</v>
       </c>
       <c r="AHA2">
-        <v>1.039146311888554</v>
+        <v>1.043864316520696</v>
       </c>
       <c r="AHB2">
-        <v>1.03832042883292</v>
+        <v>1.043332570700763</v>
       </c>
       <c r="AHC2">
-        <v>1.038151341804667</v>
+        <v>1.043348633293866</v>
       </c>
       <c r="AHD2">
-        <v>1.038134867160938</v>
+        <v>1.043320171753875</v>
       </c>
       <c r="AHE2">
-        <v>1.039146133228685</v>
+        <v>1.043863659627494</v>
       </c>
       <c r="AHF2">
-        <v>1.038317867980149</v>
+        <v>1.043330022148479</v>
       </c>
       <c r="AHG2">
-        <v>1.03830497169183</v>
+        <v>1.043314964114894</v>
       </c>
       <c r="AHH2">
-        <v>1.038142819504273</v>
+        <v>1.043347001674402</v>
       </c>
       <c r="AHI2">
-        <v>1.039142938419007</v>
+        <v>1.043851913012378</v>
       </c>
       <c r="AHJ2">
-        <v>1.03831366326992</v>
+        <v>1.043325837634642</v>
       </c>
       <c r="AHK2">
-        <v>1.038291861957672</v>
+        <v>1.043300031362033</v>
       </c>
       <c r="AHL2">
-        <v>1.038109642356886</v>
+        <v>1.043340649811529</v>
       </c>
       <c r="AHM2">
-        <v>1.039141105452579</v>
+        <v>1.04381532200336</v>
       </c>
       <c r="AHN2">
-        <v>1.039135548269396</v>
+        <v>1.043841441319908</v>
       </c>
       <c r="AHO2">
-        <v>1.03831283190644</v>
+        <v>1.04332501026443</v>
       </c>
       <c r="AHP2">
-        <v>1.03826982718848</v>
+        <v>1.043274932471984</v>
       </c>
       <c r="AHQ2">
-        <v>1.038049373901639</v>
+        <v>1.043329111235819</v>
       </c>
       <c r="AHR2">
-        <v>1.039139888153361</v>
+        <v>1.043791021391434</v>
       </c>
       <c r="AHS2">
-        <v>1.038312129422205</v>
+        <v>1.043324311154423</v>
       </c>
       <c r="AHT2">
-        <v>1.038311537441079</v>
+        <v>1.043323722016746</v>
       </c>
       <c r="AHU2">
-        <v>1.038310767372348</v>
+        <v>1.043322955646871</v>
       </c>
       <c r="AHV2">
-        <v>1.038309373667888</v>
+        <v>1.043321568636761</v>
       </c>
       <c r="AHW2">
-        <v>1.038306957233948</v>
+        <v>1.043319163809627</v>
       </c>
       <c r="AHX2">
-        <v>1.038287164098755</v>
+        <v>1.043299465746373</v>
       </c>
     </row>
     <row r="3" spans="1:908">
@@ -5829,2722 +5829,2722 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049723292364565</v>
+        <v>1.049822090323879</v>
       </c>
       <c r="D3">
-        <v>1.049602265862231</v>
+        <v>1.049754738247352</v>
       </c>
       <c r="E3">
-        <v>1.0495895779331</v>
+        <v>1.049747677323406</v>
       </c>
       <c r="F3">
-        <v>1.049577691337428</v>
+        <v>1.049741062346511</v>
       </c>
       <c r="G3">
-        <v>1.049567327934166</v>
+        <v>1.049735295036641</v>
       </c>
       <c r="H3">
-        <v>1.049551001507488</v>
+        <v>1.04972620925936</v>
       </c>
       <c r="I3">
-        <v>1.048439255943689</v>
+        <v>1.049107511231074</v>
       </c>
       <c r="J3">
-        <v>1.04838946301486</v>
+        <v>1.049079800788917</v>
       </c>
       <c r="K3">
-        <v>1.048348019455577</v>
+        <v>1.049056736874216</v>
       </c>
       <c r="L3">
-        <v>1.04831164944888</v>
+        <v>1.049036496454111</v>
       </c>
       <c r="M3">
-        <v>1.048284510561604</v>
+        <v>1.049021393277078</v>
       </c>
       <c r="N3">
-        <v>1.048259033834841</v>
+        <v>1.049007215112389</v>
       </c>
       <c r="O3">
-        <v>1.048243367979229</v>
+        <v>1.048998496836783</v>
       </c>
       <c r="P3">
-        <v>1.048204367035457</v>
+        <v>1.048976792240762</v>
       </c>
       <c r="Q3">
-        <v>1.047888427672773</v>
+        <v>1.048800967056722</v>
       </c>
       <c r="R3">
-        <v>1.047888427672773</v>
+        <v>1.048800967056723</v>
       </c>
       <c r="S3">
-        <v>1.047505299329593</v>
+        <v>1.04858774942857</v>
       </c>
       <c r="T3">
-        <v>1.047888427672774</v>
+        <v>1.048800967056724</v>
       </c>
       <c r="U3">
-        <v>1.047478937849142</v>
+        <v>1.048573078773964</v>
       </c>
       <c r="V3">
-        <v>1.047888427672774</v>
+        <v>1.048800967056724</v>
       </c>
       <c r="W3">
-        <v>1.047449336996747</v>
+        <v>1.048556605344058</v>
       </c>
       <c r="X3">
-        <v>1.047888427672774</v>
+        <v>1.048800967056725</v>
       </c>
       <c r="Y3">
-        <v>1.047401140849483</v>
+        <v>1.048529783273349</v>
       </c>
       <c r="Z3">
-        <v>1.047888427672774</v>
+        <v>1.048800967056726</v>
       </c>
       <c r="AA3">
-        <v>1.047313460484768</v>
+        <v>1.04848098745377</v>
       </c>
       <c r="AB3">
-        <v>1.047888427672774</v>
+        <v>1.048800967056726</v>
       </c>
       <c r="AC3">
-        <v>1.047247984992151</v>
+        <v>1.048353890725858</v>
       </c>
       <c r="AD3">
-        <v>1.046257955443334</v>
+        <v>1.047953090145548</v>
       </c>
       <c r="AE3">
-        <v>1.047888427672775</v>
+        <v>1.048800967056727</v>
       </c>
       <c r="AF3">
-        <v>1.047238306803864</v>
+        <v>1.048325719452136</v>
       </c>
       <c r="AG3">
-        <v>1.047239842777899</v>
+        <v>1.048347229026824</v>
       </c>
       <c r="AH3">
-        <v>1.04597696637116</v>
+        <v>1.047812556015675</v>
       </c>
       <c r="AI3">
-        <v>1.047888427672775</v>
+        <v>1.048800967056728</v>
       </c>
       <c r="AJ3">
-        <v>1.047216143070185</v>
+        <v>1.048261205260101</v>
       </c>
       <c r="AK3">
-        <v>1.047239567041128</v>
+        <v>1.048347003427833</v>
       </c>
       <c r="AL3">
-        <v>1.045909443962161</v>
+        <v>1.047756327026072</v>
       </c>
       <c r="AM3">
-        <v>1.045164031798667</v>
+        <v>1.047418176854822</v>
       </c>
       <c r="AN3">
-        <v>1.047888427672776</v>
+        <v>1.048800967056729</v>
       </c>
       <c r="AO3">
-        <v>1.047239170581523</v>
+        <v>1.048346679057288</v>
       </c>
       <c r="AP3">
-        <v>1.04590893930084</v>
+        <v>1.047755042929421</v>
       </c>
       <c r="AQ3">
-        <v>1.045890424186414</v>
+        <v>1.04774438889523</v>
       </c>
       <c r="AR3">
-        <v>1.044599915708801</v>
+        <v>1.047144504905331</v>
       </c>
       <c r="AS3">
-        <v>1.045164031798666</v>
+        <v>1.047418176854821</v>
       </c>
       <c r="AT3">
-        <v>1.047888427672776</v>
+        <v>1.048800967056729</v>
       </c>
       <c r="AU3">
-        <v>1.047238662149144</v>
+        <v>1.048346263074208</v>
       </c>
       <c r="AV3">
-        <v>1.045908711834881</v>
+        <v>1.047754464148636</v>
       </c>
       <c r="AW3">
-        <v>1.045844659012015</v>
+        <v>1.047715663494828</v>
       </c>
       <c r="AX3">
-        <v>1.044173640975246</v>
+        <v>1.046937703319096</v>
       </c>
       <c r="AY3">
-        <v>1.045164031798665</v>
+        <v>1.04741817685482</v>
       </c>
       <c r="AZ3">
-        <v>1.047888427672776</v>
+        <v>1.048800967056729</v>
       </c>
       <c r="BA3">
-        <v>1.047237423887315</v>
+        <v>1.048345249968067</v>
       </c>
       <c r="BB3">
-        <v>1.045908470769659</v>
+        <v>1.047753850764906</v>
       </c>
       <c r="BC3">
-        <v>1.044112180996877</v>
+        <v>1.046907886734314</v>
       </c>
       <c r="BD3">
-        <v>1.044173640975248</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="BE3">
-        <v>1.045164031798665</v>
+        <v>1.047418176854819</v>
       </c>
       <c r="BF3">
-        <v>1.047888427672776</v>
+        <v>1.048800967056729</v>
       </c>
       <c r="BG3">
-        <v>1.04723636370913</v>
+        <v>1.048344382564262</v>
       </c>
       <c r="BH3">
-        <v>1.045908241171716</v>
+        <v>1.047753266559352</v>
       </c>
       <c r="BI3">
-        <v>1.043833784321701</v>
+        <v>1.046772825600923</v>
       </c>
       <c r="BJ3">
-        <v>1.044173640975248</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="BK3">
-        <v>1.045164031798664</v>
+        <v>1.047418176854819</v>
       </c>
       <c r="BL3">
-        <v>1.047888427672776</v>
+        <v>1.04880096705673</v>
       </c>
       <c r="BM3">
-        <v>1.047231281595277</v>
+        <v>1.048340224541727</v>
       </c>
       <c r="BN3">
-        <v>1.045908103665258</v>
+        <v>1.047752916678009</v>
       </c>
       <c r="BO3">
-        <v>1.043778407619118</v>
+        <v>1.046746342909035</v>
       </c>
       <c r="BP3">
-        <v>1.043787837628858</v>
+        <v>1.046736234957596</v>
       </c>
       <c r="BQ3">
-        <v>1.044173640975248</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="BR3">
-        <v>1.045164031798664</v>
+        <v>1.047418176854819</v>
       </c>
       <c r="BS3">
-        <v>1.047888427672777</v>
+        <v>1.048800967056731</v>
       </c>
       <c r="BT3">
-        <v>1.047213318068147</v>
+        <v>1.048325527361353</v>
       </c>
       <c r="BU3">
-        <v>1.045907833887682</v>
+        <v>1.047752230236501</v>
       </c>
       <c r="BV3">
-        <v>1.043124156093483</v>
+        <v>1.046433460174618</v>
       </c>
       <c r="BW3">
-        <v>1.043786570366739</v>
+        <v>1.046727466004495</v>
       </c>
       <c r="BX3">
-        <v>1.043766646467697</v>
+        <v>1.046727118663046</v>
       </c>
       <c r="BY3">
-        <v>1.044173640975249</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="BZ3">
-        <v>1.045164031798663</v>
+        <v>1.047418176854818</v>
       </c>
       <c r="CA3">
-        <v>1.04788842767278</v>
+        <v>1.048800967056735</v>
       </c>
       <c r="CB3">
-        <v>1.045906466644583</v>
+        <v>1.047748751324648</v>
       </c>
       <c r="CC3">
-        <v>1.04289610252235</v>
+        <v>1.046324397537297</v>
       </c>
       <c r="CD3">
-        <v>1.04417364097525</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="CE3">
-        <v>1.04516403179866</v>
+        <v>1.047418176854814</v>
       </c>
       <c r="CF3">
-        <v>1.047888427672784</v>
+        <v>1.04880096705674</v>
       </c>
       <c r="CG3">
-        <v>1.045901314567756</v>
+        <v>1.047735642009555</v>
       </c>
       <c r="CH3">
-        <v>1.042846333877307</v>
+        <v>1.046300596512932</v>
       </c>
       <c r="CI3">
-        <v>1.04417364097525</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="CJ3">
-        <v>1.045164031798653</v>
+        <v>1.047418176854807</v>
       </c>
       <c r="CK3">
-        <v>1.047888427672786</v>
+        <v>1.048800967056743</v>
       </c>
       <c r="CL3">
-        <v>1.042745411038618</v>
+        <v>1.04625233180566</v>
       </c>
       <c r="CM3">
-        <v>1.04417364097525</v>
+        <v>1.046937703319098</v>
       </c>
       <c r="CN3">
-        <v>1.045164031798652</v>
+        <v>1.047418176854805</v>
       </c>
       <c r="CO3">
-        <v>1.047888427672787</v>
+        <v>1.048800967056744</v>
       </c>
       <c r="CP3">
-        <v>1.042650236262065</v>
+        <v>1.046206815962852</v>
       </c>
       <c r="CQ3">
-        <v>1.045164031798651</v>
+        <v>1.047418176854805</v>
       </c>
       <c r="CR3">
-        <v>1.047888427672787</v>
+        <v>1.048800967056744</v>
       </c>
       <c r="CS3">
-        <v>1.04259491718918</v>
+        <v>1.046180360461087</v>
       </c>
       <c r="CT3">
-        <v>1.045164031798652</v>
+        <v>1.047418176854804</v>
       </c>
       <c r="CU3">
-        <v>1.047888427672787</v>
+        <v>1.048800967056744</v>
       </c>
       <c r="CV3">
-        <v>1.042558383100134</v>
+        <v>1.046162888581452</v>
       </c>
       <c r="CW3">
-        <v>1.045164031798652</v>
+        <v>1.047418176854804</v>
       </c>
       <c r="CX3">
-        <v>1.047888427672787</v>
+        <v>1.048800967056744</v>
       </c>
       <c r="CY3">
-        <v>1.042507939749904</v>
+        <v>1.046138764794036</v>
       </c>
       <c r="CZ3">
-        <v>1.045164031798661</v>
+        <v>1.047418176854789</v>
       </c>
       <c r="DA3">
-        <v>1.047888427672787</v>
+        <v>1.048800967056744</v>
       </c>
       <c r="DB3">
-        <v>1.042506908040559</v>
+        <v>1.046138182602562</v>
       </c>
       <c r="DC3">
-        <v>1.042480611714119</v>
+        <v>1.046126190172287</v>
       </c>
       <c r="DD3">
-        <v>1.045164031798662</v>
+        <v>1.047418176854789</v>
       </c>
       <c r="DE3">
-        <v>1.042505659815311</v>
+        <v>1.046137478231412</v>
       </c>
       <c r="DF3">
-        <v>1.042465115368161</v>
+        <v>1.046119059738881</v>
       </c>
       <c r="DG3">
-        <v>1.045164031798663</v>
+        <v>1.047418176854787</v>
       </c>
       <c r="DH3">
-        <v>1.04250421303424</v>
+        <v>1.04613666181532</v>
       </c>
       <c r="DI3">
-        <v>1.041853674081832</v>
+        <v>1.045837712259222</v>
       </c>
       <c r="DJ3">
-        <v>1.045164031798695</v>
+        <v>1.047418176854741</v>
       </c>
       <c r="DK3">
-        <v>1.042502007124396</v>
+        <v>1.046135417023605</v>
       </c>
       <c r="DL3">
-        <v>1.041792421320509</v>
+        <v>1.045809527410627</v>
       </c>
       <c r="DM3">
-        <v>1.045164031798725</v>
+        <v>1.0474181768547</v>
       </c>
       <c r="DN3">
-        <v>1.042499171132247</v>
+        <v>1.046133816676385</v>
       </c>
       <c r="DO3">
-        <v>1.041790866598102</v>
+        <v>1.045807789591306</v>
       </c>
       <c r="DP3">
-        <v>1.041624909475733</v>
+        <v>1.045742494349377</v>
       </c>
       <c r="DQ3">
-        <v>1.045164031798727</v>
+        <v>1.047418176854696</v>
       </c>
       <c r="DR3">
-        <v>1.042497135163519</v>
+        <v>1.046132667780814</v>
       </c>
       <c r="DS3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591307</v>
       </c>
       <c r="DT3">
-        <v>1.041790109613591</v>
+        <v>1.045806943458126</v>
       </c>
       <c r="DU3">
-        <v>1.041322827434441</v>
+        <v>1.045621609349773</v>
       </c>
       <c r="DV3">
-        <v>1.045164031798729</v>
+        <v>1.047418176854694</v>
       </c>
       <c r="DW3">
-        <v>1.042494258358476</v>
+        <v>1.046131044400999</v>
       </c>
       <c r="DX3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591307</v>
       </c>
       <c r="DY3">
-        <v>1.04178655355777</v>
+        <v>1.045802968612707</v>
       </c>
       <c r="DZ3">
-        <v>1.041186982849503</v>
+        <v>1.045567247585087</v>
       </c>
       <c r="EA3">
-        <v>1.045164031798732</v>
+        <v>1.047418176854691</v>
       </c>
       <c r="EB3">
-        <v>1.042491145867166</v>
+        <v>1.046129288022252</v>
       </c>
       <c r="EC3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591308</v>
       </c>
       <c r="ED3">
-        <v>1.041773807681499</v>
+        <v>1.045783157364366</v>
       </c>
       <c r="EE3">
-        <v>1.041778479238016</v>
+        <v>1.045794732065521</v>
       </c>
       <c r="EF3">
-        <v>1.041146565542207</v>
+        <v>1.045551073486529</v>
       </c>
       <c r="EG3">
-        <v>1.045164031798737</v>
+        <v>1.047418176854685</v>
       </c>
       <c r="EH3">
-        <v>1.042488210542047</v>
+        <v>1.046127631617168</v>
       </c>
       <c r="EI3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591308</v>
       </c>
       <c r="EJ3">
-        <v>1.041772710012444</v>
+        <v>1.045781451228654</v>
       </c>
       <c r="EK3">
-        <v>1.041772472395767</v>
+        <v>1.045788604535468</v>
       </c>
       <c r="EL3">
-        <v>1.041100942504598</v>
+        <v>1.045532816140965</v>
       </c>
       <c r="EM3">
-        <v>1.045164031798742</v>
+        <v>1.04741817685468</v>
       </c>
       <c r="EN3">
-        <v>1.042483384408984</v>
+        <v>1.04612490822588</v>
       </c>
       <c r="EO3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591308</v>
       </c>
       <c r="EP3">
-        <v>1.041771632990585</v>
+        <v>1.045779777185414</v>
       </c>
       <c r="EQ3">
-        <v>1.041768449772968</v>
+        <v>1.04578450109141</v>
       </c>
       <c r="ER3">
-        <v>1.041058034972983</v>
+        <v>1.045515645452056</v>
       </c>
       <c r="ES3">
-        <v>1.045164031798742</v>
+        <v>1.047418176854679</v>
       </c>
       <c r="ET3">
-        <v>1.04246043736803</v>
+        <v>1.046111959146182</v>
       </c>
       <c r="EU3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="EV3">
-        <v>1.041770763341056</v>
+        <v>1.045778425466405</v>
       </c>
       <c r="EW3">
-        <v>1.041765399839432</v>
+        <v>1.045782215704912</v>
       </c>
       <c r="EX3">
-        <v>1.041750494164261</v>
+        <v>1.045750852525427</v>
       </c>
       <c r="EY3">
-        <v>1.041007970201365</v>
+        <v>1.045495610550331</v>
       </c>
       <c r="EZ3">
-        <v>1.045164031798742</v>
+        <v>1.047418176854678</v>
       </c>
       <c r="FA3">
-        <v>1.042455438511383</v>
+        <v>1.046109138267779</v>
       </c>
       <c r="FB3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="FC3">
-        <v>1.041769458066214</v>
+        <v>1.045776396643571</v>
       </c>
       <c r="FD3">
-        <v>1.041757311259276</v>
+        <v>1.045776154736294</v>
       </c>
       <c r="FE3">
-        <v>1.04174940127056</v>
+        <v>1.045748804457616</v>
       </c>
       <c r="FF3">
-        <v>1.040993564348231</v>
+        <v>1.045489845614113</v>
       </c>
       <c r="FG3">
-        <v>1.045164031798742</v>
+        <v>1.047418176854678</v>
       </c>
       <c r="FH3">
-        <v>1.042417608706558</v>
+        <v>1.046048213077785</v>
       </c>
       <c r="FI3">
-        <v>1.042437851217664</v>
+        <v>1.046100592104863</v>
       </c>
       <c r="FJ3">
-        <v>1.041790866598099</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="FK3">
-        <v>1.041767884411558</v>
+        <v>1.045773950670962</v>
       </c>
       <c r="FL3">
-        <v>1.041754501661879</v>
+        <v>1.045774049434873</v>
       </c>
       <c r="FM3">
-        <v>1.041748402854283</v>
+        <v>1.045746933439211</v>
       </c>
       <c r="FN3">
-        <v>1.04091172259944</v>
+        <v>1.045457094110659</v>
       </c>
       <c r="FO3">
-        <v>1.045164031798742</v>
+        <v>1.047418176854678</v>
       </c>
       <c r="FP3">
-        <v>1.042410462017825</v>
+        <v>1.04603670328193</v>
       </c>
       <c r="FQ3">
-        <v>1.042414502474827</v>
+        <v>1.046089246224726</v>
       </c>
       <c r="FR3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="FS3">
-        <v>1.041766695548094</v>
+        <v>1.045772102789362</v>
       </c>
       <c r="FT3">
-        <v>1.041754501661861</v>
+        <v>1.045774049434883</v>
       </c>
       <c r="FU3">
-        <v>1.041708106312186</v>
+        <v>1.045739284289505</v>
       </c>
       <c r="FV3">
-        <v>1.041747988098451</v>
+        <v>1.045746156192475</v>
       </c>
       <c r="FW3">
-        <v>1.040865498048102</v>
+        <v>1.045438595882525</v>
       </c>
       <c r="FX3">
-        <v>1.042395716959687</v>
+        <v>1.046012956256119</v>
       </c>
       <c r="FY3">
-        <v>1.042413802356245</v>
+        <v>1.046088376308689</v>
       </c>
       <c r="FZ3">
-        <v>1.042328879863731</v>
+        <v>1.046061669839219</v>
       </c>
       <c r="GA3">
-        <v>1.0417908665981</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="GB3">
-        <v>1.041765319826119</v>
+        <v>1.045769964468681</v>
       </c>
       <c r="GC3">
-        <v>1.041754501661858</v>
+        <v>1.045774049434884</v>
       </c>
       <c r="GD3">
-        <v>1.041703095570875</v>
+        <v>1.04573552962099</v>
       </c>
       <c r="GE3">
-        <v>1.041747094097156</v>
+        <v>1.045744480846323</v>
       </c>
       <c r="GF3">
-        <v>1.040831184365859</v>
+        <v>1.045424864146842</v>
       </c>
       <c r="GG3">
-        <v>1.042411047203418</v>
+        <v>1.046084952958636</v>
       </c>
       <c r="GH3">
-        <v>1.041974506465663</v>
+        <v>1.045947537071143</v>
       </c>
       <c r="GI3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="GJ3">
-        <v>1.041764026292474</v>
+        <v>1.045767953895464</v>
       </c>
       <c r="GK3">
-        <v>1.041754501661858</v>
+        <v>1.045774049434884</v>
       </c>
       <c r="GL3">
-        <v>1.041754501661857</v>
+        <v>1.045774049434885</v>
       </c>
       <c r="GM3">
-        <v>1.041698248805245</v>
+        <v>1.045731897823346</v>
       </c>
       <c r="GN3">
-        <v>1.04174481708665</v>
+        <v>1.04574021375993</v>
       </c>
       <c r="GO3">
-        <v>1.040800334822213</v>
+        <v>1.045412518683138</v>
       </c>
       <c r="GP3">
-        <v>1.042406128016685</v>
+        <v>1.046078840743035</v>
       </c>
       <c r="GQ3">
-        <v>1.041937469276746</v>
+        <v>1.045931069627443</v>
       </c>
       <c r="GR3">
-        <v>1.041955882774164</v>
+        <v>1.045944162220103</v>
       </c>
       <c r="GS3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="GT3">
-        <v>1.04176263452636</v>
+        <v>1.045765790636941</v>
       </c>
       <c r="GU3">
-        <v>1.041754501661858</v>
+        <v>1.045774049434884</v>
       </c>
       <c r="GV3">
-        <v>1.041754501661856</v>
+        <v>1.045774049434885</v>
       </c>
       <c r="GW3">
-        <v>1.041694371878545</v>
+        <v>1.045728992749232</v>
       </c>
       <c r="GX3">
-        <v>1.041743481176073</v>
+        <v>1.04573771028189</v>
       </c>
       <c r="GY3">
-        <v>1.040762011006061</v>
+        <v>1.045397182121719</v>
       </c>
       <c r="GZ3">
-        <v>1.042397053977179</v>
+        <v>1.046066551039969</v>
       </c>
       <c r="HA3">
-        <v>1.042405390505898</v>
+        <v>1.046077959722461</v>
       </c>
       <c r="HB3">
-        <v>1.041843830142318</v>
+        <v>1.045889435865102</v>
       </c>
       <c r="HC3">
-        <v>1.041953250297005</v>
+        <v>1.045943685181556</v>
       </c>
       <c r="HD3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="HE3">
-        <v>1.041760506933702</v>
+        <v>1.04576248366393</v>
       </c>
       <c r="HF3">
-        <v>1.041754501661855</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="HG3">
-        <v>1.041691283600809</v>
+        <v>1.045726678628676</v>
       </c>
       <c r="HH3">
-        <v>1.041742545499813</v>
+        <v>1.045735956837463</v>
       </c>
       <c r="HI3">
-        <v>1.040691290994653</v>
+        <v>1.04536888107503</v>
       </c>
       <c r="HJ3">
-        <v>1.042367353445795</v>
+        <v>1.046026325209628</v>
       </c>
       <c r="HK3">
-        <v>1.042404059425746</v>
+        <v>1.046076369631888</v>
       </c>
       <c r="HL3">
-        <v>1.041951127278674</v>
+        <v>1.045943300463462</v>
       </c>
       <c r="HM3">
-        <v>1.041790866598101</v>
+        <v>1.045807789591309</v>
       </c>
       <c r="HN3">
-        <v>1.041754696706469</v>
+        <v>1.045753452675411</v>
       </c>
       <c r="HO3">
-        <v>1.041754501661855</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="HP3">
-        <v>1.041684754487163</v>
+        <v>1.045721786207224</v>
       </c>
       <c r="HQ3">
-        <v>1.041740745635269</v>
+        <v>1.04573258391611</v>
       </c>
       <c r="HR3">
-        <v>1.040629634582146</v>
+        <v>1.045344207075549</v>
       </c>
       <c r="HS3">
-        <v>1.042354550046906</v>
+        <v>1.046008984528386</v>
       </c>
       <c r="HT3">
-        <v>1.042403584156005</v>
+        <v>1.046075801881024</v>
       </c>
       <c r="HU3">
-        <v>1.041949430672844</v>
+        <v>1.045942993016768</v>
       </c>
       <c r="HV3">
-        <v>1.041754201307784</v>
+        <v>1.045752682664238</v>
       </c>
       <c r="HW3">
-        <v>1.041754501661854</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="HX3">
-        <v>1.041679612654665</v>
+        <v>1.045717933308767</v>
       </c>
       <c r="HY3">
-        <v>1.041739849779518</v>
+        <v>1.04573090509479</v>
       </c>
       <c r="HZ3">
-        <v>1.040587693127973</v>
+        <v>1.045327422681634</v>
       </c>
       <c r="IA3">
-        <v>1.042350545106189</v>
+        <v>1.046012441812745</v>
       </c>
       <c r="IB3">
-        <v>1.042403584156005</v>
+        <v>1.046075801881024</v>
       </c>
       <c r="IC3">
-        <v>1.041946840787836</v>
+        <v>1.045942523696449</v>
       </c>
       <c r="ID3">
-        <v>1.041753972487773</v>
+        <v>1.045752327003292</v>
       </c>
       <c r="IE3">
-        <v>1.041754501661853</v>
+        <v>1.045774049434887</v>
       </c>
       <c r="IF3">
-        <v>1.041676046023457</v>
+        <v>1.045715260746407</v>
       </c>
       <c r="IG3">
-        <v>1.041739213666619</v>
+        <v>1.045729713027994</v>
       </c>
       <c r="IH3">
-        <v>1.040560141235913</v>
+        <v>1.045316396777859</v>
       </c>
       <c r="II3">
-        <v>1.042342842675774</v>
+        <v>1.046003240544764</v>
       </c>
       <c r="IJ3">
-        <v>1.041943804920821</v>
+        <v>1.045941973558472</v>
       </c>
       <c r="IK3">
-        <v>1.041753727737072</v>
+        <v>1.045751946580858</v>
       </c>
       <c r="IL3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434887</v>
       </c>
       <c r="IM3">
-        <v>1.04167248788903</v>
+        <v>1.04571259455087</v>
       </c>
       <c r="IN3">
-        <v>1.041731936806915</v>
+        <v>1.045716076293564</v>
       </c>
       <c r="IO3">
-        <v>1.040500845011479</v>
+        <v>1.045292667170684</v>
       </c>
       <c r="IP3">
-        <v>1.042331007664917</v>
+        <v>1.0459815824692</v>
       </c>
       <c r="IQ3">
-        <v>1.042331035319007</v>
+        <v>1.045996655618319</v>
       </c>
       <c r="IR3">
-        <v>1.041939142009478</v>
+        <v>1.045941128579214</v>
       </c>
       <c r="IS3">
-        <v>1.041753493867</v>
+        <v>1.045751583070469</v>
       </c>
       <c r="IT3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434887</v>
       </c>
       <c r="IU3">
-        <v>1.04166728249713</v>
+        <v>1.045708694025736</v>
       </c>
       <c r="IV3">
-        <v>1.041729790980151</v>
+        <v>1.045712055043975</v>
       </c>
       <c r="IW3">
-        <v>1.040490965237994</v>
+        <v>1.04528283268623</v>
       </c>
       <c r="IX3">
-        <v>1.040462032857542</v>
+        <v>1.045277400339769</v>
       </c>
       <c r="IY3">
-        <v>1.041922078929399</v>
+        <v>1.045938036530392</v>
       </c>
       <c r="IZ3">
-        <v>1.041753233325718</v>
+        <v>1.045751178104318</v>
       </c>
       <c r="JA3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434887</v>
       </c>
       <c r="JB3">
-        <v>1.041647704760056</v>
+        <v>1.045694023956923</v>
       </c>
       <c r="JC3">
-        <v>1.041729310894992</v>
+        <v>1.045711155371052</v>
       </c>
       <c r="JD3">
-        <v>1.040489599508382</v>
+        <v>1.045281473217142</v>
       </c>
       <c r="JE3">
-        <v>1.040316493666285</v>
+        <v>1.04522015202694</v>
       </c>
       <c r="JF3">
-        <v>1.041839032930382</v>
+        <v>1.045922987527182</v>
       </c>
       <c r="JG3">
-        <v>1.041752695531983</v>
+        <v>1.045750342197405</v>
       </c>
       <c r="JH3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="JI3">
-        <v>1.041643135297458</v>
+        <v>1.045690599948721</v>
       </c>
       <c r="JJ3">
-        <v>1.041724844537595</v>
+        <v>1.045703165961815</v>
       </c>
       <c r="JK3">
-        <v>1.041729048844213</v>
+        <v>1.045710651229155</v>
       </c>
       <c r="JL3">
-        <v>1.04048897163229</v>
+        <v>1.045280848219244</v>
       </c>
       <c r="JM3">
-        <v>1.040310972451229</v>
+        <v>1.045198509806111</v>
       </c>
       <c r="JN3">
-        <v>1.040267940061352</v>
+        <v>1.045202229926578</v>
       </c>
       <c r="JO3">
-        <v>1.04175213542326</v>
+        <v>1.045749471605718</v>
       </c>
       <c r="JP3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="JQ3">
-        <v>1.041641041907655</v>
+        <v>1.045689031321394</v>
       </c>
       <c r="JR3">
-        <v>1.04172041822227</v>
+        <v>1.045695248179641</v>
       </c>
       <c r="JS3">
-        <v>1.041728741606167</v>
+        <v>1.045710060154506</v>
       </c>
       <c r="JT3">
-        <v>1.040488225895426</v>
+        <v>1.045280105900849</v>
       </c>
       <c r="JU3">
-        <v>1.040310571119514</v>
+        <v>1.045196936654338</v>
       </c>
       <c r="JV3">
-        <v>1.040091934301303</v>
+        <v>1.045137262404101</v>
       </c>
       <c r="JW3">
-        <v>1.041750005529148</v>
+        <v>1.045746161055398</v>
       </c>
       <c r="JX3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="JY3">
-        <v>1.041639665661975</v>
+        <v>1.045688000067402</v>
       </c>
       <c r="JZ3">
-        <v>1.041728463948447</v>
+        <v>1.045709525987461</v>
       </c>
       <c r="KA3">
-        <v>1.040487075312719</v>
+        <v>1.04527896059243</v>
       </c>
       <c r="KB3">
-        <v>1.04031024032936</v>
+        <v>1.045195640013439</v>
       </c>
       <c r="KC3">
-        <v>1.04004471915863</v>
+        <v>1.045097033851546</v>
       </c>
       <c r="KD3">
-        <v>1.040065281341927</v>
+        <v>1.045134399896863</v>
       </c>
       <c r="KE3">
-        <v>1.041738697617588</v>
+        <v>1.045728584871322</v>
       </c>
       <c r="KF3">
-        <v>1.041754501661852</v>
+        <v>1.045774049434886</v>
       </c>
       <c r="KG3">
-        <v>1.04163446109397</v>
+        <v>1.045686079220818</v>
       </c>
       <c r="KH3">
-        <v>1.041639115086795</v>
+        <v>1.045687343406312</v>
       </c>
       <c r="KI3">
-        <v>1.041728182736683</v>
+        <v>1.045708984983032</v>
       </c>
       <c r="KJ3">
-        <v>1.040486050062597</v>
+        <v>1.04527794004207</v>
       </c>
       <c r="KK3">
-        <v>1.04030977046746</v>
+        <v>1.045193798235064</v>
       </c>
       <c r="KL3">
-        <v>1.04002298706705</v>
+        <v>1.045078517531478</v>
       </c>
       <c r="KM3">
-        <v>1.039953580249496</v>
+        <v>1.045122403237431</v>
       </c>
       <c r="KN3">
-        <v>1.041632070335924</v>
+        <v>1.045685196865266</v>
       </c>
       <c r="KO3">
-        <v>1.041638725425093</v>
+        <v>1.045686878663824</v>
       </c>
       <c r="KP3">
-        <v>1.041727880377182</v>
+        <v>1.04570840329389</v>
       </c>
       <c r="KQ3">
-        <v>1.040485252953859</v>
+        <v>1.045277146587291</v>
       </c>
       <c r="KR3">
-        <v>1.040307660059743</v>
+        <v>1.045185525797492</v>
       </c>
       <c r="KS3">
-        <v>1.039881018857137</v>
+        <v>1.044957556805828</v>
       </c>
       <c r="KT3">
-        <v>1.039928923557583</v>
+        <v>1.045119755106546</v>
       </c>
       <c r="KU3">
-        <v>1.041628024021839</v>
+        <v>1.045683703494683</v>
       </c>
       <c r="KV3">
-        <v>1.041638271973707</v>
+        <v>1.045686337840531</v>
       </c>
       <c r="KW3">
-        <v>1.041726126859916</v>
+        <v>1.045705029819755</v>
       </c>
       <c r="KX3">
-        <v>1.040484260753292</v>
+        <v>1.045276158934986</v>
       </c>
       <c r="KY3">
-        <v>1.040307253783882</v>
+        <v>1.045183933265578</v>
       </c>
       <c r="KZ3">
-        <v>1.039870414988814</v>
+        <v>1.044948522022968</v>
       </c>
       <c r="LA3">
-        <v>1.039920730647723</v>
+        <v>1.045118875186461</v>
       </c>
       <c r="LB3">
-        <v>1.041620257385039</v>
+        <v>1.045680837066896</v>
       </c>
       <c r="LC3">
-        <v>1.041637404666238</v>
+        <v>1.045685303418548</v>
       </c>
       <c r="LD3">
-        <v>1.041718710145403</v>
+        <v>1.045690761300526</v>
       </c>
       <c r="LE3">
-        <v>1.040483234528636</v>
+        <v>1.045275137414559</v>
       </c>
       <c r="LF3">
-        <v>1.04030695297001</v>
+        <v>1.045182754126639</v>
       </c>
       <c r="LG3">
-        <v>1.03986744656506</v>
+        <v>1.044943426919802</v>
       </c>
       <c r="LH3">
-        <v>1.039689699759411</v>
+        <v>1.044806190504679</v>
       </c>
       <c r="LI3">
-        <v>1.039916454526742</v>
+        <v>1.045118415930083</v>
       </c>
       <c r="LJ3">
-        <v>1.041597391099739</v>
+        <v>1.04567239782089</v>
       </c>
       <c r="LK3">
-        <v>1.041634078391285</v>
+        <v>1.045681336230381</v>
       </c>
       <c r="LL3">
-        <v>1.04048202404098</v>
+        <v>1.045273932475797</v>
       </c>
       <c r="LM3">
-        <v>1.040306606465044</v>
+        <v>1.045181395886425</v>
       </c>
       <c r="LN3">
-        <v>1.03985215828816</v>
+        <v>1.044917185603804</v>
       </c>
       <c r="LO3">
-        <v>1.03960297472221</v>
+        <v>1.044737885724224</v>
       </c>
       <c r="LP3">
-        <v>1.039912794035044</v>
+        <v>1.045118022792341</v>
       </c>
       <c r="LQ3">
-        <v>1.041622727077185</v>
+        <v>1.045667797722734</v>
       </c>
       <c r="LR3">
-        <v>1.040481334224132</v>
+        <v>1.045273245821079</v>
       </c>
       <c r="LS3">
-        <v>1.040306262737107</v>
+        <v>1.045180048531699</v>
       </c>
       <c r="LT3">
-        <v>1.039846820860373</v>
+        <v>1.044908024262373</v>
       </c>
       <c r="LU3">
-        <v>1.03954876101947</v>
+        <v>1.044700998134842</v>
       </c>
       <c r="LV3">
-        <v>1.039452021998879</v>
+        <v>1.044617263522553</v>
       </c>
       <c r="LW3">
-        <v>1.039908630883209</v>
+        <v>1.04511757566867</v>
       </c>
       <c r="LX3">
-        <v>1.04047821790912</v>
+        <v>1.045270143791303</v>
       </c>
       <c r="LY3">
-        <v>1.040303243049124</v>
+        <v>1.045168211871498</v>
       </c>
       <c r="LZ3">
-        <v>1.039835204295002</v>
+        <v>1.044888085197528</v>
       </c>
       <c r="MA3">
-        <v>1.039527289705611</v>
+        <v>1.044686388822741</v>
       </c>
       <c r="MB3">
-        <v>1.039393238449244</v>
+        <v>1.044553046876482</v>
       </c>
       <c r="MC3">
-        <v>1.039428856030645</v>
+        <v>1.044600005403283</v>
       </c>
       <c r="MD3">
-        <v>1.039905351037242</v>
+        <v>1.04511722341222</v>
       </c>
       <c r="ME3">
-        <v>1.040477005104038</v>
+        <v>1.045268936545737</v>
       </c>
       <c r="MF3">
-        <v>1.040297070402517</v>
+        <v>1.045144016154447</v>
       </c>
       <c r="MG3">
-        <v>1.039830415639119</v>
+        <v>1.044885404807495</v>
       </c>
       <c r="MH3">
-        <v>1.039832977072166</v>
+        <v>1.044881656157582</v>
       </c>
       <c r="MI3">
-        <v>1.039363684752738</v>
+        <v>1.044520761667341</v>
       </c>
       <c r="MJ3">
-        <v>1.039409009586301</v>
+        <v>1.044585220252418</v>
       </c>
       <c r="MK3">
-        <v>1.039902601233185</v>
+        <v>1.045116928082379</v>
       </c>
       <c r="ML3">
-        <v>1.040476583776694</v>
+        <v>1.045268517149764</v>
       </c>
       <c r="MM3">
-        <v>1.039823250365405</v>
+        <v>1.044881394135437</v>
       </c>
       <c r="MN3">
-        <v>1.039832666952521</v>
+        <v>1.044880760974788</v>
       </c>
       <c r="MO3">
-        <v>1.039360934491517</v>
+        <v>1.044517757212132</v>
       </c>
       <c r="MP3">
-        <v>1.039395049464655</v>
+        <v>1.044574820277689</v>
       </c>
       <c r="MQ3">
-        <v>1.039900120040504</v>
+        <v>1.045116661601446</v>
       </c>
       <c r="MR3">
-        <v>1.040476266362597</v>
+        <v>1.045268201190697</v>
       </c>
       <c r="MS3">
-        <v>1.039832330140782</v>
+        <v>1.044879788743337</v>
       </c>
       <c r="MT3">
-        <v>1.039359798667933</v>
+        <v>1.044516516409603</v>
       </c>
       <c r="MU3">
-        <v>1.039377410562219</v>
+        <v>1.044561679693625</v>
       </c>
       <c r="MV3">
-        <v>1.039898066518124</v>
+        <v>1.045116441052419</v>
       </c>
       <c r="MW3">
-        <v>1.040476034127936</v>
+        <v>1.045267970020603</v>
       </c>
       <c r="MX3">
-        <v>1.039832035117892</v>
+        <v>1.044878937138424</v>
       </c>
       <c r="MY3">
-        <v>1.039358997226659</v>
+        <v>1.044515640894802</v>
       </c>
       <c r="MZ3">
-        <v>1.039366358173101</v>
+        <v>1.044553445912763</v>
       </c>
       <c r="NA3">
-        <v>1.039895684310965</v>
+        <v>1.045116185202498</v>
       </c>
       <c r="NB3">
-        <v>1.040475916197861</v>
+        <v>1.045267852631121</v>
       </c>
       <c r="NC3">
-        <v>1.039831721656069</v>
+        <v>1.0448780323082</v>
       </c>
       <c r="ND3">
-        <v>1.039358177476771</v>
+        <v>1.044514745379208</v>
       </c>
       <c r="NE3">
-        <v>1.039349386043013</v>
+        <v>1.044540802057502</v>
       </c>
       <c r="NF3">
-        <v>1.039893066099245</v>
+        <v>1.04511590400556</v>
       </c>
       <c r="NG3">
-        <v>1.040475742815616</v>
+        <v>1.045267680043662</v>
       </c>
       <c r="NH3">
-        <v>1.039831274278956</v>
+        <v>1.044876740921809</v>
       </c>
       <c r="NI3">
-        <v>1.039357210230454</v>
+        <v>1.04451368873477</v>
       </c>
       <c r="NJ3">
-        <v>1.039332466822199</v>
+        <v>1.04452819761754</v>
       </c>
       <c r="NK3">
-        <v>1.039878792541252</v>
+        <v>1.045114371019228</v>
       </c>
       <c r="NL3">
-        <v>1.040475452170347</v>
+        <v>1.045267390730715</v>
       </c>
       <c r="NM3">
-        <v>1.039830730410061</v>
+        <v>1.044875171004919</v>
       </c>
       <c r="NN3">
-        <v>1.039355990118296</v>
+        <v>1.044512355853268</v>
       </c>
       <c r="NO3">
-        <v>1.039313482932396</v>
+        <v>1.044514055044407</v>
       </c>
       <c r="NP3">
-        <v>1.039774823675709</v>
+        <v>1.045051610901008</v>
       </c>
       <c r="NQ3">
-        <v>1.039873017864621</v>
+        <v>1.045196701533649</v>
       </c>
       <c r="NR3">
-        <v>1.040474155766855</v>
+        <v>1.045266100269952</v>
       </c>
       <c r="NS3">
-        <v>1.0398273593369</v>
+        <v>1.044865440158671</v>
       </c>
       <c r="NT3">
-        <v>1.039354897389118</v>
+        <v>1.044511162128169</v>
       </c>
       <c r="NU3">
-        <v>1.039299745523408</v>
+        <v>1.044503820981368</v>
       </c>
       <c r="NV3">
-        <v>1.039675245747361</v>
+        <v>1.044991501184469</v>
       </c>
       <c r="NW3">
-        <v>1.039837560575581</v>
+        <v>1.045702222812477</v>
       </c>
       <c r="NX3">
-        <v>1.039873017864627</v>
+        <v>1.045196701533652</v>
       </c>
       <c r="NY3">
-        <v>1.040469390224174</v>
+        <v>1.045261356572576</v>
       </c>
       <c r="NZ3">
-        <v>1.039815824432085</v>
+        <v>1.044832143824895</v>
       </c>
       <c r="OA3">
-        <v>1.039354032740027</v>
+        <v>1.044510217563548</v>
       </c>
       <c r="OB3">
-        <v>1.039283371794959</v>
+        <v>1.04449162291839</v>
       </c>
       <c r="OC3">
-        <v>1.039670812833345</v>
+        <v>1.04498882527457</v>
       </c>
       <c r="OD3">
-        <v>1.039824601819488</v>
+        <v>1.045886978626739</v>
       </c>
       <c r="OE3">
-        <v>1.039873017864661</v>
+        <v>1.045196701533667</v>
       </c>
       <c r="OF3">
-        <v>1.039352548794196</v>
+        <v>1.044508596463446</v>
       </c>
       <c r="OG3">
-        <v>1.039259613771446</v>
+        <v>1.044473923718543</v>
       </c>
       <c r="OH3">
-        <v>1.039584680292989</v>
+        <v>1.044980222015796</v>
       </c>
       <c r="OI3">
-        <v>1.039604126218026</v>
+        <v>1.044941238595261</v>
       </c>
       <c r="OJ3">
-        <v>1.039823282787981</v>
+        <v>1.045905784358151</v>
       </c>
       <c r="OK3">
-        <v>1.039873017864664</v>
+        <v>1.045196701533667</v>
       </c>
       <c r="OL3">
-        <v>1.039347368499413</v>
+        <v>1.044502937377921</v>
       </c>
       <c r="OM3">
-        <v>1.039242000101372</v>
+        <v>1.044460801924374</v>
       </c>
       <c r="ON3">
-        <v>1.03957678833009</v>
+        <v>1.044979433735077</v>
       </c>
       <c r="OO3">
-        <v>1.03957195377231</v>
+        <v>1.044918280747729</v>
       </c>
       <c r="OP3">
-        <v>1.039822362276555</v>
+        <v>1.045918908299614</v>
       </c>
       <c r="OQ3">
-        <v>1.039873017864664</v>
+        <v>1.045196701533668</v>
       </c>
       <c r="OR3">
-        <v>1.039315698096123</v>
+        <v>1.044468339825965</v>
       </c>
       <c r="OS3">
-        <v>1.039225008890506</v>
+        <v>1.044448143847587</v>
       </c>
       <c r="OT3">
-        <v>1.039572301912255</v>
+        <v>1.044978985613759</v>
       </c>
       <c r="OU3">
-        <v>1.039474894822543</v>
+        <v>1.044849020640908</v>
       </c>
       <c r="OV3">
-        <v>1.039571953772303</v>
+        <v>1.044918280747728</v>
       </c>
       <c r="OW3">
-        <v>1.039821408708506</v>
+        <v>1.045932503537953</v>
       </c>
       <c r="OX3">
-        <v>1.039873017864665</v>
+        <v>1.045196701533668</v>
       </c>
       <c r="OY3">
-        <v>1.039208379619194</v>
+        <v>1.044435755406877</v>
       </c>
       <c r="OZ3">
-        <v>1.03956925552681</v>
+        <v>1.044978681328615</v>
       </c>
       <c r="PA3">
-        <v>1.039336659629102</v>
+        <v>1.044750377460639</v>
       </c>
       <c r="PB3">
-        <v>1.039571953772302</v>
+        <v>1.044918280747728</v>
       </c>
       <c r="PC3">
-        <v>1.039817404279227</v>
+        <v>1.045989595616413</v>
       </c>
       <c r="PD3">
-        <v>1.039873017864666</v>
+        <v>1.045196701533669</v>
       </c>
       <c r="PE3">
-        <v>1.039188380413851</v>
+        <v>1.044420856438394</v>
       </c>
       <c r="PF3">
-        <v>1.039564290724907</v>
+        <v>1.04497818542436</v>
       </c>
       <c r="PG3">
-        <v>1.039307732419433</v>
+        <v>1.044729735278594</v>
       </c>
       <c r="PH3">
-        <v>1.0395719537723</v>
+        <v>1.044918280747729</v>
       </c>
       <c r="PI3">
-        <v>1.039816426491539</v>
+        <v>1.04600353616553</v>
       </c>
       <c r="PJ3">
-        <v>1.039873017864677</v>
+        <v>1.045196701533674</v>
       </c>
       <c r="PK3">
-        <v>1.039154885431639</v>
+        <v>1.044395903409851</v>
       </c>
       <c r="PL3">
-        <v>1.039188380413851</v>
+        <v>1.044420856438394</v>
       </c>
       <c r="PM3">
-        <v>1.03954778742083</v>
+        <v>1.044976537008277</v>
       </c>
       <c r="PN3">
-        <v>1.039300338965635</v>
+        <v>1.044724459378558</v>
       </c>
       <c r="PO3">
-        <v>1.039571953772299</v>
+        <v>1.044918280747729</v>
       </c>
       <c r="PP3">
-        <v>1.039815493788481</v>
+        <v>1.046016833933545</v>
       </c>
       <c r="PQ3">
-        <v>1.039873017864681</v>
+        <v>1.045196701533677</v>
       </c>
       <c r="PR3">
-        <v>1.039041909405171</v>
+        <v>1.04431173871664</v>
       </c>
       <c r="PS3">
-        <v>1.039154885431639</v>
+        <v>1.044395903409851</v>
       </c>
       <c r="PT3">
-        <v>1.039529414071412</v>
+        <v>1.04497470180436</v>
       </c>
       <c r="PU3">
-        <v>1.039296465642877</v>
+        <v>1.044721695411107</v>
       </c>
       <c r="PV3">
-        <v>1.039571953772298</v>
+        <v>1.04491828074773</v>
       </c>
       <c r="PW3">
-        <v>1.039814566158459</v>
+        <v>1.046030059375129</v>
       </c>
       <c r="PX3">
-        <v>1.039873017864683</v>
+        <v>1.045196701533678</v>
       </c>
       <c r="PY3">
-        <v>1.03888211664101</v>
+        <v>1.044192696497749</v>
       </c>
       <c r="PZ3">
-        <v>1.039041909405171</v>
+        <v>1.04431173871664</v>
       </c>
       <c r="QA3">
-        <v>1.03951908097264</v>
+        <v>1.044973669692862</v>
       </c>
       <c r="QB3">
-        <v>1.039293254704345</v>
+        <v>1.044719404114802</v>
       </c>
       <c r="QC3">
-        <v>1.039571953772297</v>
+        <v>1.044918280747731</v>
       </c>
       <c r="QD3">
-        <v>1.039813502047269</v>
+        <v>1.046045230662429</v>
       </c>
       <c r="QE3">
-        <v>1.039873017864685</v>
+        <v>1.045196701533679</v>
       </c>
       <c r="QF3">
-        <v>1.038767456296542</v>
+        <v>1.04410727692343</v>
       </c>
       <c r="QG3">
-        <v>1.03888211664101</v>
+        <v>1.044192696497749</v>
       </c>
       <c r="QH3">
-        <v>1.039509374122542</v>
+        <v>1.044972700133536</v>
       </c>
       <c r="QI3">
-        <v>1.039290652417784</v>
+        <v>1.044717547146872</v>
       </c>
       <c r="QJ3">
-        <v>1.039571953772296</v>
+        <v>1.044918280747731</v>
       </c>
       <c r="QK3">
-        <v>1.039809827202057</v>
+        <v>1.046097623818399</v>
       </c>
       <c r="QL3">
-        <v>1.039873017864687</v>
+        <v>1.04519670153368</v>
       </c>
       <c r="QM3">
-        <v>1.038732668394196</v>
+        <v>1.044081360650628</v>
       </c>
       <c r="QN3">
-        <v>1.038767456296542</v>
+        <v>1.04410727692343</v>
       </c>
       <c r="QO3">
-        <v>1.039500112986917</v>
+        <v>1.04497177509391</v>
       </c>
       <c r="QP3">
-        <v>1.039286674644338</v>
+        <v>1.044714708643901</v>
       </c>
       <c r="QQ3">
-        <v>1.039571953772296</v>
+        <v>1.044918280747732</v>
       </c>
       <c r="QR3">
-        <v>1.039791918960875</v>
+        <v>1.046352946170977</v>
       </c>
       <c r="QS3">
-        <v>1.039873017864689</v>
+        <v>1.045196701533681</v>
       </c>
       <c r="QT3">
-        <v>1.038640555085735</v>
+        <v>1.044015604071437</v>
       </c>
       <c r="QU3">
-        <v>1.038732668394196</v>
+        <v>1.044081360650628</v>
       </c>
       <c r="QV3">
-        <v>1.038714602848378</v>
+        <v>1.044063125430301</v>
       </c>
       <c r="QW3">
-        <v>1.039484907584826</v>
+        <v>1.044970256316818</v>
       </c>
       <c r="QX3">
-        <v>1.039283088742952</v>
+        <v>1.044712149777104</v>
       </c>
       <c r="QY3">
-        <v>1.039571953772296</v>
+        <v>1.044918280747732</v>
       </c>
       <c r="QZ3">
-        <v>1.039873017864691</v>
+        <v>1.045196701533682</v>
       </c>
       <c r="RA3">
-        <v>1.038538212947522</v>
+        <v>1.043942545441006</v>
       </c>
       <c r="RB3">
-        <v>1.038640555085735</v>
+        <v>1.044015604071437</v>
       </c>
       <c r="RC3">
-        <v>1.038640555085735</v>
+        <v>1.044015604071437</v>
       </c>
       <c r="RD3">
-        <v>1.038711964599355</v>
+        <v>1.044060462402418</v>
       </c>
       <c r="RE3">
-        <v>1.039474316733898</v>
+        <v>1.044969198459675</v>
       </c>
       <c r="RF3">
-        <v>1.039279675849459</v>
+        <v>1.04470971436703</v>
       </c>
       <c r="RG3">
-        <v>1.039571953772296</v>
+        <v>1.044918280747733</v>
       </c>
       <c r="RH3">
-        <v>1.039873017864703</v>
+        <v>1.045196701533685</v>
       </c>
       <c r="RI3">
-        <v>1.038500709790098</v>
+        <v>1.043915773181638</v>
       </c>
       <c r="RJ3">
-        <v>1.038538212947522</v>
+        <v>1.043942545441006</v>
       </c>
       <c r="RK3">
-        <v>1.038710526031165</v>
+        <v>1.044059010322964</v>
       </c>
       <c r="RL3">
-        <v>1.039466875369194</v>
+        <v>1.044968455185945</v>
       </c>
       <c r="RM3">
-        <v>1.039275831018282</v>
+        <v>1.044706970729942</v>
       </c>
       <c r="RN3">
-        <v>1.039571953772296</v>
+        <v>1.044918280747734</v>
       </c>
       <c r="RO3">
-        <v>1.039873017864703</v>
+        <v>1.045196701533686</v>
       </c>
       <c r="RP3">
-        <v>1.038435630571104</v>
+        <v>1.043865957688148</v>
       </c>
       <c r="RQ3">
-        <v>1.038500709790098</v>
+        <v>1.043915773181638</v>
       </c>
       <c r="RR3">
-        <v>1.038423482940173</v>
+        <v>1.043878917679133</v>
       </c>
       <c r="RS3">
-        <v>1.038709551514053</v>
+        <v>1.044058026653031</v>
       </c>
       <c r="RT3">
-        <v>1.039463319840791</v>
+        <v>1.044968100045313</v>
       </c>
       <c r="RU3">
-        <v>1.039271769639804</v>
+        <v>1.044704072566444</v>
       </c>
       <c r="RV3">
-        <v>1.039571953772295</v>
+        <v>1.044918280747736</v>
       </c>
       <c r="RW3">
-        <v>1.039873017864703</v>
+        <v>1.045196701533685</v>
       </c>
       <c r="RX3">
-        <v>1.03834235677469</v>
+        <v>1.043794560367776</v>
       </c>
       <c r="RY3">
-        <v>1.038435630571104</v>
+        <v>1.043865957688148</v>
       </c>
       <c r="RZ3">
-        <v>1.038422145455533</v>
+        <v>1.043877586364635</v>
       </c>
       <c r="SA3">
-        <v>1.038402303554403</v>
+        <v>1.04387369344766</v>
       </c>
       <c r="SB3">
-        <v>1.038708071285137</v>
+        <v>1.044056532521566</v>
       </c>
       <c r="SC3">
-        <v>1.039461067511063</v>
+        <v>1.044967875073459</v>
       </c>
       <c r="SD3">
-        <v>1.039262889546036</v>
+        <v>1.044697735809947</v>
       </c>
       <c r="SE3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747738</v>
       </c>
       <c r="SF3">
-        <v>1.039873017864704</v>
+        <v>1.045196701533685</v>
       </c>
       <c r="SG3">
-        <v>1.038285434955617</v>
+        <v>1.043750989001776</v>
       </c>
       <c r="SH3">
-        <v>1.03834235677469</v>
+        <v>1.043794560367776</v>
       </c>
       <c r="SI3">
-        <v>1.038421580132482</v>
+        <v>1.043877023649556</v>
       </c>
       <c r="SJ3">
-        <v>1.038388751160902</v>
+        <v>1.043870350534516</v>
       </c>
       <c r="SK3">
-        <v>1.038705824891647</v>
+        <v>1.044054265029587</v>
       </c>
       <c r="SL3">
-        <v>1.039459544658706</v>
+        <v>1.04496772296477</v>
       </c>
       <c r="SM3">
-        <v>1.039061487098732</v>
+        <v>1.044554016543987</v>
       </c>
       <c r="SN3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="SO3">
-        <v>1.039873017864704</v>
+        <v>1.045196701533685</v>
       </c>
       <c r="SP3">
-        <v>1.03827563244185</v>
+        <v>1.043743485570122</v>
       </c>
       <c r="SQ3">
-        <v>1.038285434955617</v>
+        <v>1.043750989001776</v>
       </c>
       <c r="SR3">
-        <v>1.038421247959743</v>
+        <v>1.043876693009212</v>
       </c>
       <c r="SS3">
-        <v>1.038704231149674</v>
+        <v>1.044052656318933</v>
       </c>
       <c r="ST3">
-        <v>1.039457420463929</v>
+        <v>1.04496751079155</v>
       </c>
       <c r="SU3">
-        <v>1.039049859849282</v>
+        <v>1.044536866525462</v>
       </c>
       <c r="SV3">
-        <v>1.039031190126143</v>
+        <v>1.044532903553222</v>
       </c>
       <c r="SW3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="SX3">
-        <v>1.038263494190819</v>
+        <v>1.043731375936069</v>
       </c>
       <c r="SY3">
-        <v>1.03827563244185</v>
+        <v>1.043743485570122</v>
       </c>
       <c r="SZ3">
-        <v>1.03818853516925</v>
+        <v>1.043694347214778</v>
       </c>
       <c r="TA3">
-        <v>1.038420942260858</v>
+        <v>1.04387638872059</v>
       </c>
       <c r="TB3">
-        <v>1.038703142286242</v>
+        <v>1.04405155722872</v>
       </c>
       <c r="TC3">
-        <v>1.039455799261785</v>
+        <v>1.04496734885928</v>
       </c>
       <c r="TD3">
-        <v>1.039039606190228</v>
+        <v>1.044521742533219</v>
       </c>
       <c r="TE3">
-        <v>1.039014845782756</v>
+        <v>1.044521513698338</v>
       </c>
       <c r="TF3">
-        <v>1.039571953772293</v>
+        <v>1.04491828074774</v>
       </c>
       <c r="TG3">
-        <v>1.038254558993672</v>
+        <v>1.043722461804208</v>
       </c>
       <c r="TH3">
-        <v>1.038263494190819</v>
+        <v>1.043731375936069</v>
       </c>
       <c r="TI3">
-        <v>1.038137067599431</v>
+        <v>1.043665310364966</v>
       </c>
       <c r="TJ3">
-        <v>1.038420669908849</v>
+        <v>1.043876117625007</v>
       </c>
       <c r="TK3">
-        <v>1.038702281870448</v>
+        <v>1.044050688731762</v>
       </c>
       <c r="TL3">
-        <v>1.039444230005382</v>
+        <v>1.044966193274802</v>
       </c>
       <c r="TM3">
-        <v>1.039012404851595</v>
+        <v>1.044519812690477</v>
       </c>
       <c r="TN3">
-        <v>1.039571953772293</v>
+        <v>1.04491828074774</v>
       </c>
       <c r="TO3">
-        <v>1.038242393714071</v>
+        <v>1.043710325204719</v>
       </c>
       <c r="TP3">
-        <v>1.038254558993672</v>
+        <v>1.043722461804208</v>
       </c>
       <c r="TQ3">
-        <v>1.038096287467489</v>
+        <v>1.043642303136103</v>
       </c>
       <c r="TR3">
-        <v>1.038420387374581</v>
+        <v>1.043875836394137</v>
       </c>
       <c r="TS3">
-        <v>1.038699523148537</v>
+        <v>1.044047904099487</v>
       </c>
       <c r="TT3">
-        <v>1.039442085223284</v>
+        <v>1.044964014712825</v>
       </c>
       <c r="TU3">
-        <v>1.039332004025156</v>
+        <v>1.044960688286511</v>
       </c>
       <c r="TV3">
-        <v>1.039010541599484</v>
+        <v>1.044518514248855</v>
       </c>
       <c r="TW3">
-        <v>1.039571953772293</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="TX3">
-        <v>1.03823378487664</v>
+        <v>1.043701736662748</v>
       </c>
       <c r="TY3">
-        <v>1.038242393714071</v>
+        <v>1.043710325204719</v>
       </c>
       <c r="TZ3">
-        <v>1.038079436810436</v>
+        <v>1.043632796378247</v>
       </c>
       <c r="UA3">
-        <v>1.038419534449229</v>
+        <v>1.043874987403536</v>
       </c>
       <c r="UB3">
-        <v>1.038677209191521</v>
+        <v>1.044025380566168</v>
       </c>
       <c r="UC3">
-        <v>1.03943971689393</v>
+        <v>1.044961609082682</v>
       </c>
       <c r="UD3">
-        <v>1.039008798977621</v>
+        <v>1.044517299870608</v>
       </c>
       <c r="UE3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="UF3">
-        <v>1.038209709881667</v>
+        <v>1.043677718424025</v>
       </c>
       <c r="UG3">
-        <v>1.03823378487664</v>
+        <v>1.043701736662748</v>
       </c>
       <c r="UH3">
-        <v>1.038077904294489</v>
+        <v>1.043631916742869</v>
       </c>
       <c r="UI3">
-        <v>1.038029849898475</v>
+        <v>1.043605018220517</v>
       </c>
       <c r="UJ3">
-        <v>1.038418674905402</v>
+        <v>1.043874131824993</v>
       </c>
       <c r="UK3">
-        <v>1.038676097978316</v>
+        <v>1.044024258916268</v>
       </c>
       <c r="UL3">
-        <v>1.039433297383949</v>
+        <v>1.044955088466037</v>
       </c>
       <c r="UM3">
-        <v>1.039006940688856</v>
+        <v>1.044516004887699</v>
       </c>
       <c r="UN3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="UO3">
-        <v>1.03819227722838</v>
+        <v>1.043660326866992</v>
       </c>
       <c r="UP3">
-        <v>1.038209709881667</v>
+        <v>1.043677718424025</v>
       </c>
       <c r="UQ3">
-        <v>1.038077340375001</v>
+        <v>1.043631593063672</v>
       </c>
       <c r="UR3">
-        <v>1.037992337123089</v>
+        <v>1.043584003899448</v>
       </c>
       <c r="US3">
-        <v>1.038410643656427</v>
+        <v>1.043866137626118</v>
       </c>
       <c r="UT3">
-        <v>1.038675221192306</v>
+        <v>1.044023373895341</v>
       </c>
       <c r="UU3">
-        <v>1.039005296330131</v>
+        <v>1.044514858985859</v>
       </c>
       <c r="UV3">
-        <v>1.039571953772294</v>
+        <v>1.044918280747739</v>
       </c>
       <c r="UW3">
-        <v>1.038190439440545</v>
+        <v>1.043658944272895</v>
       </c>
       <c r="UX3">
-        <v>1.03819227722838</v>
+        <v>1.043660326866992</v>
       </c>
       <c r="UY3">
-        <v>1.038160407856736</v>
+        <v>1.043621450194178</v>
       </c>
       <c r="UZ3">
-        <v>1.038076500374936</v>
+        <v>1.043631110919408</v>
       </c>
       <c r="VA3">
-        <v>1.038674229961907</v>
+        <v>1.044022373355145</v>
       </c>
       <c r="VB3">
-        <v>1.039003614443182</v>
+        <v>1.044513686931746</v>
       </c>
       <c r="VC3">
-        <v>1.038190004286141</v>
+        <v>1.043658616900004</v>
       </c>
       <c r="VD3">
-        <v>1.038190439440545</v>
+        <v>1.043658944272895</v>
       </c>
       <c r="VE3">
-        <v>1.038156379009235</v>
+        <v>1.043616535500838</v>
       </c>
       <c r="VF3">
-        <v>1.038075994927706</v>
+        <v>1.04363082080219</v>
       </c>
       <c r="VG3">
-        <v>1.038673347735471</v>
+        <v>1.044021482842696</v>
       </c>
       <c r="VH3">
-        <v>1.038994933745726</v>
+        <v>1.044507637626139</v>
       </c>
       <c r="VI3">
-        <v>1.0381782074209</v>
+        <v>1.043649741948958</v>
       </c>
       <c r="VJ3">
-        <v>1.038190004286141</v>
+        <v>1.043658616900004</v>
       </c>
       <c r="VK3">
-        <v>1.038190004286143</v>
+        <v>1.043658616900009</v>
       </c>
       <c r="VL3">
-        <v>1.038153405987036</v>
+        <v>1.043612908783163</v>
       </c>
       <c r="VM3">
-        <v>1.038075385039146</v>
+        <v>1.043630470737609</v>
       </c>
       <c r="VN3">
-        <v>1.038672332292872</v>
+        <v>1.044020457862896</v>
       </c>
       <c r="VO3">
-        <v>1.038985189419082</v>
+        <v>1.044493204465695</v>
       </c>
       <c r="VP3">
-        <v>1.038976615094691</v>
+        <v>1.044495189889518</v>
       </c>
       <c r="VQ3">
-        <v>1.038169940010189</v>
+        <v>1.043643522256797</v>
       </c>
       <c r="VR3">
-        <v>1.0381782074209</v>
+        <v>1.043649741948958</v>
       </c>
       <c r="VS3">
-        <v>1.038190004286144</v>
+        <v>1.043658616900011</v>
       </c>
       <c r="VT3">
-        <v>1.038150513213669</v>
+        <v>1.043609379959084</v>
       </c>
       <c r="VU3">
-        <v>1.038074849531111</v>
+        <v>1.043630163366053</v>
       </c>
       <c r="VV3">
-        <v>1.038671291118685</v>
+        <v>1.044019406909833</v>
       </c>
       <c r="VW3">
-        <v>1.038984627881651</v>
+        <v>1.044492372724308</v>
       </c>
       <c r="VX3">
-        <v>1.038889076128086</v>
+        <v>1.044435706080235</v>
       </c>
       <c r="VY3">
-        <v>1.03816932797274</v>
+        <v>1.043638797700126</v>
       </c>
       <c r="VZ3">
-        <v>1.038168047258402</v>
+        <v>1.043642604237548</v>
       </c>
       <c r="WA3">
-        <v>1.038190004286144</v>
+        <v>1.043658616900011</v>
       </c>
       <c r="WB3">
-        <v>1.038123339531787</v>
+        <v>1.043576231443103</v>
       </c>
       <c r="WC3">
-        <v>1.038071345345523</v>
+        <v>1.043628152029335</v>
       </c>
       <c r="WD3">
-        <v>1.038670039631431</v>
+        <v>1.044018143668408</v>
       </c>
       <c r="WE3">
-        <v>1.038984345856743</v>
+        <v>1.044491954992961</v>
       </c>
       <c r="WF3">
-        <v>1.038859387494018</v>
+        <v>1.044406168007229</v>
       </c>
       <c r="WG3">
-        <v>1.038789730924469</v>
+        <v>1.044369329581506</v>
       </c>
       <c r="WH3">
-        <v>1.038168782166859</v>
+        <v>1.043634584413911</v>
       </c>
       <c r="WI3">
-        <v>1.03816932797274</v>
+        <v>1.043638797700126</v>
       </c>
       <c r="WJ3">
-        <v>1.03816932797274</v>
+        <v>1.043638797700126</v>
       </c>
       <c r="WK3">
-        <v>1.038083776172643</v>
+        <v>1.043601731463253</v>
       </c>
       <c r="WL3">
-        <v>1.038168047258402</v>
+        <v>1.043642604237548</v>
       </c>
       <c r="WM3">
-        <v>1.038190004286145</v>
+        <v>1.043658616900013</v>
       </c>
       <c r="WN3">
-        <v>1.038110692657551</v>
+        <v>1.043560803827451</v>
       </c>
       <c r="WO3">
-        <v>1.038045507948294</v>
+        <v>1.043613321848774</v>
       </c>
       <c r="WP3">
-        <v>1.038669255038052</v>
+        <v>1.044017351706001</v>
       </c>
       <c r="WQ3">
-        <v>1.038984109363565</v>
+        <v>1.044491604702575</v>
       </c>
       <c r="WR3">
-        <v>1.038843720717339</v>
+        <v>1.044390580682033</v>
       </c>
       <c r="WS3">
-        <v>1.038694576261654</v>
+        <v>1.044305752821564</v>
       </c>
       <c r="WT3">
-        <v>1.038167591479812</v>
+        <v>1.043625392817901</v>
       </c>
       <c r="WU3">
-        <v>1.038168782166859</v>
+        <v>1.043634584413911</v>
       </c>
       <c r="WV3">
-        <v>1.038168782166859</v>
+        <v>1.043634584413911</v>
       </c>
       <c r="WW3">
-        <v>1.038063941312254</v>
+        <v>1.043592111249256</v>
       </c>
       <c r="WX3">
-        <v>1.038190004286146</v>
+        <v>1.043658616900013</v>
       </c>
       <c r="WY3">
-        <v>1.03810475696634</v>
+        <v>1.043553563021409</v>
       </c>
       <c r="WZ3">
-        <v>1.038665883119523</v>
+        <v>1.044013948117867</v>
       </c>
       <c r="XA3">
-        <v>1.038983916511653</v>
+        <v>1.044491319053022</v>
       </c>
       <c r="XB3">
-        <v>1.038688986047804</v>
+        <v>1.044300341372384</v>
       </c>
       <c r="XC3">
-        <v>1.038668824503661</v>
+        <v>1.044288853154583</v>
       </c>
       <c r="XD3">
-        <v>1.038165969489721</v>
+        <v>1.043612871750344</v>
       </c>
       <c r="XE3">
-        <v>1.038190004286146</v>
+        <v>1.043658616900014</v>
       </c>
       <c r="XF3">
-        <v>1.038100797768712</v>
+        <v>1.043548733292031</v>
       </c>
       <c r="XG3">
-        <v>1.038651667511097</v>
+        <v>1.043999598994142</v>
       </c>
       <c r="XH3">
-        <v>1.038983613790496</v>
+        <v>1.044490870666679</v>
       </c>
       <c r="XI3">
-        <v>1.038687615311794</v>
+        <v>1.044299014469968</v>
       </c>
       <c r="XJ3">
-        <v>1.038662899813756</v>
+        <v>1.044284965058052</v>
       </c>
       <c r="XK3">
-        <v>1.038165493741818</v>
+        <v>1.043609199181513</v>
       </c>
       <c r="XL3">
-        <v>1.038190004286146</v>
+        <v>1.043658616900014</v>
       </c>
       <c r="XM3">
-        <v>1.038094744892875</v>
+        <v>1.043541349535237</v>
       </c>
       <c r="XN3">
-        <v>1.038982891934393</v>
+        <v>1.044489801463524</v>
       </c>
       <c r="XO3">
-        <v>1.038686674065303</v>
+        <v>1.044298103322795</v>
       </c>
       <c r="XP3">
-        <v>1.038659959699455</v>
+        <v>1.044283035598536</v>
       </c>
       <c r="XQ3">
-        <v>1.038163919104607</v>
+        <v>1.043597043663492</v>
       </c>
       <c r="XR3">
-        <v>1.038190004286147</v>
+        <v>1.043658616900015</v>
       </c>
       <c r="XS3">
-        <v>1.038082923698352</v>
+        <v>1.043526929145923</v>
       </c>
       <c r="XT3">
-        <v>1.038982392526864</v>
+        <v>1.044489061748082</v>
       </c>
       <c r="XU3">
-        <v>1.038685369293909</v>
+        <v>1.044296840275569</v>
       </c>
       <c r="XV3">
-        <v>1.038656728744162</v>
+        <v>1.044280915273536</v>
       </c>
       <c r="XW3">
-        <v>1.038190004286147</v>
+        <v>1.043658616900015</v>
       </c>
       <c r="XX3">
-        <v>1.038079656016974</v>
+        <v>1.043522942980408</v>
       </c>
       <c r="XY3">
-        <v>1.038981757533218</v>
+        <v>1.044488121204384</v>
       </c>
       <c r="XZ3">
-        <v>1.038682275291164</v>
+        <v>1.044293845213289</v>
       </c>
       <c r="YA3">
-        <v>1.038653000703508</v>
+        <v>1.044278468734454</v>
       </c>
       <c r="YB3">
-        <v>1.038190004286148</v>
+        <v>1.043658616900015</v>
       </c>
       <c r="YC3">
-        <v>1.038078707356675</v>
+        <v>1.043521785732643</v>
       </c>
       <c r="YD3">
-        <v>1.038981371779984</v>
+        <v>1.044487549832095</v>
       </c>
       <c r="YE3">
-        <v>1.038679923339396</v>
+        <v>1.044291568472574</v>
       </c>
       <c r="YF3">
-        <v>1.038649231908949</v>
+        <v>1.044275995450283</v>
       </c>
       <c r="YG3">
-        <v>1.038190004286148</v>
+        <v>1.043658616900015</v>
       </c>
       <c r="YH3">
-        <v>1.038078492170764</v>
+        <v>1.043521187312056</v>
       </c>
       <c r="YI3">
-        <v>1.038075479227874</v>
+        <v>1.043519632115119</v>
       </c>
       <c r="YJ3">
-        <v>1.038981023527086</v>
+        <v>1.04448703400478</v>
       </c>
       <c r="YK3">
-        <v>1.038678272305008</v>
+        <v>1.044289970235201</v>
       </c>
       <c r="YL3">
-        <v>1.038645053714121</v>
+        <v>1.044273253495565</v>
       </c>
       <c r="YM3">
-        <v>1.038190004286149</v>
+        <v>1.043658616900016</v>
       </c>
       <c r="YN3">
-        <v>1.038078290775041</v>
+        <v>1.04352062724125</v>
       </c>
       <c r="YO3">
-        <v>1.038071219499952</v>
+        <v>1.043516790275357</v>
       </c>
       <c r="YP3">
-        <v>1.038980436186264</v>
+        <v>1.044486164043781</v>
       </c>
       <c r="YQ3">
-        <v>1.038676542702074</v>
+        <v>1.044288295941758</v>
       </c>
       <c r="YR3">
-        <v>1.038638977745244</v>
+        <v>1.044269266119659</v>
       </c>
       <c r="YS3">
-        <v>1.038190004286149</v>
+        <v>1.043658616900016</v>
       </c>
       <c r="YT3">
-        <v>1.03807808331146</v>
+        <v>1.043520050296054</v>
       </c>
       <c r="YU3">
-        <v>1.038053522620531</v>
+        <v>1.043504983958651</v>
       </c>
       <c r="YV3">
-        <v>1.038979858750788</v>
+        <v>1.044485308754443</v>
       </c>
       <c r="YW3">
-        <v>1.038675122680971</v>
+        <v>1.044286921330294</v>
       </c>
       <c r="YX3">
-        <v>1.038633984729943</v>
+        <v>1.044266460745578</v>
       </c>
       <c r="YY3">
-        <v>1.038624294784282</v>
+        <v>1.04425944442975</v>
       </c>
       <c r="YZ3">
-        <v>1.038190004286149</v>
+        <v>1.043658616900016</v>
       </c>
       <c r="ZA3">
-        <v>1.038076583303161</v>
+        <v>1.043515878852719</v>
       </c>
       <c r="ZB3">
-        <v>1.03804600718083</v>
+        <v>1.043499970099323</v>
       </c>
       <c r="ZC3">
-        <v>1.038979585539798</v>
+        <v>1.044484904078153</v>
       </c>
       <c r="ZD3">
-        <v>1.038672771516932</v>
+        <v>1.044284645352117</v>
       </c>
       <c r="ZE3">
-        <v>1.038630986424597</v>
+        <v>1.04426477611862</v>
       </c>
       <c r="ZF3">
-        <v>1.038531319195583</v>
+        <v>1.044197251363398</v>
       </c>
       <c r="ZG3">
-        <v>1.038190004286149</v>
+        <v>1.043658616900016</v>
       </c>
       <c r="ZH3">
-        <v>1.038065660076231</v>
+        <v>1.04348550194134</v>
       </c>
       <c r="ZI3">
-        <v>1.038979285454588</v>
+        <v>1.044484459596145</v>
       </c>
       <c r="ZJ3">
-        <v>1.038665173251618</v>
+        <v>1.04427729006522</v>
       </c>
       <c r="ZK3">
-        <v>1.038628205062455</v>
+        <v>1.044263213383296</v>
       </c>
       <c r="ZL3">
-        <v>1.03846476776202</v>
+        <v>1.04415273382651</v>
       </c>
       <c r="ZM3">
-        <v>1.038978997437034</v>
+        <v>1.044484032988581</v>
       </c>
       <c r="ZN3">
-        <v>1.038647418964227</v>
+        <v>1.044260103526961</v>
       </c>
       <c r="ZO3">
-        <v>1.038625491195782</v>
+        <v>1.044261688570946</v>
       </c>
       <c r="ZP3">
-        <v>1.038350137715899</v>
+        <v>1.044115933418593</v>
       </c>
       <c r="ZQ3">
-        <v>1.038309649711726</v>
+        <v>1.044036693319458</v>
       </c>
       <c r="ZR3">
-        <v>1.038978650090258</v>
+        <v>1.044483518503403</v>
       </c>
       <c r="ZS3">
-        <v>1.038623455613876</v>
+        <v>1.044260544859475</v>
       </c>
       <c r="ZT3">
-        <v>1.038343309666723</v>
+        <v>1.044114216018507</v>
       </c>
       <c r="ZU3">
-        <v>1.038339275943741</v>
+        <v>1.044111121293081</v>
       </c>
       <c r="ZV3">
-        <v>1.038271481363673</v>
+        <v>1.04402503569062</v>
       </c>
       <c r="ZW3">
-        <v>1.038279465577572</v>
+        <v>1.04401318310959</v>
       </c>
       <c r="ZX3">
-        <v>1.038978096028154</v>
+        <v>1.04448269783438</v>
       </c>
       <c r="ZY3">
-        <v>1.03862022195802</v>
+        <v>1.044258727998503</v>
       </c>
       <c r="ZZ3">
-        <v>1.038341173127658</v>
+        <v>1.044113678633328</v>
       </c>
       <c r="AAA3">
-        <v>1.03831714880789</v>
+        <v>1.044101318237394</v>
       </c>
       <c r="AAB3">
-        <v>1.038249369431959</v>
+        <v>1.044018282117449</v>
       </c>
       <c r="AAC3">
-        <v>1.038223018680025</v>
+        <v>1.043969249935988</v>
       </c>
       <c r="AAD3">
-        <v>1.038976579621777</v>
+        <v>1.044480451754511</v>
       </c>
       <c r="AAE3">
-        <v>1.038614769888825</v>
+        <v>1.044255664700404</v>
       </c>
       <c r="AAF3">
-        <v>1.038339799394917</v>
+        <v>1.044113333110218</v>
       </c>
       <c r="AAG3">
-        <v>1.038074121439543</v>
+        <v>1.043853361696949</v>
       </c>
       <c r="AAH3">
-        <v>1.038223018680025</v>
+        <v>1.043969249935988</v>
       </c>
       <c r="AAI3">
-        <v>1.038974561563246</v>
+        <v>1.044477462634511</v>
       </c>
       <c r="AAJ3">
-        <v>1.038573917850822</v>
+        <v>1.044232711584326</v>
       </c>
       <c r="AAK3">
-        <v>1.038338970797915</v>
+        <v>1.044113124700384</v>
       </c>
       <c r="AAL3">
-        <v>1.037917526446496</v>
+        <v>1.043745277423161</v>
       </c>
       <c r="AAM3">
-        <v>1.038048586944803</v>
+        <v>1.043815717166386</v>
       </c>
       <c r="AAN3">
-        <v>1.038223018680024</v>
+        <v>1.043969249935987</v>
       </c>
       <c r="AAO3">
-        <v>1.038974369349734</v>
+        <v>1.044477177930555</v>
       </c>
       <c r="AAP3">
-        <v>1.038540404021046</v>
+        <v>1.044213881510504</v>
       </c>
       <c r="AAQ3">
-        <v>1.038338133324791</v>
+        <v>1.044112914058015</v>
       </c>
       <c r="AAR3">
-        <v>1.037755903740239</v>
+        <v>1.043633722815905</v>
       </c>
       <c r="AAS3">
-        <v>1.038045853417589</v>
+        <v>1.043811687231843</v>
       </c>
       <c r="AAT3">
-        <v>1.038223018680024</v>
+        <v>1.043969249935987</v>
       </c>
       <c r="AAU3">
-        <v>1.038974217336359</v>
+        <v>1.044476952770475</v>
       </c>
       <c r="AAV3">
-        <v>1.038529785675595</v>
+        <v>1.044207915488708</v>
       </c>
       <c r="AAW3">
-        <v>1.03833738528509</v>
+        <v>1.04411272591006</v>
       </c>
       <c r="AAX3">
-        <v>1.037705326724006</v>
+        <v>1.043599134395534</v>
       </c>
       <c r="AAY3">
-        <v>1.037633811927831</v>
+        <v>1.043547194272081</v>
       </c>
       <c r="AAZ3">
-        <v>1.038044809719043</v>
+        <v>1.043810148547037</v>
       </c>
       <c r="ABA3">
-        <v>1.038223018680023</v>
+        <v>1.043969249935986</v>
       </c>
       <c r="ABB3">
-        <v>1.038974069694938</v>
+        <v>1.044476734086072</v>
       </c>
       <c r="ABC3">
-        <v>1.038520119028959</v>
+        <v>1.04420248418812</v>
       </c>
       <c r="ABD3">
-        <v>1.038336542504237</v>
+        <v>1.044112513932682</v>
       </c>
       <c r="ABE3">
-        <v>1.037636600495562</v>
+        <v>1.043552134139839</v>
       </c>
       <c r="ABF3">
-        <v>1.037617434194752</v>
+        <v>1.043535587092804</v>
       </c>
       <c r="ABG3">
-        <v>1.038043705692549</v>
+        <v>1.043808520923056</v>
       </c>
       <c r="ABH3">
-        <v>1.038223018680023</v>
+        <v>1.043969249935985</v>
       </c>
       <c r="ABI3">
-        <v>1.038973911555062</v>
+        <v>1.044476499851505</v>
       </c>
       <c r="ABJ3">
-        <v>1.038514854055913</v>
+        <v>1.044199526011125</v>
       </c>
       <c r="ABK3">
-        <v>1.038335867266439</v>
+        <v>1.044112344095959</v>
       </c>
       <c r="ABL3">
-        <v>1.0375561360226</v>
+        <v>1.043497106344636</v>
       </c>
       <c r="ABM3">
-        <v>1.037608829714293</v>
+        <v>1.043529488950353</v>
       </c>
       <c r="ABN3">
-        <v>1.038042789446356</v>
+        <v>1.043807170136387</v>
       </c>
       <c r="ABO3">
-        <v>1.038223018680022</v>
+        <v>1.043969249935984</v>
       </c>
       <c r="ABP3">
-        <v>1.038973765342805</v>
+        <v>1.044476283283961</v>
       </c>
       <c r="ABQ3">
-        <v>1.038510649149711</v>
+        <v>1.044197163443108</v>
       </c>
       <c r="ABR3">
-        <v>1.038335057318216</v>
+        <v>1.044112140376688</v>
       </c>
       <c r="ABS3">
-        <v>1.037491526355647</v>
+        <v>1.043452921262228</v>
       </c>
       <c r="ABT3">
-        <v>1.037586259496866</v>
+        <v>1.043510523889421</v>
       </c>
       <c r="ABU3">
-        <v>1.037607972582703</v>
+        <v>1.043528978391106</v>
       </c>
       <c r="ABV3">
-        <v>1.038041704385602</v>
+        <v>1.043805570472883</v>
       </c>
       <c r="ABW3">
-        <v>1.038223018680021</v>
+        <v>1.043969249935983</v>
       </c>
       <c r="ABX3">
-        <v>1.038973627553209</v>
+        <v>1.044476079191942</v>
       </c>
       <c r="ABY3">
-        <v>1.038507063560216</v>
+        <v>1.044195148844273</v>
       </c>
       <c r="ABZ3">
-        <v>1.038334184502128</v>
+        <v>1.044111920844806</v>
       </c>
       <c r="ACA3">
-        <v>1.037471799226449</v>
+        <v>1.043440694385237</v>
       </c>
       <c r="ACB3">
-        <v>1.037451389918727</v>
+        <v>1.043413578830192</v>
       </c>
       <c r="ACC3">
-        <v>1.037567912707337</v>
+        <v>1.043495107645201</v>
       </c>
       <c r="ACD3">
-        <v>1.037607352753371</v>
+        <v>1.043528609183388</v>
       </c>
       <c r="ACE3">
-        <v>1.038040646187609</v>
+        <v>1.043804010412126</v>
       </c>
       <c r="ACF3">
-        <v>1.03822301868002</v>
+        <v>1.043969249935982</v>
       </c>
       <c r="ACG3">
-        <v>1.038973435914245</v>
+        <v>1.044475795338995</v>
       </c>
       <c r="ACH3">
-        <v>1.038502855845826</v>
+        <v>1.044192784698405</v>
       </c>
       <c r="ACI3">
-        <v>1.038332592094707</v>
+        <v>1.044111520320337</v>
       </c>
       <c r="ACJ3">
-        <v>1.037444601256958</v>
+        <v>1.043423837077471</v>
       </c>
       <c r="ACK3">
-        <v>1.037417841128235</v>
+        <v>1.043380693723879</v>
       </c>
       <c r="ACL3">
-        <v>1.037606829672681</v>
+        <v>1.043528297604994</v>
       </c>
       <c r="ACM3">
-        <v>1.038039191391952</v>
+        <v>1.04380186566264</v>
       </c>
       <c r="ACN3">
-        <v>1.038223018680019</v>
+        <v>1.043969249935981</v>
       </c>
       <c r="ACO3">
-        <v>1.038973201068542</v>
+        <v>1.044475447488832</v>
       </c>
       <c r="ACP3">
-        <v>1.038499011089628</v>
+        <v>1.044190624484161</v>
       </c>
       <c r="ACQ3">
-        <v>1.03832067840205</v>
+        <v>1.044108523772165</v>
       </c>
       <c r="ACR3">
-        <v>1.037377693447564</v>
+        <v>1.043382367586543</v>
       </c>
       <c r="ACS3">
-        <v>1.037409754214307</v>
+        <v>1.043372828333889</v>
       </c>
       <c r="ACT3">
-        <v>1.037417250404788</v>
+        <v>1.04338011245806</v>
       </c>
       <c r="ACU3">
-        <v>1.037605946128888</v>
+        <v>1.043527771313044</v>
       </c>
       <c r="ACV3">
-        <v>1.038037190085003</v>
+        <v>1.043798915212522</v>
       </c>
       <c r="ACW3">
-        <v>1.038223018680018</v>
+        <v>1.043969249935981</v>
       </c>
       <c r="ACX3">
-        <v>1.038972087960837</v>
+        <v>1.044473798769307</v>
       </c>
       <c r="ACY3">
-        <v>1.038493046408781</v>
+        <v>1.044187273169276</v>
       </c>
       <c r="ACZ3">
-        <v>1.038284168963066</v>
+        <v>1.044099340867624</v>
       </c>
       <c r="ADA3">
-        <v>1.037323463742858</v>
+        <v>1.043348755974822</v>
       </c>
       <c r="ADB3">
-        <v>1.037401829905873</v>
+        <v>1.0433651210954</v>
       </c>
       <c r="ADC3">
-        <v>1.037416685597394</v>
+        <v>1.043379556693371</v>
       </c>
       <c r="ADD3">
-        <v>1.037604708830402</v>
+        <v>1.043527034303468</v>
       </c>
       <c r="ADE3">
-        <v>1.03803507213557</v>
+        <v>1.04379579280089</v>
       </c>
       <c r="ADF3">
-        <v>1.038223018680018</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="ADG3">
-        <v>1.038962570573635</v>
+        <v>1.044459701748959</v>
       </c>
       <c r="ADH3">
-        <v>1.038481004311743</v>
+        <v>1.044180507197897</v>
       </c>
       <c r="ADI3">
-        <v>1.037281090262369</v>
+        <v>1.043322492849876</v>
       </c>
       <c r="ADJ3">
-        <v>1.037416076705519</v>
+        <v>1.043378957550005</v>
       </c>
       <c r="ADK3">
-        <v>1.037603790725978</v>
+        <v>1.043526487425118</v>
       </c>
       <c r="ADL3">
-        <v>1.038033665239735</v>
+        <v>1.043793718668326</v>
       </c>
       <c r="ADM3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="ADN3">
-        <v>1.038478815258363</v>
+        <v>1.044179306109212</v>
       </c>
       <c r="ADO3">
-        <v>1.038472609895541</v>
+        <v>1.044175618703904</v>
       </c>
       <c r="ADP3">
-        <v>1.037242792846012</v>
+        <v>1.04329875606602</v>
       </c>
       <c r="ADQ3">
-        <v>1.037415533011593</v>
+        <v>1.043378422560752</v>
       </c>
       <c r="ADR3">
-        <v>1.037602269847781</v>
+        <v>1.043525581498365</v>
       </c>
       <c r="ADS3">
-        <v>1.038032233358327</v>
+        <v>1.043791607700503</v>
       </c>
       <c r="ADT3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="ADU3">
-        <v>1.038476906197283</v>
+        <v>1.044178258646556</v>
       </c>
       <c r="ADV3">
-        <v>1.03845917760896</v>
+        <v>1.044167796402329</v>
       </c>
       <c r="ADW3">
-        <v>1.03724002638978</v>
+        <v>1.043296407877528</v>
       </c>
       <c r="ADX3">
-        <v>1.037228840394234</v>
+        <v>1.04329255830656</v>
       </c>
       <c r="ADY3">
-        <v>1.037414932592257</v>
+        <v>1.043377831754278</v>
       </c>
       <c r="ADZ3">
-        <v>1.037591713403648</v>
+        <v>1.043519293443652</v>
       </c>
       <c r="AEA3">
-        <v>1.038031548714324</v>
+        <v>1.043790598356121</v>
       </c>
       <c r="AEB3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="AEC3">
-        <v>1.038475327316854</v>
+        <v>1.044177392347248</v>
       </c>
       <c r="AED3">
-        <v>1.038447701034971</v>
+        <v>1.044161113011037</v>
       </c>
       <c r="AEE3">
-        <v>1.037237252665701</v>
+        <v>1.043294053520039</v>
       </c>
       <c r="AEF3">
-        <v>1.037206547969058</v>
+        <v>1.043282655901394</v>
       </c>
       <c r="AEG3">
-        <v>1.037228840394234</v>
+        <v>1.04329255830656</v>
       </c>
       <c r="AEH3">
-        <v>1.03741454548218</v>
+        <v>1.043377450841929</v>
       </c>
       <c r="AEI3">
-        <v>1.037568395521994</v>
+        <v>1.043505403906591</v>
       </c>
       <c r="AEJ3">
-        <v>1.038030459705055</v>
+        <v>1.043788992871552</v>
       </c>
       <c r="AEK3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="AEL3">
-        <v>1.038474099502733</v>
+        <v>1.044176718670822</v>
       </c>
       <c r="AEM3">
-        <v>1.03844120574416</v>
+        <v>1.04415733047353</v>
       </c>
       <c r="AEN3">
-        <v>1.037234473558061</v>
+        <v>1.043291694592952</v>
       </c>
       <c r="AEO3">
-        <v>1.037187856530819</v>
+        <v>1.043274353070006</v>
       </c>
       <c r="AEP3">
-        <v>1.037206547969058</v>
+        <v>1.043282655901394</v>
       </c>
       <c r="AEQ3">
-        <v>1.03741395090755</v>
+        <v>1.043376865786585</v>
       </c>
       <c r="AER3">
-        <v>1.038029437367217</v>
+        <v>1.043787485678121</v>
       </c>
       <c r="AES3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="AET3">
-        <v>1.038472850739776</v>
+        <v>1.044176033500198</v>
       </c>
       <c r="AEU3">
-        <v>1.03723171127405</v>
+        <v>1.043289349945889</v>
       </c>
       <c r="AEV3">
-        <v>1.03716776371573</v>
+        <v>1.043265427737521</v>
       </c>
       <c r="AEW3">
-        <v>1.037187856530819</v>
+        <v>1.043274353070006</v>
       </c>
       <c r="AEX3">
-        <v>1.037409060380892</v>
+        <v>1.043372053558459</v>
       </c>
       <c r="AEY3">
-        <v>1.038027976616433</v>
+        <v>1.043785332149325</v>
       </c>
       <c r="AEZ3">
-        <v>1.038223018680017</v>
+        <v>1.04396924993598</v>
       </c>
       <c r="AFA3">
-        <v>1.038471767035555</v>
+        <v>1.044175438893915</v>
       </c>
       <c r="AFB3">
-        <v>1.037228938492017</v>
+        <v>1.043286996388034</v>
       </c>
       <c r="AFC3">
-        <v>1.03715126680808</v>
+        <v>1.043258099723866</v>
       </c>
       <c r="AFD3">
-        <v>1.03716776371573</v>
+        <v>1.043265427737521</v>
       </c>
       <c r="AFE3">
-        <v>1.03739220541695</v>
+        <v>1.043355468446607</v>
       </c>
       <c r="AFF3">
-        <v>1.038012557399629</v>
+        <v>1.043762600190843</v>
       </c>
       <c r="AFG3">
-        <v>1.038470988702662</v>
+        <v>1.044175011838617</v>
       </c>
       <c r="AFH3">
-        <v>1.03722616759427</v>
+        <v>1.043284644429581</v>
       </c>
       <c r="AFI3">
-        <v>1.037133555567198</v>
+        <v>1.043250232295089</v>
       </c>
       <c r="AFJ3">
-        <v>1.03715126680808</v>
+        <v>1.043258099723866</v>
       </c>
       <c r="AFK3">
-        <v>1.038006390101425</v>
+        <v>1.043753507980654</v>
       </c>
       <c r="AFL3">
-        <v>1.038470085056746</v>
+        <v>1.044174516026633</v>
       </c>
       <c r="AFM3">
-        <v>1.037223394946984</v>
+        <v>1.043282290986112</v>
       </c>
       <c r="AFN3">
-        <v>1.037040110133395</v>
+        <v>1.043208723473071</v>
       </c>
       <c r="AFO3">
-        <v>1.0371335555672</v>
+        <v>1.043250232295088</v>
       </c>
       <c r="AFP3">
-        <v>1.037133555567198</v>
+        <v>1.043250232295089</v>
       </c>
       <c r="AFQ3">
-        <v>1.038003258358268</v>
+        <v>1.04374889097244</v>
       </c>
       <c r="AFR3">
-        <v>1.038468723702016</v>
+        <v>1.044173769079208</v>
       </c>
       <c r="AFS3">
-        <v>1.037222041530083</v>
+        <v>1.043281142195865</v>
       </c>
       <c r="AFT3">
-        <v>1.03702643879627</v>
+        <v>1.043202650611593</v>
       </c>
       <c r="AFU3">
-        <v>1.037133555567202</v>
+        <v>1.043250232295086</v>
       </c>
       <c r="AFV3">
-        <v>1.0371335555672</v>
+        <v>1.043250232295088</v>
       </c>
       <c r="AFW3">
-        <v>1.038002565364165</v>
+        <v>1.043747869317957</v>
       </c>
       <c r="AFX3">
-        <v>1.038466499522976</v>
+        <v>1.044172548717772</v>
       </c>
       <c r="AFY3">
-        <v>1.037191623295179</v>
+        <v>1.043255322974105</v>
       </c>
       <c r="AFZ3">
-        <v>1.03698792355929</v>
+        <v>1.043185541991414</v>
       </c>
       <c r="AGA3">
-        <v>1.037133555567205</v>
+        <v>1.043250232295083</v>
       </c>
       <c r="AGB3">
-        <v>1.037133555567202</v>
+        <v>1.043250232295086</v>
       </c>
       <c r="AGC3">
-        <v>1.038002019597331</v>
+        <v>1.043747064714959</v>
       </c>
       <c r="AGD3">
-        <v>1.038455074925665</v>
+        <v>1.044169007565872</v>
       </c>
       <c r="AGE3">
-        <v>1.038449396321421</v>
+        <v>1.044155902309366</v>
       </c>
       <c r="AGF3">
-        <v>1.037171842896818</v>
+        <v>1.043238533226704</v>
       </c>
       <c r="AGG3">
-        <v>1.036942697016928</v>
+        <v>1.043165452180815</v>
       </c>
       <c r="AGH3">
-        <v>1.037133555567207</v>
+        <v>1.043250232295081</v>
       </c>
       <c r="AGI3">
-        <v>1.037133555567205</v>
+        <v>1.043250232295083</v>
       </c>
       <c r="AGJ3">
-        <v>1.038001434843904</v>
+        <v>1.043746202635534</v>
       </c>
       <c r="AGK3">
-        <v>1.037154542955372</v>
+        <v>1.043223848909592</v>
       </c>
       <c r="AGL3">
-        <v>1.036936830158365</v>
+        <v>1.043162846098663</v>
       </c>
       <c r="AGM3">
-        <v>1.037133555567208</v>
+        <v>1.043250232295081</v>
       </c>
       <c r="AGN3">
-        <v>1.037133555567207</v>
+        <v>1.043250232295081</v>
       </c>
       <c r="AGO3">
-        <v>1.038000966998446</v>
+        <v>1.043745512909019</v>
       </c>
       <c r="AGP3">
-        <v>1.037136396455252</v>
+        <v>1.043208446027514</v>
       </c>
       <c r="AGQ3">
-        <v>1.036931097860496</v>
+        <v>1.043162325042507</v>
       </c>
       <c r="AGR3">
-        <v>1.036933176928997</v>
+        <v>1.043156717354258</v>
       </c>
       <c r="AGS3">
-        <v>1.037133555567208</v>
+        <v>1.04325023229508</v>
       </c>
       <c r="AGT3">
-        <v>1.037133555567208</v>
+        <v>1.043250232295081</v>
       </c>
       <c r="AGU3">
-        <v>1.038000512739694</v>
+        <v>1.043744843212865</v>
       </c>
       <c r="AGV3">
-        <v>1.037105411605386</v>
+        <v>1.043182145860808</v>
       </c>
       <c r="AGW3">
-        <v>1.036925793612192</v>
+        <v>1.04316184289532</v>
       </c>
       <c r="AGX3">
-        <v>1.036924627388691</v>
+        <v>1.043142374442408</v>
       </c>
       <c r="AGY3">
-        <v>1.037133555567208</v>
+        <v>1.04325023229508</v>
       </c>
       <c r="AGZ3">
-        <v>1.037133555567208</v>
+        <v>1.04325023229508</v>
       </c>
       <c r="AHA3">
-        <v>1.038000059633122</v>
+        <v>1.043744175215323</v>
       </c>
       <c r="AHB3">
-        <v>1.037097811689941</v>
+        <v>1.043175694997222</v>
       </c>
       <c r="AHC3">
-        <v>1.0369177280377</v>
+        <v>1.043161109748239</v>
       </c>
       <c r="AHD3">
-        <v>1.036904345323772</v>
+        <v>1.043108348769448</v>
       </c>
       <c r="AHE3">
-        <v>1.037999611827919</v>
+        <v>1.04374351503339</v>
       </c>
       <c r="AHF3">
-        <v>1.037095247820745</v>
+        <v>1.04317198360547</v>
       </c>
       <c r="AHG3">
-        <v>1.037075465501561</v>
+        <v>1.043162588779686</v>
       </c>
       <c r="AHH3">
-        <v>1.036907535357082</v>
+        <v>1.043160183250773</v>
       </c>
       <c r="AHI3">
-        <v>1.037991604140462</v>
+        <v>1.043731709608919</v>
       </c>
       <c r="AHJ3">
-        <v>1.037091038157795</v>
+        <v>1.043165889804624</v>
       </c>
       <c r="AHK3">
-        <v>1.037056512927288</v>
+        <v>1.043151472945237</v>
       </c>
       <c r="AHL3">
-        <v>1.036867855453022</v>
+        <v>1.043156576414091</v>
       </c>
       <c r="AHM3">
-        <v>1.037978310369977</v>
+        <v>1.043705979451152</v>
       </c>
       <c r="AHN3">
-        <v>1.037977947842947</v>
+        <v>1.043715006975471</v>
       </c>
       <c r="AHO3">
-        <v>1.037090205815053</v>
+        <v>1.043164684926478</v>
       </c>
       <c r="AHP3">
-        <v>1.037024657541101</v>
+        <v>1.043132789512571</v>
       </c>
       <c r="AHQ3">
-        <v>1.036795774317995</v>
+        <v>1.043150024358387</v>
       </c>
       <c r="AHR3">
-        <v>1.037969481785795</v>
+        <v>1.043688891684552</v>
       </c>
       <c r="AHS3">
-        <v>1.037089502503363</v>
+        <v>1.043163666830397</v>
       </c>
       <c r="AHT3">
-        <v>1.037088909824943</v>
+        <v>1.04316280888422</v>
       </c>
       <c r="AHU3">
-        <v>1.03708813884915</v>
+        <v>1.043161692839309</v>
       </c>
       <c r="AHV3">
-        <v>1.037086743503049</v>
+        <v>1.043159672971855</v>
       </c>
       <c r="AHW3">
-        <v>1.037084324222796</v>
+        <v>1.043156170883429</v>
       </c>
       <c r="AHX3">
-        <v>1.037064507773312</v>
+        <v>1.043127485096762</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3100,5451 +3100,5451 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.049823934652852</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.049757590663703</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.049750635423549</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.049744119455758</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.049738438467596</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.049729488680874</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.049120050900493</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.049092755206487</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.049070036494181</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.049050099016507</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.049035221891676</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.049021255934284</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.049012668146743</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.048991288407376</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.048818094825655</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.048818094825654</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.048608068445486</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.048818094825654</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.048593617367412</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.048577390496199</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.048550969872657</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.048502904381789</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.048386778883015</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.047976975811914</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.048364649951207</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.048377174477741</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.047836965786082</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.048818094825653</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.048313973143612</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.048376849223743</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.047764243471386</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.048818094825654</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.048376381567319</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.047761807169723</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.04775230543107</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.047186782239813</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.047453134641679</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.048818094825654</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.048375781829878</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.047760709055672</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.04772358024849</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.04698551168014</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.047453134641678</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.048818094825654</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.048374321199097</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.047759545289861</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.046956492555071</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.046985511680143</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.047453134641677</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.048818094825655</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.048373070632486</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.047758436883471</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.046825043694392</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.046985511680144</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.047453134641677</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.048818094825656</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.048367075864746</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.047757773057678</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.046799919957274</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.046764646963654</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.046985511680144</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.047453134641676</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.048818094825657</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1.048345886418464</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.047756470680217</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.046503092693633</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.046752124488353</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.046747647938045</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.046985511680143</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.047453134641676</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.048818094825663</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.047749870181483</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.046399626545435</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.046985511680143</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.047453134641673</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.048818094825671</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.047724998033386</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.046377046855943</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.046985511680143</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.047453134641669</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.048818094825675</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.046331258820597</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.046985511680143</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>1.047453134641668</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>1.048818094825677</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>1.046288078591403</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1.047453134641668</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>1.048818094825677</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>1.046262980634245</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>1.047453134641667</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>1.048818094825678</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>1.046246405310875</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>1.047453134641667</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>1.048818094825678</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1.046223519416829</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>1.047453134641677</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>1.048818094825678</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>1.046222897801378</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>1.0462119923122</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>1.047453134641677</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>1.046222145732687</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>1.046205455872787</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>1.047453134641677</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>1.04622127403179</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>1.045947545719572</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>1.047453134641679</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>1.046219944947245</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>1.045921708770901</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>1.047453134641681</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>1.046218236230348</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>1.04592006668065</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>1.045860702630763</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>1.047453134641681</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>1.046217009535827</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>1.045920066680649</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>1.045919267157316</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>1.045750686309868</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>1.047453134641681</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>1.046215276226841</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>1.045920066680649</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>1.045915511268816</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>1.045701212148027</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>1.047453134641681</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>1.046213400912863</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>1.045920066680649</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>1.045895702168696</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>1.045907895914241</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>1.045686492241139</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>1.046211632342499</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>1.045920066680649</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>1.045893996217988</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>1.045902230515156</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>1.045669876387744</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>1.046208724534048</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>1.045920066680649</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>1.045892322356271</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>1.045898436547181</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>1.045654249489818</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>1.046194898598761</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>1.045920066680648</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>1.045890970783834</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>1.045896948876434</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>1.045855715604359</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>1.04563601589443</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>1.04619188670363</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>1.045888942180995</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>1.045893003491078</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>1.045853115333521</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>1.045630769274164</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>1.04613096633798</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>1.04618261797782</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>1.045886496473613</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>1.045850739848416</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>1.045600962401686</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>1.04745313464168</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>1.046119457453525</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>1.046170312829811</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>1.045884648792387</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1.045869002855239</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>1.045849753039289</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>1.045584127315004</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>1.046095712308115</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>1.046169187607409</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>1.046145218523099</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>1.045882510703573</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>1.045866558773305</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>1.045847625983885</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>1.045571630173228</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>1.046164759561138</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>1.046041358545494</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>1.045880500348371</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>1.045864194673515</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>1.04584220839952</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>1.045560394665634</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>1.046156853519856</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>1.046030727591325</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>1.046035770873232</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="GT2">
-        <v>1.045878337324419</v>
+        <v>0</v>
       </c>
       <c r="GU2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="GV2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="GW2">
-        <v>1.045862303630619</v>
+        <v>0</v>
       </c>
       <c r="GX2">
-        <v>1.045839029930149</v>
+        <v>0</v>
       </c>
       <c r="GY2">
-        <v>1.045546436982987</v>
+        <v>0</v>
       </c>
       <c r="GZ2">
-        <v>1.046144564721926</v>
+        <v>0</v>
       </c>
       <c r="HA2">
-        <v>1.046155510772944</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>1.046003849914141</v>
+        <v>0</v>
       </c>
       <c r="HC2">
-        <v>1.046034981050215</v>
+        <v>0</v>
       </c>
       <c r="HD2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="HE2">
-        <v>1.045875030709998</v>
+        <v>0</v>
       </c>
       <c r="HF2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="HG2">
-        <v>1.045860797265865</v>
+        <v>0</v>
       </c>
       <c r="HH2">
-        <v>1.045836803719536</v>
+        <v>0</v>
       </c>
       <c r="HI2">
-        <v>1.045520680422457</v>
+        <v>0</v>
       </c>
       <c r="HJ2">
-        <v>1.046104341854215</v>
+        <v>0</v>
       </c>
       <c r="HK2">
-        <v>1.046153087347077</v>
+        <v>0</v>
       </c>
       <c r="HL2">
-        <v>1.046034344080297</v>
+        <v>0</v>
       </c>
       <c r="HM2">
-        <v>1.045920066680647</v>
+        <v>0</v>
       </c>
       <c r="HN2">
-        <v>1.045866000700749</v>
+        <v>0</v>
       </c>
       <c r="HO2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="HP2">
-        <v>1.045857612569524</v>
+        <v>0</v>
       </c>
       <c r="HQ2">
-        <v>1.045832521386342</v>
+        <v>0</v>
       </c>
       <c r="HR2">
-        <v>1.045498224806078</v>
+        <v>0</v>
       </c>
       <c r="HS2">
-        <v>1.046087002450113</v>
+        <v>0</v>
       </c>
       <c r="HT2">
-        <v>1.046152222049527</v>
+        <v>0</v>
       </c>
       <c r="HU2">
-        <v>1.046033835047065</v>
+        <v>0</v>
       </c>
       <c r="HV2">
-        <v>1.045865230773072</v>
+        <v>0</v>
       </c>
       <c r="HW2">
-        <v>1.045891633045171</v>
+        <v>0</v>
       </c>
       <c r="HX2">
-        <v>1.045855104545265</v>
+        <v>0</v>
       </c>
       <c r="HY2">
-        <v>1.045830389918845</v>
+        <v>0</v>
       </c>
       <c r="HZ2">
-        <v>1.045482949457172</v>
+        <v>0</v>
       </c>
       <c r="IA2">
-        <v>1.046055655724797</v>
+        <v>0</v>
       </c>
       <c r="IB2">
-        <v>1.046152222049527</v>
+        <v>0</v>
       </c>
       <c r="IC2">
-        <v>1.046033058002967</v>
+        <v>0</v>
       </c>
       <c r="ID2">
-        <v>1.045864875150692</v>
+        <v>0</v>
       </c>
       <c r="IE2">
-        <v>1.04589163304517</v>
+        <v>0</v>
       </c>
       <c r="IF2">
-        <v>1.045853364854657</v>
+        <v>0</v>
       </c>
       <c r="IG2">
-        <v>1.045828876445319</v>
+        <v>0</v>
       </c>
       <c r="IH2">
-        <v>1.045472914865511</v>
+        <v>0</v>
       </c>
       <c r="II2">
-        <v>1.046041632184232</v>
+        <v>0</v>
       </c>
       <c r="IJ2">
-        <v>1.046032147150723</v>
+        <v>0</v>
       </c>
       <c r="IK2">
-        <v>1.045864494769508</v>
+        <v>0</v>
       </c>
       <c r="IL2">
-        <v>1.04589163304517</v>
+        <v>0</v>
       </c>
       <c r="IM2">
-        <v>1.045851629308493</v>
+        <v>0</v>
       </c>
       <c r="IN2">
-        <v>1.045811562955575</v>
+        <v>0</v>
       </c>
       <c r="IO2">
-        <v>1.045451318727513</v>
+        <v>0</v>
       </c>
       <c r="IP2">
-        <v>1.046005172076447</v>
+        <v>0</v>
       </c>
       <c r="IQ2">
-        <v>1.046035047479802</v>
+        <v>0</v>
       </c>
       <c r="IR2">
-        <v>1.046030748135778</v>
+        <v>0</v>
       </c>
       <c r="IS2">
-        <v>1.045864131298536</v>
+        <v>0</v>
       </c>
       <c r="IT2">
-        <v>1.04589163304517</v>
+        <v>0</v>
       </c>
       <c r="IU2">
-        <v>1.045849090281865</v>
+        <v>0</v>
       </c>
       <c r="IV2">
-        <v>1.045806457491162</v>
+        <v>0</v>
       </c>
       <c r="IW2">
-        <v>1.045441485753938</v>
+        <v>0</v>
       </c>
       <c r="IX2">
-        <v>1.045437464324037</v>
+        <v>0</v>
       </c>
       <c r="IY2">
-        <v>1.046025628693595</v>
+        <v>0</v>
       </c>
       <c r="IZ2">
-        <v>1.045863726376298</v>
+        <v>0</v>
       </c>
       <c r="JA2">
-        <v>1.04589163304517</v>
+        <v>0</v>
       </c>
       <c r="JB2">
-        <v>1.045839540876462</v>
+        <v>0</v>
       </c>
       <c r="JC2">
-        <v>1.045805315247198</v>
+        <v>0</v>
       </c>
       <c r="JD2">
-        <v>1.045440126493707</v>
+        <v>0</v>
       </c>
       <c r="JE2">
-        <v>1.045385512391123</v>
+        <v>0</v>
       </c>
       <c r="JF2">
-        <v>1.046000712367223</v>
+        <v>0</v>
       </c>
       <c r="JG2">
-        <v>1.045862890560026</v>
+        <v>0</v>
       </c>
       <c r="JH2">
-        <v>1.045891633045169</v>
+        <v>0</v>
       </c>
       <c r="JI2">
-        <v>1.04583731203601</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
-        <v>1.045804084808119</v>
+        <v>0</v>
       </c>
       <c r="JK2">
-        <v>1.04580436918205</v>
+        <v>0</v>
       </c>
       <c r="JL2">
-        <v>1.045439501591828</v>
+        <v>0</v>
       </c>
       <c r="JM2">
-        <v>1.045372192849357</v>
+        <v>0</v>
       </c>
       <c r="JN2">
-        <v>1.045368866394408</v>
+        <v>0</v>
       </c>
       <c r="JO2">
-        <v>1.045862020062742</v>
+        <v>0</v>
       </c>
       <c r="JP2">
-        <v>1.04589163304517</v>
+        <v>0</v>
       </c>
       <c r="JQ2">
-        <v>1.045836290946151</v>
+        <v>0</v>
       </c>
       <c r="JR2">
-        <v>1.045802865400228</v>
+        <v>0</v>
       </c>
       <c r="JS2">
-        <v>1.045803259980204</v>
+        <v>0</v>
       </c>
       <c r="JT2">
-        <v>1.045438759387475</v>
+        <v>0</v>
       </c>
       <c r="JU2">
-        <v>1.045371224664935</v>
+        <v>0</v>
       </c>
       <c r="JV2">
-        <v>1.045308524730868</v>
+        <v>0</v>
       </c>
       <c r="JW2">
-        <v>1.045858709871402</v>
+        <v>0</v>
       </c>
       <c r="JX2">
-        <v>1.045891633045169</v>
+        <v>0</v>
       </c>
       <c r="JY2">
-        <v>1.04583561965669</v>
+        <v>0</v>
       </c>
       <c r="JZ2">
-        <v>1.04580225757032</v>
+        <v>0</v>
       </c>
       <c r="KA2">
-        <v>1.045437614255012</v>
+        <v>0</v>
       </c>
       <c r="KB2">
-        <v>1.045370426657048</v>
+        <v>0</v>
       </c>
       <c r="KC2">
-        <v>1.045274469840246</v>
+        <v>0</v>
       </c>
       <c r="KD2">
-        <v>1.045304864470744</v>
+        <v>0</v>
       </c>
       <c r="KE2">
-        <v>1.045841135593204</v>
+        <v>0</v>
       </c>
       <c r="KF2">
-        <v>1.045891633045169</v>
+        <v>0</v>
       </c>
       <c r="KG2">
-        <v>1.045833617538984</v>
+        <v>0</v>
       </c>
       <c r="KH2">
-        <v>1.045835284929381</v>
+        <v>0</v>
       </c>
       <c r="KI2">
-        <v>1.045801242329511</v>
+        <v>0</v>
       </c>
       <c r="KJ2">
-        <v>1.045436593861439</v>
+        <v>0</v>
       </c>
       <c r="KK2">
-        <v>1.0453692931484</v>
+        <v>0</v>
       </c>
       <c r="KL2">
-        <v>1.045258795120072</v>
+        <v>0</v>
       </c>
       <c r="KM2">
-        <v>1.045289524461412</v>
+        <v>0</v>
       </c>
       <c r="KN2">
-        <v>1.045832697850921</v>
+        <v>0</v>
       </c>
       <c r="KO2">
-        <v>1.04583504803092</v>
+        <v>0</v>
       </c>
       <c r="KP2">
-        <v>1.045800150740383</v>
+        <v>0</v>
       </c>
       <c r="KQ2">
-        <v>1.045435800528559</v>
+        <v>0</v>
       </c>
       <c r="KR2">
-        <v>1.045364201938882</v>
+        <v>0</v>
       </c>
       <c r="KS2">
-        <v>1.045156397566202</v>
+        <v>0</v>
       </c>
       <c r="KT2">
-        <v>1.045286138323222</v>
+        <v>0</v>
       </c>
       <c r="KU2">
-        <v>1.045831141295751</v>
+        <v>0</v>
       </c>
       <c r="KV2">
-        <v>1.045834772350926</v>
+        <v>0</v>
       </c>
       <c r="KW2">
-        <v>1.04579382012948</v>
+        <v>0</v>
       </c>
       <c r="KX2">
-        <v>1.045434813027988</v>
+        <v>0</v>
       </c>
       <c r="KY2">
-        <v>1.045363221827082</v>
+        <v>0</v>
       </c>
       <c r="KZ2">
-        <v>1.045148749300031</v>
+        <v>0</v>
       </c>
       <c r="LA2">
-        <v>1.045285013178344</v>
+        <v>0</v>
       </c>
       <c r="LB2">
-        <v>1.045828153589254</v>
+        <v>0</v>
       </c>
       <c r="LC2">
-        <v>1.04583424506327</v>
+        <v>0</v>
       </c>
       <c r="LD2">
-        <v>1.045767044042743</v>
+        <v>0</v>
       </c>
       <c r="LE2">
-        <v>1.045433791664498</v>
+        <v>0</v>
       </c>
       <c r="LF2">
-        <v>1.045362496134879</v>
+        <v>0</v>
       </c>
       <c r="LG2">
-        <v>1.045144299964325</v>
+        <v>0</v>
       </c>
       <c r="LH2">
-        <v>1.045028886180583</v>
+        <v>0</v>
       </c>
       <c r="LI2">
-        <v>1.045284425931885</v>
+        <v>0</v>
       </c>
       <c r="LJ2">
-        <v>1.045819357278322</v>
+        <v>0</v>
       </c>
       <c r="LK2">
-        <v>1.045832222823418</v>
+        <v>0</v>
       </c>
       <c r="LL2">
-        <v>1.045432586910852</v>
+        <v>0</v>
       </c>
       <c r="LM2">
-        <v>1.045361660216141</v>
+        <v>0</v>
       </c>
       <c r="LN2">
-        <v>1.045121384545064</v>
+        <v>0</v>
       </c>
       <c r="LO2">
-        <v>1.04497136395041</v>
+        <v>0</v>
       </c>
       <c r="LP2">
-        <v>1.045283923230657</v>
+        <v>0</v>
       </c>
       <c r="LQ2">
-        <v>1.045825321686168</v>
+        <v>0</v>
       </c>
       <c r="LR2">
-        <v>1.045431900361627</v>
+        <v>0</v>
       </c>
       <c r="LS2">
-        <v>1.045360830996793</v>
+        <v>0</v>
       </c>
       <c r="LT2">
-        <v>1.045113384337233</v>
+        <v>0</v>
       </c>
       <c r="LU2">
-        <v>1.044934484642007</v>
+        <v>0</v>
       </c>
       <c r="LV2">
-        <v>1.04487151567568</v>
+        <v>0</v>
       </c>
       <c r="LW2">
-        <v>1.045283351498175</v>
+        <v>0</v>
       </c>
       <c r="LX2">
-        <v>1.04542879880842</v>
+        <v>0</v>
       </c>
       <c r="LY2">
-        <v>1.045353546213103</v>
+        <v>0</v>
       </c>
       <c r="LZ2">
-        <v>1.045095972404153</v>
+        <v>0</v>
       </c>
       <c r="MA2">
-        <v>1.044919878609585</v>
+        <v>0</v>
       </c>
       <c r="MB2">
-        <v>1.044819997022458</v>
+        <v>0</v>
       </c>
       <c r="MC2">
-        <v>1.044857110742687</v>
+        <v>0</v>
       </c>
       <c r="MD2">
-        <v>1.045282901071446</v>
+        <v>0</v>
       </c>
       <c r="ME2">
-        <v>1.045427591748325</v>
+        <v>0</v>
       </c>
       <c r="MF2">
-        <v>1.045338655140269</v>
+        <v>0</v>
       </c>
       <c r="MG2">
-        <v>1.045093292547561</v>
+        <v>0</v>
       </c>
       <c r="MH2">
-        <v>1.04509051778868</v>
+        <v>0</v>
       </c>
       <c r="MI2">
-        <v>1.044794095785519</v>
+        <v>0</v>
       </c>
       <c r="MJ2">
-        <v>1.044844769935924</v>
+        <v>0</v>
       </c>
       <c r="MK2">
-        <v>1.045282523436194</v>
+        <v>0</v>
       </c>
       <c r="ML2">
-        <v>1.045427172416785</v>
+        <v>0</v>
       </c>
       <c r="MM2">
-        <v>1.045089282673691</v>
+        <v>0</v>
       </c>
       <c r="MN2">
-        <v>1.045089758285243</v>
+        <v>0</v>
       </c>
       <c r="MO2">
-        <v>1.044791685421468</v>
+        <v>0</v>
       </c>
       <c r="MP2">
-        <v>1.044836089329066</v>
+        <v>0</v>
       </c>
       <c r="MQ2">
-        <v>1.045282182689746</v>
+        <v>0</v>
       </c>
       <c r="MR2">
-        <v>1.04542685650626</v>
+        <v>0</v>
       </c>
       <c r="MS2">
-        <v>1.045088933411114</v>
+        <v>0</v>
       </c>
       <c r="MT2">
-        <v>1.044790689971177</v>
+        <v>0</v>
       </c>
       <c r="MU2">
-        <v>1.044825121201733</v>
+        <v>0</v>
       </c>
       <c r="MV2">
-        <v>1.04528190067596</v>
+        <v>0</v>
       </c>
       <c r="MW2">
-        <v>1.045426625371681</v>
+        <v>0</v>
       </c>
       <c r="MX2">
-        <v>1.045088210880628</v>
+        <v>0</v>
       </c>
       <c r="MY2">
-        <v>1.044789987577811</v>
+        <v>0</v>
       </c>
       <c r="MZ2">
-        <v>1.044818248664059</v>
+        <v>0</v>
       </c>
       <c r="NA2">
-        <v>1.045281573523282</v>
+        <v>0</v>
       </c>
       <c r="NB2">
-        <v>1.045426508000234</v>
+        <v>0</v>
       </c>
       <c r="NC2">
-        <v>1.045087443191983</v>
+        <v>0</v>
       </c>
       <c r="ND2">
-        <v>1.044789269138542</v>
+        <v>0</v>
       </c>
       <c r="NE2">
-        <v>1.044807695143741</v>
+        <v>0</v>
       </c>
       <c r="NF2">
-        <v>1.045281213959635</v>
+        <v>0</v>
       </c>
       <c r="NG2">
-        <v>1.045426335439289</v>
+        <v>0</v>
       </c>
       <c r="NH2">
-        <v>1.045086347535978</v>
+        <v>0</v>
       </c>
       <c r="NI2">
-        <v>1.04478842143152</v>
+        <v>0</v>
       </c>
       <c r="NJ2">
-        <v>1.044797174522131</v>
+        <v>0</v>
       </c>
       <c r="NK2">
-        <v>1.045279253745732</v>
+        <v>0</v>
       </c>
       <c r="NL2">
-        <v>1.045426046170788</v>
+        <v>0</v>
       </c>
       <c r="NM2">
-        <v>1.04508501556525</v>
+        <v>0</v>
       </c>
       <c r="NN2">
-        <v>1.044787352109646</v>
+        <v>0</v>
       </c>
       <c r="NO2">
-        <v>1.044785370057565</v>
+        <v>0</v>
       </c>
       <c r="NP2">
-        <v>1.04521067300286</v>
+        <v>0</v>
       </c>
       <c r="NQ2">
-        <v>1.045365766445719</v>
+        <v>0</v>
       </c>
       <c r="NR2">
-        <v>1.045424755908276</v>
+        <v>0</v>
       </c>
       <c r="NS2">
-        <v>1.045076759585276</v>
+        <v>0</v>
       </c>
       <c r="NT2">
-        <v>1.044786394427842</v>
+        <v>0</v>
       </c>
       <c r="NU2">
-        <v>1.044776827931844</v>
+        <v>0</v>
       </c>
       <c r="NV2">
-        <v>1.045144988497964</v>
+        <v>0</v>
       </c>
       <c r="NW2">
-        <v>1.045896966996056</v>
+        <v>0</v>
       </c>
       <c r="NX2">
-        <v>1.045365766445721</v>
+        <v>0</v>
       </c>
       <c r="NY2">
-        <v>1.04542001293966</v>
+        <v>0</v>
       </c>
       <c r="NZ2">
-        <v>1.045048509846064</v>
+        <v>0</v>
       </c>
       <c r="OA2">
-        <v>1.044785636638339</v>
+        <v>0</v>
       </c>
       <c r="OB2">
-        <v>1.044766646502467</v>
+        <v>0</v>
       </c>
       <c r="OC2">
-        <v>1.045142064415312</v>
+        <v>0</v>
       </c>
       <c r="OD2">
-        <v>1.046091107983631</v>
+        <v>0</v>
       </c>
       <c r="OE2">
-        <v>1.045365766445733</v>
+        <v>0</v>
       </c>
       <c r="OF2">
-        <v>1.044784336089264</v>
+        <v>0</v>
       </c>
       <c r="OG2">
-        <v>1.044751873406156</v>
+        <v>0</v>
       </c>
       <c r="OH2">
-        <v>1.045118147058619</v>
+        <v>0</v>
       </c>
       <c r="OI2">
-        <v>1.045092517157388</v>
+        <v>0</v>
       </c>
       <c r="OJ2">
-        <v>1.046110869003838</v>
+        <v>0</v>
       </c>
       <c r="OK2">
-        <v>1.045365766445734</v>
+        <v>0</v>
       </c>
       <c r="OL2">
-        <v>1.044779796012772</v>
+        <v>0</v>
       </c>
       <c r="OM2">
-        <v>1.044740920959873</v>
+        <v>0</v>
       </c>
       <c r="ON2">
-        <v>1.045115955611267</v>
+        <v>0</v>
       </c>
       <c r="OO2">
-        <v>1.045068613445368</v>
+        <v>0</v>
       </c>
       <c r="OP2">
-        <v>1.046124659612031</v>
+        <v>0</v>
       </c>
       <c r="OQ2">
-        <v>1.045365766445734</v>
+        <v>0</v>
       </c>
       <c r="OR2">
-        <v>1.044752039666902</v>
+        <v>0</v>
       </c>
       <c r="OS2">
-        <v>1.044730355567049</v>
+        <v>0</v>
       </c>
       <c r="OT2">
-        <v>1.045114709818699</v>
+        <v>0</v>
       </c>
       <c r="OU2">
-        <v>1.044996499828183</v>
+        <v>0</v>
       </c>
       <c r="OV2">
-        <v>1.045068613445363</v>
+        <v>0</v>
       </c>
       <c r="OW2">
-        <v>1.046138945457979</v>
+        <v>0</v>
       </c>
       <c r="OX2">
-        <v>1.045365766445735</v>
+        <v>0</v>
       </c>
       <c r="OY2">
-        <v>1.044720015232701</v>
+        <v>0</v>
       </c>
       <c r="OZ2">
-        <v>1.045113863895617</v>
+        <v>0</v>
       </c>
       <c r="PA2">
-        <v>1.044893792582184</v>
+        <v>0</v>
       </c>
       <c r="PB2">
-        <v>1.045068613445362</v>
+        <v>0</v>
       </c>
       <c r="PC2">
-        <v>1.046198937686578</v>
+        <v>0</v>
       </c>
       <c r="PD2">
-        <v>1.045365766445735</v>
+        <v>0</v>
       </c>
       <c r="PE2">
-        <v>1.044707579420659</v>
+        <v>0</v>
       </c>
       <c r="PF2">
-        <v>1.045112485264884</v>
+        <v>0</v>
       </c>
       <c r="PG2">
-        <v>1.044872299952879</v>
+        <v>0</v>
       </c>
       <c r="PH2">
-        <v>1.045068613445361</v>
+        <v>0</v>
       </c>
       <c r="PI2">
-        <v>1.046213586384626</v>
+        <v>0</v>
       </c>
       <c r="PJ2">
-        <v>1.045365766445742</v>
+        <v>0</v>
       </c>
       <c r="PK2">
-        <v>1.044686751724653</v>
+        <v>0</v>
       </c>
       <c r="PL2">
-        <v>1.044707579420659</v>
+        <v>0</v>
       </c>
       <c r="PM2">
-        <v>1.045107902612116</v>
+        <v>0</v>
       </c>
       <c r="PN2">
-        <v>1.044866806688685</v>
+        <v>0</v>
       </c>
       <c r="PO2">
-        <v>1.04506861344536</v>
+        <v>0</v>
       </c>
       <c r="PP2">
-        <v>1.046227559649776</v>
+        <v>0</v>
       </c>
       <c r="PQ2">
-        <v>1.045365766445744</v>
+        <v>0</v>
       </c>
       <c r="PR2">
-        <v>1.044616501460196</v>
+        <v>0</v>
       </c>
       <c r="PS2">
-        <v>1.044686751724653</v>
+        <v>0</v>
       </c>
       <c r="PT2">
-        <v>1.045102800683066</v>
+        <v>0</v>
       </c>
       <c r="PU2">
-        <v>1.04486392884734</v>
+        <v>0</v>
       </c>
       <c r="PV2">
-        <v>1.04506861344536</v>
+        <v>0</v>
       </c>
       <c r="PW2">
-        <v>1.046241456914527</v>
+        <v>0</v>
       </c>
       <c r="PX2">
-        <v>1.045365766445745</v>
+        <v>0</v>
       </c>
       <c r="PY2">
-        <v>1.044517139733785</v>
+        <v>0</v>
       </c>
       <c r="PZ2">
-        <v>1.044616501460196</v>
+        <v>0</v>
       </c>
       <c r="QA2">
-        <v>1.045099931378257</v>
+        <v>0</v>
       </c>
       <c r="QB2">
-        <v>1.044861543150941</v>
+        <v>0</v>
       </c>
       <c r="QC2">
-        <v>1.045068613445359</v>
+        <v>0</v>
       </c>
       <c r="QD2">
-        <v>1.046257398869719</v>
+        <v>0</v>
       </c>
       <c r="QE2">
-        <v>1.045365766445747</v>
+        <v>0</v>
       </c>
       <c r="QF2">
-        <v>1.044445842018113</v>
+        <v>0</v>
       </c>
       <c r="QG2">
-        <v>1.044517139733785</v>
+        <v>0</v>
       </c>
       <c r="QH2">
-        <v>1.045097235970673</v>
+        <v>0</v>
       </c>
       <c r="QI2">
-        <v>1.04485960967701</v>
+        <v>0</v>
       </c>
       <c r="QJ2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="QK2">
-        <v>1.046312453482865</v>
+        <v>0</v>
       </c>
       <c r="QL2">
-        <v>1.045365766445749</v>
+        <v>0</v>
       </c>
       <c r="QM2">
-        <v>1.044424210310279</v>
+        <v>0</v>
       </c>
       <c r="QN2">
-        <v>1.044445842018113</v>
+        <v>0</v>
       </c>
       <c r="QO2">
-        <v>1.045094664329419</v>
+        <v>0</v>
       </c>
       <c r="QP2">
-        <v>1.044856654229382</v>
+        <v>0</v>
       </c>
       <c r="QQ2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="QR2">
-        <v>1.046580745662083</v>
+        <v>0</v>
       </c>
       <c r="QS2">
-        <v>1.04536576644575</v>
+        <v>0</v>
       </c>
       <c r="QT2">
-        <v>1.044366931103472</v>
+        <v>0</v>
       </c>
       <c r="QU2">
-        <v>1.044424210310279</v>
+        <v>0</v>
       </c>
       <c r="QV2">
-        <v>1.044413021872023</v>
+        <v>0</v>
       </c>
       <c r="QW2">
-        <v>1.045090442078196</v>
+        <v>0</v>
       </c>
       <c r="QX2">
-        <v>1.044853989938795</v>
+        <v>0</v>
       </c>
       <c r="QY2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="QZ2">
-        <v>1.045365766445752</v>
+        <v>0</v>
       </c>
       <c r="RA2">
-        <v>1.044303291221492</v>
+        <v>0</v>
       </c>
       <c r="RB2">
-        <v>1.044366931103472</v>
+        <v>0</v>
       </c>
       <c r="RC2">
-        <v>1.044366931103472</v>
+        <v>0</v>
       </c>
       <c r="RD2">
-        <v>1.044411387939344</v>
+        <v>0</v>
       </c>
       <c r="RE2">
-        <v>1.04508750119999</v>
+        <v>0</v>
       </c>
       <c r="RF2">
-        <v>1.044851454191293</v>
+        <v>0</v>
       </c>
       <c r="RG2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="RH2">
-        <v>1.04536576644576</v>
+        <v>0</v>
       </c>
       <c r="RI2">
-        <v>1.044279970450573</v>
+        <v>0</v>
       </c>
       <c r="RJ2">
-        <v>1.044303291221492</v>
+        <v>0</v>
       </c>
       <c r="RK2">
-        <v>1.044410496998593</v>
+        <v>0</v>
       </c>
       <c r="RL2">
-        <v>1.045085434874231</v>
+        <v>0</v>
       </c>
       <c r="RM2">
-        <v>1.044848597518031</v>
+        <v>0</v>
       </c>
       <c r="RN2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="RO2">
-        <v>1.04536576644576</v>
+        <v>0</v>
       </c>
       <c r="RP2">
-        <v>1.044237366582359</v>
+        <v>0</v>
       </c>
       <c r="RQ2">
-        <v>1.044279970450573</v>
+        <v>0</v>
       </c>
       <c r="RR2">
-        <v>1.044243605957926</v>
+        <v>0</v>
       </c>
       <c r="RS2">
-        <v>1.044409893456118</v>
+        <v>0</v>
       </c>
       <c r="RT2">
-        <v>1.045084447571448</v>
+        <v>0</v>
       </c>
       <c r="RU2">
-        <v>1.044845579951991</v>
+        <v>0</v>
       </c>
       <c r="RV2">
-        <v>1.045068613445359</v>
+        <v>0</v>
       </c>
       <c r="RW2">
-        <v>1.04536576644576</v>
+        <v>0</v>
       </c>
       <c r="RX2">
-        <v>1.044176305210235</v>
+        <v>0</v>
       </c>
       <c r="RY2">
-        <v>1.044237366582359</v>
+        <v>0</v>
       </c>
       <c r="RZ2">
-        <v>1.044243406122827</v>
+        <v>0</v>
       </c>
       <c r="SA2">
-        <v>1.044230603328199</v>
+        <v>0</v>
       </c>
       <c r="SB2">
-        <v>1.044408976713857</v>
+        <v>0</v>
       </c>
       <c r="SC2">
-        <v>1.045083822142205</v>
+        <v>0</v>
       </c>
       <c r="SD2">
-        <v>1.044838982125133</v>
+        <v>0</v>
       </c>
       <c r="SE2">
-        <v>1.045068613445359</v>
+        <v>0</v>
       </c>
       <c r="SF2">
-        <v>1.04536576644576</v>
+        <v>0</v>
       </c>
       <c r="SG2">
-        <v>1.04413904151916</v>
+        <v>0</v>
       </c>
       <c r="SH2">
-        <v>1.044176305210235</v>
+        <v>0</v>
       </c>
       <c r="SI2">
-        <v>1.044243321657268</v>
+        <v>0</v>
       </c>
       <c r="SJ2">
-        <v>1.044222283126674</v>
+        <v>0</v>
       </c>
       <c r="SK2">
-        <v>1.044407585466991</v>
+        <v>0</v>
       </c>
       <c r="SL2">
-        <v>1.045083399274989</v>
+        <v>0</v>
       </c>
       <c r="SM2">
-        <v>1.044689341748488</v>
+        <v>0</v>
       </c>
       <c r="SN2">
-        <v>1.045068613445359</v>
+        <v>0</v>
       </c>
       <c r="SO2">
-        <v>1.04536576644576</v>
+        <v>0</v>
       </c>
       <c r="SP2">
-        <v>1.044132624332859</v>
+        <v>0</v>
       </c>
       <c r="SQ2">
-        <v>1.04413904151916</v>
+        <v>0</v>
       </c>
       <c r="SR2">
-        <v>1.044243272026963</v>
+        <v>0</v>
       </c>
       <c r="SS2">
-        <v>1.044406598423303</v>
+        <v>0</v>
       </c>
       <c r="ST2">
-        <v>1.045082809426383</v>
+        <v>0</v>
       </c>
       <c r="SU2">
-        <v>1.044677508290056</v>
+        <v>0</v>
       </c>
       <c r="SV2">
-        <v>1.044667014160372</v>
+        <v>0</v>
       </c>
       <c r="SW2">
-        <v>1.045068613445359</v>
+        <v>0</v>
       </c>
       <c r="SX2">
-        <v>1.044124157346753</v>
+        <v>0</v>
       </c>
       <c r="SY2">
-        <v>1.044132624332859</v>
+        <v>0</v>
       </c>
       <c r="SZ2">
-        <v>1.044079093530852</v>
+        <v>0</v>
       </c>
       <c r="TA2">
-        <v>1.044243226352147</v>
+        <v>0</v>
       </c>
       <c r="TB2">
-        <v>1.044405924063341</v>
+        <v>0</v>
       </c>
       <c r="TC2">
-        <v>1.045082359249288</v>
+        <v>0</v>
       </c>
       <c r="TD2">
-        <v>1.044667072783137</v>
+        <v>0</v>
       </c>
       <c r="TE2">
-        <v>1.044654969065741</v>
+        <v>0</v>
       </c>
       <c r="TF2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="TG2">
-        <v>1.044117924636963</v>
+        <v>0</v>
       </c>
       <c r="TH2">
-        <v>1.044124157346753</v>
+        <v>0</v>
       </c>
       <c r="TI2">
-        <v>1.044047461091923</v>
+        <v>0</v>
       </c>
       <c r="TJ2">
-        <v>1.044243185659724</v>
+        <v>0</v>
       </c>
       <c r="TK2">
-        <v>1.044405391186634</v>
+        <v>0</v>
       </c>
       <c r="TL2">
-        <v>1.045079146686077</v>
+        <v>0</v>
       </c>
       <c r="TM2">
-        <v>1.044653170201724</v>
+        <v>0</v>
       </c>
       <c r="TN2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="TO2">
-        <v>1.044109438795859</v>
+        <v>0</v>
       </c>
       <c r="TP2">
-        <v>1.044117924636963</v>
+        <v>0</v>
       </c>
       <c r="TQ2">
-        <v>1.044022397256883</v>
+        <v>0</v>
       </c>
       <c r="TR2">
-        <v>1.044243143445959</v>
+        <v>0</v>
       </c>
       <c r="TS2">
-        <v>1.044403682642168</v>
+        <v>0</v>
       </c>
       <c r="TT2">
-        <v>1.045073297256012</v>
+        <v>0</v>
       </c>
       <c r="TU2">
-        <v>1.045063241361528</v>
+        <v>0</v>
       </c>
       <c r="TV2">
-        <v>1.044651797062922</v>
+        <v>0</v>
       </c>
       <c r="TW2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="TX2">
-        <v>1.044103433736003</v>
+        <v>0</v>
       </c>
       <c r="TY2">
-        <v>1.044109438795859</v>
+        <v>0</v>
       </c>
       <c r="TZ2">
-        <v>1.044012040693618</v>
+        <v>0</v>
       </c>
       <c r="UA2">
-        <v>1.044243016009417</v>
+        <v>0</v>
       </c>
       <c r="UB2">
-        <v>1.044389863059032</v>
+        <v>0</v>
       </c>
       <c r="UC2">
-        <v>1.045066838149218</v>
+        <v>0</v>
       </c>
       <c r="UD2">
-        <v>1.044650512823526</v>
+        <v>0</v>
       </c>
       <c r="UE2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="UF2">
-        <v>1.044086640318242</v>
+        <v>0</v>
       </c>
       <c r="UG2">
-        <v>1.044103433736003</v>
+        <v>0</v>
       </c>
       <c r="UH2">
-        <v>1.044010892897861</v>
+        <v>0</v>
       </c>
       <c r="UI2">
-        <v>1.043984272614953</v>
+        <v>0</v>
       </c>
       <c r="UJ2">
-        <v>1.044242887584002</v>
+        <v>0</v>
       </c>
       <c r="UK2">
-        <v>1.044389174857343</v>
+        <v>0</v>
       </c>
       <c r="UL2">
-        <v>1.045049330322988</v>
+        <v>0</v>
       </c>
       <c r="UM2">
-        <v>1.044649143342424</v>
+        <v>0</v>
       </c>
       <c r="UN2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="UO2">
-        <v>1.04407448023784</v>
+        <v>0</v>
       </c>
       <c r="UP2">
-        <v>1.044086640318242</v>
+        <v>0</v>
       </c>
       <c r="UQ2">
-        <v>1.04401047054376</v>
+        <v>0</v>
       </c>
       <c r="UR2">
-        <v>1.043963265918738</v>
+        <v>0</v>
       </c>
       <c r="US2">
-        <v>1.044241687626074</v>
+        <v>0</v>
       </c>
       <c r="UT2">
-        <v>1.044388631842187</v>
+        <v>0</v>
       </c>
       <c r="UU2">
-        <v>1.04464793151878</v>
+        <v>0</v>
       </c>
       <c r="UV2">
-        <v>1.045068613445358</v>
+        <v>0</v>
       </c>
       <c r="UW2">
-        <v>1.04407286984788</v>
+        <v>0</v>
       </c>
       <c r="UX2">
-        <v>1.04407448023784</v>
+        <v>0</v>
       </c>
       <c r="UY2">
-        <v>1.044057409369225</v>
+        <v>0</v>
       </c>
       <c r="UZ2">
-        <v>1.04400984141588</v>
+        <v>0</v>
       </c>
       <c r="VA2">
-        <v>1.044388017948806</v>
+        <v>0</v>
       </c>
       <c r="VB2">
-        <v>1.044646692038372</v>
+        <v>0</v>
       </c>
       <c r="VC2">
-        <v>1.044072488537115</v>
+        <v>0</v>
       </c>
       <c r="VD2">
-        <v>1.04407286984788</v>
+        <v>0</v>
       </c>
       <c r="VE2">
-        <v>1.044055251311944</v>
+        <v>0</v>
       </c>
       <c r="VF2">
-        <v>1.044009462855261</v>
+        <v>0</v>
       </c>
       <c r="VG2">
-        <v>1.044387471564263</v>
+        <v>0</v>
       </c>
       <c r="VH2">
-        <v>1.044640294726521</v>
+        <v>0</v>
       </c>
       <c r="VI2">
-        <v>1.044062151351625</v>
+        <v>0</v>
       </c>
       <c r="VJ2">
-        <v>1.044072488537115</v>
+        <v>0</v>
       </c>
       <c r="VK2">
-        <v>1.044072488537116</v>
+        <v>0</v>
       </c>
       <c r="VL2">
-        <v>1.044053658808814</v>
+        <v>0</v>
       </c>
       <c r="VM2">
-        <v>1.044009006072085</v>
+        <v>0</v>
       </c>
       <c r="VN2">
-        <v>1.044386842675674</v>
+        <v>0</v>
       </c>
       <c r="VO2">
-        <v>1.044630382581883</v>
+        <v>0</v>
       </c>
       <c r="VP2">
-        <v>1.044626908260406</v>
+        <v>0</v>
       </c>
       <c r="VQ2">
-        <v>1.044054906904985</v>
+        <v>0</v>
       </c>
       <c r="VR2">
-        <v>1.044062151351625</v>
+        <v>0</v>
       </c>
       <c r="VS2">
-        <v>1.044072488537117</v>
+        <v>0</v>
       </c>
       <c r="VT2">
-        <v>1.044052109291061</v>
+        <v>0</v>
       </c>
       <c r="VU2">
-        <v>1.044008604997075</v>
+        <v>0</v>
       </c>
       <c r="VV2">
-        <v>1.04438619785088</v>
+        <v>0</v>
       </c>
       <c r="VW2">
-        <v>1.044629811373585</v>
+        <v>0</v>
       </c>
       <c r="VX2">
-        <v>1.044562938571296</v>
+        <v>0</v>
       </c>
       <c r="VY2">
-        <v>1.044048126082717</v>
+        <v>0</v>
       </c>
       <c r="VZ2">
-        <v>1.044053989246537</v>
+        <v>0</v>
       </c>
       <c r="WA2">
-        <v>1.044072488537117</v>
+        <v>0</v>
       </c>
       <c r="WB2">
-        <v>1.044037553673058</v>
+        <v>0</v>
       </c>
       <c r="WC2">
-        <v>1.044005980496268</v>
+        <v>0</v>
       </c>
       <c r="WD2">
-        <v>1.044385422774031</v>
+        <v>0</v>
       </c>
       <c r="WE2">
-        <v>1.044629524491609</v>
+        <v>0</v>
       </c>
       <c r="WF2">
-        <v>1.044542159736228</v>
+        <v>0</v>
       </c>
       <c r="WG2">
-        <v>1.044490230722547</v>
+        <v>0</v>
       </c>
       <c r="WH2">
-        <v>1.044042079051209</v>
+        <v>0</v>
       </c>
       <c r="WI2">
-        <v>1.044048126082717</v>
+        <v>0</v>
       </c>
       <c r="WJ2">
-        <v>1.044048126082717</v>
+        <v>0</v>
       </c>
       <c r="WK2">
-        <v>1.04401313253607</v>
+        <v>0</v>
       </c>
       <c r="WL2">
-        <v>1.044053989246537</v>
+        <v>0</v>
       </c>
       <c r="WM2">
-        <v>1.044072488537117</v>
+        <v>0</v>
       </c>
       <c r="WN2">
-        <v>1.044030779358099</v>
+        <v>0</v>
       </c>
       <c r="WO2">
-        <v>1.043986629275296</v>
+        <v>0</v>
       </c>
       <c r="WP2">
-        <v>1.044384936856047</v>
+        <v>0</v>
       </c>
       <c r="WQ2">
-        <v>1.044629283925516</v>
+        <v>0</v>
       </c>
       <c r="WR2">
-        <v>1.044531194685533</v>
+        <v>0</v>
       </c>
       <c r="WS2">
-        <v>1.044420589698518</v>
+        <v>0</v>
       </c>
       <c r="WT2">
-        <v>1.044028886990892</v>
+        <v>0</v>
       </c>
       <c r="WU2">
-        <v>1.044042079051209</v>
+        <v>0</v>
       </c>
       <c r="WV2">
-        <v>1.044042079051209</v>
+        <v>0</v>
       </c>
       <c r="WW2">
-        <v>1.04400351610301</v>
+        <v>0</v>
       </c>
       <c r="WX2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="WY2">
-        <v>1.044027599897154</v>
+        <v>0</v>
       </c>
       <c r="WZ2">
-        <v>1.044382848543949</v>
+        <v>0</v>
       </c>
       <c r="XA2">
-        <v>1.044629087752285</v>
+        <v>0</v>
       </c>
       <c r="XB2">
-        <v>1.044412136271824</v>
+        <v>0</v>
       </c>
       <c r="XC2">
-        <v>1.044402539348894</v>
+        <v>0</v>
       </c>
       <c r="XD2">
-        <v>1.044010916371493</v>
+        <v>0</v>
       </c>
       <c r="XE2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="XF2">
-        <v>1.044025479147617</v>
+        <v>0</v>
       </c>
       <c r="XG2">
-        <v>1.04437404446809</v>
+        <v>0</v>
       </c>
       <c r="XH2">
-        <v>1.044628779817627</v>
+        <v>0</v>
       </c>
       <c r="XI2">
-        <v>1.04441006346808</v>
+        <v>0</v>
       </c>
       <c r="XJ2">
-        <v>1.044398386515688</v>
+        <v>0</v>
       </c>
       <c r="XK2">
-        <v>1.044005645388415</v>
+        <v>0</v>
       </c>
       <c r="XL2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="XM2">
-        <v>1.044022236916487</v>
+        <v>0</v>
       </c>
       <c r="XN2">
-        <v>1.04462804552963</v>
+        <v>0</v>
       </c>
       <c r="XO2">
-        <v>1.044408640131112</v>
+        <v>0</v>
       </c>
       <c r="XP2">
-        <v>1.044396325681197</v>
+        <v>0</v>
       </c>
       <c r="XQ2">
-        <v>1.04398819941766</v>
+        <v>0</v>
       </c>
       <c r="XR2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="XS2">
-        <v>1.044015904877508</v>
+        <v>0</v>
       </c>
       <c r="XT2">
-        <v>1.044627537521244</v>
+        <v>0</v>
       </c>
       <c r="XU2">
-        <v>1.044406667077963</v>
+        <v>0</v>
       </c>
       <c r="XV2">
-        <v>1.044394060985403</v>
+        <v>0</v>
       </c>
       <c r="XW2">
-        <v>1.044072488537119</v>
+        <v>0</v>
       </c>
       <c r="XX2">
-        <v>1.044014154539483</v>
+        <v>0</v>
       </c>
       <c r="XY2">
-        <v>1.04462689159166</v>
+        <v>0</v>
       </c>
       <c r="XZ2">
-        <v>1.044401988379591</v>
+        <v>0</v>
       </c>
       <c r="YA2">
-        <v>1.044391447863969</v>
+        <v>0</v>
       </c>
       <c r="YB2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="YC2">
-        <v>1.044013646388288</v>
+        <v>0</v>
       </c>
       <c r="YD2">
-        <v>1.044626499194937</v>
+        <v>0</v>
       </c>
       <c r="YE2">
-        <v>1.044398431798144</v>
+        <v>0</v>
       </c>
       <c r="YF2">
-        <v>1.044388806176432</v>
+        <v>0</v>
       </c>
       <c r="YG2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="YH2">
-        <v>1.0440133330231</v>
+        <v>0</v>
       </c>
       <c r="YI2">
-        <v>1.044012969481404</v>
+        <v>0</v>
       </c>
       <c r="YJ2">
-        <v>1.044626144944386</v>
+        <v>0</v>
       </c>
       <c r="YK2">
-        <v>1.044395935132057</v>
+        <v>0</v>
       </c>
       <c r="YL2">
-        <v>1.044385877524884</v>
+        <v>0</v>
       </c>
       <c r="YM2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="YN2">
-        <v>1.04401303973992</v>
+        <v>0</v>
       </c>
       <c r="YO2">
-        <v>1.044012076258312</v>
+        <v>0</v>
       </c>
       <c r="YP2">
-        <v>1.044625547488309</v>
+        <v>0</v>
       </c>
       <c r="YQ2">
-        <v>1.044393319655972</v>
+        <v>0</v>
       </c>
       <c r="YR2">
-        <v>1.044381618652791</v>
+        <v>0</v>
       </c>
       <c r="YS2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="YT2">
-        <v>1.044012737620401</v>
+        <v>0</v>
       </c>
       <c r="YU2">
-        <v>1.044008365396442</v>
+        <v>0</v>
       </c>
       <c r="YV2">
-        <v>1.04462496010817</v>
+        <v>0</v>
       </c>
       <c r="YW2">
-        <v>1.044391172324274</v>
+        <v>0</v>
       </c>
       <c r="YX2">
-        <v>1.044377459668416</v>
+        <v>0</v>
       </c>
       <c r="YY2">
-        <v>1.044371595707176</v>
+        <v>0</v>
       </c>
       <c r="YZ2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="ZA2">
-        <v>1.044010553228427</v>
+        <v>0</v>
       </c>
       <c r="ZB2">
-        <v>1.044006789482459</v>
+        <v>0</v>
       </c>
       <c r="ZC2">
-        <v>1.044624682191907</v>
+        <v>0</v>
       </c>
       <c r="ZD2">
-        <v>1.044387616934137</v>
+        <v>0</v>
       </c>
       <c r="ZE2">
-        <v>1.044374962198578</v>
+        <v>0</v>
       </c>
       <c r="ZF2">
-        <v>1.044308128249318</v>
+        <v>0</v>
       </c>
       <c r="ZG2">
-        <v>1.044072488537118</v>
+        <v>0</v>
       </c>
       <c r="ZH2">
-        <v>1.043994646244275</v>
+        <v>0</v>
       </c>
       <c r="ZI2">
-        <v>1.044624376938594</v>
+        <v>0</v>
       </c>
       <c r="ZJ2">
-        <v>1.044376126967262</v>
+        <v>0</v>
       </c>
       <c r="ZK2">
-        <v>1.04437264543385</v>
+        <v>0</v>
       </c>
       <c r="ZL2">
-        <v>1.044262698511695</v>
+        <v>0</v>
       </c>
       <c r="ZM2">
-        <v>1.044624083960767</v>
+        <v>0</v>
       </c>
       <c r="ZN2">
-        <v>1.044349279239073</v>
+        <v>0</v>
       </c>
       <c r="ZO2">
-        <v>1.044370384890176</v>
+        <v>0</v>
       </c>
       <c r="ZP2">
-        <v>1.044210337551217</v>
+        <v>0</v>
       </c>
       <c r="ZQ2">
-        <v>1.044148839328709</v>
+        <v>0</v>
       </c>
       <c r="ZR2">
-        <v>1.044623730631943</v>
+        <v>0</v>
       </c>
       <c r="ZS2">
-        <v>1.044368689330902</v>
+        <v>0</v>
       </c>
       <c r="ZT2">
-        <v>1.044207164967605</v>
+        <v>0</v>
       </c>
       <c r="ZU2">
-        <v>1.044205525869768</v>
+        <v>0</v>
       </c>
       <c r="ZV2">
-        <v>1.044128122906617</v>
+        <v>0</v>
       </c>
       <c r="ZW2">
-        <v>1.044126281801551</v>
+        <v>0</v>
       </c>
       <c r="ZX2">
-        <v>1.044623167027714</v>
+        <v>0</v>
       </c>
       <c r="ZY2">
-        <v>1.044365995823375</v>
+        <v>0</v>
       </c>
       <c r="ZZ2">
-        <v>1.044206172246449</v>
+        <v>0</v>
       </c>
       <c r="AAA2">
-        <v>1.044195723718705</v>
+        <v>0</v>
       </c>
       <c r="AAB2">
-        <v>1.044116121335424</v>
+        <v>0</v>
       </c>
       <c r="AAC2">
-        <v>1.044084135050981</v>
+        <v>0</v>
       </c>
       <c r="AAD2">
-        <v>1.044621624505603</v>
+        <v>0</v>
       </c>
       <c r="AAE2">
-        <v>1.044361454465202</v>
+        <v>0</v>
       </c>
       <c r="AAF2">
-        <v>1.044205533955496</v>
+        <v>0</v>
       </c>
       <c r="AAG2">
-        <v>1.043972959083876</v>
+        <v>0</v>
       </c>
       <c r="AAH2">
-        <v>1.044084135050981</v>
+        <v>0</v>
       </c>
       <c r="AAI2">
-        <v>1.044619571691823</v>
+        <v>0</v>
       </c>
       <c r="AAJ2">
-        <v>1.044327426331573</v>
+        <v>0</v>
       </c>
       <c r="AAK2">
-        <v>1.044205148956321</v>
+        <v>0</v>
       </c>
       <c r="AAL2">
-        <v>1.043870313747873</v>
+        <v>0</v>
       </c>
       <c r="AAM2">
-        <v>1.043935502081627</v>
+        <v>0</v>
       </c>
       <c r="AAN2">
-        <v>1.044084135050982</v>
+        <v>0</v>
       </c>
       <c r="AAO2">
-        <v>1.044619376167988</v>
+        <v>0</v>
       </c>
       <c r="AAP2">
-        <v>1.04429951063488</v>
+        <v>0</v>
       </c>
       <c r="AAQ2">
-        <v>1.044204759832946</v>
+        <v>0</v>
       </c>
       <c r="AAR2">
-        <v>1.043764372697139</v>
+        <v>0</v>
       </c>
       <c r="AAS2">
-        <v>1.043931492222425</v>
+        <v>0</v>
       </c>
       <c r="AAT2">
-        <v>1.044084135050983</v>
+        <v>0</v>
       </c>
       <c r="AAU2">
-        <v>1.044619221536619</v>
+        <v>0</v>
       </c>
       <c r="AAV2">
-        <v>1.044290665972343</v>
+        <v>0</v>
       </c>
       <c r="AAW2">
-        <v>1.044204412263902</v>
+        <v>0</v>
       </c>
       <c r="AAX2">
-        <v>1.043732079526184</v>
+        <v>0</v>
       </c>
       <c r="AAY2">
-        <v>1.043678290518526</v>
+        <v>0</v>
       </c>
       <c r="AAZ2">
-        <v>1.043929961202661</v>
+        <v>0</v>
       </c>
       <c r="ABA2">
-        <v>1.044084135050983</v>
+        <v>0</v>
       </c>
       <c r="ABB2">
-        <v>1.044619071352499</v>
+        <v>0</v>
       </c>
       <c r="ABC2">
-        <v>1.044282614037298</v>
+        <v>0</v>
       </c>
       <c r="ABD2">
-        <v>1.044204020674343</v>
+        <v>0</v>
       </c>
       <c r="ABE2">
-        <v>1.043688198153183</v>
+        <v>0</v>
       </c>
       <c r="ABF2">
-        <v>1.043666743215902</v>
+        <v>0</v>
       </c>
       <c r="ABG2">
-        <v>1.043928341686778</v>
+        <v>0</v>
       </c>
       <c r="ABH2">
-        <v>1.044084135050982</v>
+        <v>0</v>
       </c>
       <c r="ABI2">
-        <v>1.044618910489118</v>
+        <v>0</v>
       </c>
       <c r="ABJ2">
-        <v>1.044278228522572</v>
+        <v>0</v>
       </c>
       <c r="ABK2">
-        <v>1.044203706931963</v>
+        <v>0</v>
       </c>
       <c r="ABL2">
-        <v>1.043636821935382</v>
+        <v>0</v>
       </c>
       <c r="ABM2">
-        <v>1.043660676531253</v>
+        <v>0</v>
       </c>
       <c r="ABN2">
-        <v>1.043926997629128</v>
+        <v>0</v>
       </c>
       <c r="ABO2">
-        <v>1.044084135050981</v>
+        <v>0</v>
       </c>
       <c r="ABP2">
-        <v>1.044618761758776</v>
+        <v>0</v>
       </c>
       <c r="ABQ2">
-        <v>1.044274726001675</v>
+        <v>0</v>
       </c>
       <c r="ABR2">
-        <v>1.044203330597751</v>
+        <v>0</v>
       </c>
       <c r="ABS2">
-        <v>1.043595568918407</v>
+        <v>0</v>
       </c>
       <c r="ABT2">
-        <v>1.043648861807346</v>
+        <v>0</v>
       </c>
       <c r="ABU2">
-        <v>1.043659938433086</v>
+        <v>0</v>
       </c>
       <c r="ABV2">
-        <v>1.043925405934437</v>
+        <v>0</v>
       </c>
       <c r="ABW2">
-        <v>1.044084135050981</v>
+        <v>0</v>
       </c>
       <c r="ABX2">
-        <v>1.044618621596148</v>
+        <v>0</v>
       </c>
       <c r="ABY2">
-        <v>1.044271739347144</v>
+        <v>0</v>
       </c>
       <c r="ABZ2">
-        <v>1.044202925052625</v>
+        <v>0</v>
       </c>
       <c r="ACA2">
-        <v>1.043584489002934</v>
+        <v>0</v>
       </c>
       <c r="ACB2">
-        <v>1.043555679386929</v>
+        <v>0</v>
       </c>
       <c r="ACC2">
-        <v>1.043639257900775</v>
+        <v>0</v>
       </c>
       <c r="ACD2">
-        <v>1.043659404682028</v>
+        <v>0</v>
       </c>
       <c r="ACE2">
-        <v>1.043923853645209</v>
+        <v>0</v>
       </c>
       <c r="ACF2">
-        <v>1.04408413505098</v>
+        <v>0</v>
       </c>
       <c r="ACG2">
-        <v>1.044618426656754</v>
+        <v>0</v>
       </c>
       <c r="ACH2">
-        <v>1.044268234487122</v>
+        <v>0</v>
       </c>
       <c r="ACI2">
-        <v>1.044202185156696</v>
+        <v>0</v>
       </c>
       <c r="ACJ2">
-        <v>1.043569213021196</v>
+        <v>0</v>
       </c>
       <c r="ACK2">
-        <v>1.043522336977426</v>
+        <v>0</v>
       </c>
       <c r="ACL2">
-        <v>1.043658954243725</v>
+        <v>0</v>
       </c>
       <c r="ACM2">
-        <v>1.043921719579911</v>
+        <v>0</v>
       </c>
       <c r="ACN2">
-        <v>1.044084135050979</v>
+        <v>0</v>
       </c>
       <c r="ACO2">
-        <v>1.044618187766507</v>
+        <v>0</v>
       </c>
       <c r="ACP2">
-        <v>1.044265031956942</v>
+        <v>0</v>
       </c>
       <c r="ACQ2">
-        <v>1.044196649580396</v>
+        <v>0</v>
       </c>
       <c r="ACR2">
-        <v>1.043531633638692</v>
+        <v>0</v>
       </c>
       <c r="ACS2">
-        <v>1.043514136810146</v>
+        <v>0</v>
       </c>
       <c r="ACT2">
-        <v>1.043521755790141</v>
+        <v>0</v>
       </c>
       <c r="ACU2">
-        <v>1.043658193401328</v>
+        <v>0</v>
       </c>
       <c r="ACV2">
-        <v>1.043918783827623</v>
+        <v>0</v>
       </c>
       <c r="ACW2">
-        <v>1.044084135050978</v>
+        <v>0</v>
       </c>
       <c r="ACX2">
-        <v>1.044617055488716</v>
+        <v>0</v>
       </c>
       <c r="ACY2">
-        <v>1.044260063613177</v>
+        <v>0</v>
       </c>
       <c r="ACZ2">
-        <v>1.044179685839744</v>
+        <v>0</v>
       </c>
       <c r="ADA2">
-        <v>1.043501175013247</v>
+        <v>0</v>
       </c>
       <c r="ADB2">
-        <v>1.043506101525839</v>
+        <v>0</v>
       </c>
       <c r="ADC2">
-        <v>1.043521200100542</v>
+        <v>0</v>
       </c>
       <c r="ADD2">
-        <v>1.04365712793162</v>
+        <v>0</v>
       </c>
       <c r="ADE2">
-        <v>1.043915676970457</v>
+        <v>0</v>
       </c>
       <c r="ADF2">
-        <v>1.044084135050977</v>
+        <v>0</v>
       </c>
       <c r="ADG2">
-        <v>1.04460737419183</v>
+        <v>0</v>
       </c>
       <c r="ADH2">
-        <v>1.044250033021504</v>
+        <v>0</v>
       </c>
       <c r="ADI2">
-        <v>1.043477375537879</v>
+        <v>0</v>
       </c>
       <c r="ADJ2">
-        <v>1.043520601038125</v>
+        <v>0</v>
       </c>
       <c r="ADK2">
-        <v>1.043656337328169</v>
+        <v>0</v>
       </c>
       <c r="ADL2">
-        <v>1.043913613170299</v>
+        <v>0</v>
       </c>
       <c r="ADM2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="ADN2">
-        <v>1.044248501541703</v>
+        <v>0</v>
       </c>
       <c r="ADO2">
-        <v>1.044241300520161</v>
+        <v>0</v>
       </c>
       <c r="ADP2">
-        <v>1.043455865415716</v>
+        <v>0</v>
       </c>
       <c r="ADQ2">
-        <v>1.043520066121154</v>
+        <v>0</v>
       </c>
       <c r="ADR2">
-        <v>1.043655027660643</v>
+        <v>0</v>
       </c>
       <c r="ADS2">
-        <v>1.043911512718378</v>
+        <v>0</v>
       </c>
       <c r="ADT2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="ADU2">
-        <v>1.044247165946824</v>
+        <v>0</v>
       </c>
       <c r="ADV2">
-        <v>1.044227327248222</v>
+        <v>0</v>
       </c>
       <c r="ADW2">
-        <v>1.043453512768908</v>
+        <v>0</v>
       </c>
       <c r="ADX2">
-        <v>1.043451114849563</v>
+        <v>0</v>
       </c>
       <c r="ADY2">
-        <v>1.043519475394503</v>
+        <v>0</v>
       </c>
       <c r="ADZ2">
-        <v>1.043645937233712</v>
+        <v>0</v>
       </c>
       <c r="AEA2">
-        <v>1.043910508402101</v>
+        <v>0</v>
       </c>
       <c r="AEB2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="AEC2">
-        <v>1.04424606134905</v>
+        <v>0</v>
       </c>
       <c r="AED2">
-        <v>1.044215388455232</v>
+        <v>0</v>
       </c>
       <c r="AEE2">
-        <v>1.043451153941392</v>
+        <v>0</v>
       </c>
       <c r="AEF2">
-        <v>1.043443524695723</v>
+        <v>0</v>
       </c>
       <c r="AEG2">
-        <v>1.043451114849563</v>
+        <v>0</v>
       </c>
       <c r="AEH2">
-        <v>1.043519094533619</v>
+        <v>0</v>
       </c>
       <c r="AEI2">
-        <v>1.043625857602902</v>
+        <v>0</v>
       </c>
       <c r="AEJ2">
-        <v>1.043908910915341</v>
+        <v>0</v>
       </c>
       <c r="AEK2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="AEL2">
-        <v>1.04424520236016</v>
+        <v>0</v>
       </c>
       <c r="AEM2">
-        <v>1.044208631566605</v>
+        <v>0</v>
       </c>
       <c r="AEN2">
-        <v>1.0434487905356</v>
+        <v>0</v>
       </c>
       <c r="AEO2">
-        <v>1.043437160608514</v>
+        <v>0</v>
       </c>
       <c r="AEP2">
-        <v>1.043443524695723</v>
+        <v>0</v>
       </c>
       <c r="AEQ2">
-        <v>1.04351850955732</v>
+        <v>0</v>
       </c>
       <c r="AER2">
-        <v>1.043907411230076</v>
+        <v>0</v>
       </c>
       <c r="AES2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="AET2">
-        <v>1.044244328715292</v>
+        <v>0</v>
       </c>
       <c r="AEU2">
-        <v>1.043446441436947</v>
+        <v>0</v>
       </c>
       <c r="AEV2">
-        <v>1.043430319376432</v>
+        <v>0</v>
       </c>
       <c r="AEW2">
-        <v>1.043437160608514</v>
+        <v>0</v>
       </c>
       <c r="AEX2">
-        <v>1.043513697979363</v>
+        <v>0</v>
       </c>
       <c r="AEY2">
-        <v>1.043905268429203</v>
+        <v>0</v>
       </c>
       <c r="AEZ2">
-        <v>1.044084135050976</v>
+        <v>0</v>
       </c>
       <c r="AFA2">
-        <v>1.044243570546876</v>
+        <v>0</v>
       </c>
       <c r="AFB2">
-        <v>1.043444083410582</v>
+        <v>0</v>
       </c>
       <c r="AFC2">
-        <v>1.043424702482722</v>
+        <v>0</v>
       </c>
       <c r="AFD2">
-        <v>1.043430319376432</v>
+        <v>0</v>
       </c>
       <c r="AFE2">
-        <v>1.043497115108286</v>
+        <v>0</v>
       </c>
       <c r="AFF2">
-        <v>1.043882649711206</v>
+        <v>0</v>
       </c>
       <c r="AFG2">
-        <v>1.044243026018761</v>
+        <v>0</v>
       </c>
       <c r="AFH2">
-        <v>1.043441726986656</v>
+        <v>0</v>
       </c>
       <c r="AFI2">
-        <v>1.043418672129236</v>
+        <v>0</v>
       </c>
       <c r="AFJ2">
-        <v>1.043424702482722</v>
+        <v>0</v>
       </c>
       <c r="AFK2">
-        <v>1.043873602794352</v>
+        <v>0</v>
       </c>
       <c r="AFL2">
-        <v>1.044242393820619</v>
+        <v>0</v>
       </c>
       <c r="AFM2">
-        <v>1.043439369074894</v>
+        <v>0</v>
       </c>
       <c r="AFN2">
-        <v>1.043386855857579</v>
+        <v>0</v>
       </c>
       <c r="AFO2">
-        <v>1.043418672129238</v>
+        <v>0</v>
       </c>
       <c r="AFP2">
-        <v>1.043418672129236</v>
+        <v>0</v>
       </c>
       <c r="AFQ2">
-        <v>1.043869008786013</v>
+        <v>0</v>
       </c>
       <c r="AFR2">
-        <v>1.044241441405615</v>
+        <v>0</v>
       </c>
       <c r="AFS2">
-        <v>1.043438218103531</v>
+        <v>0</v>
       </c>
       <c r="AFT2">
-        <v>1.043382201044343</v>
+        <v>0</v>
       </c>
       <c r="AFU2">
-        <v>1.043418672129239</v>
+        <v>0</v>
       </c>
       <c r="AFV2">
-        <v>1.043418672129238</v>
+        <v>0</v>
       </c>
       <c r="AFW2">
-        <v>1.043867992220957</v>
+        <v>0</v>
       </c>
       <c r="AFX2">
-        <v>1.044239885351598</v>
+        <v>0</v>
       </c>
       <c r="AFY2">
-        <v>1.043412349860901</v>
+        <v>0</v>
       </c>
       <c r="AFZ2">
-        <v>1.043369087385705</v>
+        <v>0</v>
       </c>
       <c r="AGA2">
-        <v>1.043418672129243</v>
+        <v>0</v>
       </c>
       <c r="AGB2">
-        <v>1.043418672129239</v>
+        <v>0</v>
       </c>
       <c r="AGC2">
-        <v>1.043867191626132</v>
+        <v>0</v>
       </c>
       <c r="AGD2">
-        <v>1.044233650088888</v>
+        <v>0</v>
       </c>
       <c r="AGE2">
-        <v>1.044223239991062</v>
+        <v>0</v>
       </c>
       <c r="AGF2">
-        <v>1.04339552823616</v>
+        <v>0</v>
       </c>
       <c r="AGG2">
-        <v>1.043353688661588</v>
+        <v>0</v>
       </c>
       <c r="AGH2">
-        <v>1.043418672129244</v>
+        <v>0</v>
       </c>
       <c r="AGI2">
-        <v>1.043418672129243</v>
+        <v>0</v>
       </c>
       <c r="AGJ2">
-        <v>1.043866333841203</v>
+        <v>0</v>
       </c>
       <c r="AGK2">
-        <v>1.043380816039114</v>
+        <v>0</v>
       </c>
       <c r="AGL2">
-        <v>1.04335169111461</v>
+        <v>0</v>
       </c>
       <c r="AGM2">
-        <v>1.043418672129245</v>
+        <v>0</v>
       </c>
       <c r="AGN2">
-        <v>1.043418672129244</v>
+        <v>0</v>
       </c>
       <c r="AGO2">
-        <v>1.043865647550599</v>
+        <v>0</v>
       </c>
       <c r="AGP2">
-        <v>1.043365383912819</v>
+        <v>0</v>
       </c>
       <c r="AGQ2">
-        <v>1.043350773502413</v>
+        <v>0</v>
       </c>
       <c r="AGR2">
-        <v>1.04334814646199</v>
+        <v>0</v>
       </c>
       <c r="AGS2">
-        <v>1.043418672129244</v>
+        <v>0</v>
       </c>
       <c r="AGT2">
-        <v>1.043418672129245</v>
+        <v>0</v>
       </c>
       <c r="AGU2">
-        <v>1.043864981190571</v>
+        <v>0</v>
       </c>
       <c r="AGV2">
-        <v>1.04333903381209</v>
+        <v>0</v>
       </c>
       <c r="AGW2">
-        <v>1.043349924411324</v>
+        <v>0</v>
       </c>
       <c r="AGX2">
-        <v>1.043339851020501</v>
+        <v>0</v>
       </c>
       <c r="AGY2">
-        <v>1.043418672129244</v>
+        <v>0</v>
       </c>
       <c r="AGZ2">
-        <v>1.043418672129244</v>
+        <v>0</v>
       </c>
       <c r="AHA2">
-        <v>1.043864316520696</v>
+        <v>0</v>
       </c>
       <c r="AHB2">
-        <v>1.043332570700763</v>
+        <v>0</v>
       </c>
       <c r="AHC2">
-        <v>1.043348633293866</v>
+        <v>0</v>
       </c>
       <c r="AHD2">
-        <v>1.043320171753875</v>
+        <v>0</v>
       </c>
       <c r="AHE2">
-        <v>1.043863659627494</v>
+        <v>0</v>
       </c>
       <c r="AHF2">
-        <v>1.043330022148479</v>
+        <v>0</v>
       </c>
       <c r="AHG2">
-        <v>1.043314964114894</v>
+        <v>0</v>
       </c>
       <c r="AHH2">
-        <v>1.043347001674402</v>
+        <v>0</v>
       </c>
       <c r="AHI2">
-        <v>1.043851913012378</v>
+        <v>0</v>
       </c>
       <c r="AHJ2">
-        <v>1.043325837634642</v>
+        <v>0</v>
       </c>
       <c r="AHK2">
-        <v>1.043300031362033</v>
+        <v>0</v>
       </c>
       <c r="AHL2">
-        <v>1.043340649811529</v>
+        <v>0</v>
       </c>
       <c r="AHM2">
-        <v>1.04381532200336</v>
+        <v>0</v>
       </c>
       <c r="AHN2">
-        <v>1.043841441319908</v>
+        <v>0</v>
       </c>
       <c r="AHO2">
-        <v>1.04332501026443</v>
+        <v>0</v>
       </c>
       <c r="AHP2">
-        <v>1.043274932471984</v>
+        <v>0</v>
       </c>
       <c r="AHQ2">
-        <v>1.043329111235819</v>
+        <v>0</v>
       </c>
       <c r="AHR2">
-        <v>1.043791021391434</v>
+        <v>0</v>
       </c>
       <c r="AHS2">
-        <v>1.043324311154423</v>
+        <v>0</v>
       </c>
       <c r="AHT2">
-        <v>1.043323722016746</v>
+        <v>0</v>
       </c>
       <c r="AHU2">
-        <v>1.043322955646871</v>
+        <v>0</v>
       </c>
       <c r="AHV2">
-        <v>1.043321568636761</v>
+        <v>0</v>
       </c>
       <c r="AHW2">
-        <v>1.043319163809627</v>
+        <v>0</v>
       </c>
       <c r="AHX2">
-        <v>1.043299465746373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049822090323879</v>
+        <v>1.049585483638525</v>
       </c>
       <c r="D3">
-        <v>1.049754738247352</v>
+        <v>1.049504802533971</v>
       </c>
       <c r="E3">
-        <v>1.049747677323406</v>
+        <v>1.049496344244749</v>
       </c>
       <c r="F3">
-        <v>1.049741062346511</v>
+        <v>1.049488420155521</v>
       </c>
       <c r="G3">
-        <v>1.049735295036641</v>
+        <v>1.049481511487296</v>
       </c>
       <c r="H3">
-        <v>1.04972620925936</v>
+        <v>1.049470627621748</v>
       </c>
       <c r="I3">
-        <v>1.049107511231074</v>
+        <v>1.048729486177383</v>
       </c>
       <c r="J3">
-        <v>1.049079800788917</v>
+        <v>1.048696291599657</v>
       </c>
       <c r="K3">
-        <v>1.049056736874216</v>
+        <v>1.04866866313063</v>
       </c>
       <c r="L3">
-        <v>1.049036496454111</v>
+        <v>1.048644416945991</v>
       </c>
       <c r="M3">
-        <v>1.049021393277078</v>
+        <v>1.048626324708864</v>
       </c>
       <c r="N3">
-        <v>1.049007215112389</v>
+        <v>1.048609340550331</v>
       </c>
       <c r="O3">
-        <v>1.048998496836783</v>
+        <v>1.048598896843809</v>
       </c>
       <c r="P3">
-        <v>1.048976792240762</v>
+        <v>1.048572896694942</v>
       </c>
       <c r="Q3">
-        <v>1.048800967056722</v>
+        <v>1.048362273782544</v>
       </c>
       <c r="R3">
-        <v>1.048800967056723</v>
+        <v>1.048362273782546</v>
       </c>
       <c r="S3">
-        <v>1.04858774942857</v>
+        <v>1.048106857582359</v>
       </c>
       <c r="T3">
-        <v>1.048800967056724</v>
+        <v>1.048362273782546</v>
       </c>
       <c r="U3">
-        <v>1.048573078773964</v>
+        <v>1.048089283393376</v>
       </c>
       <c r="V3">
-        <v>1.048800967056724</v>
+        <v>1.048362273782547</v>
       </c>
       <c r="W3">
-        <v>1.048556605344058</v>
+        <v>1.048069549630921</v>
       </c>
       <c r="X3">
-        <v>1.048800967056725</v>
+        <v>1.048362273782547</v>
       </c>
       <c r="Y3">
-        <v>1.048529783273349</v>
+        <v>1.048037419073818</v>
       </c>
       <c r="Z3">
-        <v>1.048800967056726</v>
+        <v>1.048362273782548</v>
       </c>
       <c r="AA3">
-        <v>1.04848098745377</v>
+        <v>1.047978965815482</v>
       </c>
       <c r="AB3">
-        <v>1.048800967056726</v>
+        <v>1.048362273782548</v>
       </c>
       <c r="AC3">
-        <v>1.048353890725858</v>
+        <v>1.047950755302571</v>
       </c>
       <c r="AD3">
-        <v>1.047953090145548</v>
+        <v>1.047265402884109</v>
       </c>
       <c r="AE3">
-        <v>1.048800967056727</v>
+        <v>1.048362273782548</v>
       </c>
       <c r="AF3">
-        <v>1.048325719452136</v>
+        <v>1.047949057782227</v>
       </c>
       <c r="AG3">
-        <v>1.048347229026824</v>
+        <v>1.047944838339617</v>
       </c>
       <c r="AH3">
-        <v>1.047812556015675</v>
+        <v>1.047075441189077</v>
       </c>
       <c r="AI3">
-        <v>1.048800967056728</v>
+        <v>1.048362273782548</v>
       </c>
       <c r="AJ3">
-        <v>1.048261205260101</v>
+        <v>1.047945170352774</v>
       </c>
       <c r="AK3">
-        <v>1.048347003427833</v>
+        <v>1.047944637961156</v>
       </c>
       <c r="AL3">
-        <v>1.047756327026072</v>
+        <v>1.047036042982525</v>
       </c>
       <c r="AM3">
-        <v>1.047418176854822</v>
+        <v>1.046522458070733</v>
       </c>
       <c r="AN3">
-        <v>1.048800967056729</v>
+        <v>1.048362273782549</v>
       </c>
       <c r="AO3">
-        <v>1.048346679057288</v>
+        <v>1.047944349853169</v>
       </c>
       <c r="AP3">
-        <v>1.047755042929421</v>
+        <v>1.047035224733519</v>
       </c>
       <c r="AQ3">
-        <v>1.04774438889523</v>
+        <v>1.047027310314114</v>
       </c>
       <c r="AR3">
-        <v>1.047144504905331</v>
+        <v>1.046138724892064</v>
       </c>
       <c r="AS3">
-        <v>1.047418176854821</v>
+        <v>1.046522458070731</v>
       </c>
       <c r="AT3">
-        <v>1.048800967056729</v>
+        <v>1.048362273782549</v>
       </c>
       <c r="AU3">
-        <v>1.048346263074208</v>
+        <v>1.047943980374341</v>
       </c>
       <c r="AV3">
-        <v>1.047754464148636</v>
+        <v>1.047034855924208</v>
       </c>
       <c r="AW3">
-        <v>1.047715663494828</v>
+        <v>1.047006297861881</v>
       </c>
       <c r="AX3">
-        <v>1.046937703319096</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="AY3">
-        <v>1.04741817685482</v>
+        <v>1.04652245807073</v>
       </c>
       <c r="AZ3">
-        <v>1.048800967056729</v>
+        <v>1.04836227378255</v>
       </c>
       <c r="BA3">
-        <v>1.048345249968067</v>
+        <v>1.047943080526978</v>
       </c>
       <c r="BB3">
-        <v>1.047753850764906</v>
+        <v>1.047034465065291</v>
       </c>
       <c r="BC3">
-        <v>1.046907886734314</v>
+        <v>1.045806946545898</v>
       </c>
       <c r="BD3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="BE3">
-        <v>1.047418176854819</v>
+        <v>1.046522458070729</v>
       </c>
       <c r="BF3">
-        <v>1.048800967056729</v>
+        <v>1.04836227378255</v>
       </c>
       <c r="BG3">
-        <v>1.048344382564262</v>
+        <v>1.047942310093343</v>
       </c>
       <c r="BH3">
-        <v>1.047753266559352</v>
+        <v>1.047034092799223</v>
       </c>
       <c r="BI3">
-        <v>1.046772825600923</v>
+        <v>1.045617567913589</v>
       </c>
       <c r="BJ3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="BK3">
-        <v>1.047418176854819</v>
+        <v>1.046522458070728</v>
       </c>
       <c r="BL3">
-        <v>1.04880096705673</v>
+        <v>1.04836227378255</v>
       </c>
       <c r="BM3">
-        <v>1.048340224541727</v>
+        <v>1.047938616910742</v>
       </c>
       <c r="BN3">
-        <v>1.047752916678009</v>
+        <v>1.04703386984867</v>
       </c>
       <c r="BO3">
-        <v>1.046746342909035</v>
+        <v>1.045580317523788</v>
       </c>
       <c r="BP3">
-        <v>1.046736234957596</v>
+        <v>1.045570316559483</v>
       </c>
       <c r="BQ3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="BR3">
-        <v>1.047418176854819</v>
+        <v>1.046522458070728</v>
       </c>
       <c r="BS3">
-        <v>1.048800967056731</v>
+        <v>1.048362273782551</v>
       </c>
       <c r="BT3">
-        <v>1.048325527361353</v>
+        <v>1.047925562776317</v>
       </c>
       <c r="BU3">
-        <v>1.047752230236501</v>
+        <v>1.047033432436052</v>
       </c>
       <c r="BV3">
-        <v>1.046433460174618</v>
+        <v>1.045140217981422</v>
       </c>
       <c r="BW3">
-        <v>1.046727466004495</v>
+        <v>1.045562275499198</v>
       </c>
       <c r="BX3">
-        <v>1.046727118663046</v>
+        <v>1.045555261486736</v>
       </c>
       <c r="BY3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="BZ3">
-        <v>1.047418176854818</v>
+        <v>1.046522458070726</v>
       </c>
       <c r="CA3">
-        <v>1.048800967056735</v>
+        <v>1.048362273782554</v>
       </c>
       <c r="CB3">
-        <v>1.047748751324648</v>
+        <v>1.047031215612164</v>
       </c>
       <c r="CC3">
-        <v>1.046324397537297</v>
+        <v>1.044986810658636</v>
       </c>
       <c r="CD3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431012</v>
       </c>
       <c r="CE3">
-        <v>1.047418176854814</v>
+        <v>1.046522458070721</v>
       </c>
       <c r="CF3">
-        <v>1.04880096705674</v>
+        <v>1.048362273782558</v>
       </c>
       <c r="CG3">
-        <v>1.047735642009555</v>
+        <v>1.047022862125933</v>
       </c>
       <c r="CH3">
-        <v>1.046300596512932</v>
+        <v>1.04495333215881</v>
       </c>
       <c r="CI3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431011</v>
       </c>
       <c r="CJ3">
-        <v>1.047418176854807</v>
+        <v>1.046522458070713</v>
       </c>
       <c r="CK3">
-        <v>1.048800967056743</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="CL3">
-        <v>1.04625233180566</v>
+        <v>1.044885443043483</v>
       </c>
       <c r="CM3">
-        <v>1.046937703319098</v>
+        <v>1.045848754431011</v>
       </c>
       <c r="CN3">
-        <v>1.047418176854805</v>
+        <v>1.04652245807071</v>
       </c>
       <c r="CO3">
-        <v>1.048800967056744</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="CP3">
-        <v>1.046206815962852</v>
+        <v>1.044821420454194</v>
       </c>
       <c r="CQ3">
-        <v>1.047418176854805</v>
+        <v>1.04652245807071</v>
       </c>
       <c r="CR3">
-        <v>1.048800967056744</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="CS3">
-        <v>1.046180360461087</v>
+        <v>1.044784208131261</v>
       </c>
       <c r="CT3">
-        <v>1.047418176854804</v>
+        <v>1.04652245807071</v>
       </c>
       <c r="CU3">
-        <v>1.048800967056744</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="CV3">
-        <v>1.046162888581452</v>
+        <v>1.044759632171443</v>
       </c>
       <c r="CW3">
-        <v>1.047418176854804</v>
+        <v>1.046522458070709</v>
       </c>
       <c r="CX3">
-        <v>1.048800967056744</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="CY3">
-        <v>1.046138764794036</v>
+        <v>1.044725699626847</v>
       </c>
       <c r="CZ3">
-        <v>1.047418176854789</v>
+        <v>1.046522458070696</v>
       </c>
       <c r="DA3">
-        <v>1.048800967056744</v>
+        <v>1.04836227378256</v>
       </c>
       <c r="DB3">
-        <v>1.046138182602562</v>
+        <v>1.044725378133054</v>
       </c>
       <c r="DC3">
-        <v>1.046126190172287</v>
+        <v>1.044705150120457</v>
       </c>
       <c r="DD3">
-        <v>1.047418176854789</v>
+        <v>1.046522458070696</v>
       </c>
       <c r="DE3">
-        <v>1.046137478231412</v>
+        <v>1.044724989169983</v>
       </c>
       <c r="DF3">
-        <v>1.046119059738881</v>
+        <v>1.044693497532019</v>
       </c>
       <c r="DG3">
-        <v>1.047418176854787</v>
+        <v>1.046522458070694</v>
       </c>
       <c r="DH3">
-        <v>1.04613666181532</v>
+        <v>1.044724538334136</v>
       </c>
       <c r="DI3">
-        <v>1.045837712259222</v>
+        <v>1.044233717896081</v>
       </c>
       <c r="DJ3">
-        <v>1.047418176854741</v>
+        <v>1.046522458070664</v>
       </c>
       <c r="DK3">
-        <v>1.046135417023605</v>
+        <v>1.044723850943407</v>
       </c>
       <c r="DL3">
-        <v>1.045809527410627</v>
+        <v>1.044187658032327</v>
       </c>
       <c r="DM3">
-        <v>1.0474181768547</v>
+        <v>1.046522458070637</v>
       </c>
       <c r="DN3">
-        <v>1.046133816676385</v>
+        <v>1.044722967209873</v>
       </c>
       <c r="DO3">
-        <v>1.045807789591306</v>
+        <v>1.044186005237057</v>
       </c>
       <c r="DP3">
-        <v>1.045742494349377</v>
+        <v>1.044063735619158</v>
       </c>
       <c r="DQ3">
-        <v>1.047418176854696</v>
+        <v>1.046522458070634</v>
       </c>
       <c r="DR3">
-        <v>1.046132667780814</v>
+        <v>1.044722332773899</v>
       </c>
       <c r="DS3">
-        <v>1.045807789591307</v>
+        <v>1.044186005237056</v>
       </c>
       <c r="DT3">
-        <v>1.045806943458126</v>
+        <v>1.044185200501519</v>
       </c>
       <c r="DU3">
-        <v>1.045621609349773</v>
+        <v>1.043840257637043</v>
       </c>
       <c r="DV3">
-        <v>1.047418176854694</v>
+        <v>1.046522458070632</v>
       </c>
       <c r="DW3">
-        <v>1.046131044400999</v>
+        <v>1.044721436320914</v>
       </c>
       <c r="DX3">
-        <v>1.045807789591307</v>
+        <v>1.044186005237055</v>
       </c>
       <c r="DY3">
-        <v>1.045802968612707</v>
+        <v>1.044181420127888</v>
       </c>
       <c r="DZ3">
-        <v>1.045567247585087</v>
+        <v>1.04373975966664</v>
       </c>
       <c r="EA3">
-        <v>1.047418176854691</v>
+        <v>1.04652245807063</v>
       </c>
       <c r="EB3">
-        <v>1.046129288022252</v>
+        <v>1.044720466423707</v>
       </c>
       <c r="EC3">
-        <v>1.045807789591308</v>
+        <v>1.044186005237054</v>
       </c>
       <c r="ED3">
-        <v>1.045783157364366</v>
+        <v>1.044174166949771</v>
       </c>
       <c r="EE3">
-        <v>1.045794732065521</v>
+        <v>1.044171910152319</v>
       </c>
       <c r="EF3">
-        <v>1.045551073486529</v>
+        <v>1.043709858757012</v>
       </c>
       <c r="EG3">
-        <v>1.047418176854685</v>
+        <v>1.046522458070625</v>
       </c>
       <c r="EH3">
-        <v>1.046127631617168</v>
+        <v>1.044719551733032</v>
       </c>
       <c r="EI3">
-        <v>1.045807789591308</v>
+        <v>1.044186005237054</v>
       </c>
       <c r="EJ3">
-        <v>1.045781451228654</v>
+        <v>1.04417354230942</v>
       </c>
       <c r="EK3">
-        <v>1.045788604535468</v>
+        <v>1.044164835267273</v>
       </c>
       <c r="EL3">
-        <v>1.045532816140965</v>
+        <v>1.043676106545857</v>
       </c>
       <c r="EM3">
-        <v>1.04741817685468</v>
+        <v>1.046522458070621</v>
       </c>
       <c r="EN3">
-        <v>1.04612490822588</v>
+        <v>1.044718047836536</v>
       </c>
       <c r="EO3">
-        <v>1.045807789591308</v>
+        <v>1.044186005237053</v>
       </c>
       <c r="EP3">
-        <v>1.045779777185414</v>
+        <v>1.044172929418587</v>
       </c>
       <c r="EQ3">
-        <v>1.04578450109141</v>
+        <v>1.044160097406868</v>
       </c>
       <c r="ER3">
-        <v>1.045515645452056</v>
+        <v>1.04364436320737</v>
       </c>
       <c r="ES3">
-        <v>1.047418176854679</v>
+        <v>1.04652245807062</v>
       </c>
       <c r="ET3">
-        <v>1.046111959146182</v>
+        <v>1.044710897153172</v>
       </c>
       <c r="EU3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237053</v>
       </c>
       <c r="EV3">
-        <v>1.045778425466405</v>
+        <v>1.044172434535205</v>
       </c>
       <c r="EW3">
-        <v>1.045782215704912</v>
+        <v>1.044155883387101</v>
       </c>
       <c r="EX3">
-        <v>1.045750852525427</v>
+        <v>1.044150525792478</v>
       </c>
       <c r="EY3">
-        <v>1.045495610550331</v>
+        <v>1.043607324792017</v>
       </c>
       <c r="EZ3">
-        <v>1.047418176854678</v>
+        <v>1.04652245807062</v>
       </c>
       <c r="FA3">
-        <v>1.046109138267779</v>
+        <v>1.044709339417538</v>
       </c>
       <c r="FB3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237052</v>
       </c>
       <c r="FC3">
-        <v>1.045776396643571</v>
+        <v>1.044171691754579</v>
       </c>
       <c r="FD3">
-        <v>1.045776154736294</v>
+        <v>1.044144707603545</v>
       </c>
       <c r="FE3">
-        <v>1.045748804457616</v>
+        <v>1.044149943202519</v>
       </c>
       <c r="FF3">
-        <v>1.045489845614113</v>
+        <v>1.043596667180233</v>
       </c>
       <c r="FG3">
-        <v>1.047418176854678</v>
+        <v>1.04652245807062</v>
       </c>
       <c r="FH3">
-        <v>1.046048213077785</v>
+        <v>1.044698124621853</v>
       </c>
       <c r="FI3">
-        <v>1.046100592104863</v>
+        <v>1.044703838911751</v>
       </c>
       <c r="FJ3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237051</v>
       </c>
       <c r="FK3">
-        <v>1.045773950670962</v>
+        <v>1.044170796249561</v>
       </c>
       <c r="FL3">
-        <v>1.045774049434873</v>
+        <v>1.044140825659363</v>
       </c>
       <c r="FM3">
-        <v>1.045746933439211</v>
+        <v>1.044149410975736</v>
       </c>
       <c r="FN3">
-        <v>1.045457094110659</v>
+        <v>1.043536119578947</v>
       </c>
       <c r="FO3">
-        <v>1.047418176854678</v>
+        <v>1.04652245807062</v>
       </c>
       <c r="FP3">
-        <v>1.04603670328193</v>
+        <v>1.044696005957467</v>
       </c>
       <c r="FQ3">
-        <v>1.046089246224726</v>
+        <v>1.044696536432368</v>
       </c>
       <c r="FR3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237051</v>
       </c>
       <c r="FS3">
-        <v>1.045772102789362</v>
+        <v>1.044170119714097</v>
       </c>
       <c r="FT3">
-        <v>1.045774049434883</v>
+        <v>1.044140825659374</v>
       </c>
       <c r="FU3">
-        <v>1.045739284289505</v>
+        <v>1.044076725188391</v>
       </c>
       <c r="FV3">
-        <v>1.045746156192475</v>
+        <v>1.044149189881421</v>
       </c>
       <c r="FW3">
-        <v>1.045438595882525</v>
+        <v>1.043501921930207</v>
       </c>
       <c r="FX3">
-        <v>1.046012956256119</v>
+        <v>1.044691634725992</v>
       </c>
       <c r="FY3">
-        <v>1.046088376308689</v>
+        <v>1.044695818138413</v>
       </c>
       <c r="FZ3">
-        <v>1.046061669839219</v>
+        <v>1.0446829911724</v>
       </c>
       <c r="GA3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237051</v>
       </c>
       <c r="GB3">
-        <v>1.045769964468681</v>
+        <v>1.04416933684481</v>
       </c>
       <c r="GC3">
-        <v>1.045774049434884</v>
+        <v>1.044140825659376</v>
       </c>
       <c r="GD3">
-        <v>1.04573552962099</v>
+        <v>1.04406980227774</v>
       </c>
       <c r="GE3">
-        <v>1.045744480846323</v>
+        <v>1.044148713315236</v>
       </c>
       <c r="GF3">
-        <v>1.045424864146842</v>
+        <v>1.043476536074222</v>
       </c>
       <c r="GG3">
-        <v>1.046084952958636</v>
+        <v>1.044692991461534</v>
       </c>
       <c r="GH3">
-        <v>1.045947537071143</v>
+        <v>1.044626930223923</v>
       </c>
       <c r="GI3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237051</v>
       </c>
       <c r="GJ3">
-        <v>1.045767953895464</v>
+        <v>1.044168600745679</v>
       </c>
       <c r="GK3">
-        <v>1.045774049434884</v>
+        <v>1.044140825659376</v>
       </c>
       <c r="GL3">
-        <v>1.045774049434885</v>
+        <v>1.044140825659377</v>
       </c>
       <c r="GM3">
-        <v>1.045731897823346</v>
+        <v>1.044063105918265</v>
       </c>
       <c r="GN3">
-        <v>1.04574021375993</v>
+        <v>1.044147499506912</v>
       </c>
       <c r="GO3">
-        <v>1.045412518683138</v>
+        <v>1.043453713007777</v>
       </c>
       <c r="GP3">
-        <v>1.046078840743035</v>
+        <v>1.044687944575689</v>
       </c>
       <c r="GQ3">
-        <v>1.045931069627443</v>
+        <v>1.044623277412311</v>
       </c>
       <c r="GR3">
-        <v>1.045944162220103</v>
+        <v>1.044622708816234</v>
       </c>
       <c r="GS3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237051</v>
       </c>
       <c r="GT3">
-        <v>1.045765790636941</v>
+        <v>1.044167808746325</v>
       </c>
       <c r="GU3">
-        <v>1.045774049434884</v>
+        <v>1.044140825659376</v>
       </c>
       <c r="GV3">
-        <v>1.045774049434885</v>
+        <v>1.044140825659378</v>
       </c>
       <c r="GW3">
-        <v>1.045728992749232</v>
+        <v>1.044057749501929</v>
       </c>
       <c r="GX3">
-        <v>1.04573771028189</v>
+        <v>1.044146787371688</v>
       </c>
       <c r="GY3">
-        <v>1.045397182121719</v>
+        <v>1.0434253602825</v>
       </c>
       <c r="GZ3">
-        <v>1.046066551039969</v>
+        <v>1.044681521750104</v>
       </c>
       <c r="HA3">
-        <v>1.046077959722461</v>
+        <v>1.044687003659554</v>
       </c>
       <c r="HB3">
-        <v>1.045889435865102</v>
+        <v>1.044614042201929</v>
       </c>
       <c r="HC3">
-        <v>1.045943685181556</v>
+        <v>1.044622112116067</v>
       </c>
       <c r="HD3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237052</v>
       </c>
       <c r="HE3">
-        <v>1.04576248366393</v>
+        <v>1.044166598017047</v>
       </c>
       <c r="HF3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659378</v>
       </c>
       <c r="HG3">
-        <v>1.045726678628676</v>
+        <v>1.044053482694101</v>
       </c>
       <c r="HH3">
-        <v>1.045735956837463</v>
+        <v>1.044146288589782</v>
       </c>
       <c r="HI3">
-        <v>1.04536888107503</v>
+        <v>1.043373040050327</v>
       </c>
       <c r="HJ3">
-        <v>1.046026325209628</v>
+        <v>1.044660498986705</v>
       </c>
       <c r="HK3">
-        <v>1.046076369631888</v>
+        <v>1.044685305468191</v>
       </c>
       <c r="HL3">
-        <v>1.045943300463462</v>
+        <v>1.044621630894264</v>
       </c>
       <c r="HM3">
-        <v>1.045807789591309</v>
+        <v>1.044186005237052</v>
       </c>
       <c r="HN3">
-        <v>1.045753452675411</v>
+        <v>1.044163291645452</v>
       </c>
       <c r="HO3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659379</v>
       </c>
       <c r="HP3">
-        <v>1.045721786207224</v>
+        <v>1.044044461979216</v>
       </c>
       <c r="HQ3">
-        <v>1.04573258391611</v>
+        <v>1.044145329134134</v>
       </c>
       <c r="HR3">
-        <v>1.045344207075549</v>
+        <v>1.043327425106473</v>
       </c>
       <c r="HS3">
-        <v>1.046008984528386</v>
+        <v>1.044651436424703</v>
       </c>
       <c r="HT3">
-        <v>1.046075801881024</v>
+        <v>1.044684699119449</v>
       </c>
       <c r="HU3">
-        <v>1.045942993016768</v>
+        <v>1.044621246326825</v>
       </c>
       <c r="HV3">
-        <v>1.045752682664238</v>
+        <v>1.04416300973357</v>
       </c>
       <c r="HW3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659379</v>
       </c>
       <c r="HX3">
-        <v>1.045717933308767</v>
+        <v>1.044037357951489</v>
       </c>
       <c r="HY3">
-        <v>1.04573090509479</v>
+        <v>1.044144851579384</v>
       </c>
       <c r="HZ3">
-        <v>1.045327422681634</v>
+        <v>1.043296395691156</v>
       </c>
       <c r="IA3">
-        <v>1.046012441812745</v>
+        <v>1.044617078066738</v>
       </c>
       <c r="IB3">
-        <v>1.046075801881024</v>
+        <v>1.044684699119449</v>
       </c>
       <c r="IC3">
-        <v>1.045942523696449</v>
+        <v>1.04462065928095</v>
       </c>
       <c r="ID3">
-        <v>1.045752327003292</v>
+        <v>1.044162879521115</v>
       </c>
       <c r="IE3">
-        <v>1.045774049434887</v>
+        <v>1.04414082565938</v>
       </c>
       <c r="IF3">
-        <v>1.045715260746407</v>
+        <v>1.044032430243951</v>
       </c>
       <c r="IG3">
-        <v>1.045729713027994</v>
+        <v>1.044144512486023</v>
       </c>
       <c r="IH3">
-        <v>1.045316396777859</v>
+        <v>1.04327601202246</v>
       </c>
       <c r="II3">
-        <v>1.046003240544764</v>
+        <v>1.044607258011233</v>
       </c>
       <c r="IJ3">
-        <v>1.045941973558472</v>
+        <v>1.044619971144904</v>
       </c>
       <c r="IK3">
-        <v>1.045751946580858</v>
+        <v>1.044162740243131</v>
       </c>
       <c r="IL3">
-        <v>1.045774049434887</v>
+        <v>1.04414082565938</v>
       </c>
       <c r="IM3">
-        <v>1.04571259455087</v>
+        <v>1.044027514275719</v>
       </c>
       <c r="IN3">
-        <v>1.045716076293564</v>
+        <v>1.04414063340286</v>
       </c>
       <c r="IO3">
-        <v>1.045292667170684</v>
+        <v>1.043232142896261</v>
       </c>
       <c r="IP3">
-        <v>1.0459815824692</v>
+        <v>1.044587491680859</v>
       </c>
       <c r="IQ3">
-        <v>1.045996655618319</v>
+        <v>1.044596881991516</v>
       </c>
       <c r="IR3">
-        <v>1.045941128579214</v>
+        <v>1.044618914208809</v>
       </c>
       <c r="IS3">
-        <v>1.045751583070469</v>
+        <v>1.044162607156885</v>
       </c>
       <c r="IT3">
-        <v>1.045774049434887</v>
+        <v>1.04414082565938</v>
       </c>
       <c r="IU3">
-        <v>1.045708694025736</v>
+        <v>1.044020322433621</v>
       </c>
       <c r="IV3">
-        <v>1.045712055043975</v>
+        <v>1.044139489524744</v>
       </c>
       <c r="IW3">
-        <v>1.04528283268623</v>
+        <v>1.043223596688561</v>
       </c>
       <c r="IX3">
-        <v>1.045277400339769</v>
+        <v>1.043203484714853</v>
       </c>
       <c r="IY3">
-        <v>1.045938036530392</v>
+        <v>1.044615046542296</v>
       </c>
       <c r="IZ3">
-        <v>1.045751178104318</v>
+        <v>1.044162458893104</v>
       </c>
       <c r="JA3">
-        <v>1.045774049434887</v>
+        <v>1.044140825659381</v>
       </c>
       <c r="JB3">
-        <v>1.045694023956923</v>
+        <v>1.043993273559546</v>
       </c>
       <c r="JC3">
-        <v>1.045711155371052</v>
+        <v>1.044139233605245</v>
       </c>
       <c r="JD3">
-        <v>1.045281473217142</v>
+        <v>1.043222415304293</v>
       </c>
       <c r="JE3">
-        <v>1.04522015202694</v>
+        <v>1.043096020713268</v>
       </c>
       <c r="JF3">
-        <v>1.045922987527182</v>
+        <v>1.044596222608041</v>
       </c>
       <c r="JG3">
-        <v>1.045750342197405</v>
+        <v>1.044162152855875</v>
       </c>
       <c r="JH3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659381</v>
       </c>
       <c r="JI3">
-        <v>1.045690599948721</v>
+        <v>1.043986960326572</v>
       </c>
       <c r="JJ3">
-        <v>1.045703165961815</v>
+        <v>1.044132785052498</v>
       </c>
       <c r="JK3">
-        <v>1.045710651229155</v>
+        <v>1.044139233560951</v>
       </c>
       <c r="JL3">
-        <v>1.045280848219244</v>
+        <v>1.043221872178531</v>
       </c>
       <c r="JM3">
-        <v>1.045198509806111</v>
+        <v>1.043084108370172</v>
       </c>
       <c r="JN3">
-        <v>1.045202229926578</v>
+        <v>1.04306064283693</v>
       </c>
       <c r="JO3">
-        <v>1.045749471605718</v>
+        <v>1.044161834120067</v>
       </c>
       <c r="JP3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659381</v>
       </c>
       <c r="JQ3">
-        <v>1.045689031321394</v>
+        <v>1.043984068070174</v>
       </c>
       <c r="JR3">
-        <v>1.045695248179641</v>
+        <v>1.044126394312783</v>
       </c>
       <c r="JS3">
-        <v>1.045710060154506</v>
+        <v>1.044139233509018</v>
       </c>
       <c r="JT3">
-        <v>1.045280105900849</v>
+        <v>1.043221227100771</v>
       </c>
       <c r="JU3">
-        <v>1.045196936654338</v>
+        <v>1.043083242473637</v>
       </c>
       <c r="JV3">
-        <v>1.045137262404101</v>
+        <v>1.042932398026239</v>
       </c>
       <c r="JW3">
-        <v>1.045746161055398</v>
+        <v>1.044160622081256</v>
       </c>
       <c r="JX3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659382</v>
       </c>
       <c r="JY3">
-        <v>1.045688000067402</v>
+        <v>1.043982166630053</v>
       </c>
       <c r="JZ3">
-        <v>1.045709525987461</v>
+        <v>1.044139233462086</v>
       </c>
       <c r="KA3">
-        <v>1.04527896059243</v>
+        <v>1.043220231823011</v>
       </c>
       <c r="KB3">
-        <v>1.045195640013439</v>
+        <v>1.043082528774626</v>
       </c>
       <c r="KC3">
-        <v>1.045097033851546</v>
+        <v>1.042903914580703</v>
       </c>
       <c r="KD3">
-        <v>1.045134399896863</v>
+        <v>1.042911769277397</v>
       </c>
       <c r="KE3">
-        <v>1.045728584871322</v>
+        <v>1.044154187194814</v>
       </c>
       <c r="KF3">
-        <v>1.045774049434886</v>
+        <v>1.044140825659382</v>
       </c>
       <c r="KG3">
-        <v>1.045686079220818</v>
+        <v>1.043980532611655</v>
       </c>
       <c r="KH3">
-        <v>1.045687343406312</v>
+        <v>1.043980720573797</v>
       </c>
       <c r="KI3">
-        <v>1.045708984983032</v>
+        <v>1.044139233414553</v>
       </c>
       <c r="KJ3">
-        <v>1.04527794004207</v>
+        <v>1.04321934496052</v>
       </c>
       <c r="KK3">
-        <v>1.045193798235064</v>
+        <v>1.043081515020232</v>
       </c>
       <c r="KL3">
-        <v>1.045078517531478</v>
+        <v>1.042890804351655</v>
       </c>
       <c r="KM3">
-        <v>1.045122403237431</v>
+        <v>1.042825315139161</v>
       </c>
       <c r="KN3">
-        <v>1.045685196865266</v>
+        <v>1.043979782012821</v>
       </c>
       <c r="KO3">
-        <v>1.045686878663824</v>
+        <v>1.043979697148185</v>
       </c>
       <c r="KP3">
-        <v>1.04570840329389</v>
+        <v>1.044139233363446</v>
       </c>
       <c r="KQ3">
-        <v>1.045277146587291</v>
+        <v>1.043218655445029</v>
       </c>
       <c r="KR3">
-        <v>1.045185525797492</v>
+        <v>1.043076961692795</v>
       </c>
       <c r="KS3">
-        <v>1.044957556805828</v>
+        <v>1.042805160930369</v>
       </c>
       <c r="KT3">
-        <v>1.045119755106546</v>
+        <v>1.042806231373456</v>
       </c>
       <c r="KU3">
-        <v>1.045683703494683</v>
+        <v>1.043978511638064</v>
       </c>
       <c r="KV3">
-        <v>1.045686337840531</v>
+        <v>1.043978506182389</v>
       </c>
       <c r="KW3">
-        <v>1.045705029819755</v>
+        <v>1.044139233067051</v>
       </c>
       <c r="KX3">
-        <v>1.045276158934986</v>
+        <v>1.043217797171085</v>
       </c>
       <c r="KY3">
-        <v>1.045183933265578</v>
+        <v>1.043076085128994</v>
       </c>
       <c r="KZ3">
-        <v>1.044948522022968</v>
+        <v>1.042798764145073</v>
       </c>
       <c r="LA3">
-        <v>1.045118875186461</v>
+        <v>1.042799890228788</v>
       </c>
       <c r="LB3">
-        <v>1.045680837066896</v>
+        <v>1.04397607323627</v>
       </c>
       <c r="LC3">
-        <v>1.045685303418548</v>
+        <v>1.043976228245753</v>
       </c>
       <c r="LD3">
-        <v>1.045690761300526</v>
+        <v>1.044139231813414</v>
       </c>
       <c r="LE3">
-        <v>1.045275137414559</v>
+        <v>1.0432169094656</v>
       </c>
       <c r="LF3">
-        <v>1.045182754126639</v>
+        <v>1.043075436105571</v>
       </c>
       <c r="LG3">
-        <v>1.044943426919802</v>
+        <v>1.04279626912717</v>
       </c>
       <c r="LH3">
-        <v>1.044806190504679</v>
+        <v>1.042692964731177</v>
       </c>
       <c r="LI3">
-        <v>1.045118415930083</v>
+        <v>1.042796580597978</v>
       </c>
       <c r="LJ3">
-        <v>1.04567239782089</v>
+        <v>1.043968894170813</v>
       </c>
       <c r="LK3">
-        <v>1.045681336230381</v>
+        <v>1.043967491962844</v>
       </c>
       <c r="LL3">
-        <v>1.045273932475797</v>
+        <v>1.043215862368823</v>
       </c>
       <c r="LM3">
-        <v>1.045181395886425</v>
+        <v>1.043074688500956</v>
       </c>
       <c r="LN3">
-        <v>1.044917185603804</v>
+        <v>1.042783419033041</v>
       </c>
       <c r="LO3">
-        <v>1.044737885724224</v>
+        <v>1.042642193108878</v>
       </c>
       <c r="LP3">
-        <v>1.045118022792341</v>
+        <v>1.042793747451389</v>
       </c>
       <c r="LQ3">
-        <v>1.045667797722734</v>
+        <v>1.043937678346851</v>
       </c>
       <c r="LR3">
-        <v>1.045273245821079</v>
+        <v>1.043215265663028</v>
       </c>
       <c r="LS3">
-        <v>1.045180048531699</v>
+        <v>1.043073946887944</v>
       </c>
       <c r="LT3">
-        <v>1.044908024262373</v>
+        <v>1.04277893282115</v>
       </c>
       <c r="LU3">
-        <v>1.044700998134842</v>
+        <v>1.042633665534044</v>
       </c>
       <c r="LV3">
-        <v>1.044617263522553</v>
+        <v>1.042546907283461</v>
       </c>
       <c r="LW3">
-        <v>1.04511757566867</v>
+        <v>1.04279052525563</v>
       </c>
       <c r="LX3">
-        <v>1.045270143791303</v>
+        <v>1.043212569986294</v>
       </c>
       <c r="LY3">
-        <v>1.045168211871498</v>
+        <v>1.043067431735593</v>
       </c>
       <c r="LZ3">
-        <v>1.044888085197528</v>
+        <v>1.042769168871945</v>
       </c>
       <c r="MA3">
-        <v>1.044686388822741</v>
+        <v>1.04263028819174</v>
       </c>
       <c r="MB3">
-        <v>1.044553046876482</v>
+        <v>1.042488429645622</v>
       </c>
       <c r="MC3">
-        <v>1.044600005403283</v>
+        <v>1.042533837721872</v>
       </c>
       <c r="MD3">
-        <v>1.04511722341222</v>
+        <v>1.042787986720553</v>
       </c>
       <c r="ME3">
-        <v>1.045268936545737</v>
+        <v>1.043211520884892</v>
       </c>
       <c r="MF3">
-        <v>1.045144016154447</v>
+        <v>1.043054113892128</v>
       </c>
       <c r="MG3">
-        <v>1.044885404807495</v>
+        <v>1.042765264726221</v>
       </c>
       <c r="MH3">
-        <v>1.044881656157582</v>
+        <v>1.042767240004329</v>
       </c>
       <c r="MI3">
-        <v>1.044520761667341</v>
+        <v>1.042459029748448</v>
       </c>
       <c r="MJ3">
-        <v>1.044585220252418</v>
+        <v>1.042522641043475</v>
       </c>
       <c r="MK3">
-        <v>1.045116928082379</v>
+        <v>1.042785858427102</v>
       </c>
       <c r="ML3">
-        <v>1.045268517149764</v>
+        <v>1.043211156428053</v>
       </c>
       <c r="MM3">
-        <v>1.044881394135437</v>
+        <v>1.042759422946499</v>
       </c>
       <c r="MN3">
-        <v>1.044880760974788</v>
+        <v>1.042766971427817</v>
       </c>
       <c r="MO3">
-        <v>1.044517757212132</v>
+        <v>1.042456293799789</v>
       </c>
       <c r="MP3">
-        <v>1.044574820277689</v>
+        <v>1.042514765283038</v>
       </c>
       <c r="MQ3">
-        <v>1.045116661601446</v>
+        <v>1.04278393803334</v>
       </c>
       <c r="MR3">
-        <v>1.045268201190697</v>
+        <v>1.043210881858314</v>
       </c>
       <c r="MS3">
-        <v>1.044879788743337</v>
+        <v>1.042766679734843</v>
       </c>
       <c r="MT3">
-        <v>1.044516516409603</v>
+        <v>1.042455163887117</v>
       </c>
       <c r="MU3">
-        <v>1.044561679693625</v>
+        <v>1.042504814165343</v>
       </c>
       <c r="MV3">
-        <v>1.045116441052419</v>
+        <v>1.042782348647771</v>
       </c>
       <c r="MW3">
-        <v>1.045267970020603</v>
+        <v>1.043210680970544</v>
       </c>
       <c r="MX3">
-        <v>1.044878937138424</v>
+        <v>1.042766424232749</v>
       </c>
       <c r="MY3">
-        <v>1.044515640894802</v>
+        <v>1.042454366616604</v>
       </c>
       <c r="MZ3">
-        <v>1.044553445912763</v>
+        <v>1.042498578916989</v>
       </c>
       <c r="NA3">
-        <v>1.045116185202498</v>
+        <v>1.042780504866582</v>
       </c>
       <c r="NB3">
-        <v>1.045267852631121</v>
+        <v>1.043210578958597</v>
       </c>
       <c r="NC3">
-        <v>1.0448780323082</v>
+        <v>1.042766152761773</v>
       </c>
       <c r="ND3">
-        <v>1.044514745379208</v>
+        <v>1.042453551132757</v>
       </c>
       <c r="NE3">
-        <v>1.044540802057502</v>
+        <v>1.042489004082186</v>
       </c>
       <c r="NF3">
-        <v>1.04511590400556</v>
+        <v>1.042778478422381</v>
       </c>
       <c r="NG3">
-        <v>1.045267680043662</v>
+        <v>1.04321042897938</v>
       </c>
       <c r="NH3">
-        <v>1.044876740921809</v>
+        <v>1.042765765314586</v>
       </c>
       <c r="NI3">
-        <v>1.04451368873477</v>
+        <v>1.042452588920065</v>
       </c>
       <c r="NJ3">
-        <v>1.04452819761754</v>
+        <v>1.042479459166662</v>
       </c>
       <c r="NK3">
-        <v>1.045114371019228</v>
+        <v>1.042767430967333</v>
       </c>
       <c r="NL3">
-        <v>1.045267390730715</v>
+        <v>1.04321017756523</v>
       </c>
       <c r="NM3">
-        <v>1.044875171004919</v>
+        <v>1.042765294301502</v>
       </c>
       <c r="NN3">
-        <v>1.044512355853268</v>
+        <v>1.042451375157467</v>
       </c>
       <c r="NO3">
-        <v>1.044514055044407</v>
+        <v>1.042468749559591</v>
       </c>
       <c r="NP3">
-        <v>1.045051610901008</v>
+        <v>1.042688381640303</v>
       </c>
       <c r="NQ3">
-        <v>1.045196701533649</v>
+        <v>1.042760677403789</v>
       </c>
       <c r="NR3">
-        <v>1.045266100269952</v>
+        <v>1.043209056149478</v>
       </c>
       <c r="NS3">
-        <v>1.044865440158671</v>
+        <v>1.042762374811937</v>
       </c>
       <c r="NT3">
-        <v>1.044511162128169</v>
+        <v>1.042450288114938</v>
       </c>
       <c r="NU3">
-        <v>1.044503820981368</v>
+        <v>1.04246099976727</v>
       </c>
       <c r="NV3">
-        <v>1.044991501184469</v>
+        <v>1.042612670576764</v>
       </c>
       <c r="NW3">
-        <v>1.045702222812477</v>
+        <v>1.042719209619666</v>
       </c>
       <c r="NX3">
-        <v>1.045196701533652</v>
+        <v>1.042760677403785</v>
       </c>
       <c r="NY3">
-        <v>1.045261356572576</v>
+        <v>1.043204933856786</v>
       </c>
       <c r="NZ3">
-        <v>1.044832143824895</v>
+        <v>1.042752385104665</v>
       </c>
       <c r="OA3">
-        <v>1.044510217563548</v>
+        <v>1.042449427965549</v>
       </c>
       <c r="OB3">
-        <v>1.04449162291839</v>
+        <v>1.042451762787979</v>
       </c>
       <c r="OC3">
-        <v>1.04498882527457</v>
+        <v>1.042609300139271</v>
       </c>
       <c r="OD3">
-        <v>1.045886978626739</v>
+        <v>1.04270405417808</v>
       </c>
       <c r="OE3">
-        <v>1.045196701533667</v>
+        <v>1.042760677403771</v>
       </c>
       <c r="OF3">
-        <v>1.044508596463446</v>
+        <v>1.042447951742291</v>
       </c>
       <c r="OG3">
-        <v>1.044473923718543</v>
+        <v>1.042438360192927</v>
       </c>
       <c r="OH3">
-        <v>1.044980222015796</v>
+        <v>1.04258579575604</v>
       </c>
       <c r="OI3">
-        <v>1.044941238595261</v>
+        <v>1.042551502902533</v>
       </c>
       <c r="OJ3">
-        <v>1.045905784358151</v>
+        <v>1.042702511552807</v>
       </c>
       <c r="OK3">
-        <v>1.045196701533667</v>
+        <v>1.04276067740377</v>
       </c>
       <c r="OL3">
-        <v>1.044502937377921</v>
+        <v>1.042442798406189</v>
       </c>
       <c r="OM3">
-        <v>1.044460801924374</v>
+        <v>1.042428423896721</v>
       </c>
       <c r="ON3">
-        <v>1.044979433735077</v>
+        <v>1.042583642147716</v>
       </c>
       <c r="OO3">
-        <v>1.044918280747729</v>
+        <v>1.042523619032961</v>
       </c>
       <c r="OP3">
-        <v>1.045918908299614</v>
+        <v>1.042701435002187</v>
       </c>
       <c r="OQ3">
-        <v>1.045196701533668</v>
+        <v>1.04276067740377</v>
       </c>
       <c r="OR3">
-        <v>1.044468339825965</v>
+        <v>1.042411292818636</v>
       </c>
       <c r="OS3">
-        <v>1.044448143847587</v>
+        <v>1.042418838817061</v>
       </c>
       <c r="OT3">
-        <v>1.044978985613759</v>
+        <v>1.042582417865855</v>
       </c>
       <c r="OU3">
-        <v>1.044849020640908</v>
+        <v>1.042439497865138</v>
       </c>
       <c r="OV3">
-        <v>1.044918280747728</v>
+        <v>1.042523619032955</v>
       </c>
       <c r="OW3">
-        <v>1.045932503537953</v>
+        <v>1.042700319791399</v>
       </c>
       <c r="OX3">
-        <v>1.045196701533668</v>
+        <v>1.042760677403769</v>
       </c>
       <c r="OY3">
-        <v>1.044435755406877</v>
+        <v>1.042409457983435</v>
       </c>
       <c r="OZ3">
-        <v>1.044978681328615</v>
+        <v>1.042581586549058</v>
       </c>
       <c r="PA3">
-        <v>1.044750377460639</v>
+        <v>1.042319688800597</v>
       </c>
       <c r="PB3">
-        <v>1.044918280747728</v>
+        <v>1.042523619032953</v>
       </c>
       <c r="PC3">
-        <v>1.045989595616413</v>
+        <v>1.042695636556977</v>
       </c>
       <c r="PD3">
-        <v>1.045196701533669</v>
+        <v>1.042760677403768</v>
       </c>
       <c r="PE3">
-        <v>1.044420856438394</v>
+        <v>1.042398176207062</v>
       </c>
       <c r="PF3">
-        <v>1.04497818542436</v>
+        <v>1.042580231722705</v>
       </c>
       <c r="PG3">
-        <v>1.044729735278594</v>
+        <v>1.042294617402471</v>
       </c>
       <c r="PH3">
-        <v>1.044918280747729</v>
+        <v>1.042523619032952</v>
       </c>
       <c r="PI3">
-        <v>1.04600353616553</v>
+        <v>1.042694493021005</v>
       </c>
       <c r="PJ3">
-        <v>1.045196701533674</v>
+        <v>1.042760677403763</v>
       </c>
       <c r="PK3">
-        <v>1.044395903409851</v>
+        <v>1.042379281531683</v>
       </c>
       <c r="PL3">
-        <v>1.044420856438394</v>
+        <v>1.042398176207062</v>
       </c>
       <c r="PM3">
-        <v>1.044976537008277</v>
+        <v>1.042575728197151</v>
       </c>
       <c r="PN3">
-        <v>1.044724459378558</v>
+        <v>1.042288209445581</v>
       </c>
       <c r="PO3">
-        <v>1.044918280747729</v>
+        <v>1.04252361903295</v>
       </c>
       <c r="PP3">
-        <v>1.046016833933545</v>
+        <v>1.042693402212121</v>
       </c>
       <c r="PQ3">
-        <v>1.045196701533677</v>
+        <v>1.042760677403762</v>
       </c>
       <c r="PR3">
-        <v>1.04431173871664</v>
+        <v>1.042315553264146</v>
       </c>
       <c r="PS3">
-        <v>1.044395903409851</v>
+        <v>1.042379281531683</v>
       </c>
       <c r="PT3">
-        <v>1.04497470180436</v>
+        <v>1.042570714361492</v>
       </c>
       <c r="PU3">
-        <v>1.044721695411107</v>
+        <v>1.042284852409801</v>
       </c>
       <c r="PV3">
-        <v>1.04491828074773</v>
+        <v>1.042523619032949</v>
       </c>
       <c r="PW3">
-        <v>1.046030059375129</v>
+        <v>1.042692317336223</v>
       </c>
       <c r="PX3">
-        <v>1.045196701533678</v>
+        <v>1.042760677403761</v>
       </c>
       <c r="PY3">
-        <v>1.044192696497749</v>
+        <v>1.042225421660905</v>
       </c>
       <c r="PZ3">
-        <v>1.04431173871664</v>
+        <v>1.042315553264146</v>
       </c>
       <c r="QA3">
-        <v>1.044973669692862</v>
+        <v>1.042567894600058</v>
       </c>
       <c r="QB3">
-        <v>1.044719404114802</v>
+        <v>1.042282069466778</v>
       </c>
       <c r="QC3">
-        <v>1.044918280747731</v>
+        <v>1.042523619032948</v>
       </c>
       <c r="QD3">
-        <v>1.046045230662429</v>
+        <v>1.042691072843748</v>
       </c>
       <c r="QE3">
-        <v>1.045196701533679</v>
+        <v>1.04276067740376</v>
       </c>
       <c r="QF3">
-        <v>1.04410727692343</v>
+        <v>1.042160751009857</v>
       </c>
       <c r="QG3">
-        <v>1.044192696497749</v>
+        <v>1.042225421660905</v>
       </c>
       <c r="QH3">
-        <v>1.044972700133536</v>
+        <v>1.04256524573322</v>
       </c>
       <c r="QI3">
-        <v>1.044717547146872</v>
+        <v>1.042279814046528</v>
       </c>
       <c r="QJ3">
-        <v>1.044918280747731</v>
+        <v>1.042523619032946</v>
       </c>
       <c r="QK3">
-        <v>1.046097623818399</v>
+        <v>1.042686775062437</v>
       </c>
       <c r="QL3">
-        <v>1.04519670153368</v>
+        <v>1.042760677403758</v>
       </c>
       <c r="QM3">
-        <v>1.044081360650628</v>
+        <v>1.042141130600028</v>
       </c>
       <c r="QN3">
-        <v>1.04410727692343</v>
+        <v>1.042160751009857</v>
       </c>
       <c r="QO3">
-        <v>1.04497177509391</v>
+        <v>1.042562718495679</v>
       </c>
       <c r="QP3">
-        <v>1.044714708643901</v>
+        <v>1.042276366481725</v>
       </c>
       <c r="QQ3">
-        <v>1.044918280747732</v>
+        <v>1.042523619032945</v>
       </c>
       <c r="QR3">
-        <v>1.046352946170977</v>
+        <v>1.042665831131991</v>
       </c>
       <c r="QS3">
-        <v>1.045196701533681</v>
+        <v>1.042760677403757</v>
       </c>
       <c r="QT3">
-        <v>1.044015604071437</v>
+        <v>1.042097894192852</v>
       </c>
       <c r="QU3">
-        <v>1.044081360650628</v>
+        <v>1.042141130600028</v>
       </c>
       <c r="QV3">
-        <v>1.044063125430301</v>
+        <v>1.04211630506083</v>
       </c>
       <c r="QW3">
-        <v>1.044970256316818</v>
+        <v>1.042558569148724</v>
       </c>
       <c r="QX3">
-        <v>1.044712149777104</v>
+        <v>1.042273258554939</v>
       </c>
       <c r="QY3">
-        <v>1.044918280747732</v>
+        <v>1.042523619032944</v>
       </c>
       <c r="QZ3">
-        <v>1.045196701533682</v>
+        <v>1.042760677403755</v>
       </c>
       <c r="RA3">
-        <v>1.043942545441006</v>
+        <v>1.042049859878466</v>
       </c>
       <c r="RB3">
-        <v>1.044015604071437</v>
+        <v>1.042097894192852</v>
       </c>
       <c r="RC3">
-        <v>1.044015604071437</v>
+        <v>1.042097894192852</v>
       </c>
       <c r="RD3">
-        <v>1.044060462402418</v>
+        <v>1.042112679598771</v>
       </c>
       <c r="RE3">
-        <v>1.044969198459675</v>
+        <v>1.042555679049726</v>
       </c>
       <c r="RF3">
-        <v>1.04470971436703</v>
+        <v>1.042270300575078</v>
       </c>
       <c r="RG3">
-        <v>1.044918280747733</v>
+        <v>1.042523619032944</v>
       </c>
       <c r="RH3">
-        <v>1.045196701533685</v>
+        <v>1.042760677403747</v>
       </c>
       <c r="RI3">
-        <v>1.043915773181638</v>
+        <v>1.042032258637549</v>
       </c>
       <c r="RJ3">
-        <v>1.043942545441006</v>
+        <v>1.042049859878466</v>
       </c>
       <c r="RK3">
-        <v>1.044059010322964</v>
+        <v>1.042110702729153</v>
       </c>
       <c r="RL3">
-        <v>1.044968455185945</v>
+        <v>1.042553648402557</v>
       </c>
       <c r="RM3">
-        <v>1.044706970729942</v>
+        <v>1.042266968231334</v>
       </c>
       <c r="RN3">
-        <v>1.044918280747734</v>
+        <v>1.042523619032943</v>
       </c>
       <c r="RO3">
-        <v>1.045196701533686</v>
+        <v>1.042760677403747</v>
       </c>
       <c r="RP3">
-        <v>1.043865957688148</v>
+        <v>1.04200064414563</v>
       </c>
       <c r="RQ3">
-        <v>1.043915773181638</v>
+        <v>1.042032258637549</v>
       </c>
       <c r="RR3">
-        <v>1.043878917679133</v>
+        <v>1.042002263599797</v>
       </c>
       <c r="RS3">
-        <v>1.044058026653031</v>
+        <v>1.042109363555056</v>
       </c>
       <c r="RT3">
-        <v>1.044968100045313</v>
+        <v>1.042552678147215</v>
       </c>
       <c r="RU3">
-        <v>1.044704072566444</v>
+        <v>1.042263448204068</v>
       </c>
       <c r="RV3">
-        <v>1.044918280747736</v>
+        <v>1.042523619032943</v>
       </c>
       <c r="RW3">
-        <v>1.045196701533685</v>
+        <v>1.042760677403747</v>
       </c>
       <c r="RX3">
-        <v>1.043794560367776</v>
+        <v>1.041955336806557</v>
       </c>
       <c r="RY3">
-        <v>1.043865957688148</v>
+        <v>1.04200064414563</v>
       </c>
       <c r="RZ3">
-        <v>1.043877586364635</v>
+        <v>1.042001151834705</v>
       </c>
       <c r="SA3">
-        <v>1.04387369344766</v>
+        <v>1.041998211027842</v>
       </c>
       <c r="SB3">
-        <v>1.044056532521566</v>
+        <v>1.042107329435609</v>
       </c>
       <c r="SC3">
-        <v>1.044967875073459</v>
+        <v>1.042552063517059</v>
       </c>
       <c r="SD3">
-        <v>1.044697735809947</v>
+        <v>1.042255751758713</v>
       </c>
       <c r="SE3">
-        <v>1.044918280747738</v>
+        <v>1.042523619032942</v>
       </c>
       <c r="SF3">
-        <v>1.045196701533685</v>
+        <v>1.042760677403747</v>
       </c>
       <c r="SG3">
-        <v>1.043750989001776</v>
+        <v>1.04192768939371</v>
       </c>
       <c r="SH3">
-        <v>1.043794560367776</v>
+        <v>1.041955336806557</v>
       </c>
       <c r="SI3">
-        <v>1.043877023649556</v>
+        <v>1.042000681917956</v>
       </c>
       <c r="SJ3">
-        <v>1.043870350534516</v>
+        <v>1.041995617844939</v>
       </c>
       <c r="SK3">
-        <v>1.044054265029587</v>
+        <v>1.042104242458595</v>
       </c>
       <c r="SL3">
-        <v>1.04496772296477</v>
+        <v>1.042551647951356</v>
       </c>
       <c r="SM3">
-        <v>1.044554016543987</v>
+        <v>1.042081194229145</v>
       </c>
       <c r="SN3">
-        <v>1.044918280747739</v>
+        <v>1.042523619032941</v>
       </c>
       <c r="SO3">
-        <v>1.045196701533685</v>
+        <v>1.042760677403747</v>
       </c>
       <c r="SP3">
-        <v>1.043743485570122</v>
+        <v>1.04192292839079</v>
       </c>
       <c r="SQ3">
-        <v>1.043750989001776</v>
+        <v>1.04192768939371</v>
       </c>
       <c r="SR3">
-        <v>1.043876693009212</v>
+        <v>1.042000405804091</v>
       </c>
       <c r="SS3">
-        <v>1.044052656318933</v>
+        <v>1.042102052350401</v>
       </c>
       <c r="ST3">
-        <v>1.04496751079155</v>
+        <v>1.042551068287478</v>
       </c>
       <c r="SU3">
-        <v>1.044536866525462</v>
+        <v>1.042070786405207</v>
       </c>
       <c r="SV3">
-        <v>1.044532903553222</v>
+        <v>1.042054955967596</v>
       </c>
       <c r="SW3">
-        <v>1.044918280747739</v>
+        <v>1.04252361903294</v>
       </c>
       <c r="SX3">
-        <v>1.043731375936069</v>
+        <v>1.041917824821624</v>
       </c>
       <c r="SY3">
-        <v>1.043743485570122</v>
+        <v>1.04192292839079</v>
       </c>
       <c r="SZ3">
-        <v>1.043694347214778</v>
+        <v>1.041885906336125</v>
       </c>
       <c r="TA3">
-        <v>1.04387638872059</v>
+        <v>1.04200015169624</v>
       </c>
       <c r="TB3">
-        <v>1.04405155722872</v>
+        <v>1.0421005560425</v>
       </c>
       <c r="TC3">
-        <v>1.04496734885928</v>
+        <v>1.042550625883448</v>
       </c>
       <c r="TD3">
-        <v>1.044521742533219</v>
+        <v>1.042061608114501</v>
       </c>
       <c r="TE3">
-        <v>1.044521513698338</v>
+        <v>1.042040801172891</v>
       </c>
       <c r="TF3">
-        <v>1.04491828074774</v>
+        <v>1.042523619032939</v>
       </c>
       <c r="TG3">
-        <v>1.043722461804208</v>
+        <v>1.041914067986847</v>
       </c>
       <c r="TH3">
-        <v>1.043731375936069</v>
+        <v>1.041917824821624</v>
       </c>
       <c r="TI3">
-        <v>1.043665310364966</v>
+        <v>1.041864036222635</v>
       </c>
       <c r="TJ3">
-        <v>1.043876117625007</v>
+        <v>1.041999925307506</v>
       </c>
       <c r="TK3">
-        <v>1.044050688731762</v>
+        <v>1.042099373665623</v>
       </c>
       <c r="TL3">
-        <v>1.044966193274802</v>
+        <v>1.042547468790538</v>
       </c>
       <c r="TM3">
-        <v>1.044519812690477</v>
+        <v>1.042038687237358</v>
       </c>
       <c r="TN3">
-        <v>1.04491828074774</v>
+        <v>1.042523619032939</v>
       </c>
       <c r="TO3">
-        <v>1.043710325204719</v>
+        <v>1.041908953051863</v>
       </c>
       <c r="TP3">
-        <v>1.043722461804208</v>
+        <v>1.041914067986847</v>
       </c>
       <c r="TQ3">
-        <v>1.043642303136103</v>
+        <v>1.041846711204143</v>
       </c>
       <c r="TR3">
-        <v>1.043875836394137</v>
+        <v>1.041999690454914</v>
       </c>
       <c r="TS3">
-        <v>1.044047904099487</v>
+        <v>1.04209558265087</v>
       </c>
       <c r="TT3">
-        <v>1.044964014712825</v>
+        <v>1.042540108113037</v>
       </c>
       <c r="TU3">
-        <v>1.044960688286511</v>
+        <v>1.042536520215343</v>
       </c>
       <c r="TV3">
-        <v>1.044518514248855</v>
+        <v>1.042037073592886</v>
       </c>
       <c r="TW3">
-        <v>1.044918280747739</v>
+        <v>1.042523619032938</v>
       </c>
       <c r="TX3">
-        <v>1.043701736662748</v>
+        <v>1.041905333435069</v>
       </c>
       <c r="TY3">
-        <v>1.043710325204719</v>
+        <v>1.041908953051863</v>
       </c>
       <c r="TZ3">
-        <v>1.043632796378247</v>
+        <v>1.04183955332687</v>
       </c>
       <c r="UA3">
-        <v>1.043874987403536</v>
+        <v>1.041998981472847</v>
       </c>
       <c r="UB3">
-        <v>1.044025380566168</v>
+        <v>1.042064918982214</v>
       </c>
       <c r="UC3">
-        <v>1.044961609082682</v>
+        <v>1.04253198024398</v>
       </c>
       <c r="UD3">
-        <v>1.044517299870608</v>
+        <v>1.042035564418547</v>
       </c>
       <c r="UE3">
-        <v>1.044918280747739</v>
+        <v>1.042523619032938</v>
       </c>
       <c r="UF3">
-        <v>1.043677718424025</v>
+        <v>1.041895211014072</v>
       </c>
       <c r="UG3">
-        <v>1.043701736662748</v>
+        <v>1.041905333435069</v>
       </c>
       <c r="UH3">
-        <v>1.043631916742869</v>
+        <v>1.041838882622481</v>
       </c>
       <c r="UI3">
-        <v>1.043605018220517</v>
+        <v>1.041818753397209</v>
       </c>
       <c r="UJ3">
-        <v>1.043874131824993</v>
+        <v>1.04199826698927</v>
       </c>
       <c r="UK3">
-        <v>1.044024258916268</v>
+        <v>1.042063391961642</v>
       </c>
       <c r="UL3">
-        <v>1.044955088466037</v>
+        <v>1.042509949130222</v>
       </c>
       <c r="UM3">
-        <v>1.044516004887699</v>
+        <v>1.042033955072357</v>
       </c>
       <c r="UN3">
-        <v>1.044918280747739</v>
+        <v>1.042523619032938</v>
       </c>
       <c r="UO3">
-        <v>1.043660326866992</v>
+        <v>1.041887881388089</v>
       </c>
       <c r="UP3">
-        <v>1.043677718424025</v>
+        <v>1.041895211014072</v>
       </c>
       <c r="UQ3">
-        <v>1.043631593063672</v>
+        <v>1.041838635823995</v>
       </c>
       <c r="UR3">
-        <v>1.043584003899448</v>
+        <v>1.041803022427224</v>
       </c>
       <c r="US3">
-        <v>1.043866137626118</v>
+        <v>1.041991591127924</v>
       </c>
       <c r="UT3">
-        <v>1.044023373895341</v>
+        <v>1.04206218708911</v>
       </c>
       <c r="UU3">
-        <v>1.044514858985859</v>
+        <v>1.042032530997356</v>
       </c>
       <c r="UV3">
-        <v>1.044918280747739</v>
+        <v>1.042523619032938</v>
       </c>
       <c r="UW3">
-        <v>1.043658944272895</v>
+        <v>1.041886490375524</v>
       </c>
       <c r="UX3">
-        <v>1.043660326866992</v>
+        <v>1.041887881388089</v>
       </c>
       <c r="UY3">
-        <v>1.043621450194178</v>
+        <v>1.041884195356064</v>
       </c>
       <c r="UZ3">
-        <v>1.043631110919408</v>
+        <v>1.041838268199703</v>
       </c>
       <c r="VA3">
-        <v>1.044022373355145</v>
+        <v>1.042060824947994</v>
       </c>
       <c r="VB3">
-        <v>1.044513686931746</v>
+        <v>1.042031074421471</v>
       </c>
       <c r="VC3">
-        <v>1.043658616900004</v>
+        <v>1.041886161009296</v>
       </c>
       <c r="VD3">
-        <v>1.043658944272895</v>
+        <v>1.041886490375524</v>
       </c>
       <c r="VE3">
-        <v>1.043616535500838</v>
+        <v>1.041883729376928</v>
       </c>
       <c r="VF3">
-        <v>1.04363082080219</v>
+        <v>1.041838046992017</v>
       </c>
       <c r="VG3">
-        <v>1.044021482842696</v>
+        <v>1.042059612599284</v>
       </c>
       <c r="VH3">
-        <v>1.044507637626139</v>
+        <v>1.04202355661752</v>
       </c>
       <c r="VI3">
-        <v>1.043649741948958</v>
+        <v>1.041877232019644</v>
       </c>
       <c r="VJ3">
-        <v>1.043658616900004</v>
+        <v>1.041886161009296</v>
       </c>
       <c r="VK3">
-        <v>1.043658616900009</v>
+        <v>1.041886161009298</v>
       </c>
       <c r="VL3">
-        <v>1.043612908783163</v>
+        <v>1.041883385515232</v>
       </c>
       <c r="VM3">
-        <v>1.043630470737609</v>
+        <v>1.041837780076096</v>
       </c>
       <c r="VN3">
-        <v>1.044020457862896</v>
+        <v>1.042058217185966</v>
       </c>
       <c r="VO3">
-        <v>1.044493204465695</v>
+        <v>1.042005873179291</v>
       </c>
       <c r="VP3">
-        <v>1.044495189889518</v>
+        <v>1.042008076715234</v>
       </c>
       <c r="VQ3">
-        <v>1.043643522256797</v>
+        <v>1.041870974456468</v>
       </c>
       <c r="VR3">
-        <v>1.043649741948958</v>
+        <v>1.041877232019644</v>
       </c>
       <c r="VS3">
-        <v>1.043658616900011</v>
+        <v>1.041886161009299</v>
       </c>
       <c r="VT3">
-        <v>1.043609379959084</v>
+        <v>1.041883050935163</v>
       </c>
       <c r="VU3">
-        <v>1.043630163366053</v>
+        <v>1.041837545712816</v>
       </c>
       <c r="VV3">
-        <v>1.044019406909833</v>
+        <v>1.042056786412508</v>
       </c>
       <c r="VW3">
-        <v>1.044492372724308</v>
+        <v>1.042004854133787</v>
       </c>
       <c r="VX3">
-        <v>1.044435706080235</v>
+        <v>1.04193410310789</v>
       </c>
       <c r="VY3">
-        <v>1.043638797700126</v>
+        <v>1.04186256296338</v>
       </c>
       <c r="VZ3">
-        <v>1.043642604237548</v>
+        <v>1.041870484879297</v>
       </c>
       <c r="WA3">
-        <v>1.043658616900011</v>
+        <v>1.041886161009299</v>
       </c>
       <c r="WB3">
-        <v>1.043576231443103</v>
+        <v>1.041879908009024</v>
       </c>
       <c r="WC3">
-        <v>1.043628152029335</v>
+        <v>1.041836012123</v>
       </c>
       <c r="WD3">
-        <v>1.044018143668408</v>
+        <v>1.042055066628481</v>
       </c>
       <c r="WE3">
-        <v>1.044491954992961</v>
+        <v>1.042004342331371</v>
       </c>
       <c r="WF3">
-        <v>1.044406168007229</v>
+        <v>1.041916117027494</v>
       </c>
       <c r="WG3">
-        <v>1.044369329581506</v>
+        <v>1.041849295885763</v>
       </c>
       <c r="WH3">
-        <v>1.043634584413911</v>
+        <v>1.041855061725307</v>
       </c>
       <c r="WI3">
-        <v>1.043638797700126</v>
+        <v>1.04186256296338</v>
       </c>
       <c r="WJ3">
-        <v>1.043638797700126</v>
+        <v>1.04186256296338</v>
       </c>
       <c r="WK3">
-        <v>1.043601731463253</v>
+        <v>1.041848687881906</v>
       </c>
       <c r="WL3">
-        <v>1.043642604237548</v>
+        <v>1.041870484879297</v>
       </c>
       <c r="WM3">
-        <v>1.043658616900013</v>
+        <v>1.0418861610093</v>
       </c>
       <c r="WN3">
-        <v>1.043560803827451</v>
+        <v>1.041878445262985</v>
       </c>
       <c r="WO3">
-        <v>1.043613321848774</v>
+        <v>1.041824704787671</v>
       </c>
       <c r="WP3">
-        <v>1.044017351706001</v>
+        <v>1.042053988446383</v>
       </c>
       <c r="WQ3">
-        <v>1.044491604702575</v>
+        <v>1.042003913157293</v>
       </c>
       <c r="WR3">
-        <v>1.044390580682033</v>
+        <v>1.041906625721303</v>
       </c>
       <c r="WS3">
-        <v>1.044305752821564</v>
+        <v>1.041768065742309</v>
       </c>
       <c r="WT3">
-        <v>1.043625392817901</v>
+        <v>1.041838701789476</v>
       </c>
       <c r="WU3">
-        <v>1.043634584413911</v>
+        <v>1.041855061725307</v>
       </c>
       <c r="WV3">
-        <v>1.043634584413911</v>
+        <v>1.041855061725307</v>
       </c>
       <c r="WW3">
-        <v>1.043592111249256</v>
+        <v>1.041843557528097</v>
       </c>
       <c r="WX3">
-        <v>1.043658616900013</v>
+        <v>1.0418861610093</v>
       </c>
       <c r="WY3">
-        <v>1.043553563021409</v>
+        <v>1.041877758736888</v>
       </c>
       <c r="WZ3">
-        <v>1.044013948117867</v>
+        <v>1.042049354782306</v>
       </c>
       <c r="XA3">
-        <v>1.044491319053022</v>
+        <v>1.042003563180851</v>
       </c>
       <c r="XB3">
-        <v>1.044300341372384</v>
+        <v>1.041763375713376</v>
       </c>
       <c r="XC3">
-        <v>1.044288853154583</v>
+        <v>1.04174606736769</v>
       </c>
       <c r="XD3">
-        <v>1.043612871750344</v>
+        <v>1.041816415795441</v>
       </c>
       <c r="XE3">
-        <v>1.043658616900014</v>
+        <v>1.0418861610093</v>
       </c>
       <c r="XF3">
-        <v>1.043548733292031</v>
+        <v>1.041877300813378</v>
       </c>
       <c r="XG3">
-        <v>1.043999598994142</v>
+        <v>1.042029819805274</v>
       </c>
       <c r="XH3">
-        <v>1.044490870666679</v>
+        <v>1.042003013820085</v>
       </c>
       <c r="XI3">
-        <v>1.044299014469968</v>
+        <v>1.041762225705219</v>
       </c>
       <c r="XJ3">
-        <v>1.044284965058052</v>
+        <v>1.041741006213837</v>
       </c>
       <c r="XK3">
-        <v>1.043609199181513</v>
+        <v>1.041809879064901</v>
       </c>
       <c r="XL3">
-        <v>1.043658616900014</v>
+        <v>1.0418861610093</v>
       </c>
       <c r="XM3">
-        <v>1.043541349535237</v>
+        <v>1.041876600733593</v>
       </c>
       <c r="XN3">
-        <v>1.044489801463524</v>
+        <v>1.04200170383758</v>
       </c>
       <c r="XO3">
-        <v>1.044298103322795</v>
+        <v>1.041761436026438</v>
       </c>
       <c r="XP3">
-        <v>1.044283035598536</v>
+        <v>1.041738494627068</v>
       </c>
       <c r="XQ3">
-        <v>1.043597043663492</v>
+        <v>1.0417882437063</v>
       </c>
       <c r="XR3">
-        <v>1.043658616900015</v>
+        <v>1.0418861610093</v>
       </c>
       <c r="XS3">
-        <v>1.043526929145923</v>
+        <v>1.04187523348604</v>
       </c>
       <c r="XT3">
-        <v>1.044489061748082</v>
+        <v>1.042000797541822</v>
       </c>
       <c r="XU3">
-        <v>1.044296840275569</v>
+        <v>1.041760341360701</v>
       </c>
       <c r="XV3">
-        <v>1.044280915273536</v>
+        <v>1.041735734589712</v>
       </c>
       <c r="XW3">
-        <v>1.043658616900015</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="XX3">
-        <v>1.043522942980408</v>
+        <v>1.041874855543732</v>
       </c>
       <c r="XY3">
-        <v>1.044488121204384</v>
+        <v>1.041999645192261</v>
       </c>
       <c r="XZ3">
-        <v>1.044293845213289</v>
+        <v>1.041757745581239</v>
       </c>
       <c r="YA3">
-        <v>1.044278468734454</v>
+        <v>1.041732549917812</v>
       </c>
       <c r="YB3">
-        <v>1.043658616900015</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="YC3">
-        <v>1.043521785732643</v>
+        <v>1.04187474582102</v>
       </c>
       <c r="YD3">
-        <v>1.044487549832095</v>
+        <v>1.041998945149716</v>
       </c>
       <c r="YE3">
-        <v>1.044291568472574</v>
+        <v>1.041755772361247</v>
       </c>
       <c r="YF3">
-        <v>1.044275995450283</v>
+        <v>1.041729330431605</v>
       </c>
       <c r="YG3">
-        <v>1.043658616900015</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="YH3">
-        <v>1.043521187312056</v>
+        <v>1.041874650643003</v>
       </c>
       <c r="YI3">
-        <v>1.043519632115119</v>
+        <v>1.041874745807811</v>
       </c>
       <c r="YJ3">
-        <v>1.04448703400478</v>
+        <v>1.041998313160602</v>
       </c>
       <c r="YK3">
-        <v>1.044289970235201</v>
+        <v>1.041754387190809</v>
       </c>
       <c r="YL3">
-        <v>1.044273253495565</v>
+        <v>1.04172576121551</v>
       </c>
       <c r="YM3">
-        <v>1.043658616900016</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="YN3">
-        <v>1.04352062724125</v>
+        <v>1.04187456156447</v>
       </c>
       <c r="YO3">
-        <v>1.043516790275357</v>
+        <v>1.041874745790381</v>
       </c>
       <c r="YP3">
-        <v>1.044486164043781</v>
+        <v>1.041997247288624</v>
       </c>
       <c r="YQ3">
-        <v>1.044288295941758</v>
+        <v>1.04175293610362</v>
       </c>
       <c r="YR3">
-        <v>1.044269266119659</v>
+        <v>1.04172057082825</v>
       </c>
       <c r="YS3">
-        <v>1.043658616900016</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="YT3">
-        <v>1.043520050296054</v>
+        <v>1.041874469802087</v>
       </c>
       <c r="YU3">
-        <v>1.043504983958651</v>
+        <v>1.04187474571797</v>
       </c>
       <c r="YV3">
-        <v>1.044485308754443</v>
+        <v>1.041996199392297</v>
       </c>
       <c r="YW3">
-        <v>1.044286921330294</v>
+        <v>1.041751744746698</v>
       </c>
       <c r="YX3">
-        <v>1.044266460745578</v>
+        <v>1.04171434000328</v>
       </c>
       <c r="YY3">
-        <v>1.04425944442975</v>
+        <v>1.041708982567799</v>
       </c>
       <c r="YZ3">
-        <v>1.043658616900016</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="ZA3">
-        <v>1.043515878852719</v>
+        <v>1.041873806339445</v>
       </c>
       <c r="ZB3">
-        <v>1.043499970099323</v>
+        <v>1.041874745687219</v>
       </c>
       <c r="ZC3">
-        <v>1.044484904078153</v>
+        <v>1.041995703584879</v>
       </c>
       <c r="ZD3">
-        <v>1.044284645352117</v>
+        <v>1.0417497721876</v>
       </c>
       <c r="ZE3">
-        <v>1.04426477611862</v>
+        <v>1.041710598394771</v>
       </c>
       <c r="ZF3">
-        <v>1.044197251363398</v>
+        <v>1.041635603229103</v>
       </c>
       <c r="ZG3">
-        <v>1.043658616900016</v>
+        <v>1.041886161009301</v>
       </c>
       <c r="ZH3">
-        <v>1.04348550194134</v>
+        <v>1.041868974930868</v>
       </c>
       <c r="ZI3">
-        <v>1.044484459596145</v>
+        <v>1.041995159007689</v>
       </c>
       <c r="ZJ3">
-        <v>1.04427729006522</v>
+        <v>1.041743397461267</v>
       </c>
       <c r="ZK3">
-        <v>1.044263213383296</v>
+        <v>1.04170712751235</v>
       </c>
       <c r="ZL3">
-        <v>1.04415273382651</v>
+        <v>1.041583078642037</v>
       </c>
       <c r="ZM3">
-        <v>1.044484032988581</v>
+        <v>1.041994636330182</v>
       </c>
       <c r="ZN3">
-        <v>1.044260103526961</v>
+        <v>1.041728502124326</v>
       </c>
       <c r="ZO3">
-        <v>1.044261688570946</v>
+        <v>1.041703740858931</v>
       </c>
       <c r="ZP3">
-        <v>1.044115933418593</v>
+        <v>1.041575276165253</v>
       </c>
       <c r="ZQ3">
-        <v>1.044036693319458</v>
+        <v>1.041435200395526</v>
       </c>
       <c r="ZR3">
-        <v>1.044483518503403</v>
+        <v>1.041994005985451</v>
       </c>
       <c r="ZS3">
-        <v>1.044260544859475</v>
+        <v>1.04170120064246</v>
       </c>
       <c r="ZT3">
-        <v>1.044114216018507</v>
+        <v>1.041575276120529</v>
       </c>
       <c r="ZU3">
-        <v>1.044111121293081</v>
+        <v>1.041573239474337</v>
       </c>
       <c r="ZV3">
-        <v>1.04402503569062</v>
+        <v>1.041417031124163</v>
       </c>
       <c r="ZW3">
-        <v>1.04401318310959</v>
+        <v>1.041405422254935</v>
       </c>
       <c r="ZX3">
-        <v>1.04448269783438</v>
+        <v>1.041993000505768</v>
       </c>
       <c r="ZY3">
-        <v>1.044258727998503</v>
+        <v>1.041697165342416</v>
       </c>
       <c r="ZZ3">
-        <v>1.044113678633328</v>
+        <v>1.041575276106536</v>
       </c>
       <c r="AAA3">
-        <v>1.044101318237394</v>
+        <v>1.041569090414865</v>
       </c>
       <c r="AAB3">
-        <v>1.044018282117449</v>
+        <v>1.041406505184625</v>
       </c>
       <c r="AAC3">
-        <v>1.043969249935988</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="AAD3">
-        <v>1.044480451754511</v>
+        <v>1.041990248619676</v>
       </c>
       <c r="AAE3">
-        <v>1.044255664700404</v>
+        <v>1.041690361672908</v>
       </c>
       <c r="AAF3">
-        <v>1.044113333110218</v>
+        <v>1.041575276097538</v>
       </c>
       <c r="AAG3">
-        <v>1.043853361696949</v>
+        <v>1.041202807804091</v>
       </c>
       <c r="AAH3">
-        <v>1.043969249935988</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="AAI3">
-        <v>1.044477462634511</v>
+        <v>1.041986586364461</v>
       </c>
       <c r="AAJ3">
-        <v>1.044232711584326</v>
+        <v>1.041639382287391</v>
       </c>
       <c r="AAK3">
-        <v>1.044113124700384</v>
+        <v>1.04157527609211</v>
       </c>
       <c r="AAL3">
-        <v>1.043745277423161</v>
+        <v>1.041038158968465</v>
       </c>
       <c r="AAM3">
-        <v>1.043815717166386</v>
+        <v>1.041190816901836</v>
       </c>
       <c r="AAN3">
-        <v>1.043969249935987</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="AAO3">
-        <v>1.044477177930555</v>
+        <v>1.041986237546565</v>
       </c>
       <c r="AAP3">
-        <v>1.044213881510504</v>
+        <v>1.041597560426546</v>
       </c>
       <c r="AAQ3">
-        <v>1.044112914058015</v>
+        <v>1.041575276086626</v>
       </c>
       <c r="AAR3">
-        <v>1.043633722815905</v>
+        <v>1.040868223951246</v>
       </c>
       <c r="AAS3">
-        <v>1.043811687231843</v>
+        <v>1.041189533247928</v>
       </c>
       <c r="AAT3">
-        <v>1.043969249935987</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="AAU3">
-        <v>1.044476952770475</v>
+        <v>1.041985961681537</v>
       </c>
       <c r="AAV3">
-        <v>1.044207915488708</v>
+        <v>1.041584309836794</v>
       </c>
       <c r="AAW3">
-        <v>1.04411272591006</v>
+        <v>1.041575276081726</v>
       </c>
       <c r="AAX3">
-        <v>1.043599134395534</v>
+        <v>1.040801911533519</v>
       </c>
       <c r="AAY3">
-        <v>1.043547194272081</v>
+        <v>1.0408323800804</v>
       </c>
       <c r="AAZ3">
-        <v>1.043810148547037</v>
+        <v>1.041189043131095</v>
       </c>
       <c r="ABA3">
-        <v>1.043969249935986</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="ABB3">
-        <v>1.044476734086072</v>
+        <v>1.041985693750476</v>
       </c>
       <c r="ABC3">
-        <v>1.04420248418812</v>
+        <v>1.041572246880033</v>
       </c>
       <c r="ABD3">
-        <v>1.044112513932682</v>
+        <v>1.041575276076206</v>
       </c>
       <c r="ABE3">
-        <v>1.043552134139839</v>
+        <v>1.040711803424016</v>
       </c>
       <c r="ABF3">
-        <v>1.043535587092804</v>
+        <v>1.040827571883207</v>
       </c>
       <c r="ABG3">
-        <v>1.043808520923056</v>
+        <v>1.041188524684495</v>
       </c>
       <c r="ABH3">
-        <v>1.043969249935985</v>
+        <v>1.041349725716602</v>
       </c>
       <c r="ABI3">
-        <v>1.044476499851505</v>
+        <v>1.04198540676743</v>
       </c>
       <c r="ABJ3">
-        <v>1.044199526011125</v>
+        <v>1.041565676753045</v>
       </c>
       <c r="ABK3">
-        <v>1.044112344095959</v>
+        <v>1.041575276071783</v>
       </c>
       <c r="ABL3">
-        <v>1.043497106344636</v>
+        <v>1.040606305193859</v>
       </c>
       <c r="ABM3">
-        <v>1.043529488950353</v>
+        <v>1.040825045767986</v>
       </c>
       <c r="ABN3">
-        <v>1.043807170136387</v>
+        <v>1.041188094418806</v>
       </c>
       <c r="ABO3">
-        <v>1.043969249935984</v>
+        <v>1.041349725716601</v>
       </c>
       <c r="ABP3">
-        <v>1.044476283283961</v>
+        <v>1.041985141429934</v>
       </c>
       <c r="ABQ3">
-        <v>1.044197163443108</v>
+        <v>1.04156042947928</v>
       </c>
       <c r="ABR3">
-        <v>1.044112140376688</v>
+        <v>1.041575276066477</v>
       </c>
       <c r="ABS3">
-        <v>1.043452921262228</v>
+        <v>1.040521594517101</v>
       </c>
       <c r="ABT3">
-        <v>1.043510523889421</v>
+        <v>1.040814293504409</v>
       </c>
       <c r="ABU3">
-        <v>1.043528978391106</v>
+        <v>1.040824928792642</v>
       </c>
       <c r="ABV3">
-        <v>1.043805570472883</v>
+        <v>1.041187584878451</v>
       </c>
       <c r="ABW3">
-        <v>1.043969249935983</v>
+        <v>1.041349725716601</v>
       </c>
       <c r="ABX3">
-        <v>1.044476079191942</v>
+        <v>1.041984891377391</v>
       </c>
       <c r="ABY3">
-        <v>1.044195148844273</v>
+        <v>1.041555955048311</v>
       </c>
       <c r="ABZ3">
-        <v>1.044111920844806</v>
+        <v>1.04157527606076</v>
       </c>
       <c r="ACA3">
-        <v>1.043440694385237</v>
+        <v>1.040491948148692</v>
       </c>
       <c r="ACB3">
-        <v>1.043413578830192</v>
+        <v>1.040504555865079</v>
       </c>
       <c r="ACC3">
-        <v>1.043495107645201</v>
+        <v>1.040805553246394</v>
       </c>
       <c r="ACD3">
-        <v>1.043528609183388</v>
+        <v>1.040824844202656</v>
       </c>
       <c r="ACE3">
-        <v>1.043804010412126</v>
+        <v>1.04118708795275</v>
       </c>
       <c r="ACF3">
-        <v>1.043969249935982</v>
+        <v>1.041349725716601</v>
       </c>
       <c r="ACG3">
-        <v>1.044475795338995</v>
+        <v>1.041984543602149</v>
       </c>
       <c r="ACH3">
-        <v>1.044192784698405</v>
+        <v>1.04155070427422</v>
       </c>
       <c r="ACI3">
-        <v>1.044111520320337</v>
+        <v>1.041575276050328</v>
       </c>
       <c r="ACJ3">
-        <v>1.043423837077471</v>
+        <v>1.040451074451598</v>
       </c>
       <c r="ACK3">
-        <v>1.043380693723879</v>
+        <v>1.040490313788063</v>
       </c>
       <c r="ACL3">
-        <v>1.043528297604994</v>
+        <v>1.04082477281625</v>
       </c>
       <c r="ACM3">
-        <v>1.04380186566264</v>
+        <v>1.04118640478632</v>
       </c>
       <c r="ACN3">
-        <v>1.043969249935981</v>
+        <v>1.041349725716601</v>
       </c>
       <c r="ACO3">
-        <v>1.044475447488832</v>
+        <v>1.041984117417832</v>
       </c>
       <c r="ACP3">
-        <v>1.044190624484161</v>
+        <v>1.041545906434723</v>
       </c>
       <c r="ACQ3">
-        <v>1.044108523772165</v>
+        <v>1.041575275972287</v>
       </c>
       <c r="ACR3">
-        <v>1.043382367586543</v>
+        <v>1.040350524027874</v>
       </c>
       <c r="ACS3">
-        <v>1.043372828333889</v>
+        <v>1.040486860910493</v>
       </c>
       <c r="ACT3">
-        <v>1.04338011245806</v>
+        <v>1.040490063733297</v>
       </c>
       <c r="ACU3">
-        <v>1.043527771313044</v>
+        <v>1.040824652236352</v>
       </c>
       <c r="ACV3">
-        <v>1.043798915212522</v>
+        <v>1.041185464980308</v>
       </c>
       <c r="ACW3">
-        <v>1.043969249935981</v>
+        <v>1.041349725716601</v>
       </c>
       <c r="ACX3">
-        <v>1.044473798769307</v>
+        <v>1.041982097414744</v>
       </c>
       <c r="ACY3">
-        <v>1.044187273169276</v>
+        <v>1.041538463162334</v>
       </c>
       <c r="ACZ3">
-        <v>1.044099340867624</v>
+        <v>1.04157527573313</v>
       </c>
       <c r="ADA3">
-        <v>1.043348755974822</v>
+        <v>1.040269026602604</v>
       </c>
       <c r="ADB3">
-        <v>1.0433651210954</v>
+        <v>1.040483477460773</v>
       </c>
       <c r="ADC3">
-        <v>1.043379556693371</v>
+        <v>1.040489824648862</v>
       </c>
       <c r="ADD3">
-        <v>1.043527034303468</v>
+        <v>1.040824483378479</v>
       </c>
       <c r="ADE3">
-        <v>1.04379579280089</v>
+        <v>1.041184470399452</v>
       </c>
       <c r="ADF3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="ADG3">
-        <v>1.044459701748959</v>
+        <v>1.04196482581468</v>
       </c>
       <c r="ADH3">
-        <v>1.044180507197897</v>
+        <v>1.041523435949325</v>
       </c>
       <c r="ADI3">
-        <v>1.043322492849876</v>
+        <v>1.040205346987273</v>
       </c>
       <c r="ADJ3">
-        <v>1.043378957550005</v>
+        <v>1.040489566903352</v>
       </c>
       <c r="ADK3">
-        <v>1.043526487425118</v>
+        <v>1.040824358081986</v>
       </c>
       <c r="ADL3">
-        <v>1.043793718668326</v>
+        <v>1.041183809726622</v>
       </c>
       <c r="ADM3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="ADN3">
-        <v>1.044179306109212</v>
+        <v>1.041520275280187</v>
       </c>
       <c r="ADO3">
-        <v>1.044175618703904</v>
+        <v>1.041515518019102</v>
       </c>
       <c r="ADP3">
-        <v>1.04329875606602</v>
+        <v>1.040147792992474</v>
       </c>
       <c r="ADQ3">
-        <v>1.043378422560752</v>
+        <v>1.040489336756301</v>
       </c>
       <c r="ADR3">
-        <v>1.043525581498365</v>
+        <v>1.040824150523129</v>
       </c>
       <c r="ADS3">
-        <v>1.043791607700503</v>
+        <v>1.041183137320672</v>
       </c>
       <c r="ADT3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="ADU3">
-        <v>1.044178258646556</v>
+        <v>1.041517518879938</v>
       </c>
       <c r="ADV3">
-        <v>1.044167796402329</v>
+        <v>1.041502848179335</v>
       </c>
       <c r="ADW3">
-        <v>1.043296407877528</v>
+        <v>1.040143856017194</v>
       </c>
       <c r="ADX3">
-        <v>1.04329255830656</v>
+        <v>1.0401259067504</v>
       </c>
       <c r="ADY3">
-        <v>1.043377831754278</v>
+        <v>1.040489082597238</v>
       </c>
       <c r="ADZ3">
-        <v>1.043519293443652</v>
+        <v>1.040822709853165</v>
       </c>
       <c r="AEA3">
-        <v>1.043790598356121</v>
+        <v>1.041182815814509</v>
       </c>
       <c r="AEB3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="AEC3">
-        <v>1.044177392347248</v>
+        <v>1.041515239212454</v>
       </c>
       <c r="AED3">
-        <v>1.044161113011037</v>
+        <v>1.041492023041473</v>
       </c>
       <c r="AEE3">
-        <v>1.043294053520039</v>
+        <v>1.040139908698981</v>
       </c>
       <c r="AEF3">
-        <v>1.043282655901394</v>
+        <v>1.040090938758682</v>
       </c>
       <c r="AEG3">
-        <v>1.04329255830656</v>
+        <v>1.0401259067504</v>
       </c>
       <c r="AEH3">
-        <v>1.043377450841929</v>
+        <v>1.040488918732537</v>
       </c>
       <c r="AEI3">
-        <v>1.043505403906591</v>
+        <v>1.04081952759086</v>
       </c>
       <c r="AEJ3">
-        <v>1.043788992871552</v>
+        <v>1.041182304419992</v>
       </c>
       <c r="AEK3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="AEL3">
-        <v>1.044176718670822</v>
+        <v>1.041513466432909</v>
       </c>
       <c r="AEM3">
-        <v>1.04415733047353</v>
+        <v>1.041485896437948</v>
       </c>
       <c r="AEN3">
-        <v>1.043291694592952</v>
+        <v>1.040135953719383</v>
       </c>
       <c r="AEO3">
-        <v>1.043274353070006</v>
+        <v>1.040061619298707</v>
       </c>
       <c r="AEP3">
-        <v>1.043282655901394</v>
+        <v>1.040090938758682</v>
       </c>
       <c r="AEQ3">
-        <v>1.043376865786585</v>
+        <v>1.040488667047552</v>
       </c>
       <c r="AER3">
-        <v>1.043787485678121</v>
+        <v>1.041181824334123</v>
       </c>
       <c r="AES3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="AET3">
-        <v>1.044176033500198</v>
+        <v>1.041511663406956</v>
       </c>
       <c r="AEU3">
-        <v>1.043289349945889</v>
+        <v>1.040132022681702</v>
       </c>
       <c r="AEV3">
-        <v>1.043265427737521</v>
+        <v>1.040030101642425</v>
       </c>
       <c r="AEW3">
-        <v>1.043274353070006</v>
+        <v>1.040061619298707</v>
       </c>
       <c r="AEX3">
-        <v>1.043372053558459</v>
+        <v>1.040486596874899</v>
       </c>
       <c r="AEY3">
-        <v>1.043785332149325</v>
+        <v>1.04118113837125</v>
       </c>
       <c r="AEZ3">
-        <v>1.04396924993598</v>
+        <v>1.0413497257166</v>
       </c>
       <c r="AFA3">
-        <v>1.044175438893915</v>
+        <v>1.041510098701464</v>
       </c>
       <c r="AFB3">
-        <v>1.043286996388034</v>
+        <v>1.040128076704187</v>
       </c>
       <c r="AFC3">
-        <v>1.043258099723866</v>
+        <v>1.040004224545171</v>
       </c>
       <c r="AFD3">
-        <v>1.043265427737521</v>
+        <v>1.040030101642425</v>
       </c>
       <c r="AFE3">
-        <v>1.043355468446607</v>
+        <v>1.040479462124575</v>
       </c>
       <c r="AFF3">
-        <v>1.043762600190843</v>
+        <v>1.041173897567621</v>
       </c>
       <c r="AFG3">
-        <v>1.044175011838617</v>
+        <v>1.041508974906395</v>
       </c>
       <c r="AFH3">
-        <v>1.043284644429581</v>
+        <v>1.040124133408243</v>
       </c>
       <c r="AFI3">
-        <v>1.043250232295089</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AFJ3">
-        <v>1.043258099723866</v>
+        <v>1.040004224545171</v>
       </c>
       <c r="AFK3">
-        <v>1.043753507980654</v>
+        <v>1.041171001428861</v>
       </c>
       <c r="AFL3">
-        <v>1.044174516026633</v>
+        <v>1.041507670178537</v>
       </c>
       <c r="AFM3">
-        <v>1.043282290986112</v>
+        <v>1.040120187622529</v>
       </c>
       <c r="AFN3">
-        <v>1.043208723473071</v>
+        <v>1.039829867006375</v>
       </c>
       <c r="AFO3">
-        <v>1.043250232295088</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AFP3">
-        <v>1.043250232295089</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AFQ3">
-        <v>1.04374889097244</v>
+        <v>1.041169530774758</v>
       </c>
       <c r="AFR3">
-        <v>1.044173769079208</v>
+        <v>1.041505704589035</v>
       </c>
       <c r="AFS3">
-        <v>1.043281142195865</v>
+        <v>1.040118261559638</v>
       </c>
       <c r="AFT3">
-        <v>1.043202650611593</v>
+        <v>1.03980842256912</v>
       </c>
       <c r="AFU3">
-        <v>1.043250232295086</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AFV3">
-        <v>1.043250232295088</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AFW3">
-        <v>1.043747869317957</v>
+        <v>1.041169205347495</v>
       </c>
       <c r="AFX3">
-        <v>1.044172548717772</v>
+        <v>1.041502493213719</v>
       </c>
       <c r="AFY3">
-        <v>1.043255322974105</v>
+        <v>1.040074973026994</v>
       </c>
       <c r="AFZ3">
-        <v>1.043185541991414</v>
+        <v>1.039748008761664</v>
       </c>
       <c r="AGA3">
-        <v>1.043250232295083</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGB3">
-        <v>1.043250232295086</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGC3">
-        <v>1.043747064714959</v>
+        <v>1.041168949057569</v>
       </c>
       <c r="AGD3">
-        <v>1.044169007565872</v>
+        <v>1.041482547051223</v>
       </c>
       <c r="AGE3">
-        <v>1.044155902309366</v>
+        <v>1.041486987737784</v>
       </c>
       <c r="AGF3">
-        <v>1.043238533226704</v>
+        <v>1.040046823320685</v>
       </c>
       <c r="AGG3">
-        <v>1.043165452180815</v>
+        <v>1.039677067815969</v>
       </c>
       <c r="AGH3">
-        <v>1.043250232295081</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGI3">
-        <v>1.043250232295083</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGJ3">
-        <v>1.043746202635534</v>
+        <v>1.041168674459697</v>
       </c>
       <c r="AGK3">
-        <v>1.043223848909592</v>
+        <v>1.040022203581251</v>
       </c>
       <c r="AGL3">
-        <v>1.043162846098663</v>
+        <v>1.039667865244949</v>
       </c>
       <c r="AGM3">
-        <v>1.043250232295081</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGN3">
-        <v>1.043250232295081</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGO3">
-        <v>1.043745512909019</v>
+        <v>1.04116845476134</v>
       </c>
       <c r="AGP3">
-        <v>1.043208446027514</v>
+        <v>1.039996379095614</v>
       </c>
       <c r="AGQ3">
-        <v>1.043162325042507</v>
+        <v>1.03965831795844</v>
       </c>
       <c r="AGR3">
-        <v>1.043156717354258</v>
+        <v>1.039663371460009</v>
       </c>
       <c r="AGS3">
-        <v>1.04325023229508</v>
+        <v>1.039976442648021</v>
       </c>
       <c r="AGT3">
-        <v>1.043250232295081</v>
+        <v>1.03997644264802</v>
       </c>
       <c r="AGU3">
-        <v>1.043744843212865</v>
+        <v>1.041168241443248</v>
       </c>
       <c r="AGV3">
-        <v>1.043182145860808</v>
+        <v>1.039952284214103</v>
       </c>
       <c r="AGW3">
-        <v>1.04316184289532</v>
+        <v>1.039649483599407</v>
       </c>
       <c r="AGX3">
-        <v>1.043142374442408</v>
+        <v>1.03965285479342</v>
       </c>
       <c r="AGY3">
-        <v>1.04325023229508</v>
+        <v>1.039976442648021</v>
       </c>
       <c r="AGZ3">
-        <v>1.04325023229508</v>
+        <v>1.039976442648021</v>
       </c>
       <c r="AHA3">
-        <v>1.043744175215323</v>
+        <v>1.041168028666215</v>
       </c>
       <c r="AHB3">
-        <v>1.043175694997222</v>
+        <v>1.03994146869103</v>
       </c>
       <c r="AHC3">
-        <v>1.043161109748239</v>
+        <v>1.039636050182387</v>
       </c>
       <c r="AHD3">
-        <v>1.043108348769448</v>
+        <v>1.039627906117375</v>
       </c>
       <c r="AHE3">
-        <v>1.04374351503339</v>
+        <v>1.041167818378685</v>
       </c>
       <c r="AHF3">
-        <v>1.04317198360547</v>
+        <v>1.039931899429282</v>
       </c>
       <c r="AHG3">
-        <v>1.043162588779686</v>
+        <v>1.039932389059792</v>
       </c>
       <c r="AHH3">
-        <v>1.043160183250773</v>
+        <v>1.039619074017116</v>
       </c>
       <c r="AHI3">
-        <v>1.043731709608919</v>
+        <v>1.041164058000839</v>
       </c>
       <c r="AHJ3">
-        <v>1.043165889804624</v>
+        <v>1.03991618748708</v>
       </c>
       <c r="AHK3">
-        <v>1.043151472945237</v>
+        <v>1.039924688311226</v>
       </c>
       <c r="AHL3">
-        <v>1.043156576414091</v>
+        <v>1.039552986146354</v>
       </c>
       <c r="AHM3">
-        <v>1.043705979451152</v>
+        <v>1.041163828898777</v>
       </c>
       <c r="AHN3">
-        <v>1.043715006975471</v>
+        <v>1.041154280794919</v>
       </c>
       <c r="AHO3">
-        <v>1.043164684926478</v>
+        <v>1.039913080891439</v>
       </c>
       <c r="AHP3">
-        <v>1.043132789512571</v>
+        <v>1.039911744934609</v>
       </c>
       <c r="AHQ3">
-        <v>1.043150024358387</v>
+        <v>1.039432933236503</v>
       </c>
       <c r="AHR3">
-        <v>1.043688891684552</v>
+        <v>1.041163676753563</v>
       </c>
       <c r="AHS3">
-        <v>1.043163666830397</v>
+        <v>1.039910455885063</v>
       </c>
       <c r="AHT3">
-        <v>1.04316280888422</v>
+        <v>1.03990824380095</v>
       </c>
       <c r="AHU3">
-        <v>1.043161692839309</v>
+        <v>1.039905366248419</v>
       </c>
       <c r="AHV3">
-        <v>1.043159672971855</v>
+        <v>1.039900158326619</v>
       </c>
       <c r="AHW3">
-        <v>1.043156170883429</v>
+        <v>1.03989112872314</v>
       </c>
       <c r="AHX3">
-        <v>1.043127485096762</v>
+        <v>1.039817166786931</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -5829,2722 +5829,2722 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049585483638525</v>
+        <v>1.0495771896073</v>
       </c>
       <c r="D3">
-        <v>1.049504802533971</v>
+        <v>1.049491857841165</v>
       </c>
       <c r="E3">
-        <v>1.049496344244749</v>
+        <v>1.049482911994641</v>
       </c>
       <c r="F3">
-        <v>1.049488420155521</v>
+        <v>1.049474531140715</v>
       </c>
       <c r="G3">
-        <v>1.049481511487296</v>
+        <v>1.049467224239211</v>
       </c>
       <c r="H3">
-        <v>1.049470627621748</v>
+        <v>1.049455712999793</v>
       </c>
       <c r="I3">
-        <v>1.048729486177383</v>
+        <v>1.048671850074544</v>
       </c>
       <c r="J3">
-        <v>1.048696291599657</v>
+        <v>1.048636742059027</v>
       </c>
       <c r="K3">
-        <v>1.04866866313063</v>
+        <v>1.048607520999297</v>
       </c>
       <c r="L3">
-        <v>1.048644416945991</v>
+        <v>1.048581877188893</v>
       </c>
       <c r="M3">
-        <v>1.048626324708864</v>
+        <v>1.048562742058481</v>
       </c>
       <c r="N3">
-        <v>1.048609340550331</v>
+        <v>1.048544778879585</v>
       </c>
       <c r="O3">
-        <v>1.048598896843809</v>
+        <v>1.048533733164844</v>
       </c>
       <c r="P3">
-        <v>1.048572896694942</v>
+        <v>1.048506234284979</v>
       </c>
       <c r="Q3">
-        <v>1.048362273782544</v>
+        <v>1.048283470383155</v>
       </c>
       <c r="R3">
-        <v>1.048362273782546</v>
+        <v>1.048283470383157</v>
       </c>
       <c r="S3">
-        <v>1.048106857582359</v>
+        <v>1.048013331121936</v>
       </c>
       <c r="T3">
-        <v>1.048362273782546</v>
+        <v>1.048283470383158</v>
       </c>
       <c r="U3">
-        <v>1.048089283393376</v>
+        <v>1.047994743895104</v>
       </c>
       <c r="V3">
-        <v>1.048362273782547</v>
+        <v>1.048283470383158</v>
       </c>
       <c r="W3">
-        <v>1.048069549630921</v>
+        <v>1.047973872609164</v>
       </c>
       <c r="X3">
-        <v>1.048362273782547</v>
+        <v>1.048283470383159</v>
       </c>
       <c r="Y3">
-        <v>1.048037419073818</v>
+        <v>1.04793988993315</v>
       </c>
       <c r="Z3">
-        <v>1.048362273782548</v>
+        <v>1.048283470383159</v>
       </c>
       <c r="AA3">
-        <v>1.047978965815482</v>
+        <v>1.047878067220521</v>
       </c>
       <c r="AB3">
-        <v>1.048362273782548</v>
+        <v>1.048283470383158</v>
       </c>
       <c r="AC3">
-        <v>1.047950755302571</v>
+        <v>1.047832984948002</v>
       </c>
       <c r="AD3">
-        <v>1.047265402884109</v>
+        <v>1.047133327132217</v>
       </c>
       <c r="AE3">
-        <v>1.048362273782548</v>
+        <v>1.048283470383158</v>
       </c>
       <c r="AF3">
-        <v>1.047949057782227</v>
+        <v>1.047826640800999</v>
       </c>
       <c r="AG3">
-        <v>1.047944838339617</v>
+        <v>1.047827067313972</v>
       </c>
       <c r="AH3">
-        <v>1.047075441189077</v>
+        <v>1.046935065544525</v>
       </c>
       <c r="AI3">
-        <v>1.048362273782548</v>
+        <v>1.048283470383157</v>
       </c>
       <c r="AJ3">
-        <v>1.047945170352774</v>
+        <v>1.047812112264165</v>
       </c>
       <c r="AK3">
-        <v>1.047944637961156</v>
+        <v>1.047826866912785</v>
       </c>
       <c r="AL3">
-        <v>1.047036042982525</v>
+        <v>1.046881816198114</v>
       </c>
       <c r="AM3">
-        <v>1.046522458070733</v>
+        <v>1.04636451305152</v>
       </c>
       <c r="AN3">
-        <v>1.048362273782549</v>
+        <v>1.048283470383155</v>
       </c>
       <c r="AO3">
-        <v>1.047944349853169</v>
+        <v>1.047826578772121</v>
       </c>
       <c r="AP3">
-        <v>1.047035224733519</v>
+        <v>1.046878840273917</v>
       </c>
       <c r="AQ3">
-        <v>1.047027310314114</v>
+        <v>1.046878457036958</v>
       </c>
       <c r="AR3">
-        <v>1.046138724892064</v>
+        <v>1.045968587822822</v>
       </c>
       <c r="AS3">
-        <v>1.046522458070731</v>
+        <v>1.046364513051518</v>
       </c>
       <c r="AT3">
-        <v>1.048362273782549</v>
+        <v>1.048283470383155</v>
       </c>
       <c r="AU3">
-        <v>1.047943980374341</v>
+        <v>1.047826209251388</v>
       </c>
       <c r="AV3">
-        <v>1.047034855924208</v>
+        <v>1.046877498935847</v>
       </c>
       <c r="AW3">
-        <v>1.047006297861881</v>
+        <v>1.04687037425932</v>
       </c>
       <c r="AX3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315138</v>
       </c>
       <c r="AY3">
-        <v>1.04652245807073</v>
+        <v>1.046364513051517</v>
       </c>
       <c r="AZ3">
-        <v>1.04836227378255</v>
+        <v>1.048283470383154</v>
       </c>
       <c r="BA3">
-        <v>1.047943080526978</v>
+        <v>1.047825309301967</v>
       </c>
       <c r="BB3">
-        <v>1.047034465065291</v>
+        <v>1.046876077404648</v>
       </c>
       <c r="BC3">
-        <v>1.045806946545898</v>
+        <v>1.045626268091536</v>
       </c>
       <c r="BD3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315137</v>
       </c>
       <c r="BE3">
-        <v>1.046522458070729</v>
+        <v>1.046364513051516</v>
       </c>
       <c r="BF3">
-        <v>1.04836227378255</v>
+        <v>1.048283470383153</v>
       </c>
       <c r="BG3">
-        <v>1.047942310093343</v>
+        <v>1.047824538780952</v>
       </c>
       <c r="BH3">
-        <v>1.047034092799223</v>
+        <v>1.046874723494567</v>
       </c>
       <c r="BI3">
-        <v>1.045617567913589</v>
+        <v>1.045430872428029</v>
       </c>
       <c r="BJ3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315137</v>
       </c>
       <c r="BK3">
-        <v>1.046522458070728</v>
+        <v>1.046364513051516</v>
       </c>
       <c r="BL3">
-        <v>1.04836227378255</v>
+        <v>1.048283470383151</v>
       </c>
       <c r="BM3">
-        <v>1.047938616910742</v>
+        <v>1.047820845179482</v>
       </c>
       <c r="BN3">
-        <v>1.04703386984867</v>
+        <v>1.046873912636348</v>
       </c>
       <c r="BO3">
-        <v>1.045580317523788</v>
+        <v>1.045392873192074</v>
       </c>
       <c r="BP3">
-        <v>1.045570316559483</v>
+        <v>1.045365539674666</v>
       </c>
       <c r="BQ3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315137</v>
       </c>
       <c r="BR3">
-        <v>1.046522458070728</v>
+        <v>1.046364513051515</v>
       </c>
       <c r="BS3">
-        <v>1.048362273782551</v>
+        <v>1.04828347038315</v>
       </c>
       <c r="BT3">
-        <v>1.047925562776317</v>
+        <v>1.047807789564496</v>
       </c>
       <c r="BU3">
-        <v>1.047033432436052</v>
+        <v>1.046872321792065</v>
       </c>
       <c r="BV3">
-        <v>1.045140217981422</v>
+        <v>1.044943926275655</v>
       </c>
       <c r="BW3">
-        <v>1.045562275499198</v>
+        <v>1.045357684981896</v>
       </c>
       <c r="BX3">
-        <v>1.045555261486736</v>
+        <v>1.045341460172344</v>
       </c>
       <c r="BY3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315137</v>
       </c>
       <c r="BZ3">
-        <v>1.046522458070726</v>
+        <v>1.046364513051514</v>
       </c>
       <c r="CA3">
-        <v>1.048362273782554</v>
+        <v>1.048283470383145</v>
       </c>
       <c r="CB3">
-        <v>1.047031215612164</v>
+        <v>1.046864259332491</v>
       </c>
       <c r="CC3">
-        <v>1.044986810658636</v>
+        <v>1.044787434972075</v>
       </c>
       <c r="CD3">
-        <v>1.045848754431012</v>
+        <v>1.045669404315136</v>
       </c>
       <c r="CE3">
-        <v>1.046522458070721</v>
+        <v>1.046364513051509</v>
       </c>
       <c r="CF3">
-        <v>1.048362273782558</v>
+        <v>1.048283470383138</v>
       </c>
       <c r="CG3">
-        <v>1.047022862125933</v>
+        <v>1.046833878191195</v>
       </c>
       <c r="CH3">
-        <v>1.04495333215881</v>
+        <v>1.044753283445655</v>
       </c>
       <c r="CI3">
-        <v>1.045848754431011</v>
+        <v>1.045669404315136</v>
       </c>
       <c r="CJ3">
-        <v>1.046522458070713</v>
+        <v>1.046364513051501</v>
       </c>
       <c r="CK3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383134</v>
       </c>
       <c r="CL3">
-        <v>1.044885443043483</v>
+        <v>1.044684029537461</v>
       </c>
       <c r="CM3">
-        <v>1.045848754431011</v>
+        <v>1.045669404315136</v>
       </c>
       <c r="CN3">
-        <v>1.04652245807071</v>
+        <v>1.046364513051499</v>
       </c>
       <c r="CO3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383132</v>
       </c>
       <c r="CP3">
-        <v>1.044821420454194</v>
+        <v>1.044618719883715</v>
       </c>
       <c r="CQ3">
-        <v>1.04652245807071</v>
+        <v>1.046364513051498</v>
       </c>
       <c r="CR3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383132</v>
       </c>
       <c r="CS3">
-        <v>1.044784208131261</v>
+        <v>1.044580759470174</v>
       </c>
       <c r="CT3">
-        <v>1.04652245807071</v>
+        <v>1.046364513051498</v>
       </c>
       <c r="CU3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383132</v>
       </c>
       <c r="CV3">
-        <v>1.044759632171443</v>
+        <v>1.044555689452137</v>
       </c>
       <c r="CW3">
-        <v>1.046522458070709</v>
+        <v>1.046364513051498</v>
       </c>
       <c r="CX3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383132</v>
       </c>
       <c r="CY3">
-        <v>1.044725699626847</v>
+        <v>1.04452107475064</v>
       </c>
       <c r="CZ3">
-        <v>1.046522458070696</v>
+        <v>1.046364513051496</v>
       </c>
       <c r="DA3">
-        <v>1.04836227378256</v>
+        <v>1.048283470383132</v>
       </c>
       <c r="DB3">
-        <v>1.044725378133054</v>
+        <v>1.044520632363331</v>
       </c>
       <c r="DC3">
-        <v>1.044705150120457</v>
+        <v>1.044500780731477</v>
       </c>
       <c r="DD3">
-        <v>1.046522458070696</v>
+        <v>1.046364513051496</v>
       </c>
       <c r="DE3">
-        <v>1.044724989169983</v>
+        <v>1.044520097135845</v>
       </c>
       <c r="DF3">
-        <v>1.044693497532019</v>
+        <v>1.044489273017013</v>
       </c>
       <c r="DG3">
-        <v>1.046522458070694</v>
+        <v>1.046364513051495</v>
       </c>
       <c r="DH3">
-        <v>1.044724538334136</v>
+        <v>1.0445194767692</v>
       </c>
       <c r="DI3">
-        <v>1.044233717896081</v>
+        <v>1.044035209747775</v>
       </c>
       <c r="DJ3">
-        <v>1.046522458070664</v>
+        <v>1.046364513051486</v>
       </c>
       <c r="DK3">
-        <v>1.044723850943407</v>
+        <v>1.044518530894482</v>
       </c>
       <c r="DL3">
-        <v>1.044187658032327</v>
+        <v>1.043989722542317</v>
       </c>
       <c r="DM3">
-        <v>1.046522458070637</v>
+        <v>1.046364513051478</v>
       </c>
       <c r="DN3">
-        <v>1.044722967209873</v>
+        <v>1.044517314845098</v>
       </c>
       <c r="DO3">
-        <v>1.044186005237057</v>
+        <v>1.043988568336588</v>
       </c>
       <c r="DP3">
-        <v>1.044063735619158</v>
+        <v>1.043862433451585</v>
       </c>
       <c r="DQ3">
-        <v>1.046522458070634</v>
+        <v>1.046364513051477</v>
       </c>
       <c r="DR3">
-        <v>1.044722332773899</v>
+        <v>1.044516441838333</v>
       </c>
       <c r="DS3">
-        <v>1.044186005237056</v>
+        <v>1.043988568336587</v>
       </c>
       <c r="DT3">
-        <v>1.044185200501519</v>
+        <v>1.043988006361022</v>
       </c>
       <c r="DU3">
-        <v>1.043840257637043</v>
+        <v>1.043632884111517</v>
       </c>
       <c r="DV3">
-        <v>1.046522458070632</v>
+        <v>1.046364513051476</v>
       </c>
       <c r="DW3">
-        <v>1.044721436320914</v>
+        <v>1.044515208286911</v>
       </c>
       <c r="DX3">
-        <v>1.044186005237055</v>
+        <v>1.043988568336587</v>
       </c>
       <c r="DY3">
-        <v>1.044181420127888</v>
+        <v>1.043985366390104</v>
       </c>
       <c r="DZ3">
-        <v>1.04373975966664</v>
+        <v>1.043529655856883</v>
       </c>
       <c r="EA3">
-        <v>1.04652245807063</v>
+        <v>1.046364513051476</v>
       </c>
       <c r="EB3">
-        <v>1.044720466423707</v>
+        <v>1.044513873673867</v>
       </c>
       <c r="EC3">
-        <v>1.044186005237054</v>
+        <v>1.043988568336587</v>
       </c>
       <c r="ED3">
-        <v>1.044174166949771</v>
+        <v>1.043970985435219</v>
       </c>
       <c r="EE3">
-        <v>1.044171910152319</v>
+        <v>1.043980129795119</v>
       </c>
       <c r="EF3">
-        <v>1.043709858757012</v>
+        <v>1.043498942613017</v>
       </c>
       <c r="EG3">
-        <v>1.046522458070625</v>
+        <v>1.046364513051474</v>
       </c>
       <c r="EH3">
-        <v>1.044719551733032</v>
+        <v>1.04451261502722</v>
       </c>
       <c r="EI3">
-        <v>1.044186005237054</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="EJ3">
-        <v>1.04417354230942</v>
+        <v>1.043969746953928</v>
       </c>
       <c r="EK3">
-        <v>1.044164835267273</v>
+        <v>1.043976234056032</v>
       </c>
       <c r="EL3">
-        <v>1.043676106545857</v>
+        <v>1.043464273437445</v>
       </c>
       <c r="EM3">
-        <v>1.046522458070621</v>
+        <v>1.046364513051473</v>
       </c>
       <c r="EN3">
-        <v>1.044718047836536</v>
+        <v>1.044510545613089</v>
       </c>
       <c r="EO3">
-        <v>1.044186005237053</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="EP3">
-        <v>1.044172929418587</v>
+        <v>1.043968531768516</v>
       </c>
       <c r="EQ3">
-        <v>1.044160097406868</v>
+        <v>1.043973625180436</v>
       </c>
       <c r="ER3">
-        <v>1.04364436320737</v>
+        <v>1.043431667710874</v>
       </c>
       <c r="ES3">
-        <v>1.04652245807062</v>
+        <v>1.046364513051473</v>
       </c>
       <c r="ET3">
-        <v>1.044710897153172</v>
+        <v>1.04450070603171</v>
       </c>
       <c r="EU3">
-        <v>1.044186005237053</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="EV3">
-        <v>1.044172434535205</v>
+        <v>1.043967550557769</v>
       </c>
       <c r="EW3">
-        <v>1.044155883387101</v>
+        <v>1.043972594037252</v>
       </c>
       <c r="EX3">
-        <v>1.044150525792478</v>
+        <v>1.043944432847361</v>
       </c>
       <c r="EY3">
-        <v>1.043607324792017</v>
+        <v>1.04339362305354</v>
       </c>
       <c r="EZ3">
-        <v>1.04652245807062</v>
+        <v>1.046364513051473</v>
       </c>
       <c r="FA3">
-        <v>1.044709339417538</v>
+        <v>1.044498562536893</v>
       </c>
       <c r="FB3">
-        <v>1.044186005237052</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="FC3">
-        <v>1.044171691754579</v>
+        <v>1.043966077838401</v>
       </c>
       <c r="FD3">
-        <v>1.044144707603545</v>
+        <v>1.043969859387072</v>
       </c>
       <c r="FE3">
-        <v>1.044149943202519</v>
+        <v>1.043942656014484</v>
       </c>
       <c r="FF3">
-        <v>1.043596667180233</v>
+        <v>1.043382675900899</v>
       </c>
       <c r="FG3">
-        <v>1.04652245807062</v>
+        <v>1.046364513051473</v>
       </c>
       <c r="FH3">
-        <v>1.044698124621853</v>
+        <v>1.044408816050822</v>
       </c>
       <c r="FI3">
-        <v>1.044703838911751</v>
+        <v>1.044493581956187</v>
       </c>
       <c r="FJ3">
-        <v>1.044186005237051</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="FK3">
-        <v>1.044170796249561</v>
+        <v>1.043964302310658</v>
       </c>
       <c r="FL3">
-        <v>1.044140825659363</v>
+        <v>1.043968909494606</v>
       </c>
       <c r="FM3">
-        <v>1.044149410975736</v>
+        <v>1.043941032783554</v>
       </c>
       <c r="FN3">
-        <v>1.043536119578947</v>
+        <v>1.043320483372026</v>
       </c>
       <c r="FO3">
-        <v>1.04652245807062</v>
+        <v>1.046364513051473</v>
       </c>
       <c r="FP3">
-        <v>1.044696005957467</v>
+        <v>1.044391861427718</v>
       </c>
       <c r="FQ3">
-        <v>1.044696536432368</v>
+        <v>1.044486969727891</v>
       </c>
       <c r="FR3">
-        <v>1.044186005237051</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="FS3">
-        <v>1.044170119714097</v>
+        <v>1.04396296093626</v>
       </c>
       <c r="FT3">
-        <v>1.044140825659374</v>
+        <v>1.0439689094946</v>
       </c>
       <c r="FU3">
-        <v>1.044076725188391</v>
+        <v>1.04395322682304</v>
       </c>
       <c r="FV3">
-        <v>1.044149189881421</v>
+        <v>1.043940358471137</v>
       </c>
       <c r="FW3">
-        <v>1.043501921930207</v>
+        <v>1.043285356658639</v>
       </c>
       <c r="FX3">
-        <v>1.044691634725992</v>
+        <v>1.044356880628871</v>
       </c>
       <c r="FY3">
-        <v>1.044695818138413</v>
+        <v>1.0444861973065</v>
       </c>
       <c r="FZ3">
-        <v>1.0446829911724</v>
+        <v>1.044477937631582</v>
       </c>
       <c r="GA3">
-        <v>1.044186005237051</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="GB3">
-        <v>1.04416933684481</v>
+        <v>1.043961408732584</v>
       </c>
       <c r="GC3">
-        <v>1.044140825659376</v>
+        <v>1.043968909494599</v>
       </c>
       <c r="GD3">
-        <v>1.04406980227774</v>
+        <v>1.043951533079629</v>
       </c>
       <c r="GE3">
-        <v>1.044148713315236</v>
+        <v>1.043938904998693</v>
       </c>
       <c r="GF3">
-        <v>1.043476536074222</v>
+        <v>1.043259281132548</v>
       </c>
       <c r="GG3">
-        <v>1.044692991461534</v>
+        <v>1.044483157624052</v>
       </c>
       <c r="GH3">
-        <v>1.044626930223923</v>
+        <v>1.044440555704626</v>
       </c>
       <c r="GI3">
-        <v>1.044186005237051</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="GJ3">
-        <v>1.044168600745679</v>
+        <v>1.043959949260599</v>
       </c>
       <c r="GK3">
-        <v>1.044140825659376</v>
+        <v>1.043968909494599</v>
       </c>
       <c r="GL3">
-        <v>1.044140825659377</v>
+        <v>1.043968909494598</v>
       </c>
       <c r="GM3">
-        <v>1.044063105918265</v>
+        <v>1.043949894763661</v>
       </c>
       <c r="GN3">
-        <v>1.044147499506912</v>
+        <v>1.043935203021944</v>
       </c>
       <c r="GO3">
-        <v>1.043453713007777</v>
+        <v>1.043235838020679</v>
       </c>
       <c r="GP3">
-        <v>1.044687944575689</v>
+        <v>1.044477730428623</v>
       </c>
       <c r="GQ3">
-        <v>1.044623277412311</v>
+        <v>1.044436902239699</v>
       </c>
       <c r="GR3">
-        <v>1.044622708816234</v>
+        <v>1.044438444629418</v>
       </c>
       <c r="GS3">
-        <v>1.044186005237051</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="GT3">
-        <v>1.044167808746325</v>
+        <v>1.04395837895459</v>
       </c>
       <c r="GU3">
-        <v>1.044140825659376</v>
+        <v>1.043968909494599</v>
       </c>
       <c r="GV3">
-        <v>1.044140825659378</v>
+        <v>1.043968909494598</v>
       </c>
       <c r="GW3">
-        <v>1.044057749501929</v>
+        <v>1.043948584275078</v>
       </c>
       <c r="GX3">
-        <v>1.044146787371688</v>
+        <v>1.043933031090875</v>
       </c>
       <c r="GY3">
-        <v>1.0434253602825</v>
+        <v>1.043206715023177</v>
       </c>
       <c r="GZ3">
-        <v>1.044681521750104</v>
+        <v>1.044465555214698</v>
       </c>
       <c r="HA3">
-        <v>1.044687003659554</v>
+        <v>1.044476984605259</v>
       </c>
       <c r="HB3">
-        <v>1.044614042201929</v>
+        <v>1.044427665377574</v>
       </c>
       <c r="HC3">
-        <v>1.044622112116067</v>
+        <v>1.04443814622684</v>
       </c>
       <c r="HD3">
-        <v>1.044186005237052</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="HE3">
-        <v>1.044166598017047</v>
+        <v>1.043955978428014</v>
       </c>
       <c r="HF3">
-        <v>1.044140825659378</v>
+        <v>1.043968909494598</v>
       </c>
       <c r="HG3">
-        <v>1.044053482694101</v>
+        <v>1.043947540367602</v>
       </c>
       <c r="HH3">
-        <v>1.044146288589782</v>
+        <v>1.043931509863057</v>
       </c>
       <c r="HI3">
-        <v>1.043373040050327</v>
+        <v>1.043152973382337</v>
       </c>
       <c r="HJ3">
-        <v>1.044660498986705</v>
+        <v>1.04442570411622</v>
       </c>
       <c r="HK3">
-        <v>1.044685305468191</v>
+        <v>1.044475638522498</v>
       </c>
       <c r="HL3">
-        <v>1.044621630894264</v>
+        <v>1.044437905573603</v>
       </c>
       <c r="HM3">
-        <v>1.044186005237052</v>
+        <v>1.043988568336586</v>
       </c>
       <c r="HN3">
-        <v>1.044163291645452</v>
+        <v>1.043949422847511</v>
       </c>
       <c r="HO3">
-        <v>1.044140825659379</v>
+        <v>1.043968909494597</v>
       </c>
       <c r="HP3">
-        <v>1.044044461979216</v>
+        <v>1.043945333380002</v>
       </c>
       <c r="HQ3">
-        <v>1.044145329134134</v>
+        <v>1.043928583632995</v>
       </c>
       <c r="HR3">
-        <v>1.043327425106473</v>
+        <v>1.043106119196033</v>
       </c>
       <c r="HS3">
-        <v>1.044651436424703</v>
+        <v>1.044408524972626</v>
       </c>
       <c r="HT3">
-        <v>1.044684699119449</v>
+        <v>1.044475157896042</v>
       </c>
       <c r="HU3">
-        <v>1.044621246326825</v>
+        <v>1.044437713256051</v>
       </c>
       <c r="HV3">
-        <v>1.04416300973357</v>
+        <v>1.043948863897602</v>
       </c>
       <c r="HW3">
-        <v>1.044140825659379</v>
+        <v>1.043968909494597</v>
       </c>
       <c r="HX3">
-        <v>1.044037357951489</v>
+        <v>1.043943595324666</v>
       </c>
       <c r="HY3">
-        <v>1.044144851579384</v>
+        <v>1.043927127145604</v>
       </c>
       <c r="HZ3">
-        <v>1.043296395691156</v>
+        <v>1.043074246790363</v>
       </c>
       <c r="IA3">
-        <v>1.044617078066738</v>
+        <v>1.044421567570299</v>
       </c>
       <c r="IB3">
-        <v>1.044684699119449</v>
+        <v>1.044475157896042</v>
       </c>
       <c r="IC3">
-        <v>1.04462065928095</v>
+        <v>1.044437419681466</v>
       </c>
       <c r="ID3">
-        <v>1.044162879521115</v>
+        <v>1.043948605723876</v>
       </c>
       <c r="IE3">
-        <v>1.04414082565938</v>
+        <v>1.043968909494596</v>
       </c>
       <c r="IF3">
-        <v>1.044032430243951</v>
+        <v>1.043942389722868</v>
       </c>
       <c r="IG3">
-        <v>1.044144512486023</v>
+        <v>1.043926092949624</v>
       </c>
       <c r="IH3">
-        <v>1.04327601202246</v>
+        <v>1.043053309349302</v>
       </c>
       <c r="II3">
-        <v>1.044607258011233</v>
+        <v>1.044413785082805</v>
       </c>
       <c r="IJ3">
-        <v>1.044619971144904</v>
+        <v>1.044437075552903</v>
       </c>
       <c r="IK3">
-        <v>1.044162740243131</v>
+        <v>1.043948329575826</v>
       </c>
       <c r="IL3">
-        <v>1.04414082565938</v>
+        <v>1.043968909494596</v>
       </c>
       <c r="IM3">
-        <v>1.044027514275719</v>
+        <v>1.043941186993158</v>
       </c>
       <c r="IN3">
-        <v>1.04414063340286</v>
+        <v>1.043914262189785</v>
       </c>
       <c r="IO3">
-        <v>1.043232142896261</v>
+        <v>1.043008248410959</v>
       </c>
       <c r="IP3">
-        <v>1.044587491680859</v>
+        <v>1.04440340481449</v>
       </c>
       <c r="IQ3">
-        <v>1.044596881991516</v>
+        <v>1.044400277251245</v>
       </c>
       <c r="IR3">
-        <v>1.044618914208809</v>
+        <v>1.044436546991867</v>
       </c>
       <c r="IS3">
-        <v>1.044162607156885</v>
+        <v>1.043948065704203</v>
       </c>
       <c r="IT3">
-        <v>1.04414082565938</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="IU3">
-        <v>1.044020322433621</v>
+        <v>1.043939427453229</v>
       </c>
       <c r="IV3">
-        <v>1.044139489524744</v>
+        <v>1.043910773492501</v>
       </c>
       <c r="IW3">
-        <v>1.043223596688561</v>
+        <v>1.042977558894404</v>
       </c>
       <c r="IX3">
-        <v>1.043203484714853</v>
+        <v>1.042979792070095</v>
       </c>
       <c r="IY3">
-        <v>1.044615046542296</v>
+        <v>1.044434612818324</v>
       </c>
       <c r="IZ3">
-        <v>1.044162458893104</v>
+        <v>1.043947771739905</v>
       </c>
       <c r="JA3">
-        <v>1.044140825659381</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="JB3">
-        <v>1.043993273559546</v>
+        <v>1.043932809735996</v>
       </c>
       <c r="JC3">
-        <v>1.044139233605245</v>
+        <v>1.043909992967339</v>
       </c>
       <c r="JD3">
-        <v>1.043222415304293</v>
+        <v>1.042973316532053</v>
       </c>
       <c r="JE3">
-        <v>1.043096020713268</v>
+        <v>1.042873084940936</v>
       </c>
       <c r="JF3">
-        <v>1.044596222608041</v>
+        <v>1.044425199194724</v>
       </c>
       <c r="JG3">
-        <v>1.044162152855875</v>
+        <v>1.043947164956382</v>
       </c>
       <c r="JH3">
-        <v>1.044140825659381</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="JI3">
-        <v>1.043986960326572</v>
+        <v>1.043931265154381</v>
       </c>
       <c r="JJ3">
-        <v>1.044132785052498</v>
+        <v>1.043897094120844</v>
       </c>
       <c r="JK3">
-        <v>1.044139233560951</v>
+        <v>1.043909760462329</v>
       </c>
       <c r="JL3">
-        <v>1.043221872178531</v>
+        <v>1.0429713661622</v>
       </c>
       <c r="JM3">
-        <v>1.043084108370172</v>
+        <v>1.042856801127054</v>
       </c>
       <c r="JN3">
-        <v>1.04306064283693</v>
+        <v>1.042838225491298</v>
       </c>
       <c r="JO3">
-        <v>1.044161834120067</v>
+        <v>1.043946532995236</v>
       </c>
       <c r="JP3">
-        <v>1.044140825659381</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="JQ3">
-        <v>1.043984068070174</v>
+        <v>1.043930557541315</v>
       </c>
       <c r="JR3">
-        <v>1.044126394312783</v>
+        <v>1.04388431091648</v>
       </c>
       <c r="JS3">
-        <v>1.044139233509018</v>
+        <v>1.043909487864836</v>
       </c>
       <c r="JT3">
-        <v>1.043221227100771</v>
+        <v>1.042969049681755</v>
       </c>
       <c r="JU3">
-        <v>1.043083242473637</v>
+        <v>1.04285561747261</v>
       </c>
       <c r="JV3">
-        <v>1.042932398026239</v>
+        <v>1.042711859977435</v>
       </c>
       <c r="JW3">
-        <v>1.044160622081256</v>
+        <v>1.043944129871936</v>
       </c>
       <c r="JX3">
-        <v>1.044140825659382</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="JY3">
-        <v>1.043982166630053</v>
+        <v>1.043930092339167</v>
       </c>
       <c r="JZ3">
-        <v>1.044139233462086</v>
+        <v>1.043909241512538</v>
       </c>
       <c r="KA3">
-        <v>1.043220231823011</v>
+        <v>1.042965475629779</v>
       </c>
       <c r="KB3">
-        <v>1.043082528774626</v>
+        <v>1.042854641867592</v>
       </c>
       <c r="KC3">
-        <v>1.042903914580703</v>
+        <v>1.042676664970376</v>
       </c>
       <c r="KD3">
-        <v>1.042911769277397</v>
+        <v>1.042693710919814</v>
       </c>
       <c r="KE3">
-        <v>1.044154187194814</v>
+        <v>1.043931371347545</v>
       </c>
       <c r="KF3">
-        <v>1.044140825659382</v>
+        <v>1.043968909494595</v>
       </c>
       <c r="KG3">
-        <v>1.043980532611655</v>
+        <v>1.043928458235904</v>
       </c>
       <c r="KH3">
-        <v>1.043980720573797</v>
+        <v>1.043929890794995</v>
       </c>
       <c r="KI3">
-        <v>1.044139233414553</v>
+        <v>1.043908992006911</v>
       </c>
       <c r="KJ3">
-        <v>1.04321934496052</v>
+        <v>1.042962290898109</v>
       </c>
       <c r="KK3">
-        <v>1.043081515020232</v>
+        <v>1.042853256095921</v>
       </c>
       <c r="KL3">
-        <v>1.042890804351655</v>
+        <v>1.042660465545429</v>
       </c>
       <c r="KM3">
-        <v>1.042825315139161</v>
+        <v>1.04261764902307</v>
       </c>
       <c r="KN3">
-        <v>1.043979782012821</v>
+        <v>1.043927707598085</v>
       </c>
       <c r="KO3">
-        <v>1.043979697148185</v>
+        <v>1.043929748154992</v>
       </c>
       <c r="KP3">
-        <v>1.044139233363446</v>
+        <v>1.043908723737917</v>
       </c>
       <c r="KQ3">
-        <v>1.043218655445029</v>
+        <v>1.042959814841426</v>
       </c>
       <c r="KR3">
-        <v>1.043076961692795</v>
+        <v>1.042847031834726</v>
       </c>
       <c r="KS3">
-        <v>1.042805160930369</v>
+        <v>1.042554641297324</v>
       </c>
       <c r="KT3">
-        <v>1.042806231373456</v>
+        <v>1.042600859219612</v>
       </c>
       <c r="KU3">
-        <v>1.043978511638064</v>
+        <v>1.043926437157348</v>
       </c>
       <c r="KV3">
-        <v>1.043978506182389</v>
+        <v>1.043929582164066</v>
       </c>
       <c r="KW3">
-        <v>1.044139233067051</v>
+        <v>1.043907167926665</v>
       </c>
       <c r="KX3">
-        <v>1.043217797171085</v>
+        <v>1.042956732771559</v>
       </c>
       <c r="KY3">
-        <v>1.043076085128994</v>
+        <v>1.04284583359847</v>
       </c>
       <c r="KZ3">
-        <v>1.042798764145073</v>
+        <v>1.042546737156026</v>
       </c>
       <c r="LA3">
-        <v>1.042799890228788</v>
+        <v>1.042595280311108</v>
       </c>
       <c r="LB3">
-        <v>1.04397607323627</v>
+        <v>1.043923998628909</v>
       </c>
       <c r="LC3">
-        <v>1.043976228245753</v>
+        <v>1.043929264676513</v>
       </c>
       <c r="LD3">
-        <v>1.044139231813414</v>
+        <v>1.043900587433781</v>
       </c>
       <c r="LE3">
-        <v>1.0432169094656</v>
+        <v>1.04295354501279</v>
       </c>
       <c r="LF3">
-        <v>1.043075436105571</v>
+        <v>1.042844946403044</v>
       </c>
       <c r="LG3">
-        <v>1.04279626912717</v>
+        <v>1.042543514264538</v>
       </c>
       <c r="LH3">
-        <v>1.042692964731177</v>
+        <v>1.04241662796009</v>
       </c>
       <c r="LI3">
-        <v>1.042796580597978</v>
+        <v>1.042592368513773</v>
       </c>
       <c r="LJ3">
-        <v>1.043968894170813</v>
+        <v>1.04391681919059</v>
       </c>
       <c r="LK3">
-        <v>1.043967491962844</v>
+        <v>1.043928047056534</v>
       </c>
       <c r="LL3">
-        <v>1.043215862368823</v>
+        <v>1.042949784878431</v>
       </c>
       <c r="LM3">
-        <v>1.043074688500956</v>
+        <v>1.042843924450104</v>
       </c>
       <c r="LN3">
-        <v>1.042783419033041</v>
+        <v>1.042526915402207</v>
       </c>
       <c r="LO3">
-        <v>1.042642193108878</v>
+        <v>1.042354189913315</v>
       </c>
       <c r="LP3">
-        <v>1.042793747451389</v>
+        <v>1.042589875924917</v>
       </c>
       <c r="LQ3">
-        <v>1.043937678346851</v>
+        <v>1.043923891781548</v>
       </c>
       <c r="LR3">
-        <v>1.043215265663028</v>
+        <v>1.04294764210234</v>
       </c>
       <c r="LS3">
-        <v>1.043073946887944</v>
+        <v>1.042842910687509</v>
       </c>
       <c r="LT3">
-        <v>1.04277893282115</v>
+        <v>1.042521120424192</v>
       </c>
       <c r="LU3">
-        <v>1.042633665534044</v>
+        <v>1.042320070800702</v>
       </c>
       <c r="LV3">
-        <v>1.042546907283461</v>
+        <v>1.042244049721086</v>
       </c>
       <c r="LW3">
-        <v>1.04279052525563</v>
+        <v>1.042587041052392</v>
       </c>
       <c r="LX3">
-        <v>1.043212569986294</v>
+        <v>1.04293796190218</v>
       </c>
       <c r="LY3">
-        <v>1.043067431735593</v>
+        <v>1.042834004671017</v>
       </c>
       <c r="LZ3">
-        <v>1.042769168871945</v>
+        <v>1.042508508030487</v>
       </c>
       <c r="MA3">
-        <v>1.04263028819174</v>
+        <v>1.042306557942349</v>
       </c>
       <c r="MB3">
-        <v>1.042488429645622</v>
+        <v>1.042167749435682</v>
       </c>
       <c r="MC3">
-        <v>1.042533837721872</v>
+        <v>1.042229575327114</v>
       </c>
       <c r="MD3">
-        <v>1.042787986720553</v>
+        <v>1.04258480766124</v>
       </c>
       <c r="ME3">
-        <v>1.043211520884892</v>
+        <v>1.042934194569403</v>
       </c>
       <c r="MF3">
-        <v>1.043054113892128</v>
+        <v>1.0428157995816</v>
       </c>
       <c r="MG3">
-        <v>1.042765264726221</v>
+        <v>1.042500520319477</v>
       </c>
       <c r="MH3">
-        <v>1.042767240004329</v>
+        <v>1.04250740191678</v>
       </c>
       <c r="MI3">
-        <v>1.042459029748448</v>
+        <v>1.042129389124641</v>
       </c>
       <c r="MJ3">
-        <v>1.042522641043475</v>
+        <v>1.042217175115021</v>
       </c>
       <c r="MK3">
-        <v>1.042785858427102</v>
+        <v>1.042582935198697</v>
       </c>
       <c r="ML3">
-        <v>1.043211156428053</v>
+        <v>1.042932885801556</v>
       </c>
       <c r="MM3">
-        <v>1.042759422946499</v>
+        <v>1.042488568294496</v>
       </c>
       <c r="MN3">
-        <v>1.042766971427817</v>
+        <v>1.042507247900943</v>
       </c>
       <c r="MO3">
-        <v>1.042456293799789</v>
+        <v>1.042125819321726</v>
       </c>
       <c r="MP3">
-        <v>1.042514765283038</v>
+        <v>1.042208452778652</v>
       </c>
       <c r="MQ3">
-        <v>1.04278393803334</v>
+        <v>1.042581245645295</v>
       </c>
       <c r="MR3">
-        <v>1.043210881858314</v>
+        <v>1.042931899819113</v>
       </c>
       <c r="MS3">
-        <v>1.042766679734843</v>
+        <v>1.042507080628915</v>
       </c>
       <c r="MT3">
-        <v>1.042455163887117</v>
+        <v>1.04212434503765</v>
       </c>
       <c r="MU3">
-        <v>1.042504814165343</v>
+        <v>1.042197431992063</v>
       </c>
       <c r="MV3">
-        <v>1.042782348647771</v>
+        <v>1.042579847311327</v>
       </c>
       <c r="MW3">
-        <v>1.043210680970544</v>
+        <v>1.042931178429294</v>
       </c>
       <c r="MX3">
-        <v>1.042766424232749</v>
+        <v>1.042506934110633</v>
       </c>
       <c r="MY3">
-        <v>1.042454366616604</v>
+        <v>1.042123304777419</v>
       </c>
       <c r="MZ3">
-        <v>1.042498578916989</v>
+        <v>1.04219052649657</v>
       </c>
       <c r="NA3">
-        <v>1.042780504866582</v>
+        <v>1.042578225161264</v>
       </c>
       <c r="NB3">
-        <v>1.043210578958597</v>
+        <v>1.042930812103462</v>
       </c>
       <c r="NC3">
-        <v>1.042766152761773</v>
+        <v>1.042506778434958</v>
       </c>
       <c r="ND3">
-        <v>1.042453551132757</v>
+        <v>1.042122240752848</v>
       </c>
       <c r="NE3">
-        <v>1.042489004082186</v>
+        <v>1.042179922423025</v>
       </c>
       <c r="NF3">
-        <v>1.042778478422381</v>
+        <v>1.042576442305111</v>
       </c>
       <c r="NG3">
-        <v>1.04321042897938</v>
+        <v>1.042930273526722</v>
       </c>
       <c r="NH3">
-        <v>1.042765765314586</v>
+        <v>1.04250655625245</v>
       </c>
       <c r="NI3">
-        <v>1.042452588920065</v>
+        <v>1.042120985279857</v>
       </c>
       <c r="NJ3">
-        <v>1.042479459166662</v>
+        <v>1.042169351474556</v>
       </c>
       <c r="NK3">
-        <v>1.042767430967333</v>
+        <v>1.042566722805237</v>
       </c>
       <c r="NL3">
-        <v>1.04321017756523</v>
+        <v>1.042929370696214</v>
       </c>
       <c r="NM3">
-        <v>1.042765294301502</v>
+        <v>1.042506286148881</v>
       </c>
       <c r="NN3">
-        <v>1.042451375157467</v>
+        <v>1.042119401590336</v>
       </c>
       <c r="NO3">
-        <v>1.042468749559591</v>
+        <v>1.042157490623445</v>
       </c>
       <c r="NP3">
-        <v>1.042688381640303</v>
+        <v>1.042503564759119</v>
       </c>
       <c r="NQ3">
-        <v>1.042760677403789</v>
+        <v>1.042550508920866</v>
       </c>
       <c r="NR3">
-        <v>1.043209056149478</v>
+        <v>1.042925343682044</v>
       </c>
       <c r="NS3">
-        <v>1.042762374811937</v>
+        <v>1.042504611960669</v>
       </c>
       <c r="NT3">
-        <v>1.042450288114938</v>
+        <v>1.04211798324225</v>
       </c>
       <c r="NU3">
-        <v>1.04246099976727</v>
+        <v>1.042148907748356</v>
       </c>
       <c r="NV3">
-        <v>1.042612670576764</v>
+        <v>1.042443073827904</v>
       </c>
       <c r="NW3">
-        <v>1.042719209619666</v>
+        <v>1.042450953519414</v>
       </c>
       <c r="NX3">
-        <v>1.042760677403785</v>
+        <v>1.042550508920871</v>
       </c>
       <c r="NY3">
-        <v>1.043204933856786</v>
+        <v>1.042910540491978</v>
       </c>
       <c r="NZ3">
-        <v>1.042752385104665</v>
+        <v>1.04249888333935</v>
       </c>
       <c r="OA3">
-        <v>1.042449427965549</v>
+        <v>1.042116860939115</v>
       </c>
       <c r="OB3">
-        <v>1.042451762787979</v>
+        <v>1.042138677808617</v>
       </c>
       <c r="OC3">
-        <v>1.042609300139271</v>
+        <v>1.042440380945353</v>
       </c>
       <c r="OD3">
-        <v>1.04270405417808</v>
+        <v>1.042414568509524</v>
       </c>
       <c r="OE3">
-        <v>1.042760677403771</v>
+        <v>1.0425505089209</v>
       </c>
       <c r="OF3">
-        <v>1.042447951742291</v>
+        <v>1.042114934796972</v>
       </c>
       <c r="OG3">
-        <v>1.042438360192927</v>
+        <v>1.042123834438897</v>
       </c>
       <c r="OH3">
-        <v>1.04258579575604</v>
+        <v>1.042416114516141</v>
       </c>
       <c r="OI3">
-        <v>1.042551502902533</v>
+        <v>1.042395129750205</v>
       </c>
       <c r="OJ3">
-        <v>1.042702511552807</v>
+        <v>1.042410864992751</v>
       </c>
       <c r="OK3">
-        <v>1.04276067740377</v>
+        <v>1.042550508920902</v>
       </c>
       <c r="OL3">
-        <v>1.042442798406189</v>
+        <v>1.042108210842632</v>
       </c>
       <c r="OM3">
-        <v>1.042428423896721</v>
+        <v>1.042112829980883</v>
       </c>
       <c r="ON3">
-        <v>1.042583642147716</v>
+        <v>1.042413891084737</v>
       </c>
       <c r="OO3">
-        <v>1.042523619032961</v>
+        <v>1.042373298617744</v>
       </c>
       <c r="OP3">
-        <v>1.042701435002187</v>
+        <v>1.042408280422596</v>
       </c>
       <c r="OQ3">
-        <v>1.04276067740377</v>
+        <v>1.042550508920903</v>
       </c>
       <c r="OR3">
-        <v>1.042411292818636</v>
+        <v>1.042067103078396</v>
       </c>
       <c r="OS3">
-        <v>1.042418838817061</v>
+        <v>1.042102214484932</v>
       </c>
       <c r="OT3">
-        <v>1.042582417865855</v>
+        <v>1.042412627109897</v>
       </c>
       <c r="OU3">
-        <v>1.042439497865138</v>
+        <v>1.04230743753991</v>
       </c>
       <c r="OV3">
-        <v>1.042523619032955</v>
+        <v>1.042373298617737</v>
       </c>
       <c r="OW3">
-        <v>1.042700319791399</v>
+        <v>1.042405603037589</v>
       </c>
       <c r="OX3">
-        <v>1.042760677403769</v>
+        <v>1.042550508920904</v>
       </c>
       <c r="OY3">
-        <v>1.042409457983435</v>
+        <v>1.042091825181802</v>
       </c>
       <c r="OZ3">
-        <v>1.042581586549058</v>
+        <v>1.042411768840614</v>
       </c>
       <c r="PA3">
-        <v>1.042319688800597</v>
+        <v>1.042213635172819</v>
       </c>
       <c r="PB3">
-        <v>1.042523619032953</v>
+        <v>1.042373298617736</v>
       </c>
       <c r="PC3">
-        <v>1.042695636556977</v>
+        <v>1.042394359583453</v>
       </c>
       <c r="PD3">
-        <v>1.042760677403768</v>
+        <v>1.042550508920905</v>
       </c>
       <c r="PE3">
-        <v>1.042398176207062</v>
+        <v>1.042079330565298</v>
       </c>
       <c r="PF3">
-        <v>1.042580231722705</v>
+        <v>1.042410370088842</v>
       </c>
       <c r="PG3">
-        <v>1.042294617402471</v>
+        <v>1.042194005950842</v>
       </c>
       <c r="PH3">
-        <v>1.042523619032952</v>
+        <v>1.042373298617736</v>
       </c>
       <c r="PI3">
-        <v>1.042694493021005</v>
+        <v>1.042391614195798</v>
       </c>
       <c r="PJ3">
-        <v>1.042760677403763</v>
+        <v>1.042550508920916</v>
       </c>
       <c r="PK3">
-        <v>1.042379281531683</v>
+        <v>1.04205840459762</v>
       </c>
       <c r="PL3">
-        <v>1.042398176207062</v>
+        <v>1.042079330565298</v>
       </c>
       <c r="PM3">
-        <v>1.042575728197151</v>
+        <v>1.042405720552514</v>
       </c>
       <c r="PN3">
-        <v>1.042288209445581</v>
+        <v>1.042188988949655</v>
       </c>
       <c r="PO3">
-        <v>1.04252361903295</v>
+        <v>1.042373298617734</v>
       </c>
       <c r="PP3">
-        <v>1.042693402212121</v>
+        <v>1.042388995394738</v>
       </c>
       <c r="PQ3">
-        <v>1.042760677403762</v>
+        <v>1.04255050892092</v>
       </c>
       <c r="PR3">
-        <v>1.042315553264146</v>
+        <v>1.041987824855731</v>
       </c>
       <c r="PS3">
-        <v>1.042379281531683</v>
+        <v>1.04205840459762</v>
       </c>
       <c r="PT3">
-        <v>1.042570714361492</v>
+        <v>1.042400544161099</v>
       </c>
       <c r="PU3">
-        <v>1.042284852409801</v>
+        <v>1.042186360615248</v>
       </c>
       <c r="PV3">
-        <v>1.042523619032949</v>
+        <v>1.042373298617734</v>
       </c>
       <c r="PW3">
-        <v>1.042692317336223</v>
+        <v>1.042386390837542</v>
       </c>
       <c r="PX3">
-        <v>1.042760677403761</v>
+        <v>1.042550508920922</v>
       </c>
       <c r="PY3">
-        <v>1.042225421660905</v>
+        <v>1.041888002348562</v>
       </c>
       <c r="PZ3">
-        <v>1.042315553264146</v>
+        <v>1.041987824855731</v>
       </c>
       <c r="QA3">
-        <v>1.042567894600058</v>
+        <v>1.042397632978949</v>
       </c>
       <c r="QB3">
-        <v>1.042282069466778</v>
+        <v>1.042184181756971</v>
       </c>
       <c r="QC3">
-        <v>1.042523619032948</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="QD3">
-        <v>1.042691072843748</v>
+        <v>1.042383403074789</v>
       </c>
       <c r="QE3">
-        <v>1.04276067740376</v>
+        <v>1.042550508920924</v>
       </c>
       <c r="QF3">
-        <v>1.042160751009857</v>
+        <v>1.041816377773925</v>
       </c>
       <c r="QG3">
-        <v>1.042225421660905</v>
+        <v>1.041888002348562</v>
       </c>
       <c r="QH3">
-        <v>1.04256524573322</v>
+        <v>1.042394898232045</v>
       </c>
       <c r="QI3">
-        <v>1.042279814046528</v>
+        <v>1.042182415913688</v>
       </c>
       <c r="QJ3">
-        <v>1.042523619032946</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="QK3">
-        <v>1.042686775062437</v>
+        <v>1.042373085012687</v>
       </c>
       <c r="QL3">
-        <v>1.042760677403758</v>
+        <v>1.042550508920926</v>
       </c>
       <c r="QM3">
-        <v>1.042141130600028</v>
+        <v>1.041794647521374</v>
       </c>
       <c r="QN3">
-        <v>1.042160751009857</v>
+        <v>1.041816377773925</v>
       </c>
       <c r="QO3">
-        <v>1.042562718495679</v>
+        <v>1.042392289057836</v>
       </c>
       <c r="QP3">
-        <v>1.042276366481725</v>
+        <v>1.042179716700813</v>
       </c>
       <c r="QQ3">
-        <v>1.042523619032945</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="QR3">
-        <v>1.042665831131991</v>
+        <v>1.042322803079308</v>
       </c>
       <c r="QS3">
-        <v>1.042760677403757</v>
+        <v>1.042550508920928</v>
       </c>
       <c r="QT3">
-        <v>1.042097894192852</v>
+        <v>1.04173038049222</v>
       </c>
       <c r="QU3">
-        <v>1.042141130600028</v>
+        <v>1.041794647521374</v>
       </c>
       <c r="QV3">
-        <v>1.04211630506083</v>
+        <v>1.041794613222973</v>
       </c>
       <c r="QW3">
-        <v>1.042558569148724</v>
+        <v>1.042388005183099</v>
       </c>
       <c r="QX3">
-        <v>1.042273258554939</v>
+        <v>1.042177283401705</v>
       </c>
       <c r="QY3">
-        <v>1.042523619032944</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="QZ3">
-        <v>1.042760677403755</v>
+        <v>1.04255050892093</v>
       </c>
       <c r="RA3">
-        <v>1.042049859878466</v>
+        <v>1.041658979767361</v>
       </c>
       <c r="RB3">
-        <v>1.042097894192852</v>
+        <v>1.04173038049222</v>
       </c>
       <c r="RC3">
-        <v>1.042097894192852</v>
+        <v>1.04173038049222</v>
       </c>
       <c r="RD3">
-        <v>1.042112679598771</v>
+        <v>1.041794608214132</v>
       </c>
       <c r="RE3">
-        <v>1.042555679049726</v>
+        <v>1.042385021382947</v>
       </c>
       <c r="RF3">
-        <v>1.042270300575078</v>
+        <v>1.042174967500934</v>
       </c>
       <c r="RG3">
-        <v>1.042523619032944</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="RH3">
-        <v>1.042760677403747</v>
+        <v>1.042550508920939</v>
       </c>
       <c r="RI3">
-        <v>1.042032258637549</v>
+        <v>1.041632815822247</v>
       </c>
       <c r="RJ3">
-        <v>1.042049859878466</v>
+        <v>1.041658979767361</v>
       </c>
       <c r="RK3">
-        <v>1.042110702729153</v>
+        <v>1.041794605482944</v>
       </c>
       <c r="RL3">
-        <v>1.042553648402557</v>
+        <v>1.042382924899285</v>
       </c>
       <c r="RM3">
-        <v>1.042266968231334</v>
+        <v>1.042172358498125</v>
       </c>
       <c r="RN3">
-        <v>1.042523619032943</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="RO3">
-        <v>1.042760677403747</v>
+        <v>1.04255050892094</v>
       </c>
       <c r="RP3">
-        <v>1.04200064414563</v>
+        <v>1.041584901811132</v>
       </c>
       <c r="RQ3">
-        <v>1.042032258637549</v>
+        <v>1.041632815822247</v>
       </c>
       <c r="RR3">
-        <v>1.042002263599797</v>
+        <v>1.041592963861322</v>
       </c>
       <c r="RS3">
-        <v>1.042109363555056</v>
+        <v>1.04179460363278</v>
       </c>
       <c r="RT3">
-        <v>1.042552678147215</v>
+        <v>1.042381923186875</v>
       </c>
       <c r="RU3">
-        <v>1.042263448204068</v>
+        <v>1.042169602551518</v>
       </c>
       <c r="RV3">
-        <v>1.042523619032943</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="RW3">
-        <v>1.042760677403747</v>
+        <v>1.04255050892094</v>
       </c>
       <c r="RX3">
-        <v>1.041955336806557</v>
+        <v>1.041516233026187</v>
       </c>
       <c r="RY3">
-        <v>1.04200064414563</v>
+        <v>1.041584901811132</v>
       </c>
       <c r="RZ3">
-        <v>1.042001151834705</v>
+        <v>1.041592958945986</v>
       </c>
       <c r="SA3">
-        <v>1.041998211027842</v>
+        <v>1.041577205692052</v>
       </c>
       <c r="SB3">
-        <v>1.042107329435609</v>
+        <v>1.0417946008225</v>
       </c>
       <c r="SC3">
-        <v>1.042552063517059</v>
+        <v>1.042381288629531</v>
       </c>
       <c r="SD3">
-        <v>1.042255751758713</v>
+        <v>1.042163576747619</v>
       </c>
       <c r="SE3">
-        <v>1.042523619032942</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="SF3">
-        <v>1.042760677403747</v>
+        <v>1.04255050892094</v>
       </c>
       <c r="SG3">
-        <v>1.04192768939371</v>
+        <v>1.041474328682446</v>
       </c>
       <c r="SH3">
-        <v>1.041955336806557</v>
+        <v>1.041516233026187</v>
       </c>
       <c r="SI3">
-        <v>1.042000681917956</v>
+        <v>1.041592956868391</v>
       </c>
       <c r="SJ3">
-        <v>1.041995617844939</v>
+        <v>1.041567122259312</v>
       </c>
       <c r="SK3">
-        <v>1.042104242458595</v>
+        <v>1.041794596557626</v>
       </c>
       <c r="SL3">
-        <v>1.042551647951356</v>
+        <v>1.042380859590591</v>
       </c>
       <c r="SM3">
-        <v>1.042081194229145</v>
+        <v>1.042026909669459</v>
       </c>
       <c r="SN3">
-        <v>1.042523619032941</v>
+        <v>1.042373298617733</v>
       </c>
       <c r="SO3">
-        <v>1.042760677403747</v>
+        <v>1.04255050892094</v>
       </c>
       <c r="SP3">
-        <v>1.04192292839079</v>
+        <v>1.041467112473524</v>
       </c>
       <c r="SQ3">
-        <v>1.04192768939371</v>
+        <v>1.041474328682446</v>
       </c>
       <c r="SR3">
-        <v>1.042000405804091</v>
+        <v>1.041592955647638</v>
       </c>
       <c r="SS3">
-        <v>1.042102052350401</v>
+        <v>1.04179459353184</v>
       </c>
       <c r="ST3">
-        <v>1.042551068287478</v>
+        <v>1.042380261133181</v>
       </c>
       <c r="SU3">
-        <v>1.042070786405207</v>
+        <v>1.042014421846895</v>
       </c>
       <c r="SV3">
-        <v>1.042054955967596</v>
+        <v>1.042006615531266</v>
       </c>
       <c r="SW3">
-        <v>1.04252361903294</v>
+        <v>1.042373298617732</v>
       </c>
       <c r="SX3">
-        <v>1.041917824821624</v>
+        <v>1.041458951255351</v>
       </c>
       <c r="SY3">
-        <v>1.04192292839079</v>
+        <v>1.041467112473524</v>
       </c>
       <c r="SZ3">
-        <v>1.041885906336125</v>
+        <v>1.041408178028983</v>
       </c>
       <c r="TA3">
-        <v>1.04200015169624</v>
+        <v>1.041592954524178</v>
       </c>
       <c r="TB3">
-        <v>1.0421005560425</v>
+        <v>1.041794591464588</v>
       </c>
       <c r="TC3">
-        <v>1.042550625883448</v>
+        <v>1.042379804385779</v>
       </c>
       <c r="TD3">
-        <v>1.042061608114501</v>
+        <v>1.042003409279308</v>
       </c>
       <c r="TE3">
-        <v>1.042040801172891</v>
+        <v>1.041995667418784</v>
       </c>
       <c r="TF3">
-        <v>1.042523619032939</v>
+        <v>1.042373298617732</v>
       </c>
       <c r="TG3">
-        <v>1.041914067986847</v>
+        <v>1.041452943627109</v>
       </c>
       <c r="TH3">
-        <v>1.041917824821624</v>
+        <v>1.041458951255351</v>
       </c>
       <c r="TI3">
-        <v>1.041864036222635</v>
+        <v>1.041373359254934</v>
       </c>
       <c r="TJ3">
-        <v>1.041999925307506</v>
+        <v>1.041592953523268</v>
       </c>
       <c r="TK3">
-        <v>1.042099373665623</v>
+        <v>1.041794589831055</v>
       </c>
       <c r="TL3">
-        <v>1.042547468790538</v>
+        <v>1.042376544935403</v>
       </c>
       <c r="TM3">
-        <v>1.042038687237358</v>
+        <v>1.041994032382244</v>
       </c>
       <c r="TN3">
-        <v>1.042523619032939</v>
+        <v>1.042373298617731</v>
       </c>
       <c r="TO3">
-        <v>1.041908953051863</v>
+        <v>1.041444764234701</v>
       </c>
       <c r="TP3">
-        <v>1.041914067986847</v>
+        <v>1.041452943627109</v>
       </c>
       <c r="TQ3">
-        <v>1.041846711204143</v>
+        <v>1.041345774320704</v>
       </c>
       <c r="TR3">
-        <v>1.041999690454914</v>
+        <v>1.041592952484939</v>
       </c>
       <c r="TS3">
-        <v>1.04209558265087</v>
+        <v>1.041794584593513</v>
       </c>
       <c r="TT3">
-        <v>1.042540108113037</v>
+        <v>1.04237295382681</v>
       </c>
       <c r="TU3">
-        <v>1.042536520215343</v>
+        <v>1.04235360116984</v>
       </c>
       <c r="TV3">
-        <v>1.042037073592886</v>
+        <v>1.041992784298894</v>
       </c>
       <c r="TW3">
-        <v>1.042523619032938</v>
+        <v>1.042373298617731</v>
       </c>
       <c r="TX3">
-        <v>1.041905333435069</v>
+        <v>1.041438976035177</v>
       </c>
       <c r="TY3">
-        <v>1.041908953051863</v>
+        <v>1.041444764234701</v>
       </c>
       <c r="TZ3">
-        <v>1.04183955332687</v>
+        <v>1.041334376944856</v>
       </c>
       <c r="UA3">
-        <v>1.041998981472847</v>
+        <v>1.041592949350393</v>
       </c>
       <c r="UB3">
-        <v>1.042064918982214</v>
+        <v>1.041794542229755</v>
       </c>
       <c r="UC3">
-        <v>1.04253198024398</v>
+        <v>1.042368988422666</v>
       </c>
       <c r="UD3">
-        <v>1.042035564418547</v>
+        <v>1.041991617018593</v>
       </c>
       <c r="UE3">
-        <v>1.042523619032938</v>
+        <v>1.042373298617731</v>
       </c>
       <c r="UF3">
-        <v>1.041895211014072</v>
+        <v>1.041422789076782</v>
       </c>
       <c r="UG3">
-        <v>1.041905333435069</v>
+        <v>1.041438976035177</v>
       </c>
       <c r="UH3">
-        <v>1.041838882622481</v>
+        <v>1.041332891382457</v>
       </c>
       <c r="UI3">
-        <v>1.041818753397209</v>
+        <v>1.04130674829638</v>
       </c>
       <c r="UJ3">
-        <v>1.04199826698927</v>
+        <v>1.041592946191524</v>
       </c>
       <c r="UK3">
-        <v>1.042063391961642</v>
+        <v>1.04179454012009</v>
       </c>
       <c r="UL3">
-        <v>1.042509949130222</v>
+        <v>1.042358239938289</v>
       </c>
       <c r="UM3">
-        <v>1.042033955072357</v>
+        <v>1.041990372259723</v>
       </c>
       <c r="UN3">
-        <v>1.042523619032938</v>
+        <v>1.042373298617731</v>
       </c>
       <c r="UO3">
-        <v>1.041887881388089</v>
+        <v>1.041411068132193</v>
       </c>
       <c r="UP3">
-        <v>1.041895211014072</v>
+        <v>1.041422789076782</v>
       </c>
       <c r="UQ3">
-        <v>1.041838635823995</v>
+        <v>1.041332344740845</v>
       </c>
       <c r="UR3">
-        <v>1.041803022427224</v>
+        <v>1.041285851313654</v>
       </c>
       <c r="US3">
-        <v>1.041991591127924</v>
+        <v>1.041592916676345</v>
       </c>
       <c r="UT3">
-        <v>1.04206218708911</v>
+        <v>1.041794538455491</v>
       </c>
       <c r="UU3">
-        <v>1.042032530997356</v>
+        <v>1.041989270799989</v>
       </c>
       <c r="UV3">
-        <v>1.042523619032938</v>
+        <v>1.042373298617731</v>
       </c>
       <c r="UW3">
-        <v>1.041886490375524</v>
+        <v>1.041409899786335</v>
       </c>
       <c r="UX3">
-        <v>1.041887881388089</v>
+        <v>1.041411068132193</v>
       </c>
       <c r="UY3">
-        <v>1.041884195356064</v>
+        <v>1.041388584129952</v>
       </c>
       <c r="UZ3">
-        <v>1.041838268199703</v>
+        <v>1.041331530477854</v>
       </c>
       <c r="VA3">
-        <v>1.042060824947994</v>
+        <v>1.041794536573616</v>
       </c>
       <c r="VB3">
-        <v>1.042031074421471</v>
+        <v>1.041988144202221</v>
       </c>
       <c r="VC3">
-        <v>1.041886161009296</v>
+        <v>1.041409623143492</v>
       </c>
       <c r="VD3">
-        <v>1.041886490375524</v>
+        <v>1.041409899786335</v>
       </c>
       <c r="VE3">
-        <v>1.041883729376928</v>
+        <v>1.041385741757661</v>
       </c>
       <c r="VF3">
-        <v>1.041838046992017</v>
+        <v>1.041331040517435</v>
       </c>
       <c r="VG3">
-        <v>1.042059612599284</v>
+        <v>1.041794534898688</v>
       </c>
       <c r="VH3">
-        <v>1.04202355661752</v>
+        <v>1.041982329509169</v>
       </c>
       <c r="VI3">
-        <v>1.041877232019644</v>
+        <v>1.041402123464088</v>
       </c>
       <c r="VJ3">
-        <v>1.041886161009296</v>
+        <v>1.041409623143492</v>
       </c>
       <c r="VK3">
-        <v>1.041886161009298</v>
+        <v>1.041409623143493</v>
       </c>
       <c r="VL3">
-        <v>1.041883385515232</v>
+        <v>1.041383644275449</v>
       </c>
       <c r="VM3">
-        <v>1.041837780076096</v>
+        <v>1.041330449315975</v>
       </c>
       <c r="VN3">
-        <v>1.042058217185966</v>
+        <v>1.041794532970847</v>
       </c>
       <c r="VO3">
-        <v>1.042005873179291</v>
+        <v>1.041973487050367</v>
       </c>
       <c r="VP3">
-        <v>1.042008076715234</v>
+        <v>1.041970155360497</v>
       </c>
       <c r="VQ3">
-        <v>1.041870974456468</v>
+        <v>1.041396867581742</v>
       </c>
       <c r="VR3">
-        <v>1.041877232019644</v>
+        <v>1.041402123464088</v>
       </c>
       <c r="VS3">
-        <v>1.041886161009299</v>
+        <v>1.041409623143493</v>
       </c>
       <c r="VT3">
-        <v>1.041883050935163</v>
+        <v>1.041381603409185</v>
       </c>
       <c r="VU3">
-        <v>1.041837545712816</v>
+        <v>1.04132993021621</v>
       </c>
       <c r="VV3">
-        <v>1.042056786412508</v>
+        <v>1.041794530994155</v>
       </c>
       <c r="VW3">
-        <v>1.042004854133787</v>
+        <v>1.041972977484976</v>
       </c>
       <c r="VX3">
-        <v>1.04193410310789</v>
+        <v>1.041911978881833</v>
       </c>
       <c r="VY3">
-        <v>1.04186256296338</v>
+        <v>1.041392735432921</v>
       </c>
       <c r="VZ3">
-        <v>1.041870484879297</v>
+        <v>1.041396108396385</v>
       </c>
       <c r="WA3">
-        <v>1.041886161009299</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="WB3">
-        <v>1.041879908009024</v>
+        <v>1.041362432238496</v>
       </c>
       <c r="WC3">
-        <v>1.041836012123</v>
+        <v>1.041326533405547</v>
       </c>
       <c r="WD3">
-        <v>1.042055066628481</v>
+        <v>1.04179452861818</v>
       </c>
       <c r="WE3">
-        <v>1.042004342331371</v>
+        <v>1.041972721562352</v>
       </c>
       <c r="WF3">
-        <v>1.041916117027494</v>
+        <v>1.041886284005415</v>
       </c>
       <c r="WG3">
-        <v>1.041849295885763</v>
+        <v>1.04184667592486</v>
       </c>
       <c r="WH3">
-        <v>1.041855061725307</v>
+        <v>1.041389050446818</v>
       </c>
       <c r="WI3">
-        <v>1.04186256296338</v>
+        <v>1.041392735432921</v>
       </c>
       <c r="WJ3">
-        <v>1.04186256296338</v>
+        <v>1.041392735432921</v>
       </c>
       <c r="WK3">
-        <v>1.041848687881906</v>
+        <v>1.041362307544207</v>
       </c>
       <c r="WL3">
-        <v>1.041870484879297</v>
+        <v>1.041396108396385</v>
       </c>
       <c r="WM3">
-        <v>1.0418861610093</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="WN3">
-        <v>1.041878445262985</v>
+        <v>1.041353509804151</v>
       </c>
       <c r="WO3">
-        <v>1.041824704787671</v>
+        <v>1.041301487966774</v>
       </c>
       <c r="WP3">
-        <v>1.042053988446383</v>
+        <v>1.041794527128613</v>
       </c>
       <c r="WQ3">
-        <v>1.042003913157293</v>
+        <v>1.041972506957355</v>
       </c>
       <c r="WR3">
-        <v>1.041906625721303</v>
+        <v>1.041872724745912</v>
       </c>
       <c r="WS3">
-        <v>1.041768065742309</v>
+        <v>1.041784127307017</v>
       </c>
       <c r="WT3">
-        <v>1.041838701789476</v>
+        <v>1.041381015977265</v>
       </c>
       <c r="WU3">
-        <v>1.041855061725307</v>
+        <v>1.041389050446818</v>
       </c>
       <c r="WV3">
-        <v>1.041855061725307</v>
+        <v>1.041389050446818</v>
       </c>
       <c r="WW3">
-        <v>1.041843557528097</v>
+        <v>1.04135435184644</v>
       </c>
       <c r="WX3">
-        <v>1.0418861610093</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="WY3">
-        <v>1.041877758736888</v>
+        <v>1.041349322143632</v>
       </c>
       <c r="WZ3">
-        <v>1.042049354782306</v>
+        <v>1.04179452072696</v>
       </c>
       <c r="XA3">
-        <v>1.042003563180851</v>
+        <v>1.041972331954489</v>
       </c>
       <c r="XB3">
-        <v>1.041763375713376</v>
+        <v>1.041779551737857</v>
       </c>
       <c r="XC3">
-        <v>1.04174606736769</v>
+        <v>1.041767364261176</v>
       </c>
       <c r="XD3">
-        <v>1.041816415795441</v>
+        <v>1.041370071182002</v>
       </c>
       <c r="XE3">
-        <v>1.0418861610093</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="XF3">
-        <v>1.041877300813378</v>
+        <v>1.041346528909426</v>
       </c>
       <c r="XG3">
-        <v>1.042029819805274</v>
+        <v>1.041794493738428</v>
       </c>
       <c r="XH3">
-        <v>1.042003013820085</v>
+        <v>1.041972057251118</v>
       </c>
       <c r="XI3">
-        <v>1.041762225705219</v>
+        <v>1.041778429795555</v>
       </c>
       <c r="XJ3">
-        <v>1.041741006213837</v>
+        <v>1.041763507595792</v>
       </c>
       <c r="XK3">
-        <v>1.041809879064901</v>
+        <v>1.041366860951413</v>
       </c>
       <c r="XL3">
-        <v>1.0418861610093</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="XM3">
-        <v>1.041876600733593</v>
+        <v>1.041342258574485</v>
       </c>
       <c r="XN3">
-        <v>1.04200170383758</v>
+        <v>1.041971402205048</v>
       </c>
       <c r="XO3">
-        <v>1.041761436026438</v>
+        <v>1.041777659388821</v>
       </c>
       <c r="XP3">
-        <v>1.041738494627068</v>
+        <v>1.041761593733747</v>
       </c>
       <c r="XQ3">
-        <v>1.0417882437063</v>
+        <v>1.04135623568673</v>
       </c>
       <c r="XR3">
-        <v>1.0418861610093</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="XS3">
-        <v>1.04187523348604</v>
+        <v>1.041333918661011</v>
       </c>
       <c r="XT3">
-        <v>1.042000797541822</v>
+        <v>1.041970949019242</v>
       </c>
       <c r="XU3">
-        <v>1.041760341360701</v>
+        <v>1.041776591438313</v>
       </c>
       <c r="XV3">
-        <v>1.041735734589712</v>
+        <v>1.041759490549021</v>
       </c>
       <c r="XW3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="XX3">
-        <v>1.041874855543732</v>
+        <v>1.04133161329498</v>
       </c>
       <c r="XY3">
-        <v>1.041999645192261</v>
+        <v>1.041970372796237</v>
       </c>
       <c r="XZ3">
-        <v>1.041757745581239</v>
+        <v>1.041774059008636</v>
       </c>
       <c r="YA3">
-        <v>1.041732549917812</v>
+        <v>1.041757063787094</v>
       </c>
       <c r="YB3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="YC3">
-        <v>1.04187474582102</v>
+        <v>1.041330944010256</v>
       </c>
       <c r="YD3">
-        <v>1.041998945149716</v>
+        <v>1.041970022745668</v>
       </c>
       <c r="YE3">
-        <v>1.041755772361247</v>
+        <v>1.041772133944915</v>
       </c>
       <c r="YF3">
-        <v>1.041729330431605</v>
+        <v>1.041754610496098</v>
       </c>
       <c r="YG3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="YH3">
-        <v>1.041874650643003</v>
+        <v>1.041330753570337</v>
       </c>
       <c r="YI3">
-        <v>1.041874745807811</v>
+        <v>1.041328871712806</v>
       </c>
       <c r="YJ3">
-        <v>1.041998313160602</v>
+        <v>1.041969706724661</v>
       </c>
       <c r="YK3">
-        <v>1.041754387190809</v>
+        <v>1.041770782579448</v>
       </c>
       <c r="YL3">
-        <v>1.04172576121551</v>
+        <v>1.041751890706182</v>
       </c>
       <c r="YM3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143494</v>
       </c>
       <c r="YN3">
-        <v>1.04187456156447</v>
+        <v>1.041330575334761</v>
       </c>
       <c r="YO3">
-        <v>1.041874745790381</v>
+        <v>1.041326137180239</v>
       </c>
       <c r="YP3">
-        <v>1.041997247288624</v>
+        <v>1.041969173744063</v>
       </c>
       <c r="YQ3">
-        <v>1.04175293610362</v>
+        <v>1.041769366905922</v>
       </c>
       <c r="YR3">
-        <v>1.04172057082825</v>
+        <v>1.041747935562138</v>
       </c>
       <c r="YS3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143495</v>
       </c>
       <c r="YT3">
-        <v>1.041874469802087</v>
+        <v>1.041330391729118</v>
       </c>
       <c r="YU3">
-        <v>1.04187474571797</v>
+        <v>1.041314776667455</v>
       </c>
       <c r="YV3">
-        <v>1.041996199392297</v>
+        <v>1.04196864975204</v>
       </c>
       <c r="YW3">
-        <v>1.041751744746698</v>
+        <v>1.041768204623968</v>
       </c>
       <c r="YX3">
-        <v>1.04171434000328</v>
+        <v>1.041742759544363</v>
       </c>
       <c r="YY3">
-        <v>1.041708982567799</v>
+        <v>1.041739318675605</v>
       </c>
       <c r="YZ3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143495</v>
       </c>
       <c r="ZA3">
-        <v>1.041873806339445</v>
+        <v>1.041329064219081</v>
       </c>
       <c r="ZB3">
-        <v>1.041874745687219</v>
+        <v>1.04130995213045</v>
       </c>
       <c r="ZC3">
-        <v>1.041995703584879</v>
+        <v>1.041968401827579</v>
       </c>
       <c r="ZD3">
-        <v>1.0417497721876</v>
+        <v>1.04176628020501</v>
       </c>
       <c r="ZE3">
-        <v>1.041710598394771</v>
+        <v>1.041739651347644</v>
       </c>
       <c r="ZF3">
-        <v>1.041635603229103</v>
+        <v>1.041684754670949</v>
       </c>
       <c r="ZG3">
-        <v>1.041886161009301</v>
+        <v>1.041409623143495</v>
       </c>
       <c r="ZH3">
-        <v>1.041868974930868</v>
+        <v>1.041319397143846</v>
       </c>
       <c r="ZI3">
-        <v>1.041995159007689</v>
+        <v>1.04196812951619</v>
       </c>
       <c r="ZJ3">
-        <v>1.041743397461267</v>
+        <v>1.041760061053341</v>
       </c>
       <c r="ZK3">
-        <v>1.04170712751235</v>
+        <v>1.041736768046423</v>
       </c>
       <c r="ZL3">
-        <v>1.041583078642037</v>
+        <v>1.041645697969622</v>
       </c>
       <c r="ZM3">
-        <v>1.041994636330182</v>
+        <v>1.041967868155558</v>
       </c>
       <c r="ZN3">
-        <v>1.041728502124326</v>
+        <v>1.041745529235831</v>
       </c>
       <c r="ZO3">
-        <v>1.041703740858931</v>
+        <v>1.041733954715428</v>
       </c>
       <c r="ZP3">
-        <v>1.041575276165253</v>
+        <v>1.041629713688999</v>
       </c>
       <c r="ZQ3">
-        <v>1.041435200395526</v>
+        <v>1.041538872539616</v>
       </c>
       <c r="ZR3">
-        <v>1.041994005985451</v>
+        <v>1.041967552956807</v>
       </c>
       <c r="ZS3">
-        <v>1.04170120064246</v>
+        <v>1.04173184452926</v>
       </c>
       <c r="ZT3">
-        <v>1.041575276120529</v>
+        <v>1.041628219048364</v>
       </c>
       <c r="ZU3">
-        <v>1.041573239474337</v>
+        <v>1.041629713672623</v>
       </c>
       <c r="ZV3">
-        <v>1.041417031124163</v>
+        <v>1.041529788604977</v>
       </c>
       <c r="ZW3">
-        <v>1.041405422254935</v>
+        <v>1.041517138693699</v>
       </c>
       <c r="ZX3">
-        <v>1.041993000505768</v>
+        <v>1.041967050174877</v>
       </c>
       <c r="ZY3">
-        <v>1.041697165342416</v>
+        <v>1.04172849236076</v>
       </c>
       <c r="ZZ3">
-        <v>1.041575276106536</v>
+        <v>1.041627751366005</v>
       </c>
       <c r="AAA3">
-        <v>1.041569090414865</v>
+        <v>1.041629713639265</v>
       </c>
       <c r="AAB3">
-        <v>1.041406505184625</v>
+        <v>1.041524526041127</v>
       </c>
       <c r="AAC3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="AAD3">
-        <v>1.041990248619676</v>
+        <v>1.041965674116629</v>
       </c>
       <c r="AAE3">
-        <v>1.041690361672908</v>
+        <v>1.041722840477812</v>
       </c>
       <c r="AAF3">
-        <v>1.041575276097538</v>
+        <v>1.041627450659791</v>
       </c>
       <c r="AAG3">
-        <v>1.041202807804091</v>
+        <v>1.04136939699567</v>
       </c>
       <c r="AAH3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="AAI3">
-        <v>1.041986586364461</v>
+        <v>1.041963842835694</v>
       </c>
       <c r="AAJ3">
-        <v>1.041639382287391</v>
+        <v>1.041680491373278</v>
       </c>
       <c r="AAK3">
-        <v>1.04157527609211</v>
+        <v>1.041627269282249</v>
       </c>
       <c r="AAL3">
-        <v>1.041038158968465</v>
+        <v>1.041248466916927</v>
       </c>
       <c r="AAM3">
-        <v>1.041190816901836</v>
+        <v>1.041361833249634</v>
       </c>
       <c r="AAN3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="AAO3">
-        <v>1.041986237546565</v>
+        <v>1.041963668412141</v>
       </c>
       <c r="AAP3">
-        <v>1.041597560426546</v>
+        <v>1.041645749559888</v>
       </c>
       <c r="AAQ3">
-        <v>1.041575276086626</v>
+        <v>1.04162708596175</v>
       </c>
       <c r="AAR3">
-        <v>1.040868223951246</v>
+        <v>1.041123654147928</v>
       </c>
       <c r="AAS3">
-        <v>1.041189533247928</v>
+        <v>1.041361023533188</v>
       </c>
       <c r="AAT3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="AAU3">
-        <v>1.041985961681537</v>
+        <v>1.041963530468076</v>
       </c>
       <c r="AAV3">
-        <v>1.041584309836794</v>
+        <v>1.04163474217787</v>
       </c>
       <c r="AAW3">
-        <v>1.041575276081726</v>
+        <v>1.041626922217973</v>
       </c>
       <c r="AAX3">
-        <v>1.040801911533519</v>
+        <v>1.041077508843203</v>
       </c>
       <c r="AAY3">
-        <v>1.0408323800804</v>
+        <v>1.041079297026487</v>
       </c>
       <c r="AAZ3">
-        <v>1.041189043131095</v>
+        <v>1.041360714372246</v>
       </c>
       <c r="ABA3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="ABB3">
-        <v>1.041985693750476</v>
+        <v>1.041963396491327</v>
       </c>
       <c r="ABC3">
-        <v>1.041572246880033</v>
+        <v>1.041624721376252</v>
       </c>
       <c r="ABD3">
-        <v>1.041575276076206</v>
+        <v>1.041626737735625</v>
       </c>
       <c r="ABE3">
-        <v>1.040711803424016</v>
+        <v>1.041014804621241</v>
       </c>
       <c r="ABF3">
-        <v>1.040827571883207</v>
+        <v>1.041073346838186</v>
       </c>
       <c r="ABG3">
-        <v>1.041188524684495</v>
+        <v>1.041360387341165</v>
       </c>
       <c r="ABH3">
-        <v>1.041349725716602</v>
+        <v>1.041476526105378</v>
       </c>
       <c r="ABI3">
-        <v>1.04198540676743</v>
+        <v>1.041963252987788</v>
       </c>
       <c r="ABJ3">
-        <v>1.041565676753045</v>
+        <v>1.041619263516701</v>
       </c>
       <c r="ABK3">
-        <v>1.041575276071783</v>
+        <v>1.041626589927978</v>
       </c>
       <c r="ABL3">
-        <v>1.040606305193859</v>
+        <v>1.040941390705101</v>
       </c>
       <c r="ABM3">
-        <v>1.040825045767986</v>
+        <v>1.041070220747353</v>
       </c>
       <c r="ABN3">
-        <v>1.041188094418806</v>
+        <v>1.041360115933749</v>
       </c>
       <c r="ABO3">
-        <v>1.041349725716601</v>
+        <v>1.041476526105377</v>
       </c>
       <c r="ABP3">
-        <v>1.041985141429934</v>
+        <v>1.04196312030793</v>
       </c>
       <c r="ABQ3">
-        <v>1.04156042947928</v>
+        <v>1.041614904563053</v>
       </c>
       <c r="ABR3">
-        <v>1.041575276066477</v>
+        <v>1.041626412632599</v>
       </c>
       <c r="ABS3">
-        <v>1.040521594517101</v>
+        <v>1.040882442352523</v>
       </c>
       <c r="ABT3">
-        <v>1.040814293504409</v>
+        <v>1.041063229087395</v>
       </c>
       <c r="ABU3">
-        <v>1.040824928792642</v>
+        <v>1.041069869907262</v>
       </c>
       <c r="ABV3">
-        <v>1.041187584878451</v>
+        <v>1.041359794520648</v>
       </c>
       <c r="ABW3">
-        <v>1.041349725716601</v>
+        <v>1.041476526105376</v>
       </c>
       <c r="ABX3">
-        <v>1.041984891377391</v>
+        <v>1.041962995271189</v>
       </c>
       <c r="ABY3">
-        <v>1.041555955048311</v>
+        <v>1.041611187616749</v>
       </c>
       <c r="ABZ3">
-        <v>1.04157527606076</v>
+        <v>1.041626221575622</v>
       </c>
       <c r="ACA3">
-        <v>1.040491948148692</v>
+        <v>1.040872622710907</v>
       </c>
       <c r="ACB3">
-        <v>1.040504555865079</v>
+        <v>1.040768863094883</v>
       </c>
       <c r="ACC3">
-        <v>1.040805553246394</v>
+        <v>1.041057545734051</v>
       </c>
       <c r="ACD3">
-        <v>1.040824844202656</v>
+        <v>1.041069616199452</v>
       </c>
       <c r="ACE3">
-        <v>1.04118708795275</v>
+        <v>1.041359481064752</v>
       </c>
       <c r="ACF3">
-        <v>1.041349725716601</v>
+        <v>1.041476526105375</v>
       </c>
       <c r="ACG3">
-        <v>1.041984543602149</v>
+        <v>1.041962821369006</v>
       </c>
       <c r="ACH3">
-        <v>1.04155070427422</v>
+        <v>1.041606825756414</v>
       </c>
       <c r="ACI3">
-        <v>1.041575276050328</v>
+        <v>1.041625873002133</v>
       </c>
       <c r="ACJ3">
-        <v>1.040451074451598</v>
+        <v>1.040859084280956</v>
       </c>
       <c r="ACK3">
-        <v>1.040490313788063</v>
+        <v>1.040673925788406</v>
       </c>
       <c r="ACL3">
-        <v>1.04082477281625</v>
+        <v>1.041069402092681</v>
       </c>
       <c r="ACM3">
-        <v>1.04118640478632</v>
+        <v>1.041359050130021</v>
       </c>
       <c r="ACN3">
-        <v>1.041349725716601</v>
+        <v>1.041476526105375</v>
       </c>
       <c r="ACO3">
-        <v>1.041984117417832</v>
+        <v>1.041962608259002</v>
       </c>
       <c r="ACP3">
-        <v>1.041545906434723</v>
+        <v>1.041602840152997</v>
       </c>
       <c r="ACQ3">
-        <v>1.041575275972287</v>
+        <v>1.041623265128394</v>
       </c>
       <c r="ACR3">
-        <v>1.040350524027874</v>
+        <v>1.040825779331917</v>
       </c>
       <c r="ACS3">
-        <v>1.040486860910493</v>
+        <v>1.040666852829637</v>
       </c>
       <c r="ACT3">
-        <v>1.040490063733297</v>
+        <v>1.040671681610431</v>
       </c>
       <c r="ACU3">
-        <v>1.040824652236352</v>
+        <v>1.041069040441578</v>
       </c>
       <c r="ACV3">
-        <v>1.041185464980308</v>
+        <v>1.041358457309553</v>
       </c>
       <c r="ACW3">
-        <v>1.041349725716601</v>
+        <v>1.041476526105375</v>
       </c>
       <c r="ACX3">
-        <v>1.041982097414744</v>
+        <v>1.041961598172872</v>
       </c>
       <c r="ACY3">
-        <v>1.041538463162334</v>
+        <v>1.04159665696839</v>
       </c>
       <c r="ACZ3">
-        <v>1.04157527573313</v>
+        <v>1.04161527331456</v>
       </c>
       <c r="ADA3">
-        <v>1.040269026602604</v>
+        <v>1.040798785198777</v>
       </c>
       <c r="ADB3">
-        <v>1.040483477460773</v>
+        <v>1.040659922088712</v>
       </c>
       <c r="ADC3">
-        <v>1.040489824648862</v>
+        <v>1.04066953588842</v>
       </c>
       <c r="ADD3">
-        <v>1.040824483378479</v>
+        <v>1.041068533992019</v>
       </c>
       <c r="ADE3">
-        <v>1.041184470399452</v>
+        <v>1.041357829937659</v>
       </c>
       <c r="ADF3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105375</v>
       </c>
       <c r="ADG3">
-        <v>1.04196482581468</v>
+        <v>1.041952961649372</v>
       </c>
       <c r="ADH3">
-        <v>1.041523435949325</v>
+        <v>1.041584173748489</v>
       </c>
       <c r="ADI3">
-        <v>1.040205346987273</v>
+        <v>1.040777692777832</v>
       </c>
       <c r="ADJ3">
-        <v>1.040489566903352</v>
+        <v>1.040667222688023</v>
       </c>
       <c r="ADK3">
-        <v>1.040824358081986</v>
+        <v>1.041068158194597</v>
       </c>
       <c r="ADL3">
-        <v>1.041183809726622</v>
+        <v>1.041357413191697</v>
       </c>
       <c r="ADM3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="ADN3">
-        <v>1.041520275280187</v>
+        <v>1.0415817406003</v>
       </c>
       <c r="ADO3">
-        <v>1.041515518019102</v>
+        <v>1.041576448996121</v>
       </c>
       <c r="ADP3">
-        <v>1.040147792992474</v>
+        <v>1.04075862931066</v>
       </c>
       <c r="ADQ3">
-        <v>1.040489336756301</v>
+        <v>1.040665157176813</v>
       </c>
       <c r="ADR3">
-        <v>1.040824150523129</v>
+        <v>1.041067535670521</v>
       </c>
       <c r="ADS3">
-        <v>1.041183137320672</v>
+        <v>1.041356989044602</v>
       </c>
       <c r="ADT3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="ADU3">
-        <v>1.041517518879938</v>
+        <v>1.04157961866708</v>
       </c>
       <c r="ADV3">
-        <v>1.041502848179335</v>
+        <v>1.041564088268996</v>
       </c>
       <c r="ADW3">
-        <v>1.040143856017194</v>
+        <v>1.040757608364158</v>
       </c>
       <c r="ADX3">
-        <v>1.0401259067504</v>
+        <v>1.040750330931428</v>
       </c>
       <c r="ADY3">
-        <v>1.040489082597238</v>
+        <v>1.040662876163918</v>
       </c>
       <c r="ADZ3">
-        <v>1.040822709853165</v>
+        <v>1.041063214719139</v>
       </c>
       <c r="AEA3">
-        <v>1.041182815814509</v>
+        <v>1.041356786241663</v>
       </c>
       <c r="AEB3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="AEC3">
-        <v>1.041515239212454</v>
+        <v>1.041577863732801</v>
       </c>
       <c r="AED3">
-        <v>1.041492023041473</v>
+        <v>1.041553527237616</v>
       </c>
       <c r="AEE3">
-        <v>1.040139908698981</v>
+        <v>1.040756584735499</v>
       </c>
       <c r="AEF3">
-        <v>1.040090938758682</v>
+        <v>1.040737072826795</v>
       </c>
       <c r="AEG3">
-        <v>1.0401259067504</v>
+        <v>1.040750330931428</v>
       </c>
       <c r="AEH3">
-        <v>1.040488918732537</v>
+        <v>1.040661405519955</v>
       </c>
       <c r="AEI3">
-        <v>1.04081952759086</v>
+        <v>1.041053670270586</v>
       </c>
       <c r="AEJ3">
-        <v>1.041182304419992</v>
+        <v>1.041356463659013</v>
       </c>
       <c r="AEK3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="AEL3">
-        <v>1.041513466432909</v>
+        <v>1.041576499011342</v>
       </c>
       <c r="AEM3">
-        <v>1.041485896437948</v>
+        <v>1.041547550107995</v>
       </c>
       <c r="AEN3">
-        <v>1.040135953719383</v>
+        <v>1.04075555912007</v>
       </c>
       <c r="AEO3">
-        <v>1.040061619298707</v>
+        <v>1.040725956356002</v>
       </c>
       <c r="AEP3">
-        <v>1.040090938758682</v>
+        <v>1.040737072826795</v>
       </c>
       <c r="AEQ3">
-        <v>1.040488667047552</v>
+        <v>1.040659146711322</v>
       </c>
       <c r="AER3">
-        <v>1.041181824334123</v>
+        <v>1.041356160825553</v>
       </c>
       <c r="AES3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="AET3">
-        <v>1.041511663406956</v>
+        <v>1.041575111005768</v>
       </c>
       <c r="AEU3">
-        <v>1.040132022681702</v>
+        <v>1.04075453971332</v>
       </c>
       <c r="AEV3">
-        <v>1.040030101642425</v>
+        <v>1.040714006433718</v>
       </c>
       <c r="AEW3">
-        <v>1.040061619298707</v>
+        <v>1.040725956356002</v>
       </c>
       <c r="AEX3">
-        <v>1.040486596874899</v>
+        <v>1.040640567440024</v>
       </c>
       <c r="AEY3">
-        <v>1.04118113837125</v>
+        <v>1.041355728126903</v>
       </c>
       <c r="AEZ3">
-        <v>1.0413497257166</v>
+        <v>1.041476526105374</v>
       </c>
       <c r="AFA3">
-        <v>1.041510098701464</v>
+        <v>1.041573906464215</v>
       </c>
       <c r="AFB3">
-        <v>1.040128076704187</v>
+        <v>1.040753516432334</v>
       </c>
       <c r="AFC3">
-        <v>1.040004224545171</v>
+        <v>1.040704195125615</v>
       </c>
       <c r="AFD3">
-        <v>1.040030101642425</v>
+        <v>1.040714006433718</v>
       </c>
       <c r="AFE3">
-        <v>1.040479462124575</v>
+        <v>1.040576534889738</v>
       </c>
       <c r="AFF3">
-        <v>1.041173897567621</v>
+        <v>1.041351160699427</v>
       </c>
       <c r="AFG3">
-        <v>1.041508974906395</v>
+        <v>1.041573041344399</v>
       </c>
       <c r="AFH3">
-        <v>1.040124133408243</v>
+        <v>1.040752493846739</v>
       </c>
       <c r="AFI3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607829</v>
       </c>
       <c r="AFJ3">
-        <v>1.040004224545171</v>
+        <v>1.040704195125615</v>
       </c>
       <c r="AFK3">
-        <v>1.041171001428861</v>
+        <v>1.04134933384388</v>
       </c>
       <c r="AFL3">
-        <v>1.041507670178537</v>
+        <v>1.041572036939009</v>
       </c>
       <c r="AFM3">
-        <v>1.040120187622529</v>
+        <v>1.040751470615491</v>
       </c>
       <c r="AFN3">
-        <v>1.039829867006375</v>
+        <v>1.040638089401999</v>
       </c>
       <c r="AFO3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607829</v>
       </c>
       <c r="AFP3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607829</v>
       </c>
       <c r="AFQ3">
-        <v>1.041169530774758</v>
+        <v>1.041348406169933</v>
       </c>
       <c r="AFR3">
-        <v>1.041505704589035</v>
+        <v>1.041570523789395</v>
       </c>
       <c r="AFS3">
-        <v>1.040118261559638</v>
+        <v>1.040750971143933</v>
       </c>
       <c r="AFT3">
-        <v>1.03980842256912</v>
+        <v>1.040629959026852</v>
       </c>
       <c r="AFU3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AFV3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607829</v>
       </c>
       <c r="AFW3">
-        <v>1.041169205347495</v>
+        <v>1.041348200893663</v>
       </c>
       <c r="AFX3">
-        <v>1.041502493213719</v>
+        <v>1.041568051609722</v>
       </c>
       <c r="AFY3">
-        <v>1.040074973026994</v>
+        <v>1.040739745450853</v>
       </c>
       <c r="AFZ3">
-        <v>1.039748008761664</v>
+        <v>1.040607053927143</v>
       </c>
       <c r="AGA3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AGB3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AGC3">
-        <v>1.041168949057569</v>
+        <v>1.041348039228537</v>
       </c>
       <c r="AGD3">
-        <v>1.041482547051223</v>
+        <v>1.041558978444933</v>
       </c>
       <c r="AGE3">
-        <v>1.041486987737784</v>
+        <v>1.041539388121438</v>
       </c>
       <c r="AGF3">
-        <v>1.040046823320685</v>
+        <v>1.040732445596944</v>
       </c>
       <c r="AGG3">
-        <v>1.039677067815969</v>
+        <v>1.040580157596747</v>
       </c>
       <c r="AGH3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AGI3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AGJ3">
-        <v>1.041168674459697</v>
+        <v>1.041347866014942</v>
       </c>
       <c r="AGK3">
-        <v>1.040022203581251</v>
+        <v>1.04072606114307</v>
       </c>
       <c r="AGL3">
-        <v>1.039667865244949</v>
+        <v>1.040576668562096</v>
       </c>
       <c r="AGM3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607827</v>
       </c>
       <c r="AGN3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607828</v>
       </c>
       <c r="AGO3">
-        <v>1.04116845476134</v>
+        <v>1.041347727431414</v>
       </c>
       <c r="AGP3">
-        <v>1.039996379095614</v>
+        <v>1.04071936427131</v>
       </c>
       <c r="AGQ3">
-        <v>1.03965831795844</v>
+        <v>1.040575077268686</v>
       </c>
       <c r="AGR3">
-        <v>1.039663371460009</v>
+        <v>1.040570451757176</v>
       </c>
       <c r="AGS3">
-        <v>1.039976442648021</v>
+        <v>1.040693661607827</v>
       </c>
       <c r="AGT3">
-        <v>1.03997644264802</v>
+        <v>1.040693661607827</v>
       </c>
       <c r="AGU3">
-        <v>1.041168241443248</v>
+        <v>1.041347592872493</v>
       </c>
       <c r="AGV3">
-        <v>1.039952284214103</v>
+        <v>1.040707929473664</v>
       </c>
       <c r="AGW3">
-        <v>1.039649483599407</v>
+        <v>1.040573604802373</v>
       </c>
       <c r="AGX3">
-        <v>1.03965285479342</v>
+        <v>1.040555902760141</v>
       </c>
       <c r="AGY3">
-        <v>1.039976442648021</v>
+        <v>1.040693661607827</v>
       </c>
       <c r="AGZ3">
-        <v>1.039976442648021</v>
+        <v>1.040693661607827</v>
       </c>
       <c r="AHA3">
-        <v>1.041168028666215</v>
+        <v>1.041347458654867</v>
       </c>
       <c r="AHB3">
-        <v>1.03994146869103</v>
+        <v>1.040705124764505</v>
       </c>
       <c r="AHC3">
-        <v>1.039636050182387</v>
+        <v>1.040571365788227</v>
       </c>
       <c r="AHD3">
-        <v>1.039627906117375</v>
+        <v>1.040521388192252</v>
       </c>
       <c r="AHE3">
-        <v>1.041167818378685</v>
+        <v>1.041347326007596</v>
       </c>
       <c r="AHF3">
-        <v>1.039931899429282</v>
+        <v>1.040703924795878</v>
       </c>
       <c r="AHG3">
-        <v>1.039932389059792</v>
+        <v>1.040697835146617</v>
       </c>
       <c r="AHH3">
-        <v>1.039619074017116</v>
+        <v>1.040568536286526</v>
       </c>
       <c r="AHI3">
-        <v>1.041164058000839</v>
+        <v>1.041344953998958</v>
       </c>
       <c r="AHJ3">
-        <v>1.03991618748708</v>
+        <v>1.040701954545792</v>
       </c>
       <c r="AHK3">
-        <v>1.039924688311226</v>
+        <v>1.040691652570361</v>
       </c>
       <c r="AHL3">
-        <v>1.039552986146354</v>
+        <v>1.040557521091505</v>
       </c>
       <c r="AHM3">
-        <v>1.041163828898777</v>
+        <v>1.041344724936685</v>
       </c>
       <c r="AHN3">
-        <v>1.041154280794919</v>
+        <v>1.041338833935835</v>
       </c>
       <c r="AHO3">
-        <v>1.039913080891439</v>
+        <v>1.040701564984113</v>
       </c>
       <c r="AHP3">
-        <v>1.039911744934609</v>
+        <v>1.040681260930019</v>
       </c>
       <c r="AHQ3">
-        <v>1.039432933236503</v>
+        <v>1.040537511267457</v>
       </c>
       <c r="AHR3">
-        <v>1.041163676753563</v>
+        <v>1.041344572817892</v>
       </c>
       <c r="AHS3">
-        <v>1.039910455885063</v>
+        <v>1.040701235812884</v>
       </c>
       <c r="AHT3">
-        <v>1.03990824380095</v>
+        <v>1.040700958421385</v>
       </c>
       <c r="AHU3">
-        <v>1.039905366248419</v>
+        <v>1.040700597581298</v>
       </c>
       <c r="AHV3">
-        <v>1.039900158326619</v>
+        <v>1.040699944516945</v>
       </c>
       <c r="AHW3">
-        <v>1.03989112872314</v>
+        <v>1.040698812220305</v>
       </c>
       <c r="AHX3">
-        <v>1.039817166786931</v>
+        <v>1.040689537519842</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -5829,2722 +5829,2722 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.0495771896073</v>
+        <v>1.049596908392218</v>
       </c>
       <c r="D3">
-        <v>1.049491857841165</v>
+        <v>1.049522374722946</v>
       </c>
       <c r="E3">
-        <v>1.049482911994641</v>
+        <v>1.049514560907048</v>
       </c>
       <c r="F3">
-        <v>1.049474531140715</v>
+        <v>1.049507240588228</v>
       </c>
       <c r="G3">
-        <v>1.049467224239211</v>
+        <v>1.04950085832118</v>
       </c>
       <c r="H3">
-        <v>1.049455712999793</v>
+        <v>1.049490803744315</v>
       </c>
       <c r="I3">
-        <v>1.048671850074544</v>
+        <v>1.048806133376929</v>
       </c>
       <c r="J3">
-        <v>1.048636742059027</v>
+        <v>1.048775468065702</v>
       </c>
       <c r="K3">
-        <v>1.048607520999297</v>
+        <v>1.048749944753518</v>
       </c>
       <c r="L3">
-        <v>1.048581877188893</v>
+        <v>1.048727546012576</v>
       </c>
       <c r="M3">
-        <v>1.048562742058481</v>
+        <v>1.04871083231811</v>
       </c>
       <c r="N3">
-        <v>1.048544778879585</v>
+        <v>1.048695142272237</v>
       </c>
       <c r="O3">
-        <v>1.048533733164844</v>
+        <v>1.048685494326985</v>
       </c>
       <c r="P3">
-        <v>1.048506234284979</v>
+        <v>1.04866147526759</v>
       </c>
       <c r="Q3">
-        <v>1.048283470383155</v>
+        <v>1.0484669008618</v>
       </c>
       <c r="R3">
-        <v>1.048283470383157</v>
+        <v>1.048466900861801</v>
       </c>
       <c r="S3">
-        <v>1.048013331121936</v>
+        <v>1.048230946279521</v>
       </c>
       <c r="T3">
-        <v>1.048283470383158</v>
+        <v>1.048466900861801</v>
       </c>
       <c r="U3">
-        <v>1.047994743895104</v>
+        <v>1.048214711170982</v>
       </c>
       <c r="V3">
-        <v>1.048283470383158</v>
+        <v>1.048466900861801</v>
       </c>
       <c r="W3">
-        <v>1.047973872609164</v>
+        <v>1.048196481039943</v>
       </c>
       <c r="X3">
-        <v>1.048283470383159</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="Y3">
-        <v>1.04793988993315</v>
+        <v>1.048166798699881</v>
       </c>
       <c r="Z3">
-        <v>1.048283470383159</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AA3">
-        <v>1.047878067220521</v>
+        <v>1.048112799343738</v>
       </c>
       <c r="AB3">
-        <v>1.048283470383158</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AC3">
-        <v>1.047832984948002</v>
+        <v>1.048101182935272</v>
       </c>
       <c r="AD3">
-        <v>1.047133327132217</v>
+        <v>1.047444184912583</v>
       </c>
       <c r="AE3">
-        <v>1.048283470383158</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AF3">
-        <v>1.047826640800999</v>
+        <v>1.048101034044753</v>
       </c>
       <c r="AG3">
-        <v>1.047827067313972</v>
+        <v>1.048098210509195</v>
       </c>
       <c r="AH3">
-        <v>1.046935065544525</v>
+        <v>1.047266189288804</v>
       </c>
       <c r="AI3">
-        <v>1.048283470383157</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AJ3">
-        <v>1.047812112264165</v>
+        <v>1.048100693088554</v>
       </c>
       <c r="AK3">
-        <v>1.047826866912785</v>
+        <v>1.04809810984773</v>
       </c>
       <c r="AL3">
-        <v>1.046881816198114</v>
+        <v>1.047244364989844</v>
       </c>
       <c r="AM3">
-        <v>1.04636451305152</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="AN3">
-        <v>1.048283470383155</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AO3">
-        <v>1.047826578772121</v>
+        <v>1.048097965114748</v>
       </c>
       <c r="AP3">
-        <v>1.046878840273917</v>
+        <v>1.047243584088569</v>
       </c>
       <c r="AQ3">
-        <v>1.046878457036958</v>
+        <v>1.047241006991562</v>
       </c>
       <c r="AR3">
-        <v>1.045968587822822</v>
+        <v>1.046374585717092</v>
       </c>
       <c r="AS3">
-        <v>1.046364513051518</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="AT3">
-        <v>1.048283470383155</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="AU3">
-        <v>1.047826209251388</v>
+        <v>1.048097779504577</v>
       </c>
       <c r="AV3">
-        <v>1.046877498935847</v>
+        <v>1.047243232112997</v>
       </c>
       <c r="AW3">
-        <v>1.04687037425932</v>
+        <v>1.047232927012021</v>
       </c>
       <c r="AX3">
-        <v>1.045669404315138</v>
+        <v>1.046098580512975</v>
       </c>
       <c r="AY3">
-        <v>1.046364513051517</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="AZ3">
-        <v>1.048283470383154</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="BA3">
-        <v>1.047825309301967</v>
+        <v>1.048097327460213</v>
       </c>
       <c r="BB3">
-        <v>1.046876077404648</v>
+        <v>1.047242859094241</v>
       </c>
       <c r="BC3">
-        <v>1.045626268091536</v>
+        <v>1.046058786141163</v>
       </c>
       <c r="BD3">
-        <v>1.045669404315137</v>
+        <v>1.046098580512976</v>
       </c>
       <c r="BE3">
-        <v>1.046364513051516</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="BF3">
-        <v>1.048283470383153</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="BG3">
-        <v>1.047824538780952</v>
+        <v>1.048096940427703</v>
       </c>
       <c r="BH3">
-        <v>1.046874723494567</v>
+        <v>1.047242503819692</v>
       </c>
       <c r="BI3">
-        <v>1.045430872428029</v>
+        <v>1.045878528206726</v>
       </c>
       <c r="BJ3">
-        <v>1.045669404315137</v>
+        <v>1.046098580512977</v>
       </c>
       <c r="BK3">
-        <v>1.046364513051516</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="BL3">
-        <v>1.048283470383151</v>
+        <v>1.048466900861802</v>
       </c>
       <c r="BM3">
-        <v>1.047820845179482</v>
+        <v>1.048095085132632</v>
       </c>
       <c r="BN3">
-        <v>1.046873912636348</v>
+        <v>1.047242291045376</v>
       </c>
       <c r="BO3">
-        <v>1.045392873192074</v>
+        <v>1.045844321714639</v>
       </c>
       <c r="BP3">
-        <v>1.045365539674666</v>
+        <v>1.045785932507483</v>
       </c>
       <c r="BQ3">
-        <v>1.045669404315137</v>
+        <v>1.046098580512977</v>
       </c>
       <c r="BR3">
-        <v>1.046364513051515</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="BS3">
-        <v>1.04828347038315</v>
+        <v>1.048466900861803</v>
       </c>
       <c r="BT3">
-        <v>1.047807789564496</v>
+        <v>1.048088527300635</v>
       </c>
       <c r="BU3">
-        <v>1.046872321792065</v>
+        <v>1.047241873597794</v>
       </c>
       <c r="BV3">
-        <v>1.044943926275655</v>
+        <v>1.045440184850509</v>
       </c>
       <c r="BW3">
-        <v>1.045357684981896</v>
+        <v>1.045763239215557</v>
       </c>
       <c r="BX3">
-        <v>1.045341460172344</v>
+        <v>1.045763365665644</v>
       </c>
       <c r="BY3">
-        <v>1.045669404315137</v>
+        <v>1.046098580512977</v>
       </c>
       <c r="BZ3">
-        <v>1.046364513051514</v>
+        <v>1.046739838033822</v>
       </c>
       <c r="CA3">
-        <v>1.048283470383145</v>
+        <v>1.048466900861804</v>
       </c>
       <c r="CB3">
-        <v>1.046864259332491</v>
+        <v>1.047239757957459</v>
       </c>
       <c r="CC3">
-        <v>1.044787434972075</v>
+        <v>1.045299313255049</v>
       </c>
       <c r="CD3">
-        <v>1.045669404315136</v>
+        <v>1.046098580512976</v>
       </c>
       <c r="CE3">
-        <v>1.046364513051509</v>
+        <v>1.046739838033821</v>
       </c>
       <c r="CF3">
-        <v>1.048283470383138</v>
+        <v>1.048466900861807</v>
       </c>
       <c r="CG3">
-        <v>1.046833878191195</v>
+        <v>1.047231785753387</v>
       </c>
       <c r="CH3">
-        <v>1.044753283445655</v>
+        <v>1.045268570465934</v>
       </c>
       <c r="CI3">
-        <v>1.045669404315136</v>
+        <v>1.046098580512976</v>
       </c>
       <c r="CJ3">
-        <v>1.046364513051501</v>
+        <v>1.046739838033818</v>
       </c>
       <c r="CK3">
-        <v>1.048283470383134</v>
+        <v>1.048466900861808</v>
       </c>
       <c r="CL3">
-        <v>1.044684029537461</v>
+        <v>1.045206228945383</v>
       </c>
       <c r="CM3">
-        <v>1.045669404315136</v>
+        <v>1.046098580512976</v>
       </c>
       <c r="CN3">
-        <v>1.046364513051499</v>
+        <v>1.046739838033818</v>
       </c>
       <c r="CO3">
-        <v>1.048283470383132</v>
+        <v>1.048466900861809</v>
       </c>
       <c r="CP3">
-        <v>1.044618719883715</v>
+        <v>1.045147438001919</v>
       </c>
       <c r="CQ3">
-        <v>1.046364513051498</v>
+        <v>1.046739838033817</v>
       </c>
       <c r="CR3">
-        <v>1.048283470383132</v>
+        <v>1.048466900861809</v>
       </c>
       <c r="CS3">
-        <v>1.044580759470174</v>
+        <v>1.045113266509962</v>
       </c>
       <c r="CT3">
-        <v>1.046364513051498</v>
+        <v>1.046739838033817</v>
       </c>
       <c r="CU3">
-        <v>1.048283470383132</v>
+        <v>1.048466900861809</v>
       </c>
       <c r="CV3">
-        <v>1.044555689452137</v>
+        <v>1.045090698793001</v>
       </c>
       <c r="CW3">
-        <v>1.046364513051498</v>
+        <v>1.046739838033817</v>
       </c>
       <c r="CX3">
-        <v>1.048283470383132</v>
+        <v>1.048466900861809</v>
       </c>
       <c r="CY3">
-        <v>1.04452107475064</v>
+        <v>1.045059539073028</v>
       </c>
       <c r="CZ3">
-        <v>1.046364513051496</v>
+        <v>1.046739838033831</v>
       </c>
       <c r="DA3">
-        <v>1.048283470383132</v>
+        <v>1.048466900861809</v>
       </c>
       <c r="DB3">
-        <v>1.044520632363331</v>
+        <v>1.045058960829147</v>
       </c>
       <c r="DC3">
-        <v>1.044500780731477</v>
+        <v>1.04504231947389</v>
       </c>
       <c r="DD3">
-        <v>1.046364513051496</v>
+        <v>1.046739838033832</v>
       </c>
       <c r="DE3">
-        <v>1.044520097135845</v>
+        <v>1.04505826123405</v>
       </c>
       <c r="DF3">
-        <v>1.044489273017013</v>
+        <v>1.0450325551087</v>
       </c>
       <c r="DG3">
-        <v>1.046364513051495</v>
+        <v>1.046739838033833</v>
       </c>
       <c r="DH3">
-        <v>1.0445194767692</v>
+        <v>1.045057450353755</v>
       </c>
       <c r="DI3">
-        <v>1.044035209747775</v>
+        <v>1.044647280132737</v>
       </c>
       <c r="DJ3">
-        <v>1.046364513051486</v>
+        <v>1.046739838033858</v>
       </c>
       <c r="DK3">
-        <v>1.044518530894482</v>
+        <v>1.045056214002516</v>
       </c>
       <c r="DL3">
-        <v>1.043989722542317</v>
+        <v>1.044608684057577</v>
       </c>
       <c r="DM3">
-        <v>1.046364513051478</v>
+        <v>1.046739838033879</v>
       </c>
       <c r="DN3">
-        <v>1.044517314845098</v>
+        <v>1.045054624506721</v>
       </c>
       <c r="DO3">
-        <v>1.043988568336588</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="DP3">
-        <v>1.043862433451585</v>
+        <v>1.044510344255779</v>
       </c>
       <c r="DQ3">
-        <v>1.046364513051477</v>
+        <v>1.046739838033881</v>
       </c>
       <c r="DR3">
-        <v>1.044516441838333</v>
+        <v>1.04505348340147</v>
       </c>
       <c r="DS3">
-        <v>1.043988568336587</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="DT3">
-        <v>1.043988006361022</v>
+        <v>1.044605741329767</v>
       </c>
       <c r="DU3">
-        <v>1.043632884111517</v>
+        <v>1.044333001258257</v>
       </c>
       <c r="DV3">
-        <v>1.046364513051476</v>
+        <v>1.046739838033883</v>
       </c>
       <c r="DW3">
-        <v>1.044515208286911</v>
+        <v>1.045051871029366</v>
       </c>
       <c r="DX3">
-        <v>1.043988568336587</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="DY3">
-        <v>1.043985366390104</v>
+        <v>1.044601214588201</v>
       </c>
       <c r="DZ3">
-        <v>1.043529655856883</v>
+        <v>1.04425325020224</v>
       </c>
       <c r="EA3">
-        <v>1.046364513051476</v>
+        <v>1.046739838033884</v>
       </c>
       <c r="EB3">
-        <v>1.044513873673867</v>
+        <v>1.045050126560237</v>
       </c>
       <c r="EC3">
-        <v>1.043988568336587</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="ED3">
-        <v>1.043970985435219</v>
+        <v>1.044593964339186</v>
       </c>
       <c r="EE3">
-        <v>1.043980129795119</v>
+        <v>1.044589585512059</v>
       </c>
       <c r="EF3">
-        <v>1.043498942613017</v>
+        <v>1.044229522073475</v>
       </c>
       <c r="EG3">
-        <v>1.046364513051474</v>
+        <v>1.046739838033888</v>
       </c>
       <c r="EH3">
-        <v>1.04451261502722</v>
+        <v>1.045048481386939</v>
       </c>
       <c r="EI3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="EJ3">
-        <v>1.043969746953928</v>
+        <v>1.04459333995109</v>
       </c>
       <c r="EK3">
-        <v>1.043976234056032</v>
+        <v>1.044580934144584</v>
       </c>
       <c r="EL3">
-        <v>1.043464273437445</v>
+        <v>1.044202737712491</v>
       </c>
       <c r="EM3">
-        <v>1.046364513051473</v>
+        <v>1.04673983803389</v>
       </c>
       <c r="EN3">
-        <v>1.044510545613089</v>
+        <v>1.045045776462628</v>
       </c>
       <c r="EO3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="EP3">
-        <v>1.043968531768516</v>
+        <v>1.044592727307764</v>
       </c>
       <c r="EQ3">
-        <v>1.043973625180436</v>
+        <v>1.04457514056045</v>
       </c>
       <c r="ER3">
-        <v>1.043431667710874</v>
+        <v>1.044177547511687</v>
       </c>
       <c r="ES3">
-        <v>1.046364513051473</v>
+        <v>1.046739838033891</v>
       </c>
       <c r="ET3">
-        <v>1.04450070603171</v>
+        <v>1.045032915191525</v>
       </c>
       <c r="EU3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="EV3">
-        <v>1.043967550557769</v>
+        <v>1.044592232624234</v>
       </c>
       <c r="EW3">
-        <v>1.043972594037252</v>
+        <v>1.044573581927499</v>
       </c>
       <c r="EX3">
-        <v>1.043944432847361</v>
+        <v>1.04449669636226</v>
       </c>
       <c r="EY3">
-        <v>1.04339362305354</v>
+        <v>1.044148155359027</v>
       </c>
       <c r="EZ3">
-        <v>1.046364513051473</v>
+        <v>1.046739838033891</v>
       </c>
       <c r="FA3">
-        <v>1.044498562536893</v>
+        <v>1.045030113442238</v>
       </c>
       <c r="FB3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="FC3">
-        <v>1.043966077838401</v>
+        <v>1.044591490143571</v>
       </c>
       <c r="FD3">
-        <v>1.043969859387072</v>
+        <v>1.044569448346739</v>
       </c>
       <c r="FE3">
-        <v>1.043942656014484</v>
+        <v>1.044491921745255</v>
       </c>
       <c r="FF3">
-        <v>1.043382675900899</v>
+        <v>1.044139697920084</v>
       </c>
       <c r="FG3">
-        <v>1.046364513051473</v>
+        <v>1.046739838033891</v>
       </c>
       <c r="FH3">
-        <v>1.044408816050822</v>
+        <v>1.045007690456715</v>
       </c>
       <c r="FI3">
-        <v>1.044493581956187</v>
+        <v>1.045020298636571</v>
       </c>
       <c r="FJ3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946348</v>
       </c>
       <c r="FK3">
-        <v>1.043964302310658</v>
+        <v>1.04459059500019</v>
       </c>
       <c r="FL3">
-        <v>1.043968909494606</v>
+        <v>1.044568012530481</v>
       </c>
       <c r="FM3">
-        <v>1.043941032783554</v>
+        <v>1.044487559879837</v>
       </c>
       <c r="FN3">
-        <v>1.043320483372026</v>
+        <v>1.044091649857168</v>
       </c>
       <c r="FO3">
-        <v>1.046364513051473</v>
+        <v>1.046739838033891</v>
       </c>
       <c r="FP3">
-        <v>1.044391861427718</v>
+        <v>1.045003454376058</v>
       </c>
       <c r="FQ3">
-        <v>1.044486969727891</v>
+        <v>1.045007268522417</v>
       </c>
       <c r="FR3">
-        <v>1.043988568336586</v>
+        <v>1.044606704946349</v>
       </c>
       <c r="FS3">
-        <v>1.04396296093626</v>
+        <v>1.044589918737935</v>
       </c>
       <c r="FT3">
-        <v>1.0439689094946</v>
+        <v>1.044568012530472</v>
       </c>
       <c r="FU3">
-        <v>1.04395322682304</v>
+        <v>1.044544305609078</v>
       </c>
       <c r="FV3">
-        <v>1.043940358471137</v>
+        <v>1.044485747901068</v>
       </c>
       <c r="FW3">
-        <v>1.043285356658639</v>
+        <v>1.044064512025532</v>
       </c>
       <c r="FX3">
-        <v>1.044356880628871</v>
+        <v>1.04499471448838</v>
       </c>
       <c r="FY3">
-        <v>1.0444861973065</v>
+        <v>1.04500638000271</v>
       </c>
       <c r="FZ3">
-        <v>1.044477937631582</v>
+        <v>1.044972678019987</v>
       </c>
       <c r="GA3">
-        <v>1.043988568336586</v>
+        <v>1.04460670494635</v>
       </c>
       <c r="GB3">
-        <v>1.043961408732584</v>
+        <v>1.044589136184799</v>
       </c>
       <c r="GC3">
-        <v>1.043968909494599</v>
+        <v>1.04456801253047</v>
       </c>
       <c r="GD3">
-        <v>1.043951533079629</v>
+        <v>1.044541745239134</v>
       </c>
       <c r="GE3">
-        <v>1.043938904998693</v>
+        <v>1.044481842202289</v>
       </c>
       <c r="GF3">
-        <v>1.043259281132548</v>
+        <v>1.044044366867411</v>
       </c>
       <c r="GG3">
-        <v>1.044483157624052</v>
+        <v>1.045002883443235</v>
       </c>
       <c r="GH3">
-        <v>1.044440555704626</v>
+        <v>1.044829515334879</v>
       </c>
       <c r="GI3">
-        <v>1.043988568336586</v>
+        <v>1.04460670494635</v>
       </c>
       <c r="GJ3">
-        <v>1.043959949260599</v>
+        <v>1.044588400382932</v>
       </c>
       <c r="GK3">
-        <v>1.043968909494599</v>
+        <v>1.04456801253047</v>
       </c>
       <c r="GL3">
-        <v>1.043968909494598</v>
+        <v>1.044568012530469</v>
       </c>
       <c r="GM3">
-        <v>1.043949894763661</v>
+        <v>1.044539268656839</v>
       </c>
       <c r="GN3">
-        <v>1.043935203021944</v>
+        <v>1.044471894434946</v>
       </c>
       <c r="GO3">
-        <v>1.043235838020679</v>
+        <v>1.044026255433287</v>
       </c>
       <c r="GP3">
-        <v>1.044477730428623</v>
+        <v>1.044996640519734</v>
       </c>
       <c r="GQ3">
-        <v>1.044436902239699</v>
+        <v>1.044825863223887</v>
       </c>
       <c r="GR3">
-        <v>1.044438444629418</v>
+        <v>1.044815454640991</v>
       </c>
       <c r="GS3">
-        <v>1.043988568336586</v>
+        <v>1.04460670494635</v>
       </c>
       <c r="GT3">
-        <v>1.04395837895459</v>
+        <v>1.044587608703415</v>
       </c>
       <c r="GU3">
-        <v>1.043968909494599</v>
+        <v>1.04456801253047</v>
       </c>
       <c r="GV3">
-        <v>1.043968909494598</v>
+        <v>1.044568012530468</v>
       </c>
       <c r="GW3">
-        <v>1.043948584275078</v>
+        <v>1.044537287639214</v>
       </c>
       <c r="GX3">
-        <v>1.043933031090875</v>
+        <v>1.044466058130229</v>
       </c>
       <c r="GY3">
-        <v>1.043206715023177</v>
+        <v>1.044003755893671</v>
       </c>
       <c r="GZ3">
-        <v>1.044465555214698</v>
+        <v>1.044990370855199</v>
       </c>
       <c r="HA3">
-        <v>1.044476984605259</v>
+        <v>1.044995383970577</v>
       </c>
       <c r="HB3">
-        <v>1.044427665377574</v>
+        <v>1.044816629784846</v>
       </c>
       <c r="HC3">
-        <v>1.04443814622684</v>
+        <v>1.044813467148018</v>
       </c>
       <c r="HD3">
-        <v>1.043988568336586</v>
+        <v>1.04460670494635</v>
       </c>
       <c r="HE3">
-        <v>1.043955978428014</v>
+        <v>1.044586398463073</v>
       </c>
       <c r="HF3">
-        <v>1.043968909494598</v>
+        <v>1.044568012530467</v>
       </c>
       <c r="HG3">
-        <v>1.043947540367602</v>
+        <v>1.044535709602496</v>
       </c>
       <c r="HH3">
-        <v>1.043931509863057</v>
+        <v>1.044461970362871</v>
       </c>
       <c r="HI3">
-        <v>1.043152973382337</v>
+        <v>1.043962236744379</v>
       </c>
       <c r="HJ3">
-        <v>1.04442570411622</v>
+        <v>1.044969849408397</v>
       </c>
       <c r="HK3">
-        <v>1.044475638522498</v>
+        <v>1.04499311611659</v>
       </c>
       <c r="HL3">
-        <v>1.044437905573603</v>
+        <v>1.044811864291174</v>
       </c>
       <c r="HM3">
-        <v>1.043988568336586</v>
+        <v>1.04460670494635</v>
       </c>
       <c r="HN3">
-        <v>1.043949422847511</v>
+        <v>1.044583093426711</v>
       </c>
       <c r="HO3">
-        <v>1.043968909494597</v>
+        <v>1.044568012530467</v>
       </c>
       <c r="HP3">
-        <v>1.043945333380002</v>
+        <v>1.044532373380145</v>
       </c>
       <c r="HQ3">
-        <v>1.043928583632995</v>
+        <v>1.044454107143868</v>
       </c>
       <c r="HR3">
-        <v>1.043106119196033</v>
+        <v>1.043926038635459</v>
       </c>
       <c r="HS3">
-        <v>1.044408524972626</v>
+        <v>1.044961002955645</v>
       </c>
       <c r="HT3">
-        <v>1.044475157896042</v>
+        <v>1.044992306366787</v>
       </c>
       <c r="HU3">
-        <v>1.044437713256051</v>
+        <v>1.044810583371348</v>
       </c>
       <c r="HV3">
-        <v>1.043948863897602</v>
+        <v>1.044582811628675</v>
       </c>
       <c r="HW3">
-        <v>1.043968909494597</v>
+        <v>1.044568012530466</v>
       </c>
       <c r="HX3">
-        <v>1.043943595324666</v>
+        <v>1.044529746025544</v>
       </c>
       <c r="HY3">
-        <v>1.043927127145604</v>
+        <v>1.044450193343909</v>
       </c>
       <c r="HZ3">
-        <v>1.043074246790363</v>
+        <v>1.043901414993132</v>
       </c>
       <c r="IA3">
-        <v>1.044421567570299</v>
+        <v>1.044901985636217</v>
       </c>
       <c r="IB3">
-        <v>1.044475157896042</v>
+        <v>1.044992306366787</v>
       </c>
       <c r="IC3">
-        <v>1.044437419681466</v>
+        <v>1.044808628034992</v>
       </c>
       <c r="ID3">
-        <v>1.043948605723876</v>
+        <v>1.044582681468804</v>
       </c>
       <c r="IE3">
-        <v>1.043968909494596</v>
+        <v>1.044568012530465</v>
       </c>
       <c r="IF3">
-        <v>1.043942389722868</v>
+        <v>1.044527923561465</v>
       </c>
       <c r="IG3">
-        <v>1.043926092949624</v>
+        <v>1.044447414304312</v>
       </c>
       <c r="IH3">
-        <v>1.043053309349302</v>
+        <v>1.043885239369642</v>
       </c>
       <c r="II3">
-        <v>1.044413785082805</v>
+        <v>1.044888869092073</v>
       </c>
       <c r="IJ3">
-        <v>1.044437075552903</v>
+        <v>1.04480633598683</v>
       </c>
       <c r="IK3">
-        <v>1.043948329575826</v>
+        <v>1.044582542247066</v>
       </c>
       <c r="IL3">
-        <v>1.043968909494596</v>
+        <v>1.044568012530465</v>
       </c>
       <c r="IM3">
-        <v>1.043941186993158</v>
+        <v>1.044526105439022</v>
       </c>
       <c r="IN3">
-        <v>1.043914262189785</v>
+        <v>1.044415623281417</v>
       </c>
       <c r="IO3">
-        <v>1.043008248410959</v>
+        <v>1.043850426675743</v>
       </c>
       <c r="IP3">
-        <v>1.04440340481449</v>
+        <v>1.044858487528798</v>
       </c>
       <c r="IQ3">
-        <v>1.044400277251245</v>
+        <v>1.044878989838897</v>
       </c>
       <c r="IR3">
-        <v>1.044436546991867</v>
+        <v>1.044802815537032</v>
       </c>
       <c r="IS3">
-        <v>1.043948065704203</v>
+        <v>1.044582409214565</v>
       </c>
       <c r="IT3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530465</v>
       </c>
       <c r="IU3">
-        <v>1.043939427453229</v>
+        <v>1.044523445606981</v>
       </c>
       <c r="IV3">
-        <v>1.043910773492501</v>
+        <v>1.044406248630193</v>
       </c>
       <c r="IW3">
-        <v>1.042977558894404</v>
+        <v>1.043846033368392</v>
       </c>
       <c r="IX3">
-        <v>1.042979792070095</v>
+        <v>1.043827578613432</v>
       </c>
       <c r="IY3">
-        <v>1.044434612818324</v>
+        <v>1.044789933088012</v>
       </c>
       <c r="IZ3">
-        <v>1.043947771739905</v>
+        <v>1.044582261010658</v>
       </c>
       <c r="JA3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530464</v>
       </c>
       <c r="JB3">
-        <v>1.043932809735996</v>
+        <v>1.044513441846432</v>
       </c>
       <c r="JC3">
-        <v>1.043909992967339</v>
+        <v>1.044404151242424</v>
       </c>
       <c r="JD3">
-        <v>1.042973316532053</v>
+        <v>1.043845426059936</v>
       </c>
       <c r="JE3">
-        <v>1.042873084940936</v>
+        <v>1.043741901725221</v>
       </c>
       <c r="JF3">
-        <v>1.044425199194724</v>
+        <v>1.044727234213469</v>
       </c>
       <c r="JG3">
-        <v>1.043947164956382</v>
+        <v>1.044581955097017</v>
       </c>
       <c r="JH3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530464</v>
       </c>
       <c r="JI3">
-        <v>1.043931265154381</v>
+        <v>1.044511106959053</v>
       </c>
       <c r="JJ3">
-        <v>1.043897094120844</v>
+        <v>1.044364828879644</v>
       </c>
       <c r="JK3">
-        <v>1.043909760462329</v>
+        <v>1.044403686492017</v>
       </c>
       <c r="JL3">
-        <v>1.0429713661622</v>
+        <v>1.043845146857922</v>
       </c>
       <c r="JM3">
-        <v>1.042856801127054</v>
+        <v>1.043733965069077</v>
       </c>
       <c r="JN3">
-        <v>1.042838225491298</v>
+        <v>1.043713602014597</v>
       </c>
       <c r="JO3">
-        <v>1.043946532995236</v>
+        <v>1.044581636489925</v>
       </c>
       <c r="JP3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530464</v>
       </c>
       <c r="JQ3">
-        <v>1.043930557541315</v>
+        <v>1.044510037286336</v>
       </c>
       <c r="JR3">
-        <v>1.04388431091648</v>
+        <v>1.0443258590597</v>
       </c>
       <c r="JS3">
-        <v>1.043909487864836</v>
+        <v>1.044403141601414</v>
       </c>
       <c r="JT3">
-        <v>1.042969049681755</v>
+        <v>1.04384481524594</v>
       </c>
       <c r="JU3">
-        <v>1.04285561747261</v>
+        <v>1.04373338816132</v>
       </c>
       <c r="JV3">
-        <v>1.042711859977435</v>
+        <v>1.043611015581237</v>
       </c>
       <c r="JW3">
-        <v>1.043944129871936</v>
+        <v>1.044580424940576</v>
       </c>
       <c r="JX3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530464</v>
       </c>
       <c r="JY3">
-        <v>1.043930092339167</v>
+        <v>1.044509334057313</v>
       </c>
       <c r="JZ3">
-        <v>1.043909241512538</v>
+        <v>1.044402649171898</v>
       </c>
       <c r="KA3">
-        <v>1.042965475629779</v>
+        <v>1.043844303608349</v>
       </c>
       <c r="KB3">
-        <v>1.042854641867592</v>
+        <v>1.043732912655899</v>
       </c>
       <c r="KC3">
-        <v>1.042676664970376</v>
+        <v>1.043586121458676</v>
       </c>
       <c r="KD3">
-        <v>1.042693710919814</v>
+        <v>1.043595283456074</v>
       </c>
       <c r="KE3">
-        <v>1.043931371347545</v>
+        <v>1.044573992652756</v>
       </c>
       <c r="KF3">
-        <v>1.043968909494595</v>
+        <v>1.044568012530464</v>
       </c>
       <c r="KG3">
-        <v>1.043928458235904</v>
+        <v>1.044506067696144</v>
       </c>
       <c r="KH3">
-        <v>1.043929890794995</v>
+        <v>1.044509127588963</v>
       </c>
       <c r="KI3">
-        <v>1.043908992006911</v>
+        <v>1.044402150439243</v>
       </c>
       <c r="KJ3">
-        <v>1.042962290898109</v>
+        <v>1.043843847703268</v>
       </c>
       <c r="KK3">
-        <v>1.042853256095921</v>
+        <v>1.043732237237125</v>
       </c>
       <c r="KL3">
-        <v>1.042660465545429</v>
+        <v>1.04357466332248</v>
       </c>
       <c r="KM3">
-        <v>1.04261764902307</v>
+        <v>1.043529350790963</v>
       </c>
       <c r="KN3">
-        <v>1.043927707598085</v>
+        <v>1.044504567268196</v>
       </c>
       <c r="KO3">
-        <v>1.043929748154992</v>
+        <v>1.044508981463942</v>
       </c>
       <c r="KP3">
-        <v>1.043908723737917</v>
+        <v>1.044401614200805</v>
       </c>
       <c r="KQ3">
-        <v>1.042959814841426</v>
+        <v>1.043843493247398</v>
       </c>
       <c r="KR3">
-        <v>1.042847031834726</v>
+        <v>1.043729203560654</v>
       </c>
       <c r="KS3">
-        <v>1.042554641297324</v>
+        <v>1.043499812550159</v>
       </c>
       <c r="KT3">
-        <v>1.042600859219612</v>
+        <v>1.043514796895331</v>
       </c>
       <c r="KU3">
-        <v>1.043926437157348</v>
+        <v>1.044502027821437</v>
       </c>
       <c r="KV3">
-        <v>1.043929582164066</v>
+        <v>1.044508811417483</v>
       </c>
       <c r="KW3">
-        <v>1.043907167926665</v>
+        <v>1.04439850431555</v>
       </c>
       <c r="KX3">
-        <v>1.042956732771559</v>
+        <v>1.043843052038691</v>
       </c>
       <c r="KY3">
-        <v>1.04284583359847</v>
+        <v>1.043728619545771</v>
       </c>
       <c r="KZ3">
-        <v>1.042546737156026</v>
+        <v>1.04349422189474</v>
       </c>
       <c r="LA3">
-        <v>1.042595280311108</v>
+        <v>1.043509960932855</v>
       </c>
       <c r="LB3">
-        <v>1.043923998628909</v>
+        <v>1.044497153518448</v>
       </c>
       <c r="LC3">
-        <v>1.043929264676513</v>
+        <v>1.044508486172992</v>
       </c>
       <c r="LD3">
-        <v>1.043900587433781</v>
+        <v>1.044385350677987</v>
       </c>
       <c r="LE3">
-        <v>1.04295354501279</v>
+        <v>1.043842595700255</v>
       </c>
       <c r="LF3">
-        <v>1.042844946403044</v>
+        <v>1.043728187130768</v>
       </c>
       <c r="LG3">
-        <v>1.042543514264538</v>
+        <v>1.043492969772913</v>
       </c>
       <c r="LH3">
-        <v>1.04241662796009</v>
+        <v>1.043397552467927</v>
       </c>
       <c r="LI3">
-        <v>1.042592368513773</v>
+        <v>1.043507436900937</v>
       </c>
       <c r="LJ3">
-        <v>1.04391681919059</v>
+        <v>1.044482802750113</v>
       </c>
       <c r="LK3">
-        <v>1.043928047056534</v>
+        <v>1.044507238803808</v>
       </c>
       <c r="LL3">
-        <v>1.042949784878431</v>
+        <v>1.043842057424314</v>
       </c>
       <c r="LM3">
-        <v>1.042843924450104</v>
+        <v>1.043727689035566</v>
       </c>
       <c r="LN3">
-        <v>1.042526915402207</v>
+        <v>1.04348652096817</v>
       </c>
       <c r="LO3">
-        <v>1.042354189913315</v>
+        <v>1.043351162386232</v>
       </c>
       <c r="LP3">
-        <v>1.042589875924917</v>
+        <v>1.04350527625126</v>
       </c>
       <c r="LQ3">
-        <v>1.043923891781548</v>
+        <v>1.044502982006073</v>
       </c>
       <c r="LR3">
-        <v>1.04294764210234</v>
+        <v>1.043841750678671</v>
       </c>
       <c r="LS3">
-        <v>1.042842910687509</v>
+        <v>1.043727194932299</v>
       </c>
       <c r="LT3">
-        <v>1.042521120424192</v>
+        <v>1.043484269567975</v>
       </c>
       <c r="LU3">
-        <v>1.042320070800702</v>
+        <v>1.043324958532684</v>
       </c>
       <c r="LV3">
-        <v>1.042244049721086</v>
+        <v>1.043269586263092</v>
       </c>
       <c r="LW3">
-        <v>1.042587041052392</v>
+        <v>1.043502818899932</v>
       </c>
       <c r="LX3">
-        <v>1.04293796190218</v>
+        <v>1.043840364925256</v>
       </c>
       <c r="LY3">
-        <v>1.042834004671017</v>
+        <v>1.043722854180408</v>
       </c>
       <c r="LZ3">
-        <v>1.042508508030487</v>
+        <v>1.043479369541488</v>
       </c>
       <c r="MA3">
-        <v>1.042306557942349</v>
+        <v>1.043314580508603</v>
       </c>
       <c r="MB3">
-        <v>1.042167749435682</v>
+        <v>1.043250055827277</v>
       </c>
       <c r="MC3">
-        <v>1.042229575327114</v>
+        <v>1.043256178317783</v>
       </c>
       <c r="MD3">
-        <v>1.04258480766124</v>
+        <v>1.043500882930402</v>
       </c>
       <c r="ME3">
-        <v>1.042934194569403</v>
+        <v>1.043839825618806</v>
       </c>
       <c r="MF3">
-        <v>1.0428157995816</v>
+        <v>1.043713981102363</v>
       </c>
       <c r="MG3">
-        <v>1.042500520319477</v>
+        <v>1.043479352533848</v>
       </c>
       <c r="MH3">
-        <v>1.04250740191678</v>
+        <v>1.043477487679517</v>
       </c>
       <c r="MI3">
-        <v>1.042129389124641</v>
+        <v>1.043240236810636</v>
       </c>
       <c r="MJ3">
-        <v>1.042217175115021</v>
+        <v>1.043244691742461</v>
       </c>
       <c r="MK3">
-        <v>1.042582935198697</v>
+        <v>1.043499259824443</v>
       </c>
       <c r="ML3">
-        <v>1.042932885801556</v>
+        <v>1.043839638264253</v>
       </c>
       <c r="MM3">
-        <v>1.042488568294496</v>
+        <v>1.043479327085376</v>
       </c>
       <c r="MN3">
-        <v>1.042507247900943</v>
+        <v>1.043477225648095</v>
       </c>
       <c r="MO3">
-        <v>1.042125819321726</v>
+        <v>1.043239323054821</v>
       </c>
       <c r="MP3">
-        <v>1.042208452778652</v>
+        <v>1.043236612065889</v>
       </c>
       <c r="MQ3">
-        <v>1.042581245645295</v>
+        <v>1.04349779526952</v>
       </c>
       <c r="MR3">
-        <v>1.042931899819113</v>
+        <v>1.043839497117524</v>
       </c>
       <c r="MS3">
-        <v>1.042507080628915</v>
+        <v>1.043476941063547</v>
       </c>
       <c r="MT3">
-        <v>1.04212434503765</v>
+        <v>1.043238945685063</v>
       </c>
       <c r="MU3">
-        <v>1.042197431992063</v>
+        <v>1.043226403295112</v>
       </c>
       <c r="MV3">
-        <v>1.042579847311327</v>
+        <v>1.043496583152212</v>
       </c>
       <c r="MW3">
-        <v>1.042931178429294</v>
+        <v>1.043839393848125</v>
       </c>
       <c r="MX3">
-        <v>1.042506934110633</v>
+        <v>1.043476691787925</v>
       </c>
       <c r="MY3">
-        <v>1.042123304777419</v>
+        <v>1.04323867941158</v>
       </c>
       <c r="MZ3">
-        <v>1.04219052649657</v>
+        <v>1.043220006603016</v>
       </c>
       <c r="NA3">
-        <v>1.042578225161264</v>
+        <v>1.043495177024464</v>
       </c>
       <c r="NB3">
-        <v>1.042930812103462</v>
+        <v>1.043839341407341</v>
       </c>
       <c r="NC3">
-        <v>1.042506778434958</v>
+        <v>1.043476426932575</v>
       </c>
       <c r="ND3">
-        <v>1.042122240752848</v>
+        <v>1.043238407055183</v>
       </c>
       <c r="NE3">
-        <v>1.042179922423025</v>
+        <v>1.04321018385331</v>
       </c>
       <c r="NF3">
-        <v>1.042576442305111</v>
+        <v>1.043493631591895</v>
       </c>
       <c r="NG3">
-        <v>1.042930273526722</v>
+        <v>1.043839264308255</v>
       </c>
       <c r="NH3">
-        <v>1.04250655625245</v>
+        <v>1.043476048927302</v>
       </c>
       <c r="NI3">
-        <v>1.042120985279857</v>
+        <v>1.043238085694088</v>
       </c>
       <c r="NJ3">
-        <v>1.042169351474556</v>
+        <v>1.043200391794887</v>
       </c>
       <c r="NK3">
-        <v>1.042566722805237</v>
+        <v>1.043485206440853</v>
       </c>
       <c r="NL3">
-        <v>1.042929370696214</v>
+        <v>1.043839135065007</v>
       </c>
       <c r="NM3">
-        <v>1.042506286148881</v>
+        <v>1.043475589392596</v>
       </c>
       <c r="NN3">
-        <v>1.042119401590336</v>
+        <v>1.043237680320013</v>
       </c>
       <c r="NO3">
-        <v>1.042157490623445</v>
+        <v>1.043189404884818</v>
       </c>
       <c r="NP3">
-        <v>1.042503564759119</v>
+        <v>1.043423396252972</v>
       </c>
       <c r="NQ3">
-        <v>1.042550508920866</v>
+        <v>1.043482507021987</v>
       </c>
       <c r="NR3">
-        <v>1.042925343682044</v>
+        <v>1.04383855858427</v>
       </c>
       <c r="NS3">
-        <v>1.042504611960669</v>
+        <v>1.043472741049682</v>
       </c>
       <c r="NT3">
-        <v>1.04211798324225</v>
+        <v>1.043237317268076</v>
       </c>
       <c r="NU3">
-        <v>1.042148907748356</v>
+        <v>1.043181454425648</v>
       </c>
       <c r="NV3">
-        <v>1.042443073827904</v>
+        <v>1.043364196256384</v>
       </c>
       <c r="NW3">
-        <v>1.042450953519414</v>
+        <v>1.043465932227464</v>
       </c>
       <c r="NX3">
-        <v>1.042550508920871</v>
+        <v>1.04348250702199</v>
       </c>
       <c r="NY3">
-        <v>1.042910540491978</v>
+        <v>1.043836439457333</v>
       </c>
       <c r="NZ3">
-        <v>1.04249888333935</v>
+        <v>1.043462994787091</v>
       </c>
       <c r="OA3">
-        <v>1.042116860939115</v>
+        <v>1.043237029994216</v>
       </c>
       <c r="OB3">
-        <v>1.042138677808617</v>
+        <v>1.043171978269192</v>
       </c>
       <c r="OC3">
-        <v>1.042440380945353</v>
+        <v>1.04336156084243</v>
       </c>
       <c r="OD3">
-        <v>1.042414568509524</v>
+        <v>1.043459874552584</v>
       </c>
       <c r="OE3">
-        <v>1.0425505089209</v>
+        <v>1.043482507022007</v>
       </c>
       <c r="OF3">
-        <v>1.042114934796972</v>
+        <v>1.043236536963168</v>
       </c>
       <c r="OG3">
-        <v>1.042123834438897</v>
+        <v>1.043158228630406</v>
       </c>
       <c r="OH3">
-        <v>1.042416114516141</v>
+        <v>1.04333668437852</v>
       </c>
       <c r="OI3">
-        <v>1.042395129750205</v>
+        <v>1.043317465928143</v>
       </c>
       <c r="OJ3">
-        <v>1.042410864992751</v>
+        <v>1.043459257960677</v>
       </c>
       <c r="OK3">
-        <v>1.042550508920902</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="OL3">
-        <v>1.042108210842632</v>
+        <v>1.043234815844959</v>
       </c>
       <c r="OM3">
-        <v>1.042112829980883</v>
+        <v>1.043148035042617</v>
       </c>
       <c r="ON3">
-        <v>1.042413891084737</v>
+        <v>1.043334405052192</v>
       </c>
       <c r="OO3">
-        <v>1.042373298617744</v>
+        <v>1.043296192634499</v>
       </c>
       <c r="OP3">
-        <v>1.042408280422596</v>
+        <v>1.043458827660192</v>
       </c>
       <c r="OQ3">
-        <v>1.042550508920903</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="OR3">
-        <v>1.042067103078396</v>
+        <v>1.043224293565205</v>
       </c>
       <c r="OS3">
-        <v>1.042102214484932</v>
+        <v>1.043138201763071</v>
       </c>
       <c r="OT3">
-        <v>1.042412627109897</v>
+        <v>1.043333109302242</v>
       </c>
       <c r="OU3">
-        <v>1.04230743753991</v>
+        <v>1.043232014464138</v>
       </c>
       <c r="OV3">
-        <v>1.042373298617737</v>
+        <v>1.043296192634492</v>
       </c>
       <c r="OW3">
-        <v>1.042405603037589</v>
+        <v>1.043458381907122</v>
       </c>
       <c r="OX3">
-        <v>1.042550508920904</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="OY3">
-        <v>1.042091825181802</v>
+        <v>1.04312857801578</v>
       </c>
       <c r="OZ3">
-        <v>1.042411768840614</v>
+        <v>1.043332229456897</v>
       </c>
       <c r="PA3">
-        <v>1.042213635172819</v>
+        <v>1.043140608960317</v>
       </c>
       <c r="PB3">
-        <v>1.042373298617736</v>
+        <v>1.04329619263449</v>
       </c>
       <c r="PC3">
-        <v>1.042394359583453</v>
+        <v>1.04345651000437</v>
       </c>
       <c r="PD3">
-        <v>1.042550508920905</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="PE3">
-        <v>1.042079330565298</v>
+        <v>1.043117004098022</v>
       </c>
       <c r="PF3">
-        <v>1.042410370088842</v>
+        <v>1.043330795541854</v>
       </c>
       <c r="PG3">
-        <v>1.042194005950842</v>
+        <v>1.043121481307895</v>
       </c>
       <c r="PH3">
-        <v>1.042373298617736</v>
+        <v>1.043296192634489</v>
       </c>
       <c r="PI3">
-        <v>1.042391614195798</v>
+        <v>1.04345605292963</v>
       </c>
       <c r="PJ3">
-        <v>1.042550508920916</v>
+        <v>1.04348250702201</v>
       </c>
       <c r="PK3">
-        <v>1.04205840459762</v>
+        <v>1.043097620137025</v>
       </c>
       <c r="PL3">
-        <v>1.042079330565298</v>
+        <v>1.043117004098022</v>
       </c>
       <c r="PM3">
-        <v>1.042405720552514</v>
+        <v>1.043326029120669</v>
       </c>
       <c r="PN3">
-        <v>1.042188988949655</v>
+        <v>1.043116592501974</v>
       </c>
       <c r="PO3">
-        <v>1.042373298617734</v>
+        <v>1.043296192634487</v>
       </c>
       <c r="PP3">
-        <v>1.042388995394738</v>
+        <v>1.043455616930064</v>
       </c>
       <c r="PQ3">
-        <v>1.04255050892092</v>
+        <v>1.043482507022012</v>
       </c>
       <c r="PR3">
-        <v>1.041987824855731</v>
+        <v>1.043032241521799</v>
       </c>
       <c r="PS3">
-        <v>1.04205840459762</v>
+        <v>1.043097620137025</v>
       </c>
       <c r="PT3">
-        <v>1.042400544161099</v>
+        <v>1.043320722599771</v>
       </c>
       <c r="PU3">
-        <v>1.042186360615248</v>
+        <v>1.043114031327199</v>
       </c>
       <c r="PV3">
-        <v>1.042373298617734</v>
+        <v>1.043296192634486</v>
       </c>
       <c r="PW3">
-        <v>1.042386390837542</v>
+        <v>1.043455183301928</v>
       </c>
       <c r="PX3">
-        <v>1.042550508920922</v>
+        <v>1.043482507022012</v>
       </c>
       <c r="PY3">
-        <v>1.041888002348562</v>
+        <v>1.042939775609915</v>
       </c>
       <c r="PZ3">
-        <v>1.041987824855731</v>
+        <v>1.043032241521799</v>
       </c>
       <c r="QA3">
-        <v>1.042397632978949</v>
+        <v>1.043317738233315</v>
       </c>
       <c r="QB3">
-        <v>1.042184181756971</v>
+        <v>1.043111908143459</v>
       </c>
       <c r="QC3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634485</v>
       </c>
       <c r="QD3">
-        <v>1.042383403074789</v>
+        <v>1.043454685874568</v>
       </c>
       <c r="QE3">
-        <v>1.042550508920924</v>
+        <v>1.043482507022012</v>
       </c>
       <c r="QF3">
-        <v>1.041816377773925</v>
+        <v>1.042873429913798</v>
       </c>
       <c r="QG3">
-        <v>1.041888002348562</v>
+        <v>1.042939775609915</v>
       </c>
       <c r="QH3">
-        <v>1.042394898232045</v>
+        <v>1.043314934737517</v>
       </c>
       <c r="QI3">
-        <v>1.042182415913688</v>
+        <v>1.043110187421283</v>
       </c>
       <c r="QJ3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634484</v>
       </c>
       <c r="QK3">
-        <v>1.042373085012687</v>
+        <v>1.043452968038521</v>
       </c>
       <c r="QL3">
-        <v>1.042550508920926</v>
+        <v>1.043482507022012</v>
       </c>
       <c r="QM3">
-        <v>1.041794647521374</v>
+        <v>1.042853301288271</v>
       </c>
       <c r="QN3">
-        <v>1.041816377773925</v>
+        <v>1.042873429913798</v>
       </c>
       <c r="QO3">
-        <v>1.042392289057836</v>
+        <v>1.04331225997119</v>
       </c>
       <c r="QP3">
-        <v>1.042179716700813</v>
+        <v>1.043107557179114</v>
       </c>
       <c r="QQ3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634484</v>
       </c>
       <c r="QR3">
-        <v>1.042322803079308</v>
+        <v>1.043444596686514</v>
       </c>
       <c r="QS3">
-        <v>1.042550508920928</v>
+        <v>1.043482507022012</v>
       </c>
       <c r="QT3">
-        <v>1.04173038049222</v>
+        <v>1.042797878543055</v>
       </c>
       <c r="QU3">
-        <v>1.041794647521374</v>
+        <v>1.042853301288271</v>
       </c>
       <c r="QV3">
-        <v>1.041794613222973</v>
+        <v>1.042846385806216</v>
       </c>
       <c r="QW3">
-        <v>1.042388005183099</v>
+        <v>1.043307868403986</v>
       </c>
       <c r="QX3">
-        <v>1.042177283401705</v>
+        <v>1.043105186056034</v>
       </c>
       <c r="QY3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634483</v>
       </c>
       <c r="QZ3">
-        <v>1.04255050892093</v>
+        <v>1.04348250702201</v>
       </c>
       <c r="RA3">
-        <v>1.041658979767361</v>
+        <v>1.042736304389973</v>
       </c>
       <c r="RB3">
-        <v>1.04173038049222</v>
+        <v>1.042797878543055</v>
       </c>
       <c r="RC3">
-        <v>1.04173038049222</v>
+        <v>1.042797878543055</v>
       </c>
       <c r="RD3">
-        <v>1.041794608214132</v>
+        <v>1.042845375885796</v>
       </c>
       <c r="RE3">
-        <v>1.042385021382947</v>
+        <v>1.043304809593984</v>
       </c>
       <c r="RF3">
-        <v>1.042174967500934</v>
+        <v>1.043102929331502</v>
       </c>
       <c r="RG3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634483</v>
       </c>
       <c r="RH3">
-        <v>1.042550508920939</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="RI3">
-        <v>1.041632815822247</v>
+        <v>1.042713741423864</v>
       </c>
       <c r="RJ3">
-        <v>1.041658979767361</v>
+        <v>1.042736304389973</v>
       </c>
       <c r="RK3">
-        <v>1.041794605482944</v>
+        <v>1.042844825202606</v>
       </c>
       <c r="RL3">
-        <v>1.042382924899285</v>
+        <v>1.043302660406752</v>
       </c>
       <c r="RM3">
-        <v>1.042172358498125</v>
+        <v>1.04310038699431</v>
       </c>
       <c r="RN3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634482</v>
       </c>
       <c r="RO3">
-        <v>1.04255050892094</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="RP3">
-        <v>1.041584901811132</v>
+        <v>1.042673349657461</v>
       </c>
       <c r="RQ3">
-        <v>1.041632815822247</v>
+        <v>1.042713741423864</v>
       </c>
       <c r="RR3">
-        <v>1.041592963861322</v>
+        <v>1.042674411068268</v>
       </c>
       <c r="RS3">
-        <v>1.04179460363278</v>
+        <v>1.042844452157939</v>
       </c>
       <c r="RT3">
-        <v>1.042381923186875</v>
+        <v>1.043301633512262</v>
       </c>
       <c r="RU3">
-        <v>1.042169602551518</v>
+        <v>1.043097701468037</v>
       </c>
       <c r="RV3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634481</v>
       </c>
       <c r="RW3">
-        <v>1.04255050892094</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="RX3">
-        <v>1.041516233026187</v>
+        <v>1.042615462191278</v>
       </c>
       <c r="RY3">
-        <v>1.041584901811132</v>
+        <v>1.042673349657461</v>
       </c>
       <c r="RZ3">
-        <v>1.041592958945986</v>
+        <v>1.042673300019728</v>
       </c>
       <c r="SA3">
-        <v>1.041577205692052</v>
+        <v>1.042666653982167</v>
       </c>
       <c r="SB3">
-        <v>1.0417946008225</v>
+        <v>1.042843885527046</v>
       </c>
       <c r="SC3">
-        <v>1.042381288629531</v>
+        <v>1.043300983002759</v>
       </c>
       <c r="SD3">
-        <v>1.042163576747619</v>
+        <v>1.043091829636289</v>
       </c>
       <c r="SE3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634479</v>
       </c>
       <c r="SF3">
-        <v>1.04255050892094</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="SG3">
-        <v>1.041474328682446</v>
+        <v>1.042580137421039</v>
       </c>
       <c r="SH3">
-        <v>1.041516233026187</v>
+        <v>1.042615462191278</v>
       </c>
       <c r="SI3">
-        <v>1.041592956868391</v>
+        <v>1.042672830405848</v>
       </c>
       <c r="SJ3">
-        <v>1.041567122259312</v>
+        <v>1.042661690331803</v>
       </c>
       <c r="SK3">
-        <v>1.041794596557626</v>
+        <v>1.042843025608736</v>
       </c>
       <c r="SL3">
-        <v>1.042380859590591</v>
+        <v>1.043300543178196</v>
       </c>
       <c r="SM3">
-        <v>1.042026909669459</v>
+        <v>1.042958654679664</v>
       </c>
       <c r="SN3">
-        <v>1.042373298617733</v>
+        <v>1.043296192634478</v>
       </c>
       <c r="SO3">
-        <v>1.04255050892094</v>
+        <v>1.043482507022008</v>
       </c>
       <c r="SP3">
-        <v>1.041467112473524</v>
+        <v>1.042574054289124</v>
       </c>
       <c r="SQ3">
-        <v>1.041474328682446</v>
+        <v>1.042580137421039</v>
       </c>
       <c r="SR3">
-        <v>1.041592955647638</v>
+        <v>1.042672554469943</v>
       </c>
       <c r="SS3">
-        <v>1.04179459353184</v>
+        <v>1.042842415525103</v>
       </c>
       <c r="ST3">
-        <v>1.042380261133181</v>
+        <v>1.043299929676144</v>
       </c>
       <c r="SU3">
-        <v>1.042014421846895</v>
+        <v>1.042905661583442</v>
       </c>
       <c r="SV3">
-        <v>1.042006615531266</v>
+        <v>1.042941215937649</v>
       </c>
       <c r="SW3">
-        <v>1.042373298617732</v>
+        <v>1.043296192634477</v>
       </c>
       <c r="SX3">
-        <v>1.041458951255351</v>
+        <v>1.042568271788025</v>
       </c>
       <c r="SY3">
-        <v>1.041467112473524</v>
+        <v>1.042574054289124</v>
       </c>
       <c r="SZ3">
-        <v>1.041408178028983</v>
+        <v>1.042519269908026</v>
       </c>
       <c r="TA3">
-        <v>1.041592954524178</v>
+        <v>1.042672300525869</v>
       </c>
       <c r="TB3">
-        <v>1.041794591464588</v>
+        <v>1.042841998708725</v>
       </c>
       <c r="TC3">
-        <v>1.042379804385779</v>
+        <v>1.043299461446555</v>
       </c>
       <c r="TD3">
-        <v>1.042003409279308</v>
+        <v>1.04285892886229</v>
       </c>
       <c r="TE3">
-        <v>1.041995667418784</v>
+        <v>1.042931808229329</v>
       </c>
       <c r="TF3">
-        <v>1.042373298617732</v>
+        <v>1.043296192634476</v>
       </c>
       <c r="TG3">
-        <v>1.041452943627109</v>
+        <v>1.04256401517854</v>
       </c>
       <c r="TH3">
-        <v>1.041458951255351</v>
+        <v>1.042568271788025</v>
       </c>
       <c r="TI3">
-        <v>1.041373359254934</v>
+        <v>1.042486903505478</v>
       </c>
       <c r="TJ3">
-        <v>1.041592953523268</v>
+        <v>1.042672074283046</v>
       </c>
       <c r="TK3">
-        <v>1.041794589831055</v>
+        <v>1.042841669341988</v>
       </c>
       <c r="TL3">
-        <v>1.042376544935403</v>
+        <v>1.043296120056746</v>
       </c>
       <c r="TM3">
-        <v>1.041994032382244</v>
+        <v>1.042930403243067</v>
       </c>
       <c r="TN3">
-        <v>1.042373298617731</v>
+        <v>1.043296192634475</v>
       </c>
       <c r="TO3">
-        <v>1.041444764234701</v>
+        <v>1.042558219799787</v>
       </c>
       <c r="TP3">
-        <v>1.041452943627109</v>
+        <v>1.04256401517854</v>
       </c>
       <c r="TQ3">
-        <v>1.041345774320704</v>
+        <v>1.042461261705595</v>
       </c>
       <c r="TR3">
-        <v>1.041592952484939</v>
+        <v>1.042671839581819</v>
       </c>
       <c r="TS3">
-        <v>1.041794584593513</v>
+        <v>1.042840613304619</v>
       </c>
       <c r="TT3">
-        <v>1.04237295382681</v>
+        <v>1.043293668309593</v>
       </c>
       <c r="TU3">
-        <v>1.04235360116984</v>
+        <v>1.043269028523039</v>
       </c>
       <c r="TV3">
-        <v>1.041992784298894</v>
+        <v>1.042929330765519</v>
       </c>
       <c r="TW3">
-        <v>1.042373298617731</v>
+        <v>1.043296192634475</v>
       </c>
       <c r="TX3">
-        <v>1.041438976035177</v>
+        <v>1.04255411866262</v>
       </c>
       <c r="TY3">
-        <v>1.041444764234701</v>
+        <v>1.042558219799787</v>
       </c>
       <c r="TZ3">
-        <v>1.041334376944856</v>
+        <v>1.042450667249313</v>
       </c>
       <c r="UA3">
-        <v>1.041592949350393</v>
+        <v>1.042671131056701</v>
       </c>
       <c r="UB3">
-        <v>1.041794542229755</v>
+        <v>1.042832071533112</v>
       </c>
       <c r="UC3">
-        <v>1.042368988422666</v>
+        <v>1.043290961020704</v>
       </c>
       <c r="UD3">
-        <v>1.041991617018593</v>
+        <v>1.04292832772199</v>
       </c>
       <c r="UE3">
-        <v>1.042373298617731</v>
+        <v>1.043296192634474</v>
       </c>
       <c r="UF3">
-        <v>1.041422789076782</v>
+        <v>1.042542649648523</v>
       </c>
       <c r="UG3">
-        <v>1.041438976035177</v>
+        <v>1.04255411866262</v>
       </c>
       <c r="UH3">
-        <v>1.041332891382457</v>
+        <v>1.042448625131623</v>
       </c>
       <c r="UI3">
-        <v>1.04130674829638</v>
+        <v>1.042433683171049</v>
       </c>
       <c r="UJ3">
-        <v>1.041592946191524</v>
+        <v>1.042670417033619</v>
       </c>
       <c r="UK3">
-        <v>1.04179454012009</v>
+        <v>1.042831646161261</v>
       </c>
       <c r="UL3">
-        <v>1.042358239938289</v>
+        <v>1.043283622738994</v>
       </c>
       <c r="UM3">
-        <v>1.041990372259723</v>
+        <v>1.042927258101146</v>
       </c>
       <c r="UN3">
-        <v>1.042373298617731</v>
+        <v>1.043296192634474</v>
       </c>
       <c r="UO3">
-        <v>1.041411068132193</v>
+        <v>1.042534344957246</v>
       </c>
       <c r="UP3">
-        <v>1.041422789076782</v>
+        <v>1.042542649648523</v>
       </c>
       <c r="UQ3">
-        <v>1.041332344740845</v>
+        <v>1.042447873694481</v>
       </c>
       <c r="UR3">
-        <v>1.041285851313654</v>
+        <v>1.042420838937347</v>
       </c>
       <c r="US3">
-        <v>1.041592916676345</v>
+        <v>1.042663745474964</v>
       </c>
       <c r="UT3">
-        <v>1.041794538455491</v>
+        <v>1.042831310528022</v>
       </c>
       <c r="UU3">
-        <v>1.041989270799989</v>
+        <v>1.042926311617189</v>
       </c>
       <c r="UV3">
-        <v>1.042373298617731</v>
+        <v>1.043296192634474</v>
       </c>
       <c r="UW3">
-        <v>1.041409899786335</v>
+        <v>1.042533418062276</v>
       </c>
       <c r="UX3">
-        <v>1.041411068132193</v>
+        <v>1.042534344957246</v>
       </c>
       <c r="UY3">
-        <v>1.041388584129952</v>
+        <v>1.042519970947136</v>
       </c>
       <c r="UZ3">
-        <v>1.041331530477854</v>
+        <v>1.042446754373273</v>
       </c>
       <c r="VA3">
-        <v>1.041794536573616</v>
+        <v>1.042830931085529</v>
       </c>
       <c r="VB3">
-        <v>1.041988144202221</v>
+        <v>1.042925343532119</v>
       </c>
       <c r="VC3">
-        <v>1.041409623143492</v>
+        <v>1.042533198590569</v>
       </c>
       <c r="VD3">
-        <v>1.041409899786335</v>
+        <v>1.042533418062276</v>
       </c>
       <c r="VE3">
-        <v>1.041385741757661</v>
+        <v>1.042518153820067</v>
       </c>
       <c r="VF3">
-        <v>1.041331040517435</v>
+        <v>1.042446080852339</v>
       </c>
       <c r="VG3">
-        <v>1.041794534898688</v>
+        <v>1.042830593369698</v>
       </c>
       <c r="VH3">
-        <v>1.041982329509169</v>
+        <v>1.042920346968272</v>
       </c>
       <c r="VI3">
-        <v>1.041402123464088</v>
+        <v>1.042527248798155</v>
       </c>
       <c r="VJ3">
-        <v>1.041409623143492</v>
+        <v>1.042533198590569</v>
       </c>
       <c r="VK3">
-        <v>1.041409623143493</v>
+        <v>1.042533198590573</v>
       </c>
       <c r="VL3">
-        <v>1.041383644275449</v>
+        <v>1.042516812900815</v>
       </c>
       <c r="VM3">
-        <v>1.041330449315975</v>
+        <v>1.04244526816096</v>
       </c>
       <c r="VN3">
-        <v>1.041794532970847</v>
+        <v>1.042830204658788</v>
       </c>
       <c r="VO3">
-        <v>1.041973487050367</v>
+        <v>1.042910629116535</v>
       </c>
       <c r="VP3">
-        <v>1.041970155360497</v>
+        <v>1.04290997392326</v>
       </c>
       <c r="VQ3">
-        <v>1.041396867581742</v>
+        <v>1.042523079098594</v>
       </c>
       <c r="VR3">
-        <v>1.041402123464088</v>
+        <v>1.042527248798155</v>
       </c>
       <c r="VS3">
-        <v>1.041409623143493</v>
+        <v>1.042533198590575</v>
       </c>
       <c r="VT3">
-        <v>1.041381603409185</v>
+        <v>1.042515508176104</v>
       </c>
       <c r="VU3">
-        <v>1.04132993021621</v>
+        <v>1.042444554583636</v>
       </c>
       <c r="VV3">
-        <v>1.041794530994155</v>
+        <v>1.04282980609784</v>
       </c>
       <c r="VW3">
-        <v>1.041972977484976</v>
+        <v>1.042910069104776</v>
       </c>
       <c r="VX3">
-        <v>1.041911978881833</v>
+        <v>1.042860404345777</v>
       </c>
       <c r="VY3">
-        <v>1.041392735432921</v>
+        <v>1.042518951413235</v>
       </c>
       <c r="VZ3">
-        <v>1.041396108396385</v>
+        <v>1.042522577596213</v>
       </c>
       <c r="WA3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590576</v>
       </c>
       <c r="WB3">
-        <v>1.041362432238496</v>
+        <v>1.042503252056669</v>
       </c>
       <c r="WC3">
-        <v>1.041326533405547</v>
+        <v>1.042439885176498</v>
       </c>
       <c r="WD3">
-        <v>1.04179452861818</v>
+        <v>1.042829327029157</v>
       </c>
       <c r="WE3">
-        <v>1.041972721562352</v>
+        <v>1.042909787846117</v>
       </c>
       <c r="WF3">
-        <v>1.041886284005415</v>
+        <v>1.042860403455462</v>
       </c>
       <c r="WG3">
-        <v>1.04184667592486</v>
+        <v>1.042802121014682</v>
       </c>
       <c r="WH3">
-        <v>1.041389050446818</v>
+        <v>1.042515270407577</v>
       </c>
       <c r="WI3">
-        <v>1.041392735432921</v>
+        <v>1.042518951413235</v>
       </c>
       <c r="WJ3">
-        <v>1.041392735432921</v>
+        <v>1.042518951413235</v>
       </c>
       <c r="WK3">
-        <v>1.041362307544207</v>
+        <v>1.042500249648236</v>
       </c>
       <c r="WL3">
-        <v>1.041396108396385</v>
+        <v>1.042522577596213</v>
       </c>
       <c r="WM3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590576</v>
       </c>
       <c r="WN3">
-        <v>1.041353509804151</v>
+        <v>1.042497547948876</v>
       </c>
       <c r="WO3">
-        <v>1.041301487966774</v>
+        <v>1.042405456490037</v>
       </c>
       <c r="WP3">
-        <v>1.041794527128613</v>
+        <v>1.042829026687212</v>
       </c>
       <c r="WQ3">
-        <v>1.041972506957355</v>
+        <v>1.04290955199548</v>
       </c>
       <c r="WR3">
-        <v>1.041872724745912</v>
+        <v>1.042860402985641</v>
       </c>
       <c r="WS3">
-        <v>1.041784127307017</v>
+        <v>1.042746295928881</v>
       </c>
       <c r="WT3">
-        <v>1.041381015977265</v>
+        <v>1.04250724461669</v>
       </c>
       <c r="WU3">
-        <v>1.041389050446818</v>
+        <v>1.042515270407577</v>
       </c>
       <c r="WV3">
-        <v>1.041389050446818</v>
+        <v>1.042515270407577</v>
       </c>
       <c r="WW3">
-        <v>1.04135435184644</v>
+        <v>1.042494994324731</v>
       </c>
       <c r="WX3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590577</v>
       </c>
       <c r="WY3">
-        <v>1.041349322143632</v>
+        <v>1.042494870779575</v>
       </c>
       <c r="WZ3">
-        <v>1.04179452072696</v>
+        <v>1.042827735918521</v>
       </c>
       <c r="XA3">
-        <v>1.041972331954489</v>
+        <v>1.042909359667539</v>
       </c>
       <c r="XB3">
-        <v>1.041779551737857</v>
+        <v>1.042743095993018</v>
       </c>
       <c r="XC3">
-        <v>1.041767364261176</v>
+        <v>1.042731173385943</v>
       </c>
       <c r="XD3">
-        <v>1.041370071182002</v>
+        <v>1.042496311643762</v>
       </c>
       <c r="XE3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590577</v>
       </c>
       <c r="XF3">
-        <v>1.041346528909426</v>
+        <v>1.042493085066315</v>
       </c>
       <c r="XG3">
-        <v>1.041794493738428</v>
+        <v>1.042822294190919</v>
       </c>
       <c r="XH3">
-        <v>1.041972057251118</v>
+        <v>1.042909057768861</v>
       </c>
       <c r="XI3">
-        <v>1.041778429795555</v>
+        <v>1.042742311359828</v>
       </c>
       <c r="XJ3">
-        <v>1.041763507595792</v>
+        <v>1.042727694150034</v>
       </c>
       <c r="XK3">
-        <v>1.041366860951413</v>
+        <v>1.042493104880797</v>
       </c>
       <c r="XL3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590578</v>
       </c>
       <c r="XM3">
-        <v>1.041342258574485</v>
+        <v>1.042490355043258</v>
       </c>
       <c r="XN3">
-        <v>1.041971402205048</v>
+        <v>1.042908337874008</v>
       </c>
       <c r="XO3">
-        <v>1.041777659388821</v>
+        <v>1.042741772573926</v>
       </c>
       <c r="XP3">
-        <v>1.041761593733747</v>
+        <v>1.042725967586543</v>
       </c>
       <c r="XQ3">
-        <v>1.04135623568673</v>
+        <v>1.042482491093299</v>
       </c>
       <c r="XR3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590579</v>
       </c>
       <c r="XS3">
-        <v>1.041333918661011</v>
+        <v>1.042485023340552</v>
       </c>
       <c r="XT3">
-        <v>1.041970949019242</v>
+        <v>1.042907839823346</v>
       </c>
       <c r="XU3">
-        <v>1.041776591438313</v>
+        <v>1.042741025700031</v>
       </c>
       <c r="XV3">
-        <v>1.041759490549021</v>
+        <v>1.04272407022826</v>
       </c>
       <c r="XW3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590579</v>
       </c>
       <c r="XX3">
-        <v>1.04133161329498</v>
+        <v>1.042483549521132</v>
       </c>
       <c r="XY3">
-        <v>1.041970372796237</v>
+        <v>1.042907206554949</v>
       </c>
       <c r="XZ3">
-        <v>1.041774059008636</v>
+        <v>1.042739254638912</v>
       </c>
       <c r="YA3">
-        <v>1.041757063787094</v>
+        <v>1.042721880959367</v>
       </c>
       <c r="YB3">
-        <v>1.041409623143494</v>
+        <v>1.04253319859058</v>
       </c>
       <c r="YC3">
-        <v>1.041330944010256</v>
+        <v>1.042483121647721</v>
       </c>
       <c r="YD3">
-        <v>1.041970022745668</v>
+        <v>1.042906821849789</v>
       </c>
       <c r="YE3">
-        <v>1.041772133944915</v>
+        <v>1.042737908340709</v>
       </c>
       <c r="YF3">
-        <v>1.041754610496098</v>
+        <v>1.042719667757622</v>
       </c>
       <c r="YG3">
-        <v>1.041409623143494</v>
+        <v>1.04253319859058</v>
       </c>
       <c r="YH3">
-        <v>1.041330753570337</v>
+        <v>1.042482936057992</v>
       </c>
       <c r="YI3">
-        <v>1.041328871712806</v>
+        <v>1.042482135934311</v>
       </c>
       <c r="YJ3">
-        <v>1.041969706724661</v>
+        <v>1.042906474543078</v>
       </c>
       <c r="YK3">
-        <v>1.041770782579448</v>
+        <v>1.042736963259836</v>
       </c>
       <c r="YL3">
-        <v>1.041751890706182</v>
+        <v>1.042717214137616</v>
       </c>
       <c r="YM3">
-        <v>1.041409623143494</v>
+        <v>1.042533198590581</v>
       </c>
       <c r="YN3">
-        <v>1.041330575334761</v>
+        <v>1.042482762361781</v>
       </c>
       <c r="YO3">
-        <v>1.041326137180239</v>
+        <v>1.042480835220727</v>
       </c>
       <c r="YP3">
-        <v>1.041969173744063</v>
+        <v>1.042905888798034</v>
       </c>
       <c r="YQ3">
-        <v>1.041769366905922</v>
+        <v>1.042735973204955</v>
       </c>
       <c r="YR3">
-        <v>1.041747935562138</v>
+        <v>1.042713646060292</v>
       </c>
       <c r="YS3">
-        <v>1.041409623143495</v>
+        <v>1.042533198590581</v>
       </c>
       <c r="YT3">
-        <v>1.041330391729118</v>
+        <v>1.042482583432271</v>
       </c>
       <c r="YU3">
-        <v>1.041314776667455</v>
+        <v>1.042475431454917</v>
       </c>
       <c r="YV3">
-        <v>1.04196864975204</v>
+        <v>1.042905312931426</v>
       </c>
       <c r="YW3">
-        <v>1.041768204623968</v>
+        <v>1.042735160360112</v>
       </c>
       <c r="YX3">
-        <v>1.041742759544363</v>
+        <v>1.042710234554209</v>
       </c>
       <c r="YY3">
-        <v>1.041739318675605</v>
+        <v>1.042705382519946</v>
       </c>
       <c r="YZ3">
-        <v>1.041409623143495</v>
+        <v>1.042533198590581</v>
       </c>
       <c r="ZA3">
-        <v>1.041329064219081</v>
+        <v>1.042481289731723</v>
       </c>
       <c r="ZB3">
-        <v>1.04130995213045</v>
+        <v>1.042473136605271</v>
       </c>
       <c r="ZC3">
-        <v>1.041968401827579</v>
+        <v>1.042905040462737</v>
       </c>
       <c r="ZD3">
-        <v>1.04176628020501</v>
+        <v>1.042733814512814</v>
       </c>
       <c r="ZE3">
-        <v>1.041739651347644</v>
+        <v>1.042708185946885</v>
       </c>
       <c r="ZF3">
-        <v>1.041684754670949</v>
+        <v>1.042653055975844</v>
       </c>
       <c r="ZG3">
-        <v>1.041409623143495</v>
+        <v>1.042533198590581</v>
       </c>
       <c r="ZH3">
-        <v>1.041319397143846</v>
+        <v>1.042471868860932</v>
       </c>
       <c r="ZI3">
-        <v>1.04196812951619</v>
+        <v>1.042904741192845</v>
       </c>
       <c r="ZJ3">
-        <v>1.041760061053341</v>
+        <v>1.042729465133227</v>
       </c>
       <c r="ZK3">
-        <v>1.041736768046423</v>
+        <v>1.042706285568342</v>
       </c>
       <c r="ZL3">
-        <v>1.041645697969622</v>
+        <v>1.0426156008352</v>
       </c>
       <c r="ZM3">
-        <v>1.041967868155558</v>
+        <v>1.042904453957822</v>
       </c>
       <c r="ZN3">
-        <v>1.041745529235831</v>
+        <v>1.042719302269399</v>
       </c>
       <c r="ZO3">
-        <v>1.041733954715428</v>
+        <v>1.042704431307538</v>
       </c>
       <c r="ZP3">
-        <v>1.041629713688999</v>
+        <v>1.042600011643867</v>
       </c>
       <c r="ZQ3">
-        <v>1.041538872539616</v>
+        <v>1.042513236057215</v>
       </c>
       <c r="ZR3">
-        <v>1.041967552956807</v>
+        <v>1.042904107554771</v>
       </c>
       <c r="ZS3">
-        <v>1.04173184452926</v>
+        <v>1.042703040488394</v>
       </c>
       <c r="ZT3">
-        <v>1.041628219048364</v>
+        <v>1.042598553946947</v>
       </c>
       <c r="ZU3">
-        <v>1.041629713672623</v>
+        <v>1.042600011627507</v>
       </c>
       <c r="ZV3">
-        <v>1.041529788604977</v>
+        <v>1.042494642888398</v>
       </c>
       <c r="ZW3">
-        <v>1.041517138693699</v>
+        <v>1.042492954093921</v>
       </c>
       <c r="ZX3">
-        <v>1.041967050174877</v>
+        <v>1.042903554998028</v>
       </c>
       <c r="ZY3">
-        <v>1.04172849236076</v>
+        <v>1.042700831081941</v>
       </c>
       <c r="ZZ3">
-        <v>1.041627751366005</v>
+        <v>1.042598097824506</v>
       </c>
       <c r="AAA3">
-        <v>1.041629713639265</v>
+        <v>1.042600011594179</v>
       </c>
       <c r="AAB3">
-        <v>1.041524526041127</v>
+        <v>1.04248387137387</v>
       </c>
       <c r="AAC3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799612</v>
       </c>
       <c r="AAD3">
-        <v>1.041965674116629</v>
+        <v>1.042902042711656</v>
       </c>
       <c r="AAE3">
-        <v>1.041722840477812</v>
+        <v>1.04269710594061</v>
       </c>
       <c r="AAF3">
-        <v>1.041627450659791</v>
+        <v>1.042597804550986</v>
       </c>
       <c r="AAG3">
-        <v>1.04136939699567</v>
+        <v>1.042355115627494</v>
       </c>
       <c r="AAH3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="AAI3">
-        <v>1.041963842835694</v>
+        <v>1.042900030136092</v>
       </c>
       <c r="AAJ3">
-        <v>1.041680491373278</v>
+        <v>1.04266919381846</v>
       </c>
       <c r="AAK3">
-        <v>1.041627269282249</v>
+        <v>1.042597627656636</v>
       </c>
       <c r="AAL3">
-        <v>1.041248466916927</v>
+        <v>1.04226326602983</v>
       </c>
       <c r="AAM3">
-        <v>1.041361833249634</v>
+        <v>1.042321030672069</v>
       </c>
       <c r="AAN3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="AAO3">
-        <v>1.041963668412141</v>
+        <v>1.042899838444816</v>
       </c>
       <c r="AAP3">
-        <v>1.041645749559888</v>
+        <v>1.042646295713042</v>
       </c>
       <c r="AAQ3">
-        <v>1.04162708596175</v>
+        <v>1.042597448867352</v>
       </c>
       <c r="AAR3">
-        <v>1.041123654147928</v>
+        <v>1.042168467358644</v>
       </c>
       <c r="AAS3">
-        <v>1.041361023533188</v>
+        <v>1.042317381798109</v>
       </c>
       <c r="AAT3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="AAU3">
-        <v>1.041963530468076</v>
+        <v>1.042899686844454</v>
       </c>
       <c r="AAV3">
-        <v>1.04163474217787</v>
+        <v>1.042639040833905</v>
       </c>
       <c r="AAW3">
-        <v>1.041626922217973</v>
+        <v>1.042597289170905</v>
       </c>
       <c r="AAX3">
-        <v>1.041077508843203</v>
+        <v>1.042133594172225</v>
       </c>
       <c r="AAY3">
-        <v>1.041079297026487</v>
+        <v>1.042133541084791</v>
       </c>
       <c r="AAZ3">
-        <v>1.041360714372246</v>
+        <v>1.042315988607499</v>
       </c>
       <c r="ABA3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="ABB3">
-        <v>1.041963396491327</v>
+        <v>1.042899539604166</v>
       </c>
       <c r="ABC3">
-        <v>1.041624721376252</v>
+        <v>1.042632436208634</v>
       </c>
       <c r="ABD3">
-        <v>1.041626737735625</v>
+        <v>1.04259710924849</v>
       </c>
       <c r="ABE3">
-        <v>1.041014804621241</v>
+        <v>1.042086206973659</v>
       </c>
       <c r="ABF3">
-        <v>1.041073346838186</v>
+        <v>1.042128855976615</v>
       </c>
       <c r="ABG3">
-        <v>1.041360387341165</v>
+        <v>1.042314514887574</v>
       </c>
       <c r="ABH3">
-        <v>1.041476526105378</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="ABI3">
-        <v>1.041963252987788</v>
+        <v>1.042899381893949</v>
       </c>
       <c r="ABJ3">
-        <v>1.041619263516701</v>
+        <v>1.042628838982331</v>
       </c>
       <c r="ABK3">
-        <v>1.041626589927978</v>
+        <v>1.042596965094273</v>
       </c>
       <c r="ABL3">
-        <v>1.040941390705101</v>
+        <v>1.042030726160753</v>
       </c>
       <c r="ABM3">
-        <v>1.041070220747353</v>
+        <v>1.042126394529504</v>
       </c>
       <c r="ABN3">
-        <v>1.041360115933749</v>
+        <v>1.042313291827912</v>
       </c>
       <c r="ABO3">
-        <v>1.041476526105377</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="ABP3">
-        <v>1.04196312030793</v>
+        <v>1.042899236078943</v>
       </c>
       <c r="ABQ3">
-        <v>1.041614904563053</v>
+        <v>1.04262596603637</v>
       </c>
       <c r="ABR3">
-        <v>1.041626412632599</v>
+        <v>1.042596792181184</v>
       </c>
       <c r="ABS3">
-        <v>1.040882442352523</v>
+        <v>1.041986177334601</v>
       </c>
       <c r="ABT3">
-        <v>1.041063229087395</v>
+        <v>1.042112425247706</v>
       </c>
       <c r="ABU3">
-        <v>1.041069869907262</v>
+        <v>1.042126394526119</v>
       </c>
       <c r="ABV3">
-        <v>1.041359794520648</v>
+        <v>1.042311843424579</v>
       </c>
       <c r="ABW3">
-        <v>1.041476526105376</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="ABX3">
-        <v>1.041962995271189</v>
+        <v>1.042899098663713</v>
       </c>
       <c r="ABY3">
-        <v>1.041611187616749</v>
+        <v>1.042623516232422</v>
       </c>
       <c r="ABZ3">
-        <v>1.041626221575622</v>
+        <v>1.042596605846649</v>
       </c>
       <c r="ACA3">
-        <v>1.040872622710907</v>
+        <v>1.041975044674851</v>
       </c>
       <c r="ACB3">
-        <v>1.040768863094883</v>
+        <v>1.041935267543636</v>
       </c>
       <c r="ACC3">
-        <v>1.041057545734051</v>
+        <v>1.042101069952671</v>
       </c>
       <c r="ACD3">
-        <v>1.041069616199452</v>
+        <v>1.04212639452367</v>
       </c>
       <c r="ACE3">
-        <v>1.041359481064752</v>
+        <v>1.042310430879251</v>
       </c>
       <c r="ACF3">
-        <v>1.041476526105375</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="ACG3">
-        <v>1.041962821369006</v>
+        <v>1.042898907545421</v>
       </c>
       <c r="ACH3">
-        <v>1.041606825756414</v>
+        <v>1.042620641372853</v>
       </c>
       <c r="ACI3">
-        <v>1.041625873002133</v>
+        <v>1.042596265889009</v>
       </c>
       <c r="ACJ3">
-        <v>1.040859084280956</v>
+        <v>1.041959695975297</v>
       </c>
       <c r="ACK3">
-        <v>1.040673925788406</v>
+        <v>1.041892713646982</v>
       </c>
       <c r="ACL3">
-        <v>1.041069402092681</v>
+        <v>1.042126394521604</v>
       </c>
       <c r="ACM3">
-        <v>1.041359050130021</v>
+        <v>1.042308488931882</v>
       </c>
       <c r="ACN3">
-        <v>1.041476526105375</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="ACO3">
-        <v>1.041962608259002</v>
+        <v>1.042898673337781</v>
       </c>
       <c r="ACP3">
-        <v>1.041602840152997</v>
+        <v>1.042618014501565</v>
       </c>
       <c r="ACQ3">
-        <v>1.041623265128394</v>
+        <v>1.042593722475265</v>
       </c>
       <c r="ACR3">
-        <v>1.040825779331917</v>
+        <v>1.041921937710691</v>
       </c>
       <c r="ACS3">
-        <v>1.040666852829637</v>
+        <v>1.041885985376656</v>
       </c>
       <c r="ACT3">
-        <v>1.040671681610431</v>
+        <v>1.04189183656735</v>
       </c>
       <c r="ACU3">
-        <v>1.041069040441578</v>
+        <v>1.042126394518115</v>
       </c>
       <c r="ACV3">
-        <v>1.041358457309553</v>
+        <v>1.042305817468888</v>
       </c>
       <c r="ACW3">
-        <v>1.041476526105375</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="ACX3">
-        <v>1.041961598172872</v>
+        <v>1.042897563254327</v>
       </c>
       <c r="ACY3">
-        <v>1.04159665696839</v>
+        <v>1.042613939228459</v>
       </c>
       <c r="ACZ3">
-        <v>1.04161527331456</v>
+        <v>1.042585928198703</v>
       </c>
       <c r="ADA3">
-        <v>1.040798785198777</v>
+        <v>1.041891334104958</v>
       </c>
       <c r="ADB3">
-        <v>1.040659922088712</v>
+        <v>1.041879392393421</v>
       </c>
       <c r="ADC3">
-        <v>1.04066953588842</v>
+        <v>1.041890997966711</v>
       </c>
       <c r="ADD3">
-        <v>1.041068533992019</v>
+        <v>1.042126394513227</v>
       </c>
       <c r="ADE3">
-        <v>1.041357829937659</v>
+        <v>1.042302990304602</v>
       </c>
       <c r="ADF3">
-        <v>1.041476526105375</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="ADG3">
-        <v>1.041952961649372</v>
+        <v>1.042888071725312</v>
       </c>
       <c r="ADH3">
-        <v>1.041584173748489</v>
+        <v>1.042605711674313</v>
       </c>
       <c r="ADI3">
-        <v>1.040777692777832</v>
+        <v>1.041867421350121</v>
       </c>
       <c r="ADJ3">
-        <v>1.040667222688023</v>
+        <v>1.041890093911415</v>
       </c>
       <c r="ADK3">
-        <v>1.041068158194597</v>
+        <v>1.0421263945096</v>
       </c>
       <c r="ADL3">
-        <v>1.041357413191697</v>
+        <v>1.042301112296755</v>
       </c>
       <c r="ADM3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="ADN3">
-        <v>1.0415817406003</v>
+        <v>1.042603934880683</v>
       </c>
       <c r="ADO3">
-        <v>1.041576448996121</v>
+        <v>1.042601652530867</v>
       </c>
       <c r="ADP3">
-        <v>1.04075862931066</v>
+        <v>1.04184580884815</v>
       </c>
       <c r="ADQ3">
-        <v>1.040665157176813</v>
+        <v>1.041889286659106</v>
       </c>
       <c r="ADR3">
-        <v>1.041067535670521</v>
+        <v>1.042126394503593</v>
       </c>
       <c r="ADS3">
-        <v>1.041356989044602</v>
+        <v>1.042299200936685</v>
       </c>
       <c r="ADT3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="ADU3">
-        <v>1.04157961866708</v>
+        <v>1.042602385350676</v>
       </c>
       <c r="ADV3">
-        <v>1.041564088268996</v>
+        <v>1.04259515731094</v>
       </c>
       <c r="ADW3">
-        <v>1.040757608364158</v>
+        <v>1.041843588381313</v>
       </c>
       <c r="ADX3">
-        <v>1.040750330931428</v>
+        <v>1.041840453418064</v>
       </c>
       <c r="ADY3">
-        <v>1.040662876163918</v>
+        <v>1.041888395183461</v>
       </c>
       <c r="ADZ3">
-        <v>1.041063214719139</v>
+        <v>1.042126394461896</v>
       </c>
       <c r="AEA3">
-        <v>1.041356786241663</v>
+        <v>1.042298287033339</v>
       </c>
       <c r="AEB3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="AEC3">
-        <v>1.041577863732801</v>
+        <v>1.04260110381999</v>
       </c>
       <c r="AED3">
-        <v>1.041553527237616</v>
+        <v>1.042589607781179</v>
       </c>
       <c r="AEE3">
-        <v>1.040756584735499</v>
+        <v>1.041841362081016</v>
       </c>
       <c r="AEF3">
-        <v>1.040737072826795</v>
+        <v>1.04183189740317</v>
       </c>
       <c r="AEG3">
-        <v>1.040750330931428</v>
+        <v>1.041840453418064</v>
       </c>
       <c r="AEH3">
-        <v>1.040661405519955</v>
+        <v>1.041887820419816</v>
       </c>
       <c r="AEI3">
-        <v>1.041053670270586</v>
+        <v>1.042126394369793</v>
       </c>
       <c r="AEJ3">
-        <v>1.041356463659013</v>
+        <v>1.0422968333593</v>
       </c>
       <c r="AEK3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799614</v>
       </c>
       <c r="AEL3">
-        <v>1.041576499011342</v>
+        <v>1.042600107240211</v>
       </c>
       <c r="AEM3">
-        <v>1.041547550107995</v>
+        <v>1.042586466964902</v>
       </c>
       <c r="AEN3">
-        <v>1.04075555912007</v>
+        <v>1.041839131459661</v>
       </c>
       <c r="AEO3">
-        <v>1.040725956356002</v>
+        <v>1.041824723474285</v>
       </c>
       <c r="AEP3">
-        <v>1.040737072826795</v>
+        <v>1.04183189740317</v>
       </c>
       <c r="AEQ3">
-        <v>1.040659146711322</v>
+        <v>1.041886937622127</v>
       </c>
       <c r="AER3">
-        <v>1.041356160825553</v>
+        <v>1.042295468682233</v>
       </c>
       <c r="AES3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="AET3">
-        <v>1.041575111005768</v>
+        <v>1.042599093657553</v>
       </c>
       <c r="AEU3">
-        <v>1.04075453971332</v>
+        <v>1.041836914341614</v>
       </c>
       <c r="AEV3">
-        <v>1.040714006433718</v>
+        <v>1.04181701168312</v>
       </c>
       <c r="AEW3">
-        <v>1.040725956356002</v>
+        <v>1.041824723474285</v>
       </c>
       <c r="AEX3">
-        <v>1.040640567440024</v>
+        <v>1.041879676387996</v>
       </c>
       <c r="AEY3">
-        <v>1.041355728126903</v>
+        <v>1.042293518785615</v>
       </c>
       <c r="AEZ3">
-        <v>1.041476526105374</v>
+        <v>1.042455063799613</v>
       </c>
       <c r="AFA3">
-        <v>1.041573906464215</v>
+        <v>1.042598214048559</v>
       </c>
       <c r="AFB3">
-        <v>1.040753516432334</v>
+        <v>1.041834688797441</v>
       </c>
       <c r="AFC3">
-        <v>1.040704195125615</v>
+        <v>1.041810680029696</v>
       </c>
       <c r="AFD3">
-        <v>1.040714006433718</v>
+        <v>1.04181701168312</v>
       </c>
       <c r="AFE3">
-        <v>1.040576534889738</v>
+        <v>1.041854650895983</v>
       </c>
       <c r="AFF3">
-        <v>1.041351160699427</v>
+        <v>1.042272936302284</v>
       </c>
       <c r="AFG3">
-        <v>1.041573041344399</v>
+        <v>1.042597582300279</v>
       </c>
       <c r="AFH3">
-        <v>1.040752493846739</v>
+        <v>1.041832464765669</v>
       </c>
       <c r="AFI3">
-        <v>1.040693661607829</v>
+        <v>1.041803882303117</v>
       </c>
       <c r="AFJ3">
-        <v>1.040704195125615</v>
+        <v>1.041810680029696</v>
       </c>
       <c r="AFK3">
-        <v>1.04134933384388</v>
+        <v>1.042264703827589</v>
       </c>
       <c r="AFL3">
-        <v>1.041572036939009</v>
+        <v>1.042596848839693</v>
       </c>
       <c r="AFM3">
-        <v>1.040751470615491</v>
+        <v>1.041830239329649</v>
       </c>
       <c r="AFN3">
-        <v>1.040638089401999</v>
+        <v>1.041768020408861</v>
       </c>
       <c r="AFO3">
-        <v>1.040693661607829</v>
+        <v>1.04180388230312</v>
       </c>
       <c r="AFP3">
-        <v>1.040693661607829</v>
+        <v>1.041803882303117</v>
       </c>
       <c r="AFQ3">
-        <v>1.041348406169933</v>
+        <v>1.042260523391453</v>
       </c>
       <c r="AFR3">
-        <v>1.041570523789395</v>
+        <v>1.042595743872113</v>
       </c>
       <c r="AFS3">
-        <v>1.040750971143933</v>
+        <v>1.041829153023888</v>
       </c>
       <c r="AFT3">
-        <v>1.040629959026852</v>
+        <v>1.041762773709294</v>
       </c>
       <c r="AFU3">
-        <v>1.040693661607828</v>
+        <v>1.041803882303123</v>
       </c>
       <c r="AFV3">
-        <v>1.040693661607829</v>
+        <v>1.04180388230312</v>
       </c>
       <c r="AFW3">
-        <v>1.041348200893663</v>
+        <v>1.042259598341908</v>
       </c>
       <c r="AFX3">
-        <v>1.041568051609722</v>
+        <v>1.042593938579666</v>
       </c>
       <c r="AFY3">
-        <v>1.040739745450853</v>
+        <v>1.04180473814936</v>
       </c>
       <c r="AFZ3">
-        <v>1.040607053927143</v>
+        <v>1.041747992573433</v>
       </c>
       <c r="AGA3">
-        <v>1.040693661607828</v>
+        <v>1.041803882303128</v>
       </c>
       <c r="AGB3">
-        <v>1.040693661607828</v>
+        <v>1.041803882303123</v>
       </c>
       <c r="AGC3">
-        <v>1.041348039228537</v>
+        <v>1.042258869820033</v>
       </c>
       <c r="AGD3">
-        <v>1.041558978444933</v>
+        <v>1.042579476752768</v>
       </c>
       <c r="AGE3">
-        <v>1.041539388121438</v>
+        <v>1.042593873575181</v>
       </c>
       <c r="AGF3">
-        <v>1.040732445596944</v>
+        <v>1.041788861621823</v>
       </c>
       <c r="AGG3">
-        <v>1.040580157596747</v>
+        <v>1.041730635812965</v>
       </c>
       <c r="AGH3">
-        <v>1.040693661607828</v>
+        <v>1.04180388230313</v>
       </c>
       <c r="AGI3">
-        <v>1.040693661607828</v>
+        <v>1.041803882303128</v>
       </c>
       <c r="AGJ3">
-        <v>1.041347866014942</v>
+        <v>1.042258089256548</v>
       </c>
       <c r="AGK3">
-        <v>1.04072606114307</v>
+        <v>1.041774976006796</v>
       </c>
       <c r="AGL3">
-        <v>1.040576668562096</v>
+        <v>1.041728384266407</v>
       </c>
       <c r="AGM3">
-        <v>1.040693661607827</v>
+        <v>1.041803882303131</v>
       </c>
       <c r="AGN3">
-        <v>1.040693661607828</v>
+        <v>1.04180388230313</v>
       </c>
       <c r="AGO3">
-        <v>1.041347727431414</v>
+        <v>1.042257464748738</v>
       </c>
       <c r="AGP3">
-        <v>1.04071936427131</v>
+        <v>1.041760410910405</v>
       </c>
       <c r="AGQ3">
-        <v>1.040575077268686</v>
+        <v>1.041725980627996</v>
       </c>
       <c r="AGR3">
-        <v>1.040570451757176</v>
+        <v>1.04172743553539</v>
       </c>
       <c r="AGS3">
-        <v>1.040693661607827</v>
+        <v>1.041803882303131</v>
       </c>
       <c r="AGT3">
-        <v>1.040693661607827</v>
+        <v>1.041803882303131</v>
       </c>
       <c r="AGU3">
-        <v>1.041347592872493</v>
+        <v>1.04225685837727</v>
       </c>
       <c r="AGV3">
-        <v>1.040707929473664</v>
+        <v>1.041735541248379</v>
       </c>
       <c r="AGW3">
-        <v>1.040573604802373</v>
+        <v>1.041723756477151</v>
       </c>
       <c r="AGX3">
-        <v>1.040555902760141</v>
+        <v>1.041725215249331</v>
       </c>
       <c r="AGY3">
-        <v>1.040693661607827</v>
+        <v>1.041803882303131</v>
       </c>
       <c r="AGZ3">
-        <v>1.040693661607827</v>
+        <v>1.041803882303131</v>
       </c>
       <c r="AHA3">
-        <v>1.041347458654867</v>
+        <v>1.042256253543798</v>
       </c>
       <c r="AHB3">
-        <v>1.040705124764505</v>
+        <v>1.041729441256631</v>
       </c>
       <c r="AHC3">
-        <v>1.040571365788227</v>
+        <v>1.041720374460777</v>
       </c>
       <c r="AHD3">
-        <v>1.040521388192252</v>
+        <v>1.041719948066948</v>
       </c>
       <c r="AHE3">
-        <v>1.041347326007596</v>
+        <v>1.042255655786908</v>
       </c>
       <c r="AHF3">
-        <v>1.040703924795878</v>
+        <v>1.041726467014892</v>
       </c>
       <c r="AHG3">
-        <v>1.040697835146617</v>
+        <v>1.041715032272195</v>
       </c>
       <c r="AHH3">
-        <v>1.040568536286526</v>
+        <v>1.041716100516799</v>
       </c>
       <c r="AHI3">
-        <v>1.041344953998958</v>
+        <v>1.04224496665173</v>
       </c>
       <c r="AHJ3">
-        <v>1.040701954545792</v>
+        <v>1.041721583553895</v>
       </c>
       <c r="AHK3">
-        <v>1.040691652570361</v>
+        <v>1.041702811514944</v>
       </c>
       <c r="AHL3">
-        <v>1.040557521091505</v>
+        <v>1.041699462136375</v>
       </c>
       <c r="AHM3">
-        <v>1.041344724936685</v>
+        <v>1.042233857047603</v>
       </c>
       <c r="AHN3">
-        <v>1.041338833935835</v>
+        <v>1.042223025119134</v>
       </c>
       <c r="AHO3">
-        <v>1.040701564984113</v>
+        <v>1.041720617986496</v>
       </c>
       <c r="AHP3">
-        <v>1.040681260930019</v>
+        <v>1.041682270931436</v>
       </c>
       <c r="AHQ3">
-        <v>1.040537511267457</v>
+        <v>1.041669237428364</v>
       </c>
       <c r="AHR3">
-        <v>1.041344572817892</v>
+        <v>1.042226479002443</v>
       </c>
       <c r="AHS3">
-        <v>1.040701235812884</v>
+        <v>1.04171980210284</v>
       </c>
       <c r="AHT3">
-        <v>1.040700958421385</v>
+        <v>1.0417191145604</v>
       </c>
       <c r="AHU3">
-        <v>1.040700597581298</v>
+        <v>1.041718220182335</v>
       </c>
       <c r="AHV3">
-        <v>1.040699944516945</v>
+        <v>1.041716601497344</v>
       </c>
       <c r="AHW3">
-        <v>1.040698812220305</v>
+        <v>1.04171379498746</v>
       </c>
       <c r="AHX3">
-        <v>1.040689537519842</v>
+        <v>1.041690806720271</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3100,5451 +3100,5451 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.049598754503444</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.049525261202084</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.049517556454343</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.049510338315281</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.049504045134322</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.049494130903057</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.04881901749072</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.048788780223569</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.048763613180677</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.048741527094587</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.048725046699828</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.048709575665037</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.048700062391632</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.048676378604888</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.048484520193028</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.048484520193028</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.04825185922982</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.048484520193027</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.048235850742851</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.048484520193028</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.048217875081461</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.048484520193028</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1.048188607069646</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.048484520193028</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.048135361477435</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.048484520193027</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1.048112365443207</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.04748364324398</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.048484520193026</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.048110705949802</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.048107810842636</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.047310145686465</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.048484520193024</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.048106905604756</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1.048107656600695</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.047288721441975</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.046797178081734</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.048484520193022</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.048107434828679</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.047287605920137</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.047287000543857</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.046441213198828</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.046797178081734</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.048484520193021</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1.048107150421206</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.047287103121066</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1.04728285973715</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.046172226146965</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.046797178081734</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.04848452019302</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1.048106457760908</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.047286570261689</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1.046133443654027</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.046172226146967</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1.046797178081733</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>1.04848452019302</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1.048105864717229</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1.04728606275001</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1.045957769272134</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1.046172226146967</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1.046797178081733</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1.048484520193019</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1.04810302187847</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>1.047285758800713</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1.045924978523264</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1.045846729218017</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1.046172226146967</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>1.046797178081732</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1.048484520193019</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>1.048092973418007</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1.047285162474509</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>1.04553756822578</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>1.045838690278085</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1.045800492558302</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>1.046172226146967</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>1.04679717808173</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>1.048484520193017</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1.047282140270484</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>1.045402527116116</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>1.046172226146966</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>1.046797178081724</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>1.048484520193014</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>1.047270751932616</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>1.04537305673242</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>1.046172226146966</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>1.046797178081712</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>1.048484520193011</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>1.0453132954521</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>1.046172226146966</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>1.046797178081709</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>1.048484520193011</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>1.045256937798472</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>1.046797178081709</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>1.048484520193011</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>1.045224180627093</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>1.046797178081708</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>1.048484520193011</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>1.045202546963854</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>1.046797178081708</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>1.04848452019301</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1.045172676912309</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>1.046797178081683</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>1.04848452019301</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>1.045172396619891</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>1.04515456915248</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>1.046797178081682</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>1.045172057504781</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>1.04514430115592</v>
       </c>
       <c r="DG2">
-        <v>0</v>
+        <v>1.04679717808168</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>1.045171664446254</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>1.044739154106588</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>1.046797178081618</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>1.045171065148749</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>1.044698567269117</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>1.046797178081564</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>1.045170294670897</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>1.044696514603809</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>1.044595039597402</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>1.046797178081559</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>1.045169741541618</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>1.044696514603807</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>1.044695515174248</v>
       </c>
       <c r="DU2">
-        <v>0</v>
+        <v>1.044408340918534</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>1.046797178081555</v>
       </c>
       <c r="DW2">
-        <v>0</v>
+        <v>1.045168959974305</v>
       </c>
       <c r="DX2">
-        <v>0</v>
+        <v>1.044696514603805</v>
       </c>
       <c r="DY2">
-        <v>0</v>
+        <v>1.044690820195801</v>
       </c>
       <c r="DZ2">
-        <v>0</v>
+        <v>1.044324382602656</v>
       </c>
       <c r="EA2">
-        <v>0</v>
+        <v>1.046797178081552</v>
       </c>
       <c r="EB2">
-        <v>0</v>
+        <v>1.045168114375018</v>
       </c>
       <c r="EC2">
-        <v>0</v>
+        <v>1.044696514603804</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>1.044683570554066</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>1.044678713467597</v>
       </c>
       <c r="EF2">
-        <v>0</v>
+        <v>1.044299402696809</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>1.046797178081543</v>
       </c>
       <c r="EH2">
-        <v>0</v>
+        <v>1.045167316907176</v>
       </c>
       <c r="EI2">
-        <v>0</v>
+        <v>1.044696514603803</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>1.044682946218269</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>1.044669706756371</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>1.044271205326287</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>1.046797178081536</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>1.04516600574349</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>1.044696514603801</v>
       </c>
       <c r="EP2">
-        <v>0</v>
+        <v>1.044682333626258</v>
       </c>
       <c r="EQ2">
-        <v>0</v>
+        <v>1.04466367520923</v>
       </c>
       <c r="ER2">
-        <v>0</v>
+        <v>1.04424468621496</v>
       </c>
       <c r="ES2">
-        <v>0</v>
+        <v>1.046797178081535</v>
       </c>
       <c r="ET2">
-        <v>0</v>
+        <v>1.045159771458589</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>1.0446965146038</v>
       </c>
       <c r="EV2">
-        <v>0</v>
+        <v>1.044681838984163</v>
       </c>
       <c r="EW2">
-        <v>0</v>
+        <v>1.044661324618855</v>
       </c>
       <c r="EX2">
-        <v>0</v>
+        <v>1.044595522291311</v>
       </c>
       <c r="EY2">
-        <v>0</v>
+        <v>1.044213743476409</v>
       </c>
       <c r="EZ2">
-        <v>0</v>
+        <v>1.046797178081534</v>
       </c>
       <c r="FA2">
-        <v>0</v>
+        <v>1.045158413354722</v>
       </c>
       <c r="FB2">
-        <v>0</v>
+        <v>1.044696514603799</v>
       </c>
       <c r="FC2">
-        <v>0</v>
+        <v>1.044681096565692</v>
       </c>
       <c r="FD2">
-        <v>0</v>
+        <v>1.044655090728183</v>
       </c>
       <c r="FE2">
-        <v>0</v>
+        <v>1.0445913740675</v>
       </c>
       <c r="FF2">
-        <v>0</v>
+        <v>1.044204839864216</v>
       </c>
       <c r="FG2">
-        <v>0</v>
+        <v>1.046797178081534</v>
       </c>
       <c r="FH2">
-        <v>0</v>
+        <v>1.045135993108452</v>
       </c>
       <c r="FI2">
-        <v>0</v>
+        <v>1.045154058099172</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>1.044696514603798</v>
       </c>
       <c r="FK2">
-        <v>0</v>
+        <v>1.04468020149729</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>1.044652925362337</v>
       </c>
       <c r="FM2">
-        <v>0</v>
+        <v>1.044587584445415</v>
       </c>
       <c r="FN2">
-        <v>0</v>
+        <v>1.044154257017782</v>
       </c>
       <c r="FO2">
-        <v>0</v>
+        <v>1.046797178081534</v>
       </c>
       <c r="FP2">
-        <v>0</v>
+        <v>1.045131757545286</v>
       </c>
       <c r="FQ2">
-        <v>0</v>
+        <v>1.045148276051412</v>
       </c>
       <c r="FR2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="FS2">
-        <v>0</v>
+        <v>1.04467952529168</v>
       </c>
       <c r="FT2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="FU2">
-        <v>0</v>
+        <v>1.044617171129724</v>
       </c>
       <c r="FV2">
-        <v>0</v>
+        <v>1.044586010184378</v>
       </c>
       <c r="FW2">
-        <v>0</v>
+        <v>1.044125687523878</v>
       </c>
       <c r="FX2">
-        <v>0</v>
+        <v>1.045123018725297</v>
       </c>
       <c r="FY2">
-        <v>0</v>
+        <v>1.045147558067016</v>
       </c>
       <c r="FZ2">
-        <v>0</v>
+        <v>1.045141506046676</v>
       </c>
       <c r="GA2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="GB2">
-        <v>0</v>
+        <v>1.044678742804092</v>
       </c>
       <c r="GC2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="GD2">
-        <v>0</v>
+        <v>1.044613309638915</v>
       </c>
       <c r="GE2">
-        <v>0</v>
+        <v>1.044582616883348</v>
       </c>
       <c r="GF2">
-        <v>0</v>
+        <v>1.044104479602833</v>
       </c>
       <c r="GG2">
-        <v>0</v>
+        <v>1.045144732608333</v>
       </c>
       <c r="GH2">
-        <v>0</v>
+        <v>1.045113486435047</v>
       </c>
       <c r="GI2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="GJ2">
-        <v>0</v>
+        <v>1.044678007063858</v>
       </c>
       <c r="GK2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="GL2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="GM2">
-        <v>0</v>
+        <v>1.044609574514729</v>
       </c>
       <c r="GN2">
-        <v>0</v>
+        <v>1.044573974186805</v>
       </c>
       <c r="GO2">
-        <v>0</v>
+        <v>1.044085412694913</v>
       </c>
       <c r="GP2">
-        <v>0</v>
+        <v>1.045139687897503</v>
       </c>
       <c r="GQ2">
-        <v>0</v>
+        <v>1.04511166044265</v>
       </c>
       <c r="GR2">
-        <v>0</v>
+        <v>1.045111376719029</v>
       </c>
       <c r="GS2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="GT2">
-        <v>0</v>
+        <v>1.044677215450655</v>
       </c>
       <c r="GU2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="GV2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="GW2">
-        <v>0</v>
+        <v>1.044606586789745</v>
       </c>
       <c r="GX2">
-        <v>0</v>
+        <v>1.044568903560485</v>
       </c>
       <c r="GY2">
-        <v>0</v>
+        <v>1.044061726185106</v>
       </c>
       <c r="GZ2">
-        <v>0</v>
+        <v>1.045133570334104</v>
       </c>
       <c r="HA2">
-        <v>0</v>
+        <v>1.045138731980959</v>
       </c>
       <c r="HB2">
-        <v>0</v>
+        <v>1.045107043882577</v>
       </c>
       <c r="HC2">
-        <v>0</v>
+        <v>1.045111078508574</v>
       </c>
       <c r="HD2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="HE2">
-        <v>0</v>
+        <v>1.044676005311687</v>
       </c>
       <c r="HF2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>1.044604206831261</v>
       </c>
       <c r="HH2">
-        <v>0</v>
+        <v>1.044565352076828</v>
       </c>
       <c r="HI2">
-        <v>0</v>
+        <v>1.044018016678305</v>
       </c>
       <c r="HJ2">
-        <v>0</v>
+        <v>1.045113546734665</v>
       </c>
       <c r="HK2">
-        <v>0</v>
+        <v>1.045137006716462</v>
       </c>
       <c r="HL2">
-        <v>0</v>
+        <v>1.045110838010278</v>
       </c>
       <c r="HM2">
-        <v>0</v>
+        <v>1.044696514603797</v>
       </c>
       <c r="HN2">
-        <v>0</v>
+        <v>1.044672700552163</v>
       </c>
       <c r="HO2">
-        <v>0</v>
+        <v>1.044652925362338</v>
       </c>
       <c r="HP2">
-        <v>0</v>
+        <v>1.044599175217901</v>
       </c>
       <c r="HQ2">
-        <v>0</v>
+        <v>1.044558520451772</v>
       </c>
       <c r="HR2">
-        <v>0</v>
+        <v>1.043979908923236</v>
       </c>
       <c r="HS2">
-        <v>0</v>
+        <v>1.045104914895634</v>
       </c>
       <c r="HT2">
-        <v>0</v>
+        <v>1.045136390701112</v>
       </c>
       <c r="HU2">
-        <v>0</v>
+        <v>1.045110645816547</v>
       </c>
       <c r="HV2">
-        <v>0</v>
+        <v>1.044672418777732</v>
       </c>
       <c r="HW2">
-        <v>0</v>
+        <v>1.044652925362337</v>
       </c>
       <c r="HX2">
-        <v>0</v>
+        <v>1.044595212702513</v>
       </c>
       <c r="HY2">
-        <v>0</v>
+        <v>1.044555120112296</v>
       </c>
       <c r="HZ2">
-        <v>0</v>
+        <v>1.04395398624944</v>
       </c>
       <c r="IA2">
-        <v>0</v>
+        <v>1.045067690826852</v>
       </c>
       <c r="IB2">
-        <v>0</v>
+        <v>1.045136390701112</v>
       </c>
       <c r="IC2">
-        <v>0</v>
+        <v>1.045110352430978</v>
       </c>
       <c r="ID2">
-        <v>0</v>
+        <v>1.044672288628763</v>
       </c>
       <c r="IE2">
-        <v>0</v>
+        <v>1.044652925362336</v>
       </c>
       <c r="IF2">
-        <v>0</v>
+        <v>1.044592464104396</v>
       </c>
       <c r="IG2">
-        <v>0</v>
+        <v>1.044552705661337</v>
       </c>
       <c r="IH2">
-        <v>0</v>
+        <v>1.043936957273089</v>
       </c>
       <c r="II2">
-        <v>0</v>
+        <v>1.0450577141029</v>
       </c>
       <c r="IJ2">
-        <v>0</v>
+        <v>1.045110008523977</v>
       </c>
       <c r="IK2">
-        <v>0</v>
+        <v>1.044672149418687</v>
       </c>
       <c r="IL2">
-        <v>0</v>
+        <v>1.044652925362335</v>
       </c>
       <c r="IM2">
-        <v>0</v>
+        <v>1.044589722054246</v>
       </c>
       <c r="IN2">
-        <v>0</v>
+        <v>1.044525085375968</v>
       </c>
       <c r="IO2">
-        <v>0</v>
+        <v>1.043900308017366</v>
       </c>
       <c r="IP2">
-        <v>0</v>
+        <v>1.045047340230025</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>1.045037464736909</v>
       </c>
       <c r="IR2">
-        <v>0</v>
+        <v>1.045109480303249</v>
       </c>
       <c r="IS2">
-        <v>0</v>
+        <v>1.044672016397329</v>
       </c>
       <c r="IT2">
-        <v>0</v>
+        <v>1.044652925362335</v>
       </c>
       <c r="IU2">
-        <v>0</v>
+        <v>1.044585710557208</v>
       </c>
       <c r="IV2">
-        <v>0</v>
+        <v>1.044516940606711</v>
       </c>
       <c r="IW2">
-        <v>0</v>
+        <v>1.043895968096664</v>
       </c>
       <c r="IX2">
-        <v>0</v>
+        <v>1.043876241639293</v>
       </c>
       <c r="IY2">
-        <v>0</v>
+        <v>1.045107547375</v>
       </c>
       <c r="IZ2">
-        <v>0</v>
+        <v>1.044671868205837</v>
       </c>
       <c r="JA2">
-        <v>0</v>
+        <v>1.044652925362334</v>
       </c>
       <c r="JB2">
-        <v>0</v>
+        <v>1.044570623117669</v>
       </c>
       <c r="JC2">
-        <v>0</v>
+        <v>1.044515118380039</v>
       </c>
       <c r="JD2">
-        <v>0</v>
+        <v>1.043895368168107</v>
       </c>
       <c r="JE2">
-        <v>0</v>
+        <v>1.043785996238336</v>
       </c>
       <c r="JF2">
-        <v>0</v>
+        <v>1.045098139812243</v>
       </c>
       <c r="JG2">
-        <v>0</v>
+        <v>1.04467156231782</v>
       </c>
       <c r="JH2">
-        <v>0</v>
+        <v>1.044652925362334</v>
       </c>
       <c r="JI2">
-        <v>0</v>
+        <v>1.044567101694763</v>
       </c>
       <c r="JJ2">
-        <v>0</v>
+        <v>1.044482084846457</v>
       </c>
       <c r="JK2">
-        <v>0</v>
+        <v>1.044514675805837</v>
       </c>
       <c r="JL2">
-        <v>0</v>
+        <v>1.043895092358903</v>
       </c>
       <c r="JM2">
-        <v>0</v>
+        <v>1.04377805993378</v>
       </c>
       <c r="JN2">
-        <v>0</v>
+        <v>1.043756161911713</v>
       </c>
       <c r="JO2">
-        <v>0</v>
+        <v>1.044671243737417</v>
       </c>
       <c r="JP2">
-        <v>0</v>
+        <v>1.044652925362335</v>
       </c>
       <c r="JQ2">
-        <v>0</v>
+        <v>1.044565488439228</v>
       </c>
       <c r="JR2">
-        <v>0</v>
+        <v>1.044449347472352</v>
       </c>
       <c r="JS2">
-        <v>0</v>
+        <v>1.044514156915437</v>
       </c>
       <c r="JT2">
-        <v>0</v>
+        <v>1.043894764776609</v>
       </c>
       <c r="JU2">
-        <v>0</v>
+        <v>1.04377748305158</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>1.043648012484761</v>
       </c>
       <c r="JW2">
-        <v>0</v>
+        <v>1.044670032289552</v>
       </c>
       <c r="JX2">
-        <v>0</v>
+        <v>1.044652925362335</v>
       </c>
       <c r="JY2">
-        <v>0</v>
+        <v>1.044564427845561</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>1.044513687982872</v>
       </c>
       <c r="KA2">
-        <v>0</v>
+        <v>1.043894259356343</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>1.043777007567223</v>
       </c>
       <c r="KC2">
-        <v>0</v>
+        <v>1.043610101096552</v>
       </c>
       <c r="KD2">
-        <v>0</v>
+        <v>1.043634940526939</v>
       </c>
       <c r="KE2">
-        <v>0</v>
+        <v>1.044663600540535</v>
       </c>
       <c r="KF2">
-        <v>0</v>
+        <v>1.044652925362335</v>
       </c>
       <c r="KG2">
-        <v>0</v>
+        <v>1.044561161660031</v>
       </c>
       <c r="KH2">
-        <v>0</v>
+        <v>1.044563911698729</v>
       </c>
       <c r="KI2">
-        <v>0</v>
+        <v>1.044513213047931</v>
       </c>
       <c r="KJ2">
-        <v>0</v>
+        <v>1.043893808991336</v>
       </c>
       <c r="KK2">
-        <v>0</v>
+        <v>1.043776332178371</v>
       </c>
       <c r="KL2">
-        <v>0</v>
+        <v>1.043592651376353</v>
       </c>
       <c r="KM2">
-        <v>0</v>
+        <v>1.043580156487508</v>
       </c>
       <c r="KN2">
-        <v>0</v>
+        <v>1.044559661312763</v>
       </c>
       <c r="KO2">
-        <v>0</v>
+        <v>1.044563546403196</v>
       </c>
       <c r="KP2">
-        <v>0</v>
+        <v>1.044512702396847</v>
       </c>
       <c r="KQ2">
-        <v>0</v>
+        <v>1.043893458842748</v>
       </c>
       <c r="KR2">
-        <v>0</v>
+        <v>1.043773298636294</v>
       </c>
       <c r="KS2">
-        <v>0</v>
+        <v>1.043478659309544</v>
       </c>
       <c r="KT2">
-        <v>0</v>
+        <v>1.043568063521024</v>
       </c>
       <c r="KU2">
-        <v>0</v>
+        <v>1.044557122002556</v>
       </c>
       <c r="KV2">
-        <v>0</v>
+        <v>1.044563121306851</v>
       </c>
       <c r="KW2">
-        <v>0</v>
+        <v>1.044509740904035</v>
       </c>
       <c r="KX2">
-        <v>0</v>
+        <v>1.043893022995528</v>
       </c>
       <c r="KY2">
-        <v>0</v>
+        <v>1.043772714647283</v>
       </c>
       <c r="KZ2">
-        <v>0</v>
+        <v>1.04347014509361</v>
       </c>
       <c r="LA2">
-        <v>0</v>
+        <v>1.043564045274693</v>
       </c>
       <c r="LB2">
-        <v>0</v>
+        <v>1.044552247961669</v>
       </c>
       <c r="LC2">
-        <v>0</v>
+        <v>1.044562308233507</v>
       </c>
       <c r="LD2">
-        <v>0</v>
+        <v>1.044497214910315</v>
       </c>
       <c r="LE2">
-        <v>0</v>
+        <v>1.043892572202432</v>
       </c>
       <c r="LF2">
-        <v>0</v>
+        <v>1.043772282251436</v>
       </c>
       <c r="LG2">
-        <v>0</v>
+        <v>1.043468892954557</v>
       </c>
       <c r="LH2">
-        <v>0</v>
+        <v>1.043319924703824</v>
       </c>
       <c r="LI2">
-        <v>0</v>
+        <v>1.043561948032951</v>
       </c>
       <c r="LJ2">
-        <v>0</v>
+        <v>1.044537897965005</v>
       </c>
       <c r="LK2">
-        <v>0</v>
+        <v>1.044559189955854</v>
       </c>
       <c r="LL2">
-        <v>0</v>
+        <v>1.04389204046752</v>
       </c>
       <c r="LM2">
-        <v>0</v>
+        <v>1.043771784178299</v>
       </c>
       <c r="LN2">
-        <v>0</v>
+        <v>1.043462444061094</v>
       </c>
       <c r="LO2">
-        <v>0</v>
+        <v>1.043247835166041</v>
       </c>
       <c r="LP2">
-        <v>0</v>
+        <v>1.043560152728872</v>
       </c>
       <c r="LQ2">
-        <v>0</v>
+        <v>1.044548548457639</v>
       </c>
       <c r="LR2">
-        <v>0</v>
+        <v>1.043891737449394</v>
       </c>
       <c r="LS2">
-        <v>0</v>
+        <v>1.043771290096922</v>
       </c>
       <c r="LT2">
-        <v>0</v>
+        <v>1.043460192629925</v>
       </c>
       <c r="LU2">
-        <v>0</v>
+        <v>1.043230790329192</v>
       </c>
       <c r="LV2">
-        <v>0</v>
+        <v>1.043114010073174</v>
       </c>
       <c r="LW2">
-        <v>0</v>
+        <v>1.043558110892562</v>
       </c>
       <c r="LX2">
-        <v>0</v>
+        <v>1.0438903685354</v>
       </c>
       <c r="LY2">
-        <v>0</v>
+        <v>1.043766949537325</v>
       </c>
       <c r="LZ2">
-        <v>0</v>
+        <v>1.043455292536024</v>
       </c>
       <c r="MA2">
-        <v>0</v>
+        <v>1.043224039729197</v>
       </c>
       <c r="MB2">
-        <v>0</v>
+        <v>1.043101305551631</v>
       </c>
       <c r="MC2">
-        <v>0</v>
+        <v>1.043090608939456</v>
       </c>
       <c r="MD2">
-        <v>0</v>
+        <v>1.043556502277253</v>
       </c>
       <c r="ME2">
-        <v>0</v>
+        <v>1.043889835782503</v>
       </c>
       <c r="MF2">
-        <v>0</v>
+        <v>1.043758076852358</v>
       </c>
       <c r="MG2">
-        <v>0</v>
+        <v>1.043453284693768</v>
       </c>
       <c r="MH2">
-        <v>0</v>
+        <v>1.043454347353897</v>
       </c>
       <c r="MI2">
-        <v>0</v>
+        <v>1.043094918294673</v>
       </c>
       <c r="MJ2">
-        <v>0</v>
+        <v>1.043070561102666</v>
       </c>
       <c r="MK2">
-        <v>0</v>
+        <v>1.043555153623206</v>
       </c>
       <c r="ML2">
-        <v>0</v>
+        <v>1.043889650704648</v>
       </c>
       <c r="MM2">
-        <v>0</v>
+        <v>1.043450280356073</v>
       </c>
       <c r="MN2">
-        <v>0</v>
+        <v>1.043454215746255</v>
       </c>
       <c r="MO2">
-        <v>0</v>
+        <v>1.043094323897753</v>
       </c>
       <c r="MP2">
-        <v>0</v>
+        <v>1.043056459361939</v>
       </c>
       <c r="MQ2">
-        <v>0</v>
+        <v>1.043553936710692</v>
       </c>
       <c r="MR2">
-        <v>0</v>
+        <v>1.043889511273108</v>
       </c>
       <c r="MS2">
-        <v>0</v>
+        <v>1.043454072811103</v>
       </c>
       <c r="MT2">
-        <v>0</v>
+        <v>1.043094078419236</v>
       </c>
       <c r="MU2">
-        <v>0</v>
+        <v>1.043038641570127</v>
       </c>
       <c r="MV2">
-        <v>0</v>
+        <v>1.043552929550962</v>
       </c>
       <c r="MW2">
-        <v>0</v>
+        <v>1.04388940925862</v>
       </c>
       <c r="MX2">
-        <v>0</v>
+        <v>1.043453947610176</v>
       </c>
       <c r="MY2">
-        <v>0</v>
+        <v>1.043093905208696</v>
       </c>
       <c r="MZ2">
-        <v>0</v>
+        <v>1.043027477118447</v>
       </c>
       <c r="NA2">
-        <v>0</v>
+        <v>1.043551761186109</v>
       </c>
       <c r="NB2">
-        <v>0</v>
+        <v>1.043889357455087</v>
       </c>
       <c r="NC2">
-        <v>0</v>
+        <v>1.043453814584191</v>
       </c>
       <c r="ND2">
-        <v>0</v>
+        <v>1.043093728041228</v>
       </c>
       <c r="NE2">
-        <v>0</v>
+        <v>1.043010332946311</v>
       </c>
       <c r="NF2">
-        <v>0</v>
+        <v>1.043550477071543</v>
       </c>
       <c r="NG2">
-        <v>0</v>
+        <v>1.043889281292894</v>
       </c>
       <c r="NH2">
-        <v>0</v>
+        <v>1.043453624727638</v>
       </c>
       <c r="NI2">
-        <v>0</v>
+        <v>1.04309351899627</v>
       </c>
       <c r="NJ2">
-        <v>0</v>
+        <v>1.042993242270462</v>
       </c>
       <c r="NK2">
-        <v>0</v>
+        <v>1.043543476533362</v>
       </c>
       <c r="NL2">
-        <v>0</v>
+        <v>1.043889153620186</v>
       </c>
       <c r="NM2">
-        <v>0</v>
+        <v>1.043453393922193</v>
       </c>
       <c r="NN2">
-        <v>0</v>
+        <v>1.043093255300982</v>
       </c>
       <c r="NO2">
-        <v>0</v>
+        <v>1.042974066063054</v>
       </c>
       <c r="NP2">
-        <v>0</v>
+        <v>1.043491562186026</v>
       </c>
       <c r="NQ2">
-        <v>0</v>
+        <v>1.043542126916165</v>
       </c>
       <c r="NR2">
-        <v>0</v>
+        <v>1.043888584144736</v>
       </c>
       <c r="NS2">
-        <v>0</v>
+        <v>1.043451963316314</v>
       </c>
       <c r="NT2">
-        <v>0</v>
+        <v>1.043093019136187</v>
       </c>
       <c r="NU2">
-        <v>0</v>
+        <v>1.042960189526036</v>
       </c>
       <c r="NV2">
-        <v>0</v>
+        <v>1.043441840109141</v>
       </c>
       <c r="NW2">
-        <v>0</v>
+        <v>1.043533840084961</v>
       </c>
       <c r="NX2">
-        <v>0</v>
+        <v>1.043542126916176</v>
       </c>
       <c r="NY2">
-        <v>0</v>
+        <v>1.043886490769034</v>
       </c>
       <c r="NZ2">
-        <v>0</v>
+        <v>1.043447068168174</v>
       </c>
       <c r="OA2">
-        <v>0</v>
+        <v>1.04309283226493</v>
       </c>
       <c r="OB2">
-        <v>0</v>
+        <v>1.042943650013356</v>
       </c>
       <c r="OC2">
-        <v>0</v>
+        <v>1.043439626624336</v>
       </c>
       <c r="OD2">
-        <v>0</v>
+        <v>1.043530811454304</v>
       </c>
       <c r="OE2">
-        <v>0</v>
+        <v>1.043542126916235</v>
       </c>
       <c r="OF2">
-        <v>0</v>
+        <v>1.043092511548899</v>
       </c>
       <c r="OG2">
-        <v>0</v>
+        <v>1.04291965152382</v>
       </c>
       <c r="OH2">
-        <v>0</v>
+        <v>1.04342447493724</v>
       </c>
       <c r="OI2">
-        <v>0</v>
+        <v>1.043401621073489</v>
       </c>
       <c r="OJ2">
-        <v>0</v>
+        <v>1.043530503179396</v>
       </c>
       <c r="OK2">
-        <v>0</v>
+        <v>1.04354212691624</v>
       </c>
       <c r="OL2">
-        <v>0</v>
+        <v>1.043091391963826</v>
       </c>
       <c r="OM2">
-        <v>0</v>
+        <v>1.042901859642019</v>
       </c>
       <c r="ON2">
-        <v>0</v>
+        <v>1.043423086651491</v>
       </c>
       <c r="OO2">
-        <v>0</v>
+        <v>1.04338328554745</v>
       </c>
       <c r="OP2">
-        <v>0</v>
+        <v>1.04353028804384</v>
       </c>
       <c r="OQ2">
-        <v>0</v>
+        <v>1.043542126916241</v>
       </c>
       <c r="OR2">
-        <v>0</v>
+        <v>1.043084547234959</v>
       </c>
       <c r="OS2">
-        <v>0</v>
+        <v>1.042884696569341</v>
       </c>
       <c r="OT2">
-        <v>0</v>
+        <v>1.043422297439707</v>
       </c>
       <c r="OU2">
-        <v>0</v>
+        <v>1.043327970139988</v>
       </c>
       <c r="OV2">
-        <v>0</v>
+        <v>1.043383285547446</v>
       </c>
       <c r="OW2">
-        <v>0</v>
+        <v>1.043530065182518</v>
       </c>
       <c r="OX2">
-        <v>0</v>
+        <v>1.043542126916243</v>
       </c>
       <c r="OY2">
-        <v>0</v>
+        <v>1.042867899146583</v>
       </c>
       <c r="OZ2">
-        <v>0</v>
+        <v>1.043421761545944</v>
       </c>
       <c r="PA2">
-        <v>0</v>
+        <v>1.043249187343204</v>
       </c>
       <c r="PB2">
-        <v>0</v>
+        <v>1.043383285547444</v>
       </c>
       <c r="PC2">
-        <v>0</v>
+        <v>1.043529129295026</v>
       </c>
       <c r="PD2">
-        <v>0</v>
+        <v>1.043542126916244</v>
       </c>
       <c r="PE2">
-        <v>0</v>
+        <v>1.042847697778561</v>
       </c>
       <c r="PF2">
-        <v>0</v>
+        <v>1.043420888180945</v>
       </c>
       <c r="PG2">
-        <v>0</v>
+        <v>1.04323270113023</v>
       </c>
       <c r="PH2">
-        <v>0</v>
+        <v>1.043383285547444</v>
       </c>
       <c r="PI2">
-        <v>0</v>
+        <v>1.043528900773255</v>
       </c>
       <c r="PJ2">
-        <v>0</v>
+        <v>1.043542126916265</v>
       </c>
       <c r="PK2">
-        <v>0</v>
+        <v>1.042813864369595</v>
       </c>
       <c r="PL2">
-        <v>0</v>
+        <v>1.042847697778561</v>
       </c>
       <c r="PM2">
-        <v>0</v>
+        <v>1.043417985062323</v>
       </c>
       <c r="PN2">
-        <v>0</v>
+        <v>1.043228487445175</v>
       </c>
       <c r="PO2">
-        <v>0</v>
+        <v>1.043383285547443</v>
       </c>
       <c r="PP2">
-        <v>0</v>
+        <v>1.04352868278835</v>
       </c>
       <c r="PQ2">
-        <v>0</v>
+        <v>1.043542126916273</v>
       </c>
       <c r="PR2">
-        <v>0</v>
+        <v>1.042699748319149</v>
       </c>
       <c r="PS2">
-        <v>0</v>
+        <v>1.042813864369595</v>
       </c>
       <c r="PT2">
-        <v>0</v>
+        <v>1.043414752981228</v>
       </c>
       <c r="PU2">
-        <v>0</v>
+        <v>1.043226279956402</v>
       </c>
       <c r="PV2">
-        <v>0</v>
+        <v>1.043383285547442</v>
       </c>
       <c r="PW2">
-        <v>0</v>
+        <v>1.04352846598908</v>
       </c>
       <c r="PX2">
-        <v>0</v>
+        <v>1.043542126916275</v>
       </c>
       <c r="PY2">
-        <v>0</v>
+        <v>1.042538346966937</v>
       </c>
       <c r="PZ2">
-        <v>0</v>
+        <v>1.042699748319149</v>
       </c>
       <c r="QA2">
-        <v>0</v>
+        <v>1.043412935271531</v>
       </c>
       <c r="QB2">
-        <v>0</v>
+        <v>1.04322444997416</v>
       </c>
       <c r="QC2">
-        <v>0</v>
+        <v>1.043383285547442</v>
       </c>
       <c r="QD2">
-        <v>0</v>
+        <v>1.043528217292375</v>
       </c>
       <c r="QE2">
-        <v>0</v>
+        <v>1.043542126916279</v>
       </c>
       <c r="QF2">
-        <v>0</v>
+        <v>1.042422535154989</v>
       </c>
       <c r="QG2">
-        <v>0</v>
+        <v>1.042538346966937</v>
       </c>
       <c r="QH2">
-        <v>0</v>
+        <v>1.043411227726026</v>
       </c>
       <c r="QI2">
-        <v>0</v>
+        <v>1.043222966875448</v>
       </c>
       <c r="QJ2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="QK2">
-        <v>0</v>
+        <v>1.04352735843297</v>
       </c>
       <c r="QL2">
-        <v>0</v>
+        <v>1.043542126916283</v>
       </c>
       <c r="QM2">
-        <v>0</v>
+        <v>1.042387398358189</v>
       </c>
       <c r="QN2">
-        <v>0</v>
+        <v>1.042422535154989</v>
       </c>
       <c r="QO2">
-        <v>0</v>
+        <v>1.043409598586702</v>
       </c>
       <c r="QP2">
-        <v>0</v>
+        <v>1.043220699857043</v>
       </c>
       <c r="QQ2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="QR2">
-        <v>0</v>
+        <v>1.043523173042568</v>
       </c>
       <c r="QS2">
-        <v>0</v>
+        <v>1.043542126916287</v>
       </c>
       <c r="QT2">
-        <v>0</v>
+        <v>1.042285506741928</v>
       </c>
       <c r="QU2">
-        <v>0</v>
+        <v>1.042387398358189</v>
       </c>
       <c r="QV2">
-        <v>0</v>
+        <v>1.042383921976538</v>
       </c>
       <c r="QW2">
-        <v>0</v>
+        <v>1.043406923782999</v>
       </c>
       <c r="QX2">
-        <v>0</v>
+        <v>1.043218656174592</v>
       </c>
       <c r="QY2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="QZ2">
-        <v>0</v>
+        <v>1.043542126916291</v>
       </c>
       <c r="RA2">
-        <v>0</v>
+        <v>1.042172302667379</v>
       </c>
       <c r="RB2">
-        <v>0</v>
+        <v>1.042285506741928</v>
       </c>
       <c r="RC2">
-        <v>0</v>
+        <v>1.042285506741928</v>
       </c>
       <c r="RD2">
-        <v>0</v>
+        <v>1.042383414294099</v>
       </c>
       <c r="RE2">
-        <v>0</v>
+        <v>1.043405060731381</v>
       </c>
       <c r="RF2">
-        <v>0</v>
+        <v>1.043216711092766</v>
       </c>
       <c r="RG2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="RH2">
-        <v>0</v>
+        <v>1.043542126916311</v>
       </c>
       <c r="RI2">
-        <v>0</v>
+        <v>1.042130819749919</v>
       </c>
       <c r="RJ2">
-        <v>0</v>
+        <v>1.042172302667379</v>
       </c>
       <c r="RK2">
-        <v>0</v>
+        <v>1.042383137468143</v>
       </c>
       <c r="RL2">
-        <v>0</v>
+        <v>1.0434037517103</v>
       </c>
       <c r="RM2">
-        <v>0</v>
+        <v>1.043214519839962</v>
       </c>
       <c r="RN2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="RO2">
-        <v>0</v>
+        <v>1.043542126916313</v>
       </c>
       <c r="RP2">
-        <v>0</v>
+        <v>1.042053853428895</v>
       </c>
       <c r="RQ2">
-        <v>0</v>
+        <v>1.042130819749919</v>
       </c>
       <c r="RR2">
-        <v>0</v>
+        <v>1.042072746305098</v>
       </c>
       <c r="RS2">
-        <v>0</v>
+        <v>1.042382949940272</v>
       </c>
       <c r="RT2">
-        <v>0</v>
+        <v>1.043403126252211</v>
       </c>
       <c r="RU2">
-        <v>0</v>
+        <v>1.043212205171746</v>
       </c>
       <c r="RV2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="RW2">
-        <v>0</v>
+        <v>1.043542126916313</v>
       </c>
       <c r="RX2">
-        <v>0</v>
+        <v>1.041943545179665</v>
       </c>
       <c r="RY2">
-        <v>0</v>
+        <v>1.042053853428895</v>
       </c>
       <c r="RZ2">
-        <v>0</v>
+        <v>1.042070581803991</v>
       </c>
       <c r="SA2">
-        <v>0</v>
+        <v>1.042064984740763</v>
       </c>
       <c r="SB2">
-        <v>0</v>
+        <v>1.042382665097479</v>
       </c>
       <c r="SC2">
-        <v>0</v>
+        <v>1.04340273004166</v>
       </c>
       <c r="SD2">
-        <v>0</v>
+        <v>1.043207144211101</v>
       </c>
       <c r="SE2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="SF2">
-        <v>0</v>
+        <v>1.043542126916313</v>
       </c>
       <c r="SG2">
-        <v>0</v>
+        <v>1.041876229293608</v>
       </c>
       <c r="SH2">
-        <v>0</v>
+        <v>1.041943545179665</v>
       </c>
       <c r="SI2">
-        <v>0</v>
+        <v>1.042069666920689</v>
       </c>
       <c r="SJ2">
-        <v>0</v>
+        <v>1.042060018224841</v>
       </c>
       <c r="SK2">
-        <v>0</v>
+        <v>1.042382232820424</v>
       </c>
       <c r="SL2">
-        <v>0</v>
+        <v>1.043402462154517</v>
       </c>
       <c r="SM2">
-        <v>0</v>
+        <v>1.043092359999176</v>
       </c>
       <c r="SN2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="SO2">
-        <v>0</v>
+        <v>1.043542126916313</v>
       </c>
       <c r="SP2">
-        <v>0</v>
+        <v>1.041864636929403</v>
       </c>
       <c r="SQ2">
-        <v>0</v>
+        <v>1.041876229293608</v>
       </c>
       <c r="SR2">
-        <v>0</v>
+        <v>1.042069129353205</v>
       </c>
       <c r="SS2">
-        <v>0</v>
+        <v>1.042381926134134</v>
       </c>
       <c r="ST2">
-        <v>0</v>
+        <v>1.043402088484362</v>
       </c>
       <c r="SU2">
-        <v>0</v>
+        <v>1.043081702591115</v>
       </c>
       <c r="SV2">
-        <v>0</v>
+        <v>1.043075325241666</v>
       </c>
       <c r="SW2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="SX2">
-        <v>0</v>
+        <v>1.041850674200745</v>
       </c>
       <c r="SY2">
-        <v>0</v>
+        <v>1.041864636929403</v>
       </c>
       <c r="SZ2">
-        <v>0</v>
+        <v>1.041768796694636</v>
       </c>
       <c r="TA2">
-        <v>0</v>
+        <v>1.042068634629342</v>
       </c>
       <c r="TB2">
-        <v>0</v>
+        <v>1.042381716602421</v>
       </c>
       <c r="TC2">
-        <v>0</v>
+        <v>1.043401803296362</v>
       </c>
       <c r="TD2">
-        <v>0</v>
+        <v>1.043072304201038</v>
       </c>
       <c r="TE2">
-        <v>0</v>
+        <v>1.043066135471411</v>
       </c>
       <c r="TF2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="TG2">
-        <v>0</v>
+        <v>1.041840395971331</v>
       </c>
       <c r="TH2">
-        <v>0</v>
+        <v>1.041850674200745</v>
       </c>
       <c r="TI2">
-        <v>0</v>
+        <v>1.04171216921198</v>
       </c>
       <c r="TJ2">
-        <v>0</v>
+        <v>1.042068193871969</v>
       </c>
       <c r="TK2">
-        <v>0</v>
+        <v>1.042381551031249</v>
       </c>
       <c r="TL2">
-        <v>0</v>
+        <v>1.043399768131769</v>
       </c>
       <c r="TM2">
-        <v>0</v>
+        <v>1.043064763032917</v>
       </c>
       <c r="TN2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="TO2">
-        <v>0</v>
+        <v>1.041826402152497</v>
       </c>
       <c r="TP2">
-        <v>0</v>
+        <v>1.041840395971331</v>
       </c>
       <c r="TQ2">
-        <v>0</v>
+        <v>1.041667304063403</v>
       </c>
       <c r="TR2">
-        <v>0</v>
+        <v>1.042067736636267</v>
       </c>
       <c r="TS2">
-        <v>0</v>
+        <v>1.04238102016603</v>
       </c>
       <c r="TT2">
-        <v>0</v>
+        <v>1.043394386715106</v>
       </c>
       <c r="TU2">
-        <v>0</v>
+        <v>1.043394558736087</v>
       </c>
       <c r="TV2">
-        <v>0</v>
+        <v>1.043063715400271</v>
       </c>
       <c r="TW2">
-        <v>0</v>
+        <v>1.043383285547441</v>
       </c>
       <c r="TX2">
-        <v>0</v>
+        <v>1.04181649933801</v>
       </c>
       <c r="TY2">
-        <v>0</v>
+        <v>1.041826402152497</v>
       </c>
       <c r="TZ2">
-        <v>0</v>
+        <v>1.041648766329877</v>
       </c>
       <c r="UA2">
-        <v>0</v>
+        <v>1.042066356315492</v>
       </c>
       <c r="UB2">
-        <v>0</v>
+        <v>1.042376726256074</v>
       </c>
       <c r="UC2">
-        <v>0</v>
+        <v>1.043388444401985</v>
       </c>
       <c r="UD2">
-        <v>0</v>
+        <v>1.043062735593143</v>
       </c>
       <c r="UE2">
-        <v>0</v>
+        <v>1.043383285547442</v>
       </c>
       <c r="UF2">
-        <v>0</v>
+        <v>1.041788805680462</v>
       </c>
       <c r="UG2">
-        <v>0</v>
+        <v>1.04181649933801</v>
       </c>
       <c r="UH2">
-        <v>0</v>
+        <v>1.041645356426474</v>
       </c>
       <c r="UI2">
-        <v>0</v>
+        <v>1.041616896656884</v>
       </c>
       <c r="UJ2">
-        <v>0</v>
+        <v>1.042064965283801</v>
       </c>
       <c r="UK2">
-        <v>0</v>
+        <v>1.042376512423568</v>
       </c>
       <c r="UL2">
-        <v>0</v>
+        <v>1.043372337378309</v>
       </c>
       <c r="UM2">
-        <v>0</v>
+        <v>1.043061690751022</v>
       </c>
       <c r="UN2">
-        <v>0</v>
+        <v>1.043383285547442</v>
       </c>
       <c r="UO2">
-        <v>0</v>
+        <v>1.04176875276263</v>
       </c>
       <c r="UP2">
-        <v>0</v>
+        <v>1.041788805680462</v>
       </c>
       <c r="UQ2">
-        <v>0</v>
+        <v>1.041644101685525</v>
       </c>
       <c r="UR2">
-        <v>0</v>
+        <v>1.041592791277653</v>
       </c>
       <c r="US2">
-        <v>0</v>
+        <v>1.042051968015771</v>
       </c>
       <c r="UT2">
-        <v>0</v>
+        <v>1.042376343702255</v>
       </c>
       <c r="UU2">
-        <v>0</v>
+        <v>1.04306076619321</v>
       </c>
       <c r="UV2">
-        <v>0</v>
+        <v>1.043383285547442</v>
       </c>
       <c r="UW2">
-        <v>0</v>
+        <v>1.041767361609715</v>
       </c>
       <c r="UX2">
-        <v>0</v>
+        <v>1.04176875276263</v>
       </c>
       <c r="UY2">
-        <v>0</v>
+        <v>1.04172073864847</v>
       </c>
       <c r="UZ2">
-        <v>0</v>
+        <v>1.041642232655763</v>
       </c>
       <c r="VA2">
-        <v>0</v>
+        <v>1.042376152958229</v>
       </c>
       <c r="VB2">
-        <v>0</v>
+        <v>1.043059820534693</v>
       </c>
       <c r="VC2">
-        <v>0</v>
+        <v>1.041767032210254</v>
       </c>
       <c r="VD2">
-        <v>0</v>
+        <v>1.041767361609715</v>
       </c>
       <c r="VE2">
-        <v>0</v>
+        <v>1.041714668822679</v>
       </c>
       <c r="VF2">
-        <v>0</v>
+        <v>1.041641108018031</v>
       </c>
       <c r="VG2">
-        <v>0</v>
+        <v>1.042375983190008</v>
       </c>
       <c r="VH2">
-        <v>0</v>
+        <v>1.043054939720679</v>
       </c>
       <c r="VI2">
-        <v>0</v>
+        <v>1.041758102319609</v>
       </c>
       <c r="VJ2">
-        <v>0</v>
+        <v>1.041767032210254</v>
       </c>
       <c r="VK2">
-        <v>0</v>
+        <v>1.041767032210262</v>
       </c>
       <c r="VL2">
-        <v>0</v>
+        <v>1.041710189693939</v>
       </c>
       <c r="VM2">
-        <v>0</v>
+        <v>1.041639750994869</v>
       </c>
       <c r="VN2">
-        <v>0</v>
+        <v>1.042375787786791</v>
       </c>
       <c r="VO2">
-        <v>0</v>
+        <v>1.043041358902922</v>
       </c>
       <c r="VP2">
-        <v>0</v>
+        <v>1.043044977057297</v>
       </c>
       <c r="VQ2">
-        <v>0</v>
+        <v>1.041751844125005</v>
       </c>
       <c r="VR2">
-        <v>0</v>
+        <v>1.041758102319609</v>
       </c>
       <c r="VS2">
-        <v>0</v>
+        <v>1.041767032210265</v>
       </c>
       <c r="VT2">
-        <v>0</v>
+        <v>1.04170583146741</v>
       </c>
       <c r="VU2">
-        <v>0</v>
+        <v>1.041638559471111</v>
       </c>
       <c r="VV2">
-        <v>0</v>
+        <v>1.042375587432005</v>
       </c>
       <c r="VW2">
-        <v>0</v>
+        <v>1.043040576279585</v>
       </c>
       <c r="VX2">
-        <v>0</v>
+        <v>1.042997368563865</v>
       </c>
       <c r="VY2">
-        <v>0</v>
+        <v>1.041745649948976</v>
       </c>
       <c r="VZ2">
-        <v>0</v>
+        <v>1.041751091319099</v>
       </c>
       <c r="WA2">
-        <v>0</v>
+        <v>1.041767032210267</v>
       </c>
       <c r="WB2">
-        <v>0</v>
+        <v>1.041664891842654</v>
       </c>
       <c r="WC2">
-        <v>0</v>
+        <v>1.041630762541566</v>
       </c>
       <c r="WD2">
-        <v>0</v>
+        <v>1.042375346606344</v>
       </c>
       <c r="WE2">
-        <v>0</v>
+        <v>1.043040183217141</v>
       </c>
       <c r="WF2">
-        <v>0</v>
+        <v>1.042979828598902</v>
       </c>
       <c r="WG2">
-        <v>0</v>
+        <v>1.042943507368663</v>
       </c>
       <c r="WH2">
-        <v>0</v>
+        <v>1.041740126079318</v>
       </c>
       <c r="WI2">
-        <v>0</v>
+        <v>1.041745649948976</v>
       </c>
       <c r="WJ2">
-        <v>0</v>
+        <v>1.041745649948976</v>
       </c>
       <c r="WK2">
-        <v>0</v>
+        <v>1.04171757450112</v>
       </c>
       <c r="WL2">
-        <v>0</v>
+        <v>1.041751091319099</v>
       </c>
       <c r="WM2">
-        <v>0</v>
+        <v>1.041767032210269</v>
       </c>
       <c r="WN2">
-        <v>0</v>
+        <v>1.04164583817675</v>
       </c>
       <c r="WO2">
-        <v>0</v>
+        <v>1.041573273669318</v>
       </c>
       <c r="WP2">
-        <v>0</v>
+        <v>1.042375195625807</v>
       </c>
       <c r="WQ2">
-        <v>0</v>
+        <v>1.043039853612969</v>
       </c>
       <c r="WR2">
-        <v>0</v>
+        <v>1.042970572709085</v>
       </c>
       <c r="WS2">
-        <v>0</v>
+        <v>1.042891917892456</v>
       </c>
       <c r="WT2">
-        <v>0</v>
+        <v>1.04172807993354</v>
       </c>
       <c r="WU2">
-        <v>0</v>
+        <v>1.041740126079318</v>
       </c>
       <c r="WV2">
-        <v>0</v>
+        <v>1.041740126079318</v>
       </c>
       <c r="WW2">
-        <v>0</v>
+        <v>1.041709685656401</v>
       </c>
       <c r="WX2">
-        <v>0</v>
+        <v>1.041767032210271</v>
       </c>
       <c r="WY2">
-        <v>0</v>
+        <v>1.041636895518499</v>
       </c>
       <c r="WZ2">
-        <v>0</v>
+        <v>1.042374546762225</v>
       </c>
       <c r="XA2">
-        <v>0</v>
+        <v>1.0430395848323</v>
       </c>
       <c r="XB2">
-        <v>0</v>
+        <v>1.042890356204703</v>
       </c>
       <c r="XC2">
-        <v>0</v>
+        <v>1.042877687889377</v>
       </c>
       <c r="XD2">
-        <v>0</v>
+        <v>1.041711670313008</v>
       </c>
       <c r="XE2">
-        <v>0</v>
+        <v>1.041767032210272</v>
       </c>
       <c r="XF2">
-        <v>0</v>
+        <v>1.041630930627542</v>
       </c>
       <c r="XG2">
-        <v>0</v>
+        <v>1.042371811230388</v>
       </c>
       <c r="XH2">
-        <v>0</v>
+        <v>1.043039162925177</v>
       </c>
       <c r="XI2">
-        <v>0</v>
+        <v>1.042889973274513</v>
       </c>
       <c r="XJ2">
-        <v>0</v>
+        <v>1.042874413999576</v>
       </c>
       <c r="XK2">
-        <v>0</v>
+        <v>1.041706857188258</v>
       </c>
       <c r="XL2">
-        <v>0</v>
+        <v>1.041767032210273</v>
       </c>
       <c r="XM2">
-        <v>0</v>
+        <v>1.041621811420263</v>
       </c>
       <c r="XN2">
-        <v>0</v>
+        <v>1.04303815686325</v>
       </c>
       <c r="XO2">
-        <v>0</v>
+        <v>1.042889710326946</v>
       </c>
       <c r="XP2">
-        <v>0</v>
+        <v>1.042872789338646</v>
       </c>
       <c r="XQ2">
-        <v>0</v>
+        <v>1.041690926643008</v>
       </c>
       <c r="XR2">
-        <v>0</v>
+        <v>1.041767032210274</v>
       </c>
       <c r="XS2">
-        <v>0</v>
+        <v>1.04160400171736</v>
       </c>
       <c r="XT2">
-        <v>0</v>
+        <v>1.043037460831315</v>
       </c>
       <c r="XU2">
-        <v>0</v>
+        <v>1.042889345824694</v>
       </c>
       <c r="XV2">
-        <v>0</v>
+        <v>1.0428710039633</v>
       </c>
       <c r="XW2">
-        <v>0</v>
+        <v>1.041767032210275</v>
       </c>
       <c r="XX2">
-        <v>0</v>
+        <v>1.041599078658766</v>
       </c>
       <c r="XY2">
-        <v>0</v>
+        <v>1.04303657583093</v>
       </c>
       <c r="XZ2">
-        <v>0</v>
+        <v>1.042888481480966</v>
       </c>
       <c r="YA2">
-        <v>0</v>
+        <v>1.042868943906027</v>
       </c>
       <c r="YB2">
-        <v>0</v>
+        <v>1.041767032210276</v>
       </c>
       <c r="YC2">
-        <v>0</v>
+        <v>1.04159764941593</v>
       </c>
       <c r="YD2">
-        <v>0</v>
+        <v>1.043036038200731</v>
       </c>
       <c r="YE2">
-        <v>0</v>
+        <v>1.042887824437344</v>
       </c>
       <c r="YF2">
-        <v>0</v>
+        <v>1.042866861328416</v>
       </c>
       <c r="YG2">
-        <v>0</v>
+        <v>1.041767032210277</v>
       </c>
       <c r="YH2">
-        <v>0</v>
+        <v>1.041597454381834</v>
       </c>
       <c r="YI2">
-        <v>0</v>
+        <v>1.041592099875714</v>
       </c>
       <c r="YJ2">
-        <v>0</v>
+        <v>1.043035552835326</v>
       </c>
       <c r="YK2">
-        <v>0</v>
+        <v>1.042887363202707</v>
       </c>
       <c r="YL2">
-        <v>0</v>
+        <v>1.042864552522117</v>
       </c>
       <c r="YM2">
-        <v>0</v>
+        <v>1.041767032210279</v>
       </c>
       <c r="YN2">
-        <v>0</v>
+        <v>1.041597271846498</v>
       </c>
       <c r="YO2">
-        <v>0</v>
+        <v>1.041584776893143</v>
       </c>
       <c r="YP2">
-        <v>0</v>
+        <v>1.043034734249416</v>
       </c>
       <c r="YQ2">
-        <v>0</v>
+        <v>1.042886880019079</v>
       </c>
       <c r="YR2">
-        <v>0</v>
+        <v>1.042861195034221</v>
       </c>
       <c r="YS2">
-        <v>0</v>
+        <v>1.04176703221028</v>
       </c>
       <c r="YT2">
-        <v>0</v>
+        <v>1.041597083811549</v>
       </c>
       <c r="YU2">
-        <v>0</v>
+        <v>1.041554353839278</v>
       </c>
       <c r="YV2">
-        <v>0</v>
+        <v>1.043033929468739</v>
       </c>
       <c r="YW2">
-        <v>0</v>
+        <v>1.042886483320544</v>
       </c>
       <c r="YX2">
-        <v>0</v>
+        <v>1.042858153807502</v>
       </c>
       <c r="YY2">
-        <v>0</v>
+        <v>1.04285336133241</v>
       </c>
       <c r="YZ2">
-        <v>0</v>
+        <v>1.04176703221028</v>
       </c>
       <c r="ZA2">
-        <v>0</v>
+        <v>1.04159572427663</v>
       </c>
       <c r="ZB2">
-        <v>0</v>
+        <v>1.041541433899767</v>
       </c>
       <c r="ZC2">
-        <v>0</v>
+        <v>1.043033548690393</v>
       </c>
       <c r="ZD2">
-        <v>0</v>
+        <v>1.042885826496973</v>
       </c>
       <c r="ZE2">
-        <v>0</v>
+        <v>1.042856327552965</v>
       </c>
       <c r="ZF2">
-        <v>0</v>
+        <v>1.042803756614656</v>
       </c>
       <c r="ZG2">
-        <v>0</v>
+        <v>1.04176703221028</v>
       </c>
       <c r="ZH2">
-        <v>0</v>
+        <v>1.041585823992663</v>
       </c>
       <c r="ZI2">
-        <v>0</v>
+        <v>1.043033130457037</v>
       </c>
       <c r="ZJ2">
-        <v>0</v>
+        <v>1.042883703837839</v>
       </c>
       <c r="ZK2">
-        <v>0</v>
+        <v>1.042854633438846</v>
       </c>
       <c r="ZL2">
-        <v>0</v>
+        <v>1.04276824974138</v>
       </c>
       <c r="ZM2">
-        <v>0</v>
+        <v>1.043032729042558</v>
       </c>
       <c r="ZN2">
-        <v>0</v>
+        <v>1.0428787439819</v>
       </c>
       <c r="ZO2">
-        <v>0</v>
+        <v>1.042852980437071</v>
       </c>
       <c r="ZP2">
-        <v>0</v>
+        <v>1.042744869313757</v>
       </c>
       <c r="ZQ2">
-        <v>0</v>
+        <v>1.042673858256379</v>
       </c>
       <c r="ZR2">
-        <v>0</v>
+        <v>1.043032244940031</v>
       </c>
       <c r="ZS2">
-        <v>0</v>
+        <v>1.04285174057571</v>
       </c>
       <c r="ZT2">
-        <v>0</v>
+        <v>1.042742683079624</v>
       </c>
       <c r="ZU2">
-        <v>0</v>
+        <v>1.042744869297399</v>
       </c>
       <c r="ZV2">
-        <v>0</v>
+        <v>1.04265571057406</v>
       </c>
       <c r="ZW2">
-        <v>0</v>
+        <v>1.042655211276322</v>
       </c>
       <c r="ZX2">
-        <v>0</v>
+        <v>1.043031472735186</v>
       </c>
       <c r="ZY2">
-        <v>0</v>
+        <v>1.042849770975671</v>
       </c>
       <c r="ZZ2">
-        <v>0</v>
+        <v>1.042741998993357</v>
       </c>
       <c r="AAA2">
-        <v>0</v>
+        <v>1.042744869264076</v>
       </c>
       <c r="AAB2">
-        <v>0</v>
+        <v>1.042645197141624</v>
       </c>
       <c r="AAC2">
-        <v>0</v>
+        <v>1.042620386905104</v>
       </c>
       <c r="AAD2">
-        <v>0</v>
+        <v>1.043029359296382</v>
       </c>
       <c r="AAE2">
-        <v>0</v>
+        <v>1.042846450157362</v>
       </c>
       <c r="AAF2">
-        <v>0</v>
+        <v>1.042741559145697</v>
       </c>
       <c r="AAG2">
-        <v>0</v>
+        <v>1.042528526106436</v>
       </c>
       <c r="AAH2">
-        <v>0</v>
+        <v>1.042620386905105</v>
       </c>
       <c r="AAI2">
-        <v>0</v>
+        <v>1.043026546697292</v>
       </c>
       <c r="AAJ2">
-        <v>0</v>
+        <v>1.042821567608371</v>
       </c>
       <c r="AAK2">
-        <v>0</v>
+        <v>1.042741293841943</v>
       </c>
       <c r="AAL2">
-        <v>0</v>
+        <v>1.042437683816738</v>
       </c>
       <c r="AAM2">
-        <v>0</v>
+        <v>1.04250549898259</v>
       </c>
       <c r="AAN2">
-        <v>0</v>
+        <v>1.042620386905105</v>
       </c>
       <c r="AAO2">
-        <v>0</v>
+        <v>1.043026278806378</v>
       </c>
       <c r="AAP2">
-        <v>0</v>
+        <v>1.042801154882676</v>
       </c>
       <c r="AAQ2">
-        <v>0</v>
+        <v>1.042741025696193</v>
       </c>
       <c r="AAR2">
-        <v>0</v>
+        <v>1.042343924793468</v>
       </c>
       <c r="AAS2">
-        <v>0</v>
+        <v>1.042503033875315</v>
       </c>
       <c r="AAT2">
-        <v>0</v>
+        <v>1.042620386905105</v>
       </c>
       <c r="AAU2">
-        <v>0</v>
+        <v>1.043026066943008</v>
       </c>
       <c r="AAV2">
-        <v>0</v>
+        <v>1.042794687459218</v>
       </c>
       <c r="AAW2">
-        <v>0</v>
+        <v>1.042740786185622</v>
       </c>
       <c r="AAX2">
-        <v>0</v>
+        <v>1.042310726806551</v>
       </c>
       <c r="AAY2">
-        <v>0</v>
+        <v>1.04230027437564</v>
       </c>
       <c r="AAZ2">
-        <v>0</v>
+        <v>1.04250209266322</v>
       </c>
       <c r="ABA2">
-        <v>0</v>
+        <v>1.042620386905105</v>
       </c>
       <c r="ABB2">
-        <v>0</v>
+        <v>1.043025861172897</v>
       </c>
       <c r="ABC2">
-        <v>0</v>
+        <v>1.042788799712153</v>
       </c>
       <c r="ABD2">
-        <v>0</v>
+        <v>1.04274051634042</v>
       </c>
       <c r="ABE2">
-        <v>0</v>
+        <v>1.042265615939621</v>
       </c>
       <c r="ABF2">
-        <v>0</v>
+        <v>1.042294418986523</v>
       </c>
       <c r="ABG2">
-        <v>0</v>
+        <v>1.04250109704711</v>
       </c>
       <c r="ABH2">
-        <v>0</v>
+        <v>1.042620386905105</v>
       </c>
       <c r="ABI2">
-        <v>0</v>
+        <v>1.043025640770929</v>
       </c>
       <c r="ABJ2">
-        <v>0</v>
+        <v>1.042785592936259</v>
       </c>
       <c r="ABK2">
-        <v>0</v>
+        <v>1.042740300139874</v>
       </c>
       <c r="ABL2">
-        <v>0</v>
+        <v>1.042212800246968</v>
       </c>
       <c r="ABM2">
-        <v>0</v>
+        <v>1.042291342700981</v>
       </c>
       <c r="ABN2">
-        <v>0</v>
+        <v>1.042500270772128</v>
       </c>
       <c r="ABO2">
-        <v>0</v>
+        <v>1.042620386905104</v>
       </c>
       <c r="ABP2">
-        <v>0</v>
+        <v>1.043025436992667</v>
       </c>
       <c r="ABQ2">
-        <v>0</v>
+        <v>1.042783031826238</v>
       </c>
       <c r="ABR2">
-        <v>0</v>
+        <v>1.042740040807164</v>
       </c>
       <c r="ABS2">
-        <v>0</v>
+        <v>1.042170391401076</v>
       </c>
       <c r="ABT2">
-        <v>0</v>
+        <v>1.042284359231139</v>
       </c>
       <c r="ABU2">
-        <v>0</v>
+        <v>1.042291000818723</v>
       </c>
       <c r="ABV2">
-        <v>0</v>
+        <v>1.04249929225941</v>
       </c>
       <c r="ABW2">
-        <v>0</v>
+        <v>1.042620386905103</v>
       </c>
       <c r="ABX2">
-        <v>0</v>
+        <v>1.043025244953194</v>
       </c>
       <c r="ABY2">
-        <v>0</v>
+        <v>1.042780847929751</v>
       </c>
       <c r="ABZ2">
-        <v>0</v>
+        <v>1.04273976134515</v>
       </c>
       <c r="ACA2">
-        <v>0</v>
+        <v>1.042157597440795</v>
       </c>
       <c r="ACB2">
-        <v>0</v>
+        <v>1.042142591096685</v>
       </c>
       <c r="ACC2">
-        <v>0</v>
+        <v>1.042278682535343</v>
       </c>
       <c r="ACD2">
-        <v>0</v>
+        <v>1.042290753588714</v>
       </c>
       <c r="ACE2">
-        <v>0</v>
+        <v>1.042498337971652</v>
       </c>
       <c r="ACF2">
-        <v>0</v>
+        <v>1.042620386905103</v>
       </c>
       <c r="ACG2">
-        <v>0</v>
+        <v>1.043024977863035</v>
       </c>
       <c r="ACH2">
-        <v>0</v>
+        <v>1.042778285114524</v>
       </c>
       <c r="ACI2">
-        <v>0</v>
+        <v>1.042739251481282</v>
       </c>
       <c r="ACJ2">
-        <v>0</v>
+        <v>1.042139958291846</v>
       </c>
       <c r="ACK2">
-        <v>0</v>
+        <v>1.042119353691885</v>
       </c>
       <c r="ACL2">
-        <v>0</v>
+        <v>1.042290544948629</v>
       </c>
       <c r="ACM2">
-        <v>0</v>
+        <v>1.042497026030322</v>
       </c>
       <c r="ACN2">
-        <v>0</v>
+        <v>1.042620386905102</v>
       </c>
       <c r="ACO2">
-        <v>0</v>
+        <v>1.043024650554981</v>
       </c>
       <c r="ACP2">
-        <v>0</v>
+        <v>1.042775943370647</v>
       </c>
       <c r="ACQ2">
-        <v>0</v>
+        <v>1.042735436903786</v>
       </c>
       <c r="ACR2">
-        <v>0</v>
+        <v>1.042096565456475</v>
       </c>
       <c r="ACS2">
-        <v>0</v>
+        <v>1.042115906209527</v>
       </c>
       <c r="ACT2">
-        <v>0</v>
+        <v>1.042118866539039</v>
       </c>
       <c r="ACU2">
-        <v>0</v>
+        <v>1.042290192531391</v>
       </c>
       <c r="ACV2">
-        <v>0</v>
+        <v>1.042495221242629</v>
       </c>
       <c r="ACW2">
-        <v>0</v>
+        <v>1.042620386905102</v>
       </c>
       <c r="ACX2">
-        <v>0</v>
+        <v>1.043023099199721</v>
       </c>
       <c r="ACY2">
-        <v>0</v>
+        <v>1.042772310438854</v>
       </c>
       <c r="ACZ2">
-        <v>0</v>
+        <v>1.042723747153501</v>
       </c>
       <c r="ADA2">
-        <v>0</v>
+        <v>1.042061394955827</v>
       </c>
       <c r="ADB2">
-        <v>0</v>
+        <v>1.042112528046536</v>
       </c>
       <c r="ADC2">
-        <v>0</v>
+        <v>1.042118400758425</v>
       </c>
       <c r="ADD2">
-        <v>0</v>
+        <v>1.042289699012766</v>
       </c>
       <c r="ADE2">
-        <v>0</v>
+        <v>1.042493311266219</v>
       </c>
       <c r="ADF2">
-        <v>0</v>
+        <v>1.042620386905101</v>
       </c>
       <c r="ADG2">
-        <v>0</v>
+        <v>1.043009834671519</v>
       </c>
       <c r="ADH2">
-        <v>0</v>
+        <v>1.042764975928284</v>
       </c>
       <c r="ADI2">
-        <v>0</v>
+        <v>1.042033913766574</v>
       </c>
       <c r="ADJ2">
-        <v>0</v>
+        <v>1.042117898622591</v>
       </c>
       <c r="ADK2">
-        <v>0</v>
+        <v>1.0422893328104</v>
       </c>
       <c r="ADL2">
-        <v>0</v>
+        <v>1.042492042521172</v>
       </c>
       <c r="ADM2">
-        <v>0</v>
+        <v>1.042620386905101</v>
       </c>
       <c r="ADN2">
-        <v>0</v>
+        <v>1.042763433506901</v>
       </c>
       <c r="ADO2">
-        <v>0</v>
+        <v>1.042761109891766</v>
       </c>
       <c r="ADP2">
-        <v>0</v>
+        <v>1.04200907609251</v>
       </c>
       <c r="ADQ2">
-        <v>0</v>
+        <v>1.042117450253653</v>
       </c>
       <c r="ADR2">
-        <v>0</v>
+        <v>1.042288726180935</v>
       </c>
       <c r="ADS2">
-        <v>0</v>
+        <v>1.042490751244024</v>
       </c>
       <c r="ADT2">
-        <v>0</v>
+        <v>1.042620386905101</v>
       </c>
       <c r="ADU2">
-        <v>0</v>
+        <v>1.042762088371645</v>
       </c>
       <c r="ADV2">
-        <v>0</v>
+        <v>1.04275492367101</v>
       </c>
       <c r="ADW2">
-        <v>0</v>
+        <v>1.042005333382901</v>
       </c>
       <c r="ADX2">
-        <v>0</v>
+        <v>1.042007461665377</v>
       </c>
       <c r="ADY2">
-        <v>0</v>
+        <v>1.042116955104881</v>
       </c>
       <c r="ADZ2">
-        <v>0</v>
+        <v>1.042284515554343</v>
       </c>
       <c r="AEA2">
-        <v>0</v>
+        <v>1.042490133828957</v>
       </c>
       <c r="AEB2">
-        <v>0</v>
+        <v>1.042620386905101</v>
       </c>
       <c r="AEC2">
-        <v>0</v>
+        <v>1.042760975884754</v>
       </c>
       <c r="AED2">
-        <v>0</v>
+        <v>1.042749638150794</v>
       </c>
       <c r="AEE2">
-        <v>0</v>
+        <v>1.042001580840716</v>
       </c>
       <c r="AEF2">
-        <v>0</v>
+        <v>1.042004882836195</v>
       </c>
       <c r="AEG2">
-        <v>0</v>
+        <v>1.042007461665377</v>
       </c>
       <c r="AEH2">
-        <v>0</v>
+        <v>1.042116635866195</v>
       </c>
       <c r="AEI2">
-        <v>0</v>
+        <v>1.042275214799629</v>
       </c>
       <c r="AEJ2">
-        <v>0</v>
+        <v>1.042489151755462</v>
       </c>
       <c r="AEK2">
-        <v>0</v>
+        <v>1.042620386905101</v>
       </c>
       <c r="AEL2">
-        <v>0</v>
+        <v>1.042760110761661</v>
       </c>
       <c r="AEM2">
-        <v>0</v>
+        <v>1.042746646753568</v>
       </c>
       <c r="AEN2">
-        <v>0</v>
+        <v>1.041997821015184</v>
       </c>
       <c r="AEO2">
-        <v>0</v>
+        <v>1.042002720574922</v>
       </c>
       <c r="AEP2">
-        <v>0</v>
+        <v>1.042004882836195</v>
       </c>
       <c r="AEQ2">
-        <v>0</v>
+        <v>1.042116145537385</v>
       </c>
       <c r="AER2">
-        <v>0</v>
+        <v>1.042488229806565</v>
       </c>
       <c r="AES2">
-        <v>0</v>
+        <v>1.0426203869051</v>
       </c>
       <c r="AET2">
-        <v>0</v>
+        <v>1.042759230878605</v>
       </c>
       <c r="AEU2">
-        <v>0</v>
+        <v>1.04199408395018</v>
       </c>
       <c r="AEV2">
-        <v>0</v>
+        <v>1.042000396198729</v>
       </c>
       <c r="AEW2">
-        <v>0</v>
+        <v>1.042002720574922</v>
       </c>
       <c r="AEX2">
-        <v>0</v>
+        <v>1.042112112458945</v>
       </c>
       <c r="AEY2">
-        <v>0</v>
+        <v>1.042486912494889</v>
       </c>
       <c r="AEZ2">
-        <v>0</v>
+        <v>1.0426203869051</v>
       </c>
       <c r="AFA2">
-        <v>0</v>
+        <v>1.042758467297106</v>
       </c>
       <c r="AFB2">
-        <v>0</v>
+        <v>1.041990332682529</v>
       </c>
       <c r="AFC2">
-        <v>0</v>
+        <v>1.041998487803398</v>
       </c>
       <c r="AFD2">
-        <v>0</v>
+        <v>1.042000396198729</v>
       </c>
       <c r="AFE2">
-        <v>0</v>
+        <v>1.042098212648729</v>
       </c>
       <c r="AFF2">
-        <v>0</v>
+        <v>1.042473007375426</v>
       </c>
       <c r="AFG2">
-        <v>0</v>
+        <v>1.042757918881551</v>
       </c>
       <c r="AFH2">
-        <v>0</v>
+        <v>1.041986583964126</v>
       </c>
       <c r="AFI2">
-        <v>0</v>
+        <v>1.041996438930812</v>
       </c>
       <c r="AFJ2">
-        <v>0</v>
+        <v>1.041998487803398</v>
       </c>
       <c r="AFK2">
-        <v>0</v>
+        <v>1.042467445678069</v>
       </c>
       <c r="AFL2">
-        <v>0</v>
+        <v>1.042757282170418</v>
       </c>
       <c r="AFM2">
-        <v>0</v>
+        <v>1.041982832878806</v>
       </c>
       <c r="AFN2">
-        <v>0</v>
+        <v>1.041985632362795</v>
       </c>
       <c r="AFO2">
-        <v>0</v>
+        <v>1.041996438930812</v>
       </c>
       <c r="AFP2">
-        <v>0</v>
+        <v>1.041996438930812</v>
       </c>
       <c r="AFQ2">
-        <v>0</v>
+        <v>1.042464621457969</v>
       </c>
       <c r="AFR2">
-        <v>0</v>
+        <v>1.042756322957207</v>
       </c>
       <c r="AFS2">
-        <v>0</v>
+        <v>1.041981001855338</v>
       </c>
       <c r="AFT2">
-        <v>0</v>
+        <v>1.041984051330323</v>
       </c>
       <c r="AFU2">
-        <v>0</v>
+        <v>1.041996438930813</v>
       </c>
       <c r="AFV2">
-        <v>0</v>
+        <v>1.041996438930812</v>
       </c>
       <c r="AFW2">
-        <v>0</v>
+        <v>1.042463996512764</v>
       </c>
       <c r="AFX2">
-        <v>0</v>
+        <v>1.042754755798041</v>
       </c>
       <c r="AFY2">
-        <v>0</v>
+        <v>1.04193984934683</v>
       </c>
       <c r="AFZ2">
-        <v>0</v>
+        <v>1.041979597205177</v>
       </c>
       <c r="AGA2">
-        <v>0</v>
+        <v>1.041996438930814</v>
       </c>
       <c r="AGB2">
-        <v>0</v>
+        <v>1.041996438930813</v>
       </c>
       <c r="AGC2">
-        <v>0</v>
+        <v>1.042463504337773</v>
       </c>
       <c r="AGD2">
-        <v>0</v>
+        <v>1.042747469919419</v>
       </c>
       <c r="AGE2">
-        <v>0</v>
+        <v>1.042740670944129</v>
       </c>
       <c r="AGF2">
-        <v>0</v>
+        <v>1.041913088656044</v>
       </c>
       <c r="AGG2">
-        <v>0</v>
+        <v>1.041974366944945</v>
       </c>
       <c r="AGH2">
-        <v>0</v>
+        <v>1.041996438930814</v>
       </c>
       <c r="AGI2">
-        <v>0</v>
+        <v>1.041996438930814</v>
       </c>
       <c r="AGJ2">
-        <v>0</v>
+        <v>1.042462977004497</v>
       </c>
       <c r="AGK2">
-        <v>0</v>
+        <v>1.041889683749773</v>
       </c>
       <c r="AGL2">
-        <v>0</v>
+        <v>1.041973688467254</v>
       </c>
       <c r="AGM2">
-        <v>0</v>
+        <v>1.041996438930815</v>
       </c>
       <c r="AGN2">
-        <v>0</v>
+        <v>1.041996438930814</v>
       </c>
       <c r="AGO2">
-        <v>0</v>
+        <v>1.042462555099355</v>
       </c>
       <c r="AGP2">
-        <v>0</v>
+        <v>1.041865133544012</v>
       </c>
       <c r="AGQ2">
-        <v>0</v>
+        <v>1.041973688285734</v>
       </c>
       <c r="AGR2">
-        <v>0</v>
+        <v>1.041971791474919</v>
       </c>
       <c r="AGS2">
-        <v>0</v>
+        <v>1.041996438930815</v>
       </c>
       <c r="AGT2">
-        <v>0</v>
+        <v>1.041996438930815</v>
       </c>
       <c r="AGU2">
-        <v>0</v>
+        <v>1.042462145446766</v>
       </c>
       <c r="AGV2">
-        <v>0</v>
+        <v>1.041823214473989</v>
       </c>
       <c r="AGW2">
-        <v>0</v>
+        <v>1.041973688117768</v>
       </c>
       <c r="AGX2">
-        <v>0</v>
+        <v>1.041967352002059</v>
       </c>
       <c r="AGY2">
-        <v>0</v>
+        <v>1.041996438930815</v>
       </c>
       <c r="AGZ2">
-        <v>0</v>
+        <v>1.041996438930815</v>
       </c>
       <c r="AHA2">
-        <v>0</v>
+        <v>1.042461736833217</v>
       </c>
       <c r="AHB2">
-        <v>0</v>
+        <v>1.041812932630473</v>
       </c>
       <c r="AHC2">
-        <v>0</v>
+        <v>1.041973687862361</v>
       </c>
       <c r="AHD2">
-        <v>0</v>
+        <v>1.041956820245228</v>
       </c>
       <c r="AHE2">
-        <v>0</v>
+        <v>1.042461333000469</v>
       </c>
       <c r="AHF2">
-        <v>0</v>
+        <v>1.041812330540235</v>
       </c>
       <c r="AHG2">
-        <v>0</v>
+        <v>1.041771799569082</v>
       </c>
       <c r="AHH2">
-        <v>0</v>
+        <v>1.041973687539597</v>
       </c>
       <c r="AHI2">
-        <v>0</v>
+        <v>1.042454111631881</v>
       </c>
       <c r="AHJ2">
-        <v>0</v>
+        <v>1.041811341957437</v>
       </c>
       <c r="AHK2">
-        <v>0</v>
+        <v>1.041736913205556</v>
       </c>
       <c r="AHL2">
-        <v>0</v>
+        <v>1.041973686283082</v>
       </c>
       <c r="AHM2">
-        <v>0</v>
+        <v>1.042436476931576</v>
       </c>
       <c r="AHN2">
-        <v>0</v>
+        <v>1.0424449551158</v>
       </c>
       <c r="AHO2">
-        <v>0</v>
+        <v>1.041811146492923</v>
       </c>
       <c r="AHP2">
-        <v>0</v>
+        <v>1.041678276404886</v>
       </c>
       <c r="AHQ2">
-        <v>0</v>
+        <v>1.041973684000541</v>
       </c>
       <c r="AHR2">
-        <v>0</v>
+        <v>1.042424765475337</v>
       </c>
       <c r="AHS2">
-        <v>0</v>
+        <v>1.041810981329619</v>
       </c>
       <c r="AHT2">
-        <v>0</v>
+        <v>1.041810842147052</v>
       </c>
       <c r="AHU2">
-        <v>0</v>
+        <v>1.041810661093741</v>
       </c>
       <c r="AHV2">
-        <v>0</v>
+        <v>1.041810333415448</v>
       </c>
       <c r="AHW2">
-        <v>0</v>
+        <v>1.041809765279967</v>
       </c>
       <c r="AHX2">
-        <v>0</v>
+        <v>1.041805111652816</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049596908392218</v>
+        <v>1.051349702568165</v>
       </c>
       <c r="D3">
-        <v>1.049522374722946</v>
+        <v>1.052616330016348</v>
       </c>
       <c r="E3">
-        <v>1.049514560907048</v>
+        <v>1.052749121415447</v>
       </c>
       <c r="F3">
-        <v>1.049507240588228</v>
+        <v>1.052873526655324</v>
       </c>
       <c r="G3">
-        <v>1.04950085832118</v>
+        <v>1.052981990594457</v>
       </c>
       <c r="H3">
-        <v>1.049490803744315</v>
+        <v>1.053152864704797</v>
       </c>
       <c r="I3">
-        <v>1.048806133376929</v>
+        <v>1.064790919275937</v>
       </c>
       <c r="J3">
-        <v>1.048775468065702</v>
+        <v>1.065312274998584</v>
       </c>
       <c r="K3">
-        <v>1.048749944753518</v>
+        <v>1.065746215937227</v>
       </c>
       <c r="L3">
-        <v>1.048727546012576</v>
+        <v>1.066127038797471</v>
       </c>
       <c r="M3">
-        <v>1.04871083231811</v>
+        <v>1.066411207733586</v>
       </c>
       <c r="N3">
-        <v>1.048695142272237</v>
+        <v>1.066677974840178</v>
       </c>
       <c r="O3">
-        <v>1.048685494326985</v>
+        <v>1.066842013404849</v>
       </c>
       <c r="P3">
-        <v>1.04866147526759</v>
+        <v>1.067250399734236</v>
       </c>
       <c r="Q3">
-        <v>1.0484669008618</v>
+        <v>1.070558870021904</v>
       </c>
       <c r="R3">
-        <v>1.048466900861801</v>
+        <v>1.070558870021903</v>
       </c>
       <c r="S3">
-        <v>1.048230946279521</v>
+        <v>1.07457142888918</v>
       </c>
       <c r="T3">
-        <v>1.048466900861801</v>
+        <v>1.070558870021902</v>
       </c>
       <c r="U3">
-        <v>1.048214711170982</v>
+        <v>1.07484753634566</v>
       </c>
       <c r="V3">
-        <v>1.048466900861801</v>
+        <v>1.070558870021901</v>
       </c>
       <c r="W3">
-        <v>1.048196481039943</v>
+        <v>1.075157575685173</v>
       </c>
       <c r="X3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021901</v>
       </c>
       <c r="Y3">
-        <v>1.048166798699881</v>
+        <v>1.07566238900621</v>
       </c>
       <c r="Z3">
-        <v>1.048466900861802</v>
+        <v>1.0705588700219</v>
       </c>
       <c r="AA3">
-        <v>1.048112799343738</v>
+        <v>1.076580787403227</v>
       </c>
       <c r="AB3">
-        <v>1.048466900861802</v>
+        <v>1.0705588700219</v>
       </c>
       <c r="AC3">
-        <v>1.048101182935272</v>
+        <v>1.077292256408529</v>
       </c>
       <c r="AD3">
-        <v>1.047444184912583</v>
+        <v>1.087626182390289</v>
       </c>
       <c r="AE3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021899</v>
       </c>
       <c r="AF3">
-        <v>1.048101034044753</v>
+        <v>1.077389473314956</v>
       </c>
       <c r="AG3">
-        <v>1.048098210509195</v>
+        <v>1.077388475651238</v>
       </c>
       <c r="AH3">
-        <v>1.047266189288804</v>
+        <v>1.09056728250507</v>
       </c>
       <c r="AI3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021898</v>
       </c>
       <c r="AJ3">
-        <v>1.048100693088554</v>
+        <v>1.077612107200875</v>
       </c>
       <c r="AK3">
-        <v>1.04809810984773</v>
+        <v>1.077391734125169</v>
       </c>
       <c r="AL3">
-        <v>1.047244364989844</v>
+        <v>1.091242655383836</v>
       </c>
       <c r="AM3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807565</v>
       </c>
       <c r="AN3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021896</v>
       </c>
       <c r="AO3">
-        <v>1.048097965114748</v>
+        <v>1.077396419221476</v>
       </c>
       <c r="AP3">
-        <v>1.047243584088569</v>
+        <v>1.091266579538858</v>
       </c>
       <c r="AQ3">
-        <v>1.047241006991562</v>
+        <v>1.091347662811532</v>
       </c>
       <c r="AR3">
-        <v>1.046374585717092</v>
+        <v>1.105013785250229</v>
       </c>
       <c r="AS3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807563</v>
       </c>
       <c r="AT3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021896</v>
       </c>
       <c r="AU3">
-        <v>1.048097779504577</v>
+        <v>1.077402427537895</v>
       </c>
       <c r="AV3">
-        <v>1.047243232112997</v>
+        <v>1.091277362872433</v>
       </c>
       <c r="AW3">
-        <v>1.047232927012021</v>
+        <v>1.091600330811317</v>
       </c>
       <c r="AX3">
-        <v>1.046098580512975</v>
+        <v>1.109487129171744</v>
       </c>
       <c r="AY3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807562</v>
       </c>
       <c r="AZ3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021895</v>
       </c>
       <c r="BA3">
-        <v>1.048097327460213</v>
+        <v>1.077417060495478</v>
       </c>
       <c r="BB3">
-        <v>1.047242859094241</v>
+        <v>1.091288790898282</v>
       </c>
       <c r="BC3">
-        <v>1.046058786141163</v>
+        <v>1.110132143914029</v>
       </c>
       <c r="BD3">
-        <v>1.046098580512976</v>
+        <v>1.109487129171749</v>
       </c>
       <c r="BE3">
-        <v>1.046739838033822</v>
+        <v>1.09909489380756</v>
       </c>
       <c r="BF3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021895</v>
       </c>
       <c r="BG3">
-        <v>1.048096940427703</v>
+        <v>1.077429588979837</v>
       </c>
       <c r="BH3">
-        <v>1.047242503819692</v>
+        <v>1.091299675302687</v>
       </c>
       <c r="BI3">
-        <v>1.045878528206726</v>
+        <v>1.113054042811949</v>
       </c>
       <c r="BJ3">
-        <v>1.046098580512977</v>
+        <v>1.109487129171749</v>
       </c>
       <c r="BK3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807559</v>
       </c>
       <c r="BL3">
-        <v>1.048466900861802</v>
+        <v>1.070558870021894</v>
       </c>
       <c r="BM3">
-        <v>1.048095085132632</v>
+        <v>1.077489646054786</v>
       </c>
       <c r="BN3">
-        <v>1.047242291045376</v>
+        <v>1.09130619398466</v>
       </c>
       <c r="BO3">
-        <v>1.045844321714639</v>
+        <v>1.11362283738167</v>
       </c>
       <c r="BP3">
-        <v>1.045785932507483</v>
+        <v>1.114016732404644</v>
       </c>
       <c r="BQ3">
-        <v>1.046098580512977</v>
+        <v>1.10948712917175</v>
       </c>
       <c r="BR3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807558</v>
       </c>
       <c r="BS3">
-        <v>1.048466900861803</v>
+        <v>1.070558870021895</v>
       </c>
       <c r="BT3">
-        <v>1.048088527300635</v>
+        <v>1.077701927399924</v>
       </c>
       <c r="BU3">
-        <v>1.047241873597794</v>
+        <v>1.091318983160771</v>
       </c>
       <c r="BV3">
-        <v>1.045440184850509</v>
+        <v>1.120343651077923</v>
       </c>
       <c r="BW3">
-        <v>1.045763239215557</v>
+        <v>1.114253802876296</v>
       </c>
       <c r="BX3">
-        <v>1.045763365665644</v>
+        <v>1.114250219598792</v>
       </c>
       <c r="BY3">
-        <v>1.046098580512977</v>
+        <v>1.10948712917175</v>
       </c>
       <c r="BZ3">
-        <v>1.046739838033822</v>
+        <v>1.099094893807555</v>
       </c>
       <c r="CA3">
-        <v>1.048466900861804</v>
+        <v>1.070558870021896</v>
       </c>
       <c r="CB3">
-        <v>1.047239757957459</v>
+        <v>1.09138379920887</v>
       </c>
       <c r="CC3">
-        <v>1.045299313255049</v>
+        <v>1.122686660977663</v>
       </c>
       <c r="CD3">
-        <v>1.046098580512976</v>
+        <v>1.109487129171751</v>
       </c>
       <c r="CE3">
-        <v>1.046739838033821</v>
+        <v>1.099094893807545</v>
       </c>
       <c r="CF3">
-        <v>1.048466900861807</v>
+        <v>1.070558870021898</v>
       </c>
       <c r="CG3">
-        <v>1.047231785753387</v>
+        <v>1.091628040726311</v>
       </c>
       <c r="CH3">
-        <v>1.045268570465934</v>
+        <v>1.123198003424682</v>
       </c>
       <c r="CI3">
-        <v>1.046098580512976</v>
+        <v>1.109487129171751</v>
       </c>
       <c r="CJ3">
-        <v>1.046739838033818</v>
+        <v>1.099094893807528</v>
       </c>
       <c r="CK3">
-        <v>1.048466900861808</v>
+        <v>1.070558870021899</v>
       </c>
       <c r="CL3">
-        <v>1.045206228945383</v>
+        <v>1.124234948228822</v>
       </c>
       <c r="CM3">
-        <v>1.046098580512976</v>
+        <v>1.109487129171751</v>
       </c>
       <c r="CN3">
-        <v>1.046739838033818</v>
+        <v>1.099094893807523</v>
       </c>
       <c r="CO3">
-        <v>1.048466900861809</v>
+        <v>1.070558870021899</v>
       </c>
       <c r="CP3">
-        <v>1.045147438001919</v>
+        <v>1.12521286351226</v>
       </c>
       <c r="CQ3">
-        <v>1.046739838033817</v>
+        <v>1.099094893807523</v>
       </c>
       <c r="CR3">
-        <v>1.048466900861809</v>
+        <v>1.070558870021899</v>
       </c>
       <c r="CS3">
-        <v>1.045113266509962</v>
+        <v>1.125781276977954</v>
       </c>
       <c r="CT3">
-        <v>1.046739838033817</v>
+        <v>1.099094893807522</v>
       </c>
       <c r="CU3">
-        <v>1.048466900861809</v>
+        <v>1.070558870021899</v>
       </c>
       <c r="CV3">
-        <v>1.045090698793001</v>
+        <v>1.126156676660063</v>
       </c>
       <c r="CW3">
-        <v>1.046739838033817</v>
+        <v>1.099094893807522</v>
       </c>
       <c r="CX3">
-        <v>1.048466900861809</v>
+        <v>1.0705588700219</v>
       </c>
       <c r="CY3">
-        <v>1.045059539073028</v>
+        <v>1.126675005482837</v>
       </c>
       <c r="CZ3">
-        <v>1.046739838033831</v>
+        <v>1.099094893807536</v>
       </c>
       <c r="DA3">
-        <v>1.048466900861809</v>
+        <v>1.0705588700219</v>
       </c>
       <c r="DB3">
-        <v>1.045058960829147</v>
+        <v>1.126682528144691</v>
       </c>
       <c r="DC3">
-        <v>1.04504231947389</v>
+        <v>1.126973279914872</v>
       </c>
       <c r="DD3">
-        <v>1.046739838033832</v>
+        <v>1.099094893807537</v>
       </c>
       <c r="DE3">
-        <v>1.04505826123405</v>
+        <v>1.126691629566694</v>
       </c>
       <c r="DF3">
-        <v>1.0450325551087</v>
+        <v>1.127142417458709</v>
       </c>
       <c r="DG3">
-        <v>1.046739838033833</v>
+        <v>1.099094893807538</v>
       </c>
       <c r="DH3">
-        <v>1.045057450353755</v>
+        <v>1.126702178817157</v>
       </c>
       <c r="DI3">
-        <v>1.044647280132737</v>
+        <v>1.133816793626159</v>
       </c>
       <c r="DJ3">
-        <v>1.046739838033858</v>
+        <v>1.099094893807577</v>
       </c>
       <c r="DK3">
-        <v>1.045056214002516</v>
+        <v>1.126718263404665</v>
       </c>
       <c r="DL3">
-        <v>1.044608684057577</v>
+        <v>1.134485491259185</v>
       </c>
       <c r="DM3">
-        <v>1.046739838033879</v>
+        <v>1.099094893807611</v>
       </c>
       <c r="DN3">
-        <v>1.045054624506721</v>
+        <v>1.126738942515644</v>
       </c>
       <c r="DO3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405542</v>
       </c>
       <c r="DP3">
-        <v>1.044510344255779</v>
+        <v>1.136233020891477</v>
       </c>
       <c r="DQ3">
-        <v>1.046739838033881</v>
+        <v>1.099094893807614</v>
       </c>
       <c r="DR3">
-        <v>1.04505348340147</v>
+        <v>1.126753788276334</v>
       </c>
       <c r="DS3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="DT3">
-        <v>1.044605741329767</v>
+        <v>1.134520848432788</v>
       </c>
       <c r="DU3">
-        <v>1.044333001258257</v>
+        <v>1.139385035262647</v>
       </c>
       <c r="DV3">
-        <v>1.046739838033883</v>
+        <v>1.099094893807617</v>
       </c>
       <c r="DW3">
-        <v>1.045051871029366</v>
+        <v>1.126774765419123</v>
       </c>
       <c r="DX3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="DY3">
-        <v>1.044601214588201</v>
+        <v>1.134575239042242</v>
       </c>
       <c r="DZ3">
-        <v>1.04425325020224</v>
+        <v>1.140802733402349</v>
       </c>
       <c r="EA3">
-        <v>1.046739838033884</v>
+        <v>1.099094893807619</v>
       </c>
       <c r="EB3">
-        <v>1.045050126560237</v>
+        <v>1.126797461433501</v>
       </c>
       <c r="EC3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="ED3">
-        <v>1.044593964339186</v>
+        <v>1.134792216238556</v>
       </c>
       <c r="EE3">
-        <v>1.044589585512059</v>
+        <v>1.134698247069499</v>
       </c>
       <c r="EF3">
-        <v>1.044229522073475</v>
+        <v>1.141224566003808</v>
       </c>
       <c r="EG3">
-        <v>1.046739838033888</v>
+        <v>1.099094893807625</v>
       </c>
       <c r="EH3">
-        <v>1.045048481386939</v>
+        <v>1.126818865843573</v>
       </c>
       <c r="EI3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="EJ3">
-        <v>1.04459333995109</v>
+        <v>1.134810902229805</v>
       </c>
       <c r="EK3">
-        <v>1.044580934144584</v>
+        <v>1.134789763497759</v>
       </c>
       <c r="EL3">
-        <v>1.044202737712491</v>
+        <v>1.141700747181505</v>
       </c>
       <c r="EM3">
-        <v>1.04673983803389</v>
+        <v>1.09909489380763</v>
       </c>
       <c r="EN3">
-        <v>1.045045776462628</v>
+        <v>1.126854058620042</v>
       </c>
       <c r="EO3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="EP3">
-        <v>1.044592727307764</v>
+        <v>1.134829236739006</v>
       </c>
       <c r="EQ3">
-        <v>1.04457514056045</v>
+        <v>1.134851052165296</v>
       </c>
       <c r="ER3">
-        <v>1.044177547511687</v>
+        <v>1.14214860199355</v>
       </c>
       <c r="ES3">
-        <v>1.046739838033891</v>
+        <v>1.099094893807631</v>
       </c>
       <c r="ET3">
-        <v>1.045032915191525</v>
+        <v>1.127021401271298</v>
       </c>
       <c r="EU3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="EV3">
-        <v>1.044592232624234</v>
+        <v>1.134844041080116</v>
       </c>
       <c r="EW3">
-        <v>1.044573581927499</v>
+        <v>1.134881371256127</v>
       </c>
       <c r="EX3">
-        <v>1.04449669636226</v>
+        <v>1.135424568015188</v>
       </c>
       <c r="EY3">
-        <v>1.044148155359027</v>
+        <v>1.142671181539019</v>
       </c>
       <c r="EZ3">
-        <v>1.046739838033891</v>
+        <v>1.099094893807631</v>
       </c>
       <c r="FA3">
-        <v>1.045030113442238</v>
+        <v>1.127057857900129</v>
       </c>
       <c r="FB3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="FC3">
-        <v>1.044591490143571</v>
+        <v>1.134866261222398</v>
       </c>
       <c r="FD3">
-        <v>1.044569448346739</v>
+        <v>1.134961781545035</v>
       </c>
       <c r="FE3">
-        <v>1.044491921745255</v>
+        <v>1.135459475931074</v>
       </c>
       <c r="FF3">
-        <v>1.044139697920084</v>
+        <v>1.142821554776232</v>
       </c>
       <c r="FG3">
-        <v>1.046739838033891</v>
+        <v>1.099094893807631</v>
       </c>
       <c r="FH3">
-        <v>1.045007690456715</v>
+        <v>1.127739141976573</v>
       </c>
       <c r="FI3">
-        <v>1.045020298636571</v>
+        <v>1.12717200953348</v>
       </c>
       <c r="FJ3">
-        <v>1.044606704946348</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="FK3">
-        <v>1.04459059500019</v>
+        <v>1.134893050090671</v>
       </c>
       <c r="FL3">
-        <v>1.044568012530481</v>
+        <v>1.134989713199259</v>
       </c>
       <c r="FM3">
-        <v>1.044487559879837</v>
+        <v>1.135491366166688</v>
       </c>
       <c r="FN3">
-        <v>1.044091649857168</v>
+        <v>1.143675880460376</v>
       </c>
       <c r="FO3">
-        <v>1.046739838033891</v>
+        <v>1.099094893807631</v>
       </c>
       <c r="FP3">
-        <v>1.045003454376058</v>
+        <v>1.127867848325101</v>
       </c>
       <c r="FQ3">
-        <v>1.045007268522417</v>
+        <v>1.127323568221925</v>
       </c>
       <c r="FR3">
-        <v>1.044606704946349</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="FS3">
-        <v>1.044589918737935</v>
+        <v>1.134913288528232</v>
       </c>
       <c r="FT3">
-        <v>1.044568012530472</v>
+        <v>1.134989713199264</v>
       </c>
       <c r="FU3">
-        <v>1.044544305609078</v>
+        <v>1.135450999975361</v>
       </c>
       <c r="FV3">
-        <v>1.044485747901068</v>
+        <v>1.135504613810084</v>
       </c>
       <c r="FW3">
-        <v>1.044064512025532</v>
+        <v>1.144158432164056</v>
       </c>
       <c r="FX3">
-        <v>1.04499471448838</v>
+        <v>1.128133395729205</v>
       </c>
       <c r="FY3">
-        <v>1.04500638000271</v>
+        <v>1.12733905298695</v>
       </c>
       <c r="FZ3">
-        <v>1.044972678019987</v>
+        <v>1.127589696599113</v>
       </c>
       <c r="GA3">
-        <v>1.04460670494635</v>
+        <v>1.134509270405543</v>
       </c>
       <c r="GB3">
-        <v>1.044589136184799</v>
+        <v>1.134936707926661</v>
       </c>
       <c r="GC3">
-        <v>1.04456801253047</v>
+        <v>1.134989713199264</v>
       </c>
       <c r="GD3">
-        <v>1.044541745239134</v>
+        <v>1.13550081945312</v>
       </c>
       <c r="GE3">
-        <v>1.044481842202289</v>
+        <v>1.135533168952081</v>
       </c>
       <c r="GF3">
-        <v>1.044044366867411</v>
+        <v>1.144516654497173</v>
       </c>
       <c r="GG3">
-        <v>1.045002883443235</v>
+        <v>1.127399990884659</v>
       </c>
       <c r="GH3">
-        <v>1.044829515334879</v>
+        <v>1.128691149451002</v>
       </c>
       <c r="GI3">
-        <v>1.04460670494635</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="GJ3">
-        <v>1.044588400382932</v>
+        <v>1.134958728207463</v>
       </c>
       <c r="GK3">
-        <v>1.04456801253047</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="GL3">
-        <v>1.044568012530469</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="GM3">
-        <v>1.044539268656839</v>
+        <v>1.135549008610242</v>
       </c>
       <c r="GN3">
-        <v>1.044471894434946</v>
+        <v>1.135605898573693</v>
       </c>
       <c r="GO3">
-        <v>1.044026255433287</v>
+        <v>1.144838720988641</v>
       </c>
       <c r="GP3">
-        <v>1.044996640519734</v>
+        <v>1.12750879730706</v>
       </c>
       <c r="GQ3">
-        <v>1.044825863223887</v>
+        <v>1.128801238643053</v>
       </c>
       <c r="GR3">
-        <v>1.044815454640991</v>
+        <v>1.128751941925429</v>
       </c>
       <c r="GS3">
-        <v>1.04460670494635</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="GT3">
-        <v>1.044587608703415</v>
+        <v>1.134982420737763</v>
       </c>
       <c r="GU3">
-        <v>1.04456801253047</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="GV3">
-        <v>1.044568012530468</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="GW3">
-        <v>1.044537287639214</v>
+        <v>1.135587555115387</v>
       </c>
       <c r="GX3">
-        <v>1.044466058130229</v>
+        <v>1.135648568688936</v>
       </c>
       <c r="GY3">
-        <v>1.044003755893671</v>
+        <v>1.145238829422839</v>
       </c>
       <c r="GZ3">
-        <v>1.044990370855199</v>
+        <v>1.127694351550362</v>
       </c>
       <c r="HA3">
-        <v>1.044995383970577</v>
+        <v>1.12752738065492</v>
       </c>
       <c r="HB3">
-        <v>1.044816629784846</v>
+        <v>1.129079571614569</v>
       </c>
       <c r="HC3">
-        <v>1.044813467148018</v>
+        <v>1.12876053500369</v>
       </c>
       <c r="HD3">
-        <v>1.04460670494635</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="HE3">
-        <v>1.044586398463073</v>
+        <v>1.135018639512309</v>
       </c>
       <c r="HF3">
-        <v>1.044568012530467</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="HG3">
-        <v>1.044535709602496</v>
+        <v>1.135618260451465</v>
       </c>
       <c r="HH3">
-        <v>1.044461970362871</v>
+        <v>1.135678454986893</v>
       </c>
       <c r="HI3">
-        <v>1.043962236744379</v>
+        <v>1.145977193273275</v>
       </c>
       <c r="HJ3">
-        <v>1.044969849408397</v>
+        <v>1.128301696730468</v>
       </c>
       <c r="HK3">
-        <v>1.04499311611659</v>
+        <v>1.127560920863709</v>
       </c>
       <c r="HL3">
-        <v>1.044811864291174</v>
+        <v>1.1287674650785</v>
       </c>
       <c r="HM3">
-        <v>1.04460670494635</v>
+        <v>1.134509270405544</v>
       </c>
       <c r="HN3">
-        <v>1.044583093426711</v>
+        <v>1.135117549141338</v>
       </c>
       <c r="HO3">
-        <v>1.044568012530467</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="HP3">
-        <v>1.044532373380145</v>
+        <v>1.135683176466431</v>
       </c>
       <c r="HQ3">
-        <v>1.044454107143868</v>
+        <v>1.135735944209321</v>
       </c>
       <c r="HR3">
-        <v>1.043926038635459</v>
+        <v>1.146620961537274</v>
       </c>
       <c r="HS3">
-        <v>1.044961002955645</v>
+        <v>1.128563513765341</v>
       </c>
       <c r="HT3">
-        <v>1.044992306366787</v>
+        <v>1.127572896729914</v>
       </c>
       <c r="HU3">
-        <v>1.044810583371348</v>
+        <v>1.128773003234085</v>
       </c>
       <c r="HV3">
-        <v>1.044582811628675</v>
+        <v>1.135125982497724</v>
       </c>
       <c r="HW3">
-        <v>1.044568012530466</v>
+        <v>1.134989713199265</v>
       </c>
       <c r="HX3">
-        <v>1.044529746025544</v>
+        <v>1.135734299391292</v>
       </c>
       <c r="HY3">
-        <v>1.044450193343909</v>
+        <v>1.135764558619494</v>
       </c>
       <c r="HZ3">
-        <v>1.043901414993132</v>
+        <v>1.14705889984003</v>
       </c>
       <c r="IA3">
-        <v>1.044901985636217</v>
+        <v>1.128909592814648</v>
       </c>
       <c r="IB3">
-        <v>1.044992306366787</v>
+        <v>1.127572896729914</v>
       </c>
       <c r="IC3">
-        <v>1.044808628034992</v>
+        <v>1.128781457281896</v>
       </c>
       <c r="ID3">
-        <v>1.044582681468804</v>
+        <v>1.135129877786166</v>
       </c>
       <c r="IE3">
-        <v>1.044568012530465</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="IF3">
-        <v>1.044527923561465</v>
+        <v>1.135769760807921</v>
       </c>
       <c r="IG3">
-        <v>1.044447414304312</v>
+        <v>1.135784876620224</v>
       </c>
       <c r="IH3">
-        <v>1.043885239369642</v>
+        <v>1.147346595311916</v>
       </c>
       <c r="II3">
-        <v>1.044888869092073</v>
+        <v>1.129103711129423</v>
       </c>
       <c r="IJ3">
-        <v>1.04480633598683</v>
+        <v>1.1287913671298</v>
       </c>
       <c r="IK3">
-        <v>1.044582542247066</v>
+        <v>1.135134044268791</v>
       </c>
       <c r="IL3">
-        <v>1.044568012530465</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="IM3">
-        <v>1.044526105439022</v>
+        <v>1.135805137752053</v>
       </c>
       <c r="IN3">
-        <v>1.044415623281417</v>
+        <v>1.13601730602166</v>
       </c>
       <c r="IO3">
-        <v>1.043850426675743</v>
+        <v>1.147965785133267</v>
       </c>
       <c r="IP3">
-        <v>1.044858487528798</v>
+        <v>1.129396947522995</v>
       </c>
       <c r="IQ3">
-        <v>1.044878989838897</v>
+        <v>1.129406315573777</v>
       </c>
       <c r="IR3">
-        <v>1.044802815537032</v>
+        <v>1.128806588068653</v>
       </c>
       <c r="IS3">
-        <v>1.044582409214565</v>
+        <v>1.135138025526513</v>
       </c>
       <c r="IT3">
-        <v>1.044568012530465</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="IU3">
-        <v>1.044523445606981</v>
+        <v>1.135856892655665</v>
       </c>
       <c r="IV3">
-        <v>1.044406248630193</v>
+        <v>1.136085845700988</v>
       </c>
       <c r="IW3">
-        <v>1.043846033368392</v>
+        <v>1.148229630845491</v>
       </c>
       <c r="IX3">
-        <v>1.043827578613432</v>
+        <v>1.148363941224537</v>
       </c>
       <c r="IY3">
-        <v>1.044789933088012</v>
+        <v>1.128862286352995</v>
       </c>
       <c r="IZ3">
-        <v>1.044582261010658</v>
+        <v>1.135142460818347</v>
       </c>
       <c r="JA3">
-        <v>1.044568012530464</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="JB3">
-        <v>1.044513441846432</v>
+        <v>1.136051545552047</v>
       </c>
       <c r="JC3">
-        <v>1.044404151242424</v>
+        <v>1.136101180065699</v>
       </c>
       <c r="JD3">
-        <v>1.043845426059936</v>
+        <v>1.148266103563422</v>
       </c>
       <c r="JE3">
-        <v>1.043741901725221</v>
+        <v>1.149857069997076</v>
       </c>
       <c r="JF3">
-        <v>1.044727234213469</v>
+        <v>1.129133370169187</v>
       </c>
       <c r="JG3">
-        <v>1.044581955097017</v>
+        <v>1.135151615882929</v>
       </c>
       <c r="JH3">
-        <v>1.044568012530464</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="JI3">
-        <v>1.044511106959053</v>
+        <v>1.136096977755859</v>
       </c>
       <c r="JJ3">
-        <v>1.044364828879644</v>
+        <v>1.1362972903182</v>
       </c>
       <c r="JK3">
-        <v>1.044403686492017</v>
+        <v>1.136107715195723</v>
       </c>
       <c r="JL3">
-        <v>1.043845146857922</v>
+        <v>1.148282871414568</v>
       </c>
       <c r="JM3">
-        <v>1.043733965069077</v>
+        <v>1.150088385135399</v>
       </c>
       <c r="JN3">
-        <v>1.043713602014597</v>
+        <v>1.150344677616345</v>
       </c>
       <c r="JO3">
-        <v>1.044581636489925</v>
+        <v>1.135161150824489</v>
       </c>
       <c r="JP3">
-        <v>1.044568012530464</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="JQ3">
-        <v>1.044510037286336</v>
+        <v>1.136117791435395</v>
       </c>
       <c r="JR3">
-        <v>1.0443258590597</v>
+        <v>1.136491642591418</v>
       </c>
       <c r="JS3">
-        <v>1.044403141601414</v>
+        <v>1.13611537722471</v>
       </c>
       <c r="JT3">
-        <v>1.04384481524594</v>
+        <v>1.14830278681846</v>
       </c>
       <c r="JU3">
-        <v>1.04373338816132</v>
+        <v>1.150105199217154</v>
       </c>
       <c r="JV3">
-        <v>1.043611015581237</v>
+        <v>1.152112398408611</v>
       </c>
       <c r="JW3">
-        <v>1.044580424940576</v>
+        <v>1.135197408818663</v>
       </c>
       <c r="JX3">
-        <v>1.044568012530464</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="JY3">
-        <v>1.044509334057313</v>
+        <v>1.136131474858974</v>
       </c>
       <c r="JZ3">
-        <v>1.044402649171898</v>
+        <v>1.136122301567601</v>
       </c>
       <c r="KA3">
-        <v>1.043844303608349</v>
+        <v>1.148333513906675</v>
       </c>
       <c r="KB3">
-        <v>1.043732912655899</v>
+        <v>1.150119057910449</v>
       </c>
       <c r="KC3">
-        <v>1.043586121458676</v>
+        <v>1.15260488113233</v>
       </c>
       <c r="KD3">
-        <v>1.043595283456074</v>
+        <v>1.152375857539619</v>
       </c>
       <c r="KE3">
-        <v>1.044573992652756</v>
+        <v>1.13538990781981</v>
       </c>
       <c r="KF3">
-        <v>1.044568012530464</v>
+        <v>1.134989713199266</v>
       </c>
       <c r="KG3">
-        <v>1.044506067696144</v>
+        <v>1.136177902692795</v>
       </c>
       <c r="KH3">
-        <v>1.044509127588963</v>
+        <v>1.136137605047451</v>
       </c>
       <c r="KI3">
-        <v>1.044402150439243</v>
+        <v>1.136129314542925</v>
       </c>
       <c r="KJ3">
-        <v>1.043843847703268</v>
+        <v>1.148360893907841</v>
       </c>
       <c r="KK3">
-        <v>1.043732237237125</v>
+        <v>1.15013874311706</v>
       </c>
       <c r="KL3">
-        <v>1.04357466332248</v>
+        <v>1.152831562999104</v>
       </c>
       <c r="KM3">
-        <v>1.043529350790963</v>
+        <v>1.15348005445077</v>
       </c>
       <c r="KN3">
-        <v>1.044504567268196</v>
+        <v>1.136199229676837</v>
       </c>
       <c r="KO3">
-        <v>1.044508981463942</v>
+        <v>1.136141943600731</v>
       </c>
       <c r="KP3">
-        <v>1.044401614200805</v>
+        <v>1.136136854909591</v>
       </c>
       <c r="KQ3">
-        <v>1.043843493247398</v>
+        <v>1.148382181241081</v>
       </c>
       <c r="KR3">
-        <v>1.043729203560654</v>
+        <v>1.150227160210966</v>
       </c>
       <c r="KS3">
-        <v>1.043499812550159</v>
+        <v>1.154312441872804</v>
       </c>
       <c r="KT3">
-        <v>1.043514796895331</v>
+        <v>1.15372380458932</v>
       </c>
       <c r="KU3">
-        <v>1.044502027821437</v>
+        <v>1.136235325211582</v>
       </c>
       <c r="KV3">
-        <v>1.044508811417483</v>
+        <v>1.136146992398274</v>
       </c>
       <c r="KW3">
-        <v>1.04439850431555</v>
+        <v>1.136180584856612</v>
       </c>
       <c r="KX3">
-        <v>1.043843052038691</v>
+        <v>1.148408678638241</v>
       </c>
       <c r="KY3">
-        <v>1.043728619545771</v>
+        <v>1.150244181443671</v>
       </c>
       <c r="KZ3">
-        <v>1.04349422189474</v>
+        <v>1.154423054579509</v>
       </c>
       <c r="LA3">
-        <v>1.043509960932855</v>
+        <v>1.153804798670268</v>
       </c>
       <c r="LB3">
-        <v>1.044497153518448</v>
+        <v>1.136304608264552</v>
       </c>
       <c r="LC3">
-        <v>1.044508486172992</v>
+        <v>1.136156649133568</v>
       </c>
       <c r="LD3">
-        <v>1.044385350677987</v>
+        <v>1.136365546098489</v>
       </c>
       <c r="LE3">
-        <v>1.043842595700255</v>
+        <v>1.148436084676014</v>
       </c>
       <c r="LF3">
-        <v>1.043728187130768</v>
+        <v>1.150256784267978</v>
       </c>
       <c r="LG3">
-        <v>1.043492969772913</v>
+        <v>1.154496562778556</v>
       </c>
       <c r="LH3">
-        <v>1.043397552467927</v>
+        <v>1.1561159221209</v>
       </c>
       <c r="LI3">
-        <v>1.043507436900937</v>
+        <v>1.153847072053061</v>
       </c>
       <c r="LJ3">
-        <v>1.044482802750113</v>
+        <v>1.13650858938735</v>
       </c>
       <c r="LK3">
-        <v>1.044507238803808</v>
+        <v>1.136193684397379</v>
       </c>
       <c r="LL3">
-        <v>1.043842057424314</v>
+        <v>1.148468411589504</v>
       </c>
       <c r="LM3">
-        <v>1.043727689035566</v>
+        <v>1.150271301356258</v>
       </c>
       <c r="LN3">
-        <v>1.04348652096817</v>
+        <v>1.154875152612886</v>
       </c>
       <c r="LO3">
-        <v>1.043351162386232</v>
+        <v>1.156928366018765</v>
       </c>
       <c r="LP3">
-        <v>1.04350527625126</v>
+        <v>1.153883259476515</v>
       </c>
       <c r="LQ3">
-        <v>1.044502982006073</v>
+        <v>1.136320071755641</v>
       </c>
       <c r="LR3">
-        <v>1.043841750678671</v>
+        <v>1.14848683362999</v>
       </c>
       <c r="LS3">
-        <v>1.043727194932299</v>
+        <v>1.150285702099866</v>
       </c>
       <c r="LT3">
-        <v>1.043484269567975</v>
+        <v>1.155007325693481</v>
       </c>
       <c r="LU3">
-        <v>1.043324958532684</v>
+        <v>1.157311391210471</v>
       </c>
       <c r="LV3">
-        <v>1.043269586263092</v>
+        <v>1.158379764888908</v>
       </c>
       <c r="LW3">
-        <v>1.043502818899932</v>
+        <v>1.153924416284725</v>
       </c>
       <c r="LX3">
-        <v>1.043840364925256</v>
+        <v>1.148570057020444</v>
       </c>
       <c r="LY3">
-        <v>1.043722854180408</v>
+        <v>1.150412214273628</v>
       </c>
       <c r="LZ3">
-        <v>1.043479369541488</v>
+        <v>1.15529499215211</v>
       </c>
       <c r="MA3">
-        <v>1.043314580508603</v>
+        <v>1.157463088381385</v>
       </c>
       <c r="MB3">
-        <v>1.043250055827277</v>
+        <v>1.158764225757355</v>
       </c>
       <c r="MC3">
-        <v>1.043256178317783</v>
+        <v>1.158615647694683</v>
       </c>
       <c r="MD3">
-        <v>1.043500882930402</v>
+        <v>1.153956840839887</v>
       </c>
       <c r="ME3">
-        <v>1.043839825618806</v>
+        <v>1.148602445845613</v>
       </c>
       <c r="MF3">
-        <v>1.043713981102363</v>
+        <v>1.150670822358472</v>
       </c>
       <c r="MG3">
-        <v>1.043479352533848</v>
+        <v>1.155412904989696</v>
       </c>
       <c r="MH3">
-        <v>1.043477487679517</v>
+        <v>1.15535046168897</v>
       </c>
       <c r="MI3">
-        <v>1.043240236810636</v>
+        <v>1.158957515529682</v>
       </c>
       <c r="MJ3">
-        <v>1.043244691742461</v>
+        <v>1.158817731915396</v>
       </c>
       <c r="MK3">
-        <v>1.043499259824443</v>
+        <v>1.153984025458948</v>
       </c>
       <c r="ML3">
-        <v>1.043839638264253</v>
+        <v>1.148613697694285</v>
       </c>
       <c r="MM3">
-        <v>1.043479327085376</v>
+        <v>1.155589338301992</v>
       </c>
       <c r="MN3">
-        <v>1.043477225648095</v>
+        <v>1.155358185296905</v>
       </c>
       <c r="MO3">
-        <v>1.043239323054821</v>
+        <v>1.158975503049175</v>
       </c>
       <c r="MP3">
-        <v>1.043236612065889</v>
+        <v>1.15895988030114</v>
       </c>
       <c r="MQ3">
-        <v>1.04349779526952</v>
+        <v>1.154008554625788</v>
       </c>
       <c r="MR3">
-        <v>1.043839497117524</v>
+        <v>1.148622174465687</v>
       </c>
       <c r="MS3">
-        <v>1.043476941063547</v>
+        <v>1.155366573678512</v>
       </c>
       <c r="MT3">
-        <v>1.043238945685063</v>
+        <v>1.158982931670936</v>
       </c>
       <c r="MU3">
-        <v>1.043226403295112</v>
+        <v>1.159139488899698</v>
       </c>
       <c r="MV3">
-        <v>1.043496583152212</v>
+        <v>1.154028855859993</v>
       </c>
       <c r="MW3">
-        <v>1.043839393848125</v>
+        <v>1.148628376459339</v>
       </c>
       <c r="MX3">
-        <v>1.043476691787925</v>
+        <v>1.155373921298576</v>
       </c>
       <c r="MY3">
-        <v>1.04323867941158</v>
+        <v>1.158988173333807</v>
       </c>
       <c r="MZ3">
-        <v>1.043220006603016</v>
+        <v>1.159252030816401</v>
       </c>
       <c r="NA3">
-        <v>1.043495177024464</v>
+        <v>1.154052406526737</v>
       </c>
       <c r="NB3">
-        <v>1.043839341407341</v>
+        <v>1.148631525866884</v>
       </c>
       <c r="NC3">
-        <v>1.043476426932575</v>
+        <v>1.155381728145259</v>
       </c>
       <c r="ND3">
-        <v>1.043238407055183</v>
+        <v>1.158993534740592</v>
       </c>
       <c r="NE3">
-        <v>1.04321018385331</v>
+        <v>1.159424852012437</v>
       </c>
       <c r="NF3">
-        <v>1.043493631591895</v>
+        <v>1.154078290396793</v>
       </c>
       <c r="NG3">
-        <v>1.043839264308255</v>
+        <v>1.148636156164676</v>
       </c>
       <c r="NH3">
-        <v>1.043476048927302</v>
+        <v>1.155392870186976</v>
       </c>
       <c r="NI3">
-        <v>1.043238085694088</v>
+        <v>1.158999860817869</v>
       </c>
       <c r="NJ3">
-        <v>1.043200391794887</v>
+        <v>1.159597135657568</v>
       </c>
       <c r="NK3">
-        <v>1.043485206440853</v>
+        <v>1.154219400881098</v>
       </c>
       <c r="NL3">
-        <v>1.043839135065007</v>
+        <v>1.148643918056239</v>
       </c>
       <c r="NM3">
-        <v>1.043475589392596</v>
+        <v>1.155406415382153</v>
       </c>
       <c r="NN3">
-        <v>1.043237680320013</v>
+        <v>1.15900784071294</v>
       </c>
       <c r="NO3">
-        <v>1.043189404884818</v>
+        <v>1.159790444675896</v>
       </c>
       <c r="NP3">
-        <v>1.043423396252972</v>
+        <v>1.155233060172817</v>
       </c>
       <c r="NQ3">
-        <v>1.043482507021987</v>
+        <v>1.154299376778366</v>
       </c>
       <c r="NR3">
-        <v>1.04383855858427</v>
+        <v>1.148678539450636</v>
       </c>
       <c r="NS3">
-        <v>1.043472741049682</v>
+        <v>1.155490372850897</v>
       </c>
       <c r="NT3">
-        <v>1.043237317268076</v>
+        <v>1.159014987485892</v>
       </c>
       <c r="NU3">
-        <v>1.043181454425648</v>
+        <v>1.159930330810803</v>
       </c>
       <c r="NV3">
-        <v>1.043364196256384</v>
+        <v>1.156203978226005</v>
       </c>
       <c r="NW3">
-        <v>1.043465932227464</v>
+        <v>1.154790440271306</v>
       </c>
       <c r="NX3">
-        <v>1.04348250702199</v>
+        <v>1.154299376778369</v>
       </c>
       <c r="NY3">
-        <v>1.043836439457333</v>
+        <v>1.148805806775213</v>
       </c>
       <c r="NZ3">
-        <v>1.043462994787091</v>
+        <v>1.155777652988869</v>
       </c>
       <c r="OA3">
-        <v>1.043237029994216</v>
+        <v>1.159020642547633</v>
       </c>
       <c r="OB3">
-        <v>1.043171978269192</v>
+        <v>1.160097063257172</v>
       </c>
       <c r="OC3">
-        <v>1.04336156084243</v>
+        <v>1.156247202181215</v>
       </c>
       <c r="OD3">
-        <v>1.043459874552584</v>
+        <v>1.154969912073132</v>
       </c>
       <c r="OE3">
-        <v>1.043482507022007</v>
+        <v>1.15429937677839</v>
       </c>
       <c r="OF3">
-        <v>1.043236536963168</v>
+        <v>1.159030347994337</v>
       </c>
       <c r="OG3">
-        <v>1.043158228630406</v>
+        <v>1.160338991426199</v>
       </c>
       <c r="OH3">
-        <v>1.04333668437852</v>
+        <v>1.156696173853064</v>
       </c>
       <c r="OI3">
-        <v>1.043317465928143</v>
+        <v>1.156963510499479</v>
       </c>
       <c r="OJ3">
-        <v>1.043459257960677</v>
+        <v>1.154988179959788</v>
       </c>
       <c r="OK3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778392</v>
       </c>
       <c r="OL3">
-        <v>1.043234815844959</v>
+        <v>1.159064228665873</v>
       </c>
       <c r="OM3">
-        <v>1.043148035042617</v>
+        <v>1.160518353116927</v>
       </c>
       <c r="ON3">
-        <v>1.043334405052192</v>
+        <v>1.156737311303544</v>
       </c>
       <c r="OO3">
-        <v>1.043296192634499</v>
+        <v>1.157309100930988</v>
       </c>
       <c r="OP3">
-        <v>1.043458827660192</v>
+        <v>1.155000928555807</v>
       </c>
       <c r="OQ3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778392</v>
       </c>
       <c r="OR3">
-        <v>1.043224293565205</v>
+        <v>1.159271362685866</v>
       </c>
       <c r="OS3">
-        <v>1.043138201763071</v>
+        <v>1.160691377478591</v>
       </c>
       <c r="OT3">
-        <v>1.043333109302242</v>
+        <v>1.15676069709874</v>
       </c>
       <c r="OU3">
-        <v>1.043232014464138</v>
+        <v>1.158351741237665</v>
       </c>
       <c r="OV3">
-        <v>1.043296192634492</v>
+        <v>1.157309100930984</v>
       </c>
       <c r="OW3">
-        <v>1.043458381907122</v>
+        <v>1.155014134969469</v>
       </c>
       <c r="OX3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778393</v>
       </c>
       <c r="OY3">
-        <v>1.04312857801578</v>
+        <v>1.16086071732046</v>
       </c>
       <c r="OZ3">
-        <v>1.043332229456897</v>
+        <v>1.156776576617175</v>
       </c>
       <c r="PA3">
-        <v>1.043140608960317</v>
+        <v>1.15983684301625</v>
       </c>
       <c r="PB3">
-        <v>1.04329619263449</v>
+        <v>1.157309100930983</v>
       </c>
       <c r="PC3">
-        <v>1.04345651000437</v>
+        <v>1.155069594209576</v>
       </c>
       <c r="PD3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778394</v>
       </c>
       <c r="PE3">
-        <v>1.043117004098022</v>
+        <v>1.161064375539931</v>
       </c>
       <c r="PF3">
-        <v>1.043330795541854</v>
+        <v>1.156802456032268</v>
       </c>
       <c r="PG3">
-        <v>1.043121481307895</v>
+        <v>1.160147636244258</v>
       </c>
       <c r="PH3">
-        <v>1.043296192634489</v>
+        <v>1.157309100930983</v>
       </c>
       <c r="PI3">
-        <v>1.04345605292963</v>
+        <v>1.155083136057471</v>
       </c>
       <c r="PJ3">
-        <v>1.04348250702201</v>
+        <v>1.154299376778409</v>
       </c>
       <c r="PK3">
-        <v>1.043097620137025</v>
+        <v>1.161405469265247</v>
       </c>
       <c r="PL3">
-        <v>1.043117004098022</v>
+        <v>1.161064375539931</v>
       </c>
       <c r="PM3">
-        <v>1.043326029120669</v>
+        <v>1.156888480814657</v>
       </c>
       <c r="PN3">
-        <v>1.043116592501974</v>
+        <v>1.160227072417389</v>
       </c>
       <c r="PO3">
-        <v>1.043296192634487</v>
+        <v>1.157309100930982</v>
       </c>
       <c r="PP3">
-        <v>1.043455616930064</v>
+        <v>1.155096053507759</v>
       </c>
       <c r="PQ3">
-        <v>1.043482507022012</v>
+        <v>1.154299376778414</v>
       </c>
       <c r="PR3">
-        <v>1.043032241521799</v>
+        <v>1.162555987039487</v>
       </c>
       <c r="PS3">
-        <v>1.043097620137025</v>
+        <v>1.161405469265247</v>
       </c>
       <c r="PT3">
-        <v>1.043320722599771</v>
+        <v>1.156984253410281</v>
       </c>
       <c r="PU3">
-        <v>1.043114031327199</v>
+        <v>1.160268688048192</v>
       </c>
       <c r="PV3">
-        <v>1.043296192634486</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="PW3">
-        <v>1.043455183301928</v>
+        <v>1.155108900700047</v>
       </c>
       <c r="PX3">
-        <v>1.043482507022012</v>
+        <v>1.154299376778415</v>
       </c>
       <c r="PY3">
-        <v>1.042939775609915</v>
+        <v>1.164183364880957</v>
       </c>
       <c r="PZ3">
-        <v>1.043032241521799</v>
+        <v>1.162555987039487</v>
       </c>
       <c r="QA3">
-        <v>1.043317738233315</v>
+        <v>1.157038115562596</v>
       </c>
       <c r="QB3">
-        <v>1.043111908143459</v>
+        <v>1.160303187003611</v>
       </c>
       <c r="QC3">
-        <v>1.043296192634485</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="QD3">
-        <v>1.043454685874568</v>
+        <v>1.15512363808648</v>
       </c>
       <c r="QE3">
-        <v>1.043482507022012</v>
+        <v>1.154299376778418</v>
       </c>
       <c r="QF3">
-        <v>1.042873429913798</v>
+        <v>1.165351165903294</v>
       </c>
       <c r="QG3">
-        <v>1.042939775609915</v>
+        <v>1.164183364880957</v>
       </c>
       <c r="QH3">
-        <v>1.043314934737517</v>
+        <v>1.157088713356899</v>
       </c>
       <c r="QI3">
-        <v>1.043110187421283</v>
+        <v>1.160331146543729</v>
       </c>
       <c r="QJ3">
-        <v>1.043296192634484</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="QK3">
-        <v>1.043452968038521</v>
+        <v>1.155174532789974</v>
       </c>
       <c r="QL3">
-        <v>1.043482507022012</v>
+        <v>1.154299376778419</v>
       </c>
       <c r="QM3">
-        <v>1.042853301288271</v>
+        <v>1.165705487038523</v>
       </c>
       <c r="QN3">
-        <v>1.042873429913798</v>
+        <v>1.165351165903294</v>
       </c>
       <c r="QO3">
-        <v>1.04331225997119</v>
+        <v>1.157136987840674</v>
       </c>
       <c r="QP3">
-        <v>1.043107557179114</v>
+        <v>1.160373884723911</v>
       </c>
       <c r="QQ3">
-        <v>1.043296192634484</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="QR3">
-        <v>1.043444596686514</v>
+        <v>1.155422552858058</v>
       </c>
       <c r="QS3">
-        <v>1.043482507022012</v>
+        <v>1.154299376778421</v>
       </c>
       <c r="QT3">
-        <v>1.042797878543055</v>
+        <v>1.166638305215443</v>
       </c>
       <c r="QU3">
-        <v>1.042853301288271</v>
+        <v>1.165705487038523</v>
       </c>
       <c r="QV3">
-        <v>1.042846385806216</v>
+        <v>1.165899732376586</v>
       </c>
       <c r="QW3">
-        <v>1.043307868403986</v>
+        <v>1.157216247367099</v>
       </c>
       <c r="QX3">
-        <v>1.043105186056034</v>
+        <v>1.160412412643705</v>
       </c>
       <c r="QY3">
-        <v>1.043296192634483</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="QZ3">
-        <v>1.04348250702201</v>
+        <v>1.154299376778423</v>
       </c>
       <c r="RA3">
-        <v>1.042736304389973</v>
+        <v>1.167674752359719</v>
       </c>
       <c r="RB3">
-        <v>1.042797878543055</v>
+        <v>1.166638305215443</v>
       </c>
       <c r="RC3">
-        <v>1.042797878543055</v>
+        <v>1.166638305215443</v>
       </c>
       <c r="RD3">
-        <v>1.042845375885796</v>
+        <v>1.165928099516822</v>
       </c>
       <c r="RE3">
-        <v>1.043304809593984</v>
+        <v>1.157271453153202</v>
       </c>
       <c r="RF3">
-        <v>1.043102929331502</v>
+        <v>1.160449081815335</v>
       </c>
       <c r="RG3">
-        <v>1.043296192634483</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="RH3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778432</v>
       </c>
       <c r="RI3">
-        <v>1.042713741423864</v>
+        <v>1.168054568541558</v>
       </c>
       <c r="RJ3">
-        <v>1.042736304389973</v>
+        <v>1.167674752359719</v>
       </c>
       <c r="RK3">
-        <v>1.042844825202606</v>
+        <v>1.165943567378238</v>
       </c>
       <c r="RL3">
-        <v>1.043302660406752</v>
+        <v>1.157310241963418</v>
       </c>
       <c r="RM3">
-        <v>1.04310038699431</v>
+        <v>1.1604903919705</v>
       </c>
       <c r="RN3">
-        <v>1.043296192634482</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="RO3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778433</v>
       </c>
       <c r="RP3">
-        <v>1.042673349657461</v>
+        <v>1.168652881527404</v>
       </c>
       <c r="RQ3">
-        <v>1.042713741423864</v>
+        <v>1.168054568541558</v>
       </c>
       <c r="RR3">
-        <v>1.042674411068268</v>
+        <v>1.169168996435712</v>
       </c>
       <c r="RS3">
-        <v>1.042844452157939</v>
+        <v>1.165954045641798</v>
       </c>
       <c r="RT3">
-        <v>1.043301633512262</v>
+        <v>1.15732877549136</v>
       </c>
       <c r="RU3">
-        <v>1.043097701468037</v>
+        <v>1.160534028912399</v>
       </c>
       <c r="RV3">
-        <v>1.043296192634481</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="RW3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778433</v>
       </c>
       <c r="RX3">
-        <v>1.042615462191278</v>
+        <v>1.169510435242998</v>
       </c>
       <c r="RY3">
-        <v>1.042673349657461</v>
+        <v>1.168652881527404</v>
       </c>
       <c r="RZ3">
-        <v>1.042673300019728</v>
+        <v>1.169198850998451</v>
       </c>
       <c r="SA3">
-        <v>1.042666653982167</v>
+        <v>1.169400260683773</v>
       </c>
       <c r="SB3">
-        <v>1.042843885527046</v>
+        <v>1.165969961452411</v>
       </c>
       <c r="SC3">
-        <v>1.043300983002759</v>
+        <v>1.157340515974091</v>
       </c>
       <c r="SD3">
-        <v>1.043091829636289</v>
+        <v>1.16062944036598</v>
       </c>
       <c r="SE3">
-        <v>1.043296192634479</v>
+        <v>1.157309100930979</v>
       </c>
       <c r="SF3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778433</v>
       </c>
       <c r="SG3">
-        <v>1.042580137421039</v>
+        <v>1.170033788829736</v>
       </c>
       <c r="SH3">
-        <v>1.042615462191278</v>
+        <v>1.169510435242998</v>
       </c>
       <c r="SI3">
-        <v>1.042672830405848</v>
+        <v>1.169211469815786</v>
       </c>
       <c r="SJ3">
-        <v>1.042661690331803</v>
+        <v>1.169548243625914</v>
       </c>
       <c r="SK3">
-        <v>1.042843025608736</v>
+        <v>1.165994115268556</v>
       </c>
       <c r="SL3">
-        <v>1.043300543178196</v>
+        <v>1.157348453987188</v>
       </c>
       <c r="SM3">
-        <v>1.042958654679664</v>
+        <v>1.162793563805293</v>
       </c>
       <c r="SN3">
-        <v>1.043296192634478</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="SO3">
-        <v>1.043482507022008</v>
+        <v>1.154299376778433</v>
       </c>
       <c r="SP3">
-        <v>1.042574054289124</v>
+        <v>1.17012391697668</v>
       </c>
       <c r="SQ3">
-        <v>1.042580137421039</v>
+        <v>1.170033788829736</v>
       </c>
       <c r="SR3">
-        <v>1.042672554469943</v>
+        <v>1.169218884385754</v>
       </c>
       <c r="SS3">
-        <v>1.042842415525103</v>
+        <v>1.166011251605062</v>
       </c>
       <c r="ST3">
-        <v>1.043299929676144</v>
+        <v>1.157359526555624</v>
       </c>
       <c r="SU3">
-        <v>1.042905661583442</v>
+        <v>1.163106642099006</v>
       </c>
       <c r="SV3">
-        <v>1.042941215937649</v>
+        <v>1.163108373955996</v>
       </c>
       <c r="SW3">
-        <v>1.043296192634477</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="SX3">
-        <v>1.042568271788025</v>
+        <v>1.170291770195105</v>
       </c>
       <c r="SY3">
-        <v>1.042574054289124</v>
+        <v>1.17012391697668</v>
       </c>
       <c r="SZ3">
-        <v>1.042519269908026</v>
+        <v>1.170595726034798</v>
       </c>
       <c r="TA3">
-        <v>1.042672300525869</v>
+        <v>1.169225708021759</v>
       </c>
       <c r="TB3">
-        <v>1.042841998708725</v>
+        <v>1.166022959354437</v>
       </c>
       <c r="TC3">
-        <v>1.043299461446555</v>
+        <v>1.157367977227363</v>
       </c>
       <c r="TD3">
-        <v>1.04285892886229</v>
+        <v>1.163382735163825</v>
       </c>
       <c r="TE3">
-        <v>1.042931808229329</v>
+        <v>1.163278207840032</v>
       </c>
       <c r="TF3">
-        <v>1.043296192634476</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="TG3">
-        <v>1.04256401517854</v>
+        <v>1.170415330564382</v>
       </c>
       <c r="TH3">
-        <v>1.042568271788025</v>
+        <v>1.170291770195105</v>
       </c>
       <c r="TI3">
-        <v>1.042486903505478</v>
+        <v>1.17087453669904</v>
       </c>
       <c r="TJ3">
-        <v>1.042672074283046</v>
+        <v>1.169231787308028</v>
       </c>
       <c r="TK3">
-        <v>1.042841669341988</v>
+        <v>1.166032210774523</v>
       </c>
       <c r="TL3">
-        <v>1.043296120056746</v>
+        <v>1.157428283099195</v>
       </c>
       <c r="TM3">
-        <v>1.042930403243067</v>
+        <v>1.163303571700937</v>
       </c>
       <c r="TN3">
-        <v>1.043296192634475</v>
+        <v>1.15730910093098</v>
       </c>
       <c r="TO3">
-        <v>1.042558219799787</v>
+        <v>1.170583558708979</v>
       </c>
       <c r="TP3">
-        <v>1.04256401517854</v>
+        <v>1.170415330564382</v>
       </c>
       <c r="TQ3">
-        <v>1.042461261705595</v>
+        <v>1.171095455998577</v>
       </c>
       <c r="TR3">
-        <v>1.042671839581819</v>
+        <v>1.169238093877085</v>
       </c>
       <c r="TS3">
-        <v>1.042840613304619</v>
+        <v>1.166061873291281</v>
       </c>
       <c r="TT3">
-        <v>1.043293668309593</v>
+        <v>1.157533772438531</v>
       </c>
       <c r="TU3">
-        <v>1.043269028523039</v>
+        <v>1.157739389097978</v>
       </c>
       <c r="TV3">
-        <v>1.042929330765519</v>
+        <v>1.163322932894776</v>
       </c>
       <c r="TW3">
-        <v>1.043296192634475</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="TX3">
-        <v>1.04255411866262</v>
+        <v>1.170702606829883</v>
       </c>
       <c r="TY3">
-        <v>1.042558219799787</v>
+        <v>1.170583558708979</v>
       </c>
       <c r="TZ3">
-        <v>1.042450667249313</v>
+        <v>1.171186742735958</v>
       </c>
       <c r="UA3">
-        <v>1.042671131056701</v>
+        <v>1.169257132392369</v>
       </c>
       <c r="UB3">
-        <v>1.042832071533112</v>
+        <v>1.166301799101605</v>
       </c>
       <c r="UC3">
-        <v>1.043290961020704</v>
+        <v>1.157650256832253</v>
       </c>
       <c r="UD3">
-        <v>1.04292832772199</v>
+        <v>1.163341040634319</v>
       </c>
       <c r="UE3">
-        <v>1.043296192634474</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="UF3">
-        <v>1.042542649648523</v>
+        <v>1.171035531951767</v>
       </c>
       <c r="UG3">
-        <v>1.04255411866262</v>
+        <v>1.170702606829883</v>
       </c>
       <c r="UH3">
-        <v>1.042448625131623</v>
+        <v>1.171201760815196</v>
       </c>
       <c r="UI3">
-        <v>1.042433683171049</v>
+        <v>1.171367036839487</v>
       </c>
       <c r="UJ3">
-        <v>1.042670417033619</v>
+        <v>1.169276318643352</v>
       </c>
       <c r="UK3">
-        <v>1.042831646161261</v>
+        <v>1.166313747179833</v>
       </c>
       <c r="UL3">
-        <v>1.043283622738994</v>
+        <v>1.157965995672838</v>
       </c>
       <c r="UM3">
-        <v>1.042927258101146</v>
+        <v>1.163360350304255</v>
       </c>
       <c r="UN3">
-        <v>1.043296192634474</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="UO3">
-        <v>1.042534344957246</v>
+        <v>1.171276603970719</v>
       </c>
       <c r="UP3">
-        <v>1.042542649648523</v>
+        <v>1.171035531951767</v>
       </c>
       <c r="UQ3">
-        <v>1.042447873694481</v>
+        <v>1.171207287015069</v>
       </c>
       <c r="UR3">
-        <v>1.042420838937347</v>
+        <v>1.171503434763389</v>
       </c>
       <c r="US3">
-        <v>1.042663745474964</v>
+        <v>1.169455587729961</v>
       </c>
       <c r="UT3">
-        <v>1.042831310528022</v>
+        <v>1.166323174631182</v>
       </c>
       <c r="UU3">
-        <v>1.042926311617189</v>
+        <v>1.163377437026876</v>
       </c>
       <c r="UV3">
-        <v>1.043296192634474</v>
+        <v>1.157309100930981</v>
       </c>
       <c r="UW3">
-        <v>1.042533418062276</v>
+        <v>1.171302737989489</v>
       </c>
       <c r="UX3">
-        <v>1.042534344957246</v>
+        <v>1.171276603970719</v>
       </c>
       <c r="UY3">
-        <v>1.042519970947136</v>
+        <v>1.171706021967459</v>
       </c>
       <c r="UZ3">
-        <v>1.042446754373273</v>
+        <v>1.171215518702462</v>
       </c>
       <c r="VA3">
-        <v>1.042830931085529</v>
+        <v>1.166333832621541</v>
       </c>
       <c r="VB3">
-        <v>1.042925343532119</v>
+        <v>1.163394913730766</v>
       </c>
       <c r="VC3">
-        <v>1.042533198590569</v>
+        <v>1.171308926047478</v>
       </c>
       <c r="VD3">
-        <v>1.042533418062276</v>
+        <v>1.171302737989489</v>
       </c>
       <c r="VE3">
-        <v>1.042518153820067</v>
+        <v>1.171760308004624</v>
       </c>
       <c r="VF3">
-        <v>1.042446080852339</v>
+        <v>1.171220471897531</v>
       </c>
       <c r="VG3">
-        <v>1.042830593369698</v>
+        <v>1.166343318570872</v>
       </c>
       <c r="VH3">
-        <v>1.042920346968272</v>
+        <v>1.16348511631582</v>
       </c>
       <c r="VI3">
-        <v>1.042527248798155</v>
+        <v>1.171476682216922</v>
       </c>
       <c r="VJ3">
-        <v>1.042533198590569</v>
+        <v>1.171308926047478</v>
       </c>
       <c r="VK3">
-        <v>1.042533198590573</v>
+        <v>1.171308926047483</v>
       </c>
       <c r="VL3">
-        <v>1.042516812900815</v>
+        <v>1.171800367509182</v>
       </c>
       <c r="VM3">
-        <v>1.04244526816096</v>
+        <v>1.171226448579537</v>
       </c>
       <c r="VN3">
-        <v>1.042830204658788</v>
+        <v>1.166354236898832</v>
       </c>
       <c r="VO3">
-        <v>1.042910629116535</v>
+        <v>1.163738955964608</v>
       </c>
       <c r="VP3">
-        <v>1.04290997392326</v>
+        <v>1.163669122543472</v>
       </c>
       <c r="VQ3">
-        <v>1.042523079098594</v>
+        <v>1.171594248519099</v>
       </c>
       <c r="VR3">
-        <v>1.042527248798155</v>
+        <v>1.171476682216922</v>
       </c>
       <c r="VS3">
-        <v>1.042533198590575</v>
+        <v>1.171308926047484</v>
       </c>
       <c r="VT3">
-        <v>1.042515508176104</v>
+        <v>1.171839345722242</v>
       </c>
       <c r="VU3">
-        <v>1.042444554583636</v>
+        <v>1.171231696360573</v>
       </c>
       <c r="VV3">
-        <v>1.04282980609784</v>
+        <v>1.166365431900785</v>
       </c>
       <c r="VW3">
-        <v>1.042910069104776</v>
+        <v>1.163753584021538</v>
       </c>
       <c r="VX3">
-        <v>1.042860404345777</v>
+        <v>1.164548462218387</v>
       </c>
       <c r="VY3">
-        <v>1.042518951413235</v>
+        <v>1.171706535742948</v>
       </c>
       <c r="VZ3">
-        <v>1.042522577596213</v>
+        <v>1.171608874428516</v>
       </c>
       <c r="WA3">
-        <v>1.042533198590576</v>
+        <v>1.171308926047486</v>
       </c>
       <c r="WB3">
-        <v>1.042503252056669</v>
+        <v>1.172205493563974</v>
       </c>
       <c r="WC3">
-        <v>1.042439885176498</v>
+        <v>1.171266036100246</v>
       </c>
       <c r="WD3">
-        <v>1.042829327029157</v>
+        <v>1.16637888824972</v>
       </c>
       <c r="WE3">
-        <v>1.042909787846117</v>
+        <v>1.163760930774264</v>
       </c>
       <c r="WF3">
-        <v>1.042860403455462</v>
+        <v>1.165063347962567</v>
       </c>
       <c r="WG3">
-        <v>1.042802121014682</v>
+        <v>1.165520320702276</v>
       </c>
       <c r="WH3">
-        <v>1.042515270407577</v>
+        <v>1.171806671985947</v>
       </c>
       <c r="WI3">
-        <v>1.042518951413235</v>
+        <v>1.171706535742948</v>
       </c>
       <c r="WJ3">
-        <v>1.042518951413235</v>
+        <v>1.171706535742948</v>
       </c>
       <c r="WK3">
-        <v>1.042500249648236</v>
+        <v>1.17226007361772</v>
       </c>
       <c r="WL3">
-        <v>1.042522577596213</v>
+        <v>1.171608874428516</v>
       </c>
       <c r="WM3">
-        <v>1.042533198590576</v>
+        <v>1.171308926047487</v>
       </c>
       <c r="WN3">
-        <v>1.042497547948876</v>
+        <v>1.172375902287289</v>
       </c>
       <c r="WO3">
-        <v>1.042405456490037</v>
+        <v>1.171519233944361</v>
       </c>
       <c r="WP3">
-        <v>1.042829026687212</v>
+        <v>1.166387324422647</v>
       </c>
       <c r="WQ3">
-        <v>1.04290955199548</v>
+        <v>1.163767091425012</v>
       </c>
       <c r="WR3">
-        <v>1.042860402985641</v>
+        <v>1.165335055204245</v>
       </c>
       <c r="WS3">
-        <v>1.042746295928881</v>
+        <v>1.166451246914344</v>
       </c>
       <c r="WT3">
-        <v>1.04250724461669</v>
+        <v>1.172025133006512</v>
       </c>
       <c r="WU3">
-        <v>1.042515270407577</v>
+        <v>1.171806671985947</v>
       </c>
       <c r="WV3">
-        <v>1.042515270407577</v>
+        <v>1.171806671985947</v>
       </c>
       <c r="WW3">
-        <v>1.042494994324731</v>
+        <v>1.172413346527267</v>
       </c>
       <c r="WX3">
-        <v>1.042533198590577</v>
+        <v>1.171308926047488</v>
       </c>
       <c r="WY3">
-        <v>1.042494870779575</v>
+        <v>1.1724558820695</v>
       </c>
       <c r="WZ3">
-        <v>1.042827735918521</v>
+        <v>1.166423580261504</v>
       </c>
       <c r="XA3">
-        <v>1.042909359667539</v>
+        <v>1.163772115220271</v>
       </c>
       <c r="XB3">
-        <v>1.042743095993018</v>
+        <v>1.166544170128893</v>
       </c>
       <c r="XC3">
-        <v>1.042731173385943</v>
+        <v>1.166696212754966</v>
       </c>
       <c r="XD3">
-        <v>1.042496311643762</v>
+        <v>1.172322727469193</v>
       </c>
       <c r="XE3">
-        <v>1.042533198590577</v>
+        <v>1.171308926047488</v>
       </c>
       <c r="XF3">
-        <v>1.042493085066315</v>
+        <v>1.172509229837604</v>
       </c>
       <c r="XG3">
-        <v>1.042822294190919</v>
+        <v>1.166576430651664</v>
       </c>
       <c r="XH3">
-        <v>1.042909057768861</v>
+        <v>1.163780001111351</v>
       </c>
       <c r="XI3">
-        <v>1.042742311359828</v>
+        <v>1.166566955166915</v>
       </c>
       <c r="XJ3">
-        <v>1.042727694150034</v>
+        <v>1.166752572482672</v>
       </c>
       <c r="XK3">
-        <v>1.042493104880797</v>
+        <v>1.172410015314284</v>
       </c>
       <c r="XL3">
-        <v>1.042533198590578</v>
+        <v>1.171308926047489</v>
       </c>
       <c r="XM3">
-        <v>1.042490355043258</v>
+        <v>1.172590788669677</v>
       </c>
       <c r="XN3">
-        <v>1.042908337874008</v>
+        <v>1.163798805475895</v>
       </c>
       <c r="XO3">
-        <v>1.042741772573926</v>
+        <v>1.166582601023642</v>
       </c>
       <c r="XP3">
-        <v>1.042725967586543</v>
+        <v>1.166780540956436</v>
       </c>
       <c r="XQ3">
-        <v>1.042482491093299</v>
+        <v>1.172698922026748</v>
       </c>
       <c r="XR3">
-        <v>1.042533198590579</v>
+        <v>1.17130892604749</v>
       </c>
       <c r="XS3">
-        <v>1.042485023340552</v>
+        <v>1.172750072202535</v>
       </c>
       <c r="XT3">
-        <v>1.042907839823346</v>
+        <v>1.163811815052144</v>
       </c>
       <c r="XU3">
-        <v>1.042741025700031</v>
+        <v>1.166604289570176</v>
       </c>
       <c r="XV3">
-        <v>1.04272407022826</v>
+        <v>1.166811276181715</v>
       </c>
       <c r="XW3">
-        <v>1.042533198590579</v>
+        <v>1.171308926047491</v>
       </c>
       <c r="XX3">
-        <v>1.042483549521132</v>
+        <v>1.172794102280848</v>
       </c>
       <c r="XY3">
-        <v>1.042907206554949</v>
+        <v>1.163828356650779</v>
       </c>
       <c r="XZ3">
-        <v>1.042739254638912</v>
+        <v>1.166655719602829</v>
       </c>
       <c r="YA3">
-        <v>1.042721880959367</v>
+        <v>1.166846740131648</v>
       </c>
       <c r="YB3">
-        <v>1.04253319859058</v>
+        <v>1.171308926047492</v>
       </c>
       <c r="YC3">
-        <v>1.042483121647721</v>
+        <v>1.172806884920524</v>
       </c>
       <c r="YD3">
-        <v>1.042906821849789</v>
+        <v>1.163838405531815</v>
       </c>
       <c r="YE3">
-        <v>1.042737908340709</v>
+        <v>1.166694814909095</v>
       </c>
       <c r="YF3">
-        <v>1.042719667757622</v>
+        <v>1.166882591853774</v>
       </c>
       <c r="YG3">
-        <v>1.04253319859058</v>
+        <v>1.171308926047492</v>
       </c>
       <c r="YH3">
-        <v>1.042482936057992</v>
+        <v>1.172812513555055</v>
       </c>
       <c r="YI3">
-        <v>1.042482135934311</v>
+        <v>1.172835885820272</v>
       </c>
       <c r="YJ3">
-        <v>1.042906474543078</v>
+        <v>1.163847477528647</v>
       </c>
       <c r="YK3">
-        <v>1.042736963259836</v>
+        <v>1.16672225922459</v>
       </c>
       <c r="YL3">
-        <v>1.042717214137616</v>
+        <v>1.166922338217441</v>
       </c>
       <c r="YM3">
-        <v>1.042533198590581</v>
+        <v>1.171308926047493</v>
       </c>
       <c r="YN3">
-        <v>1.042482762361781</v>
+        <v>1.172817781478696</v>
       </c>
       <c r="YO3">
-        <v>1.042480835220727</v>
+        <v>1.172874154418846</v>
       </c>
       <c r="YP3">
-        <v>1.042905888798034</v>
+        <v>1.163862777772963</v>
       </c>
       <c r="YQ3">
-        <v>1.042735973204955</v>
+        <v>1.166751009549821</v>
       </c>
       <c r="YR3">
-        <v>1.042713646060292</v>
+        <v>1.166980137939292</v>
       </c>
       <c r="YS3">
-        <v>1.042533198590581</v>
+        <v>1.171308926047494</v>
       </c>
       <c r="YT3">
-        <v>1.042482583432271</v>
+        <v>1.17282320811994</v>
       </c>
       <c r="YU3">
-        <v>1.042475431454917</v>
+        <v>1.173033139958048</v>
       </c>
       <c r="YV3">
-        <v>1.042905312931426</v>
+        <v>1.163877819983919</v>
       </c>
       <c r="YW3">
-        <v>1.042735160360112</v>
+        <v>1.166774613854221</v>
       </c>
       <c r="YX3">
-        <v>1.042710234554209</v>
+        <v>1.167058392497908</v>
       </c>
       <c r="YY3">
-        <v>1.042705382519946</v>
+        <v>1.167107692187157</v>
       </c>
       <c r="YZ3">
-        <v>1.042533198590581</v>
+        <v>1.171308926047494</v>
       </c>
       <c r="ZA3">
-        <v>1.042481289731723</v>
+        <v>1.172862443959549</v>
       </c>
       <c r="ZB3">
-        <v>1.042473136605271</v>
+        <v>1.173100657340429</v>
       </c>
       <c r="ZC3">
-        <v>1.042905040462737</v>
+        <v>1.163884937138588</v>
       </c>
       <c r="ZD3">
-        <v>1.042733814512814</v>
+        <v>1.166813696090856</v>
       </c>
       <c r="ZE3">
-        <v>1.042708185946885</v>
+        <v>1.167105384381912</v>
       </c>
       <c r="ZF3">
-        <v>1.042653055975844</v>
+        <v>1.167915418372686</v>
       </c>
       <c r="ZG3">
-        <v>1.042533198590581</v>
+        <v>1.171308926047494</v>
       </c>
       <c r="ZH3">
-        <v>1.042471868860932</v>
+        <v>1.173148163933233</v>
       </c>
       <c r="ZI3">
-        <v>1.042904741192845</v>
+        <v>1.163892754367797</v>
       </c>
       <c r="ZJ3">
-        <v>1.042729465133227</v>
+        <v>1.166939998350963</v>
       </c>
       <c r="ZK3">
-        <v>1.042706285568342</v>
+        <v>1.167148976173324</v>
       </c>
       <c r="ZL3">
-        <v>1.0426156008352</v>
+        <v>1.168493611968411</v>
       </c>
       <c r="ZM3">
-        <v>1.042904453957822</v>
+        <v>1.163900257234487</v>
       </c>
       <c r="ZN3">
-        <v>1.042719302269399</v>
+        <v>1.167235119541215</v>
       </c>
       <c r="ZO3">
-        <v>1.042704431307538</v>
+        <v>1.167191510137079</v>
       </c>
       <c r="ZP3">
-        <v>1.042600011643867</v>
+        <v>1.169370348465471</v>
       </c>
       <c r="ZQ3">
-        <v>1.042513236057215</v>
+        <v>1.16987806104269</v>
       </c>
       <c r="ZR3">
-        <v>1.042904107554771</v>
+        <v>1.163909305629769</v>
       </c>
       <c r="ZS3">
-        <v>1.042703040488394</v>
+        <v>1.167223413471648</v>
       </c>
       <c r="ZT3">
-        <v>1.042598553946947</v>
+        <v>1.169411663007303</v>
       </c>
       <c r="ZU3">
-        <v>1.042600011627507</v>
+        <v>1.169483879580527</v>
       </c>
       <c r="ZV3">
-        <v>1.042494642888398</v>
+        <v>1.170383954991186</v>
       </c>
       <c r="ZW3">
-        <v>1.042492954093921</v>
+        <v>1.170138378776856</v>
       </c>
       <c r="ZX3">
-        <v>1.042903554998028</v>
+        <v>1.163923738967218</v>
       </c>
       <c r="ZY3">
-        <v>1.042700831081941</v>
+        <v>1.167274094037876</v>
       </c>
       <c r="ZZ3">
-        <v>1.042598097824506</v>
+        <v>1.169424590586453</v>
       </c>
       <c r="AAA3">
-        <v>1.042600011594179</v>
+        <v>1.169715160507618</v>
       </c>
       <c r="AAB3">
-        <v>1.04248387137387</v>
+        <v>1.170677033347847</v>
       </c>
       <c r="AAC3">
-        <v>1.042455063799612</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="AAD3">
-        <v>1.042902042711656</v>
+        <v>1.163963241412718</v>
       </c>
       <c r="AAE3">
-        <v>1.04269710594061</v>
+        <v>1.167359543491419</v>
       </c>
       <c r="AAF3">
-        <v>1.042597804550986</v>
+        <v>1.169432902645948</v>
       </c>
       <c r="AAG3">
-        <v>1.042355115627494</v>
+        <v>1.171914861450292</v>
       </c>
       <c r="AAH3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="AAI3">
-        <v>1.042900030136092</v>
+        <v>1.164015811929217</v>
       </c>
       <c r="AAJ3">
-        <v>1.04266919381846</v>
+        <v>1.167999813408621</v>
       </c>
       <c r="AAK3">
-        <v>1.042597627656636</v>
+        <v>1.169437916246941</v>
       </c>
       <c r="AAL3">
-        <v>1.04226326602983</v>
+        <v>1.173107950316161</v>
       </c>
       <c r="AAM3">
-        <v>1.042321030672069</v>
+        <v>1.172345039265738</v>
       </c>
       <c r="AAN3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021594</v>
       </c>
       <c r="AAO3">
-        <v>1.042899838444816</v>
+        <v>1.164020819100676</v>
       </c>
       <c r="AAP3">
-        <v>1.042646295713042</v>
+        <v>1.168525075112859</v>
       </c>
       <c r="AAQ3">
-        <v>1.042597448867352</v>
+        <v>1.169442983554927</v>
       </c>
       <c r="AAR3">
-        <v>1.042168467358644</v>
+        <v>1.174339381925507</v>
       </c>
       <c r="AAS3">
-        <v>1.042317381798109</v>
+        <v>1.172391090866504</v>
       </c>
       <c r="AAT3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="AAU3">
-        <v>1.042899686844454</v>
+        <v>1.164024779056715</v>
       </c>
       <c r="AAV3">
-        <v>1.042639040833905</v>
+        <v>1.168691496791405</v>
       </c>
       <c r="AAW3">
-        <v>1.042597289170905</v>
+        <v>1.169447509727226</v>
       </c>
       <c r="AAX3">
-        <v>1.042133594172225</v>
+        <v>1.174711334863124</v>
       </c>
       <c r="AAY3">
-        <v>1.042133541084791</v>
+        <v>1.175364127753839</v>
       </c>
       <c r="AAZ3">
-        <v>1.042315988607499</v>
+        <v>1.172408674008623</v>
       </c>
       <c r="ABA3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="ABB3">
-        <v>1.042899539604166</v>
+        <v>1.164028625123213</v>
       </c>
       <c r="ABC3">
-        <v>1.042632436208634</v>
+        <v>1.168843002682336</v>
       </c>
       <c r="ABD3">
-        <v>1.04259710924849</v>
+        <v>1.16945260915103</v>
       </c>
       <c r="ABE3">
-        <v>1.042086206973659</v>
+        <v>1.17521676599366</v>
       </c>
       <c r="ABF3">
-        <v>1.042128855976615</v>
+        <v>1.175501590442675</v>
       </c>
       <c r="ABG3">
-        <v>1.042314514887574</v>
+        <v>1.172427273494837</v>
       </c>
       <c r="ABH3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="ABI3">
-        <v>1.042899381893949</v>
+        <v>1.164032744675075</v>
       </c>
       <c r="ABJ3">
-        <v>1.042628838982331</v>
+        <v>1.168925520985945</v>
       </c>
       <c r="ABK3">
-        <v>1.042596965094273</v>
+        <v>1.169456694820245</v>
       </c>
       <c r="ABL3">
-        <v>1.042030726160753</v>
+        <v>1.175808531303674</v>
       </c>
       <c r="ABM3">
-        <v>1.042126394529504</v>
+        <v>1.175573810188547</v>
       </c>
       <c r="ABN3">
-        <v>1.042313291827912</v>
+        <v>1.172442709456003</v>
       </c>
       <c r="ABO3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="ABP3">
-        <v>1.042899236078943</v>
+        <v>1.164036553511937</v>
       </c>
       <c r="ABQ3">
-        <v>1.04262596603637</v>
+        <v>1.168991424829674</v>
       </c>
       <c r="ABR3">
-        <v>1.042596792181184</v>
+        <v>1.169461595583528</v>
       </c>
       <c r="ABS3">
-        <v>1.041986177334601</v>
+        <v>1.1762837007649</v>
       </c>
       <c r="ABT3">
-        <v>1.042112425247706</v>
+        <v>1.175778584166258</v>
       </c>
       <c r="ABU3">
-        <v>1.042126394526119</v>
+        <v>1.175580503812516</v>
       </c>
       <c r="ABV3">
-        <v>1.042311843424579</v>
+        <v>1.172460989430756</v>
       </c>
       <c r="ABW3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="ABX3">
-        <v>1.042899098663713</v>
+        <v>1.164040142938146</v>
       </c>
       <c r="ABY3">
-        <v>1.042623516232422</v>
+        <v>1.169047622102495</v>
       </c>
       <c r="ABZ3">
-        <v>1.042596605846649</v>
+        <v>1.169466876742292</v>
       </c>
       <c r="ACA3">
-        <v>1.041975044674851</v>
+        <v>1.176398175091181</v>
       </c>
       <c r="ACB3">
-        <v>1.041935267543636</v>
+        <v>1.176866910042154</v>
       </c>
       <c r="ACC3">
-        <v>1.042101069952671</v>
+        <v>1.175945040200388</v>
       </c>
       <c r="ACD3">
-        <v>1.04212639452367</v>
+        <v>1.175585344264852</v>
       </c>
       <c r="ACE3">
-        <v>1.042310430879251</v>
+        <v>1.172478816851475</v>
       </c>
       <c r="ACF3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021595</v>
       </c>
       <c r="ACG3">
-        <v>1.042898907545421</v>
+        <v>1.164045135143282</v>
       </c>
       <c r="ACH3">
-        <v>1.042620641372853</v>
+        <v>1.169113570032464</v>
       </c>
       <c r="ACI3">
-        <v>1.042596265889009</v>
+        <v>1.169476511941381</v>
       </c>
       <c r="ACJ3">
-        <v>1.041959695975297</v>
+        <v>1.176556002407333</v>
       </c>
       <c r="ACK3">
-        <v>1.041892713646982</v>
+        <v>1.177354397803449</v>
       </c>
       <c r="ACL3">
-        <v>1.042126394521604</v>
+        <v>1.175589429175141</v>
       </c>
       <c r="ACM3">
-        <v>1.042308488931882</v>
+        <v>1.17250332574068</v>
       </c>
       <c r="ACN3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021594</v>
       </c>
       <c r="ACO3">
-        <v>1.042898673337781</v>
+        <v>1.164051252886448</v>
       </c>
       <c r="ACP3">
-        <v>1.042618014501565</v>
+        <v>1.16917382931684</v>
       </c>
       <c r="ACQ3">
-        <v>1.042593722475265</v>
+        <v>1.169548598284212</v>
       </c>
       <c r="ACR3">
-        <v>1.041921937710691</v>
+        <v>1.176944264928544</v>
       </c>
       <c r="ACS3">
-        <v>1.041885985376656</v>
+        <v>1.177554584559894</v>
       </c>
       <c r="ACT3">
-        <v>1.04189183656735</v>
+        <v>1.177359987710486</v>
       </c>
       <c r="ACU3">
-        <v>1.042126394518115</v>
+        <v>1.175596329061349</v>
       </c>
       <c r="ACV3">
-        <v>1.042305817468888</v>
+        <v>1.172537041691204</v>
       </c>
       <c r="ACW3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021594</v>
       </c>
       <c r="ACX3">
-        <v>1.042897563254327</v>
+        <v>1.164080249404523</v>
       </c>
       <c r="ACY3">
-        <v>1.042613939228459</v>
+        <v>1.169267314477455</v>
       </c>
       <c r="ACZ3">
-        <v>1.042585928198703</v>
+        <v>1.169769506629179</v>
       </c>
       <c r="ADA3">
-        <v>1.041891334104958</v>
+        <v>1.177258959839441</v>
       </c>
       <c r="ADB3">
-        <v>1.041879392393421</v>
+        <v>1.177750746309589</v>
       </c>
       <c r="ADC3">
-        <v>1.041890997966711</v>
+        <v>1.177365332378856</v>
       </c>
       <c r="ADD3">
-        <v>1.042126394513227</v>
+        <v>1.175605991535617</v>
       </c>
       <c r="ADE3">
-        <v>1.042302990304602</v>
+        <v>1.172572722720732</v>
       </c>
       <c r="ADF3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="ADG3">
-        <v>1.042888071725312</v>
+        <v>1.16432817805488</v>
       </c>
       <c r="ADH3">
-        <v>1.042605711674313</v>
+        <v>1.169456051955468</v>
       </c>
       <c r="ADI3">
-        <v>1.041867421350121</v>
+        <v>1.177504854819448</v>
       </c>
       <c r="ADJ3">
-        <v>1.041890093911415</v>
+        <v>1.177371094210738</v>
       </c>
       <c r="ADK3">
-        <v>1.0421263945096</v>
+        <v>1.175613161317928</v>
       </c>
       <c r="ADL3">
-        <v>1.042301112296755</v>
+        <v>1.172596424655975</v>
       </c>
       <c r="ADM3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="ADN3">
-        <v>1.042603934880683</v>
+        <v>1.169493392130824</v>
       </c>
       <c r="ADO3">
-        <v>1.042601652530867</v>
+        <v>1.169569550551091</v>
       </c>
       <c r="ADP3">
-        <v>1.04184580884815</v>
+        <v>1.17772709753874</v>
       </c>
       <c r="ADQ3">
-        <v>1.041889286659106</v>
+        <v>1.177376239086569</v>
       </c>
       <c r="ADR3">
-        <v>1.042126394503593</v>
+        <v>1.175625038361417</v>
       </c>
       <c r="ADS3">
-        <v>1.042299200936685</v>
+        <v>1.172620547525763</v>
       </c>
       <c r="ADT3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="ADU3">
-        <v>1.042602385350676</v>
+        <v>1.169525956299595</v>
       </c>
       <c r="ADV3">
-        <v>1.04259515731094</v>
+        <v>1.169751164953438</v>
       </c>
       <c r="ADW3">
-        <v>1.041843588381313</v>
+        <v>1.177745696084948</v>
       </c>
       <c r="ADX3">
-        <v>1.041840453418064</v>
+        <v>1.177798869515158</v>
       </c>
       <c r="ADY3">
-        <v>1.041888395183461</v>
+        <v>1.177381920744705</v>
       </c>
       <c r="ADZ3">
-        <v>1.042126394461896</v>
+        <v>1.175707477165384</v>
       </c>
       <c r="AEA3">
-        <v>1.042298287033339</v>
+        <v>1.172632081707096</v>
       </c>
       <c r="AEB3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021592</v>
       </c>
       <c r="AEC3">
-        <v>1.04260110381999</v>
+        <v>1.169552888358828</v>
       </c>
       <c r="AED3">
-        <v>1.042589607781179</v>
+        <v>1.169906336823392</v>
       </c>
       <c r="AEE3">
-        <v>1.041841362081016</v>
+        <v>1.177764343494069</v>
       </c>
       <c r="AEF3">
-        <v>1.04183189740317</v>
+        <v>1.177913545427208</v>
       </c>
       <c r="AEG3">
-        <v>1.041840453418064</v>
+        <v>1.177798869515158</v>
       </c>
       <c r="AEH3">
-        <v>1.041887820419816</v>
+        <v>1.177385583896515</v>
       </c>
       <c r="AEI3">
-        <v>1.042126394369793</v>
+        <v>1.175889574440479</v>
       </c>
       <c r="AEJ3">
-        <v>1.0422968333593</v>
+        <v>1.172650428222046</v>
       </c>
       <c r="AEK3">
-        <v>1.042455063799614</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="AEL3">
-        <v>1.042600107240211</v>
+        <v>1.1695738320421</v>
       </c>
       <c r="AEM3">
-        <v>1.042586466964902</v>
+        <v>1.1699941580743</v>
       </c>
       <c r="AEN3">
-        <v>1.041839131459661</v>
+        <v>1.177783027098294</v>
       </c>
       <c r="AEO3">
-        <v>1.041824723474285</v>
+        <v>1.17800969753684</v>
       </c>
       <c r="AEP3">
-        <v>1.04183189740317</v>
+        <v>1.177913545427208</v>
       </c>
       <c r="AEQ3">
-        <v>1.041886937622127</v>
+        <v>1.177391210247572</v>
       </c>
       <c r="AER3">
-        <v>1.042295468682233</v>
+        <v>1.172667651526637</v>
       </c>
       <c r="AES3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="AET3">
-        <v>1.042599093657553</v>
+        <v>1.169595133069387</v>
       </c>
       <c r="AEU3">
-        <v>1.041836914341614</v>
+        <v>1.177801597601368</v>
       </c>
       <c r="AEV3">
-        <v>1.04181701168312</v>
+        <v>1.178113058853177</v>
       </c>
       <c r="AEW3">
-        <v>1.041824723474285</v>
+        <v>1.17800969753684</v>
       </c>
       <c r="AEX3">
-        <v>1.041879676387996</v>
+        <v>1.177437488414212</v>
       </c>
       <c r="AEY3">
-        <v>1.042293518785615</v>
+        <v>1.172692260768036</v>
       </c>
       <c r="AEZ3">
-        <v>1.042455063799613</v>
+        <v>1.170626707021593</v>
       </c>
       <c r="AFA3">
-        <v>1.042598214048559</v>
+        <v>1.16961361857801</v>
       </c>
       <c r="AFB3">
-        <v>1.041834688797441</v>
+        <v>1.177820238683452</v>
       </c>
       <c r="AFC3">
-        <v>1.041810680029696</v>
+        <v>1.178197922339425</v>
       </c>
       <c r="AFD3">
-        <v>1.04181701168312</v>
+        <v>1.178113058853177</v>
       </c>
       <c r="AFE3">
-        <v>1.041854650895983</v>
+        <v>1.1775969839719</v>
       </c>
       <c r="AFF3">
-        <v>1.042272936302284</v>
+        <v>1.172952028237712</v>
       </c>
       <c r="AFG3">
-        <v>1.042597582300279</v>
+        <v>1.169626895154487</v>
       </c>
       <c r="AFH3">
-        <v>1.041832464765669</v>
+        <v>1.177838867099781</v>
       </c>
       <c r="AFI3">
-        <v>1.041803882303117</v>
+        <v>1.178289032817707</v>
       </c>
       <c r="AFJ3">
-        <v>1.041810680029696</v>
+        <v>1.178197922339425</v>
       </c>
       <c r="AFK3">
-        <v>1.042264703827589</v>
+        <v>1.173055928787492</v>
       </c>
       <c r="AFL3">
-        <v>1.042596848839693</v>
+        <v>1.169642309286646</v>
       </c>
       <c r="AFM3">
-        <v>1.041830239329649</v>
+        <v>1.177857507280129</v>
       </c>
       <c r="AFN3">
-        <v>1.041768020408861</v>
+        <v>1.17876974715084</v>
       </c>
       <c r="AFO3">
-        <v>1.04180388230312</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AFP3">
-        <v>1.041803882303117</v>
+        <v>1.178289032817707</v>
       </c>
       <c r="AFQ3">
-        <v>1.042260523391453</v>
+        <v>1.17310868932698</v>
       </c>
       <c r="AFR3">
-        <v>1.042595743872113</v>
+        <v>1.169665530889184</v>
       </c>
       <c r="AFS3">
-        <v>1.041829153023888</v>
+        <v>1.177866606142914</v>
       </c>
       <c r="AFT3">
-        <v>1.041762773709294</v>
+        <v>1.178840077139343</v>
       </c>
       <c r="AFU3">
-        <v>1.041803882303123</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AFV3">
-        <v>1.04180388230312</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AFW3">
-        <v>1.042259598341908</v>
+        <v>1.173120364214591</v>
       </c>
       <c r="AFX3">
-        <v>1.042593938579666</v>
+        <v>1.169703470317044</v>
       </c>
       <c r="AFY3">
-        <v>1.04180473814936</v>
+        <v>1.1780711044921</v>
       </c>
       <c r="AFZ3">
-        <v>1.041747992573433</v>
+        <v>1.179038212688956</v>
       </c>
       <c r="AGA3">
-        <v>1.041803882303128</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AGB3">
-        <v>1.041803882303123</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AGC3">
-        <v>1.042258869820033</v>
+        <v>1.173129558761581</v>
       </c>
       <c r="AGD3">
-        <v>1.042579476752768</v>
+        <v>1.169857163015968</v>
       </c>
       <c r="AGE3">
-        <v>1.042593873575181</v>
+        <v>1.17010488040242</v>
       </c>
       <c r="AGF3">
-        <v>1.041788861621823</v>
+        <v>1.1782040860046</v>
       </c>
       <c r="AGG3">
-        <v>1.041730635812965</v>
+        <v>1.179270873725588</v>
       </c>
       <c r="AGH3">
-        <v>1.04180388230313</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGI3">
-        <v>1.041803882303128</v>
+        <v>1.178289032817708</v>
       </c>
       <c r="AGJ3">
-        <v>1.042258089256548</v>
+        <v>1.173139410117151</v>
       </c>
       <c r="AGK3">
-        <v>1.041774976006796</v>
+        <v>1.178320391755799</v>
       </c>
       <c r="AGL3">
-        <v>1.041728384266407</v>
+        <v>1.179301054901787</v>
       </c>
       <c r="AGM3">
-        <v>1.041803882303131</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGN3">
-        <v>1.04180388230313</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGO3">
-        <v>1.042257464748738</v>
+        <v>1.173147291921657</v>
       </c>
       <c r="AGP3">
-        <v>1.041760410910405</v>
+        <v>1.178442388921775</v>
       </c>
       <c r="AGQ3">
-        <v>1.041725980627996</v>
+        <v>1.179323700305806</v>
       </c>
       <c r="AGR3">
-        <v>1.04172743553539</v>
+        <v>1.179335074535205</v>
       </c>
       <c r="AGS3">
-        <v>1.041803882303131</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGT3">
-        <v>1.041803882303131</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGU3">
-        <v>1.04225685837727</v>
+        <v>1.173154944830901</v>
       </c>
       <c r="AGV3">
-        <v>1.041735541248379</v>
+        <v>1.17865069727704</v>
       </c>
       <c r="AGW3">
-        <v>1.041723756477151</v>
+        <v>1.179344654705188</v>
       </c>
       <c r="AGX3">
-        <v>1.041725215249331</v>
+        <v>1.179414689656436</v>
       </c>
       <c r="AGY3">
-        <v>1.041803882303131</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AGZ3">
-        <v>1.041803882303131</v>
+        <v>1.178289032817709</v>
       </c>
       <c r="AHA3">
-        <v>1.042256253543798</v>
+        <v>1.173162578329689</v>
       </c>
       <c r="AHB3">
-        <v>1.041729441256631</v>
+        <v>1.178701790863652</v>
       </c>
       <c r="AHC3">
-        <v>1.041720374460777</v>
+        <v>1.179376517710399</v>
       </c>
       <c r="AHD3">
-        <v>1.041719948066948</v>
+        <v>1.179603560629922</v>
       </c>
       <c r="AHE3">
-        <v>1.042255655786908</v>
+        <v>1.173170122516473</v>
       </c>
       <c r="AHF3">
-        <v>1.041726467014892</v>
+        <v>1.17873479692981</v>
       </c>
       <c r="AHG3">
-        <v>1.041715032272195</v>
+        <v>1.178791113916519</v>
       </c>
       <c r="AHH3">
-        <v>1.041716100516799</v>
+        <v>1.179416783843241</v>
       </c>
       <c r="AHI3">
-        <v>1.04224496665173</v>
+        <v>1.173305028305815</v>
       </c>
       <c r="AHJ3">
-        <v>1.041721583553895</v>
+        <v>1.178788990196292</v>
       </c>
       <c r="AHK3">
-        <v>1.041702811514944</v>
+        <v>1.178866871959379</v>
       </c>
       <c r="AHL3">
-        <v>1.041699462136375</v>
+        <v>1.179573539178888</v>
       </c>
       <c r="AHM3">
-        <v>1.042233857047603</v>
+        <v>1.173624918911288</v>
       </c>
       <c r="AHN3">
-        <v>1.042223025119134</v>
+        <v>1.173481429449853</v>
       </c>
       <c r="AHO3">
-        <v>1.041720617986496</v>
+        <v>1.178799705396173</v>
       </c>
       <c r="AHP3">
-        <v>1.041682270931436</v>
+        <v>1.178994205833055</v>
       </c>
       <c r="AHQ3">
-        <v>1.041669237428364</v>
+        <v>1.179858295787877</v>
       </c>
       <c r="AHR3">
-        <v>1.042226479002443</v>
+        <v>1.173837363203016</v>
       </c>
       <c r="AHS3">
-        <v>1.04171980210284</v>
+        <v>1.178808759509768</v>
       </c>
       <c r="AHT3">
-        <v>1.0417191145604</v>
+        <v>1.178816389381498</v>
       </c>
       <c r="AHU3">
-        <v>1.041718220182335</v>
+        <v>1.178826314572782</v>
       </c>
       <c r="AHV3">
-        <v>1.041716601497344</v>
+        <v>1.178844277624449</v>
       </c>
       <c r="AHW3">
-        <v>1.04171379498746</v>
+        <v>1.178875422343228</v>
       </c>
       <c r="AHX3">
-        <v>1.041690806720271</v>
+        <v>1.179130530540113</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049598754503444</v>
+        <v>1.049815253050016</v>
       </c>
       <c r="D2">
-        <v>1.049525261202084</v>
+        <v>1.04971312135882</v>
       </c>
       <c r="E2">
-        <v>1.049517556454343</v>
+        <v>1.049702414288196</v>
       </c>
       <c r="F2">
-        <v>1.049510338315281</v>
+        <v>1.049692383446151</v>
       </c>
       <c r="G2">
-        <v>1.049504045134322</v>
+        <v>1.049683637993765</v>
       </c>
       <c r="H2">
-        <v>1.049494130903057</v>
+        <v>1.04966986047534</v>
       </c>
       <c r="I2">
-        <v>1.04881901749072</v>
+        <v>1.04873168458514</v>
       </c>
       <c r="J2">
-        <v>1.048788780223569</v>
+        <v>1.048689665604744</v>
       </c>
       <c r="K2">
-        <v>1.048763613180677</v>
+        <v>1.048654692450463</v>
       </c>
       <c r="L2">
-        <v>1.048741527094587</v>
+        <v>1.048624000741637</v>
       </c>
       <c r="M2">
-        <v>1.048725046699828</v>
+        <v>1.048601098938911</v>
       </c>
       <c r="N2">
-        <v>1.048709575665037</v>
+        <v>1.048579599792608</v>
       </c>
       <c r="O2">
-        <v>1.048700062391632</v>
+        <v>1.048566379786101</v>
       </c>
       <c r="P2">
-        <v>1.048676378604888</v>
+        <v>1.048533467911647</v>
       </c>
       <c r="Q2">
-        <v>1.048484520193028</v>
+        <v>1.048266855154896</v>
       </c>
       <c r="R2">
-        <v>1.048484520193028</v>
+        <v>1.048266855154896</v>
       </c>
       <c r="S2">
-        <v>1.04825185922982</v>
+        <v>1.047943543878754</v>
       </c>
       <c r="T2">
-        <v>1.048484520193027</v>
+        <v>1.048266855154896</v>
       </c>
       <c r="U2">
-        <v>1.048235850742851</v>
+        <v>1.047921298182402</v>
       </c>
       <c r="V2">
-        <v>1.048484520193028</v>
+        <v>1.048266855154895</v>
       </c>
       <c r="W2">
-        <v>1.048217875081461</v>
+        <v>1.047896318875933</v>
       </c>
       <c r="X2">
-        <v>1.048484520193028</v>
+        <v>1.048266855154895</v>
       </c>
       <c r="Y2">
-        <v>1.048188607069646</v>
+        <v>1.047855647542333</v>
       </c>
       <c r="Z2">
-        <v>1.048484520193028</v>
+        <v>1.048266855154894</v>
       </c>
       <c r="AA2">
-        <v>1.048135361477435</v>
+        <v>1.047781656640983</v>
       </c>
       <c r="AB2">
-        <v>1.048484520193027</v>
+        <v>1.048266855154893</v>
       </c>
       <c r="AC2">
-        <v>1.048112365443207</v>
+        <v>1.047764650032541</v>
       </c>
       <c r="AD2">
-        <v>1.04748364324398</v>
+        <v>1.046865604474644</v>
       </c>
       <c r="AE2">
-        <v>1.048484520193026</v>
+        <v>1.048266855154892</v>
       </c>
       <c r="AF2">
-        <v>1.048110705949802</v>
+        <v>1.047763138927002</v>
       </c>
       <c r="AG2">
-        <v>1.048107810842636</v>
+        <v>1.047761558234631</v>
       </c>
       <c r="AH2">
-        <v>1.047310145686465</v>
+        <v>1.046621740190212</v>
       </c>
       <c r="AI2">
-        <v>1.048484520193024</v>
+        <v>1.048266855154891</v>
       </c>
       <c r="AJ2">
-        <v>1.048106905604756</v>
+        <v>1.047759678388661</v>
       </c>
       <c r="AK2">
-        <v>1.048107656600695</v>
+        <v>1.047761453530629</v>
       </c>
       <c r="AL2">
-        <v>1.047288721441975</v>
+        <v>1.046582858065638</v>
       </c>
       <c r="AM2">
-        <v>1.046797178081734</v>
+        <v>1.045905496900619</v>
       </c>
       <c r="AN2">
-        <v>1.048484520193022</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="AO2">
-        <v>1.048107434828679</v>
+        <v>1.04776130298521</v>
       </c>
       <c r="AP2">
-        <v>1.047287605920137</v>
+        <v>1.046581295307573</v>
       </c>
       <c r="AQ2">
-        <v>1.047287000543857</v>
+        <v>1.046577649864515</v>
       </c>
       <c r="AR2">
-        <v>1.046441213198828</v>
+        <v>1.045408478902079</v>
       </c>
       <c r="AS2">
-        <v>1.046797178081734</v>
+        <v>1.045905496900619</v>
       </c>
       <c r="AT2">
-        <v>1.048484520193021</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="AU2">
-        <v>1.048107150421206</v>
+        <v>1.047761109920987</v>
       </c>
       <c r="AV2">
-        <v>1.047287103121066</v>
+        <v>1.046580590925754</v>
       </c>
       <c r="AW2">
-        <v>1.04728285973715</v>
+        <v>1.046565117946909</v>
       </c>
       <c r="AX2">
-        <v>1.046172226146965</v>
+        <v>1.045032907726173</v>
       </c>
       <c r="AY2">
-        <v>1.046797178081734</v>
+        <v>1.045905496900618</v>
       </c>
       <c r="AZ2">
-        <v>1.04848452019302</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="BA2">
-        <v>1.048106457760908</v>
+        <v>1.047760639722645</v>
       </c>
       <c r="BB2">
-        <v>1.047286570261689</v>
+        <v>1.046579844431818</v>
       </c>
       <c r="BC2">
-        <v>1.046133443654027</v>
+        <v>1.044978758208949</v>
       </c>
       <c r="BD2">
-        <v>1.046172226146967</v>
+        <v>1.045032907726172</v>
       </c>
       <c r="BE2">
-        <v>1.046797178081733</v>
+        <v>1.045905496900618</v>
       </c>
       <c r="BF2">
-        <v>1.04848452019302</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="BG2">
-        <v>1.048105864717229</v>
+        <v>1.047760237147018</v>
       </c>
       <c r="BH2">
-        <v>1.04728606275001</v>
+        <v>1.046579133448008</v>
       </c>
       <c r="BI2">
-        <v>1.045957769272134</v>
+        <v>1.044733476085</v>
       </c>
       <c r="BJ2">
-        <v>1.046172226146967</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="BK2">
-        <v>1.046797178081733</v>
+        <v>1.045905496900618</v>
       </c>
       <c r="BL2">
-        <v>1.048484520193019</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="BM2">
-        <v>1.04810302187847</v>
+        <v>1.047758307343821</v>
       </c>
       <c r="BN2">
-        <v>1.047285758800713</v>
+        <v>1.04657870763903</v>
       </c>
       <c r="BO2">
-        <v>1.045924978523264</v>
+        <v>1.044684650927646</v>
       </c>
       <c r="BP2">
-        <v>1.045846729218017</v>
+        <v>1.044693846881486</v>
       </c>
       <c r="BQ2">
-        <v>1.046172226146967</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="BR2">
-        <v>1.046797178081732</v>
+        <v>1.045905496900618</v>
       </c>
       <c r="BS2">
-        <v>1.048484520193019</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="BT2">
-        <v>1.048092973418007</v>
+        <v>1.047751486151236</v>
       </c>
       <c r="BU2">
-        <v>1.047285162474509</v>
+        <v>1.046577872233081</v>
       </c>
       <c r="BV2">
-        <v>1.04553756822578</v>
+        <v>1.044107803836814</v>
       </c>
       <c r="BW2">
-        <v>1.045838690278085</v>
+        <v>1.044682186962502</v>
       </c>
       <c r="BX2">
-        <v>1.045800492558302</v>
+        <v>1.044686136323083</v>
       </c>
       <c r="BY2">
-        <v>1.046172226146967</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="BZ2">
-        <v>1.04679717808173</v>
+        <v>1.045905496900617</v>
       </c>
       <c r="CA2">
-        <v>1.048484520193017</v>
+        <v>1.048266855154889</v>
       </c>
       <c r="CB2">
-        <v>1.047282140270484</v>
+        <v>1.046573638363777</v>
       </c>
       <c r="CC2">
-        <v>1.045402527116116</v>
+        <v>1.043906731605365</v>
       </c>
       <c r="CD2">
-        <v>1.046172226146966</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="CE2">
-        <v>1.046797178081724</v>
+        <v>1.045905496900613</v>
       </c>
       <c r="CF2">
-        <v>1.048484520193014</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CG2">
-        <v>1.047270751932616</v>
+        <v>1.046557684201539</v>
       </c>
       <c r="CH2">
-        <v>1.04537305673242</v>
+        <v>1.043862851182545</v>
       </c>
       <c r="CI2">
-        <v>1.046172226146966</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="CJ2">
-        <v>1.046797178081712</v>
+        <v>1.045905496900606</v>
       </c>
       <c r="CK2">
-        <v>1.048484520193011</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CL2">
-        <v>1.0453132954521</v>
+        <v>1.043773868741159</v>
       </c>
       <c r="CM2">
-        <v>1.046172226146966</v>
+        <v>1.045032907726171</v>
       </c>
       <c r="CN2">
-        <v>1.046797178081709</v>
+        <v>1.045905496900604</v>
       </c>
       <c r="CO2">
-        <v>1.048484520193011</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CP2">
-        <v>1.045256937798472</v>
+        <v>1.043689954328258</v>
       </c>
       <c r="CQ2">
-        <v>1.046797178081709</v>
+        <v>1.045905496900604</v>
       </c>
       <c r="CR2">
-        <v>1.048484520193011</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CS2">
-        <v>1.045224180627093</v>
+        <v>1.043641180206193</v>
       </c>
       <c r="CT2">
-        <v>1.046797178081708</v>
+        <v>1.045905496900603</v>
       </c>
       <c r="CU2">
-        <v>1.048484520193011</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CV2">
-        <v>1.045202546963854</v>
+        <v>1.043608968570886</v>
       </c>
       <c r="CW2">
-        <v>1.046797178081708</v>
+        <v>1.045905496900603</v>
       </c>
       <c r="CX2">
-        <v>1.04848452019301</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="CY2">
-        <v>1.045172676912309</v>
+        <v>1.043564493326813</v>
       </c>
       <c r="CZ2">
-        <v>1.046797178081683</v>
+        <v>1.045905496900581</v>
       </c>
       <c r="DA2">
-        <v>1.04848452019301</v>
+        <v>1.04826685515489</v>
       </c>
       <c r="DB2">
-        <v>1.045172396619891</v>
+        <v>1.043564085229125</v>
       </c>
       <c r="DC2">
-        <v>1.04515456915248</v>
+        <v>1.043537510958608</v>
       </c>
       <c r="DD2">
-        <v>1.046797178081682</v>
+        <v>1.04590549690058</v>
       </c>
       <c r="DE2">
-        <v>1.045172057504781</v>
+        <v>1.043563591487338</v>
       </c>
       <c r="DF2">
-        <v>1.04514430115592</v>
+        <v>1.043522210625558</v>
       </c>
       <c r="DG2">
-        <v>1.04679717808168</v>
+        <v>1.045905496900578</v>
       </c>
       <c r="DH2">
-        <v>1.045171664446254</v>
+        <v>1.04356301920556</v>
       </c>
       <c r="DI2">
-        <v>1.044739154106588</v>
+        <v>1.04291850478675</v>
       </c>
       <c r="DJ2">
-        <v>1.046797178081618</v>
+        <v>1.045905496900526</v>
       </c>
       <c r="DK2">
-        <v>1.045171065148749</v>
+        <v>1.043562146645963</v>
       </c>
       <c r="DL2">
-        <v>1.044698567269117</v>
+        <v>1.042858027088781</v>
       </c>
       <c r="DM2">
-        <v>1.046797178081564</v>
+        <v>1.045905496900481</v>
       </c>
       <c r="DN2">
-        <v>1.045170294670897</v>
+        <v>1.043561024853032</v>
       </c>
       <c r="DO2">
-        <v>1.044696514603809</v>
+        <v>1.042855726209015</v>
       </c>
       <c r="DP2">
-        <v>1.044595039597402</v>
+        <v>1.04270110180469</v>
       </c>
       <c r="DQ2">
-        <v>1.046797178081559</v>
+        <v>1.045905496900477</v>
       </c>
       <c r="DR2">
-        <v>1.045169741541618</v>
+        <v>1.043560219513348</v>
       </c>
       <c r="DS2">
-        <v>1.044696514603807</v>
+        <v>1.042855726209015</v>
       </c>
       <c r="DT2">
-        <v>1.044695515174248</v>
+        <v>1.042854605925616</v>
       </c>
       <c r="DU2">
-        <v>1.044408340918534</v>
+        <v>1.042418111639876</v>
       </c>
       <c r="DV2">
-        <v>1.046797178081555</v>
+        <v>1.045905496900474</v>
       </c>
       <c r="DW2">
-        <v>1.045168959974305</v>
+        <v>1.043559081574947</v>
       </c>
       <c r="DX2">
-        <v>1.044696514603805</v>
+        <v>1.042855726209014</v>
       </c>
       <c r="DY2">
-        <v>1.044690820195801</v>
+        <v>1.042849343218785</v>
       </c>
       <c r="DZ2">
-        <v>1.044324382602656</v>
+        <v>1.042290852828218</v>
       </c>
       <c r="EA2">
-        <v>1.046797178081552</v>
+        <v>1.045905496900472</v>
       </c>
       <c r="EB2">
-        <v>1.045168114375018</v>
+        <v>1.043557850408231</v>
       </c>
       <c r="EC2">
-        <v>1.044696514603804</v>
+        <v>1.042855726209014</v>
       </c>
       <c r="ED2">
-        <v>1.044683570554066</v>
+        <v>1.042834718516003</v>
       </c>
       <c r="EE2">
-        <v>1.044678713467597</v>
+        <v>1.042836530834738</v>
       </c>
       <c r="EF2">
-        <v>1.044299402696809</v>
+        <v>1.042252990044094</v>
       </c>
       <c r="EG2">
-        <v>1.046797178081543</v>
+        <v>1.045905496900464</v>
       </c>
       <c r="EH2">
-        <v>1.045167316907176</v>
+        <v>1.043556689319715</v>
       </c>
       <c r="EI2">
-        <v>1.044696514603803</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="EJ2">
-        <v>1.044682946218269</v>
+        <v>1.042833459043295</v>
       </c>
       <c r="EK2">
-        <v>1.044669706756371</v>
+        <v>1.04282699915948</v>
       </c>
       <c r="EL2">
-        <v>1.044271205326287</v>
+        <v>1.042210250568505</v>
       </c>
       <c r="EM2">
-        <v>1.046797178081536</v>
+        <v>1.045905496900458</v>
       </c>
       <c r="EN2">
-        <v>1.04516600574349</v>
+        <v>1.043554780306549</v>
       </c>
       <c r="EO2">
-        <v>1.044696514603801</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="EP2">
-        <v>1.044682333626258</v>
+        <v>1.04283222326132</v>
       </c>
       <c r="EQ2">
-        <v>1.04466367520923</v>
+        <v>1.042820616059983</v>
       </c>
       <c r="ER2">
-        <v>1.04424468621496</v>
+        <v>1.042170054984752</v>
       </c>
       <c r="ES2">
-        <v>1.046797178081535</v>
+        <v>1.045905496900457</v>
       </c>
       <c r="ET2">
-        <v>1.045159771458589</v>
+        <v>1.043545703393814</v>
       </c>
       <c r="EU2">
-        <v>1.0446965146038</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="EV2">
-        <v>1.044681838984163</v>
+        <v>1.042831225419725</v>
       </c>
       <c r="EW2">
-        <v>1.044661324618855</v>
+        <v>1.04281529956217</v>
       </c>
       <c r="EX2">
-        <v>1.044595522291311</v>
+        <v>1.04280097635892</v>
       </c>
       <c r="EY2">
-        <v>1.044213743476409</v>
+        <v>1.042123154551271</v>
       </c>
       <c r="EZ2">
-        <v>1.046797178081534</v>
+        <v>1.045905496900457</v>
       </c>
       <c r="FA2">
-        <v>1.045158413354722</v>
+        <v>1.043543726041751</v>
       </c>
       <c r="FB2">
-        <v>1.044696514603799</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="FC2">
-        <v>1.044681096565692</v>
+        <v>1.042829727738785</v>
       </c>
       <c r="FD2">
-        <v>1.044655090728183</v>
+        <v>1.042801199969434</v>
       </c>
       <c r="FE2">
-        <v>1.0445913740675</v>
+        <v>1.04279978096055</v>
       </c>
       <c r="FF2">
-        <v>1.044204839864216</v>
+        <v>1.042109659222559</v>
       </c>
       <c r="FG2">
-        <v>1.046797178081534</v>
+        <v>1.045905496900457</v>
       </c>
       <c r="FH2">
-        <v>1.045135993108452</v>
+        <v>1.043476356948011</v>
       </c>
       <c r="FI2">
-        <v>1.045154058099172</v>
+        <v>1.043538594371555</v>
       </c>
       <c r="FJ2">
-        <v>1.044696514603798</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="FK2">
-        <v>1.04468020149729</v>
+        <v>1.04282792211709</v>
       </c>
       <c r="FL2">
-        <v>1.044652925362337</v>
+        <v>1.042796302436126</v>
       </c>
       <c r="FM2">
-        <v>1.044587584445415</v>
+        <v>1.042798688900829</v>
       </c>
       <c r="FN2">
-        <v>1.044154257017782</v>
+        <v>1.042032990330605</v>
       </c>
       <c r="FO2">
-        <v>1.046797178081534</v>
+        <v>1.045905496900457</v>
       </c>
       <c r="FP2">
-        <v>1.045131757545286</v>
+        <v>1.043463629790346</v>
       </c>
       <c r="FQ2">
-        <v>1.045148276051412</v>
+        <v>1.043531781559321</v>
       </c>
       <c r="FR2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="FS2">
-        <v>1.04467952529168</v>
+        <v>1.042826558007343</v>
       </c>
       <c r="FT2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="FU2">
-        <v>1.044617171129724</v>
+        <v>1.042715428294928</v>
       </c>
       <c r="FV2">
-        <v>1.044586010184378</v>
+        <v>1.042798235244225</v>
       </c>
       <c r="FW2">
-        <v>1.044125687523878</v>
+        <v>1.041989687456102</v>
       </c>
       <c r="FX2">
-        <v>1.045123018725297</v>
+        <v>1.043437371102346</v>
       </c>
       <c r="FY2">
-        <v>1.045147558067016</v>
+        <v>1.043531256802602</v>
       </c>
       <c r="FZ2">
-        <v>1.045141506046676</v>
+        <v>1.043515284283816</v>
       </c>
       <c r="GA2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="GB2">
-        <v>1.044678742804092</v>
+        <v>1.042824979494921</v>
       </c>
       <c r="GC2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="GD2">
-        <v>1.044613309638915</v>
+        <v>1.042706693812709</v>
       </c>
       <c r="GE2">
-        <v>1.044582616883348</v>
+        <v>1.042797257392776</v>
       </c>
       <c r="GF2">
-        <v>1.044104479602833</v>
+        <v>1.041957542622579</v>
       </c>
       <c r="GG2">
-        <v>1.045144732608333</v>
+        <v>1.043529191745731</v>
       </c>
       <c r="GH2">
-        <v>1.045113486435047</v>
+        <v>1.043447005574564</v>
       </c>
       <c r="GI2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="GJ2">
-        <v>1.044678007063858</v>
+        <v>1.042823495285934</v>
       </c>
       <c r="GK2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="GL2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="GM2">
-        <v>1.044609574514729</v>
+        <v>1.042698245165151</v>
       </c>
       <c r="GN2">
-        <v>1.044573974186805</v>
+        <v>1.042794766816942</v>
       </c>
       <c r="GO2">
-        <v>1.044085412694913</v>
+        <v>1.041928642980423</v>
       </c>
       <c r="GP2">
-        <v>1.045139687897503</v>
+        <v>1.043525504692136</v>
       </c>
       <c r="GQ2">
-        <v>1.04511166044265</v>
+        <v>1.043441338653057</v>
       </c>
       <c r="GR2">
-        <v>1.045111376719029</v>
+        <v>1.043442568128745</v>
       </c>
       <c r="GS2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209013</v>
       </c>
       <c r="GT2">
-        <v>1.044677215450655</v>
+        <v>1.042821898364376</v>
       </c>
       <c r="GU2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="GV2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="GW2">
-        <v>1.044606586789745</v>
+        <v>1.042691487094058</v>
       </c>
       <c r="GX2">
-        <v>1.044568903560485</v>
+        <v>1.042793305608668</v>
       </c>
       <c r="GY2">
-        <v>1.044061726185106</v>
+        <v>1.041892741502539</v>
       </c>
       <c r="GZ2">
-        <v>1.045133570334104</v>
+        <v>1.043525504692136</v>
       </c>
       <c r="HA2">
-        <v>1.045138731980959</v>
+        <v>1.04352455575527</v>
       </c>
       <c r="HB2">
-        <v>1.045107043882577</v>
+        <v>1.04342701127549</v>
       </c>
       <c r="HC2">
-        <v>1.045111078508574</v>
+        <v>1.043441940891375</v>
       </c>
       <c r="HD2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209012</v>
       </c>
       <c r="HE2">
-        <v>1.044676005311687</v>
+        <v>1.042819457150635</v>
       </c>
       <c r="HF2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="HG2">
-        <v>1.044604206831261</v>
+        <v>1.042686103757768</v>
       </c>
       <c r="HH2">
-        <v>1.044565352076828</v>
+        <v>1.042792282173481</v>
       </c>
       <c r="HI2">
-        <v>1.044018016678305</v>
+        <v>1.041826491534102</v>
       </c>
       <c r="HJ2">
-        <v>1.045113546734665</v>
+        <v>1.043525504692136</v>
       </c>
       <c r="HK2">
-        <v>1.045137006716462</v>
+        <v>1.043522843087886</v>
       </c>
       <c r="HL2">
-        <v>1.045110838010278</v>
+        <v>1.043441435042181</v>
       </c>
       <c r="HM2">
-        <v>1.044696514603797</v>
+        <v>1.042855726209012</v>
       </c>
       <c r="HN2">
-        <v>1.044672700552163</v>
+        <v>1.042812790457969</v>
       </c>
       <c r="HO2">
-        <v>1.044652925362338</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="HP2">
-        <v>1.044599175217901</v>
+        <v>1.042674722523071</v>
       </c>
       <c r="HQ2">
-        <v>1.044558520451772</v>
+        <v>1.042790313496082</v>
       </c>
       <c r="HR2">
-        <v>1.043979908923236</v>
+        <v>1.041768732312458</v>
       </c>
       <c r="HS2">
-        <v>1.045104914895634</v>
+        <v>1.043525504692136</v>
       </c>
       <c r="HT2">
-        <v>1.045136390701112</v>
+        <v>1.043522231570404</v>
       </c>
       <c r="HU2">
-        <v>1.045110645816547</v>
+        <v>1.043441030793812</v>
       </c>
       <c r="HV2">
-        <v>1.044672418777732</v>
+        <v>1.042812222034288</v>
       </c>
       <c r="HW2">
-        <v>1.044652925362337</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="HX2">
-        <v>1.044595212702513</v>
+        <v>1.042665759529901</v>
       </c>
       <c r="HY2">
-        <v>1.044555120112296</v>
+        <v>1.042789333616251</v>
       </c>
       <c r="HZ2">
-        <v>1.04395398624944</v>
+        <v>1.041729441921456</v>
       </c>
       <c r="IA2">
-        <v>1.045067690826852</v>
+        <v>1.043453985420648</v>
       </c>
       <c r="IB2">
-        <v>1.045136390701112</v>
+        <v>1.043522231570404</v>
       </c>
       <c r="IC2">
-        <v>1.045110352430978</v>
+        <v>1.043440413704809</v>
       </c>
       <c r="ID2">
-        <v>1.044672288628763</v>
+        <v>1.042811959484717</v>
       </c>
       <c r="IE2">
-        <v>1.044652925362336</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="IF2">
-        <v>1.044592464104396</v>
+        <v>1.042659542351378</v>
       </c>
       <c r="IG2">
-        <v>1.044552705661337</v>
+        <v>1.042788637841067</v>
       </c>
       <c r="IH2">
-        <v>1.043936957273089</v>
+        <v>1.041703631556132</v>
       </c>
       <c r="II2">
-        <v>1.0450577141029</v>
+        <v>1.043444074587464</v>
       </c>
       <c r="IJ2">
-        <v>1.045110008523977</v>
+        <v>1.043439690352165</v>
       </c>
       <c r="IK2">
-        <v>1.044672149418687</v>
+        <v>1.042811678656169</v>
       </c>
       <c r="IL2">
-        <v>1.044652925362335</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="IM2">
-        <v>1.044589722054246</v>
+        <v>1.042653339984122</v>
       </c>
       <c r="IN2">
-        <v>1.044525085375968</v>
+        <v>1.042780678470347</v>
       </c>
       <c r="IO2">
-        <v>1.043900308017366</v>
+        <v>1.041648083407932</v>
       </c>
       <c r="IP2">
-        <v>1.045047340230025</v>
+        <v>1.043439004501647</v>
       </c>
       <c r="IQ2">
-        <v>1.045037464736909</v>
+        <v>1.043418723684516</v>
       </c>
       <c r="IR2">
-        <v>1.045109480303249</v>
+        <v>1.043438579325466</v>
       </c>
       <c r="IS2">
-        <v>1.044672016397329</v>
+        <v>1.042811410312125</v>
       </c>
       <c r="IT2">
-        <v>1.044652925362335</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="IU2">
-        <v>1.044585710557208</v>
+        <v>1.042644266197751</v>
       </c>
       <c r="IV2">
-        <v>1.044516940606711</v>
+        <v>1.042778331382272</v>
       </c>
       <c r="IW2">
-        <v>1.043895968096664</v>
+        <v>1.041638704481962</v>
       </c>
       <c r="IX2">
-        <v>1.043876241639293</v>
+        <v>1.041611726664936</v>
       </c>
       <c r="IY2">
-        <v>1.045107547375</v>
+        <v>1.043434513724176</v>
       </c>
       <c r="IZ2">
-        <v>1.044671868205837</v>
+        <v>1.042811111365361</v>
       </c>
       <c r="JA2">
-        <v>1.044652925362334</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="JB2">
-        <v>1.044570623117669</v>
+        <v>1.042610139238989</v>
       </c>
       <c r="JC2">
-        <v>1.044515118380039</v>
+        <v>1.042777806268982</v>
       </c>
       <c r="JD2">
-        <v>1.043895368168107</v>
+        <v>1.041637407986992</v>
       </c>
       <c r="JE2">
-        <v>1.043785996238336</v>
+        <v>1.041475394979072</v>
       </c>
       <c r="JF2">
-        <v>1.045098139812243</v>
+        <v>1.043414726441359</v>
       </c>
       <c r="JG2">
-        <v>1.04467156231782</v>
+        <v>1.042810494297328</v>
       </c>
       <c r="JH2">
-        <v>1.044652925362334</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="JI2">
-        <v>1.044567101694763</v>
+        <v>1.042602173974503</v>
       </c>
       <c r="JJ2">
-        <v>1.044482084846457</v>
+        <v>1.042771350536925</v>
       </c>
       <c r="JK2">
-        <v>1.044514675805837</v>
+        <v>1.042777573555745</v>
       </c>
       <c r="JL2">
-        <v>1.043895092358903</v>
+        <v>1.041636811940613</v>
       </c>
       <c r="JM2">
-        <v>1.04377805993378</v>
+        <v>1.041475394979061</v>
       </c>
       <c r="JN2">
-        <v>1.043756161911713</v>
+        <v>1.041429600582402</v>
       </c>
       <c r="JO2">
-        <v>1.044671243737417</v>
+        <v>1.042809851624935</v>
       </c>
       <c r="JP2">
-        <v>1.044652925362335</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="JQ2">
-        <v>1.044565488439228</v>
+        <v>1.042598524879483</v>
       </c>
       <c r="JR2">
-        <v>1.044449347472352</v>
+        <v>1.042764952682279</v>
       </c>
       <c r="JS2">
-        <v>1.044514156915437</v>
+        <v>1.042777300714119</v>
       </c>
       <c r="JT2">
-        <v>1.043894764776609</v>
+        <v>1.041636104008328</v>
       </c>
       <c r="JU2">
-        <v>1.04377748305158</v>
+        <v>1.041475394979061</v>
       </c>
       <c r="JV2">
-        <v>1.043648012484761</v>
+        <v>1.041263597077781</v>
       </c>
       <c r="JW2">
-        <v>1.044670032289552</v>
+        <v>1.042807407770582</v>
       </c>
       <c r="JX2">
-        <v>1.044652925362335</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="JY2">
-        <v>1.044564427845561</v>
+        <v>1.042596125875141</v>
       </c>
       <c r="JZ2">
-        <v>1.044513687982872</v>
+        <v>1.042777054141194</v>
       </c>
       <c r="KA2">
-        <v>1.043894259356343</v>
+        <v>1.041635011753565</v>
       </c>
       <c r="KB2">
-        <v>1.043777007567223</v>
+        <v>1.04147539497906</v>
       </c>
       <c r="KC2">
-        <v>1.043610101096552</v>
+        <v>1.041245011715872</v>
       </c>
       <c r="KD2">
-        <v>1.043634940526939</v>
+        <v>1.041230504755156</v>
       </c>
       <c r="KE2">
-        <v>1.044663600540535</v>
+        <v>1.042794432999635</v>
       </c>
       <c r="KF2">
-        <v>1.044652925362335</v>
+        <v>1.042796302436128</v>
       </c>
       <c r="KG2">
-        <v>1.044561161660031</v>
+        <v>1.042581890229497</v>
       </c>
       <c r="KH2">
-        <v>1.044563911698729</v>
+        <v>1.04259580299195</v>
       </c>
       <c r="KI2">
-        <v>1.044513213047931</v>
+        <v>1.042776804412115</v>
       </c>
       <c r="KJ2">
-        <v>1.043893808991336</v>
+        <v>1.041634038477748</v>
       </c>
       <c r="KK2">
-        <v>1.043776332178371</v>
+        <v>1.04147539497906</v>
       </c>
       <c r="KL2">
-        <v>1.043592651376353</v>
+        <v>1.041236457281826</v>
       </c>
       <c r="KM2">
-        <v>1.043580156487508</v>
+        <v>1.041091816885614</v>
       </c>
       <c r="KN2">
-        <v>1.044559661312763</v>
+        <v>1.042575350977249</v>
       </c>
       <c r="KO2">
-        <v>1.044563546403196</v>
+        <v>1.042595574475991</v>
       </c>
       <c r="KP2">
-        <v>1.044512702396847</v>
+        <v>1.042776535902865</v>
       </c>
       <c r="KQ2">
-        <v>1.043893458842748</v>
+        <v>1.041633281777858</v>
       </c>
       <c r="KR2">
-        <v>1.043773298636294</v>
+        <v>1.041475394979057</v>
       </c>
       <c r="KS2">
-        <v>1.043478659309544</v>
+        <v>1.041180574121777</v>
       </c>
       <c r="KT2">
-        <v>1.043568063521024</v>
+        <v>1.041061203235132</v>
       </c>
       <c r="KU2">
-        <v>1.044557122002556</v>
+        <v>1.042564283413282</v>
       </c>
       <c r="KV2">
-        <v>1.044563121306851</v>
+        <v>1.042595308550762</v>
       </c>
       <c r="KW2">
-        <v>1.044509740904035</v>
+        <v>1.04277497869826</v>
       </c>
       <c r="KX2">
-        <v>1.043893022995528</v>
+        <v>1.041632339876181</v>
       </c>
       <c r="KY2">
-        <v>1.043772714647283</v>
+        <v>1.041475394979057</v>
       </c>
       <c r="KZ2">
-        <v>1.04347014509361</v>
+        <v>1.041176400104292</v>
       </c>
       <c r="LA2">
-        <v>1.043564045274693</v>
+        <v>1.041051030955084</v>
       </c>
       <c r="LB2">
-        <v>1.044552247961669</v>
+        <v>1.042543039945134</v>
       </c>
       <c r="LC2">
-        <v>1.044562308233507</v>
+        <v>1.04259479992085</v>
       </c>
       <c r="LD2">
-        <v>1.044497214910315</v>
+        <v>1.042768392312034</v>
       </c>
       <c r="LE2">
-        <v>1.043892572202432</v>
+        <v>1.041631365675245</v>
       </c>
       <c r="LF2">
-        <v>1.043772282251436</v>
+        <v>1.041475394979057</v>
       </c>
       <c r="LG2">
-        <v>1.043468892954557</v>
+        <v>1.041172030822779</v>
       </c>
       <c r="LH2">
-        <v>1.043319924703824</v>
+        <v>1.04111975749276</v>
       </c>
       <c r="LI2">
-        <v>1.043561948032951</v>
+        <v>1.041045721743335</v>
       </c>
       <c r="LJ2">
-        <v>1.044537897965005</v>
+        <v>1.042480495611034</v>
       </c>
       <c r="LK2">
-        <v>1.044559189955854</v>
+        <v>1.04259284923669</v>
       </c>
       <c r="LL2">
-        <v>1.04389204046752</v>
+        <v>1.041630216552396</v>
       </c>
       <c r="LM2">
-        <v>1.043771784178299</v>
+        <v>1.041475394979056</v>
       </c>
       <c r="LN2">
-        <v>1.043462444061094</v>
+        <v>1.041149527707861</v>
       </c>
       <c r="LO2">
-        <v>1.043247835166041</v>
+        <v>1.041092574750044</v>
       </c>
       <c r="LP2">
-        <v>1.043560152728872</v>
+        <v>1.041041176894469</v>
       </c>
       <c r="LQ2">
-        <v>1.044548548457639</v>
+        <v>1.042586192291861</v>
       </c>
       <c r="LR2">
-        <v>1.043891737449394</v>
+        <v>1.041629561705322</v>
       </c>
       <c r="LS2">
-        <v>1.043771290096922</v>
+        <v>1.041475394979056</v>
       </c>
       <c r="LT2">
-        <v>1.043460192629925</v>
+        <v>1.041141671443744</v>
       </c>
       <c r="LU2">
-        <v>1.043230790329192</v>
+        <v>1.041092574750045</v>
       </c>
       <c r="LV2">
-        <v>1.043114010073174</v>
+        <v>1.041040197528934</v>
       </c>
       <c r="LW2">
-        <v>1.043558110892562</v>
+        <v>1.041036007945705</v>
       </c>
       <c r="LX2">
-        <v>1.0438903685354</v>
+        <v>1.041626603369709</v>
       </c>
       <c r="LY2">
-        <v>1.043766949537325</v>
+        <v>1.041475394979056</v>
       </c>
       <c r="LZ2">
-        <v>1.043455292536024</v>
+        <v>1.041124572795605</v>
       </c>
       <c r="MA2">
-        <v>1.043224039729197</v>
+        <v>1.041092574750045</v>
       </c>
       <c r="MB2">
-        <v>1.043101305551631</v>
+        <v>1.04102746796869</v>
       </c>
       <c r="MC2">
-        <v>1.043090608939456</v>
+        <v>1.041031602262637</v>
       </c>
       <c r="MD2">
-        <v>1.043556502277253</v>
+        <v>1.041031935705529</v>
       </c>
       <c r="ME2">
-        <v>1.043889835782503</v>
+        <v>1.041625452046938</v>
       </c>
       <c r="MF2">
-        <v>1.043758076852358</v>
+        <v>1.041475394979056</v>
       </c>
       <c r="MG2">
-        <v>1.043453284693768</v>
+        <v>1.041120484865239</v>
       </c>
       <c r="MH2">
-        <v>1.043454347353897</v>
+        <v>1.041119901521081</v>
       </c>
       <c r="MI2">
-        <v>1.043094918294673</v>
+        <v>1.041021068123413</v>
       </c>
       <c r="MJ2">
-        <v>1.043070561102666</v>
+        <v>1.041024238638975</v>
       </c>
       <c r="MK2">
-        <v>1.043555153623206</v>
+        <v>1.041028521562969</v>
       </c>
       <c r="ML2">
-        <v>1.043889650704648</v>
+        <v>1.041625052078493</v>
       </c>
       <c r="MM2">
-        <v>1.043450280356073</v>
+        <v>1.041114368088419</v>
       </c>
       <c r="MN2">
-        <v>1.043454215746255</v>
+        <v>1.04111925109044</v>
       </c>
       <c r="MO2">
-        <v>1.043094323897753</v>
+        <v>1.041020472555026</v>
       </c>
       <c r="MP2">
-        <v>1.043056459361939</v>
+        <v>1.041019059016913</v>
       </c>
       <c r="MQ2">
-        <v>1.043553936710692</v>
+        <v>1.041025440927112</v>
       </c>
       <c r="MR2">
-        <v>1.043889511273108</v>
+        <v>1.041624750755485</v>
       </c>
       <c r="MS2">
-        <v>1.043454072811103</v>
+        <v>1.041118544677036</v>
       </c>
       <c r="MT2">
-        <v>1.043094078419236</v>
+        <v>1.041020226592709</v>
       </c>
       <c r="MU2">
-        <v>1.043038641570127</v>
+        <v>1.041012514457375</v>
       </c>
       <c r="MV2">
-        <v>1.043552929550962</v>
+        <v>1.041022891284612</v>
       </c>
       <c r="MW2">
-        <v>1.04388940925862</v>
+        <v>1.0416245302938</v>
       </c>
       <c r="MX2">
-        <v>1.043453947610176</v>
+        <v>1.041117925909638</v>
       </c>
       <c r="MY2">
-        <v>1.043093905208696</v>
+        <v>1.041020053040797</v>
       </c>
       <c r="MZ2">
-        <v>1.043027477118447</v>
+        <v>1.041008413691002</v>
       </c>
       <c r="NA2">
-        <v>1.043551761186109</v>
+        <v>1.041019933548996</v>
       </c>
       <c r="NB2">
-        <v>1.043889357455087</v>
+        <v>1.041624418342109</v>
       </c>
       <c r="NC2">
-        <v>1.043453814584191</v>
+        <v>1.041117268469276</v>
       </c>
       <c r="ND2">
-        <v>1.043093728041228</v>
+        <v>1.04101987552416</v>
       </c>
       <c r="NE2">
-        <v>1.043010332946311</v>
+        <v>1.041002116524031</v>
       </c>
       <c r="NF2">
-        <v>1.043550477071543</v>
+        <v>1.041016682791591</v>
       </c>
       <c r="NG2">
-        <v>1.043889281292894</v>
+        <v>1.041624253749357</v>
       </c>
       <c r="NH2">
-        <v>1.043453624727638</v>
+        <v>1.041116330161167</v>
       </c>
       <c r="NI2">
-        <v>1.04309351899627</v>
+        <v>1.041019666067206</v>
       </c>
       <c r="NJ2">
-        <v>1.042993242270462</v>
+        <v>1.040995838988047</v>
       </c>
       <c r="NK2">
-        <v>1.043543476533362</v>
+        <v>1.040998960823528</v>
       </c>
       <c r="NL2">
-        <v>1.043889153620186</v>
+        <v>1.04162397783815</v>
       </c>
       <c r="NM2">
-        <v>1.043453393922193</v>
+        <v>1.041115189475655</v>
       </c>
       <c r="NN2">
-        <v>1.043093255300982</v>
+        <v>1.041019401852216</v>
       </c>
       <c r="NO2">
-        <v>1.042974066063054</v>
+        <v>1.040988795398317</v>
       </c>
       <c r="NP2">
-        <v>1.043491562186026</v>
+        <v>1.040878882128926</v>
       </c>
       <c r="NQ2">
-        <v>1.043542126916165</v>
+        <v>1.040977308065414</v>
       </c>
       <c r="NR2">
-        <v>1.043888584144736</v>
+        <v>1.041622747154944</v>
       </c>
       <c r="NS2">
-        <v>1.043451963316314</v>
+        <v>1.041108119142604</v>
       </c>
       <c r="NT2">
-        <v>1.043093019136187</v>
+        <v>1.041019165221977</v>
       </c>
       <c r="NU2">
-        <v>1.042960189526036</v>
+        <v>1.040983698409614</v>
       </c>
       <c r="NV2">
-        <v>1.043441840109141</v>
+        <v>1.040763874974105</v>
       </c>
       <c r="NW2">
-        <v>1.043533840084961</v>
+        <v>1.040844357272105</v>
       </c>
       <c r="NX2">
-        <v>1.043542126916176</v>
+        <v>1.040977308065416</v>
       </c>
       <c r="NY2">
-        <v>1.043886490769034</v>
+        <v>1.041618223198235</v>
       </c>
       <c r="NZ2">
-        <v>1.043447068168174</v>
+        <v>1.041083926368528</v>
       </c>
       <c r="OA2">
-        <v>1.04309283226493</v>
+        <v>1.041018977982425</v>
       </c>
       <c r="OB2">
-        <v>1.042943650013356</v>
+        <v>1.040977623267773</v>
       </c>
       <c r="OC2">
-        <v>1.043439626624336</v>
+        <v>1.040758755201993</v>
       </c>
       <c r="OD2">
-        <v>1.043530811454304</v>
+        <v>1.040795767087788</v>
       </c>
       <c r="OE2">
-        <v>1.043542126916235</v>
+        <v>1.040977308065425</v>
       </c>
       <c r="OF2">
-        <v>1.043092511548899</v>
+        <v>1.041018656634312</v>
       </c>
       <c r="OG2">
-        <v>1.04291965152382</v>
+        <v>1.040968808332231</v>
       </c>
       <c r="OH2">
-        <v>1.04342447493724</v>
+        <v>1.040516211057837</v>
       </c>
       <c r="OI2">
-        <v>1.043401621073489</v>
+        <v>1.040705909780054</v>
       </c>
       <c r="OJ2">
-        <v>1.043530503179396</v>
+        <v>1.040790821244532</v>
       </c>
       <c r="OK2">
-        <v>1.04354212691624</v>
+        <v>1.040977308065426</v>
       </c>
       <c r="OL2">
-        <v>1.043091391963826</v>
+        <v>1.041017534842708</v>
       </c>
       <c r="OM2">
-        <v>1.042901859642019</v>
+        <v>1.040962273135217</v>
       </c>
       <c r="ON2">
-        <v>1.043423086651491</v>
+        <v>1.040493987767323</v>
       </c>
       <c r="OO2">
-        <v>1.04338328554745</v>
+        <v>1.040680414909399</v>
       </c>
       <c r="OP2">
-        <v>1.04353028804384</v>
+        <v>1.040787369693054</v>
       </c>
       <c r="OQ2">
-        <v>1.043542126916241</v>
+        <v>1.040977308065427</v>
       </c>
       <c r="OR2">
-        <v>1.043084547234959</v>
+        <v>1.04101067662393</v>
       </c>
       <c r="OS2">
-        <v>1.042884696569341</v>
+        <v>1.040955968889208</v>
       </c>
       <c r="OT2">
-        <v>1.043422297439707</v>
+        <v>1.040481354286673</v>
       </c>
       <c r="OU2">
-        <v>1.043327970139988</v>
+        <v>1.040603501089963</v>
       </c>
       <c r="OV2">
-        <v>1.043383285547446</v>
+        <v>1.040680414909391</v>
       </c>
       <c r="OW2">
-        <v>1.043530065182518</v>
+        <v>1.040783794192456</v>
       </c>
       <c r="OX2">
-        <v>1.043542126916243</v>
+        <v>1.040977308065427</v>
       </c>
       <c r="OY2">
-        <v>1.042867899146583</v>
+        <v>1.040949798933633</v>
       </c>
       <c r="OZ2">
-        <v>1.043421761545944</v>
+        <v>1.040472775850264</v>
       </c>
       <c r="PA2">
-        <v>1.043249187343204</v>
+        <v>1.040493957362456</v>
       </c>
       <c r="PB2">
-        <v>1.043383285547444</v>
+        <v>1.040680414909389</v>
       </c>
       <c r="PC2">
-        <v>1.043529129295026</v>
+        <v>1.040768779177302</v>
       </c>
       <c r="PD2">
-        <v>1.043542126916244</v>
+        <v>1.040977308065427</v>
       </c>
       <c r="PE2">
-        <v>1.042847697778561</v>
+        <v>1.040942378632121</v>
       </c>
       <c r="PF2">
-        <v>1.043420888180945</v>
+        <v>1.040458795270184</v>
       </c>
       <c r="PG2">
-        <v>1.04323270113023</v>
+        <v>1.040471034148681</v>
       </c>
       <c r="PH2">
-        <v>1.043383285547444</v>
+        <v>1.040680414909388</v>
       </c>
       <c r="PI2">
-        <v>1.043528900773255</v>
+        <v>1.040765112863002</v>
       </c>
       <c r="PJ2">
-        <v>1.043542126916265</v>
+        <v>1.040977308065431</v>
       </c>
       <c r="PK2">
-        <v>1.042813864369595</v>
+        <v>1.04092995099519</v>
       </c>
       <c r="PL2">
-        <v>1.042847697778561</v>
+        <v>1.040942378632121</v>
       </c>
       <c r="PM2">
-        <v>1.043417985062323</v>
+        <v>1.040412322975146</v>
       </c>
       <c r="PN2">
-        <v>1.043228487445175</v>
+        <v>1.040465175245251</v>
       </c>
       <c r="PO2">
-        <v>1.043383285547443</v>
+        <v>1.040680414909386</v>
       </c>
       <c r="PP2">
-        <v>1.04352868278835</v>
+        <v>1.040761615598157</v>
       </c>
       <c r="PQ2">
-        <v>1.043542126916273</v>
+        <v>1.040977308065433</v>
       </c>
       <c r="PR2">
-        <v>1.042699748319149</v>
+        <v>1.040888033523349</v>
       </c>
       <c r="PS2">
-        <v>1.042813864369595</v>
+        <v>1.04092995099519</v>
       </c>
       <c r="PT2">
-        <v>1.043414752981228</v>
+        <v>1.040360584756018</v>
       </c>
       <c r="PU2">
-        <v>1.043226279956402</v>
+        <v>1.040462105851046</v>
       </c>
       <c r="PV2">
-        <v>1.043383285547442</v>
+        <v>1.040680414909385</v>
       </c>
       <c r="PW2">
-        <v>1.04352846598908</v>
+        <v>1.040758137355227</v>
       </c>
       <c r="PX2">
-        <v>1.043542126916275</v>
+        <v>1.040977308065433</v>
       </c>
       <c r="PY2">
-        <v>1.042538346966937</v>
+        <v>1.040828745652086</v>
       </c>
       <c r="PZ2">
-        <v>1.042699748319149</v>
+        <v>1.040888033523349</v>
       </c>
       <c r="QA2">
-        <v>1.043412935271531</v>
+        <v>1.040331487391253</v>
       </c>
       <c r="QB2">
-        <v>1.04322444997416</v>
+        <v>1.040459561359712</v>
       </c>
       <c r="QC2">
-        <v>1.043383285547442</v>
+        <v>1.040680414909383</v>
       </c>
       <c r="QD2">
-        <v>1.043528217292375</v>
+        <v>1.040754147362368</v>
       </c>
       <c r="QE2">
-        <v>1.043542126916279</v>
+        <v>1.040977308065434</v>
       </c>
       <c r="QF2">
-        <v>1.042422535154989</v>
+        <v>1.040786203255453</v>
       </c>
       <c r="QG2">
-        <v>1.042538346966937</v>
+        <v>1.040828745652086</v>
       </c>
       <c r="QH2">
-        <v>1.043411227726026</v>
+        <v>1.040304153506682</v>
       </c>
       <c r="QI2">
-        <v>1.043222966875448</v>
+        <v>1.040457499191416</v>
       </c>
       <c r="QJ2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909382</v>
       </c>
       <c r="QK2">
-        <v>1.04352735843297</v>
+        <v>1.040740368157993</v>
       </c>
       <c r="QL2">
-        <v>1.043542126916283</v>
+        <v>1.040977308065435</v>
       </c>
       <c r="QM2">
-        <v>1.042387398358189</v>
+        <v>1.040773295910052</v>
       </c>
       <c r="QN2">
-        <v>1.042422535154989</v>
+        <v>1.040786203255453</v>
       </c>
       <c r="QO2">
-        <v>1.043409598586702</v>
+        <v>1.040278074728807</v>
       </c>
       <c r="QP2">
-        <v>1.043220699857043</v>
+        <v>1.040454347025755</v>
       </c>
       <c r="QQ2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909381</v>
       </c>
       <c r="QR2">
-        <v>1.043523173042568</v>
+        <v>1.040673219405667</v>
       </c>
       <c r="QS2">
-        <v>1.043542126916287</v>
+        <v>1.040977308065436</v>
       </c>
       <c r="QT2">
-        <v>1.042285506741928</v>
+        <v>1.040739414169576</v>
       </c>
       <c r="QU2">
-        <v>1.042387398358189</v>
+        <v>1.040773295910052</v>
       </c>
       <c r="QV2">
-        <v>1.042383921976538</v>
+        <v>1.040766056183217</v>
       </c>
       <c r="QW2">
-        <v>1.043406923782999</v>
+        <v>1.040235257274231</v>
       </c>
       <c r="QX2">
-        <v>1.043218656174592</v>
+        <v>1.040451505397025</v>
       </c>
       <c r="QY2">
-        <v>1.043383285547441</v>
+        <v>1.04068041490938</v>
       </c>
       <c r="QZ2">
-        <v>1.043542126916291</v>
+        <v>1.040977308065437</v>
       </c>
       <c r="RA2">
-        <v>1.042172302667379</v>
+        <v>1.040701769991528</v>
       </c>
       <c r="RB2">
-        <v>1.042285506741928</v>
+        <v>1.040739414169576</v>
       </c>
       <c r="RC2">
-        <v>1.042285506741928</v>
+        <v>1.040739414169576</v>
       </c>
       <c r="RD2">
-        <v>1.042383414294099</v>
+        <v>1.040764998910891</v>
       </c>
       <c r="RE2">
-        <v>1.043405060731381</v>
+        <v>1.040205434109019</v>
       </c>
       <c r="RF2">
-        <v>1.043216711092766</v>
+        <v>1.040448800867475</v>
       </c>
       <c r="RG2">
-        <v>1.043383285547441</v>
+        <v>1.04068041490938</v>
       </c>
       <c r="RH2">
-        <v>1.043542126916311</v>
+        <v>1.040977308065441</v>
       </c>
       <c r="RI2">
-        <v>1.042130819749919</v>
+        <v>1.040687975326248</v>
       </c>
       <c r="RJ2">
-        <v>1.042172302667379</v>
+        <v>1.040701769991528</v>
       </c>
       <c r="RK2">
-        <v>1.042383137468143</v>
+        <v>1.040764422407948</v>
       </c>
       <c r="RL2">
-        <v>1.0434037517103</v>
+        <v>1.040184479699406</v>
       </c>
       <c r="RM2">
-        <v>1.043214519839962</v>
+        <v>1.040445754051149</v>
       </c>
       <c r="RN2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909379</v>
       </c>
       <c r="RO2">
-        <v>1.043542126916313</v>
+        <v>1.040977308065441</v>
       </c>
       <c r="RP2">
-        <v>1.042053853428895</v>
+        <v>1.040669773198929</v>
       </c>
       <c r="RQ2">
-        <v>1.042130819749919</v>
+        <v>1.040687975326248</v>
       </c>
       <c r="RR2">
-        <v>1.042072746305098</v>
+        <v>1.040628372311646</v>
       </c>
       <c r="RS2">
-        <v>1.042382949940272</v>
+        <v>1.040764031872424</v>
       </c>
       <c r="RT2">
-        <v>1.043403126252211</v>
+        <v>1.040174467558178</v>
       </c>
       <c r="RU2">
-        <v>1.043212205171746</v>
+        <v>1.040442535633024</v>
       </c>
       <c r="RV2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909378</v>
       </c>
       <c r="RW2">
-        <v>1.043542126916313</v>
+        <v>1.040977308065441</v>
       </c>
       <c r="RX2">
-        <v>1.041943545179665</v>
+        <v>1.040643685274571</v>
       </c>
       <c r="RY2">
-        <v>1.042053853428895</v>
+        <v>1.040669773198929</v>
       </c>
       <c r="RZ2">
-        <v>1.042070581803991</v>
+        <v>1.040626155661252</v>
       </c>
       <c r="SA2">
-        <v>1.042064984740763</v>
+        <v>1.040620372071996</v>
       </c>
       <c r="SB2">
-        <v>1.042382665097479</v>
+        <v>1.040763438674044</v>
       </c>
       <c r="SC2">
-        <v>1.04340273004166</v>
+        <v>1.040168125141498</v>
       </c>
       <c r="SD2">
-        <v>1.043207144211101</v>
+        <v>1.040435498649091</v>
       </c>
       <c r="SE2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909376</v>
       </c>
       <c r="SF2">
-        <v>1.043542126916313</v>
+        <v>1.040977308065441</v>
       </c>
       <c r="SG2">
-        <v>1.041876229293608</v>
+        <v>1.040627764701443</v>
       </c>
       <c r="SH2">
-        <v>1.041943545179665</v>
+        <v>1.040643685274571</v>
       </c>
       <c r="SI2">
-        <v>1.042069666920689</v>
+        <v>1.040625218735687</v>
       </c>
       <c r="SJ2">
-        <v>1.042060018224841</v>
+        <v>1.040615252830245</v>
       </c>
       <c r="SK2">
-        <v>1.042382232820424</v>
+        <v>1.040762538436955</v>
       </c>
       <c r="SL2">
-        <v>1.043402462154517</v>
+        <v>1.040163836886593</v>
       </c>
       <c r="SM2">
-        <v>1.043092359999176</v>
+        <v>1.04027589829865</v>
       </c>
       <c r="SN2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909374</v>
       </c>
       <c r="SO2">
-        <v>1.043542126916313</v>
+        <v>1.040977308065441</v>
       </c>
       <c r="SP2">
-        <v>1.041864636929403</v>
+        <v>1.040625023017349</v>
       </c>
       <c r="SQ2">
-        <v>1.041876229293608</v>
+        <v>1.040627764701443</v>
       </c>
       <c r="SR2">
-        <v>1.042069129353205</v>
+        <v>1.040624668216603</v>
       </c>
       <c r="SS2">
-        <v>1.042381926134134</v>
+        <v>1.040761899748482</v>
       </c>
       <c r="ST2">
-        <v>1.043402088484362</v>
+        <v>1.040157855289979</v>
       </c>
       <c r="SU2">
-        <v>1.043081702591115</v>
+        <v>1.04025402723954</v>
       </c>
       <c r="SV2">
-        <v>1.043075325241666</v>
+        <v>1.040252614103305</v>
       </c>
       <c r="SW2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909373</v>
       </c>
       <c r="SX2">
-        <v>1.041850674200745</v>
+        <v>1.040621371816968</v>
       </c>
       <c r="SY2">
-        <v>1.041864636929403</v>
+        <v>1.040625023017349</v>
       </c>
       <c r="SZ2">
-        <v>1.041768796694636</v>
+        <v>1.040602005742495</v>
       </c>
       <c r="TA2">
-        <v>1.042068634629342</v>
+        <v>1.040624161573371</v>
       </c>
       <c r="TB2">
-        <v>1.042381716602421</v>
+        <v>1.040761463388938</v>
       </c>
       <c r="TC2">
-        <v>1.043401803296362</v>
+        <v>1.040153290088531</v>
       </c>
       <c r="TD2">
-        <v>1.043072304201038</v>
+        <v>1.040234739929934</v>
       </c>
       <c r="TE2">
-        <v>1.043066135471411</v>
+        <v>1.040240052949989</v>
       </c>
       <c r="TF2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909372</v>
       </c>
       <c r="TG2">
-        <v>1.041840395971331</v>
+        <v>1.040618684098528</v>
       </c>
       <c r="TH2">
-        <v>1.041850674200745</v>
+        <v>1.040621371816968</v>
       </c>
       <c r="TI2">
-        <v>1.04171216921198</v>
+        <v>1.040588404361593</v>
       </c>
       <c r="TJ2">
-        <v>1.042068193871969</v>
+        <v>1.040623710196843</v>
       </c>
       <c r="TK2">
-        <v>1.042381551031249</v>
+        <v>1.040761118579267</v>
       </c>
       <c r="TL2">
-        <v>1.043399768131769</v>
+        <v>1.040120711805382</v>
       </c>
       <c r="TM2">
-        <v>1.043064763032917</v>
+        <v>1.040238177015856</v>
       </c>
       <c r="TN2">
-        <v>1.043383285547441</v>
+        <v>1.040680414909371</v>
       </c>
       <c r="TO2">
-        <v>1.041826402152497</v>
+        <v>1.040615024766599</v>
       </c>
       <c r="TP2">
-        <v>1.041840395971331</v>
+        <v>1.040618684098528</v>
       </c>
       <c r="TQ2">
-        <v>1.041667304063403</v>
+        <v>1.040577627359621</v>
       </c>
       <c r="TR2">
-        <v>1.042067736636267</v>
+        <v>1.040623241944976</v>
       </c>
       <c r="TS2">
-        <v>1.04238102016603</v>
+        <v>1.040760013027745</v>
       </c>
       <c r="TT2">
-        <v>1.043394386715106</v>
+        <v>1.040013770589516</v>
       </c>
       <c r="TU2">
-        <v>1.043394558736087</v>
+        <v>1.040097718447848</v>
       </c>
       <c r="TV2">
-        <v>1.043063715400271</v>
+        <v>1.040236745046648</v>
       </c>
       <c r="TW2">
-        <v>1.043383285547441</v>
+        <v>1.04068041490937</v>
       </c>
       <c r="TX2">
-        <v>1.04181649933801</v>
+        <v>1.040612435216641</v>
       </c>
       <c r="TY2">
-        <v>1.041826402152497</v>
+        <v>1.040615024766599</v>
       </c>
       <c r="TZ2">
-        <v>1.041648766329877</v>
+        <v>1.04057317422143</v>
       </c>
       <c r="UA2">
-        <v>1.042066356315492</v>
+        <v>1.040621828368178</v>
       </c>
       <c r="UB2">
-        <v>1.042376726256074</v>
+        <v>1.040751070760646</v>
       </c>
       <c r="UC2">
-        <v>1.043388444401985</v>
+        <v>1.0398956831326</v>
       </c>
       <c r="UD2">
-        <v>1.043062735593143</v>
+        <v>1.040235405785658</v>
       </c>
       <c r="UE2">
-        <v>1.043383285547442</v>
+        <v>1.04068041490937</v>
       </c>
       <c r="UF2">
-        <v>1.041788805680462</v>
+        <v>1.040605193423525</v>
       </c>
       <c r="UG2">
-        <v>1.04181649933801</v>
+        <v>1.040612435216641</v>
       </c>
       <c r="UH2">
-        <v>1.041645356426474</v>
+        <v>1.040571773026475</v>
       </c>
       <c r="UI2">
-        <v>1.041616896656884</v>
+        <v>1.040573174221431</v>
       </c>
       <c r="UJ2">
-        <v>1.042064965283801</v>
+        <v>1.040620403822415</v>
       </c>
       <c r="UK2">
-        <v>1.042376512423568</v>
+        <v>1.040750625444518</v>
       </c>
       <c r="UL2">
-        <v>1.043372337378309</v>
+        <v>1.039575599825163</v>
       </c>
       <c r="UM2">
-        <v>1.043061690751022</v>
+        <v>1.040233977630921</v>
       </c>
       <c r="UN2">
-        <v>1.043383285547442</v>
+        <v>1.04068041490937</v>
       </c>
       <c r="UO2">
-        <v>1.04176875276263</v>
+        <v>1.040599949654479</v>
       </c>
       <c r="UP2">
-        <v>1.041788805680462</v>
+        <v>1.040605193423525</v>
       </c>
       <c r="UQ2">
-        <v>1.041644101685525</v>
+        <v>1.04057125742914</v>
       </c>
       <c r="UR2">
-        <v>1.041592791277653</v>
+        <v>1.040573174221431</v>
       </c>
       <c r="US2">
-        <v>1.042051968015771</v>
+        <v>1.04060709341206</v>
       </c>
       <c r="UT2">
-        <v>1.042376343702255</v>
+        <v>1.040750274074549</v>
       </c>
       <c r="UU2">
-        <v>1.04306076619321</v>
+        <v>1.040232713888299</v>
       </c>
       <c r="UV2">
-        <v>1.043383285547442</v>
+        <v>1.04068041490937</v>
       </c>
       <c r="UW2">
-        <v>1.041767361609715</v>
+        <v>1.040599949654488</v>
       </c>
       <c r="UX2">
-        <v>1.04176875276263</v>
+        <v>1.040599949654479</v>
       </c>
       <c r="UY2">
-        <v>1.04172073864847</v>
+        <v>1.040581679375038</v>
       </c>
       <c r="UZ2">
-        <v>1.041642232655763</v>
+        <v>1.040570489408523</v>
       </c>
       <c r="VA2">
-        <v>1.042376152958229</v>
+        <v>1.040749876841257</v>
       </c>
       <c r="VB2">
-        <v>1.043059820534693</v>
+        <v>1.04023142130402</v>
       </c>
       <c r="VC2">
-        <v>1.041767032210254</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VD2">
-        <v>1.041767361609715</v>
+        <v>1.040599949654488</v>
       </c>
       <c r="VE2">
-        <v>1.041714668822679</v>
+        <v>1.040579369691195</v>
       </c>
       <c r="VF2">
-        <v>1.041641108018031</v>
+        <v>1.040570027272972</v>
       </c>
       <c r="VG2">
-        <v>1.042375983190008</v>
+        <v>1.040749523291052</v>
       </c>
       <c r="VH2">
-        <v>1.043054939720679</v>
+        <v>1.040224749908367</v>
       </c>
       <c r="VI2">
-        <v>1.041758102319609</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VJ2">
-        <v>1.041767032210254</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VK2">
-        <v>1.041767032210262</v>
+        <v>1.040599949654494</v>
       </c>
       <c r="VL2">
-        <v>1.041710189693939</v>
+        <v>1.040577665297721</v>
       </c>
       <c r="VM2">
-        <v>1.041639750994869</v>
+        <v>1.040569469645651</v>
       </c>
       <c r="VN2">
-        <v>1.042375787786791</v>
+        <v>1.040749116354779</v>
       </c>
       <c r="VO2">
-        <v>1.043041358902922</v>
+        <v>1.040206151481339</v>
       </c>
       <c r="VP2">
-        <v>1.043044977057297</v>
+        <v>1.040211133628</v>
       </c>
       <c r="VQ2">
-        <v>1.041751844125005</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VR2">
-        <v>1.041758102319609</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VS2">
-        <v>1.041767032210265</v>
+        <v>1.040599949654496</v>
       </c>
       <c r="VT2">
-        <v>1.04170583146741</v>
+        <v>1.040576006909807</v>
       </c>
       <c r="VU2">
-        <v>1.041638559471111</v>
+        <v>1.040568980025204</v>
       </c>
       <c r="VV2">
-        <v>1.042375587432005</v>
+        <v>1.040748699106633</v>
       </c>
       <c r="VW2">
-        <v>1.043040576279585</v>
+        <v>1.040205079707677</v>
       </c>
       <c r="VX2">
-        <v>1.042997368563865</v>
+        <v>1.04014606576696</v>
       </c>
       <c r="VY2">
-        <v>1.041745649948976</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="VZ2">
-        <v>1.041751091319099</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WA2">
-        <v>1.041767032210267</v>
+        <v>1.040599949654497</v>
       </c>
       <c r="WB2">
-        <v>1.041664891842654</v>
+        <v>1.040560428604331</v>
       </c>
       <c r="WC2">
-        <v>1.041630762541566</v>
+        <v>1.040565776112683</v>
       </c>
       <c r="WD2">
-        <v>1.042375346606344</v>
+        <v>1.040748197576013</v>
       </c>
       <c r="WE2">
-        <v>1.043040183217141</v>
+        <v>1.040204541423225</v>
       </c>
       <c r="WF2">
-        <v>1.042979828598902</v>
+        <v>1.04014606576696</v>
       </c>
       <c r="WG2">
-        <v>1.042943507368663</v>
+        <v>1.040069559532119</v>
       </c>
       <c r="WH2">
-        <v>1.041740126079318</v>
+        <v>1.040599949654489</v>
       </c>
       <c r="WI2">
-        <v>1.041745649948976</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WJ2">
-        <v>1.041745649948976</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WK2">
-        <v>1.04171757450112</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WL2">
-        <v>1.041751091319099</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WM2">
-        <v>1.041767032210269</v>
+        <v>1.040599949654498</v>
       </c>
       <c r="WN2">
-        <v>1.04164583817675</v>
+        <v>1.040553178321496</v>
       </c>
       <c r="WO2">
-        <v>1.041573273669318</v>
+        <v>1.040542152719399</v>
       </c>
       <c r="WP2">
-        <v>1.042375195625807</v>
+        <v>1.040747883152034</v>
       </c>
       <c r="WQ2">
-        <v>1.043039853612969</v>
+        <v>1.040204090042526</v>
       </c>
       <c r="WR2">
-        <v>1.042970572709085</v>
+        <v>1.04014606576696</v>
       </c>
       <c r="WS2">
-        <v>1.042891917892456</v>
+        <v>1.03999628043131</v>
       </c>
       <c r="WT2">
-        <v>1.04172807993354</v>
+        <v>1.040599949654489</v>
       </c>
       <c r="WU2">
-        <v>1.041740126079318</v>
+        <v>1.040599949654489</v>
       </c>
       <c r="WV2">
-        <v>1.041740126079318</v>
+        <v>1.040599949654489</v>
       </c>
       <c r="WW2">
-        <v>1.041709685656401</v>
+        <v>1.04059994965449</v>
       </c>
       <c r="WX2">
-        <v>1.041767032210271</v>
+        <v>1.040599949654499</v>
       </c>
       <c r="WY2">
-        <v>1.041636895518499</v>
+        <v>1.040549775469517</v>
       </c>
       <c r="WZ2">
-        <v>1.042374546762225</v>
+        <v>1.040746531863505</v>
       </c>
       <c r="XA2">
-        <v>1.0430395848323</v>
+        <v>1.04020372195736</v>
       </c>
       <c r="XB2">
-        <v>1.042890356204703</v>
+        <v>1.039989784792626</v>
       </c>
       <c r="XC2">
-        <v>1.042877687889377</v>
+        <v>1.03997684890982</v>
       </c>
       <c r="XD2">
-        <v>1.041711670313008</v>
+        <v>1.040599949654488</v>
       </c>
       <c r="XE2">
-        <v>1.041767032210272</v>
+        <v>1.040599949654501</v>
       </c>
       <c r="XF2">
-        <v>1.041630930627542</v>
+        <v>1.040547505714713</v>
       </c>
       <c r="XG2">
-        <v>1.042371811230388</v>
+        <v>1.040740834991553</v>
       </c>
       <c r="XH2">
-        <v>1.043039162925177</v>
+        <v>1.040203144171191</v>
       </c>
       <c r="XI2">
-        <v>1.042889973274513</v>
+        <v>1.039988192043939</v>
       </c>
       <c r="XJ2">
-        <v>1.042874413999576</v>
+        <v>1.039972378312247</v>
       </c>
       <c r="XK2">
-        <v>1.041706857188258</v>
+        <v>1.040599949654488</v>
       </c>
       <c r="XL2">
-        <v>1.041767032210273</v>
+        <v>1.040599949654501</v>
       </c>
       <c r="XM2">
-        <v>1.041621811420263</v>
+        <v>1.040544035682282</v>
       </c>
       <c r="XN2">
-        <v>1.04303815686325</v>
+        <v>1.040201766406667</v>
       </c>
       <c r="XO2">
-        <v>1.042889710326946</v>
+        <v>1.03998709834749</v>
       </c>
       <c r="XP2">
-        <v>1.042872789338646</v>
+        <v>1.039970159788018</v>
       </c>
       <c r="XQ2">
-        <v>1.041690926643008</v>
+        <v>1.040599949654488</v>
       </c>
       <c r="XR2">
-        <v>1.041767032210274</v>
+        <v>1.040599949654502</v>
       </c>
       <c r="XS2">
-        <v>1.04160400171736</v>
+        <v>1.040537258750075</v>
       </c>
       <c r="XT2">
-        <v>1.043037460831315</v>
+        <v>1.040200813216729</v>
       </c>
       <c r="XU2">
-        <v>1.042889345824694</v>
+        <v>1.039985582247456</v>
       </c>
       <c r="XV2">
-        <v>1.0428710039633</v>
+        <v>1.039967721803655</v>
       </c>
       <c r="XW2">
-        <v>1.041767032210275</v>
+        <v>1.040599949654503</v>
       </c>
       <c r="XX2">
-        <v>1.041599078658766</v>
+        <v>1.040535385432152</v>
       </c>
       <c r="XY2">
-        <v>1.04303657583093</v>
+        <v>1.040199601241504</v>
       </c>
       <c r="XZ2">
-        <v>1.042888481480966</v>
+        <v>1.039981987121396</v>
       </c>
       <c r="YA2">
-        <v>1.042868943906027</v>
+        <v>1.039964908733178</v>
       </c>
       <c r="YB2">
-        <v>1.041767032210276</v>
+        <v>1.040599949654503</v>
       </c>
       <c r="YC2">
-        <v>1.04159764941593</v>
+        <v>1.040534841577919</v>
       </c>
       <c r="YD2">
-        <v>1.043036038200731</v>
+        <v>1.040198864976876</v>
       </c>
       <c r="YE2">
-        <v>1.042887824437344</v>
+        <v>1.039979254233381</v>
       </c>
       <c r="YF2">
-        <v>1.042866861328416</v>
+        <v>1.039962064910951</v>
       </c>
       <c r="YG2">
-        <v>1.041767032210277</v>
+        <v>1.040599949654503</v>
       </c>
       <c r="YH2">
-        <v>1.041597454381834</v>
+        <v>1.040534655657355</v>
       </c>
       <c r="YI2">
-        <v>1.041592099875714</v>
+        <v>1.040533323219019</v>
       </c>
       <c r="YJ2">
-        <v>1.043035552835326</v>
+        <v>1.040198200286946</v>
       </c>
       <c r="YK2">
-        <v>1.042887363202707</v>
+        <v>1.039977335787548</v>
       </c>
       <c r="YL2">
-        <v>1.042864552522117</v>
+        <v>1.039958912167195</v>
       </c>
       <c r="YM2">
-        <v>1.041767032210279</v>
+        <v>1.040599949654504</v>
       </c>
       <c r="YN2">
-        <v>1.041597271846498</v>
+        <v>1.04053448165151</v>
       </c>
       <c r="YO2">
-        <v>1.041584776893143</v>
+        <v>1.040531319644736</v>
       </c>
       <c r="YP2">
-        <v>1.043034734249416</v>
+        <v>1.040197079263887</v>
       </c>
       <c r="YQ2">
-        <v>1.042886880019079</v>
+        <v>1.039975326047744</v>
       </c>
       <c r="YR2">
-        <v>1.042861195034221</v>
+        <v>1.039954327418484</v>
       </c>
       <c r="YS2">
-        <v>1.04176703221028</v>
+        <v>1.040599949654504</v>
       </c>
       <c r="YT2">
-        <v>1.041597083811549</v>
+        <v>1.040534302403037</v>
       </c>
       <c r="YU2">
-        <v>1.041554353839278</v>
+        <v>1.040522995870587</v>
       </c>
       <c r="YV2">
-        <v>1.043033929468739</v>
+        <v>1.040195977146588</v>
       </c>
       <c r="YW2">
-        <v>1.042886483320544</v>
+        <v>1.039973676031511</v>
       </c>
       <c r="YX2">
-        <v>1.042858153807502</v>
+        <v>1.039937765558724</v>
       </c>
       <c r="YY2">
-        <v>1.04285336133241</v>
+        <v>1.039948392757177</v>
       </c>
       <c r="YZ2">
-        <v>1.04176703221028</v>
+        <v>1.040599949654504</v>
       </c>
       <c r="ZA2">
-        <v>1.04159572427663</v>
+        <v>1.040533006396315</v>
       </c>
       <c r="ZB2">
-        <v>1.041541433899767</v>
+        <v>1.040519460963523</v>
       </c>
       <c r="ZC2">
-        <v>1.043033548690393</v>
+        <v>1.040195455684761</v>
       </c>
       <c r="ZD2">
-        <v>1.042885826496973</v>
+        <v>1.039970944058864</v>
       </c>
       <c r="ZE2">
-        <v>1.042856327552965</v>
+        <v>1.039927820163737</v>
       </c>
       <c r="ZF2">
-        <v>1.042803756614656</v>
+        <v>1.039910813181282</v>
       </c>
       <c r="ZG2">
-        <v>1.04176703221028</v>
+        <v>1.040599949654504</v>
       </c>
       <c r="ZH2">
-        <v>1.041585823992663</v>
+        <v>1.040523568731718</v>
       </c>
       <c r="ZI2">
-        <v>1.043033130457037</v>
+        <v>1.040194882929685</v>
       </c>
       <c r="ZJ2">
-        <v>1.042883703837839</v>
+        <v>1.039962115133118</v>
       </c>
       <c r="ZK2">
-        <v>1.042854633438846</v>
+        <v>1.039918594370977</v>
       </c>
       <c r="ZL2">
-        <v>1.04276824974138</v>
+        <v>1.039883913861021</v>
       </c>
       <c r="ZM2">
-        <v>1.043032729042558</v>
+        <v>1.040194333207438</v>
       </c>
       <c r="ZN2">
-        <v>1.0428787439819</v>
+        <v>1.039941485256029</v>
       </c>
       <c r="ZO2">
-        <v>1.042852980437071</v>
+        <v>1.039909592461453</v>
       </c>
       <c r="ZP2">
-        <v>1.042744869313757</v>
+        <v>1.039842551099419</v>
       </c>
       <c r="ZQ2">
-        <v>1.042673858256379</v>
+        <v>1.039819686555249</v>
       </c>
       <c r="ZR2">
-        <v>1.043032244940031</v>
+        <v>1.040193670246977</v>
       </c>
       <c r="ZS2">
-        <v>1.04285174057571</v>
+        <v>1.039902840426213</v>
       </c>
       <c r="ZT2">
-        <v>1.042742683079624</v>
+        <v>1.039839414136421</v>
       </c>
       <c r="ZU2">
-        <v>1.042744869297399</v>
+        <v>1.039840511024512</v>
       </c>
       <c r="ZV2">
-        <v>1.04265571057406</v>
+        <v>1.039766424634352</v>
       </c>
       <c r="ZW2">
-        <v>1.042655211276322</v>
+        <v>1.039809250681939</v>
       </c>
       <c r="ZX2">
-        <v>1.043031472735186</v>
+        <v>1.040192612741074</v>
       </c>
       <c r="ZY2">
-        <v>1.042849770975671</v>
+        <v>1.039892114374235</v>
       </c>
       <c r="ZZ2">
-        <v>1.042741998993357</v>
+        <v>1.039838432561177</v>
       </c>
       <c r="AAA2">
-        <v>1.042744869264076</v>
+        <v>1.039836355071317</v>
       </c>
       <c r="AAB2">
-        <v>1.042645197141624</v>
+        <v>1.039735568599468</v>
       </c>
       <c r="AAC2">
-        <v>1.042620386905104</v>
+        <v>1.039789681302635</v>
       </c>
       <c r="AAD2">
-        <v>1.043029359296382</v>
+        <v>1.040189718465004</v>
       </c>
       <c r="AAE2">
-        <v>1.042846450157362</v>
+        <v>1.03987402983589</v>
       </c>
       <c r="AAF2">
-        <v>1.042741559145697</v>
+        <v>1.039837801436722</v>
       </c>
       <c r="AAG2">
-        <v>1.042528526106436</v>
+        <v>1.039738060590994</v>
       </c>
       <c r="AAH2">
-        <v>1.042620386905105</v>
+        <v>1.039789681302635</v>
       </c>
       <c r="AAI2">
-        <v>1.043026546697292</v>
+        <v>1.040185866714872</v>
       </c>
       <c r="AAJ2">
-        <v>1.042821567608371</v>
+        <v>1.039738523492454</v>
       </c>
       <c r="AAK2">
-        <v>1.042741293841943</v>
+        <v>1.039837420760178</v>
       </c>
       <c r="AAL2">
-        <v>1.042437683816738</v>
+        <v>1.039682615329158</v>
       </c>
       <c r="AAM2">
-        <v>1.04250549898259</v>
+        <v>1.039730673976778</v>
       </c>
       <c r="AAN2">
-        <v>1.042620386905105</v>
+        <v>1.039789681302634</v>
       </c>
       <c r="AAO2">
-        <v>1.043026278806378</v>
+        <v>1.040185499848203</v>
       </c>
       <c r="AAP2">
-        <v>1.042801154882676</v>
+        <v>1.039627358079038</v>
       </c>
       <c r="AAQ2">
-        <v>1.042741025696193</v>
+        <v>1.039837036005739</v>
       </c>
       <c r="AAR2">
-        <v>1.042343924793468</v>
+        <v>1.039625389837516</v>
       </c>
       <c r="AAS2">
-        <v>1.042503033875315</v>
+        <v>1.03972988322252</v>
       </c>
       <c r="AAT2">
-        <v>1.042620386905105</v>
+        <v>1.039789681302634</v>
       </c>
       <c r="AAU2">
-        <v>1.043026066943008</v>
+        <v>1.040185209709177</v>
       </c>
       <c r="AAV2">
-        <v>1.042794687459218</v>
+        <v>1.039592137027536</v>
       </c>
       <c r="AAW2">
-        <v>1.042740786185622</v>
+        <v>1.039836692339072</v>
       </c>
       <c r="AAX2">
-        <v>1.042310726806551</v>
+        <v>1.039608924835882</v>
       </c>
       <c r="AAY2">
-        <v>1.04230027437564</v>
+        <v>1.03957199661632</v>
       </c>
       <c r="AAZ2">
-        <v>1.04250209266322</v>
+        <v>1.039729581301594</v>
       </c>
       <c r="ABA2">
-        <v>1.042620386905105</v>
+        <v>1.039789681302633</v>
       </c>
       <c r="ABB2">
-        <v>1.043025861172897</v>
+        <v>1.040184927914645</v>
       </c>
       <c r="ABC2">
-        <v>1.042788799712153</v>
+        <v>1.039560072766434</v>
       </c>
       <c r="ABD2">
-        <v>1.04274051634042</v>
+        <v>1.039836305146139</v>
       </c>
       <c r="ABE2">
-        <v>1.042265615939621</v>
+        <v>1.039586551472921</v>
       </c>
       <c r="ABF2">
-        <v>1.042294418986523</v>
+        <v>1.039564834300541</v>
       </c>
       <c r="ABG2">
-        <v>1.04250109704711</v>
+        <v>1.039729261929012</v>
       </c>
       <c r="ABH2">
-        <v>1.042620386905105</v>
+        <v>1.039789681302633</v>
       </c>
       <c r="ABI2">
-        <v>1.043025640770929</v>
+        <v>1.040184626082327</v>
       </c>
       <c r="ABJ2">
-        <v>1.042785592936259</v>
+        <v>1.039542608856178</v>
       </c>
       <c r="ABK2">
-        <v>1.042740300139874</v>
+        <v>1.039835994926343</v>
       </c>
       <c r="ABL2">
-        <v>1.042212800246968</v>
+        <v>1.0395603567893</v>
       </c>
       <c r="ABM2">
-        <v>1.042291342700981</v>
+        <v>1.039561071386085</v>
       </c>
       <c r="ABN2">
-        <v>1.042500270772128</v>
+        <v>1.039728996877481</v>
       </c>
       <c r="ABO2">
-        <v>1.042620386905104</v>
+        <v>1.039789681302632</v>
       </c>
       <c r="ABP2">
-        <v>1.043025436992667</v>
+        <v>1.040184347015557</v>
       </c>
       <c r="ABQ2">
-        <v>1.042783031826238</v>
+        <v>1.039528661187682</v>
       </c>
       <c r="ABR2">
-        <v>1.042740040807164</v>
+        <v>1.039835622817475</v>
       </c>
       <c r="ABS2">
-        <v>1.042170391401076</v>
+        <v>1.039539323523408</v>
       </c>
       <c r="ABT2">
-        <v>1.042284359231139</v>
+        <v>1.039547067663563</v>
       </c>
       <c r="ABU2">
-        <v>1.042291000818723</v>
+        <v>1.03956083144378</v>
       </c>
       <c r="ABV2">
-        <v>1.04249929225941</v>
+        <v>1.039728682991305</v>
       </c>
       <c r="ABW2">
-        <v>1.042620386905103</v>
+        <v>1.039789681302631</v>
       </c>
       <c r="ABX2">
-        <v>1.043025244953194</v>
+        <v>1.040184084024624</v>
       </c>
       <c r="ABY2">
-        <v>1.042780847929751</v>
+        <v>1.03951676779269</v>
       </c>
       <c r="ABZ2">
-        <v>1.04273976134515</v>
+        <v>1.039835221825662</v>
       </c>
       <c r="ACA2">
-        <v>1.042157597440795</v>
+        <v>1.039533281146205</v>
       </c>
       <c r="ACB2">
-        <v>1.042142591096685</v>
+        <v>1.039522684736915</v>
       </c>
       <c r="ACC2">
-        <v>1.042278682535343</v>
+        <v>1.039535684372492</v>
       </c>
       <c r="ACD2">
-        <v>1.042290753588714</v>
+        <v>1.039560657931007</v>
       </c>
       <c r="ACE2">
-        <v>1.042498337971652</v>
+        <v>1.039728376875984</v>
       </c>
       <c r="ACF2">
-        <v>1.042620386905103</v>
+        <v>1.03978968130263</v>
       </c>
       <c r="ACG2">
-        <v>1.043024977863035</v>
+        <v>1.04018371825456</v>
       </c>
       <c r="ACH2">
-        <v>1.042778285114524</v>
+        <v>1.039502810811264</v>
       </c>
       <c r="ACI2">
-        <v>1.042739251481282</v>
+        <v>1.039834490237014</v>
       </c>
       <c r="ACJ2">
-        <v>1.042139958291846</v>
+        <v>1.03952495046566</v>
       </c>
       <c r="ACK2">
-        <v>1.042119353691885</v>
+        <v>1.039508776894979</v>
       </c>
       <c r="ACL2">
-        <v>1.042290544948629</v>
+        <v>1.039560511501697</v>
       </c>
       <c r="ACM2">
-        <v>1.042497026030322</v>
+        <v>1.039727956032965</v>
       </c>
       <c r="ACN2">
-        <v>1.042620386905102</v>
+        <v>1.039789681302628</v>
       </c>
       <c r="ACO2">
-        <v>1.043024650554981</v>
+        <v>1.040183270018323</v>
       </c>
       <c r="ACP2">
-        <v>1.042775943370647</v>
+        <v>1.039490057762405</v>
       </c>
       <c r="ACQ2">
-        <v>1.042735436903786</v>
+        <v>1.039829016812141</v>
       </c>
       <c r="ACR2">
-        <v>1.042096565456475</v>
+        <v>1.039504456739961</v>
       </c>
       <c r="ACS2">
-        <v>1.042115906209527</v>
+        <v>1.039508776894979</v>
       </c>
       <c r="ACT2">
-        <v>1.042118866539039</v>
+        <v>1.039508410615295</v>
       </c>
       <c r="ACU2">
-        <v>1.042290192531391</v>
+        <v>1.039560264165654</v>
       </c>
       <c r="ACV2">
-        <v>1.042495221242629</v>
+        <v>1.039727377095261</v>
       </c>
       <c r="ACW2">
-        <v>1.042620386905102</v>
+        <v>1.039789681302628</v>
       </c>
       <c r="ACX2">
-        <v>1.043023099199721</v>
+        <v>1.040181145494859</v>
       </c>
       <c r="ACY2">
-        <v>1.042772310438854</v>
+        <v>1.039470272929219</v>
       </c>
       <c r="ACZ2">
-        <v>1.042723747153501</v>
+        <v>1.03981224353416</v>
       </c>
       <c r="ADA2">
-        <v>1.042061394955827</v>
+        <v>1.039487846286513</v>
       </c>
       <c r="ADB2">
-        <v>1.042112528046536</v>
+        <v>1.039508776894979</v>
       </c>
       <c r="ADC2">
-        <v>1.042118400758425</v>
+        <v>1.039508060404929</v>
       </c>
       <c r="ADD2">
-        <v>1.042289699012766</v>
+        <v>1.039559917800806</v>
       </c>
       <c r="ADE2">
-        <v>1.042493311266219</v>
+        <v>1.039726764415244</v>
       </c>
       <c r="ADF2">
-        <v>1.042620386905101</v>
+        <v>1.039789681302627</v>
       </c>
       <c r="ADG2">
-        <v>1.043009834671519</v>
+        <v>1.040162980215978</v>
       </c>
       <c r="ADH2">
-        <v>1.042764975928284</v>
+        <v>1.039430329325999</v>
       </c>
       <c r="ADI2">
-        <v>1.042033913766574</v>
+        <v>1.03947486736821</v>
       </c>
       <c r="ADJ2">
-        <v>1.042117898622591</v>
+        <v>1.03950768285986</v>
       </c>
       <c r="ADK2">
-        <v>1.0422893328104</v>
+        <v>1.039559660789983</v>
       </c>
       <c r="ADL2">
-        <v>1.042492042521172</v>
+        <v>1.039726357428681</v>
       </c>
       <c r="ADM2">
-        <v>1.042620386905101</v>
+        <v>1.039789681302627</v>
       </c>
       <c r="ADN2">
-        <v>1.042763433506901</v>
+        <v>1.039429673391707</v>
       </c>
       <c r="ADO2">
-        <v>1.042761109891766</v>
+        <v>1.039363107791362</v>
       </c>
       <c r="ADP2">
-        <v>1.04200907609251</v>
+        <v>1.039463136938241</v>
       </c>
       <c r="ADQ2">
-        <v>1.042117450253653</v>
+        <v>1.039507345740957</v>
       </c>
       <c r="ADR2">
-        <v>1.042288726180935</v>
+        <v>1.039559235040856</v>
       </c>
       <c r="ADS2">
-        <v>1.042490751244024</v>
+        <v>1.039725943214296</v>
       </c>
       <c r="ADT2">
-        <v>1.042620386905101</v>
+        <v>1.039789681302627</v>
       </c>
       <c r="ADU2">
-        <v>1.042762088371645</v>
+        <v>1.039429101355119</v>
       </c>
       <c r="ADV2">
-        <v>1.04275492367101</v>
+        <v>1.039255543611005</v>
       </c>
       <c r="ADW2">
-        <v>1.042005333382901</v>
+        <v>1.039461943391452</v>
       </c>
       <c r="ADX2">
-        <v>1.042007461665377</v>
+        <v>1.039460159928865</v>
       </c>
       <c r="ADY2">
-        <v>1.042116955104881</v>
+        <v>1.039506973449309</v>
       </c>
       <c r="ADZ2">
-        <v>1.042284515554343</v>
+        <v>1.039556279908097</v>
       </c>
       <c r="AEA2">
-        <v>1.042490133828957</v>
+        <v>1.039725745160608</v>
       </c>
       <c r="AEB2">
-        <v>1.042620386905101</v>
+        <v>1.039789681302627</v>
       </c>
       <c r="AEC2">
-        <v>1.042760975884754</v>
+        <v>1.039428628254818</v>
       </c>
       <c r="AED2">
-        <v>1.042749638150794</v>
+        <v>1.039163640597137</v>
       </c>
       <c r="AEE2">
-        <v>1.042001580840716</v>
+        <v>1.039460746709066</v>
       </c>
       <c r="AEF2">
-        <v>1.042004882836195</v>
+        <v>1.039455403408956</v>
       </c>
       <c r="AEG2">
-        <v>1.042007461665377</v>
+        <v>1.039460159928865</v>
       </c>
       <c r="AEH2">
-        <v>1.042116635866195</v>
+        <v>1.039506733420649</v>
       </c>
       <c r="AEI2">
-        <v>1.042275214799629</v>
+        <v>1.03954975238431</v>
       </c>
       <c r="AEJ2">
-        <v>1.042489151755462</v>
+        <v>1.039725430132213</v>
       </c>
       <c r="AEK2">
-        <v>1.042620386905101</v>
+        <v>1.039789681302628</v>
       </c>
       <c r="AEL2">
-        <v>1.042760110761661</v>
+        <v>1.039428260349041</v>
       </c>
       <c r="AEM2">
-        <v>1.042746646753568</v>
+        <v>1.039111627115271</v>
       </c>
       <c r="AEN2">
-        <v>1.041997821015184</v>
+        <v>1.03945954770403</v>
       </c>
       <c r="AEO2">
-        <v>1.042002720574922</v>
+        <v>1.039451415227679</v>
       </c>
       <c r="AEP2">
-        <v>1.042004882836195</v>
+        <v>1.039455403408956</v>
       </c>
       <c r="AEQ2">
-        <v>1.042116145537385</v>
+        <v>1.039506364753025</v>
       </c>
       <c r="AER2">
-        <v>1.042488229806565</v>
+        <v>1.039725134390517</v>
       </c>
       <c r="AES2">
-        <v>1.0426203869051</v>
+        <v>1.039789681302628</v>
       </c>
       <c r="AET2">
-        <v>1.042759230878605</v>
+        <v>1.039427886166095</v>
       </c>
       <c r="AEU2">
-        <v>1.04199408395018</v>
+        <v>1.039458355957308</v>
       </c>
       <c r="AEV2">
-        <v>1.042000396198729</v>
+        <v>1.039447128033864</v>
       </c>
       <c r="AEW2">
-        <v>1.042002720574922</v>
+        <v>1.039451415227679</v>
       </c>
       <c r="AEX2">
-        <v>1.042112112458945</v>
+        <v>1.039503332368592</v>
       </c>
       <c r="AEY2">
-        <v>1.042486912494889</v>
+        <v>1.039724711824808</v>
       </c>
       <c r="AEZ2">
-        <v>1.0426203869051</v>
+        <v>1.039789681302628</v>
       </c>
       <c r="AFA2">
-        <v>1.042758467297106</v>
+        <v>1.039427561441827</v>
       </c>
       <c r="AFB2">
-        <v>1.041990332682529</v>
+        <v>1.039457159681377</v>
       </c>
       <c r="AFC2">
-        <v>1.041998487803398</v>
+        <v>1.039443608095781</v>
       </c>
       <c r="AFD2">
-        <v>1.042000396198729</v>
+        <v>1.039447128033864</v>
       </c>
       <c r="AFE2">
-        <v>1.042098212648729</v>
+        <v>1.039492881401852</v>
       </c>
       <c r="AFF2">
-        <v>1.042473007375426</v>
+        <v>1.039720251356771</v>
       </c>
       <c r="AFG2">
-        <v>1.042757918881551</v>
+        <v>1.039427328219907</v>
       </c>
       <c r="AFH2">
-        <v>1.041986583964126</v>
+        <v>1.039455964218401</v>
       </c>
       <c r="AFI2">
-        <v>1.041996438930812</v>
+        <v>1.039439829054713</v>
       </c>
       <c r="AFJ2">
-        <v>1.041998487803398</v>
+        <v>1.039443608095781</v>
       </c>
       <c r="AFK2">
-        <v>1.042467445678069</v>
+        <v>1.039718467281982</v>
       </c>
       <c r="AFL2">
-        <v>1.042757282170418</v>
+        <v>1.039427057448831</v>
       </c>
       <c r="AFM2">
-        <v>1.041982832878806</v>
+        <v>1.03945476800062</v>
       </c>
       <c r="AFN2">
-        <v>1.041985632362795</v>
+        <v>1.039419890522155</v>
       </c>
       <c r="AFO2">
-        <v>1.041996438930812</v>
+        <v>1.039439829054714</v>
       </c>
       <c r="AFP2">
-        <v>1.041996438930812</v>
+        <v>1.039439829054713</v>
       </c>
       <c r="AFQ2">
-        <v>1.042464621457969</v>
+        <v>1.039717561331957</v>
       </c>
       <c r="AFR2">
-        <v>1.042756322957207</v>
+        <v>1.039426649528562</v>
       </c>
       <c r="AFS2">
-        <v>1.041981001855338</v>
+        <v>1.039454184088861</v>
       </c>
       <c r="AFT2">
-        <v>1.041984051330323</v>
+        <v>1.039416973456668</v>
       </c>
       <c r="AFU2">
-        <v>1.041996438930813</v>
+        <v>1.039439829054715</v>
       </c>
       <c r="AFV2">
-        <v>1.041996438930812</v>
+        <v>1.039439829054714</v>
       </c>
       <c r="AFW2">
-        <v>1.042463996512764</v>
+        <v>1.039717360862764</v>
       </c>
       <c r="AFX2">
-        <v>1.042754755798041</v>
+        <v>1.039425983069121</v>
       </c>
       <c r="AFY2">
-        <v>1.04193984934683</v>
+        <v>1.039441060590578</v>
       </c>
       <c r="AFZ2">
-        <v>1.041979597205177</v>
+        <v>1.039408755425218</v>
       </c>
       <c r="AGA2">
-        <v>1.041996438930814</v>
+        <v>1.039439829054717</v>
       </c>
       <c r="AGB2">
-        <v>1.041996438930813</v>
+        <v>1.039439829054715</v>
       </c>
       <c r="AGC2">
-        <v>1.042463504337773</v>
+        <v>1.039717202983445</v>
       </c>
       <c r="AGD2">
-        <v>1.042747469919419</v>
+        <v>1.039423342135043</v>
       </c>
       <c r="AGE2">
-        <v>1.042740670944129</v>
+        <v>1.039418774933216</v>
       </c>
       <c r="AGF2">
-        <v>1.041913088656044</v>
+        <v>1.039432526630298</v>
       </c>
       <c r="AGG2">
-        <v>1.041974366944945</v>
+        <v>1.039399105395011</v>
       </c>
       <c r="AGH2">
-        <v>1.041996438930814</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGI2">
-        <v>1.041996438930814</v>
+        <v>1.039439829054717</v>
       </c>
       <c r="AGJ2">
-        <v>1.042462977004497</v>
+        <v>1.039717033826093</v>
       </c>
       <c r="AGK2">
-        <v>1.041889683749773</v>
+        <v>1.039425062826793</v>
       </c>
       <c r="AGL2">
-        <v>1.041973688467254</v>
+        <v>1.039397853577731</v>
       </c>
       <c r="AGM2">
-        <v>1.041996438930815</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGN2">
-        <v>1.041996438930814</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGO2">
-        <v>1.042462555099355</v>
+        <v>1.039716898487854</v>
       </c>
       <c r="AGP2">
-        <v>1.041865133544012</v>
+        <v>1.039417233788418</v>
       </c>
       <c r="AGQ2">
-        <v>1.041973688285734</v>
+        <v>1.039397076559884</v>
       </c>
       <c r="AGR2">
-        <v>1.041971791474919</v>
+        <v>1.039396081587944</v>
       </c>
       <c r="AGS2">
-        <v>1.041996438930815</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGT2">
-        <v>1.041996438930815</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGU2">
-        <v>1.042462145446766</v>
+        <v>1.039716767079974</v>
       </c>
       <c r="AGV2">
-        <v>1.041823214473989</v>
+        <v>1.03940386583521</v>
       </c>
       <c r="AGW2">
-        <v>1.041973688117768</v>
+        <v>1.039396357564506</v>
       </c>
       <c r="AGX2">
-        <v>1.041967352002059</v>
+        <v>1.039391934654702</v>
       </c>
       <c r="AGY2">
-        <v>1.041996438930815</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AGZ2">
-        <v>1.041996438930815</v>
+        <v>1.039439829054718</v>
       </c>
       <c r="AHA2">
-        <v>1.042461736833217</v>
+        <v>1.039716636005397</v>
       </c>
       <c r="AHB2">
-        <v>1.041812932630473</v>
+        <v>1.039400586964736</v>
       </c>
       <c r="AHC2">
-        <v>1.041973687862361</v>
+        <v>1.039395264268982</v>
       </c>
       <c r="AHD2">
-        <v>1.041956820245228</v>
+        <v>1.039382096889285</v>
       </c>
       <c r="AHE2">
-        <v>1.042461333000469</v>
+        <v>1.039716506464399</v>
       </c>
       <c r="AHF2">
-        <v>1.041812330540235</v>
+        <v>1.039398136654184</v>
       </c>
       <c r="AHG2">
-        <v>1.041771799569082</v>
+        <v>1.03939612314665</v>
       </c>
       <c r="AHH2">
-        <v>1.041973687539597</v>
+        <v>1.039393882642356</v>
       </c>
       <c r="AHI2">
-        <v>1.042454111631881</v>
+        <v>1.039714190002216</v>
       </c>
       <c r="AHJ2">
-        <v>1.041811341957437</v>
+        <v>1.039394113445255</v>
       </c>
       <c r="AHK2">
-        <v>1.041736913205556</v>
+        <v>1.039392337228561</v>
       </c>
       <c r="AHL2">
-        <v>1.041973686283082</v>
+        <v>1.039388503996731</v>
       </c>
       <c r="AHM2">
-        <v>1.042436476931576</v>
+        <v>1.039714190002215</v>
       </c>
       <c r="AHN2">
-        <v>1.0424449551158</v>
+        <v>1.039708088106462</v>
       </c>
       <c r="AHO2">
-        <v>1.041811146492923</v>
+        <v>1.03939331796857</v>
       </c>
       <c r="AHP2">
-        <v>1.041678276404886</v>
+        <v>1.039385973878009</v>
       </c>
       <c r="AHQ2">
-        <v>1.041973684000541</v>
+        <v>1.039378733333955</v>
       </c>
       <c r="AHR2">
-        <v>1.042424765475337</v>
+        <v>1.039714190002215</v>
       </c>
       <c r="AHS2">
-        <v>1.041810981329619</v>
+        <v>1.039392645807907</v>
       </c>
       <c r="AHT2">
-        <v>1.041810842147052</v>
+        <v>1.039392079380355</v>
       </c>
       <c r="AHU2">
-        <v>1.041810661093741</v>
+        <v>1.039391342552564</v>
       </c>
       <c r="AHV2">
-        <v>1.041810333415448</v>
+        <v>1.039390009009034</v>
       </c>
       <c r="AHW2">
-        <v>1.041809765279967</v>
+        <v>1.039387696883385</v>
       </c>
       <c r="AHX2">
-        <v>1.041805111652816</v>
+        <v>1.039368758143458</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.051349702568165</v>
+        <v>1.051637286009183</v>
       </c>
       <c r="D3">
-        <v>1.052616330016348</v>
+        <v>1.052929140825157</v>
       </c>
       <c r="E3">
-        <v>1.052749121415447</v>
+        <v>1.053064576683311</v>
       </c>
       <c r="F3">
-        <v>1.052873526655324</v>
+        <v>1.053191459318247</v>
       </c>
       <c r="G3">
-        <v>1.052981990594457</v>
+        <v>1.053302083152377</v>
       </c>
       <c r="H3">
-        <v>1.053152864704797</v>
+        <v>1.053476359874054</v>
       </c>
       <c r="I3">
-        <v>1.064790919275937</v>
+        <v>1.065345912796795</v>
       </c>
       <c r="J3">
-        <v>1.065312274998584</v>
+        <v>1.06587762765554</v>
       </c>
       <c r="K3">
-        <v>1.065746215937227</v>
+        <v>1.066320190093938</v>
       </c>
       <c r="L3">
-        <v>1.066127038797471</v>
+        <v>1.066708578556572</v>
       </c>
       <c r="M3">
-        <v>1.066411207733586</v>
+        <v>1.066998392587727</v>
       </c>
       <c r="N3">
-        <v>1.066677974840178</v>
+        <v>1.067270458836074</v>
       </c>
       <c r="O3">
-        <v>1.066842013404849</v>
+        <v>1.067437755786485</v>
       </c>
       <c r="P3">
-        <v>1.067250399734236</v>
+        <v>1.067854253697176</v>
       </c>
       <c r="Q3">
-        <v>1.070558870021904</v>
+        <v>1.071228416790402</v>
       </c>
       <c r="R3">
-        <v>1.070558870021903</v>
+        <v>1.071228416790403</v>
       </c>
       <c r="S3">
-        <v>1.07457142888918</v>
+        <v>1.075320597179102</v>
       </c>
       <c r="T3">
-        <v>1.070558870021902</v>
+        <v>1.071228416790403</v>
       </c>
       <c r="U3">
-        <v>1.07484753634566</v>
+        <v>1.07560218138932</v>
       </c>
       <c r="V3">
-        <v>1.070558870021901</v>
+        <v>1.071228416790404</v>
       </c>
       <c r="W3">
-        <v>1.075157575685173</v>
+        <v>1.075918370225196</v>
       </c>
       <c r="X3">
-        <v>1.070558870021901</v>
+        <v>1.071228416790405</v>
       </c>
       <c r="Y3">
-        <v>1.07566238900621</v>
+        <v>1.076433195585224</v>
       </c>
       <c r="Z3">
-        <v>1.0705588700219</v>
+        <v>1.071228416790405</v>
       </c>
       <c r="AA3">
-        <v>1.076580787403227</v>
+        <v>1.077369806447409</v>
       </c>
       <c r="AB3">
-        <v>1.0705588700219</v>
+        <v>1.071228416790406</v>
       </c>
       <c r="AC3">
-        <v>1.077292256408529</v>
+        <v>1.078070205237033</v>
       </c>
       <c r="AD3">
-        <v>1.087626182390289</v>
+        <v>1.088650045248428</v>
       </c>
       <c r="AE3">
-        <v>1.070558870021899</v>
+        <v>1.071228416790406</v>
       </c>
       <c r="AF3">
-        <v>1.077389473314956</v>
+        <v>1.078168927814804</v>
       </c>
       <c r="AG3">
-        <v>1.077388475651238</v>
+        <v>1.078161986434506</v>
       </c>
       <c r="AH3">
-        <v>1.09056728250507</v>
+        <v>1.091653608692635</v>
       </c>
       <c r="AI3">
-        <v>1.070558870021898</v>
+        <v>1.071228416790407</v>
       </c>
       <c r="AJ3">
-        <v>1.077612107200875</v>
+        <v>1.078395009688597</v>
       </c>
       <c r="AK3">
-        <v>1.077391734125169</v>
+        <v>1.078165094613482</v>
       </c>
       <c r="AL3">
-        <v>1.091242655383836</v>
+        <v>1.092317990802313</v>
       </c>
       <c r="AM3">
-        <v>1.099094893807565</v>
+        <v>1.100375930174979</v>
       </c>
       <c r="AN3">
-        <v>1.070558870021896</v>
+        <v>1.071228416790408</v>
       </c>
       <c r="AO3">
-        <v>1.077396419221476</v>
+        <v>1.078169563612806</v>
       </c>
       <c r="AP3">
-        <v>1.091266579538858</v>
+        <v>1.09234117894853</v>
       </c>
       <c r="AQ3">
-        <v>1.091347662811532</v>
+        <v>1.092422854716568</v>
       </c>
       <c r="AR3">
-        <v>1.105013785250229</v>
+        <v>1.106429821009286</v>
       </c>
       <c r="AS3">
-        <v>1.099094893807563</v>
+        <v>1.100375930174979</v>
       </c>
       <c r="AT3">
-        <v>1.070558870021896</v>
+        <v>1.071228416790409</v>
       </c>
       <c r="AU3">
-        <v>1.077402427537895</v>
+        <v>1.078175294799559</v>
       </c>
       <c r="AV3">
-        <v>1.091277362872433</v>
+        <v>1.092351630540851</v>
       </c>
       <c r="AW3">
-        <v>1.091600330811317</v>
+        <v>1.092675177394923</v>
       </c>
       <c r="AX3">
-        <v>1.109487129171744</v>
+        <v>1.111005115675065</v>
       </c>
       <c r="AY3">
-        <v>1.099094893807562</v>
+        <v>1.100375930174979</v>
       </c>
       <c r="AZ3">
-        <v>1.070558870021895</v>
+        <v>1.071228416790409</v>
       </c>
       <c r="BA3">
-        <v>1.077417060495478</v>
+        <v>1.078189252821425</v>
       </c>
       <c r="BB3">
-        <v>1.091288790898282</v>
+        <v>1.092362706991945</v>
       </c>
       <c r="BC3">
-        <v>1.110132143914029</v>
+        <v>1.111664825258484</v>
       </c>
       <c r="BD3">
-        <v>1.109487129171749</v>
+        <v>1.111005115675068</v>
       </c>
       <c r="BE3">
-        <v>1.09909489380756</v>
+        <v>1.10037593017498</v>
       </c>
       <c r="BF3">
-        <v>1.070558870021895</v>
+        <v>1.071228416790409</v>
       </c>
       <c r="BG3">
-        <v>1.077429588979837</v>
+        <v>1.078201203437404</v>
       </c>
       <c r="BH3">
-        <v>1.091299675302687</v>
+        <v>1.092373256545687</v>
       </c>
       <c r="BI3">
-        <v>1.113054042811949</v>
+        <v>1.114653274088411</v>
       </c>
       <c r="BJ3">
-        <v>1.109487129171749</v>
+        <v>1.111005115675068</v>
       </c>
       <c r="BK3">
-        <v>1.099094893807559</v>
+        <v>1.10037593017498</v>
       </c>
       <c r="BL3">
-        <v>1.070558870021894</v>
+        <v>1.07122841679041</v>
       </c>
       <c r="BM3">
-        <v>1.077489646054786</v>
+        <v>1.078258490416243</v>
       </c>
       <c r="BN3">
-        <v>1.09130619398466</v>
+        <v>1.092379574685214</v>
       </c>
       <c r="BO3">
-        <v>1.11362283738167</v>
+        <v>1.115236009991693</v>
       </c>
       <c r="BP3">
-        <v>1.114016732404644</v>
+        <v>1.115599801738335</v>
       </c>
       <c r="BQ3">
-        <v>1.10948712917175</v>
+        <v>1.111005115675068</v>
       </c>
       <c r="BR3">
-        <v>1.099094893807558</v>
+        <v>1.10037593017498</v>
       </c>
       <c r="BS3">
-        <v>1.070558870021895</v>
+        <v>1.071228416790411</v>
       </c>
       <c r="BT3">
-        <v>1.077701927399924</v>
+        <v>1.078460980390871</v>
       </c>
       <c r="BU3">
-        <v>1.091318983160771</v>
+        <v>1.092391970411728</v>
       </c>
       <c r="BV3">
-        <v>1.120343651077923</v>
+        <v>1.122121470575659</v>
       </c>
       <c r="BW3">
-        <v>1.114253802876296</v>
+        <v>1.115829282170135</v>
       </c>
       <c r="BX3">
-        <v>1.114250219598792</v>
+        <v>1.115832978894987</v>
       </c>
       <c r="BY3">
-        <v>1.10948712917175</v>
+        <v>1.111005115675068</v>
       </c>
       <c r="BZ3">
-        <v>1.099094893807555</v>
+        <v>1.100375930174982</v>
       </c>
       <c r="CA3">
-        <v>1.070558870021896</v>
+        <v>1.071228416790416</v>
       </c>
       <c r="CB3">
-        <v>1.09138379920887</v>
+        <v>1.092454792441359</v>
       </c>
       <c r="CC3">
-        <v>1.122686660977663</v>
+        <v>1.124521844226637</v>
       </c>
       <c r="CD3">
-        <v>1.109487129171751</v>
+        <v>1.111005115675069</v>
       </c>
       <c r="CE3">
-        <v>1.099094893807545</v>
+        <v>1.100375930174984</v>
       </c>
       <c r="CF3">
-        <v>1.070558870021898</v>
+        <v>1.071228416790423</v>
       </c>
       <c r="CG3">
-        <v>1.091628040726311</v>
+        <v>1.092691520040275</v>
       </c>
       <c r="CH3">
-        <v>1.123198003424682</v>
+        <v>1.125045703417642</v>
       </c>
       <c r="CI3">
-        <v>1.109487129171751</v>
+        <v>1.111005115675069</v>
       </c>
       <c r="CJ3">
-        <v>1.099094893807528</v>
+        <v>1.100375930174988</v>
       </c>
       <c r="CK3">
-        <v>1.070558870021899</v>
+        <v>1.071228416790426</v>
       </c>
       <c r="CL3">
-        <v>1.124234948228822</v>
+        <v>1.126108028114585</v>
       </c>
       <c r="CM3">
-        <v>1.109487129171751</v>
+        <v>1.111005115675069</v>
       </c>
       <c r="CN3">
-        <v>1.099094893807523</v>
+        <v>1.10037593017499</v>
       </c>
       <c r="CO3">
-        <v>1.070558870021899</v>
+        <v>1.071228416790428</v>
       </c>
       <c r="CP3">
-        <v>1.12521286351226</v>
+        <v>1.127109875256596</v>
       </c>
       <c r="CQ3">
-        <v>1.099094893807523</v>
+        <v>1.10037593017499</v>
       </c>
       <c r="CR3">
-        <v>1.070558870021899</v>
+        <v>1.071228416790428</v>
       </c>
       <c r="CS3">
-        <v>1.125781276977954</v>
+        <v>1.127692197673814</v>
       </c>
       <c r="CT3">
-        <v>1.099094893807522</v>
+        <v>1.10037593017499</v>
       </c>
       <c r="CU3">
-        <v>1.070558870021899</v>
+        <v>1.071228416790429</v>
       </c>
       <c r="CV3">
-        <v>1.126156676660063</v>
+        <v>1.128076782720769</v>
       </c>
       <c r="CW3">
-        <v>1.099094893807522</v>
+        <v>1.10037593017499</v>
       </c>
       <c r="CX3">
-        <v>1.0705588700219</v>
+        <v>1.071228416790429</v>
       </c>
       <c r="CY3">
-        <v>1.126675005482837</v>
+        <v>1.128607793370796</v>
       </c>
       <c r="CZ3">
-        <v>1.099094893807536</v>
+        <v>1.100375930174995</v>
       </c>
       <c r="DA3">
-        <v>1.0705588700219</v>
+        <v>1.071228416790429</v>
       </c>
       <c r="DB3">
-        <v>1.126682528144691</v>
+        <v>1.128615501540495</v>
       </c>
       <c r="DC3">
-        <v>1.126973279914872</v>
+        <v>1.128913377511615</v>
       </c>
       <c r="DD3">
-        <v>1.099094893807537</v>
+        <v>1.100375930174995</v>
       </c>
       <c r="DE3">
-        <v>1.126691629566694</v>
+        <v>1.12862482740314</v>
       </c>
       <c r="DF3">
-        <v>1.127142417458709</v>
+        <v>1.129086659898979</v>
       </c>
       <c r="DG3">
-        <v>1.099094893807538</v>
+        <v>1.100375930174996</v>
       </c>
       <c r="DH3">
-        <v>1.126702178817157</v>
+        <v>1.128635636798697</v>
       </c>
       <c r="DI3">
-        <v>1.133816793626159</v>
+        <v>1.135924509366106</v>
       </c>
       <c r="DJ3">
-        <v>1.099094893807577</v>
+        <v>1.100375930174996</v>
       </c>
       <c r="DK3">
-        <v>1.126718263404665</v>
+        <v>1.128652118035226</v>
       </c>
       <c r="DL3">
-        <v>1.134485491259185</v>
+        <v>1.136609575855731</v>
       </c>
       <c r="DM3">
-        <v>1.099094893807611</v>
+        <v>1.100375930174996</v>
       </c>
       <c r="DN3">
-        <v>1.126738942515644</v>
+        <v>1.128673307100982</v>
       </c>
       <c r="DO3">
-        <v>1.134509270405542</v>
+        <v>1.136633414125365</v>
       </c>
       <c r="DP3">
-        <v>1.136233020891477</v>
+        <v>1.138408346584208</v>
       </c>
       <c r="DQ3">
-        <v>1.099094893807614</v>
+        <v>1.100375930174997</v>
       </c>
       <c r="DR3">
-        <v>1.126753788276334</v>
+        <v>1.128688518966523</v>
       </c>
       <c r="DS3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125364</v>
       </c>
       <c r="DT3">
-        <v>1.134520848432788</v>
+        <v>1.136645020939055</v>
       </c>
       <c r="DU3">
-        <v>1.139385035262647</v>
+        <v>1.141652734202744</v>
       </c>
       <c r="DV3">
-        <v>1.099094893807617</v>
+        <v>1.100375930174997</v>
       </c>
       <c r="DW3">
-        <v>1.126774765419123</v>
+        <v>1.128710013421391</v>
       </c>
       <c r="DX3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125363</v>
       </c>
       <c r="DY3">
-        <v>1.134575239042242</v>
+        <v>1.136699546774754</v>
       </c>
       <c r="DZ3">
-        <v>1.140802733402349</v>
+        <v>1.143111958588781</v>
       </c>
       <c r="EA3">
-        <v>1.099094893807619</v>
+        <v>1.100375930174997</v>
       </c>
       <c r="EB3">
-        <v>1.126797461433501</v>
+        <v>1.128733269141626</v>
       </c>
       <c r="EC3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125363</v>
       </c>
       <c r="ED3">
-        <v>1.134792216238556</v>
+        <v>1.136916073660901</v>
       </c>
       <c r="EE3">
-        <v>1.134698247069499</v>
+        <v>1.136822850964323</v>
       </c>
       <c r="EF3">
-        <v>1.141224566003808</v>
+        <v>1.143546144721448</v>
       </c>
       <c r="EG3">
-        <v>1.099094893807625</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="EH3">
-        <v>1.126818865843573</v>
+        <v>1.1287552014102</v>
       </c>
       <c r="EI3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125363</v>
       </c>
       <c r="EJ3">
-        <v>1.134810902229805</v>
+        <v>1.136934720869347</v>
       </c>
       <c r="EK3">
-        <v>1.134789763497759</v>
+        <v>1.136914587735344</v>
       </c>
       <c r="EL3">
-        <v>1.141700747181505</v>
+        <v>1.1440362696732</v>
       </c>
       <c r="EM3">
-        <v>1.09909489380763</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="EN3">
-        <v>1.126854058620042</v>
+        <v>1.12879126209315</v>
       </c>
       <c r="EO3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="EP3">
-        <v>1.134829236739006</v>
+        <v>1.136953017324896</v>
       </c>
       <c r="EQ3">
-        <v>1.134851052165296</v>
+        <v>1.136976023967526</v>
       </c>
       <c r="ER3">
-        <v>1.14214860199355</v>
+        <v>1.144497237461906</v>
       </c>
       <c r="ES3">
-        <v>1.099094893807631</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="ET3">
-        <v>1.127021401271298</v>
+        <v>1.128962731839074</v>
       </c>
       <c r="EU3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="EV3">
-        <v>1.134844041080116</v>
+        <v>1.136967790939039</v>
       </c>
       <c r="EW3">
-        <v>1.134881371256127</v>
+        <v>1.137006345476836</v>
       </c>
       <c r="EX3">
-        <v>1.135424568015188</v>
+        <v>1.137552200488187</v>
       </c>
       <c r="EY3">
-        <v>1.142671181539019</v>
+        <v>1.145035116259798</v>
       </c>
       <c r="EZ3">
-        <v>1.099094893807631</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="FA3">
-        <v>1.127057857900129</v>
+        <v>1.129000087619214</v>
       </c>
       <c r="FB3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="FC3">
-        <v>1.134866261222398</v>
+        <v>1.136989964962156</v>
       </c>
       <c r="FD3">
-        <v>1.134961781545035</v>
+        <v>1.137086762175719</v>
       </c>
       <c r="FE3">
-        <v>1.135459475931074</v>
+        <v>1.137587270349891</v>
       </c>
       <c r="FF3">
-        <v>1.142821554776232</v>
+        <v>1.145189891560574</v>
       </c>
       <c r="FG3">
-        <v>1.099094893807631</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="FH3">
-        <v>1.127739141976573</v>
+        <v>1.12966984443048</v>
       </c>
       <c r="FI3">
-        <v>1.12717200953348</v>
+        <v>1.129118041393384</v>
       </c>
       <c r="FJ3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="FK3">
-        <v>1.134893050090671</v>
+        <v>1.137016698227938</v>
       </c>
       <c r="FL3">
-        <v>1.134989713199259</v>
+        <v>1.137114696055127</v>
       </c>
       <c r="FM3">
-        <v>1.135491366166688</v>
+        <v>1.137619308531617</v>
       </c>
       <c r="FN3">
-        <v>1.143675880460376</v>
+        <v>1.14606922423523</v>
       </c>
       <c r="FO3">
-        <v>1.099094893807631</v>
+        <v>1.100375930174998</v>
       </c>
       <c r="FP3">
-        <v>1.127867848325101</v>
+        <v>1.129796373074216</v>
       </c>
       <c r="FQ3">
-        <v>1.127323568221925</v>
+        <v>1.1292746484631</v>
       </c>
       <c r="FR3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125361</v>
       </c>
       <c r="FS3">
-        <v>1.134913288528232</v>
+        <v>1.137036894658473</v>
       </c>
       <c r="FT3">
-        <v>1.134989713199264</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="FU3">
-        <v>1.135450999975361</v>
+        <v>1.13757601665901</v>
       </c>
       <c r="FV3">
-        <v>1.135504613810084</v>
+        <v>1.137632617633868</v>
       </c>
       <c r="FW3">
-        <v>1.144158432164056</v>
+        <v>1.146565898656722</v>
       </c>
       <c r="FX3">
-        <v>1.128133395729205</v>
+        <v>1.130057427424922</v>
       </c>
       <c r="FY3">
-        <v>1.12733905298695</v>
+        <v>1.12929044276142</v>
       </c>
       <c r="FZ3">
-        <v>1.127589696599113</v>
+        <v>1.129555096539696</v>
       </c>
       <c r="GA3">
-        <v>1.134509270405543</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="GB3">
-        <v>1.134936707926661</v>
+        <v>1.137060265446928</v>
       </c>
       <c r="GC3">
-        <v>1.134989713199264</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="GD3">
-        <v>1.13550081945312</v>
+        <v>1.137625839790071</v>
       </c>
       <c r="GE3">
-        <v>1.135533168952081</v>
+        <v>1.137661305249718</v>
       </c>
       <c r="GF3">
-        <v>1.144516654497173</v>
+        <v>1.146934604028049</v>
       </c>
       <c r="GG3">
-        <v>1.127399990884659</v>
+        <v>1.129352598793933</v>
       </c>
       <c r="GH3">
-        <v>1.128691149451002</v>
+        <v>1.130715816011569</v>
       </c>
       <c r="GI3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="GJ3">
-        <v>1.134958728207463</v>
+        <v>1.137082240021292</v>
       </c>
       <c r="GK3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="GL3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="GM3">
-        <v>1.135549008610242</v>
+        <v>1.137674032480919</v>
       </c>
       <c r="GN3">
-        <v>1.135605898573693</v>
+        <v>1.137734372280736</v>
       </c>
       <c r="GO3">
-        <v>1.144838720988641</v>
+        <v>1.147266094790777</v>
       </c>
       <c r="GP3">
-        <v>1.12750879730706</v>
+        <v>1.129463580289191</v>
       </c>
       <c r="GQ3">
-        <v>1.128801238643053</v>
+        <v>1.130829249088734</v>
       </c>
       <c r="GR3">
-        <v>1.128751941925429</v>
+        <v>1.130781370588696</v>
       </c>
       <c r="GS3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="GT3">
-        <v>1.134982420737763</v>
+        <v>1.137105883373586</v>
       </c>
       <c r="GU3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="GV3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="GW3">
-        <v>1.135587555115387</v>
+        <v>1.137712581812673</v>
       </c>
       <c r="GX3">
-        <v>1.135648568688936</v>
+        <v>1.137777240352445</v>
       </c>
       <c r="GY3">
-        <v>1.145238829422839</v>
+        <v>1.147677910227256</v>
       </c>
       <c r="GZ3">
-        <v>1.127694351550362</v>
+        <v>1.129654464002969</v>
       </c>
       <c r="HA3">
-        <v>1.12752738065492</v>
+        <v>1.129482423441831</v>
       </c>
       <c r="HB3">
-        <v>1.129079571614569</v>
+        <v>1.131116036244436</v>
       </c>
       <c r="HC3">
-        <v>1.12876053500369</v>
+        <v>1.130790636795157</v>
       </c>
       <c r="HD3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="HE3">
-        <v>1.135018639512309</v>
+        <v>1.137142026968592</v>
       </c>
       <c r="HF3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="HG3">
-        <v>1.135618260451465</v>
+        <v>1.137743289400357</v>
       </c>
       <c r="HH3">
-        <v>1.135678454986893</v>
+        <v>1.137807265299806</v>
       </c>
       <c r="HI3">
-        <v>1.145977193273275</v>
+        <v>1.148437875606836</v>
       </c>
       <c r="HJ3">
-        <v>1.128301696730468</v>
+        <v>1.130279253170917</v>
       </c>
       <c r="HK3">
-        <v>1.127560920863709</v>
+        <v>1.129516432565463</v>
       </c>
       <c r="HL3">
-        <v>1.1287674650785</v>
+        <v>1.130798109728865</v>
       </c>
       <c r="HM3">
-        <v>1.134509270405544</v>
+        <v>1.136633414125362</v>
       </c>
       <c r="HN3">
-        <v>1.135117549141338</v>
+        <v>1.137240731283401</v>
       </c>
       <c r="HO3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055132</v>
       </c>
       <c r="HP3">
-        <v>1.135683176466431</v>
+        <v>1.137808210175547</v>
       </c>
       <c r="HQ3">
-        <v>1.135735944209321</v>
+        <v>1.13786502122796</v>
       </c>
       <c r="HR3">
-        <v>1.146620961537274</v>
+        <v>1.14910047508123</v>
       </c>
       <c r="HS3">
-        <v>1.128563513765341</v>
+        <v>1.130548589980283</v>
       </c>
       <c r="HT3">
-        <v>1.127572896729914</v>
+        <v>1.129528575864087</v>
       </c>
       <c r="HU3">
-        <v>1.128773003234085</v>
+        <v>1.130804081709078</v>
       </c>
       <c r="HV3">
-        <v>1.135125982497724</v>
+        <v>1.137249147133564</v>
       </c>
       <c r="HW3">
-        <v>1.134989713199265</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="HX3">
-        <v>1.135734299391292</v>
+        <v>1.137859336849167</v>
       </c>
       <c r="HY3">
-        <v>1.135764558619494</v>
+        <v>1.137893768386968</v>
       </c>
       <c r="HZ3">
-        <v>1.14705889984003</v>
+        <v>1.149551222243975</v>
       </c>
       <c r="IA3">
-        <v>1.128909592814648</v>
+        <v>1.130883916192714</v>
       </c>
       <c r="IB3">
-        <v>1.127572896729914</v>
+        <v>1.129528575864087</v>
       </c>
       <c r="IC3">
-        <v>1.128781457281896</v>
+        <v>1.130813197994387</v>
       </c>
       <c r="ID3">
-        <v>1.135129877786166</v>
+        <v>1.13725303433602</v>
       </c>
       <c r="IE3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="IF3">
-        <v>1.135769760807921</v>
+        <v>1.137894800866107</v>
       </c>
       <c r="IG3">
-        <v>1.135784876620224</v>
+        <v>1.137914180647581</v>
       </c>
       <c r="IH3">
-        <v>1.147346595311916</v>
+        <v>1.149847331595739</v>
       </c>
       <c r="II3">
-        <v>1.129103711129423</v>
+        <v>1.131080742079287</v>
       </c>
       <c r="IJ3">
-        <v>1.1287913671298</v>
+        <v>1.130823884118147</v>
       </c>
       <c r="IK3">
-        <v>1.135134044268791</v>
+        <v>1.137257192169688</v>
       </c>
       <c r="IL3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="IM3">
-        <v>1.135805137752053</v>
+        <v>1.137930180404342</v>
       </c>
       <c r="IN3">
-        <v>1.13601730602166</v>
+        <v>1.138147688342632</v>
       </c>
       <c r="IO3">
-        <v>1.147965785133267</v>
+        <v>1.150484628325291</v>
       </c>
       <c r="IP3">
-        <v>1.129396947522995</v>
+        <v>1.131387492633625</v>
       </c>
       <c r="IQ3">
-        <v>1.129406315573777</v>
+        <v>1.131378143188575</v>
       </c>
       <c r="IR3">
-        <v>1.128806588068653</v>
+        <v>1.130840297370775</v>
       </c>
       <c r="IS3">
-        <v>1.135138025526513</v>
+        <v>1.137261165162932</v>
       </c>
       <c r="IT3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="IU3">
-        <v>1.135856892655665</v>
+        <v>1.137981939102988</v>
       </c>
       <c r="IV3">
-        <v>1.136085845700988</v>
+        <v>1.138216545993382</v>
       </c>
       <c r="IW3">
-        <v>1.148229630845491</v>
+        <v>1.150740218704022</v>
       </c>
       <c r="IX3">
-        <v>1.148363941224537</v>
+        <v>1.150895137607147</v>
       </c>
       <c r="IY3">
-        <v>1.128862286352995</v>
+        <v>1.13090035871347</v>
       </c>
       <c r="IZ3">
-        <v>1.135142460818347</v>
+        <v>1.137265591247764</v>
       </c>
       <c r="JA3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="JB3">
-        <v>1.136051545552047</v>
+        <v>1.138176606272437</v>
       </c>
       <c r="JC3">
-        <v>1.136101180065699</v>
+        <v>1.138231951497759</v>
       </c>
       <c r="JD3">
-        <v>1.148266103563422</v>
+        <v>1.150775550243772</v>
       </c>
       <c r="JE3">
-        <v>1.149857069997076</v>
+        <v>1.152434583068769</v>
       </c>
       <c r="JF3">
-        <v>1.129133370169187</v>
+        <v>1.131192677574398</v>
       </c>
       <c r="JG3">
-        <v>1.135151615882929</v>
+        <v>1.137274727307739</v>
       </c>
       <c r="JH3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="JI3">
-        <v>1.136096977755859</v>
+        <v>1.138222041807542</v>
       </c>
       <c r="JJ3">
-        <v>1.1362972903182</v>
+        <v>1.138421342466208</v>
       </c>
       <c r="JK3">
-        <v>1.136107715195723</v>
+        <v>1.138238778860216</v>
       </c>
       <c r="JL3">
-        <v>1.148282871414568</v>
+        <v>1.150791793453137</v>
       </c>
       <c r="JM3">
-        <v>1.150088385135399</v>
+        <v>1.152679736166438</v>
       </c>
       <c r="JN3">
-        <v>1.150344677616345</v>
+        <v>1.152936910316728</v>
       </c>
       <c r="JO3">
-        <v>1.135161150824489</v>
+        <v>1.13728424245603</v>
       </c>
       <c r="JP3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="JQ3">
-        <v>1.136117791435395</v>
+        <v>1.138242857013223</v>
       </c>
       <c r="JR3">
-        <v>1.136491642591418</v>
+        <v>1.138609035681459</v>
       </c>
       <c r="JS3">
-        <v>1.13611537722471</v>
+        <v>1.138246783513366</v>
       </c>
       <c r="JT3">
-        <v>1.14830278681846</v>
+        <v>1.150811085732749</v>
       </c>
       <c r="JU3">
-        <v>1.150105199217154</v>
+        <v>1.1526975561172</v>
       </c>
       <c r="JV3">
-        <v>1.152112398408611</v>
+        <v>1.154757980672638</v>
       </c>
       <c r="JW3">
-        <v>1.135197408818663</v>
+        <v>1.137320425182583</v>
       </c>
       <c r="JX3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="JY3">
-        <v>1.136131474858974</v>
+        <v>1.138256541440125</v>
       </c>
       <c r="JZ3">
-        <v>1.136122301567601</v>
+        <v>1.138254017493204</v>
       </c>
       <c r="KA3">
-        <v>1.148333513906675</v>
+        <v>1.150840851414387</v>
       </c>
       <c r="KB3">
-        <v>1.150119057910449</v>
+        <v>1.152712243879331</v>
       </c>
       <c r="KC3">
-        <v>1.15260488113233</v>
+        <v>1.155266734978122</v>
       </c>
       <c r="KD3">
-        <v>1.152375857539619</v>
+        <v>1.155028361979499</v>
       </c>
       <c r="KE3">
-        <v>1.13538990781981</v>
+        <v>1.137512524554269</v>
       </c>
       <c r="KF3">
-        <v>1.134989713199266</v>
+        <v>1.137114696055133</v>
       </c>
       <c r="KG3">
-        <v>1.136177902692795</v>
+        <v>1.138305428601674</v>
       </c>
       <c r="KH3">
-        <v>1.136137605047451</v>
+        <v>1.138262369159063</v>
       </c>
       <c r="KI3">
-        <v>1.136129314542925</v>
+        <v>1.138261344068877</v>
       </c>
       <c r="KJ3">
-        <v>1.148360893907841</v>
+        <v>1.15086737473425</v>
       </c>
       <c r="KK3">
-        <v>1.15013874311706</v>
+        <v>1.152733106714479</v>
       </c>
       <c r="KL3">
-        <v>1.152831562999104</v>
+        <v>1.155500905466559</v>
       </c>
       <c r="KM3">
-        <v>1.15348005445077</v>
+        <v>1.156161570248346</v>
       </c>
       <c r="KN3">
-        <v>1.136199229676837</v>
+        <v>1.138327885297101</v>
       </c>
       <c r="KO3">
-        <v>1.136141943600731</v>
+        <v>1.138266493643844</v>
       </c>
       <c r="KP3">
-        <v>1.136136854909591</v>
+        <v>1.138269221619347</v>
       </c>
       <c r="KQ3">
-        <v>1.148382181241081</v>
+        <v>1.150887996016917</v>
       </c>
       <c r="KR3">
-        <v>1.150227160210966</v>
+        <v>1.152826813187565</v>
       </c>
       <c r="KS3">
-        <v>1.154312441872804</v>
+        <v>1.157030692062886</v>
       </c>
       <c r="KT3">
-        <v>1.15372380458932</v>
+        <v>1.156411724494925</v>
       </c>
       <c r="KU3">
-        <v>1.136235325211582</v>
+        <v>1.138365892848213</v>
       </c>
       <c r="KV3">
-        <v>1.136146992398274</v>
+        <v>1.138271293328731</v>
       </c>
       <c r="KW3">
-        <v>1.136180584856612</v>
+        <v>1.138314907045776</v>
       </c>
       <c r="KX3">
-        <v>1.148408678638241</v>
+        <v>1.15091366434774</v>
       </c>
       <c r="KY3">
-        <v>1.150244181443671</v>
+        <v>1.152844852682399</v>
       </c>
       <c r="KZ3">
-        <v>1.154423054579509</v>
+        <v>1.157144956885155</v>
       </c>
       <c r="LA3">
-        <v>1.153804798670268</v>
+        <v>1.156494846544351</v>
       </c>
       <c r="LB3">
-        <v>1.136304608264552</v>
+        <v>1.138438845894394</v>
       </c>
       <c r="LC3">
-        <v>1.136156649133568</v>
+        <v>1.138280473591151</v>
       </c>
       <c r="LD3">
-        <v>1.136365546098489</v>
+        <v>1.13850813923529</v>
       </c>
       <c r="LE3">
-        <v>1.148436084676014</v>
+        <v>1.150940212888822</v>
       </c>
       <c r="LF3">
-        <v>1.150256784267978</v>
+        <v>1.152858209446208</v>
       </c>
       <c r="LG3">
-        <v>1.154496562778556</v>
+        <v>1.157217716646912</v>
       </c>
       <c r="LH3">
-        <v>1.1561159221209</v>
+        <v>1.158908046068639</v>
       </c>
       <c r="LI3">
-        <v>1.153847072053061</v>
+        <v>1.156538230579651</v>
       </c>
       <c r="LJ3">
-        <v>1.13650858938735</v>
+        <v>1.138653632110691</v>
       </c>
       <c r="LK3">
-        <v>1.136193684397379</v>
+        <v>1.138315681498188</v>
       </c>
       <c r="LL3">
-        <v>1.148468411589504</v>
+        <v>1.150971528337937</v>
       </c>
       <c r="LM3">
-        <v>1.150271301356258</v>
+        <v>1.152873594991177</v>
       </c>
       <c r="LN3">
-        <v>1.154875152612886</v>
+        <v>1.157592451773546</v>
       </c>
       <c r="LO3">
-        <v>1.156928366018765</v>
+        <v>1.15975417689765</v>
       </c>
       <c r="LP3">
-        <v>1.153883259476515</v>
+        <v>1.156575368757647</v>
       </c>
       <c r="LQ3">
-        <v>1.136320071755641</v>
+        <v>1.138435832775823</v>
       </c>
       <c r="LR3">
-        <v>1.14848683362999</v>
+        <v>1.150989373978109</v>
       </c>
       <c r="LS3">
-        <v>1.150285702099866</v>
+        <v>1.152888857231442</v>
       </c>
       <c r="LT3">
-        <v>1.155007325693481</v>
+        <v>1.157723279090618</v>
       </c>
       <c r="LU3">
-        <v>1.157311391210471</v>
+        <v>1.160277167546713</v>
       </c>
       <c r="LV3">
-        <v>1.158379764888908</v>
+        <v>1.161228757868274</v>
       </c>
       <c r="LW3">
-        <v>1.153924416284725</v>
+        <v>1.156617606880262</v>
       </c>
       <c r="LX3">
-        <v>1.148570057020444</v>
+        <v>1.151069993421601</v>
       </c>
       <c r="LY3">
-        <v>1.150412214273628</v>
+        <v>1.153022937754268</v>
       </c>
       <c r="LZ3">
-        <v>1.15529499215211</v>
+        <v>1.158008016561014</v>
       </c>
       <c r="MA3">
-        <v>1.157463088381385</v>
+        <v>1.160484298154375</v>
       </c>
       <c r="MB3">
-        <v>1.158764225757355</v>
+        <v>1.161594615560388</v>
       </c>
       <c r="MC3">
-        <v>1.158615647694683</v>
+        <v>1.161470203016892</v>
       </c>
       <c r="MD3">
-        <v>1.153956840839887</v>
+        <v>1.156650883326175</v>
       </c>
       <c r="ME3">
-        <v>1.148602445845613</v>
+        <v>1.151101368843706</v>
       </c>
       <c r="MF3">
-        <v>1.150670822358472</v>
+        <v>1.153297016588976</v>
       </c>
       <c r="MG3">
-        <v>1.155412904989696</v>
+        <v>1.158123788176736</v>
       </c>
       <c r="MH3">
-        <v>1.15535046168897</v>
+        <v>1.158063363889543</v>
       </c>
       <c r="MI3">
-        <v>1.158957515529682</v>
+        <v>1.161778552471916</v>
       </c>
       <c r="MJ3">
-        <v>1.158817731915396</v>
+        <v>1.161677051816954</v>
       </c>
       <c r="MK3">
-        <v>1.153984025458948</v>
+        <v>1.156678782166516</v>
       </c>
       <c r="ML3">
-        <v>1.148613697694285</v>
+        <v>1.15111226863698</v>
       </c>
       <c r="MM3">
-        <v>1.155589338301992</v>
+        <v>1.158297017564207</v>
       </c>
       <c r="MN3">
-        <v>1.155358185296905</v>
+        <v>1.15807107048106</v>
       </c>
       <c r="MO3">
-        <v>1.158975503049175</v>
+        <v>1.16179566961501</v>
       </c>
       <c r="MP3">
-        <v>1.15895988030114</v>
+        <v>1.161822551242894</v>
       </c>
       <c r="MQ3">
-        <v>1.154008554625788</v>
+        <v>1.156703955787518</v>
       </c>
       <c r="MR3">
-        <v>1.148622174465687</v>
+        <v>1.151120480181434</v>
       </c>
       <c r="MS3">
-        <v>1.155366573678512</v>
+        <v>1.158079440381622</v>
       </c>
       <c r="MT3">
-        <v>1.158982931670936</v>
+        <v>1.161802738782124</v>
       </c>
       <c r="MU3">
-        <v>1.159139488899698</v>
+        <v>1.162006393481658</v>
       </c>
       <c r="MV3">
-        <v>1.154028855859993</v>
+        <v>1.156724790395203</v>
       </c>
       <c r="MW3">
-        <v>1.148628376459339</v>
+        <v>1.151126488122904</v>
       </c>
       <c r="MX3">
-        <v>1.155373921298576</v>
+        <v>1.158086771813602</v>
       </c>
       <c r="MY3">
-        <v>1.158988173333807</v>
+        <v>1.161807726812464</v>
       </c>
       <c r="MZ3">
-        <v>1.159252030816401</v>
+        <v>1.162121587895611</v>
       </c>
       <c r="NA3">
-        <v>1.154052406526737</v>
+        <v>1.156748959807274</v>
       </c>
       <c r="NB3">
-        <v>1.148631525866884</v>
+        <v>1.151129538989646</v>
       </c>
       <c r="NC3">
-        <v>1.155381728145259</v>
+        <v>1.15809456146043</v>
       </c>
       <c r="ND3">
-        <v>1.158993534740592</v>
+        <v>1.161812828792565</v>
       </c>
       <c r="NE3">
-        <v>1.159424852012437</v>
+        <v>1.162298481886544</v>
       </c>
       <c r="NF3">
-        <v>1.154078290396793</v>
+        <v>1.156775523722328</v>
       </c>
       <c r="NG3">
-        <v>1.148636156164676</v>
+        <v>1.151134024411527</v>
       </c>
       <c r="NH3">
-        <v>1.155392870186976</v>
+        <v>1.158105678954241</v>
       </c>
       <c r="NI3">
-        <v>1.158999860817869</v>
+        <v>1.161818848764868</v>
       </c>
       <c r="NJ3">
-        <v>1.159597135657568</v>
+        <v>1.162474825148631</v>
       </c>
       <c r="NK3">
-        <v>1.154219400881098</v>
+        <v>1.156920341583699</v>
       </c>
       <c r="NL3">
-        <v>1.148643918056239</v>
+        <v>1.151141543443724</v>
       </c>
       <c r="NM3">
-        <v>1.155406415382153</v>
+        <v>1.158119194306894</v>
       </c>
       <c r="NN3">
-        <v>1.15900784071294</v>
+        <v>1.161826442530342</v>
       </c>
       <c r="NO3">
-        <v>1.159790444675896</v>
+        <v>1.162672688611061</v>
       </c>
       <c r="NP3">
-        <v>1.155233060172817</v>
+        <v>1.157962782973169</v>
       </c>
       <c r="NQ3">
-        <v>1.154299376778366</v>
+        <v>1.156998960823548</v>
       </c>
       <c r="NR3">
-        <v>1.148678539450636</v>
+        <v>1.151175081580016</v>
       </c>
       <c r="NS3">
-        <v>1.155490372850897</v>
+        <v>1.158202966801001</v>
       </c>
       <c r="NT3">
-        <v>1.159014987485892</v>
+        <v>1.161833243486632</v>
       </c>
       <c r="NU3">
-        <v>1.159930330810803</v>
+        <v>1.162815870124591</v>
       </c>
       <c r="NV3">
-        <v>1.156203978226005</v>
+        <v>1.158961268864728</v>
       </c>
       <c r="NW3">
-        <v>1.154790440271306</v>
+        <v>1.157481694231572</v>
       </c>
       <c r="NX3">
-        <v>1.154299376778369</v>
+        <v>1.156998960823549</v>
       </c>
       <c r="NY3">
-        <v>1.148805806775213</v>
+        <v>1.151298366872923</v>
       </c>
       <c r="NZ3">
-        <v>1.155777652988869</v>
+        <v>1.158489613990778</v>
       </c>
       <c r="OA3">
-        <v>1.159020642547633</v>
+        <v>1.161838624912335</v>
       </c>
       <c r="OB3">
-        <v>1.160097063257172</v>
+        <v>1.162986529945973</v>
       </c>
       <c r="OC3">
-        <v>1.156247202181215</v>
+        <v>1.159005720087806</v>
       </c>
       <c r="OD3">
-        <v>1.154969912073132</v>
+        <v>1.157658121583485</v>
       </c>
       <c r="OE3">
-        <v>1.15429937677839</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="OF3">
-        <v>1.159030347994337</v>
+        <v>1.161847860733735</v>
       </c>
       <c r="OG3">
-        <v>1.160338991426199</v>
+        <v>1.163234155875697</v>
       </c>
       <c r="OH3">
-        <v>1.156696173853064</v>
+        <v>1.159435940647286</v>
       </c>
       <c r="OI3">
-        <v>1.156963510499479</v>
+        <v>1.159747688767484</v>
       </c>
       <c r="OJ3">
-        <v>1.154988179959788</v>
+        <v>1.157676079584708</v>
       </c>
       <c r="OK3">
-        <v>1.154299376778392</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="OL3">
-        <v>1.159064228665873</v>
+        <v>1.161880101993618</v>
       </c>
       <c r="OM3">
-        <v>1.160518353116927</v>
+        <v>1.163417741149135</v>
       </c>
       <c r="ON3">
-        <v>1.156737311303544</v>
+        <v>1.159475360007339</v>
       </c>
       <c r="OO3">
-        <v>1.157309100930988</v>
+        <v>1.160105659222228</v>
       </c>
       <c r="OP3">
-        <v>1.155000928555807</v>
+        <v>1.157688611921197</v>
       </c>
       <c r="OQ3">
-        <v>1.154299376778392</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="OR3">
-        <v>1.159271362685866</v>
+        <v>1.162077213244937</v>
       </c>
       <c r="OS3">
-        <v>1.160691377478591</v>
+        <v>1.163594839341786</v>
       </c>
       <c r="OT3">
-        <v>1.15676069709874</v>
+        <v>1.159497769103273</v>
       </c>
       <c r="OU3">
-        <v>1.158351741237665</v>
+        <v>1.161185649500814</v>
       </c>
       <c r="OV3">
-        <v>1.157309100930984</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="OW3">
-        <v>1.155014134969469</v>
+        <v>1.15770159430917</v>
       </c>
       <c r="OX3">
-        <v>1.154299376778393</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="OY3">
-        <v>1.16086071732046</v>
+        <v>1.163768165767815</v>
       </c>
       <c r="OZ3">
-        <v>1.156776576617175</v>
+        <v>1.159512985419307</v>
       </c>
       <c r="PA3">
-        <v>1.15983684301625</v>
+        <v>1.162723950426989</v>
       </c>
       <c r="PB3">
-        <v>1.157309100930983</v>
+        <v>1.160105659222225</v>
       </c>
       <c r="PC3">
-        <v>1.155069594209576</v>
+        <v>1.15775611277177</v>
       </c>
       <c r="PD3">
-        <v>1.154299376778394</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="PE3">
-        <v>1.161064375539931</v>
+        <v>1.163976617842984</v>
       </c>
       <c r="PF3">
-        <v>1.156802456032268</v>
+        <v>1.15953778398978</v>
       </c>
       <c r="PG3">
-        <v>1.160147636244258</v>
+        <v>1.163045876720389</v>
       </c>
       <c r="PH3">
-        <v>1.157309100930983</v>
+        <v>1.160105659222225</v>
       </c>
       <c r="PI3">
-        <v>1.155083136057471</v>
+        <v>1.15776942490378</v>
       </c>
       <c r="PJ3">
-        <v>1.154299376778409</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="PK3">
-        <v>1.161405469265247</v>
+        <v>1.164325738895187</v>
       </c>
       <c r="PL3">
-        <v>1.161064375539931</v>
+        <v>1.163976617842984</v>
       </c>
       <c r="PM3">
-        <v>1.156888480814657</v>
+        <v>1.159620215976517</v>
       </c>
       <c r="PN3">
-        <v>1.160227072417389</v>
+        <v>1.163128158405253</v>
       </c>
       <c r="PO3">
-        <v>1.157309100930982</v>
+        <v>1.160105659222224</v>
       </c>
       <c r="PP3">
-        <v>1.155096053507759</v>
+        <v>1.157782123230078</v>
       </c>
       <c r="PQ3">
-        <v>1.154299376778414</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="PR3">
-        <v>1.162555987039487</v>
+        <v>1.165503318420178</v>
       </c>
       <c r="PS3">
-        <v>1.161405469265247</v>
+        <v>1.164325738895187</v>
       </c>
       <c r="PT3">
-        <v>1.156984253410281</v>
+        <v>1.159711988660528</v>
       </c>
       <c r="PU3">
-        <v>1.160268688048192</v>
+        <v>1.163171264763315</v>
       </c>
       <c r="PV3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222223</v>
       </c>
       <c r="PW3">
-        <v>1.155108900700047</v>
+        <v>1.157794752490176</v>
       </c>
       <c r="PX3">
-        <v>1.154299376778415</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="PY3">
-        <v>1.164183364880957</v>
+        <v>1.167168935989226</v>
       </c>
       <c r="PZ3">
-        <v>1.162555987039487</v>
+        <v>1.165503318420178</v>
       </c>
       <c r="QA3">
-        <v>1.157038115562596</v>
+        <v>1.159763601276531</v>
       </c>
       <c r="QB3">
-        <v>1.160303187003611</v>
+        <v>1.163206999516577</v>
       </c>
       <c r="QC3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222223</v>
       </c>
       <c r="QD3">
-        <v>1.15512363808648</v>
+        <v>1.15780923988026</v>
       </c>
       <c r="QE3">
-        <v>1.154299376778418</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="QF3">
-        <v>1.165351165903294</v>
+        <v>1.168364150066317</v>
       </c>
       <c r="QG3">
-        <v>1.164183364880957</v>
+        <v>1.167168935989226</v>
       </c>
       <c r="QH3">
-        <v>1.157088713356899</v>
+        <v>1.159812085868868</v>
       </c>
       <c r="QI3">
-        <v>1.160331146543729</v>
+        <v>1.163235960603679</v>
       </c>
       <c r="QJ3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222223</v>
       </c>
       <c r="QK3">
-        <v>1.155174532789974</v>
+        <v>1.157859271235803</v>
       </c>
       <c r="QL3">
-        <v>1.154299376778419</v>
+        <v>1.156998960823555</v>
       </c>
       <c r="QM3">
-        <v>1.165705487038523</v>
+        <v>1.168726784008614</v>
       </c>
       <c r="QN3">
-        <v>1.165351165903294</v>
+        <v>1.168364150066317</v>
       </c>
       <c r="QO3">
-        <v>1.157136987840674</v>
+        <v>1.159858344182544</v>
       </c>
       <c r="QP3">
-        <v>1.160373884723911</v>
+        <v>1.163280229720161</v>
       </c>
       <c r="QQ3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222223</v>
       </c>
       <c r="QR3">
-        <v>1.155422552858058</v>
+        <v>1.15810308403309</v>
       </c>
       <c r="QS3">
-        <v>1.154299376778421</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="QT3">
-        <v>1.166638305215443</v>
+        <v>1.16968262597523</v>
       </c>
       <c r="QU3">
-        <v>1.165705487038523</v>
+        <v>1.168726784008614</v>
       </c>
       <c r="QV3">
-        <v>1.165899732376586</v>
+        <v>1.168923623882457</v>
       </c>
       <c r="QW3">
-        <v>1.157216247367099</v>
+        <v>1.15993429345628</v>
       </c>
       <c r="QX3">
-        <v>1.160412412643705</v>
+        <v>1.163320137758581</v>
       </c>
       <c r="QY3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222224</v>
       </c>
       <c r="QZ3">
-        <v>1.154299376778423</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="RA3">
-        <v>1.167674752359719</v>
+        <v>1.170744635068143</v>
       </c>
       <c r="RB3">
-        <v>1.166638305215443</v>
+        <v>1.16968262597523</v>
       </c>
       <c r="RC3">
-        <v>1.166638305215443</v>
+        <v>1.16968262597523</v>
       </c>
       <c r="RD3">
-        <v>1.165928099516822</v>
+        <v>1.168952369921992</v>
       </c>
       <c r="RE3">
-        <v>1.157271453153202</v>
+        <v>1.159987193586859</v>
       </c>
       <c r="RF3">
-        <v>1.160449081815335</v>
+        <v>1.163358120465466</v>
       </c>
       <c r="RG3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222224</v>
       </c>
       <c r="RH3">
-        <v>1.154299376778432</v>
+        <v>1.156998960823554</v>
       </c>
       <c r="RI3">
-        <v>1.168054568541558</v>
+        <v>1.171133813518671</v>
       </c>
       <c r="RJ3">
-        <v>1.167674752359719</v>
+        <v>1.170744635068143</v>
       </c>
       <c r="RK3">
-        <v>1.165943567378238</v>
+        <v>1.168968044387232</v>
       </c>
       <c r="RL3">
-        <v>1.157310241963418</v>
+        <v>1.160024362391954</v>
       </c>
       <c r="RM3">
-        <v>1.1604903919705</v>
+        <v>1.163400910400894</v>
       </c>
       <c r="RN3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222225</v>
       </c>
       <c r="RO3">
-        <v>1.154299376778433</v>
+        <v>1.156998960823553</v>
       </c>
       <c r="RP3">
-        <v>1.168652881527404</v>
+        <v>1.171750156403136</v>
       </c>
       <c r="RQ3">
-        <v>1.168054568541558</v>
+        <v>1.171133813518671</v>
       </c>
       <c r="RR3">
-        <v>1.169168996435712</v>
+        <v>1.172257387464535</v>
       </c>
       <c r="RS3">
-        <v>1.165954045641798</v>
+        <v>1.168978662608657</v>
       </c>
       <c r="RT3">
-        <v>1.15732877549136</v>
+        <v>1.160042121871546</v>
       </c>
       <c r="RU3">
-        <v>1.160534028912399</v>
+        <v>1.163446110470501</v>
       </c>
       <c r="RV3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="RW3">
-        <v>1.154299376778433</v>
+        <v>1.156998960823553</v>
       </c>
       <c r="RX3">
-        <v>1.169510435242998</v>
+        <v>1.172633535553814</v>
       </c>
       <c r="RY3">
-        <v>1.168652881527404</v>
+        <v>1.171750156403136</v>
       </c>
       <c r="RZ3">
-        <v>1.169198850998451</v>
+        <v>1.172288830700264</v>
       </c>
       <c r="SA3">
-        <v>1.169400260683773</v>
+        <v>1.17248108138939</v>
       </c>
       <c r="SB3">
-        <v>1.165969961452411</v>
+        <v>1.168994791006246</v>
       </c>
       <c r="SC3">
-        <v>1.157340515974091</v>
+        <v>1.160053372015793</v>
       </c>
       <c r="SD3">
-        <v>1.16062944036598</v>
+        <v>1.163544939673802</v>
       </c>
       <c r="SE3">
-        <v>1.157309100930979</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="SF3">
-        <v>1.154299376778433</v>
+        <v>1.156998960823553</v>
       </c>
       <c r="SG3">
-        <v>1.170033788829736</v>
+        <v>1.173172640484502</v>
       </c>
       <c r="SH3">
-        <v>1.169510435242998</v>
+        <v>1.172633535553814</v>
       </c>
       <c r="SI3">
-        <v>1.169211469815786</v>
+        <v>1.172302121012084</v>
       </c>
       <c r="SJ3">
-        <v>1.169548243625914</v>
+        <v>1.172624220147861</v>
       </c>
       <c r="SK3">
-        <v>1.165994115268556</v>
+        <v>1.169019267444037</v>
       </c>
       <c r="SL3">
-        <v>1.157348453987188</v>
+        <v>1.160060978499633</v>
       </c>
       <c r="SM3">
-        <v>1.162793563805293</v>
+        <v>1.165786583344876</v>
       </c>
       <c r="SN3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222227</v>
       </c>
       <c r="SO3">
-        <v>1.154299376778433</v>
+        <v>1.156998960823553</v>
       </c>
       <c r="SP3">
-        <v>1.17012391697668</v>
+        <v>1.173265480481741</v>
       </c>
       <c r="SQ3">
-        <v>1.170033788829736</v>
+        <v>1.173172640484502</v>
       </c>
       <c r="SR3">
-        <v>1.169218884385754</v>
+        <v>1.172309930139063</v>
       </c>
       <c r="SS3">
-        <v>1.166011251605062</v>
+        <v>1.169036632669888</v>
       </c>
       <c r="ST3">
-        <v>1.157359526555624</v>
+        <v>1.160071588624822</v>
       </c>
       <c r="SU3">
-        <v>1.163106642099006</v>
+        <v>1.166098984823785</v>
       </c>
       <c r="SV3">
-        <v>1.163108373955996</v>
+        <v>1.166113349168697</v>
       </c>
       <c r="SW3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222227</v>
       </c>
       <c r="SX3">
-        <v>1.170291770195105</v>
+        <v>1.173431492260707</v>
       </c>
       <c r="SY3">
-        <v>1.17012391697668</v>
+        <v>1.173265480481741</v>
       </c>
       <c r="SZ3">
-        <v>1.170595726034798</v>
+        <v>1.173784202034446</v>
       </c>
       <c r="TA3">
-        <v>1.169225708021759</v>
+        <v>1.17231711688627</v>
       </c>
       <c r="TB3">
-        <v>1.166022959354437</v>
+        <v>1.169048496799153</v>
       </c>
       <c r="TC3">
-        <v>1.157367977227363</v>
+        <v>1.160079686356202</v>
       </c>
       <c r="TD3">
-        <v>1.163382735163825</v>
+        <v>1.166374481022229</v>
       </c>
       <c r="TE3">
-        <v>1.163278207840032</v>
+        <v>1.166289632882627</v>
       </c>
       <c r="TF3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="TG3">
-        <v>1.170415330564382</v>
+        <v>1.173553697101101</v>
       </c>
       <c r="TH3">
-        <v>1.170291770195105</v>
+        <v>1.173431492260707</v>
       </c>
       <c r="TI3">
-        <v>1.17087453669904</v>
+        <v>1.174090725927519</v>
       </c>
       <c r="TJ3">
-        <v>1.169231787308028</v>
+        <v>1.172323519674107</v>
       </c>
       <c r="TK3">
-        <v>1.166032210774523</v>
+        <v>1.169057871790027</v>
       </c>
       <c r="TL3">
-        <v>1.157428283099195</v>
+        <v>1.16013747356674</v>
       </c>
       <c r="TM3">
-        <v>1.163303571700937</v>
+        <v>1.166315959992878</v>
       </c>
       <c r="TN3">
-        <v>1.15730910093098</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="TO3">
-        <v>1.170583558708979</v>
+        <v>1.17372007967775</v>
       </c>
       <c r="TP3">
-        <v>1.170415330564382</v>
+        <v>1.173553697101101</v>
       </c>
       <c r="TQ3">
-        <v>1.171095455998577</v>
+        <v>1.174333599307895</v>
       </c>
       <c r="TR3">
-        <v>1.169238093877085</v>
+        <v>1.172330161839299</v>
       </c>
       <c r="TS3">
-        <v>1.166061873291281</v>
+        <v>1.169087930507511</v>
       </c>
       <c r="TT3">
-        <v>1.157533772438531</v>
+        <v>1.16024078270394</v>
       </c>
       <c r="TU3">
-        <v>1.157739389097978</v>
+        <v>1.160429123103129</v>
       </c>
       <c r="TV3">
-        <v>1.163322932894776</v>
+        <v>1.166336056471138</v>
       </c>
       <c r="TW3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="TX3">
-        <v>1.170702606829883</v>
+        <v>1.173837821760978</v>
       </c>
       <c r="TY3">
-        <v>1.170583558708979</v>
+        <v>1.17372007967775</v>
       </c>
       <c r="TZ3">
-        <v>1.171186742735958</v>
+        <v>1.174433956503818</v>
       </c>
       <c r="UA3">
-        <v>1.169257132392369</v>
+        <v>1.17235021346521</v>
       </c>
       <c r="UB3">
-        <v>1.166301799101605</v>
+        <v>1.169331060987391</v>
       </c>
       <c r="UC3">
-        <v>1.157650256832253</v>
+        <v>1.160354859653627</v>
       </c>
       <c r="UD3">
-        <v>1.163341040634319</v>
+        <v>1.166354851892216</v>
       </c>
       <c r="UE3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="UF3">
-        <v>1.171035531951767</v>
+        <v>1.174167094447645</v>
       </c>
       <c r="UG3">
-        <v>1.170702606829883</v>
+        <v>1.173837821760978</v>
       </c>
       <c r="UH3">
-        <v>1.171201760815196</v>
+        <v>1.174449486005201</v>
       </c>
       <c r="UI3">
-        <v>1.171367036839487</v>
+        <v>1.174645061924566</v>
       </c>
       <c r="UJ3">
-        <v>1.169276318643352</v>
+        <v>1.172370420688387</v>
       </c>
       <c r="UK3">
-        <v>1.166313747179833</v>
+        <v>1.169343168654791</v>
       </c>
       <c r="UL3">
-        <v>1.157965995672838</v>
+        <v>1.160664072946217</v>
       </c>
       <c r="UM3">
-        <v>1.163360350304255</v>
+        <v>1.166374894889477</v>
       </c>
       <c r="UN3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="UO3">
-        <v>1.171276603970719</v>
+        <v>1.174405521706387</v>
       </c>
       <c r="UP3">
-        <v>1.171035531951767</v>
+        <v>1.174167094447645</v>
       </c>
       <c r="UQ3">
-        <v>1.171207287015069</v>
+        <v>1.174455200392028</v>
       </c>
       <c r="UR3">
-        <v>1.171503434763389</v>
+        <v>1.174804764518373</v>
       </c>
       <c r="US3">
-        <v>1.169455587729961</v>
+        <v>1.17255922935372</v>
       </c>
       <c r="UT3">
-        <v>1.166323174631182</v>
+        <v>1.169352722027551</v>
       </c>
       <c r="UU3">
-        <v>1.163377437026876</v>
+        <v>1.166392630517938</v>
       </c>
       <c r="UV3">
-        <v>1.157309100930981</v>
+        <v>1.160105659222226</v>
       </c>
       <c r="UW3">
-        <v>1.171302737989489</v>
+        <v>1.174432381517514</v>
       </c>
       <c r="UX3">
-        <v>1.171276603970719</v>
+        <v>1.174405521706387</v>
       </c>
       <c r="UY3">
-        <v>1.171706021967459</v>
+        <v>1.174814322388568</v>
       </c>
       <c r="UZ3">
-        <v>1.171215518702462</v>
+        <v>1.174463712396985</v>
       </c>
       <c r="VA3">
-        <v>1.166333832621541</v>
+        <v>1.169363522375471</v>
       </c>
       <c r="VB3">
-        <v>1.163394913730766</v>
+        <v>1.166410770937911</v>
       </c>
       <c r="VC3">
-        <v>1.171308926047478</v>
+        <v>1.174438741429922</v>
       </c>
       <c r="VD3">
-        <v>1.171302737989489</v>
+        <v>1.174432381517514</v>
       </c>
       <c r="VE3">
-        <v>1.171760308004624</v>
+        <v>1.174866002028959</v>
       </c>
       <c r="VF3">
-        <v>1.171220471897531</v>
+        <v>1.174468834265009</v>
       </c>
       <c r="VG3">
-        <v>1.166343318570872</v>
+        <v>1.169373135027522</v>
       </c>
       <c r="VH3">
-        <v>1.16348511631582</v>
+        <v>1.16650439916113</v>
       </c>
       <c r="VI3">
-        <v>1.171476682216922</v>
+        <v>1.17461115652258</v>
       </c>
       <c r="VJ3">
-        <v>1.171308926047478</v>
+        <v>1.174438741429922</v>
       </c>
       <c r="VK3">
-        <v>1.171308926047483</v>
+        <v>1.174438741429928</v>
       </c>
       <c r="VL3">
-        <v>1.171800367509182</v>
+        <v>1.174904138184643</v>
       </c>
       <c r="VM3">
-        <v>1.171226448579537</v>
+        <v>1.174475014472592</v>
       </c>
       <c r="VN3">
-        <v>1.166354236898832</v>
+        <v>1.16938419919029</v>
       </c>
       <c r="VO3">
-        <v>1.163738955964608</v>
+        <v>1.166757189631009</v>
       </c>
       <c r="VP3">
-        <v>1.163669122543472</v>
+        <v>1.166695837993917</v>
       </c>
       <c r="VQ3">
-        <v>1.171594248519099</v>
+        <v>1.17473198788426</v>
       </c>
       <c r="VR3">
-        <v>1.171476682216922</v>
+        <v>1.17461115652258</v>
       </c>
       <c r="VS3">
-        <v>1.171308926047484</v>
+        <v>1.17443874142993</v>
       </c>
       <c r="VT3">
-        <v>1.171839345722242</v>
+        <v>1.174941244963742</v>
       </c>
       <c r="VU3">
-        <v>1.171231696360573</v>
+        <v>1.174480440957243</v>
       </c>
       <c r="VV3">
-        <v>1.166365431900785</v>
+        <v>1.169395543722528</v>
       </c>
       <c r="VW3">
-        <v>1.163753584021538</v>
+        <v>1.166771757226661</v>
       </c>
       <c r="VX3">
-        <v>1.164548462218387</v>
+        <v>1.167610696796086</v>
       </c>
       <c r="VY3">
-        <v>1.171706535742948</v>
+        <v>1.174852927144962</v>
       </c>
       <c r="VZ3">
-        <v>1.171608874428516</v>
+        <v>1.174746363443174</v>
       </c>
       <c r="WA3">
-        <v>1.171308926047486</v>
+        <v>1.174438741429931</v>
       </c>
       <c r="WB3">
-        <v>1.172205493563974</v>
+        <v>1.175289813184539</v>
       </c>
       <c r="WC3">
-        <v>1.171266036100246</v>
+        <v>1.17451595006266</v>
       </c>
       <c r="WD3">
-        <v>1.16637888824972</v>
+        <v>1.169409179806246</v>
       </c>
       <c r="WE3">
-        <v>1.163760930774264</v>
+        <v>1.166779073613488</v>
       </c>
       <c r="WF3">
-        <v>1.165063347962567</v>
+        <v>1.168116793477976</v>
       </c>
       <c r="WG3">
-        <v>1.165520320702276</v>
+        <v>1.168625380892363</v>
       </c>
       <c r="WH3">
-        <v>1.171806671985947</v>
+        <v>1.174960779176516</v>
       </c>
       <c r="WI3">
-        <v>1.171706535742948</v>
+        <v>1.174852927144962</v>
       </c>
       <c r="WJ3">
-        <v>1.171706535742948</v>
+        <v>1.174852927144962</v>
       </c>
       <c r="WK3">
-        <v>1.17226007361772</v>
+        <v>1.175386415490386</v>
       </c>
       <c r="WL3">
-        <v>1.171608874428516</v>
+        <v>1.174746363443174</v>
       </c>
       <c r="WM3">
-        <v>1.171308926047487</v>
+        <v>1.174438741429933</v>
       </c>
       <c r="WN3">
-        <v>1.172375902287289</v>
+        <v>1.175452040172238</v>
       </c>
       <c r="WO3">
-        <v>1.171519233944361</v>
+        <v>1.174777769398208</v>
       </c>
       <c r="WP3">
-        <v>1.166387324422647</v>
+        <v>1.169417728660068</v>
       </c>
       <c r="WQ3">
-        <v>1.163767091425012</v>
+        <v>1.16678520880078</v>
       </c>
       <c r="WR3">
-        <v>1.165335055204245</v>
+        <v>1.168383862686089</v>
       </c>
       <c r="WS3">
-        <v>1.166451246914344</v>
+        <v>1.169597328585075</v>
       </c>
       <c r="WT3">
-        <v>1.172025133006512</v>
+        <v>1.175196068928346</v>
       </c>
       <c r="WU3">
-        <v>1.171806671985947</v>
+        <v>1.174960779176516</v>
       </c>
       <c r="WV3">
-        <v>1.171806671985947</v>
+        <v>1.174960779176516</v>
       </c>
       <c r="WW3">
-        <v>1.172413346527267</v>
+        <v>1.175537064688384</v>
       </c>
       <c r="WX3">
-        <v>1.171308926047488</v>
+        <v>1.174438741429934</v>
       </c>
       <c r="WY3">
-        <v>1.1724558820695</v>
+        <v>1.175528179928922</v>
       </c>
       <c r="WZ3">
-        <v>1.166423580261504</v>
+        <v>1.169454468763396</v>
       </c>
       <c r="XA3">
-        <v>1.163772115220271</v>
+        <v>1.166790211831481</v>
       </c>
       <c r="XB3">
-        <v>1.166544170128893</v>
+        <v>1.169687221165492</v>
       </c>
       <c r="XC3">
-        <v>1.166696212754966</v>
+        <v>1.169854390075456</v>
       </c>
       <c r="XD3">
-        <v>1.172322727469193</v>
+        <v>1.175516588039247</v>
       </c>
       <c r="XE3">
-        <v>1.171308926047488</v>
+        <v>1.174438741429935</v>
       </c>
       <c r="XF3">
-        <v>1.172509229837604</v>
+        <v>1.175578966338956</v>
       </c>
       <c r="XG3">
-        <v>1.166576430651664</v>
+        <v>1.169609360752865</v>
       </c>
       <c r="XH3">
-        <v>1.163780001111351</v>
+        <v>1.166798065128268</v>
       </c>
       <c r="XI3">
-        <v>1.166566955166915</v>
+        <v>1.169709263083127</v>
       </c>
       <c r="XJ3">
-        <v>1.166752572482672</v>
+        <v>1.169913532667743</v>
       </c>
       <c r="XK3">
-        <v>1.172410015314284</v>
+        <v>1.175610599949549</v>
       </c>
       <c r="XL3">
-        <v>1.171308926047489</v>
+        <v>1.174438741429936</v>
       </c>
       <c r="XM3">
-        <v>1.172590788669677</v>
+        <v>1.175656609328783</v>
       </c>
       <c r="XN3">
-        <v>1.163798805475895</v>
+        <v>1.166816791769816</v>
       </c>
       <c r="XO3">
-        <v>1.166582601023642</v>
+        <v>1.169724398659542</v>
       </c>
       <c r="XP3">
-        <v>1.166780540956436</v>
+        <v>1.169942882135591</v>
       </c>
       <c r="XQ3">
-        <v>1.172698922026748</v>
+        <v>1.175921762096645</v>
       </c>
       <c r="XR3">
-        <v>1.17130892604749</v>
+        <v>1.174438741429936</v>
       </c>
       <c r="XS3">
-        <v>1.172750072202535</v>
+        <v>1.175808245258663</v>
       </c>
       <c r="XT3">
-        <v>1.163811815052144</v>
+        <v>1.166829747574326</v>
       </c>
       <c r="XU3">
-        <v>1.166604289570176</v>
+        <v>1.169745379846961</v>
       </c>
       <c r="XV3">
-        <v>1.166811276181715</v>
+        <v>1.169975134967991</v>
       </c>
       <c r="XW3">
-        <v>1.171308926047491</v>
+        <v>1.174438741429937</v>
       </c>
       <c r="XX3">
-        <v>1.172794102280848</v>
+        <v>1.175850161341103</v>
       </c>
       <c r="XY3">
-        <v>1.163828356650779</v>
+        <v>1.166846220802504</v>
       </c>
       <c r="XZ3">
-        <v>1.166655719602829</v>
+        <v>1.169795132519198</v>
       </c>
       <c r="YA3">
-        <v>1.166846740131648</v>
+        <v>1.17001235001391</v>
       </c>
       <c r="YB3">
-        <v>1.171308926047492</v>
+        <v>1.174438741429937</v>
       </c>
       <c r="YC3">
-        <v>1.172806884920524</v>
+        <v>1.175862330253697</v>
       </c>
       <c r="YD3">
-        <v>1.163838405531815</v>
+        <v>1.166856228149061</v>
       </c>
       <c r="YE3">
-        <v>1.166694814909095</v>
+        <v>1.169832952754623</v>
       </c>
       <c r="YF3">
-        <v>1.166882591853774</v>
+        <v>1.170049971978496</v>
       </c>
       <c r="YG3">
-        <v>1.171308926047492</v>
+        <v>1.174438741429938</v>
       </c>
       <c r="YH3">
-        <v>1.172812513555055</v>
+        <v>1.17586794428633</v>
       </c>
       <c r="YI3">
-        <v>1.172835885820272</v>
+        <v>1.175888580853875</v>
       </c>
       <c r="YJ3">
-        <v>1.163847477528647</v>
+        <v>1.166865262649112</v>
       </c>
       <c r="YK3">
-        <v>1.16672225922459</v>
+        <v>1.169859501989456</v>
       </c>
       <c r="YL3">
-        <v>1.166922338217441</v>
+        <v>1.170091680888912</v>
       </c>
       <c r="YM3">
-        <v>1.171308926047493</v>
+        <v>1.174438741429938</v>
       </c>
       <c r="YN3">
-        <v>1.172817781478696</v>
+        <v>1.175873198543834</v>
       </c>
       <c r="YO3">
-        <v>1.172874154418846</v>
+        <v>1.175923220250336</v>
       </c>
       <c r="YP3">
-        <v>1.163862777772963</v>
+        <v>1.16688049965377</v>
       </c>
       <c r="YQ3">
-        <v>1.166751009549821</v>
+        <v>1.169887314639125</v>
       </c>
       <c r="YR3">
-        <v>1.166980137939292</v>
+        <v>1.170152334572842</v>
       </c>
       <c r="YS3">
-        <v>1.171308926047494</v>
+        <v>1.174438741429939</v>
       </c>
       <c r="YT3">
-        <v>1.17282320811994</v>
+        <v>1.175878611107193</v>
       </c>
       <c r="YU3">
-        <v>1.173033139958048</v>
+        <v>1.176067128390826</v>
       </c>
       <c r="YV3">
-        <v>1.163877819983919</v>
+        <v>1.166895479691574</v>
       </c>
       <c r="YW3">
-        <v>1.166774613854221</v>
+        <v>1.169910149102408</v>
       </c>
       <c r="YX3">
-        <v>1.167058392497908</v>
+        <v>1.170231425917356</v>
       </c>
       <c r="YY3">
-        <v>1.167107692187157</v>
+        <v>1.170287244448256</v>
       </c>
       <c r="YZ3">
-        <v>1.171308926047494</v>
+        <v>1.174438741429939</v>
       </c>
       <c r="ZA3">
-        <v>1.172862443959549</v>
+        <v>1.175917745160485</v>
       </c>
       <c r="ZB3">
-        <v>1.173100657340429</v>
+        <v>1.176128242756721</v>
       </c>
       <c r="ZC3">
-        <v>1.163884937138588</v>
+        <v>1.16690256742929</v>
       </c>
       <c r="ZD3">
-        <v>1.166813696090856</v>
+        <v>1.169947956693655</v>
       </c>
       <c r="ZE3">
-        <v>1.167105384381912</v>
+        <v>1.170278920279795</v>
       </c>
       <c r="ZF3">
-        <v>1.167915418372686</v>
+        <v>1.171141550519901</v>
       </c>
       <c r="ZG3">
-        <v>1.171308926047494</v>
+        <v>1.174438741429939</v>
       </c>
       <c r="ZH3">
-        <v>1.173148163933233</v>
+        <v>1.176202723912896</v>
       </c>
       <c r="ZI3">
-        <v>1.163892754367797</v>
+        <v>1.166910352347966</v>
       </c>
       <c r="ZJ3">
-        <v>1.166939998350963</v>
+        <v>1.170070139674068</v>
       </c>
       <c r="ZK3">
-        <v>1.167148976173324</v>
+        <v>1.170322978185004</v>
       </c>
       <c r="ZL3">
-        <v>1.168493611968411</v>
+        <v>1.171753088407809</v>
       </c>
       <c r="ZM3">
-        <v>1.163900257234487</v>
+        <v>1.166917824203457</v>
       </c>
       <c r="ZN3">
-        <v>1.167235119541215</v>
+        <v>1.170355635636057</v>
       </c>
       <c r="ZO3">
-        <v>1.167191510137079</v>
+        <v>1.170365966944228</v>
       </c>
       <c r="ZP3">
-        <v>1.169370348465471</v>
+        <v>1.172571688344147</v>
       </c>
       <c r="ZQ3">
-        <v>1.16987806104269</v>
+        <v>1.173250853089721</v>
       </c>
       <c r="ZR3">
-        <v>1.163909305629769</v>
+        <v>1.166926835199485</v>
       </c>
       <c r="ZS3">
-        <v>1.167223413471648</v>
+        <v>1.170398211401267</v>
       </c>
       <c r="ZT3">
-        <v>1.169411663007303</v>
+        <v>1.172605734700133</v>
       </c>
       <c r="ZU3">
-        <v>1.169483879580527</v>
+        <v>1.172690333831068</v>
       </c>
       <c r="ZV3">
-        <v>1.170383954991186</v>
+        <v>1.173756080948891</v>
       </c>
       <c r="ZW3">
-        <v>1.170138378776856</v>
+        <v>1.173534794495964</v>
       </c>
       <c r="ZX3">
-        <v>1.163923738967218</v>
+        <v>1.166941208880377</v>
       </c>
       <c r="ZY3">
-        <v>1.167274094037876</v>
+        <v>1.170449433854865</v>
       </c>
       <c r="ZZ3">
-        <v>1.169424590586453</v>
+        <v>1.172616388018108</v>
       </c>
       <c r="AAA3">
-        <v>1.169715160507618</v>
+        <v>1.172932033555369</v>
       </c>
       <c r="AAB3">
-        <v>1.170677033347847</v>
+        <v>1.174048773418879</v>
       </c>
       <c r="AAC3">
-        <v>1.170626707021593</v>
+        <v>1.17406730808699</v>
       </c>
       <c r="AAD3">
-        <v>1.163963241412718</v>
+        <v>1.166980548052447</v>
       </c>
       <c r="AAE3">
-        <v>1.167359543491419</v>
+        <v>1.170535796928936</v>
       </c>
       <c r="AAF3">
-        <v>1.169432902645948</v>
+        <v>1.172623237793379</v>
       </c>
       <c r="AAG3">
-        <v>1.171914861450292</v>
+        <v>1.175472020025263</v>
       </c>
       <c r="AAH3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086991</v>
       </c>
       <c r="AAI3">
-        <v>1.164015811929217</v>
+        <v>1.167032901281827</v>
       </c>
       <c r="AAJ3">
-        <v>1.167999813408621</v>
+        <v>1.171182911649737</v>
       </c>
       <c r="AAK3">
-        <v>1.169437916246941</v>
+        <v>1.172627369385546</v>
       </c>
       <c r="AAL3">
-        <v>1.173107950316161</v>
+        <v>1.176811688654089</v>
       </c>
       <c r="AAM3">
-        <v>1.172345039265738</v>
+        <v>1.175891129815868</v>
       </c>
       <c r="AAN3">
-        <v>1.170626707021594</v>
+        <v>1.174067308086991</v>
       </c>
       <c r="AAO3">
-        <v>1.164020819100676</v>
+        <v>1.167037887757385</v>
       </c>
       <c r="AAP3">
-        <v>1.168525075112859</v>
+        <v>1.171713787445621</v>
       </c>
       <c r="AAQ3">
-        <v>1.169442983554927</v>
+        <v>1.17263154523638</v>
       </c>
       <c r="AAR3">
-        <v>1.174339381925507</v>
+        <v>1.178194414362885</v>
       </c>
       <c r="AAS3">
-        <v>1.172391090866504</v>
+        <v>1.175935996548229</v>
       </c>
       <c r="AAT3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="AAU3">
-        <v>1.164024779056715</v>
+        <v>1.167041831345927</v>
       </c>
       <c r="AAV3">
-        <v>1.168691496791405</v>
+        <v>1.171881987640457</v>
       </c>
       <c r="AAW3">
-        <v>1.169447509727226</v>
+        <v>1.172635275149844</v>
       </c>
       <c r="AAX3">
-        <v>1.174711334863124</v>
+        <v>1.178632599180651</v>
       </c>
       <c r="AAY3">
-        <v>1.175364127753839</v>
+        <v>1.179200410905493</v>
       </c>
       <c r="AAZ3">
-        <v>1.172408674008623</v>
+        <v>1.175953127290643</v>
       </c>
       <c r="ABA3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ABB3">
-        <v>1.164028625123213</v>
+        <v>1.167045661515662</v>
       </c>
       <c r="ABC3">
-        <v>1.168843002682336</v>
+        <v>1.172035112549966</v>
       </c>
       <c r="ABD3">
-        <v>1.16945260915103</v>
+        <v>1.172639477466541</v>
       </c>
       <c r="ABE3">
-        <v>1.17521676599366</v>
+        <v>1.179228030844978</v>
       </c>
       <c r="ABF3">
-        <v>1.175501590442675</v>
+        <v>1.179335358496592</v>
       </c>
       <c r="ABG3">
-        <v>1.172427273494837</v>
+        <v>1.175971248227186</v>
       </c>
       <c r="ABH3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ABI3">
-        <v>1.164032744675075</v>
+        <v>1.167049764040375</v>
       </c>
       <c r="ABJ3">
-        <v>1.168925520985945</v>
+        <v>1.172118512620367</v>
       </c>
       <c r="ABK3">
-        <v>1.169456694820245</v>
+        <v>1.172642844371618</v>
       </c>
       <c r="ABL3">
-        <v>1.175808531303674</v>
+        <v>1.179925171157054</v>
       </c>
       <c r="ABM3">
-        <v>1.175573810188547</v>
+        <v>1.179406256866961</v>
       </c>
       <c r="ABN3">
-        <v>1.172442709456003</v>
+        <v>1.175986287033397</v>
       </c>
       <c r="ABO3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ABP3">
-        <v>1.164036553511937</v>
+        <v>1.167053557134351</v>
       </c>
       <c r="ABQ3">
-        <v>1.168991424829674</v>
+        <v>1.172185120674163</v>
       </c>
       <c r="ABR3">
-        <v>1.169461595583528</v>
+        <v>1.172646882976763</v>
       </c>
       <c r="ABS3">
-        <v>1.1762837007649</v>
+        <v>1.180484954468329</v>
       </c>
       <c r="ABT3">
-        <v>1.175778584166258</v>
+        <v>1.179610674294936</v>
       </c>
       <c r="ABU3">
-        <v>1.175580503812516</v>
+        <v>1.179412717377087</v>
       </c>
       <c r="ABV3">
-        <v>1.172460989430756</v>
+        <v>1.176004096678746</v>
       </c>
       <c r="ABW3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ABX3">
-        <v>1.164040142938146</v>
+        <v>1.167057131724553</v>
       </c>
       <c r="ABY3">
-        <v>1.169047622102495</v>
+        <v>1.172241918424688</v>
       </c>
       <c r="ABZ3">
-        <v>1.169466876742292</v>
+        <v>1.172651235056964</v>
       </c>
       <c r="ACA3">
-        <v>1.176398175091181</v>
+        <v>1.180623109605273</v>
       </c>
       <c r="ACB3">
-        <v>1.176866910042154</v>
+        <v>1.181141002195205</v>
       </c>
       <c r="ACC3">
-        <v>1.175945040200388</v>
+        <v>1.179776840497245</v>
       </c>
       <c r="ACD3">
-        <v>1.175585344264852</v>
+        <v>1.1794173892546</v>
       </c>
       <c r="ACE3">
-        <v>1.172478816851475</v>
+        <v>1.176021465413658</v>
       </c>
       <c r="ACF3">
-        <v>1.170626707021595</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ACG3">
-        <v>1.164045135143282</v>
+        <v>1.167062103295642</v>
       </c>
       <c r="ACH3">
-        <v>1.169113570032464</v>
+        <v>1.172308571003871</v>
       </c>
       <c r="ACI3">
-        <v>1.169476511941381</v>
+        <v>1.172659175200554</v>
       </c>
       <c r="ACJ3">
-        <v>1.176556002407333</v>
+        <v>1.180813586067026</v>
       </c>
       <c r="ACK3">
-        <v>1.177354397803449</v>
+        <v>1.181689373686027</v>
       </c>
       <c r="ACL3">
-        <v>1.175589429175141</v>
+        <v>1.17942133190276</v>
       </c>
       <c r="ACM3">
-        <v>1.17250332574068</v>
+        <v>1.176045343707594</v>
       </c>
       <c r="ACN3">
-        <v>1.170626707021594</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ACO3">
-        <v>1.164051252886448</v>
+        <v>1.167068195752626</v>
       </c>
       <c r="ACP3">
-        <v>1.16917382931684</v>
+        <v>1.172369474139591</v>
       </c>
       <c r="ACQ3">
-        <v>1.169548598284212</v>
+        <v>1.172718579877799</v>
       </c>
       <c r="ACR3">
-        <v>1.176944264928544</v>
+        <v>1.181282167438411</v>
       </c>
       <c r="ACS3">
-        <v>1.177554584559894</v>
+        <v>1.181888752503597</v>
       </c>
       <c r="ACT3">
-        <v>1.177359987710486</v>
+        <v>1.181696596298343</v>
       </c>
       <c r="ACU3">
-        <v>1.175596329061349</v>
+        <v>1.179427991491764</v>
       </c>
       <c r="ACV3">
-        <v>1.172537041691204</v>
+        <v>1.176078192171296</v>
       </c>
       <c r="ACW3">
-        <v>1.170626707021594</v>
+        <v>1.174067308086993</v>
       </c>
       <c r="ACX3">
-        <v>1.164080249404523</v>
+        <v>1.167097072420723</v>
       </c>
       <c r="ACY3">
-        <v>1.169267314477455</v>
+        <v>1.172463958131019</v>
       </c>
       <c r="ACZ3">
-        <v>1.169769506629179</v>
+        <v>1.172900625279179</v>
       </c>
       <c r="ADA3">
-        <v>1.177258959839441</v>
+        <v>1.181661962915846</v>
       </c>
       <c r="ADB3">
-        <v>1.177750746309589</v>
+        <v>1.182084122557551</v>
       </c>
       <c r="ADC3">
-        <v>1.177365332378856</v>
+        <v>1.181703502042505</v>
       </c>
       <c r="ADD3">
-        <v>1.175605991535617</v>
+        <v>1.179437317458215</v>
       </c>
       <c r="ADE3">
-        <v>1.172572722720732</v>
+        <v>1.176112955152944</v>
       </c>
       <c r="ADF3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="ADG3">
-        <v>1.16432817805488</v>
+        <v>1.167343976317543</v>
       </c>
       <c r="ADH3">
-        <v>1.169456051955468</v>
+        <v>1.172654712046106</v>
       </c>
       <c r="ADI3">
-        <v>1.177504854819448</v>
+        <v>1.181958726184504</v>
       </c>
       <c r="ADJ3">
-        <v>1.177371094210738</v>
+        <v>1.181710946795752</v>
       </c>
       <c r="ADK3">
-        <v>1.175613161317928</v>
+        <v>1.17944423754383</v>
       </c>
       <c r="ADL3">
-        <v>1.172596424655975</v>
+        <v>1.176136047253435</v>
       </c>
       <c r="ADM3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="ADN3">
-        <v>1.169493392130824</v>
+        <v>1.172692101613876</v>
       </c>
       <c r="ADO3">
-        <v>1.169569550551091</v>
+        <v>1.172771506927191</v>
       </c>
       <c r="ADP3">
-        <v>1.17772709753874</v>
+        <v>1.182226944463058</v>
       </c>
       <c r="ADQ3">
-        <v>1.177376239086569</v>
+        <v>1.181717594391885</v>
       </c>
       <c r="ADR3">
-        <v>1.175625038361417</v>
+        <v>1.179455700954305</v>
       </c>
       <c r="ADS3">
-        <v>1.172620547525763</v>
+        <v>1.17615954945764</v>
       </c>
       <c r="ADT3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="ADU3">
-        <v>1.169525956299595</v>
+        <v>1.17272470885038</v>
       </c>
       <c r="ADV3">
-        <v>1.169751164953438</v>
+        <v>1.17295839586732</v>
       </c>
       <c r="ADW3">
-        <v>1.177745696084948</v>
+        <v>1.182249175823744</v>
       </c>
       <c r="ADX3">
-        <v>1.177798869515158</v>
+        <v>1.182314332871378</v>
       </c>
       <c r="ADY3">
-        <v>1.177381920744705</v>
+        <v>1.181724935554277</v>
       </c>
       <c r="ADZ3">
-        <v>1.175707477165384</v>
+        <v>1.179535268722271</v>
       </c>
       <c r="AEA3">
-        <v>1.172632081707096</v>
+        <v>1.176170786871901</v>
       </c>
       <c r="AEB3">
-        <v>1.170626707021592</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="AEC3">
-        <v>1.169552888358828</v>
+        <v>1.172751676523584</v>
       </c>
       <c r="AED3">
-        <v>1.169906336823392</v>
+        <v>1.173118074315154</v>
       </c>
       <c r="AEE3">
-        <v>1.177764343494069</v>
+        <v>1.18227146559162</v>
       </c>
       <c r="AEF3">
-        <v>1.177913545427208</v>
+        <v>1.182453960127609</v>
       </c>
       <c r="AEG3">
-        <v>1.177798869515158</v>
+        <v>1.182314332871378</v>
       </c>
       <c r="AEH3">
-        <v>1.177385583896515</v>
+        <v>1.181729668643076</v>
       </c>
       <c r="AEI3">
-        <v>1.175889574440479</v>
+        <v>1.179711024224177</v>
       </c>
       <c r="AEJ3">
-        <v>1.172650428222046</v>
+        <v>1.176188661342592</v>
       </c>
       <c r="AEK3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="AEL3">
-        <v>1.1695738320421</v>
+        <v>1.172772647898878</v>
       </c>
       <c r="AEM3">
-        <v>1.1699941580743</v>
+        <v>1.173208446113093</v>
       </c>
       <c r="AEN3">
-        <v>1.177783027098294</v>
+        <v>1.182293798624501</v>
       </c>
       <c r="AEO3">
-        <v>1.17800969753684</v>
+        <v>1.182571033203772</v>
       </c>
       <c r="AEP3">
-        <v>1.177913545427208</v>
+        <v>1.182453960127609</v>
       </c>
       <c r="AEQ3">
-        <v>1.177391210247572</v>
+        <v>1.181736938344339</v>
       </c>
       <c r="AER3">
-        <v>1.172667651526637</v>
+        <v>1.176205441502169</v>
       </c>
       <c r="AES3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="AET3">
-        <v>1.169595133069387</v>
+        <v>1.172793977087854</v>
       </c>
       <c r="AEU3">
-        <v>1.177801597601368</v>
+        <v>1.182315996464412</v>
       </c>
       <c r="AEV3">
-        <v>1.178113058853177</v>
+        <v>1.182696884138074</v>
       </c>
       <c r="AEW3">
-        <v>1.17800969753684</v>
+        <v>1.182571033203772</v>
       </c>
       <c r="AEX3">
-        <v>1.177437488414212</v>
+        <v>1.181796733486088</v>
       </c>
       <c r="AEY3">
-        <v>1.172692260768036</v>
+        <v>1.176229417562532</v>
       </c>
       <c r="AEZ3">
-        <v>1.170626707021593</v>
+        <v>1.174067308086992</v>
       </c>
       <c r="AFA3">
-        <v>1.16961361857801</v>
+        <v>1.172812487033519</v>
       </c>
       <c r="AFB3">
-        <v>1.177820238683452</v>
+        <v>1.182338278669367</v>
       </c>
       <c r="AFC3">
-        <v>1.178197922339425</v>
+        <v>1.182800212482259</v>
       </c>
       <c r="AFD3">
-        <v>1.178113058853177</v>
+        <v>1.182696884138074</v>
       </c>
       <c r="AFE3">
-        <v>1.1775969839719</v>
+        <v>1.18200281470267</v>
       </c>
       <c r="AFF3">
-        <v>1.172952028237712</v>
+        <v>1.176482501340834</v>
       </c>
       <c r="AFG3">
-        <v>1.169626895154487</v>
+        <v>1.172825781159735</v>
       </c>
       <c r="AFH3">
-        <v>1.177838867099781</v>
+        <v>1.182360545734579</v>
       </c>
       <c r="AFI3">
-        <v>1.178289032817707</v>
+        <v>1.182911147103198</v>
       </c>
       <c r="AFJ3">
-        <v>1.178197922339425</v>
+        <v>1.182800212482259</v>
       </c>
       <c r="AFK3">
-        <v>1.173055928787492</v>
+        <v>1.17658372856436</v>
       </c>
       <c r="AFL3">
-        <v>1.169642309286646</v>
+        <v>1.172841215665791</v>
       </c>
       <c r="AFM3">
-        <v>1.177857507280129</v>
+        <v>1.18238282686164</v>
       </c>
       <c r="AFN3">
-        <v>1.17876974715084</v>
+        <v>1.183496454337318</v>
       </c>
       <c r="AFO3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103201</v>
       </c>
       <c r="AFP3">
-        <v>1.178289032817707</v>
+        <v>1.182911147103198</v>
       </c>
       <c r="AFQ3">
-        <v>1.17310868932698</v>
+        <v>1.176635131589527</v>
       </c>
       <c r="AFR3">
-        <v>1.169665530889184</v>
+        <v>1.172864467959079</v>
       </c>
       <c r="AFS3">
-        <v>1.177866606142914</v>
+        <v>1.182393702985902</v>
       </c>
       <c r="AFT3">
-        <v>1.178840077139343</v>
+        <v>1.183582086608947</v>
       </c>
       <c r="AFU3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103203</v>
       </c>
       <c r="AFV3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103201</v>
       </c>
       <c r="AFW3">
-        <v>1.173120364214591</v>
+        <v>1.176646506085153</v>
       </c>
       <c r="AFX3">
-        <v>1.169703470317044</v>
+        <v>1.172902457522187</v>
       </c>
       <c r="AFY3">
-        <v>1.1780711044921</v>
+        <v>1.182638145561042</v>
       </c>
       <c r="AFZ3">
-        <v>1.179038212688956</v>
+        <v>1.183823332191819</v>
       </c>
       <c r="AGA3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103207</v>
       </c>
       <c r="AGB3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103203</v>
       </c>
       <c r="AGC3">
-        <v>1.173129558761581</v>
+        <v>1.176655464058632</v>
       </c>
       <c r="AGD3">
-        <v>1.169857163015968</v>
+        <v>1.173054719626617</v>
       </c>
       <c r="AGE3">
-        <v>1.17010488040242</v>
+        <v>1.173308747688943</v>
       </c>
       <c r="AGF3">
-        <v>1.1782040860046</v>
+        <v>1.182797102067655</v>
       </c>
       <c r="AGG3">
-        <v>1.179270873725588</v>
+        <v>1.184106615314905</v>
       </c>
       <c r="AGH3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103208</v>
       </c>
       <c r="AGI3">
-        <v>1.178289032817708</v>
+        <v>1.182911147103207</v>
       </c>
       <c r="AGJ3">
-        <v>1.173139410117151</v>
+        <v>1.176665061941087</v>
       </c>
       <c r="AGK3">
-        <v>1.178320391755799</v>
+        <v>1.182936125571679</v>
       </c>
       <c r="AGL3">
-        <v>1.179301054901787</v>
+        <v>1.184143363276209</v>
       </c>
       <c r="AGM3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103209</v>
       </c>
       <c r="AGN3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103208</v>
       </c>
       <c r="AGO3">
-        <v>1.173147291921657</v>
+        <v>1.176672740948518</v>
       </c>
       <c r="AGP3">
-        <v>1.178442388921775</v>
+        <v>1.183081952181776</v>
       </c>
       <c r="AGQ3">
-        <v>1.179323700305806</v>
+        <v>1.184166631769684</v>
       </c>
       <c r="AGR3">
-        <v>1.179335074535205</v>
+        <v>1.184194360947005</v>
       </c>
       <c r="AGS3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103209</v>
       </c>
       <c r="AGT3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103209</v>
       </c>
       <c r="AGU3">
-        <v>1.173154944830901</v>
+        <v>1.176680196950063</v>
       </c>
       <c r="AGV3">
-        <v>1.17865069727704</v>
+        <v>1.183330948958883</v>
       </c>
       <c r="AGW3">
-        <v>1.179344654705188</v>
+        <v>1.184188162730479</v>
       </c>
       <c r="AGX3">
-        <v>1.179414689656436</v>
+        <v>1.184313709269603</v>
       </c>
       <c r="AGY3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103209</v>
       </c>
       <c r="AGZ3">
-        <v>1.178289032817709</v>
+        <v>1.182911147103209</v>
       </c>
       <c r="AHA3">
-        <v>1.173162578329689</v>
+        <v>1.176687634040531</v>
       </c>
       <c r="AHB3">
-        <v>1.178701790863652</v>
+        <v>1.183392022545336</v>
       </c>
       <c r="AHC3">
-        <v>1.179376517710399</v>
+        <v>1.184220902448041</v>
       </c>
       <c r="AHD3">
-        <v>1.179603560629922</v>
+        <v>1.184596839399955</v>
       </c>
       <c r="AHE3">
-        <v>1.173170122516473</v>
+        <v>1.176694984116928</v>
       </c>
       <c r="AHF3">
-        <v>1.17873479692981</v>
+        <v>1.183425453166413</v>
       </c>
       <c r="AHG3">
-        <v>1.178791113916519</v>
+        <v>1.183521878874621</v>
       </c>
       <c r="AHH3">
-        <v>1.179416783843241</v>
+        <v>1.184262276505871</v>
       </c>
       <c r="AHI3">
-        <v>1.173305028305815</v>
+        <v>1.176826418800015</v>
       </c>
       <c r="AHJ3">
-        <v>1.178788990196292</v>
+        <v>1.183480343516911</v>
       </c>
       <c r="AHK3">
-        <v>1.178866871959379</v>
+        <v>1.183632014637001</v>
       </c>
       <c r="AHL3">
-        <v>1.179573539178888</v>
+        <v>1.184423344974942</v>
       </c>
       <c r="AHM3">
-        <v>1.173624918911288</v>
+        <v>1.177145315043607</v>
       </c>
       <c r="AHN3">
-        <v>1.173481429449853</v>
+        <v>1.176994232769263</v>
       </c>
       <c r="AHO3">
-        <v>1.178799705396173</v>
+        <v>1.183491196545549</v>
       </c>
       <c r="AHP3">
-        <v>1.178994205833055</v>
+        <v>1.183817130497538</v>
       </c>
       <c r="AHQ3">
-        <v>1.179858295787877</v>
+        <v>1.184715936685907</v>
       </c>
       <c r="AHR3">
-        <v>1.173837363203016</v>
+        <v>1.177357098897778</v>
       </c>
       <c r="AHS3">
-        <v>1.178808759509768</v>
+        <v>1.183500367121462</v>
       </c>
       <c r="AHT3">
-        <v>1.178816389381498</v>
+        <v>1.18350809513559</v>
       </c>
       <c r="AHU3">
-        <v>1.178826314572782</v>
+        <v>1.183518147993757</v>
       </c>
       <c r="AHV3">
-        <v>1.178844277624449</v>
+        <v>1.18353634210256</v>
       </c>
       <c r="AHW3">
-        <v>1.178875422343228</v>
+        <v>1.183567887432926</v>
       </c>
       <c r="AHX3">
-        <v>1.179130530540113</v>
+        <v>1.183826277054745</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049815253050016</v>
+        <v>1.049683784483872</v>
       </c>
       <c r="D2">
-        <v>1.04971312135882</v>
+        <v>1.049511095134641</v>
       </c>
       <c r="E2">
-        <v>1.049702414288196</v>
+        <v>1.049492991102812</v>
       </c>
       <c r="F2">
-        <v>1.049692383446151</v>
+        <v>1.049476030473721</v>
       </c>
       <c r="G2">
-        <v>1.049683637993765</v>
+        <v>1.049461243245374</v>
       </c>
       <c r="H2">
-        <v>1.04966986047534</v>
+        <v>1.049437947563771</v>
       </c>
       <c r="I2">
-        <v>1.04873168458514</v>
+        <v>1.047851647396675</v>
       </c>
       <c r="J2">
-        <v>1.048689665604744</v>
+        <v>1.047780600815321</v>
       </c>
       <c r="K2">
-        <v>1.048654692450463</v>
+        <v>1.047721467502627</v>
       </c>
       <c r="L2">
-        <v>1.048624000741637</v>
+        <v>1.047669573371533</v>
       </c>
       <c r="M2">
-        <v>1.048601098938911</v>
+        <v>1.04763085058013</v>
       </c>
       <c r="N2">
-        <v>1.048579599792608</v>
+        <v>1.047594499439174</v>
       </c>
       <c r="O2">
-        <v>1.048566379786101</v>
+        <v>1.047572146822077</v>
       </c>
       <c r="P2">
-        <v>1.048533467911647</v>
+        <v>1.047516498872656</v>
       </c>
       <c r="Q2">
-        <v>1.048266855154896</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="R2">
-        <v>1.048266855154896</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="S2">
-        <v>1.047943543878754</v>
+        <v>1.046519050449324</v>
       </c>
       <c r="T2">
-        <v>1.048266855154896</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="U2">
-        <v>1.047921298182402</v>
+        <v>1.046481437428986</v>
       </c>
       <c r="V2">
-        <v>1.048266855154895</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="W2">
-        <v>1.047896318875933</v>
+        <v>1.046439202437232</v>
       </c>
       <c r="X2">
-        <v>1.048266855154895</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="Y2">
-        <v>1.047855647542333</v>
+        <v>1.046370435414996</v>
       </c>
       <c r="Z2">
-        <v>1.048266855154894</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="AA2">
-        <v>1.047781656640983</v>
+        <v>1.046245331840355</v>
       </c>
       <c r="AB2">
-        <v>1.048266855154893</v>
+        <v>1.047065706642896</v>
       </c>
       <c r="AC2">
-        <v>1.047764650032541</v>
+        <v>1.046139831580725</v>
       </c>
       <c r="AD2">
-        <v>1.046865604474644</v>
+        <v>1.044746731770068</v>
       </c>
       <c r="AE2">
-        <v>1.048266855154892</v>
+        <v>1.047065706642897</v>
       </c>
       <c r="AF2">
-        <v>1.047763138927002</v>
+        <v>1.046130750661973</v>
       </c>
       <c r="AG2">
-        <v>1.047761558234631</v>
+        <v>1.046120365995013</v>
       </c>
       <c r="AH2">
-        <v>1.046621740190212</v>
+        <v>1.044347789583163</v>
       </c>
       <c r="AI2">
-        <v>1.048266855154891</v>
+        <v>1.047065706642898</v>
       </c>
       <c r="AJ2">
-        <v>1.047759678388661</v>
+        <v>1.046109954718528</v>
       </c>
       <c r="AK2">
-        <v>1.047761453530629</v>
+        <v>1.04611970679131</v>
       </c>
       <c r="AL2">
-        <v>1.046582858065638</v>
+        <v>1.044283331303131</v>
       </c>
       <c r="AM2">
-        <v>1.045905496900619</v>
+        <v>1.043176544283423</v>
       </c>
       <c r="AN2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642899</v>
       </c>
       <c r="AO2">
-        <v>1.04776130298521</v>
+        <v>1.046118758975611</v>
       </c>
       <c r="AP2">
-        <v>1.046581295307573</v>
+        <v>1.044279975069945</v>
       </c>
       <c r="AQ2">
-        <v>1.046577649864515</v>
+        <v>1.044278153737181</v>
       </c>
       <c r="AR2">
-        <v>1.045408478902079</v>
+        <v>1.042363797174485</v>
       </c>
       <c r="AS2">
-        <v>1.045905496900619</v>
+        <v>1.04317654428342</v>
       </c>
       <c r="AT2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642899</v>
       </c>
       <c r="AU2">
-        <v>1.047761109920987</v>
+        <v>1.046117543466678</v>
       </c>
       <c r="AV2">
-        <v>1.046580590925754</v>
+        <v>1.044278462315237</v>
       </c>
       <c r="AW2">
-        <v>1.046565117946909</v>
+        <v>1.0442656955336</v>
       </c>
       <c r="AX2">
-        <v>1.045032907726173</v>
+        <v>1.041749649659442</v>
       </c>
       <c r="AY2">
-        <v>1.045905496900618</v>
+        <v>1.043176544283418</v>
       </c>
       <c r="AZ2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642899</v>
       </c>
       <c r="BA2">
-        <v>1.047760639722645</v>
+        <v>1.046114583154987</v>
       </c>
       <c r="BB2">
-        <v>1.046579844431818</v>
+        <v>1.044276859119101</v>
       </c>
       <c r="BC2">
-        <v>1.044978758208949</v>
+        <v>1.041661102707437</v>
       </c>
       <c r="BD2">
-        <v>1.045032907726172</v>
+        <v>1.041749649659448</v>
       </c>
       <c r="BE2">
-        <v>1.045905496900618</v>
+        <v>1.043176544283417</v>
       </c>
       <c r="BF2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642899</v>
       </c>
       <c r="BG2">
-        <v>1.047760237147018</v>
+        <v>1.046112048587732</v>
       </c>
       <c r="BH2">
-        <v>1.046579133448008</v>
+        <v>1.044275332185742</v>
       </c>
       <c r="BI2">
-        <v>1.044733476085</v>
+        <v>1.041260010766378</v>
       </c>
       <c r="BJ2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659448</v>
       </c>
       <c r="BK2">
-        <v>1.045905496900618</v>
+        <v>1.043176544283416</v>
       </c>
       <c r="BL2">
-        <v>1.048266855154889</v>
+        <v>1.0470657066429</v>
       </c>
       <c r="BM2">
-        <v>1.047758307343821</v>
+        <v>1.046099898781589</v>
       </c>
       <c r="BN2">
-        <v>1.04657870763903</v>
+        <v>1.044274417703695</v>
       </c>
       <c r="BO2">
-        <v>1.044684650927646</v>
+        <v>1.041179093402414</v>
       </c>
       <c r="BP2">
-        <v>1.044693846881486</v>
+        <v>1.041236270099824</v>
       </c>
       <c r="BQ2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659448</v>
       </c>
       <c r="BR2">
-        <v>1.045905496900618</v>
+        <v>1.043176544283414</v>
       </c>
       <c r="BS2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642901</v>
       </c>
       <c r="BT2">
-        <v>1.047751486151236</v>
+        <v>1.046056953388548</v>
       </c>
       <c r="BU2">
-        <v>1.046577872233081</v>
+        <v>1.044272623557071</v>
       </c>
       <c r="BV2">
-        <v>1.044107803836814</v>
+        <v>1.04022309616928</v>
       </c>
       <c r="BW2">
-        <v>1.044682186962502</v>
+        <v>1.041236270099824</v>
       </c>
       <c r="BX2">
-        <v>1.044686136323083</v>
+        <v>1.041224665827665</v>
       </c>
       <c r="BY2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659449</v>
       </c>
       <c r="BZ2">
-        <v>1.045905496900617</v>
+        <v>1.043176544283412</v>
       </c>
       <c r="CA2">
-        <v>1.048266855154889</v>
+        <v>1.047065706642905</v>
       </c>
       <c r="CB2">
-        <v>1.046573638363777</v>
+        <v>1.044263530753509</v>
       </c>
       <c r="CC2">
-        <v>1.043906731605365</v>
+        <v>1.039889865203133</v>
       </c>
       <c r="CD2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659449</v>
       </c>
       <c r="CE2">
-        <v>1.045905496900613</v>
+        <v>1.043176544283403</v>
       </c>
       <c r="CF2">
-        <v>1.04826685515489</v>
+        <v>1.04706570664291</v>
       </c>
       <c r="CG2">
-        <v>1.046557684201539</v>
+        <v>1.044229267047333</v>
       </c>
       <c r="CH2">
-        <v>1.043862851182545</v>
+        <v>1.039817143638456</v>
       </c>
       <c r="CI2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659449</v>
       </c>
       <c r="CJ2">
-        <v>1.045905496900606</v>
+        <v>1.043176544283387</v>
       </c>
       <c r="CK2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642913</v>
       </c>
       <c r="CL2">
-        <v>1.043773868741159</v>
+        <v>1.039669676154639</v>
       </c>
       <c r="CM2">
-        <v>1.045032907726171</v>
+        <v>1.041749649659449</v>
       </c>
       <c r="CN2">
-        <v>1.045905496900604</v>
+        <v>1.043176544283383</v>
       </c>
       <c r="CO2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642915</v>
       </c>
       <c r="CP2">
-        <v>1.043689954328258</v>
+        <v>1.0395306079279</v>
       </c>
       <c r="CQ2">
-        <v>1.045905496900604</v>
+        <v>1.043176544283382</v>
       </c>
       <c r="CR2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642915</v>
       </c>
       <c r="CS2">
-        <v>1.043641180206193</v>
+        <v>1.03944977647976</v>
       </c>
       <c r="CT2">
-        <v>1.045905496900603</v>
+        <v>1.043176544283382</v>
       </c>
       <c r="CU2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642915</v>
       </c>
       <c r="CV2">
-        <v>1.043608968570886</v>
+        <v>1.039396393428618</v>
       </c>
       <c r="CW2">
-        <v>1.045905496900603</v>
+        <v>1.043176544283382</v>
       </c>
       <c r="CX2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642915</v>
       </c>
       <c r="CY2">
-        <v>1.043564493326813</v>
+        <v>1.039322686435529</v>
       </c>
       <c r="CZ2">
-        <v>1.045905496900581</v>
+        <v>1.043176544283395</v>
       </c>
       <c r="DA2">
-        <v>1.04826685515489</v>
+        <v>1.047065706642915</v>
       </c>
       <c r="DB2">
-        <v>1.043564085229125</v>
+        <v>1.039320898098029</v>
       </c>
       <c r="DC2">
-        <v>1.043537510958608</v>
+        <v>1.0392844621325</v>
       </c>
       <c r="DD2">
-        <v>1.04590549690058</v>
+        <v>1.043176544283395</v>
       </c>
       <c r="DE2">
-        <v>1.043563591487338</v>
+        <v>1.039318734458704</v>
       </c>
       <c r="DF2">
-        <v>1.043522210625558</v>
+        <v>1.039262787072761</v>
       </c>
       <c r="DG2">
-        <v>1.045905496900578</v>
+        <v>1.043176544283397</v>
       </c>
       <c r="DH2">
-        <v>1.04356301920556</v>
+        <v>1.039316226649647</v>
       </c>
       <c r="DI2">
-        <v>1.04291850478675</v>
+        <v>1.038407556056274</v>
       </c>
       <c r="DJ2">
-        <v>1.045905496900526</v>
+        <v>1.043176544283437</v>
       </c>
       <c r="DK2">
-        <v>1.043562146645963</v>
+        <v>1.039312402991463</v>
       </c>
       <c r="DL2">
-        <v>1.042858027088781</v>
+        <v>1.038321881499639</v>
       </c>
       <c r="DM2">
-        <v>1.045905496900481</v>
+        <v>1.043176544283474</v>
       </c>
       <c r="DN2">
-        <v>1.043561024853032</v>
+        <v>1.039307487172844</v>
       </c>
       <c r="DO2">
-        <v>1.042855726209015</v>
+        <v>1.038317885265306</v>
       </c>
       <c r="DP2">
-        <v>1.04270110180469</v>
+        <v>1.038107070008828</v>
       </c>
       <c r="DQ2">
-        <v>1.045905496900477</v>
+        <v>1.043176544283477</v>
       </c>
       <c r="DR2">
-        <v>1.043560219513348</v>
+        <v>1.039303958093133</v>
       </c>
       <c r="DS2">
-        <v>1.042855726209015</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="DT2">
-        <v>1.042854605925616</v>
+        <v>1.038315939526153</v>
       </c>
       <c r="DU2">
-        <v>1.042418111639876</v>
+        <v>1.037719693283488</v>
       </c>
       <c r="DV2">
-        <v>1.045905496900474</v>
+        <v>1.04317654428348</v>
       </c>
       <c r="DW2">
-        <v>1.043559081574947</v>
+        <v>1.039298971541372</v>
       </c>
       <c r="DX2">
-        <v>1.042855726209014</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="DY2">
-        <v>1.042849343218785</v>
+        <v>1.038306799123522</v>
       </c>
       <c r="DZ2">
-        <v>1.042290852828218</v>
+        <v>1.037545493424128</v>
       </c>
       <c r="EA2">
-        <v>1.045905496900472</v>
+        <v>1.043176544283482</v>
       </c>
       <c r="EB2">
-        <v>1.043557850408231</v>
+        <v>1.039293576466441</v>
       </c>
       <c r="EC2">
-        <v>1.042855726209014</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="ED2">
-        <v>1.042834718516003</v>
+        <v>1.038281003329576</v>
       </c>
       <c r="EE2">
-        <v>1.042836530834738</v>
+        <v>1.038284603804419</v>
       </c>
       <c r="EF2">
-        <v>1.042252990044094</v>
+        <v>1.037493664573558</v>
       </c>
       <c r="EG2">
-        <v>1.045905496900464</v>
+        <v>1.043176544283489</v>
       </c>
       <c r="EH2">
-        <v>1.043556689319715</v>
+        <v>1.039288488491399</v>
       </c>
       <c r="EI2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265304</v>
       </c>
       <c r="EJ2">
-        <v>1.042833459043295</v>
+        <v>1.038278781807688</v>
       </c>
       <c r="EK2">
-        <v>1.04282699915948</v>
+        <v>1.038268091841464</v>
       </c>
       <c r="EL2">
-        <v>1.042210250568505</v>
+        <v>1.037435160274625</v>
       </c>
       <c r="EM2">
-        <v>1.045905496900458</v>
+        <v>1.043176544283494</v>
       </c>
       <c r="EN2">
-        <v>1.043554780306549</v>
+        <v>1.039280123079719</v>
       </c>
       <c r="EO2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265303</v>
       </c>
       <c r="EP2">
-        <v>1.04283222326132</v>
+        <v>1.03827660207273</v>
       </c>
       <c r="EQ2">
-        <v>1.042820616059983</v>
+        <v>1.038257034272069</v>
       </c>
       <c r="ER2">
-        <v>1.042170054984752</v>
+        <v>1.037380138261518</v>
       </c>
       <c r="ES2">
-        <v>1.045905496900457</v>
+        <v>1.043176544283495</v>
       </c>
       <c r="ET2">
-        <v>1.043545703393814</v>
+        <v>1.039240347905637</v>
       </c>
       <c r="EU2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265303</v>
       </c>
       <c r="EV2">
-        <v>1.042831225419725</v>
+        <v>1.038274842029097</v>
       </c>
       <c r="EW2">
-        <v>1.04281529956217</v>
+        <v>1.038250657500633</v>
       </c>
       <c r="EX2">
-        <v>1.04280097635892</v>
+        <v>1.038170414098107</v>
       </c>
       <c r="EY2">
-        <v>1.042123154551271</v>
+        <v>1.037315938337369</v>
       </c>
       <c r="EZ2">
-        <v>1.045905496900457</v>
+        <v>1.043176544283495</v>
       </c>
       <c r="FA2">
-        <v>1.043543726041751</v>
+        <v>1.039231683207525</v>
       </c>
       <c r="FB2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265303</v>
       </c>
       <c r="FC2">
-        <v>1.042829727738785</v>
+        <v>1.038272200343479</v>
       </c>
       <c r="FD2">
-        <v>1.042801199969434</v>
+        <v>1.038233746032763</v>
       </c>
       <c r="FE2">
-        <v>1.04279978096055</v>
+        <v>1.038165141838935</v>
       </c>
       <c r="FF2">
-        <v>1.042109659222559</v>
+        <v>1.037297465194276</v>
       </c>
       <c r="FG2">
-        <v>1.045905496900457</v>
+        <v>1.043176544283495</v>
       </c>
       <c r="FH2">
-        <v>1.043476356948011</v>
+        <v>1.038825582514314</v>
       </c>
       <c r="FI2">
-        <v>1.043538594371555</v>
+        <v>1.039213059131201</v>
       </c>
       <c r="FJ2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265303</v>
       </c>
       <c r="FK2">
-        <v>1.04282792211709</v>
+        <v>1.038269015496358</v>
       </c>
       <c r="FL2">
-        <v>1.042796302436126</v>
+        <v>1.038227871792979</v>
       </c>
       <c r="FM2">
-        <v>1.042798688900829</v>
+        <v>1.038160325351067</v>
       </c>
       <c r="FN2">
-        <v>1.042032990330605</v>
+        <v>1.037192516746629</v>
       </c>
       <c r="FO2">
-        <v>1.045905496900457</v>
+        <v>1.043176544283495</v>
       </c>
       <c r="FP2">
-        <v>1.043463629790346</v>
+        <v>1.038748863333444</v>
       </c>
       <c r="FQ2">
-        <v>1.043531781559321</v>
+        <v>1.039188333997521</v>
       </c>
       <c r="FR2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265304</v>
       </c>
       <c r="FS2">
-        <v>1.042826558007343</v>
+        <v>1.038266609410421</v>
       </c>
       <c r="FT2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="FU2">
-        <v>1.042715428294928</v>
+        <v>1.038130869100603</v>
       </c>
       <c r="FV2">
-        <v>1.042798235244225</v>
+        <v>1.038158324515896</v>
       </c>
       <c r="FW2">
-        <v>1.041989687456102</v>
+        <v>1.037133241564056</v>
       </c>
       <c r="FX2">
-        <v>1.043437371102346</v>
+        <v>1.038590576308626</v>
       </c>
       <c r="FY2">
-        <v>1.043531256802602</v>
+        <v>1.039186020151846</v>
       </c>
       <c r="FZ2">
-        <v>1.043515284283816</v>
+        <v>1.039139305968142</v>
       </c>
       <c r="GA2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265304</v>
       </c>
       <c r="GB2">
-        <v>1.042824979494921</v>
+        <v>1.038263825150192</v>
       </c>
       <c r="GC2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="GD2">
-        <v>1.042706693812709</v>
+        <v>1.038120392720444</v>
       </c>
       <c r="GE2">
-        <v>1.042797257392776</v>
+        <v>1.038154011739389</v>
       </c>
       <c r="GF2">
-        <v>1.041957542622579</v>
+        <v>1.037089240118871</v>
       </c>
       <c r="GG2">
-        <v>1.043529191745731</v>
+        <v>1.03917691457767</v>
       </c>
       <c r="GH2">
-        <v>1.043447005574564</v>
+        <v>1.038936389493591</v>
       </c>
       <c r="GI2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="GJ2">
-        <v>1.042823495285934</v>
+        <v>1.03826120722716</v>
       </c>
       <c r="GK2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="GL2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="GM2">
-        <v>1.042698245165151</v>
+        <v>1.038110259178402</v>
       </c>
       <c r="GN2">
-        <v>1.042794766816942</v>
+        <v>1.038143027150073</v>
       </c>
       <c r="GO2">
-        <v>1.041928642980423</v>
+        <v>1.037049680883393</v>
       </c>
       <c r="GP2">
-        <v>1.043525504692136</v>
+        <v>1.039160657128211</v>
       </c>
       <c r="GQ2">
-        <v>1.043441338653057</v>
+        <v>1.038914356611575</v>
       </c>
       <c r="GR2">
-        <v>1.043442568128745</v>
+        <v>1.038926202337214</v>
       </c>
       <c r="GS2">
-        <v>1.042855726209013</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="GT2">
-        <v>1.042821898364376</v>
+        <v>1.038258390496002</v>
       </c>
       <c r="GU2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="GV2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="GW2">
-        <v>1.042691487094058</v>
+        <v>1.038102153360699</v>
       </c>
       <c r="GX2">
-        <v>1.042793305608668</v>
+        <v>1.03813658254719</v>
       </c>
       <c r="GY2">
-        <v>1.041892741502539</v>
+        <v>1.037000537234966</v>
       </c>
       <c r="GZ2">
-        <v>1.043525504692136</v>
+        <v>1.039133274458219</v>
       </c>
       <c r="HA2">
-        <v>1.04352455575527</v>
+        <v>1.039157867556406</v>
       </c>
       <c r="HB2">
-        <v>1.04342701127549</v>
+        <v>1.038858652051757</v>
       </c>
       <c r="HC2">
-        <v>1.043441940891375</v>
+        <v>1.038924762372577</v>
       </c>
       <c r="HD2">
-        <v>1.042855726209012</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="HE2">
-        <v>1.042819457150635</v>
+        <v>1.038254084559549</v>
       </c>
       <c r="HF2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="HG2">
-        <v>1.042686103757768</v>
+        <v>1.038095696438052</v>
       </c>
       <c r="HH2">
-        <v>1.042792282173481</v>
+        <v>1.038132068725777</v>
       </c>
       <c r="HI2">
-        <v>1.041826491534102</v>
+        <v>1.036909851248152</v>
       </c>
       <c r="HJ2">
-        <v>1.043525504692136</v>
+        <v>1.03904364735795</v>
       </c>
       <c r="HK2">
-        <v>1.043522843087886</v>
+        <v>1.039152832867605</v>
       </c>
       <c r="HL2">
-        <v>1.043441435042181</v>
+        <v>1.038923601081841</v>
       </c>
       <c r="HM2">
-        <v>1.042855726209012</v>
+        <v>1.038317885265305</v>
       </c>
       <c r="HN2">
-        <v>1.042812790457969</v>
+        <v>1.038242325509564</v>
       </c>
       <c r="HO2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="HP2">
-        <v>1.042674722523071</v>
+        <v>1.038082045470062</v>
       </c>
       <c r="HQ2">
-        <v>1.042790313496082</v>
+        <v>1.038123385950304</v>
       </c>
       <c r="HR2">
-        <v>1.041768732312458</v>
+        <v>1.03683078790795</v>
       </c>
       <c r="HS2">
-        <v>1.043525504692136</v>
+        <v>1.039005010624495</v>
       </c>
       <c r="HT2">
-        <v>1.043522231570404</v>
+        <v>1.039151035206017</v>
       </c>
       <c r="HU2">
-        <v>1.043441030793812</v>
+        <v>1.03892267303868</v>
       </c>
       <c r="HV2">
-        <v>1.042812222034288</v>
+        <v>1.038241322895119</v>
       </c>
       <c r="HW2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="HX2">
-        <v>1.042665759529901</v>
+        <v>1.038071295008036</v>
       </c>
       <c r="HY2">
-        <v>1.042789333616251</v>
+        <v>1.038119064228354</v>
       </c>
       <c r="HZ2">
-        <v>1.041729441921456</v>
+        <v>1.036777005574225</v>
       </c>
       <c r="IA2">
-        <v>1.043453985420648</v>
+        <v>1.038950415775434</v>
       </c>
       <c r="IB2">
-        <v>1.043522231570404</v>
+        <v>1.039151035206017</v>
       </c>
       <c r="IC2">
-        <v>1.043440413704809</v>
+        <v>1.038921256371921</v>
       </c>
       <c r="ID2">
-        <v>1.042811959484717</v>
+        <v>1.038240859796902</v>
       </c>
       <c r="IE2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="IF2">
-        <v>1.042659542351378</v>
+        <v>1.038063837952143</v>
       </c>
       <c r="IG2">
-        <v>1.042788637841067</v>
+        <v>1.038115995538969</v>
       </c>
       <c r="IH2">
-        <v>1.041703631556132</v>
+        <v>1.036741675293673</v>
       </c>
       <c r="II2">
-        <v>1.043444074587464</v>
+        <v>1.038921281459917</v>
       </c>
       <c r="IJ2">
-        <v>1.043439690352165</v>
+        <v>1.038919595753052</v>
       </c>
       <c r="IK2">
-        <v>1.042811678656169</v>
+        <v>1.038240364457303</v>
       </c>
       <c r="IL2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="IM2">
-        <v>1.042653339984122</v>
+        <v>1.038056398661347</v>
       </c>
       <c r="IN2">
-        <v>1.042780678470347</v>
+        <v>1.038080891046957</v>
       </c>
       <c r="IO2">
-        <v>1.041648083407932</v>
+        <v>1.036665638801623</v>
       </c>
       <c r="IP2">
-        <v>1.043439004501647</v>
+        <v>1.038891473082509</v>
       </c>
       <c r="IQ2">
-        <v>1.043418723684516</v>
+        <v>1.038861662989852</v>
       </c>
       <c r="IR2">
-        <v>1.043438579325466</v>
+        <v>1.038917045141119</v>
       </c>
       <c r="IS2">
-        <v>1.042811410312125</v>
+        <v>1.038239891138505</v>
       </c>
       <c r="IT2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="IU2">
-        <v>1.042644266197751</v>
+        <v>1.038045515311156</v>
       </c>
       <c r="IV2">
-        <v>1.042778331382272</v>
+        <v>1.03807053930819</v>
       </c>
       <c r="IW2">
-        <v>1.041638704481962</v>
+        <v>1.036665638801618</v>
       </c>
       <c r="IX2">
-        <v>1.041611726664936</v>
+        <v>1.036615297818818</v>
       </c>
       <c r="IY2">
-        <v>1.043434513724176</v>
+        <v>1.038907711638165</v>
       </c>
       <c r="IZ2">
-        <v>1.042811111365361</v>
+        <v>1.038239363841081</v>
       </c>
       <c r="JA2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="JB2">
-        <v>1.042610139238989</v>
+        <v>1.0380045824945</v>
       </c>
       <c r="JC2">
-        <v>1.042777806268982</v>
+        <v>1.03806822331694</v>
       </c>
       <c r="JD2">
-        <v>1.041637407986992</v>
+        <v>1.036665638801617</v>
       </c>
       <c r="JE2">
-        <v>1.041475394979072</v>
+        <v>1.036426528010911</v>
       </c>
       <c r="JF2">
-        <v>1.043414726441359</v>
+        <v>1.038862285480187</v>
       </c>
       <c r="JG2">
-        <v>1.042810494297328</v>
+        <v>1.038238275425272</v>
       </c>
       <c r="JH2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="JI2">
-        <v>1.042602173974503</v>
+        <v>1.03799502873657</v>
       </c>
       <c r="JJ2">
-        <v>1.042771350536925</v>
+        <v>1.038019581801051</v>
       </c>
       <c r="JK2">
-        <v>1.042777573555745</v>
+        <v>1.038067889360183</v>
       </c>
       <c r="JL2">
-        <v>1.041636811940613</v>
+        <v>1.036665638801617</v>
       </c>
       <c r="JM2">
-        <v>1.041475394979061</v>
+        <v>1.036413340437212</v>
       </c>
       <c r="JN2">
-        <v>1.041429600582402</v>
+        <v>1.036363916560241</v>
       </c>
       <c r="JO2">
-        <v>1.042809851624935</v>
+        <v>1.038237141847199</v>
       </c>
       <c r="JP2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792978</v>
       </c>
       <c r="JQ2">
-        <v>1.042598524879483</v>
+        <v>1.037990651911378</v>
       </c>
       <c r="JR2">
-        <v>1.042764952682279</v>
+        <v>1.03797137638113</v>
       </c>
       <c r="JS2">
-        <v>1.042777300714119</v>
+        <v>1.038067497816901</v>
       </c>
       <c r="JT2">
-        <v>1.041636104008328</v>
+        <v>1.036665638801617</v>
       </c>
       <c r="JU2">
-        <v>1.041475394979061</v>
+        <v>1.036412381845419</v>
       </c>
       <c r="JV2">
-        <v>1.041263597077781</v>
+        <v>1.036136952276853</v>
       </c>
       <c r="JW2">
-        <v>1.042807407770582</v>
+        <v>1.03823283125332</v>
       </c>
       <c r="JX2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792979</v>
       </c>
       <c r="JY2">
-        <v>1.042596125875141</v>
+        <v>1.037987774479429</v>
       </c>
       <c r="JZ2">
-        <v>1.042777054141194</v>
+        <v>1.038067143970703</v>
       </c>
       <c r="KA2">
-        <v>1.041635011753565</v>
+        <v>1.036665638801617</v>
       </c>
       <c r="KB2">
-        <v>1.04147539497906</v>
+        <v>1.036411591744076</v>
       </c>
       <c r="KC2">
-        <v>1.041245011715872</v>
+        <v>1.036069080240309</v>
       </c>
       <c r="KD2">
-        <v>1.041230504755156</v>
+        <v>1.03610462027755</v>
       </c>
       <c r="KE2">
-        <v>1.042794432999635</v>
+        <v>1.03820994569702</v>
       </c>
       <c r="KF2">
-        <v>1.042796302436128</v>
+        <v>1.038227871792979</v>
       </c>
       <c r="KG2">
-        <v>1.042581890229497</v>
+        <v>1.037977913568624</v>
       </c>
       <c r="KH2">
-        <v>1.04259580299195</v>
+        <v>1.037986497448636</v>
       </c>
       <c r="KI2">
-        <v>1.042776804412115</v>
+        <v>1.038066785595244</v>
       </c>
       <c r="KJ2">
-        <v>1.041634038477748</v>
+        <v>1.036665638801617</v>
       </c>
       <c r="KK2">
-        <v>1.04147539497906</v>
+        <v>1.036410469466066</v>
       </c>
       <c r="KL2">
-        <v>1.041236457281826</v>
+        <v>1.036037840259666</v>
       </c>
       <c r="KM2">
-        <v>1.041091816885614</v>
+        <v>1.035969118860124</v>
       </c>
       <c r="KN2">
-        <v>1.042575350977249</v>
+        <v>1.037973383884062</v>
       </c>
       <c r="KO2">
-        <v>1.042595574475991</v>
+        <v>1.037985593648373</v>
       </c>
       <c r="KP2">
-        <v>1.042776535902865</v>
+        <v>1.038066400269169</v>
       </c>
       <c r="KQ2">
-        <v>1.041633281777858</v>
+        <v>1.036665638801618</v>
       </c>
       <c r="KR2">
-        <v>1.041475394979057</v>
+        <v>1.036405428699506</v>
       </c>
       <c r="KS2">
-        <v>1.041180574121777</v>
+        <v>1.035833760695945</v>
       </c>
       <c r="KT2">
-        <v>1.041061203235132</v>
+        <v>1.03593920857654</v>
       </c>
       <c r="KU2">
-        <v>1.042564283413282</v>
+        <v>1.037965717476271</v>
       </c>
       <c r="KV2">
-        <v>1.042595308550762</v>
+        <v>1.037984541891228</v>
       </c>
       <c r="KW2">
-        <v>1.04277497869826</v>
+        <v>1.038064165591835</v>
       </c>
       <c r="KX2">
-        <v>1.041632339876181</v>
+        <v>1.036665638801618</v>
       </c>
       <c r="KY2">
-        <v>1.041475394979057</v>
+        <v>1.036404458298509</v>
       </c>
       <c r="KZ2">
-        <v>1.041176400104292</v>
+        <v>1.035818517642455</v>
       </c>
       <c r="LA2">
-        <v>1.041051030955084</v>
+        <v>1.035929270010427</v>
       </c>
       <c r="LB2">
-        <v>1.042543039945134</v>
+        <v>1.037951002305459</v>
       </c>
       <c r="LC2">
-        <v>1.04259479992085</v>
+        <v>1.037982530216215</v>
       </c>
       <c r="LD2">
-        <v>1.042768392312034</v>
+        <v>1.038054713752412</v>
       </c>
       <c r="LE2">
-        <v>1.041631365675245</v>
+        <v>1.036665638801619</v>
       </c>
       <c r="LF2">
-        <v>1.041475394979057</v>
+        <v>1.036403739796359</v>
       </c>
       <c r="LG2">
-        <v>1.041172030822779</v>
+        <v>1.035809321219478</v>
       </c>
       <c r="LH2">
-        <v>1.04111975749276</v>
+        <v>1.035581014046914</v>
       </c>
       <c r="LI2">
-        <v>1.041045721743335</v>
+        <v>1.03592408278079</v>
       </c>
       <c r="LJ2">
-        <v>1.042480495611034</v>
+        <v>1.037907678370823</v>
       </c>
       <c r="LK2">
-        <v>1.04259284923669</v>
+        <v>1.037974815092876</v>
       </c>
       <c r="LL2">
-        <v>1.041630216552396</v>
+        <v>1.036665638801619</v>
       </c>
       <c r="LM2">
-        <v>1.041475394979056</v>
+        <v>1.03640291215978</v>
       </c>
       <c r="LN2">
-        <v>1.041149527707861</v>
+        <v>1.035761956877059</v>
       </c>
       <c r="LO2">
-        <v>1.041092574750044</v>
+        <v>1.03546703664216</v>
       </c>
       <c r="LP2">
-        <v>1.041041176894469</v>
+        <v>1.035919642352342</v>
       </c>
       <c r="LQ2">
-        <v>1.042586192291861</v>
+        <v>1.037948486306396</v>
       </c>
       <c r="LR2">
-        <v>1.041629561705322</v>
+        <v>1.03666563880162</v>
       </c>
       <c r="LS2">
-        <v>1.041475394979056</v>
+        <v>1.036402091156216</v>
       </c>
       <c r="LT2">
-        <v>1.041141671443744</v>
+        <v>1.035745421088579</v>
       </c>
       <c r="LU2">
-        <v>1.041092574750045</v>
+        <v>1.035361414572306</v>
       </c>
       <c r="LV2">
-        <v>1.041040197528934</v>
+        <v>1.035278890987062</v>
       </c>
       <c r="LW2">
-        <v>1.041036007945705</v>
+        <v>1.035914592163004</v>
       </c>
       <c r="LX2">
-        <v>1.041626603369709</v>
+        <v>1.036665638801622</v>
       </c>
       <c r="LY2">
-        <v>1.041475394979056</v>
+        <v>1.036394878549088</v>
       </c>
       <c r="LZ2">
-        <v>1.041124572795605</v>
+        <v>1.035709432022712</v>
       </c>
       <c r="MA2">
-        <v>1.041092574750045</v>
+        <v>1.035319583013541</v>
       </c>
       <c r="MB2">
-        <v>1.04102746796869</v>
+        <v>1.035221283505054</v>
       </c>
       <c r="MC2">
-        <v>1.041031602262637</v>
+        <v>1.035248879192212</v>
       </c>
       <c r="MD2">
-        <v>1.041031935705529</v>
+        <v>1.035910613484748</v>
       </c>
       <c r="ME2">
-        <v>1.041625452046938</v>
+        <v>1.036665638801623</v>
       </c>
       <c r="MF2">
-        <v>1.041475394979056</v>
+        <v>1.036380135014805</v>
       </c>
       <c r="MG2">
-        <v>1.041120484865239</v>
+        <v>1.035703414793049</v>
       </c>
       <c r="MH2">
-        <v>1.041119901521081</v>
+        <v>1.035698382761303</v>
       </c>
       <c r="MI2">
-        <v>1.041021068123413</v>
+        <v>1.035192321082613</v>
       </c>
       <c r="MJ2">
-        <v>1.041024238638975</v>
+        <v>1.035223167894058</v>
       </c>
       <c r="MK2">
-        <v>1.041028521562969</v>
+        <v>1.035907277783943</v>
       </c>
       <c r="ML2">
-        <v>1.041625052078493</v>
+        <v>1.036665638801623</v>
       </c>
       <c r="MM2">
-        <v>1.041114368088419</v>
+        <v>1.035694411202694</v>
       </c>
       <c r="MN2">
-        <v>1.04111925109044</v>
+        <v>1.035696844256557</v>
       </c>
       <c r="MO2">
-        <v>1.041020472555026</v>
+        <v>1.035189625845266</v>
       </c>
       <c r="MP2">
-        <v>1.041019059016913</v>
+        <v>1.035205082402187</v>
       </c>
       <c r="MQ2">
-        <v>1.041025440927112</v>
+        <v>1.035904267927333</v>
       </c>
       <c r="MR2">
-        <v>1.041624750755485</v>
+        <v>1.036665638801623</v>
       </c>
       <c r="MS2">
-        <v>1.041118544677036</v>
+        <v>1.035695173332249</v>
       </c>
       <c r="MT2">
-        <v>1.041020226592709</v>
+        <v>1.035188512745857</v>
       </c>
       <c r="MU2">
-        <v>1.041012514457375</v>
+        <v>1.0351822310176</v>
       </c>
       <c r="MV2">
-        <v>1.041022891284612</v>
+        <v>1.035901776864214</v>
       </c>
       <c r="MW2">
-        <v>1.0416245302938</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="MX2">
-        <v>1.041117925909638</v>
+        <v>1.035693709722589</v>
       </c>
       <c r="MY2">
-        <v>1.041020053040797</v>
+        <v>1.035187727338845</v>
       </c>
       <c r="MZ2">
-        <v>1.041008413691002</v>
+        <v>1.03516791253546</v>
       </c>
       <c r="NA2">
-        <v>1.041019933548996</v>
+        <v>1.035898887084126</v>
       </c>
       <c r="NB2">
-        <v>1.041624418342109</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="NC2">
-        <v>1.041117268469276</v>
+        <v>1.035692154637328</v>
       </c>
       <c r="ND2">
-        <v>1.04101987552416</v>
+        <v>1.035186923989515</v>
       </c>
       <c r="NE2">
-        <v>1.041002116524031</v>
+        <v>1.035145924976102</v>
       </c>
       <c r="NF2">
-        <v>1.041016682791591</v>
+        <v>1.035895711014562</v>
       </c>
       <c r="NG2">
-        <v>1.041624253749357</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="NH2">
-        <v>1.041116330161167</v>
+        <v>1.035689935197843</v>
       </c>
       <c r="NI2">
-        <v>1.041019666067206</v>
+        <v>1.035185976094688</v>
       </c>
       <c r="NJ2">
-        <v>1.040995838988047</v>
+        <v>1.035124005969919</v>
       </c>
       <c r="NK2">
-        <v>1.040998960823528</v>
+        <v>1.035878396217688</v>
       </c>
       <c r="NL2">
-        <v>1.04162397783815</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="NM2">
-        <v>1.041115189475655</v>
+        <v>1.035687237062314</v>
       </c>
       <c r="NN2">
-        <v>1.041019401852216</v>
+        <v>1.035184780393052</v>
       </c>
       <c r="NO2">
-        <v>1.040988795398317</v>
+        <v>1.035099412176413</v>
       </c>
       <c r="NP2">
-        <v>1.040878882128926</v>
+        <v>1.035750393142598</v>
       </c>
       <c r="NQ2">
-        <v>1.040977308065414</v>
+        <v>1.03587441680078</v>
       </c>
       <c r="NR2">
-        <v>1.041622747154944</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="NS2">
-        <v>1.041108119142604</v>
+        <v>1.035670513157246</v>
       </c>
       <c r="NT2">
-        <v>1.041019165221977</v>
+        <v>1.035183709525874</v>
       </c>
       <c r="NU2">
-        <v>1.040983698409614</v>
+        <v>1.03508161525102</v>
       </c>
       <c r="NV2">
-        <v>1.040763874974105</v>
+        <v>1.035627796362729</v>
       </c>
       <c r="NW2">
-        <v>1.040844357272105</v>
+        <v>1.03584998264698</v>
       </c>
       <c r="NX2">
-        <v>1.040977308065416</v>
+        <v>1.035874416800778</v>
       </c>
       <c r="NY2">
-        <v>1.041618223198235</v>
+        <v>1.036665638801624</v>
       </c>
       <c r="NZ2">
-        <v>1.041083926368528</v>
+        <v>1.035613288468526</v>
       </c>
       <c r="OA2">
-        <v>1.041018977982425</v>
+        <v>1.035182862175632</v>
       </c>
       <c r="OB2">
-        <v>1.040977623267773</v>
+        <v>1.035060402959743</v>
       </c>
       <c r="OC2">
-        <v>1.040758755201993</v>
+        <v>1.035622338724922</v>
       </c>
       <c r="OD2">
-        <v>1.040795767087788</v>
+        <v>1.035841052572168</v>
       </c>
       <c r="OE2">
-        <v>1.040977308065425</v>
+        <v>1.035874416800766</v>
       </c>
       <c r="OF2">
-        <v>1.041018656634312</v>
+        <v>1.035181407918788</v>
       </c>
       <c r="OG2">
-        <v>1.040968808332231</v>
+        <v>1.035029624271823</v>
       </c>
       <c r="OH2">
-        <v>1.040516211057837</v>
+        <v>1.035479157006347</v>
       </c>
       <c r="OI2">
-        <v>1.040705909780054</v>
+        <v>1.035546511953111</v>
       </c>
       <c r="OJ2">
-        <v>1.040790821244532</v>
+        <v>1.035840143607604</v>
       </c>
       <c r="OK2">
-        <v>1.040977308065426</v>
+        <v>1.035874416800765</v>
       </c>
       <c r="OL2">
-        <v>1.041017534842708</v>
+        <v>1.035176331265066</v>
       </c>
       <c r="OM2">
-        <v>1.040962273135217</v>
+        <v>1.035006805648408</v>
       </c>
       <c r="ON2">
-        <v>1.040493987767323</v>
+        <v>1.035466037869208</v>
       </c>
       <c r="OO2">
-        <v>1.040680414909399</v>
+        <v>1.035509929948392</v>
       </c>
       <c r="OP2">
-        <v>1.040787369693054</v>
+        <v>1.035839509269255</v>
       </c>
       <c r="OQ2">
-        <v>1.040977308065427</v>
+        <v>1.035874416800765</v>
       </c>
       <c r="OR2">
-        <v>1.04101067662393</v>
+        <v>1.035145294485153</v>
       </c>
       <c r="OS2">
-        <v>1.040955968889208</v>
+        <v>1.034984793433844</v>
       </c>
       <c r="OT2">
-        <v>1.040481354286673</v>
+        <v>1.035458579911005</v>
       </c>
       <c r="OU2">
-        <v>1.040603501089963</v>
+        <v>1.035399568243279</v>
       </c>
       <c r="OV2">
-        <v>1.040680414909391</v>
+        <v>1.035509929948389</v>
       </c>
       <c r="OW2">
-        <v>1.040783794192456</v>
+        <v>1.035838852151088</v>
       </c>
       <c r="OX2">
-        <v>1.040977308065427</v>
+        <v>1.035874416800765</v>
       </c>
       <c r="OY2">
-        <v>1.040949798933633</v>
+        <v>1.034963250122605</v>
       </c>
       <c r="OZ2">
-        <v>1.040472775850264</v>
+        <v>1.035453515778363</v>
       </c>
       <c r="PA2">
-        <v>1.040493957362456</v>
+        <v>1.035242387142367</v>
       </c>
       <c r="PB2">
-        <v>1.040680414909389</v>
+        <v>1.035509929948388</v>
       </c>
       <c r="PC2">
-        <v>1.040768779177302</v>
+        <v>1.035836092638289</v>
       </c>
       <c r="PD2">
-        <v>1.040977308065427</v>
+        <v>1.035874416800765</v>
       </c>
       <c r="PE2">
-        <v>1.040942378632121</v>
+        <v>1.034937341054658</v>
       </c>
       <c r="PF2">
-        <v>1.040458795270184</v>
+        <v>1.035445262582749</v>
       </c>
       <c r="PG2">
-        <v>1.040471034148681</v>
+        <v>1.03520949535648</v>
       </c>
       <c r="PH2">
-        <v>1.040680414909388</v>
+        <v>1.035509929948387</v>
       </c>
       <c r="PI2">
-        <v>1.040765112863002</v>
+        <v>1.035835418829999</v>
       </c>
       <c r="PJ2">
-        <v>1.040977308065431</v>
+        <v>1.035874416800763</v>
       </c>
       <c r="PK2">
-        <v>1.04092995099519</v>
+        <v>1.034893948169232</v>
       </c>
       <c r="PL2">
-        <v>1.040942378632121</v>
+        <v>1.034937341054658</v>
       </c>
       <c r="PM2">
-        <v>1.040412322975146</v>
+        <v>1.035417828458708</v>
       </c>
       <c r="PN2">
-        <v>1.040465175245251</v>
+        <v>1.035201088607061</v>
       </c>
       <c r="PO2">
-        <v>1.040680414909386</v>
+        <v>1.035509929948386</v>
       </c>
       <c r="PP2">
-        <v>1.040761615598157</v>
+        <v>1.03583477609021</v>
       </c>
       <c r="PQ2">
-        <v>1.040977308065433</v>
+        <v>1.035874416800762</v>
       </c>
       <c r="PR2">
-        <v>1.040888033523349</v>
+        <v>1.034747587519572</v>
       </c>
       <c r="PS2">
-        <v>1.04092995099519</v>
+        <v>1.034893948169232</v>
       </c>
       <c r="PT2">
-        <v>1.040360584756018</v>
+        <v>1.035387285683079</v>
       </c>
       <c r="PU2">
-        <v>1.040462105851046</v>
+        <v>1.035196684434027</v>
       </c>
       <c r="PV2">
-        <v>1.040680414909385</v>
+        <v>1.035509929948385</v>
       </c>
       <c r="PW2">
-        <v>1.040758137355227</v>
+        <v>1.035834136846326</v>
       </c>
       <c r="PX2">
-        <v>1.040977308065433</v>
+        <v>1.035874416800762</v>
       </c>
       <c r="PY2">
-        <v>1.040828745652086</v>
+        <v>1.034540576362355</v>
       </c>
       <c r="PZ2">
-        <v>1.040888033523349</v>
+        <v>1.034747587519572</v>
       </c>
       <c r="QA2">
-        <v>1.040331487391253</v>
+        <v>1.035370108548255</v>
       </c>
       <c r="QB2">
-        <v>1.040459561359712</v>
+        <v>1.035193033427208</v>
       </c>
       <c r="QC2">
-        <v>1.040680414909383</v>
+        <v>1.035509929948384</v>
       </c>
       <c r="QD2">
-        <v>1.040754147362368</v>
+        <v>1.035833403551204</v>
       </c>
       <c r="QE2">
-        <v>1.040977308065434</v>
+        <v>1.035874416800762</v>
       </c>
       <c r="QF2">
-        <v>1.040786203255453</v>
+        <v>1.034392034628944</v>
       </c>
       <c r="QG2">
-        <v>1.040828745652086</v>
+        <v>1.034540576362355</v>
       </c>
       <c r="QH2">
-        <v>1.040304153506682</v>
+        <v>1.035353972452956</v>
       </c>
       <c r="QI2">
-        <v>1.040457499191416</v>
+        <v>1.035190074490036</v>
       </c>
       <c r="QJ2">
-        <v>1.040680414909382</v>
+        <v>1.035509929948382</v>
       </c>
       <c r="QK2">
-        <v>1.040740368157993</v>
+        <v>1.035830871159761</v>
       </c>
       <c r="QL2">
-        <v>1.040977308065435</v>
+        <v>1.035874416800761</v>
       </c>
       <c r="QM2">
-        <v>1.040773295910052</v>
+        <v>1.034346967205878</v>
       </c>
       <c r="QN2">
-        <v>1.040786203255453</v>
+        <v>1.034392034628944</v>
       </c>
       <c r="QO2">
-        <v>1.040278074728807</v>
+        <v>1.035338577287675</v>
       </c>
       <c r="QP2">
-        <v>1.040454347025755</v>
+        <v>1.035185551552001</v>
       </c>
       <c r="QQ2">
-        <v>1.040680414909381</v>
+        <v>1.035509929948382</v>
       </c>
       <c r="QR2">
-        <v>1.040673219405667</v>
+        <v>1.035818530319701</v>
       </c>
       <c r="QS2">
-        <v>1.040977308065436</v>
+        <v>1.035874416800761</v>
       </c>
       <c r="QT2">
-        <v>1.040739414169576</v>
+        <v>1.034226003290415</v>
       </c>
       <c r="QU2">
-        <v>1.040773295910052</v>
+        <v>1.034346967205878</v>
       </c>
       <c r="QV2">
-        <v>1.040766056183217</v>
+        <v>1.034326152551745</v>
       </c>
       <c r="QW2">
-        <v>1.040235257274231</v>
+        <v>1.035313300725823</v>
       </c>
       <c r="QX2">
-        <v>1.040451505397025</v>
+        <v>1.035181474193484</v>
       </c>
       <c r="QY2">
-        <v>1.04068041490938</v>
+        <v>1.035509929948382</v>
       </c>
       <c r="QZ2">
-        <v>1.040977308065437</v>
+        <v>1.035874416800761</v>
       </c>
       <c r="RA2">
-        <v>1.040701769991528</v>
+        <v>1.034091607100603</v>
       </c>
       <c r="RB2">
-        <v>1.040739414169576</v>
+        <v>1.034226003290415</v>
       </c>
       <c r="RC2">
-        <v>1.040739414169576</v>
+        <v>1.034226003290415</v>
       </c>
       <c r="RD2">
-        <v>1.040764998910891</v>
+        <v>1.034323112829762</v>
       </c>
       <c r="RE2">
-        <v>1.040205434109019</v>
+        <v>1.035295695121983</v>
       </c>
       <c r="RF2">
-        <v>1.040448800867475</v>
+        <v>1.03517759355434</v>
       </c>
       <c r="RG2">
-        <v>1.04068041490938</v>
+        <v>1.035509929948382</v>
       </c>
       <c r="RH2">
-        <v>1.040977308065441</v>
+        <v>1.035874416800759</v>
       </c>
       <c r="RI2">
-        <v>1.040687975326248</v>
+        <v>1.034042357853608</v>
       </c>
       <c r="RJ2">
-        <v>1.040701769991528</v>
+        <v>1.034091607100603</v>
       </c>
       <c r="RK2">
-        <v>1.040764422407948</v>
+        <v>1.034321455348892</v>
       </c>
       <c r="RL2">
-        <v>1.040184479699406</v>
+        <v>1.035283325038085</v>
       </c>
       <c r="RM2">
-        <v>1.040445754051149</v>
+        <v>1.035173221779709</v>
       </c>
       <c r="RN2">
-        <v>1.040680414909379</v>
+        <v>1.035509929948382</v>
       </c>
       <c r="RO2">
-        <v>1.040977308065441</v>
+        <v>1.035874416800759</v>
       </c>
       <c r="RP2">
-        <v>1.040669773198929</v>
+        <v>1.033982029431999</v>
       </c>
       <c r="RQ2">
-        <v>1.040687975326248</v>
+        <v>1.034042357853608</v>
       </c>
       <c r="RR2">
-        <v>1.040628372311646</v>
+        <v>1.03380429632013</v>
       </c>
       <c r="RS2">
-        <v>1.040764031872424</v>
+        <v>1.034320332535621</v>
       </c>
       <c r="RT2">
-        <v>1.040174467558178</v>
+        <v>1.035277414538403</v>
       </c>
       <c r="RU2">
-        <v>1.040442535633024</v>
+        <v>1.035168603779841</v>
       </c>
       <c r="RV2">
-        <v>1.040680414909378</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="RW2">
-        <v>1.040977308065441</v>
+        <v>1.035874416800759</v>
       </c>
       <c r="RX2">
-        <v>1.040643685274571</v>
+        <v>1.033895564741562</v>
       </c>
       <c r="RY2">
-        <v>1.040669773198929</v>
+        <v>1.033982029431999</v>
       </c>
       <c r="RZ2">
-        <v>1.040626155661252</v>
+        <v>1.033797438943322</v>
       </c>
       <c r="SA2">
-        <v>1.040620372071996</v>
+        <v>1.03375827630375</v>
       </c>
       <c r="SB2">
-        <v>1.040763438674044</v>
+        <v>1.034318627054375</v>
       </c>
       <c r="SC2">
-        <v>1.040168125141498</v>
+        <v>1.035273670399</v>
       </c>
       <c r="SD2">
-        <v>1.040435498649091</v>
+        <v>1.03515850664994</v>
       </c>
       <c r="SE2">
-        <v>1.040680414909376</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="SF2">
-        <v>1.040977308065441</v>
+        <v>1.035874416800759</v>
       </c>
       <c r="SG2">
-        <v>1.040627764701443</v>
+        <v>1.033842798344654</v>
       </c>
       <c r="SH2">
-        <v>1.040643685274571</v>
+        <v>1.033895564741562</v>
       </c>
       <c r="SI2">
-        <v>1.040625218735687</v>
+        <v>1.03379454049279</v>
       </c>
       <c r="SJ2">
-        <v>1.040615252830245</v>
+        <v>1.033728828742435</v>
       </c>
       <c r="SK2">
-        <v>1.040762538436955</v>
+        <v>1.034316038818276</v>
       </c>
       <c r="SL2">
-        <v>1.040163836886593</v>
+        <v>1.035271138899547</v>
       </c>
       <c r="SM2">
-        <v>1.04027589829865</v>
+        <v>1.034929502084773</v>
       </c>
       <c r="SN2">
-        <v>1.040680414909374</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="SO2">
-        <v>1.040977308065441</v>
+        <v>1.035874416800759</v>
       </c>
       <c r="SP2">
-        <v>1.040625023017349</v>
+        <v>1.033833711441021</v>
       </c>
       <c r="SQ2">
-        <v>1.040627764701443</v>
+        <v>1.033842798344654</v>
       </c>
       <c r="SR2">
-        <v>1.040624668216603</v>
+        <v>1.033792837420125</v>
       </c>
       <c r="SS2">
-        <v>1.040761899748482</v>
+        <v>1.03431420255029</v>
       </c>
       <c r="ST2">
-        <v>1.040157855289979</v>
+        <v>1.03526760776414</v>
       </c>
       <c r="SU2">
-        <v>1.04025402723954</v>
+        <v>1.034929502084772</v>
       </c>
       <c r="SV2">
-        <v>1.040252614103305</v>
+        <v>1.034894296250147</v>
       </c>
       <c r="SW2">
-        <v>1.040680414909373</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="SX2">
-        <v>1.040621371816968</v>
+        <v>1.033811437640478</v>
       </c>
       <c r="SY2">
-        <v>1.040625023017349</v>
+        <v>1.033833711441021</v>
       </c>
       <c r="SZ2">
-        <v>1.040602005742495</v>
+        <v>1.033820011325376</v>
       </c>
       <c r="TA2">
-        <v>1.040624161573371</v>
+        <v>1.033791270080757</v>
       </c>
       <c r="TB2">
-        <v>1.040761463388938</v>
+        <v>1.034312947990219</v>
       </c>
       <c r="TC2">
-        <v>1.040153290088531</v>
+        <v>1.035264912773871</v>
       </c>
       <c r="TD2">
-        <v>1.040234739929934</v>
+        <v>1.034929502084772</v>
       </c>
       <c r="TE2">
-        <v>1.040240052949989</v>
+        <v>1.034875303727531</v>
       </c>
       <c r="TF2">
-        <v>1.040680414909372</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="TG2">
-        <v>1.040618684098528</v>
+        <v>1.033795041476408</v>
       </c>
       <c r="TH2">
-        <v>1.040621371816968</v>
+        <v>1.033811437640478</v>
       </c>
       <c r="TI2">
-        <v>1.040588404361593</v>
+        <v>1.033811915645059</v>
       </c>
       <c r="TJ2">
-        <v>1.040623710196843</v>
+        <v>1.033789873713148</v>
       </c>
       <c r="TK2">
-        <v>1.040761118579267</v>
+        <v>1.034311956641571</v>
       </c>
       <c r="TL2">
-        <v>1.040120711805382</v>
+        <v>1.035245680728843</v>
       </c>
       <c r="TM2">
-        <v>1.040238177015856</v>
+        <v>1.034872467307062</v>
       </c>
       <c r="TN2">
-        <v>1.040680414909371</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="TO2">
-        <v>1.040615024766599</v>
+        <v>1.033772718087992</v>
       </c>
       <c r="TP2">
-        <v>1.040618684098528</v>
+        <v>1.033795041476408</v>
       </c>
       <c r="TQ2">
-        <v>1.040577627359621</v>
+        <v>1.033805501063645</v>
       </c>
       <c r="TR2">
-        <v>1.040623241944976</v>
+        <v>1.033788425140403</v>
       </c>
       <c r="TS2">
-        <v>1.040760013027745</v>
+        <v>1.03430877811414</v>
       </c>
       <c r="TT2">
-        <v>1.040013770589516</v>
+        <v>1.035234290469158</v>
       </c>
       <c r="TU2">
-        <v>1.040097718447848</v>
+        <v>1.035081847186388</v>
       </c>
       <c r="TV2">
-        <v>1.040236745046648</v>
+        <v>1.034870302163594</v>
       </c>
       <c r="TW2">
-        <v>1.04068041490937</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="TX2">
-        <v>1.040612435216641</v>
+        <v>1.033756920803711</v>
       </c>
       <c r="TY2">
-        <v>1.040615024766599</v>
+        <v>1.033772718087992</v>
       </c>
       <c r="TZ2">
-        <v>1.04057317422143</v>
+        <v>1.033802850510361</v>
       </c>
       <c r="UA2">
-        <v>1.040621828368178</v>
+        <v>1.033784052133176</v>
       </c>
       <c r="UB2">
-        <v>1.040751070760646</v>
+        <v>1.034283068557248</v>
       </c>
       <c r="UC2">
-        <v>1.0398956831326</v>
+        <v>1.035221713021364</v>
       </c>
       <c r="UD2">
-        <v>1.040235405785658</v>
+        <v>1.034868277195439</v>
       </c>
       <c r="UE2">
-        <v>1.04068041490937</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="UF2">
-        <v>1.040605193423525</v>
+        <v>1.033712743013935</v>
       </c>
       <c r="UG2">
-        <v>1.040612435216641</v>
+        <v>1.033756920803711</v>
       </c>
       <c r="UH2">
-        <v>1.040571773026475</v>
+        <v>1.033802850510359</v>
       </c>
       <c r="UI2">
-        <v>1.040573174221431</v>
+        <v>1.033791879649086</v>
       </c>
       <c r="UJ2">
-        <v>1.040620403822415</v>
+        <v>1.033779645192697</v>
       </c>
       <c r="UK2">
-        <v>1.040750625444518</v>
+        <v>1.034281788246605</v>
       </c>
       <c r="UL2">
-        <v>1.039575599825163</v>
+        <v>1.035187621038815</v>
       </c>
       <c r="UM2">
-        <v>1.040233977630921</v>
+        <v>1.034866117819679</v>
       </c>
       <c r="UN2">
-        <v>1.04068041490937</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="UO2">
-        <v>1.040599949654479</v>
+        <v>1.033680753982986</v>
       </c>
       <c r="UP2">
-        <v>1.040605193423525</v>
+        <v>1.033712743013935</v>
       </c>
       <c r="UQ2">
-        <v>1.04057125742914</v>
+        <v>1.033802850510358</v>
       </c>
       <c r="UR2">
-        <v>1.040573174221431</v>
+        <v>1.033783580130861</v>
       </c>
       <c r="US2">
-        <v>1.04060709341206</v>
+        <v>1.03373846843124</v>
       </c>
       <c r="UT2">
-        <v>1.040750274074549</v>
+        <v>1.03428077803682</v>
       </c>
       <c r="UU2">
-        <v>1.040232713888299</v>
+        <v>1.034864207035793</v>
       </c>
       <c r="UV2">
-        <v>1.04068041490937</v>
+        <v>1.035509929948383</v>
       </c>
       <c r="UW2">
-        <v>1.040599949654488</v>
+        <v>1.033676427611781</v>
       </c>
       <c r="UX2">
-        <v>1.040599949654479</v>
+        <v>1.033680753982986</v>
       </c>
       <c r="UY2">
-        <v>1.040581679375038</v>
+        <v>1.033637259748305</v>
       </c>
       <c r="UZ2">
-        <v>1.040570489408523</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="VA2">
-        <v>1.040749876841257</v>
+        <v>1.03427963596723</v>
       </c>
       <c r="VB2">
-        <v>1.04023142130402</v>
+        <v>1.034862252643297</v>
       </c>
       <c r="VC2">
-        <v>1.04059994965449</v>
+        <v>1.033675403206584</v>
       </c>
       <c r="VD2">
-        <v>1.040599949654488</v>
+        <v>1.033676427611781</v>
       </c>
       <c r="VE2">
-        <v>1.040579369691195</v>
+        <v>1.033631761314452</v>
       </c>
       <c r="VF2">
-        <v>1.040570027272972</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="VG2">
-        <v>1.040749523291052</v>
+        <v>1.034278619489145</v>
       </c>
       <c r="VH2">
-        <v>1.040224749908367</v>
+        <v>1.034852165468331</v>
       </c>
       <c r="VI2">
-        <v>1.04059994965449</v>
+        <v>1.033647631989242</v>
       </c>
       <c r="VJ2">
-        <v>1.04059994965449</v>
+        <v>1.033675403206584</v>
       </c>
       <c r="VK2">
-        <v>1.040599949654494</v>
+        <v>1.03367540320658</v>
       </c>
       <c r="VL2">
-        <v>1.040577665297721</v>
+        <v>1.033627703835043</v>
       </c>
       <c r="VM2">
-        <v>1.040569469645651</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="VN2">
-        <v>1.040749116354779</v>
+        <v>1.03427744952291</v>
       </c>
       <c r="VO2">
-        <v>1.040206151481339</v>
+        <v>1.034838812144607</v>
       </c>
       <c r="VP2">
-        <v>1.040211133628</v>
+        <v>1.034830963230782</v>
       </c>
       <c r="VQ2">
-        <v>1.04059994965449</v>
+        <v>1.03362816953225</v>
       </c>
       <c r="VR2">
-        <v>1.04059994965449</v>
+        <v>1.033647631989242</v>
       </c>
       <c r="VS2">
-        <v>1.040599949654496</v>
+        <v>1.033675403206578</v>
       </c>
       <c r="VT2">
-        <v>1.040576006909807</v>
+        <v>1.033623755876532</v>
       </c>
       <c r="VU2">
-        <v>1.040568980025204</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="VV2">
-        <v>1.040748699106633</v>
+        <v>1.034276249909427</v>
       </c>
       <c r="VW2">
-        <v>1.040205079707677</v>
+        <v>1.034838042631095</v>
       </c>
       <c r="VX2">
-        <v>1.04014606576696</v>
+        <v>1.034729644652882</v>
       </c>
       <c r="VY2">
-        <v>1.04059994965449</v>
+        <v>1.033615379410447</v>
       </c>
       <c r="VZ2">
-        <v>1.04059994965449</v>
+        <v>1.033625060337864</v>
       </c>
       <c r="WA2">
-        <v>1.040599949654497</v>
+        <v>1.033675403206578</v>
       </c>
       <c r="WB2">
-        <v>1.040560428604331</v>
+        <v>1.033586670162738</v>
       </c>
       <c r="WC2">
-        <v>1.040565776112683</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="WD2">
-        <v>1.040748197576013</v>
+        <v>1.034274807978778</v>
       </c>
       <c r="WE2">
-        <v>1.040204541423225</v>
+        <v>1.034837656152892</v>
       </c>
       <c r="WF2">
-        <v>1.04014606576696</v>
+        <v>1.034677898197506</v>
       </c>
       <c r="WG2">
-        <v>1.040069559532119</v>
+        <v>1.034616759280238</v>
       </c>
       <c r="WH2">
-        <v>1.040599949654489</v>
+        <v>1.033603973380989</v>
       </c>
       <c r="WI2">
-        <v>1.04059994965449</v>
+        <v>1.033615379410447</v>
       </c>
       <c r="WJ2">
-        <v>1.04059994965449</v>
+        <v>1.033615379410447</v>
       </c>
       <c r="WK2">
-        <v>1.04059994965449</v>
+        <v>1.033486628764398</v>
       </c>
       <c r="WL2">
-        <v>1.04059994965449</v>
+        <v>1.033625060337864</v>
       </c>
       <c r="WM2">
-        <v>1.040599949654498</v>
+        <v>1.033675403206577</v>
       </c>
       <c r="WN2">
-        <v>1.040553178321496</v>
+        <v>1.033569410141072</v>
       </c>
       <c r="WO2">
-        <v>1.040542152719399</v>
+        <v>1.033802850510357</v>
       </c>
       <c r="WP2">
-        <v>1.040747883152034</v>
+        <v>1.03427390399096</v>
       </c>
       <c r="WQ2">
-        <v>1.040204090042526</v>
+        <v>1.034837332069962</v>
       </c>
       <c r="WR2">
-        <v>1.04014606576696</v>
+        <v>1.03465059144868</v>
       </c>
       <c r="WS2">
-        <v>1.03999628043131</v>
+        <v>1.034508635827512</v>
       </c>
       <c r="WT2">
-        <v>1.040599949654489</v>
+        <v>1.033579090200313</v>
       </c>
       <c r="WU2">
-        <v>1.040599949654489</v>
+        <v>1.033603973380989</v>
       </c>
       <c r="WV2">
-        <v>1.040599949654489</v>
+        <v>1.033603973380989</v>
       </c>
       <c r="WW2">
-        <v>1.04059994965449</v>
+        <v>1.033454046172995</v>
       </c>
       <c r="WX2">
-        <v>1.040599949654499</v>
+        <v>1.033675403206576</v>
       </c>
       <c r="WY2">
-        <v>1.040549775469517</v>
+        <v>1.033561309312762</v>
       </c>
       <c r="WZ2">
-        <v>1.040746531863505</v>
+        <v>1.034270018955337</v>
       </c>
       <c r="XA2">
-        <v>1.04020372195736</v>
+        <v>1.034837067791673</v>
       </c>
       <c r="XB2">
-        <v>1.039989784792626</v>
+        <v>1.034494466245961</v>
       </c>
       <c r="XC2">
-        <v>1.03997684890982</v>
+        <v>1.034480802031309</v>
       </c>
       <c r="XD2">
-        <v>1.040599949654488</v>
+        <v>1.03354519358894</v>
       </c>
       <c r="XE2">
-        <v>1.040599949654501</v>
+        <v>1.033675403206575</v>
       </c>
       <c r="XF2">
-        <v>1.040547505714713</v>
+        <v>1.033555905935339</v>
       </c>
       <c r="XG2">
-        <v>1.040740834991553</v>
+        <v>1.034253640107183</v>
       </c>
       <c r="XH2">
-        <v>1.040203144171191</v>
+        <v>1.034836652951971</v>
       </c>
       <c r="XI2">
-        <v>1.039988192043939</v>
+        <v>1.034490991825216</v>
       </c>
       <c r="XJ2">
-        <v>1.039972378312247</v>
+        <v>1.034474398330118</v>
       </c>
       <c r="XK2">
-        <v>1.040599949654488</v>
+        <v>1.033535251335266</v>
       </c>
       <c r="XL2">
-        <v>1.040599949654501</v>
+        <v>1.033675403206575</v>
       </c>
       <c r="XM2">
-        <v>1.040544035682282</v>
+        <v>1.03354764517764</v>
       </c>
       <c r="XN2">
-        <v>1.040201766406667</v>
+        <v>1.034835663742717</v>
       </c>
       <c r="XO2">
-        <v>1.03998709834749</v>
+        <v>1.034488606036656</v>
       </c>
       <c r="XP2">
-        <v>1.039970159788018</v>
+        <v>1.034471220507782</v>
       </c>
       <c r="XQ2">
-        <v>1.040599949654488</v>
+        <v>1.033502344331686</v>
       </c>
       <c r="XR2">
-        <v>1.040599949654502</v>
+        <v>1.033675403206575</v>
       </c>
       <c r="XS2">
-        <v>1.040537258750075</v>
+        <v>1.033531512016412</v>
       </c>
       <c r="XT2">
-        <v>1.040200813216729</v>
+        <v>1.034834979370103</v>
       </c>
       <c r="XU2">
-        <v>1.039985582247456</v>
+        <v>1.034485298817281</v>
       </c>
       <c r="XV2">
-        <v>1.039967721803655</v>
+        <v>1.034467728330178</v>
       </c>
       <c r="XW2">
-        <v>1.040599949654503</v>
+        <v>1.033675403206574</v>
       </c>
       <c r="XX2">
-        <v>1.040535385432152</v>
+        <v>1.033527052396907</v>
       </c>
       <c r="XY2">
-        <v>1.040199601241504</v>
+        <v>1.034834109194473</v>
       </c>
       <c r="XZ2">
-        <v>1.039981987121396</v>
+        <v>1.03447745641237</v>
       </c>
       <c r="YA2">
-        <v>1.039964908733178</v>
+        <v>1.034463698878186</v>
       </c>
       <c r="YB2">
-        <v>1.040599949654503</v>
+        <v>1.033675403206574</v>
       </c>
       <c r="YC2">
-        <v>1.040534841577919</v>
+        <v>1.033525757697866</v>
       </c>
       <c r="YD2">
-        <v>1.040198864976876</v>
+        <v>1.034833580570187</v>
       </c>
       <c r="YE2">
-        <v>1.039979254233381</v>
+        <v>1.034471494892915</v>
       </c>
       <c r="YF2">
-        <v>1.039962064910951</v>
+        <v>1.034459625377624</v>
       </c>
       <c r="YG2">
-        <v>1.040599949654503</v>
+        <v>1.033675403206573</v>
       </c>
       <c r="YH2">
-        <v>1.040534655657355</v>
+        <v>1.033525196144417</v>
       </c>
       <c r="YI2">
-        <v>1.040533323219019</v>
+        <v>1.033522774922472</v>
       </c>
       <c r="YJ2">
-        <v>1.040198200286946</v>
+        <v>1.034833103335201</v>
       </c>
       <c r="YK2">
-        <v>1.039977335787548</v>
+        <v>1.03446730999697</v>
       </c>
       <c r="YL2">
-        <v>1.039958912167195</v>
+        <v>1.034455109377225</v>
       </c>
       <c r="YM2">
-        <v>1.040599949654504</v>
+        <v>1.033675403206573</v>
       </c>
       <c r="YN2">
-        <v>1.04053448165151</v>
+        <v>1.033524670578121</v>
       </c>
       <c r="YO2">
-        <v>1.040531319644736</v>
+        <v>1.033518838954492</v>
       </c>
       <c r="YP2">
-        <v>1.040197079263887</v>
+        <v>1.034832298461528</v>
       </c>
       <c r="YQ2">
-        <v>1.039975326047744</v>
+        <v>1.0344629259525</v>
       </c>
       <c r="YR2">
-        <v>1.039954327418484</v>
+        <v>1.034448542169037</v>
       </c>
       <c r="YS2">
-        <v>1.040599949654504</v>
+        <v>1.033675403206572</v>
       </c>
       <c r="YT2">
-        <v>1.040534302403037</v>
+        <v>1.033524129177021</v>
       </c>
       <c r="YU2">
-        <v>1.040522995870587</v>
+        <v>1.03350248712373</v>
       </c>
       <c r="YV2">
-        <v>1.040195977146588</v>
+        <v>1.034831507161837</v>
       </c>
       <c r="YW2">
-        <v>1.039973676031511</v>
+        <v>1.034459326608722</v>
       </c>
       <c r="YX2">
-        <v>1.039937765558724</v>
+        <v>1.034438712468737</v>
       </c>
       <c r="YY2">
-        <v>1.039948392757177</v>
+        <v>1.034434445204117</v>
       </c>
       <c r="YZ2">
-        <v>1.040599949654504</v>
+        <v>1.033675403206572</v>
       </c>
       <c r="ZA2">
-        <v>1.040533006396315</v>
+        <v>1.033520214725496</v>
       </c>
       <c r="ZB2">
-        <v>1.040519460963523</v>
+        <v>1.033495542893967</v>
       </c>
       <c r="ZC2">
-        <v>1.040195455684761</v>
+        <v>1.034831132761959</v>
       </c>
       <c r="ZD2">
-        <v>1.039970944058864</v>
+        <v>1.034453367086385</v>
       </c>
       <c r="ZE2">
-        <v>1.039927820163737</v>
+        <v>1.034432809734598</v>
       </c>
       <c r="ZF2">
-        <v>1.039910813181282</v>
+        <v>1.034345180316516</v>
       </c>
       <c r="ZG2">
-        <v>1.040599949654504</v>
+        <v>1.033675403206572</v>
       </c>
       <c r="ZH2">
-        <v>1.040523568731718</v>
+        <v>1.033491709257363</v>
       </c>
       <c r="ZI2">
-        <v>1.040194882929685</v>
+        <v>1.034830721534483</v>
       </c>
       <c r="ZJ2">
-        <v>1.039962115133118</v>
+        <v>1.03443410767754</v>
       </c>
       <c r="ZK2">
-        <v>1.039918594370977</v>
+        <v>1.034427334094551</v>
       </c>
       <c r="ZL2">
-        <v>1.039883913861021</v>
+        <v>1.034281285037497</v>
       </c>
       <c r="ZM2">
-        <v>1.040194333207438</v>
+        <v>1.034830326844149</v>
       </c>
       <c r="ZN2">
-        <v>1.039941485256029</v>
+        <v>1.03438910569095</v>
       </c>
       <c r="ZO2">
-        <v>1.039909592461453</v>
+        <v>1.034421991332299</v>
       </c>
       <c r="ZP2">
-        <v>1.039842551099419</v>
+        <v>1.034186989517809</v>
       </c>
       <c r="ZQ2">
-        <v>1.039819686555249</v>
+        <v>1.034127505557987</v>
       </c>
       <c r="ZR2">
-        <v>1.040193670246977</v>
+        <v>1.034829850850886</v>
       </c>
       <c r="ZS2">
-        <v>1.039902840426213</v>
+        <v>1.034417983902592</v>
       </c>
       <c r="ZT2">
-        <v>1.039839414136421</v>
+        <v>1.03418483901386</v>
       </c>
       <c r="ZU2">
-        <v>1.039840511024512</v>
+        <v>1.034168377563173</v>
       </c>
       <c r="ZV2">
-        <v>1.039766424634352</v>
+        <v>1.034073950639435</v>
       </c>
       <c r="ZW2">
-        <v>1.039809250681939</v>
+        <v>1.034098447071321</v>
       </c>
       <c r="ZX2">
-        <v>1.040192612741074</v>
+        <v>1.034829091581343</v>
       </c>
       <c r="ZY2">
-        <v>1.039892114374235</v>
+        <v>1.034411617836856</v>
       </c>
       <c r="ZZ2">
-        <v>1.039838432561177</v>
+        <v>1.03418416610779</v>
       </c>
       <c r="AAA2">
-        <v>1.039836355071317</v>
+        <v>1.034130462092018</v>
       </c>
       <c r="AAB2">
-        <v>1.039735568599468</v>
+        <v>1.034042924863361</v>
       </c>
       <c r="AAC2">
-        <v>1.039789681302635</v>
+        <v>1.034043956832029</v>
       </c>
       <c r="AAD2">
-        <v>1.040189718465004</v>
+        <v>1.034827013545023</v>
       </c>
       <c r="AAE2">
-        <v>1.03987402983589</v>
+        <v>1.034400884403539</v>
       </c>
       <c r="AAF2">
-        <v>1.039837801436722</v>
+        <v>1.034183733448673</v>
       </c>
       <c r="AAG2">
-        <v>1.039738060590994</v>
+        <v>1.033900221025888</v>
       </c>
       <c r="AAH2">
-        <v>1.039789681302635</v>
+        <v>1.03404395683203</v>
       </c>
       <c r="AAI2">
-        <v>1.040185866714872</v>
+        <v>1.034824248060142</v>
       </c>
       <c r="AAJ2">
-        <v>1.039738523492454</v>
+        <v>1.034320459427976</v>
       </c>
       <c r="AAK2">
-        <v>1.039837420760178</v>
+        <v>1.034183472480847</v>
       </c>
       <c r="AAL2">
-        <v>1.039682615329158</v>
+        <v>1.03379190978678</v>
       </c>
       <c r="AAM2">
-        <v>1.039730673976778</v>
+        <v>1.033820252090681</v>
       </c>
       <c r="AAN2">
-        <v>1.039789681302634</v>
+        <v>1.034043956832031</v>
       </c>
       <c r="AAO2">
-        <v>1.040185499848203</v>
+        <v>1.034823984656702</v>
       </c>
       <c r="AAP2">
-        <v>1.039627358079038</v>
+        <v>1.034254481128132</v>
       </c>
       <c r="AAQ2">
-        <v>1.039837036005739</v>
+        <v>1.034183208717472</v>
       </c>
       <c r="AAR2">
-        <v>1.039625389837516</v>
+        <v>1.033680121052363</v>
       </c>
       <c r="AAS2">
-        <v>1.03972988322252</v>
+        <v>1.033811691231831</v>
       </c>
       <c r="AAT2">
-        <v>1.039789681302634</v>
+        <v>1.034043956832031</v>
       </c>
       <c r="AAU2">
-        <v>1.040185209709177</v>
+        <v>1.034823776342283</v>
       </c>
       <c r="AAV2">
-        <v>1.039592137027536</v>
+        <v>1.03423357691511</v>
       </c>
       <c r="AAW2">
-        <v>1.039836692339072</v>
+        <v>1.034182973121284</v>
       </c>
       <c r="AAX2">
-        <v>1.039608924835882</v>
+        <v>1.033640836622936</v>
       </c>
       <c r="AAY2">
-        <v>1.03957199661632</v>
+        <v>1.03362598084673</v>
       </c>
       <c r="AAZ2">
-        <v>1.039729581301594</v>
+        <v>1.033808422577474</v>
       </c>
       <c r="ABA2">
-        <v>1.039789681302633</v>
+        <v>1.034043956832032</v>
       </c>
       <c r="ABB2">
-        <v>1.040184927914645</v>
+        <v>1.034823574019055</v>
       </c>
       <c r="ABC2">
-        <v>1.039560072766434</v>
+        <v>1.034214546302251</v>
       </c>
       <c r="ABD2">
-        <v>1.039836305146139</v>
+        <v>1.034182707686232</v>
       </c>
       <c r="ABE2">
-        <v>1.039586551472921</v>
+        <v>1.03358745526096</v>
       </c>
       <c r="ABF2">
-        <v>1.039564834300541</v>
+        <v>1.033618718328397</v>
       </c>
       <c r="ABG2">
-        <v>1.039729261929012</v>
+        <v>1.033804964988163</v>
       </c>
       <c r="ABH2">
-        <v>1.039789681302633</v>
+        <v>1.034043956832033</v>
       </c>
       <c r="ABI2">
-        <v>1.040184626082327</v>
+        <v>1.034823357309069</v>
       </c>
       <c r="ABJ2">
-        <v>1.039542608856178</v>
+        <v>1.034204181212823</v>
       </c>
       <c r="ABK2">
-        <v>1.039835994926343</v>
+        <v>1.034182495019107</v>
       </c>
       <c r="ABL2">
-        <v>1.0395603567893</v>
+        <v>1.033524956533159</v>
       </c>
       <c r="ABM2">
-        <v>1.039561071386085</v>
+        <v>1.033614902769846</v>
       </c>
       <c r="ABN2">
-        <v>1.039728996877481</v>
+        <v>1.033802095489103</v>
       </c>
       <c r="ABO2">
-        <v>1.039789681302632</v>
+        <v>1.034043956832033</v>
       </c>
       <c r="ABP2">
-        <v>1.040184347015557</v>
+        <v>1.034823156944323</v>
       </c>
       <c r="ABQ2">
-        <v>1.039528661187682</v>
+        <v>1.03419590306467</v>
       </c>
       <c r="ABR2">
-        <v>1.039835622817475</v>
+        <v>1.034182239924738</v>
       </c>
       <c r="ABS2">
-        <v>1.039539323523408</v>
+        <v>1.033474772636598</v>
       </c>
       <c r="ABT2">
-        <v>1.039547067663563</v>
+        <v>1.0336040755829</v>
       </c>
       <c r="ABU2">
-        <v>1.03956083144378</v>
+        <v>1.033614549403952</v>
       </c>
       <c r="ABV2">
-        <v>1.039728682991305</v>
+        <v>1.033798697296802</v>
       </c>
       <c r="ABW2">
-        <v>1.039789681302631</v>
+        <v>1.034043956832034</v>
       </c>
       <c r="ABX2">
-        <v>1.040184084024624</v>
+        <v>1.034822968121729</v>
       </c>
       <c r="ABY2">
-        <v>1.03951676779269</v>
+        <v>1.034188844158107</v>
       </c>
       <c r="ABZ2">
-        <v>1.039835221825662</v>
+        <v>1.034181965030044</v>
       </c>
       <c r="ACA2">
-        <v>1.039533281146205</v>
+        <v>1.033467522864047</v>
       </c>
       <c r="ACB2">
-        <v>1.039522684736915</v>
+        <v>1.033367636877107</v>
       </c>
       <c r="ACC2">
-        <v>1.039535684372492</v>
+        <v>1.033595274421476</v>
       </c>
       <c r="ACD2">
-        <v>1.039560657931007</v>
+        <v>1.033614293869622</v>
       </c>
       <c r="ACE2">
-        <v>1.039728376875984</v>
+        <v>1.033795383233338</v>
       </c>
       <c r="ACF2">
-        <v>1.03978968130263</v>
+        <v>1.034043956832034</v>
       </c>
       <c r="ACG2">
-        <v>1.04018371825456</v>
+        <v>1.034822705505631</v>
       </c>
       <c r="ACH2">
-        <v>1.039502810811264</v>
+        <v>1.034180560482107</v>
       </c>
       <c r="ACI2">
-        <v>1.039834490237014</v>
+        <v>1.034181463499013</v>
       </c>
       <c r="ACJ2">
-        <v>1.03952495046566</v>
+        <v>1.033457527536888</v>
       </c>
       <c r="ACK2">
-        <v>1.039508776894979</v>
+        <v>1.033278085484134</v>
       </c>
       <c r="ACL2">
-        <v>1.039560511501697</v>
+        <v>1.03361407822143</v>
       </c>
       <c r="ACM2">
-        <v>1.039727956032965</v>
+        <v>1.033790827105789</v>
       </c>
       <c r="ACN2">
-        <v>1.039789681302628</v>
+        <v>1.034043956832035</v>
       </c>
       <c r="ACO2">
-        <v>1.040183270018323</v>
+        <v>1.034822383680356</v>
       </c>
       <c r="ACP2">
-        <v>1.039490057762405</v>
+        <v>1.034172991357756</v>
       </c>
       <c r="ACQ2">
-        <v>1.039829016812141</v>
+        <v>1.034177711264139</v>
       </c>
       <c r="ACR2">
-        <v>1.039504456739961</v>
+        <v>1.033432938732046</v>
       </c>
       <c r="ACS2">
-        <v>1.039508776894979</v>
+        <v>1.03323330578678</v>
       </c>
       <c r="ACT2">
-        <v>1.039508410615295</v>
+        <v>1.033277348497587</v>
       </c>
       <c r="ACU2">
-        <v>1.039560264165654</v>
+        <v>1.03361371396669</v>
       </c>
       <c r="ACV2">
-        <v>1.039727377095261</v>
+        <v>1.033784559414929</v>
       </c>
       <c r="ACW2">
-        <v>1.039789681302628</v>
+        <v>1.034043956832035</v>
       </c>
       <c r="ACX2">
-        <v>1.040181145494859</v>
+        <v>1.03482085831205</v>
       </c>
       <c r="ACY2">
-        <v>1.039470272929219</v>
+        <v>1.034161248764294</v>
       </c>
       <c r="ACZ2">
-        <v>1.03981224353416</v>
+        <v>1.034166212562451</v>
       </c>
       <c r="ADA2">
-        <v>1.039487846286513</v>
+        <v>1.033413009161122</v>
       </c>
       <c r="ADB2">
-        <v>1.039508776894979</v>
+        <v>1.033189426495877</v>
       </c>
       <c r="ADC2">
-        <v>1.039508060404929</v>
+        <v>1.033276643843908</v>
       </c>
       <c r="ADD2">
-        <v>1.039559917800806</v>
+        <v>1.033613203871045</v>
       </c>
       <c r="ADE2">
-        <v>1.039726764415244</v>
+        <v>1.033777926423516</v>
       </c>
       <c r="ADF2">
-        <v>1.039789681302627</v>
+        <v>1.034043956832035</v>
       </c>
       <c r="ADG2">
-        <v>1.040162980215978</v>
+        <v>1.03480781597969</v>
       </c>
       <c r="ADH2">
-        <v>1.039430329325999</v>
+        <v>1.034137541638665</v>
       </c>
       <c r="ADI2">
-        <v>1.03947486736821</v>
+        <v>1.033397436783506</v>
       </c>
       <c r="ADJ2">
-        <v>1.03950768285986</v>
+        <v>1.033275884190432</v>
       </c>
       <c r="ADK2">
-        <v>1.039559660789983</v>
+        <v>1.033612825368141</v>
       </c>
       <c r="ADL2">
-        <v>1.039726357428681</v>
+        <v>1.033773520309019</v>
       </c>
       <c r="ADM2">
-        <v>1.039789681302627</v>
+        <v>1.034043956832036</v>
       </c>
       <c r="ADN2">
-        <v>1.039429673391707</v>
+        <v>1.034132462389193</v>
       </c>
       <c r="ADO2">
-        <v>1.039363107791362</v>
+        <v>1.034125604232918</v>
       </c>
       <c r="ADP2">
-        <v>1.039463136938241</v>
+        <v>1.033383362369182</v>
       </c>
       <c r="ADQ2">
-        <v>1.039507345740957</v>
+        <v>1.033275205877916</v>
       </c>
       <c r="ADR2">
-        <v>1.039559235040856</v>
+        <v>1.033612198362324</v>
       </c>
       <c r="ADS2">
-        <v>1.039725943214296</v>
+        <v>1.03376903594485</v>
       </c>
       <c r="ADT2">
-        <v>1.039789681302627</v>
+        <v>1.034043956832036</v>
       </c>
       <c r="ADU2">
-        <v>1.039429101355119</v>
+        <v>1.034128032804546</v>
       </c>
       <c r="ADV2">
-        <v>1.039255543611005</v>
+        <v>1.034106502649019</v>
       </c>
       <c r="ADW2">
-        <v>1.039461943391452</v>
+        <v>1.033382781472689</v>
       </c>
       <c r="ADX2">
-        <v>1.039460159928865</v>
+        <v>1.033376540483935</v>
       </c>
       <c r="ADY2">
-        <v>1.039506973449309</v>
+        <v>1.033274456794781</v>
       </c>
       <c r="ADZ2">
-        <v>1.039556279908097</v>
+        <v>1.033607846303088</v>
       </c>
       <c r="AEA2">
-        <v>1.039725745160608</v>
+        <v>1.03376689177777</v>
       </c>
       <c r="AEB2">
-        <v>1.039789681302627</v>
+        <v>1.034043956832036</v>
       </c>
       <c r="AEC2">
-        <v>1.039428628254818</v>
+        <v>1.034124369336447</v>
       </c>
       <c r="AED2">
-        <v>1.039163640597137</v>
+        <v>1.034090182216566</v>
       </c>
       <c r="AEE2">
-        <v>1.039460746709066</v>
+        <v>1.033382199050106</v>
       </c>
       <c r="AEF2">
-        <v>1.039455403408956</v>
+        <v>1.033365640820777</v>
       </c>
       <c r="AEG2">
-        <v>1.039460159928865</v>
+        <v>1.033376540483935</v>
       </c>
       <c r="AEH2">
-        <v>1.039506733420649</v>
+        <v>1.033273973836268</v>
       </c>
       <c r="AEI2">
-        <v>1.03954975238431</v>
+        <v>1.033598233141126</v>
       </c>
       <c r="AEJ2">
-        <v>1.039725430132213</v>
+        <v>1.033763481220204</v>
       </c>
       <c r="AEK2">
-        <v>1.039789681302628</v>
+        <v>1.034043956832036</v>
       </c>
       <c r="AEL2">
-        <v>1.039428260349041</v>
+        <v>1.034121520445734</v>
       </c>
       <c r="AEM2">
-        <v>1.039111627115271</v>
+        <v>1.034080945492281</v>
       </c>
       <c r="AEN2">
-        <v>1.03945954770403</v>
+        <v>1.033381615497092</v>
       </c>
       <c r="AEO2">
-        <v>1.039451415227679</v>
+        <v>1.033356501822674</v>
       </c>
       <c r="AEP2">
-        <v>1.039455403408956</v>
+        <v>1.033365640820777</v>
       </c>
       <c r="AEQ2">
-        <v>1.039506364753025</v>
+        <v>1.033273232044988</v>
       </c>
       <c r="AER2">
-        <v>1.039725134390517</v>
+        <v>1.033760279464181</v>
       </c>
       <c r="AES2">
-        <v>1.039789681302628</v>
+        <v>1.034043956832037</v>
       </c>
       <c r="AET2">
-        <v>1.039427886166095</v>
+        <v>1.03411862294759</v>
       </c>
       <c r="AEU2">
-        <v>1.039458355957308</v>
+        <v>1.03338103547668</v>
       </c>
       <c r="AEV2">
-        <v>1.039447128033864</v>
+        <v>1.033346677632588</v>
       </c>
       <c r="AEW2">
-        <v>1.039451415227679</v>
+        <v>1.033356501822674</v>
       </c>
       <c r="AEX2">
-        <v>1.039503332368592</v>
+        <v>1.03326713062419</v>
       </c>
       <c r="AEY2">
-        <v>1.039724711824808</v>
+        <v>1.033755704687294</v>
       </c>
       <c r="AEZ2">
-        <v>1.039789681302628</v>
+        <v>1.034043956832037</v>
       </c>
       <c r="AFA2">
-        <v>1.039427561441827</v>
+        <v>1.034116108434398</v>
       </c>
       <c r="AFB2">
-        <v>1.039457159681377</v>
+        <v>1.033380453251911</v>
       </c>
       <c r="AFC2">
-        <v>1.039443608095781</v>
+        <v>1.033338611625318</v>
       </c>
       <c r="AFD2">
-        <v>1.039447128033864</v>
+        <v>1.033346677632588</v>
       </c>
       <c r="AFE2">
-        <v>1.039492881401852</v>
+        <v>1.033246102372408</v>
       </c>
       <c r="AFF2">
-        <v>1.039720251356771</v>
+        <v>1.033707414816927</v>
       </c>
       <c r="AFG2">
-        <v>1.039427328219907</v>
+        <v>1.034114302472712</v>
       </c>
       <c r="AFH2">
-        <v>1.039455964218401</v>
+        <v>1.033379871422804</v>
       </c>
       <c r="AFI2">
-        <v>1.039439829054713</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AFJ2">
-        <v>1.039443608095781</v>
+        <v>1.033338611625318</v>
       </c>
       <c r="AFK2">
-        <v>1.039718467281982</v>
+        <v>1.033688100089273</v>
       </c>
       <c r="AFL2">
-        <v>1.039427057448831</v>
+        <v>1.034112205747902</v>
       </c>
       <c r="AFM2">
-        <v>1.03945476800062</v>
+        <v>1.033379289226333</v>
       </c>
       <c r="AFN2">
-        <v>1.039419890522155</v>
+        <v>1.033284262385832</v>
       </c>
       <c r="AFO2">
-        <v>1.039439829054714</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AFP2">
-        <v>1.039439829054713</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AFQ2">
-        <v>1.039717561331957</v>
+        <v>1.033678292105434</v>
       </c>
       <c r="AFR2">
-        <v>1.039426649528562</v>
+        <v>1.034109047003811</v>
       </c>
       <c r="AFS2">
-        <v>1.039454184088861</v>
+        <v>1.033379005037808</v>
       </c>
       <c r="AFT2">
-        <v>1.039416973456668</v>
+        <v>1.033277577880043</v>
       </c>
       <c r="AFU2">
-        <v>1.039439829054715</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AFV2">
-        <v>1.039439829054714</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AFW2">
-        <v>1.039717360862764</v>
+        <v>1.033676121788654</v>
       </c>
       <c r="AFX2">
-        <v>1.039425983069121</v>
+        <v>1.034103886253199</v>
       </c>
       <c r="AFY2">
-        <v>1.039441060590578</v>
+        <v>1.033372617860923</v>
       </c>
       <c r="AFZ2">
-        <v>1.039408755425218</v>
+        <v>1.033258746120079</v>
       </c>
       <c r="AGA2">
-        <v>1.039439829054717</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AGB2">
-        <v>1.039439829054715</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AGC2">
-        <v>1.039717202983445</v>
+        <v>1.033674412557792</v>
       </c>
       <c r="AGD2">
-        <v>1.039423342135043</v>
+        <v>1.034070438275452</v>
       </c>
       <c r="AGE2">
-        <v>1.039418774933216</v>
+        <v>1.034082680431184</v>
       </c>
       <c r="AGF2">
-        <v>1.039432526630298</v>
+        <v>1.033368464401658</v>
       </c>
       <c r="AGG2">
-        <v>1.039399105395011</v>
+        <v>1.033236632911544</v>
       </c>
       <c r="AGH2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879477</v>
       </c>
       <c r="AGI2">
-        <v>1.039439829054717</v>
+        <v>1.033329951879478</v>
       </c>
       <c r="AGJ2">
-        <v>1.039717033826093</v>
+        <v>1.033672581228863</v>
       </c>
       <c r="AGK2">
-        <v>1.039425062826793</v>
+        <v>1.033364831785204</v>
       </c>
       <c r="AGL2">
-        <v>1.039397853577731</v>
+        <v>1.03323376435102</v>
       </c>
       <c r="AGM2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879477</v>
       </c>
       <c r="AGN2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879477</v>
       </c>
       <c r="AGO2">
-        <v>1.039716898487854</v>
+        <v>1.033671116031953</v>
       </c>
       <c r="AGP2">
-        <v>1.039417233788418</v>
+        <v>1.033361021409672</v>
       </c>
       <c r="AGQ2">
-        <v>1.039397076559884</v>
+        <v>1.033230158746845</v>
       </c>
       <c r="AGR2">
-        <v>1.039396081587944</v>
+        <v>1.03323376435102</v>
       </c>
       <c r="AGS2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879476</v>
       </c>
       <c r="AGT2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879477</v>
       </c>
       <c r="AGU2">
-        <v>1.039716767079974</v>
+        <v>1.033669693385859</v>
       </c>
       <c r="AGV2">
-        <v>1.03940386583521</v>
+        <v>1.033354515256436</v>
       </c>
       <c r="AGW2">
-        <v>1.039396357564506</v>
+        <v>1.033226822384982</v>
       </c>
       <c r="AGX2">
-        <v>1.039391934654702</v>
+        <v>1.03323376435102</v>
       </c>
       <c r="AGY2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879476</v>
       </c>
       <c r="AGZ2">
-        <v>1.039439829054718</v>
+        <v>1.033329951879476</v>
       </c>
       <c r="AHA2">
-        <v>1.039716636005397</v>
+        <v>1.033668274348167</v>
       </c>
       <c r="AHB2">
-        <v>1.039400586964736</v>
+        <v>1.033352919437395</v>
       </c>
       <c r="AHC2">
-        <v>1.039395264268982</v>
+        <v>1.033221749154269</v>
       </c>
       <c r="AHD2">
-        <v>1.039382096889285</v>
+        <v>1.03323376435102</v>
       </c>
       <c r="AHE2">
-        <v>1.039716506464399</v>
+        <v>1.033666871913299</v>
       </c>
       <c r="AHF2">
-        <v>1.039398136654184</v>
+        <v>1.033352919437394</v>
       </c>
       <c r="AHG2">
-        <v>1.03939612314665</v>
+        <v>1.033346184513098</v>
       </c>
       <c r="AHH2">
-        <v>1.039393882642356</v>
+        <v>1.033215337977839</v>
       </c>
       <c r="AHI2">
-        <v>1.039714190002216</v>
+        <v>1.033641793465828</v>
       </c>
       <c r="AHJ2">
-        <v>1.039394113445255</v>
+        <v>1.033352919437391</v>
       </c>
       <c r="AHK2">
-        <v>1.039392337228561</v>
+        <v>1.033340472391626</v>
       </c>
       <c r="AHL2">
-        <v>1.039388503996731</v>
+        <v>1.033190379393859</v>
       </c>
       <c r="AHM2">
-        <v>1.039714190002215</v>
+        <v>1.033624924985669</v>
       </c>
       <c r="AHN2">
-        <v>1.039708088106462</v>
+        <v>1.033585170182136</v>
       </c>
       <c r="AHO2">
-        <v>1.03939331796857</v>
+        <v>1.033352919437391</v>
       </c>
       <c r="AHP2">
-        <v>1.039385973878009</v>
+        <v>1.033330871489164</v>
       </c>
       <c r="AHQ2">
-        <v>1.039378733333955</v>
+        <v>1.033145040493569</v>
       </c>
       <c r="AHR2">
-        <v>1.039714190002215</v>
+        <v>1.033613722386664</v>
       </c>
       <c r="AHS2">
-        <v>1.039392645807907</v>
+        <v>1.033352919437391</v>
       </c>
       <c r="AHT2">
-        <v>1.039392079380355</v>
+        <v>1.033352919437391</v>
       </c>
       <c r="AHU2">
-        <v>1.039391342552564</v>
+        <v>1.033352919437391</v>
       </c>
       <c r="AHV2">
-        <v>1.039390009009034</v>
+        <v>1.03335291943739</v>
       </c>
       <c r="AHW2">
-        <v>1.039387696883385</v>
+        <v>1.03335291943739</v>
       </c>
       <c r="AHX2">
-        <v>1.039368758143458</v>
+        <v>1.03335291943739</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.051637286009183</v>
+        <v>1.049639121811306</v>
       </c>
       <c r="D3">
-        <v>1.052929140825157</v>
+        <v>1.049443032431784</v>
       </c>
       <c r="E3">
-        <v>1.053064576683311</v>
+        <v>1.049422475244296</v>
       </c>
       <c r="F3">
-        <v>1.053191459318247</v>
+        <v>1.0494032163954</v>
       </c>
       <c r="G3">
-        <v>1.053302083152377</v>
+        <v>1.049386425450859</v>
       </c>
       <c r="H3">
-        <v>1.053476359874054</v>
+        <v>1.04935997313229</v>
       </c>
       <c r="I3">
-        <v>1.065345912796795</v>
+        <v>1.047558728846544</v>
       </c>
       <c r="J3">
-        <v>1.06587762765554</v>
+        <v>1.047478055640072</v>
       </c>
       <c r="K3">
-        <v>1.066320190093938</v>
+        <v>1.047410909932423</v>
       </c>
       <c r="L3">
-        <v>1.066708578556572</v>
+        <v>1.047351984304954</v>
       </c>
       <c r="M3">
-        <v>1.066998392587727</v>
+        <v>1.047308014699688</v>
       </c>
       <c r="N3">
-        <v>1.067270458836074</v>
+        <v>1.047266738100697</v>
       </c>
       <c r="O3">
-        <v>1.067437755786485</v>
+        <v>1.047241356781049</v>
       </c>
       <c r="P3">
-        <v>1.067854253697176</v>
+        <v>1.047178168733997</v>
       </c>
       <c r="Q3">
-        <v>1.071228416790402</v>
+        <v>1.046666296176464</v>
       </c>
       <c r="R3">
-        <v>1.071228416790403</v>
+        <v>1.046666296176463</v>
       </c>
       <c r="S3">
-        <v>1.075320597179102</v>
+        <v>1.046045571482496</v>
       </c>
       <c r="T3">
-        <v>1.071228416790403</v>
+        <v>1.046666296176463</v>
       </c>
       <c r="U3">
-        <v>1.07560218138932</v>
+        <v>1.046002862171775</v>
       </c>
       <c r="V3">
-        <v>1.071228416790404</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="W3">
-        <v>1.075918370225196</v>
+        <v>1.045954904652155</v>
       </c>
       <c r="X3">
-        <v>1.071228416790405</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="Y3">
-        <v>1.076433195585224</v>
+        <v>1.045876820222438</v>
       </c>
       <c r="Z3">
-        <v>1.071228416790405</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AA3">
-        <v>1.077369806447409</v>
+        <v>1.045734766109891</v>
       </c>
       <c r="AB3">
-        <v>1.071228416790406</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AC3">
-        <v>1.078070205237033</v>
+        <v>1.045550030906471</v>
       </c>
       <c r="AD3">
-        <v>1.088650045248428</v>
+        <v>1.044075638609651</v>
       </c>
       <c r="AE3">
-        <v>1.071228416790406</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AF3">
-        <v>1.078168927814804</v>
+        <v>1.045526406099433</v>
       </c>
       <c r="AG3">
-        <v>1.078161986434506</v>
+        <v>1.045523471150936</v>
       </c>
       <c r="AH3">
-        <v>1.091653608692635</v>
+        <v>1.043633963460057</v>
       </c>
       <c r="AI3">
-        <v>1.071228416790407</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AJ3">
-        <v>1.078395009688597</v>
+        <v>1.045472303634841</v>
       </c>
       <c r="AK3">
-        <v>1.078165094613482</v>
+        <v>1.045522571702592</v>
       </c>
       <c r="AL3">
-        <v>1.092317990802313</v>
+        <v>1.043551830239148</v>
       </c>
       <c r="AM3">
-        <v>1.100375930174979</v>
+        <v>1.042343115005968</v>
       </c>
       <c r="AN3">
-        <v>1.071228416790408</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AO3">
-        <v>1.078169563612806</v>
+        <v>1.045521278458552</v>
       </c>
       <c r="AP3">
-        <v>1.09234117894853</v>
+        <v>1.043547240085033</v>
       </c>
       <c r="AQ3">
-        <v>1.092422854716568</v>
+        <v>1.043546649020685</v>
       </c>
       <c r="AR3">
-        <v>1.106429821009286</v>
+        <v>1.041447375324014</v>
       </c>
       <c r="AS3">
-        <v>1.100375930174979</v>
+        <v>1.042343115005965</v>
       </c>
       <c r="AT3">
-        <v>1.071228416790409</v>
+        <v>1.046666296176462</v>
       </c>
       <c r="AU3">
-        <v>1.078175294799559</v>
+        <v>1.045519619961357</v>
       </c>
       <c r="AV3">
-        <v>1.092351630540851</v>
+        <v>1.043545171165257</v>
       </c>
       <c r="AW3">
-        <v>1.092675177394923</v>
+        <v>1.043534182028464</v>
       </c>
       <c r="AX3">
-        <v>1.111005115675065</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="AY3">
-        <v>1.100375930174979</v>
+        <v>1.042343115005964</v>
       </c>
       <c r="AZ3">
-        <v>1.071228416790409</v>
+        <v>1.046666296176461</v>
       </c>
       <c r="BA3">
-        <v>1.078189252821425</v>
+        <v>1.045515580773749</v>
       </c>
       <c r="BB3">
-        <v>1.092362706991945</v>
+        <v>1.04354297855322</v>
       </c>
       <c r="BC3">
-        <v>1.111664825258484</v>
+        <v>1.040672927554633</v>
       </c>
       <c r="BD3">
-        <v>1.111005115675068</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="BE3">
-        <v>1.10037593017498</v>
+        <v>1.042343115005963</v>
       </c>
       <c r="BF3">
-        <v>1.071228416790409</v>
+        <v>1.046666296176461</v>
       </c>
       <c r="BG3">
-        <v>1.078201203437404</v>
+        <v>1.045512122491765</v>
       </c>
       <c r="BH3">
-        <v>1.092373256545687</v>
+        <v>1.043540890242019</v>
       </c>
       <c r="BI3">
-        <v>1.114653274088411</v>
+        <v>1.040230880029528</v>
       </c>
       <c r="BJ3">
-        <v>1.111005115675068</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="BK3">
-        <v>1.10037593017498</v>
+        <v>1.042343115005961</v>
       </c>
       <c r="BL3">
-        <v>1.07122841679041</v>
+        <v>1.04666629617646</v>
       </c>
       <c r="BM3">
-        <v>1.078258490416243</v>
+        <v>1.045495544728842</v>
       </c>
       <c r="BN3">
-        <v>1.092379574685214</v>
+        <v>1.043539639550175</v>
       </c>
       <c r="BO3">
-        <v>1.115236009991693</v>
+        <v>1.040144131589076</v>
       </c>
       <c r="BP3">
-        <v>1.115599801738335</v>
+        <v>1.040112044975083</v>
       </c>
       <c r="BQ3">
-        <v>1.111005115675068</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="BR3">
-        <v>1.10037593017498</v>
+        <v>1.04234311500596</v>
       </c>
       <c r="BS3">
-        <v>1.071228416790411</v>
+        <v>1.04666629617646</v>
       </c>
       <c r="BT3">
-        <v>1.078460980390871</v>
+        <v>1.045436948032235</v>
       </c>
       <c r="BU3">
-        <v>1.092391970411728</v>
+        <v>1.043537185784625</v>
       </c>
       <c r="BV3">
-        <v>1.122121470575659</v>
+        <v>1.039119244057364</v>
       </c>
       <c r="BW3">
-        <v>1.115829282170135</v>
+        <v>1.04006557607697</v>
       </c>
       <c r="BX3">
-        <v>1.115832978894987</v>
+        <v>1.04010042814788</v>
       </c>
       <c r="BY3">
-        <v>1.111005115675068</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="BZ3">
-        <v>1.100375930174982</v>
+        <v>1.042343115005958</v>
       </c>
       <c r="CA3">
-        <v>1.071228416790416</v>
+        <v>1.046666296176459</v>
       </c>
       <c r="CB3">
-        <v>1.092454792441359</v>
+        <v>1.043524750007309</v>
       </c>
       <c r="CC3">
-        <v>1.124521844226637</v>
+        <v>1.038762000455994</v>
       </c>
       <c r="CD3">
-        <v>1.111005115675069</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="CE3">
-        <v>1.100375930174984</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="CF3">
-        <v>1.071228416790423</v>
+        <v>1.046666296176457</v>
       </c>
       <c r="CG3">
-        <v>1.092691520040275</v>
+        <v>1.043477889234617</v>
       </c>
       <c r="CH3">
-        <v>1.125045703417642</v>
+        <v>1.038684038599325</v>
       </c>
       <c r="CI3">
-        <v>1.111005115675069</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="CJ3">
-        <v>1.100375930174988</v>
+        <v>1.042343115005933</v>
       </c>
       <c r="CK3">
-        <v>1.071228416790426</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="CL3">
-        <v>1.126108028114585</v>
+        <v>1.038525944686434</v>
       </c>
       <c r="CM3">
-        <v>1.111005115675069</v>
+        <v>1.040770516111961</v>
       </c>
       <c r="CN3">
-        <v>1.10037593017499</v>
+        <v>1.042343115005929</v>
       </c>
       <c r="CO3">
-        <v>1.071228416790428</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="CP3">
-        <v>1.127109875256596</v>
+        <v>1.038376855312553</v>
       </c>
       <c r="CQ3">
-        <v>1.10037593017499</v>
+        <v>1.042343115005929</v>
       </c>
       <c r="CR3">
-        <v>1.071228416790428</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="CS3">
-        <v>1.127692197673814</v>
+        <v>1.038290199229801</v>
       </c>
       <c r="CT3">
-        <v>1.10037593017499</v>
+        <v>1.042343115005928</v>
       </c>
       <c r="CU3">
-        <v>1.071228416790429</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="CV3">
-        <v>1.128076782720769</v>
+        <v>1.038232969454991</v>
       </c>
       <c r="CW3">
-        <v>1.10037593017499</v>
+        <v>1.042343115005928</v>
       </c>
       <c r="CX3">
-        <v>1.071228416790429</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="CY3">
-        <v>1.128607793370796</v>
+        <v>1.038153951225893</v>
       </c>
       <c r="CZ3">
-        <v>1.100375930174995</v>
+        <v>1.042343115005926</v>
       </c>
       <c r="DA3">
-        <v>1.071228416790429</v>
+        <v>1.046666296176456</v>
       </c>
       <c r="DB3">
-        <v>1.128615501540495</v>
+        <v>1.038152817443355</v>
       </c>
       <c r="DC3">
-        <v>1.128913377511615</v>
+        <v>1.038108398433968</v>
       </c>
       <c r="DD3">
-        <v>1.100375930174995</v>
+        <v>1.042343115005926</v>
       </c>
       <c r="DE3">
-        <v>1.12862482740314</v>
+        <v>1.038151445723831</v>
       </c>
       <c r="DF3">
-        <v>1.129086659898979</v>
+        <v>1.038082567764137</v>
       </c>
       <c r="DG3">
-        <v>1.100375930174996</v>
+        <v>1.042343115005927</v>
       </c>
       <c r="DH3">
-        <v>1.128635636798697</v>
+        <v>1.03814985580437</v>
       </c>
       <c r="DI3">
-        <v>1.135924509366106</v>
+        <v>1.037063371235657</v>
       </c>
       <c r="DJ3">
-        <v>1.100375930174996</v>
+        <v>1.042343115005937</v>
       </c>
       <c r="DK3">
-        <v>1.128652118035226</v>
+        <v>1.038147431651534</v>
       </c>
       <c r="DL3">
-        <v>1.136609575855731</v>
+        <v>1.036961271311301</v>
       </c>
       <c r="DM3">
-        <v>1.100375930174996</v>
+        <v>1.042343115005946</v>
       </c>
       <c r="DN3">
-        <v>1.128673307100982</v>
+        <v>1.038144315079504</v>
       </c>
       <c r="DO3">
-        <v>1.136633414125365</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="DP3">
-        <v>1.138408346584208</v>
+        <v>1.036700468485741</v>
       </c>
       <c r="DQ3">
-        <v>1.100375930174997</v>
+        <v>1.042343115005947</v>
       </c>
       <c r="DR3">
-        <v>1.128688518966523</v>
+        <v>1.038142077681962</v>
       </c>
       <c r="DS3">
-        <v>1.136633414125364</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="DT3">
-        <v>1.136645020939055</v>
+        <v>1.036954891536667</v>
       </c>
       <c r="DU3">
-        <v>1.141652734202744</v>
+        <v>1.036230156113093</v>
       </c>
       <c r="DV3">
-        <v>1.100375930174997</v>
+        <v>1.042343115005948</v>
       </c>
       <c r="DW3">
-        <v>1.128710013421391</v>
+        <v>1.038138916260529</v>
       </c>
       <c r="DX3">
-        <v>1.136633414125363</v>
+        <v>1.036956980636574</v>
       </c>
       <c r="DY3">
-        <v>1.136699546774754</v>
+        <v>1.036945077677595</v>
       </c>
       <c r="DZ3">
-        <v>1.143111958588781</v>
+        <v>1.036018661698284</v>
       </c>
       <c r="EA3">
-        <v>1.100375930174997</v>
+        <v>1.042343115005948</v>
       </c>
       <c r="EB3">
-        <v>1.128733269141626</v>
+        <v>1.038135495836115</v>
       </c>
       <c r="EC3">
-        <v>1.136633414125363</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="ED3">
-        <v>1.136916073660901</v>
+        <v>1.036902025454742</v>
       </c>
       <c r="EE3">
-        <v>1.136822850964323</v>
+        <v>1.036923479493817</v>
       </c>
       <c r="EF3">
-        <v>1.143546144721448</v>
+        <v>1.035955736880907</v>
       </c>
       <c r="EG3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005948</v>
       </c>
       <c r="EH3">
-        <v>1.1287552014102</v>
+        <v>1.038132270106598</v>
       </c>
       <c r="EI3">
-        <v>1.136633414125363</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="EJ3">
-        <v>1.136934720869347</v>
+        <v>1.036898317817343</v>
       </c>
       <c r="EK3">
-        <v>1.136914587735344</v>
+        <v>1.036907411758805</v>
       </c>
       <c r="EL3">
-        <v>1.1440362696732</v>
+        <v>1.035884707534919</v>
       </c>
       <c r="EM3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="EN3">
-        <v>1.12879126209315</v>
+        <v>1.038126966505109</v>
       </c>
       <c r="EO3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="EP3">
-        <v>1.136953017324896</v>
+        <v>1.036894679920809</v>
       </c>
       <c r="EQ3">
-        <v>1.136976023967526</v>
+        <v>1.03689665167357</v>
       </c>
       <c r="ER3">
-        <v>1.144497237461906</v>
+        <v>1.035817906044511</v>
       </c>
       <c r="ES3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="ET3">
-        <v>1.128962731839074</v>
+        <v>1.038101749252773</v>
       </c>
       <c r="EU3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636572</v>
       </c>
       <c r="EV3">
-        <v>1.136967790939039</v>
+        <v>1.0368917424735</v>
       </c>
       <c r="EW3">
-        <v>1.137006345476836</v>
+        <v>1.036890110707844</v>
       </c>
       <c r="EX3">
-        <v>1.137552200488187</v>
+        <v>1.036818595087813</v>
       </c>
       <c r="EY3">
-        <v>1.145035116259798</v>
+        <v>1.035739961842954</v>
       </c>
       <c r="EZ3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="FA3">
-        <v>1.129000087619214</v>
+        <v>1.038096255852634</v>
       </c>
       <c r="FB3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636572</v>
       </c>
       <c r="FC3">
-        <v>1.136989964962156</v>
+        <v>1.036887333598573</v>
       </c>
       <c r="FD3">
-        <v>1.137086762175719</v>
+        <v>1.036872763792868</v>
       </c>
       <c r="FE3">
-        <v>1.137587270349891</v>
+        <v>1.036813844063408</v>
       </c>
       <c r="FF3">
-        <v>1.145189891560574</v>
+        <v>1.035717533880036</v>
       </c>
       <c r="FG3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="FH3">
-        <v>1.12966984443048</v>
+        <v>1.03802853324442</v>
       </c>
       <c r="FI3">
-        <v>1.129118041393384</v>
+        <v>1.038077839390047</v>
       </c>
       <c r="FJ3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636572</v>
       </c>
       <c r="FK3">
-        <v>1.137016698227938</v>
+        <v>1.036882018207383</v>
       </c>
       <c r="FL3">
-        <v>1.137114696055127</v>
+        <v>1.03686673830052</v>
       </c>
       <c r="FM3">
-        <v>1.137619308531617</v>
+        <v>1.036809503751081</v>
       </c>
       <c r="FN3">
-        <v>1.14606922423523</v>
+        <v>1.035590117676144</v>
       </c>
       <c r="FO3">
-        <v>1.100375930174998</v>
+        <v>1.042343115005949</v>
       </c>
       <c r="FP3">
-        <v>1.129796373074216</v>
+        <v>1.038015739301942</v>
       </c>
       <c r="FQ3">
-        <v>1.1292746484631</v>
+        <v>1.038053389879438</v>
       </c>
       <c r="FR3">
-        <v>1.136633414125361</v>
+        <v>1.036956980636572</v>
       </c>
       <c r="FS3">
-        <v>1.137036894658473</v>
+        <v>1.036878002539637</v>
       </c>
       <c r="FT3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300506</v>
       </c>
       <c r="FU3">
-        <v>1.13757601665901</v>
+        <v>1.036767238002403</v>
       </c>
       <c r="FV3">
-        <v>1.137632617633868</v>
+        <v>1.036807700725763</v>
       </c>
       <c r="FW3">
-        <v>1.146565898656722</v>
+        <v>1.035518152727257</v>
       </c>
       <c r="FX3">
-        <v>1.130057427424922</v>
+        <v>1.037989342823459</v>
       </c>
       <c r="FY3">
-        <v>1.12929044276142</v>
+        <v>1.038050300718737</v>
       </c>
       <c r="FZ3">
-        <v>1.129555096539696</v>
+        <v>1.038026125715797</v>
       </c>
       <c r="GA3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636572</v>
       </c>
       <c r="GB3">
-        <v>1.137060265446928</v>
+        <v>1.03687335571314</v>
       </c>
       <c r="GC3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300504</v>
       </c>
       <c r="GD3">
-        <v>1.137625839790071</v>
+        <v>1.036756491878614</v>
       </c>
       <c r="GE3">
-        <v>1.137661305249718</v>
+        <v>1.036803814326042</v>
       </c>
       <c r="GF3">
-        <v>1.146934604028049</v>
+        <v>1.035464731392704</v>
       </c>
       <c r="GG3">
-        <v>1.129352598793933</v>
+        <v>1.038038144094698</v>
       </c>
       <c r="GH3">
-        <v>1.130715816011569</v>
+        <v>1.037913285167736</v>
       </c>
       <c r="GI3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="GJ3">
-        <v>1.137082240021292</v>
+        <v>1.036868986497267</v>
       </c>
       <c r="GK3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300504</v>
       </c>
       <c r="GL3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300503</v>
       </c>
       <c r="GM3">
-        <v>1.137674032480919</v>
+        <v>1.036746097420281</v>
       </c>
       <c r="GN3">
-        <v>1.137734372280736</v>
+        <v>1.036793915713173</v>
       </c>
       <c r="GO3">
-        <v>1.147266094790777</v>
+        <v>1.035416703291563</v>
       </c>
       <c r="GP3">
-        <v>1.129463580289191</v>
+        <v>1.038016439232417</v>
       </c>
       <c r="GQ3">
-        <v>1.130829249088734</v>
+        <v>1.037907771830552</v>
       </c>
       <c r="GR3">
-        <v>1.130781370588696</v>
+        <v>1.037903725318698</v>
       </c>
       <c r="GS3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="GT3">
-        <v>1.137105883373586</v>
+        <v>1.036864285478096</v>
       </c>
       <c r="GU3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300504</v>
       </c>
       <c r="GV3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300502</v>
       </c>
       <c r="GW3">
-        <v>1.137712581812673</v>
+        <v>1.036737782895715</v>
       </c>
       <c r="GX3">
-        <v>1.137777240352445</v>
+        <v>1.036788108247141</v>
       </c>
       <c r="GY3">
-        <v>1.147677910227256</v>
+        <v>1.035357038979186</v>
       </c>
       <c r="GZ3">
-        <v>1.129654464002969</v>
+        <v>1.037998164855381</v>
       </c>
       <c r="HA3">
-        <v>1.129482423441831</v>
+        <v>1.0380117837917</v>
       </c>
       <c r="HB3">
-        <v>1.131116036244436</v>
+        <v>1.037893832752084</v>
       </c>
       <c r="HC3">
-        <v>1.130790636795157</v>
+        <v>1.037902374024572</v>
       </c>
       <c r="HD3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="HE3">
-        <v>1.137142026968592</v>
+        <v>1.03685709903097</v>
       </c>
       <c r="HF3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="HG3">
-        <v>1.137743289400357</v>
+        <v>1.036731159721611</v>
       </c>
       <c r="HH3">
-        <v>1.137807265299806</v>
+        <v>1.036784040678497</v>
       </c>
       <c r="HI3">
-        <v>1.148437875606836</v>
+        <v>1.035246939064492</v>
       </c>
       <c r="HJ3">
-        <v>1.130279253170917</v>
+        <v>1.037938350396006</v>
       </c>
       <c r="HK3">
-        <v>1.129516432565463</v>
+        <v>1.038003381548341</v>
       </c>
       <c r="HL3">
-        <v>1.130798109728865</v>
+        <v>1.037901284244093</v>
       </c>
       <c r="HM3">
-        <v>1.136633414125362</v>
+        <v>1.036956980636573</v>
       </c>
       <c r="HN3">
-        <v>1.137240731283401</v>
+        <v>1.036837473616308</v>
       </c>
       <c r="HO3">
-        <v>1.137114696055132</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="HP3">
-        <v>1.137808210175547</v>
+        <v>1.036717157271451</v>
       </c>
       <c r="HQ3">
-        <v>1.13786502122796</v>
+        <v>1.036776216313696</v>
       </c>
       <c r="HR3">
-        <v>1.14910047508123</v>
+        <v>1.035150950075675</v>
       </c>
       <c r="HS3">
-        <v>1.130548589980283</v>
+        <v>1.037912565386858</v>
       </c>
       <c r="HT3">
-        <v>1.129528575864087</v>
+        <v>1.038000381487847</v>
       </c>
       <c r="HU3">
-        <v>1.130804081709078</v>
+        <v>1.037900413348211</v>
       </c>
       <c r="HV3">
-        <v>1.137249147133564</v>
+        <v>1.036835800290335</v>
       </c>
       <c r="HW3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="HX3">
-        <v>1.137859336849167</v>
+        <v>1.036706130008876</v>
       </c>
       <c r="HY3">
-        <v>1.137893768386968</v>
+        <v>1.036772321852837</v>
       </c>
       <c r="HZ3">
-        <v>1.149551222243975</v>
+        <v>1.035085654240911</v>
       </c>
       <c r="IA3">
-        <v>1.130883916192714</v>
+        <v>1.03766557777686</v>
       </c>
       <c r="IB3">
-        <v>1.129528575864087</v>
+        <v>1.038000381487847</v>
       </c>
       <c r="IC3">
-        <v>1.130813197994387</v>
+        <v>1.037899083917319</v>
       </c>
       <c r="ID3">
-        <v>1.13725303433602</v>
+        <v>1.036835027396752</v>
       </c>
       <c r="IE3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="IF3">
-        <v>1.137894800866107</v>
+        <v>1.036698480950348</v>
       </c>
       <c r="IG3">
-        <v>1.137914180647581</v>
+        <v>1.036769556545198</v>
       </c>
       <c r="IH3">
-        <v>1.149847331595739</v>
+        <v>1.035042760627112</v>
       </c>
       <c r="II3">
-        <v>1.131080742079287</v>
+        <v>1.037616956999267</v>
       </c>
       <c r="IJ3">
-        <v>1.130823884118147</v>
+        <v>1.037897525556463</v>
       </c>
       <c r="IK3">
-        <v>1.137257192169688</v>
+        <v>1.036834200693509</v>
       </c>
       <c r="IL3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="IM3">
-        <v>1.137930180404342</v>
+        <v>1.036690850114335</v>
       </c>
       <c r="IN3">
-        <v>1.138147688342632</v>
+        <v>1.036737922610068</v>
       </c>
       <c r="IO3">
-        <v>1.150484628325291</v>
+        <v>1.034950446691131</v>
       </c>
       <c r="IP3">
-        <v>1.131387492633625</v>
+        <v>1.037587111100682</v>
       </c>
       <c r="IQ3">
-        <v>1.131378143188575</v>
+        <v>1.037497563009816</v>
       </c>
       <c r="IR3">
-        <v>1.130840297370775</v>
+        <v>1.03789513200676</v>
       </c>
       <c r="IS3">
-        <v>1.137261165162932</v>
+        <v>1.036833410742159</v>
       </c>
       <c r="IT3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="IU3">
-        <v>1.137981939102988</v>
+        <v>1.036679686542065</v>
       </c>
       <c r="IV3">
-        <v>1.138216545993382</v>
+        <v>1.036728594281471</v>
       </c>
       <c r="IW3">
-        <v>1.150740218704022</v>
+        <v>1.034924701013392</v>
       </c>
       <c r="IX3">
-        <v>1.150895137607147</v>
+        <v>1.034890481160725</v>
       </c>
       <c r="IY3">
-        <v>1.13090035871347</v>
+        <v>1.037886373244607</v>
       </c>
       <c r="IZ3">
-        <v>1.137265591247764</v>
+        <v>1.036832530702506</v>
       </c>
       <c r="JA3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="JB3">
-        <v>1.138176606272437</v>
+        <v>1.036637699796521</v>
       </c>
       <c r="JC3">
-        <v>1.138231951497759</v>
+        <v>1.036726507257449</v>
       </c>
       <c r="JD3">
-        <v>1.150775550243772</v>
+        <v>1.034921142062184</v>
       </c>
       <c r="JE3">
-        <v>1.152434583068769</v>
+        <v>1.03466562134969</v>
       </c>
       <c r="JF3">
-        <v>1.131192677574398</v>
+        <v>1.037843744349658</v>
       </c>
       <c r="JG3">
-        <v>1.137274727307739</v>
+        <v>1.03683071417729</v>
       </c>
       <c r="JH3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="JI3">
-        <v>1.138222041807542</v>
+        <v>1.036627900050635</v>
       </c>
       <c r="JJ3">
-        <v>1.138421342466208</v>
+        <v>1.036695337382049</v>
       </c>
       <c r="JK3">
-        <v>1.138238778860216</v>
+        <v>1.036725771590378</v>
       </c>
       <c r="JL3">
-        <v>1.150791793453137</v>
+        <v>1.034919505881549</v>
       </c>
       <c r="JM3">
-        <v>1.152679736166438</v>
+        <v>1.034640401124768</v>
       </c>
       <c r="JN3">
-        <v>1.152936910316728</v>
+        <v>1.034591614452489</v>
       </c>
       <c r="JO3">
-        <v>1.13728424245603</v>
+        <v>1.036828822277954</v>
       </c>
       <c r="JP3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="JQ3">
-        <v>1.138242857013223</v>
+        <v>1.036623410531963</v>
       </c>
       <c r="JR3">
-        <v>1.138609035681459</v>
+        <v>1.036664446957442</v>
       </c>
       <c r="JS3">
-        <v>1.138246783513366</v>
+        <v>1.036724909067035</v>
       </c>
       <c r="JT3">
-        <v>1.150811085732749</v>
+        <v>1.034917562567859</v>
       </c>
       <c r="JU3">
-        <v>1.1526975561172</v>
+        <v>1.034638567891431</v>
       </c>
       <c r="JV3">
-        <v>1.154757980672638</v>
+        <v>1.034323342566998</v>
       </c>
       <c r="JW3">
-        <v>1.137320425182583</v>
+        <v>1.036821628058335</v>
       </c>
       <c r="JX3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="JY3">
-        <v>1.138256541440125</v>
+        <v>1.036620459012564</v>
       </c>
       <c r="JZ3">
-        <v>1.138254017493204</v>
+        <v>1.036724129585891</v>
       </c>
       <c r="KA3">
-        <v>1.150840851414387</v>
+        <v>1.034914564267517</v>
       </c>
       <c r="KB3">
-        <v>1.152712243879331</v>
+        <v>1.034637056883176</v>
       </c>
       <c r="KC3">
-        <v>1.155266734978122</v>
+        <v>1.034249509495574</v>
       </c>
       <c r="KD3">
-        <v>1.155028361979499</v>
+        <v>1.034283182660625</v>
       </c>
       <c r="KE3">
-        <v>1.137512524554269</v>
+        <v>1.036783432924613</v>
       </c>
       <c r="KF3">
-        <v>1.137114696055133</v>
+        <v>1.036866738300501</v>
       </c>
       <c r="KG3">
-        <v>1.138305428601674</v>
+        <v>1.036609597597532</v>
       </c>
       <c r="KH3">
-        <v>1.138262369159063</v>
+        <v>1.036619241189358</v>
       </c>
       <c r="KI3">
-        <v>1.138261344068877</v>
+        <v>1.036723340127325</v>
       </c>
       <c r="KJ3">
-        <v>1.15086737473425</v>
+        <v>1.034911892571054</v>
       </c>
       <c r="KK3">
-        <v>1.152733106714479</v>
+        <v>1.034634910612514</v>
       </c>
       <c r="KL3">
-        <v>1.155500905466559</v>
+        <v>1.034215525787606</v>
       </c>
       <c r="KM3">
-        <v>1.156161570248346</v>
+        <v>1.034114875201597</v>
       </c>
       <c r="KN3">
-        <v>1.138327885297101</v>
+        <v>1.036604608323746</v>
       </c>
       <c r="KO3">
-        <v>1.138266493643844</v>
+        <v>1.036618379292419</v>
       </c>
       <c r="KP3">
-        <v>1.138269221619347</v>
+        <v>1.036722491299755</v>
       </c>
       <c r="KQ3">
-        <v>1.150887996016917</v>
+        <v>1.03490981538762</v>
       </c>
       <c r="KR3">
-        <v>1.152826813187565</v>
+        <v>1.034625270533046</v>
       </c>
       <c r="KS3">
-        <v>1.157030692062886</v>
+        <v>1.03399352249738</v>
       </c>
       <c r="KT3">
-        <v>1.156411724494925</v>
+        <v>1.034077723435943</v>
       </c>
       <c r="KU3">
-        <v>1.138365892848213</v>
+        <v>1.036596164069678</v>
       </c>
       <c r="KV3">
-        <v>1.138271293328731</v>
+        <v>1.036617376298392</v>
       </c>
       <c r="KW3">
-        <v>1.138314907045776</v>
+        <v>1.03671756857109</v>
       </c>
       <c r="KX3">
-        <v>1.15091366434774</v>
+        <v>1.034907229814967</v>
       </c>
       <c r="KY3">
-        <v>1.152844852682399</v>
+        <v>1.034623414715588</v>
       </c>
       <c r="KZ3">
-        <v>1.157144956885155</v>
+        <v>1.03397694069397</v>
       </c>
       <c r="LA3">
-        <v>1.156494846544351</v>
+        <v>1.034065378679806</v>
       </c>
       <c r="LB3">
-        <v>1.138438845894394</v>
+        <v>1.036579955873669</v>
       </c>
       <c r="LC3">
-        <v>1.138280473591151</v>
+        <v>1.036615457891626</v>
       </c>
       <c r="LD3">
-        <v>1.13850813923529</v>
+        <v>1.036696747292643</v>
       </c>
       <c r="LE3">
-        <v>1.150940212888822</v>
+        <v>1.034904555579071</v>
       </c>
       <c r="LF3">
-        <v>1.152858209446208</v>
+        <v>1.034622040635356</v>
       </c>
       <c r="LG3">
-        <v>1.157217716646912</v>
+        <v>1.033967727859886</v>
       </c>
       <c r="LH3">
-        <v>1.158908046068639</v>
+        <v>1.033714989958369</v>
       </c>
       <c r="LI3">
-        <v>1.156538230579651</v>
+        <v>1.034058935589716</v>
       </c>
       <c r="LJ3">
-        <v>1.138653632110691</v>
+        <v>1.036532236222869</v>
       </c>
       <c r="LK3">
-        <v>1.138315681498188</v>
+        <v>1.03660810046822</v>
       </c>
       <c r="LL3">
-        <v>1.150971528337937</v>
+        <v>1.034901401172803</v>
       </c>
       <c r="LM3">
-        <v>1.152873594991177</v>
+        <v>1.034620457843911</v>
       </c>
       <c r="LN3">
-        <v>1.157592451773546</v>
+        <v>1.033920278995372</v>
       </c>
       <c r="LO3">
-        <v>1.15975417689765</v>
+        <v>1.033589280487071</v>
       </c>
       <c r="LP3">
-        <v>1.156575368757647</v>
+        <v>1.034053420106454</v>
       </c>
       <c r="LQ3">
-        <v>1.138435832775823</v>
+        <v>1.03658299237568</v>
       </c>
       <c r="LR3">
-        <v>1.150989373978109</v>
+        <v>1.034899603581105</v>
       </c>
       <c r="LS3">
-        <v>1.152888857231442</v>
+        <v>1.034618887737601</v>
       </c>
       <c r="LT3">
-        <v>1.157723279090618</v>
+        <v>1.033903713698642</v>
       </c>
       <c r="LU3">
-        <v>1.160277167546713</v>
+        <v>1.033509277336788</v>
       </c>
       <c r="LV3">
-        <v>1.161228757868274</v>
+        <v>1.033370895448923</v>
       </c>
       <c r="LW3">
-        <v>1.156617606880262</v>
+        <v>1.034047147235966</v>
       </c>
       <c r="LX3">
-        <v>1.151069993421601</v>
+        <v>1.034891482785179</v>
       </c>
       <c r="LY3">
-        <v>1.153022937754268</v>
+        <v>1.034605094180294</v>
       </c>
       <c r="LZ3">
-        <v>1.158008016561014</v>
+        <v>1.033867660410015</v>
       </c>
       <c r="MA3">
-        <v>1.160484298154375</v>
+        <v>1.033477592132908</v>
       </c>
       <c r="MB3">
-        <v>1.161594615560388</v>
+        <v>1.033313181401593</v>
       </c>
       <c r="MC3">
-        <v>1.161470203016892</v>
+        <v>1.033335394967555</v>
       </c>
       <c r="MD3">
-        <v>1.156650883326175</v>
+        <v>1.034042205296194</v>
       </c>
       <c r="ME3">
-        <v>1.151101368843706</v>
+        <v>1.034888322340152</v>
       </c>
       <c r="MF3">
-        <v>1.153297016588976</v>
+        <v>1.034576898304671</v>
       </c>
       <c r="MG3">
-        <v>1.158123788176736</v>
+        <v>1.033861632468152</v>
       </c>
       <c r="MH3">
-        <v>1.158063363889543</v>
+        <v>1.033856591419083</v>
       </c>
       <c r="MI3">
-        <v>1.161778552471916</v>
+        <v>1.033284165402985</v>
       </c>
       <c r="MJ3">
-        <v>1.161677051816954</v>
+        <v>1.033304981480144</v>
       </c>
       <c r="MK3">
-        <v>1.156678782166516</v>
+        <v>1.034038062002766</v>
       </c>
       <c r="ML3">
-        <v>1.15111226863698</v>
+        <v>1.034887224404538</v>
       </c>
       <c r="MM3">
-        <v>1.158297017564207</v>
+        <v>1.033852612849115</v>
       </c>
       <c r="MN3">
-        <v>1.15807107048106</v>
+        <v>1.033855050167188</v>
       </c>
       <c r="MO3">
-        <v>1.16179566961501</v>
+        <v>1.033281465179851</v>
       </c>
       <c r="MP3">
-        <v>1.161822551242894</v>
+        <v>1.033283588440362</v>
       </c>
       <c r="MQ3">
-        <v>1.156703955787518</v>
+        <v>1.03403432344251</v>
       </c>
       <c r="MR3">
-        <v>1.151120480181434</v>
+        <v>1.034886397256134</v>
       </c>
       <c r="MS3">
-        <v>1.158079440381622</v>
+        <v>1.033853376259284</v>
       </c>
       <c r="MT3">
-        <v>1.161802738782124</v>
+        <v>1.033280350021375</v>
       </c>
       <c r="MU3">
-        <v>1.162006393481658</v>
+        <v>1.033256557904655</v>
       </c>
       <c r="MV3">
-        <v>1.156724790395203</v>
+        <v>1.034031229278785</v>
       </c>
       <c r="MW3">
-        <v>1.151126488122904</v>
+        <v>1.034885792076557</v>
       </c>
       <c r="MX3">
-        <v>1.158086771813602</v>
+        <v>1.033851910036208</v>
       </c>
       <c r="MY3">
-        <v>1.161807726812464</v>
+        <v>1.033279563161478</v>
       </c>
       <c r="MZ3">
-        <v>1.162121587895611</v>
+        <v>1.033239620803605</v>
       </c>
       <c r="NA3">
-        <v>1.156748959807274</v>
+        <v>1.034027639866593</v>
       </c>
       <c r="NB3">
-        <v>1.151129538989646</v>
+        <v>1.034885484762944</v>
       </c>
       <c r="NC3">
-        <v>1.15809456146043</v>
+        <v>1.033850352174192</v>
       </c>
       <c r="ND3">
-        <v>1.161812828792565</v>
+        <v>1.033278758326072</v>
       </c>
       <c r="NE3">
-        <v>1.162298481886544</v>
+        <v>1.033213612077251</v>
       </c>
       <c r="NF3">
-        <v>1.156775523722328</v>
+        <v>1.034023694852826</v>
       </c>
       <c r="NG3">
-        <v>1.151134024411527</v>
+        <v>1.034885032946694</v>
       </c>
       <c r="NH3">
-        <v>1.158105678954241</v>
+        <v>1.033848128771685</v>
       </c>
       <c r="NI3">
-        <v>1.161818848764868</v>
+        <v>1.03327780867778</v>
       </c>
       <c r="NJ3">
-        <v>1.162474825148631</v>
+        <v>1.033187684443938</v>
       </c>
       <c r="NK3">
-        <v>1.156920341583699</v>
+        <v>1.034002188050458</v>
       </c>
       <c r="NL3">
-        <v>1.151141543443724</v>
+        <v>1.034884275555101</v>
       </c>
       <c r="NM3">
-        <v>1.158119194306894</v>
+        <v>1.033845425818374</v>
       </c>
       <c r="NN3">
-        <v>1.161826442530342</v>
+        <v>1.033276610764275</v>
       </c>
       <c r="NO3">
-        <v>1.162672688611061</v>
+        <v>1.033158592851617</v>
       </c>
       <c r="NP3">
-        <v>1.157962782973169</v>
+        <v>1.033845328135549</v>
       </c>
       <c r="NQ3">
-        <v>1.156998960823548</v>
+        <v>1.033993815549084</v>
       </c>
       <c r="NR3">
-        <v>1.151175081580016</v>
+        <v>1.034880897261346</v>
       </c>
       <c r="NS3">
-        <v>1.158202966801001</v>
+        <v>1.033828672051169</v>
       </c>
       <c r="NT3">
-        <v>1.161833243486632</v>
+        <v>1.033275537916151</v>
       </c>
       <c r="NU3">
-        <v>1.162815870124591</v>
+        <v>1.033137541164419</v>
       </c>
       <c r="NV3">
-        <v>1.158961268864728</v>
+        <v>1.033695093595686</v>
       </c>
       <c r="NW3">
-        <v>1.157481694231572</v>
+        <v>1.033942407271743</v>
       </c>
       <c r="NX3">
-        <v>1.156998960823549</v>
+        <v>1.033993815549081</v>
       </c>
       <c r="NY3">
-        <v>1.151298366872923</v>
+        <v>1.034868478749276</v>
       </c>
       <c r="NZ3">
-        <v>1.158489613990778</v>
+        <v>1.033771345182328</v>
       </c>
       <c r="OA3">
-        <v>1.161838624912335</v>
+        <v>1.033274688998438</v>
       </c>
       <c r="OB3">
-        <v>1.162986529945973</v>
+        <v>1.03311244949993</v>
       </c>
       <c r="OC3">
-        <v>1.159005720087806</v>
+        <v>1.033688405615049</v>
       </c>
       <c r="OD3">
-        <v>1.157658121583485</v>
+        <v>1.033923618828385</v>
       </c>
       <c r="OE3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="OF3">
-        <v>1.161847860733735</v>
+        <v>1.033273232051436</v>
       </c>
       <c r="OG3">
-        <v>1.163234155875697</v>
+        <v>1.033076041909223</v>
       </c>
       <c r="OH3">
-        <v>1.159435940647286</v>
+        <v>1.033618420826673</v>
       </c>
       <c r="OI3">
-        <v>1.159747688767484</v>
+        <v>1.03357766297522</v>
       </c>
       <c r="OJ3">
-        <v>1.157676079584708</v>
+        <v>1.033921706411181</v>
       </c>
       <c r="OK3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549064</v>
       </c>
       <c r="OL3">
-        <v>1.161880101993618</v>
+        <v>1.033268146006665</v>
       </c>
       <c r="OM3">
-        <v>1.163417741149135</v>
+        <v>1.033049050147845</v>
       </c>
       <c r="ON3">
-        <v>1.159475360007339</v>
+        <v>1.033612008414168</v>
       </c>
       <c r="OO3">
-        <v>1.160105659222228</v>
+        <v>1.033524236191048</v>
       </c>
       <c r="OP3">
-        <v>1.157688611921197</v>
+        <v>1.033920371794175</v>
       </c>
       <c r="OQ3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549064</v>
       </c>
       <c r="OR3">
-        <v>1.162077213244937</v>
+        <v>1.033237051813375</v>
       </c>
       <c r="OS3">
-        <v>1.163594839341786</v>
+        <v>1.033023012276447</v>
       </c>
       <c r="OT3">
-        <v>1.159497769103273</v>
+        <v>1.033608363090138</v>
       </c>
       <c r="OU3">
-        <v>1.161185649500814</v>
+        <v>1.033363057017387</v>
       </c>
       <c r="OV3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191043</v>
       </c>
       <c r="OW3">
-        <v>1.15770159430917</v>
+        <v>1.033918989249544</v>
       </c>
       <c r="OX3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549064</v>
       </c>
       <c r="OY3">
-        <v>1.163768165767815</v>
+        <v>1.032997529065298</v>
       </c>
       <c r="OZ3">
-        <v>1.159512985419307</v>
+        <v>1.033605887827575</v>
       </c>
       <c r="PA3">
-        <v>1.162723950426989</v>
+        <v>1.033133500826567</v>
       </c>
       <c r="PB3">
-        <v>1.160105659222225</v>
+        <v>1.033524236191042</v>
       </c>
       <c r="PC3">
-        <v>1.15775611277177</v>
+        <v>1.033913183369031</v>
       </c>
       <c r="PD3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549064</v>
       </c>
       <c r="PE3">
-        <v>1.163976617842984</v>
+        <v>1.032966881679197</v>
       </c>
       <c r="PF3">
-        <v>1.15953778398978</v>
+        <v>1.033601853804778</v>
       </c>
       <c r="PG3">
-        <v>1.163045876720389</v>
+        <v>1.033085463942409</v>
       </c>
       <c r="PH3">
-        <v>1.160105659222225</v>
+        <v>1.033524236191041</v>
       </c>
       <c r="PI3">
-        <v>1.15776942490378</v>
+        <v>1.033911765709228</v>
       </c>
       <c r="PJ3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="PK3">
-        <v>1.164325738895187</v>
+        <v>1.032915552997467</v>
       </c>
       <c r="PL3">
-        <v>1.163976617842984</v>
+        <v>1.032966881679197</v>
       </c>
       <c r="PM3">
-        <v>1.159620215976517</v>
+        <v>1.033588444467031</v>
       </c>
       <c r="PN3">
-        <v>1.163128158405253</v>
+        <v>1.033073186293972</v>
       </c>
       <c r="PO3">
-        <v>1.160105659222224</v>
+        <v>1.03352423619104</v>
       </c>
       <c r="PP3">
-        <v>1.157782123230078</v>
+        <v>1.03391041341604</v>
       </c>
       <c r="PQ3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549066</v>
       </c>
       <c r="PR3">
-        <v>1.165503318420178</v>
+        <v>1.032742425631918</v>
       </c>
       <c r="PS3">
-        <v>1.164325738895187</v>
+        <v>1.032915552997467</v>
       </c>
       <c r="PT3">
-        <v>1.159711988660528</v>
+        <v>1.033573515671502</v>
       </c>
       <c r="PU3">
-        <v>1.163171264763315</v>
+        <v>1.033066754214878</v>
       </c>
       <c r="PV3">
-        <v>1.160105659222223</v>
+        <v>1.033524236191039</v>
       </c>
       <c r="PW3">
-        <v>1.157794752490176</v>
+        <v>1.033909068478071</v>
       </c>
       <c r="PX3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549066</v>
       </c>
       <c r="PY3">
-        <v>1.167168935989226</v>
+        <v>1.032497556076321</v>
       </c>
       <c r="PZ3">
-        <v>1.165503318420178</v>
+        <v>1.032742425631918</v>
       </c>
       <c r="QA3">
-        <v>1.159763601276531</v>
+        <v>1.033565119776045</v>
       </c>
       <c r="QB3">
-        <v>1.163206999516577</v>
+        <v>1.033061422098848</v>
       </c>
       <c r="QC3">
-        <v>1.160105659222223</v>
+        <v>1.033524236191038</v>
       </c>
       <c r="QD3">
-        <v>1.15780923988026</v>
+        <v>1.033907525660887</v>
       </c>
       <c r="QE3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="QF3">
-        <v>1.168364150066317</v>
+        <v>1.032321849032127</v>
       </c>
       <c r="QG3">
-        <v>1.167168935989226</v>
+        <v>1.032497556076321</v>
       </c>
       <c r="QH3">
-        <v>1.159812085868868</v>
+        <v>1.033557232722873</v>
       </c>
       <c r="QI3">
-        <v>1.163235960603679</v>
+        <v>1.033057100716978</v>
       </c>
       <c r="QJ3">
-        <v>1.160105659222223</v>
+        <v>1.033524236191037</v>
       </c>
       <c r="QK3">
-        <v>1.157859271235803</v>
+        <v>1.033902197632824</v>
       </c>
       <c r="QL3">
-        <v>1.156998960823555</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="QM3">
-        <v>1.168726784008614</v>
+        <v>1.032268539702887</v>
       </c>
       <c r="QN3">
-        <v>1.168364150066317</v>
+        <v>1.032321849032127</v>
       </c>
       <c r="QO3">
-        <v>1.159858344182544</v>
+        <v>1.033549707823543</v>
       </c>
       <c r="QP3">
-        <v>1.163280229720161</v>
+        <v>1.033050495189735</v>
       </c>
       <c r="QQ3">
-        <v>1.160105659222223</v>
+        <v>1.033524236191037</v>
       </c>
       <c r="QR3">
-        <v>1.15810308403309</v>
+        <v>1.033876233108544</v>
       </c>
       <c r="QS3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="QT3">
-        <v>1.16968262597523</v>
+        <v>1.032135650470136</v>
       </c>
       <c r="QU3">
-        <v>1.168726784008614</v>
+        <v>1.032268539702887</v>
       </c>
       <c r="QV3">
-        <v>1.168923623882457</v>
+        <v>1.032226822705841</v>
       </c>
       <c r="QW3">
-        <v>1.15993429345628</v>
+        <v>1.033537353062098</v>
       </c>
       <c r="QX3">
-        <v>1.163320137758581</v>
+        <v>1.033044540410146</v>
       </c>
       <c r="QY3">
-        <v>1.160105659222224</v>
+        <v>1.033524236191037</v>
       </c>
       <c r="QZ3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549065</v>
       </c>
       <c r="RA3">
-        <v>1.170744635068143</v>
+        <v>1.031988004779699</v>
       </c>
       <c r="RB3">
-        <v>1.16968262597523</v>
+        <v>1.032135650470136</v>
       </c>
       <c r="RC3">
-        <v>1.16968262597523</v>
+        <v>1.032135650470136</v>
       </c>
       <c r="RD3">
-        <v>1.168952369921992</v>
+        <v>1.03222073045643</v>
       </c>
       <c r="RE3">
-        <v>1.159987193586859</v>
+        <v>1.033528747736333</v>
       </c>
       <c r="RF3">
-        <v>1.163358120465466</v>
+        <v>1.033038872930145</v>
       </c>
       <c r="RG3">
-        <v>1.160105659222224</v>
+        <v>1.033524236191037</v>
       </c>
       <c r="RH3">
-        <v>1.156998960823554</v>
+        <v>1.033993815549063</v>
       </c>
       <c r="RI3">
-        <v>1.171133813518671</v>
+        <v>1.031933900289039</v>
       </c>
       <c r="RJ3">
-        <v>1.170744635068143</v>
+        <v>1.031988004779699</v>
       </c>
       <c r="RK3">
-        <v>1.168968044387232</v>
+        <v>1.03221740851226</v>
       </c>
       <c r="RL3">
-        <v>1.160024362391954</v>
+        <v>1.033522701445206</v>
       </c>
       <c r="RM3">
-        <v>1.163400910400894</v>
+        <v>1.033032488172086</v>
       </c>
       <c r="RN3">
-        <v>1.160105659222225</v>
+        <v>1.033524236191037</v>
       </c>
       <c r="RO3">
-        <v>1.156998960823553</v>
+        <v>1.033993815549063</v>
       </c>
       <c r="RP3">
-        <v>1.171750156403136</v>
+        <v>1.031858028017254</v>
       </c>
       <c r="RQ3">
-        <v>1.171133813518671</v>
+        <v>1.031933900289039</v>
       </c>
       <c r="RR3">
-        <v>1.172257387464535</v>
+        <v>1.031724450042976</v>
       </c>
       <c r="RS3">
-        <v>1.168978662608657</v>
+        <v>1.032215158155687</v>
       </c>
       <c r="RT3">
-        <v>1.160042121871546</v>
+        <v>1.033519812491258</v>
       </c>
       <c r="RU3">
-        <v>1.163446110470501</v>
+        <v>1.033025743815352</v>
       </c>
       <c r="RV3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191036</v>
       </c>
       <c r="RW3">
-        <v>1.156998960823553</v>
+        <v>1.033993815549062</v>
       </c>
       <c r="RX3">
-        <v>1.172633535553814</v>
+        <v>1.031749285417855</v>
       </c>
       <c r="RY3">
-        <v>1.171750156403136</v>
+        <v>1.031858028017254</v>
       </c>
       <c r="RZ3">
-        <v>1.172288830700264</v>
+        <v>1.031717578809188</v>
       </c>
       <c r="SA3">
-        <v>1.17248108138939</v>
+        <v>1.031689865929686</v>
       </c>
       <c r="SB3">
-        <v>1.168994791006246</v>
+        <v>1.032211740008612</v>
       </c>
       <c r="SC3">
-        <v>1.160053372015793</v>
+        <v>1.03351798241816</v>
       </c>
       <c r="SD3">
-        <v>1.163544939673802</v>
+        <v>1.033010997467996</v>
       </c>
       <c r="SE3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191036</v>
       </c>
       <c r="SF3">
-        <v>1.156998960823553</v>
+        <v>1.033993815549062</v>
       </c>
       <c r="SG3">
-        <v>1.173172640484502</v>
+        <v>1.031682923616859</v>
       </c>
       <c r="SH3">
-        <v>1.172633535553814</v>
+        <v>1.031749285417855</v>
       </c>
       <c r="SI3">
-        <v>1.172302121012084</v>
+        <v>1.031714674501638</v>
       </c>
       <c r="SJ3">
-        <v>1.172624220147861</v>
+        <v>1.031667736040776</v>
       </c>
       <c r="SK3">
-        <v>1.169019267444037</v>
+        <v>1.032206552633163</v>
       </c>
       <c r="SL3">
-        <v>1.160060978499633</v>
+        <v>1.0335167450633</v>
       </c>
       <c r="SM3">
-        <v>1.165786583344876</v>
+        <v>1.032676549156118</v>
       </c>
       <c r="SN3">
-        <v>1.160105659222227</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="SO3">
-        <v>1.156998960823553</v>
+        <v>1.033993815549062</v>
       </c>
       <c r="SP3">
-        <v>1.173265480481741</v>
+        <v>1.031671495450349</v>
       </c>
       <c r="SQ3">
-        <v>1.173172640484502</v>
+        <v>1.031682923616859</v>
       </c>
       <c r="SR3">
-        <v>1.172309930139063</v>
+        <v>1.031712967987505</v>
       </c>
       <c r="SS3">
-        <v>1.169036632669888</v>
+        <v>1.03220287236174</v>
       </c>
       <c r="ST3">
-        <v>1.160071588624822</v>
+        <v>1.033515019102983</v>
       </c>
       <c r="SU3">
-        <v>1.166098984823785</v>
+        <v>1.032645074330472</v>
       </c>
       <c r="SV3">
-        <v>1.166113349168697</v>
+        <v>1.032626934851397</v>
       </c>
       <c r="SW3">
-        <v>1.160105659222227</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="SX3">
-        <v>1.173431492260707</v>
+        <v>1.031647268092937</v>
       </c>
       <c r="SY3">
-        <v>1.173265480481741</v>
+        <v>1.031671495450349</v>
       </c>
       <c r="SZ3">
-        <v>1.173784202034446</v>
+        <v>1.031630975709918</v>
       </c>
       <c r="TA3">
-        <v>1.17231711688627</v>
+        <v>1.031711397480951</v>
       </c>
       <c r="TB3">
-        <v>1.169048496799153</v>
+        <v>1.03220035795667</v>
       </c>
       <c r="TC3">
-        <v>1.160079686356202</v>
+        <v>1.033513701836505</v>
       </c>
       <c r="TD3">
-        <v>1.166374481022229</v>
+        <v>1.032617317801977</v>
       </c>
       <c r="TE3">
-        <v>1.166289632882627</v>
+        <v>1.032600169399229</v>
       </c>
       <c r="TF3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="TG3">
-        <v>1.173553697101101</v>
+        <v>1.031629433879641</v>
       </c>
       <c r="TH3">
-        <v>1.173431492260707</v>
+        <v>1.031647268092937</v>
       </c>
       <c r="TI3">
-        <v>1.174090725927519</v>
+        <v>1.031607031764203</v>
       </c>
       <c r="TJ3">
-        <v>1.172323519674107</v>
+        <v>1.031709998291645</v>
       </c>
       <c r="TK3">
-        <v>1.169057871790027</v>
+        <v>1.032198371083254</v>
       </c>
       <c r="TL3">
-        <v>1.16013747356674</v>
+        <v>1.033504301532058</v>
       </c>
       <c r="TM3">
-        <v>1.166315959992878</v>
+        <v>1.032596172139124</v>
       </c>
       <c r="TN3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="TO3">
-        <v>1.17372007967775</v>
+        <v>1.031605152587294</v>
       </c>
       <c r="TP3">
-        <v>1.173553697101101</v>
+        <v>1.031629433879641</v>
       </c>
       <c r="TQ3">
-        <v>1.174333599307895</v>
+        <v>1.031588059871695</v>
       </c>
       <c r="TR3">
-        <v>1.172330161839299</v>
+        <v>1.03170854679171</v>
       </c>
       <c r="TS3">
-        <v>1.169087930507511</v>
+        <v>1.032192000638722</v>
       </c>
       <c r="TT3">
-        <v>1.16024078270394</v>
+        <v>1.033492892044626</v>
       </c>
       <c r="TU3">
-        <v>1.160429123103129</v>
+        <v>1.033441188440881</v>
       </c>
       <c r="TV3">
-        <v>1.166336056471138</v>
+        <v>1.032593120884526</v>
       </c>
       <c r="TW3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="TX3">
-        <v>1.173837821760978</v>
+        <v>1.031587969780891</v>
       </c>
       <c r="TY3">
-        <v>1.17372007967775</v>
+        <v>1.031605152587294</v>
       </c>
       <c r="TZ3">
-        <v>1.174433956503818</v>
+        <v>1.03158022054342</v>
       </c>
       <c r="UA3">
-        <v>1.17235021346521</v>
+        <v>1.031704164947773</v>
       </c>
       <c r="UB3">
-        <v>1.169331060987391</v>
+        <v>1.032140473226673</v>
       </c>
       <c r="UC3">
-        <v>1.160354859653627</v>
+        <v>1.033480293365011</v>
       </c>
       <c r="UD3">
-        <v>1.166354851892216</v>
+        <v>1.032590267173853</v>
       </c>
       <c r="UE3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="UF3">
-        <v>1.174167094447645</v>
+        <v>1.031539917321729</v>
       </c>
       <c r="UG3">
-        <v>1.173837821760978</v>
+        <v>1.031587969780891</v>
       </c>
       <c r="UH3">
-        <v>1.174449486005201</v>
+        <v>1.031578589677892</v>
       </c>
       <c r="UI3">
-        <v>1.174645061924566</v>
+        <v>1.031569226004176</v>
       </c>
       <c r="UJ3">
-        <v>1.172370420688387</v>
+        <v>1.031699749102013</v>
       </c>
       <c r="UK3">
-        <v>1.169343168654791</v>
+        <v>1.032137907212438</v>
       </c>
       <c r="UL3">
-        <v>1.160664072946217</v>
+        <v>1.033446143832264</v>
       </c>
       <c r="UM3">
-        <v>1.166374894889477</v>
+        <v>1.032587224047828</v>
       </c>
       <c r="UN3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="UO3">
-        <v>1.174405521706387</v>
+        <v>1.031505122655015</v>
       </c>
       <c r="UP3">
-        <v>1.174167094447645</v>
+        <v>1.031539917321729</v>
       </c>
       <c r="UQ3">
-        <v>1.174455200392028</v>
+        <v>1.031577989568738</v>
       </c>
       <c r="UR3">
-        <v>1.174804764518373</v>
+        <v>1.031560908573439</v>
       </c>
       <c r="US3">
-        <v>1.17255922935372</v>
+        <v>1.031658489133054</v>
       </c>
       <c r="UT3">
-        <v>1.169352722027551</v>
+        <v>1.032135882537657</v>
       </c>
       <c r="UU3">
-        <v>1.166392630517938</v>
+        <v>1.03258453125302</v>
       </c>
       <c r="UV3">
-        <v>1.160105659222226</v>
+        <v>1.033524236191035</v>
       </c>
       <c r="UW3">
-        <v>1.174432381517514</v>
+        <v>1.031501636986207</v>
       </c>
       <c r="UX3">
-        <v>1.174405521706387</v>
+        <v>1.031505122655015</v>
       </c>
       <c r="UY3">
-        <v>1.174814322388568</v>
+        <v>1.031438646818724</v>
       </c>
       <c r="UZ3">
-        <v>1.174463712396985</v>
+        <v>1.031577095661473</v>
       </c>
       <c r="VA3">
-        <v>1.169363522375471</v>
+        <v>1.032133593587856</v>
       </c>
       <c r="VB3">
-        <v>1.166410770937911</v>
+        <v>1.032581777002411</v>
       </c>
       <c r="VC3">
-        <v>1.174438741429922</v>
+        <v>1.031500811643878</v>
       </c>
       <c r="VD3">
-        <v>1.174432381517514</v>
+        <v>1.031501636986207</v>
       </c>
       <c r="VE3">
-        <v>1.174866002028959</v>
+        <v>1.031430243108109</v>
       </c>
       <c r="VF3">
-        <v>1.174468834265009</v>
+        <v>1.031576557777053</v>
       </c>
       <c r="VG3">
-        <v>1.169373135027522</v>
+        <v>1.032131556350095</v>
       </c>
       <c r="VH3">
-        <v>1.16650439916113</v>
+        <v>1.032567561534891</v>
       </c>
       <c r="VI3">
-        <v>1.17461115652258</v>
+        <v>1.031478436940229</v>
       </c>
       <c r="VJ3">
-        <v>1.174438741429922</v>
+        <v>1.031500811643878</v>
       </c>
       <c r="VK3">
-        <v>1.174438741429928</v>
+        <v>1.031500811643868</v>
       </c>
       <c r="VL3">
-        <v>1.174904138184643</v>
+        <v>1.031424041727281</v>
       </c>
       <c r="VM3">
-        <v>1.174475014472592</v>
+        <v>1.031575908748759</v>
       </c>
       <c r="VN3">
-        <v>1.16938419919029</v>
+        <v>1.032129211489529</v>
       </c>
       <c r="VO3">
-        <v>1.166757189631009</v>
+        <v>1.032499296683543</v>
       </c>
       <c r="VP3">
-        <v>1.166695837993917</v>
+        <v>1.032539739192068</v>
       </c>
       <c r="VQ3">
-        <v>1.17473198788426</v>
+        <v>1.031462756433653</v>
       </c>
       <c r="VR3">
-        <v>1.17461115652258</v>
+        <v>1.031478436940229</v>
       </c>
       <c r="VS3">
-        <v>1.17443874142993</v>
+        <v>1.031500811643865</v>
       </c>
       <c r="VT3">
-        <v>1.174941244963742</v>
+        <v>1.031418007736356</v>
       </c>
       <c r="VU3">
-        <v>1.174480440957243</v>
+        <v>1.031575338874378</v>
       </c>
       <c r="VV3">
-        <v>1.169395543722528</v>
+        <v>1.032126807209603</v>
       </c>
       <c r="VW3">
-        <v>1.166771757226661</v>
+        <v>1.032495362777805</v>
       </c>
       <c r="VX3">
-        <v>1.167610696796086</v>
+        <v>1.032406785466323</v>
       </c>
       <c r="VY3">
-        <v>1.174852927144962</v>
+        <v>1.031456348329374</v>
       </c>
       <c r="VZ3">
-        <v>1.174746363443174</v>
+        <v>1.03145978909323</v>
       </c>
       <c r="WA3">
-        <v>1.174438741429931</v>
+        <v>1.031500811643863</v>
       </c>
       <c r="WB3">
-        <v>1.175289813184539</v>
+        <v>1.031361326581787</v>
       </c>
       <c r="WC3">
-        <v>1.17451595006266</v>
+        <v>1.03157160980696</v>
       </c>
       <c r="WD3">
-        <v>1.169409179806246</v>
+        <v>1.032123917274688</v>
       </c>
       <c r="WE3">
-        <v>1.166779073613488</v>
+        <v>1.032493387024581</v>
       </c>
       <c r="WF3">
-        <v>1.168116793477976</v>
+        <v>1.032303051235081</v>
       </c>
       <c r="WG3">
-        <v>1.168625380892363</v>
+        <v>1.032262977156853</v>
       </c>
       <c r="WH3">
-        <v>1.174960779176516</v>
+        <v>1.031450633681916</v>
       </c>
       <c r="WI3">
-        <v>1.174852927144962</v>
+        <v>1.031456348329374</v>
       </c>
       <c r="WJ3">
-        <v>1.174852927144962</v>
+        <v>1.031456348329374</v>
       </c>
       <c r="WK3">
-        <v>1.175386415490386</v>
+        <v>1.031327673316889</v>
       </c>
       <c r="WL3">
-        <v>1.174746363443174</v>
+        <v>1.03145978909323</v>
       </c>
       <c r="WM3">
-        <v>1.174438741429933</v>
+        <v>1.03150081164386</v>
       </c>
       <c r="WN3">
-        <v>1.175452040172238</v>
+        <v>1.031334946669535</v>
       </c>
       <c r="WO3">
-        <v>1.174777769398208</v>
+        <v>1.031544114291884</v>
       </c>
       <c r="WP3">
-        <v>1.169417728660068</v>
+        <v>1.032122105491339</v>
       </c>
       <c r="WQ3">
-        <v>1.16678520880078</v>
+        <v>1.032491730248386</v>
       </c>
       <c r="WR3">
-        <v>1.168383862686089</v>
+        <v>1.032248310404299</v>
       </c>
       <c r="WS3">
-        <v>1.169597328585075</v>
+        <v>1.032125235499701</v>
       </c>
       <c r="WT3">
-        <v>1.175196068928346</v>
+        <v>1.031438166708813</v>
       </c>
       <c r="WU3">
-        <v>1.174960779176516</v>
+        <v>1.031450633681916</v>
       </c>
       <c r="WV3">
-        <v>1.174960779176516</v>
+        <v>1.031450633681916</v>
       </c>
       <c r="WW3">
-        <v>1.175537064688384</v>
+        <v>1.031296577271824</v>
       </c>
       <c r="WX3">
-        <v>1.174438741429934</v>
+        <v>1.031500811643858</v>
       </c>
       <c r="WY3">
-        <v>1.175528179928922</v>
+        <v>1.031322565507104</v>
       </c>
       <c r="WZ3">
-        <v>1.169454468763396</v>
+        <v>1.032114319055929</v>
       </c>
       <c r="XA3">
-        <v>1.166790211831481</v>
+        <v>1.032490379205382</v>
       </c>
       <c r="XB3">
-        <v>1.169687221165492</v>
+        <v>1.032115767642752</v>
       </c>
       <c r="XC3">
-        <v>1.169854390075456</v>
+        <v>1.032088209709321</v>
       </c>
       <c r="XD3">
-        <v>1.175516588039247</v>
+        <v>1.03142118382487</v>
       </c>
       <c r="XE3">
-        <v>1.174438741429935</v>
+        <v>1.031500811643857</v>
       </c>
       <c r="XF3">
-        <v>1.175578966338956</v>
+        <v>1.031314307080974</v>
       </c>
       <c r="XG3">
-        <v>1.169609360752865</v>
+        <v>1.032081492372152</v>
       </c>
       <c r="XH3">
-        <v>1.166798065128268</v>
+        <v>1.032488258462602</v>
       </c>
       <c r="XI3">
-        <v>1.169709263083127</v>
+        <v>1.032113446097898</v>
       </c>
       <c r="XJ3">
-        <v>1.169913532667743</v>
+        <v>1.032079691216073</v>
       </c>
       <c r="XK3">
-        <v>1.175610599949549</v>
+        <v>1.031416202555605</v>
       </c>
       <c r="XL3">
-        <v>1.174438741429936</v>
+        <v>1.031500811643856</v>
       </c>
       <c r="XM3">
-        <v>1.175656609328783</v>
+        <v>1.031301681485815</v>
       </c>
       <c r="XN3">
-        <v>1.166816791769816</v>
+        <v>1.032483201428916</v>
       </c>
       <c r="XO3">
-        <v>1.169724398659542</v>
+        <v>1.032111851957294</v>
       </c>
       <c r="XP3">
-        <v>1.169942882135591</v>
+        <v>1.03207546393339</v>
       </c>
       <c r="XQ3">
-        <v>1.175921762096645</v>
+        <v>1.031399715483496</v>
       </c>
       <c r="XR3">
-        <v>1.174438741429936</v>
+        <v>1.031500811643856</v>
       </c>
       <c r="XS3">
-        <v>1.175808245258663</v>
+        <v>1.031277023850013</v>
       </c>
       <c r="XT3">
-        <v>1.166829747574326</v>
+        <v>1.032479702780594</v>
       </c>
       <c r="XU3">
-        <v>1.169745379846961</v>
+        <v>1.032109642133336</v>
       </c>
       <c r="XV3">
-        <v>1.169975134967991</v>
+        <v>1.032070818481499</v>
       </c>
       <c r="XW3">
-        <v>1.174438741429937</v>
+        <v>1.031500811643855</v>
       </c>
       <c r="XX3">
-        <v>1.175850161341103</v>
+        <v>1.031270207847334</v>
       </c>
       <c r="XY3">
-        <v>1.166846220802504</v>
+        <v>1.032475254270544</v>
       </c>
       <c r="XZ3">
-        <v>1.169795132519198</v>
+        <v>1.032104401980664</v>
       </c>
       <c r="YA3">
-        <v>1.17001235001391</v>
+        <v>1.032065458323487</v>
       </c>
       <c r="YB3">
-        <v>1.174438741429937</v>
+        <v>1.031500811643855</v>
       </c>
       <c r="YC3">
-        <v>1.175862330253697</v>
+        <v>1.031268229052495</v>
       </c>
       <c r="YD3">
-        <v>1.166856228149061</v>
+        <v>1.032472551838612</v>
       </c>
       <c r="YE3">
-        <v>1.169832952754623</v>
+        <v>1.032100418601478</v>
       </c>
       <c r="YF3">
-        <v>1.170049971978496</v>
+        <v>1.032060039570591</v>
       </c>
       <c r="YG3">
-        <v>1.174438741429938</v>
+        <v>1.031500811643855</v>
       </c>
       <c r="YH3">
-        <v>1.17586794428633</v>
+        <v>1.031267075302023</v>
       </c>
       <c r="YI3">
-        <v>1.175888580853875</v>
+        <v>1.031265239736069</v>
       </c>
       <c r="YJ3">
-        <v>1.166865262649112</v>
+        <v>1.032470112118974</v>
       </c>
       <c r="YK3">
-        <v>1.169859501989456</v>
+        <v>1.032097622329874</v>
       </c>
       <c r="YL3">
-        <v>1.170091680888912</v>
+        <v>1.032054032185183</v>
       </c>
       <c r="YM3">
-        <v>1.174438741429938</v>
+        <v>1.031500811643855</v>
       </c>
       <c r="YN3">
-        <v>1.175873198543834</v>
+        <v>1.031265995489655</v>
       </c>
       <c r="YO3">
-        <v>1.175923220250336</v>
+        <v>1.031261295136769</v>
       </c>
       <c r="YP3">
-        <v>1.16688049965377</v>
+        <v>1.032465997445631</v>
       </c>
       <c r="YQ3">
-        <v>1.169887314639125</v>
+        <v>1.032094692990813</v>
       </c>
       <c r="YR3">
-        <v>1.170152334572842</v>
+        <v>1.03204529619268</v>
       </c>
       <c r="YS3">
-        <v>1.174438741429939</v>
+        <v>1.031500811643854</v>
       </c>
       <c r="YT3">
-        <v>1.175878611107193</v>
+        <v>1.031264883143589</v>
       </c>
       <c r="YU3">
-        <v>1.176067128390826</v>
+        <v>1.031244907447517</v>
       </c>
       <c r="YV3">
-        <v>1.166895479691574</v>
+        <v>1.032461952165242</v>
       </c>
       <c r="YW3">
-        <v>1.169910149102408</v>
+        <v>1.032092287974515</v>
       </c>
       <c r="YX3">
-        <v>1.170231425917356</v>
+        <v>1.032028780109864</v>
       </c>
       <c r="YY3">
-        <v>1.170287244448256</v>
+        <v>1.032027929455806</v>
       </c>
       <c r="YZ3">
-        <v>1.174438741429939</v>
+        <v>1.031500811643854</v>
       </c>
       <c r="ZA3">
-        <v>1.175917745160485</v>
+        <v>1.031256840631862</v>
       </c>
       <c r="ZB3">
-        <v>1.176128242756721</v>
+        <v>1.031237947989518</v>
       </c>
       <c r="ZC3">
-        <v>1.16690256742929</v>
+        <v>1.032460038159104</v>
       </c>
       <c r="ZD3">
-        <v>1.169947956693655</v>
+        <v>1.032088305929632</v>
       </c>
       <c r="ZE3">
-        <v>1.170278920279795</v>
+        <v>1.032018862203933</v>
       </c>
       <c r="ZF3">
-        <v>1.171141550519901</v>
+        <v>1.031917959789929</v>
       </c>
       <c r="ZG3">
-        <v>1.174438741429939</v>
+        <v>1.031500811643854</v>
       </c>
       <c r="ZH3">
-        <v>1.176202723912896</v>
+        <v>1.03119827417932</v>
       </c>
       <c r="ZI3">
-        <v>1.166910352347966</v>
+        <v>1.032457935883031</v>
       </c>
       <c r="ZJ3">
-        <v>1.170070139674068</v>
+        <v>1.032075437141174</v>
       </c>
       <c r="ZK3">
-        <v>1.170322978185004</v>
+        <v>1.032009661911252</v>
       </c>
       <c r="ZL3">
-        <v>1.171753088407809</v>
+        <v>1.031839244250288</v>
       </c>
       <c r="ZM3">
-        <v>1.166917824203457</v>
+        <v>1.032455918148115</v>
       </c>
       <c r="ZN3">
-        <v>1.170355635636057</v>
+        <v>1.032045367626322</v>
       </c>
       <c r="ZO3">
-        <v>1.170365966944228</v>
+        <v>1.032000684882996</v>
       </c>
       <c r="ZP3">
-        <v>1.172571688344147</v>
+        <v>1.031670937732283</v>
       </c>
       <c r="ZQ3">
-        <v>1.173250853089721</v>
+        <v>1.031665850887464</v>
       </c>
       <c r="ZR3">
-        <v>1.166926835199485</v>
+        <v>1.032453484776598</v>
       </c>
       <c r="ZS3">
-        <v>1.170398211401267</v>
+        <v>1.031993951510376</v>
       </c>
       <c r="ZT3">
-        <v>1.172605734700133</v>
+        <v>1.031661882950515</v>
       </c>
       <c r="ZU3">
-        <v>1.172690333831068</v>
+        <v>1.031652280317644</v>
       </c>
       <c r="ZV3">
-        <v>1.173756080948891</v>
+        <v>1.031585323140755</v>
       </c>
       <c r="ZW3">
-        <v>1.173534794495964</v>
+        <v>1.031634194956802</v>
       </c>
       <c r="ZX3">
-        <v>1.166941208880377</v>
+        <v>1.032449603240872</v>
       </c>
       <c r="ZY3">
-        <v>1.170449433854865</v>
+        <v>1.0319832551052</v>
       </c>
       <c r="ZZ3">
-        <v>1.172616388018108</v>
+        <v>1.031659049653014</v>
       </c>
       <c r="AAA3">
-        <v>1.172932033555369</v>
+        <v>1.031614272237368</v>
       </c>
       <c r="AAB3">
-        <v>1.174048773418879</v>
+        <v>1.031538671299979</v>
       </c>
       <c r="AAC3">
-        <v>1.17406730808699</v>
+        <v>1.031574834458086</v>
       </c>
       <c r="AAD3">
-        <v>1.166980548052447</v>
+        <v>1.032438979909516</v>
       </c>
       <c r="AAE3">
-        <v>1.170535796928936</v>
+        <v>1.031965220552516</v>
       </c>
       <c r="AAF3">
-        <v>1.172623237793379</v>
+        <v>1.031657227924788</v>
       </c>
       <c r="AAG3">
-        <v>1.175472020025263</v>
+        <v>1.031418251787162</v>
       </c>
       <c r="AAH3">
-        <v>1.174067308086991</v>
+        <v>1.031574834458086</v>
       </c>
       <c r="AAI3">
-        <v>1.167032901281827</v>
+        <v>1.032424842206383</v>
       </c>
       <c r="AAJ3">
-        <v>1.171182911649737</v>
+        <v>1.03183008874893</v>
       </c>
       <c r="AAK3">
-        <v>1.172627369385546</v>
+        <v>1.031656129109498</v>
       </c>
       <c r="AAL3">
-        <v>1.176811688654089</v>
+        <v>1.031250233805497</v>
       </c>
       <c r="AAM3">
-        <v>1.175891129815868</v>
+        <v>1.031395632592103</v>
       </c>
       <c r="AAN3">
-        <v>1.174067308086991</v>
+        <v>1.031574834458087</v>
       </c>
       <c r="AAO3">
-        <v>1.167037887757385</v>
+        <v>1.032423495636196</v>
       </c>
       <c r="AAP3">
-        <v>1.171713787445621</v>
+        <v>1.031719230597413</v>
       </c>
       <c r="AAQ3">
-        <v>1.17263154523638</v>
+        <v>1.031655018523449</v>
       </c>
       <c r="AAR3">
-        <v>1.178194414362885</v>
+        <v>1.031076821615629</v>
       </c>
       <c r="AAS3">
-        <v>1.175935996548229</v>
+        <v>1.031393211154699</v>
       </c>
       <c r="AAT3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458087</v>
       </c>
       <c r="AAU3">
-        <v>1.167041831345927</v>
+        <v>1.03242243069192</v>
       </c>
       <c r="AAV3">
-        <v>1.171881987640457</v>
+        <v>1.0316841068972</v>
       </c>
       <c r="AAW3">
-        <v>1.172635275149844</v>
+        <v>1.031654026536448</v>
       </c>
       <c r="AAX3">
-        <v>1.178632599180651</v>
+        <v>1.031011664772808</v>
       </c>
       <c r="AAY3">
-        <v>1.179200410905493</v>
+        <v>1.0310225444932</v>
       </c>
       <c r="AAZ3">
-        <v>1.175953127290643</v>
+        <v>1.031392286616373</v>
       </c>
       <c r="ABA3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ABB3">
-        <v>1.167045661515662</v>
+        <v>1.032421396375791</v>
       </c>
       <c r="ABC3">
-        <v>1.172035112549966</v>
+        <v>1.031652131262026</v>
       </c>
       <c r="ABD3">
-        <v>1.172639477466541</v>
+        <v>1.031652908911742</v>
       </c>
       <c r="ABE3">
-        <v>1.179228030844978</v>
+        <v>1.030923126936832</v>
       </c>
       <c r="ABF3">
-        <v>1.179335358496592</v>
+        <v>1.031015263608474</v>
       </c>
       <c r="ABG3">
-        <v>1.175971248227186</v>
+        <v>1.031391308637814</v>
       </c>
       <c r="ABH3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ABI3">
-        <v>1.167049764040375</v>
+        <v>1.032420288511738</v>
       </c>
       <c r="ABJ3">
-        <v>1.172118512620367</v>
+        <v>1.031634715622201</v>
       </c>
       <c r="ABK3">
-        <v>1.172642844371618</v>
+        <v>1.031652013468474</v>
       </c>
       <c r="ABL3">
-        <v>1.179925171157054</v>
+        <v>1.03081946722029</v>
       </c>
       <c r="ABM3">
-        <v>1.179406256866961</v>
+        <v>1.031011438400647</v>
       </c>
       <c r="ABN3">
-        <v>1.175986287033397</v>
+        <v>1.031390497000474</v>
       </c>
       <c r="ABO3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ABP3">
-        <v>1.167053557134351</v>
+        <v>1.032419264207766</v>
       </c>
       <c r="ABQ3">
-        <v>1.172185120674163</v>
+        <v>1.031620806505214</v>
       </c>
       <c r="ABR3">
-        <v>1.172646882976763</v>
+        <v>1.031650939383632</v>
       </c>
       <c r="ABS3">
-        <v>1.180484954468329</v>
+        <v>1.030736232827128</v>
       </c>
       <c r="ABT3">
-        <v>1.179610674294936</v>
+        <v>1.031000583832449</v>
       </c>
       <c r="ABU3">
-        <v>1.179412717377087</v>
+        <v>1.031011084141118</v>
       </c>
       <c r="ABV3">
-        <v>1.176004096678746</v>
+        <v>1.031389535822325</v>
       </c>
       <c r="ABW3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ABX3">
-        <v>1.167057131724553</v>
+        <v>1.032418298909549</v>
       </c>
       <c r="ABY3">
-        <v>1.172241918424688</v>
+        <v>1.031608945983701</v>
       </c>
       <c r="ABZ3">
-        <v>1.172651235056964</v>
+        <v>1.03164978192875</v>
       </c>
       <c r="ACA3">
-        <v>1.180623109605273</v>
+        <v>1.030719595271524</v>
       </c>
       <c r="ACB3">
-        <v>1.181141002195205</v>
+        <v>1.03060194651666</v>
       </c>
       <c r="ACC3">
-        <v>1.179776840497245</v>
+        <v>1.030991760413463</v>
       </c>
       <c r="ACD3">
-        <v>1.1794173892546</v>
+        <v>1.031010827960562</v>
       </c>
       <c r="ACE3">
-        <v>1.176021465413658</v>
+        <v>1.031388598439992</v>
       </c>
       <c r="ACF3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ACG3">
-        <v>1.167062103295642</v>
+        <v>1.032416956364444</v>
       </c>
       <c r="ACH3">
-        <v>1.172308571003871</v>
+        <v>1.031595027579538</v>
       </c>
       <c r="ACI3">
-        <v>1.172659175200554</v>
+        <v>1.031647670212702</v>
       </c>
       <c r="ACJ3">
-        <v>1.180813586067026</v>
+        <v>1.030696656929109</v>
       </c>
       <c r="ACK3">
-        <v>1.181689373686027</v>
+        <v>1.030489700852943</v>
       </c>
       <c r="ACL3">
-        <v>1.17942133190276</v>
+        <v>1.031010611767014</v>
       </c>
       <c r="ACM3">
-        <v>1.176045343707594</v>
+        <v>1.031387309740005</v>
       </c>
       <c r="ACN3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ACO3">
-        <v>1.167068195752626</v>
+        <v>1.032415311130401</v>
       </c>
       <c r="ACP3">
-        <v>1.172369474139591</v>
+        <v>1.031582309780262</v>
       </c>
       <c r="ACQ3">
-        <v>1.172718579877799</v>
+        <v>1.031631871281443</v>
       </c>
       <c r="ACR3">
-        <v>1.181282167438411</v>
+        <v>1.030640227949637</v>
       </c>
       <c r="ACS3">
-        <v>1.181888752503597</v>
+        <v>1.030428470151508</v>
       </c>
       <c r="ACT3">
-        <v>1.181696596298343</v>
+        <v>1.030488961870749</v>
       </c>
       <c r="ACU3">
-        <v>1.179427991491764</v>
+        <v>1.031010246591103</v>
       </c>
       <c r="ACV3">
-        <v>1.176078192171296</v>
+        <v>1.031385536924558</v>
       </c>
       <c r="ACW3">
-        <v>1.174067308086993</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ACX3">
-        <v>1.167097072420723</v>
+        <v>1.032407513148061</v>
       </c>
       <c r="ACY3">
-        <v>1.172463958131019</v>
+        <v>1.031562579632609</v>
       </c>
       <c r="ACZ3">
-        <v>1.172900625279179</v>
+        <v>1.03158345555632</v>
       </c>
       <c r="ADA3">
-        <v>1.181661962915846</v>
+        <v>1.030594491503739</v>
       </c>
       <c r="ADB3">
-        <v>1.182084122557551</v>
+        <v>1.030368470650219</v>
       </c>
       <c r="ADC3">
-        <v>1.181703502042505</v>
+        <v>1.030488255308974</v>
       </c>
       <c r="ADD3">
-        <v>1.179437317458215</v>
+        <v>1.031009735205467</v>
       </c>
       <c r="ADE3">
-        <v>1.176112955152944</v>
+        <v>1.031383660783852</v>
       </c>
       <c r="ADF3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="ADG3">
-        <v>1.167343976317543</v>
+        <v>1.032340838195059</v>
       </c>
       <c r="ADH3">
-        <v>1.172654712046106</v>
+        <v>1.031522746434058</v>
       </c>
       <c r="ADI3">
-        <v>1.181958726184504</v>
+        <v>1.030558754417279</v>
       </c>
       <c r="ADJ3">
-        <v>1.181710946795752</v>
+        <v>1.030487493598473</v>
       </c>
       <c r="ADK3">
-        <v>1.17944423754383</v>
+        <v>1.031009355745361</v>
       </c>
       <c r="ADL3">
-        <v>1.176136047253435</v>
+        <v>1.031382414514947</v>
       </c>
       <c r="ADM3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458089</v>
       </c>
       <c r="ADN3">
-        <v>1.172692101613876</v>
+        <v>1.031512855198305</v>
       </c>
       <c r="ADO3">
-        <v>1.172771506927191</v>
+        <v>1.031510778723717</v>
       </c>
       <c r="ADP3">
-        <v>1.182226944463058</v>
+        <v>1.03052645502577</v>
       </c>
       <c r="ADQ3">
-        <v>1.181717594391885</v>
+        <v>1.030486813449189</v>
       </c>
       <c r="ADR3">
-        <v>1.179455700954305</v>
+        <v>1.031008727153896</v>
       </c>
       <c r="ADS3">
-        <v>1.17615954945764</v>
+        <v>1.03138114611311</v>
       </c>
       <c r="ADT3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458089</v>
       </c>
       <c r="ADU3">
-        <v>1.17272470885038</v>
+        <v>1.031504229107942</v>
       </c>
       <c r="ADV3">
-        <v>1.17295839586732</v>
+        <v>1.031491628648075</v>
       </c>
       <c r="ADW3">
-        <v>1.182249175823744</v>
+        <v>1.030524008079316</v>
       </c>
       <c r="ADX3">
-        <v>1.182314332871378</v>
+        <v>1.030515052578076</v>
       </c>
       <c r="ADY3">
-        <v>1.181724935554277</v>
+        <v>1.030486062337651</v>
       </c>
       <c r="ADZ3">
-        <v>1.179535268722271</v>
+        <v>1.031004364088654</v>
       </c>
       <c r="AEA3">
-        <v>1.176170786871901</v>
+        <v>1.031380539635715</v>
       </c>
       <c r="AEB3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458089</v>
       </c>
       <c r="AEC3">
-        <v>1.172751676523584</v>
+        <v>1.031497094938788</v>
       </c>
       <c r="AED3">
-        <v>1.173118074315154</v>
+        <v>1.031475266784188</v>
       </c>
       <c r="AEE3">
-        <v>1.18227146559162</v>
+        <v>1.030521554704444</v>
       </c>
       <c r="AEF3">
-        <v>1.182453960127609</v>
+        <v>1.030496834338886</v>
       </c>
       <c r="AEG3">
-        <v>1.182314332871378</v>
+        <v>1.030515052578076</v>
       </c>
       <c r="AEH3">
-        <v>1.181729668643076</v>
+        <v>1.030485578071359</v>
       </c>
       <c r="AEI3">
-        <v>1.179711024224177</v>
+        <v>1.030994726615786</v>
       </c>
       <c r="AEJ3">
-        <v>1.176188661342592</v>
+        <v>1.031379574959916</v>
       </c>
       <c r="AEK3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458088</v>
       </c>
       <c r="AEL3">
-        <v>1.172772647898878</v>
+        <v>1.031491547062472</v>
       </c>
       <c r="AEM3">
-        <v>1.173208446113093</v>
+        <v>1.03146600661134</v>
       </c>
       <c r="AEN3">
-        <v>1.182293798624501</v>
+        <v>1.030519096567816</v>
       </c>
       <c r="AEO3">
-        <v>1.182571033203772</v>
+        <v>1.030481558965413</v>
       </c>
       <c r="AEP3">
-        <v>1.182453960127609</v>
+        <v>1.030496834338886</v>
       </c>
       <c r="AEQ3">
-        <v>1.181736938344339</v>
+        <v>1.030484834271421</v>
       </c>
       <c r="AER3">
-        <v>1.176205441502169</v>
+        <v>1.031378669343595</v>
       </c>
       <c r="AES3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458089</v>
       </c>
       <c r="AET3">
-        <v>1.172793977087854</v>
+        <v>1.031485904529046</v>
       </c>
       <c r="AEU3">
-        <v>1.182315996464412</v>
+        <v>1.030516653311817</v>
       </c>
       <c r="AEV3">
-        <v>1.182696884138074</v>
+        <v>1.030465138330777</v>
       </c>
       <c r="AEW3">
-        <v>1.182571033203772</v>
+        <v>1.030481558965413</v>
       </c>
       <c r="AEX3">
-        <v>1.181796733486088</v>
+        <v>1.030478716328899</v>
       </c>
       <c r="AEY3">
-        <v>1.176229417562532</v>
+        <v>1.031377375368462</v>
       </c>
       <c r="AEZ3">
-        <v>1.174067308086992</v>
+        <v>1.031574834458089</v>
       </c>
       <c r="AFA3">
-        <v>1.172812487033519</v>
+        <v>1.031481007813389</v>
       </c>
       <c r="AFB3">
-        <v>1.182338278669367</v>
+        <v>1.030514200770291</v>
       </c>
       <c r="AFC3">
-        <v>1.182800212482259</v>
+        <v>1.030451656411418</v>
       </c>
       <c r="AFD3">
-        <v>1.182696884138074</v>
+        <v>1.030465138330777</v>
       </c>
       <c r="AFE3">
-        <v>1.18200281470267</v>
+        <v>1.030457631135806</v>
       </c>
       <c r="AFF3">
-        <v>1.176482501340834</v>
+        <v>1.031363716582546</v>
       </c>
       <c r="AFG3">
-        <v>1.172825781159735</v>
+        <v>1.031477490917638</v>
       </c>
       <c r="AFH3">
-        <v>1.182360545734579</v>
+        <v>1.030511749895462</v>
       </c>
       <c r="AFI3">
-        <v>1.182911147103198</v>
+        <v>1.03043718209038</v>
       </c>
       <c r="AFJ3">
-        <v>1.182800212482259</v>
+        <v>1.030451656411418</v>
       </c>
       <c r="AFK3">
-        <v>1.17658372856436</v>
+        <v>1.031358253412649</v>
       </c>
       <c r="AFL3">
-        <v>1.172841215665791</v>
+        <v>1.031473407795301</v>
       </c>
       <c r="AFM3">
-        <v>1.18238282686164</v>
+        <v>1.030509297473188</v>
       </c>
       <c r="AFN3">
-        <v>1.183496454337318</v>
+        <v>1.030360814482958</v>
       </c>
       <c r="AFO3">
-        <v>1.182911147103201</v>
+        <v>1.03043718209038</v>
       </c>
       <c r="AFP3">
-        <v>1.182911147103198</v>
+        <v>1.03043718209038</v>
       </c>
       <c r="AFQ3">
-        <v>1.176635131589527</v>
+        <v>1.031355479224672</v>
       </c>
       <c r="AFR3">
-        <v>1.172864467959079</v>
+        <v>1.031467256516743</v>
       </c>
       <c r="AFS3">
-        <v>1.182393702985902</v>
+        <v>1.030508100368264</v>
       </c>
       <c r="AFT3">
-        <v>1.183582086608947</v>
+        <v>1.030349641680786</v>
       </c>
       <c r="AFU3">
-        <v>1.182911147103203</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AFV3">
-        <v>1.182911147103201</v>
+        <v>1.03043718209038</v>
       </c>
       <c r="AFW3">
-        <v>1.176646506085153</v>
+        <v>1.031354865350611</v>
       </c>
       <c r="AFX3">
-        <v>1.172902457522187</v>
+        <v>1.031457206568738</v>
       </c>
       <c r="AFY3">
-        <v>1.182638145561042</v>
+        <v>1.030481195269118</v>
       </c>
       <c r="AFZ3">
-        <v>1.183823332191819</v>
+        <v>1.030318165379136</v>
       </c>
       <c r="AGA3">
-        <v>1.182911147103207</v>
+        <v>1.030437182090382</v>
       </c>
       <c r="AGB3">
-        <v>1.182911147103203</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGC3">
-        <v>1.176655464058632</v>
+        <v>1.031354381894691</v>
       </c>
       <c r="AGD3">
-        <v>1.173054719626617</v>
+        <v>1.031417284961009</v>
       </c>
       <c r="AGE3">
-        <v>1.173308747688943</v>
+        <v>1.031348769976486</v>
       </c>
       <c r="AGF3">
-        <v>1.182797102067655</v>
+        <v>1.030463699398162</v>
       </c>
       <c r="AGG3">
-        <v>1.184106615314905</v>
+        <v>1.030281204310127</v>
       </c>
       <c r="AGH3">
-        <v>1.182911147103208</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGI3">
-        <v>1.182911147103207</v>
+        <v>1.030437182090382</v>
       </c>
       <c r="AGJ3">
-        <v>1.176665061941087</v>
+        <v>1.03135386390333</v>
       </c>
       <c r="AGK3">
-        <v>1.182936125571679</v>
+        <v>1.030448397506378</v>
       </c>
       <c r="AGL3">
-        <v>1.184143363276209</v>
+        <v>1.030276409661745</v>
       </c>
       <c r="AGM3">
-        <v>1.182911147103209</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGN3">
-        <v>1.182911147103208</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGO3">
-        <v>1.176672740948518</v>
+        <v>1.031353449472402</v>
       </c>
       <c r="AGP3">
-        <v>1.183081952181776</v>
+        <v>1.030432346830283</v>
       </c>
       <c r="AGQ3">
-        <v>1.184166631769684</v>
+        <v>1.030275204404939</v>
       </c>
       <c r="AGR3">
-        <v>1.184194360947005</v>
+        <v>1.030265682755375</v>
       </c>
       <c r="AGS3">
-        <v>1.182911147103209</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGT3">
-        <v>1.182911147103209</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGU3">
-        <v>1.176680196950063</v>
+        <v>1.03135304707697</v>
       </c>
       <c r="AGV3">
-        <v>1.183330948958883</v>
+        <v>1.03040494056875</v>
       </c>
       <c r="AGW3">
-        <v>1.184188162730479</v>
+        <v>1.030274089148607</v>
       </c>
       <c r="AGX3">
-        <v>1.184313709269603</v>
+        <v>1.03024057890771</v>
       </c>
       <c r="AGY3">
-        <v>1.182911147103209</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AGZ3">
-        <v>1.182911147103209</v>
+        <v>1.030437182090381</v>
       </c>
       <c r="AHA3">
-        <v>1.176687634040531</v>
+        <v>1.031352645702172</v>
       </c>
       <c r="AHB3">
-        <v>1.183392022545336</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHC3">
-        <v>1.184220902448041</v>
+        <v>1.030272393303559</v>
       </c>
       <c r="AHD3">
-        <v>1.184596839399955</v>
+        <v>1.030181025085352</v>
       </c>
       <c r="AHE3">
-        <v>1.176694984116928</v>
+        <v>1.031352249023481</v>
       </c>
       <c r="AHF3">
-        <v>1.183425453166413</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHG3">
-        <v>1.183521878874621</v>
+        <v>1.030369848476572</v>
       </c>
       <c r="AHH3">
-        <v>1.184262276505871</v>
+        <v>1.030270250219082</v>
       </c>
       <c r="AHI3">
-        <v>1.176826418800015</v>
+        <v>1.031345155584431</v>
       </c>
       <c r="AHJ3">
-        <v>1.183480343516911</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHK3">
-        <v>1.183632014637001</v>
+        <v>1.030345786967949</v>
       </c>
       <c r="AHL3">
-        <v>1.184423344974942</v>
+        <v>1.030261907232901</v>
       </c>
       <c r="AHM3">
-        <v>1.177145315043607</v>
+        <v>1.031328661830856</v>
       </c>
       <c r="AHN3">
-        <v>1.176994232769263</v>
+        <v>1.0313356977587</v>
       </c>
       <c r="AHO3">
-        <v>1.183491196545549</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHP3">
-        <v>1.183817130497538</v>
+        <v>1.030305344526999</v>
       </c>
       <c r="AHQ3">
-        <v>1.184715936685907</v>
+        <v>1.030246751651241</v>
       </c>
       <c r="AHR3">
-        <v>1.177357098897778</v>
+        <v>1.031317708093121</v>
       </c>
       <c r="AHS3">
-        <v>1.183500367121462</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHT3">
-        <v>1.18350809513559</v>
+        <v>1.030398218404491</v>
       </c>
       <c r="AHU3">
-        <v>1.183518147993757</v>
+        <v>1.03039821840449</v>
       </c>
       <c r="AHV3">
-        <v>1.18353634210256</v>
+        <v>1.03039821840449</v>
       </c>
       <c r="AHW3">
-        <v>1.183567887432926</v>
+        <v>1.03039821840449</v>
       </c>
       <c r="AHX3">
-        <v>1.183826277054745</v>
+        <v>1.03039821840449</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049683784483872</v>
+        <v>1.049926680790876</v>
       </c>
       <c r="D2">
-        <v>1.049511095134641</v>
+        <v>1.049885578012603</v>
       </c>
       <c r="E2">
-        <v>1.049492991102812</v>
+        <v>1.049881268961289</v>
       </c>
       <c r="F2">
-        <v>1.049476030473721</v>
+        <v>1.049877232056993</v>
       </c>
       <c r="G2">
-        <v>1.049461243245374</v>
+        <v>1.049873712456267</v>
       </c>
       <c r="H2">
-        <v>1.049437947563771</v>
+        <v>1.049868167703476</v>
       </c>
       <c r="I2">
-        <v>1.047851647396675</v>
+        <v>1.049490596937952</v>
       </c>
       <c r="J2">
-        <v>1.047780600815321</v>
+        <v>1.04947368619854</v>
       </c>
       <c r="K2">
-        <v>1.047721467502627</v>
+        <v>1.049459611077876</v>
       </c>
       <c r="L2">
-        <v>1.047669573371533</v>
+        <v>1.049447259040609</v>
       </c>
       <c r="M2">
-        <v>1.04763085058013</v>
+        <v>1.04943804208794</v>
       </c>
       <c r="N2">
-        <v>1.047594499439174</v>
+        <v>1.049429389639123</v>
       </c>
       <c r="O2">
-        <v>1.047572146822077</v>
+        <v>1.04942406917402</v>
       </c>
       <c r="P2">
-        <v>1.047516498872656</v>
+        <v>1.049410823602895</v>
       </c>
       <c r="Q2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555415</v>
       </c>
       <c r="R2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555415</v>
       </c>
       <c r="S2">
-        <v>1.046519050449324</v>
+        <v>1.049173404276261</v>
       </c>
       <c r="T2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555414</v>
       </c>
       <c r="U2">
-        <v>1.046481437428986</v>
+        <v>1.049164451291158</v>
       </c>
       <c r="V2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555414</v>
       </c>
       <c r="W2">
-        <v>1.046439202437232</v>
+        <v>1.049154398136165</v>
       </c>
       <c r="X2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555414</v>
       </c>
       <c r="Y2">
-        <v>1.046370435414996</v>
+        <v>1.049138029570823</v>
       </c>
       <c r="Z2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555414</v>
       </c>
       <c r="AA2">
-        <v>1.046245331840355</v>
+        <v>1.049108251204144</v>
       </c>
       <c r="AB2">
-        <v>1.047065706642896</v>
+        <v>1.049303523555413</v>
       </c>
       <c r="AC2">
-        <v>1.046139831580725</v>
+        <v>1.049092718113951</v>
       </c>
       <c r="AD2">
-        <v>1.044746731770068</v>
+        <v>1.048745263005528</v>
       </c>
       <c r="AE2">
-        <v>1.047065706642897</v>
+        <v>1.049303523555413</v>
       </c>
       <c r="AF2">
-        <v>1.046130750661973</v>
+        <v>1.049090605236758</v>
       </c>
       <c r="AG2">
-        <v>1.046120365995013</v>
+        <v>1.049090608071061</v>
       </c>
       <c r="AH2">
-        <v>1.044347789583163</v>
+        <v>1.048648630306908</v>
       </c>
       <c r="AI2">
-        <v>1.047065706642898</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="AJ2">
-        <v>1.046109954718528</v>
+        <v>1.049085766598882</v>
       </c>
       <c r="AK2">
-        <v>1.04611970679131</v>
+        <v>1.049090536614277</v>
       </c>
       <c r="AL2">
-        <v>1.044283331303131</v>
+        <v>1.04861439512796</v>
       </c>
       <c r="AM2">
-        <v>1.043176544283423</v>
+        <v>1.048375044574353</v>
       </c>
       <c r="AN2">
-        <v>1.047065706642899</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="AO2">
-        <v>1.046118758975611</v>
+        <v>1.049090433872344</v>
       </c>
       <c r="AP2">
-        <v>1.044279975069945</v>
+        <v>1.048612523440711</v>
       </c>
       <c r="AQ2">
-        <v>1.044278153737181</v>
+        <v>1.048612047612001</v>
       </c>
       <c r="AR2">
-        <v>1.042363797174485</v>
+        <v>1.048185195328714</v>
       </c>
       <c r="AS2">
-        <v>1.04317654428342</v>
+        <v>1.048375044574352</v>
       </c>
       <c r="AT2">
-        <v>1.047065706642899</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="AU2">
-        <v>1.046117543466678</v>
+        <v>1.049090302112829</v>
       </c>
       <c r="AV2">
-        <v>1.044278462315237</v>
+        <v>1.048611679815267</v>
       </c>
       <c r="AW2">
-        <v>1.0442656955336</v>
+        <v>1.048606399044158</v>
       </c>
       <c r="AX2">
-        <v>1.041749649659442</v>
+        <v>1.048041735003644</v>
       </c>
       <c r="AY2">
-        <v>1.043176544283418</v>
+        <v>1.048375044574351</v>
       </c>
       <c r="AZ2">
-        <v>1.047065706642899</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="BA2">
-        <v>1.046114583154987</v>
+        <v>1.049089981219065</v>
       </c>
       <c r="BB2">
-        <v>1.044276859119101</v>
+        <v>1.048610785752897</v>
       </c>
       <c r="BC2">
-        <v>1.041661102707437</v>
+        <v>1.048021050956219</v>
       </c>
       <c r="BD2">
-        <v>1.041749649659448</v>
+        <v>1.048041735003648</v>
       </c>
       <c r="BE2">
-        <v>1.043176544283417</v>
+        <v>1.048375044574351</v>
       </c>
       <c r="BF2">
-        <v>1.047065706642899</v>
+        <v>1.049303523555411</v>
       </c>
       <c r="BG2">
-        <v>1.046112048587732</v>
+        <v>1.049089706475415</v>
       </c>
       <c r="BH2">
-        <v>1.044275332185742</v>
+        <v>1.048609934220368</v>
       </c>
       <c r="BI2">
-        <v>1.041260010766378</v>
+        <v>1.047927357815814</v>
       </c>
       <c r="BJ2">
-        <v>1.041749649659448</v>
+        <v>1.048041735003648</v>
       </c>
       <c r="BK2">
-        <v>1.043176544283416</v>
+        <v>1.04837504457435</v>
       </c>
       <c r="BL2">
-        <v>1.0470657066429</v>
+        <v>1.04930352355541</v>
       </c>
       <c r="BM2">
-        <v>1.046099898781589</v>
+        <v>1.049088389452874</v>
       </c>
       <c r="BN2">
-        <v>1.044274417703695</v>
+        <v>1.04860942423661</v>
       </c>
       <c r="BO2">
-        <v>1.041179093402414</v>
+        <v>1.047909437477862</v>
       </c>
       <c r="BP2">
-        <v>1.041236270099824</v>
+        <v>1.047884396925291</v>
       </c>
       <c r="BQ2">
-        <v>1.041749649659448</v>
+        <v>1.048041735003648</v>
       </c>
       <c r="BR2">
-        <v>1.043176544283414</v>
+        <v>1.04837504457435</v>
       </c>
       <c r="BS2">
-        <v>1.047065706642901</v>
+        <v>1.04930352355541</v>
       </c>
       <c r="BT2">
-        <v>1.046056953388548</v>
+        <v>1.049083734229753</v>
       </c>
       <c r="BU2">
-        <v>1.044272623557071</v>
+        <v>1.048608423685921</v>
       </c>
       <c r="BV2">
-        <v>1.04022309616928</v>
+        <v>1.047697715807216</v>
       </c>
       <c r="BW2">
-        <v>1.041236270099824</v>
+        <v>1.047868647646297</v>
       </c>
       <c r="BX2">
-        <v>1.041224665827665</v>
+        <v>1.047879147221966</v>
       </c>
       <c r="BY2">
-        <v>1.041749649659449</v>
+        <v>1.048041735003649</v>
       </c>
       <c r="BZ2">
-        <v>1.043176544283412</v>
+        <v>1.048375044574348</v>
       </c>
       <c r="CA2">
-        <v>1.047065706642905</v>
+        <v>1.049303523555411</v>
       </c>
       <c r="CB2">
-        <v>1.044263530753509</v>
+        <v>1.048603352856778</v>
       </c>
       <c r="CC2">
-        <v>1.039889865203133</v>
+        <v>1.047623915313173</v>
       </c>
       <c r="CD2">
-        <v>1.041749649659449</v>
+        <v>1.048041735003649</v>
       </c>
       <c r="CE2">
-        <v>1.043176544283403</v>
+        <v>1.048375044574344</v>
       </c>
       <c r="CF2">
-        <v>1.04706570664291</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CG2">
-        <v>1.044229267047333</v>
+        <v>1.048584244843721</v>
       </c>
       <c r="CH2">
-        <v>1.039817143638456</v>
+        <v>1.047607809643629</v>
       </c>
       <c r="CI2">
-        <v>1.041749649659449</v>
+        <v>1.048041735003649</v>
       </c>
       <c r="CJ2">
-        <v>1.043176544283387</v>
+        <v>1.048375044574335</v>
       </c>
       <c r="CK2">
-        <v>1.047065706642913</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CL2">
-        <v>1.039669676154639</v>
+        <v>1.047575149902622</v>
       </c>
       <c r="CM2">
-        <v>1.041749649659449</v>
+        <v>1.048041735003649</v>
       </c>
       <c r="CN2">
-        <v>1.043176544283383</v>
+        <v>1.048375044574333</v>
       </c>
       <c r="CO2">
-        <v>1.047065706642915</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CP2">
-        <v>1.0395306079279</v>
+        <v>1.047544350268957</v>
       </c>
       <c r="CQ2">
-        <v>1.043176544283382</v>
+        <v>1.048375044574333</v>
       </c>
       <c r="CR2">
-        <v>1.047065706642915</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CS2">
-        <v>1.03944977647976</v>
+        <v>1.04752644837872</v>
       </c>
       <c r="CT2">
-        <v>1.043176544283382</v>
+        <v>1.048375044574333</v>
       </c>
       <c r="CU2">
-        <v>1.047065706642915</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CV2">
-        <v>1.039396393428618</v>
+        <v>1.047514625520804</v>
       </c>
       <c r="CW2">
-        <v>1.043176544283382</v>
+        <v>1.048375044574332</v>
       </c>
       <c r="CX2">
-        <v>1.047065706642915</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="CY2">
-        <v>1.039322686435529</v>
+        <v>1.047498301456738</v>
       </c>
       <c r="CZ2">
-        <v>1.043176544283395</v>
+        <v>1.048375044574334</v>
       </c>
       <c r="DA2">
-        <v>1.047065706642915</v>
+        <v>1.049303523555412</v>
       </c>
       <c r="DB2">
-        <v>1.039320898098029</v>
+        <v>1.047498168247719</v>
       </c>
       <c r="DC2">
-        <v>1.0392844621325</v>
+        <v>1.047488301132652</v>
       </c>
       <c r="DD2">
-        <v>1.043176544283395</v>
+        <v>1.048375044574334</v>
       </c>
       <c r="DE2">
-        <v>1.039318734458704</v>
+        <v>1.047498007083194</v>
       </c>
       <c r="DF2">
-        <v>1.039262787072761</v>
+        <v>1.047482630454048</v>
       </c>
       <c r="DG2">
-        <v>1.043176544283397</v>
+        <v>1.048375044574335</v>
       </c>
       <c r="DH2">
-        <v>1.039316226649647</v>
+        <v>1.047497820282034</v>
       </c>
       <c r="DI2">
-        <v>1.038407556056274</v>
+        <v>1.047258881218198</v>
       </c>
       <c r="DJ2">
-        <v>1.043176544283437</v>
+        <v>1.048375044574346</v>
       </c>
       <c r="DK2">
-        <v>1.039312402991463</v>
+        <v>1.047497535465714</v>
       </c>
       <c r="DL2">
-        <v>1.038321881499639</v>
+        <v>1.047236466482498</v>
       </c>
       <c r="DM2">
-        <v>1.043176544283474</v>
+        <v>1.048375044574356</v>
       </c>
       <c r="DN2">
-        <v>1.039307487172844</v>
+        <v>1.047497169295823</v>
       </c>
       <c r="DO2">
-        <v>1.038317885265306</v>
+        <v>1.047235727369304</v>
       </c>
       <c r="DP2">
-        <v>1.038107070008828</v>
+        <v>1.047177151154319</v>
       </c>
       <c r="DQ2">
-        <v>1.043176544283477</v>
+        <v>1.048375044574357</v>
       </c>
       <c r="DR2">
-        <v>1.039303958093133</v>
+        <v>1.047496906420883</v>
       </c>
       <c r="DS2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369303</v>
       </c>
       <c r="DT2">
-        <v>1.038315939526153</v>
+        <v>1.047235367499664</v>
       </c>
       <c r="DU2">
-        <v>1.037719693283488</v>
+        <v>1.047070184260946</v>
       </c>
       <c r="DV2">
-        <v>1.04317654428348</v>
+        <v>1.048375044574357</v>
       </c>
       <c r="DW2">
-        <v>1.039298971541372</v>
+        <v>1.047496534980603</v>
       </c>
       <c r="DX2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369302</v>
       </c>
       <c r="DY2">
-        <v>1.038306799123522</v>
+        <v>1.047233676953612</v>
       </c>
       <c r="DZ2">
-        <v>1.037545493424128</v>
+        <v>1.04702208153788</v>
       </c>
       <c r="EA2">
-        <v>1.043176544283482</v>
+        <v>1.048375044574358</v>
       </c>
       <c r="EB2">
-        <v>1.039293576466441</v>
+        <v>1.047496133109017</v>
       </c>
       <c r="EC2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369301</v>
       </c>
       <c r="ED2">
-        <v>1.038281003329576</v>
+        <v>1.047226031309628</v>
       </c>
       <c r="EE2">
-        <v>1.038284603804419</v>
+        <v>1.047229989743789</v>
       </c>
       <c r="EF2">
-        <v>1.037493664573558</v>
+        <v>1.047007769685188</v>
       </c>
       <c r="EG2">
-        <v>1.043176544283489</v>
+        <v>1.048375044574359</v>
       </c>
       <c r="EH2">
-        <v>1.039288488491399</v>
+        <v>1.047495754111855</v>
       </c>
       <c r="EI2">
-        <v>1.038317885265304</v>
+        <v>1.047235727369301</v>
       </c>
       <c r="EJ2">
-        <v>1.038278781807688</v>
+        <v>1.047225372870255</v>
       </c>
       <c r="EK2">
-        <v>1.038268091841464</v>
+        <v>1.047227246660151</v>
       </c>
       <c r="EL2">
-        <v>1.037435160274625</v>
+        <v>1.046991614451659</v>
       </c>
       <c r="EM2">
-        <v>1.043176544283494</v>
+        <v>1.04837504457436</v>
       </c>
       <c r="EN2">
-        <v>1.039280123079719</v>
+        <v>1.047495130980221</v>
       </c>
       <c r="EO2">
-        <v>1.038317885265303</v>
+        <v>1.0472357273693</v>
       </c>
       <c r="EP2">
-        <v>1.03827660207273</v>
+        <v>1.047224726816151</v>
       </c>
       <c r="EQ2">
-        <v>1.038257034272069</v>
+        <v>1.047225409687099</v>
       </c>
       <c r="ER2">
-        <v>1.037380138261518</v>
+        <v>1.046976420765481</v>
       </c>
       <c r="ES2">
-        <v>1.043176544283495</v>
+        <v>1.04837504457436</v>
       </c>
       <c r="ET2">
-        <v>1.039240347905637</v>
+        <v>1.047492168128462</v>
       </c>
       <c r="EU2">
-        <v>1.038317885265303</v>
+        <v>1.0472357273693</v>
       </c>
       <c r="EV2">
-        <v>1.038274842029097</v>
+        <v>1.047224205154828</v>
       </c>
       <c r="EW2">
-        <v>1.038250657500633</v>
+        <v>1.047225050006124</v>
       </c>
       <c r="EX2">
-        <v>1.038170414098107</v>
+        <v>1.047198029195848</v>
       </c>
       <c r="EY2">
-        <v>1.037315938337369</v>
+        <v>1.04695869265428</v>
       </c>
       <c r="EZ2">
-        <v>1.043176544283495</v>
+        <v>1.04837504457436</v>
       </c>
       <c r="FA2">
-        <v>1.039231683207525</v>
+        <v>1.047491522687303</v>
       </c>
       <c r="FB2">
-        <v>1.038317885265303</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="FC2">
-        <v>1.038272200343479</v>
+        <v>1.047223422182633</v>
       </c>
       <c r="FD2">
-        <v>1.038233746032763</v>
+        <v>1.047224096111143</v>
       </c>
       <c r="FE2">
-        <v>1.038165141838935</v>
+        <v>1.047196362643299</v>
       </c>
       <c r="FF2">
-        <v>1.037297465194276</v>
+        <v>1.046953591486219</v>
       </c>
       <c r="FG2">
-        <v>1.043176544283495</v>
+        <v>1.04837504457436</v>
       </c>
       <c r="FH2">
-        <v>1.038825582514314</v>
+        <v>1.047460967898817</v>
       </c>
       <c r="FI2">
-        <v>1.039213059131201</v>
+        <v>1.047490145905937</v>
       </c>
       <c r="FJ2">
-        <v>1.038317885265303</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="FK2">
-        <v>1.038269015496358</v>
+        <v>1.047222478222174</v>
       </c>
       <c r="FL2">
-        <v>1.038227871792979</v>
+        <v>1.047223764771412</v>
       </c>
       <c r="FM2">
-        <v>1.038160325351067</v>
+        <v>1.047194840159287</v>
       </c>
       <c r="FN2">
-        <v>1.037192516746629</v>
+        <v>1.046924610965911</v>
       </c>
       <c r="FO2">
-        <v>1.043176544283495</v>
+        <v>1.04837504457436</v>
       </c>
       <c r="FP2">
-        <v>1.038748863333444</v>
+        <v>1.047455195583401</v>
       </c>
       <c r="FQ2">
-        <v>1.039188333997521</v>
+        <v>1.047488318084743</v>
       </c>
       <c r="FR2">
-        <v>1.038317885265304</v>
+        <v>1.047235727369298</v>
       </c>
       <c r="FS2">
-        <v>1.038266609410421</v>
+        <v>1.04722176507962</v>
       </c>
       <c r="FT2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771425</v>
       </c>
       <c r="FU2">
-        <v>1.038130869100603</v>
+        <v>1.047218293193711</v>
       </c>
       <c r="FV2">
-        <v>1.038158324515896</v>
+        <v>1.047194207698523</v>
       </c>
       <c r="FW2">
-        <v>1.037133241564056</v>
+        <v>1.046908242619076</v>
       </c>
       <c r="FX2">
-        <v>1.038590576308626</v>
+        <v>1.047443286134126</v>
       </c>
       <c r="FY2">
-        <v>1.039186020151846</v>
+        <v>1.047488132152464</v>
       </c>
       <c r="FZ2">
-        <v>1.039139305968142</v>
+        <v>1.047485087645735</v>
       </c>
       <c r="GA2">
-        <v>1.038317885265304</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="GB2">
-        <v>1.038263825150192</v>
+        <v>1.047220939849548</v>
       </c>
       <c r="GC2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771427</v>
       </c>
       <c r="GD2">
-        <v>1.038120392720444</v>
+        <v>1.047217702258108</v>
       </c>
       <c r="GE2">
-        <v>1.038154011739389</v>
+        <v>1.047192844436821</v>
       </c>
       <c r="GF2">
-        <v>1.037089240118871</v>
+        <v>1.046896091956353</v>
       </c>
       <c r="GG2">
-        <v>1.03917691457767</v>
+        <v>1.047487400459295</v>
       </c>
       <c r="GH2">
-        <v>1.038936389493591</v>
+        <v>1.047471717544236</v>
       </c>
       <c r="GI2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="GJ2">
-        <v>1.03826120722716</v>
+        <v>1.047220163920338</v>
       </c>
       <c r="GK2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771428</v>
       </c>
       <c r="GL2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771428</v>
       </c>
       <c r="GM2">
-        <v>1.038110259178402</v>
+        <v>1.047217130660762</v>
       </c>
       <c r="GN2">
-        <v>1.038143027150073</v>
+        <v>1.047189372225741</v>
       </c>
       <c r="GO2">
-        <v>1.037049680883393</v>
+        <v>1.046885167953358</v>
       </c>
       <c r="GP2">
-        <v>1.039160657128211</v>
+        <v>1.047486094057165</v>
       </c>
       <c r="GQ2">
-        <v>1.038914356611575</v>
+        <v>1.047469104415023</v>
       </c>
       <c r="GR2">
-        <v>1.038926202337214</v>
+        <v>1.047471717544235</v>
       </c>
       <c r="GS2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="GT2">
-        <v>1.038258390496002</v>
+        <v>1.047219329066152</v>
       </c>
       <c r="GU2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771428</v>
       </c>
       <c r="GV2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771428</v>
       </c>
       <c r="GW2">
-        <v>1.038102153360699</v>
+        <v>1.047216673440167</v>
       </c>
       <c r="GX2">
-        <v>1.03813658254719</v>
+        <v>1.04718733509703</v>
       </c>
       <c r="GY2">
-        <v>1.037000537234966</v>
+        <v>1.046871597252827</v>
       </c>
       <c r="GZ2">
-        <v>1.039133274458219</v>
+        <v>1.047486094057165</v>
       </c>
       <c r="HA2">
-        <v>1.039157867556406</v>
+        <v>1.047485757828213</v>
       </c>
       <c r="HB2">
-        <v>1.038858652051757</v>
+        <v>1.047462497778608</v>
       </c>
       <c r="HC2">
-        <v>1.038924762372577</v>
+        <v>1.047471717544235</v>
       </c>
       <c r="HD2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="HE2">
-        <v>1.038254084559549</v>
+        <v>1.047218052824677</v>
       </c>
       <c r="HF2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771428</v>
       </c>
       <c r="HG2">
-        <v>1.038095696438052</v>
+        <v>1.047216309227914</v>
       </c>
       <c r="HH2">
-        <v>1.038132068725777</v>
+        <v>1.047185908285237</v>
       </c>
       <c r="HI2">
-        <v>1.036909851248152</v>
+        <v>1.046846554817905</v>
       </c>
       <c r="HJ2">
-        <v>1.03904364735795</v>
+        <v>1.047486094057164</v>
       </c>
       <c r="HK2">
-        <v>1.039152832867605</v>
+        <v>1.047485150992654</v>
       </c>
       <c r="HL2">
-        <v>1.038923601081841</v>
+        <v>1.047471717544235</v>
       </c>
       <c r="HM2">
-        <v>1.038317885265305</v>
+        <v>1.047235727369299</v>
       </c>
       <c r="HN2">
-        <v>1.038242325509564</v>
+        <v>1.04721456754617</v>
       </c>
       <c r="HO2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771429</v>
       </c>
       <c r="HP2">
-        <v>1.038082045470062</v>
+        <v>1.047215539224874</v>
       </c>
       <c r="HQ2">
-        <v>1.038123385950304</v>
+        <v>1.047183163673606</v>
       </c>
       <c r="HR2">
-        <v>1.03683078790795</v>
+        <v>1.046824721821204</v>
       </c>
       <c r="HS2">
-        <v>1.039005010624495</v>
+        <v>1.047486094057164</v>
       </c>
       <c r="HT2">
-        <v>1.039151035206017</v>
+        <v>1.04748493431853</v>
       </c>
       <c r="HU2">
-        <v>1.03892267303868</v>
+        <v>1.047471717544235</v>
       </c>
       <c r="HV2">
-        <v>1.038241322895119</v>
+        <v>1.0472142703801</v>
       </c>
       <c r="HW2">
-        <v>1.038227871792978</v>
+        <v>1.047223764771429</v>
       </c>
       <c r="HX2">
-        <v>1.038071295008036</v>
+        <v>1.047214932829123</v>
       </c>
       <c r="HY2">
-        <v>1.038119064228354</v>
+        <v>1.04718179758408</v>
       </c>
       <c r="HZ2">
-        <v>1.036777005574225</v>
+        <v>1.04680987001549</v>
       </c>
       <c r="IA2">
-        <v>1.038950415775434</v>
+        <v>1.047460753117119</v>
       </c>
       <c r="IB2">
-        <v>1.039151035206017</v>
+        <v>1.04748493431853</v>
       </c>
       <c r="IC2">
-        <v>1.038921256371921</v>
+        <v>1.047471717544234</v>
       </c>
       <c r="ID2">
-        <v>1.038240859796902</v>
+        <v>1.047214133121878</v>
       </c>
       <c r="IE2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="IF2">
-        <v>1.038063837952143</v>
+        <v>1.047214512202808</v>
       </c>
       <c r="IG2">
-        <v>1.038115995538969</v>
+        <v>1.047180827576167</v>
       </c>
       <c r="IH2">
-        <v>1.036741675293673</v>
+        <v>1.046800113659055</v>
       </c>
       <c r="II2">
-        <v>1.038921281459917</v>
+        <v>1.047457241477441</v>
       </c>
       <c r="IJ2">
-        <v>1.038919595753052</v>
+        <v>1.047471717544234</v>
       </c>
       <c r="IK2">
-        <v>1.038240364457303</v>
+        <v>1.047213986307593</v>
       </c>
       <c r="IL2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="IM2">
-        <v>1.038056398661347</v>
+        <v>1.047214092578544</v>
       </c>
       <c r="IN2">
-        <v>1.038080891046957</v>
+        <v>1.047169731100352</v>
       </c>
       <c r="IO2">
-        <v>1.036665638801623</v>
+        <v>1.04677911634037</v>
       </c>
       <c r="IP2">
-        <v>1.038891473082509</v>
+        <v>1.047453706007722</v>
       </c>
       <c r="IQ2">
-        <v>1.038861662989852</v>
+        <v>1.04744999807964</v>
       </c>
       <c r="IR2">
-        <v>1.038917045141119</v>
+        <v>1.047471717544234</v>
       </c>
       <c r="IS2">
-        <v>1.038239891138505</v>
+        <v>1.04721384602008</v>
       </c>
       <c r="IT2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="IU2">
-        <v>1.038045515311156</v>
+        <v>1.047213478686956</v>
       </c>
       <c r="IV2">
-        <v>1.03807053930819</v>
+        <v>1.047166458931396</v>
       </c>
       <c r="IW2">
-        <v>1.036665638801618</v>
+        <v>1.046772880299033</v>
       </c>
       <c r="IX2">
-        <v>1.036615297818818</v>
+        <v>1.046765493797554</v>
       </c>
       <c r="IY2">
-        <v>1.038907711638165</v>
+        <v>1.047471717544234</v>
       </c>
       <c r="IZ2">
-        <v>1.038239363841081</v>
+        <v>1.047213689733777</v>
       </c>
       <c r="JA2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="JB2">
-        <v>1.0380045824945</v>
+        <v>1.047211169810107</v>
       </c>
       <c r="JC2">
-        <v>1.03806822331694</v>
+        <v>1.04716572685005</v>
       </c>
       <c r="JD2">
-        <v>1.036665638801617</v>
+        <v>1.046772018260423</v>
       </c>
       <c r="JE2">
-        <v>1.036426528010911</v>
+        <v>1.046714411360034</v>
       </c>
       <c r="JF2">
-        <v>1.038862285480187</v>
+        <v>1.047471717544234</v>
       </c>
       <c r="JG2">
-        <v>1.038238275425272</v>
+        <v>1.047213367136937</v>
       </c>
       <c r="JH2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="JI2">
-        <v>1.03799502873657</v>
+        <v>1.047210630916005</v>
       </c>
       <c r="JJ2">
-        <v>1.038019581801051</v>
+        <v>1.047158976724305</v>
       </c>
       <c r="JK2">
-        <v>1.038067889360183</v>
+        <v>1.047165325168023</v>
       </c>
       <c r="JL2">
-        <v>1.036665638801617</v>
+        <v>1.046771621949596</v>
       </c>
       <c r="JM2">
-        <v>1.036413340437212</v>
+        <v>1.04671441136004</v>
       </c>
       <c r="JN2">
-        <v>1.036363916560241</v>
+        <v>1.04669725248416</v>
       </c>
       <c r="JO2">
-        <v>1.038237141847199</v>
+        <v>1.0472130311544</v>
       </c>
       <c r="JP2">
-        <v>1.038227871792978</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="JQ2">
-        <v>1.037990651911378</v>
+        <v>1.047210384034581</v>
       </c>
       <c r="JR2">
-        <v>1.03797137638113</v>
+        <v>1.047152287115302</v>
       </c>
       <c r="JS2">
-        <v>1.038067497816901</v>
+        <v>1.047164854221124</v>
       </c>
       <c r="JT2">
-        <v>1.036665638801617</v>
+        <v>1.046771151245907</v>
       </c>
       <c r="JU2">
-        <v>1.036412381845419</v>
+        <v>1.04671441136004</v>
       </c>
       <c r="JV2">
-        <v>1.036136952276853</v>
+        <v>1.046635051721947</v>
       </c>
       <c r="JW2">
-        <v>1.03823283125332</v>
+        <v>1.047211753532398</v>
       </c>
       <c r="JX2">
-        <v>1.038227871792979</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="JY2">
-        <v>1.037987774479429</v>
+        <v>1.04721022172869</v>
       </c>
       <c r="JZ2">
-        <v>1.038067143970703</v>
+        <v>1.047164428616146</v>
       </c>
       <c r="KA2">
-        <v>1.036665638801617</v>
+        <v>1.046770425006467</v>
       </c>
       <c r="KB2">
-        <v>1.036411591744076</v>
+        <v>1.04671441136004</v>
       </c>
       <c r="KC2">
-        <v>1.036069080240309</v>
+        <v>1.046616949089386</v>
       </c>
       <c r="KD2">
-        <v>1.03610462027755</v>
+        <v>1.046626039296357</v>
       </c>
       <c r="KE2">
-        <v>1.03820994569702</v>
+        <v>1.047204970455018</v>
       </c>
       <c r="KF2">
-        <v>1.038227871792979</v>
+        <v>1.04722376477143</v>
       </c>
       <c r="KG2">
-        <v>1.037977913568624</v>
+        <v>1.047210221728691</v>
       </c>
       <c r="KH2">
-        <v>1.037986497448636</v>
+        <v>1.047210081090474</v>
       </c>
       <c r="KI2">
-        <v>1.038066785595244</v>
+        <v>1.047163997563388</v>
       </c>
       <c r="KJ2">
-        <v>1.036665638801617</v>
+        <v>1.046769777876044</v>
       </c>
       <c r="KK2">
-        <v>1.036410469466066</v>
+        <v>1.046714411360039</v>
       </c>
       <c r="KL2">
-        <v>1.036037840259666</v>
+        <v>1.046608616844975</v>
       </c>
       <c r="KM2">
-        <v>1.035969118860124</v>
+        <v>1.046588268619522</v>
       </c>
       <c r="KN2">
-        <v>1.037973383884062</v>
+        <v>1.047210221728691</v>
       </c>
       <c r="KO2">
-        <v>1.037985593648373</v>
+        <v>1.04720998155579</v>
       </c>
       <c r="KP2">
-        <v>1.038066400269169</v>
+        <v>1.047163534094524</v>
       </c>
       <c r="KQ2">
-        <v>1.036665638801618</v>
+        <v>1.046769274746806</v>
       </c>
       <c r="KR2">
-        <v>1.036405428699506</v>
+        <v>1.046714411360036</v>
       </c>
       <c r="KS2">
-        <v>1.035833760695945</v>
+        <v>1.04655418517168</v>
       </c>
       <c r="KT2">
-        <v>1.03593920857654</v>
+        <v>1.046579931169723</v>
       </c>
       <c r="KU2">
-        <v>1.037965717476271</v>
+        <v>1.047210221728691</v>
       </c>
       <c r="KV2">
-        <v>1.037984541891228</v>
+        <v>1.047209865726751</v>
       </c>
       <c r="KW2">
-        <v>1.038064165591835</v>
+        <v>1.047160846232392</v>
       </c>
       <c r="KX2">
-        <v>1.036665638801618</v>
+        <v>1.046768648477026</v>
       </c>
       <c r="KY2">
-        <v>1.036404458298509</v>
+        <v>1.046714411360036</v>
       </c>
       <c r="KZ2">
-        <v>1.035818517642455</v>
+        <v>1.046550119568357</v>
       </c>
       <c r="LA2">
-        <v>1.035929270010427</v>
+        <v>1.046577160805567</v>
       </c>
       <c r="LB2">
-        <v>1.037951002305459</v>
+        <v>1.047210221728691</v>
       </c>
       <c r="LC2">
-        <v>1.037982530216215</v>
+        <v>1.047209644182844</v>
       </c>
       <c r="LD2">
-        <v>1.038054713752412</v>
+        <v>1.047149477592853</v>
       </c>
       <c r="LE2">
-        <v>1.036665638801619</v>
+        <v>1.046768000731489</v>
       </c>
       <c r="LF2">
-        <v>1.036403739796359</v>
+        <v>1.046714411360035</v>
       </c>
       <c r="LG2">
-        <v>1.035809321219478</v>
+        <v>1.046548418650822</v>
       </c>
       <c r="LH2">
-        <v>1.035581014046914</v>
+        <v>1.046483363202227</v>
       </c>
       <c r="LI2">
-        <v>1.03592408278079</v>
+        <v>1.046575714870585</v>
       </c>
       <c r="LJ2">
-        <v>1.037907678370823</v>
+        <v>1.047210221728691</v>
       </c>
       <c r="LK2">
-        <v>1.037974815092876</v>
+        <v>1.047208794523436</v>
       </c>
       <c r="LL2">
-        <v>1.036665638801619</v>
+        <v>1.04676723668049</v>
       </c>
       <c r="LM2">
-        <v>1.03640291215978</v>
+        <v>1.046714411360035</v>
       </c>
       <c r="LN2">
-        <v>1.035761956877059</v>
+        <v>1.046539658413144</v>
       </c>
       <c r="LO2">
-        <v>1.03546703664216</v>
+        <v>1.046451326882698</v>
       </c>
       <c r="LP2">
-        <v>1.035919642352342</v>
+        <v>1.046574477105379</v>
       </c>
       <c r="LQ2">
-        <v>1.037948486306396</v>
+        <v>1.047205894958246</v>
       </c>
       <c r="LR2">
-        <v>1.03666563880162</v>
+        <v>1.046766801273117</v>
       </c>
       <c r="LS2">
-        <v>1.036402091156216</v>
+        <v>1.046714411360035</v>
       </c>
       <c r="LT2">
-        <v>1.035745421088579</v>
+        <v>1.046536600047901</v>
       </c>
       <c r="LU2">
-        <v>1.035361414572306</v>
+        <v>1.046439135151282</v>
       </c>
       <c r="LV2">
-        <v>1.035278890987062</v>
+        <v>1.046393230246489</v>
       </c>
       <c r="LW2">
-        <v>1.035914592163004</v>
+        <v>1.046573069369577</v>
       </c>
       <c r="LX2">
-        <v>1.036665638801622</v>
+        <v>1.046764834277775</v>
       </c>
       <c r="LY2">
-        <v>1.036394878549088</v>
+        <v>1.046714411360035</v>
       </c>
       <c r="LZ2">
-        <v>1.035709432022712</v>
+        <v>1.046529943714479</v>
       </c>
       <c r="MA2">
-        <v>1.035319583013541</v>
+        <v>1.046434306621429</v>
       </c>
       <c r="MB2">
-        <v>1.035221283505054</v>
+        <v>1.046338815543994</v>
       </c>
       <c r="MC2">
-        <v>1.035248879192212</v>
+        <v>1.046386624711769</v>
       </c>
       <c r="MD2">
-        <v>1.035910613484748</v>
+        <v>1.046571960316292</v>
       </c>
       <c r="ME2">
-        <v>1.036665638801623</v>
+        <v>1.046764068764043</v>
       </c>
       <c r="MF2">
-        <v>1.036380135014805</v>
+        <v>1.046714411360035</v>
       </c>
       <c r="MG2">
-        <v>1.035703414793049</v>
+        <v>1.046525876892994</v>
       </c>
       <c r="MH2">
-        <v>1.035698382761303</v>
+        <v>1.046529289946577</v>
       </c>
       <c r="MI2">
-        <v>1.035192321082613</v>
+        <v>1.046311458305477</v>
       </c>
       <c r="MJ2">
-        <v>1.035223167894058</v>
+        <v>1.046380965704551</v>
       </c>
       <c r="MK2">
-        <v>1.035907277783943</v>
+        <v>1.046571030492273</v>
       </c>
       <c r="ML2">
-        <v>1.036665638801623</v>
+        <v>1.046763802825294</v>
       </c>
       <c r="MM2">
-        <v>1.035694411202694</v>
+        <v>1.046519791701425</v>
       </c>
       <c r="MN2">
-        <v>1.035696844256557</v>
+        <v>1.046529198915601</v>
       </c>
       <c r="MO2">
-        <v>1.035189625845266</v>
+        <v>1.046308912446215</v>
       </c>
       <c r="MP2">
-        <v>1.035205082402187</v>
+        <v>1.046376985120937</v>
       </c>
       <c r="MQ2">
-        <v>1.035904267927333</v>
+        <v>1.04657019149694</v>
       </c>
       <c r="MR2">
-        <v>1.036665638801623</v>
+        <v>1.046763602475829</v>
       </c>
       <c r="MS2">
-        <v>1.035695173332249</v>
+        <v>1.046529100049561</v>
       </c>
       <c r="MT2">
-        <v>1.035188512745857</v>
+        <v>1.046307861038092</v>
       </c>
       <c r="MU2">
-        <v>1.0351822310176</v>
+        <v>1.046371955571092</v>
       </c>
       <c r="MV2">
-        <v>1.035901776864214</v>
+        <v>1.04656949711482</v>
       </c>
       <c r="MW2">
-        <v>1.036665638801624</v>
+        <v>1.046763455891003</v>
       </c>
       <c r="MX2">
-        <v>1.035693709722589</v>
+        <v>1.046529013450011</v>
       </c>
       <c r="MY2">
-        <v>1.035187727338845</v>
+        <v>1.046307119160676</v>
       </c>
       <c r="MZ2">
-        <v>1.03516791253546</v>
+        <v>1.046368804097048</v>
       </c>
       <c r="NA2">
-        <v>1.035898887084126</v>
+        <v>1.046568691590513</v>
       </c>
       <c r="NB2">
-        <v>1.036665638801624</v>
+        <v>1.046763381454399</v>
       </c>
       <c r="NC2">
-        <v>1.035692154637328</v>
+        <v>1.046528921437988</v>
       </c>
       <c r="ND2">
-        <v>1.035186923989515</v>
+        <v>1.04630636033536</v>
       </c>
       <c r="NE2">
-        <v>1.035145924976102</v>
+        <v>1.046363964670207</v>
       </c>
       <c r="NF2">
-        <v>1.035895711014562</v>
+        <v>1.046567806263071</v>
       </c>
       <c r="NG2">
-        <v>1.036665638801624</v>
+        <v>1.046763272016789</v>
       </c>
       <c r="NH2">
-        <v>1.035689935197843</v>
+        <v>1.046528790117139</v>
       </c>
       <c r="NI2">
-        <v>1.035185976094688</v>
+        <v>1.046305464975685</v>
       </c>
       <c r="NJ2">
-        <v>1.035124005969919</v>
+        <v>1.046359140329773</v>
       </c>
       <c r="NK2">
-        <v>1.035878396217688</v>
+        <v>1.046562979771623</v>
       </c>
       <c r="NL2">
-        <v>1.036665638801624</v>
+        <v>1.046763088563614</v>
       </c>
       <c r="NM2">
-        <v>1.035687237062314</v>
+        <v>1.046528630472573</v>
       </c>
       <c r="NN2">
-        <v>1.035184780393052</v>
+        <v>1.046304335543395</v>
       </c>
       <c r="NO2">
-        <v>1.035099412176413</v>
+        <v>1.046353727270234</v>
       </c>
       <c r="NP2">
-        <v>1.035750393142598</v>
+        <v>1.046527194804681</v>
       </c>
       <c r="NQ2">
-        <v>1.03587441680078</v>
+        <v>1.04656203778251</v>
       </c>
       <c r="NR2">
-        <v>1.036665638801624</v>
+        <v>1.04676227028318</v>
       </c>
       <c r="NS2">
-        <v>1.035670513157246</v>
+        <v>1.046527640944553</v>
       </c>
       <c r="NT2">
-        <v>1.035183709525874</v>
+        <v>1.046303324026862</v>
       </c>
       <c r="NU2">
-        <v>1.03508161525102</v>
+        <v>1.046349810190258</v>
       </c>
       <c r="NV2">
-        <v>1.035627796362729</v>
+        <v>1.046492921027837</v>
       </c>
       <c r="NW2">
-        <v>1.03584998264698</v>
+        <v>1.046556253842536</v>
       </c>
       <c r="NX2">
-        <v>1.035874416800778</v>
+        <v>1.04656203778252</v>
       </c>
       <c r="NY2">
-        <v>1.036665638801624</v>
+        <v>1.046759262307398</v>
       </c>
       <c r="NZ2">
-        <v>1.035613288468526</v>
+        <v>1.046524255046113</v>
       </c>
       <c r="OA2">
-        <v>1.035182862175632</v>
+        <v>1.046302523639294</v>
       </c>
       <c r="OB2">
-        <v>1.035060402959743</v>
+        <v>1.046345141390971</v>
       </c>
       <c r="OC2">
-        <v>1.035622338724922</v>
+        <v>1.046491395258143</v>
       </c>
       <c r="OD2">
-        <v>1.035841052572168</v>
+        <v>1.046554139956341</v>
       </c>
       <c r="OE2">
-        <v>1.035874416800766</v>
+        <v>1.046562037782574</v>
       </c>
       <c r="OF2">
-        <v>1.035181407918788</v>
+        <v>1.046301149981694</v>
       </c>
       <c r="OG2">
-        <v>1.035029624271823</v>
+        <v>1.046338367036131</v>
       </c>
       <c r="OH2">
-        <v>1.035479157006347</v>
+        <v>1.046448560500185</v>
       </c>
       <c r="OI2">
-        <v>1.035546511953111</v>
+        <v>1.046470670725096</v>
       </c>
       <c r="OJ2">
-        <v>1.035840143607604</v>
+        <v>1.046553924790429</v>
       </c>
       <c r="OK2">
-        <v>1.035874416800765</v>
+        <v>1.046562037782579</v>
       </c>
       <c r="OL2">
-        <v>1.035176331265066</v>
+        <v>1.046296354691232</v>
       </c>
       <c r="OM2">
-        <v>1.035006805648408</v>
+        <v>1.046333344680008</v>
       </c>
       <c r="ON2">
-        <v>1.035466037869208</v>
+        <v>1.04644463573071</v>
       </c>
       <c r="OO2">
-        <v>1.035509929948392</v>
+        <v>1.046460672315996</v>
       </c>
       <c r="OP2">
-        <v>1.035839509269255</v>
+        <v>1.046553774632772</v>
       </c>
       <c r="OQ2">
-        <v>1.035874416800765</v>
+        <v>1.04656203778258</v>
       </c>
       <c r="OR2">
-        <v>1.035145294485153</v>
+        <v>1.046267038061847</v>
       </c>
       <c r="OS2">
-        <v>1.034984793433844</v>
+        <v>1.046328499811575</v>
       </c>
       <c r="OT2">
-        <v>1.035458579911005</v>
+        <v>1.046442404580324</v>
       </c>
       <c r="OU2">
-        <v>1.035399568243279</v>
+        <v>1.046430508700996</v>
       </c>
       <c r="OV2">
-        <v>1.035509929948389</v>
+        <v>1.046460672315984</v>
       </c>
       <c r="OW2">
-        <v>1.035838852151088</v>
+        <v>1.046553619082782</v>
       </c>
       <c r="OX2">
-        <v>1.035874416800765</v>
+        <v>1.046562037782582</v>
       </c>
       <c r="OY2">
-        <v>1.034963250122605</v>
+        <v>1.04632375814635</v>
       </c>
       <c r="OZ2">
-        <v>1.035453515778363</v>
+        <v>1.046440889575617</v>
       </c>
       <c r="PA2">
-        <v>1.035242387142367</v>
+        <v>1.046387548312002</v>
       </c>
       <c r="PB2">
-        <v>1.035509929948388</v>
+        <v>1.046460672315981</v>
       </c>
       <c r="PC2">
-        <v>1.035836092638289</v>
+        <v>1.046552965863595</v>
       </c>
       <c r="PD2">
-        <v>1.035874416800765</v>
+        <v>1.046562037782583</v>
       </c>
       <c r="PE2">
-        <v>1.034937341054658</v>
+        <v>1.046318055579033</v>
       </c>
       <c r="PF2">
-        <v>1.035445262582749</v>
+        <v>1.046438420518937</v>
       </c>
       <c r="PG2">
-        <v>1.03520949535648</v>
+        <v>1.046378558359679</v>
       </c>
       <c r="PH2">
-        <v>1.035509929948387</v>
+        <v>1.04646067231598</v>
       </c>
       <c r="PI2">
-        <v>1.035835418829999</v>
+        <v>1.046552806362793</v>
       </c>
       <c r="PJ2">
-        <v>1.035874416800763</v>
+        <v>1.046562037782599</v>
       </c>
       <c r="PK2">
-        <v>1.034893948169232</v>
+        <v>1.046308504829626</v>
       </c>
       <c r="PL2">
-        <v>1.034937341054658</v>
+        <v>1.046318055579033</v>
       </c>
       <c r="PM2">
-        <v>1.035417828458708</v>
+        <v>1.046430213223821</v>
       </c>
       <c r="PN2">
-        <v>1.035201088607061</v>
+        <v>1.046376260632385</v>
       </c>
       <c r="PO2">
-        <v>1.035509929948386</v>
+        <v>1.046460672315978</v>
       </c>
       <c r="PP2">
-        <v>1.03583477609021</v>
+        <v>1.046552654216383</v>
       </c>
       <c r="PQ2">
-        <v>1.035874416800762</v>
+        <v>1.046562037782605</v>
       </c>
       <c r="PR2">
-        <v>1.034747587519572</v>
+        <v>1.046276290875012</v>
       </c>
       <c r="PS2">
-        <v>1.034893948169232</v>
+        <v>1.046308504829626</v>
       </c>
       <c r="PT2">
-        <v>1.035387285683079</v>
+        <v>1.046421075931823</v>
       </c>
       <c r="PU2">
-        <v>1.035196684434027</v>
+        <v>1.046375056886286</v>
       </c>
       <c r="PV2">
-        <v>1.035509929948385</v>
+        <v>1.046460672315976</v>
       </c>
       <c r="PW2">
-        <v>1.035834136846326</v>
+        <v>1.046552502897507</v>
       </c>
       <c r="PX2">
-        <v>1.035874416800762</v>
+        <v>1.046562037782607</v>
       </c>
       <c r="PY2">
-        <v>1.034540576362355</v>
+        <v>1.046230727598699</v>
       </c>
       <c r="PZ2">
-        <v>1.034747587519572</v>
+        <v>1.046276290875012</v>
       </c>
       <c r="QA2">
-        <v>1.035370108548255</v>
+        <v>1.04641593715487</v>
       </c>
       <c r="QB2">
-        <v>1.035193033427208</v>
+        <v>1.046374058994954</v>
       </c>
       <c r="QC2">
-        <v>1.035509929948384</v>
+        <v>1.046460672315975</v>
       </c>
       <c r="QD2">
-        <v>1.035833403551204</v>
+        <v>1.046552329315254</v>
       </c>
       <c r="QE2">
-        <v>1.035874416800762</v>
+        <v>1.046562037782611</v>
       </c>
       <c r="QF2">
-        <v>1.034392034628944</v>
+        <v>1.046198033364596</v>
       </c>
       <c r="QG2">
-        <v>1.034540576362355</v>
+        <v>1.046230727598699</v>
       </c>
       <c r="QH2">
-        <v>1.035353972452956</v>
+        <v>1.04641110981894</v>
       </c>
       <c r="QI2">
-        <v>1.035190074490036</v>
+        <v>1.046373250259613</v>
       </c>
       <c r="QJ2">
-        <v>1.035509929948382</v>
+        <v>1.046460672315974</v>
       </c>
       <c r="QK2">
-        <v>1.035830871159761</v>
+        <v>1.04655172985918</v>
       </c>
       <c r="QL2">
-        <v>1.035874416800761</v>
+        <v>1.046562037782614</v>
       </c>
       <c r="QM2">
-        <v>1.034346967205878</v>
+        <v>1.046188113946012</v>
       </c>
       <c r="QN2">
-        <v>1.034392034628944</v>
+        <v>1.046198033364596</v>
       </c>
       <c r="QO2">
-        <v>1.035338577287675</v>
+        <v>1.046406504142177</v>
       </c>
       <c r="QP2">
-        <v>1.035185551552001</v>
+        <v>1.046372014052048</v>
       </c>
       <c r="QQ2">
-        <v>1.035509929948382</v>
+        <v>1.046460672315973</v>
       </c>
       <c r="QR2">
-        <v>1.035818530319701</v>
+        <v>1.04654880859209</v>
       </c>
       <c r="QS2">
-        <v>1.035874416800761</v>
+        <v>1.046562037782617</v>
       </c>
       <c r="QT2">
-        <v>1.034226003290415</v>
+        <v>1.046163195923912</v>
       </c>
       <c r="QU2">
-        <v>1.034346967205878</v>
+        <v>1.046188113946012</v>
       </c>
       <c r="QV2">
-        <v>1.034326152551745</v>
+        <v>1.046180671600308</v>
       </c>
       <c r="QW2">
-        <v>1.035313300725823</v>
+        <v>1.04639894230826</v>
       </c>
       <c r="QX2">
-        <v>1.035181474193484</v>
+        <v>1.046370899629856</v>
       </c>
       <c r="QY2">
-        <v>1.035509929948382</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="QZ2">
-        <v>1.035874416800761</v>
+        <v>1.046562037782619</v>
       </c>
       <c r="RA2">
-        <v>1.034091607100603</v>
+        <v>1.046135510844331</v>
       </c>
       <c r="RB2">
-        <v>1.034226003290415</v>
+        <v>1.046163195923912</v>
       </c>
       <c r="RC2">
-        <v>1.034226003290415</v>
+        <v>1.046163195923912</v>
       </c>
       <c r="RD2">
-        <v>1.034323112829762</v>
+        <v>1.04617958473801</v>
       </c>
       <c r="RE2">
-        <v>1.035295695121983</v>
+        <v>1.046393675347334</v>
       </c>
       <c r="RF2">
-        <v>1.03517759355434</v>
+        <v>1.046369838974723</v>
       </c>
       <c r="RG2">
-        <v>1.035509929948382</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="RH2">
-        <v>1.035874416800759</v>
+        <v>1.046562037782633</v>
       </c>
       <c r="RI2">
-        <v>1.034042357853608</v>
+        <v>1.046125365677387</v>
       </c>
       <c r="RJ2">
-        <v>1.034091607100603</v>
+        <v>1.046135510844331</v>
       </c>
       <c r="RK2">
-        <v>1.034321455348892</v>
+        <v>1.046178992100428</v>
       </c>
       <c r="RL2">
-        <v>1.035283325038085</v>
+        <v>1.046389974664699</v>
       </c>
       <c r="RM2">
-        <v>1.035173221779709</v>
+        <v>1.04636864408234</v>
       </c>
       <c r="RN2">
-        <v>1.035509929948382</v>
+        <v>1.046460672315973</v>
       </c>
       <c r="RO2">
-        <v>1.035874416800759</v>
+        <v>1.046562037782633</v>
       </c>
       <c r="RP2">
-        <v>1.033982029431999</v>
+        <v>1.046110131154061</v>
       </c>
       <c r="RQ2">
-        <v>1.034042357853608</v>
+        <v>1.046125365677387</v>
       </c>
       <c r="RR2">
-        <v>1.03380429632013</v>
+        <v>1.046091560061346</v>
       </c>
       <c r="RS2">
-        <v>1.034320332535621</v>
+        <v>1.046178590634953</v>
       </c>
       <c r="RT2">
-        <v>1.035277414538403</v>
+        <v>1.046388206456455</v>
       </c>
       <c r="RU2">
-        <v>1.035168603779841</v>
+        <v>1.046367381891452</v>
       </c>
       <c r="RV2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315973</v>
       </c>
       <c r="RW2">
-        <v>1.035874416800759</v>
+        <v>1.046562037782634</v>
       </c>
       <c r="RX2">
-        <v>1.033895564741562</v>
+        <v>1.046088296501367</v>
       </c>
       <c r="RY2">
-        <v>1.033982029431999</v>
+        <v>1.046110131154061</v>
       </c>
       <c r="RZ2">
-        <v>1.033797438943322</v>
+        <v>1.046090788295565</v>
       </c>
       <c r="SA2">
-        <v>1.03375827630375</v>
+        <v>1.046083601596449</v>
       </c>
       <c r="SB2">
-        <v>1.034318627054375</v>
+        <v>1.046177980834679</v>
       </c>
       <c r="SC2">
-        <v>1.035273670399</v>
+        <v>1.046387086345019</v>
       </c>
       <c r="SD2">
-        <v>1.03515850664994</v>
+        <v>1.046364622144724</v>
       </c>
       <c r="SE2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315973</v>
       </c>
       <c r="SF2">
-        <v>1.035874416800759</v>
+        <v>1.046562037782634</v>
       </c>
       <c r="SG2">
-        <v>1.033842798344654</v>
+        <v>1.046074971554157</v>
       </c>
       <c r="SH2">
-        <v>1.033895564741562</v>
+        <v>1.046088296501367</v>
       </c>
       <c r="SI2">
-        <v>1.03379454049279</v>
+        <v>1.046090462088466</v>
       </c>
       <c r="SJ2">
-        <v>1.033728828742435</v>
+        <v>1.046078509085778</v>
       </c>
       <c r="SK2">
-        <v>1.034316038818276</v>
+        <v>1.046177055402575</v>
       </c>
       <c r="SL2">
-        <v>1.035271138899547</v>
+        <v>1.046386329011699</v>
       </c>
       <c r="SM2">
-        <v>1.034929502084773</v>
+        <v>1.046302030262633</v>
       </c>
       <c r="SN2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="SO2">
-        <v>1.035874416800759</v>
+        <v>1.046562037782634</v>
       </c>
       <c r="SP2">
-        <v>1.033833711441021</v>
+        <v>1.046072676863072</v>
       </c>
       <c r="SQ2">
-        <v>1.033842798344654</v>
+        <v>1.046074971554157</v>
       </c>
       <c r="SR2">
-        <v>1.033792837420125</v>
+        <v>1.046090270415573</v>
       </c>
       <c r="SS2">
-        <v>1.03431420255029</v>
+        <v>1.046176398839072</v>
       </c>
       <c r="ST2">
-        <v>1.03526760776414</v>
+        <v>1.046385272623348</v>
       </c>
       <c r="SU2">
-        <v>1.034929502084772</v>
+        <v>1.046286808871113</v>
       </c>
       <c r="SV2">
-        <v>1.034894296250147</v>
+        <v>1.04629327896332</v>
       </c>
       <c r="SW2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="SX2">
-        <v>1.033811437640478</v>
+        <v>1.046067541813138</v>
       </c>
       <c r="SY2">
-        <v>1.033833711441021</v>
+        <v>1.046072676863072</v>
       </c>
       <c r="SZ2">
-        <v>1.033820011325376</v>
+        <v>1.046066204305785</v>
       </c>
       <c r="TA2">
-        <v>1.033791270080757</v>
+        <v>1.046090094018829</v>
       </c>
       <c r="TB2">
-        <v>1.034312947990219</v>
+        <v>1.046175950267097</v>
       </c>
       <c r="TC2">
-        <v>1.035264912773871</v>
+        <v>1.046384466379454</v>
       </c>
       <c r="TD2">
-        <v>1.034929502084772</v>
+        <v>1.046273385666509</v>
       </c>
       <c r="TE2">
-        <v>1.034875303727531</v>
+        <v>1.046288557885577</v>
       </c>
       <c r="TF2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="TG2">
-        <v>1.033795041476408</v>
+        <v>1.046063761804777</v>
       </c>
       <c r="TH2">
-        <v>1.033811437640478</v>
+        <v>1.046067541813138</v>
       </c>
       <c r="TI2">
-        <v>1.033811915645059</v>
+        <v>1.046062379538336</v>
       </c>
       <c r="TJ2">
-        <v>1.033789873713148</v>
+        <v>1.046089936864158</v>
       </c>
       <c r="TK2">
-        <v>1.034311956641571</v>
+        <v>1.046175595807207</v>
       </c>
       <c r="TL2">
-        <v>1.035245680728843</v>
+        <v>1.046378712844932</v>
       </c>
       <c r="TM2">
-        <v>1.034872467307062</v>
+        <v>1.046287852820254</v>
       </c>
       <c r="TN2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315972</v>
       </c>
       <c r="TO2">
-        <v>1.033772718087992</v>
+        <v>1.046058615318952</v>
       </c>
       <c r="TP2">
-        <v>1.033795041476408</v>
+        <v>1.046063761804777</v>
       </c>
       <c r="TQ2">
-        <v>1.033805501063645</v>
+        <v>1.046059348998374</v>
       </c>
       <c r="TR2">
-        <v>1.033788425140403</v>
+        <v>1.046089773834042</v>
       </c>
       <c r="TS2">
-        <v>1.03430877811414</v>
+        <v>1.04617445931452</v>
       </c>
       <c r="TT2">
-        <v>1.035234290469158</v>
+        <v>1.046361182581152</v>
       </c>
       <c r="TU2">
-        <v>1.035081847186388</v>
+        <v>1.046370713394416</v>
       </c>
       <c r="TV2">
-        <v>1.034870302163594</v>
+        <v>1.046287314618041</v>
       </c>
       <c r="TW2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315971</v>
       </c>
       <c r="TX2">
-        <v>1.033756920803711</v>
+        <v>1.04605497337501</v>
       </c>
       <c r="TY2">
-        <v>1.033772718087992</v>
+        <v>1.046058615318952</v>
       </c>
       <c r="TZ2">
-        <v>1.033802850510361</v>
+        <v>1.046058096756452</v>
       </c>
       <c r="UA2">
-        <v>1.033784052133176</v>
+        <v>1.046089281672436</v>
       </c>
       <c r="UB2">
-        <v>1.034283068557248</v>
+        <v>1.046165266779423</v>
       </c>
       <c r="UC2">
-        <v>1.035221713021364</v>
+        <v>1.046341825167379</v>
       </c>
       <c r="UD2">
-        <v>1.034868277195439</v>
+        <v>1.04628681125996</v>
       </c>
       <c r="UE2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315971</v>
       </c>
       <c r="UF2">
-        <v>1.033712743013935</v>
+        <v>1.0460447885152</v>
       </c>
       <c r="UG2">
-        <v>1.033756920803711</v>
+        <v>1.04605497337501</v>
       </c>
       <c r="UH2">
-        <v>1.033802850510359</v>
+        <v>1.046058096756453</v>
       </c>
       <c r="UI2">
-        <v>1.033791879649086</v>
+        <v>1.046052913622484</v>
       </c>
       <c r="UJ2">
-        <v>1.033779645192697</v>
+        <v>1.046088785691789</v>
       </c>
       <c r="UK2">
-        <v>1.034281788246605</v>
+        <v>1.046164809000195</v>
       </c>
       <c r="UL2">
-        <v>1.035187621038815</v>
+        <v>1.046289355653872</v>
       </c>
       <c r="UM2">
-        <v>1.034866117819679</v>
+        <v>1.046286274491343</v>
       </c>
       <c r="UN2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315971</v>
       </c>
       <c r="UO2">
-        <v>1.033680753982986</v>
+        <v>1.046037413677439</v>
       </c>
       <c r="UP2">
-        <v>1.033712743013935</v>
+        <v>1.0460447885152</v>
       </c>
       <c r="UQ2">
-        <v>1.033802850510358</v>
+        <v>1.046058096756453</v>
       </c>
       <c r="UR2">
-        <v>1.033783580130861</v>
+        <v>1.046048992552388</v>
       </c>
       <c r="US2">
-        <v>1.03373846843124</v>
+        <v>1.046084151438341</v>
       </c>
       <c r="UT2">
-        <v>1.03428077803682</v>
+        <v>1.046164447796405</v>
       </c>
       <c r="UU2">
-        <v>1.034864207035793</v>
+        <v>1.046285799516607</v>
       </c>
       <c r="UV2">
-        <v>1.035509929948383</v>
+        <v>1.046460672315971</v>
       </c>
       <c r="UW2">
-        <v>1.033676427611781</v>
+        <v>1.046036424250855</v>
       </c>
       <c r="UX2">
-        <v>1.033680753982986</v>
+        <v>1.046037413677439</v>
       </c>
       <c r="UY2">
-        <v>1.033637259748305</v>
+        <v>1.046027260919474</v>
       </c>
       <c r="UZ2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="VA2">
-        <v>1.03427963596723</v>
+        <v>1.046164039445711</v>
       </c>
       <c r="VB2">
-        <v>1.034862252643297</v>
+        <v>1.046285313701775</v>
       </c>
       <c r="VC2">
-        <v>1.033675403206584</v>
+        <v>1.04603618997281</v>
       </c>
       <c r="VD2">
-        <v>1.033676427611781</v>
+        <v>1.046036424250855</v>
       </c>
       <c r="VE2">
-        <v>1.033631761314452</v>
+        <v>1.046025977432721</v>
       </c>
       <c r="VF2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="VG2">
-        <v>1.034278619489145</v>
+        <v>1.046163676000667</v>
       </c>
       <c r="VH2">
-        <v>1.034852165468331</v>
+        <v>1.046282806272617</v>
       </c>
       <c r="VI2">
-        <v>1.033647631989242</v>
+        <v>1.04602983878644</v>
       </c>
       <c r="VJ2">
-        <v>1.033675403206584</v>
+        <v>1.04603618997281</v>
       </c>
       <c r="VK2">
-        <v>1.03367540320658</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="VL2">
-        <v>1.033627703835043</v>
+        <v>1.046025030304626</v>
       </c>
       <c r="VM2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="VN2">
-        <v>1.03427744952291</v>
+        <v>1.046163257675434</v>
       </c>
       <c r="VO2">
-        <v>1.034838812144607</v>
+        <v>1.04627356116661</v>
       </c>
       <c r="VP2">
-        <v>1.034830963230782</v>
+        <v>1.046277782434038</v>
       </c>
       <c r="VQ2">
-        <v>1.03362816953225</v>
+        <v>1.046025387784315</v>
       </c>
       <c r="VR2">
-        <v>1.033647631989242</v>
+        <v>1.04602983878644</v>
       </c>
       <c r="VS2">
-        <v>1.033675403206578</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="VT2">
-        <v>1.033623755876532</v>
+        <v>1.046024108741727</v>
       </c>
       <c r="VU2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="VV2">
-        <v>1.034276249909427</v>
+        <v>1.04616282874973</v>
       </c>
       <c r="VW2">
-        <v>1.034838042631095</v>
+        <v>1.046273028397824</v>
       </c>
       <c r="VX2">
-        <v>1.034729644652882</v>
+        <v>1.046253775071064</v>
       </c>
       <c r="VY2">
-        <v>1.033615379410447</v>
+        <v>1.046021072526614</v>
       </c>
       <c r="VZ2">
-        <v>1.033625060337864</v>
+        <v>1.046024841664296</v>
       </c>
       <c r="WA2">
-        <v>1.033675403206578</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="WB2">
-        <v>1.033586670162738</v>
+        <v>1.04601545190785</v>
       </c>
       <c r="WC2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="WD2">
-        <v>1.034274807978778</v>
+        <v>1.046162313182731</v>
       </c>
       <c r="WE2">
-        <v>1.034837656152892</v>
+        <v>1.046272760821594</v>
       </c>
       <c r="WF2">
-        <v>1.034677898197506</v>
+        <v>1.04622869947031</v>
       </c>
       <c r="WG2">
-        <v>1.034616759280238</v>
+        <v>1.046228573016862</v>
       </c>
       <c r="WH2">
-        <v>1.033603973380989</v>
+        <v>1.046017224246899</v>
       </c>
       <c r="WI2">
-        <v>1.033615379410447</v>
+        <v>1.046021072526614</v>
       </c>
       <c r="WJ2">
-        <v>1.033615379410447</v>
+        <v>1.046021072526614</v>
       </c>
       <c r="WK2">
-        <v>1.033486628764398</v>
+        <v>1.046000526572662</v>
       </c>
       <c r="WL2">
-        <v>1.033625060337864</v>
+        <v>1.046024841664296</v>
       </c>
       <c r="WM2">
-        <v>1.033675403206577</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="WN2">
-        <v>1.033569410141072</v>
+        <v>1.046011422939747</v>
       </c>
       <c r="WO2">
-        <v>1.033802850510357</v>
+        <v>1.046058096756454</v>
       </c>
       <c r="WP2">
-        <v>1.03427390399096</v>
+        <v>1.046161989958942</v>
       </c>
       <c r="WQ2">
-        <v>1.034837332069962</v>
+        <v>1.046272536444417</v>
       </c>
       <c r="WR2">
-        <v>1.03465059144868</v>
+        <v>1.046215467004316</v>
       </c>
       <c r="WS2">
-        <v>1.034508635827512</v>
+        <v>1.046204433935743</v>
       </c>
       <c r="WT2">
-        <v>1.033579090200313</v>
+        <v>1.046008828907276</v>
       </c>
       <c r="WU2">
-        <v>1.033603973380989</v>
+        <v>1.046017224246899</v>
       </c>
       <c r="WV2">
-        <v>1.033603973380989</v>
+        <v>1.046017224246899</v>
       </c>
       <c r="WW2">
-        <v>1.033454046172995</v>
+        <v>1.045994803535695</v>
       </c>
       <c r="WX2">
-        <v>1.033675403206576</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="WY2">
-        <v>1.033561309312762</v>
+        <v>1.046009531981479</v>
       </c>
       <c r="WZ2">
-        <v>1.034270018955337</v>
+        <v>1.046160600851788</v>
       </c>
       <c r="XA2">
-        <v>1.034837067791673</v>
+        <v>1.046272353472681</v>
       </c>
       <c r="XB2">
-        <v>1.034494466245961</v>
+        <v>1.046202307782599</v>
       </c>
       <c r="XC2">
-        <v>1.034480802031309</v>
+        <v>1.046198030444758</v>
       </c>
       <c r="XD2">
-        <v>1.03354519358894</v>
+        <v>1.045997392524088</v>
       </c>
       <c r="XE2">
-        <v>1.033675403206575</v>
+        <v>1.046036189972812</v>
       </c>
       <c r="XF2">
-        <v>1.033555905935339</v>
+        <v>1.046008270683113</v>
       </c>
       <c r="XG2">
-        <v>1.034253640107183</v>
+        <v>1.046154744541016</v>
       </c>
       <c r="XH2">
-        <v>1.034836652951971</v>
+        <v>1.046272066260511</v>
       </c>
       <c r="XI2">
-        <v>1.034490991825216</v>
+        <v>1.046201786443921</v>
       </c>
       <c r="XJ2">
-        <v>1.034474398330118</v>
+        <v>1.046196557196925</v>
       </c>
       <c r="XK2">
-        <v>1.033535251335266</v>
+        <v>1.045994038105298</v>
       </c>
       <c r="XL2">
-        <v>1.033675403206575</v>
+        <v>1.046036189972813</v>
       </c>
       <c r="XM2">
-        <v>1.03354764517764</v>
+        <v>1.046006342392772</v>
       </c>
       <c r="XN2">
-        <v>1.034835663742717</v>
+        <v>1.046271381386486</v>
       </c>
       <c r="XO2">
-        <v>1.034488606036656</v>
+        <v>1.046201428455076</v>
       </c>
       <c r="XP2">
-        <v>1.034471220507782</v>
+        <v>1.04619582610081</v>
       </c>
       <c r="XQ2">
-        <v>1.033502344331686</v>
+        <v>1.045982935604627</v>
       </c>
       <c r="XR2">
-        <v>1.033675403206575</v>
+        <v>1.046036189972813</v>
       </c>
       <c r="XS2">
-        <v>1.033531512016412</v>
+        <v>1.046002576464542</v>
       </c>
       <c r="XT2">
-        <v>1.034834979370103</v>
+        <v>1.046270907564566</v>
       </c>
       <c r="XU2">
-        <v>1.034485298817281</v>
+        <v>1.046200932205039</v>
       </c>
       <c r="XV2">
-        <v>1.034467728330178</v>
+        <v>1.046195022683357</v>
       </c>
       <c r="XW2">
-        <v>1.033675403206574</v>
+        <v>1.046036189972813</v>
       </c>
       <c r="XX2">
-        <v>1.033527052396907</v>
+        <v>1.046001535465354</v>
       </c>
       <c r="XY2">
-        <v>1.034834109194473</v>
+        <v>1.046270305102867</v>
       </c>
       <c r="XZ2">
-        <v>1.03447745641237</v>
+        <v>1.046199755447954</v>
       </c>
       <c r="YA2">
-        <v>1.034463698878186</v>
+        <v>1.046194095659286</v>
       </c>
       <c r="YB2">
-        <v>1.033675403206574</v>
+        <v>1.046036189972813</v>
       </c>
       <c r="YC2">
-        <v>1.033525757697866</v>
+        <v>1.046001233246596</v>
       </c>
       <c r="YD2">
-        <v>1.034833580570187</v>
+        <v>1.046269939112514</v>
       </c>
       <c r="YE2">
-        <v>1.034471494892915</v>
+        <v>1.046198860918717</v>
       </c>
       <c r="YF2">
-        <v>1.034459625377624</v>
+        <v>1.046193158501109</v>
       </c>
       <c r="YG2">
-        <v>1.033675403206573</v>
+        <v>1.046036189972814</v>
       </c>
       <c r="YH2">
-        <v>1.033525196144417</v>
+        <v>1.046001103782936</v>
       </c>
       <c r="YI2">
-        <v>1.033522774922472</v>
+        <v>1.046000528386769</v>
       </c>
       <c r="YJ2">
-        <v>1.034833103335201</v>
+        <v>1.046269608701283</v>
       </c>
       <c r="YK2">
-        <v>1.03446730999697</v>
+        <v>1.046198232972788</v>
       </c>
       <c r="YL2">
-        <v>1.034455109377225</v>
+        <v>1.046192119540245</v>
       </c>
       <c r="YM2">
-        <v>1.033675403206573</v>
+        <v>1.046036189972814</v>
       </c>
       <c r="YN2">
-        <v>1.033524670578121</v>
+        <v>1.046000982615956</v>
       </c>
       <c r="YO2">
-        <v>1.033518838954492</v>
+        <v>1.045999598277932</v>
       </c>
       <c r="YP2">
-        <v>1.034832298461528</v>
+        <v>1.046269051451061</v>
       </c>
       <c r="YQ2">
-        <v>1.0344629259525</v>
+        <v>1.046197575144501</v>
       </c>
       <c r="YR2">
-        <v>1.034448542169037</v>
+        <v>1.046190608673618</v>
       </c>
       <c r="YS2">
-        <v>1.033675403206572</v>
+        <v>1.046036189972814</v>
       </c>
       <c r="YT2">
-        <v>1.033524129177021</v>
+        <v>1.04600085779833</v>
       </c>
       <c r="YU2">
-        <v>1.03350248712373</v>
+        <v>1.045995734175623</v>
       </c>
       <c r="YV2">
-        <v>1.034831507161837</v>
+        <v>1.046268503598717</v>
       </c>
       <c r="YW2">
-        <v>1.034459326608722</v>
+        <v>1.046197035060974</v>
       </c>
       <c r="YX2">
-        <v>1.034438712468737</v>
+        <v>1.046188607274829</v>
       </c>
       <c r="YY2">
-        <v>1.034434445204117</v>
+        <v>1.046187260747773</v>
       </c>
       <c r="YZ2">
-        <v>1.033675403206572</v>
+        <v>1.046036189972814</v>
       </c>
       <c r="ZA2">
-        <v>1.033520214725496</v>
+        <v>1.045999955338867</v>
       </c>
       <c r="ZB2">
-        <v>1.033495542893967</v>
+        <v>1.045994093184103</v>
       </c>
       <c r="ZC2">
-        <v>1.034831132761959</v>
+        <v>1.046268244384853</v>
       </c>
       <c r="ZD2">
-        <v>1.034453367086385</v>
+        <v>1.046196140831326</v>
       </c>
       <c r="ZE2">
-        <v>1.034432809734598</v>
+        <v>1.046187405434995</v>
       </c>
       <c r="ZF2">
-        <v>1.034345180316516</v>
+        <v>1.046166060933864</v>
       </c>
       <c r="ZG2">
-        <v>1.033675403206572</v>
+        <v>1.046036189972814</v>
       </c>
       <c r="ZH2">
-        <v>1.033491709257363</v>
+        <v>1.045993383528965</v>
       </c>
       <c r="ZI2">
-        <v>1.034830721534483</v>
+        <v>1.046267959673587</v>
       </c>
       <c r="ZJ2">
-        <v>1.03443410767754</v>
+        <v>1.046193250946123</v>
       </c>
       <c r="ZK2">
-        <v>1.034427334094551</v>
+        <v>1.046186290554612</v>
       </c>
       <c r="ZL2">
-        <v>1.034281285037497</v>
+        <v>1.046150886171495</v>
       </c>
       <c r="ZM2">
-        <v>1.034830326844149</v>
+        <v>1.046267686411727</v>
       </c>
       <c r="ZN2">
-        <v>1.03438910569095</v>
+        <v>1.046186498371506</v>
       </c>
       <c r="ZO2">
-        <v>1.034421991332299</v>
+        <v>1.046185202729095</v>
       </c>
       <c r="ZP2">
-        <v>1.034186989517809</v>
+        <v>1.046140276345558</v>
       </c>
       <c r="ZQ2">
-        <v>1.034127505557987</v>
+        <v>1.046110735512306</v>
       </c>
       <c r="ZR2">
-        <v>1.034829850850886</v>
+        <v>1.046267356860195</v>
       </c>
       <c r="ZS2">
-        <v>1.034417983902592</v>
+        <v>1.046184386787044</v>
       </c>
       <c r="ZT2">
-        <v>1.03418483901386</v>
+        <v>1.046140276345566</v>
       </c>
       <c r="ZU2">
-        <v>1.034168377563173</v>
+        <v>1.04613750667878</v>
       </c>
       <c r="ZV2">
-        <v>1.034073950639435</v>
+        <v>1.046098383230206</v>
       </c>
       <c r="ZW2">
-        <v>1.034098447071321</v>
+        <v>1.046103058764664</v>
       </c>
       <c r="ZX2">
-        <v>1.034829091581343</v>
+        <v>1.04626683118376</v>
       </c>
       <c r="ZY2">
-        <v>1.034411617836856</v>
+        <v>1.046183090609386</v>
       </c>
       <c r="ZZ2">
-        <v>1.03418416610779</v>
+        <v>1.046140276345568</v>
       </c>
       <c r="AAA2">
-        <v>1.034130462092018</v>
+        <v>1.04613186443232</v>
       </c>
       <c r="AAB2">
-        <v>1.034042924863361</v>
+        <v>1.046091227226246</v>
       </c>
       <c r="AAC2">
-        <v>1.034043956832029</v>
+        <v>1.046088663273278</v>
       </c>
       <c r="AAD2">
-        <v>1.034827013545023</v>
+        <v>1.046265392465802</v>
       </c>
       <c r="AAE2">
-        <v>1.034400884403539</v>
+        <v>1.046180905203583</v>
       </c>
       <c r="AAF2">
-        <v>1.034183733448673</v>
+        <v>1.04614027634557</v>
       </c>
       <c r="AAG2">
-        <v>1.033900221025888</v>
+        <v>1.046050690393648</v>
       </c>
       <c r="AAH2">
-        <v>1.03404395683203</v>
+        <v>1.046088663273278</v>
       </c>
       <c r="AAI2">
-        <v>1.034824248060142</v>
+        <v>1.046263477796293</v>
       </c>
       <c r="AAJ2">
-        <v>1.034320459427976</v>
+        <v>1.046164530084903</v>
       </c>
       <c r="AAK2">
-        <v>1.034183472480847</v>
+        <v>1.046140276345571</v>
       </c>
       <c r="AAL2">
-        <v>1.03379190978678</v>
+        <v>1.046016054316631</v>
       </c>
       <c r="AAM2">
-        <v>1.033820252090681</v>
+        <v>1.046037327420495</v>
       </c>
       <c r="AAN2">
-        <v>1.034043956832031</v>
+        <v>1.046088663273279</v>
       </c>
       <c r="AAO2">
-        <v>1.034823984656702</v>
+        <v>1.04626329543025</v>
       </c>
       <c r="AAP2">
-        <v>1.034254481128132</v>
+        <v>1.046151096411599</v>
       </c>
       <c r="AAQ2">
-        <v>1.034183208717472</v>
+        <v>1.046140276345572</v>
       </c>
       <c r="AAR2">
-        <v>1.033680121052363</v>
+        <v>1.04598030612987</v>
       </c>
       <c r="AAS2">
-        <v>1.033811691231831</v>
+        <v>1.046035896883117</v>
       </c>
       <c r="AAT2">
-        <v>1.034043956832031</v>
+        <v>1.046088663273279</v>
       </c>
       <c r="AAU2">
-        <v>1.034823776342283</v>
+        <v>1.046263151204812</v>
       </c>
       <c r="AAV2">
-        <v>1.03423357691511</v>
+        <v>1.046146840157284</v>
       </c>
       <c r="AAW2">
-        <v>1.034182973121284</v>
+        <v>1.046140276345573</v>
       </c>
       <c r="AAX2">
-        <v>1.033640836622936</v>
+        <v>1.045968873321611</v>
       </c>
       <c r="AAY2">
-        <v>1.03362598084673</v>
+        <v>1.045955034310485</v>
       </c>
       <c r="AAZ2">
-        <v>1.033808422577474</v>
+        <v>1.046035350684138</v>
       </c>
       <c r="ABA2">
-        <v>1.034043956832032</v>
+        <v>1.046088663273279</v>
       </c>
       <c r="ABB2">
-        <v>1.034823574019055</v>
+        <v>1.046263011127344</v>
       </c>
       <c r="ABC2">
-        <v>1.034214546302251</v>
+        <v>1.046142965381643</v>
       </c>
       <c r="ABD2">
-        <v>1.034182707686232</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ABE2">
-        <v>1.03358745526096</v>
+        <v>1.045953337920382</v>
       </c>
       <c r="ABF2">
-        <v>1.033618718328397</v>
+        <v>1.045951644277761</v>
       </c>
       <c r="ABG2">
-        <v>1.033804964988163</v>
+        <v>1.046034772913724</v>
       </c>
       <c r="ABH2">
-        <v>1.034043956832033</v>
+        <v>1.046088663273278</v>
       </c>
       <c r="ABI2">
-        <v>1.034823357309069</v>
+        <v>1.046262861089277</v>
       </c>
       <c r="ABJ2">
-        <v>1.034204181212823</v>
+        <v>1.046140854971484</v>
       </c>
       <c r="ABK2">
-        <v>1.034182495019107</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ABL2">
-        <v>1.033524956533159</v>
+        <v>1.045935149103798</v>
       </c>
       <c r="ABM2">
-        <v>1.033614902769846</v>
+        <v>1.045949863233229</v>
       </c>
       <c r="ABN2">
-        <v>1.033802095489103</v>
+        <v>1.046034293414415</v>
       </c>
       <c r="ABO2">
-        <v>1.034043956832033</v>
+        <v>1.046088663273278</v>
       </c>
       <c r="ABP2">
-        <v>1.034823156944323</v>
+        <v>1.046262722367754</v>
       </c>
       <c r="ABQ2">
-        <v>1.03419590306467</v>
+        <v>1.046139169478193</v>
       </c>
       <c r="ABR2">
-        <v>1.034182239924738</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ABS2">
-        <v>1.033474772636598</v>
+        <v>1.045920544221</v>
       </c>
       <c r="ABT2">
-        <v>1.0336040755829</v>
+        <v>1.045944870163784</v>
       </c>
       <c r="ABU2">
-        <v>1.033614549403952</v>
+        <v>1.045949696299943</v>
       </c>
       <c r="ABV2">
-        <v>1.033798697296802</v>
+        <v>1.046033725569348</v>
       </c>
       <c r="ABW2">
-        <v>1.034043956832034</v>
+        <v>1.046088663273277</v>
       </c>
       <c r="ABX2">
-        <v>1.034822968121729</v>
+        <v>1.046262591637382</v>
       </c>
       <c r="ABY2">
-        <v>1.034188844158107</v>
+        <v>1.04613773223162</v>
       </c>
       <c r="ABZ2">
-        <v>1.034181965030044</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ACA2">
-        <v>1.033467522864047</v>
+        <v>1.045918442501283</v>
       </c>
       <c r="ACB2">
-        <v>1.033367636877107</v>
+        <v>1.045889287925844</v>
       </c>
       <c r="ACC2">
-        <v>1.033595274421476</v>
+        <v>1.045940811416878</v>
       </c>
       <c r="ACD2">
-        <v>1.033614293869622</v>
+        <v>1.045949575583184</v>
       </c>
       <c r="ACE2">
-        <v>1.033795383233338</v>
+        <v>1.046033171782377</v>
       </c>
       <c r="ACF2">
-        <v>1.034043956832034</v>
+        <v>1.046088663273276</v>
       </c>
       <c r="ACG2">
-        <v>1.034822705505631</v>
+        <v>1.046262409816449</v>
       </c>
       <c r="ACH2">
-        <v>1.034180560482107</v>
+        <v>1.046136045612701</v>
       </c>
       <c r="ACI2">
-        <v>1.034181463499013</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ACJ2">
-        <v>1.033457527536888</v>
+        <v>1.04591554484081</v>
       </c>
       <c r="ACK2">
-        <v>1.033278085484134</v>
+        <v>1.045863161766927</v>
       </c>
       <c r="ACL2">
-        <v>1.03361407822143</v>
+        <v>1.045949473709003</v>
       </c>
       <c r="ACM2">
-        <v>1.033790827105789</v>
+        <v>1.046032410443873</v>
       </c>
       <c r="ACN2">
-        <v>1.034043956832035</v>
+        <v>1.046088663273275</v>
       </c>
       <c r="ACO2">
-        <v>1.034822383680356</v>
+        <v>1.046262187002341</v>
       </c>
       <c r="ACP2">
-        <v>1.034172991357756</v>
+        <v>1.046134504481832</v>
       </c>
       <c r="ACQ2">
-        <v>1.034177711264139</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ACR2">
-        <v>1.033432938732046</v>
+        <v>1.045908416506896</v>
       </c>
       <c r="ACS2">
-        <v>1.03323330578678</v>
+        <v>1.045853543338795</v>
       </c>
       <c r="ACT2">
-        <v>1.033277348497587</v>
+        <v>1.045862821982919</v>
       </c>
       <c r="ACU2">
-        <v>1.03361371396669</v>
+        <v>1.045949301631726</v>
       </c>
       <c r="ACV2">
-        <v>1.033784559414929</v>
+        <v>1.04603136309951</v>
       </c>
       <c r="ACW2">
-        <v>1.034043956832035</v>
+        <v>1.046088663273275</v>
       </c>
       <c r="ACX2">
-        <v>1.03482085831205</v>
+        <v>1.046261130921275</v>
       </c>
       <c r="ACY2">
-        <v>1.034161248764294</v>
+        <v>1.046132113601036</v>
       </c>
       <c r="ACZ2">
-        <v>1.034166212562451</v>
+        <v>1.046140276345574</v>
       </c>
       <c r="ADA2">
-        <v>1.033413009161122</v>
+        <v>1.045902638890093</v>
       </c>
       <c r="ADB2">
-        <v>1.033189426495877</v>
+        <v>1.045844118311062</v>
       </c>
       <c r="ADC2">
-        <v>1.033276643843908</v>
+        <v>1.04586249710582</v>
       </c>
       <c r="ADD2">
-        <v>1.033613203871045</v>
+        <v>1.045949060657871</v>
       </c>
       <c r="ADE2">
-        <v>1.033777926423516</v>
+        <v>1.046030254712621</v>
       </c>
       <c r="ADF2">
-        <v>1.034043956832035</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="ADG2">
-        <v>1.03480781597969</v>
+        <v>1.046252101128022</v>
       </c>
       <c r="ADH2">
-        <v>1.034137541638665</v>
+        <v>1.046127286650659</v>
       </c>
       <c r="ADI2">
-        <v>1.033397436783506</v>
+        <v>1.045898124429693</v>
       </c>
       <c r="ADJ2">
-        <v>1.033275884190432</v>
+        <v>1.045862146871334</v>
       </c>
       <c r="ADK2">
-        <v>1.033612825368141</v>
+        <v>1.045948881849631</v>
       </c>
       <c r="ADL2">
-        <v>1.033773520309019</v>
+        <v>1.046029518441553</v>
       </c>
       <c r="ADM2">
-        <v>1.034043956832036</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="ADN2">
-        <v>1.034132462389193</v>
+        <v>1.046126385480689</v>
       </c>
       <c r="ADO2">
-        <v>1.034125604232918</v>
+        <v>1.046124063188213</v>
       </c>
       <c r="ADP2">
-        <v>1.033383362369182</v>
+        <v>1.045894044230491</v>
       </c>
       <c r="ADQ2">
-        <v>1.033275205877916</v>
+        <v>1.045861834138696</v>
       </c>
       <c r="ADR2">
-        <v>1.033612198362324</v>
+        <v>1.045948585646339</v>
       </c>
       <c r="ADS2">
-        <v>1.03376903594485</v>
+        <v>1.046028769094783</v>
       </c>
       <c r="ADT2">
-        <v>1.034043956832036</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="ADU2">
-        <v>1.034128032804546</v>
+        <v>1.046125599575453</v>
       </c>
       <c r="ADV2">
-        <v>1.034106502649019</v>
+        <v>1.046118905179545</v>
       </c>
       <c r="ADW2">
-        <v>1.033382781472689</v>
+        <v>1.045893639124653</v>
       </c>
       <c r="ADX2">
-        <v>1.033376540483935</v>
+        <v>1.045892970376637</v>
       </c>
       <c r="ADY2">
-        <v>1.033274456794781</v>
+        <v>1.045861488777613</v>
       </c>
       <c r="ADZ2">
-        <v>1.033607846303088</v>
+        <v>1.045946529693667</v>
       </c>
       <c r="AEA2">
-        <v>1.03376689177777</v>
+        <v>1.046028410799908</v>
       </c>
       <c r="AEB2">
-        <v>1.034043956832036</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="AEC2">
-        <v>1.034124369336447</v>
+        <v>1.046124949596043</v>
       </c>
       <c r="AED2">
-        <v>1.034090182216566</v>
+        <v>1.046114498166038</v>
       </c>
       <c r="AEE2">
-        <v>1.033382199050106</v>
+        <v>1.045893232954549</v>
       </c>
       <c r="AEF2">
-        <v>1.033365640820777</v>
+        <v>1.045891254624867</v>
       </c>
       <c r="AEG2">
-        <v>1.033376540483935</v>
+        <v>1.045892970376637</v>
       </c>
       <c r="AEH2">
-        <v>1.033273973836268</v>
+        <v>1.045861266111973</v>
       </c>
       <c r="AEI2">
-        <v>1.033598233141126</v>
+        <v>1.045941988347752</v>
       </c>
       <c r="AEJ2">
-        <v>1.033763481220204</v>
+        <v>1.046027840888484</v>
       </c>
       <c r="AEK2">
-        <v>1.034043956832036</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="AEL2">
-        <v>1.034121520445734</v>
+        <v>1.04612444414048</v>
       </c>
       <c r="AEM2">
-        <v>1.034080945492281</v>
+        <v>1.046112003969211</v>
       </c>
       <c r="AEN2">
-        <v>1.033381615497092</v>
+        <v>1.045892825996105</v>
       </c>
       <c r="AEO2">
-        <v>1.033356501822674</v>
+        <v>1.045889816024864</v>
       </c>
       <c r="AEP2">
-        <v>1.033365640820777</v>
+        <v>1.045891254624867</v>
       </c>
       <c r="AEQ2">
-        <v>1.033273232044988</v>
+        <v>1.045860924112763</v>
       </c>
       <c r="AER2">
-        <v>1.033760279464181</v>
+        <v>1.046027305868234</v>
       </c>
       <c r="AES2">
-        <v>1.034043956832037</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="AET2">
-        <v>1.03411862294759</v>
+        <v>1.046123930060888</v>
       </c>
       <c r="AEU2">
-        <v>1.03338103547668</v>
+        <v>1.045892421501228</v>
       </c>
       <c r="AEV2">
-        <v>1.033346677632588</v>
+        <v>1.045888269566214</v>
       </c>
       <c r="AEW2">
-        <v>1.033356501822674</v>
+        <v>1.045889816024864</v>
       </c>
       <c r="AEX2">
-        <v>1.03326713062419</v>
+        <v>1.045858111082773</v>
       </c>
       <c r="AEY2">
-        <v>1.033755704687294</v>
+        <v>1.046026541413259</v>
       </c>
       <c r="AEZ2">
-        <v>1.034043956832037</v>
+        <v>1.046088663273274</v>
       </c>
       <c r="AFA2">
-        <v>1.034116108434398</v>
+        <v>1.046123483931203</v>
       </c>
       <c r="AFB2">
-        <v>1.033380453251911</v>
+        <v>1.045892015469076</v>
       </c>
       <c r="AFC2">
-        <v>1.033338611625318</v>
+        <v>1.045886999868769</v>
       </c>
       <c r="AFD2">
-        <v>1.033346677632588</v>
+        <v>1.045888269566214</v>
       </c>
       <c r="AFE2">
-        <v>1.033246102372408</v>
+        <v>1.045848416110515</v>
       </c>
       <c r="AFF2">
-        <v>1.033707414816927</v>
+        <v>1.046018472071919</v>
       </c>
       <c r="AFG2">
-        <v>1.034114302472712</v>
+        <v>1.046123163514063</v>
       </c>
       <c r="AFH2">
-        <v>1.033379871422804</v>
+        <v>1.04589160971285</v>
       </c>
       <c r="AFI2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708695</v>
       </c>
       <c r="AFJ2">
-        <v>1.033338611625318</v>
+        <v>1.045886999868769</v>
       </c>
       <c r="AFK2">
-        <v>1.033688100089273</v>
+        <v>1.046015244538815</v>
       </c>
       <c r="AFL2">
-        <v>1.034112205747902</v>
+        <v>1.046122791509176</v>
       </c>
       <c r="AFM2">
-        <v>1.033379289226333</v>
+        <v>1.045891203700431</v>
       </c>
       <c r="AFN2">
-        <v>1.033284262385832</v>
+        <v>1.045878444561914</v>
       </c>
       <c r="AFO2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708693</v>
       </c>
       <c r="AFP2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708695</v>
       </c>
       <c r="AFQ2">
-        <v>1.033678292105434</v>
+        <v>1.046013605603219</v>
       </c>
       <c r="AFR2">
-        <v>1.034109047003811</v>
+        <v>1.04612223107881</v>
       </c>
       <c r="AFS2">
-        <v>1.033379005037808</v>
+        <v>1.045891005512918</v>
       </c>
       <c r="AFT2">
-        <v>1.033277577880043</v>
+        <v>1.045877392329823</v>
       </c>
       <c r="AFU2">
-        <v>1.033329951879478</v>
+        <v>1.04588563670869</v>
       </c>
       <c r="AFV2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708693</v>
       </c>
       <c r="AFW2">
-        <v>1.033676121788654</v>
+        <v>1.046013242938518</v>
       </c>
       <c r="AFX2">
-        <v>1.034103886253199</v>
+        <v>1.046121315448633</v>
       </c>
       <c r="AFY2">
-        <v>1.033372617860923</v>
+        <v>1.045886551220796</v>
       </c>
       <c r="AFZ2">
-        <v>1.033258746120079</v>
+        <v>1.045874427954631</v>
       </c>
       <c r="AGA2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708686</v>
       </c>
       <c r="AGB2">
-        <v>1.033329951879478</v>
+        <v>1.04588563670869</v>
       </c>
       <c r="AGC2">
-        <v>1.033674412557792</v>
+        <v>1.046012957322284</v>
       </c>
       <c r="AGD2">
-        <v>1.034070438275452</v>
+        <v>1.046113968104764</v>
       </c>
       <c r="AGE2">
-        <v>1.034082680431184</v>
+        <v>1.046121315448633</v>
       </c>
       <c r="AGF2">
-        <v>1.033368464401658</v>
+        <v>1.045883654679588</v>
       </c>
       <c r="AGG2">
-        <v>1.033236632911544</v>
+        <v>1.045870947034531</v>
       </c>
       <c r="AGH2">
-        <v>1.033329951879477</v>
+        <v>1.045885636708685</v>
       </c>
       <c r="AGI2">
-        <v>1.033329951879478</v>
+        <v>1.045885636708686</v>
       </c>
       <c r="AGJ2">
-        <v>1.033672581228863</v>
+        <v>1.046012651303192</v>
       </c>
       <c r="AGK2">
-        <v>1.033364831785204</v>
+        <v>1.045881121363945</v>
       </c>
       <c r="AGL2">
-        <v>1.03323376435102</v>
+        <v>1.045870495484027</v>
       </c>
       <c r="AGM2">
-        <v>1.033329951879477</v>
+        <v>1.045885636708684</v>
       </c>
       <c r="AGN2">
-        <v>1.033329951879477</v>
+        <v>1.045885636708685</v>
       </c>
       <c r="AGO2">
-        <v>1.033671116031953</v>
+        <v>1.046012406465563</v>
       </c>
       <c r="AGP2">
-        <v>1.033361021409672</v>
+        <v>1.045878464082583</v>
       </c>
       <c r="AGQ2">
-        <v>1.033230158746845</v>
+        <v>1.045869927912805</v>
       </c>
       <c r="AGR2">
-        <v>1.03323376435102</v>
+        <v>1.045870495484027</v>
       </c>
       <c r="AGS2">
-        <v>1.033329951879476</v>
+        <v>1.045885636708684</v>
       </c>
       <c r="AGT2">
-        <v>1.033329951879477</v>
+        <v>1.045885636708684</v>
       </c>
       <c r="AGU2">
-        <v>1.033669693385859</v>
+        <v>1.046012168738269</v>
       </c>
       <c r="AGV2">
-        <v>1.033354515256436</v>
+        <v>1.04587392681854</v>
       </c>
       <c r="AGW2">
-        <v>1.033226822384982</v>
+        <v>1.045869402723985</v>
       </c>
       <c r="AGX2">
-        <v>1.03323376435102</v>
+        <v>1.045870495484027</v>
       </c>
       <c r="AGY2">
-        <v>1.033329951879476</v>
+        <v>1.045885636708684</v>
       </c>
       <c r="AGZ2">
-        <v>1.033329951879476</v>
+        <v>1.045885636708684</v>
       </c>
       <c r="AHA2">
-        <v>1.033668274348167</v>
+        <v>1.046011931613944</v>
       </c>
       <c r="AHB2">
-        <v>1.033352919437395</v>
+        <v>1.045872813925538</v>
       </c>
       <c r="AHC2">
-        <v>1.033221749154269</v>
+        <v>1.045868604128327</v>
       </c>
       <c r="AHD2">
-        <v>1.03323376435102</v>
+        <v>1.045870495484027</v>
       </c>
       <c r="AHE2">
-        <v>1.033666871913299</v>
+        <v>1.046011697263986</v>
       </c>
       <c r="AHF2">
-        <v>1.033352919437394</v>
+        <v>1.045872002226518</v>
       </c>
       <c r="AHG2">
-        <v>1.033346184513098</v>
+        <v>1.045871222447578</v>
       </c>
       <c r="AHH2">
-        <v>1.033215337977839</v>
+        <v>1.045867594921757</v>
       </c>
       <c r="AHI2">
-        <v>1.033641793465828</v>
+        <v>1.04600750659987</v>
       </c>
       <c r="AHJ2">
-        <v>1.033352919437391</v>
+        <v>1.045870669483296</v>
       </c>
       <c r="AHK2">
-        <v>1.033340472391626</v>
+        <v>1.045869872660187</v>
       </c>
       <c r="AHL2">
-        <v>1.033190379393859</v>
+        <v>1.045863666100162</v>
       </c>
       <c r="AHM2">
-        <v>1.033624924985669</v>
+        <v>1.045991569302827</v>
       </c>
       <c r="AHN2">
-        <v>1.033585170182136</v>
+        <v>1.046005383796222</v>
       </c>
       <c r="AHO2">
-        <v>1.033352919437391</v>
+        <v>1.045870405970715</v>
       </c>
       <c r="AHP2">
-        <v>1.033330871489164</v>
+        <v>1.045867603944793</v>
       </c>
       <c r="AHQ2">
-        <v>1.033145040493569</v>
+        <v>1.045856529137821</v>
       </c>
       <c r="AHR2">
-        <v>1.033613722386664</v>
+        <v>1.045980985115796</v>
       </c>
       <c r="AHS2">
-        <v>1.033352919437391</v>
+        <v>1.045870183308259</v>
       </c>
       <c r="AHT2">
-        <v>1.033352919437391</v>
+        <v>1.045869995671349</v>
       </c>
       <c r="AHU2">
-        <v>1.033352919437391</v>
+        <v>1.045869751587017</v>
       </c>
       <c r="AHV2">
-        <v>1.03335291943739</v>
+        <v>1.045869309832394</v>
       </c>
       <c r="AHW2">
-        <v>1.03335291943739</v>
+        <v>1.04586854390899</v>
       </c>
       <c r="AHX2">
-        <v>1.03335291943739</v>
+        <v>1.045862270190801</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049639121811306</v>
+        <v>1.04986363769282</v>
       </c>
       <c r="D3">
-        <v>1.049443032431784</v>
+        <v>1.049787761521936</v>
       </c>
       <c r="E3">
-        <v>1.049422475244296</v>
+        <v>1.049779806970463</v>
       </c>
       <c r="F3">
-        <v>1.0494032163954</v>
+        <v>1.04977235480571</v>
       </c>
       <c r="G3">
-        <v>1.049386425450859</v>
+        <v>1.049765857588888</v>
       </c>
       <c r="H3">
-        <v>1.04935997313229</v>
+        <v>1.049755621922787</v>
       </c>
       <c r="I3">
-        <v>1.047558728846544</v>
+        <v>1.049058625391342</v>
       </c>
       <c r="J3">
-        <v>1.047478055640072</v>
+        <v>1.049027408249569</v>
       </c>
       <c r="K3">
-        <v>1.047410909932423</v>
+        <v>1.049001425654134</v>
       </c>
       <c r="L3">
-        <v>1.047351984304954</v>
+        <v>1.048978623867234</v>
       </c>
       <c r="M3">
-        <v>1.047308014699688</v>
+        <v>1.048961609431429</v>
       </c>
       <c r="N3">
-        <v>1.047266738100697</v>
+        <v>1.048945637068996</v>
       </c>
       <c r="O3">
-        <v>1.047241356781049</v>
+        <v>1.048935815527509</v>
       </c>
       <c r="P3">
-        <v>1.047178168733997</v>
+        <v>1.048911364300115</v>
       </c>
       <c r="Q3">
-        <v>1.046666296176464</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="R3">
-        <v>1.046666296176463</v>
+        <v>1.048713289437212</v>
       </c>
       <c r="S3">
-        <v>1.046045571482496</v>
+        <v>1.048473091063582</v>
       </c>
       <c r="T3">
-        <v>1.046666296176463</v>
+        <v>1.048713289437212</v>
       </c>
       <c r="U3">
-        <v>1.046002862171775</v>
+        <v>1.048456564001122</v>
       </c>
       <c r="V3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437212</v>
       </c>
       <c r="W3">
-        <v>1.045954904652155</v>
+        <v>1.048438006046784</v>
       </c>
       <c r="X3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="Y3">
-        <v>1.045876820222438</v>
+        <v>1.048407789959628</v>
       </c>
       <c r="Z3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AA3">
-        <v>1.045734766109891</v>
+        <v>1.048352819637774</v>
       </c>
       <c r="AB3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AC3">
-        <v>1.045550030906471</v>
+        <v>1.048329598924775</v>
       </c>
       <c r="AD3">
-        <v>1.044075638609651</v>
+        <v>1.047679182485306</v>
       </c>
       <c r="AE3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AF3">
-        <v>1.045526406099433</v>
+        <v>1.048325370074712</v>
       </c>
       <c r="AG3">
-        <v>1.045523471150936</v>
+        <v>1.048327487345873</v>
       </c>
       <c r="AH3">
-        <v>1.043633963460057</v>
+        <v>1.047499851391399</v>
       </c>
       <c r="AI3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AJ3">
-        <v>1.045472303634841</v>
+        <v>1.048315685709825</v>
       </c>
       <c r="AK3">
-        <v>1.045522571702592</v>
+        <v>1.048327415837071</v>
       </c>
       <c r="AL3">
-        <v>1.043551830239148</v>
+        <v>1.047458127789437</v>
       </c>
       <c r="AM3">
-        <v>1.042343115005968</v>
+        <v>1.046980279998542</v>
       </c>
       <c r="AN3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AO3">
-        <v>1.045521278458552</v>
+        <v>1.048327313020348</v>
       </c>
       <c r="AP3">
-        <v>1.043547240085033</v>
+        <v>1.04745625403594</v>
       </c>
       <c r="AQ3">
-        <v>1.043546649020685</v>
+        <v>1.047453427543383</v>
       </c>
       <c r="AR3">
-        <v>1.041447375324014</v>
+        <v>1.046619735811598</v>
       </c>
       <c r="AS3">
-        <v>1.042343115005965</v>
+        <v>1.046980279998542</v>
       </c>
       <c r="AT3">
-        <v>1.046666296176462</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="AU3">
-        <v>1.045519619961357</v>
+        <v>1.048327181164918</v>
       </c>
       <c r="AV3">
-        <v>1.043545171165257</v>
+        <v>1.047455409479175</v>
       </c>
       <c r="AW3">
-        <v>1.043534182028464</v>
+        <v>1.047442117861753</v>
       </c>
       <c r="AX3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164568</v>
       </c>
       <c r="AY3">
-        <v>1.042343115005964</v>
+        <v>1.046980279998542</v>
       </c>
       <c r="AZ3">
-        <v>1.046666296176461</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="BA3">
-        <v>1.045515580773749</v>
+        <v>1.048326860037558</v>
       </c>
       <c r="BB3">
-        <v>1.04354297855322</v>
+        <v>1.047454514429806</v>
       </c>
       <c r="BC3">
-        <v>1.040672927554633</v>
+        <v>1.046308009138915</v>
       </c>
       <c r="BD3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164567</v>
       </c>
       <c r="BE3">
-        <v>1.042343115005963</v>
+        <v>1.046980279998542</v>
       </c>
       <c r="BF3">
-        <v>1.046666296176461</v>
+        <v>1.048713289437213</v>
       </c>
       <c r="BG3">
-        <v>1.045512122491765</v>
+        <v>1.048326585093907</v>
       </c>
       <c r="BH3">
-        <v>1.043540890242019</v>
+        <v>1.047453661957227</v>
       </c>
       <c r="BI3">
-        <v>1.040230880029528</v>
+        <v>1.046130076936655</v>
       </c>
       <c r="BJ3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164567</v>
       </c>
       <c r="BK3">
-        <v>1.042343115005961</v>
+        <v>1.046980279998541</v>
       </c>
       <c r="BL3">
-        <v>1.04666629617646</v>
+        <v>1.048713289437212</v>
       </c>
       <c r="BM3">
-        <v>1.045495544728842</v>
+        <v>1.048325267112635</v>
       </c>
       <c r="BN3">
-        <v>1.043539639550175</v>
+        <v>1.047453151410472</v>
       </c>
       <c r="BO3">
-        <v>1.040144131589076</v>
+        <v>1.046096501055326</v>
       </c>
       <c r="BP3">
-        <v>1.040112044975083</v>
+        <v>1.046031090689345</v>
       </c>
       <c r="BQ3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164566</v>
       </c>
       <c r="BR3">
-        <v>1.04234311500596</v>
+        <v>1.046980279998541</v>
       </c>
       <c r="BS3">
-        <v>1.04666629617646</v>
+        <v>1.048713289437212</v>
       </c>
       <c r="BT3">
-        <v>1.045436948032235</v>
+        <v>1.048320608500728</v>
       </c>
       <c r="BU3">
-        <v>1.043537185784625</v>
+        <v>1.047452149755226</v>
       </c>
       <c r="BV3">
-        <v>1.039119244057364</v>
+        <v>1.045699816317179</v>
       </c>
       <c r="BW3">
-        <v>1.04006557607697</v>
+        <v>1.046009528412776</v>
       </c>
       <c r="BX3">
-        <v>1.04010042814788</v>
+        <v>1.046004269190826</v>
       </c>
       <c r="BY3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164566</v>
       </c>
       <c r="BZ3">
-        <v>1.042343115005958</v>
+        <v>1.046980279998539</v>
       </c>
       <c r="CA3">
-        <v>1.046666296176459</v>
+        <v>1.048713289437209</v>
       </c>
       <c r="CB3">
-        <v>1.043524750007309</v>
+        <v>1.047447073328142</v>
       </c>
       <c r="CC3">
-        <v>1.038762000455994</v>
+        <v>1.045561543074637</v>
       </c>
       <c r="CD3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164566</v>
       </c>
       <c r="CE3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998535</v>
       </c>
       <c r="CF3">
-        <v>1.046666296176457</v>
+        <v>1.048713289437206</v>
       </c>
       <c r="CG3">
-        <v>1.043477889234617</v>
+        <v>1.047427944220802</v>
       </c>
       <c r="CH3">
-        <v>1.038684038599325</v>
+        <v>1.045531367381688</v>
       </c>
       <c r="CI3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164565</v>
       </c>
       <c r="CJ3">
-        <v>1.042343115005933</v>
+        <v>1.046980279998527</v>
       </c>
       <c r="CK3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437204</v>
       </c>
       <c r="CL3">
-        <v>1.038525944686434</v>
+        <v>1.045470175898236</v>
       </c>
       <c r="CM3">
-        <v>1.040770516111961</v>
+        <v>1.046347290164565</v>
       </c>
       <c r="CN3">
-        <v>1.042343115005929</v>
+        <v>1.046980279998525</v>
       </c>
       <c r="CO3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437203</v>
       </c>
       <c r="CP3">
-        <v>1.038376855312553</v>
+        <v>1.045412469561366</v>
       </c>
       <c r="CQ3">
-        <v>1.042343115005929</v>
+        <v>1.046980279998524</v>
       </c>
       <c r="CR3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437203</v>
       </c>
       <c r="CS3">
-        <v>1.038290199229801</v>
+        <v>1.045378928513739</v>
       </c>
       <c r="CT3">
-        <v>1.042343115005928</v>
+        <v>1.046980279998524</v>
       </c>
       <c r="CU3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437203</v>
       </c>
       <c r="CV3">
-        <v>1.038232969454991</v>
+        <v>1.045356777170432</v>
       </c>
       <c r="CW3">
-        <v>1.042343115005928</v>
+        <v>1.046980279998524</v>
       </c>
       <c r="CX3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437203</v>
       </c>
       <c r="CY3">
-        <v>1.038153951225893</v>
+        <v>1.045326192362355</v>
       </c>
       <c r="CZ3">
-        <v>1.042343115005926</v>
+        <v>1.046980279998511</v>
       </c>
       <c r="DA3">
-        <v>1.046666296176456</v>
+        <v>1.048713289437203</v>
       </c>
       <c r="DB3">
-        <v>1.038152817443355</v>
+        <v>1.045325822030499</v>
       </c>
       <c r="DC3">
-        <v>1.038108398433968</v>
+        <v>1.045308160761667</v>
       </c>
       <c r="DD3">
-        <v>1.042343115005926</v>
+        <v>1.046980279998511</v>
       </c>
       <c r="DE3">
-        <v>1.038151445723831</v>
+        <v>1.045325373980137</v>
       </c>
       <c r="DF3">
-        <v>1.038082567764137</v>
+        <v>1.045297935953365</v>
       </c>
       <c r="DG3">
-        <v>1.042343115005927</v>
+        <v>1.04698027999851</v>
       </c>
       <c r="DH3">
-        <v>1.03814985580437</v>
+        <v>1.045324854657949</v>
       </c>
       <c r="DI3">
-        <v>1.037063371235657</v>
+        <v>1.044894494296432</v>
       </c>
       <c r="DJ3">
-        <v>1.042343115005937</v>
+        <v>1.046980279998482</v>
       </c>
       <c r="DK3">
-        <v>1.038147431651534</v>
+        <v>1.045324062845955</v>
       </c>
       <c r="DL3">
-        <v>1.036961271311301</v>
+        <v>1.044854078441833</v>
       </c>
       <c r="DM3">
-        <v>1.042343115005946</v>
+        <v>1.046980279998458</v>
       </c>
       <c r="DN3">
-        <v>1.038144315079504</v>
+        <v>1.045323044864896</v>
       </c>
       <c r="DO3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010243</v>
       </c>
       <c r="DP3">
-        <v>1.036700468485741</v>
+        <v>1.044739253557318</v>
       </c>
       <c r="DQ3">
-        <v>1.042343115005947</v>
+        <v>1.046980279998455</v>
       </c>
       <c r="DR3">
-        <v>1.038142077681962</v>
+        <v>1.045322314052138</v>
       </c>
       <c r="DS3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010241</v>
       </c>
       <c r="DT3">
-        <v>1.036954891536667</v>
+        <v>1.044853246626444</v>
       </c>
       <c r="DU3">
-        <v>1.036230156113093</v>
+        <v>1.04453218403936</v>
       </c>
       <c r="DV3">
-        <v>1.042343115005948</v>
+        <v>1.046980279998454</v>
       </c>
       <c r="DW3">
-        <v>1.038138916260529</v>
+        <v>1.045321281419623</v>
       </c>
       <c r="DX3">
-        <v>1.036956980636574</v>
+        <v>1.04485351901024</v>
       </c>
       <c r="DY3">
-        <v>1.036945077677595</v>
+        <v>1.044851967059156</v>
       </c>
       <c r="DZ3">
-        <v>1.036018661698284</v>
+        <v>1.044439065894552</v>
       </c>
       <c r="EA3">
-        <v>1.042343115005948</v>
+        <v>1.046980279998452</v>
       </c>
       <c r="EB3">
-        <v>1.038135495836115</v>
+        <v>1.045320164186161</v>
       </c>
       <c r="EC3">
-        <v>1.036956980636573</v>
+        <v>1.04485351901024</v>
       </c>
       <c r="ED3">
-        <v>1.036902025454742</v>
+        <v>1.044849412751867</v>
       </c>
       <c r="EE3">
-        <v>1.036923479493817</v>
+        <v>1.044848706257936</v>
       </c>
       <c r="EF3">
-        <v>1.035955736880907</v>
+        <v>1.044411360799166</v>
       </c>
       <c r="EG3">
-        <v>1.042343115005948</v>
+        <v>1.046980279998447</v>
       </c>
       <c r="EH3">
-        <v>1.038132270106598</v>
+        <v>1.045319110545735</v>
       </c>
       <c r="EI3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010239</v>
       </c>
       <c r="EJ3">
-        <v>1.036898317817343</v>
+        <v>1.044849192776084</v>
       </c>
       <c r="EK3">
-        <v>1.036907411758805</v>
+        <v>1.044846280398628</v>
       </c>
       <c r="EL3">
-        <v>1.035884707534919</v>
+        <v>1.044380087290241</v>
       </c>
       <c r="EM3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998443</v>
       </c>
       <c r="EN3">
-        <v>1.038126966505109</v>
+        <v>1.045317378194086</v>
       </c>
       <c r="EO3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010238</v>
       </c>
       <c r="EP3">
-        <v>1.036894679920809</v>
+        <v>1.044848976938054</v>
       </c>
       <c r="EQ3">
-        <v>1.03689665167357</v>
+        <v>1.044844655862375</v>
       </c>
       <c r="ER3">
-        <v>1.035817906044511</v>
+        <v>1.044350675186332</v>
       </c>
       <c r="ES3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998443</v>
       </c>
       <c r="ET3">
-        <v>1.038101749252773</v>
+        <v>1.045309141263351</v>
       </c>
       <c r="EU3">
-        <v>1.036956980636572</v>
+        <v>1.044853519010237</v>
       </c>
       <c r="EV3">
-        <v>1.0368917424735</v>
+        <v>1.044848802657987</v>
       </c>
       <c r="EW3">
-        <v>1.036890110707844</v>
+        <v>1.04484429536179</v>
       </c>
       <c r="EX3">
-        <v>1.036818595087813</v>
+        <v>1.044821229245063</v>
       </c>
       <c r="EY3">
-        <v>1.035739961842954</v>
+        <v>1.044316356950623</v>
       </c>
       <c r="EZ3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998442</v>
       </c>
       <c r="FA3">
-        <v>1.038096255852634</v>
+        <v>1.045307346895915</v>
       </c>
       <c r="FB3">
-        <v>1.036956980636572</v>
+        <v>1.044853519010236</v>
       </c>
       <c r="FC3">
-        <v>1.036887333598573</v>
+        <v>1.044848541077454</v>
       </c>
       <c r="FD3">
-        <v>1.036872763792868</v>
+        <v>1.044843339293157</v>
       </c>
       <c r="FE3">
-        <v>1.036813844063408</v>
+        <v>1.044819803350658</v>
       </c>
       <c r="FF3">
-        <v>1.035717533880036</v>
+        <v>1.044306482071177</v>
       </c>
       <c r="FG3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998442</v>
       </c>
       <c r="FH3">
-        <v>1.03802853324442</v>
+        <v>1.045284383167081</v>
       </c>
       <c r="FI3">
-        <v>1.038077839390047</v>
+        <v>1.045301360654094</v>
       </c>
       <c r="FJ3">
-        <v>1.036956980636572</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="FK3">
-        <v>1.036882018207383</v>
+        <v>1.044848225712894</v>
       </c>
       <c r="FL3">
-        <v>1.03686673830052</v>
+        <v>1.044843007198399</v>
       </c>
       <c r="FM3">
-        <v>1.036809503751081</v>
+        <v>1.044818500720605</v>
       </c>
       <c r="FN3">
-        <v>1.035590117676144</v>
+        <v>1.044250381423038</v>
       </c>
       <c r="FO3">
-        <v>1.042343115005949</v>
+        <v>1.046980279998442</v>
       </c>
       <c r="FP3">
-        <v>1.038015739301942</v>
+        <v>1.045280044930888</v>
       </c>
       <c r="FQ3">
-        <v>1.038053389879438</v>
+        <v>1.045293413315734</v>
       </c>
       <c r="FR3">
-        <v>1.036956980636572</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="FS3">
-        <v>1.036878002539637</v>
+        <v>1.044847987461508</v>
       </c>
       <c r="FT3">
-        <v>1.036866738300506</v>
+        <v>1.044843007198404</v>
       </c>
       <c r="FU3">
-        <v>1.036767238002403</v>
+        <v>1.044837523152695</v>
       </c>
       <c r="FV3">
-        <v>1.036807700725763</v>
+        <v>1.044817959590194</v>
       </c>
       <c r="FW3">
-        <v>1.035518152727257</v>
+        <v>1.044218695534261</v>
       </c>
       <c r="FX3">
-        <v>1.037989342823459</v>
+        <v>1.045271094275771</v>
       </c>
       <c r="FY3">
-        <v>1.038050300718737</v>
+        <v>1.0452922549241</v>
       </c>
       <c r="FZ3">
-        <v>1.038026125715797</v>
+        <v>1.04528863639805</v>
       </c>
       <c r="GA3">
-        <v>1.036956980636572</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="GB3">
-        <v>1.03687335571314</v>
+        <v>1.04484771176318</v>
       </c>
       <c r="GC3">
-        <v>1.036866738300504</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="GD3">
-        <v>1.036756491878614</v>
+        <v>1.044836930870536</v>
       </c>
       <c r="GE3">
-        <v>1.036803814326042</v>
+        <v>1.044816793189988</v>
       </c>
       <c r="GF3">
-        <v>1.035464731392704</v>
+        <v>1.04419517427078</v>
       </c>
       <c r="GG3">
-        <v>1.038038144094698</v>
+        <v>1.045287696349694</v>
       </c>
       <c r="GH3">
-        <v>1.037913285167736</v>
+        <v>1.045268865749939</v>
       </c>
       <c r="GI3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="GJ3">
-        <v>1.036868986497267</v>
+        <v>1.044847452535611</v>
       </c>
       <c r="GK3">
-        <v>1.036866738300504</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="GL3">
-        <v>1.036866738300503</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="GM3">
-        <v>1.036746097420281</v>
+        <v>1.044836357970699</v>
       </c>
       <c r="GN3">
-        <v>1.036793915713173</v>
+        <v>1.044813822382754</v>
       </c>
       <c r="GO3">
-        <v>1.035416703291563</v>
+        <v>1.044174027591776</v>
       </c>
       <c r="GP3">
-        <v>1.038016439232417</v>
+        <v>1.045279557263402</v>
       </c>
       <c r="GQ3">
-        <v>1.037907771830552</v>
+        <v>1.045267556437532</v>
       </c>
       <c r="GR3">
-        <v>1.037903725318698</v>
+        <v>1.045267389207832</v>
       </c>
       <c r="GS3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="GT3">
-        <v>1.036864285478096</v>
+        <v>1.044847173621994</v>
       </c>
       <c r="GU3">
-        <v>1.036866738300504</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="GV3">
-        <v>1.036866738300502</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="GW3">
-        <v>1.036737782895715</v>
+        <v>1.044835899708243</v>
       </c>
       <c r="GX3">
-        <v>1.036788108247141</v>
+        <v>1.044812079425143</v>
       </c>
       <c r="GY3">
-        <v>1.035357038979186</v>
+        <v>1.04414775745759</v>
       </c>
       <c r="GZ3">
-        <v>1.037998164855381</v>
+        <v>1.045275323203404</v>
       </c>
       <c r="HA3">
-        <v>1.0380117837917</v>
+        <v>1.045277678148075</v>
       </c>
       <c r="HB3">
-        <v>1.037893832752084</v>
+        <v>1.045264246172164</v>
       </c>
       <c r="HC3">
-        <v>1.037902374024572</v>
+        <v>1.045267180497138</v>
       </c>
       <c r="HD3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="HE3">
-        <v>1.03685709903097</v>
+        <v>1.044846747246786</v>
       </c>
       <c r="HF3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="HG3">
-        <v>1.036731159721611</v>
+        <v>1.044835534666065</v>
       </c>
       <c r="HH3">
-        <v>1.036784040678497</v>
+        <v>1.044810858651775</v>
       </c>
       <c r="HI3">
-        <v>1.035246939064492</v>
+        <v>1.044099280423064</v>
       </c>
       <c r="HJ3">
-        <v>1.037938350396006</v>
+        <v>1.04526146456121</v>
       </c>
       <c r="HK3">
-        <v>1.038003381548341</v>
+        <v>1.045274286671423</v>
       </c>
       <c r="HL3">
-        <v>1.037901284244093</v>
+        <v>1.045267012177867</v>
       </c>
       <c r="HM3">
-        <v>1.036956980636573</v>
+        <v>1.044853519010235</v>
       </c>
       <c r="HN3">
-        <v>1.036837473616308</v>
+        <v>1.04484558286184</v>
       </c>
       <c r="HO3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="HP3">
-        <v>1.036717157271451</v>
+        <v>1.04483476290843</v>
       </c>
       <c r="HQ3">
-        <v>1.036776216313696</v>
+        <v>1.044808510375144</v>
       </c>
       <c r="HR3">
-        <v>1.035150950075675</v>
+        <v>1.044057016267818</v>
       </c>
       <c r="HS3">
-        <v>1.037912565386858</v>
+        <v>1.045255490332137</v>
       </c>
       <c r="HT3">
-        <v>1.038000381487847</v>
+        <v>1.045273075726448</v>
       </c>
       <c r="HU3">
-        <v>1.037900413348211</v>
+        <v>1.045266877665859</v>
       </c>
       <c r="HV3">
-        <v>1.036835800290335</v>
+        <v>1.044845483582629</v>
       </c>
       <c r="HW3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="HX3">
-        <v>1.036706130008876</v>
+        <v>1.044834155130894</v>
       </c>
       <c r="HY3">
-        <v>1.036772321852837</v>
+        <v>1.044807341555455</v>
       </c>
       <c r="HZ3">
-        <v>1.035085654240911</v>
+        <v>1.044028266284542</v>
       </c>
       <c r="IA3">
-        <v>1.03766557777686</v>
+        <v>1.045137933461954</v>
       </c>
       <c r="IB3">
-        <v>1.038000381487847</v>
+        <v>1.045273075726448</v>
       </c>
       <c r="IC3">
-        <v>1.037899083917319</v>
+        <v>1.045266672331992</v>
       </c>
       <c r="ID3">
-        <v>1.036835027396752</v>
+        <v>1.044845437726492</v>
       </c>
       <c r="IE3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="IF3">
-        <v>1.036698480950348</v>
+        <v>1.044833733546104</v>
       </c>
       <c r="IG3">
-        <v>1.036769556545198</v>
+        <v>1.044806511621306</v>
       </c>
       <c r="IH3">
-        <v>1.035042760627112</v>
+        <v>1.044009380037966</v>
       </c>
       <c r="II3">
-        <v>1.037616956999267</v>
+        <v>1.045118307854393</v>
       </c>
       <c r="IJ3">
-        <v>1.037897525556463</v>
+        <v>1.045266431639327</v>
       </c>
       <c r="IK3">
-        <v>1.036834200693509</v>
+        <v>1.044845388677802</v>
       </c>
       <c r="IL3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="IM3">
-        <v>1.036690850114335</v>
+        <v>1.044833312965647</v>
       </c>
       <c r="IN3">
-        <v>1.036737922610068</v>
+        <v>1.044797017529421</v>
       </c>
       <c r="IO3">
-        <v>1.034950446691131</v>
+        <v>1.043968733701111</v>
       </c>
       <c r="IP3">
-        <v>1.037587111100682</v>
+        <v>1.045114764486463</v>
       </c>
       <c r="IQ3">
-        <v>1.037497563009816</v>
+        <v>1.045061611048063</v>
       </c>
       <c r="IR3">
-        <v>1.03789513200676</v>
+        <v>1.045266061949689</v>
       </c>
       <c r="IS3">
-        <v>1.036833410742159</v>
+        <v>1.04484534180962</v>
       </c>
       <c r="IT3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="IU3">
-        <v>1.036679686542065</v>
+        <v>1.044832697675193</v>
       </c>
       <c r="IV3">
-        <v>1.036728594281471</v>
+        <v>1.044794217877222</v>
       </c>
       <c r="IW3">
-        <v>1.034924701013392</v>
+        <v>1.043919895679102</v>
       </c>
       <c r="IX3">
-        <v>1.034890481160725</v>
+        <v>1.043944008658782</v>
       </c>
       <c r="IY3">
-        <v>1.037886373244607</v>
+        <v>1.045264709137296</v>
       </c>
       <c r="IZ3">
-        <v>1.036832530702506</v>
+        <v>1.044845289596456</v>
       </c>
       <c r="JA3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="JB3">
-        <v>1.036637699796521</v>
+        <v>1.044830383537138</v>
       </c>
       <c r="JC3">
-        <v>1.036726507257449</v>
+        <v>1.044793591511902</v>
       </c>
       <c r="JD3">
-        <v>1.034921142062184</v>
+        <v>1.04391314456047</v>
       </c>
       <c r="JE3">
-        <v>1.03466562134969</v>
+        <v>1.043851293724283</v>
       </c>
       <c r="JF3">
-        <v>1.037843744349658</v>
+        <v>1.045258124998644</v>
       </c>
       <c r="JG3">
-        <v>1.03683071417729</v>
+        <v>1.044845181821165</v>
       </c>
       <c r="JH3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="JI3">
-        <v>1.036627900050635</v>
+        <v>1.044829843415066</v>
       </c>
       <c r="JJ3">
-        <v>1.036695337382049</v>
+        <v>1.044786826059864</v>
       </c>
       <c r="JK3">
-        <v>1.036725771590378</v>
+        <v>1.044793281825063</v>
       </c>
       <c r="JL3">
-        <v>1.034919505881549</v>
+        <v>1.043910040823221</v>
       </c>
       <c r="JM3">
-        <v>1.034640401124768</v>
+        <v>1.043828517677072</v>
       </c>
       <c r="JN3">
-        <v>1.034591614452489</v>
+        <v>1.043821526779368</v>
       </c>
       <c r="JO3">
-        <v>1.036828822277954</v>
+        <v>1.04484506957389</v>
       </c>
       <c r="JP3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="JQ3">
-        <v>1.036623410531963</v>
+        <v>1.044829595971076</v>
       </c>
       <c r="JR3">
-        <v>1.036664446957442</v>
+        <v>1.044780121261973</v>
       </c>
       <c r="JS3">
-        <v>1.036724909067035</v>
+        <v>1.044792918736734</v>
       </c>
       <c r="JT3">
-        <v>1.034917562567859</v>
+        <v>1.043906354472886</v>
       </c>
       <c r="JU3">
-        <v>1.034638567891431</v>
+        <v>1.043826862108595</v>
       </c>
       <c r="JV3">
-        <v>1.034323342566998</v>
+        <v>1.043713622100645</v>
       </c>
       <c r="JW3">
-        <v>1.036821628058335</v>
+        <v>1.04484464273746</v>
       </c>
       <c r="JX3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="JY3">
-        <v>1.036620459012564</v>
+        <v>1.044829433295341</v>
       </c>
       <c r="JZ3">
-        <v>1.036724129585891</v>
+        <v>1.044792590605896</v>
       </c>
       <c r="KA3">
-        <v>1.034914564267517</v>
+        <v>1.04390066687577</v>
       </c>
       <c r="KB3">
-        <v>1.034637056883176</v>
+        <v>1.043825497537272</v>
       </c>
       <c r="KC3">
-        <v>1.034249509495574</v>
+        <v>1.043695912520231</v>
       </c>
       <c r="KD3">
-        <v>1.034283182660625</v>
+        <v>1.043693823214206</v>
       </c>
       <c r="KE3">
-        <v>1.036783432924613</v>
+        <v>1.044842376601953</v>
       </c>
       <c r="KF3">
-        <v>1.036866738300501</v>
+        <v>1.044843007198405</v>
       </c>
       <c r="KG3">
-        <v>1.036609597597532</v>
+        <v>1.04482943329534</v>
       </c>
       <c r="KH3">
-        <v>1.036619241189358</v>
+        <v>1.044829292336655</v>
       </c>
       <c r="KI3">
-        <v>1.036723340127325</v>
+        <v>1.044792258274955</v>
       </c>
       <c r="KJ3">
-        <v>1.034911892571054</v>
+        <v>1.043895598826826</v>
       </c>
       <c r="KK3">
-        <v>1.034634910612514</v>
+        <v>1.043823559268975</v>
       </c>
       <c r="KL3">
-        <v>1.034215525787606</v>
+        <v>1.043687761189046</v>
       </c>
       <c r="KM3">
-        <v>1.034114875201597</v>
+        <v>1.043610847115226</v>
       </c>
       <c r="KN3">
-        <v>1.036604608323746</v>
+        <v>1.04482943329534</v>
       </c>
       <c r="KO3">
-        <v>1.036618379292419</v>
+        <v>1.044829192575162</v>
       </c>
       <c r="KP3">
-        <v>1.036722491299755</v>
+        <v>1.044791900952003</v>
       </c>
       <c r="KQ3">
-        <v>1.03490981538762</v>
+        <v>1.043891658533711</v>
       </c>
       <c r="KR3">
-        <v>1.034625270533046</v>
+        <v>1.043814853442251</v>
       </c>
       <c r="KS3">
-        <v>1.03399352249738</v>
+        <v>1.043634511358565</v>
       </c>
       <c r="KT3">
-        <v>1.034077723435943</v>
+        <v>1.043592531114043</v>
       </c>
       <c r="KU3">
-        <v>1.036596164069678</v>
+        <v>1.04482943329534</v>
       </c>
       <c r="KV3">
-        <v>1.036617376298392</v>
+        <v>1.044829076482185</v>
       </c>
       <c r="KW3">
-        <v>1.03671756857109</v>
+        <v>1.044789828677236</v>
       </c>
       <c r="KX3">
-        <v>1.034907229814967</v>
+        <v>1.043886753856614</v>
       </c>
       <c r="KY3">
-        <v>1.034623414715588</v>
+        <v>1.043813177478341</v>
       </c>
       <c r="KZ3">
-        <v>1.03397694069397</v>
+        <v>1.043630534029234</v>
       </c>
       <c r="LA3">
-        <v>1.034065378679806</v>
+        <v>1.04358644508397</v>
       </c>
       <c r="LB3">
-        <v>1.036579955873669</v>
+        <v>1.04482943329534</v>
       </c>
       <c r="LC3">
-        <v>1.036615457891626</v>
+        <v>1.04482885443345</v>
       </c>
       <c r="LD3">
-        <v>1.036696747292643</v>
+        <v>1.044781063739189</v>
       </c>
       <c r="LE3">
-        <v>1.034904555579071</v>
+        <v>1.043881680990703</v>
       </c>
       <c r="LF3">
-        <v>1.034622040635356</v>
+        <v>1.043811936564871</v>
       </c>
       <c r="LG3">
-        <v>1.033967727859886</v>
+        <v>1.043626666980106</v>
       </c>
       <c r="LH3">
-        <v>1.033714989958369</v>
+        <v>1.043575216776403</v>
       </c>
       <c r="LI3">
-        <v>1.034058935589716</v>
+        <v>1.043583268605434</v>
       </c>
       <c r="LJ3">
-        <v>1.036532236222869</v>
+        <v>1.04482943329534</v>
       </c>
       <c r="LK3">
-        <v>1.03660810046822</v>
+        <v>1.044828002837937</v>
       </c>
       <c r="LL3">
-        <v>1.034901401172803</v>
+        <v>1.043875697270335</v>
       </c>
       <c r="LM3">
-        <v>1.034620457843911</v>
+        <v>1.043810507167097</v>
       </c>
       <c r="LN3">
-        <v>1.033920278995372</v>
+        <v>1.043606750512959</v>
       </c>
       <c r="LO3">
-        <v>1.033589280487071</v>
+        <v>1.043548670071549</v>
       </c>
       <c r="LP3">
-        <v>1.034053420106454</v>
+        <v>1.043580549441554</v>
       </c>
       <c r="LQ3">
-        <v>1.03658299237568</v>
+        <v>1.044825096665557</v>
       </c>
       <c r="LR3">
-        <v>1.034899603581105</v>
+        <v>1.043872287346242</v>
       </c>
       <c r="LS3">
-        <v>1.034618887737601</v>
+        <v>1.043809089225098</v>
       </c>
       <c r="LT3">
-        <v>1.033903713698642</v>
+        <v>1.043599797296556</v>
       </c>
       <c r="LU3">
-        <v>1.033509277336788</v>
+        <v>1.043542557298021</v>
       </c>
       <c r="LV3">
-        <v>1.033370895448923</v>
+        <v>1.04349933979873</v>
       </c>
       <c r="LW3">
-        <v>1.034047147235966</v>
+        <v>1.04357745688093</v>
       </c>
       <c r="LX3">
-        <v>1.034891482785179</v>
+        <v>1.043856882681763</v>
       </c>
       <c r="LY3">
-        <v>1.034605094180294</v>
+        <v>1.043796632447997</v>
       </c>
       <c r="LZ3">
-        <v>1.033867660410015</v>
+        <v>1.043584664072942</v>
       </c>
       <c r="MA3">
-        <v>1.033477592132908</v>
+        <v>1.043540136336703</v>
       </c>
       <c r="MB3">
-        <v>1.033313181401593</v>
+        <v>1.043485671839716</v>
       </c>
       <c r="MC3">
-        <v>1.033335394967555</v>
+        <v>1.043491366555081</v>
       </c>
       <c r="MD3">
-        <v>1.034042205296194</v>
+        <v>1.0435750204762</v>
       </c>
       <c r="ME3">
-        <v>1.034888322340152</v>
+        <v>1.04385088750662</v>
       </c>
       <c r="MF3">
-        <v>1.034576898304671</v>
+        <v>1.043771169129557</v>
       </c>
       <c r="MG3">
-        <v>1.033861632468152</v>
+        <v>1.043579226326195</v>
       </c>
       <c r="MH3">
-        <v>1.033856591419083</v>
+        <v>1.043581385933024</v>
       </c>
       <c r="MI3">
-        <v>1.033284165402985</v>
+        <v>1.043478800210144</v>
       </c>
       <c r="MJ3">
-        <v>1.033304981480144</v>
+        <v>1.043484535822393</v>
       </c>
       <c r="MK3">
-        <v>1.034038062002766</v>
+        <v>1.043572977808387</v>
       </c>
       <c r="ML3">
-        <v>1.034887224404538</v>
+        <v>1.043848804788466</v>
       </c>
       <c r="MM3">
-        <v>1.033852612849115</v>
+        <v>1.043571089817017</v>
       </c>
       <c r="MN3">
-        <v>1.033855050167188</v>
+        <v>1.043580929483152</v>
       </c>
       <c r="MO3">
-        <v>1.033281465179851</v>
+        <v>1.043478160737601</v>
       </c>
       <c r="MP3">
-        <v>1.033283588440362</v>
+        <v>1.043479731039347</v>
       </c>
       <c r="MQ3">
-        <v>1.03403432344251</v>
+        <v>1.043571134676134</v>
       </c>
       <c r="MR3">
-        <v>1.034886397256134</v>
+        <v>1.043847235737452</v>
       </c>
       <c r="MS3">
-        <v>1.033853376259284</v>
+        <v>1.043580433746501</v>
       </c>
       <c r="MT3">
-        <v>1.033280350021375</v>
+        <v>1.043477896643414</v>
       </c>
       <c r="MU3">
-        <v>1.033256557904655</v>
+        <v>1.043473660096588</v>
       </c>
       <c r="MV3">
-        <v>1.034031229278785</v>
+        <v>1.043569609234988</v>
       </c>
       <c r="MW3">
-        <v>1.034885792076557</v>
+        <v>1.04384608774802</v>
       </c>
       <c r="MX3">
-        <v>1.033851910036208</v>
+        <v>1.043579999516804</v>
       </c>
       <c r="MY3">
-        <v>1.033279563161478</v>
+        <v>1.04347771029759</v>
       </c>
       <c r="MZ3">
-        <v>1.033239620803605</v>
+        <v>1.043469856094499</v>
       </c>
       <c r="NA3">
-        <v>1.034027639866593</v>
+        <v>1.043567839633194</v>
       </c>
       <c r="NB3">
-        <v>1.034885484762944</v>
+        <v>1.043845504792494</v>
       </c>
       <c r="NC3">
-        <v>1.033850352174192</v>
+        <v>1.04357953814775</v>
       </c>
       <c r="ND3">
-        <v>1.033278758326072</v>
+        <v>1.043477519694767</v>
       </c>
       <c r="NE3">
-        <v>1.033213612077251</v>
+        <v>1.043464014640886</v>
       </c>
       <c r="NF3">
-        <v>1.034023694852826</v>
+        <v>1.043565894717429</v>
       </c>
       <c r="NG3">
-        <v>1.034885032946694</v>
+        <v>1.043844647724117</v>
       </c>
       <c r="NH3">
-        <v>1.033848128771685</v>
+        <v>1.043578879675362</v>
       </c>
       <c r="NI3">
-        <v>1.03327780867778</v>
+        <v>1.043477294797049</v>
       </c>
       <c r="NJ3">
-        <v>1.033187684443938</v>
+        <v>1.043458191397539</v>
       </c>
       <c r="NK3">
-        <v>1.034002188050458</v>
+        <v>1.043555291728435</v>
       </c>
       <c r="NL3">
-        <v>1.034884275555101</v>
+        <v>1.043843210997615</v>
       </c>
       <c r="NM3">
-        <v>1.033845425818374</v>
+        <v>1.043578079181466</v>
       </c>
       <c r="NN3">
-        <v>1.033276610764275</v>
+        <v>1.043477011104638</v>
       </c>
       <c r="NO3">
-        <v>1.033158592851617</v>
+        <v>1.043451657538132</v>
       </c>
       <c r="NP3">
-        <v>1.033845328135549</v>
+        <v>1.043480078066534</v>
       </c>
       <c r="NQ3">
-        <v>1.033993815549084</v>
+        <v>1.043547756418154</v>
       </c>
       <c r="NR3">
-        <v>1.034880897261346</v>
+        <v>1.043836802576707</v>
       </c>
       <c r="NS3">
-        <v>1.033828672051169</v>
+        <v>1.043573117464642</v>
       </c>
       <c r="NT3">
-        <v>1.033275537916151</v>
+        <v>1.043476757030473</v>
       </c>
       <c r="NU3">
-        <v>1.033137541164419</v>
+        <v>1.043446929408127</v>
       </c>
       <c r="NV3">
-        <v>1.033695093595686</v>
+        <v>1.043408040847754</v>
       </c>
       <c r="NW3">
-        <v>1.033942407271743</v>
+        <v>1.043501488605113</v>
       </c>
       <c r="NX3">
-        <v>1.033993815549081</v>
+        <v>1.043547756418158</v>
       </c>
       <c r="NY3">
-        <v>1.034868478749276</v>
+        <v>1.043813245404048</v>
       </c>
       <c r="NZ3">
-        <v>1.033771345182328</v>
+        <v>1.043556139806529</v>
       </c>
       <c r="OA3">
-        <v>1.033274688998438</v>
+        <v>1.043476555987981</v>
       </c>
       <c r="OB3">
-        <v>1.03311244949993</v>
+        <v>1.043441293911878</v>
       </c>
       <c r="OC3">
-        <v>1.033688405615049</v>
+        <v>1.043404833962847</v>
       </c>
       <c r="OD3">
-        <v>1.033923618828385</v>
+        <v>1.043484578872901</v>
       </c>
       <c r="OE3">
-        <v>1.033993815549065</v>
+        <v>1.043547756418181</v>
       </c>
       <c r="OF3">
-        <v>1.033273232051436</v>
+        <v>1.043476210950705</v>
       </c>
       <c r="OG3">
-        <v>1.033076041909223</v>
+        <v>1.043433116895086</v>
       </c>
       <c r="OH3">
-        <v>1.033618420826673</v>
+        <v>1.043371421848831</v>
       </c>
       <c r="OI3">
-        <v>1.03357766297522</v>
+        <v>1.043351708176685</v>
       </c>
       <c r="OJ3">
-        <v>1.033921706411181</v>
+        <v>1.04348285768385</v>
       </c>
       <c r="OK3">
-        <v>1.033993815549064</v>
+        <v>1.043547756418183</v>
       </c>
       <c r="OL3">
-        <v>1.033268146006665</v>
+        <v>1.043475006462785</v>
       </c>
       <c r="OM3">
-        <v>1.033049050147845</v>
+        <v>1.04342705463675</v>
       </c>
       <c r="ON3">
-        <v>1.033612008414168</v>
+        <v>1.04336836043667</v>
       </c>
       <c r="OO3">
-        <v>1.033524236191048</v>
+        <v>1.043326078046703</v>
       </c>
       <c r="OP3">
-        <v>1.033920371794175</v>
+        <v>1.043481656519074</v>
       </c>
       <c r="OQ3">
-        <v>1.033993815549064</v>
+        <v>1.043547756418184</v>
       </c>
       <c r="OR3">
-        <v>1.033237051813375</v>
+        <v>1.043467642669342</v>
       </c>
       <c r="OS3">
-        <v>1.033023012276447</v>
+        <v>1.043421206615904</v>
       </c>
       <c r="OT3">
-        <v>1.033608363090138</v>
+        <v>1.043366620087079</v>
       </c>
       <c r="OU3">
-        <v>1.033363057017387</v>
+        <v>1.04324875617312</v>
       </c>
       <c r="OV3">
-        <v>1.033524236191043</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="OW3">
-        <v>1.033918989249544</v>
+        <v>1.043480412219095</v>
       </c>
       <c r="OX3">
-        <v>1.033993815549064</v>
+        <v>1.043547756418184</v>
       </c>
       <c r="OY3">
-        <v>1.032997529065298</v>
+        <v>1.043415483167109</v>
       </c>
       <c r="OZ3">
-        <v>1.033605887827575</v>
+        <v>1.043365438347899</v>
       </c>
       <c r="PA3">
-        <v>1.033133500826567</v>
+        <v>1.043138631281226</v>
       </c>
       <c r="PB3">
-        <v>1.033524236191042</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="PC3">
-        <v>1.033913183369031</v>
+        <v>1.043475186885424</v>
       </c>
       <c r="PD3">
-        <v>1.033993815549064</v>
+        <v>1.043547756418185</v>
       </c>
       <c r="PE3">
-        <v>1.032966881679197</v>
+        <v>1.043408599857212</v>
       </c>
       <c r="PF3">
-        <v>1.033601853804778</v>
+        <v>1.043363512425813</v>
       </c>
       <c r="PG3">
-        <v>1.033085463942409</v>
+        <v>1.043115586452883</v>
       </c>
       <c r="PH3">
-        <v>1.033524236191041</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="PI3">
-        <v>1.033911765709228</v>
+        <v>1.043473910981536</v>
       </c>
       <c r="PJ3">
-        <v>1.033993815549065</v>
+        <v>1.0435477564182</v>
       </c>
       <c r="PK3">
-        <v>1.032915552997467</v>
+        <v>1.04339707158202</v>
       </c>
       <c r="PL3">
-        <v>1.032966881679197</v>
+        <v>1.043408599857212</v>
       </c>
       <c r="PM3">
-        <v>1.033588444467031</v>
+        <v>1.043357110543203</v>
       </c>
       <c r="PN3">
-        <v>1.033073186293972</v>
+        <v>1.043109696466223</v>
       </c>
       <c r="PO3">
-        <v>1.03352423619104</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="PP3">
-        <v>1.03391041341604</v>
+        <v>1.043472693908064</v>
       </c>
       <c r="PQ3">
-        <v>1.033993815549066</v>
+        <v>1.043547756418205</v>
       </c>
       <c r="PR3">
-        <v>1.032742425631918</v>
+        <v>1.043358187586838</v>
       </c>
       <c r="PS3">
-        <v>1.032915552997467</v>
+        <v>1.04339707158202</v>
       </c>
       <c r="PT3">
-        <v>1.033573515671502</v>
+        <v>1.043349983241144</v>
       </c>
       <c r="PU3">
-        <v>1.033066754214878</v>
+        <v>1.04310661078797</v>
       </c>
       <c r="PV3">
-        <v>1.033524236191039</v>
+        <v>1.043326078046701</v>
       </c>
       <c r="PW3">
-        <v>1.033909068478071</v>
+        <v>1.043471483454341</v>
       </c>
       <c r="PX3">
-        <v>1.033993815549066</v>
+        <v>1.043547756418207</v>
       </c>
       <c r="PY3">
-        <v>1.032497556076321</v>
+        <v>1.043303190245355</v>
       </c>
       <c r="PZ3">
-        <v>1.032742425631918</v>
+        <v>1.043358187586838</v>
       </c>
       <c r="QA3">
-        <v>1.033565119776045</v>
+        <v>1.043345974874565</v>
       </c>
       <c r="QB3">
-        <v>1.033061422098848</v>
+        <v>1.043104052797356</v>
       </c>
       <c r="QC3">
-        <v>1.033524236191038</v>
+        <v>1.043326078046701</v>
       </c>
       <c r="QD3">
-        <v>1.033907525660887</v>
+        <v>1.043470094907918</v>
       </c>
       <c r="QE3">
-        <v>1.033993815549065</v>
+        <v>1.043547756418209</v>
       </c>
       <c r="QF3">
-        <v>1.032321849032127</v>
+        <v>1.043263726542541</v>
       </c>
       <c r="QG3">
-        <v>1.032497556076321</v>
+        <v>1.043303190245355</v>
       </c>
       <c r="QH3">
-        <v>1.033557232722873</v>
+        <v>1.043342209439267</v>
       </c>
       <c r="QI3">
-        <v>1.033057100716978</v>
+        <v>1.043101979688648</v>
       </c>
       <c r="QJ3">
-        <v>1.033524236191037</v>
+        <v>1.043326078046701</v>
       </c>
       <c r="QK3">
-        <v>1.033902197632824</v>
+        <v>1.043465299644808</v>
       </c>
       <c r="QL3">
-        <v>1.033993815549065</v>
+        <v>1.043547756418212</v>
       </c>
       <c r="QM3">
-        <v>1.032268539702887</v>
+        <v>1.043251753270957</v>
       </c>
       <c r="QN3">
-        <v>1.032321849032127</v>
+        <v>1.043263726542541</v>
       </c>
       <c r="QO3">
-        <v>1.033549707823543</v>
+        <v>1.0433386169033</v>
       </c>
       <c r="QP3">
-        <v>1.033050495189735</v>
+        <v>1.043098810799818</v>
       </c>
       <c r="QQ3">
-        <v>1.033524236191037</v>
+        <v>1.043326078046701</v>
       </c>
       <c r="QR3">
-        <v>1.033876233108544</v>
+        <v>1.043441931388269</v>
       </c>
       <c r="QS3">
-        <v>1.033993815549065</v>
+        <v>1.043547756418214</v>
       </c>
       <c r="QT3">
-        <v>1.032135650470136</v>
+        <v>1.043223641283096</v>
       </c>
       <c r="QU3">
-        <v>1.032268539702887</v>
+        <v>1.043251753270957</v>
       </c>
       <c r="QV3">
-        <v>1.032226822705841</v>
+        <v>1.043239474691196</v>
       </c>
       <c r="QW3">
-        <v>1.033537353062098</v>
+        <v>1.043332718495329</v>
       </c>
       <c r="QX3">
-        <v>1.033044540410146</v>
+        <v>1.043095954095412</v>
       </c>
       <c r="QY3">
-        <v>1.033524236191037</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="QZ3">
-        <v>1.033993815549065</v>
+        <v>1.043547756418216</v>
       </c>
       <c r="RA3">
-        <v>1.031988004779699</v>
+        <v>1.043192407561891</v>
       </c>
       <c r="RB3">
-        <v>1.032135650470136</v>
+        <v>1.043223641283096</v>
       </c>
       <c r="RC3">
-        <v>1.032135650470136</v>
+        <v>1.043223641283096</v>
       </c>
       <c r="RD3">
-        <v>1.03222073045643</v>
+        <v>1.043237681556915</v>
       </c>
       <c r="RE3">
-        <v>1.033528747736333</v>
+        <v>1.043328610142133</v>
       </c>
       <c r="RF3">
-        <v>1.033038872930145</v>
+        <v>1.043093235217539</v>
       </c>
       <c r="RG3">
-        <v>1.033524236191037</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="RH3">
-        <v>1.033993815549063</v>
+        <v>1.043547756418226</v>
       </c>
       <c r="RI3">
-        <v>1.031933900289039</v>
+        <v>1.043180961999825</v>
       </c>
       <c r="RJ3">
-        <v>1.031988004779699</v>
+        <v>1.043192407561891</v>
       </c>
       <c r="RK3">
-        <v>1.03221740851226</v>
+        <v>1.0432367038077</v>
       </c>
       <c r="RL3">
-        <v>1.033522701445206</v>
+        <v>1.043325723522765</v>
       </c>
       <c r="RM3">
-        <v>1.033032488172086</v>
+        <v>1.043090172236961</v>
       </c>
       <c r="RN3">
-        <v>1.033524236191037</v>
+        <v>1.043326078046702</v>
       </c>
       <c r="RO3">
-        <v>1.033993815549063</v>
+        <v>1.043547756418226</v>
       </c>
       <c r="RP3">
-        <v>1.031858028017254</v>
+        <v>1.043165715372048</v>
       </c>
       <c r="RQ3">
-        <v>1.031933900289039</v>
+        <v>1.043180961999825</v>
       </c>
       <c r="RR3">
-        <v>1.031724450042976</v>
+        <v>1.043132291150974</v>
       </c>
       <c r="RS3">
-        <v>1.032215158155687</v>
+        <v>1.043236041459302</v>
       </c>
       <c r="RT3">
-        <v>1.033519812491258</v>
+        <v>1.043324344278802</v>
       </c>
       <c r="RU3">
-        <v>1.033025743815352</v>
+        <v>1.043086936744189</v>
       </c>
       <c r="RV3">
-        <v>1.033524236191036</v>
+        <v>1.043326078046703</v>
       </c>
       <c r="RW3">
-        <v>1.033993815549062</v>
+        <v>1.043547756418226</v>
       </c>
       <c r="RX3">
-        <v>1.031749285417855</v>
+        <v>1.043143863370869</v>
       </c>
       <c r="RY3">
-        <v>1.031858028017254</v>
+        <v>1.043165715372048</v>
       </c>
       <c r="RZ3">
-        <v>1.031717578809188</v>
+        <v>1.043131517195699</v>
       </c>
       <c r="SA3">
-        <v>1.031689865929686</v>
+        <v>1.043118457220036</v>
       </c>
       <c r="SB3">
-        <v>1.032211740008612</v>
+        <v>1.043235035394622</v>
       </c>
       <c r="SC3">
-        <v>1.03351798241816</v>
+        <v>1.043323470565572</v>
       </c>
       <c r="SD3">
-        <v>1.033010997467996</v>
+        <v>1.043079862427013</v>
       </c>
       <c r="SE3">
-        <v>1.033524236191036</v>
+        <v>1.043326078046704</v>
       </c>
       <c r="SF3">
-        <v>1.033993815549062</v>
+        <v>1.043547756418227</v>
       </c>
       <c r="SG3">
-        <v>1.031682923616859</v>
+        <v>1.043130527836488</v>
       </c>
       <c r="SH3">
-        <v>1.031749285417855</v>
+        <v>1.043143863370869</v>
       </c>
       <c r="SI3">
-        <v>1.031714674501638</v>
+        <v>1.043131190063152</v>
       </c>
       <c r="SJ3">
-        <v>1.031667736040776</v>
+        <v>1.043109605080847</v>
       </c>
       <c r="SK3">
-        <v>1.032206552633163</v>
+        <v>1.043233508592179</v>
       </c>
       <c r="SL3">
-        <v>1.0335167450633</v>
+        <v>1.043322879827792</v>
       </c>
       <c r="SM3">
-        <v>1.032676549156118</v>
+        <v>1.042919415353786</v>
       </c>
       <c r="SN3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046704</v>
       </c>
       <c r="SO3">
-        <v>1.033993815549062</v>
+        <v>1.043547756418227</v>
       </c>
       <c r="SP3">
-        <v>1.031671495450349</v>
+        <v>1.043128231322187</v>
       </c>
       <c r="SQ3">
-        <v>1.031682923616859</v>
+        <v>1.043130527836488</v>
       </c>
       <c r="SR3">
-        <v>1.031712967987505</v>
+        <v>1.043130997846484</v>
       </c>
       <c r="SS3">
-        <v>1.03220287236174</v>
+        <v>1.043232425376292</v>
       </c>
       <c r="ST3">
-        <v>1.033515019102983</v>
+        <v>1.043322055820063</v>
       </c>
       <c r="SU3">
-        <v>1.032645074330472</v>
+        <v>1.042725195594987</v>
       </c>
       <c r="SV3">
-        <v>1.032626934851397</v>
+        <v>1.042905866333523</v>
       </c>
       <c r="SW3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046704</v>
       </c>
       <c r="SX3">
-        <v>1.031647268092937</v>
+        <v>1.043123044088095</v>
       </c>
       <c r="SY3">
-        <v>1.031671495450349</v>
+        <v>1.043128231322187</v>
       </c>
       <c r="SZ3">
-        <v>1.031630975709918</v>
+        <v>1.043122049589074</v>
       </c>
       <c r="TA3">
-        <v>1.031711397480951</v>
+        <v>1.043130820949303</v>
       </c>
       <c r="TB3">
-        <v>1.03220035795667</v>
+        <v>1.043231685310346</v>
       </c>
       <c r="TC3">
-        <v>1.033513701836505</v>
+        <v>1.043321426930885</v>
       </c>
       <c r="TD3">
-        <v>1.032617317801977</v>
+        <v>1.042553920249251</v>
       </c>
       <c r="TE3">
-        <v>1.032600169399229</v>
+        <v>1.042898557023264</v>
       </c>
       <c r="TF3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046704</v>
       </c>
       <c r="TG3">
-        <v>1.031629433879641</v>
+        <v>1.043119225665985</v>
       </c>
       <c r="TH3">
-        <v>1.031647268092937</v>
+        <v>1.043123044088095</v>
       </c>
       <c r="TI3">
-        <v>1.031607031764203</v>
+        <v>1.043118396675618</v>
       </c>
       <c r="TJ3">
-        <v>1.031709998291645</v>
+        <v>1.043130663348785</v>
       </c>
       <c r="TK3">
-        <v>1.032198371083254</v>
+        <v>1.043231100513018</v>
       </c>
       <c r="TL3">
-        <v>1.033504301532058</v>
+        <v>1.04331693903878</v>
       </c>
       <c r="TM3">
-        <v>1.032596172139124</v>
+        <v>1.042897465420679</v>
       </c>
       <c r="TN3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046704</v>
       </c>
       <c r="TO3">
-        <v>1.031605152587294</v>
+        <v>1.043114026879801</v>
       </c>
       <c r="TP3">
-        <v>1.031629433879641</v>
+        <v>1.043119225665985</v>
       </c>
       <c r="TQ3">
-        <v>1.031588059871695</v>
+        <v>1.043115502303511</v>
       </c>
       <c r="TR3">
-        <v>1.03170854679171</v>
+        <v>1.043130499856152</v>
       </c>
       <c r="TS3">
-        <v>1.032192000638722</v>
+        <v>1.043229225497239</v>
       </c>
       <c r="TT3">
-        <v>1.033492892044626</v>
+        <v>1.043311413681746</v>
       </c>
       <c r="TU3">
-        <v>1.033441188440881</v>
+        <v>1.043287034810669</v>
       </c>
       <c r="TV3">
-        <v>1.032593120884526</v>
+        <v>1.04289663216042</v>
       </c>
       <c r="TW3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046705</v>
       </c>
       <c r="TX3">
-        <v>1.031587969780891</v>
+        <v>1.04311034792518</v>
       </c>
       <c r="TY3">
-        <v>1.031605152587294</v>
+        <v>1.043114026879801</v>
       </c>
       <c r="TZ3">
-        <v>1.03158022054342</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="UA3">
-        <v>1.031704164947773</v>
+        <v>1.043130006298285</v>
       </c>
       <c r="UB3">
-        <v>1.032140473226673</v>
+        <v>1.043214059409318</v>
       </c>
       <c r="UC3">
-        <v>1.033480293365011</v>
+        <v>1.043305312425584</v>
       </c>
       <c r="UD3">
-        <v>1.032590267173853</v>
+        <v>1.042895852846872</v>
       </c>
       <c r="UE3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046705</v>
       </c>
       <c r="UF3">
-        <v>1.031539917321729</v>
+        <v>1.043100059563361</v>
       </c>
       <c r="UG3">
-        <v>1.031587969780891</v>
+        <v>1.04311034792518</v>
       </c>
       <c r="UH3">
-        <v>1.031578589677892</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="UI3">
-        <v>1.031569226004176</v>
+        <v>1.043109356081156</v>
       </c>
       <c r="UJ3">
-        <v>1.031699749102013</v>
+        <v>1.043129508910542</v>
       </c>
       <c r="UK3">
-        <v>1.032137907212438</v>
+        <v>1.043213304153035</v>
       </c>
       <c r="UL3">
-        <v>1.033446143832264</v>
+        <v>1.043288774576555</v>
       </c>
       <c r="UM3">
-        <v>1.032587224047828</v>
+        <v>1.042895021806181</v>
       </c>
       <c r="UN3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046705</v>
       </c>
       <c r="UO3">
-        <v>1.031505122655015</v>
+        <v>1.043092609780012</v>
       </c>
       <c r="UP3">
-        <v>1.031539917321729</v>
+        <v>1.043100059563361</v>
       </c>
       <c r="UQ3">
-        <v>1.031577989568738</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="UR3">
-        <v>1.031560908573439</v>
+        <v>1.043105611192106</v>
       </c>
       <c r="US3">
-        <v>1.031658489133054</v>
+        <v>1.043124861509727</v>
       </c>
       <c r="UT3">
-        <v>1.032135882537657</v>
+        <v>1.043212708229465</v>
       </c>
       <c r="UU3">
-        <v>1.03258453125302</v>
+        <v>1.042894286436577</v>
       </c>
       <c r="UV3">
-        <v>1.033524236191035</v>
+        <v>1.043326078046705</v>
       </c>
       <c r="UW3">
-        <v>1.031501636986207</v>
+        <v>1.043091633564497</v>
       </c>
       <c r="UX3">
-        <v>1.031505122655015</v>
+        <v>1.043092609780012</v>
       </c>
       <c r="UY3">
-        <v>1.031438646818724</v>
+        <v>1.04308198836953</v>
       </c>
       <c r="UZ3">
-        <v>1.031577095661473</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="VA3">
-        <v>1.032133593587856</v>
+        <v>1.043212034521686</v>
       </c>
       <c r="VB3">
-        <v>1.032581777002411</v>
+        <v>1.042893534284038</v>
       </c>
       <c r="VC3">
-        <v>1.031500811643878</v>
+        <v>1.04309140241459</v>
       </c>
       <c r="VD3">
-        <v>1.031501636986207</v>
+        <v>1.043091633564497</v>
       </c>
       <c r="VE3">
-        <v>1.031430243108109</v>
+        <v>1.043080645636878</v>
       </c>
       <c r="VF3">
-        <v>1.031576557777053</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="VG3">
-        <v>1.032131556350095</v>
+        <v>1.043211434900437</v>
       </c>
       <c r="VH3">
-        <v>1.032567561534891</v>
+        <v>1.042889652210087</v>
       </c>
       <c r="VI3">
-        <v>1.031478436940229</v>
+        <v>1.043085136030833</v>
       </c>
       <c r="VJ3">
-        <v>1.031500811643878</v>
+        <v>1.04309140241459</v>
       </c>
       <c r="VK3">
-        <v>1.031500811643868</v>
+        <v>1.043091402414592</v>
       </c>
       <c r="VL3">
-        <v>1.031424041727281</v>
+        <v>1.043079654789239</v>
       </c>
       <c r="VM3">
-        <v>1.031575908748759</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="VN3">
-        <v>1.032129211489529</v>
+        <v>1.043210744736401</v>
       </c>
       <c r="VO3">
-        <v>1.032499296683543</v>
+        <v>1.042880377021878</v>
       </c>
       <c r="VP3">
-        <v>1.032539739192068</v>
+        <v>1.042881664548047</v>
       </c>
       <c r="VQ3">
-        <v>1.031462756433653</v>
+        <v>1.043080744459585</v>
       </c>
       <c r="VR3">
-        <v>1.031478436940229</v>
+        <v>1.043085136030833</v>
       </c>
       <c r="VS3">
-        <v>1.031500811643865</v>
+        <v>1.043091402414592</v>
       </c>
       <c r="VT3">
-        <v>1.031418007736356</v>
+        <v>1.043078690686888</v>
       </c>
       <c r="VU3">
-        <v>1.031575338874378</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="VV3">
-        <v>1.032126807209603</v>
+        <v>1.043210037083428</v>
       </c>
       <c r="VW3">
-        <v>1.032495362777805</v>
+        <v>1.04287984251954</v>
       </c>
       <c r="VX3">
-        <v>1.032406785466323</v>
+        <v>1.042843494016368</v>
       </c>
       <c r="VY3">
-        <v>1.031456348329374</v>
+        <v>1.043077715284841</v>
       </c>
       <c r="VZ3">
-        <v>1.03145978909323</v>
+        <v>1.043080059877531</v>
       </c>
       <c r="WA3">
-        <v>1.031500811643863</v>
+        <v>1.043091402414593</v>
       </c>
       <c r="WB3">
-        <v>1.031361326581787</v>
+        <v>1.043069634252555</v>
       </c>
       <c r="WC3">
-        <v>1.03157160980696</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="WD3">
-        <v>1.032123917274688</v>
+        <v>1.043209186487358</v>
       </c>
       <c r="WE3">
-        <v>1.032493387024581</v>
+        <v>1.042879574072658</v>
       </c>
       <c r="WF3">
-        <v>1.032303051235081</v>
+        <v>1.04281354428422</v>
       </c>
       <c r="WG3">
-        <v>1.032262977156853</v>
+        <v>1.042802227147077</v>
       </c>
       <c r="WH3">
-        <v>1.031450633681916</v>
+        <v>1.04307501391383</v>
       </c>
       <c r="WI3">
-        <v>1.031456348329374</v>
+        <v>1.043077715284841</v>
       </c>
       <c r="WJ3">
-        <v>1.031456348329374</v>
+        <v>1.043077715284841</v>
       </c>
       <c r="WK3">
-        <v>1.031327673316889</v>
+        <v>1.043049579994597</v>
       </c>
       <c r="WL3">
-        <v>1.03145978909323</v>
+        <v>1.043080059877531</v>
       </c>
       <c r="WM3">
-        <v>1.03150081164386</v>
+        <v>1.043091402414593</v>
       </c>
       <c r="WN3">
-        <v>1.031334946669535</v>
+        <v>1.043065419306825</v>
       </c>
       <c r="WO3">
-        <v>1.031544114291884</v>
+        <v>1.043114306327171</v>
       </c>
       <c r="WP3">
-        <v>1.032122105491339</v>
+        <v>1.043208653224203</v>
       </c>
       <c r="WQ3">
-        <v>1.032491730248386</v>
+        <v>1.042879348965392</v>
       </c>
       <c r="WR3">
-        <v>1.032248310404299</v>
+        <v>1.042797739725532</v>
       </c>
       <c r="WS3">
-        <v>1.032125235499701</v>
+        <v>1.042762700875677</v>
       </c>
       <c r="WT3">
-        <v>1.031438166708813</v>
+        <v>1.043069120649674</v>
       </c>
       <c r="WU3">
-        <v>1.031450633681916</v>
+        <v>1.04307501391383</v>
       </c>
       <c r="WV3">
-        <v>1.031450633681916</v>
+        <v>1.04307501391383</v>
       </c>
       <c r="WW3">
-        <v>1.031296577271824</v>
+        <v>1.043042405952417</v>
       </c>
       <c r="WX3">
-        <v>1.031500811643858</v>
+        <v>1.043091402414594</v>
       </c>
       <c r="WY3">
-        <v>1.031322565507104</v>
+        <v>1.04306344106171</v>
       </c>
       <c r="WZ3">
-        <v>1.032114319055929</v>
+        <v>1.043206361438491</v>
       </c>
       <c r="XA3">
-        <v>1.032490379205382</v>
+        <v>1.042879165398292</v>
       </c>
       <c r="XB3">
-        <v>1.032115767642752</v>
+        <v>1.042760354383893</v>
       </c>
       <c r="XC3">
-        <v>1.032088209709321</v>
+        <v>1.042752008281286</v>
       </c>
       <c r="XD3">
-        <v>1.03142118382487</v>
+        <v>1.043061092668554</v>
       </c>
       <c r="XE3">
-        <v>1.031500811643857</v>
+        <v>1.043091402414594</v>
       </c>
       <c r="XF3">
-        <v>1.031314307080974</v>
+        <v>1.043062121541668</v>
       </c>
       <c r="XG3">
-        <v>1.032081492372152</v>
+        <v>1.043196699542254</v>
       </c>
       <c r="XH3">
-        <v>1.032488258462602</v>
+        <v>1.042878877251577</v>
       </c>
       <c r="XI3">
-        <v>1.032113446097898</v>
+        <v>1.042759779017568</v>
       </c>
       <c r="XJ3">
-        <v>1.032079691216073</v>
+        <v>1.042749548242112</v>
       </c>
       <c r="XK3">
-        <v>1.031416202555605</v>
+        <v>1.043058737972098</v>
       </c>
       <c r="XL3">
-        <v>1.031500811643856</v>
+        <v>1.043091402414594</v>
       </c>
       <c r="XM3">
-        <v>1.031301681485815</v>
+        <v>1.043060104241228</v>
       </c>
       <c r="XN3">
-        <v>1.032483201428916</v>
+        <v>1.042878190149075</v>
       </c>
       <c r="XO3">
-        <v>1.032111851957294</v>
+        <v>1.042759383929431</v>
       </c>
       <c r="XP3">
-        <v>1.03207546393339</v>
+        <v>1.042748327452948</v>
       </c>
       <c r="XQ3">
-        <v>1.031399715483496</v>
+        <v>1.043050944365851</v>
       </c>
       <c r="XR3">
-        <v>1.031500811643856</v>
+        <v>1.043091402414594</v>
       </c>
       <c r="XS3">
-        <v>1.031277023850013</v>
+        <v>1.04305616447733</v>
       </c>
       <c r="XT3">
-        <v>1.032479702780594</v>
+        <v>1.04287771478541</v>
       </c>
       <c r="XU3">
-        <v>1.032109642133336</v>
+        <v>1.042758836251746</v>
       </c>
       <c r="XV3">
-        <v>1.032070818481499</v>
+        <v>1.042746985901178</v>
       </c>
       <c r="XW3">
-        <v>1.031500811643855</v>
+        <v>1.043091402414595</v>
       </c>
       <c r="XX3">
-        <v>1.031270207847334</v>
+        <v>1.043055075425504</v>
       </c>
       <c r="XY3">
-        <v>1.032475254270544</v>
+        <v>1.042877110363391</v>
       </c>
       <c r="XZ3">
-        <v>1.032104401980664</v>
+        <v>1.042757537544345</v>
       </c>
       <c r="YA3">
-        <v>1.032065458323487</v>
+        <v>1.042745437950321</v>
       </c>
       <c r="YB3">
-        <v>1.031500811643855</v>
+        <v>1.043091402414595</v>
       </c>
       <c r="YC3">
-        <v>1.031268229052495</v>
+        <v>1.043054759256294</v>
       </c>
       <c r="YD3">
-        <v>1.032472551838612</v>
+        <v>1.04287674318216</v>
       </c>
       <c r="YE3">
-        <v>1.032100418601478</v>
+        <v>1.042756550312778</v>
       </c>
       <c r="YF3">
-        <v>1.032060039570591</v>
+        <v>1.042743873077535</v>
       </c>
       <c r="YG3">
-        <v>1.031500811643855</v>
+        <v>1.043091402414595</v>
       </c>
       <c r="YH3">
-        <v>1.031267075302023</v>
+        <v>1.043054551528225</v>
       </c>
       <c r="YI3">
-        <v>1.031265239736069</v>
+        <v>1.043054405831926</v>
       </c>
       <c r="YJ3">
-        <v>1.032470112118974</v>
+        <v>1.04287641169582</v>
       </c>
       <c r="YK3">
-        <v>1.032097622329874</v>
+        <v>1.042755857291223</v>
       </c>
       <c r="YL3">
-        <v>1.032054032185183</v>
+        <v>1.042742138214042</v>
       </c>
       <c r="YM3">
-        <v>1.031500811643855</v>
+        <v>1.043091402414596</v>
       </c>
       <c r="YN3">
-        <v>1.031265995489655</v>
+        <v>1.043054357112409</v>
       </c>
       <c r="YO3">
-        <v>1.031261295136769</v>
+        <v>1.043053939465258</v>
       </c>
       <c r="YP3">
-        <v>1.032465997445631</v>
+        <v>1.04287585263239</v>
       </c>
       <c r="YQ3">
-        <v>1.032094692990813</v>
+        <v>1.042755131290525</v>
       </c>
       <c r="YR3">
-        <v>1.03204529619268</v>
+        <v>1.042739615359436</v>
       </c>
       <c r="YS3">
-        <v>1.031500811643854</v>
+        <v>1.043091402414597</v>
       </c>
       <c r="YT3">
-        <v>1.031264883143589</v>
+        <v>1.043054156839031</v>
       </c>
       <c r="YU3">
-        <v>1.031244907447517</v>
+        <v>1.043052001962399</v>
       </c>
       <c r="YV3">
-        <v>1.032461952165242</v>
+        <v>1.042875302997417</v>
       </c>
       <c r="YW3">
-        <v>1.032092287974515</v>
+        <v>1.042754535236776</v>
       </c>
       <c r="YX3">
-        <v>1.032028780109864</v>
+        <v>1.042737105279807</v>
       </c>
       <c r="YY3">
-        <v>1.032027929455806</v>
+        <v>1.04273368991206</v>
       </c>
       <c r="YZ3">
-        <v>1.031500811643854</v>
+        <v>1.043091402414597</v>
       </c>
       <c r="ZA3">
-        <v>1.031256840631862</v>
+        <v>1.043052708817532</v>
       </c>
       <c r="ZB3">
-        <v>1.031237947989518</v>
+        <v>1.043051179151425</v>
       </c>
       <c r="ZC3">
-        <v>1.032460038159104</v>
+        <v>1.042875042940109</v>
       </c>
       <c r="ZD3">
-        <v>1.032088305929632</v>
+        <v>1.042753548335847</v>
       </c>
       <c r="ZE3">
-        <v>1.032018862203933</v>
+        <v>1.042735597977168</v>
       </c>
       <c r="ZF3">
-        <v>1.031917959789929</v>
+        <v>1.042696168680596</v>
       </c>
       <c r="ZG3">
-        <v>1.031500811643854</v>
+        <v>1.043091402414597</v>
       </c>
       <c r="ZH3">
-        <v>1.03119827417932</v>
+        <v>1.043042164164509</v>
       </c>
       <c r="ZI3">
-        <v>1.032457935883031</v>
+        <v>1.042874757302435</v>
       </c>
       <c r="ZJ3">
-        <v>1.032075437141174</v>
+        <v>1.042750358964532</v>
       </c>
       <c r="ZK3">
-        <v>1.032009661911252</v>
+        <v>1.042734199735828</v>
       </c>
       <c r="ZL3">
-        <v>1.031839244250288</v>
+        <v>1.042669311122842</v>
       </c>
       <c r="ZM3">
-        <v>1.032455918148115</v>
+        <v>1.042874483151423</v>
       </c>
       <c r="ZN3">
-        <v>1.032045367626322</v>
+        <v>1.042742906603551</v>
       </c>
       <c r="ZO3">
-        <v>1.032000684882996</v>
+        <v>1.042732835425691</v>
       </c>
       <c r="ZP3">
-        <v>1.031670937732283</v>
+        <v>1.042582008438705</v>
       </c>
       <c r="ZQ3">
-        <v>1.031665850887464</v>
+        <v>1.042619348765364</v>
       </c>
       <c r="ZR3">
-        <v>1.032453484776598</v>
+        <v>1.04287415252758</v>
       </c>
       <c r="ZS3">
-        <v>1.031993951510376</v>
+        <v>1.042731812101646</v>
       </c>
       <c r="ZT3">
-        <v>1.031661882950515</v>
+        <v>1.0425820084387</v>
       </c>
       <c r="ZU3">
-        <v>1.031652280317644</v>
+        <v>1.04255921831212</v>
       </c>
       <c r="ZV3">
-        <v>1.031585323140755</v>
+        <v>1.042606955117379</v>
       </c>
       <c r="ZW3">
-        <v>1.031634194956802</v>
+        <v>1.042609632148346</v>
       </c>
       <c r="ZX3">
-        <v>1.032449603240872</v>
+        <v>1.042873625140673</v>
       </c>
       <c r="ZY3">
-        <v>1.0319832551052</v>
+        <v>1.042730186484041</v>
       </c>
       <c r="ZZ3">
-        <v>1.031659049653014</v>
+        <v>1.042582008438699</v>
       </c>
       <c r="AAA3">
-        <v>1.031614272237368</v>
+        <v>1.042512791250896</v>
       </c>
       <c r="AAB3">
-        <v>1.031538671299979</v>
+        <v>1.04259977514907</v>
       </c>
       <c r="AAC3">
-        <v>1.031574834458086</v>
+        <v>1.042591411510565</v>
       </c>
       <c r="AAD3">
-        <v>1.032438979909516</v>
+        <v>1.042872181741342</v>
       </c>
       <c r="AAE3">
-        <v>1.031965220552516</v>
+        <v>1.042727445629717</v>
       </c>
       <c r="AAF3">
-        <v>1.031657227924788</v>
+        <v>1.042582008438698</v>
       </c>
       <c r="AAG3">
-        <v>1.031418251787162</v>
+        <v>1.042543348547896</v>
       </c>
       <c r="AAH3">
-        <v>1.031574834458086</v>
+        <v>1.042591411510564</v>
       </c>
       <c r="AAI3">
-        <v>1.032424842206383</v>
+        <v>1.042870260841787</v>
       </c>
       <c r="AAJ3">
-        <v>1.03183008874893</v>
+        <v>1.042706908567824</v>
       </c>
       <c r="AAK3">
-        <v>1.031656129109498</v>
+        <v>1.042582008438698</v>
       </c>
       <c r="AAL3">
-        <v>1.031250233805497</v>
+        <v>1.042498389803419</v>
       </c>
       <c r="AAM3">
-        <v>1.031395632592103</v>
+        <v>1.04252787780163</v>
       </c>
       <c r="AAN3">
-        <v>1.031574834458087</v>
+        <v>1.042591411510564</v>
       </c>
       <c r="AAO3">
-        <v>1.032423495636196</v>
+        <v>1.042870077882352</v>
       </c>
       <c r="AAP3">
-        <v>1.031719230597413</v>
+        <v>1.042690060557161</v>
       </c>
       <c r="AAQ3">
-        <v>1.031655018523449</v>
+        <v>1.042582008438697</v>
       </c>
       <c r="AAR3">
-        <v>1.031076821615629</v>
+        <v>1.042451987516709</v>
       </c>
       <c r="AAS3">
-        <v>1.031393211154699</v>
+        <v>1.042526221622245</v>
       </c>
       <c r="AAT3">
-        <v>1.031574834458087</v>
+        <v>1.042591411510564</v>
       </c>
       <c r="AAU3">
-        <v>1.03242243069192</v>
+        <v>1.042869933187626</v>
       </c>
       <c r="AAV3">
-        <v>1.0316841068972</v>
+        <v>1.042684722522243</v>
       </c>
       <c r="AAW3">
-        <v>1.031654026536448</v>
+        <v>1.042582008438697</v>
       </c>
       <c r="AAX3">
-        <v>1.031011664772808</v>
+        <v>1.04243695776215</v>
       </c>
       <c r="AAY3">
-        <v>1.0310225444932</v>
+        <v>1.04242051964472</v>
       </c>
       <c r="AAZ3">
-        <v>1.031392286616373</v>
+        <v>1.042525589270025</v>
       </c>
       <c r="ABA3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510564</v>
       </c>
       <c r="ABB3">
-        <v>1.032421396375791</v>
+        <v>1.042869792654368</v>
       </c>
       <c r="ABC3">
-        <v>1.031652131262026</v>
+        <v>1.042679862923633</v>
       </c>
       <c r="ABD3">
-        <v>1.031652908911742</v>
+        <v>1.042582008438697</v>
       </c>
       <c r="ABE3">
-        <v>1.030923126936832</v>
+        <v>1.042416534674698</v>
       </c>
       <c r="ABF3">
-        <v>1.031015263608474</v>
+        <v>1.042416298456208</v>
       </c>
       <c r="ABG3">
-        <v>1.031391308637814</v>
+        <v>1.042524920366533</v>
       </c>
       <c r="ABH3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510563</v>
       </c>
       <c r="ABI3">
-        <v>1.032420288511738</v>
+        <v>1.0428696421281</v>
       </c>
       <c r="ABJ3">
-        <v>1.031634715622201</v>
+        <v>1.042677216126199</v>
       </c>
       <c r="ABK3">
-        <v>1.031652013468474</v>
+        <v>1.042582008438697</v>
       </c>
       <c r="ABL3">
-        <v>1.03081946722029</v>
+        <v>1.042392623368034</v>
       </c>
       <c r="ABM3">
-        <v>1.031011438400647</v>
+        <v>1.04241408074172</v>
       </c>
       <c r="ABN3">
-        <v>1.031390497000474</v>
+        <v>1.042524365234677</v>
       </c>
       <c r="ABO3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510563</v>
       </c>
       <c r="ABP3">
-        <v>1.032419264207766</v>
+        <v>1.042869502955199</v>
       </c>
       <c r="ABQ3">
-        <v>1.031620806505214</v>
+        <v>1.042675102243602</v>
       </c>
       <c r="ABR3">
-        <v>1.031650939383632</v>
+        <v>1.042582008438697</v>
       </c>
       <c r="ABS3">
-        <v>1.030736232827128</v>
+        <v>1.042373423560003</v>
       </c>
       <c r="ABT3">
-        <v>1.031000583832449</v>
+        <v>1.042409070735625</v>
       </c>
       <c r="ABU3">
-        <v>1.031011084141118</v>
+        <v>1.042413833479447</v>
       </c>
       <c r="ABV3">
-        <v>1.031389535822325</v>
+        <v>1.042523707822081</v>
       </c>
       <c r="ABW3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510562</v>
       </c>
       <c r="ABX3">
-        <v>1.032418298909549</v>
+        <v>1.04286937179945</v>
       </c>
       <c r="ABY3">
-        <v>1.031608945983701</v>
+        <v>1.042673299702751</v>
       </c>
       <c r="ABZ3">
-        <v>1.03164978192875</v>
+        <v>1.042582008438696</v>
       </c>
       <c r="ACA3">
-        <v>1.030719595271524</v>
+        <v>1.042367939645857</v>
       </c>
       <c r="ACB3">
-        <v>1.03060194651666</v>
+        <v>1.042357936389729</v>
       </c>
       <c r="ACC3">
-        <v>1.030991760413463</v>
+        <v>1.042404998221322</v>
       </c>
       <c r="ACD3">
-        <v>1.031010827960562</v>
+        <v>1.042413654673286</v>
       </c>
       <c r="ACE3">
-        <v>1.031388598439992</v>
+        <v>1.042523066685</v>
       </c>
       <c r="ACF3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510562</v>
       </c>
       <c r="ACG3">
-        <v>1.032416956364444</v>
+        <v>1.0428691893869</v>
       </c>
       <c r="ACH3">
-        <v>1.031595027579538</v>
+        <v>1.042671184408443</v>
       </c>
       <c r="ACI3">
-        <v>1.031647670212702</v>
+        <v>1.042582008438696</v>
       </c>
       <c r="ACJ3">
-        <v>1.030696656929109</v>
+        <v>1.042360378923293</v>
       </c>
       <c r="ACK3">
-        <v>1.030489700852943</v>
+        <v>1.042344991147741</v>
       </c>
       <c r="ACL3">
-        <v>1.031010611767014</v>
+        <v>1.042413503776828</v>
       </c>
       <c r="ACM3">
-        <v>1.031387309740005</v>
+        <v>1.042522185258797</v>
       </c>
       <c r="ACN3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510561</v>
       </c>
       <c r="ACO3">
-        <v>1.032415311130401</v>
+        <v>1.042868965847789</v>
       </c>
       <c r="ACP3">
-        <v>1.031582309780262</v>
+        <v>1.042669251579806</v>
       </c>
       <c r="ACQ3">
-        <v>1.031631871281443</v>
+        <v>1.042582008438696</v>
       </c>
       <c r="ACR3">
-        <v>1.030640227949637</v>
+        <v>1.042341779316854</v>
       </c>
       <c r="ACS3">
-        <v>1.030428470151508</v>
+        <v>1.042340283438325</v>
       </c>
       <c r="ACT3">
-        <v>1.030488961870749</v>
+        <v>1.042344820683668</v>
       </c>
       <c r="ACU3">
-        <v>1.031010246591103</v>
+        <v>1.042413248895255</v>
       </c>
       <c r="ACV3">
-        <v>1.031385536924558</v>
+        <v>1.042520972714366</v>
       </c>
       <c r="ACW3">
-        <v>1.031574834458088</v>
+        <v>1.042591411510561</v>
       </c>
       <c r="ACX3">
-        <v>1.032407513148061</v>
+        <v>1.042867906330397</v>
       </c>
       <c r="ACY3">
-        <v>1.031562579632609</v>
+        <v>1.042666253026633</v>
       </c>
       <c r="ACZ3">
-        <v>1.03158345555632</v>
+        <v>1.042582008438696</v>
       </c>
       <c r="ADA3">
-        <v>1.030594491503739</v>
+        <v>1.042326704073108</v>
       </c>
       <c r="ADB3">
-        <v>1.030368470650219</v>
+        <v>1.042335670388001</v>
       </c>
       <c r="ADC3">
-        <v>1.030488255308974</v>
+        <v>1.042344657698146</v>
       </c>
       <c r="ADD3">
-        <v>1.031009735205467</v>
+        <v>1.042412891963785</v>
       </c>
       <c r="ADE3">
-        <v>1.031383660783852</v>
+        <v>1.042519689499029</v>
       </c>
       <c r="ADF3">
-        <v>1.031574834458088</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="ADG3">
-        <v>1.032340838195059</v>
+        <v>1.042858847155582</v>
       </c>
       <c r="ADH3">
-        <v>1.031522746434058</v>
+        <v>1.042660199246237</v>
       </c>
       <c r="ADI3">
-        <v>1.030558754417279</v>
+        <v>1.04231492472197</v>
       </c>
       <c r="ADJ3">
-        <v>1.030487493598473</v>
+        <v>1.042344481991239</v>
       </c>
       <c r="ADK3">
-        <v>1.031009355745361</v>
+        <v>1.042412627112282</v>
       </c>
       <c r="ADL3">
-        <v>1.031382414514947</v>
+        <v>1.04251883709421</v>
       </c>
       <c r="ADM3">
-        <v>1.031574834458089</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="ADN3">
-        <v>1.031512855198305</v>
+        <v>1.042659295079545</v>
       </c>
       <c r="ADO3">
-        <v>1.031510778723717</v>
+        <v>1.042654808897742</v>
       </c>
       <c r="ADP3">
-        <v>1.03052645502577</v>
+        <v>1.042304278468225</v>
       </c>
       <c r="ADQ3">
-        <v>1.030486813449189</v>
+        <v>1.042344325098395</v>
       </c>
       <c r="ADR3">
-        <v>1.031008727153896</v>
+        <v>1.042412188374741</v>
       </c>
       <c r="ADS3">
-        <v>1.03138114611311</v>
+        <v>1.042517969551229</v>
       </c>
       <c r="ADT3">
-        <v>1.031574834458089</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="ADU3">
-        <v>1.031504229107942</v>
+        <v>1.042658506560885</v>
       </c>
       <c r="ADV3">
-        <v>1.031491628648075</v>
+        <v>1.042646183556425</v>
       </c>
       <c r="ADW3">
-        <v>1.030524008079316</v>
+        <v>1.042303871967622</v>
       </c>
       <c r="ADX3">
-        <v>1.030515052578076</v>
+        <v>1.042298992574801</v>
       </c>
       <c r="ADY3">
-        <v>1.030486062337651</v>
+        <v>1.042344151836393</v>
       </c>
       <c r="ADZ3">
-        <v>1.031004364088654</v>
+        <v>1.042409143089165</v>
       </c>
       <c r="AEA3">
-        <v>1.031380539635715</v>
+        <v>1.042517554741669</v>
       </c>
       <c r="AEB3">
-        <v>1.031574834458089</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="AEC3">
-        <v>1.031497094938788</v>
+        <v>1.042657854420056</v>
       </c>
       <c r="AED3">
-        <v>1.031475266784188</v>
+        <v>1.042638814046711</v>
       </c>
       <c r="AEE3">
-        <v>1.030521554704444</v>
+        <v>1.042303464399088</v>
       </c>
       <c r="AEF3">
-        <v>1.030496834338886</v>
+        <v>1.042290547038441</v>
       </c>
       <c r="AEG3">
-        <v>1.030515052578076</v>
+        <v>1.042298992574801</v>
       </c>
       <c r="AEH3">
-        <v>1.030485578071359</v>
+        <v>1.042344040128687</v>
       </c>
       <c r="AEI3">
-        <v>1.030994726615786</v>
+        <v>1.042402416428925</v>
       </c>
       <c r="AEJ3">
-        <v>1.031379574959916</v>
+        <v>1.04251689493679</v>
       </c>
       <c r="AEK3">
-        <v>1.031574834458088</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="AEL3">
-        <v>1.031491547062472</v>
+        <v>1.042657347283667</v>
       </c>
       <c r="AEM3">
-        <v>1.03146600661134</v>
+        <v>1.042634643193256</v>
       </c>
       <c r="AEN3">
-        <v>1.030519096567816</v>
+        <v>1.042303056039501</v>
       </c>
       <c r="AEO3">
-        <v>1.030481558965413</v>
+        <v>1.042283465742067</v>
       </c>
       <c r="AEP3">
-        <v>1.030496834338886</v>
+        <v>1.042290547038441</v>
       </c>
       <c r="AEQ3">
-        <v>1.030484834271421</v>
+        <v>1.042343868553283</v>
       </c>
       <c r="AER3">
-        <v>1.031378669343595</v>
+        <v>1.04251627552655</v>
       </c>
       <c r="AES3">
-        <v>1.031574834458089</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="AET3">
-        <v>1.031485904529046</v>
+        <v>1.042656831494572</v>
       </c>
       <c r="AEU3">
-        <v>1.030516653311817</v>
+        <v>1.042302650151963</v>
       </c>
       <c r="AEV3">
-        <v>1.030465138330777</v>
+        <v>1.042275853528494</v>
       </c>
       <c r="AEW3">
-        <v>1.030481558965413</v>
+        <v>1.042283465742067</v>
       </c>
       <c r="AEX3">
-        <v>1.030478716328899</v>
+        <v>1.042342457302188</v>
       </c>
       <c r="AEY3">
-        <v>1.031377375368462</v>
+        <v>1.042515390492313</v>
       </c>
       <c r="AEZ3">
-        <v>1.031574834458089</v>
+        <v>1.04259141151056</v>
       </c>
       <c r="AFA3">
-        <v>1.031481007813389</v>
+        <v>1.042656383881343</v>
       </c>
       <c r="AFB3">
-        <v>1.030514200770291</v>
+        <v>1.042302242721856</v>
       </c>
       <c r="AFC3">
-        <v>1.030451656411418</v>
+        <v>1.0422696036318</v>
       </c>
       <c r="AFD3">
-        <v>1.030465138330777</v>
+        <v>1.042275853528494</v>
       </c>
       <c r="AFE3">
-        <v>1.030457631135806</v>
+        <v>1.042337593493235</v>
       </c>
       <c r="AFF3">
-        <v>1.031363716582546</v>
+        <v>1.042506048355027</v>
       </c>
       <c r="AFG3">
-        <v>1.031477490917638</v>
+        <v>1.042656062398698</v>
       </c>
       <c r="AFH3">
-        <v>1.030511749895462</v>
+        <v>1.042301835568626</v>
       </c>
       <c r="AFI3">
-        <v>1.03043718209038</v>
+        <v>1.042262893680064</v>
       </c>
       <c r="AFJ3">
-        <v>1.030451656411418</v>
+        <v>1.0422696036318</v>
       </c>
       <c r="AFK3">
-        <v>1.031358253412649</v>
+        <v>1.042502311735652</v>
       </c>
       <c r="AFL3">
-        <v>1.031473407795301</v>
+        <v>1.042655689156759</v>
       </c>
       <c r="AFM3">
-        <v>1.030509297473188</v>
+        <v>1.04230142815832</v>
       </c>
       <c r="AFN3">
-        <v>1.030360814482958</v>
+        <v>1.042227491441155</v>
       </c>
       <c r="AFO3">
-        <v>1.03043718209038</v>
+        <v>1.042262893680065</v>
       </c>
       <c r="AFP3">
-        <v>1.03043718209038</v>
+        <v>1.042262893680064</v>
       </c>
       <c r="AFQ3">
-        <v>1.031355479224672</v>
+        <v>1.042500414286952</v>
       </c>
       <c r="AFR3">
-        <v>1.031467256516743</v>
+        <v>1.042655126862756</v>
       </c>
       <c r="AFS3">
-        <v>1.030508100368264</v>
+        <v>1.042301229288455</v>
       </c>
       <c r="AFT3">
-        <v>1.030349641680786</v>
+        <v>1.042222311990512</v>
       </c>
       <c r="AFU3">
-        <v>1.030437182090381</v>
+        <v>1.042262893680066</v>
       </c>
       <c r="AFV3">
-        <v>1.03043718209038</v>
+        <v>1.042262893680065</v>
       </c>
       <c r="AFW3">
-        <v>1.031354865350611</v>
+        <v>1.042499994418309</v>
       </c>
       <c r="AFX3">
-        <v>1.031457206568738</v>
+        <v>1.042654208187772</v>
       </c>
       <c r="AFY3">
-        <v>1.030481195269118</v>
+        <v>1.042296759660365</v>
       </c>
       <c r="AFZ3">
-        <v>1.030318165379136</v>
+        <v>1.042207720310048</v>
       </c>
       <c r="AGA3">
-        <v>1.030437182090382</v>
+        <v>1.042262893680069</v>
       </c>
       <c r="AGB3">
-        <v>1.030437182090381</v>
+        <v>1.042262893680066</v>
       </c>
       <c r="AGC3">
-        <v>1.031354381894691</v>
+        <v>1.042499663751166</v>
       </c>
       <c r="AGD3">
-        <v>1.031417284961009</v>
+        <v>1.042646836411284</v>
       </c>
       <c r="AGE3">
-        <v>1.031348769976486</v>
+        <v>1.042654208187772</v>
       </c>
       <c r="AGF3">
-        <v>1.030463699398162</v>
+        <v>1.04229385314647</v>
       </c>
       <c r="AGG3">
-        <v>1.030281204310127</v>
+        <v>1.04219058601775</v>
       </c>
       <c r="AGH3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGI3">
-        <v>1.030437182090382</v>
+        <v>1.042262893680069</v>
       </c>
       <c r="AGJ3">
-        <v>1.03135386390333</v>
+        <v>1.042499309462976</v>
       </c>
       <c r="AGK3">
-        <v>1.030448397506378</v>
+        <v>1.042291311108713</v>
       </c>
       <c r="AGL3">
-        <v>1.030276409661745</v>
+        <v>1.042188363330118</v>
       </c>
       <c r="AGM3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGN3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGO3">
-        <v>1.031353449472402</v>
+        <v>1.042499026006542</v>
       </c>
       <c r="AGP3">
-        <v>1.030432346830283</v>
+        <v>1.042288644678427</v>
       </c>
       <c r="AGQ3">
-        <v>1.030275204404939</v>
+        <v>1.04218556954844</v>
       </c>
       <c r="AGR3">
-        <v>1.030265682755375</v>
+        <v>1.042188363330117</v>
       </c>
       <c r="AGS3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGT3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGU3">
-        <v>1.03135304707697</v>
+        <v>1.042498750781972</v>
       </c>
       <c r="AGV3">
-        <v>1.03040494056875</v>
+        <v>1.042284091792748</v>
       </c>
       <c r="AGW3">
-        <v>1.030274089148607</v>
+        <v>1.042182984387611</v>
       </c>
       <c r="AGX3">
-        <v>1.03024057890771</v>
+        <v>1.042188363330117</v>
       </c>
       <c r="AGY3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AGZ3">
-        <v>1.030437182090381</v>
+        <v>1.04226289368007</v>
       </c>
       <c r="AHA3">
-        <v>1.031352645702172</v>
+        <v>1.042498476255479</v>
       </c>
       <c r="AHB3">
-        <v>1.030398218404491</v>
+        <v>1.042282975068097</v>
       </c>
       <c r="AHC3">
-        <v>1.030272393303559</v>
+        <v>1.042179053423913</v>
       </c>
       <c r="AHD3">
-        <v>1.030181025085352</v>
+        <v>1.042188363330117</v>
       </c>
       <c r="AHE3">
-        <v>1.031352249023481</v>
+        <v>1.042498204940961</v>
       </c>
       <c r="AHF3">
-        <v>1.030398218404491</v>
+        <v>1.042282160573315</v>
       </c>
       <c r="AHG3">
-        <v>1.030369848476572</v>
+        <v>1.042281378114992</v>
       </c>
       <c r="AHH3">
-        <v>1.030270250219082</v>
+        <v>1.042174085760626</v>
       </c>
       <c r="AHI3">
-        <v>1.031345155584431</v>
+        <v>1.042493353273721</v>
       </c>
       <c r="AHJ3">
-        <v>1.030398218404491</v>
+        <v>1.042280823239681</v>
       </c>
       <c r="AHK3">
-        <v>1.030345786967949</v>
+        <v>1.042280023683941</v>
       </c>
       <c r="AHL3">
-        <v>1.030261907232901</v>
+        <v>1.042154746744663</v>
       </c>
       <c r="AHM3">
-        <v>1.031328661830856</v>
+        <v>1.042478123743502</v>
       </c>
       <c r="AHN3">
-        <v>1.0313356977587</v>
+        <v>1.042489093337202</v>
       </c>
       <c r="AHO3">
-        <v>1.030398218404491</v>
+        <v>1.042280558819475</v>
       </c>
       <c r="AHP3">
-        <v>1.030305344526999</v>
+        <v>1.04227774716351</v>
       </c>
       <c r="AHQ3">
-        <v>1.030246751651241</v>
+        <v>1.042119616155983</v>
       </c>
       <c r="AHR3">
-        <v>1.031317708093121</v>
+        <v>1.042468009594517</v>
       </c>
       <c r="AHS3">
-        <v>1.030398218404491</v>
+        <v>1.042280335390095</v>
       </c>
       <c r="AHT3">
-        <v>1.030398218404491</v>
+        <v>1.042280147106901</v>
       </c>
       <c r="AHU3">
-        <v>1.03039821840449</v>
+        <v>1.042279902181861</v>
       </c>
       <c r="AHV3">
-        <v>1.03039821840449</v>
+        <v>1.042279458905687</v>
       </c>
       <c r="AHW3">
-        <v>1.03039821840449</v>
+        <v>1.042278690344186</v>
       </c>
       <c r="AHX3">
-        <v>1.03039821840449</v>
+        <v>1.042272395017211</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049926680790876</v>
+        <v>1.049923469977562</v>
       </c>
       <c r="D2">
-        <v>1.049885578012603</v>
+        <v>1.049880615644619</v>
       </c>
       <c r="E2">
-        <v>1.049881268961289</v>
+        <v>1.049876122967401</v>
       </c>
       <c r="F2">
-        <v>1.049877232056993</v>
+        <v>1.049871914034492</v>
       </c>
       <c r="G2">
-        <v>1.049873712456267</v>
+        <v>1.049868244449536</v>
       </c>
       <c r="H2">
-        <v>1.049868167703476</v>
+        <v>1.049862463412733</v>
       </c>
       <c r="I2">
-        <v>1.049490596937952</v>
+        <v>1.049468802926832</v>
       </c>
       <c r="J2">
-        <v>1.04947368619854</v>
+        <v>1.049451171560206</v>
       </c>
       <c r="K2">
-        <v>1.049459611077876</v>
+        <v>1.04943649664843</v>
       </c>
       <c r="L2">
-        <v>1.049447259040609</v>
+        <v>1.049423618246953</v>
       </c>
       <c r="M2">
-        <v>1.04943804208794</v>
+        <v>1.049414008527274</v>
       </c>
       <c r="N2">
-        <v>1.049429389639123</v>
+        <v>1.049404987367036</v>
       </c>
       <c r="O2">
-        <v>1.04942406917402</v>
+        <v>1.049399440178151</v>
       </c>
       <c r="P2">
-        <v>1.049410823602895</v>
+        <v>1.049385630166655</v>
       </c>
       <c r="Q2">
-        <v>1.049303523555415</v>
+        <v>1.049273757693455</v>
       </c>
       <c r="R2">
-        <v>1.049303523555415</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="S2">
-        <v>1.049173404276261</v>
+        <v>1.049138093598251</v>
       </c>
       <c r="T2">
-        <v>1.049303523555414</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="U2">
-        <v>1.049164451291158</v>
+        <v>1.049128759097265</v>
       </c>
       <c r="V2">
-        <v>1.049303523555414</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="W2">
-        <v>1.049154398136165</v>
+        <v>1.049118277544661</v>
       </c>
       <c r="X2">
-        <v>1.049303523555414</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="Y2">
-        <v>1.049138029570823</v>
+        <v>1.04910121146177</v>
       </c>
       <c r="Z2">
-        <v>1.049303523555414</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="AA2">
-        <v>1.049108251204144</v>
+        <v>1.049070164143217</v>
       </c>
       <c r="AB2">
-        <v>1.049303523555413</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="AC2">
-        <v>1.049092718113951</v>
+        <v>1.049058561908174</v>
       </c>
       <c r="AD2">
-        <v>1.048745263005528</v>
+        <v>1.048688700952146</v>
       </c>
       <c r="AE2">
-        <v>1.049303523555413</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="AF2">
-        <v>1.049090605236758</v>
+        <v>1.04905644896219</v>
       </c>
       <c r="AG2">
-        <v>1.049090608071061</v>
+        <v>1.049057506857127</v>
       </c>
       <c r="AH2">
-        <v>1.048648630306908</v>
+        <v>1.048587149971686</v>
       </c>
       <c r="AI2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="AJ2">
-        <v>1.049085766598882</v>
+        <v>1.049051610166775</v>
       </c>
       <c r="AK2">
-        <v>1.049090536614277</v>
+        <v>1.049057471127733</v>
       </c>
       <c r="AL2">
-        <v>1.04861439512796</v>
+        <v>1.048563705448087</v>
       </c>
       <c r="AM2">
-        <v>1.048375044574353</v>
+        <v>1.04829282861427</v>
       </c>
       <c r="AN2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="AO2">
-        <v>1.049090433872344</v>
+        <v>1.049057419755325</v>
       </c>
       <c r="AP2">
-        <v>1.048612523440711</v>
+        <v>1.048563159524585</v>
       </c>
       <c r="AQ2">
-        <v>1.048612047612001</v>
+        <v>1.048558775390466</v>
       </c>
       <c r="AR2">
-        <v>1.048185195328714</v>
+        <v>1.048088590389228</v>
       </c>
       <c r="AS2">
-        <v>1.048375044574352</v>
+        <v>1.048292828614269</v>
       </c>
       <c r="AT2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="AU2">
-        <v>1.049090302112829</v>
+        <v>1.049057353873719</v>
       </c>
       <c r="AV2">
-        <v>1.048611679815267</v>
+        <v>1.048562913460527</v>
       </c>
       <c r="AW2">
-        <v>1.048606399044158</v>
+        <v>1.048546912738738</v>
       </c>
       <c r="AX2">
-        <v>1.048041735003644</v>
+        <v>1.047934257021862</v>
       </c>
       <c r="AY2">
-        <v>1.048375044574351</v>
+        <v>1.048292828614268</v>
       </c>
       <c r="AZ2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="BA2">
-        <v>1.049089981219065</v>
+        <v>1.049057193422335</v>
       </c>
       <c r="BB2">
-        <v>1.048610785752897</v>
+        <v>1.048562652685302</v>
       </c>
       <c r="BC2">
-        <v>1.048021050956219</v>
+        <v>1.047912005307208</v>
       </c>
       <c r="BD2">
-        <v>1.048041735003648</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="BE2">
-        <v>1.048375044574351</v>
+        <v>1.048292828614267</v>
       </c>
       <c r="BF2">
-        <v>1.049303523555411</v>
+        <v>1.049273757693456</v>
       </c>
       <c r="BG2">
-        <v>1.049089706475415</v>
+        <v>1.049057056046655</v>
       </c>
       <c r="BH2">
-        <v>1.048609934220368</v>
+        <v>1.048562404314947</v>
       </c>
       <c r="BI2">
-        <v>1.047927357815814</v>
+        <v>1.047811211068641</v>
       </c>
       <c r="BJ2">
-        <v>1.048041735003648</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="BK2">
-        <v>1.04837504457435</v>
+        <v>1.048292828614267</v>
       </c>
       <c r="BL2">
-        <v>1.04930352355541</v>
+        <v>1.049273757693457</v>
       </c>
       <c r="BM2">
-        <v>1.049088389452874</v>
+        <v>1.049056397516906</v>
       </c>
       <c r="BN2">
-        <v>1.04860942423661</v>
+        <v>1.048562255565671</v>
       </c>
       <c r="BO2">
-        <v>1.047909437477862</v>
+        <v>1.047791847226894</v>
       </c>
       <c r="BP2">
-        <v>1.047884396925291</v>
+        <v>1.047768245496918</v>
       </c>
       <c r="BQ2">
-        <v>1.048041735003648</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="BR2">
-        <v>1.04837504457435</v>
+        <v>1.048292828614267</v>
       </c>
       <c r="BS2">
-        <v>1.04930352355541</v>
+        <v>1.049273757693458</v>
       </c>
       <c r="BT2">
-        <v>1.049083734229753</v>
+        <v>1.049054069840009</v>
       </c>
       <c r="BU2">
-        <v>1.048608423685921</v>
+        <v>1.048561963730513</v>
       </c>
       <c r="BV2">
-        <v>1.047697715807216</v>
+        <v>1.047563071182936</v>
       </c>
       <c r="BW2">
-        <v>1.047868647646297</v>
+        <v>1.047755119679417</v>
       </c>
       <c r="BX2">
-        <v>1.047879147221966</v>
+        <v>1.047760370043846</v>
       </c>
       <c r="BY2">
-        <v>1.048041735003649</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="BZ2">
-        <v>1.048375044574348</v>
+        <v>1.048292828614266</v>
       </c>
       <c r="CA2">
-        <v>1.049303523555411</v>
+        <v>1.04927375769346</v>
       </c>
       <c r="CB2">
-        <v>1.048603352856778</v>
+        <v>1.048560484698756</v>
       </c>
       <c r="CC2">
-        <v>1.047623915313173</v>
+        <v>1.047483326013739</v>
       </c>
       <c r="CD2">
-        <v>1.048041735003649</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="CE2">
-        <v>1.048375044574344</v>
+        <v>1.048292828614261</v>
       </c>
       <c r="CF2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693463</v>
       </c>
       <c r="CG2">
-        <v>1.048584244843721</v>
+        <v>1.048554911377572</v>
       </c>
       <c r="CH2">
-        <v>1.047607809643629</v>
+        <v>1.047465923024115</v>
       </c>
       <c r="CI2">
-        <v>1.048041735003649</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="CJ2">
-        <v>1.048375044574335</v>
+        <v>1.048292828614253</v>
       </c>
       <c r="CK2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693465</v>
       </c>
       <c r="CL2">
-        <v>1.047575149902622</v>
+        <v>1.047430632525592</v>
       </c>
       <c r="CM2">
-        <v>1.048041735003649</v>
+        <v>1.047934257021863</v>
       </c>
       <c r="CN2">
-        <v>1.048375044574333</v>
+        <v>1.048292828614251</v>
       </c>
       <c r="CO2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693465</v>
       </c>
       <c r="CP2">
-        <v>1.047544350268957</v>
+        <v>1.047397351968958</v>
       </c>
       <c r="CQ2">
-        <v>1.048375044574333</v>
+        <v>1.04829282861425</v>
       </c>
       <c r="CR2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693466</v>
       </c>
       <c r="CS2">
-        <v>1.04752644837872</v>
+        <v>1.047378008075115</v>
       </c>
       <c r="CT2">
-        <v>1.048375044574333</v>
+        <v>1.04829282861425</v>
       </c>
       <c r="CU2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693466</v>
       </c>
       <c r="CV2">
-        <v>1.047514625520804</v>
+        <v>1.047365232882167</v>
       </c>
       <c r="CW2">
-        <v>1.048375044574332</v>
+        <v>1.048292828614249</v>
       </c>
       <c r="CX2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693466</v>
       </c>
       <c r="CY2">
-        <v>1.047498301456738</v>
+        <v>1.047347593909931</v>
       </c>
       <c r="CZ2">
-        <v>1.048375044574334</v>
+        <v>1.048292828614239</v>
       </c>
       <c r="DA2">
-        <v>1.049303523555412</v>
+        <v>1.049273757693466</v>
       </c>
       <c r="DB2">
-        <v>1.047498168247719</v>
+        <v>1.047347504970942</v>
       </c>
       <c r="DC2">
-        <v>1.047488301132652</v>
+        <v>1.047336466909263</v>
       </c>
       <c r="DD2">
-        <v>1.048375044574334</v>
+        <v>1.048292828614238</v>
       </c>
       <c r="DE2">
-        <v>1.047498007083194</v>
+        <v>1.04734739736704</v>
       </c>
       <c r="DF2">
-        <v>1.047482630454048</v>
+        <v>1.047330157349419</v>
       </c>
       <c r="DG2">
-        <v>1.048375044574335</v>
+        <v>1.048292828614237</v>
       </c>
       <c r="DH2">
-        <v>1.047497820282034</v>
+        <v>1.047347272646451</v>
       </c>
       <c r="DI2">
-        <v>1.047258881218198</v>
+        <v>1.047081199710368</v>
       </c>
       <c r="DJ2">
-        <v>1.048375044574346</v>
+        <v>1.048292828614205</v>
       </c>
       <c r="DK2">
-        <v>1.047497535465714</v>
+        <v>1.047347082484568</v>
       </c>
       <c r="DL2">
-        <v>1.047236466482498</v>
+        <v>1.047056259657248</v>
       </c>
       <c r="DM2">
-        <v>1.048375044574356</v>
+        <v>1.048292828614176</v>
       </c>
       <c r="DN2">
-        <v>1.047497169295823</v>
+        <v>1.047346838005739</v>
       </c>
       <c r="DO2">
-        <v>1.047235727369304</v>
+        <v>1.047055695845016</v>
       </c>
       <c r="DP2">
-        <v>1.047177151154319</v>
+        <v>1.046987629060719</v>
       </c>
       <c r="DQ2">
-        <v>1.048375044574357</v>
+        <v>1.048292828614173</v>
       </c>
       <c r="DR2">
-        <v>1.047496906420883</v>
+        <v>1.047346662493326</v>
       </c>
       <c r="DS2">
-        <v>1.047235727369303</v>
+        <v>1.047055695845015</v>
       </c>
       <c r="DT2">
-        <v>1.047235367499664</v>
+        <v>1.047055421328309</v>
       </c>
       <c r="DU2">
-        <v>1.047070184260946</v>
+        <v>1.046863863493577</v>
       </c>
       <c r="DV2">
-        <v>1.048375044574357</v>
+        <v>1.048292828614171</v>
       </c>
       <c r="DW2">
-        <v>1.047496534980603</v>
+        <v>1.047346414495614</v>
       </c>
       <c r="DX2">
-        <v>1.047235727369302</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="DY2">
-        <v>1.047233676953612</v>
+        <v>1.047054131741345</v>
       </c>
       <c r="DZ2">
-        <v>1.04702208153788</v>
+        <v>1.046808206498044</v>
       </c>
       <c r="EA2">
-        <v>1.048375044574358</v>
+        <v>1.048292828614169</v>
       </c>
       <c r="EB2">
-        <v>1.047496133109017</v>
+        <v>1.047346146179962</v>
       </c>
       <c r="EC2">
-        <v>1.047235727369301</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="ED2">
-        <v>1.047226031309628</v>
+        <v>1.047044184413028</v>
       </c>
       <c r="EE2">
-        <v>1.047229989743789</v>
+        <v>1.047051917305031</v>
       </c>
       <c r="EF2">
-        <v>1.047007769685188</v>
+        <v>1.04679164705178</v>
       </c>
       <c r="EG2">
-        <v>1.048375044574359</v>
+        <v>1.048292828614164</v>
       </c>
       <c r="EH2">
-        <v>1.047495754111855</v>
+        <v>1.047345893136747</v>
       </c>
       <c r="EI2">
-        <v>1.047235727369301</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="EJ2">
-        <v>1.047225372870255</v>
+        <v>1.047043327753655</v>
       </c>
       <c r="EK2">
-        <v>1.047227246660151</v>
+        <v>1.047050269883648</v>
       </c>
       <c r="EL2">
-        <v>1.046991614451659</v>
+        <v>1.046772954735417</v>
       </c>
       <c r="EM2">
-        <v>1.04837504457436</v>
+        <v>1.048292828614159</v>
       </c>
       <c r="EN2">
-        <v>1.047495130980221</v>
+        <v>1.047345477093405</v>
       </c>
       <c r="EO2">
-        <v>1.0472357273693</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="EP2">
-        <v>1.047224726816151</v>
+        <v>1.047042487208079</v>
       </c>
       <c r="EQ2">
-        <v>1.047225409687099</v>
+        <v>1.047049166647071</v>
       </c>
       <c r="ER2">
-        <v>1.046976420765481</v>
+        <v>1.046755374974591</v>
       </c>
       <c r="ES2">
-        <v>1.04837504457436</v>
+        <v>1.048292828614159</v>
       </c>
       <c r="ET2">
-        <v>1.047492168128462</v>
+        <v>1.047343498899575</v>
       </c>
       <c r="EU2">
-        <v>1.0472357273693</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="EV2">
-        <v>1.047224205154828</v>
+        <v>1.047041808503132</v>
       </c>
       <c r="EW2">
-        <v>1.047225050006124</v>
+        <v>1.047048618034726</v>
       </c>
       <c r="EX2">
-        <v>1.047198029195848</v>
+        <v>1.047038897607702</v>
       </c>
       <c r="EY2">
-        <v>1.04695869265428</v>
+        <v>1.046734862776516</v>
       </c>
       <c r="EZ2">
-        <v>1.04837504457436</v>
+        <v>1.048292828614158</v>
       </c>
       <c r="FA2">
-        <v>1.047491522687303</v>
+        <v>1.047343067960654</v>
       </c>
       <c r="FB2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="FC2">
-        <v>1.047223422182633</v>
+        <v>1.047040789820937</v>
       </c>
       <c r="FD2">
-        <v>1.047224096111143</v>
+        <v>1.047047163082978</v>
       </c>
       <c r="FE2">
-        <v>1.047196362643299</v>
+        <v>1.047038272567981</v>
       </c>
       <c r="FF2">
-        <v>1.046953591486219</v>
+        <v>1.046728960503239</v>
       </c>
       <c r="FG2">
-        <v>1.04837504457436</v>
+        <v>1.048292828614158</v>
       </c>
       <c r="FH2">
-        <v>1.047460967898817</v>
+        <v>1.047343067960654</v>
       </c>
       <c r="FI2">
-        <v>1.047490145905937</v>
+        <v>1.04734143820874</v>
       </c>
       <c r="FJ2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="FK2">
-        <v>1.047222478222174</v>
+        <v>1.047039561685739</v>
       </c>
       <c r="FL2">
-        <v>1.047223764771412</v>
+        <v>1.047046657699009</v>
       </c>
       <c r="FM2">
-        <v>1.047194840159287</v>
+        <v>1.047037701561091</v>
       </c>
       <c r="FN2">
-        <v>1.046924610965911</v>
+        <v>1.046695428787051</v>
       </c>
       <c r="FO2">
-        <v>1.04837504457436</v>
+        <v>1.048292828614158</v>
       </c>
       <c r="FP2">
-        <v>1.047455195583401</v>
+        <v>1.047343067960654</v>
       </c>
       <c r="FQ2">
-        <v>1.047488318084743</v>
+        <v>1.047339274543045</v>
       </c>
       <c r="FR2">
-        <v>1.047235727369298</v>
+        <v>1.047055695845012</v>
       </c>
       <c r="FS2">
-        <v>1.04722176507962</v>
+        <v>1.047038633855063</v>
       </c>
       <c r="FT2">
-        <v>1.047223764771425</v>
+        <v>1.047046657699004</v>
       </c>
       <c r="FU2">
-        <v>1.047218293193711</v>
+        <v>1.047038312047221</v>
       </c>
       <c r="FV2">
-        <v>1.047194207698523</v>
+        <v>1.047037464356988</v>
       </c>
       <c r="FW2">
-        <v>1.046908242619076</v>
+        <v>1.046676489905947</v>
       </c>
       <c r="FX2">
-        <v>1.047443286134126</v>
+        <v>1.047343067960654</v>
       </c>
       <c r="FY2">
-        <v>1.047488132152464</v>
+        <v>1.047339094537927</v>
       </c>
       <c r="FZ2">
-        <v>1.047485087645735</v>
+        <v>1.047334388728952</v>
       </c>
       <c r="GA2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="GB2">
-        <v>1.047220939849548</v>
+        <v>1.047037560193465</v>
       </c>
       <c r="GC2">
-        <v>1.047223764771427</v>
+        <v>1.047046657699003</v>
       </c>
       <c r="GD2">
-        <v>1.047217702258108</v>
+        <v>1.047037410708888</v>
       </c>
       <c r="GE2">
-        <v>1.047192844436821</v>
+        <v>1.047036953066344</v>
       </c>
       <c r="GF2">
-        <v>1.046896091956353</v>
+        <v>1.046662431068844</v>
       </c>
       <c r="GG2">
-        <v>1.047487400459295</v>
+        <v>1.047338386169711</v>
       </c>
       <c r="GH2">
-        <v>1.047471717544236</v>
+        <v>1.047314167381753</v>
       </c>
       <c r="GI2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="GJ2">
-        <v>1.047220163920338</v>
+        <v>1.047036550674517</v>
       </c>
       <c r="GK2">
-        <v>1.047223764771428</v>
+        <v>1.047046657699003</v>
       </c>
       <c r="GL2">
-        <v>1.047223764771428</v>
+        <v>1.047046657699003</v>
       </c>
       <c r="GM2">
-        <v>1.047217130660762</v>
+        <v>1.047036538866683</v>
       </c>
       <c r="GN2">
-        <v>1.047189372225741</v>
+        <v>1.047035650815242</v>
       </c>
       <c r="GO2">
-        <v>1.046885167953358</v>
+        <v>1.046649791531123</v>
       </c>
       <c r="GP2">
-        <v>1.047486094057165</v>
+        <v>1.047337121413113</v>
       </c>
       <c r="GQ2">
-        <v>1.047469104415023</v>
+        <v>1.047310215205929</v>
       </c>
       <c r="GR2">
-        <v>1.047471717544235</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="GS2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="GT2">
-        <v>1.047219329066152</v>
+        <v>1.047035464491514</v>
       </c>
       <c r="GU2">
-        <v>1.047223764771428</v>
+        <v>1.047046657699003</v>
       </c>
       <c r="GV2">
-        <v>1.047223764771428</v>
+        <v>1.047046657699003</v>
       </c>
       <c r="GW2">
-        <v>1.047216673440167</v>
+        <v>1.047035841480293</v>
       </c>
       <c r="GX2">
-        <v>1.04718733509703</v>
+        <v>1.047034886791087</v>
       </c>
       <c r="GY2">
-        <v>1.046871597252827</v>
+        <v>1.04663408965343</v>
       </c>
       <c r="GZ2">
-        <v>1.047486094057165</v>
+        <v>1.047332895671644</v>
       </c>
       <c r="HA2">
-        <v>1.047485757828213</v>
+        <v>1.047337011116856</v>
       </c>
       <c r="HB2">
-        <v>1.047462497778608</v>
+        <v>1.047300223128901</v>
       </c>
       <c r="HC2">
-        <v>1.047471717544235</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="HD2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="HE2">
-        <v>1.047218052824677</v>
+        <v>1.047033804043717</v>
       </c>
       <c r="HF2">
-        <v>1.047223764771428</v>
+        <v>1.047046657699002</v>
       </c>
       <c r="HG2">
-        <v>1.047216309227914</v>
+        <v>1.047035285957048</v>
       </c>
       <c r="HH2">
-        <v>1.047185908285237</v>
+        <v>1.047034351666</v>
       </c>
       <c r="HI2">
-        <v>1.046846554817905</v>
+        <v>1.046605114497078</v>
       </c>
       <c r="HJ2">
-        <v>1.047486094057164</v>
+        <v>1.047319064257102</v>
       </c>
       <c r="HK2">
-        <v>1.047485150992654</v>
+        <v>1.047336812051007</v>
       </c>
       <c r="HL2">
-        <v>1.047471717544235</v>
+        <v>1.047314167381751</v>
       </c>
       <c r="HM2">
-        <v>1.047235727369299</v>
+        <v>1.047055695845013</v>
       </c>
       <c r="HN2">
-        <v>1.04721456754617</v>
+        <v>1.047029269538993</v>
       </c>
       <c r="HO2">
-        <v>1.047223764771429</v>
+        <v>1.047046657699002</v>
       </c>
       <c r="HP2">
-        <v>1.047215539224874</v>
+        <v>1.04703411149193</v>
       </c>
       <c r="HQ2">
-        <v>1.047183163673606</v>
+        <v>1.047033322300699</v>
       </c>
       <c r="HR2">
-        <v>1.046824721821204</v>
+        <v>1.046579852802776</v>
       </c>
       <c r="HS2">
-        <v>1.047486094057164</v>
+        <v>1.047313101765414</v>
       </c>
       <c r="HT2">
-        <v>1.04748493431853</v>
+        <v>1.04733674097339</v>
       </c>
       <c r="HU2">
-        <v>1.047471717544235</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="HV2">
-        <v>1.0472142703801</v>
+        <v>1.047028882912518</v>
       </c>
       <c r="HW2">
-        <v>1.047223764771429</v>
+        <v>1.047046657699002</v>
       </c>
       <c r="HX2">
-        <v>1.047214932829123</v>
+        <v>1.047033186572653</v>
       </c>
       <c r="HY2">
-        <v>1.04718179758408</v>
+        <v>1.047032809949462</v>
       </c>
       <c r="HZ2">
-        <v>1.04680987001549</v>
+        <v>1.046562668643046</v>
       </c>
       <c r="IA2">
-        <v>1.047460753117119</v>
+        <v>1.047328808581268</v>
       </c>
       <c r="IB2">
-        <v>1.04748493431853</v>
+        <v>1.04733674097339</v>
       </c>
       <c r="IC2">
-        <v>1.047471717544234</v>
+        <v>1.047314167381751</v>
       </c>
       <c r="ID2">
-        <v>1.047214133121878</v>
+        <v>1.047028704333373</v>
       </c>
       <c r="IE2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699002</v>
       </c>
       <c r="IF2">
-        <v>1.047214512202808</v>
+        <v>1.047032545002546</v>
       </c>
       <c r="IG2">
-        <v>1.047180827576167</v>
+        <v>1.047032446148446</v>
       </c>
       <c r="IH2">
-        <v>1.046800113659055</v>
+        <v>1.046551380132498</v>
       </c>
       <c r="II2">
-        <v>1.047457241477441</v>
+        <v>1.047327656624263</v>
       </c>
       <c r="IJ2">
-        <v>1.047471717544234</v>
+        <v>1.047314167381751</v>
       </c>
       <c r="IK2">
-        <v>1.047213986307593</v>
+        <v>1.04702851332136</v>
       </c>
       <c r="IL2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699002</v>
       </c>
       <c r="IM2">
-        <v>1.047214092578544</v>
+        <v>1.04703190496084</v>
       </c>
       <c r="IN2">
-        <v>1.047169731100352</v>
+        <v>1.047028284420278</v>
       </c>
       <c r="IO2">
-        <v>1.04677911634037</v>
+        <v>1.04652708536464</v>
       </c>
       <c r="IP2">
-        <v>1.047453706007722</v>
+        <v>1.047327656624263</v>
       </c>
       <c r="IQ2">
-        <v>1.04744999807964</v>
+        <v>1.047324120728425</v>
       </c>
       <c r="IR2">
-        <v>1.047471717544234</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="IS2">
-        <v>1.04721384602008</v>
+        <v>1.047028330800971</v>
       </c>
       <c r="IT2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="IU2">
-        <v>1.047213478686956</v>
+        <v>1.047030968608364</v>
       </c>
       <c r="IV2">
-        <v>1.047166458931396</v>
+        <v>1.04702705719478</v>
       </c>
       <c r="IW2">
-        <v>1.046772880299033</v>
+        <v>1.046515204123994</v>
       </c>
       <c r="IX2">
-        <v>1.046765493797554</v>
+        <v>1.046511532315738</v>
       </c>
       <c r="IY2">
-        <v>1.047471717544234</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="IZ2">
-        <v>1.047213689733777</v>
+        <v>1.047028127465435</v>
       </c>
       <c r="JA2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="JB2">
-        <v>1.047211169810107</v>
+        <v>1.047027446940067</v>
       </c>
       <c r="JC2">
-        <v>1.04716572685005</v>
+        <v>1.047026782627998</v>
       </c>
       <c r="JD2">
-        <v>1.046772018260423</v>
+        <v>1.046513561721798</v>
       </c>
       <c r="JE2">
-        <v>1.046714411360034</v>
+        <v>1.046453210795807</v>
       </c>
       <c r="JF2">
-        <v>1.047471717544234</v>
+        <v>1.047314167381752</v>
       </c>
       <c r="JG2">
-        <v>1.047213367136937</v>
+        <v>1.047027707752381</v>
       </c>
       <c r="JH2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="JI2">
-        <v>1.047210630916005</v>
+        <v>1.047026624979265</v>
       </c>
       <c r="JJ2">
-        <v>1.047158976724305</v>
+        <v>1.047019862824597</v>
       </c>
       <c r="JK2">
-        <v>1.047165325168023</v>
+        <v>1.047026782627998</v>
       </c>
       <c r="JL2">
-        <v>1.046771621949596</v>
+        <v>1.046512806649157</v>
       </c>
       <c r="JM2">
-        <v>1.04671441136004</v>
+        <v>1.046450371062361</v>
       </c>
       <c r="JN2">
-        <v>1.04669725248416</v>
+        <v>1.046433791896118</v>
       </c>
       <c r="JO2">
-        <v>1.0472130311544</v>
+        <v>1.047027270623929</v>
       </c>
       <c r="JP2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="JQ2">
-        <v>1.047210384034581</v>
+        <v>1.047026248417613</v>
       </c>
       <c r="JR2">
-        <v>1.047152287115302</v>
+        <v>1.047013005059151</v>
       </c>
       <c r="JS2">
-        <v>1.047164854221124</v>
+        <v>1.047026782627998</v>
       </c>
       <c r="JT2">
-        <v>1.046771151245907</v>
+        <v>1.046511909839246</v>
       </c>
       <c r="JU2">
-        <v>1.04671441136004</v>
+        <v>1.046450164644916</v>
       </c>
       <c r="JV2">
-        <v>1.046635051721947</v>
+        <v>1.046363398593909</v>
       </c>
       <c r="JW2">
-        <v>1.047211753532398</v>
+        <v>1.047025608380021</v>
       </c>
       <c r="JX2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="JY2">
-        <v>1.04721022172869</v>
+        <v>1.047026000856766</v>
       </c>
       <c r="JZ2">
-        <v>1.047164428616146</v>
+        <v>1.047026782627997</v>
       </c>
       <c r="KA2">
-        <v>1.046770425006467</v>
+        <v>1.046510526168922</v>
       </c>
       <c r="KB2">
-        <v>1.04671441136004</v>
+        <v>1.046449994509201</v>
       </c>
       <c r="KC2">
-        <v>1.046616949089386</v>
+        <v>1.046342324198613</v>
       </c>
       <c r="KD2">
-        <v>1.046626039296357</v>
+        <v>1.046353377788532</v>
       </c>
       <c r="KE2">
-        <v>1.047204970455018</v>
+        <v>1.047016783290156</v>
       </c>
       <c r="KF2">
-        <v>1.04722376477143</v>
+        <v>1.047046657699001</v>
       </c>
       <c r="KG2">
-        <v>1.047210221728691</v>
+        <v>1.047024831912157</v>
       </c>
       <c r="KH2">
-        <v>1.047210081090474</v>
+        <v>1.047025930525288</v>
       </c>
       <c r="KI2">
-        <v>1.047163997563388</v>
+        <v>1.047026782627997</v>
       </c>
       <c r="KJ2">
-        <v>1.046769777876044</v>
+        <v>1.046509293221345</v>
       </c>
       <c r="KK2">
-        <v>1.046714411360039</v>
+        <v>1.046449752844539</v>
       </c>
       <c r="KL2">
-        <v>1.046608616844975</v>
+        <v>1.04633262411756</v>
       </c>
       <c r="KM2">
-        <v>1.046588268619522</v>
+        <v>1.046311381044058</v>
       </c>
       <c r="KN2">
-        <v>1.047210221728691</v>
+        <v>1.04702429494852</v>
       </c>
       <c r="KO2">
-        <v>1.04720998155579</v>
+        <v>1.047025880749192</v>
       </c>
       <c r="KP2">
-        <v>1.047163534094524</v>
+        <v>1.047026782627997</v>
       </c>
       <c r="KQ2">
-        <v>1.046769274746806</v>
+        <v>1.046508334632548</v>
       </c>
       <c r="KR2">
-        <v>1.046714411360036</v>
+        <v>1.046448667395881</v>
       </c>
       <c r="KS2">
-        <v>1.04655418517168</v>
+        <v>1.046269256848144</v>
       </c>
       <c r="KT2">
-        <v>1.046579931169723</v>
+        <v>1.046302110739232</v>
       </c>
       <c r="KU2">
-        <v>1.047210221728691</v>
+        <v>1.047023386147414</v>
       </c>
       <c r="KV2">
-        <v>1.047209865726751</v>
+        <v>1.047025822824484</v>
       </c>
       <c r="KW2">
-        <v>1.047160846232392</v>
+        <v>1.047026782627997</v>
       </c>
       <c r="KX2">
-        <v>1.046768648477026</v>
+        <v>1.046507141429792</v>
       </c>
       <c r="KY2">
-        <v>1.046714411360036</v>
+        <v>1.046448458435505</v>
       </c>
       <c r="KZ2">
-        <v>1.046550119568357</v>
+        <v>1.046264523829014</v>
       </c>
       <c r="LA2">
-        <v>1.046577160805567</v>
+        <v>1.046299030406547</v>
       </c>
       <c r="LB2">
-        <v>1.047210221728691</v>
+        <v>1.04702164176274</v>
       </c>
       <c r="LC2">
-        <v>1.047209644182844</v>
+        <v>1.047025712033045</v>
       </c>
       <c r="LD2">
-        <v>1.047149477592853</v>
+        <v>1.047026782627997</v>
       </c>
       <c r="LE2">
-        <v>1.046768000731489</v>
+        <v>1.046505907310277</v>
       </c>
       <c r="LF2">
-        <v>1.046714411360035</v>
+        <v>1.046448303717527</v>
       </c>
       <c r="LG2">
-        <v>1.046548418650822</v>
+        <v>1.046263255726684</v>
       </c>
       <c r="LH2">
-        <v>1.046483363202227</v>
+        <v>1.046183579936202</v>
       </c>
       <c r="LI2">
-        <v>1.046575714870585</v>
+        <v>1.046297422689848</v>
       </c>
       <c r="LJ2">
-        <v>1.047210221728691</v>
+        <v>1.047016506000507</v>
       </c>
       <c r="LK2">
-        <v>1.047208794523436</v>
+        <v>1.047025287128608</v>
       </c>
       <c r="LL2">
-        <v>1.04676723668049</v>
+        <v>1.046504451599368</v>
       </c>
       <c r="LM2">
-        <v>1.046714411360035</v>
+        <v>1.04644812549919</v>
       </c>
       <c r="LN2">
-        <v>1.046539658413144</v>
+        <v>1.046256724617643</v>
       </c>
       <c r="LO2">
-        <v>1.046451326882698</v>
+        <v>1.04614473504545</v>
       </c>
       <c r="LP2">
-        <v>1.046574477105379</v>
+        <v>1.046296046434489</v>
       </c>
       <c r="LQ2">
-        <v>1.047205894958246</v>
+        <v>1.047023837090971</v>
       </c>
       <c r="LR2">
-        <v>1.046766801273117</v>
+        <v>1.046503622037908</v>
       </c>
       <c r="LS2">
-        <v>1.046714411360035</v>
+        <v>1.046447948709166</v>
       </c>
       <c r="LT2">
-        <v>1.046536600047901</v>
+        <v>1.046254444483497</v>
       </c>
       <c r="LU2">
-        <v>1.046439135151282</v>
+        <v>1.046094761521381</v>
       </c>
       <c r="LV2">
-        <v>1.046393230246489</v>
+        <v>1.046084776973206</v>
       </c>
       <c r="LW2">
-        <v>1.046573069369577</v>
+        <v>1.046294481191003</v>
       </c>
       <c r="LX2">
-        <v>1.046764834277775</v>
+        <v>1.046499874413002</v>
       </c>
       <c r="LY2">
-        <v>1.046714411360035</v>
+        <v>1.04644639558922</v>
       </c>
       <c r="LZ2">
-        <v>1.046529943714479</v>
+        <v>1.046249481919506</v>
       </c>
       <c r="MA2">
-        <v>1.046434306621429</v>
+        <v>1.046074969532129</v>
       </c>
       <c r="MB2">
-        <v>1.046338815543994</v>
+        <v>1.04606112912181</v>
       </c>
       <c r="MC2">
-        <v>1.046386624711769</v>
+        <v>1.046075597222899</v>
       </c>
       <c r="MD2">
-        <v>1.046571960316292</v>
+        <v>1.046293248048811</v>
       </c>
       <c r="ME2">
-        <v>1.046764068764043</v>
+        <v>1.046498415915237</v>
       </c>
       <c r="MF2">
-        <v>1.046714411360035</v>
+        <v>1.046443220804032</v>
       </c>
       <c r="MG2">
-        <v>1.046525876892994</v>
+        <v>1.046248125961484</v>
       </c>
       <c r="MH2">
-        <v>1.046529289946577</v>
+        <v>1.046248205926177</v>
       </c>
       <c r="MI2">
-        <v>1.046311458305477</v>
+        <v>1.046049240055711</v>
       </c>
       <c r="MJ2">
-        <v>1.046380965704551</v>
+        <v>1.046067732867869</v>
       </c>
       <c r="MK2">
-        <v>1.046571030492273</v>
+        <v>1.04629221418936</v>
       </c>
       <c r="ML2">
-        <v>1.046763802825294</v>
+        <v>1.04649790923449</v>
       </c>
       <c r="MM2">
-        <v>1.046519791701425</v>
+        <v>1.046246097039263</v>
       </c>
       <c r="MN2">
-        <v>1.046529198915601</v>
+        <v>1.046248028256215</v>
       </c>
       <c r="MO2">
-        <v>1.046308912446215</v>
+        <v>1.046048133661495</v>
       </c>
       <c r="MP2">
-        <v>1.046376985120937</v>
+        <v>1.046062201028074</v>
       </c>
       <c r="MQ2">
-        <v>1.04657019149694</v>
+        <v>1.046291281321172</v>
       </c>
       <c r="MR2">
-        <v>1.046763602475829</v>
+        <v>1.04649752751796</v>
       </c>
       <c r="MS2">
-        <v>1.046529100049561</v>
+        <v>1.046247835294145</v>
       </c>
       <c r="MT2">
-        <v>1.046307861038092</v>
+        <v>1.04604767673448</v>
       </c>
       <c r="MU2">
-        <v>1.046371955571092</v>
+        <v>1.04605521143421</v>
       </c>
       <c r="MV2">
-        <v>1.04656949711482</v>
+        <v>1.046290509246572</v>
       </c>
       <c r="MW2">
-        <v>1.046763455891003</v>
+        <v>1.046497248236699</v>
       </c>
       <c r="MX2">
-        <v>1.046529013450011</v>
+        <v>1.046247666273232</v>
       </c>
       <c r="MY2">
-        <v>1.046307119160676</v>
+        <v>1.046047354325107</v>
       </c>
       <c r="MZ2">
-        <v>1.046368804097048</v>
+        <v>1.04605083181308</v>
       </c>
       <c r="NA2">
-        <v>1.046568691590513</v>
+        <v>1.0462896135944</v>
       </c>
       <c r="NB2">
-        <v>1.046763381454399</v>
+        <v>1.046497106416096</v>
       </c>
       <c r="NC2">
-        <v>1.046528921437988</v>
+        <v>1.046247486688511</v>
       </c>
       <c r="ND2">
-        <v>1.04630636033536</v>
+        <v>1.046047024550417</v>
       </c>
       <c r="NE2">
-        <v>1.046363964670207</v>
+        <v>1.046044106434749</v>
       </c>
       <c r="NF2">
-        <v>1.046567806263071</v>
+        <v>1.046288629210149</v>
       </c>
       <c r="NG2">
-        <v>1.046763272016789</v>
+        <v>1.0464968979097</v>
       </c>
       <c r="NH2">
-        <v>1.046528790117139</v>
+        <v>1.046247230382678</v>
       </c>
       <c r="NI2">
-        <v>1.046305464975685</v>
+        <v>1.046046635439835</v>
       </c>
       <c r="NJ2">
-        <v>1.046359140329773</v>
+        <v>1.046037402022391</v>
       </c>
       <c r="NK2">
-        <v>1.046562979771623</v>
+        <v>1.046283262696201</v>
       </c>
       <c r="NL2">
-        <v>1.046763088563614</v>
+        <v>1.046496548384887</v>
       </c>
       <c r="NM2">
-        <v>1.046528630472573</v>
+        <v>1.046246918795951</v>
       </c>
       <c r="NN2">
-        <v>1.046304335543395</v>
+        <v>1.046046144604621</v>
       </c>
       <c r="NO2">
-        <v>1.046353727270234</v>
+        <v>1.046029879464229</v>
       </c>
       <c r="NP2">
-        <v>1.046527194804681</v>
+        <v>1.04624579577105</v>
       </c>
       <c r="NQ2">
-        <v>1.04656203778251</v>
+        <v>1.046278482283779</v>
       </c>
       <c r="NR2">
-        <v>1.04676227028318</v>
+        <v>1.046494989353187</v>
       </c>
       <c r="NS2">
-        <v>1.046527640944553</v>
+        <v>1.046244987481889</v>
       </c>
       <c r="NT2">
-        <v>1.046303324026862</v>
+        <v>1.046045705013918</v>
       </c>
       <c r="NU2">
-        <v>1.046349810190258</v>
+        <v>1.046024435877211</v>
       </c>
       <c r="NV2">
-        <v>1.046492921027837</v>
+        <v>1.04620991106864</v>
       </c>
       <c r="NW2">
-        <v>1.046556253842536</v>
+        <v>1.04624912991046</v>
       </c>
       <c r="NX2">
-        <v>1.04656203778252</v>
+        <v>1.046278482283781</v>
       </c>
       <c r="NY2">
-        <v>1.046759262307398</v>
+        <v>1.046489258396716</v>
       </c>
       <c r="NZ2">
-        <v>1.046524255046113</v>
+        <v>1.046238379045281</v>
       </c>
       <c r="OA2">
-        <v>1.046302523639294</v>
+        <v>1.046045357176859</v>
       </c>
       <c r="OB2">
-        <v>1.046345141390971</v>
+        <v>1.046017947622107</v>
       </c>
       <c r="OC2">
-        <v>1.046491395258143</v>
+        <v>1.046208313585277</v>
       </c>
       <c r="OD2">
-        <v>1.046554139956341</v>
+        <v>1.046238402349067</v>
       </c>
       <c r="OE2">
-        <v>1.046562037782574</v>
+        <v>1.046278482283789</v>
       </c>
       <c r="OF2">
-        <v>1.046301149981694</v>
+        <v>1.046044760204793</v>
       </c>
       <c r="OG2">
-        <v>1.046338367036131</v>
+        <v>1.046008533265808</v>
       </c>
       <c r="OH2">
-        <v>1.046448560500185</v>
+        <v>1.046187157243043</v>
       </c>
       <c r="OI2">
-        <v>1.046470670725096</v>
+        <v>1.046182611827387</v>
       </c>
       <c r="OJ2">
-        <v>1.046553924790429</v>
+        <v>1.046237310423936</v>
       </c>
       <c r="OK2">
-        <v>1.046562037782579</v>
+        <v>1.04627848228379</v>
       </c>
       <c r="OL2">
-        <v>1.046296354691232</v>
+        <v>1.046042676239701</v>
       </c>
       <c r="OM2">
-        <v>1.046333344680008</v>
+        <v>1.046001553671669</v>
       </c>
       <c r="ON2">
-        <v>1.04644463573071</v>
+        <v>1.046185218775882</v>
       </c>
       <c r="OO2">
-        <v>1.046460672315996</v>
+        <v>1.046170212193328</v>
       </c>
       <c r="OP2">
-        <v>1.046553774632772</v>
+        <v>1.046236548403047</v>
       </c>
       <c r="OQ2">
-        <v>1.04656203778258</v>
+        <v>1.04627848228379</v>
       </c>
       <c r="OR2">
-        <v>1.046267038061847</v>
+        <v>1.046029935648488</v>
       </c>
       <c r="OS2">
-        <v>1.046328499811575</v>
+        <v>1.045994820733401</v>
       </c>
       <c r="OT2">
-        <v>1.046442404580324</v>
+        <v>1.046184116797326</v>
       </c>
       <c r="OU2">
-        <v>1.046430508700996</v>
+        <v>1.04613280447548</v>
       </c>
       <c r="OV2">
-        <v>1.046460672315984</v>
+        <v>1.04617021219332</v>
       </c>
       <c r="OW2">
-        <v>1.046553619082782</v>
+        <v>1.046235759017115</v>
       </c>
       <c r="OX2">
-        <v>1.046562037782582</v>
+        <v>1.04627848228379</v>
       </c>
       <c r="OY2">
-        <v>1.04632375814635</v>
+        <v>1.045988231217456</v>
       </c>
       <c r="OZ2">
-        <v>1.046440889575617</v>
+        <v>1.046183368527413</v>
       </c>
       <c r="PA2">
-        <v>1.046387548312002</v>
+        <v>1.046079526738213</v>
       </c>
       <c r="PB2">
-        <v>1.046460672315981</v>
+        <v>1.046170212193319</v>
       </c>
       <c r="PC2">
-        <v>1.046552965863595</v>
+        <v>1.046232444056901</v>
       </c>
       <c r="PD2">
-        <v>1.046562037782583</v>
+        <v>1.046278482283791</v>
       </c>
       <c r="PE2">
-        <v>1.046318055579033</v>
+        <v>1.045980306331446</v>
       </c>
       <c r="PF2">
-        <v>1.046438420518937</v>
+        <v>1.046182149045498</v>
       </c>
       <c r="PG2">
-        <v>1.046378558359679</v>
+        <v>1.046068377767573</v>
       </c>
       <c r="PH2">
-        <v>1.04646067231598</v>
+        <v>1.046170212193317</v>
       </c>
       <c r="PI2">
-        <v>1.046552806362793</v>
+        <v>1.046231634621385</v>
       </c>
       <c r="PJ2">
-        <v>1.046562037782599</v>
+        <v>1.0462784822838</v>
       </c>
       <c r="PK2">
-        <v>1.046308504829626</v>
+        <v>1.045967033608717</v>
       </c>
       <c r="PL2">
-        <v>1.046318055579033</v>
+        <v>1.045980306331446</v>
       </c>
       <c r="PM2">
-        <v>1.046430213223821</v>
+        <v>1.046178095413116</v>
       </c>
       <c r="PN2">
-        <v>1.046376260632385</v>
+        <v>1.04606552822056</v>
       </c>
       <c r="PO2">
-        <v>1.046460672315978</v>
+        <v>1.046170212193316</v>
       </c>
       <c r="PP2">
-        <v>1.046552654216383</v>
+        <v>1.04623086250798</v>
       </c>
       <c r="PQ2">
-        <v>1.046562037782605</v>
+        <v>1.046278482283804</v>
       </c>
       <c r="PR2">
-        <v>1.046276290875012</v>
+        <v>1.045922265728794</v>
       </c>
       <c r="PS2">
-        <v>1.046308504829626</v>
+        <v>1.045967033608717</v>
       </c>
       <c r="PT2">
-        <v>1.046421075931823</v>
+        <v>1.046173582449574</v>
       </c>
       <c r="PU2">
-        <v>1.046375056886286</v>
+        <v>1.046064035384132</v>
       </c>
       <c r="PV2">
-        <v>1.046460672315976</v>
+        <v>1.046170212193316</v>
       </c>
       <c r="PW2">
-        <v>1.046552502897507</v>
+        <v>1.046230094594153</v>
       </c>
       <c r="PX2">
-        <v>1.046562037782607</v>
+        <v>1.046278482283805</v>
       </c>
       <c r="PY2">
-        <v>1.046230727598699</v>
+        <v>1.045858946258957</v>
       </c>
       <c r="PZ2">
-        <v>1.046276290875012</v>
+        <v>1.045922265728794</v>
       </c>
       <c r="QA2">
-        <v>1.04641593715487</v>
+        <v>1.04617104437664</v>
       </c>
       <c r="QB2">
-        <v>1.046374058994954</v>
+        <v>1.046062797840347</v>
       </c>
       <c r="QC2">
-        <v>1.046460672315975</v>
+        <v>1.046170212193315</v>
       </c>
       <c r="QD2">
-        <v>1.046552329315254</v>
+        <v>1.046229213698023</v>
       </c>
       <c r="QE2">
-        <v>1.046562037782611</v>
+        <v>1.046278482283807</v>
       </c>
       <c r="QF2">
-        <v>1.046198033364596</v>
+        <v>1.045813510966192</v>
       </c>
       <c r="QG2">
-        <v>1.046230727598699</v>
+        <v>1.045858946258957</v>
       </c>
       <c r="QH2">
-        <v>1.04641110981894</v>
+        <v>1.046168660126273</v>
       </c>
       <c r="QI2">
-        <v>1.046373250259613</v>
+        <v>1.046061794880056</v>
       </c>
       <c r="QJ2">
-        <v>1.046460672315974</v>
+        <v>1.046170212193314</v>
       </c>
       <c r="QK2">
-        <v>1.04655172985918</v>
+        <v>1.046226171575213</v>
       </c>
       <c r="QL2">
-        <v>1.046562037782614</v>
+        <v>1.046278482283809</v>
       </c>
       <c r="QM2">
-        <v>1.046188113946012</v>
+        <v>1.045799725917902</v>
       </c>
       <c r="QN2">
-        <v>1.046198033364596</v>
+        <v>1.045813510966192</v>
       </c>
       <c r="QO2">
-        <v>1.046406504142177</v>
+        <v>1.046166385354676</v>
       </c>
       <c r="QP2">
-        <v>1.046372014052048</v>
+        <v>1.046060261786329</v>
       </c>
       <c r="QQ2">
-        <v>1.046460672315973</v>
+        <v>1.046170212193314</v>
       </c>
       <c r="QR2">
-        <v>1.04654880859209</v>
+        <v>1.046211346714372</v>
       </c>
       <c r="QS2">
-        <v>1.046562037782617</v>
+        <v>1.04627848228381</v>
       </c>
       <c r="QT2">
-        <v>1.046163195923912</v>
+        <v>1.045760396784844</v>
       </c>
       <c r="QU2">
-        <v>1.046188113946012</v>
+        <v>1.045799725917902</v>
       </c>
       <c r="QV2">
-        <v>1.046180671600308</v>
+        <v>1.045797264281576</v>
       </c>
       <c r="QW2">
-        <v>1.04639894230826</v>
+        <v>1.046162650519125</v>
       </c>
       <c r="QX2">
-        <v>1.046370899629856</v>
+        <v>1.046058879725834</v>
       </c>
       <c r="QY2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193314</v>
       </c>
       <c r="QZ2">
-        <v>1.046562037782619</v>
+        <v>1.046278482283812</v>
       </c>
       <c r="RA2">
-        <v>1.046135510844331</v>
+        <v>1.045716700308088</v>
       </c>
       <c r="RB2">
-        <v>1.046163195923912</v>
+        <v>1.045760396784844</v>
       </c>
       <c r="RC2">
-        <v>1.046163195923912</v>
+        <v>1.045760396784844</v>
       </c>
       <c r="RD2">
-        <v>1.04617958473801</v>
+        <v>1.045796904790111</v>
       </c>
       <c r="RE2">
-        <v>1.046393675347334</v>
+        <v>1.04616004913519</v>
       </c>
       <c r="RF2">
-        <v>1.046369838974723</v>
+        <v>1.046057564345053</v>
       </c>
       <c r="RG2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193314</v>
       </c>
       <c r="RH2">
-        <v>1.046562037782633</v>
+        <v>1.046278482283817</v>
       </c>
       <c r="RI2">
-        <v>1.046125365677387</v>
+        <v>1.045700687786555</v>
       </c>
       <c r="RJ2">
-        <v>1.046135510844331</v>
+        <v>1.045716700308088</v>
       </c>
       <c r="RK2">
-        <v>1.046178992100428</v>
+        <v>1.045796708768818</v>
       </c>
       <c r="RL2">
-        <v>1.046389974664699</v>
+        <v>1.046158221345576</v>
       </c>
       <c r="RM2">
-        <v>1.04636864408234</v>
+        <v>1.046056082488795</v>
       </c>
       <c r="RN2">
-        <v>1.046460672315973</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="RO2">
-        <v>1.046562037782633</v>
+        <v>1.046278482283817</v>
       </c>
       <c r="RP2">
-        <v>1.046110131154061</v>
+        <v>1.045674461718338</v>
       </c>
       <c r="RQ2">
-        <v>1.046125365677387</v>
+        <v>1.045700687786555</v>
       </c>
       <c r="RR2">
-        <v>1.046091560061346</v>
+        <v>1.045659166607538</v>
       </c>
       <c r="RS2">
-        <v>1.046178590634953</v>
+        <v>1.045796575979768</v>
       </c>
       <c r="RT2">
-        <v>1.046388206456455</v>
+        <v>1.046157348016786</v>
       </c>
       <c r="RU2">
-        <v>1.046367381891452</v>
+        <v>1.046054517171738</v>
       </c>
       <c r="RV2">
-        <v>1.046460672315973</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="RW2">
-        <v>1.046562037782634</v>
+        <v>1.046278482283817</v>
       </c>
       <c r="RX2">
-        <v>1.046088296501367</v>
+        <v>1.045636873610628</v>
       </c>
       <c r="RY2">
-        <v>1.046110131154061</v>
+        <v>1.045674461718338</v>
       </c>
       <c r="RZ2">
-        <v>1.046090788295565</v>
+        <v>1.04565758476271</v>
       </c>
       <c r="SA2">
-        <v>1.046083601596449</v>
+        <v>1.045653858796184</v>
       </c>
       <c r="SB2">
-        <v>1.046177980834679</v>
+        <v>1.045796374281728</v>
       </c>
       <c r="SC2">
-        <v>1.046387086345019</v>
+        <v>1.046156794786943</v>
       </c>
       <c r="SD2">
-        <v>1.046364622144724</v>
+        <v>1.046051094647836</v>
       </c>
       <c r="SE2">
-        <v>1.046460672315973</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="SF2">
-        <v>1.046562037782634</v>
+        <v>1.046278482283818</v>
       </c>
       <c r="SG2">
-        <v>1.046074971554157</v>
+        <v>1.045613934871797</v>
       </c>
       <c r="SH2">
-        <v>1.046088296501367</v>
+        <v>1.045636873610628</v>
       </c>
       <c r="SI2">
-        <v>1.046090462088466</v>
+        <v>1.045656916154405</v>
       </c>
       <c r="SJ2">
-        <v>1.046078509085778</v>
+        <v>1.045650462401698</v>
       </c>
       <c r="SK2">
-        <v>1.046177055402575</v>
+        <v>1.045796068185044</v>
       </c>
       <c r="SL2">
-        <v>1.046386329011699</v>
+        <v>1.046156420735414</v>
       </c>
       <c r="SM2">
-        <v>1.046302030262633</v>
+        <v>1.04597347082222</v>
       </c>
       <c r="SN2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="SO2">
-        <v>1.046562037782634</v>
+        <v>1.046278482283818</v>
       </c>
       <c r="SP2">
-        <v>1.046072676863072</v>
+        <v>1.045609984588812</v>
       </c>
       <c r="SQ2">
-        <v>1.046074971554157</v>
+        <v>1.045613934871797</v>
       </c>
       <c r="SR2">
-        <v>1.046090270415573</v>
+        <v>1.04565652329328</v>
       </c>
       <c r="SS2">
-        <v>1.046176398839072</v>
+        <v>1.04579585101956</v>
       </c>
       <c r="ST2">
-        <v>1.046385272623348</v>
+        <v>1.046155898978787</v>
       </c>
       <c r="SU2">
-        <v>1.046286808871113</v>
+        <v>1.04597347082222</v>
       </c>
       <c r="SV2">
-        <v>1.04629327896332</v>
+        <v>1.045961537313577</v>
       </c>
       <c r="SW2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="SX2">
-        <v>1.046067541813138</v>
+        <v>1.045601839580216</v>
       </c>
       <c r="SY2">
-        <v>1.046072676863072</v>
+        <v>1.045609984588812</v>
       </c>
       <c r="SZ2">
-        <v>1.046066204305785</v>
+        <v>1.045594566597208</v>
       </c>
       <c r="TA2">
-        <v>1.046090094018829</v>
+        <v>1.045656161742815</v>
       </c>
       <c r="TB2">
-        <v>1.046175950267097</v>
+        <v>1.045795702649523</v>
       </c>
       <c r="TC2">
-        <v>1.046384466379454</v>
+        <v>1.046155500770026</v>
       </c>
       <c r="TD2">
-        <v>1.046273385666509</v>
+        <v>1.04597347082222</v>
       </c>
       <c r="TE2">
-        <v>1.046288557885577</v>
+        <v>1.045955099525234</v>
       </c>
       <c r="TF2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="TG2">
-        <v>1.046063761804777</v>
+        <v>1.045595843884164</v>
       </c>
       <c r="TH2">
-        <v>1.046067541813138</v>
+        <v>1.045601839580216</v>
       </c>
       <c r="TI2">
-        <v>1.046062379538336</v>
+        <v>1.045585455788692</v>
       </c>
       <c r="TJ2">
-        <v>1.046089936864158</v>
+        <v>1.045655839631746</v>
       </c>
       <c r="TK2">
-        <v>1.046175595807207</v>
+        <v>1.045795585408078</v>
       </c>
       <c r="TL2">
-        <v>1.046378712844932</v>
+        <v>1.046152659064323</v>
       </c>
       <c r="TM2">
-        <v>1.046287852820254</v>
+        <v>1.045954138079299</v>
       </c>
       <c r="TN2">
-        <v>1.046460672315972</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="TO2">
-        <v>1.046058615318952</v>
+        <v>1.045587680737463</v>
       </c>
       <c r="TP2">
-        <v>1.046063761804777</v>
+        <v>1.045595843884164</v>
       </c>
       <c r="TQ2">
-        <v>1.046059348998374</v>
+        <v>1.045578236874356</v>
       </c>
       <c r="TR2">
-        <v>1.046089773834042</v>
+        <v>1.045655505478105</v>
       </c>
       <c r="TS2">
-        <v>1.04617445931452</v>
+        <v>1.045795209500818</v>
       </c>
       <c r="TT2">
-        <v>1.046361182581152</v>
+        <v>1.046147649645401</v>
       </c>
       <c r="TU2">
-        <v>1.046370713394416</v>
+        <v>1.046138111384379</v>
       </c>
       <c r="TV2">
-        <v>1.046287314618041</v>
+        <v>1.045953404172374</v>
       </c>
       <c r="TW2">
-        <v>1.046460672315971</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="TX2">
-        <v>1.04605497337501</v>
+        <v>1.045581904034331</v>
       </c>
       <c r="TY2">
-        <v>1.046058615318952</v>
+        <v>1.045587680737463</v>
       </c>
       <c r="TZ2">
-        <v>1.046058096756452</v>
+        <v>1.045575253964668</v>
       </c>
       <c r="UA2">
-        <v>1.046089281672436</v>
+        <v>1.045654496722206</v>
       </c>
       <c r="UB2">
-        <v>1.046165266779423</v>
+        <v>1.04579216897026</v>
       </c>
       <c r="UC2">
-        <v>1.046341825167379</v>
+        <v>1.046142118102738</v>
       </c>
       <c r="UD2">
-        <v>1.04628681125996</v>
+        <v>1.04595271777985</v>
       </c>
       <c r="UE2">
-        <v>1.046460672315971</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="UF2">
-        <v>1.0460447885152</v>
+        <v>1.045565749226162</v>
       </c>
       <c r="UG2">
-        <v>1.04605497337501</v>
+        <v>1.045581904034331</v>
       </c>
       <c r="UH2">
-        <v>1.046058096756453</v>
+        <v>1.045574690814131</v>
       </c>
       <c r="UI2">
-        <v>1.046052913622484</v>
+        <v>1.045570315372532</v>
       </c>
       <c r="UJ2">
-        <v>1.046088785691789</v>
+        <v>1.045653480138637</v>
       </c>
       <c r="UK2">
-        <v>1.046164809000195</v>
+        <v>1.045792017554819</v>
       </c>
       <c r="UL2">
-        <v>1.046289355653872</v>
+        <v>1.046127124498866</v>
       </c>
       <c r="UM2">
-        <v>1.046286274491343</v>
+        <v>1.045951985827835</v>
       </c>
       <c r="UN2">
-        <v>1.046460672315971</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="UO2">
-        <v>1.046037413677439</v>
+        <v>1.045554051561536</v>
       </c>
       <c r="UP2">
-        <v>1.0460447885152</v>
+        <v>1.045565749226162</v>
       </c>
       <c r="UQ2">
-        <v>1.046058096756453</v>
+        <v>1.045574483591777</v>
       </c>
       <c r="UR2">
-        <v>1.046048992552388</v>
+        <v>1.045566579299708</v>
       </c>
       <c r="US2">
-        <v>1.046084151438341</v>
+        <v>1.04564398157076</v>
       </c>
       <c r="UT2">
-        <v>1.046164447796405</v>
+        <v>1.045791898082751</v>
       </c>
       <c r="UU2">
-        <v>1.046285799516607</v>
+        <v>1.045951338139614</v>
       </c>
       <c r="UV2">
-        <v>1.046460672315971</v>
+        <v>1.046170212193313</v>
       </c>
       <c r="UW2">
-        <v>1.046036424250855</v>
+        <v>1.045552610587821</v>
       </c>
       <c r="UX2">
-        <v>1.046037413677439</v>
+        <v>1.045554051561536</v>
       </c>
       <c r="UY2">
-        <v>1.046027260919474</v>
+        <v>1.045535930467302</v>
       </c>
       <c r="UZ2">
-        <v>1.046058096756454</v>
+        <v>1.045574174918651</v>
       </c>
       <c r="VA2">
-        <v>1.046164039445711</v>
+        <v>1.045791763016332</v>
       </c>
       <c r="VB2">
-        <v>1.046285313701775</v>
+        <v>1.045950675669557</v>
       </c>
       <c r="VC2">
-        <v>1.04603618997281</v>
+        <v>1.045552269391711</v>
       </c>
       <c r="VD2">
-        <v>1.046036424250855</v>
+        <v>1.045552610587821</v>
       </c>
       <c r="VE2">
-        <v>1.046025977432721</v>
+        <v>1.045533639643085</v>
       </c>
       <c r="VF2">
-        <v>1.046058096756454</v>
+        <v>1.04557398918298</v>
       </c>
       <c r="VG2">
-        <v>1.046163676000667</v>
+        <v>1.045791642802943</v>
       </c>
       <c r="VH2">
-        <v>1.046282806272617</v>
+        <v>1.045947256472433</v>
       </c>
       <c r="VI2">
-        <v>1.04602983878644</v>
+        <v>1.045543019698594</v>
       </c>
       <c r="VJ2">
-        <v>1.04603618997281</v>
+        <v>1.045552269391711</v>
       </c>
       <c r="VK2">
-        <v>1.046036189972812</v>
+        <v>1.045552269391718</v>
       </c>
       <c r="VL2">
-        <v>1.046025030304626</v>
+        <v>1.045531949166764</v>
       </c>
       <c r="VM2">
-        <v>1.046058096756454</v>
+        <v>1.045573765068464</v>
       </c>
       <c r="VN2">
-        <v>1.046163257675434</v>
+        <v>1.045791504437337</v>
       </c>
       <c r="VO2">
-        <v>1.04627356116661</v>
+        <v>1.045940782884353</v>
       </c>
       <c r="VP2">
-        <v>1.046277782434038</v>
+        <v>1.045940150668497</v>
       </c>
       <c r="VQ2">
-        <v>1.046025387784315</v>
+        <v>1.045536537381932</v>
       </c>
       <c r="VR2">
-        <v>1.04602983878644</v>
+        <v>1.045543019698594</v>
       </c>
       <c r="VS2">
-        <v>1.046036189972812</v>
+        <v>1.04555226939172</v>
       </c>
       <c r="VT2">
-        <v>1.046024108741727</v>
+        <v>1.045530304320345</v>
       </c>
       <c r="VU2">
-        <v>1.046058096756454</v>
+        <v>1.04557356828641</v>
       </c>
       <c r="VV2">
-        <v>1.04616282874973</v>
+        <v>1.04579136256551</v>
       </c>
       <c r="VW2">
-        <v>1.046273028397824</v>
+        <v>1.045940409830145</v>
       </c>
       <c r="VX2">
-        <v>1.046253775071064</v>
+        <v>1.045906194254079</v>
       </c>
       <c r="VY2">
-        <v>1.046021072526614</v>
+        <v>1.045535062352672</v>
       </c>
       <c r="VZ2">
-        <v>1.046024841664296</v>
+        <v>1.045535171382814</v>
       </c>
       <c r="WA2">
-        <v>1.046036189972812</v>
+        <v>1.045552269391722</v>
       </c>
       <c r="WB2">
-        <v>1.04601545190785</v>
+        <v>1.045514853218851</v>
       </c>
       <c r="WC2">
-        <v>1.046058096756454</v>
+        <v>1.045572280610426</v>
       </c>
       <c r="WD2">
-        <v>1.046162313182731</v>
+        <v>1.045791192036135</v>
       </c>
       <c r="WE2">
-        <v>1.046272760821594</v>
+        <v>1.045940222468496</v>
       </c>
       <c r="WF2">
-        <v>1.04622869947031</v>
+        <v>1.045888277350039</v>
       </c>
       <c r="WG2">
-        <v>1.046228573016862</v>
+        <v>1.045868430395562</v>
       </c>
       <c r="WH2">
-        <v>1.046017224246899</v>
+        <v>1.045533746944429</v>
       </c>
       <c r="WI2">
-        <v>1.046021072526614</v>
+        <v>1.045535062352672</v>
       </c>
       <c r="WJ2">
-        <v>1.046021072526614</v>
+        <v>1.045535062352672</v>
       </c>
       <c r="WK2">
-        <v>1.046000526572662</v>
+        <v>1.045474352552437</v>
       </c>
       <c r="WL2">
-        <v>1.046024841664296</v>
+        <v>1.045535171382814</v>
       </c>
       <c r="WM2">
-        <v>1.046036189972812</v>
+        <v>1.045552269391724</v>
       </c>
       <c r="WN2">
-        <v>1.046011422939747</v>
+        <v>1.045507662137883</v>
       </c>
       <c r="WO2">
-        <v>1.046058096756454</v>
+        <v>1.045562786194659</v>
       </c>
       <c r="WP2">
-        <v>1.046161989958942</v>
+        <v>1.045791085126362</v>
       </c>
       <c r="WQ2">
-        <v>1.046272536444417</v>
+        <v>1.045940065355594</v>
       </c>
       <c r="WR2">
-        <v>1.046215467004316</v>
+        <v>1.045878822548417</v>
       </c>
       <c r="WS2">
-        <v>1.046204433935743</v>
+        <v>1.045832259372492</v>
       </c>
       <c r="WT2">
-        <v>1.046008828907276</v>
+        <v>1.045530877272334</v>
       </c>
       <c r="WU2">
-        <v>1.046017224246899</v>
+        <v>1.045533746944429</v>
       </c>
       <c r="WV2">
-        <v>1.046017224246899</v>
+        <v>1.045533746944429</v>
       </c>
       <c r="WW2">
-        <v>1.045994803535695</v>
+        <v>1.045460037641525</v>
       </c>
       <c r="WX2">
-        <v>1.046036189972812</v>
+        <v>1.045552269391725</v>
       </c>
       <c r="WY2">
-        <v>1.046009531981479</v>
+        <v>1.045504287071741</v>
       </c>
       <c r="WZ2">
-        <v>1.046160600851788</v>
+        <v>1.045790625664106</v>
       </c>
       <c r="XA2">
-        <v>1.046272353472681</v>
+        <v>1.04593993723552</v>
       </c>
       <c r="XB2">
-        <v>1.046202307782599</v>
+        <v>1.045828005479607</v>
       </c>
       <c r="XC2">
-        <v>1.046198030444758</v>
+        <v>1.045822859159195</v>
       </c>
       <c r="XD2">
-        <v>1.045997392524088</v>
+        <v>1.04552696811891</v>
       </c>
       <c r="XE2">
-        <v>1.046036189972812</v>
+        <v>1.045552269391726</v>
       </c>
       <c r="XF2">
-        <v>1.046008270683113</v>
+        <v>1.045502035850519</v>
       </c>
       <c r="XG2">
-        <v>1.046154744541016</v>
+        <v>1.045788688625779</v>
       </c>
       <c r="XH2">
-        <v>1.046272066260511</v>
+        <v>1.045939736124436</v>
       </c>
       <c r="XI2">
-        <v>1.046201786443921</v>
+        <v>1.045826962413221</v>
       </c>
       <c r="XJ2">
-        <v>1.046196557196925</v>
+        <v>1.045820696457292</v>
       </c>
       <c r="XK2">
-        <v>1.045994038105298</v>
+        <v>1.04552582152057</v>
       </c>
       <c r="XL2">
-        <v>1.046036189972813</v>
+        <v>1.045552269391727</v>
       </c>
       <c r="XM2">
-        <v>1.046006342392772</v>
+        <v>1.045498594152483</v>
       </c>
       <c r="XN2">
-        <v>1.046271381386486</v>
+        <v>1.045939256563427</v>
       </c>
       <c r="XO2">
-        <v>1.046201428455076</v>
+        <v>1.045826246168396</v>
       </c>
       <c r="XP2">
-        <v>1.04619582610081</v>
+        <v>1.045819623221094</v>
       </c>
       <c r="XQ2">
-        <v>1.045982935604627</v>
+        <v>1.045522026493801</v>
       </c>
       <c r="XR2">
-        <v>1.046036189972813</v>
+        <v>1.045552269391728</v>
       </c>
       <c r="XS2">
-        <v>1.046002576464542</v>
+        <v>1.045491872557009</v>
       </c>
       <c r="XT2">
-        <v>1.046270907564566</v>
+        <v>1.045938924784866</v>
       </c>
       <c r="XU2">
-        <v>1.046200932205039</v>
+        <v>1.045825253298018</v>
       </c>
       <c r="XV2">
-        <v>1.046195022683357</v>
+        <v>1.045818443818477</v>
       </c>
       <c r="XW2">
-        <v>1.046036189972813</v>
+        <v>1.045552269391729</v>
       </c>
       <c r="XX2">
-        <v>1.046001535465354</v>
+        <v>1.045490014535579</v>
       </c>
       <c r="XY2">
-        <v>1.046270305102867</v>
+        <v>1.045938502930437</v>
       </c>
       <c r="XZ2">
-        <v>1.046199755447954</v>
+        <v>1.045822898905758</v>
       </c>
       <c r="YA2">
-        <v>1.046194095659286</v>
+        <v>1.045817082963566</v>
       </c>
       <c r="YB2">
-        <v>1.046036189972813</v>
+        <v>1.04555226939173</v>
       </c>
       <c r="YC2">
-        <v>1.046001233246596</v>
+        <v>1.045489475122163</v>
       </c>
       <c r="YD2">
-        <v>1.046269939112514</v>
+        <v>1.045938246657463</v>
       </c>
       <c r="YE2">
-        <v>1.046198860918717</v>
+        <v>1.045821109179799</v>
       </c>
       <c r="YF2">
-        <v>1.046193158501109</v>
+        <v>1.045815707232008</v>
       </c>
       <c r="YG2">
-        <v>1.046036189972814</v>
+        <v>1.04555226939173</v>
       </c>
       <c r="YH2">
-        <v>1.046001103782936</v>
+        <v>1.045489408739783</v>
       </c>
       <c r="YI2">
-        <v>1.046000528386769</v>
+        <v>1.04548734227777</v>
       </c>
       <c r="YJ2">
-        <v>1.046269608701283</v>
+        <v>1.045938015297625</v>
       </c>
       <c r="YK2">
-        <v>1.046198232972788</v>
+        <v>1.045819852819384</v>
       </c>
       <c r="YL2">
-        <v>1.046192119540245</v>
+        <v>1.045814182055963</v>
       </c>
       <c r="YM2">
-        <v>1.046036189972814</v>
+        <v>1.045552269391732</v>
       </c>
       <c r="YN2">
-        <v>1.046000982615956</v>
+        <v>1.045489346611517</v>
       </c>
       <c r="YO2">
-        <v>1.045999598277932</v>
+        <v>1.045484527849537</v>
       </c>
       <c r="YP2">
-        <v>1.046269051451061</v>
+        <v>1.045937625101079</v>
       </c>
       <c r="YQ2">
-        <v>1.046197575144501</v>
+        <v>1.045818536671958</v>
       </c>
       <c r="YR2">
-        <v>1.046190608673618</v>
+        <v>1.045811964130751</v>
       </c>
       <c r="YS2">
-        <v>1.046036189972814</v>
+        <v>1.045552269391733</v>
       </c>
       <c r="YT2">
-        <v>1.04600085779833</v>
+        <v>1.045489282611387</v>
       </c>
       <c r="YU2">
-        <v>1.045995734175623</v>
+        <v>1.045472835413222</v>
       </c>
       <c r="YV2">
-        <v>1.046268503598717</v>
+        <v>1.045937241485094</v>
       </c>
       <c r="YW2">
-        <v>1.046197035060974</v>
+        <v>1.045817456101914</v>
       </c>
       <c r="YX2">
-        <v>1.046188607274829</v>
+        <v>1.045810306137716</v>
       </c>
       <c r="YY2">
-        <v>1.046187260747773</v>
+        <v>1.04580653386643</v>
       </c>
       <c r="YZ2">
-        <v>1.046036189972814</v>
+        <v>1.045552269391733</v>
       </c>
       <c r="ZA2">
-        <v>1.045999955338867</v>
+        <v>1.045488819876067</v>
       </c>
       <c r="ZB2">
-        <v>1.045994093184103</v>
+        <v>1.045467869916269</v>
       </c>
       <c r="ZC2">
-        <v>1.046268244384853</v>
+        <v>1.045937059978922</v>
       </c>
       <c r="ZD2">
-        <v>1.046196140831326</v>
+        <v>1.045815666975387</v>
       </c>
       <c r="ZE2">
-        <v>1.046187405434995</v>
+        <v>1.045809310513013</v>
       </c>
       <c r="ZF2">
-        <v>1.046166060933864</v>
+        <v>1.045772148238201</v>
       </c>
       <c r="ZG2">
-        <v>1.046036189972814</v>
+        <v>1.045552269391733</v>
       </c>
       <c r="ZH2">
-        <v>1.045993383528965</v>
+        <v>1.045485450186108</v>
       </c>
       <c r="ZI2">
-        <v>1.046267959673587</v>
+        <v>1.045936860619014</v>
       </c>
       <c r="ZJ2">
-        <v>1.046193250946123</v>
+        <v>1.045809885048743</v>
       </c>
       <c r="ZK2">
-        <v>1.046186290554612</v>
+        <v>1.045808386927007</v>
       </c>
       <c r="ZL2">
-        <v>1.046150886171495</v>
+        <v>1.045747535128896</v>
       </c>
       <c r="ZM2">
-        <v>1.046267686411727</v>
+        <v>1.045936669276185</v>
       </c>
       <c r="ZN2">
-        <v>1.046186498371506</v>
+        <v>1.045796374861559</v>
       </c>
       <c r="ZO2">
-        <v>1.046185202729095</v>
+        <v>1.045807485753714</v>
       </c>
       <c r="ZP2">
-        <v>1.046140276345558</v>
+        <v>1.045736390505749</v>
       </c>
       <c r="ZQ2">
-        <v>1.046110735512306</v>
+        <v>1.045680544523686</v>
       </c>
       <c r="ZR2">
-        <v>1.046267356860195</v>
+        <v>1.045936438518323</v>
       </c>
       <c r="ZS2">
-        <v>1.046184386787044</v>
+        <v>1.045806809813341</v>
       </c>
       <c r="ZT2">
-        <v>1.046140276345566</v>
+        <v>1.045736390505758</v>
       </c>
       <c r="ZU2">
-        <v>1.04613750667878</v>
+        <v>1.045733481231589</v>
       </c>
       <c r="ZV2">
-        <v>1.046098383230206</v>
+        <v>1.045668187167548</v>
       </c>
       <c r="ZW2">
-        <v>1.046103058764664</v>
+        <v>1.045667281757817</v>
       </c>
       <c r="ZX2">
-        <v>1.04626683118376</v>
+        <v>1.045936070430305</v>
       </c>
       <c r="ZY2">
-        <v>1.046183090609386</v>
+        <v>1.045805736037563</v>
       </c>
       <c r="ZZ2">
-        <v>1.046140276345568</v>
+        <v>1.04573639050576</v>
       </c>
       <c r="AAA2">
-        <v>1.04613186443232</v>
+        <v>1.045727554582964</v>
       </c>
       <c r="AAB2">
-        <v>1.046091227226246</v>
+        <v>1.045661028224064</v>
       </c>
       <c r="AAC2">
-        <v>1.046088663273278</v>
+        <v>1.045642411429888</v>
       </c>
       <c r="AAD2">
-        <v>1.046265392465802</v>
+        <v>1.045935063014321</v>
       </c>
       <c r="AAE2">
-        <v>1.046180905203583</v>
+        <v>1.045803925609954</v>
       </c>
       <c r="AAF2">
-        <v>1.04614027634557</v>
+        <v>1.045736390505762</v>
       </c>
       <c r="AAG2">
-        <v>1.046050690393648</v>
+        <v>1.04557680772777</v>
       </c>
       <c r="AAH2">
-        <v>1.046088663273278</v>
+        <v>1.045642411429888</v>
       </c>
       <c r="AAI2">
-        <v>1.046263477796293</v>
+        <v>1.045933722328566</v>
       </c>
       <c r="AAJ2">
-        <v>1.046164530084903</v>
+        <v>1.045790360180961</v>
       </c>
       <c r="AAK2">
-        <v>1.046140276345571</v>
+        <v>1.045736390505763</v>
       </c>
       <c r="AAL2">
-        <v>1.046016054316631</v>
+        <v>1.045517658028767</v>
       </c>
       <c r="AAM2">
-        <v>1.046037327420495</v>
+        <v>1.045552832749098</v>
       </c>
       <c r="AAN2">
-        <v>1.046088663273279</v>
+        <v>1.045642411429889</v>
       </c>
       <c r="AAO2">
-        <v>1.04626329543025</v>
+        <v>1.045933594632608</v>
       </c>
       <c r="AAP2">
-        <v>1.046151096411599</v>
+        <v>1.045779231495577</v>
       </c>
       <c r="AAQ2">
-        <v>1.046140276345572</v>
+        <v>1.045736390505764</v>
       </c>
       <c r="AAR2">
-        <v>1.04598030612987</v>
+        <v>1.045456609163486</v>
       </c>
       <c r="AAS2">
-        <v>1.046035896883117</v>
+        <v>1.045550266171915</v>
       </c>
       <c r="AAT2">
-        <v>1.046088663273279</v>
+        <v>1.045642411429889</v>
       </c>
       <c r="AAU2">
-        <v>1.046263151204812</v>
+        <v>1.045933493643383</v>
       </c>
       <c r="AAV2">
-        <v>1.046146840157284</v>
+        <v>1.045775705541468</v>
       </c>
       <c r="AAW2">
-        <v>1.046140276345573</v>
+        <v>1.045736390505764</v>
       </c>
       <c r="AAX2">
-        <v>1.045968873321611</v>
+        <v>1.045433618001561</v>
       </c>
       <c r="AAY2">
-        <v>1.045955034310485</v>
+        <v>1.045437874438006</v>
       </c>
       <c r="AAZ2">
-        <v>1.046035350684138</v>
+        <v>1.045549286217212</v>
       </c>
       <c r="ABA2">
-        <v>1.046088663273279</v>
+        <v>1.045642411429888</v>
       </c>
       <c r="ABB2">
-        <v>1.046263011127344</v>
+        <v>1.045933395558641</v>
       </c>
       <c r="ABC2">
-        <v>1.046142965381643</v>
+        <v>1.045772495610825</v>
       </c>
       <c r="ABD2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505765</v>
       </c>
       <c r="ABE2">
-        <v>1.045953337920382</v>
+        <v>1.04540237661291</v>
       </c>
       <c r="ABF2">
-        <v>1.045951644277761</v>
+        <v>1.045435361309339</v>
       </c>
       <c r="ABG2">
-        <v>1.046034772913724</v>
+        <v>1.045548249619095</v>
       </c>
       <c r="ABH2">
-        <v>1.046088663273278</v>
+        <v>1.045642411429887</v>
       </c>
       <c r="ABI2">
-        <v>1.046262861089277</v>
+        <v>1.04593329049931</v>
       </c>
       <c r="ABJ2">
-        <v>1.046140854971484</v>
+        <v>1.045770747310824</v>
       </c>
       <c r="ABK2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505765</v>
       </c>
       <c r="ABL2">
-        <v>1.045935149103798</v>
+        <v>1.045365799273014</v>
       </c>
       <c r="ABM2">
-        <v>1.045949863233229</v>
+        <v>1.045434040969846</v>
       </c>
       <c r="ABN2">
-        <v>1.046034293414415</v>
+        <v>1.045547389332609</v>
       </c>
       <c r="ABO2">
-        <v>1.046088663273278</v>
+        <v>1.045642411429886</v>
       </c>
       <c r="ABP2">
-        <v>1.046262722367754</v>
+        <v>1.045933193364025</v>
       </c>
       <c r="ABQ2">
-        <v>1.046139169478193</v>
+        <v>1.045769351019248</v>
       </c>
       <c r="ABR2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505765</v>
       </c>
       <c r="ABS2">
-        <v>1.045920544221</v>
+        <v>1.045336429162912</v>
       </c>
       <c r="ABT2">
-        <v>1.045944870163784</v>
+        <v>1.045429045436882</v>
       </c>
       <c r="ABU2">
-        <v>1.045949696299943</v>
+        <v>1.045433959450583</v>
       </c>
       <c r="ABV2">
-        <v>1.046033725569348</v>
+        <v>1.04554637054191</v>
       </c>
       <c r="ABW2">
-        <v>1.046088663273277</v>
+        <v>1.045642411429884</v>
       </c>
       <c r="ABX2">
-        <v>1.046262591637382</v>
+        <v>1.045933101824286</v>
       </c>
       <c r="ABY2">
-        <v>1.04613773223162</v>
+        <v>1.045768160379513</v>
       </c>
       <c r="ABZ2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505766</v>
       </c>
       <c r="ACA2">
-        <v>1.045918442501283</v>
+        <v>1.04532717411997</v>
       </c>
       <c r="ACB2">
-        <v>1.045889287925844</v>
+        <v>1.045320889320131</v>
       </c>
       <c r="ACC2">
-        <v>1.045940811416878</v>
+        <v>1.045424984687441</v>
       </c>
       <c r="ACD2">
-        <v>1.045949575583184</v>
+        <v>1.04543390050044</v>
       </c>
       <c r="ACE2">
-        <v>1.046033171782377</v>
+        <v>1.045545376973336</v>
       </c>
       <c r="ACF2">
-        <v>1.046088663273276</v>
+        <v>1.045642411429883</v>
       </c>
       <c r="ACG2">
-        <v>1.046262409816449</v>
+        <v>1.045932974510025</v>
       </c>
       <c r="ACH2">
-        <v>1.046136045612701</v>
+        <v>1.045766763155442</v>
       </c>
       <c r="ACI2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505766</v>
       </c>
       <c r="ACJ2">
-        <v>1.04591554484081</v>
+        <v>1.045314414109058</v>
       </c>
       <c r="ACK2">
-        <v>1.045863161766927</v>
+        <v>1.045307900050841</v>
       </c>
       <c r="ACL2">
-        <v>1.045949473709003</v>
+        <v>1.045433850751775</v>
       </c>
       <c r="ACM2">
-        <v>1.046032410443873</v>
+        <v>1.045544011029302</v>
       </c>
       <c r="ACN2">
-        <v>1.046088663273275</v>
+        <v>1.045642411429881</v>
       </c>
       <c r="ACO2">
-        <v>1.046262187002341</v>
+        <v>1.045932818491611</v>
       </c>
       <c r="ACP2">
-        <v>1.046134504481832</v>
+        <v>1.045765486456169</v>
       </c>
       <c r="ACQ2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505765</v>
       </c>
       <c r="ACR2">
-        <v>1.045908416506896</v>
+        <v>1.045283024102726</v>
       </c>
       <c r="ACS2">
-        <v>1.045853543338795</v>
+        <v>1.045300858467607</v>
       </c>
       <c r="ACT2">
-        <v>1.045862821982919</v>
+        <v>1.045307812935951</v>
       </c>
       <c r="ACU2">
-        <v>1.045949301631726</v>
+        <v>1.045433766720524</v>
       </c>
       <c r="ACV2">
-        <v>1.04603136309951</v>
+        <v>1.045542131952162</v>
       </c>
       <c r="ACW2">
-        <v>1.046088663273275</v>
+        <v>1.04564241142988</v>
       </c>
       <c r="ACX2">
-        <v>1.046261130921275</v>
+        <v>1.045932079004807</v>
       </c>
       <c r="ACY2">
-        <v>1.046132113601036</v>
+        <v>1.045763505809461</v>
       </c>
       <c r="ACZ2">
-        <v>1.046140276345574</v>
+        <v>1.045736390505765</v>
       </c>
       <c r="ADA2">
-        <v>1.045902638890093</v>
+        <v>1.045257582066368</v>
       </c>
       <c r="ADB2">
-        <v>1.045844118311062</v>
+        <v>1.04529395847134</v>
       </c>
       <c r="ADC2">
-        <v>1.04586249710582</v>
+        <v>1.045307729642942</v>
       </c>
       <c r="ADD2">
-        <v>1.045949060657871</v>
+        <v>1.045433649044706</v>
       </c>
       <c r="ADE2">
-        <v>1.046030254712621</v>
+        <v>1.045540143356499</v>
       </c>
       <c r="ADF2">
-        <v>1.046088663273274</v>
+        <v>1.04564241142988</v>
       </c>
       <c r="ADG2">
-        <v>1.046252101128022</v>
+        <v>1.045925756182412</v>
       </c>
       <c r="ADH2">
-        <v>1.046127286650659</v>
+        <v>1.045759507080868</v>
       </c>
       <c r="ADI2">
-        <v>1.045898124429693</v>
+        <v>1.045237702413501</v>
       </c>
       <c r="ADJ2">
-        <v>1.045862146871334</v>
+        <v>1.045307639848726</v>
       </c>
       <c r="ADK2">
-        <v>1.045948881849631</v>
+        <v>1.045433561726495</v>
       </c>
       <c r="ADL2">
-        <v>1.046029518441553</v>
+        <v>1.045538822386847</v>
       </c>
       <c r="ADM2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="ADN2">
-        <v>1.046126385480689</v>
+        <v>1.045759033802697</v>
       </c>
       <c r="ADO2">
-        <v>1.046124063188213</v>
+        <v>1.045755207602054</v>
       </c>
       <c r="ADP2">
-        <v>1.045894044230491</v>
+        <v>1.045219735058038</v>
       </c>
       <c r="ADQ2">
-        <v>1.045861834138696</v>
+        <v>1.045307559669352</v>
       </c>
       <c r="ADR2">
-        <v>1.045948585646339</v>
+        <v>1.045433417080243</v>
       </c>
       <c r="ADS2">
-        <v>1.046028769094783</v>
+        <v>1.045537477957625</v>
       </c>
       <c r="ADT2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="ADU2">
-        <v>1.046125599575453</v>
+        <v>1.045758621059479</v>
       </c>
       <c r="ADV2">
-        <v>1.046118905179545</v>
+        <v>1.045748327810777</v>
       </c>
       <c r="ADW2">
-        <v>1.045893639124653</v>
+        <v>1.045218904198822</v>
       </c>
       <c r="ADX2">
-        <v>1.045892970376637</v>
+        <v>1.045211367197407</v>
       </c>
       <c r="ADY2">
-        <v>1.045861488777613</v>
+        <v>1.045307471124595</v>
       </c>
       <c r="ADZ2">
-        <v>1.045946529693667</v>
+        <v>1.04543241308786</v>
       </c>
       <c r="AEA2">
-        <v>1.046028410799908</v>
+        <v>1.045536835128272</v>
       </c>
       <c r="AEB2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="AEC2">
-        <v>1.046124949596043</v>
+        <v>1.045758279702047</v>
       </c>
       <c r="AED2">
-        <v>1.046114498166038</v>
+        <v>1.045742449702623</v>
       </c>
       <c r="AEE2">
-        <v>1.045893232954549</v>
+        <v>1.045218071156832</v>
       </c>
       <c r="AEF2">
-        <v>1.045891254624867</v>
+        <v>1.045197997455312</v>
       </c>
       <c r="AEG2">
-        <v>1.045892970376637</v>
+        <v>1.045211367197407</v>
       </c>
       <c r="AEH2">
-        <v>1.045861266111973</v>
+        <v>1.045307414036879</v>
       </c>
       <c r="AEI2">
-        <v>1.045941988347752</v>
+        <v>1.045430195392478</v>
       </c>
       <c r="AEJ2">
-        <v>1.046027840888484</v>
+        <v>1.045535812630278</v>
       </c>
       <c r="AEK2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="AEL2">
-        <v>1.04612444414048</v>
+        <v>1.045758014245925</v>
       </c>
       <c r="AEM2">
-        <v>1.046112003969211</v>
+        <v>1.045739122923936</v>
       </c>
       <c r="AEN2">
-        <v>1.045892825996105</v>
+        <v>1.045217236497983</v>
       </c>
       <c r="AEO2">
-        <v>1.045889816024864</v>
+        <v>1.045186787380338</v>
       </c>
       <c r="AEP2">
-        <v>1.045891254624867</v>
+        <v>1.045197997455312</v>
       </c>
       <c r="AEQ2">
-        <v>1.045860924112763</v>
+        <v>1.04530732635405</v>
       </c>
       <c r="AER2">
-        <v>1.046027305868234</v>
+        <v>1.045534852731759</v>
       </c>
       <c r="AES2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="AET2">
-        <v>1.046123930060888</v>
+        <v>1.045757744260618</v>
       </c>
       <c r="AEU2">
-        <v>1.045892421501228</v>
+        <v>1.045216406891836</v>
       </c>
       <c r="AEV2">
-        <v>1.045888269566214</v>
+        <v>1.045174736835994</v>
       </c>
       <c r="AEW2">
-        <v>1.045889816024864</v>
+        <v>1.045186787380338</v>
       </c>
       <c r="AEX2">
-        <v>1.045858111082773</v>
+        <v>1.045306605140597</v>
       </c>
       <c r="AEY2">
-        <v>1.046026541413259</v>
+        <v>1.045533481196392</v>
       </c>
       <c r="AEZ2">
-        <v>1.046088663273274</v>
+        <v>1.045642411429879</v>
       </c>
       <c r="AFA2">
-        <v>1.046123483931203</v>
+        <v>1.045757509961374</v>
       </c>
       <c r="AFB2">
-        <v>1.045892015469076</v>
+        <v>1.045215574132785</v>
       </c>
       <c r="AFC2">
-        <v>1.045886999868769</v>
+        <v>1.045164842913662</v>
       </c>
       <c r="AFD2">
-        <v>1.045888269566214</v>
+        <v>1.045174736835994</v>
       </c>
       <c r="AFE2">
-        <v>1.045848416110515</v>
+        <v>1.045304119513134</v>
       </c>
       <c r="AFF2">
-        <v>1.046018472071919</v>
+        <v>1.045519003709581</v>
       </c>
       <c r="AFG2">
-        <v>1.046123163514063</v>
+        <v>1.045757341684086</v>
       </c>
       <c r="AFH2">
-        <v>1.04589160971285</v>
+        <v>1.045214741939653</v>
       </c>
       <c r="AFI2">
-        <v>1.045885636708695</v>
+        <v>1.045154220700453</v>
       </c>
       <c r="AFJ2">
-        <v>1.045886999868769</v>
+        <v>1.045164842913662</v>
       </c>
       <c r="AFK2">
-        <v>1.046015244538815</v>
+        <v>1.045513213079986</v>
       </c>
       <c r="AFL2">
-        <v>1.046122791509176</v>
+        <v>1.045757146313845</v>
       </c>
       <c r="AFM2">
-        <v>1.045891203700431</v>
+        <v>1.04521390922108</v>
       </c>
       <c r="AFN2">
-        <v>1.045878444561914</v>
+        <v>1.045098177078611</v>
       </c>
       <c r="AFO2">
-        <v>1.045885636708693</v>
+        <v>1.045154220700454</v>
       </c>
       <c r="AFP2">
-        <v>1.045885636708695</v>
+        <v>1.045154220700453</v>
       </c>
       <c r="AFQ2">
-        <v>1.046013605603219</v>
+        <v>1.045510272608559</v>
       </c>
       <c r="AFR2">
-        <v>1.04612223107881</v>
+        <v>1.045756851985949</v>
       </c>
       <c r="AFS2">
-        <v>1.045891005512918</v>
+        <v>1.045213502744788</v>
       </c>
       <c r="AFT2">
-        <v>1.045877392329823</v>
+        <v>1.04508997773396</v>
       </c>
       <c r="AFU2">
-        <v>1.04588563670869</v>
+        <v>1.045154220700456</v>
       </c>
       <c r="AFV2">
-        <v>1.045885636708693</v>
+        <v>1.045154220700454</v>
       </c>
       <c r="AFW2">
-        <v>1.046013242938518</v>
+        <v>1.045509621939193</v>
       </c>
       <c r="AFX2">
-        <v>1.046121315448633</v>
+        <v>1.045756371113534</v>
       </c>
       <c r="AFY2">
-        <v>1.045886551220796</v>
+        <v>1.045204367133284</v>
       </c>
       <c r="AFZ2">
-        <v>1.045874427954631</v>
+        <v>1.045066878331647</v>
       </c>
       <c r="AGA2">
-        <v>1.045885636708686</v>
+        <v>1.045154220700457</v>
       </c>
       <c r="AGB2">
-        <v>1.04588563670869</v>
+        <v>1.045154220700456</v>
       </c>
       <c r="AGC2">
-        <v>1.046012957322284</v>
+        <v>1.045509109505165</v>
       </c>
       <c r="AGD2">
-        <v>1.046113968104764</v>
+        <v>1.045754533645542</v>
       </c>
       <c r="AGE2">
-        <v>1.046121315448633</v>
+        <v>1.045750988995064</v>
       </c>
       <c r="AGF2">
-        <v>1.045883654679588</v>
+        <v>1.045198426419498</v>
       </c>
       <c r="AGG2">
-        <v>1.045870947034531</v>
+        <v>1.045039753841347</v>
       </c>
       <c r="AGH2">
-        <v>1.045885636708685</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGI2">
-        <v>1.045885636708686</v>
+        <v>1.045154220700457</v>
       </c>
       <c r="AGJ2">
-        <v>1.046012651303192</v>
+        <v>1.04550856046566</v>
       </c>
       <c r="AGK2">
-        <v>1.045881121363945</v>
+        <v>1.045193230669866</v>
       </c>
       <c r="AGL2">
-        <v>1.045870495484027</v>
+        <v>1.045036235209436</v>
       </c>
       <c r="AGM2">
-        <v>1.045885636708684</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGN2">
-        <v>1.045885636708685</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGO2">
-        <v>1.046012406465563</v>
+        <v>1.045508121193949</v>
       </c>
       <c r="AGP2">
-        <v>1.045878464082583</v>
+        <v>1.045187780670576</v>
       </c>
       <c r="AGQ2">
-        <v>1.045869927912805</v>
+        <v>1.045035694234145</v>
       </c>
       <c r="AGR2">
-        <v>1.045870495484027</v>
+        <v>1.045027598792795</v>
       </c>
       <c r="AGS2">
-        <v>1.045885636708684</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGT2">
-        <v>1.045885636708684</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGU2">
-        <v>1.046012168738269</v>
+        <v>1.045507694679135</v>
       </c>
       <c r="AGV2">
-        <v>1.04587392681854</v>
+        <v>1.045178474886989</v>
       </c>
       <c r="AGW2">
-        <v>1.045869402723985</v>
+        <v>1.045035193655251</v>
       </c>
       <c r="AGX2">
-        <v>1.045870495484027</v>
+        <v>1.045007387253345</v>
       </c>
       <c r="AGY2">
-        <v>1.045885636708684</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AGZ2">
-        <v>1.045885636708684</v>
+        <v>1.045154220700458</v>
       </c>
       <c r="AHA2">
-        <v>1.046011931613944</v>
+        <v>1.045507269246132</v>
       </c>
       <c r="AHB2">
-        <v>1.045872813925538</v>
+        <v>1.045176192379038</v>
       </c>
       <c r="AHC2">
-        <v>1.045868604128327</v>
+        <v>1.045034432481143</v>
       </c>
       <c r="AHD2">
-        <v>1.045870495484027</v>
+        <v>1.044959439444995</v>
       </c>
       <c r="AHE2">
-        <v>1.046011697263986</v>
+        <v>1.045506848790718</v>
       </c>
       <c r="AHF2">
-        <v>1.045872002226518</v>
+        <v>1.045175380139028</v>
       </c>
       <c r="AHG2">
-        <v>1.045871222447578</v>
+        <v>1.045169666779396</v>
       </c>
       <c r="AHH2">
-        <v>1.045867594921757</v>
+        <v>1.045033470565181</v>
       </c>
       <c r="AHI2">
-        <v>1.04600750659987</v>
+        <v>1.045499330174474</v>
       </c>
       <c r="AHJ2">
-        <v>1.045870669483296</v>
+        <v>1.045174046507543</v>
       </c>
       <c r="AHK2">
-        <v>1.045869872660187</v>
+        <v>1.045164132193365</v>
       </c>
       <c r="AHL2">
-        <v>1.045863666100162</v>
+        <v>1.045029725845002</v>
       </c>
       <c r="AHM2">
-        <v>1.045991569302827</v>
+        <v>1.045483385130938</v>
       </c>
       <c r="AHN2">
-        <v>1.046005383796222</v>
+        <v>1.045488445398679</v>
       </c>
       <c r="AHO2">
-        <v>1.045870405970715</v>
+        <v>1.045173782819333</v>
       </c>
       <c r="AHP2">
-        <v>1.045867603944793</v>
+        <v>1.045154829691468</v>
       </c>
       <c r="AHQ2">
-        <v>1.045856529137821</v>
+        <v>1.045022923314962</v>
       </c>
       <c r="AHR2">
-        <v>1.045980985115796</v>
+        <v>1.045472795799351</v>
       </c>
       <c r="AHS2">
-        <v>1.045870183308259</v>
+        <v>1.045173560008475</v>
       </c>
       <c r="AHT2">
-        <v>1.045869995671349</v>
+        <v>1.045173372246506</v>
       </c>
       <c r="AHU2">
-        <v>1.045869751587017</v>
+        <v>1.045173127999494</v>
       </c>
       <c r="AHV2">
-        <v>1.045869309832394</v>
+        <v>1.045172685950446</v>
       </c>
       <c r="AHW2">
-        <v>1.04586854390899</v>
+        <v>1.045171919516561</v>
       </c>
       <c r="AHX2">
-        <v>1.045862270190801</v>
+        <v>1.045165641616996</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.04986363769282</v>
+        <v>1.049456687264031</v>
       </c>
       <c r="D3">
-        <v>1.049787761521936</v>
+        <v>1.049167449364949</v>
       </c>
       <c r="E3">
-        <v>1.049779806970463</v>
+        <v>1.049137126912086</v>
       </c>
       <c r="F3">
-        <v>1.04977235480571</v>
+        <v>1.049108719552558</v>
       </c>
       <c r="G3">
-        <v>1.049765857588888</v>
+        <v>1.049083952428064</v>
       </c>
       <c r="H3">
-        <v>1.049755621922787</v>
+        <v>1.049044934508798</v>
       </c>
       <c r="I3">
-        <v>1.049058625391342</v>
+        <v>1.04638807375191</v>
       </c>
       <c r="J3">
-        <v>1.049027408249569</v>
+        <v>1.046269080818793</v>
       </c>
       <c r="K3">
-        <v>1.049001425654134</v>
+        <v>1.046170041016532</v>
       </c>
       <c r="L3">
-        <v>1.048978623867234</v>
+        <v>1.046083125876589</v>
       </c>
       <c r="M3">
-        <v>1.048961609431429</v>
+        <v>1.04601827086417</v>
       </c>
       <c r="N3">
-        <v>1.048945637068996</v>
+        <v>1.045957388054137</v>
       </c>
       <c r="O3">
-        <v>1.048935815527509</v>
+        <v>1.045919950727624</v>
       </c>
       <c r="P3">
-        <v>1.048911364300115</v>
+        <v>1.045826748700879</v>
       </c>
       <c r="Q3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771491</v>
       </c>
       <c r="R3">
-        <v>1.048713289437212</v>
+        <v>1.045071741771494</v>
       </c>
       <c r="S3">
-        <v>1.048473091063582</v>
+        <v>1.044156184574008</v>
       </c>
       <c r="T3">
-        <v>1.048713289437212</v>
+        <v>1.045071741771495</v>
       </c>
       <c r="U3">
-        <v>1.048456564001122</v>
+        <v>1.044093189371838</v>
       </c>
       <c r="V3">
-        <v>1.048713289437212</v>
+        <v>1.045071741771496</v>
       </c>
       <c r="W3">
-        <v>1.048438006046784</v>
+        <v>1.044022453222733</v>
       </c>
       <c r="X3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771497</v>
       </c>
       <c r="Y3">
-        <v>1.048407789959628</v>
+        <v>1.04390728070834</v>
       </c>
       <c r="Z3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771498</v>
       </c>
       <c r="AA3">
-        <v>1.048352819637774</v>
+        <v>1.043697754814424</v>
       </c>
       <c r="AB3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771498</v>
       </c>
       <c r="AC3">
-        <v>1.048329598924775</v>
+        <v>1.04328591697882</v>
       </c>
       <c r="AD3">
-        <v>1.047679182485306</v>
+        <v>1.041341848827846</v>
       </c>
       <c r="AE3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771499</v>
       </c>
       <c r="AF3">
-        <v>1.048325370074712</v>
+        <v>1.043173565608821</v>
       </c>
       <c r="AG3">
-        <v>1.048327487345873</v>
+        <v>1.043284856089992</v>
       </c>
       <c r="AH3">
-        <v>1.047499851391399</v>
+        <v>1.040714691010774</v>
       </c>
       <c r="AI3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771499</v>
       </c>
       <c r="AJ3">
-        <v>1.048315685709825</v>
+        <v>1.042916273304674</v>
       </c>
       <c r="AK3">
-        <v>1.048327415837071</v>
+        <v>1.0432848201629</v>
       </c>
       <c r="AL3">
-        <v>1.047458127789437</v>
+        <v>1.040672320435278</v>
       </c>
       <c r="AM3">
-        <v>1.046980279998542</v>
+        <v>1.038841410466657</v>
       </c>
       <c r="AN3">
-        <v>1.048713289437213</v>
+        <v>1.0450717417715</v>
       </c>
       <c r="AO3">
-        <v>1.048327313020348</v>
+        <v>1.04328476850624</v>
       </c>
       <c r="AP3">
-        <v>1.04745625403594</v>
+        <v>1.040671246493018</v>
       </c>
       <c r="AQ3">
-        <v>1.047453427543383</v>
+        <v>1.040663804729226</v>
       </c>
       <c r="AR3">
-        <v>1.046619735811598</v>
+        <v>1.037541526859509</v>
       </c>
       <c r="AS3">
-        <v>1.046980279998542</v>
+        <v>1.038841410466653</v>
       </c>
       <c r="AT3">
-        <v>1.048713289437213</v>
+        <v>1.0450717417715</v>
       </c>
       <c r="AU3">
-        <v>1.048327181164918</v>
+        <v>1.0432847022601</v>
       </c>
       <c r="AV3">
-        <v>1.047455409479175</v>
+        <v>1.040670762435107</v>
       </c>
       <c r="AW3">
-        <v>1.047442117861753</v>
+        <v>1.040643314329441</v>
       </c>
       <c r="AX3">
-        <v>1.046347290164568</v>
+        <v>1.036559287255556</v>
       </c>
       <c r="AY3">
-        <v>1.046980279998542</v>
+        <v>1.038841410466652</v>
       </c>
       <c r="AZ3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771501</v>
       </c>
       <c r="BA3">
-        <v>1.048326860037558</v>
+        <v>1.043284540920911</v>
       </c>
       <c r="BB3">
-        <v>1.047454514429806</v>
+        <v>1.040670249437347</v>
       </c>
       <c r="BC3">
-        <v>1.046308009138915</v>
+        <v>1.036417669979492</v>
       </c>
       <c r="BD3">
-        <v>1.046347290164567</v>
+        <v>1.036559287255556</v>
       </c>
       <c r="BE3">
-        <v>1.046980279998542</v>
+        <v>1.03884141046665</v>
       </c>
       <c r="BF3">
-        <v>1.048713289437213</v>
+        <v>1.045071741771502</v>
       </c>
       <c r="BG3">
-        <v>1.048326585093907</v>
+        <v>1.043284402785108</v>
       </c>
       <c r="BH3">
-        <v>1.047453661957227</v>
+        <v>1.040669760842484</v>
       </c>
       <c r="BI3">
-        <v>1.046130076936655</v>
+        <v>1.035776187094221</v>
       </c>
       <c r="BJ3">
-        <v>1.046347290164567</v>
+        <v>1.036559287255556</v>
       </c>
       <c r="BK3">
-        <v>1.046980279998541</v>
+        <v>1.038841410466649</v>
       </c>
       <c r="BL3">
-        <v>1.048713289437212</v>
+        <v>1.045071741771504</v>
       </c>
       <c r="BM3">
-        <v>1.048325267112635</v>
+        <v>1.043283740611601</v>
       </c>
       <c r="BN3">
-        <v>1.047453151410472</v>
+        <v>1.040669468222489</v>
       </c>
       <c r="BO3">
-        <v>1.046096501055326</v>
+        <v>1.035646803193233</v>
       </c>
       <c r="BP3">
-        <v>1.046031090689345</v>
+        <v>1.035737068951649</v>
       </c>
       <c r="BQ3">
-        <v>1.046347290164566</v>
+        <v>1.036559287255555</v>
       </c>
       <c r="BR3">
-        <v>1.046980279998541</v>
+        <v>1.038841410466647</v>
       </c>
       <c r="BS3">
-        <v>1.048713289437212</v>
+        <v>1.045071741771505</v>
       </c>
       <c r="BT3">
-        <v>1.048320608500728</v>
+        <v>1.043281400055273</v>
       </c>
       <c r="BU3">
-        <v>1.047452149755226</v>
+        <v>1.040668894123543</v>
       </c>
       <c r="BV3">
-        <v>1.045699816317179</v>
+        <v>1.034118209729109</v>
       </c>
       <c r="BW3">
-        <v>1.046009528412776</v>
+        <v>1.035726446343099</v>
       </c>
       <c r="BX3">
-        <v>1.046004269190826</v>
+        <v>1.035728570885797</v>
       </c>
       <c r="BY3">
-        <v>1.046347290164566</v>
+        <v>1.036559287255555</v>
       </c>
       <c r="BZ3">
-        <v>1.046980279998539</v>
+        <v>1.038841410466644</v>
       </c>
       <c r="CA3">
-        <v>1.048713289437209</v>
+        <v>1.045071741771511</v>
       </c>
       <c r="CB3">
-        <v>1.047447073328142</v>
+        <v>1.040665984568112</v>
       </c>
       <c r="CC3">
-        <v>1.045561543074637</v>
+        <v>1.033585394311849</v>
       </c>
       <c r="CD3">
-        <v>1.046347290164566</v>
+        <v>1.036559287255555</v>
       </c>
       <c r="CE3">
-        <v>1.046980279998535</v>
+        <v>1.038841410466634</v>
       </c>
       <c r="CF3">
-        <v>1.048713289437206</v>
+        <v>1.045071741771518</v>
       </c>
       <c r="CG3">
-        <v>1.047427944220802</v>
+        <v>1.040655020715225</v>
       </c>
       <c r="CH3">
-        <v>1.045531367381688</v>
+        <v>1.033469117423113</v>
       </c>
       <c r="CI3">
-        <v>1.046347290164565</v>
+        <v>1.036559287255555</v>
       </c>
       <c r="CJ3">
-        <v>1.046980279998527</v>
+        <v>1.038841410466613</v>
       </c>
       <c r="CK3">
-        <v>1.048713289437204</v>
+        <v>1.045071741771522</v>
       </c>
       <c r="CL3">
-        <v>1.045470175898236</v>
+        <v>1.033233327205473</v>
       </c>
       <c r="CM3">
-        <v>1.046347290164565</v>
+        <v>1.036559287255555</v>
       </c>
       <c r="CN3">
-        <v>1.046980279998525</v>
+        <v>1.038841410466608</v>
       </c>
       <c r="CO3">
-        <v>1.048713289437203</v>
+        <v>1.045071741771524</v>
       </c>
       <c r="CP3">
-        <v>1.045412469561366</v>
+        <v>1.033010967263929</v>
       </c>
       <c r="CQ3">
-        <v>1.046980279998524</v>
+        <v>1.038841410466607</v>
       </c>
       <c r="CR3">
-        <v>1.048713289437203</v>
+        <v>1.045071741771524</v>
       </c>
       <c r="CS3">
-        <v>1.045378928513739</v>
+        <v>1.032881723880589</v>
       </c>
       <c r="CT3">
-        <v>1.046980279998524</v>
+        <v>1.038841410466606</v>
       </c>
       <c r="CU3">
-        <v>1.048713289437203</v>
+        <v>1.045071741771525</v>
       </c>
       <c r="CV3">
-        <v>1.045356777170432</v>
+        <v>1.032796368492931</v>
       </c>
       <c r="CW3">
-        <v>1.046980279998524</v>
+        <v>1.038841410466606</v>
       </c>
       <c r="CX3">
-        <v>1.048713289437203</v>
+        <v>1.045071741771525</v>
       </c>
       <c r="CY3">
-        <v>1.045326192362355</v>
+        <v>1.032678516793301</v>
       </c>
       <c r="CZ3">
-        <v>1.046980279998511</v>
+        <v>1.038841410466573</v>
       </c>
       <c r="DA3">
-        <v>1.048713289437203</v>
+        <v>1.045071741771525</v>
       </c>
       <c r="DB3">
-        <v>1.045325822030499</v>
+        <v>1.032678200846928</v>
       </c>
       <c r="DC3">
-        <v>1.045308160761667</v>
+        <v>1.032602548894204</v>
       </c>
       <c r="DD3">
-        <v>1.046980279998511</v>
+        <v>1.038841410466572</v>
       </c>
       <c r="DE3">
-        <v>1.045325373980137</v>
+        <v>1.032677818595472</v>
       </c>
       <c r="DF3">
-        <v>1.045297935953365</v>
+        <v>1.032559471389539</v>
       </c>
       <c r="DG3">
-        <v>1.04698027999851</v>
+        <v>1.03884141046657</v>
       </c>
       <c r="DH3">
-        <v>1.045324854657949</v>
+        <v>1.032677375538873</v>
       </c>
       <c r="DI3">
-        <v>1.044894494296432</v>
+        <v>1.030859783458236</v>
       </c>
       <c r="DJ3">
-        <v>1.046980279998482</v>
+        <v>1.038841410466501</v>
       </c>
       <c r="DK3">
-        <v>1.045324062845955</v>
+        <v>1.032676700009202</v>
       </c>
       <c r="DL3">
-        <v>1.044854078441833</v>
+        <v>1.030689515556098</v>
       </c>
       <c r="DM3">
-        <v>1.046980279998458</v>
+        <v>1.03884141046644</v>
       </c>
       <c r="DN3">
-        <v>1.045323044864896</v>
+        <v>1.032675831524685</v>
       </c>
       <c r="DO3">
-        <v>1.044853519010243</v>
+        <v>1.030677541950384</v>
       </c>
       <c r="DP3">
-        <v>1.044739253557318</v>
+        <v>1.030303588783761</v>
       </c>
       <c r="DQ3">
-        <v>1.046980279998455</v>
+        <v>1.038841410466434</v>
       </c>
       <c r="DR3">
-        <v>1.045322314052138</v>
+        <v>1.032675208036064</v>
       </c>
       <c r="DS3">
-        <v>1.044853519010241</v>
+        <v>1.030677541950382</v>
       </c>
       <c r="DT3">
-        <v>1.044853246626444</v>
+        <v>1.030671712102998</v>
       </c>
       <c r="DU3">
-        <v>1.04453218403936</v>
+        <v>1.029607645475751</v>
       </c>
       <c r="DV3">
-        <v>1.046980279998454</v>
+        <v>1.03884141046643</v>
       </c>
       <c r="DW3">
-        <v>1.045321281419623</v>
+        <v>1.032674327051629</v>
       </c>
       <c r="DX3">
-        <v>1.04485351901024</v>
+        <v>1.030677541950381</v>
       </c>
       <c r="DY3">
-        <v>1.044851967059156</v>
+        <v>1.030644325686338</v>
       </c>
       <c r="DZ3">
-        <v>1.044439065894552</v>
+        <v>1.029294690729056</v>
       </c>
       <c r="EA3">
-        <v>1.046980279998452</v>
+        <v>1.038841410466427</v>
       </c>
       <c r="EB3">
-        <v>1.045320164186161</v>
+        <v>1.032673373890309</v>
       </c>
       <c r="EC3">
-        <v>1.04485351901024</v>
+        <v>1.03067754195038</v>
       </c>
       <c r="ED3">
-        <v>1.044849412751867</v>
+        <v>1.030634219967909</v>
       </c>
       <c r="EE3">
-        <v>1.044848706257936</v>
+        <v>1.030568058557683</v>
       </c>
       <c r="EF3">
-        <v>1.044411360799166</v>
+        <v>1.029201579371024</v>
       </c>
       <c r="EG3">
-        <v>1.046980279998447</v>
+        <v>1.038841410466415</v>
       </c>
       <c r="EH3">
-        <v>1.045319110545735</v>
+        <v>1.032672474982949</v>
       </c>
       <c r="EI3">
-        <v>1.044853519010239</v>
+        <v>1.030677541950378</v>
       </c>
       <c r="EJ3">
-        <v>1.044849192776084</v>
+        <v>1.030633349668052</v>
       </c>
       <c r="EK3">
-        <v>1.044846280398628</v>
+        <v>1.030511321961661</v>
       </c>
       <c r="EL3">
-        <v>1.044380087290241</v>
+        <v>1.029096475777791</v>
       </c>
       <c r="EM3">
-        <v>1.046980279998443</v>
+        <v>1.038841410466407</v>
       </c>
       <c r="EN3">
-        <v>1.045317378194086</v>
+        <v>1.032670997036801</v>
       </c>
       <c r="EO3">
-        <v>1.044853519010238</v>
+        <v>1.030677541950377</v>
       </c>
       <c r="EP3">
-        <v>1.044848976938054</v>
+        <v>1.030632495738571</v>
       </c>
       <c r="EQ3">
-        <v>1.044844655862375</v>
+        <v>1.030473327867081</v>
       </c>
       <c r="ER3">
-        <v>1.044350675186332</v>
+        <v>1.028997628452364</v>
       </c>
       <c r="ES3">
-        <v>1.046980279998443</v>
+        <v>1.038841410466405</v>
       </c>
       <c r="ET3">
-        <v>1.045309141263351</v>
+        <v>1.032663969742642</v>
       </c>
       <c r="EU3">
-        <v>1.044853519010237</v>
+        <v>1.030677541950376</v>
       </c>
       <c r="EV3">
-        <v>1.044848802657987</v>
+        <v>1.030631806226687</v>
       </c>
       <c r="EW3">
-        <v>1.04484429536179</v>
+        <v>1.030471851964632</v>
       </c>
       <c r="EX3">
-        <v>1.044821229245063</v>
+        <v>1.029796371663106</v>
       </c>
       <c r="EY3">
-        <v>1.044316356950623</v>
+        <v>1.028882293336411</v>
       </c>
       <c r="EZ3">
-        <v>1.046980279998442</v>
+        <v>1.038841410466405</v>
       </c>
       <c r="FA3">
-        <v>1.045307346895915</v>
+        <v>1.032662438886918</v>
       </c>
       <c r="FB3">
-        <v>1.044853519010236</v>
+        <v>1.030677541950376</v>
       </c>
       <c r="FC3">
-        <v>1.044848541077454</v>
+        <v>1.030630771324139</v>
       </c>
       <c r="FD3">
-        <v>1.044843339293157</v>
+        <v>1.030467937789494</v>
       </c>
       <c r="FE3">
-        <v>1.044819803350658</v>
+        <v>1.029755167841182</v>
       </c>
       <c r="FF3">
-        <v>1.044306482071177</v>
+        <v>1.028849106423082</v>
       </c>
       <c r="FG3">
-        <v>1.046980279998442</v>
+        <v>1.038841410466405</v>
       </c>
       <c r="FH3">
-        <v>1.045284383167081</v>
+        <v>1.032646942526538</v>
       </c>
       <c r="FI3">
-        <v>1.045301360654094</v>
+        <v>1.032657189127524</v>
       </c>
       <c r="FJ3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="FK3">
-        <v>1.044848225712894</v>
+        <v>1.030629523633494</v>
       </c>
       <c r="FL3">
-        <v>1.044843007198399</v>
+        <v>1.030466578184599</v>
       </c>
       <c r="FM3">
-        <v>1.044818500720605</v>
+        <v>1.029717525975852</v>
       </c>
       <c r="FN3">
-        <v>1.044250381423038</v>
+        <v>1.028660567670268</v>
       </c>
       <c r="FO3">
-        <v>1.046980279998442</v>
+        <v>1.038841410466405</v>
       </c>
       <c r="FP3">
-        <v>1.045280044930888</v>
+        <v>1.032644015002285</v>
       </c>
       <c r="FQ3">
-        <v>1.045293413315734</v>
+        <v>1.032650219540678</v>
       </c>
       <c r="FR3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="FS3">
-        <v>1.044847987461508</v>
+        <v>1.030628581029083</v>
       </c>
       <c r="FT3">
-        <v>1.044843007198404</v>
+        <v>1.030466578184584</v>
       </c>
       <c r="FU3">
-        <v>1.044837523152695</v>
+        <v>1.030444126418739</v>
       </c>
       <c r="FV3">
-        <v>1.044817959590194</v>
+        <v>1.029701889030388</v>
       </c>
       <c r="FW3">
-        <v>1.044218695534261</v>
+        <v>1.028554080920181</v>
       </c>
       <c r="FX3">
-        <v>1.045271094275771</v>
+        <v>1.032637974929989</v>
       </c>
       <c r="FY3">
-        <v>1.0452922549241</v>
+        <v>1.032649167707748</v>
       </c>
       <c r="FZ3">
-        <v>1.04528863639805</v>
+        <v>1.032646982647882</v>
       </c>
       <c r="GA3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="GB3">
-        <v>1.04484771176318</v>
+        <v>1.030627490271702</v>
       </c>
       <c r="GC3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184582</v>
       </c>
       <c r="GD3">
-        <v>1.044836930870536</v>
+        <v>1.030441701606776</v>
       </c>
       <c r="GE3">
-        <v>1.044816793189988</v>
+        <v>1.029668183783798</v>
       </c>
       <c r="GF3">
-        <v>1.04419517427078</v>
+        <v>1.028475033373894</v>
       </c>
       <c r="GG3">
-        <v>1.045287696349694</v>
+        <v>1.032645028469215</v>
       </c>
       <c r="GH3">
-        <v>1.045268865749939</v>
+        <v>1.032633585835531</v>
       </c>
       <c r="GI3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="GJ3">
-        <v>1.044847452535611</v>
+        <v>1.030626464678309</v>
       </c>
       <c r="GK3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184582</v>
       </c>
       <c r="GL3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184581</v>
       </c>
       <c r="GM3">
-        <v>1.044836357970699</v>
+        <v>1.030439356146349</v>
       </c>
       <c r="GN3">
-        <v>1.044813822382754</v>
+        <v>1.029582336955996</v>
       </c>
       <c r="GO3">
-        <v>1.044174027591776</v>
+        <v>1.028403966312888</v>
       </c>
       <c r="GP3">
-        <v>1.045279557263402</v>
+        <v>1.032637638082177</v>
       </c>
       <c r="GQ3">
-        <v>1.045267556437532</v>
+        <v>1.03263229281524</v>
       </c>
       <c r="GR3">
-        <v>1.045267389207832</v>
+        <v>1.032632819856611</v>
       </c>
       <c r="GS3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="GT3">
-        <v>1.044847173621994</v>
+        <v>1.030625361200148</v>
       </c>
       <c r="GU3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184582</v>
       </c>
       <c r="GV3">
-        <v>1.044843007198405</v>
+        <v>1.03046657818458</v>
       </c>
       <c r="GW3">
-        <v>1.044835899708243</v>
+        <v>1.030437480013077</v>
       </c>
       <c r="GX3">
-        <v>1.044812079425143</v>
+        <v>1.029531971074165</v>
       </c>
       <c r="GY3">
-        <v>1.04414775745759</v>
+        <v>1.028315681334977</v>
       </c>
       <c r="GZ3">
-        <v>1.045275323203404</v>
+        <v>1.032602487847771</v>
       </c>
       <c r="HA3">
-        <v>1.045277678148075</v>
+        <v>1.032637526215838</v>
       </c>
       <c r="HB3">
-        <v>1.045264246172164</v>
+        <v>1.032629023740367</v>
       </c>
       <c r="HC3">
-        <v>1.045267180497138</v>
+        <v>1.032632711584729</v>
       </c>
       <c r="HD3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="HE3">
-        <v>1.044846747246786</v>
+        <v>1.030623674313246</v>
       </c>
       <c r="HF3">
-        <v>1.044843007198405</v>
+        <v>1.03046657818458</v>
       </c>
       <c r="HG3">
-        <v>1.044835534666065</v>
+        <v>1.030435985525014</v>
       </c>
       <c r="HH3">
-        <v>1.044810858651775</v>
+        <v>1.029496694649559</v>
       </c>
       <c r="HI3">
-        <v>1.044099280423064</v>
+        <v>1.028152767507477</v>
       </c>
       <c r="HJ3">
-        <v>1.04526146456121</v>
+        <v>1.032487436492955</v>
       </c>
       <c r="HK3">
-        <v>1.045274286671423</v>
+        <v>1.032637324316259</v>
       </c>
       <c r="HL3">
-        <v>1.045267012177867</v>
+        <v>1.03263262426652</v>
       </c>
       <c r="HM3">
-        <v>1.044853519010235</v>
+        <v>1.030677541950375</v>
       </c>
       <c r="HN3">
-        <v>1.04484558286184</v>
+        <v>1.030619067606166</v>
       </c>
       <c r="HO3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184579</v>
       </c>
       <c r="HP3">
-        <v>1.04483476290843</v>
+        <v>1.030432825937899</v>
       </c>
       <c r="HQ3">
-        <v>1.044808510375144</v>
+        <v>1.029428837025565</v>
       </c>
       <c r="HR3">
-        <v>1.044057016267818</v>
+        <v>1.028010733966745</v>
       </c>
       <c r="HS3">
-        <v>1.045255490332137</v>
+        <v>1.032437839796773</v>
       </c>
       <c r="HT3">
-        <v>1.045273075726448</v>
+        <v>1.032637252226843</v>
       </c>
       <c r="HU3">
-        <v>1.045266877665859</v>
+        <v>1.032632554486347</v>
       </c>
       <c r="HV3">
-        <v>1.044845483582629</v>
+        <v>1.030618674823486</v>
       </c>
       <c r="HW3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184578</v>
       </c>
       <c r="HX3">
-        <v>1.044834155130894</v>
+        <v>1.030430337687755</v>
       </c>
       <c r="HY3">
-        <v>1.044807341555455</v>
+        <v>1.029395061914121</v>
       </c>
       <c r="HZ3">
-        <v>1.044028266284542</v>
+        <v>1.027914116904963</v>
       </c>
       <c r="IA3">
-        <v>1.045137933461954</v>
+        <v>1.032629206916228</v>
       </c>
       <c r="IB3">
-        <v>1.045273075726448</v>
+        <v>1.032637252226843</v>
       </c>
       <c r="IC3">
-        <v>1.045266672331992</v>
+        <v>1.032632447966247</v>
       </c>
       <c r="ID3">
-        <v>1.044845437726492</v>
+        <v>1.030618493400847</v>
       </c>
       <c r="IE3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184577</v>
       </c>
       <c r="IF3">
-        <v>1.044833733546104</v>
+        <v>1.030428611713458</v>
       </c>
       <c r="IG3">
-        <v>1.044806511621306</v>
+        <v>1.029371079503314</v>
       </c>
       <c r="IH3">
-        <v>1.044009380037966</v>
+        <v>1.02785064811574</v>
       </c>
       <c r="II3">
-        <v>1.045118307854393</v>
+        <v>1.032628038560986</v>
       </c>
       <c r="IJ3">
-        <v>1.045266431639327</v>
+        <v>1.032632323103226</v>
       </c>
       <c r="IK3">
-        <v>1.044845388677802</v>
+        <v>1.030618299347373</v>
       </c>
       <c r="IL3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184576</v>
       </c>
       <c r="IM3">
-        <v>1.044833312965647</v>
+        <v>1.030426889850929</v>
       </c>
       <c r="IN3">
-        <v>1.044797017529421</v>
+        <v>1.029096731199904</v>
       </c>
       <c r="IO3">
-        <v>1.043968733701111</v>
+        <v>1.027714053405825</v>
       </c>
       <c r="IP3">
-        <v>1.045114764486463</v>
+        <v>1.032628038560986</v>
       </c>
       <c r="IQ3">
-        <v>1.045061611048063</v>
+        <v>1.032624452331279</v>
       </c>
       <c r="IR3">
-        <v>1.045266061949689</v>
+        <v>1.032632131321042</v>
       </c>
       <c r="IS3">
-        <v>1.04484534180962</v>
+        <v>1.030618113920735</v>
       </c>
       <c r="IT3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184575</v>
       </c>
       <c r="IU3">
-        <v>1.044832697675193</v>
+        <v>1.030424370842849</v>
       </c>
       <c r="IV3">
-        <v>1.044794217877222</v>
+        <v>1.029015830457395</v>
       </c>
       <c r="IW3">
-        <v>1.043919895679102</v>
+        <v>1.027700744743772</v>
       </c>
       <c r="IX3">
-        <v>1.043944008658782</v>
+        <v>1.027624214901262</v>
       </c>
       <c r="IY3">
-        <v>1.045264709137296</v>
+        <v>1.032631429528811</v>
       </c>
       <c r="IZ3">
-        <v>1.044845289596456</v>
+        <v>1.030617907347513</v>
       </c>
       <c r="JA3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184575</v>
       </c>
       <c r="JB3">
-        <v>1.044830383537138</v>
+        <v>1.030414896728205</v>
       </c>
       <c r="JC3">
-        <v>1.044793591511902</v>
+        <v>1.028997730564229</v>
       </c>
       <c r="JD3">
-        <v>1.04391314456047</v>
+        <v>1.027698905022121</v>
       </c>
       <c r="JE3">
-        <v>1.043851293724283</v>
+        <v>1.027287338519807</v>
       </c>
       <c r="JF3">
-        <v>1.045258124998644</v>
+        <v>1.032628013905604</v>
       </c>
       <c r="JG3">
-        <v>1.044845181821165</v>
+        <v>1.030617480951421</v>
       </c>
       <c r="JH3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184575</v>
       </c>
       <c r="JI3">
-        <v>1.044829843415066</v>
+        <v>1.030412685460689</v>
       </c>
       <c r="JJ3">
-        <v>1.044786826059864</v>
+        <v>1.028769632984328</v>
       </c>
       <c r="JK3">
-        <v>1.044793281825063</v>
+        <v>1.028989900776539</v>
       </c>
       <c r="JL3">
-        <v>1.043910040823221</v>
+        <v>1.027698059234476</v>
       </c>
       <c r="JM3">
-        <v>1.043828517677072</v>
+        <v>1.027284445805807</v>
       </c>
       <c r="JN3">
-        <v>1.043821526779368</v>
+        <v>1.027174356161452</v>
       </c>
       <c r="JO3">
-        <v>1.04484506957389</v>
+        <v>1.030617036862629</v>
       </c>
       <c r="JP3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184575</v>
       </c>
       <c r="JQ3">
-        <v>1.044829595971076</v>
+        <v>1.030411672421451</v>
       </c>
       <c r="JR3">
-        <v>1.044780121261973</v>
+        <v>1.028543580645325</v>
       </c>
       <c r="JS3">
-        <v>1.044792918736734</v>
+        <v>1.028980720843634</v>
       </c>
       <c r="JT3">
-        <v>1.043906354472886</v>
+        <v>1.027697054681138</v>
       </c>
       <c r="JU3">
-        <v>1.043826862108595</v>
+        <v>1.027284235537258</v>
       </c>
       <c r="JV3">
-        <v>1.043713622100645</v>
+        <v>1.026764802407216</v>
       </c>
       <c r="JW3">
-        <v>1.04484464273746</v>
+        <v>1.030615348151024</v>
       </c>
       <c r="JX3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184576</v>
       </c>
       <c r="JY3">
-        <v>1.044829433295341</v>
+        <v>1.030411006424663</v>
       </c>
       <c r="JZ3">
-        <v>1.044792590605896</v>
+        <v>1.028972424738555</v>
       </c>
       <c r="KA3">
-        <v>1.04390066687577</v>
+        <v>1.027695504775607</v>
       </c>
       <c r="KB3">
-        <v>1.043825497537272</v>
+        <v>1.027284062227342</v>
       </c>
       <c r="KC3">
-        <v>1.043695912520231</v>
+        <v>1.026648711533851</v>
       </c>
       <c r="KD3">
-        <v>1.043693823214206</v>
+        <v>1.026704519712824</v>
       </c>
       <c r="KE3">
-        <v>1.044842376601953</v>
+        <v>1.030606382540396</v>
       </c>
       <c r="KF3">
-        <v>1.044843007198405</v>
+        <v>1.030466578184576</v>
       </c>
       <c r="KG3">
-        <v>1.04482943329534</v>
+        <v>1.030409224729276</v>
       </c>
       <c r="KH3">
-        <v>1.044829292336655</v>
+        <v>1.030410649096081</v>
       </c>
       <c r="KI3">
-        <v>1.044792258274955</v>
+        <v>1.028964022443019</v>
       </c>
       <c r="KJ3">
-        <v>1.043895598826826</v>
+        <v>1.027694123700769</v>
       </c>
       <c r="KK3">
-        <v>1.043823559268975</v>
+        <v>1.027283816053973</v>
       </c>
       <c r="KL3">
-        <v>1.043687761189046</v>
+        <v>1.026595277547993</v>
       </c>
       <c r="KM3">
-        <v>1.043610847115226</v>
+        <v>1.026451879909041</v>
       </c>
       <c r="KN3">
-        <v>1.04482943329534</v>
+        <v>1.030408406293888</v>
       </c>
       <c r="KO3">
-        <v>1.044829192575162</v>
+        <v>1.030410396201892</v>
       </c>
       <c r="KP3">
-        <v>1.044791900952003</v>
+        <v>1.028954988276961</v>
       </c>
       <c r="KQ3">
-        <v>1.043891658533711</v>
+        <v>1.027693049946385</v>
       </c>
       <c r="KR3">
-        <v>1.043814853442251</v>
+        <v>1.027282710354237</v>
       </c>
       <c r="KS3">
-        <v>1.043634511358565</v>
+        <v>1.026246213257143</v>
       </c>
       <c r="KT3">
-        <v>1.043592531114043</v>
+        <v>1.026396113029973</v>
       </c>
       <c r="KU3">
-        <v>1.04482943329534</v>
+        <v>1.030407021107011</v>
       </c>
       <c r="KV3">
-        <v>1.044829076482185</v>
+        <v>1.030410101907584</v>
       </c>
       <c r="KW3">
-        <v>1.044789828677236</v>
+        <v>1.02890259513755</v>
       </c>
       <c r="KX3">
-        <v>1.043886753856614</v>
+        <v>1.027691713391342</v>
       </c>
       <c r="KY3">
-        <v>1.043813177478341</v>
+        <v>1.027282497495314</v>
       </c>
       <c r="KZ3">
-        <v>1.043630534029234</v>
+        <v>1.026220141096025</v>
       </c>
       <c r="LA3">
-        <v>1.04358644508397</v>
+        <v>1.026377582876</v>
       </c>
       <c r="LB3">
-        <v>1.04482943329534</v>
+        <v>1.030404362330814</v>
       </c>
       <c r="LC3">
-        <v>1.04482885443345</v>
+        <v>1.030409539016701</v>
       </c>
       <c r="LD3">
-        <v>1.044781063739189</v>
+        <v>1.028680992150916</v>
       </c>
       <c r="LE3">
-        <v>1.043881680990703</v>
+        <v>1.027690331003774</v>
       </c>
       <c r="LF3">
-        <v>1.043811936564871</v>
+        <v>1.027282339890782</v>
       </c>
       <c r="LG3">
-        <v>1.043626666980106</v>
+        <v>1.026175835585796</v>
       </c>
       <c r="LH3">
-        <v>1.043575216776403</v>
+        <v>1.025943483957797</v>
       </c>
       <c r="LI3">
-        <v>1.043583268605434</v>
+        <v>1.026367911448584</v>
       </c>
       <c r="LJ3">
-        <v>1.04482943329534</v>
+        <v>1.030396534446039</v>
       </c>
       <c r="LK3">
-        <v>1.044828002837937</v>
+        <v>1.03040738023228</v>
       </c>
       <c r="LL3">
-        <v>1.043875697270335</v>
+        <v>1.027688700402654</v>
       </c>
       <c r="LM3">
-        <v>1.043810507167097</v>
+        <v>1.027282158347448</v>
       </c>
       <c r="LN3">
-        <v>1.043606750512959</v>
+        <v>1.025947649032008</v>
       </c>
       <c r="LO3">
-        <v>1.043548670071549</v>
+        <v>1.025810716961323</v>
       </c>
       <c r="LP3">
-        <v>1.043580549441554</v>
+        <v>1.026359632410989</v>
       </c>
       <c r="LQ3">
-        <v>1.044825096665557</v>
+        <v>1.030400013120248</v>
       </c>
       <c r="LR3">
-        <v>1.043872287346242</v>
+        <v>1.027687771177054</v>
       </c>
       <c r="LS3">
-        <v>1.043809089225098</v>
+        <v>1.027281978259075</v>
       </c>
       <c r="LT3">
-        <v>1.043599797296556</v>
+        <v>1.025867984842225</v>
       </c>
       <c r="LU3">
-        <v>1.043542557298021</v>
+        <v>1.025774314524362</v>
       </c>
       <c r="LV3">
-        <v>1.04349933979873</v>
+        <v>1.025565741732334</v>
       </c>
       <c r="LW3">
-        <v>1.04357745688093</v>
+        <v>1.026350216496258</v>
       </c>
       <c r="LX3">
-        <v>1.043856882681763</v>
+        <v>1.027683573309666</v>
       </c>
       <c r="LY3">
-        <v>1.043796632447997</v>
+        <v>1.02728039616277</v>
       </c>
       <c r="LZ3">
-        <v>1.043584664072942</v>
+        <v>1.025694601024619</v>
       </c>
       <c r="MA3">
-        <v>1.043540136336703</v>
+        <v>1.025759897356658</v>
       </c>
       <c r="MB3">
-        <v>1.043485671839716</v>
+        <v>1.025553681435423</v>
       </c>
       <c r="MC3">
-        <v>1.043491366555081</v>
+        <v>1.025522090394819</v>
       </c>
       <c r="MD3">
-        <v>1.0435750204762</v>
+        <v>1.026342798381279</v>
       </c>
       <c r="ME3">
-        <v>1.04385088750662</v>
+        <v>1.027681939586885</v>
       </c>
       <c r="MF3">
-        <v>1.043771169129557</v>
+        <v>1.027277162146023</v>
       </c>
       <c r="MG3">
-        <v>1.043579226326195</v>
+        <v>1.025556901505143</v>
       </c>
       <c r="MH3">
-        <v>1.043581385933024</v>
+        <v>1.025692518513444</v>
       </c>
       <c r="MI3">
-        <v>1.043478800210144</v>
+        <v>1.02554761806537</v>
       </c>
       <c r="MJ3">
-        <v>1.043484535822393</v>
+        <v>1.025484694024454</v>
       </c>
       <c r="MK3">
-        <v>1.043572977808387</v>
+        <v>1.026336579077994</v>
       </c>
       <c r="ML3">
-        <v>1.043848804788466</v>
+        <v>1.027681372033132</v>
       </c>
       <c r="MM3">
-        <v>1.043571089817017</v>
+        <v>1.025350861687185</v>
       </c>
       <c r="MN3">
-        <v>1.043580929483152</v>
+        <v>1.025692228543526</v>
       </c>
       <c r="MO3">
-        <v>1.043478160737601</v>
+        <v>1.025547053809303</v>
       </c>
       <c r="MP3">
-        <v>1.043479731039347</v>
+        <v>1.025458389184516</v>
       </c>
       <c r="MQ3">
-        <v>1.043571134676134</v>
+        <v>1.026330967301437</v>
       </c>
       <c r="MR3">
-        <v>1.043847235737452</v>
+        <v>1.027680944456892</v>
       </c>
       <c r="MS3">
-        <v>1.043580433746501</v>
+        <v>1.025691913615809</v>
       </c>
       <c r="MT3">
-        <v>1.043477896643414</v>
+        <v>1.025546820778583</v>
       </c>
       <c r="MU3">
-        <v>1.043473660096588</v>
+        <v>1.025425152495282</v>
       </c>
       <c r="MV3">
-        <v>1.043569609234988</v>
+        <v>1.026326322798677</v>
       </c>
       <c r="MW3">
-        <v>1.04384608774802</v>
+        <v>1.027680631622572</v>
       </c>
       <c r="MX3">
-        <v>1.043579999516804</v>
+        <v>1.02569163776175</v>
       </c>
       <c r="MY3">
-        <v>1.04347771029759</v>
+        <v>1.025546656351254</v>
       </c>
       <c r="MZ3">
-        <v>1.043469856094499</v>
+        <v>1.025404326674507</v>
       </c>
       <c r="NA3">
-        <v>1.043567839633194</v>
+        <v>1.026320934902498</v>
       </c>
       <c r="NB3">
-        <v>1.043845504792494</v>
+        <v>1.027680472763535</v>
       </c>
       <c r="NC3">
-        <v>1.04357953814775</v>
+        <v>1.025691344666812</v>
       </c>
       <c r="ND3">
-        <v>1.043477519694767</v>
+        <v>1.025546488167647</v>
       </c>
       <c r="NE3">
-        <v>1.043464014640886</v>
+        <v>1.025372346407974</v>
       </c>
       <c r="NF3">
-        <v>1.043565894717429</v>
+        <v>1.026315013230446</v>
       </c>
       <c r="NG3">
-        <v>1.043844647724117</v>
+        <v>1.027680239207025</v>
       </c>
       <c r="NH3">
-        <v>1.043578879675362</v>
+        <v>1.025690926357603</v>
       </c>
       <c r="NI3">
-        <v>1.043477294797049</v>
+        <v>1.025546289723002</v>
       </c>
       <c r="NJ3">
-        <v>1.043458191397539</v>
+        <v>1.025340465858066</v>
       </c>
       <c r="NK3">
-        <v>1.043555291728435</v>
+        <v>1.026282730409047</v>
       </c>
       <c r="NL3">
-        <v>1.043843210997615</v>
+        <v>1.027679847690038</v>
       </c>
       <c r="NM3">
-        <v>1.043578079181466</v>
+        <v>1.025690417826075</v>
       </c>
       <c r="NN3">
-        <v>1.043477011104638</v>
+        <v>1.025546039399252</v>
       </c>
       <c r="NO3">
-        <v>1.043451657538132</v>
+        <v>1.025304694918191</v>
       </c>
       <c r="NP3">
-        <v>1.043480078066534</v>
+        <v>1.026044939420967</v>
       </c>
       <c r="NQ3">
-        <v>1.043547756418154</v>
+        <v>1.02627391998304</v>
       </c>
       <c r="NR3">
-        <v>1.043836802576707</v>
+        <v>1.0276781013551</v>
       </c>
       <c r="NS3">
-        <v>1.043573117464642</v>
+        <v>1.025687265785239</v>
       </c>
       <c r="NT3">
-        <v>1.043476757030473</v>
+        <v>1.025545815209972</v>
       </c>
       <c r="NU3">
-        <v>1.043446929408127</v>
+        <v>1.025278809826762</v>
       </c>
       <c r="NV3">
-        <v>1.043408040847754</v>
+        <v>1.025817193373588</v>
       </c>
       <c r="NW3">
-        <v>1.043501488605113</v>
+        <v>1.026219822790457</v>
       </c>
       <c r="NX3">
-        <v>1.043547756418158</v>
+        <v>1.026273919983039</v>
       </c>
       <c r="NY3">
-        <v>1.043813245404048</v>
+        <v>1.027671681877242</v>
       </c>
       <c r="NZ3">
-        <v>1.043556139806529</v>
+        <v>1.025676480350529</v>
       </c>
       <c r="OA3">
-        <v>1.043476555987981</v>
+        <v>1.025545637814637</v>
       </c>
       <c r="OB3">
-        <v>1.043441293911878</v>
+        <v>1.025247957195524</v>
       </c>
       <c r="OC3">
-        <v>1.043404833962847</v>
+        <v>1.025807054846686</v>
       </c>
       <c r="OD3">
-        <v>1.043484578872901</v>
+        <v>1.026200051615868</v>
       </c>
       <c r="OE3">
-        <v>1.043547756418181</v>
+        <v>1.026273919983033</v>
       </c>
       <c r="OF3">
-        <v>1.043476210950705</v>
+        <v>1.02554533336157</v>
       </c>
       <c r="OG3">
-        <v>1.043433116895086</v>
+        <v>1.025203190545243</v>
       </c>
       <c r="OH3">
-        <v>1.043371421848831</v>
+        <v>1.025790872243582</v>
       </c>
       <c r="OI3">
-        <v>1.043351708176685</v>
+        <v>1.025623985163454</v>
       </c>
       <c r="OJ3">
-        <v>1.04348285768385</v>
+        <v>1.026198039169516</v>
       </c>
       <c r="OK3">
-        <v>1.043547756418183</v>
+        <v>1.026273919983032</v>
       </c>
       <c r="OL3">
-        <v>1.043475006462785</v>
+        <v>1.025544270548747</v>
       </c>
       <c r="OM3">
-        <v>1.04342705463675</v>
+        <v>1.025170001572959</v>
       </c>
       <c r="ON3">
-        <v>1.04336836043667</v>
+        <v>1.025789389499314</v>
       </c>
       <c r="OO3">
-        <v>1.043326078046703</v>
+        <v>1.025535665177038</v>
       </c>
       <c r="OP3">
-        <v>1.043481656519074</v>
+        <v>1.026196634745253</v>
       </c>
       <c r="OQ3">
-        <v>1.043547756418184</v>
+        <v>1.026273919983032</v>
       </c>
       <c r="OR3">
-        <v>1.043467642669342</v>
+        <v>1.025537772904404</v>
       </c>
       <c r="OS3">
-        <v>1.043421206615904</v>
+        <v>1.025137985505298</v>
       </c>
       <c r="OT3">
-        <v>1.043366620087079</v>
+        <v>1.025788546589814</v>
       </c>
       <c r="OU3">
-        <v>1.04324875617312</v>
+        <v>1.025269220657104</v>
       </c>
       <c r="OV3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177024</v>
       </c>
       <c r="OW3">
-        <v>1.043480412219095</v>
+        <v>1.026195179886507</v>
       </c>
       <c r="OX3">
-        <v>1.043547756418184</v>
+        <v>1.026273919983032</v>
       </c>
       <c r="OY3">
-        <v>1.043415483167109</v>
+        <v>1.025106651450477</v>
       </c>
       <c r="OZ3">
-        <v>1.043365438347899</v>
+        <v>1.025787974234011</v>
       </c>
       <c r="PA3">
-        <v>1.043138631281226</v>
+        <v>1.024889745749213</v>
       </c>
       <c r="PB3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177021</v>
       </c>
       <c r="PC3">
-        <v>1.043475186885424</v>
+        <v>1.026189070328924</v>
       </c>
       <c r="PD3">
-        <v>1.043547756418185</v>
+        <v>1.026273919983032</v>
       </c>
       <c r="PE3">
-        <v>1.043408599857212</v>
+        <v>1.025068967552893</v>
       </c>
       <c r="PF3">
-        <v>1.043363512425813</v>
+        <v>1.025787041445538</v>
       </c>
       <c r="PG3">
-        <v>1.043115586452883</v>
+        <v>1.024810337399116</v>
       </c>
       <c r="PH3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177019</v>
       </c>
       <c r="PI3">
-        <v>1.043473910981536</v>
+        <v>1.026187578518307</v>
       </c>
       <c r="PJ3">
-        <v>1.0435477564182</v>
+        <v>1.026273919983037</v>
       </c>
       <c r="PK3">
-        <v>1.04339707158202</v>
+        <v>1.025005854035913</v>
       </c>
       <c r="PL3">
-        <v>1.043408599857212</v>
+        <v>1.025068967552893</v>
       </c>
       <c r="PM3">
-        <v>1.043357110543203</v>
+        <v>1.025783940799658</v>
       </c>
       <c r="PN3">
-        <v>1.043109696466223</v>
+        <v>1.02479004160977</v>
       </c>
       <c r="PO3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177016</v>
       </c>
       <c r="PP3">
-        <v>1.043472693908064</v>
+        <v>1.026186155493312</v>
       </c>
       <c r="PQ3">
-        <v>1.043547756418205</v>
+        <v>1.026273919983038</v>
       </c>
       <c r="PR3">
-        <v>1.043358187586838</v>
+        <v>1.024792977542662</v>
       </c>
       <c r="PS3">
-        <v>1.04339707158202</v>
+        <v>1.025005854035913</v>
       </c>
       <c r="PT3">
-        <v>1.043349983241144</v>
+        <v>1.025780488808809</v>
       </c>
       <c r="PU3">
-        <v>1.04310661078797</v>
+        <v>1.024779408949286</v>
       </c>
       <c r="PV3">
-        <v>1.043326078046701</v>
+        <v>1.025535665177015</v>
       </c>
       <c r="PW3">
-        <v>1.043471483454341</v>
+        <v>1.026184740208252</v>
       </c>
       <c r="PX3">
-        <v>1.043547756418207</v>
+        <v>1.026273919983038</v>
       </c>
       <c r="PY3">
-        <v>1.043303190245355</v>
+        <v>1.02449188759941</v>
       </c>
       <c r="PZ3">
-        <v>1.043358187586838</v>
+        <v>1.024792977542662</v>
       </c>
       <c r="QA3">
-        <v>1.043345974874565</v>
+        <v>1.025778547422735</v>
       </c>
       <c r="QB3">
-        <v>1.043104052797356</v>
+        <v>1.024770594604257</v>
       </c>
       <c r="QC3">
-        <v>1.043326078046701</v>
+        <v>1.025535665177013</v>
       </c>
       <c r="QD3">
-        <v>1.043470094907918</v>
+        <v>1.02618311669389</v>
       </c>
       <c r="QE3">
-        <v>1.043547756418209</v>
+        <v>1.02627391998304</v>
       </c>
       <c r="QF3">
-        <v>1.043263726542541</v>
+        <v>1.024275839676344</v>
       </c>
       <c r="QG3">
-        <v>1.043303190245355</v>
+        <v>1.02449188759941</v>
       </c>
       <c r="QH3">
-        <v>1.043342209439267</v>
+        <v>1.025776723696388</v>
       </c>
       <c r="QI3">
-        <v>1.043101979688648</v>
+        <v>1.024763451072064</v>
       </c>
       <c r="QJ3">
-        <v>1.043326078046701</v>
+        <v>1.025535665177011</v>
       </c>
       <c r="QK3">
-        <v>1.043465299644808</v>
+        <v>1.02617750998289</v>
       </c>
       <c r="QL3">
-        <v>1.043547756418212</v>
+        <v>1.026273919983041</v>
       </c>
       <c r="QM3">
-        <v>1.043251753270957</v>
+        <v>1.024210291011544</v>
       </c>
       <c r="QN3">
-        <v>1.043263726542541</v>
+        <v>1.024275839676344</v>
       </c>
       <c r="QO3">
-        <v>1.0433386169033</v>
+        <v>1.025774983710957</v>
       </c>
       <c r="QP3">
-        <v>1.043098810799818</v>
+        <v>1.024752531698046</v>
       </c>
       <c r="QQ3">
-        <v>1.043326078046701</v>
+        <v>1.02553566517701</v>
       </c>
       <c r="QR3">
-        <v>1.043441931388269</v>
+        <v>1.026150187382222</v>
       </c>
       <c r="QS3">
-        <v>1.043547756418214</v>
+        <v>1.026273919983041</v>
       </c>
       <c r="QT3">
-        <v>1.043223641283096</v>
+        <v>1.024017797097933</v>
       </c>
       <c r="QU3">
-        <v>1.043251753270957</v>
+        <v>1.024210291011544</v>
       </c>
       <c r="QV3">
-        <v>1.043239474691196</v>
+        <v>1.02420777748587</v>
       </c>
       <c r="QW3">
-        <v>1.043332718495329</v>
+        <v>1.025772126914486</v>
       </c>
       <c r="QX3">
-        <v>1.043095954095412</v>
+        <v>1.024742688055785</v>
       </c>
       <c r="QY3">
-        <v>1.043326078046702</v>
+        <v>1.02553566517701</v>
       </c>
       <c r="QZ3">
-        <v>1.043547756418216</v>
+        <v>1.026273919983042</v>
       </c>
       <c r="RA3">
-        <v>1.043192407561891</v>
+        <v>1.023803928366307</v>
       </c>
       <c r="RB3">
-        <v>1.043223641283096</v>
+        <v>1.024017797097933</v>
       </c>
       <c r="RC3">
-        <v>1.043223641283096</v>
+        <v>1.024017797097933</v>
       </c>
       <c r="RD3">
-        <v>1.043237681556915</v>
+        <v>1.024207410416609</v>
       </c>
       <c r="RE3">
-        <v>1.043328610142133</v>
+        <v>1.025770137101448</v>
       </c>
       <c r="RF3">
-        <v>1.043093235217539</v>
+        <v>1.024733319341088</v>
       </c>
       <c r="RG3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177009</v>
       </c>
       <c r="RH3">
-        <v>1.043547756418226</v>
+        <v>1.026273919983045</v>
       </c>
       <c r="RI3">
-        <v>1.043180961999825</v>
+        <v>1.023725556654027</v>
       </c>
       <c r="RJ3">
-        <v>1.043192407561891</v>
+        <v>1.023803928366307</v>
       </c>
       <c r="RK3">
-        <v>1.0432367038077</v>
+        <v>1.024207210263342</v>
       </c>
       <c r="RL3">
-        <v>1.043325723522765</v>
+        <v>1.025768739015004</v>
       </c>
       <c r="RM3">
-        <v>1.043090172236961</v>
+        <v>1.024722764921767</v>
       </c>
       <c r="RN3">
-        <v>1.043326078046702</v>
+        <v>1.025535665177009</v>
       </c>
       <c r="RO3">
-        <v>1.043547756418226</v>
+        <v>1.026273919983045</v>
       </c>
       <c r="RP3">
-        <v>1.043165715372048</v>
+        <v>1.023695678719585</v>
       </c>
       <c r="RQ3">
-        <v>1.043180961999825</v>
+        <v>1.023725556654027</v>
       </c>
       <c r="RR3">
-        <v>1.043132291150974</v>
+        <v>1.022987863317909</v>
       </c>
       <c r="RS3">
-        <v>1.043236041459302</v>
+        <v>1.024207074675204</v>
       </c>
       <c r="RT3">
-        <v>1.043324344278802</v>
+        <v>1.025768071000953</v>
       </c>
       <c r="RU3">
-        <v>1.043086936744189</v>
+        <v>1.024711616065801</v>
       </c>
       <c r="RV3">
-        <v>1.043326078046703</v>
+        <v>1.025535665177009</v>
       </c>
       <c r="RW3">
-        <v>1.043547756418226</v>
+        <v>1.026273919983045</v>
       </c>
       <c r="RX3">
-        <v>1.043143863370869</v>
+        <v>1.023652856636408</v>
       </c>
       <c r="RY3">
-        <v>1.043165715372048</v>
+        <v>1.023695678719585</v>
       </c>
       <c r="RZ3">
-        <v>1.043131517195699</v>
+        <v>1.022984706481126</v>
       </c>
       <c r="SA3">
-        <v>1.043118457220036</v>
+        <v>1.0227177706616</v>
       </c>
       <c r="SB3">
-        <v>1.043235035394622</v>
+        <v>1.024206868725528</v>
       </c>
       <c r="SC3">
-        <v>1.043323470565572</v>
+        <v>1.025767647832367</v>
       </c>
       <c r="SD3">
-        <v>1.043079862427013</v>
+        <v>1.024687239415873</v>
       </c>
       <c r="SE3">
-        <v>1.043326078046704</v>
+        <v>1.025535665177009</v>
       </c>
       <c r="SF3">
-        <v>1.043547756418227</v>
+        <v>1.026273919983045</v>
       </c>
       <c r="SG3">
-        <v>1.043130527836488</v>
+        <v>1.023626723784212</v>
       </c>
       <c r="SH3">
-        <v>1.043143863370869</v>
+        <v>1.023652856636408</v>
       </c>
       <c r="SI3">
-        <v>1.043131190063152</v>
+        <v>1.022983372161073</v>
       </c>
       <c r="SJ3">
-        <v>1.043109605080847</v>
+        <v>1.022544942350724</v>
       </c>
       <c r="SK3">
-        <v>1.043233508592179</v>
+        <v>1.024206556176568</v>
       </c>
       <c r="SL3">
-        <v>1.043322879827792</v>
+        <v>1.025767361718271</v>
       </c>
       <c r="SM3">
-        <v>1.042919415353786</v>
+        <v>1.024134379440144</v>
       </c>
       <c r="SN3">
-        <v>1.043326078046704</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="SO3">
-        <v>1.043547756418227</v>
+        <v>1.026273919983045</v>
       </c>
       <c r="SP3">
-        <v>1.043128231322187</v>
+        <v>1.023622223442821</v>
       </c>
       <c r="SQ3">
-        <v>1.043130527836488</v>
+        <v>1.023626723784212</v>
       </c>
       <c r="SR3">
-        <v>1.043130997846484</v>
+        <v>1.022982588140784</v>
       </c>
       <c r="SS3">
-        <v>1.043232425376292</v>
+        <v>1.024206334433407</v>
       </c>
       <c r="ST3">
-        <v>1.043322055820063</v>
+        <v>1.025766962623724</v>
       </c>
       <c r="SU3">
-        <v>1.042725195594987</v>
+        <v>1.024134379440145</v>
       </c>
       <c r="SV3">
-        <v>1.042905866333523</v>
+        <v>1.024049387048337</v>
       </c>
       <c r="SW3">
-        <v>1.043326078046704</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="SX3">
-        <v>1.043123044088095</v>
+        <v>1.023614902021182</v>
       </c>
       <c r="SY3">
-        <v>1.043128231322187</v>
+        <v>1.023622223442821</v>
       </c>
       <c r="SZ3">
-        <v>1.043122049589074</v>
+        <v>1.023592613336884</v>
       </c>
       <c r="TA3">
-        <v>1.043130820949303</v>
+        <v>1.022981866606174</v>
       </c>
       <c r="TB3">
-        <v>1.043231685310346</v>
+        <v>1.024206182935848</v>
       </c>
       <c r="TC3">
-        <v>1.043321426930885</v>
+        <v>1.025766658031626</v>
       </c>
       <c r="TD3">
-        <v>1.042553920249251</v>
+        <v>1.024134379440145</v>
       </c>
       <c r="TE3">
-        <v>1.042898557023264</v>
+        <v>1.02400353624934</v>
       </c>
       <c r="TF3">
-        <v>1.043326078046704</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="TG3">
-        <v>1.043119225665985</v>
+        <v>1.02360951258311</v>
       </c>
       <c r="TH3">
-        <v>1.043123044088095</v>
+        <v>1.023614902021182</v>
       </c>
       <c r="TI3">
-        <v>1.043118396675618</v>
+        <v>1.023575116117113</v>
       </c>
       <c r="TJ3">
-        <v>1.043130663348785</v>
+        <v>1.022981223779494</v>
       </c>
       <c r="TK3">
-        <v>1.043231100513018</v>
+        <v>1.024206063223045</v>
       </c>
       <c r="TL3">
-        <v>1.04331693903878</v>
+        <v>1.025764484395114</v>
       </c>
       <c r="TM3">
-        <v>1.042897465420679</v>
+        <v>1.023996688712097</v>
       </c>
       <c r="TN3">
-        <v>1.043326078046704</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="TO3">
-        <v>1.043114026879801</v>
+        <v>1.023602174857204</v>
       </c>
       <c r="TP3">
-        <v>1.043119225665985</v>
+        <v>1.02360951258311</v>
       </c>
       <c r="TQ3">
-        <v>1.043115502303511</v>
+        <v>1.023561252262454</v>
       </c>
       <c r="TR3">
-        <v>1.043130499856152</v>
+        <v>1.022980556919845</v>
       </c>
       <c r="TS3">
-        <v>1.043229225497239</v>
+        <v>1.024205679391958</v>
       </c>
       <c r="TT3">
-        <v>1.043311413681746</v>
+        <v>1.025761929905838</v>
       </c>
       <c r="TU3">
-        <v>1.043287034810669</v>
+        <v>1.025749647560717</v>
       </c>
       <c r="TV3">
-        <v>1.04289663216042</v>
+        <v>1.02399146173779</v>
       </c>
       <c r="TW3">
-        <v>1.043326078046705</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="TX3">
-        <v>1.04311034792518</v>
+        <v>1.023596982268321</v>
       </c>
       <c r="TY3">
-        <v>1.043114026879801</v>
+        <v>1.023602174857204</v>
       </c>
       <c r="TZ3">
-        <v>1.043114306327171</v>
+        <v>1.023555523613614</v>
       </c>
       <c r="UA3">
-        <v>1.043130006298285</v>
+        <v>1.022978543778222</v>
       </c>
       <c r="UB3">
-        <v>1.043214059409318</v>
+        <v>1.024202574769426</v>
       </c>
       <c r="UC3">
-        <v>1.043305312425584</v>
+        <v>1.025759109166181</v>
       </c>
       <c r="UD3">
-        <v>1.042895852846872</v>
+        <v>1.02398657316828</v>
       </c>
       <c r="UE3">
-        <v>1.043326078046705</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="UF3">
-        <v>1.043100059563361</v>
+        <v>1.023582460961404</v>
       </c>
       <c r="UG3">
-        <v>1.04311034792518</v>
+        <v>1.023596982268321</v>
       </c>
       <c r="UH3">
-        <v>1.043114306327171</v>
+        <v>1.023553721078713</v>
       </c>
       <c r="UI3">
-        <v>1.043109356081156</v>
+        <v>1.02355552356397</v>
       </c>
       <c r="UJ3">
-        <v>1.043129508910542</v>
+        <v>1.022976515015183</v>
       </c>
       <c r="UK3">
-        <v>1.043213304153035</v>
+        <v>1.024202420162268</v>
       </c>
       <c r="UL3">
-        <v>1.043288774576555</v>
+        <v>1.025751463368834</v>
       </c>
       <c r="UM3">
-        <v>1.042895021806181</v>
+        <v>1.023981360120203</v>
       </c>
       <c r="UN3">
-        <v>1.043326078046705</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="UO3">
-        <v>1.043092609780012</v>
+        <v>1.02357194611151</v>
       </c>
       <c r="UP3">
-        <v>1.043100059563361</v>
+        <v>1.023582460961404</v>
       </c>
       <c r="UQ3">
-        <v>1.043114306327171</v>
+        <v>1.023553057800425</v>
       </c>
       <c r="UR3">
-        <v>1.043105611192106</v>
+        <v>1.023555523526413</v>
       </c>
       <c r="US3">
-        <v>1.043124861509727</v>
+        <v>1.02295755903022</v>
       </c>
       <c r="UT3">
-        <v>1.043212708229465</v>
+        <v>1.024202298171823</v>
       </c>
       <c r="UU3">
-        <v>1.042894286436577</v>
+        <v>1.023976747210092</v>
       </c>
       <c r="UV3">
-        <v>1.043326078046705</v>
+        <v>1.025535665177008</v>
       </c>
       <c r="UW3">
-        <v>1.043091633564497</v>
+        <v>1.02357046605695</v>
       </c>
       <c r="UX3">
-        <v>1.043092609780012</v>
+        <v>1.02357194611151</v>
       </c>
       <c r="UY3">
-        <v>1.04308198836953</v>
+        <v>1.023558560071406</v>
       </c>
       <c r="UZ3">
-        <v>1.043114306327171</v>
+        <v>1.023552069798036</v>
       </c>
       <c r="VA3">
-        <v>1.043212034521686</v>
+        <v>1.024202160258312</v>
       </c>
       <c r="VB3">
-        <v>1.042893534284038</v>
+        <v>1.023972029023345</v>
       </c>
       <c r="VC3">
-        <v>1.04309140241459</v>
+        <v>1.023570115607214</v>
       </c>
       <c r="VD3">
-        <v>1.043091633564497</v>
+        <v>1.02357046605695</v>
       </c>
       <c r="VE3">
-        <v>1.043080645636878</v>
+        <v>1.023556867841076</v>
       </c>
       <c r="VF3">
-        <v>1.043114306327171</v>
+        <v>1.023551475294428</v>
       </c>
       <c r="VG3">
-        <v>1.043211434900437</v>
+        <v>1.024202037510921</v>
       </c>
       <c r="VH3">
-        <v>1.042889652210087</v>
+        <v>1.023947677135337</v>
       </c>
       <c r="VI3">
-        <v>1.043085136030833</v>
+        <v>1.02356061505201</v>
       </c>
       <c r="VJ3">
-        <v>1.04309140241459</v>
+        <v>1.023570115607214</v>
       </c>
       <c r="VK3">
-        <v>1.043091402414592</v>
+        <v>1.023570115607218</v>
       </c>
       <c r="VL3">
-        <v>1.043079654789239</v>
+        <v>1.023555619087335</v>
       </c>
       <c r="VM3">
-        <v>1.043114306327171</v>
+        <v>1.023550757947638</v>
       </c>
       <c r="VN3">
-        <v>1.043210744736401</v>
+        <v>1.024201896228678</v>
       </c>
       <c r="VO3">
-        <v>1.042880377021878</v>
+        <v>1.023627350229127</v>
       </c>
       <c r="VP3">
-        <v>1.042881664548047</v>
+        <v>1.023908477628926</v>
       </c>
       <c r="VQ3">
-        <v>1.043080744459585</v>
+        <v>1.023553956927688</v>
       </c>
       <c r="VR3">
-        <v>1.043085136030833</v>
+        <v>1.02356061505201</v>
       </c>
       <c r="VS3">
-        <v>1.043091402414592</v>
+        <v>1.02357011560722</v>
       </c>
       <c r="VT3">
-        <v>1.043078690686888</v>
+        <v>1.023554404040371</v>
       </c>
       <c r="VU3">
-        <v>1.043114306327171</v>
+        <v>1.023550128086721</v>
       </c>
       <c r="VV3">
-        <v>1.043210037083428</v>
+        <v>1.024201751366306</v>
       </c>
       <c r="VW3">
-        <v>1.04287984251954</v>
+        <v>1.02360889073099</v>
       </c>
       <c r="VX3">
-        <v>1.042843494016368</v>
+        <v>1.023721156647223</v>
       </c>
       <c r="VY3">
-        <v>1.043077715284841</v>
+        <v>1.02354943670078</v>
       </c>
       <c r="VZ3">
-        <v>1.043080059877531</v>
+        <v>1.023552910439105</v>
       </c>
       <c r="WA3">
-        <v>1.043091402414593</v>
+        <v>1.023570115607221</v>
       </c>
       <c r="WB3">
-        <v>1.043069634252555</v>
+        <v>1.023542990321752</v>
       </c>
       <c r="WC3">
-        <v>1.043114306327171</v>
+        <v>1.023546006487462</v>
       </c>
       <c r="WD3">
-        <v>1.043209186487358</v>
+        <v>1.024201577242307</v>
       </c>
       <c r="WE3">
-        <v>1.042879574072658</v>
+        <v>1.023599619687633</v>
       </c>
       <c r="WF3">
-        <v>1.04281354428422</v>
+        <v>1.023577129992433</v>
       </c>
       <c r="WG3">
-        <v>1.042802227147077</v>
+        <v>1.023518286705717</v>
       </c>
       <c r="WH3">
-        <v>1.04307501391383</v>
+        <v>1.023545405632742</v>
       </c>
       <c r="WI3">
-        <v>1.043077715284841</v>
+        <v>1.02354943670078</v>
       </c>
       <c r="WJ3">
-        <v>1.043077715284841</v>
+        <v>1.02354943670078</v>
       </c>
       <c r="WK3">
-        <v>1.043049579994597</v>
+        <v>1.023506317275316</v>
       </c>
       <c r="WL3">
-        <v>1.043080059877531</v>
+        <v>1.023552910439105</v>
       </c>
       <c r="WM3">
-        <v>1.043091402414593</v>
+        <v>1.023570115607223</v>
       </c>
       <c r="WN3">
-        <v>1.043065419306825</v>
+        <v>1.023537678274839</v>
       </c>
       <c r="WO3">
-        <v>1.043114306327171</v>
+        <v>1.023515616719532</v>
       </c>
       <c r="WP3">
-        <v>1.043208653224203</v>
+        <v>1.024201468078962</v>
       </c>
       <c r="WQ3">
-        <v>1.042879348965392</v>
+        <v>1.023591845415434</v>
       </c>
       <c r="WR3">
-        <v>1.042797739725532</v>
+        <v>1.023501126755754</v>
       </c>
       <c r="WS3">
-        <v>1.042762700875677</v>
+        <v>1.023323975749574</v>
       </c>
       <c r="WT3">
-        <v>1.043069120649674</v>
+        <v>1.023536611525479</v>
       </c>
       <c r="WU3">
-        <v>1.04307501391383</v>
+        <v>1.023545405632742</v>
       </c>
       <c r="WV3">
-        <v>1.04307501391383</v>
+        <v>1.023545405632742</v>
       </c>
       <c r="WW3">
-        <v>1.043042405952417</v>
+        <v>1.023495350655025</v>
       </c>
       <c r="WX3">
-        <v>1.043091402414594</v>
+        <v>1.023570115607223</v>
       </c>
       <c r="WY3">
-        <v>1.04306344106171</v>
+        <v>1.023535185115619</v>
       </c>
       <c r="WZ3">
-        <v>1.043206361438491</v>
+        <v>1.024200998931609</v>
       </c>
       <c r="XA3">
-        <v>1.042879165398292</v>
+        <v>1.023585505768741</v>
       </c>
       <c r="XB3">
-        <v>1.042760354383893</v>
+        <v>1.023321802030001</v>
       </c>
       <c r="XC3">
-        <v>1.042752008281286</v>
+        <v>1.023269701671816</v>
       </c>
       <c r="XD3">
-        <v>1.043061092668554</v>
+        <v>1.023524631929099</v>
       </c>
       <c r="XE3">
-        <v>1.043091402414594</v>
+        <v>1.023570115607224</v>
       </c>
       <c r="XF3">
-        <v>1.043062121541668</v>
+        <v>1.023533522139924</v>
       </c>
       <c r="XG3">
-        <v>1.043196699542254</v>
+        <v>1.024199021062068</v>
       </c>
       <c r="XH3">
-        <v>1.042878877251577</v>
+        <v>1.023575554376062</v>
       </c>
       <c r="XI3">
-        <v>1.042759779017568</v>
+        <v>1.023321269027903</v>
       </c>
       <c r="XJ3">
-        <v>1.042749548242112</v>
+        <v>1.023257214888396</v>
       </c>
       <c r="XK3">
-        <v>1.043058737972098</v>
+        <v>1.023521118179827</v>
       </c>
       <c r="XL3">
-        <v>1.043091402414594</v>
+        <v>1.023570115607225</v>
       </c>
       <c r="XM3">
-        <v>1.043060104241228</v>
+        <v>1.023530979759747</v>
       </c>
       <c r="XN3">
-        <v>1.042878190149075</v>
+        <v>1.023551824707067</v>
       </c>
       <c r="XO3">
-        <v>1.042759383929431</v>
+        <v>1.023320903030109</v>
       </c>
       <c r="XP3">
-        <v>1.042748327452948</v>
+        <v>1.023251018352117</v>
       </c>
       <c r="XQ3">
-        <v>1.043050944365851</v>
+        <v>1.023509488324998</v>
       </c>
       <c r="XR3">
-        <v>1.043091402414594</v>
+        <v>1.023570115607226</v>
       </c>
       <c r="XS3">
-        <v>1.04305616447733</v>
+        <v>1.023526014521359</v>
       </c>
       <c r="XT3">
-        <v>1.04287771478541</v>
+        <v>1.023535407620632</v>
       </c>
       <c r="XU3">
-        <v>1.042758836251746</v>
+        <v>1.023320395677936</v>
       </c>
       <c r="XV3">
-        <v>1.042746985901178</v>
+        <v>1.023244208846053</v>
       </c>
       <c r="XW3">
-        <v>1.043091402414595</v>
+        <v>1.023570115607226</v>
       </c>
       <c r="XX3">
-        <v>1.043055075425504</v>
+        <v>1.023524642002078</v>
       </c>
       <c r="XY3">
-        <v>1.042877110363391</v>
+        <v>1.023514533396887</v>
       </c>
       <c r="XZ3">
-        <v>1.042757537544345</v>
+        <v>1.023319192594369</v>
       </c>
       <c r="YA3">
-        <v>1.042745437950321</v>
+        <v>1.023236351693843</v>
       </c>
       <c r="YB3">
-        <v>1.043091402414595</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="YC3">
-        <v>1.043054759256294</v>
+        <v>1.023524243537721</v>
       </c>
       <c r="YD3">
-        <v>1.04287674318216</v>
+        <v>1.023501852484864</v>
       </c>
       <c r="YE3">
-        <v>1.042756550312778</v>
+        <v>1.02331827805267</v>
       </c>
       <c r="YF3">
-        <v>1.042743873077535</v>
+        <v>1.023228408652091</v>
       </c>
       <c r="YG3">
-        <v>1.043091402414595</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="YH3">
-        <v>1.043054551528225</v>
+        <v>1.023524109577749</v>
       </c>
       <c r="YI3">
-        <v>1.043054405831926</v>
+        <v>1.023523119091678</v>
       </c>
       <c r="YJ3">
-        <v>1.04287641169582</v>
+        <v>1.023490404326624</v>
       </c>
       <c r="YK3">
-        <v>1.042755857291223</v>
+        <v>1.023317636058297</v>
       </c>
       <c r="YL3">
-        <v>1.042742138214042</v>
+        <v>1.023219602769032</v>
       </c>
       <c r="YM3">
-        <v>1.043091402414596</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="YN3">
-        <v>1.043054357112409</v>
+        <v>1.023523984202601</v>
       </c>
       <c r="YO3">
-        <v>1.043053939465258</v>
+        <v>1.023521635311275</v>
       </c>
       <c r="YP3">
-        <v>1.04287585263239</v>
+        <v>1.023471096604722</v>
       </c>
       <c r="YQ3">
-        <v>1.042755131290525</v>
+        <v>1.023316963513035</v>
       </c>
       <c r="YR3">
-        <v>1.042739615359436</v>
+        <v>1.023206797179769</v>
       </c>
       <c r="YS3">
-        <v>1.043091402414597</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="YT3">
-        <v>1.043054156839031</v>
+        <v>1.02352385505002</v>
       </c>
       <c r="YU3">
-        <v>1.043052001962399</v>
+        <v>1.023515471001244</v>
       </c>
       <c r="YV3">
-        <v>1.042875302997417</v>
+        <v>1.023452114504436</v>
       </c>
       <c r="YW3">
-        <v>1.042754535236776</v>
+        <v>1.023316411346728</v>
       </c>
       <c r="YX3">
-        <v>1.042737105279807</v>
+        <v>1.023201872591095</v>
       </c>
       <c r="YY3">
-        <v>1.04273368991206</v>
+        <v>1.023173572444435</v>
       </c>
       <c r="YZ3">
-        <v>1.043091402414597</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="ZA3">
-        <v>1.043052708817532</v>
+        <v>1.023522921247852</v>
       </c>
       <c r="ZB3">
-        <v>1.043051179151425</v>
+        <v>1.02351285316673</v>
       </c>
       <c r="ZC3">
-        <v>1.042875042940109</v>
+        <v>1.023443133210016</v>
       </c>
       <c r="ZD3">
-        <v>1.042753548335847</v>
+        <v>1.023315497111322</v>
       </c>
       <c r="ZE3">
-        <v>1.042735597977168</v>
+        <v>1.023198915375978</v>
       </c>
       <c r="ZF3">
-        <v>1.042696168680596</v>
+        <v>1.022963187592096</v>
       </c>
       <c r="ZG3">
-        <v>1.043091402414597</v>
+        <v>1.023570115607227</v>
       </c>
       <c r="ZH3">
-        <v>1.043042164164509</v>
+        <v>1.023516121196904</v>
       </c>
       <c r="ZI3">
-        <v>1.042874757302435</v>
+        <v>1.023433268476994</v>
       </c>
       <c r="ZJ3">
-        <v>1.042750358964532</v>
+        <v>1.023312542573436</v>
       </c>
       <c r="ZK3">
-        <v>1.042734199735828</v>
+        <v>1.023196172131</v>
       </c>
       <c r="ZL3">
-        <v>1.042669311122842</v>
+        <v>1.022812596440777</v>
       </c>
       <c r="ZM3">
-        <v>1.042874483151423</v>
+        <v>1.02342380044582</v>
       </c>
       <c r="ZN3">
-        <v>1.042742906603551</v>
+        <v>1.023305638929829</v>
       </c>
       <c r="ZO3">
-        <v>1.042732835425691</v>
+        <v>1.023193495456528</v>
       </c>
       <c r="ZP3">
-        <v>1.042582008438705</v>
+        <v>1.02278980719448</v>
       </c>
       <c r="ZQ3">
-        <v>1.042619348765364</v>
+        <v>1.022388754507765</v>
       </c>
       <c r="ZR3">
-        <v>1.04287415252758</v>
+        <v>1.023412382079552</v>
       </c>
       <c r="ZS3">
-        <v>1.042731812101646</v>
+        <v>1.023191487771283</v>
       </c>
       <c r="ZT3">
-        <v>1.0425820084387</v>
+        <v>1.022788741719495</v>
       </c>
       <c r="ZU3">
-        <v>1.04255921831212</v>
+        <v>1.022786832644272</v>
       </c>
       <c r="ZV3">
-        <v>1.042606955117379</v>
+        <v>1.022297744328611</v>
       </c>
       <c r="ZW3">
-        <v>1.042609632148346</v>
+        <v>1.022305549889308</v>
       </c>
       <c r="ZX3">
-        <v>1.042873625140673</v>
+        <v>1.023394168340578</v>
       </c>
       <c r="ZY3">
-        <v>1.042730186484041</v>
+        <v>1.023188298431142</v>
       </c>
       <c r="ZZ3">
-        <v>1.042582008438699</v>
+        <v>1.022788408325738</v>
       </c>
       <c r="AAA3">
-        <v>1.042512791250896</v>
+        <v>1.022780773018082</v>
       </c>
       <c r="AAB3">
-        <v>1.04259977514907</v>
+        <v>1.022245019741765</v>
       </c>
       <c r="AAC3">
-        <v>1.042591411510565</v>
+        <v>1.022149533247558</v>
       </c>
       <c r="AAD3">
-        <v>1.042872181741342</v>
+        <v>1.023344319371398</v>
       </c>
       <c r="AAE3">
-        <v>1.042727445629717</v>
+        <v>1.023182921080047</v>
       </c>
       <c r="AAF3">
-        <v>1.042582008438698</v>
+        <v>1.022788193963208</v>
       </c>
       <c r="AAG3">
-        <v>1.042543348547896</v>
+        <v>1.021737990281308</v>
       </c>
       <c r="AAH3">
-        <v>1.042591411510564</v>
+        <v>1.022149533247559</v>
       </c>
       <c r="AAI3">
-        <v>1.042870260841787</v>
+        <v>1.023277979565167</v>
       </c>
       <c r="AAJ3">
-        <v>1.042706908567824</v>
+        <v>1.023142628903952</v>
       </c>
       <c r="AAK3">
-        <v>1.042582008438698</v>
+        <v>1.02278806466575</v>
       </c>
       <c r="AAL3">
-        <v>1.042498389803419</v>
+        <v>1.021267018822634</v>
       </c>
       <c r="AAM3">
-        <v>1.04252787780163</v>
+        <v>1.021716415190036</v>
       </c>
       <c r="AAN3">
-        <v>1.042591411510564</v>
+        <v>1.02214953324756</v>
       </c>
       <c r="AAO3">
-        <v>1.042870077882352</v>
+        <v>1.023271660915676</v>
       </c>
       <c r="AAP3">
-        <v>1.042690060557161</v>
+        <v>1.023109574373318</v>
       </c>
       <c r="AAQ3">
-        <v>1.042582008438697</v>
+        <v>1.022787933983228</v>
       </c>
       <c r="AAR3">
-        <v>1.042451987516709</v>
+        <v>1.020780930579081</v>
       </c>
       <c r="AAS3">
-        <v>1.042526221622245</v>
+        <v>1.021714105526363</v>
       </c>
       <c r="AAT3">
-        <v>1.042591411510564</v>
+        <v>1.022149533247562</v>
       </c>
       <c r="AAU3">
-        <v>1.042869933187626</v>
+        <v>1.023266663768477</v>
       </c>
       <c r="AAV3">
-        <v>1.042684722522243</v>
+        <v>1.023099101550662</v>
       </c>
       <c r="AAW3">
-        <v>1.042582008438697</v>
+        <v>1.022787817256241</v>
       </c>
       <c r="AAX3">
-        <v>1.04243695776215</v>
+        <v>1.020582142862635</v>
       </c>
       <c r="AAY3">
-        <v>1.04242051964472</v>
+        <v>1.020742554210509</v>
       </c>
       <c r="AAZ3">
-        <v>1.042525589270025</v>
+        <v>1.021713223664795</v>
       </c>
       <c r="ABA3">
-        <v>1.042591411510564</v>
+        <v>1.022149533247563</v>
       </c>
       <c r="ABB3">
-        <v>1.042869792654368</v>
+        <v>1.023261810340983</v>
       </c>
       <c r="ABC3">
-        <v>1.042679862923633</v>
+        <v>1.0230895673843</v>
       </c>
       <c r="ABD3">
-        <v>1.042582008438697</v>
+        <v>1.02278768574548</v>
       </c>
       <c r="ABE3">
-        <v>1.042416534674698</v>
+        <v>1.020312022884422</v>
       </c>
       <c r="ABF3">
-        <v>1.042416298456208</v>
+        <v>1.020737406297037</v>
       </c>
       <c r="ABG3">
-        <v>1.042524920366533</v>
+        <v>1.021712290829798</v>
       </c>
       <c r="ABH3">
-        <v>1.042591411510563</v>
+        <v>1.022149533247563</v>
       </c>
       <c r="ABI3">
-        <v>1.0428696421281</v>
+        <v>1.023256611797147</v>
       </c>
       <c r="ABJ3">
-        <v>1.042677216126199</v>
+        <v>1.023084374567245</v>
       </c>
       <c r="ABK3">
-        <v>1.042582008438697</v>
+        <v>1.02278758037878</v>
       </c>
       <c r="ABL3">
-        <v>1.042392623368034</v>
+        <v>1.019995769136845</v>
       </c>
       <c r="ABM3">
-        <v>1.04241408074172</v>
+        <v>1.020734701702771</v>
       </c>
       <c r="ABN3">
-        <v>1.042524365234677</v>
+        <v>1.021711516657698</v>
       </c>
       <c r="ABO3">
-        <v>1.042591411510563</v>
+        <v>1.022149533247564</v>
       </c>
       <c r="ABP3">
-        <v>1.042869502955199</v>
+        <v>1.023251805350937</v>
       </c>
       <c r="ABQ3">
-        <v>1.042675102243602</v>
+        <v>1.023080227288987</v>
       </c>
       <c r="ABR3">
-        <v>1.042582008438697</v>
+        <v>1.022787453991348</v>
       </c>
       <c r="ABS3">
-        <v>1.042373423560003</v>
+        <v>1.019741831894789</v>
       </c>
       <c r="ABT3">
-        <v>1.042409070735625</v>
+        <v>1.020721910584313</v>
       </c>
       <c r="ABU3">
-        <v>1.042413833479447</v>
+        <v>1.020734618210967</v>
       </c>
       <c r="ABV3">
-        <v>1.042523707822081</v>
+        <v>1.021710599847603</v>
       </c>
       <c r="ABW3">
-        <v>1.042591411510562</v>
+        <v>1.022149533247564</v>
       </c>
       <c r="ABX3">
-        <v>1.04286937179945</v>
+        <v>1.023247275783554</v>
       </c>
       <c r="ABY3">
-        <v>1.042673299702751</v>
+        <v>1.023076690839796</v>
       </c>
       <c r="ABZ3">
-        <v>1.042582008438696</v>
+        <v>1.022787317793772</v>
       </c>
       <c r="ACA3">
-        <v>1.042367939645857</v>
+        <v>1.019693366229071</v>
       </c>
       <c r="ACB3">
-        <v>1.042357936389729</v>
+        <v>1.019310567472825</v>
       </c>
       <c r="ACC3">
-        <v>1.042404998221322</v>
+        <v>1.020711512990027</v>
       </c>
       <c r="ACD3">
-        <v>1.042413654673286</v>
+        <v>1.020734557834393</v>
       </c>
       <c r="ACE3">
-        <v>1.042523066685</v>
+        <v>1.021709705734906</v>
       </c>
       <c r="ACF3">
-        <v>1.042591411510562</v>
+        <v>1.022149533247564</v>
       </c>
       <c r="ACG3">
-        <v>1.0428691893869</v>
+        <v>1.023240976022241</v>
       </c>
       <c r="ACH3">
-        <v>1.042671184408443</v>
+        <v>1.023072540791957</v>
       </c>
       <c r="ACI3">
-        <v>1.042582008438696</v>
+        <v>1.022787069308399</v>
       </c>
       <c r="ACJ3">
-        <v>1.042360378923293</v>
+        <v>1.019626546258136</v>
       </c>
       <c r="ACK3">
-        <v>1.042344991147741</v>
+        <v>1.01895008779783</v>
       </c>
       <c r="ACL3">
-        <v>1.042413503776828</v>
+        <v>1.020734506881947</v>
       </c>
       <c r="ACM3">
-        <v>1.042522185258797</v>
+        <v>1.021708476521406</v>
       </c>
       <c r="ACN3">
-        <v>1.042591411510561</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="ACO3">
-        <v>1.042868965847789</v>
+        <v>1.023233255922996</v>
       </c>
       <c r="ACP3">
-        <v>1.042669251579806</v>
+        <v>1.023068748728043</v>
       </c>
       <c r="ACQ3">
-        <v>1.042582008438696</v>
+        <v>1.022785210249979</v>
       </c>
       <c r="ACR3">
-        <v>1.042341779316854</v>
+        <v>1.019462167527982</v>
       </c>
       <c r="ACS3">
-        <v>1.042340283438325</v>
+        <v>1.018935158639807</v>
       </c>
       <c r="ACT3">
-        <v>1.042344820683668</v>
+        <v>1.018941134722457</v>
       </c>
       <c r="ACU3">
-        <v>1.042413248895255</v>
+        <v>1.020734420817373</v>
       </c>
       <c r="ACV3">
-        <v>1.042520972714366</v>
+        <v>1.021706785539247</v>
       </c>
       <c r="ACW3">
-        <v>1.042591411510561</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="ACX3">
-        <v>1.042867906330397</v>
+        <v>1.023196664659992</v>
       </c>
       <c r="ACY3">
-        <v>1.042666253026633</v>
+        <v>1.023062865793099</v>
       </c>
       <c r="ACZ3">
-        <v>1.042582008438696</v>
+        <v>1.022779513176269</v>
       </c>
       <c r="ADA3">
-        <v>1.042326704073108</v>
+        <v>1.019328936685285</v>
       </c>
       <c r="ADB3">
-        <v>1.042335670388001</v>
+        <v>1.018920529666963</v>
       </c>
       <c r="ADC3">
-        <v>1.042344657698146</v>
+        <v>1.018932574434292</v>
       </c>
       <c r="ADD3">
-        <v>1.042412891963785</v>
+        <v>1.020734300294124</v>
       </c>
       <c r="ADE3">
-        <v>1.042519689499029</v>
+        <v>1.021704996001333</v>
       </c>
       <c r="ADF3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="ADG3">
-        <v>1.042858847155582</v>
+        <v>1.02288379926523</v>
       </c>
       <c r="ADH3">
-        <v>1.042660199246237</v>
+        <v>1.023050988733306</v>
       </c>
       <c r="ADI3">
-        <v>1.04231492472197</v>
+        <v>1.019224834305928</v>
       </c>
       <c r="ADJ3">
-        <v>1.042344481991239</v>
+        <v>1.018923345996908</v>
       </c>
       <c r="ADK3">
-        <v>1.042412627112282</v>
+        <v>1.020734210863053</v>
       </c>
       <c r="ADL3">
-        <v>1.04251883709421</v>
+        <v>1.02170380726029</v>
       </c>
       <c r="ADM3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="ADN3">
-        <v>1.042659295079545</v>
+        <v>1.023049330030771</v>
       </c>
       <c r="ADO3">
-        <v>1.042654808897742</v>
+        <v>1.023039726475313</v>
       </c>
       <c r="ADP3">
-        <v>1.042304278468225</v>
+        <v>1.019130746109259</v>
       </c>
       <c r="ADQ3">
-        <v>1.042344325098395</v>
+        <v>1.018915105707749</v>
       </c>
       <c r="ADR3">
-        <v>1.042412188374741</v>
+        <v>1.02073406271676</v>
       </c>
       <c r="ADS3">
-        <v>1.042517969551229</v>
+        <v>1.021702597407973</v>
       </c>
       <c r="ADT3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="ADU3">
-        <v>1.042658506560885</v>
+        <v>1.023047883485675</v>
       </c>
       <c r="ADV3">
-        <v>1.042646183556425</v>
+        <v>1.023021705225858</v>
       </c>
       <c r="ADW3">
-        <v>1.042303871967622</v>
+        <v>1.019128918033161</v>
       </c>
       <c r="ADX3">
-        <v>1.042298992574801</v>
+        <v>1.01907729331628</v>
       </c>
       <c r="ADY3">
-        <v>1.042344151836393</v>
+        <v>1.018906005682034</v>
       </c>
       <c r="ADZ3">
-        <v>1.042409143089165</v>
+        <v>1.02073303443053</v>
       </c>
       <c r="AEA3">
-        <v>1.042517554741669</v>
+        <v>1.021702018925617</v>
       </c>
       <c r="AEB3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="AEC3">
-        <v>1.042657854420056</v>
+        <v>1.023046687127029</v>
       </c>
       <c r="AED3">
-        <v>1.042638814046711</v>
+        <v>1.023006307833298</v>
       </c>
       <c r="AEE3">
-        <v>1.042303464399088</v>
+        <v>1.019127085154483</v>
       </c>
       <c r="AEF3">
-        <v>1.042290547038441</v>
+        <v>1.018991890119012</v>
       </c>
       <c r="AEG3">
-        <v>1.042298992574801</v>
+        <v>1.01907729331628</v>
       </c>
       <c r="AEH3">
-        <v>1.042344040128687</v>
+        <v>1.018900138596639</v>
       </c>
       <c r="AEI3">
-        <v>1.042402416428925</v>
+        <v>1.020730763073035</v>
       </c>
       <c r="AEJ3">
-        <v>1.04251689493679</v>
+        <v>1.02170109877932</v>
       </c>
       <c r="AEK3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="AEL3">
-        <v>1.042657347283667</v>
+        <v>1.023045756780432</v>
       </c>
       <c r="AEM3">
-        <v>1.042634643193256</v>
+        <v>1.02299759351334</v>
       </c>
       <c r="AEN3">
-        <v>1.042303056039501</v>
+        <v>1.019125248718365</v>
       </c>
       <c r="AEO3">
-        <v>1.042283465742067</v>
+        <v>1.018920282555704</v>
       </c>
       <c r="AEP3">
-        <v>1.042290547038441</v>
+        <v>1.018991890119012</v>
       </c>
       <c r="AEQ3">
-        <v>1.042343868553283</v>
+        <v>1.018891127154675</v>
       </c>
       <c r="AER3">
-        <v>1.04251627552655</v>
+        <v>1.021700234966313</v>
       </c>
       <c r="AES3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="AET3">
-        <v>1.042656831494572</v>
+        <v>1.023044810560363</v>
       </c>
       <c r="AEU3">
-        <v>1.042302650151963</v>
+        <v>1.01912342339933</v>
       </c>
       <c r="AEV3">
-        <v>1.042275853528494</v>
+        <v>1.018843306374754</v>
       </c>
       <c r="AEW3">
-        <v>1.042283465742067</v>
+        <v>1.018920282555704</v>
       </c>
       <c r="AEX3">
-        <v>1.042342457302188</v>
+        <v>1.018817005782662</v>
       </c>
       <c r="AEY3">
-        <v>1.042515390492313</v>
+        <v>1.021699000721163</v>
       </c>
       <c r="AEZ3">
-        <v>1.04259141151056</v>
+        <v>1.022149533247565</v>
       </c>
       <c r="AFA3">
-        <v>1.042656383881343</v>
+        <v>1.02304398940958</v>
       </c>
       <c r="AFB3">
-        <v>1.042302242721856</v>
+        <v>1.019121591143214</v>
       </c>
       <c r="AFC3">
-        <v>1.0422696036318</v>
+        <v>1.018780106306472</v>
       </c>
       <c r="AFD3">
-        <v>1.042275853528494</v>
+        <v>1.018843306374754</v>
       </c>
       <c r="AFE3">
-        <v>1.042337593493235</v>
+        <v>1.018561550279233</v>
       </c>
       <c r="AFF3">
-        <v>1.042506048355027</v>
+        <v>1.021685972425741</v>
       </c>
       <c r="AFG3">
-        <v>1.042656062398698</v>
+        <v>1.023043399646571</v>
       </c>
       <c r="AFH3">
-        <v>1.042301835568626</v>
+        <v>1.019119760132254</v>
       </c>
       <c r="AFI3">
-        <v>1.042262893680064</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AFJ3">
-        <v>1.0422696036318</v>
+        <v>1.018780106306472</v>
       </c>
       <c r="AFK3">
-        <v>1.042502311735652</v>
+        <v>1.02168076143613</v>
       </c>
       <c r="AFL3">
-        <v>1.042655689156759</v>
+        <v>1.023042714930638</v>
       </c>
       <c r="AFM3">
-        <v>1.04230142815832</v>
+        <v>1.019117927965216</v>
       </c>
       <c r="AFN3">
-        <v>1.042227491441155</v>
+        <v>1.018354264305499</v>
       </c>
       <c r="AFO3">
-        <v>1.042262893680065</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AFP3">
-        <v>1.042262893680064</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AFQ3">
-        <v>1.042500414286952</v>
+        <v>1.021678115304853</v>
       </c>
       <c r="AFR3">
-        <v>1.042655126862756</v>
+        <v>1.023041683396875</v>
       </c>
       <c r="AFS3">
-        <v>1.042301229288455</v>
+        <v>1.019117033626501</v>
       </c>
       <c r="AFT3">
-        <v>1.042222311990512</v>
+        <v>1.018301889387749</v>
       </c>
       <c r="AFU3">
-        <v>1.042262893680066</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AFV3">
-        <v>1.042262893680065</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AFW3">
-        <v>1.042499994418309</v>
+        <v>1.02167752976726</v>
       </c>
       <c r="AFX3">
-        <v>1.042654208187772</v>
+        <v>1.02303999807878</v>
       </c>
       <c r="AFY3">
-        <v>1.042296759660365</v>
+        <v>1.019096933239465</v>
       </c>
       <c r="AFZ3">
-        <v>1.042207720310048</v>
+        <v>1.018154337493105</v>
       </c>
       <c r="AGA3">
-        <v>1.042262893680069</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGB3">
-        <v>1.042262893680066</v>
+        <v>1.018712254180109</v>
       </c>
       <c r="AGC3">
-        <v>1.042499663751166</v>
+        <v>1.021677068627696</v>
       </c>
       <c r="AGD3">
-        <v>1.042646836411284</v>
+        <v>1.023034175467401</v>
       </c>
       <c r="AGE3">
-        <v>1.042654208187772</v>
+        <v>1.023019491890739</v>
       </c>
       <c r="AGF3">
-        <v>1.04229385314647</v>
+        <v>1.019083862342135</v>
       </c>
       <c r="AGG3">
-        <v>1.04219058601775</v>
+        <v>1.017981074676665</v>
       </c>
       <c r="AGH3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGI3">
-        <v>1.042262893680069</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGJ3">
-        <v>1.042499309462976</v>
+        <v>1.02167657454685</v>
       </c>
       <c r="AGK3">
-        <v>1.042291311108713</v>
+        <v>1.019072430532793</v>
       </c>
       <c r="AGL3">
-        <v>1.042188363330118</v>
+        <v>1.0179585987576</v>
       </c>
       <c r="AGM3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGN3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGO3">
-        <v>1.042499026006542</v>
+        <v>1.021676179246081</v>
       </c>
       <c r="AGP3">
-        <v>1.042288644678427</v>
+        <v>1.019060439317883</v>
       </c>
       <c r="AGQ3">
-        <v>1.04218556954844</v>
+        <v>1.017930917211603</v>
       </c>
       <c r="AGR3">
-        <v>1.042188363330117</v>
+        <v>1.017957332129492</v>
       </c>
       <c r="AGS3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGT3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGU3">
-        <v>1.042498750781972</v>
+        <v>1.021675795425248</v>
       </c>
       <c r="AGV3">
-        <v>1.042284091792748</v>
+        <v>1.019039964517946</v>
       </c>
       <c r="AGW3">
-        <v>1.042182984387611</v>
+        <v>1.017905302740275</v>
       </c>
       <c r="AGX3">
-        <v>1.042188363330117</v>
+        <v>1.01795436787864</v>
       </c>
       <c r="AGY3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AGZ3">
-        <v>1.04226289368007</v>
+        <v>1.018712254180108</v>
       </c>
       <c r="AHA3">
-        <v>1.042498476255479</v>
+        <v>1.021675412577936</v>
       </c>
       <c r="AHB3">
-        <v>1.042282975068097</v>
+        <v>1.019034942491449</v>
       </c>
       <c r="AHC3">
-        <v>1.042179053423913</v>
+        <v>1.017866353695887</v>
       </c>
       <c r="AHD3">
-        <v>1.042188363330117</v>
+        <v>1.017947335789356</v>
       </c>
       <c r="AHE3">
-        <v>1.042498204940961</v>
+        <v>1.021675034209959</v>
       </c>
       <c r="AHF3">
-        <v>1.042282160573315</v>
+        <v>1.019033234676879</v>
       </c>
       <c r="AHG3">
-        <v>1.042281378114992</v>
+        <v>1.01902028135842</v>
       </c>
       <c r="AHH3">
-        <v>1.042174085760626</v>
+        <v>1.017817132762217</v>
       </c>
       <c r="AHI3">
-        <v>1.042493353273721</v>
+        <v>1.021668268204499</v>
       </c>
       <c r="AHJ3">
-        <v>1.042280823239681</v>
+        <v>1.019030430585434</v>
       </c>
       <c r="AHK3">
-        <v>1.042280023683941</v>
+        <v>1.019007846747096</v>
       </c>
       <c r="AHL3">
-        <v>1.042154746744663</v>
+        <v>1.017625516723656</v>
       </c>
       <c r="AHM3">
-        <v>1.042478123743502</v>
+        <v>1.021636410624181</v>
       </c>
       <c r="AHN3">
-        <v>1.042489093337202</v>
+        <v>1.021668268073302</v>
       </c>
       <c r="AHO3">
-        <v>1.042280558819475</v>
+        <v>1.019029876155025</v>
       </c>
       <c r="AHP3">
-        <v>1.04227774716351</v>
+        <v>1.018986946722637</v>
       </c>
       <c r="AHQ3">
-        <v>1.042119616155983</v>
+        <v>1.017277434022843</v>
       </c>
       <c r="AHR3">
-        <v>1.042468009594517</v>
+        <v>1.021615253550848</v>
       </c>
       <c r="AHS3">
-        <v>1.042280335390095</v>
+        <v>1.019029407673271</v>
       </c>
       <c r="AHT3">
-        <v>1.042280147106901</v>
+        <v>1.019029012885257</v>
       </c>
       <c r="AHU3">
-        <v>1.042279902181861</v>
+        <v>1.019028499331883</v>
       </c>
       <c r="AHV3">
-        <v>1.042279458905687</v>
+        <v>1.019027569880267</v>
       </c>
       <c r="AHW3">
-        <v>1.042278690344186</v>
+        <v>1.019025958377621</v>
       </c>
       <c r="AHX3">
-        <v>1.042272395017211</v>
+        <v>1.019012758476465</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049923469977562</v>
+        <v>1.049918239757489</v>
       </c>
       <c r="D2">
-        <v>1.049880615644619</v>
+        <v>1.04987244200211</v>
       </c>
       <c r="E2">
-        <v>1.049876122967401</v>
+        <v>1.049867640748421</v>
       </c>
       <c r="F2">
-        <v>1.049871914034492</v>
+        <v>1.049863142727859</v>
       </c>
       <c r="G2">
-        <v>1.049868244449536</v>
+        <v>1.049859221100017</v>
       </c>
       <c r="H2">
-        <v>1.049862463412733</v>
+        <v>1.049853042996777</v>
       </c>
       <c r="I2">
-        <v>1.049468802926832</v>
+        <v>1.049432344357793</v>
       </c>
       <c r="J2">
-        <v>1.049451171560206</v>
+        <v>1.049413502005897</v>
       </c>
       <c r="K2">
-        <v>1.04943649664843</v>
+        <v>1.049397819169158</v>
       </c>
       <c r="L2">
-        <v>1.049423618246953</v>
+        <v>1.04938405623373</v>
       </c>
       <c r="M2">
-        <v>1.049414008527274</v>
+        <v>1.049373786484864</v>
       </c>
       <c r="N2">
-        <v>1.049404987367036</v>
+        <v>1.049364145719912</v>
       </c>
       <c r="O2">
-        <v>1.049399440178151</v>
+        <v>1.049358217530841</v>
       </c>
       <c r="P2">
-        <v>1.049385630166655</v>
+        <v>1.049343459000061</v>
       </c>
       <c r="Q2">
-        <v>1.049273757693455</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="R2">
-        <v>1.049273757693456</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="S2">
-        <v>1.049138093598251</v>
+        <v>1.04907892082289</v>
       </c>
       <c r="T2">
-        <v>1.049273757693456</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="U2">
-        <v>1.049128759097265</v>
+        <v>1.04906894520045</v>
       </c>
       <c r="V2">
-        <v>1.049273757693457</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="W2">
-        <v>1.049118277544661</v>
+        <v>1.049057743743643</v>
       </c>
       <c r="X2">
-        <v>1.049273757693457</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="Y2">
-        <v>1.04910121146177</v>
+        <v>1.049039505511844</v>
       </c>
       <c r="Z2">
-        <v>1.049273757693457</v>
+        <v>1.049223902751561</v>
       </c>
       <c r="AA2">
-        <v>1.049070164143217</v>
+        <v>1.049006325773215</v>
       </c>
       <c r="AB2">
-        <v>1.049273757693457</v>
+        <v>1.049223902751561</v>
       </c>
       <c r="AC2">
-        <v>1.049058561908174</v>
+        <v>1.048966816625991</v>
       </c>
       <c r="AD2">
-        <v>1.048688700952146</v>
+        <v>1.048616412171826</v>
       </c>
       <c r="AE2">
-        <v>1.049273757693457</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="AF2">
-        <v>1.04905644896219</v>
+        <v>1.048962484686663</v>
       </c>
       <c r="AG2">
-        <v>1.049057506857127</v>
+        <v>1.048960434155359</v>
       </c>
       <c r="AH2">
-        <v>1.048587149971686</v>
+        <v>1.048512611584487</v>
       </c>
       <c r="AI2">
-        <v>1.049273757693456</v>
+        <v>1.04922390275156</v>
       </c>
       <c r="AJ2">
-        <v>1.049051610166775</v>
+        <v>1.048952564240099</v>
       </c>
       <c r="AK2">
-        <v>1.049057471127733</v>
+        <v>1.048960218012444</v>
       </c>
       <c r="AL2">
-        <v>1.048563705448087</v>
+        <v>1.04848209402375</v>
       </c>
       <c r="AM2">
-        <v>1.04829282861427</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="AN2">
-        <v>1.049273757693456</v>
+        <v>1.049223902751559</v>
       </c>
       <c r="AO2">
-        <v>1.049057419755325</v>
+        <v>1.048959907238024</v>
       </c>
       <c r="AP2">
-        <v>1.048563159524585</v>
+        <v>1.048481002081485</v>
       </c>
       <c r="AQ2">
-        <v>1.048558775390466</v>
+        <v>1.048477398368211</v>
       </c>
       <c r="AR2">
-        <v>1.048088590389228</v>
+        <v>1.048009040803578</v>
       </c>
       <c r="AS2">
-        <v>1.048292828614269</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="AT2">
-        <v>1.049273757693456</v>
+        <v>1.049223902751559</v>
       </c>
       <c r="AU2">
-        <v>1.049057353873719</v>
+        <v>1.048959508691044</v>
       </c>
       <c r="AV2">
-        <v>1.048562913460527</v>
+        <v>1.048480509910433</v>
       </c>
       <c r="AW2">
-        <v>1.048546912738738</v>
+        <v>1.048466099732227</v>
       </c>
       <c r="AX2">
-        <v>1.047934257021862</v>
+        <v>1.047853156190027</v>
       </c>
       <c r="AY2">
-        <v>1.048292828614268</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="AZ2">
-        <v>1.049273757693456</v>
+        <v>1.049223902751558</v>
       </c>
       <c r="BA2">
-        <v>1.049057193422335</v>
+        <v>1.048958538049642</v>
       </c>
       <c r="BB2">
-        <v>1.048562652685302</v>
+        <v>1.048479988314481</v>
       </c>
       <c r="BC2">
-        <v>1.047912005307208</v>
+        <v>1.047830680817914</v>
       </c>
       <c r="BD2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190028</v>
       </c>
       <c r="BE2">
-        <v>1.048292828614267</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="BF2">
-        <v>1.049273757693456</v>
+        <v>1.049223902751558</v>
       </c>
       <c r="BG2">
-        <v>1.049057056046655</v>
+        <v>1.04895770700339</v>
       </c>
       <c r="BH2">
-        <v>1.048562404314947</v>
+        <v>1.048479491530433</v>
       </c>
       <c r="BI2">
-        <v>1.047811211068641</v>
+        <v>1.047728873473267</v>
       </c>
       <c r="BJ2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190028</v>
       </c>
       <c r="BK2">
-        <v>1.048292828614267</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="BL2">
-        <v>1.049273757693457</v>
+        <v>1.049223902751557</v>
       </c>
       <c r="BM2">
-        <v>1.049056397516906</v>
+        <v>1.048953723265682</v>
       </c>
       <c r="BN2">
-        <v>1.048562255565671</v>
+        <v>1.048479194005926</v>
       </c>
       <c r="BO2">
-        <v>1.047791847226894</v>
+        <v>1.047708909170129</v>
       </c>
       <c r="BP2">
-        <v>1.047768245496918</v>
+        <v>1.047700944107208</v>
       </c>
       <c r="BQ2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190028</v>
       </c>
       <c r="BR2">
-        <v>1.048292828614267</v>
+        <v>1.048215331891446</v>
       </c>
       <c r="BS2">
-        <v>1.049273757693458</v>
+        <v>1.049223902751557</v>
       </c>
       <c r="BT2">
-        <v>1.049054069840009</v>
+        <v>1.048939642119255</v>
       </c>
       <c r="BU2">
-        <v>1.048561963730513</v>
+        <v>1.048478610284689</v>
       </c>
       <c r="BV2">
-        <v>1.047563071182936</v>
+        <v>1.047473038937452</v>
       </c>
       <c r="BW2">
-        <v>1.047755119679417</v>
+        <v>1.047698056266505</v>
       </c>
       <c r="BX2">
-        <v>1.047760370043846</v>
+        <v>1.047690180268717</v>
       </c>
       <c r="BY2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190028</v>
       </c>
       <c r="BZ2">
-        <v>1.048292828614266</v>
+        <v>1.048215331891445</v>
       </c>
       <c r="CA2">
-        <v>1.04927375769346</v>
+        <v>1.049223902751557</v>
       </c>
       <c r="CB2">
-        <v>1.048560484698756</v>
+        <v>1.048475651963119</v>
       </c>
       <c r="CC2">
-        <v>1.047483326013739</v>
+        <v>1.047390820934786</v>
       </c>
       <c r="CD2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190028</v>
       </c>
       <c r="CE2">
-        <v>1.048292828614261</v>
+        <v>1.048215331891445</v>
       </c>
       <c r="CF2">
-        <v>1.049273757693463</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CG2">
-        <v>1.048554911377572</v>
+        <v>1.048464504348559</v>
       </c>
       <c r="CH2">
-        <v>1.047465923024115</v>
+        <v>1.047372878293138</v>
       </c>
       <c r="CI2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190027</v>
       </c>
       <c r="CJ2">
-        <v>1.048292828614253</v>
+        <v>1.048215331891444</v>
       </c>
       <c r="CK2">
-        <v>1.049273757693465</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CL2">
-        <v>1.047430632525592</v>
+        <v>1.047336493466767</v>
       </c>
       <c r="CM2">
-        <v>1.047934257021863</v>
+        <v>1.047853156190027</v>
       </c>
       <c r="CN2">
-        <v>1.048292828614251</v>
+        <v>1.048215331891444</v>
       </c>
       <c r="CO2">
-        <v>1.049273757693465</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CP2">
-        <v>1.047397351968958</v>
+        <v>1.047302180909747</v>
       </c>
       <c r="CQ2">
-        <v>1.04829282861425</v>
+        <v>1.048215331891444</v>
       </c>
       <c r="CR2">
-        <v>1.049273757693466</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CS2">
-        <v>1.047378008075115</v>
+        <v>1.047282237179407</v>
       </c>
       <c r="CT2">
-        <v>1.04829282861425</v>
+        <v>1.048215331891445</v>
       </c>
       <c r="CU2">
-        <v>1.049273757693466</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CV2">
-        <v>1.047365232882167</v>
+        <v>1.047269065839544</v>
       </c>
       <c r="CW2">
-        <v>1.048292828614249</v>
+        <v>1.048215331891445</v>
       </c>
       <c r="CX2">
-        <v>1.049273757693466</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="CY2">
-        <v>1.047347593909931</v>
+        <v>1.047250879899311</v>
       </c>
       <c r="CZ2">
-        <v>1.048292828614239</v>
+        <v>1.048215331891458</v>
       </c>
       <c r="DA2">
-        <v>1.049273757693466</v>
+        <v>1.049223902751556</v>
       </c>
       <c r="DB2">
-        <v>1.047347504970942</v>
+        <v>1.047250616670406</v>
       </c>
       <c r="DC2">
-        <v>1.047336466909263</v>
+        <v>1.047240409428992</v>
       </c>
       <c r="DD2">
-        <v>1.048292828614238</v>
+        <v>1.048215331891459</v>
       </c>
       <c r="DE2">
-        <v>1.04734739736704</v>
+        <v>1.047250298199791</v>
       </c>
       <c r="DF2">
-        <v>1.047330157349419</v>
+        <v>1.047234472154262</v>
       </c>
       <c r="DG2">
-        <v>1.048292828614237</v>
+        <v>1.04821533189146</v>
       </c>
       <c r="DH2">
-        <v>1.047347272646451</v>
+        <v>1.047249929069705</v>
       </c>
       <c r="DI2">
-        <v>1.047081199710368</v>
+        <v>1.047000203805613</v>
       </c>
       <c r="DJ2">
-        <v>1.048292828614205</v>
+        <v>1.048215331891484</v>
       </c>
       <c r="DK2">
-        <v>1.047347082484568</v>
+        <v>1.04724936625597</v>
       </c>
       <c r="DL2">
-        <v>1.047056259657248</v>
+        <v>1.046976735290203</v>
       </c>
       <c r="DM2">
-        <v>1.048292828614176</v>
+        <v>1.048215331891505</v>
       </c>
       <c r="DN2">
-        <v>1.047346838005739</v>
+        <v>1.047248642682937</v>
       </c>
       <c r="DO2">
-        <v>1.047055695845016</v>
+        <v>1.046976055862534</v>
       </c>
       <c r="DP2">
-        <v>1.046987629060719</v>
+        <v>1.046913669820325</v>
       </c>
       <c r="DQ2">
-        <v>1.048292828614173</v>
+        <v>1.048215331891507</v>
       </c>
       <c r="DR2">
-        <v>1.047346662493326</v>
+        <v>1.047248123226831</v>
       </c>
       <c r="DS2">
-        <v>1.047055695845015</v>
+        <v>1.046976055862532</v>
       </c>
       <c r="DT2">
-        <v>1.047055421328309</v>
+        <v>1.046975725053399</v>
       </c>
       <c r="DU2">
-        <v>1.046863863493577</v>
+        <v>1.04679994011162</v>
       </c>
       <c r="DV2">
-        <v>1.048292828614171</v>
+        <v>1.048215331891508</v>
       </c>
       <c r="DW2">
-        <v>1.047346414495614</v>
+        <v>1.047247389239451</v>
       </c>
       <c r="DX2">
-        <v>1.047055695845013</v>
+        <v>1.046976055862531</v>
       </c>
       <c r="DY2">
-        <v>1.047054131741345</v>
+        <v>1.046974171023716</v>
       </c>
       <c r="DZ2">
-        <v>1.046808206498044</v>
+        <v>1.046748796185715</v>
       </c>
       <c r="EA2">
-        <v>1.048292828614169</v>
+        <v>1.048215331891509</v>
       </c>
       <c r="EB2">
-        <v>1.047346146179962</v>
+        <v>1.047246595118222</v>
       </c>
       <c r="EC2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586253</v>
       </c>
       <c r="ED2">
-        <v>1.047044184413028</v>
+        <v>1.04697162189324</v>
       </c>
       <c r="EE2">
-        <v>1.047051917305031</v>
+        <v>1.046970130388684</v>
       </c>
       <c r="EF2">
-        <v>1.04679164705178</v>
+        <v>1.046733579495488</v>
       </c>
       <c r="EG2">
-        <v>1.048292828614164</v>
+        <v>1.048215331891513</v>
       </c>
       <c r="EH2">
-        <v>1.047345893136747</v>
+        <v>1.04724584619832</v>
       </c>
       <c r="EI2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862528</v>
       </c>
       <c r="EJ2">
-        <v>1.047043327753655</v>
+        <v>1.046971402363282</v>
       </c>
       <c r="EK2">
-        <v>1.047050269883648</v>
+        <v>1.046967124376415</v>
       </c>
       <c r="EL2">
-        <v>1.046772954735417</v>
+        <v>1.046716402881569</v>
       </c>
       <c r="EM2">
-        <v>1.048292828614159</v>
+        <v>1.048215331891516</v>
       </c>
       <c r="EN2">
-        <v>1.047345477093405</v>
+        <v>1.047244614855174</v>
       </c>
       <c r="EO2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862526</v>
       </c>
       <c r="EP2">
-        <v>1.047042487208079</v>
+        <v>1.046971186962691</v>
       </c>
       <c r="EQ2">
-        <v>1.047049166647071</v>
+        <v>1.046965111327017</v>
       </c>
       <c r="ER2">
-        <v>1.046755374974591</v>
+        <v>1.046700248607877</v>
       </c>
       <c r="ES2">
-        <v>1.048292828614159</v>
+        <v>1.048215331891516</v>
       </c>
       <c r="ET2">
-        <v>1.047343498899575</v>
+        <v>1.047238760099135</v>
       </c>
       <c r="EU2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862524</v>
       </c>
       <c r="EV2">
-        <v>1.047041808503132</v>
+        <v>1.046971013035837</v>
       </c>
       <c r="EW2">
-        <v>1.047048618034726</v>
+        <v>1.046964031970024</v>
       </c>
       <c r="EX2">
-        <v>1.047038897607702</v>
+        <v>1.046947827710528</v>
       </c>
       <c r="EY2">
-        <v>1.046734862776516</v>
+        <v>1.04668139967702</v>
       </c>
       <c r="EZ2">
-        <v>1.048292828614158</v>
+        <v>1.048215331891516</v>
       </c>
       <c r="FA2">
-        <v>1.047343067960654</v>
+        <v>1.047237484673574</v>
       </c>
       <c r="FB2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862523</v>
       </c>
       <c r="FC2">
-        <v>1.047040789820937</v>
+        <v>1.04697075198545</v>
       </c>
       <c r="FD2">
-        <v>1.047047163082978</v>
+        <v>1.046961169454222</v>
       </c>
       <c r="FE2">
-        <v>1.047038272567981</v>
+        <v>1.046946775718593</v>
       </c>
       <c r="FF2">
-        <v>1.046728960503239</v>
+        <v>1.046675975999434</v>
       </c>
       <c r="FG2">
-        <v>1.048292828614158</v>
+        <v>1.048215331891516</v>
       </c>
       <c r="FH2">
-        <v>1.047343067960654</v>
+        <v>1.047229653379412</v>
       </c>
       <c r="FI2">
-        <v>1.04734143820874</v>
+        <v>1.047232933948305</v>
       </c>
       <c r="FJ2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862521</v>
       </c>
       <c r="FK2">
-        <v>1.047039561685739</v>
+        <v>1.04697043726004</v>
       </c>
       <c r="FL2">
-        <v>1.047046657699009</v>
+        <v>1.046960175147129</v>
       </c>
       <c r="FM2">
-        <v>1.047037701561091</v>
+        <v>1.046945814668245</v>
       </c>
       <c r="FN2">
-        <v>1.046695428787051</v>
+        <v>1.046645163255157</v>
       </c>
       <c r="FO2">
-        <v>1.048292828614158</v>
+        <v>1.048215331891516</v>
       </c>
       <c r="FP2">
-        <v>1.047343067960654</v>
+        <v>1.047228173915614</v>
       </c>
       <c r="FQ2">
-        <v>1.047339274543045</v>
+        <v>1.047226892397024</v>
       </c>
       <c r="FR2">
-        <v>1.047055695845012</v>
+        <v>1.046976055862521</v>
       </c>
       <c r="FS2">
-        <v>1.047038633855063</v>
+        <v>1.046970199491519</v>
       </c>
       <c r="FT2">
-        <v>1.047046657699004</v>
+        <v>1.046960175147123</v>
       </c>
       <c r="FU2">
-        <v>1.047038312047221</v>
+        <v>1.046943755693834</v>
       </c>
       <c r="FV2">
-        <v>1.047037464356988</v>
+        <v>1.046945415434733</v>
       </c>
       <c r="FW2">
-        <v>1.046676489905947</v>
+        <v>1.046627760060494</v>
       </c>
       <c r="FX2">
-        <v>1.047343067960654</v>
+        <v>1.047225121483714</v>
       </c>
       <c r="FY2">
-        <v>1.047339094537927</v>
+        <v>1.047226175226164</v>
       </c>
       <c r="FZ2">
-        <v>1.047334388728952</v>
+        <v>1.047218932285643</v>
       </c>
       <c r="GA2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586252</v>
       </c>
       <c r="GB2">
-        <v>1.047037560193465</v>
+        <v>1.046969924351949</v>
       </c>
       <c r="GC2">
-        <v>1.047046657699003</v>
+        <v>1.046960175147122</v>
       </c>
       <c r="GD2">
-        <v>1.047037410708888</v>
+        <v>1.046941982377302</v>
       </c>
       <c r="GE2">
-        <v>1.047036953066344</v>
+        <v>1.046944554891615</v>
       </c>
       <c r="GF2">
-        <v>1.046662431068844</v>
+        <v>1.046614841203272</v>
       </c>
       <c r="GG2">
-        <v>1.047338386169711</v>
+        <v>1.047223352969341</v>
       </c>
       <c r="GH2">
-        <v>1.047314167381753</v>
+        <v>1.047185987076144</v>
       </c>
       <c r="GI2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586252</v>
       </c>
       <c r="GJ2">
-        <v>1.047036550674517</v>
+        <v>1.046969665649757</v>
       </c>
       <c r="GK2">
-        <v>1.047046657699003</v>
+        <v>1.046960175147122</v>
       </c>
       <c r="GL2">
-        <v>1.047046657699003</v>
+        <v>1.046960175147122</v>
       </c>
       <c r="GM2">
-        <v>1.047036538866683</v>
+        <v>1.046940267092229</v>
       </c>
       <c r="GN2">
-        <v>1.047035650815242</v>
+        <v>1.046942363098683</v>
       </c>
       <c r="GO2">
-        <v>1.046649791531123</v>
+        <v>1.046603226558766</v>
       </c>
       <c r="GP2">
-        <v>1.047337121413113</v>
+        <v>1.04721831397679</v>
       </c>
       <c r="GQ2">
-        <v>1.047310215205929</v>
+        <v>1.047182161922707</v>
       </c>
       <c r="GR2">
-        <v>1.047314167381752</v>
+        <v>1.047184476394084</v>
       </c>
       <c r="GS2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586252</v>
       </c>
       <c r="GT2">
-        <v>1.047035464491514</v>
+        <v>1.046969387301415</v>
       </c>
       <c r="GU2">
-        <v>1.047046657699003</v>
+        <v>1.046960175147122</v>
       </c>
       <c r="GV2">
-        <v>1.047046657699003</v>
+        <v>1.046960175147122</v>
       </c>
       <c r="GW2">
-        <v>1.047035841480293</v>
+        <v>1.046938895036077</v>
       </c>
       <c r="GX2">
-        <v>1.047034886791087</v>
+        <v>1.046941077184827</v>
       </c>
       <c r="GY2">
-        <v>1.04663408965343</v>
+        <v>1.046588797886953</v>
       </c>
       <c r="GZ2">
-        <v>1.047332895671644</v>
+        <v>1.047209861340052</v>
       </c>
       <c r="HA2">
-        <v>1.047337011116856</v>
+        <v>1.047217447579881</v>
       </c>
       <c r="HB2">
-        <v>1.047300223128901</v>
+        <v>1.04717249098965</v>
       </c>
       <c r="HC2">
-        <v>1.047314167381752</v>
+        <v>1.047184262857674</v>
       </c>
       <c r="HD2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586252</v>
       </c>
       <c r="HE2">
-        <v>1.047033804043717</v>
+        <v>1.046968961790343</v>
       </c>
       <c r="HF2">
-        <v>1.047046657699002</v>
+        <v>1.046960175147121</v>
       </c>
       <c r="HG2">
-        <v>1.047035285957048</v>
+        <v>1.046937802085178</v>
       </c>
       <c r="HH2">
-        <v>1.047034351666</v>
+        <v>1.046940176526439</v>
       </c>
       <c r="HI2">
-        <v>1.046605114497078</v>
+        <v>1.046562172213193</v>
       </c>
       <c r="HJ2">
-        <v>1.047319064257102</v>
+        <v>1.047182194735818</v>
       </c>
       <c r="HK2">
-        <v>1.047336812051007</v>
+        <v>1.047215883882781</v>
       </c>
       <c r="HL2">
-        <v>1.047314167381751</v>
+        <v>1.0471840906466</v>
       </c>
       <c r="HM2">
-        <v>1.047055695845013</v>
+        <v>1.04697605586252</v>
       </c>
       <c r="HN2">
-        <v>1.047029269538993</v>
+        <v>1.04696779976526</v>
       </c>
       <c r="HO2">
-        <v>1.047046657699002</v>
+        <v>1.04696017514712</v>
       </c>
       <c r="HP2">
-        <v>1.04703411149193</v>
+        <v>1.046935491411928</v>
       </c>
       <c r="HQ2">
-        <v>1.047033322300699</v>
+        <v>1.046938444022187</v>
       </c>
       <c r="HR2">
-        <v>1.046579852802776</v>
+        <v>1.046538958887857</v>
       </c>
       <c r="HS2">
-        <v>1.047313101765414</v>
+        <v>1.047170268125697</v>
       </c>
       <c r="HT2">
-        <v>1.04733674097339</v>
+        <v>1.047215325555942</v>
       </c>
       <c r="HU2">
-        <v>1.047314167381752</v>
+        <v>1.047183953024465</v>
       </c>
       <c r="HV2">
-        <v>1.047028882912518</v>
+        <v>1.046967700687258</v>
       </c>
       <c r="HW2">
-        <v>1.047046657699002</v>
+        <v>1.04696017514712</v>
       </c>
       <c r="HX2">
-        <v>1.047033186572653</v>
+        <v>1.046933671701673</v>
       </c>
       <c r="HY2">
-        <v>1.047032809949462</v>
+        <v>1.046937581694018</v>
       </c>
       <c r="HZ2">
-        <v>1.046562668643046</v>
+        <v>1.046523168120538</v>
       </c>
       <c r="IA2">
-        <v>1.047328808581268</v>
+        <v>1.047153015512422</v>
       </c>
       <c r="IB2">
-        <v>1.04733674097339</v>
+        <v>1.047215325555942</v>
       </c>
       <c r="IC2">
-        <v>1.047314167381751</v>
+        <v>1.047183742942959</v>
       </c>
       <c r="ID2">
-        <v>1.047028704333373</v>
+        <v>1.046967654924058</v>
       </c>
       <c r="IE2">
-        <v>1.047046657699002</v>
+        <v>1.046960175147119</v>
       </c>
       <c r="IF2">
-        <v>1.047032545002546</v>
+        <v>1.046932409459955</v>
       </c>
       <c r="IG2">
-        <v>1.047032446148446</v>
+        <v>1.046936969387772</v>
       </c>
       <c r="IH2">
-        <v>1.046551380132498</v>
+        <v>1.046512794947794</v>
       </c>
       <c r="II2">
-        <v>1.047327656624263</v>
+        <v>1.04714396673148</v>
       </c>
       <c r="IJ2">
-        <v>1.047314167381751</v>
+        <v>1.047183496685104</v>
       </c>
       <c r="IK2">
-        <v>1.04702851332136</v>
+        <v>1.046967605974775</v>
       </c>
       <c r="IL2">
-        <v>1.047046657699002</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="IM2">
-        <v>1.04703190496084</v>
+        <v>1.046931150225258</v>
       </c>
       <c r="IN2">
-        <v>1.047028284420278</v>
+        <v>1.046929964866013</v>
       </c>
       <c r="IO2">
-        <v>1.04652708536464</v>
+        <v>1.046490470138221</v>
       </c>
       <c r="IP2">
-        <v>1.047327656624263</v>
+        <v>1.047123264834852</v>
       </c>
       <c r="IQ2">
-        <v>1.047324120728425</v>
+        <v>1.047136893680975</v>
       </c>
       <c r="IR2">
-        <v>1.047314167381752</v>
+        <v>1.047183118447665</v>
       </c>
       <c r="IS2">
-        <v>1.047028330800971</v>
+        <v>1.04696755920158</v>
       </c>
       <c r="IT2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="IU2">
-        <v>1.047030968608364</v>
+        <v>1.046929308021055</v>
       </c>
       <c r="IV2">
-        <v>1.04702705719478</v>
+        <v>1.046927899347251</v>
       </c>
       <c r="IW2">
-        <v>1.046515204123994</v>
+        <v>1.046478588469683</v>
       </c>
       <c r="IX2">
-        <v>1.046511532315738</v>
+        <v>1.046476221348104</v>
       </c>
       <c r="IY2">
-        <v>1.047314167381752</v>
+        <v>1.047181734356141</v>
       </c>
       <c r="IZ2">
-        <v>1.047028127465435</v>
+        <v>1.046967507094237</v>
       </c>
       <c r="JA2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="JB2">
-        <v>1.047027446940067</v>
+        <v>1.046922379399378</v>
       </c>
       <c r="JC2">
-        <v>1.047026782627998</v>
+        <v>1.046927437229376</v>
       </c>
       <c r="JD2">
-        <v>1.046513561721798</v>
+        <v>1.046476946008337</v>
       </c>
       <c r="JE2">
-        <v>1.046453210795807</v>
+        <v>1.046422790585035</v>
       </c>
       <c r="JF2">
-        <v>1.047314167381752</v>
+        <v>1.04717499798194</v>
       </c>
       <c r="JG2">
-        <v>1.047027707752381</v>
+        <v>1.046967399537373</v>
       </c>
       <c r="JH2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="JI2">
-        <v>1.047026624979265</v>
+        <v>1.046920762252367</v>
       </c>
       <c r="JJ2">
-        <v>1.047019862824597</v>
+        <v>1.046920516774857</v>
       </c>
       <c r="JK2">
-        <v>1.047026782627998</v>
+        <v>1.04692727497629</v>
       </c>
       <c r="JL2">
-        <v>1.046512806649157</v>
+        <v>1.046476190908503</v>
       </c>
       <c r="JM2">
-        <v>1.046450371062361</v>
+        <v>1.046417249431968</v>
       </c>
       <c r="JN2">
-        <v>1.046433791896118</v>
+        <v>1.046405177772486</v>
       </c>
       <c r="JO2">
-        <v>1.047027270623929</v>
+        <v>1.04696728751759</v>
       </c>
       <c r="JP2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="JQ2">
-        <v>1.047026248417613</v>
+        <v>1.046920021395202</v>
       </c>
       <c r="JR2">
-        <v>1.047013005059151</v>
+        <v>1.04691365836413</v>
       </c>
       <c r="JS2">
-        <v>1.047026782627998</v>
+        <v>1.046927084744756</v>
       </c>
       <c r="JT2">
-        <v>1.046511909839246</v>
+        <v>1.046475294066295</v>
       </c>
       <c r="JU2">
-        <v>1.046450164644916</v>
+        <v>1.04641684665098</v>
       </c>
       <c r="JV2">
-        <v>1.046363398593909</v>
+        <v>1.046341331498672</v>
       </c>
       <c r="JW2">
-        <v>1.047025608380021</v>
+        <v>1.046966861546227</v>
       </c>
       <c r="JX2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="JY2">
-        <v>1.047026000856766</v>
+        <v>1.046919534337571</v>
       </c>
       <c r="JZ2">
-        <v>1.047026782627997</v>
+        <v>1.046926912828372</v>
       </c>
       <c r="KA2">
-        <v>1.046510526168922</v>
+        <v>1.046473910346139</v>
       </c>
       <c r="KB2">
-        <v>1.046449994509201</v>
+        <v>1.046416514666288</v>
       </c>
       <c r="KC2">
-        <v>1.046342324198613</v>
+        <v>1.046324162475381</v>
       </c>
       <c r="KD2">
-        <v>1.046353377788532</v>
+        <v>1.046331651119129</v>
       </c>
       <c r="KE2">
-        <v>1.047016783290156</v>
+        <v>1.046964600003484</v>
       </c>
       <c r="KF2">
-        <v>1.047046657699001</v>
+        <v>1.046960175147118</v>
       </c>
       <c r="KG2">
-        <v>1.047024831912157</v>
+        <v>1.046917253215847</v>
       </c>
       <c r="KH2">
-        <v>1.047025930525288</v>
+        <v>1.046919393660306</v>
       </c>
       <c r="KI2">
-        <v>1.047026782627997</v>
+        <v>1.046926738711445</v>
       </c>
       <c r="KJ2">
-        <v>1.046509293221345</v>
+        <v>1.046472677354159</v>
       </c>
       <c r="KK2">
-        <v>1.046449752844539</v>
+        <v>1.04641604310764</v>
       </c>
       <c r="KL2">
-        <v>1.04633262411756</v>
+        <v>1.046316259950695</v>
       </c>
       <c r="KM2">
-        <v>1.046311381044058</v>
+        <v>1.046291081081585</v>
       </c>
       <c r="KN2">
-        <v>1.04702429494852</v>
+        <v>1.046916205365158</v>
       </c>
       <c r="KO2">
-        <v>1.047025880749192</v>
+        <v>1.046919294097985</v>
       </c>
       <c r="KP2">
-        <v>1.047026782627997</v>
+        <v>1.046926551500544</v>
       </c>
       <c r="KQ2">
-        <v>1.046508334632548</v>
+        <v>1.046471718730839</v>
       </c>
       <c r="KR2">
-        <v>1.046448667395881</v>
+        <v>1.046413925078895</v>
       </c>
       <c r="KS2">
-        <v>1.046269256848144</v>
+        <v>1.046264635485831</v>
       </c>
       <c r="KT2">
-        <v>1.046302110739232</v>
+        <v>1.046282125705598</v>
       </c>
       <c r="KU2">
-        <v>1.047023386147414</v>
+        <v>1.046914431897097</v>
       </c>
       <c r="KV2">
-        <v>1.047025822824484</v>
+        <v>1.046919178236785</v>
       </c>
       <c r="KW2">
-        <v>1.047026782627997</v>
+        <v>1.046925465781237</v>
       </c>
       <c r="KX2">
-        <v>1.046507141429792</v>
+        <v>1.04647052548511</v>
       </c>
       <c r="KY2">
-        <v>1.046448458435505</v>
+        <v>1.046413517335906</v>
       </c>
       <c r="KZ2">
-        <v>1.046264523829014</v>
+        <v>1.046260779558006</v>
       </c>
       <c r="LA2">
-        <v>1.046299030406547</v>
+        <v>1.046279150017284</v>
       </c>
       <c r="LB2">
-        <v>1.04702164176274</v>
+        <v>1.04691102784041</v>
       </c>
       <c r="LC2">
-        <v>1.047025712033045</v>
+        <v>1.046918956631367</v>
       </c>
       <c r="LD2">
-        <v>1.047026782627997</v>
+        <v>1.046920873599379</v>
       </c>
       <c r="LE2">
-        <v>1.046505907310277</v>
+        <v>1.04646929132115</v>
       </c>
       <c r="LF2">
-        <v>1.046448303717527</v>
+        <v>1.046413215435747</v>
       </c>
       <c r="LG2">
-        <v>1.046263255726684</v>
+        <v>1.046257313263474</v>
       </c>
       <c r="LH2">
-        <v>1.046183579936202</v>
+        <v>1.046205868796862</v>
       </c>
       <c r="LI2">
-        <v>1.046297422689848</v>
+        <v>1.046277596917566</v>
       </c>
       <c r="LJ2">
-        <v>1.047016506000507</v>
+        <v>1.046901005724465</v>
       </c>
       <c r="LK2">
-        <v>1.047025287128608</v>
+        <v>1.046918106736047</v>
       </c>
       <c r="LL2">
-        <v>1.046504451599368</v>
+        <v>1.046467835557814</v>
       </c>
       <c r="LM2">
-        <v>1.04644812549919</v>
+        <v>1.046412867679493</v>
       </c>
       <c r="LN2">
-        <v>1.046256724617643</v>
+        <v>1.046239460803012</v>
       </c>
       <c r="LO2">
-        <v>1.04614473504545</v>
+        <v>1.046179517166782</v>
       </c>
       <c r="LP2">
-        <v>1.046296046434489</v>
+        <v>1.046276267416032</v>
       </c>
       <c r="LQ2">
-        <v>1.047023837090971</v>
+        <v>1.046915206365783</v>
       </c>
       <c r="LR2">
-        <v>1.046503622037908</v>
+        <v>1.046467005966478</v>
       </c>
       <c r="LS2">
-        <v>1.046447948709166</v>
+        <v>1.046412522710299</v>
       </c>
       <c r="LT2">
-        <v>1.046254444483497</v>
+        <v>1.046233228170439</v>
       </c>
       <c r="LU2">
-        <v>1.046094761521381</v>
+        <v>1.046149772815836</v>
       </c>
       <c r="LV2">
-        <v>1.046084776973206</v>
+        <v>1.046137604175492</v>
       </c>
       <c r="LW2">
-        <v>1.046294481191003</v>
+        <v>1.046274755346628</v>
       </c>
       <c r="LX2">
-        <v>1.046499874413002</v>
+        <v>1.046463258206605</v>
       </c>
       <c r="LY2">
-        <v>1.04644639558922</v>
+        <v>1.046409492117727</v>
       </c>
       <c r="LZ2">
-        <v>1.046249481919506</v>
+        <v>1.046219663250608</v>
       </c>
       <c r="MA2">
-        <v>1.046074969532129</v>
+        <v>1.046137992579565</v>
       </c>
       <c r="MB2">
-        <v>1.04606112912181</v>
+        <v>1.04613311519548</v>
       </c>
       <c r="MC2">
-        <v>1.046075597222899</v>
+        <v>1.046130312083455</v>
       </c>
       <c r="MD2">
-        <v>1.046293248048811</v>
+        <v>1.046273564096447</v>
       </c>
       <c r="ME2">
-        <v>1.046498415915237</v>
+        <v>1.046461799656314</v>
       </c>
       <c r="MF2">
-        <v>1.046443220804032</v>
+        <v>1.046403297180681</v>
       </c>
       <c r="MG2">
-        <v>1.046248125961484</v>
+        <v>1.046215595223041</v>
       </c>
       <c r="MH2">
-        <v>1.046248205926177</v>
+        <v>1.046216345515703</v>
       </c>
       <c r="MI2">
-        <v>1.046049240055711</v>
+        <v>1.046130858339942</v>
       </c>
       <c r="MJ2">
-        <v>1.046067732867869</v>
+        <v>1.046124064897939</v>
       </c>
       <c r="MK2">
-        <v>1.04629221418936</v>
+        <v>1.04627256535902</v>
       </c>
       <c r="ML2">
-        <v>1.04649790923449</v>
+        <v>1.046461292957319</v>
       </c>
       <c r="MM2">
-        <v>1.046246097039263</v>
+        <v>1.046209508226809</v>
       </c>
       <c r="MN2">
-        <v>1.046248028256215</v>
+        <v>1.046215883552606</v>
       </c>
       <c r="MO2">
-        <v>1.046048133661495</v>
+        <v>1.046130648317392</v>
       </c>
       <c r="MP2">
-        <v>1.046062201028074</v>
+        <v>1.046119670585822</v>
       </c>
       <c r="MQ2">
-        <v>1.046291281321172</v>
+        <v>1.046271664182002</v>
       </c>
       <c r="MR2">
-        <v>1.04649752751796</v>
+        <v>1.046460911227041</v>
       </c>
       <c r="MS2">
-        <v>1.046247835294145</v>
+        <v>1.046215381828203</v>
       </c>
       <c r="MT2">
-        <v>1.04604767673448</v>
+        <v>1.046130561580697</v>
       </c>
       <c r="MU2">
-        <v>1.04605521143421</v>
+        <v>1.046114118281505</v>
       </c>
       <c r="MV2">
-        <v>1.046290509246572</v>
+        <v>1.04627091833613</v>
       </c>
       <c r="MW2">
-        <v>1.046497248236699</v>
+        <v>1.046460631935723</v>
       </c>
       <c r="MX2">
-        <v>1.046247666273232</v>
+        <v>1.046214942353667</v>
       </c>
       <c r="MY2">
-        <v>1.046047354325107</v>
+        <v>1.046130500378968</v>
       </c>
       <c r="MZ2">
-        <v>1.04605083181308</v>
+        <v>1.046110639253901</v>
       </c>
       <c r="NA2">
-        <v>1.0462896135944</v>
+        <v>1.046270053110832</v>
       </c>
       <c r="NB2">
-        <v>1.046497106416096</v>
+        <v>1.046460490110011</v>
       </c>
       <c r="NC2">
-        <v>1.046247486688511</v>
+        <v>1.04621447541197</v>
       </c>
       <c r="ND2">
-        <v>1.046047024550417</v>
+        <v>1.04613043777911</v>
       </c>
       <c r="NE2">
-        <v>1.046044106434749</v>
+        <v>1.046105296833444</v>
       </c>
       <c r="NF2">
-        <v>1.046288629210149</v>
+        <v>1.046269102167836</v>
       </c>
       <c r="NG2">
-        <v>1.0464968979097</v>
+        <v>1.046460281596106</v>
       </c>
       <c r="NH2">
-        <v>1.046247230382678</v>
+        <v>1.046213808986229</v>
       </c>
       <c r="NI2">
-        <v>1.046046635439835</v>
+        <v>1.046130363915747</v>
       </c>
       <c r="NJ2">
-        <v>1.046037402022391</v>
+        <v>1.04609997106749</v>
       </c>
       <c r="NK2">
-        <v>1.046283262696201</v>
+        <v>1.046263917963722</v>
       </c>
       <c r="NL2">
-        <v>1.046496548384887</v>
+        <v>1.046459932058704</v>
       </c>
       <c r="NM2">
-        <v>1.046246918795951</v>
+        <v>1.046212998823573</v>
       </c>
       <c r="NN2">
-        <v>1.046046144604621</v>
+        <v>1.046130270742389</v>
       </c>
       <c r="NO2">
-        <v>1.046029879464229</v>
+        <v>1.046093995393048</v>
       </c>
       <c r="NP2">
-        <v>1.04624579577105</v>
+        <v>1.046227138704308</v>
       </c>
       <c r="NQ2">
-        <v>1.046278482283779</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="NR2">
-        <v>1.046494989353187</v>
+        <v>1.046458372970854</v>
       </c>
       <c r="NS2">
-        <v>1.046244987481889</v>
+        <v>1.046207977176691</v>
       </c>
       <c r="NT2">
-        <v>1.046045705013918</v>
+        <v>1.046130187296579</v>
       </c>
       <c r="NU2">
-        <v>1.046024435877211</v>
+        <v>1.046089671185223</v>
       </c>
       <c r="NV2">
-        <v>1.04620991106864</v>
+        <v>1.046191912626014</v>
       </c>
       <c r="NW2">
-        <v>1.04624912991046</v>
+        <v>1.046237661915816</v>
       </c>
       <c r="NX2">
-        <v>1.046278482283781</v>
+        <v>1.046260240715221</v>
       </c>
       <c r="NY2">
-        <v>1.046489258396716</v>
+        <v>1.046452641807976</v>
       </c>
       <c r="NZ2">
-        <v>1.046238379045281</v>
+        <v>1.046190794454075</v>
       </c>
       <c r="OA2">
-        <v>1.046045357176859</v>
+        <v>1.046130121268009</v>
       </c>
       <c r="OB2">
-        <v>1.046017947622107</v>
+        <v>1.046084517127017</v>
       </c>
       <c r="OC2">
-        <v>1.046208313585277</v>
+        <v>1.046190344462658</v>
       </c>
       <c r="OD2">
-        <v>1.046238402349067</v>
+        <v>1.046229409926772</v>
       </c>
       <c r="OE2">
-        <v>1.046278482283789</v>
+        <v>1.046260240715223</v>
       </c>
       <c r="OF2">
-        <v>1.046044760204793</v>
+        <v>1.0461300079471</v>
       </c>
       <c r="OG2">
-        <v>1.046008533265808</v>
+        <v>1.046077038669174</v>
       </c>
       <c r="OH2">
-        <v>1.046187157243043</v>
+        <v>1.046171766369178</v>
       </c>
       <c r="OI2">
-        <v>1.046182611827387</v>
+        <v>1.046164744401252</v>
       </c>
       <c r="OJ2">
-        <v>1.046237310423936</v>
+        <v>1.046228569982449</v>
       </c>
       <c r="OK2">
-        <v>1.04627848228379</v>
+        <v>1.046260240715223</v>
       </c>
       <c r="OL2">
-        <v>1.046042676239701</v>
+        <v>1.046129612356028</v>
       </c>
       <c r="OM2">
-        <v>1.046001553671669</v>
+        <v>1.046071494306818</v>
       </c>
       <c r="ON2">
-        <v>1.046185218775882</v>
+        <v>1.046170064136154</v>
       </c>
       <c r="OO2">
-        <v>1.046170212193328</v>
+        <v>1.046152393829892</v>
       </c>
       <c r="OP2">
-        <v>1.046236548403047</v>
+        <v>1.046227983811198</v>
       </c>
       <c r="OQ2">
-        <v>1.04627848228379</v>
+        <v>1.046260240715223</v>
       </c>
       <c r="OR2">
-        <v>1.046029935648488</v>
+        <v>1.046127193858553</v>
       </c>
       <c r="OS2">
-        <v>1.045994820733401</v>
+        <v>1.046066145879671</v>
       </c>
       <c r="OT2">
-        <v>1.046184116797326</v>
+        <v>1.046169096451827</v>
       </c>
       <c r="OU2">
-        <v>1.04613280447548</v>
+        <v>1.046115134126126</v>
       </c>
       <c r="OV2">
-        <v>1.04617021219332</v>
+        <v>1.046152393829885</v>
       </c>
       <c r="OW2">
-        <v>1.046235759017115</v>
+        <v>1.046227376589865</v>
       </c>
       <c r="OX2">
-        <v>1.04627848228379</v>
+        <v>1.046260240715223</v>
       </c>
       <c r="OY2">
-        <v>1.045988231217456</v>
+        <v>1.046060911382377</v>
       </c>
       <c r="OZ2">
-        <v>1.046183368527413</v>
+        <v>1.04616843937092</v>
       </c>
       <c r="PA2">
-        <v>1.046079526738213</v>
+        <v>1.046062067196479</v>
       </c>
       <c r="PB2">
-        <v>1.046170212193319</v>
+        <v>1.046152393829884</v>
       </c>
       <c r="PC2">
-        <v>1.046232444056901</v>
+        <v>1.046224826614646</v>
       </c>
       <c r="PD2">
-        <v>1.046278482283791</v>
+        <v>1.046260240715223</v>
       </c>
       <c r="PE2">
-        <v>1.045980306331446</v>
+        <v>1.046054616110277</v>
       </c>
       <c r="PF2">
-        <v>1.046182149045498</v>
+        <v>1.046167368502951</v>
       </c>
       <c r="PG2">
-        <v>1.046068377767573</v>
+        <v>1.04605096233963</v>
       </c>
       <c r="PH2">
-        <v>1.046170212193317</v>
+        <v>1.046152393829883</v>
       </c>
       <c r="PI2">
-        <v>1.046231634621385</v>
+        <v>1.046224203970518</v>
       </c>
       <c r="PJ2">
-        <v>1.0462784822838</v>
+        <v>1.046260240715221</v>
       </c>
       <c r="PK2">
-        <v>1.045967033608717</v>
+        <v>1.046044072689786</v>
       </c>
       <c r="PL2">
-        <v>1.045980306331446</v>
+        <v>1.046054616110277</v>
       </c>
       <c r="PM2">
-        <v>1.046178095413116</v>
+        <v>1.046163808872397</v>
       </c>
       <c r="PN2">
-        <v>1.04606552822056</v>
+        <v>1.046048124067582</v>
       </c>
       <c r="PO2">
-        <v>1.046170212193316</v>
+        <v>1.046152393829882</v>
       </c>
       <c r="PP2">
-        <v>1.04623086250798</v>
+        <v>1.04622361003577</v>
       </c>
       <c r="PQ2">
-        <v>1.046278482283804</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="PR2">
-        <v>1.045922265728794</v>
+        <v>1.046008510532657</v>
       </c>
       <c r="PS2">
-        <v>1.045967033608717</v>
+        <v>1.046044072689786</v>
       </c>
       <c r="PT2">
-        <v>1.046173582449574</v>
+        <v>1.046159845887732</v>
       </c>
       <c r="PU2">
-        <v>1.046064035384132</v>
+        <v>1.046046637137946</v>
       </c>
       <c r="PV2">
-        <v>1.046170212193316</v>
+        <v>1.046152393829881</v>
       </c>
       <c r="PW2">
-        <v>1.046230094594153</v>
+        <v>1.046223019331473</v>
       </c>
       <c r="PX2">
-        <v>1.046278482283805</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="PY2">
-        <v>1.045858946258957</v>
+        <v>1.045958211578352</v>
       </c>
       <c r="PZ2">
-        <v>1.045922265728794</v>
+        <v>1.046008510532657</v>
       </c>
       <c r="QA2">
-        <v>1.04617104437664</v>
+        <v>1.04615761712075</v>
       </c>
       <c r="QB2">
-        <v>1.046062797840347</v>
+        <v>1.046045404490819</v>
       </c>
       <c r="QC2">
-        <v>1.046170212193315</v>
+        <v>1.046152393829881</v>
       </c>
       <c r="QD2">
-        <v>1.046229213698023</v>
+        <v>1.046222341717513</v>
       </c>
       <c r="QE2">
-        <v>1.046278482283807</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="QF2">
-        <v>1.045813510966192</v>
+        <v>1.045922119230384</v>
       </c>
       <c r="QG2">
-        <v>1.045858946258957</v>
+        <v>1.045958211578352</v>
       </c>
       <c r="QH2">
-        <v>1.046168660126273</v>
+        <v>1.046155523430519</v>
       </c>
       <c r="QI2">
-        <v>1.046061794880056</v>
+        <v>1.046044405498998</v>
       </c>
       <c r="QJ2">
-        <v>1.046170212193314</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="QK2">
-        <v>1.046226171575213</v>
+        <v>1.046220001617678</v>
       </c>
       <c r="QL2">
-        <v>1.046278482283809</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="QM2">
-        <v>1.045799725917902</v>
+        <v>1.0459111688259</v>
       </c>
       <c r="QN2">
-        <v>1.045813510966192</v>
+        <v>1.045922119230384</v>
       </c>
       <c r="QO2">
-        <v>1.046166385354676</v>
+        <v>1.046153525877267</v>
       </c>
       <c r="QP2">
-        <v>1.046060261786329</v>
+        <v>1.046042878471349</v>
       </c>
       <c r="QQ2">
-        <v>1.046170212193314</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="QR2">
-        <v>1.046211346714372</v>
+        <v>1.046208597852287</v>
       </c>
       <c r="QS2">
-        <v>1.04627848228381</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="QT2">
-        <v>1.045760396784844</v>
+        <v>1.045890505919006</v>
       </c>
       <c r="QU2">
-        <v>1.045799725917902</v>
+        <v>1.0459111688259</v>
       </c>
       <c r="QV2">
-        <v>1.045797264281576</v>
+        <v>1.045891476369321</v>
       </c>
       <c r="QW2">
-        <v>1.046162650519125</v>
+        <v>1.046150246192866</v>
       </c>
       <c r="QX2">
-        <v>1.046058879725834</v>
+        <v>1.046041501879329</v>
       </c>
       <c r="QY2">
-        <v>1.046170212193314</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="QZ2">
-        <v>1.046278482283812</v>
+        <v>1.04626024071522</v>
       </c>
       <c r="RA2">
-        <v>1.045716700308088</v>
+        <v>1.045867548467485</v>
       </c>
       <c r="RB2">
-        <v>1.045760396784844</v>
+        <v>1.045890505919006</v>
       </c>
       <c r="RC2">
-        <v>1.045760396784844</v>
+        <v>1.045890505919006</v>
       </c>
       <c r="RD2">
-        <v>1.045796904790111</v>
+        <v>1.045888600530354</v>
       </c>
       <c r="RE2">
-        <v>1.04616004913519</v>
+        <v>1.046147961830353</v>
       </c>
       <c r="RF2">
-        <v>1.046057564345053</v>
+        <v>1.046040191703188</v>
       </c>
       <c r="RG2">
-        <v>1.046170212193314</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="RH2">
-        <v>1.046278482283817</v>
+        <v>1.046260240715219</v>
       </c>
       <c r="RI2">
-        <v>1.045700687786555</v>
+        <v>1.045859135733978</v>
       </c>
       <c r="RJ2">
-        <v>1.045716700308088</v>
+        <v>1.045867548467485</v>
       </c>
       <c r="RK2">
-        <v>1.045796708768818</v>
+        <v>1.045887032410604</v>
       </c>
       <c r="RL2">
-        <v>1.046158221345576</v>
+        <v>1.046146356786966</v>
       </c>
       <c r="RM2">
-        <v>1.046056082488795</v>
+        <v>1.046038715710271</v>
       </c>
       <c r="RN2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="RO2">
-        <v>1.046278482283817</v>
+        <v>1.046260240715219</v>
       </c>
       <c r="RP2">
-        <v>1.045674461718338</v>
+        <v>1.045843804910532</v>
       </c>
       <c r="RQ2">
-        <v>1.045700687786555</v>
+        <v>1.045859135733978</v>
       </c>
       <c r="RR2">
-        <v>1.045659166607538</v>
+        <v>1.045845744279181</v>
       </c>
       <c r="RS2">
-        <v>1.045796575979768</v>
+        <v>1.045885970132481</v>
       </c>
       <c r="RT2">
-        <v>1.046157348016786</v>
+        <v>1.046145589887652</v>
       </c>
       <c r="RU2">
-        <v>1.046054517171738</v>
+        <v>1.046037156586788</v>
       </c>
       <c r="RV2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="RW2">
-        <v>1.046278482283817</v>
+        <v>1.046260240715219</v>
       </c>
       <c r="RX2">
-        <v>1.045636873610628</v>
+        <v>1.045821832237199</v>
       </c>
       <c r="RY2">
-        <v>1.045674461718338</v>
+        <v>1.045843804910532</v>
       </c>
       <c r="RZ2">
-        <v>1.04565758476271</v>
+        <v>1.045844991160536</v>
       </c>
       <c r="SA2">
-        <v>1.045653858796184</v>
+        <v>1.045845744279181</v>
       </c>
       <c r="SB2">
-        <v>1.045796374281728</v>
+        <v>1.045884356600238</v>
       </c>
       <c r="SC2">
-        <v>1.046156794786943</v>
+        <v>1.046145104077964</v>
       </c>
       <c r="SD2">
-        <v>1.046051094647836</v>
+        <v>1.046033747604967</v>
       </c>
       <c r="SE2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="SF2">
-        <v>1.046278482283818</v>
+        <v>1.046260240715219</v>
       </c>
       <c r="SG2">
-        <v>1.045613934871797</v>
+        <v>1.045808423060718</v>
       </c>
       <c r="SH2">
-        <v>1.045636873610628</v>
+        <v>1.045821832237199</v>
       </c>
       <c r="SI2">
-        <v>1.045656916154405</v>
+        <v>1.04584467283514</v>
       </c>
       <c r="SJ2">
-        <v>1.045650462401698</v>
+        <v>1.045845744279181</v>
       </c>
       <c r="SK2">
-        <v>1.045796068185044</v>
+        <v>1.045881907905823</v>
       </c>
       <c r="SL2">
-        <v>1.046156420735414</v>
+        <v>1.046144775610765</v>
       </c>
       <c r="SM2">
-        <v>1.04597347082222</v>
+        <v>1.045956430916836</v>
       </c>
       <c r="SN2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="SO2">
-        <v>1.046278482283818</v>
+        <v>1.046260240715219</v>
       </c>
       <c r="SP2">
-        <v>1.045609984588812</v>
+        <v>1.045806113864501</v>
       </c>
       <c r="SQ2">
-        <v>1.045613934871797</v>
+        <v>1.045808423060718</v>
       </c>
       <c r="SR2">
-        <v>1.04565652329328</v>
+        <v>1.045844485793381</v>
       </c>
       <c r="SS2">
-        <v>1.04579585101956</v>
+        <v>1.045880170638049</v>
       </c>
       <c r="ST2">
-        <v>1.046155898978787</v>
+        <v>1.046144317438763</v>
       </c>
       <c r="SU2">
-        <v>1.04597347082222</v>
+        <v>1.045952715022821</v>
       </c>
       <c r="SV2">
-        <v>1.045961537313577</v>
+        <v>1.045944757324709</v>
       </c>
       <c r="SW2">
-        <v>1.046170212193313</v>
+        <v>1.046152393829879</v>
       </c>
       <c r="SX2">
-        <v>1.045601839580216</v>
+        <v>1.045803495635592</v>
       </c>
       <c r="SY2">
-        <v>1.045609984588812</v>
+        <v>1.045806113864501</v>
       </c>
       <c r="SZ2">
-        <v>1.045594566597208</v>
+        <v>1.0457839156354</v>
       </c>
       <c r="TA2">
-        <v>1.045656161742815</v>
+        <v>1.045844313658673</v>
       </c>
       <c r="TB2">
-        <v>1.045795702649523</v>
+        <v>1.045878983716097</v>
       </c>
       <c r="TC2">
-        <v>1.046155500770026</v>
+        <v>1.046143967758288</v>
       </c>
       <c r="TD2">
-        <v>1.04597347082222</v>
+        <v>1.045949438107658</v>
       </c>
       <c r="TE2">
-        <v>1.045955099525234</v>
+        <v>1.045938459753846</v>
       </c>
       <c r="TF2">
-        <v>1.046170212193313</v>
+        <v>1.046152393829879</v>
       </c>
       <c r="TG2">
-        <v>1.045595843884164</v>
+        <v>1.045801568307169</v>
       </c>
       <c r="TH2">
-        <v>1.045601839580216</v>
+        <v>1.045803495635592</v>
       </c>
       <c r="TI2">
-        <v>1.045585455788692</v>
+        <v>1.045770798245418</v>
       </c>
       <c r="TJ2">
-        <v>1.045655839631746</v>
+        <v>1.045844160301119</v>
       </c>
       <c r="TK2">
-        <v>1.045795585408078</v>
+        <v>1.045878045814836</v>
       </c>
       <c r="TL2">
-        <v>1.046152659064323</v>
+        <v>1.046141472361153</v>
       </c>
       <c r="TM2">
-        <v>1.045954138079299</v>
+        <v>1.045937519248564</v>
       </c>
       <c r="TN2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="TO2">
-        <v>1.045587680737463</v>
+        <v>1.045798944247116</v>
       </c>
       <c r="TP2">
-        <v>1.045595843884164</v>
+        <v>1.045801568307169</v>
       </c>
       <c r="TQ2">
-        <v>1.045578236874356</v>
+        <v>1.045760404731765</v>
       </c>
       <c r="TR2">
-        <v>1.045655505478105</v>
+        <v>1.045844001210078</v>
       </c>
       <c r="TS2">
-        <v>1.045795209500818</v>
+        <v>1.045875038653939</v>
       </c>
       <c r="TT2">
-        <v>1.046147649645401</v>
+        <v>1.046140188707315</v>
       </c>
       <c r="TU2">
-        <v>1.046138111384379</v>
+        <v>1.046119650478018</v>
       </c>
       <c r="TV2">
-        <v>1.045953404172374</v>
+        <v>1.045936801326406</v>
       </c>
       <c r="TW2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="TX2">
-        <v>1.045581904034331</v>
+        <v>1.04579708731397</v>
       </c>
       <c r="TY2">
-        <v>1.045587680737463</v>
+        <v>1.045798944247116</v>
       </c>
       <c r="TZ2">
-        <v>1.045575253964668</v>
+        <v>1.045756110053823</v>
       </c>
       <c r="UA2">
-        <v>1.045654496722206</v>
+        <v>1.045843520939909</v>
       </c>
       <c r="UB2">
-        <v>1.04579216897026</v>
+        <v>1.045850715197168</v>
       </c>
       <c r="UC2">
-        <v>1.046142118102738</v>
+        <v>1.046138771260255</v>
       </c>
       <c r="UD2">
-        <v>1.04595271777985</v>
+        <v>1.045936129883766</v>
       </c>
       <c r="UE2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="UF2">
-        <v>1.045565749226162</v>
+        <v>1.045791894316593</v>
       </c>
       <c r="UG2">
-        <v>1.045581904034331</v>
+        <v>1.04579708731397</v>
       </c>
       <c r="UH2">
-        <v>1.045574690814131</v>
+        <v>1.045755734686813</v>
       </c>
       <c r="UI2">
-        <v>1.045570315372532</v>
+        <v>1.045743271759716</v>
       </c>
       <c r="UJ2">
-        <v>1.045653480138637</v>
+        <v>1.045843036942974</v>
       </c>
       <c r="UK2">
-        <v>1.045792017554819</v>
+        <v>1.045849503912942</v>
       </c>
       <c r="UL2">
-        <v>1.046127124498866</v>
+        <v>1.046134929178229</v>
       </c>
       <c r="UM2">
-        <v>1.045951985827835</v>
+        <v>1.045935413873938</v>
       </c>
       <c r="UN2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="UO2">
-        <v>1.045554051561536</v>
+        <v>1.0457881340766</v>
       </c>
       <c r="UP2">
-        <v>1.045565749226162</v>
+        <v>1.045791894316593</v>
       </c>
       <c r="UQ2">
-        <v>1.045574483591777</v>
+        <v>1.045755596563114</v>
       </c>
       <c r="UR2">
-        <v>1.045566579299708</v>
+        <v>1.045733559518141</v>
       </c>
       <c r="US2">
-        <v>1.04564398157076</v>
+        <v>1.045838514660737</v>
       </c>
       <c r="UT2">
-        <v>1.045791898082751</v>
+        <v>1.045848548167409</v>
       </c>
       <c r="UU2">
-        <v>1.045951338139614</v>
+        <v>1.045934780292606</v>
       </c>
       <c r="UV2">
-        <v>1.046170212193313</v>
+        <v>1.04615239382988</v>
       </c>
       <c r="UW2">
-        <v>1.045552610587821</v>
+        <v>1.045787970468225</v>
       </c>
       <c r="UX2">
-        <v>1.045554051561536</v>
+        <v>1.0457881340766</v>
       </c>
       <c r="UY2">
-        <v>1.045535930467302</v>
+        <v>1.045777602758046</v>
       </c>
       <c r="UZ2">
-        <v>1.045574174918651</v>
+        <v>1.04575539081758</v>
       </c>
       <c r="VA2">
-        <v>1.045791763016332</v>
+        <v>1.045847467671132</v>
       </c>
       <c r="VB2">
-        <v>1.045950675669557</v>
+        <v>1.045934132251392</v>
       </c>
       <c r="VC2">
-        <v>1.045552269391711</v>
+        <v>1.045787931728766</v>
       </c>
       <c r="VD2">
-        <v>1.045552610587821</v>
+        <v>1.045787970468225</v>
       </c>
       <c r="VE2">
-        <v>1.045533639643085</v>
+        <v>1.045776271414594</v>
       </c>
       <c r="VF2">
-        <v>1.04557398918298</v>
+        <v>1.045755267015792</v>
       </c>
       <c r="VG2">
-        <v>1.045791642802943</v>
+        <v>1.045846505995246</v>
       </c>
       <c r="VH2">
-        <v>1.045947256472433</v>
+        <v>1.045930787525632</v>
       </c>
       <c r="VI2">
-        <v>1.045543019698594</v>
+        <v>1.045786881517077</v>
       </c>
       <c r="VJ2">
-        <v>1.045552269391711</v>
+        <v>1.045787931728766</v>
       </c>
       <c r="VK2">
-        <v>1.045552269391718</v>
+        <v>1.045787931728767</v>
       </c>
       <c r="VL2">
-        <v>1.045531949166764</v>
+        <v>1.045775288971429</v>
       </c>
       <c r="VM2">
-        <v>1.045573765068464</v>
+        <v>1.045755117632652</v>
       </c>
       <c r="VN2">
-        <v>1.045791504437337</v>
+        <v>1.045845399106339</v>
       </c>
       <c r="VO2">
-        <v>1.045940782884353</v>
+        <v>1.045918148154729</v>
       </c>
       <c r="VP2">
-        <v>1.045940150668497</v>
+        <v>1.045924098871331</v>
       </c>
       <c r="VQ2">
-        <v>1.045536537381932</v>
+        <v>1.045786145513643</v>
       </c>
       <c r="VR2">
-        <v>1.045543019698594</v>
+        <v>1.045786881517077</v>
       </c>
       <c r="VS2">
-        <v>1.04555226939172</v>
+        <v>1.045787931728767</v>
       </c>
       <c r="VT2">
-        <v>1.045530304320345</v>
+        <v>1.045774333046696</v>
       </c>
       <c r="VU2">
-        <v>1.04557356828641</v>
+        <v>1.045754986467917</v>
       </c>
       <c r="VV2">
-        <v>1.04579136256551</v>
+        <v>1.045844264168579</v>
       </c>
       <c r="VW2">
-        <v>1.045940409830145</v>
+        <v>1.045917419784256</v>
       </c>
       <c r="VX2">
-        <v>1.045906194254079</v>
+        <v>1.045892135881932</v>
       </c>
       <c r="VY2">
-        <v>1.045535062352672</v>
+        <v>1.045784670837615</v>
       </c>
       <c r="VZ2">
-        <v>1.045535171382814</v>
+        <v>1.045786145513643</v>
       </c>
       <c r="WA2">
-        <v>1.045552269391722</v>
+        <v>1.045787931728767</v>
       </c>
       <c r="WB2">
-        <v>1.045514853218851</v>
+        <v>1.045765353429994</v>
       </c>
       <c r="WC2">
-        <v>1.045572280610426</v>
+        <v>1.045754128169732</v>
       </c>
       <c r="WD2">
-        <v>1.045791192036135</v>
+        <v>1.045842899977891</v>
       </c>
       <c r="WE2">
-        <v>1.045940222468496</v>
+        <v>1.045917053969612</v>
       </c>
       <c r="WF2">
-        <v>1.045888277350039</v>
+        <v>1.045861078885942</v>
       </c>
       <c r="WG2">
-        <v>1.045868430395562</v>
+        <v>1.045858301391908</v>
       </c>
       <c r="WH2">
-        <v>1.045533746944429</v>
+        <v>1.045783355744378</v>
       </c>
       <c r="WI2">
-        <v>1.045535062352672</v>
+        <v>1.045784670837615</v>
       </c>
       <c r="WJ2">
-        <v>1.045535062352672</v>
+        <v>1.045784670837615</v>
       </c>
       <c r="WK2">
-        <v>1.045474352552437</v>
+        <v>1.045786145513643</v>
       </c>
       <c r="WL2">
-        <v>1.045535171382814</v>
+        <v>1.045786145513643</v>
       </c>
       <c r="WM2">
-        <v>1.045552269391724</v>
+        <v>1.045787931728768</v>
       </c>
       <c r="WN2">
-        <v>1.045507662137883</v>
+        <v>1.045761174235877</v>
       </c>
       <c r="WO2">
-        <v>1.045562786194659</v>
+        <v>1.045747799683374</v>
       </c>
       <c r="WP2">
-        <v>1.045791085126362</v>
+        <v>1.045842044727492</v>
       </c>
       <c r="WQ2">
-        <v>1.045940065355594</v>
+        <v>1.045916747214197</v>
       </c>
       <c r="WR2">
-        <v>1.045878822548417</v>
+        <v>1.045844690021053</v>
       </c>
       <c r="WS2">
-        <v>1.045832259372492</v>
+        <v>1.045825893992703</v>
       </c>
       <c r="WT2">
-        <v>1.045530877272334</v>
+        <v>1.045780486759496</v>
       </c>
       <c r="WU2">
-        <v>1.045533746944429</v>
+        <v>1.045783355744378</v>
       </c>
       <c r="WV2">
-        <v>1.045533746944429</v>
+        <v>1.045783355744378</v>
       </c>
       <c r="WW2">
-        <v>1.045460037641525</v>
+        <v>1.045786145513643</v>
       </c>
       <c r="WX2">
-        <v>1.045552269391725</v>
+        <v>1.045787931728768</v>
       </c>
       <c r="WY2">
-        <v>1.045504287071741</v>
+        <v>1.045759212770444</v>
       </c>
       <c r="WZ2">
-        <v>1.045790625664106</v>
+        <v>1.045838369148899</v>
       </c>
       <c r="XA2">
-        <v>1.04593993723552</v>
+        <v>1.04591649706589</v>
       </c>
       <c r="XB2">
-        <v>1.045828005479607</v>
+        <v>1.045820470191955</v>
       </c>
       <c r="XC2">
-        <v>1.045822859159195</v>
+        <v>1.045817766373422</v>
       </c>
       <c r="XD2">
-        <v>1.04552696811891</v>
+        <v>1.045776578542214</v>
       </c>
       <c r="XE2">
-        <v>1.045552269391726</v>
+        <v>1.045787931728768</v>
       </c>
       <c r="XF2">
-        <v>1.045502035850519</v>
+        <v>1.04575790444271</v>
       </c>
       <c r="XG2">
-        <v>1.045788688625779</v>
+        <v>1.04582287334662</v>
       </c>
       <c r="XH2">
-        <v>1.045939736124436</v>
+        <v>1.045916104406131</v>
       </c>
       <c r="XI2">
-        <v>1.045826962413221</v>
+        <v>1.045819140260908</v>
       </c>
       <c r="XJ2">
-        <v>1.045820696457292</v>
+        <v>1.045815896456425</v>
       </c>
       <c r="XK2">
-        <v>1.04552582152057</v>
+        <v>1.045775432218456</v>
       </c>
       <c r="XL2">
-        <v>1.045552269391727</v>
+        <v>1.045787931728768</v>
       </c>
       <c r="XM2">
-        <v>1.045498594152483</v>
+        <v>1.045755904253223</v>
       </c>
       <c r="XN2">
-        <v>1.045939256563427</v>
+        <v>1.045915168086236</v>
       </c>
       <c r="XO2">
-        <v>1.045826246168396</v>
+        <v>1.045818227034059</v>
       </c>
       <c r="XP2">
-        <v>1.045819623221094</v>
+        <v>1.045814968514097</v>
       </c>
       <c r="XQ2">
-        <v>1.045522026493801</v>
+        <v>1.045771638100499</v>
       </c>
       <c r="XR2">
-        <v>1.045552269391728</v>
+        <v>1.045787931728768</v>
       </c>
       <c r="XS2">
-        <v>1.045491872557009</v>
+        <v>1.045751997906814</v>
       </c>
       <c r="XT2">
-        <v>1.045938924784866</v>
+        <v>1.045914520304492</v>
       </c>
       <c r="XU2">
-        <v>1.045825253298018</v>
+        <v>1.045816961103955</v>
       </c>
       <c r="XV2">
-        <v>1.045818443818477</v>
+        <v>1.045813948778065</v>
       </c>
       <c r="XW2">
-        <v>1.045552269391729</v>
+        <v>1.045787931728769</v>
       </c>
       <c r="XX2">
-        <v>1.045490014535579</v>
+        <v>1.045750918092438</v>
       </c>
       <c r="XY2">
-        <v>1.045938502930437</v>
+        <v>1.045913696653932</v>
       </c>
       <c r="XZ2">
-        <v>1.045822898905758</v>
+        <v>1.045813959205522</v>
       </c>
       <c r="YA2">
-        <v>1.045817082963566</v>
+        <v>1.045812772154593</v>
       </c>
       <c r="YB2">
-        <v>1.04555226939173</v>
+        <v>1.045787931728769</v>
       </c>
       <c r="YC2">
-        <v>1.045489475122163</v>
+        <v>1.045750604605009</v>
       </c>
       <c r="YD2">
-        <v>1.045938246657463</v>
+        <v>1.04591319629323</v>
       </c>
       <c r="YE2">
-        <v>1.045821109179799</v>
+        <v>1.045811677268215</v>
       </c>
       <c r="YF2">
-        <v>1.045815707232008</v>
+        <v>1.045811582668447</v>
       </c>
       <c r="YG2">
-        <v>1.04555226939173</v>
+        <v>1.045787931728769</v>
       </c>
       <c r="YH2">
-        <v>1.045489408739783</v>
+        <v>1.045750468635552</v>
       </c>
       <c r="YI2">
-        <v>1.04548734227777</v>
+        <v>1.045749882379374</v>
       </c>
       <c r="YJ2">
-        <v>1.045938015297625</v>
+        <v>1.045912744574232</v>
       </c>
       <c r="YK2">
-        <v>1.045819852819384</v>
+        <v>1.04581007538292</v>
       </c>
       <c r="YL2">
-        <v>1.045814182055963</v>
+        <v>1.045810263969468</v>
       </c>
       <c r="YM2">
-        <v>1.045552269391732</v>
+        <v>1.04578793172877</v>
       </c>
       <c r="YN2">
-        <v>1.045489346611517</v>
+        <v>1.045750341379697</v>
       </c>
       <c r="YO2">
-        <v>1.045484527849537</v>
+        <v>1.045748929355212</v>
       </c>
       <c r="YP2">
-        <v>1.045937625101079</v>
+        <v>1.045911982734175</v>
       </c>
       <c r="YQ2">
-        <v>1.045818536671958</v>
+        <v>1.045808397267964</v>
       </c>
       <c r="YR2">
-        <v>1.045811964130751</v>
+        <v>1.045808346305096</v>
       </c>
       <c r="YS2">
-        <v>1.045552269391733</v>
+        <v>1.04578793172877</v>
       </c>
       <c r="YT2">
-        <v>1.045489282611387</v>
+        <v>1.045750210289746</v>
       </c>
       <c r="YU2">
-        <v>1.045472835413222</v>
+        <v>1.045744970052048</v>
       </c>
       <c r="YV2">
-        <v>1.045937241485094</v>
+        <v>1.045911233742348</v>
       </c>
       <c r="YW2">
-        <v>1.045817456101914</v>
+        <v>1.045807019519004</v>
       </c>
       <c r="YX2">
-        <v>1.045810306137716</v>
+        <v>1.04580771284795</v>
       </c>
       <c r="YY2">
-        <v>1.04580653386643</v>
+        <v>1.045803328928974</v>
       </c>
       <c r="YZ2">
-        <v>1.045552269391733</v>
+        <v>1.04578793172877</v>
       </c>
       <c r="ZA2">
-        <v>1.045488819876067</v>
+        <v>1.045749262479951</v>
       </c>
       <c r="ZB2">
-        <v>1.045467869916269</v>
+        <v>1.045743288631011</v>
       </c>
       <c r="ZC2">
-        <v>1.045937059978922</v>
+        <v>1.045910879360245</v>
       </c>
       <c r="ZD2">
-        <v>1.045815666975387</v>
+        <v>1.045804738346004</v>
       </c>
       <c r="ZE2">
-        <v>1.045809310513013</v>
+        <v>1.045807332456976</v>
       </c>
       <c r="ZF2">
-        <v>1.045772148238201</v>
+        <v>1.045771557796384</v>
       </c>
       <c r="ZG2">
-        <v>1.045552269391733</v>
+        <v>1.04578793172877</v>
       </c>
       <c r="ZH2">
-        <v>1.045485450186108</v>
+        <v>1.045742360423916</v>
       </c>
       <c r="ZI2">
-        <v>1.045936860619014</v>
+        <v>1.045910490119579</v>
       </c>
       <c r="ZJ2">
-        <v>1.045809885048743</v>
+        <v>1.045797366271043</v>
       </c>
       <c r="ZK2">
-        <v>1.045808386927007</v>
+        <v>1.045806979589294</v>
       </c>
       <c r="ZL2">
-        <v>1.045747535128896</v>
+        <v>1.045748816130216</v>
       </c>
       <c r="ZM2">
-        <v>1.045936669276185</v>
+        <v>1.045910116531876</v>
       </c>
       <c r="ZN2">
-        <v>1.045796374861559</v>
+        <v>1.045780140505776</v>
       </c>
       <c r="ZO2">
-        <v>1.045807485753714</v>
+        <v>1.04580663528467</v>
       </c>
       <c r="ZP2">
-        <v>1.045736390505749</v>
+        <v>1.04573793686649</v>
       </c>
       <c r="ZQ2">
-        <v>1.045680544523686</v>
+        <v>1.045687098309949</v>
       </c>
       <c r="ZR2">
-        <v>1.045936438518323</v>
+        <v>1.04590966598821</v>
       </c>
       <c r="ZS2">
-        <v>1.045806809813341</v>
+        <v>1.045806377033124</v>
       </c>
       <c r="ZT2">
-        <v>1.045736390505758</v>
+        <v>1.0457379368665</v>
       </c>
       <c r="ZU2">
-        <v>1.045733481231589</v>
+        <v>1.045735096863692</v>
       </c>
       <c r="ZV2">
-        <v>1.045668187167548</v>
+        <v>1.045674741005922</v>
       </c>
       <c r="ZW2">
-        <v>1.045667281757817</v>
+        <v>1.045674932984533</v>
       </c>
       <c r="ZX2">
-        <v>1.045936070430305</v>
+        <v>1.045908947313997</v>
       </c>
       <c r="ZY2">
-        <v>1.045805736037563</v>
+        <v>1.045805966783542</v>
       </c>
       <c r="ZZ2">
-        <v>1.04573639050576</v>
+        <v>1.045737936866503</v>
       </c>
       <c r="AAA2">
-        <v>1.045727554582964</v>
+        <v>1.045729311331712</v>
       </c>
       <c r="AAB2">
-        <v>1.045661028224064</v>
+        <v>1.045667582092628</v>
       </c>
       <c r="AAC2">
-        <v>1.045642411429888</v>
+        <v>1.045652120582086</v>
       </c>
       <c r="AAD2">
-        <v>1.045935063014321</v>
+        <v>1.045906980382582</v>
       </c>
       <c r="AAE2">
-        <v>1.045803925609954</v>
+        <v>1.04580527508683</v>
       </c>
       <c r="AAF2">
-        <v>1.045736390505762</v>
+        <v>1.045737936866505</v>
       </c>
       <c r="AAG2">
-        <v>1.04557680772777</v>
+        <v>1.045591945332449</v>
       </c>
       <c r="AAH2">
-        <v>1.045642411429888</v>
+        <v>1.045652120582087</v>
       </c>
       <c r="AAI2">
-        <v>1.045933722328566</v>
+        <v>1.045904362757932</v>
       </c>
       <c r="AAJ2">
-        <v>1.045790360180961</v>
+        <v>1.045800092243381</v>
       </c>
       <c r="AAK2">
-        <v>1.045736390505763</v>
+        <v>1.045737936866506</v>
       </c>
       <c r="AAL2">
-        <v>1.045517658028767</v>
+        <v>1.045528708914003</v>
       </c>
       <c r="AAM2">
-        <v>1.045552832749098</v>
+        <v>1.045581533286278</v>
       </c>
       <c r="AAN2">
-        <v>1.045642411429889</v>
+        <v>1.045652120582087</v>
       </c>
       <c r="AAO2">
-        <v>1.045933594632608</v>
+        <v>1.045904113437699</v>
       </c>
       <c r="AAP2">
-        <v>1.045779231495577</v>
+        <v>1.045795840388416</v>
       </c>
       <c r="AAQ2">
-        <v>1.045736390505764</v>
+        <v>1.045737936866507</v>
       </c>
       <c r="AAR2">
-        <v>1.045456609163486</v>
+        <v>1.045463442120366</v>
       </c>
       <c r="AAS2">
-        <v>1.045550266171915</v>
+        <v>1.045580418652492</v>
       </c>
       <c r="AAT2">
-        <v>1.045642411429889</v>
+        <v>1.045652120582087</v>
       </c>
       <c r="AAU2">
-        <v>1.045933493643383</v>
+        <v>1.045903916261081</v>
       </c>
       <c r="AAV2">
-        <v>1.045775705541468</v>
+        <v>1.045794493253031</v>
       </c>
       <c r="AAW2">
-        <v>1.045736390505764</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="AAX2">
-        <v>1.045433618001561</v>
+        <v>1.045439565199295</v>
       </c>
       <c r="AAY2">
-        <v>1.045437874438006</v>
+        <v>1.04543846244788</v>
       </c>
       <c r="AAZ2">
-        <v>1.045549286217212</v>
+        <v>1.045579993069879</v>
       </c>
       <c r="ABA2">
-        <v>1.045642411429888</v>
+        <v>1.045652120582087</v>
       </c>
       <c r="ABB2">
-        <v>1.045933395558641</v>
+        <v>1.045903724755325</v>
       </c>
       <c r="ABC2">
-        <v>1.045772495610825</v>
+        <v>1.045793266858397</v>
       </c>
       <c r="ABD2">
-        <v>1.045736390505765</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ABE2">
-        <v>1.04540237661291</v>
+        <v>1.045407120203501</v>
       </c>
       <c r="ABF2">
-        <v>1.045435361309339</v>
+        <v>1.045435111604558</v>
       </c>
       <c r="ABG2">
-        <v>1.045548249619095</v>
+        <v>1.045579542887705</v>
       </c>
       <c r="ABH2">
-        <v>1.045642411429887</v>
+        <v>1.045652120582087</v>
       </c>
       <c r="ABI2">
-        <v>1.04593329049931</v>
+        <v>1.045903519632019</v>
       </c>
       <c r="ABJ2">
-        <v>1.045770747310824</v>
+        <v>1.045792598898245</v>
       </c>
       <c r="ABK2">
-        <v>1.045736390505765</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ABL2">
-        <v>1.045365799273014</v>
+        <v>1.045369133684581</v>
       </c>
       <c r="ABM2">
-        <v>1.045434040969846</v>
+        <v>1.045433351149228</v>
       </c>
       <c r="ABN2">
-        <v>1.045547389332609</v>
+        <v>1.045579169275565</v>
       </c>
       <c r="ABO2">
-        <v>1.045642411429886</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ABP2">
-        <v>1.045933193364025</v>
+        <v>1.045903329980033</v>
       </c>
       <c r="ABQ2">
-        <v>1.045769351019248</v>
+        <v>1.045792065427366</v>
       </c>
       <c r="ABR2">
-        <v>1.045736390505765</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ABS2">
-        <v>1.045336429162912</v>
+        <v>1.045338632062222</v>
       </c>
       <c r="ABT2">
-        <v>1.045429045436882</v>
+        <v>1.045428477456094</v>
       </c>
       <c r="ABU2">
-        <v>1.045433959450583</v>
+        <v>1.04543318413347</v>
       </c>
       <c r="ABV2">
-        <v>1.04554637054191</v>
+        <v>1.045578726826938</v>
       </c>
       <c r="ABW2">
-        <v>1.045642411429884</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ABX2">
-        <v>1.045933101824286</v>
+        <v>1.045903151253082</v>
       </c>
       <c r="ABY2">
-        <v>1.045768160379513</v>
+        <v>1.045791610528375</v>
       </c>
       <c r="ABZ2">
-        <v>1.045736390505766</v>
+        <v>1.045737936866509</v>
       </c>
       <c r="ACA2">
-        <v>1.04532717411997</v>
+        <v>1.045328967084716</v>
       </c>
       <c r="ACB2">
-        <v>1.045320889320131</v>
+        <v>1.045322995764775</v>
       </c>
       <c r="ACC2">
-        <v>1.045424984687441</v>
+        <v>1.045424515747338</v>
       </c>
       <c r="ACD2">
-        <v>1.04543390050044</v>
+        <v>1.045433063357071</v>
       </c>
       <c r="ACE2">
-        <v>1.045545376973336</v>
+        <v>1.045578295331978</v>
       </c>
       <c r="ACF2">
-        <v>1.045642411429883</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ACG2">
-        <v>1.045932974510025</v>
+        <v>1.045902902678093</v>
       </c>
       <c r="ACH2">
-        <v>1.045766763155442</v>
+        <v>1.045791076701219</v>
       </c>
       <c r="ACI2">
-        <v>1.045736390505766</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ACJ2">
-        <v>1.045314414109058</v>
+        <v>1.04531564189349</v>
       </c>
       <c r="ACK2">
-        <v>1.045307900050841</v>
+        <v>1.045309925872048</v>
       </c>
       <c r="ACL2">
-        <v>1.045433850751775</v>
+        <v>1.045432961432559</v>
       </c>
       <c r="ACM2">
-        <v>1.045544011029302</v>
+        <v>1.045577702118801</v>
       </c>
       <c r="ACN2">
-        <v>1.045642411429881</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ACO2">
-        <v>1.045932818491611</v>
+        <v>1.045902598059623</v>
       </c>
       <c r="ACP2">
-        <v>1.045765486456169</v>
+        <v>1.045790588922086</v>
       </c>
       <c r="ACQ2">
-        <v>1.045736390505765</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ACR2">
-        <v>1.045283024102726</v>
+        <v>1.045282861527567</v>
       </c>
       <c r="ACS2">
-        <v>1.045300858467607</v>
+        <v>1.045305114147139</v>
       </c>
       <c r="ACT2">
-        <v>1.045307812935951</v>
+        <v>1.04530975589151</v>
       </c>
       <c r="ACU2">
-        <v>1.045433766720524</v>
+        <v>1.045432789270268</v>
       </c>
       <c r="ACV2">
-        <v>1.045542131952162</v>
+        <v>1.045576886058041</v>
       </c>
       <c r="ACW2">
-        <v>1.04564241142988</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ACX2">
-        <v>1.045932079004807</v>
+        <v>1.045901154247105</v>
       </c>
       <c r="ACY2">
-        <v>1.045763505809461</v>
+        <v>1.045789832190914</v>
       </c>
       <c r="ACZ2">
-        <v>1.045736390505765</v>
+        <v>1.045737936866508</v>
       </c>
       <c r="ADA2">
-        <v>1.045257582066368</v>
+        <v>1.045256292586255</v>
       </c>
       <c r="ADB2">
-        <v>1.04529395847134</v>
+        <v>1.04530039917279</v>
       </c>
       <c r="ADC2">
-        <v>1.045307729642942</v>
+        <v>1.04530959336831</v>
       </c>
       <c r="ADD2">
-        <v>1.045433649044706</v>
+        <v>1.04543254817736</v>
       </c>
       <c r="ADE2">
-        <v>1.045540143356499</v>
+        <v>1.04557602243469</v>
       </c>
       <c r="ADF2">
-        <v>1.04564241142988</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ADG2">
-        <v>1.045925756182412</v>
+        <v>1.045888809239872</v>
       </c>
       <c r="ADH2">
-        <v>1.045759507080868</v>
+        <v>1.045788304425968</v>
       </c>
       <c r="ADI2">
-        <v>1.045237702413501</v>
+        <v>1.045235532403782</v>
       </c>
       <c r="ADJ2">
-        <v>1.045307639848726</v>
+        <v>1.04530941815981</v>
       </c>
       <c r="ADK2">
-        <v>1.045433561726495</v>
+        <v>1.045432369280781</v>
       </c>
       <c r="ADL2">
-        <v>1.045538822386847</v>
+        <v>1.045575448753341</v>
       </c>
       <c r="ADM2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ADN2">
-        <v>1.045759033802697</v>
+        <v>1.045788073426906</v>
       </c>
       <c r="ADO2">
-        <v>1.045755207602054</v>
+        <v>1.045786960891867</v>
       </c>
       <c r="ADP2">
-        <v>1.045219735058038</v>
+        <v>1.0452167692205</v>
       </c>
       <c r="ADQ2">
-        <v>1.045307559669352</v>
+        <v>1.045309261712005</v>
       </c>
       <c r="ADR2">
-        <v>1.045433417080243</v>
+        <v>1.045432072931149</v>
       </c>
       <c r="ADS2">
-        <v>1.045537477957625</v>
+        <v>1.045574864883778</v>
       </c>
       <c r="ADT2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="ADU2">
-        <v>1.045758621059479</v>
+        <v>1.045787871973928</v>
       </c>
       <c r="ADV2">
-        <v>1.045748327810777</v>
+        <v>1.0457848110419</v>
       </c>
       <c r="ADW2">
-        <v>1.045218904198822</v>
+        <v>1.045214986765361</v>
       </c>
       <c r="ADX2">
-        <v>1.045211367197407</v>
+        <v>1.045211523768474</v>
       </c>
       <c r="ADY2">
-        <v>1.045307471124595</v>
+        <v>1.045309088941476</v>
       </c>
       <c r="ADZ2">
-        <v>1.04543241308786</v>
+        <v>1.045430015962735</v>
       </c>
       <c r="AEA2">
-        <v>1.045536835128272</v>
+        <v>1.045574585710662</v>
       </c>
       <c r="AEB2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="AEC2">
-        <v>1.045758279702047</v>
+        <v>1.045787705363144</v>
       </c>
       <c r="AED2">
-        <v>1.045742449702623</v>
+        <v>1.045782974205516</v>
       </c>
       <c r="AEE2">
-        <v>1.045218071156832</v>
+        <v>1.045213199627494</v>
       </c>
       <c r="AEF2">
-        <v>1.045197997455312</v>
+        <v>1.0452031428464</v>
       </c>
       <c r="AEG2">
-        <v>1.045211367197407</v>
+        <v>1.045211523768474</v>
       </c>
       <c r="AEH2">
-        <v>1.045307414036879</v>
+        <v>1.045308977550638</v>
       </c>
       <c r="AEI2">
-        <v>1.045430195392478</v>
+        <v>1.045425472373172</v>
       </c>
       <c r="AEJ2">
-        <v>1.045535812630278</v>
+        <v>1.045574141651986</v>
       </c>
       <c r="AEK2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="AEL2">
-        <v>1.045758014245925</v>
+        <v>1.045787575798505</v>
       </c>
       <c r="AEM2">
-        <v>1.045739122923936</v>
+        <v>1.045781934628141</v>
       </c>
       <c r="AEN2">
-        <v>1.045217236497983</v>
+        <v>1.045211409020963</v>
       </c>
       <c r="AEO2">
-        <v>1.045186787380338</v>
+        <v>1.045196115726904</v>
       </c>
       <c r="AEP2">
-        <v>1.045197997455312</v>
+        <v>1.0452031428464</v>
       </c>
       <c r="AEQ2">
-        <v>1.04530732635405</v>
+        <v>1.04530880646192</v>
       </c>
       <c r="AER2">
-        <v>1.045534852731759</v>
+        <v>1.045573724779514</v>
       </c>
       <c r="AES2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="AET2">
-        <v>1.045757744260618</v>
+        <v>1.045787444023247</v>
       </c>
       <c r="AEU2">
-        <v>1.045216406891836</v>
+        <v>1.04520962925408</v>
       </c>
       <c r="AEV2">
-        <v>1.045174736835994</v>
+        <v>1.045188561752085</v>
       </c>
       <c r="AEW2">
-        <v>1.045186787380338</v>
+        <v>1.045196115726904</v>
       </c>
       <c r="AEX2">
-        <v>1.045306605140597</v>
+        <v>1.04530739921395</v>
       </c>
       <c r="AEY2">
-        <v>1.045533481196392</v>
+        <v>1.045573129138068</v>
       </c>
       <c r="AEZ2">
-        <v>1.045642411429879</v>
+        <v>1.045652120582088</v>
       </c>
       <c r="AFA2">
-        <v>1.045757509961374</v>
+        <v>1.045787329665752</v>
       </c>
       <c r="AFB2">
-        <v>1.045215574132785</v>
+        <v>1.045207842723236</v>
       </c>
       <c r="AFC2">
-        <v>1.045164842913662</v>
+        <v>1.045182359671455</v>
       </c>
       <c r="AFD2">
-        <v>1.045174736835994</v>
+        <v>1.045188561752085</v>
       </c>
       <c r="AFE2">
-        <v>1.045304119513134</v>
+        <v>1.045302549201572</v>
       </c>
       <c r="AFF2">
-        <v>1.045519003709581</v>
+        <v>1.045566841738119</v>
       </c>
       <c r="AFG2">
-        <v>1.045757341684086</v>
+        <v>1.045787247532456</v>
       </c>
       <c r="AFH2">
-        <v>1.045214741939653</v>
+        <v>1.045206057406473</v>
       </c>
       <c r="AFI2">
-        <v>1.045154220700453</v>
+        <v>1.045175701055515</v>
       </c>
       <c r="AFJ2">
-        <v>1.045164842913662</v>
+        <v>1.045182359671455</v>
       </c>
       <c r="AFK2">
-        <v>1.045513213079986</v>
+        <v>1.045564326936631</v>
       </c>
       <c r="AFL2">
-        <v>1.045757146313845</v>
+        <v>1.045787152175548</v>
       </c>
       <c r="AFM2">
-        <v>1.04521390922108</v>
+        <v>1.045204270962483</v>
       </c>
       <c r="AFN2">
-        <v>1.045098177078611</v>
+        <v>1.045140569663282</v>
       </c>
       <c r="AFO2">
-        <v>1.045154220700454</v>
+        <v>1.045175701055514</v>
       </c>
       <c r="AFP2">
-        <v>1.045154220700453</v>
+        <v>1.045175701055515</v>
       </c>
       <c r="AFQ2">
-        <v>1.045510272608559</v>
+        <v>1.045563049924883</v>
       </c>
       <c r="AFR2">
-        <v>1.045756851985949</v>
+        <v>1.045787008519085</v>
       </c>
       <c r="AFS2">
-        <v>1.045213502744788</v>
+        <v>1.045203398942633</v>
       </c>
       <c r="AFT2">
-        <v>1.04508997773396</v>
+        <v>1.045135429838291</v>
       </c>
       <c r="AFU2">
-        <v>1.045154220700456</v>
+        <v>1.045175701055513</v>
       </c>
       <c r="AFV2">
-        <v>1.045154220700454</v>
+        <v>1.045175701055514</v>
       </c>
       <c r="AFW2">
-        <v>1.045509621939193</v>
+        <v>1.045562767346918</v>
       </c>
       <c r="AFX2">
-        <v>1.045756371113534</v>
+        <v>1.045786773813399</v>
       </c>
       <c r="AFY2">
-        <v>1.045204367133284</v>
+        <v>1.045183800175159</v>
       </c>
       <c r="AFZ2">
-        <v>1.045066878331647</v>
+        <v>1.04512094979222</v>
       </c>
       <c r="AGA2">
-        <v>1.045154220700457</v>
+        <v>1.045175701055511</v>
       </c>
       <c r="AGB2">
-        <v>1.045154220700456</v>
+        <v>1.045175701055513</v>
       </c>
       <c r="AGC2">
-        <v>1.045509109505165</v>
+        <v>1.045562544802916</v>
       </c>
       <c r="AGD2">
-        <v>1.045754533645542</v>
+        <v>1.045786773813399</v>
       </c>
       <c r="AGE2">
-        <v>1.045750988995064</v>
+        <v>1.045781758793713</v>
       </c>
       <c r="AGF2">
-        <v>1.045198426419498</v>
+        <v>1.045171055471378</v>
       </c>
       <c r="AGG2">
-        <v>1.045039753841347</v>
+        <v>1.045103946586684</v>
       </c>
       <c r="AGH2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGI2">
-        <v>1.045154220700457</v>
+        <v>1.045175701055511</v>
       </c>
       <c r="AGJ2">
-        <v>1.04550856046566</v>
+        <v>1.045562306361591</v>
       </c>
       <c r="AGK2">
-        <v>1.045193230669866</v>
+        <v>1.04515990895094</v>
       </c>
       <c r="AGL2">
-        <v>1.045036235209436</v>
+        <v>1.045101740903834</v>
       </c>
       <c r="AGM2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGN2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGO2">
-        <v>1.045508121193949</v>
+        <v>1.045562115591112</v>
       </c>
       <c r="AGP2">
-        <v>1.045187780670576</v>
+        <v>1.045148216985258</v>
       </c>
       <c r="AGQ2">
-        <v>1.045035694234145</v>
+        <v>1.045099522958624</v>
       </c>
       <c r="AGR2">
-        <v>1.045027598792795</v>
+        <v>1.0451005072861</v>
       </c>
       <c r="AGS2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGT2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGU2">
-        <v>1.045507694679135</v>
+        <v>1.045561930360801</v>
       </c>
       <c r="AGV2">
-        <v>1.045178474886989</v>
+        <v>1.045128253148308</v>
       </c>
       <c r="AGW2">
-        <v>1.045035193655251</v>
+        <v>1.04509747063466</v>
       </c>
       <c r="AGX2">
-        <v>1.045007387253345</v>
+        <v>1.045097620288417</v>
       </c>
       <c r="AGY2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AGZ2">
-        <v>1.045154220700458</v>
+        <v>1.04517570105551</v>
       </c>
       <c r="AHA2">
-        <v>1.045507269246132</v>
+        <v>1.045561745600308</v>
       </c>
       <c r="AHB2">
-        <v>1.045176192379038</v>
+        <v>1.045123356449985</v>
       </c>
       <c r="AHC2">
-        <v>1.045034432481143</v>
+        <v>1.04509434989612</v>
       </c>
       <c r="AHD2">
-        <v>1.044959439444995</v>
+        <v>1.045090771466749</v>
       </c>
       <c r="AHE2">
-        <v>1.045506848790718</v>
+        <v>1.045561563001522</v>
       </c>
       <c r="AHF2">
-        <v>1.045175380139028</v>
+        <v>1.045121691255284</v>
       </c>
       <c r="AHG2">
-        <v>1.045169666779396</v>
+        <v>1.045109061195162</v>
       </c>
       <c r="AHH2">
-        <v>1.045033470565181</v>
+        <v>1.045090406135882</v>
       </c>
       <c r="AHI2">
-        <v>1.045499330174474</v>
+        <v>1.045558297755859</v>
       </c>
       <c r="AHJ2">
-        <v>1.045174046507543</v>
+        <v>1.045118957142163</v>
       </c>
       <c r="AHK2">
-        <v>1.045164132193365</v>
+        <v>1.045096936897645</v>
       </c>
       <c r="AHL2">
-        <v>1.045029725845002</v>
+        <v>1.04507505315428</v>
       </c>
       <c r="AHM2">
-        <v>1.045483385130938</v>
+        <v>1.045550515588132</v>
       </c>
       <c r="AHN2">
-        <v>1.045488445398679</v>
+        <v>1.045554050307228</v>
       </c>
       <c r="AHO2">
-        <v>1.045173782819333</v>
+        <v>1.045118416548003</v>
       </c>
       <c r="AHP2">
-        <v>1.045154829691468</v>
+        <v>1.045076558446698</v>
       </c>
       <c r="AHQ2">
-        <v>1.045022923314962</v>
+        <v>1.045047163457297</v>
       </c>
       <c r="AHR2">
-        <v>1.045472795799351</v>
+        <v>1.045545347338985</v>
       </c>
       <c r="AHS2">
-        <v>1.045173560008475</v>
+        <v>1.045117959757583</v>
       </c>
       <c r="AHT2">
-        <v>1.045173372246506</v>
+        <v>1.045117574821816</v>
       </c>
       <c r="AHU2">
-        <v>1.045173127999494</v>
+        <v>1.045117074084573</v>
       </c>
       <c r="AHV2">
-        <v>1.045172685950446</v>
+        <v>1.045116167828157</v>
       </c>
       <c r="AHW2">
-        <v>1.045171919516561</v>
+        <v>1.045114596541835</v>
       </c>
       <c r="AHX2">
-        <v>1.045165641616996</v>
+        <v>1.045101726054623</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049456687264031</v>
+        <v>1.049859915982037</v>
       </c>
       <c r="D3">
-        <v>1.049167449364949</v>
+        <v>1.049781970351539</v>
       </c>
       <c r="E3">
-        <v>1.049137126912086</v>
+        <v>1.049773798846498</v>
       </c>
       <c r="F3">
-        <v>1.049108719552558</v>
+        <v>1.049766143430382</v>
       </c>
       <c r="G3">
-        <v>1.049083952428064</v>
+        <v>1.049759469007608</v>
       </c>
       <c r="H3">
-        <v>1.049044934508798</v>
+        <v>1.049748954172653</v>
       </c>
       <c r="I3">
-        <v>1.04638807375191</v>
+        <v>1.049032947835463</v>
       </c>
       <c r="J3">
-        <v>1.046269080818793</v>
+        <v>1.049000879288509</v>
       </c>
       <c r="K3">
-        <v>1.046170041016532</v>
+        <v>1.048974188053543</v>
       </c>
       <c r="L3">
-        <v>1.046083125876589</v>
+        <v>1.048950764379663</v>
       </c>
       <c r="M3">
-        <v>1.04601827086417</v>
+        <v>1.048933285899046</v>
       </c>
       <c r="N3">
-        <v>1.045957388054137</v>
+        <v>1.048916877913066</v>
       </c>
       <c r="O3">
-        <v>1.045919950727624</v>
+        <v>1.048906788503041</v>
       </c>
       <c r="P3">
-        <v>1.045826748700879</v>
+        <v>1.048881670403573</v>
       </c>
       <c r="Q3">
-        <v>1.045071741771491</v>
+        <v>1.048678193348444</v>
       </c>
       <c r="R3">
-        <v>1.045071741771494</v>
+        <v>1.048678193348446</v>
       </c>
       <c r="S3">
-        <v>1.044156184574008</v>
+        <v>1.048431443963167</v>
       </c>
       <c r="T3">
-        <v>1.045071741771495</v>
+        <v>1.048678193348447</v>
       </c>
       <c r="U3">
-        <v>1.044093189371838</v>
+        <v>1.048414466153968</v>
       </c>
       <c r="V3">
-        <v>1.045071741771496</v>
+        <v>1.048678193348447</v>
       </c>
       <c r="W3">
-        <v>1.044022453222733</v>
+        <v>1.048395402064088</v>
       </c>
       <c r="X3">
-        <v>1.045071741771497</v>
+        <v>1.048678193348448</v>
       </c>
       <c r="Y3">
-        <v>1.04390728070834</v>
+        <v>1.048364361886832</v>
       </c>
       <c r="Z3">
-        <v>1.045071741771498</v>
+        <v>1.048678193348449</v>
       </c>
       <c r="AA3">
-        <v>1.043697754814424</v>
+        <v>1.048307892348691</v>
       </c>
       <c r="AB3">
-        <v>1.045071741771498</v>
+        <v>1.04867819334845</v>
       </c>
       <c r="AC3">
-        <v>1.04328591697882</v>
+        <v>1.048232655198188</v>
       </c>
       <c r="AD3">
-        <v>1.041341848827846</v>
+        <v>1.047649524426056</v>
       </c>
       <c r="AE3">
-        <v>1.045071741771499</v>
+        <v>1.048678193348451</v>
       </c>
       <c r="AF3">
-        <v>1.043173565608821</v>
+        <v>1.048215314584434</v>
       </c>
       <c r="AG3">
-        <v>1.043284856089992</v>
+        <v>1.048229358754366</v>
       </c>
       <c r="AH3">
-        <v>1.040714691010774</v>
+        <v>1.047474258161494</v>
       </c>
       <c r="AI3">
-        <v>1.045071741771499</v>
+        <v>1.048678193348453</v>
       </c>
       <c r="AJ3">
-        <v>1.042916273304674</v>
+        <v>1.048175603360769</v>
       </c>
       <c r="AK3">
-        <v>1.0432848201629</v>
+        <v>1.048229247120013</v>
       </c>
       <c r="AL3">
-        <v>1.040672320435278</v>
+        <v>1.047455631739466</v>
       </c>
       <c r="AM3">
-        <v>1.038841410466657</v>
+        <v>1.046954425511184</v>
       </c>
       <c r="AN3">
-        <v>1.0450717417715</v>
+        <v>1.048678193348456</v>
       </c>
       <c r="AO3">
-        <v>1.04328476850624</v>
+        <v>1.048229086610003</v>
       </c>
       <c r="AP3">
-        <v>1.040671246493018</v>
+        <v>1.047455371502536</v>
       </c>
       <c r="AQ3">
-        <v>1.040663804729226</v>
+        <v>1.047450931487014</v>
       </c>
       <c r="AR3">
-        <v>1.037541526859509</v>
+        <v>1.046593700032605</v>
       </c>
       <c r="AS3">
-        <v>1.038841410466653</v>
+        <v>1.046954425511184</v>
       </c>
       <c r="AT3">
-        <v>1.0450717417715</v>
+        <v>1.048678193348456</v>
       </c>
       <c r="AU3">
-        <v>1.0432847022601</v>
+        <v>1.04822888076687</v>
       </c>
       <c r="AV3">
-        <v>1.040670762435107</v>
+        <v>1.047455254205964</v>
       </c>
       <c r="AW3">
-        <v>1.040643314329441</v>
+        <v>1.04743962178999</v>
       </c>
       <c r="AX3">
-        <v>1.036559287255556</v>
+        <v>1.046321117393265</v>
       </c>
       <c r="AY3">
-        <v>1.038841410466652</v>
+        <v>1.046954425511183</v>
       </c>
       <c r="AZ3">
-        <v>1.045071741771501</v>
+        <v>1.048678193348457</v>
       </c>
       <c r="BA3">
-        <v>1.043284540920911</v>
+        <v>1.048228379446129</v>
       </c>
       <c r="BB3">
-        <v>1.040670249437347</v>
+        <v>1.047455129896708</v>
       </c>
       <c r="BC3">
-        <v>1.036417669979492</v>
+        <v>1.046281816616217</v>
       </c>
       <c r="BD3">
-        <v>1.036559287255556</v>
+        <v>1.046321117393269</v>
       </c>
       <c r="BE3">
-        <v>1.03884141046665</v>
+        <v>1.046954425511183</v>
       </c>
       <c r="BF3">
-        <v>1.045071741771502</v>
+        <v>1.048678193348457</v>
       </c>
       <c r="BG3">
-        <v>1.043284402785108</v>
+        <v>1.048227950224045</v>
       </c>
       <c r="BH3">
-        <v>1.040669760842484</v>
+        <v>1.047455011500745</v>
       </c>
       <c r="BI3">
-        <v>1.035776187094221</v>
+        <v>1.046103794945798</v>
       </c>
       <c r="BJ3">
-        <v>1.036559287255556</v>
+        <v>1.04632111739327</v>
       </c>
       <c r="BK3">
-        <v>1.038841410466649</v>
+        <v>1.046954425511182</v>
       </c>
       <c r="BL3">
-        <v>1.045071741771504</v>
+        <v>1.048678193348457</v>
       </c>
       <c r="BM3">
-        <v>1.043283740611601</v>
+        <v>1.048225892687291</v>
       </c>
       <c r="BN3">
-        <v>1.040669468222489</v>
+        <v>1.047454940593273</v>
       </c>
       <c r="BO3">
-        <v>1.035646803193233</v>
+        <v>1.046068182457718</v>
       </c>
       <c r="BP3">
-        <v>1.035737068951649</v>
+        <v>1.046081739717622</v>
       </c>
       <c r="BQ3">
-        <v>1.036559287255555</v>
+        <v>1.04632111739327</v>
       </c>
       <c r="BR3">
-        <v>1.038841410466647</v>
+        <v>1.046954425511182</v>
       </c>
       <c r="BS3">
-        <v>1.045071741771505</v>
+        <v>1.048678193348459</v>
       </c>
       <c r="BT3">
-        <v>1.043281400055273</v>
+        <v>1.048218620000396</v>
       </c>
       <c r="BU3">
-        <v>1.040668894123543</v>
+        <v>1.047454801478021</v>
       </c>
       <c r="BV3">
-        <v>1.034118209729109</v>
+        <v>1.045647436211177</v>
       </c>
       <c r="BW3">
-        <v>1.035726446343099</v>
+        <v>1.046076480967609</v>
       </c>
       <c r="BX3">
-        <v>1.035728570885797</v>
+        <v>1.046076218025751</v>
       </c>
       <c r="BY3">
-        <v>1.036559287255555</v>
+        <v>1.04632111739327</v>
       </c>
       <c r="BZ3">
-        <v>1.038841410466644</v>
+        <v>1.046954425511182</v>
       </c>
       <c r="CA3">
-        <v>1.045071741771511</v>
+        <v>1.048678193348464</v>
       </c>
       <c r="CB3">
-        <v>1.040665984568112</v>
+        <v>1.047454096436591</v>
       </c>
       <c r="CC3">
-        <v>1.033585394311849</v>
+        <v>1.045500775855195</v>
       </c>
       <c r="CD3">
-        <v>1.036559287255555</v>
+        <v>1.046321117393271</v>
       </c>
       <c r="CE3">
-        <v>1.038841410466634</v>
+        <v>1.04695442551118</v>
       </c>
       <c r="CF3">
-        <v>1.045071741771518</v>
+        <v>1.048678193348472</v>
       </c>
       <c r="CG3">
-        <v>1.040655020715225</v>
+        <v>1.047451439683376</v>
       </c>
       <c r="CH3">
-        <v>1.033469117423113</v>
+        <v>1.045468769826842</v>
       </c>
       <c r="CI3">
-        <v>1.036559287255555</v>
+        <v>1.046321117393271</v>
       </c>
       <c r="CJ3">
-        <v>1.038841410466613</v>
+        <v>1.046954425511176</v>
       </c>
       <c r="CK3">
-        <v>1.045071741771522</v>
+        <v>1.048678193348477</v>
       </c>
       <c r="CL3">
-        <v>1.033233327205473</v>
+        <v>1.045403866720034</v>
       </c>
       <c r="CM3">
-        <v>1.036559287255555</v>
+        <v>1.046321117393271</v>
       </c>
       <c r="CN3">
-        <v>1.038841410466608</v>
+        <v>1.046954425511175</v>
       </c>
       <c r="CO3">
-        <v>1.045071741771524</v>
+        <v>1.048678193348478</v>
       </c>
       <c r="CP3">
-        <v>1.033010967263929</v>
+        <v>1.045342660159807</v>
       </c>
       <c r="CQ3">
-        <v>1.038841410466607</v>
+        <v>1.046954425511175</v>
       </c>
       <c r="CR3">
-        <v>1.045071741771524</v>
+        <v>1.048678193348479</v>
       </c>
       <c r="CS3">
-        <v>1.032881723880589</v>
+        <v>1.045307084655886</v>
       </c>
       <c r="CT3">
-        <v>1.038841410466606</v>
+        <v>1.046954425511175</v>
       </c>
       <c r="CU3">
-        <v>1.045071741771525</v>
+        <v>1.048678193348479</v>
       </c>
       <c r="CV3">
-        <v>1.032796368492931</v>
+        <v>1.045283589707931</v>
       </c>
       <c r="CW3">
-        <v>1.038841410466606</v>
+        <v>1.046954425511175</v>
       </c>
       <c r="CX3">
-        <v>1.045071741771525</v>
+        <v>1.048678193348479</v>
       </c>
       <c r="CY3">
-        <v>1.032678516793301</v>
+        <v>1.045251149758983</v>
       </c>
       <c r="CZ3">
-        <v>1.038841410466573</v>
+        <v>1.046954425511159</v>
       </c>
       <c r="DA3">
-        <v>1.045071741771525</v>
+        <v>1.048678193348479</v>
       </c>
       <c r="DB3">
-        <v>1.032678200846928</v>
+        <v>1.045250500675005</v>
       </c>
       <c r="DC3">
-        <v>1.032602548894204</v>
+        <v>1.045233520846494</v>
       </c>
       <c r="DD3">
-        <v>1.038841410466572</v>
+        <v>1.046954425511158</v>
       </c>
       <c r="DE3">
-        <v>1.032677818595472</v>
+        <v>1.045249715373237</v>
       </c>
       <c r="DF3">
-        <v>1.032559471389539</v>
+        <v>1.045223524382218</v>
       </c>
       <c r="DG3">
-        <v>1.03884141046657</v>
+        <v>1.046954425511157</v>
       </c>
       <c r="DH3">
-        <v>1.032677375538873</v>
+        <v>1.045248805152903</v>
       </c>
       <c r="DI3">
-        <v>1.030859783458236</v>
+        <v>1.044829092483028</v>
       </c>
       <c r="DJ3">
-        <v>1.038841410466501</v>
+        <v>1.046954425511124</v>
       </c>
       <c r="DK3">
-        <v>1.032676700009202</v>
+        <v>1.045247417337785</v>
       </c>
       <c r="DL3">
-        <v>1.030689515556098</v>
+        <v>1.044789579200485</v>
       </c>
       <c r="DM3">
-        <v>1.03884141046644</v>
+        <v>1.046954425511096</v>
       </c>
       <c r="DN3">
-        <v>1.032675831524685</v>
+        <v>1.045245633115035</v>
       </c>
       <c r="DO3">
-        <v>1.030677541950384</v>
+        <v>1.044788719768827</v>
       </c>
       <c r="DP3">
-        <v>1.030303588783761</v>
+        <v>1.044680499590193</v>
       </c>
       <c r="DQ3">
-        <v>1.038841410466434</v>
+        <v>1.046954425511093</v>
       </c>
       <c r="DR3">
-        <v>1.032675208036064</v>
+        <v>1.045244352214702</v>
       </c>
       <c r="DS3">
-        <v>1.030677541950382</v>
+        <v>1.044788719768825</v>
       </c>
       <c r="DT3">
-        <v>1.030671712102998</v>
+        <v>1.044788301316893</v>
       </c>
       <c r="DU3">
-        <v>1.029607645475751</v>
+        <v>1.044483790708323</v>
       </c>
       <c r="DV3">
-        <v>1.03884141046643</v>
+        <v>1.046954425511091</v>
       </c>
       <c r="DW3">
-        <v>1.032674327051629</v>
+        <v>1.045242542313557</v>
       </c>
       <c r="DX3">
-        <v>1.030677541950381</v>
+        <v>1.044788719768824</v>
       </c>
       <c r="DY3">
-        <v>1.030644325686338</v>
+        <v>1.044786335571184</v>
       </c>
       <c r="DZ3">
-        <v>1.029294690729056</v>
+        <v>1.04439533164562</v>
       </c>
       <c r="EA3">
-        <v>1.038841410466427</v>
+        <v>1.04695442551109</v>
       </c>
       <c r="EB3">
-        <v>1.032673373890309</v>
+        <v>1.0452405841327</v>
       </c>
       <c r="EC3">
-        <v>1.03067754195038</v>
+        <v>1.044788719768823</v>
       </c>
       <c r="ED3">
-        <v>1.030634219967909</v>
+        <v>1.044773625063578</v>
       </c>
       <c r="EE3">
-        <v>1.030568058557683</v>
+        <v>1.044782603524447</v>
       </c>
       <c r="EF3">
-        <v>1.029201579371024</v>
+        <v>1.044369012744213</v>
       </c>
       <c r="EG3">
-        <v>1.038841410466415</v>
+        <v>1.046954425511085</v>
       </c>
       <c r="EH3">
-        <v>1.032672474982949</v>
+        <v>1.045238737412515</v>
       </c>
       <c r="EI3">
-        <v>1.030677541950378</v>
+        <v>1.044788719768822</v>
       </c>
       <c r="EJ3">
-        <v>1.030633349668052</v>
+        <v>1.044772530440475</v>
       </c>
       <c r="EK3">
-        <v>1.030511321961661</v>
+        <v>1.044779827084653</v>
       </c>
       <c r="EL3">
-        <v>1.029096475777791</v>
+        <v>1.044339303967938</v>
       </c>
       <c r="EM3">
-        <v>1.038841410466407</v>
+        <v>1.046954425511081</v>
       </c>
       <c r="EN3">
-        <v>1.032670997036801</v>
+        <v>1.045235701113951</v>
       </c>
       <c r="EO3">
-        <v>1.030677541950377</v>
+        <v>1.044788719768821</v>
       </c>
       <c r="EP3">
-        <v>1.030632495738571</v>
+        <v>1.044771456407277</v>
       </c>
       <c r="EQ3">
-        <v>1.030473327867081</v>
+        <v>1.04477796777387</v>
       </c>
       <c r="ER3">
-        <v>1.028997628452364</v>
+        <v>1.044311363460624</v>
       </c>
       <c r="ES3">
-        <v>1.038841410466405</v>
+        <v>1.046954425511081</v>
       </c>
       <c r="ET3">
-        <v>1.032663969742642</v>
+        <v>1.045221264247546</v>
       </c>
       <c r="EU3">
-        <v>1.030677541950376</v>
+        <v>1.04478871976882</v>
       </c>
       <c r="EV3">
-        <v>1.030631806226687</v>
+        <v>1.044770589170967</v>
       </c>
       <c r="EW3">
-        <v>1.030471851964632</v>
+        <v>1.0447768501067</v>
       </c>
       <c r="EX3">
-        <v>1.029796371663106</v>
+        <v>1.044764245804791</v>
       </c>
       <c r="EY3">
-        <v>1.028882293336411</v>
+        <v>1.044278762289946</v>
       </c>
       <c r="EZ3">
-        <v>1.038841410466405</v>
+        <v>1.046954425511081</v>
       </c>
       <c r="FA3">
-        <v>1.032662438886918</v>
+        <v>1.045218119266729</v>
       </c>
       <c r="FB3">
-        <v>1.030677541950376</v>
+        <v>1.044788719768819</v>
       </c>
       <c r="FC3">
-        <v>1.030630771324139</v>
+        <v>1.04476928751818</v>
       </c>
       <c r="FD3">
-        <v>1.030467937789494</v>
+        <v>1.044773885990261</v>
       </c>
       <c r="FE3">
-        <v>1.029755167841182</v>
+        <v>1.04476341059759</v>
       </c>
       <c r="FF3">
-        <v>1.028849106423082</v>
+        <v>1.044269381485607</v>
       </c>
       <c r="FG3">
-        <v>1.038841410466405</v>
+        <v>1.046954425511081</v>
       </c>
       <c r="FH3">
-        <v>1.032646942526538</v>
+        <v>1.045186732447239</v>
       </c>
       <c r="FI3">
-        <v>1.032657189127524</v>
+        <v>1.045207318583939</v>
       </c>
       <c r="FJ3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768819</v>
       </c>
       <c r="FK3">
-        <v>1.030629523633494</v>
+        <v>1.044767718230321</v>
       </c>
       <c r="FL3">
-        <v>1.030466578184599</v>
+        <v>1.044772856391794</v>
       </c>
       <c r="FM3">
-        <v>1.029717525975852</v>
+        <v>1.044762647591577</v>
       </c>
       <c r="FN3">
-        <v>1.028660567670268</v>
+        <v>1.04421608774513</v>
       </c>
       <c r="FO3">
-        <v>1.038841410466405</v>
+        <v>1.046954425511081</v>
       </c>
       <c r="FP3">
-        <v>1.032644015002285</v>
+        <v>1.045180802947137</v>
       </c>
       <c r="FQ3">
-        <v>1.032650219540678</v>
+        <v>1.045192979634968</v>
       </c>
       <c r="FR3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768819</v>
       </c>
       <c r="FS3">
-        <v>1.030628581029083</v>
+        <v>1.044766532665885</v>
       </c>
       <c r="FT3">
-        <v>1.030466578184584</v>
+        <v>1.044772856391786</v>
       </c>
       <c r="FU3">
-        <v>1.030444126418739</v>
+        <v>1.044755854153344</v>
       </c>
       <c r="FV3">
-        <v>1.029701889030388</v>
+        <v>1.044762330628401</v>
       </c>
       <c r="FW3">
-        <v>1.028554080920181</v>
+        <v>1.044185987205453</v>
       </c>
       <c r="FX3">
-        <v>1.032637974929989</v>
+        <v>1.045168569194215</v>
       </c>
       <c r="FY3">
-        <v>1.032649167707748</v>
+        <v>1.045191054680739</v>
       </c>
       <c r="FZ3">
-        <v>1.032646982647882</v>
+        <v>1.045179989133774</v>
       </c>
       <c r="GA3">
-        <v>1.030677541950375</v>
+        <v>1.04478871976882</v>
       </c>
       <c r="GB3">
-        <v>1.030627490271702</v>
+        <v>1.044765160761466</v>
       </c>
       <c r="GC3">
-        <v>1.030466578184582</v>
+        <v>1.044772856391784</v>
       </c>
       <c r="GD3">
-        <v>1.030441701606776</v>
+        <v>1.044754017895466</v>
       </c>
       <c r="GE3">
-        <v>1.029668183783798</v>
+        <v>1.044761647418019</v>
       </c>
       <c r="GF3">
-        <v>1.028475033373894</v>
+        <v>1.044163642785953</v>
       </c>
       <c r="GG3">
-        <v>1.032645028469215</v>
+        <v>1.045183479489684</v>
       </c>
       <c r="GH3">
-        <v>1.032633585835531</v>
+        <v>1.045126224213691</v>
       </c>
       <c r="GI3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768821</v>
       </c>
       <c r="GJ3">
-        <v>1.030626464678309</v>
+        <v>1.044763870817312</v>
       </c>
       <c r="GK3">
-        <v>1.030466578184582</v>
+        <v>1.044772856391785</v>
       </c>
       <c r="GL3">
-        <v>1.030466578184581</v>
+        <v>1.044772856391784</v>
       </c>
       <c r="GM3">
-        <v>1.030439356146349</v>
+        <v>1.044752241728792</v>
       </c>
       <c r="GN3">
-        <v>1.029582336955996</v>
+        <v>1.044759907289422</v>
       </c>
       <c r="GO3">
-        <v>1.028403966312888</v>
+        <v>1.044143554141355</v>
       </c>
       <c r="GP3">
-        <v>1.032637638082177</v>
+        <v>1.045169954429954</v>
       </c>
       <c r="GQ3">
-        <v>1.03263229281524</v>
+        <v>1.045117025583337</v>
       </c>
       <c r="GR3">
-        <v>1.032632819856611</v>
+        <v>1.045125467387961</v>
       </c>
       <c r="GS3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768821</v>
       </c>
       <c r="GT3">
-        <v>1.030625361200148</v>
+        <v>1.044762482913284</v>
       </c>
       <c r="GU3">
-        <v>1.030466578184582</v>
+        <v>1.044772856391785</v>
       </c>
       <c r="GV3">
-        <v>1.03046657818458</v>
+        <v>1.044772856391783</v>
       </c>
       <c r="GW3">
-        <v>1.030437480013077</v>
+        <v>1.044750820973461</v>
       </c>
       <c r="GX3">
-        <v>1.029531971074165</v>
+        <v>1.04475888636475</v>
       </c>
       <c r="GY3">
-        <v>1.028315681334977</v>
+        <v>1.04411859838203</v>
       </c>
       <c r="GZ3">
-        <v>1.032602487847771</v>
+        <v>1.045121669431783</v>
       </c>
       <c r="HA3">
-        <v>1.032637526215838</v>
+        <v>1.045168932650806</v>
       </c>
       <c r="HB3">
-        <v>1.032629023740367</v>
+        <v>1.04509376917412</v>
       </c>
       <c r="HC3">
-        <v>1.032632711584729</v>
+        <v>1.045125360409891</v>
       </c>
       <c r="HD3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768821</v>
       </c>
       <c r="HE3">
-        <v>1.030623674313246</v>
+        <v>1.044760361224606</v>
       </c>
       <c r="HF3">
-        <v>1.03046657818458</v>
+        <v>1.044772856391783</v>
       </c>
       <c r="HG3">
-        <v>1.030435985525014</v>
+        <v>1.044749689229827</v>
       </c>
       <c r="HH3">
-        <v>1.029496694649559</v>
+        <v>1.044758171305677</v>
       </c>
       <c r="HI3">
-        <v>1.028152767507477</v>
+        <v>1.044072546795402</v>
       </c>
       <c r="HJ3">
-        <v>1.032487436492955</v>
+        <v>1.044963626286291</v>
       </c>
       <c r="HK3">
-        <v>1.032637324316259</v>
+        <v>1.04516708851577</v>
       </c>
       <c r="HL3">
-        <v>1.03263262426652</v>
+        <v>1.045125274135105</v>
       </c>
       <c r="HM3">
-        <v>1.030677541950375</v>
+        <v>1.044788719768821</v>
       </c>
       <c r="HN3">
-        <v>1.030619067606166</v>
+        <v>1.044754567120568</v>
       </c>
       <c r="HO3">
-        <v>1.030466578184579</v>
+        <v>1.044772856391782</v>
       </c>
       <c r="HP3">
-        <v>1.030432825937899</v>
+        <v>1.044747296542523</v>
       </c>
       <c r="HQ3">
-        <v>1.029428837025565</v>
+        <v>1.044756795819809</v>
       </c>
       <c r="HR3">
-        <v>1.028010733966745</v>
+        <v>1.044032397233328</v>
       </c>
       <c r="HS3">
-        <v>1.032437839796773</v>
+        <v>1.04489549656654</v>
       </c>
       <c r="HT3">
-        <v>1.032637252226843</v>
+        <v>1.045166430057058</v>
       </c>
       <c r="HU3">
-        <v>1.032632554486347</v>
+        <v>1.045125205188782</v>
       </c>
       <c r="HV3">
-        <v>1.030618674823486</v>
+        <v>1.044754073096602</v>
       </c>
       <c r="HW3">
-        <v>1.030466578184578</v>
+        <v>1.044772856391782</v>
       </c>
       <c r="HX3">
-        <v>1.030430337687755</v>
+        <v>1.044745412244245</v>
       </c>
       <c r="HY3">
-        <v>1.029395061914121</v>
+        <v>1.044756111192217</v>
       </c>
       <c r="HZ3">
-        <v>1.027914116904963</v>
+        <v>1.044005085688334</v>
       </c>
       <c r="IA3">
-        <v>1.032629206916228</v>
+        <v>1.045092945215113</v>
       </c>
       <c r="IB3">
-        <v>1.032637252226843</v>
+        <v>1.045166430057058</v>
       </c>
       <c r="IC3">
-        <v>1.032632447966247</v>
+        <v>1.04512509994156</v>
       </c>
       <c r="ID3">
-        <v>1.030618493400847</v>
+        <v>1.044753844911562</v>
       </c>
       <c r="IE3">
-        <v>1.030466578184577</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="IF3">
-        <v>1.030428611713458</v>
+        <v>1.044744105201057</v>
       </c>
       <c r="IG3">
-        <v>1.029371079503314</v>
+        <v>1.044755625064354</v>
       </c>
       <c r="IH3">
-        <v>1.02785064811574</v>
+        <v>1.043987144369552</v>
       </c>
       <c r="II3">
-        <v>1.032628038560986</v>
+        <v>1.045082273609452</v>
       </c>
       <c r="IJ3">
-        <v>1.032632323103226</v>
+        <v>1.045124976570609</v>
       </c>
       <c r="IK3">
-        <v>1.030618299347373</v>
+        <v>1.044753600840039</v>
       </c>
       <c r="IL3">
-        <v>1.030466578184576</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="IM3">
-        <v>1.030426889850929</v>
+        <v>1.044742801271619</v>
       </c>
       <c r="IN3">
-        <v>1.029096731199904</v>
+        <v>1.04475006396934</v>
       </c>
       <c r="IO3">
-        <v>1.027714053405825</v>
+        <v>1.043948531670212</v>
       </c>
       <c r="IP3">
-        <v>1.032628038560986</v>
+        <v>1.045060147995965</v>
       </c>
       <c r="IQ3">
-        <v>1.032624452331279</v>
+        <v>1.045071643066877</v>
       </c>
       <c r="IR3">
-        <v>1.032632131321042</v>
+        <v>1.045124787080157</v>
       </c>
       <c r="IS3">
-        <v>1.030618113920735</v>
+        <v>1.044753367618953</v>
       </c>
       <c r="IT3">
-        <v>1.030466578184575</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="IU3">
-        <v>1.030424370842849</v>
+        <v>1.044740893681004</v>
       </c>
       <c r="IV3">
-        <v>1.029015830457395</v>
+        <v>1.044748424093479</v>
       </c>
       <c r="IW3">
-        <v>1.027700744743772</v>
+        <v>1.043930665447031</v>
       </c>
       <c r="IX3">
-        <v>1.027624214901262</v>
+        <v>1.043923767058019</v>
       </c>
       <c r="IY3">
-        <v>1.032631429528811</v>
+        <v>1.045124093674103</v>
       </c>
       <c r="IZ3">
-        <v>1.030617907347513</v>
+        <v>1.044753107800668</v>
       </c>
       <c r="JA3">
-        <v>1.030466578184575</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="JB3">
-        <v>1.030414896728205</v>
+        <v>1.044733719137784</v>
       </c>
       <c r="JC3">
-        <v>1.028997730564229</v>
+        <v>1.044748057204559</v>
       </c>
       <c r="JD3">
-        <v>1.027698905022121</v>
+        <v>1.043928195711379</v>
       </c>
       <c r="JE3">
-        <v>1.027287338519807</v>
+        <v>1.043830903743469</v>
       </c>
       <c r="JF3">
-        <v>1.032628013905604</v>
+        <v>1.045120718866422</v>
       </c>
       <c r="JG3">
-        <v>1.030617480951421</v>
+        <v>1.044752571499302</v>
       </c>
       <c r="JH3">
-        <v>1.030466578184575</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="JI3">
-        <v>1.030412685460689</v>
+        <v>1.044732044592448</v>
       </c>
       <c r="JJ3">
-        <v>1.028769632984328</v>
+        <v>1.044738810641134</v>
       </c>
       <c r="JK3">
-        <v>1.028989900776539</v>
+        <v>1.044748057204556</v>
       </c>
       <c r="JL3">
-        <v>1.027698059234476</v>
+        <v>1.04392706028315</v>
       </c>
       <c r="JM3">
-        <v>1.027284445805807</v>
+        <v>1.043819238174975</v>
       </c>
       <c r="JN3">
-        <v>1.027174356161452</v>
+        <v>1.043800415499969</v>
       </c>
       <c r="JO3">
-        <v>1.030617036862629</v>
+        <v>1.044752012944872</v>
       </c>
       <c r="JP3">
-        <v>1.030466578184575</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="JQ3">
-        <v>1.030411672421451</v>
+        <v>1.044731277439616</v>
       </c>
       <c r="JR3">
-        <v>1.028543580645325</v>
+        <v>1.044729646975832</v>
       </c>
       <c r="JS3">
-        <v>1.028980720843634</v>
+        <v>1.044748057204554</v>
       </c>
       <c r="JT3">
-        <v>1.027697054681138</v>
+        <v>1.043925711719806</v>
       </c>
       <c r="JU3">
-        <v>1.027284235537258</v>
+        <v>1.043818390216243</v>
       </c>
       <c r="JV3">
-        <v>1.026764802407216</v>
+        <v>1.043689896138425</v>
       </c>
       <c r="JW3">
-        <v>1.030615348151024</v>
+        <v>1.044749888961193</v>
       </c>
       <c r="JX3">
-        <v>1.030466578184576</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="JY3">
-        <v>1.030411006424663</v>
+        <v>1.04473077309457</v>
       </c>
       <c r="JZ3">
-        <v>1.028972424738555</v>
+        <v>1.044748057204551</v>
       </c>
       <c r="KA3">
-        <v>1.027695504775607</v>
+        <v>1.043923631048027</v>
       </c>
       <c r="KB3">
-        <v>1.027284062227342</v>
+        <v>1.043817691302131</v>
       </c>
       <c r="KC3">
-        <v>1.026648711533851</v>
+        <v>1.043655006836105</v>
       </c>
       <c r="KD3">
-        <v>1.026704519712824</v>
+        <v>1.043674711197032</v>
       </c>
       <c r="KE3">
-        <v>1.030606382540396</v>
+        <v>1.044738612429158</v>
       </c>
       <c r="KF3">
-        <v>1.030466578184576</v>
+        <v>1.044772856391781</v>
       </c>
       <c r="KG3">
-        <v>1.030409224729276</v>
+        <v>1.044729630155421</v>
       </c>
       <c r="KH3">
-        <v>1.030410649096081</v>
+        <v>1.044730477051757</v>
       </c>
       <c r="KI3">
-        <v>1.028964022443019</v>
+        <v>1.044748057204548</v>
       </c>
       <c r="KJ3">
-        <v>1.027694123700769</v>
+        <v>1.043921777023137</v>
       </c>
       <c r="KK3">
-        <v>1.027283816053973</v>
+        <v>1.043816698548545</v>
       </c>
       <c r="KL3">
-        <v>1.026595277547993</v>
+        <v>1.043638948060909</v>
       </c>
       <c r="KM3">
-        <v>1.026451879909041</v>
+        <v>1.043611071848959</v>
       </c>
       <c r="KN3">
-        <v>1.030408406293888</v>
+        <v>1.04472910513759</v>
       </c>
       <c r="KO3">
-        <v>1.030410396201892</v>
+        <v>1.044730267531694</v>
       </c>
       <c r="KP3">
-        <v>1.028954988276961</v>
+        <v>1.044748057204545</v>
       </c>
       <c r="KQ3">
-        <v>1.027693049946385</v>
+        <v>1.04392033556081</v>
       </c>
       <c r="KR3">
-        <v>1.027282710354237</v>
+        <v>1.043812239547264</v>
       </c>
       <c r="KS3">
-        <v>1.026246213257143</v>
+        <v>1.043534041707053</v>
       </c>
       <c r="KT3">
-        <v>1.026396113029973</v>
+        <v>1.043597024197598</v>
       </c>
       <c r="KU3">
-        <v>1.030407021107011</v>
+        <v>1.044728216554542</v>
       </c>
       <c r="KV3">
-        <v>1.030410101907584</v>
+        <v>1.044730023712087</v>
       </c>
       <c r="KW3">
-        <v>1.02890259513755</v>
+        <v>1.044748057204531</v>
       </c>
       <c r="KX3">
-        <v>1.027691713391342</v>
+        <v>1.043918541301559</v>
       </c>
       <c r="KY3">
-        <v>1.027282497495314</v>
+        <v>1.043811381142249</v>
       </c>
       <c r="KZ3">
-        <v>1.026220141096025</v>
+        <v>1.043526206060802</v>
       </c>
       <c r="LA3">
-        <v>1.026377582876</v>
+        <v>1.043592356451384</v>
       </c>
       <c r="LB3">
-        <v>1.030404362330814</v>
+        <v>1.044726510977117</v>
       </c>
       <c r="LC3">
-        <v>1.030409539016701</v>
+        <v>1.044729557363162</v>
       </c>
       <c r="LD3">
-        <v>1.028680992150916</v>
+        <v>1.044748057204471</v>
       </c>
       <c r="LE3">
-        <v>1.027690331003774</v>
+        <v>1.043916685514405</v>
       </c>
       <c r="LF3">
-        <v>1.027282339890782</v>
+        <v>1.043810745563914</v>
       </c>
       <c r="LG3">
-        <v>1.026175835585796</v>
+        <v>1.043517559188625</v>
       </c>
       <c r="LH3">
-        <v>1.025943483957797</v>
+        <v>1.043421890509963</v>
       </c>
       <c r="LI3">
-        <v>1.026367911448584</v>
+        <v>1.043589920216833</v>
       </c>
       <c r="LJ3">
-        <v>1.030396534446039</v>
+        <v>1.044721489469961</v>
       </c>
       <c r="LK3">
-        <v>1.03040738023228</v>
+        <v>1.044727768833937</v>
       </c>
       <c r="LL3">
-        <v>1.027688700402654</v>
+        <v>1.043914496512802</v>
       </c>
       <c r="LM3">
-        <v>1.027282158347448</v>
+        <v>1.04381001344658</v>
       </c>
       <c r="LN3">
-        <v>1.025947649032008</v>
+        <v>1.043473025197537</v>
       </c>
       <c r="LO3">
-        <v>1.025810716961323</v>
+        <v>1.043371829606003</v>
       </c>
       <c r="LP3">
-        <v>1.026359632410989</v>
+        <v>1.043587834724603</v>
       </c>
       <c r="LQ3">
-        <v>1.030400013120248</v>
+        <v>1.044721665262354</v>
       </c>
       <c r="LR3">
-        <v>1.027687771177054</v>
+        <v>1.043913249073255</v>
       </c>
       <c r="LS3">
-        <v>1.027281978259075</v>
+        <v>1.04380928719673</v>
       </c>
       <c r="LT3">
-        <v>1.025867984842225</v>
+        <v>1.043457477538097</v>
       </c>
       <c r="LU3">
-        <v>1.025774314524362</v>
+        <v>1.043254904274602</v>
       </c>
       <c r="LV3">
-        <v>1.025565741732334</v>
+        <v>1.043310209298901</v>
       </c>
       <c r="LW3">
-        <v>1.026350216496258</v>
+        <v>1.043585462851581</v>
       </c>
       <c r="LX3">
-        <v>1.027683573309666</v>
+        <v>1.043907613643313</v>
       </c>
       <c r="LY3">
-        <v>1.02728039616277</v>
+        <v>1.043802907011445</v>
       </c>
       <c r="LZ3">
-        <v>1.025694601024619</v>
+        <v>1.04342363907035</v>
       </c>
       <c r="MA3">
-        <v>1.025759897356658</v>
+        <v>1.043208596067659</v>
       </c>
       <c r="MB3">
-        <v>1.025553681435423</v>
+        <v>1.043305652582159</v>
       </c>
       <c r="MC3">
-        <v>1.025522090394819</v>
+        <v>1.043299340033472</v>
       </c>
       <c r="MD3">
-        <v>1.026342798381279</v>
+        <v>1.043583594224379</v>
       </c>
       <c r="ME3">
-        <v>1.027681939586885</v>
+        <v>1.04390542045106</v>
       </c>
       <c r="MF3">
-        <v>1.027277162146023</v>
+        <v>1.043789865058722</v>
       </c>
       <c r="MG3">
-        <v>1.025556901505143</v>
+        <v>1.043398620387822</v>
       </c>
       <c r="MH3">
-        <v>1.025692518513444</v>
+        <v>1.043422359618521</v>
       </c>
       <c r="MI3">
-        <v>1.02554761806537</v>
+        <v>1.043303361671666</v>
       </c>
       <c r="MJ3">
-        <v>1.025484694024454</v>
+        <v>1.043290028259615</v>
       </c>
       <c r="MK3">
-        <v>1.026336579077994</v>
+        <v>1.043582027577949</v>
       </c>
       <c r="ML3">
-        <v>1.027681372033132</v>
+        <v>1.043904658538142</v>
       </c>
       <c r="MM3">
-        <v>1.025350861687185</v>
+        <v>1.043361184898164</v>
       </c>
       <c r="MN3">
-        <v>1.025692228543526</v>
+        <v>1.043422181466996</v>
       </c>
       <c r="MO3">
-        <v>1.025547053809303</v>
+        <v>1.043303148479968</v>
       </c>
       <c r="MP3">
-        <v>1.025458389184516</v>
+        <v>1.04328347829596</v>
       </c>
       <c r="MQ3">
-        <v>1.026330967301437</v>
+        <v>1.043580613967456</v>
       </c>
       <c r="MR3">
-        <v>1.027680944456892</v>
+        <v>1.043904084538131</v>
       </c>
       <c r="MS3">
-        <v>1.025691913615809</v>
+        <v>1.043421987981913</v>
       </c>
       <c r="MT3">
-        <v>1.025546820778583</v>
+        <v>1.043303060434455</v>
       </c>
       <c r="MU3">
-        <v>1.025425152495282</v>
+        <v>1.043275202281804</v>
       </c>
       <c r="MV3">
-        <v>1.026326322798677</v>
+        <v>1.043579444013611</v>
       </c>
       <c r="MW3">
-        <v>1.027680631622572</v>
+        <v>1.043903664573487</v>
       </c>
       <c r="MX3">
-        <v>1.02569163776175</v>
+        <v>1.04342181850288</v>
       </c>
       <c r="MY3">
-        <v>1.025546656351254</v>
+        <v>1.043302998309218</v>
       </c>
       <c r="MZ3">
-        <v>1.025404326674507</v>
+        <v>1.043270016600599</v>
       </c>
       <c r="NA3">
-        <v>1.026320934902498</v>
+        <v>1.043578086798037</v>
       </c>
       <c r="NB3">
-        <v>1.027680472763535</v>
+        <v>1.043903451313065</v>
       </c>
       <c r="NC3">
-        <v>1.025691344666812</v>
+        <v>1.043421638431405</v>
       </c>
       <c r="ND3">
-        <v>1.025546488167647</v>
+        <v>1.043302934764754</v>
       </c>
       <c r="NE3">
-        <v>1.025372346407974</v>
+        <v>1.043262053430707</v>
       </c>
       <c r="NF3">
-        <v>1.026315013230446</v>
+        <v>1.043576595123441</v>
       </c>
       <c r="NG3">
-        <v>1.027680239207025</v>
+        <v>1.043903137774971</v>
       </c>
       <c r="NH3">
-        <v>1.025690926357603</v>
+        <v>1.04342138143087</v>
       </c>
       <c r="NI3">
-        <v>1.025546289723002</v>
+        <v>1.043302859786825</v>
       </c>
       <c r="NJ3">
-        <v>1.025340465858066</v>
+        <v>1.043254115085773</v>
       </c>
       <c r="NK3">
-        <v>1.026282730409047</v>
+        <v>1.043568463043284</v>
       </c>
       <c r="NL3">
-        <v>1.027679847690038</v>
+        <v>1.043902612182729</v>
       </c>
       <c r="NM3">
-        <v>1.025690417826075</v>
+        <v>1.043421068999606</v>
       </c>
       <c r="NN3">
-        <v>1.025546039399252</v>
+        <v>1.043302765207522</v>
       </c>
       <c r="NO3">
-        <v>1.025304694918191</v>
+        <v>1.043245208017363</v>
       </c>
       <c r="NP3">
-        <v>1.026044939420967</v>
+        <v>1.043508328913204</v>
       </c>
       <c r="NQ3">
-        <v>1.02627391998304</v>
+        <v>1.043566619714864</v>
       </c>
       <c r="NR3">
-        <v>1.0276781013551</v>
+        <v>1.043900267814224</v>
       </c>
       <c r="NS3">
-        <v>1.025687265785239</v>
+        <v>1.043419132450831</v>
       </c>
       <c r="NT3">
-        <v>1.025545815209972</v>
+        <v>1.04330268050255</v>
       </c>
       <c r="NU3">
-        <v>1.025278809826762</v>
+        <v>1.043238762550346</v>
       </c>
       <c r="NV3">
-        <v>1.025817193373588</v>
+        <v>1.043450734325657</v>
       </c>
       <c r="NW3">
-        <v>1.026219822790457</v>
+        <v>1.043555301430501</v>
       </c>
       <c r="NX3">
-        <v>1.026273919983039</v>
+        <v>1.043566619714867</v>
       </c>
       <c r="NY3">
-        <v>1.027671681877242</v>
+        <v>1.043891649981941</v>
       </c>
       <c r="NZ3">
-        <v>1.025676480350529</v>
+        <v>1.043412506102446</v>
       </c>
       <c r="OA3">
-        <v>1.025545637814637</v>
+        <v>1.043302613477638</v>
       </c>
       <c r="OB3">
-        <v>1.025247957195524</v>
+        <v>1.043231080146629</v>
       </c>
       <c r="OC3">
-        <v>1.025807054846686</v>
+        <v>1.043448170382858</v>
       </c>
       <c r="OD3">
-        <v>1.026200051615868</v>
+        <v>1.043551164879176</v>
       </c>
       <c r="OE3">
-        <v>1.026273919983033</v>
+        <v>1.04356661971488</v>
       </c>
       <c r="OF3">
-        <v>1.02554533336157</v>
+        <v>1.043302498446765</v>
       </c>
       <c r="OG3">
-        <v>1.025203190545243</v>
+        <v>1.043219933099844</v>
       </c>
       <c r="OH3">
-        <v>1.025790872243582</v>
+        <v>1.043425632207414</v>
       </c>
       <c r="OI3">
-        <v>1.025623985163454</v>
+        <v>1.043404990190237</v>
       </c>
       <c r="OJ3">
-        <v>1.026198039169516</v>
+        <v>1.043550743832466</v>
       </c>
       <c r="OK3">
-        <v>1.026273919983032</v>
+        <v>1.043566619714881</v>
       </c>
       <c r="OL3">
-        <v>1.025544270548747</v>
+        <v>1.043302096886396</v>
       </c>
       <c r="OM3">
-        <v>1.025170001572959</v>
+        <v>1.043211668927869</v>
       </c>
       <c r="ON3">
-        <v>1.025789389499314</v>
+        <v>1.043423567128663</v>
       </c>
       <c r="OO3">
-        <v>1.025535665177038</v>
+        <v>1.043384158225479</v>
       </c>
       <c r="OP3">
-        <v>1.026196634745253</v>
+        <v>1.043550449996945</v>
       </c>
       <c r="OQ3">
-        <v>1.026273919983032</v>
+        <v>1.043566619714882</v>
       </c>
       <c r="OR3">
-        <v>1.025537772904404</v>
+        <v>1.043299641894846</v>
       </c>
       <c r="OS3">
-        <v>1.025137985505298</v>
+        <v>1.043203696808446</v>
       </c>
       <c r="OT3">
-        <v>1.025788546589814</v>
+        <v>1.043422393174035</v>
       </c>
       <c r="OU3">
-        <v>1.025269220657104</v>
+        <v>1.043321311583589</v>
       </c>
       <c r="OV3">
-        <v>1.025535665177024</v>
+        <v>1.043384158225471</v>
       </c>
       <c r="OW3">
-        <v>1.026195179886507</v>
+        <v>1.043550145609452</v>
       </c>
       <c r="OX3">
-        <v>1.026273919983032</v>
+        <v>1.043566619714882</v>
       </c>
       <c r="OY3">
-        <v>1.025106651450477</v>
+        <v>1.04319589450812</v>
       </c>
       <c r="OZ3">
-        <v>1.025787974234011</v>
+        <v>1.043421596030639</v>
       </c>
       <c r="PA3">
-        <v>1.024889745749213</v>
+        <v>1.043231802786187</v>
       </c>
       <c r="PB3">
-        <v>1.025535665177021</v>
+        <v>1.043384158225469</v>
       </c>
       <c r="PC3">
-        <v>1.026189070328924</v>
+        <v>1.043548867359624</v>
       </c>
       <c r="PD3">
-        <v>1.026273919983032</v>
+        <v>1.043566619714883</v>
       </c>
       <c r="PE3">
-        <v>1.025068967552893</v>
+        <v>1.043186511066427</v>
       </c>
       <c r="PF3">
-        <v>1.025787041445538</v>
+        <v>1.043420296897884</v>
       </c>
       <c r="PG3">
-        <v>1.024810337399116</v>
+        <v>1.043213072083362</v>
       </c>
       <c r="PH3">
-        <v>1.025535665177019</v>
+        <v>1.043384158225468</v>
       </c>
       <c r="PI3">
-        <v>1.026187578518307</v>
+        <v>1.043548555241</v>
       </c>
       <c r="PJ3">
-        <v>1.026273919983037</v>
+        <v>1.043566619714887</v>
       </c>
       <c r="PK3">
-        <v>1.025005854035913</v>
+        <v>1.043170795532646</v>
       </c>
       <c r="PL3">
-        <v>1.025068967552893</v>
+        <v>1.043186511066427</v>
       </c>
       <c r="PM3">
-        <v>1.025783940799658</v>
+        <v>1.043415978501248</v>
       </c>
       <c r="PN3">
-        <v>1.02479004160977</v>
+        <v>1.04320828473548</v>
       </c>
       <c r="PO3">
-        <v>1.025535665177016</v>
+        <v>1.043384158225466</v>
       </c>
       <c r="PP3">
-        <v>1.026186155493312</v>
+        <v>1.043548257513796</v>
       </c>
       <c r="PQ3">
-        <v>1.026273919983038</v>
+        <v>1.043566619714889</v>
       </c>
       <c r="PR3">
-        <v>1.024792977542662</v>
+        <v>1.04311778824468</v>
       </c>
       <c r="PS3">
-        <v>1.025005854035913</v>
+        <v>1.043170795532646</v>
       </c>
       <c r="PT3">
-        <v>1.025780488808809</v>
+        <v>1.043411170772103</v>
       </c>
       <c r="PU3">
-        <v>1.024779408949286</v>
+        <v>1.043205776713486</v>
       </c>
       <c r="PV3">
-        <v>1.025535665177015</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="PW3">
-        <v>1.026184740208252</v>
+        <v>1.043547961405949</v>
       </c>
       <c r="PX3">
-        <v>1.026273919983038</v>
+        <v>1.04356661971489</v>
       </c>
       <c r="PY3">
-        <v>1.02449188759941</v>
+        <v>1.043042815015058</v>
       </c>
       <c r="PZ3">
-        <v>1.024792977542662</v>
+        <v>1.04311778824468</v>
       </c>
       <c r="QA3">
-        <v>1.025778547422735</v>
+        <v>1.043408466924158</v>
       </c>
       <c r="QB3">
-        <v>1.024770594604257</v>
+        <v>1.043203697592972</v>
       </c>
       <c r="QC3">
-        <v>1.025535665177013</v>
+        <v>1.043384158225464</v>
       </c>
       <c r="QD3">
-        <v>1.02618311669389</v>
+        <v>1.043547621732084</v>
       </c>
       <c r="QE3">
-        <v>1.02627391998304</v>
+        <v>1.04356661971489</v>
       </c>
       <c r="QF3">
-        <v>1.024275839676344</v>
+        <v>1.042989017505415</v>
       </c>
       <c r="QG3">
-        <v>1.02449188759941</v>
+        <v>1.043042815015058</v>
       </c>
       <c r="QH3">
-        <v>1.025776723696388</v>
+        <v>1.04340592694575</v>
       </c>
       <c r="QI3">
-        <v>1.024763451072064</v>
+        <v>1.043202012581719</v>
       </c>
       <c r="QJ3">
-        <v>1.025535665177011</v>
+        <v>1.043384158225463</v>
       </c>
       <c r="QK3">
-        <v>1.02617750998289</v>
+        <v>1.043546448688428</v>
       </c>
       <c r="QL3">
-        <v>1.026273919983041</v>
+        <v>1.043566619714891</v>
       </c>
       <c r="QM3">
-        <v>1.024210291011544</v>
+        <v>1.042972695366333</v>
       </c>
       <c r="QN3">
-        <v>1.024275839676344</v>
+        <v>1.042989017505415</v>
       </c>
       <c r="QO3">
-        <v>1.025774983710957</v>
+        <v>1.043403503596753</v>
       </c>
       <c r="QP3">
-        <v>1.024752531698046</v>
+        <v>1.043199436926378</v>
       </c>
       <c r="QQ3">
-        <v>1.02553566517701</v>
+        <v>1.043384158225463</v>
       </c>
       <c r="QR3">
-        <v>1.026150187382222</v>
+        <v>1.043540732216546</v>
       </c>
       <c r="QS3">
-        <v>1.026273919983041</v>
+        <v>1.043566619714891</v>
       </c>
       <c r="QT3">
-        <v>1.024017797097933</v>
+        <v>1.042927405632417</v>
       </c>
       <c r="QU3">
-        <v>1.024210291011544</v>
+        <v>1.042972695366333</v>
       </c>
       <c r="QV3">
-        <v>1.02420777748587</v>
+        <v>1.042967638288308</v>
       </c>
       <c r="QW3">
-        <v>1.025772126914486</v>
+        <v>1.043399524819285</v>
       </c>
       <c r="QX3">
-        <v>1.024742688055785</v>
+        <v>1.043197115012723</v>
       </c>
       <c r="QY3">
-        <v>1.02553566517701</v>
+        <v>1.043384158225463</v>
       </c>
       <c r="QZ3">
-        <v>1.026273919983042</v>
+        <v>1.043566619714892</v>
       </c>
       <c r="RA3">
-        <v>1.023803928366307</v>
+        <v>1.042877086661709</v>
       </c>
       <c r="RB3">
-        <v>1.024017797097933</v>
+        <v>1.042927405632417</v>
       </c>
       <c r="RC3">
-        <v>1.024017797097933</v>
+        <v>1.042927405632417</v>
       </c>
       <c r="RD3">
-        <v>1.024207410416609</v>
+        <v>1.042966899764769</v>
       </c>
       <c r="RE3">
-        <v>1.025770137101448</v>
+        <v>1.043396753525173</v>
       </c>
       <c r="RF3">
-        <v>1.024733319341088</v>
+        <v>1.043194905123638</v>
       </c>
       <c r="RG3">
-        <v>1.025535665177009</v>
+        <v>1.043384158225463</v>
       </c>
       <c r="RH3">
-        <v>1.026273919983045</v>
+        <v>1.043566619714893</v>
       </c>
       <c r="RI3">
-        <v>1.023725556654027</v>
+        <v>1.042858647337289</v>
       </c>
       <c r="RJ3">
-        <v>1.023803928366307</v>
+        <v>1.042877086661709</v>
       </c>
       <c r="RK3">
-        <v>1.024207210263342</v>
+        <v>1.042966497067201</v>
       </c>
       <c r="RL3">
-        <v>1.025768739015004</v>
+        <v>1.04339480635293</v>
       </c>
       <c r="RM3">
-        <v>1.024722764921767</v>
+        <v>1.043192415549663</v>
       </c>
       <c r="RN3">
-        <v>1.025535665177009</v>
+        <v>1.043384158225463</v>
       </c>
       <c r="RO3">
-        <v>1.026273919983045</v>
+        <v>1.043566619714893</v>
       </c>
       <c r="RP3">
-        <v>1.023695678719585</v>
+        <v>1.04284500502771</v>
       </c>
       <c r="RQ3">
-        <v>1.023725556654027</v>
+        <v>1.042858647337289</v>
       </c>
       <c r="RR3">
-        <v>1.022987863317909</v>
+        <v>1.042720968522279</v>
       </c>
       <c r="RS3">
-        <v>1.024207074675204</v>
+        <v>1.042966224271185</v>
       </c>
       <c r="RT3">
-        <v>1.025768071000953</v>
+        <v>1.043393875982407</v>
       </c>
       <c r="RU3">
-        <v>1.024711616065801</v>
+        <v>1.043189785758608</v>
       </c>
       <c r="RV3">
-        <v>1.025535665177009</v>
+        <v>1.043384158225464</v>
       </c>
       <c r="RW3">
-        <v>1.026273919983045</v>
+        <v>1.043566619714893</v>
       </c>
       <c r="RX3">
-        <v>1.023652856636408</v>
+        <v>1.042825452390655</v>
       </c>
       <c r="RY3">
-        <v>1.023695678719585</v>
+        <v>1.04284500502771</v>
       </c>
       <c r="RZ3">
-        <v>1.022984706481126</v>
+        <v>1.042715567351475</v>
       </c>
       <c r="SA3">
-        <v>1.0227177706616</v>
+        <v>1.042704467639511</v>
       </c>
       <c r="SB3">
-        <v>1.024206868725528</v>
+        <v>1.042965809911556</v>
       </c>
       <c r="SC3">
-        <v>1.025767647832367</v>
+        <v>1.04339328661819</v>
       </c>
       <c r="SD3">
-        <v>1.024687239415873</v>
+        <v>1.043184035791425</v>
       </c>
       <c r="SE3">
-        <v>1.025535665177009</v>
+        <v>1.043384158225464</v>
       </c>
       <c r="SF3">
-        <v>1.026273919983045</v>
+        <v>1.043566619714894</v>
       </c>
       <c r="SG3">
-        <v>1.023626723784212</v>
+        <v>1.042813520079589</v>
       </c>
       <c r="SH3">
-        <v>1.023652856636408</v>
+        <v>1.042825452390655</v>
       </c>
       <c r="SI3">
-        <v>1.022983372161073</v>
+        <v>1.042713284404668</v>
       </c>
       <c r="SJ3">
-        <v>1.022544942350724</v>
+        <v>1.042693908955224</v>
       </c>
       <c r="SK3">
-        <v>1.024206556176568</v>
+        <v>1.042965181079922</v>
       </c>
       <c r="SL3">
-        <v>1.025767361718271</v>
+        <v>1.043392888135373</v>
       </c>
       <c r="SM3">
-        <v>1.024134379440144</v>
+        <v>1.043053625128548</v>
       </c>
       <c r="SN3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="SO3">
-        <v>1.026273919983045</v>
+        <v>1.043566619714894</v>
       </c>
       <c r="SP3">
-        <v>1.023622223442821</v>
+        <v>1.042811465214536</v>
       </c>
       <c r="SQ3">
-        <v>1.023626723784212</v>
+        <v>1.042813520079589</v>
       </c>
       <c r="SR3">
-        <v>1.022982588140784</v>
+        <v>1.042711942989913</v>
       </c>
       <c r="SS3">
-        <v>1.024206334433407</v>
+        <v>1.042964734944651</v>
       </c>
       <c r="ST3">
-        <v>1.025766962623724</v>
+        <v>1.043392332300055</v>
       </c>
       <c r="SU3">
-        <v>1.024134379440145</v>
+        <v>1.043049898892881</v>
       </c>
       <c r="SV3">
-        <v>1.024049387048337</v>
+        <v>1.043033789761134</v>
       </c>
       <c r="SW3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="SX3">
-        <v>1.023614902021182</v>
+        <v>1.042807934895656</v>
       </c>
       <c r="SY3">
-        <v>1.023622223442821</v>
+        <v>1.042811465214536</v>
       </c>
       <c r="SZ3">
-        <v>1.023592613336884</v>
+        <v>1.042799097820976</v>
       </c>
       <c r="TA3">
-        <v>1.022981866606174</v>
+        <v>1.042710708484655</v>
       </c>
       <c r="TB3">
-        <v>1.024206182935848</v>
+        <v>1.042964430139741</v>
       </c>
       <c r="TC3">
-        <v>1.025766658031626</v>
+        <v>1.04339190808217</v>
       </c>
       <c r="TD3">
-        <v>1.024134379440145</v>
+        <v>1.043046612857782</v>
       </c>
       <c r="TE3">
-        <v>1.02400353624934</v>
+        <v>1.043023089149276</v>
       </c>
       <c r="TF3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="TG3">
-        <v>1.02360951258311</v>
+        <v>1.042805336160396</v>
       </c>
       <c r="TH3">
-        <v>1.023614902021182</v>
+        <v>1.042807934895656</v>
       </c>
       <c r="TI3">
-        <v>1.023575116117113</v>
+        <v>1.042791789673523</v>
       </c>
       <c r="TJ3">
-        <v>1.022981223779494</v>
+        <v>1.042709608644253</v>
       </c>
       <c r="TK3">
-        <v>1.024206063223045</v>
+        <v>1.042964189284046</v>
       </c>
       <c r="TL3">
-        <v>1.025764484395114</v>
+        <v>1.043388880769609</v>
       </c>
       <c r="TM3">
-        <v>1.023996688712097</v>
+        <v>1.043021491075914</v>
       </c>
       <c r="TN3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="TO3">
-        <v>1.023602174857204</v>
+        <v>1.042801797979164</v>
       </c>
       <c r="TP3">
-        <v>1.02360951258311</v>
+        <v>1.042805336160396</v>
       </c>
       <c r="TQ3">
-        <v>1.023561252262454</v>
+        <v>1.042785999090744</v>
       </c>
       <c r="TR3">
-        <v>1.022980556919845</v>
+        <v>1.042708467684794</v>
       </c>
       <c r="TS3">
-        <v>1.024205679391958</v>
+        <v>1.042963417036621</v>
       </c>
       <c r="TT3">
-        <v>1.025761929905838</v>
+        <v>1.043383732505354</v>
       </c>
       <c r="TU3">
-        <v>1.025749647560717</v>
+        <v>1.043372835928324</v>
       </c>
       <c r="TV3">
-        <v>1.02399146173779</v>
+        <v>1.043020271207985</v>
       </c>
       <c r="TW3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="TX3">
-        <v>1.023596982268321</v>
+        <v>1.042799294162275</v>
       </c>
       <c r="TY3">
-        <v>1.023602174857204</v>
+        <v>1.042801797979164</v>
       </c>
       <c r="TZ3">
-        <v>1.023555523613614</v>
+        <v>1.042783606378383</v>
       </c>
       <c r="UA3">
-        <v>1.022978543778222</v>
+        <v>1.042705023312397</v>
       </c>
       <c r="UB3">
-        <v>1.024202574769426</v>
+        <v>1.042957170703761</v>
       </c>
       <c r="UC3">
-        <v>1.025759109166181</v>
+        <v>1.043378047645737</v>
       </c>
       <c r="UD3">
-        <v>1.02398657316828</v>
+        <v>1.043019130316446</v>
       </c>
       <c r="UE3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="UF3">
-        <v>1.023582460961404</v>
+        <v>1.042792292125519</v>
       </c>
       <c r="UG3">
-        <v>1.023596982268321</v>
+        <v>1.042799294162275</v>
       </c>
       <c r="UH3">
-        <v>1.023553721078713</v>
+        <v>1.04278322994133</v>
       </c>
       <c r="UI3">
-        <v>1.02355552356397</v>
+        <v>1.042778654554159</v>
       </c>
       <c r="UJ3">
-        <v>1.022976515015183</v>
+        <v>1.042701552212662</v>
       </c>
       <c r="UK3">
-        <v>1.024202420162268</v>
+        <v>1.042956859642511</v>
       </c>
       <c r="UL3">
-        <v>1.025751463368834</v>
+        <v>1.043362638466376</v>
       </c>
       <c r="UM3">
-        <v>1.023981360120203</v>
+        <v>1.043017913697961</v>
       </c>
       <c r="UN3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="UO3">
-        <v>1.02357194611151</v>
+        <v>1.042787221963584</v>
       </c>
       <c r="UP3">
-        <v>1.023582460961404</v>
+        <v>1.042792292125519</v>
       </c>
       <c r="UQ3">
-        <v>1.023553057800425</v>
+        <v>1.042783091423887</v>
       </c>
       <c r="UR3">
-        <v>1.023555523526413</v>
+        <v>1.042774908471186</v>
       </c>
       <c r="US3">
-        <v>1.02295755903022</v>
+        <v>1.042669119587244</v>
       </c>
       <c r="UT3">
-        <v>1.024202298171823</v>
+        <v>1.042956614204326</v>
       </c>
       <c r="UU3">
-        <v>1.023976747210092</v>
+        <v>1.043016837139086</v>
       </c>
       <c r="UV3">
-        <v>1.025535665177008</v>
+        <v>1.043384158225465</v>
       </c>
       <c r="UW3">
-        <v>1.02357046605695</v>
+        <v>1.042786737725826</v>
       </c>
       <c r="UX3">
-        <v>1.02357194611151</v>
+        <v>1.042787221963584</v>
       </c>
       <c r="UY3">
-        <v>1.023558560071406</v>
+        <v>1.042777163289031</v>
       </c>
       <c r="UZ3">
-        <v>1.023552069798036</v>
+        <v>1.042782885091843</v>
       </c>
       <c r="VA3">
-        <v>1.024202160258312</v>
+        <v>1.042956336729792</v>
       </c>
       <c r="VB3">
-        <v>1.023972029023345</v>
+        <v>1.043015736010524</v>
       </c>
       <c r="VC3">
-        <v>1.023570115607214</v>
+        <v>1.042786623067217</v>
       </c>
       <c r="VD3">
-        <v>1.02357046605695</v>
+        <v>1.042786737725826</v>
       </c>
       <c r="VE3">
-        <v>1.023556867841076</v>
+        <v>1.042775891696072</v>
       </c>
       <c r="VF3">
-        <v>1.023551475294428</v>
+        <v>1.042782760937138</v>
       </c>
       <c r="VG3">
-        <v>1.024202037510921</v>
+        <v>1.042956089768673</v>
       </c>
       <c r="VH3">
-        <v>1.023947677135337</v>
+        <v>1.043010052772132</v>
       </c>
       <c r="VI3">
-        <v>1.02356061505201</v>
+        <v>1.042783514716853</v>
       </c>
       <c r="VJ3">
-        <v>1.023570115607214</v>
+        <v>1.042786623067217</v>
       </c>
       <c r="VK3">
-        <v>1.023570115607218</v>
+        <v>1.042786623067225</v>
       </c>
       <c r="VL3">
-        <v>1.023555619087335</v>
+        <v>1.042774953344808</v>
       </c>
       <c r="VM3">
-        <v>1.023550757947638</v>
+        <v>1.042782611128158</v>
       </c>
       <c r="VN3">
-        <v>1.024201896228678</v>
+        <v>1.042955805516434</v>
       </c>
       <c r="VO3">
-        <v>1.023627350229127</v>
+        <v>1.042959347553119</v>
       </c>
       <c r="VP3">
-        <v>1.023908477628926</v>
+        <v>1.042999903671876</v>
       </c>
       <c r="VQ3">
-        <v>1.023553956927688</v>
+        <v>1.042781336340374</v>
       </c>
       <c r="VR3">
-        <v>1.02356061505201</v>
+        <v>1.042783514716853</v>
       </c>
       <c r="VS3">
-        <v>1.02357011560722</v>
+        <v>1.042786623067228</v>
       </c>
       <c r="VT3">
-        <v>1.023554404040371</v>
+        <v>1.042774040321833</v>
       </c>
       <c r="VU3">
-        <v>1.023550128086721</v>
+        <v>1.042782479589516</v>
       </c>
       <c r="VV3">
-        <v>1.024201751366306</v>
+        <v>1.042955514061168</v>
       </c>
       <c r="VW3">
-        <v>1.02360889073099</v>
+        <v>1.042956425557994</v>
       </c>
       <c r="VX3">
-        <v>1.023721156647223</v>
+        <v>1.042951404325402</v>
       </c>
       <c r="VY3">
-        <v>1.02354943670078</v>
+        <v>1.042779857414803</v>
       </c>
       <c r="VZ3">
-        <v>1.023552910439105</v>
+        <v>1.042780993956739</v>
       </c>
       <c r="WA3">
-        <v>1.023570115607221</v>
+        <v>1.04278662306723</v>
       </c>
       <c r="WB3">
-        <v>1.023542990321752</v>
+        <v>1.042765463708961</v>
       </c>
       <c r="WC3">
-        <v>1.023546006487462</v>
+        <v>1.042781618844616</v>
       </c>
       <c r="WD3">
-        <v>1.024201577242307</v>
+        <v>1.042955163733092</v>
       </c>
       <c r="WE3">
-        <v>1.023599619687633</v>
+        <v>1.042954958023768</v>
       </c>
       <c r="WF3">
-        <v>1.023577129992433</v>
+        <v>1.042932238781728</v>
       </c>
       <c r="WG3">
-        <v>1.023518286705717</v>
+        <v>1.042896691694906</v>
       </c>
       <c r="WH3">
-        <v>1.023545405632742</v>
+        <v>1.04277853853189</v>
       </c>
       <c r="WI3">
-        <v>1.02354943670078</v>
+        <v>1.042779857414803</v>
       </c>
       <c r="WJ3">
-        <v>1.02354943670078</v>
+        <v>1.042779857414803</v>
       </c>
       <c r="WK3">
-        <v>1.023506317275316</v>
+        <v>1.042765749889556</v>
       </c>
       <c r="WL3">
-        <v>1.023552910439105</v>
+        <v>1.042780993956739</v>
       </c>
       <c r="WM3">
-        <v>1.023570115607223</v>
+        <v>1.042786623067232</v>
       </c>
       <c r="WN3">
-        <v>1.023537678274839</v>
+        <v>1.042761472076433</v>
       </c>
       <c r="WO3">
-        <v>1.023515616719532</v>
+        <v>1.042775272317904</v>
       </c>
       <c r="WP3">
-        <v>1.024201468078962</v>
+        <v>1.042954944102339</v>
       </c>
       <c r="WQ3">
-        <v>1.023591845415434</v>
+        <v>1.042953727416753</v>
       </c>
       <c r="WR3">
-        <v>1.023501126755754</v>
+        <v>1.042922125069448</v>
       </c>
       <c r="WS3">
-        <v>1.023323975749574</v>
+        <v>1.042844286838722</v>
       </c>
       <c r="WT3">
-        <v>1.023536611525479</v>
+        <v>1.042775661279516</v>
       </c>
       <c r="WU3">
-        <v>1.023545405632742</v>
+        <v>1.04277853853189</v>
       </c>
       <c r="WV3">
-        <v>1.023545405632742</v>
+        <v>1.04277853853189</v>
       </c>
       <c r="WW3">
-        <v>1.023495350655025</v>
+        <v>1.042762161897208</v>
       </c>
       <c r="WX3">
-        <v>1.023570115607223</v>
+        <v>1.042786623067234</v>
       </c>
       <c r="WY3">
-        <v>1.023535185115619</v>
+        <v>1.042759598641265</v>
       </c>
       <c r="WZ3">
-        <v>1.024200998931609</v>
+        <v>1.042954000203216</v>
       </c>
       <c r="XA3">
-        <v>1.023585505768741</v>
+        <v>1.042952723899798</v>
       </c>
       <c r="XB3">
-        <v>1.023321802030001</v>
+        <v>1.042838847528996</v>
       </c>
       <c r="XC3">
-        <v>1.023269701671816</v>
+        <v>1.042830535567209</v>
       </c>
       <c r="XD3">
-        <v>1.023524631929099</v>
+        <v>1.042771741800008</v>
       </c>
       <c r="XE3">
-        <v>1.023570115607224</v>
+        <v>1.042786623067235</v>
       </c>
       <c r="XF3">
-        <v>1.023533522139924</v>
+        <v>1.042758349031078</v>
       </c>
       <c r="XG3">
-        <v>1.024199021062068</v>
+        <v>1.042950020836594</v>
       </c>
       <c r="XH3">
-        <v>1.023575554376062</v>
+        <v>1.042951148671375</v>
       </c>
       <c r="XI3">
-        <v>1.023321269027903</v>
+        <v>1.042837513795105</v>
       </c>
       <c r="XJ3">
-        <v>1.023257214888396</v>
+        <v>1.042827371820313</v>
       </c>
       <c r="XK3">
-        <v>1.023521118179827</v>
+        <v>1.042770592172912</v>
       </c>
       <c r="XL3">
-        <v>1.023570115607225</v>
+        <v>1.042786623067236</v>
       </c>
       <c r="XM3">
-        <v>1.023530979759747</v>
+        <v>1.042756438609785</v>
       </c>
       <c r="XN3">
-        <v>1.023551824707067</v>
+        <v>1.04294739244817</v>
       </c>
       <c r="XO3">
-        <v>1.023320903030109</v>
+        <v>1.042836597956948</v>
       </c>
       <c r="XP3">
-        <v>1.023251018352117</v>
+        <v>1.042825801817758</v>
       </c>
       <c r="XQ3">
-        <v>1.023509488324998</v>
+        <v>1.042766787121526</v>
       </c>
       <c r="XR3">
-        <v>1.023570115607226</v>
+        <v>1.042786623067237</v>
       </c>
       <c r="XS3">
-        <v>1.023526014521359</v>
+        <v>1.042752707579595</v>
       </c>
       <c r="XT3">
-        <v>1.023535407620632</v>
+        <v>1.042944793750018</v>
       </c>
       <c r="XU3">
-        <v>1.023320395677936</v>
+        <v>1.042835328407007</v>
       </c>
       <c r="XV3">
-        <v>1.023244208846053</v>
+        <v>1.042824076507838</v>
       </c>
       <c r="XW3">
-        <v>1.023570115607226</v>
+        <v>1.042786623067238</v>
       </c>
       <c r="XX3">
-        <v>1.023524642002078</v>
+        <v>1.04275167622712</v>
       </c>
       <c r="XY3">
-        <v>1.023514533396887</v>
+        <v>1.042941489521112</v>
       </c>
       <c r="XZ3">
-        <v>1.023319192594369</v>
+        <v>1.042832317924859</v>
       </c>
       <c r="YA3">
-        <v>1.023236351693843</v>
+        <v>1.042822085757311</v>
       </c>
       <c r="YB3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="YC3">
-        <v>1.023524243537721</v>
+        <v>1.042751376808958</v>
       </c>
       <c r="YD3">
-        <v>1.023501852484864</v>
+        <v>1.042939482230208</v>
       </c>
       <c r="YE3">
-        <v>1.02331827805267</v>
+        <v>1.042830029462515</v>
       </c>
       <c r="YF3">
-        <v>1.023228408652091</v>
+        <v>1.042820073244306</v>
       </c>
       <c r="YG3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="YH3">
-        <v>1.023524109577749</v>
+        <v>1.042751246941797</v>
       </c>
       <c r="YI3">
-        <v>1.023523119091678</v>
+        <v>1.042750686996651</v>
       </c>
       <c r="YJ3">
-        <v>1.023490404326624</v>
+        <v>1.042937670074648</v>
       </c>
       <c r="YK3">
-        <v>1.023317636058297</v>
+        <v>1.042828422996742</v>
       </c>
       <c r="YL3">
-        <v>1.023219602769032</v>
+        <v>1.042817842113917</v>
       </c>
       <c r="YM3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="YN3">
-        <v>1.023523984202601</v>
+        <v>1.042751125397173</v>
       </c>
       <c r="YO3">
-        <v>1.023521635311275</v>
+        <v>1.042749776744005</v>
       </c>
       <c r="YP3">
-        <v>1.023471096604722</v>
+        <v>1.042934613810272</v>
       </c>
       <c r="YQ3">
-        <v>1.023316963513035</v>
+        <v>1.042826740083336</v>
       </c>
       <c r="YR3">
-        <v>1.023206797179769</v>
+        <v>1.042814597583515</v>
       </c>
       <c r="YS3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="YT3">
-        <v>1.02352385505002</v>
+        <v>1.042751000190527</v>
       </c>
       <c r="YU3">
-        <v>1.023515471001244</v>
+        <v>1.042745995133499</v>
       </c>
       <c r="YV3">
-        <v>1.023452114504436</v>
+        <v>1.042931609089025</v>
       </c>
       <c r="YW3">
-        <v>1.023316411346728</v>
+        <v>1.042825358394801</v>
       </c>
       <c r="YX3">
-        <v>1.023201872591095</v>
+        <v>1.042813327005963</v>
       </c>
       <c r="YY3">
-        <v>1.023173572444435</v>
+        <v>1.042806188678201</v>
       </c>
       <c r="YZ3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="ZA3">
-        <v>1.023522921247852</v>
+        <v>1.042750094918351</v>
       </c>
       <c r="ZB3">
-        <v>1.02351285316673</v>
+        <v>1.042744389174267</v>
       </c>
       <c r="ZC3">
-        <v>1.023443133210016</v>
+        <v>1.042930187418737</v>
       </c>
       <c r="ZD3">
-        <v>1.023315497111322</v>
+        <v>1.04282307069895</v>
       </c>
       <c r="ZE3">
-        <v>1.023198915375978</v>
+        <v>1.042812564024228</v>
       </c>
       <c r="ZF3">
-        <v>1.022963187592096</v>
+        <v>1.042752941679693</v>
       </c>
       <c r="ZG3">
-        <v>1.023570115607227</v>
+        <v>1.042786623067239</v>
       </c>
       <c r="ZH3">
-        <v>1.023516121196904</v>
+        <v>1.042743502625967</v>
       </c>
       <c r="ZI3">
-        <v>1.023433268476994</v>
+        <v>1.042928625906797</v>
       </c>
       <c r="ZJ3">
-        <v>1.023312542573436</v>
+        <v>1.042815677544069</v>
       </c>
       <c r="ZK3">
-        <v>1.023196172131</v>
+        <v>1.042811856248245</v>
       </c>
       <c r="ZL3">
-        <v>1.022812596440777</v>
+        <v>1.042714827711378</v>
       </c>
       <c r="ZM3">
-        <v>1.02342380044582</v>
+        <v>1.042927127189662</v>
       </c>
       <c r="ZN3">
-        <v>1.023305638929829</v>
+        <v>1.042798402522966</v>
       </c>
       <c r="ZO3">
-        <v>1.023193495456528</v>
+        <v>1.0428111656479</v>
       </c>
       <c r="ZP3">
-        <v>1.02278980719448</v>
+        <v>1.042698727365265</v>
       </c>
       <c r="ZQ3">
-        <v>1.022388754507765</v>
+        <v>1.042610735029794</v>
       </c>
       <c r="ZR3">
-        <v>1.023412382079552</v>
+        <v>1.042925319749263</v>
       </c>
       <c r="ZS3">
-        <v>1.023191487771283</v>
+        <v>1.042810647651353</v>
       </c>
       <c r="ZT3">
-        <v>1.022788741719495</v>
+        <v>1.042697731991575</v>
       </c>
       <c r="ZU3">
-        <v>1.022786832644272</v>
+        <v>1.042697303230363</v>
       </c>
       <c r="ZV3">
-        <v>1.022297744328611</v>
+        <v>1.042598341261644</v>
       </c>
       <c r="ZW3">
-        <v>1.022305549889308</v>
+        <v>1.042589752096051</v>
       </c>
       <c r="ZX3">
-        <v>1.023394168340578</v>
+        <v>1.042922436652924</v>
       </c>
       <c r="ZY3">
-        <v>1.023188298431142</v>
+        <v>1.042809824779737</v>
       </c>
       <c r="ZZ3">
-        <v>1.022788408325738</v>
+        <v>1.04269742053295</v>
       </c>
       <c r="AAA3">
-        <v>1.022780773018082</v>
+        <v>1.042694402043742</v>
       </c>
       <c r="AAB3">
-        <v>1.022245019741765</v>
+        <v>1.042591161223722</v>
       </c>
       <c r="AAC3">
-        <v>1.022149533247558</v>
+        <v>1.042550404969848</v>
       </c>
       <c r="AAD3">
-        <v>1.023344319371398</v>
+        <v>1.042914545938981</v>
       </c>
       <c r="AAE3">
-        <v>1.023182921080047</v>
+        <v>1.042808437386274</v>
       </c>
       <c r="AAF3">
-        <v>1.022788193963208</v>
+        <v>1.042697220274074</v>
       </c>
       <c r="AAG3">
-        <v>1.021737990281308</v>
+        <v>1.042446613999367</v>
       </c>
       <c r="AAH3">
-        <v>1.022149533247559</v>
+        <v>1.042550404969848</v>
       </c>
       <c r="AAI3">
-        <v>1.023277979565167</v>
+        <v>1.042904044847603</v>
       </c>
       <c r="AAJ3">
-        <v>1.023142628903952</v>
+        <v>1.042798041727488</v>
       </c>
       <c r="AAK3">
-        <v>1.02278806466575</v>
+        <v>1.042697099483544</v>
       </c>
       <c r="AAL3">
-        <v>1.021267018822634</v>
+        <v>1.04234021506588</v>
       </c>
       <c r="AAM3">
-        <v>1.021716415190036</v>
+        <v>1.042425210444166</v>
       </c>
       <c r="AAN3">
-        <v>1.02214953324756</v>
+        <v>1.042550404969849</v>
       </c>
       <c r="AAO3">
-        <v>1.023271660915676</v>
+        <v>1.042903044652832</v>
       </c>
       <c r="AAP3">
-        <v>1.023109574373318</v>
+        <v>1.042789513429717</v>
       </c>
       <c r="AAQ3">
-        <v>1.022787933983228</v>
+        <v>1.042696977399079</v>
       </c>
       <c r="AAR3">
-        <v>1.020780930579081</v>
+        <v>1.042230400027294</v>
       </c>
       <c r="AAS3">
-        <v>1.021714105526363</v>
+        <v>1.042422919143823</v>
       </c>
       <c r="AAT3">
-        <v>1.022149533247562</v>
+        <v>1.04255040496985</v>
       </c>
       <c r="AAU3">
-        <v>1.023266663768477</v>
+        <v>1.042902253641929</v>
       </c>
       <c r="AAV3">
-        <v>1.023099101550662</v>
+        <v>1.042786811368707</v>
       </c>
       <c r="AAW3">
-        <v>1.022787817256241</v>
+        <v>1.042696868351965</v>
       </c>
       <c r="AAX3">
-        <v>1.020582142862635</v>
+        <v>1.042210899049664</v>
       </c>
       <c r="AAY3">
-        <v>1.020742554210509</v>
+        <v>1.042042731418269</v>
       </c>
       <c r="AAZ3">
-        <v>1.021713223664795</v>
+        <v>1.042422044293628</v>
       </c>
       <c r="ABA3">
-        <v>1.022149533247563</v>
+        <v>1.04255040496985</v>
       </c>
       <c r="ABB3">
-        <v>1.023261810340983</v>
+        <v>1.04290148538076</v>
       </c>
       <c r="ABC3">
-        <v>1.0230895673843</v>
+        <v>1.042784351487438</v>
       </c>
       <c r="ABD3">
-        <v>1.02278768574548</v>
+        <v>1.042696745493753</v>
       </c>
       <c r="ABE3">
-        <v>1.020312022884422</v>
+        <v>1.042184400272293</v>
       </c>
       <c r="ABF3">
-        <v>1.020737406297037</v>
+        <v>1.042017557037795</v>
       </c>
       <c r="ABG3">
-        <v>1.021712290829798</v>
+        <v>1.042421118875278</v>
       </c>
       <c r="ABH3">
-        <v>1.022149533247563</v>
+        <v>1.042550404969849</v>
       </c>
       <c r="ABI3">
-        <v>1.023256611797147</v>
+        <v>1.042900662490242</v>
       </c>
       <c r="ABJ3">
-        <v>1.023084374567245</v>
+        <v>1.04278301170446</v>
       </c>
       <c r="ABK3">
-        <v>1.02278758037878</v>
+        <v>1.042696647059494</v>
       </c>
       <c r="ABL3">
-        <v>1.019995769136845</v>
+        <v>1.042153375566025</v>
       </c>
       <c r="ABM3">
-        <v>1.020734701702771</v>
+        <v>1.042004331003666</v>
       </c>
       <c r="ABN3">
-        <v>1.021711516657698</v>
+        <v>1.042420350858349</v>
       </c>
       <c r="ABO3">
-        <v>1.022149533247564</v>
+        <v>1.042550404969848</v>
       </c>
       <c r="ABP3">
-        <v>1.023251805350937</v>
+        <v>1.042899901665821</v>
       </c>
       <c r="ABQ3">
-        <v>1.023080227288987</v>
+        <v>1.042781941677754</v>
       </c>
       <c r="ABR3">
-        <v>1.022787453991348</v>
+        <v>1.042696528987529</v>
       </c>
       <c r="ABS3">
-        <v>1.019741831894789</v>
+        <v>1.042128463990963</v>
       </c>
       <c r="ABT3">
-        <v>1.020721910584313</v>
+        <v>1.041974257820363</v>
       </c>
       <c r="ABU3">
-        <v>1.020734618210967</v>
+        <v>1.042002862723993</v>
       </c>
       <c r="ABV3">
-        <v>1.021710599847603</v>
+        <v>1.042419441337491</v>
       </c>
       <c r="ABW3">
-        <v>1.022149533247564</v>
+        <v>1.042550404969847</v>
       </c>
       <c r="ABX3">
-        <v>1.023247275783554</v>
+        <v>1.042899184669227</v>
       </c>
       <c r="ABY3">
-        <v>1.023076690839796</v>
+        <v>1.042781029249191</v>
       </c>
       <c r="ABZ3">
-        <v>1.022787317793772</v>
+        <v>1.042696401750864</v>
       </c>
       <c r="ACA3">
-        <v>1.019693366229071</v>
+        <v>1.042124275856555</v>
       </c>
       <c r="ACB3">
-        <v>1.019310567472825</v>
+        <v>1.042080826157296</v>
       </c>
       <c r="ACC3">
-        <v>1.020711512990027</v>
+        <v>1.041949812051001</v>
       </c>
       <c r="ACD3">
-        <v>1.020734557834393</v>
+        <v>1.042001800946763</v>
       </c>
       <c r="ACE3">
-        <v>1.021709705734906</v>
+        <v>1.042418554333573</v>
       </c>
       <c r="ACF3">
-        <v>1.022149533247564</v>
+        <v>1.042550404969846</v>
       </c>
       <c r="ACG3">
-        <v>1.023240976022241</v>
+        <v>1.042898187464165</v>
       </c>
       <c r="ACH3">
-        <v>1.023072540791957</v>
+        <v>1.042779958507879</v>
       </c>
       <c r="ACI3">
-        <v>1.022787069308399</v>
+        <v>1.042696169614204</v>
       </c>
       <c r="ACJ3">
-        <v>1.019626546258136</v>
+        <v>1.042118501637144</v>
       </c>
       <c r="ACK3">
-        <v>1.01895008779783</v>
+        <v>1.042041007186405</v>
       </c>
       <c r="ACL3">
-        <v>1.020734506881947</v>
+        <v>1.042000904901454</v>
       </c>
       <c r="ACM3">
-        <v>1.021708476521406</v>
+        <v>1.042417334893119</v>
       </c>
       <c r="ACN3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969845</v>
       </c>
       <c r="ACO3">
-        <v>1.023233255922996</v>
+        <v>1.042896965430199</v>
       </c>
       <c r="ACP3">
-        <v>1.023068748728043</v>
+        <v>1.042778980128901</v>
       </c>
       <c r="ACQ3">
-        <v>1.022785210249979</v>
+        <v>1.042694432869676</v>
       </c>
       <c r="ACR3">
-        <v>1.019462167527982</v>
+        <v>1.04210429688148</v>
       </c>
       <c r="ACS3">
-        <v>1.018935158639807</v>
+        <v>1.042031353467006</v>
       </c>
       <c r="ACT3">
-        <v>1.018941134722457</v>
+        <v>1.042040308063721</v>
       </c>
       <c r="ACU3">
-        <v>1.020734420817373</v>
+        <v>1.041999391377282</v>
       </c>
       <c r="ACV3">
-        <v>1.021706785539247</v>
+        <v>1.042415657355369</v>
       </c>
       <c r="ACW3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969845</v>
       </c>
       <c r="ACX3">
-        <v>1.023196664659992</v>
+        <v>1.04289117330634</v>
       </c>
       <c r="ACY3">
-        <v>1.023062865793099</v>
+        <v>1.042777462290561</v>
       </c>
       <c r="ACZ3">
-        <v>1.022779513176269</v>
+        <v>1.042689110626169</v>
       </c>
       <c r="ADA3">
-        <v>1.019328936685285</v>
+        <v>1.042092783725242</v>
       </c>
       <c r="ADB3">
-        <v>1.018920529666963</v>
+        <v>1.042021893857621</v>
       </c>
       <c r="ADC3">
-        <v>1.018932574434292</v>
+        <v>1.042039639612752</v>
       </c>
       <c r="ADD3">
-        <v>1.020734300294124</v>
+        <v>1.041997271865862</v>
       </c>
       <c r="ADE3">
-        <v>1.021704996001333</v>
+        <v>1.042413882045445</v>
       </c>
       <c r="ADF3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969844</v>
       </c>
       <c r="ADG3">
-        <v>1.02288379926523</v>
+        <v>1.042841649007509</v>
       </c>
       <c r="ADH3">
-        <v>1.023050988733306</v>
+        <v>1.042774397925993</v>
       </c>
       <c r="ADI3">
-        <v>1.019224834305928</v>
+        <v>1.042083787683596</v>
       </c>
       <c r="ADJ3">
-        <v>1.018923345996908</v>
+        <v>1.042038918987689</v>
       </c>
       <c r="ADK3">
-        <v>1.020734210863053</v>
+        <v>1.041995699138808</v>
       </c>
       <c r="ADL3">
-        <v>1.02170380726029</v>
+        <v>1.042412702755666</v>
       </c>
       <c r="ADM3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="ADN3">
-        <v>1.023049330030771</v>
+        <v>1.042773934593468</v>
       </c>
       <c r="ADO3">
-        <v>1.023039726475313</v>
+        <v>1.042771703080106</v>
       </c>
       <c r="ADP3">
-        <v>1.019130746109259</v>
+        <v>1.042075657002444</v>
       </c>
       <c r="ADQ3">
-        <v>1.018915105707749</v>
+        <v>1.042038275524563</v>
       </c>
       <c r="ADR3">
-        <v>1.02073406271676</v>
+        <v>1.04199309385099</v>
       </c>
       <c r="ADS3">
-        <v>1.021702597407973</v>
+        <v>1.042411502522461</v>
       </c>
       <c r="ADT3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="ADU3">
-        <v>1.023047883485675</v>
+        <v>1.042773530523792</v>
       </c>
       <c r="ADV3">
-        <v>1.023021705225858</v>
+        <v>1.042767390934787</v>
       </c>
       <c r="ADW3">
-        <v>1.019128918033161</v>
+        <v>1.042075119352833</v>
       </c>
       <c r="ADX3">
-        <v>1.01907729331628</v>
+        <v>1.042072487635733</v>
       </c>
       <c r="ADY3">
-        <v>1.018906005682034</v>
+        <v>1.042037564926773</v>
       </c>
       <c r="ADZ3">
-        <v>1.02073303443053</v>
+        <v>1.041975010499785</v>
       </c>
       <c r="AEA3">
-        <v>1.021702018925617</v>
+        <v>1.042410928639417</v>
       </c>
       <c r="AEB3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="AEC3">
-        <v>1.023046687127029</v>
+        <v>1.042773196339773</v>
       </c>
       <c r="AED3">
-        <v>1.023006307833298</v>
+        <v>1.042763706628699</v>
       </c>
       <c r="AEE3">
-        <v>1.019127085154483</v>
+        <v>1.042074580290746</v>
       </c>
       <c r="AEF3">
-        <v>1.018991890119012</v>
+        <v>1.042067423776897</v>
       </c>
       <c r="AEG3">
-        <v>1.01907729331628</v>
+        <v>1.042072487635733</v>
       </c>
       <c r="AEH3">
-        <v>1.018900138596639</v>
+        <v>1.042037106781025</v>
       </c>
       <c r="AEI3">
-        <v>1.020730763073035</v>
+        <v>1.041935066612757</v>
       </c>
       <c r="AEJ3">
-        <v>1.02170109877932</v>
+        <v>1.042410015808882</v>
       </c>
       <c r="AEK3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="AEL3">
-        <v>1.023045756780432</v>
+        <v>1.042772936462046</v>
       </c>
       <c r="AEM3">
-        <v>1.02299759351334</v>
+        <v>1.042761621455923</v>
       </c>
       <c r="AEN3">
-        <v>1.019125248718365</v>
+        <v>1.042074040182387</v>
       </c>
       <c r="AEO3">
-        <v>1.018920282555704</v>
+        <v>1.042063177902342</v>
       </c>
       <c r="AEP3">
-        <v>1.018991890119012</v>
+        <v>1.042067423776897</v>
       </c>
       <c r="AEQ3">
-        <v>1.018891127154675</v>
+        <v>1.042036403100459</v>
       </c>
       <c r="AER3">
-        <v>1.021700234966313</v>
+        <v>1.04240915886375</v>
       </c>
       <c r="AES3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="AET3">
-        <v>1.023044810560363</v>
+        <v>1.042772672150313</v>
       </c>
       <c r="AEU3">
-        <v>1.01912342339933</v>
+        <v>1.042073503343635</v>
       </c>
       <c r="AEV3">
-        <v>1.018843306374754</v>
+        <v>1.042058613694809</v>
       </c>
       <c r="AEW3">
-        <v>1.018920282555704</v>
+        <v>1.042063177902342</v>
       </c>
       <c r="AEX3">
-        <v>1.018817005782662</v>
+        <v>1.042030615149904</v>
       </c>
       <c r="AEY3">
-        <v>1.021699000721163</v>
+        <v>1.042407934431651</v>
       </c>
       <c r="AEZ3">
-        <v>1.022149533247565</v>
+        <v>1.042550404969843</v>
       </c>
       <c r="AFA3">
-        <v>1.02304398940958</v>
+        <v>1.042772442774722</v>
       </c>
       <c r="AFB3">
-        <v>1.019121591143214</v>
+        <v>1.042072964464636</v>
       </c>
       <c r="AFC3">
-        <v>1.018780106306472</v>
+        <v>1.042054866318668</v>
       </c>
       <c r="AFD3">
-        <v>1.018843306374754</v>
+        <v>1.042058613694809</v>
       </c>
       <c r="AFE3">
-        <v>1.018561550279233</v>
+        <v>1.042010667258068</v>
       </c>
       <c r="AFF3">
-        <v>1.021685972425741</v>
+        <v>1.042395009719635</v>
       </c>
       <c r="AFG3">
-        <v>1.023043399646571</v>
+        <v>1.042772278033675</v>
       </c>
       <c r="AFH3">
-        <v>1.019119760132254</v>
+        <v>1.042072425951842</v>
       </c>
       <c r="AFI3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097827</v>
       </c>
       <c r="AFJ3">
-        <v>1.018780106306472</v>
+        <v>1.042054866318668</v>
       </c>
       <c r="AFK3">
-        <v>1.02168076143613</v>
+        <v>1.042389840160765</v>
       </c>
       <c r="AFL3">
-        <v>1.023042714930638</v>
+        <v>1.042772086769018</v>
       </c>
       <c r="AFM3">
-        <v>1.019117927965216</v>
+        <v>1.042071887099033</v>
       </c>
       <c r="AFN3">
-        <v>1.018354264305499</v>
+        <v>1.042029616253316</v>
       </c>
       <c r="AFO3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097827</v>
       </c>
       <c r="AFP3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097827</v>
       </c>
       <c r="AFQ3">
-        <v>1.021678115304853</v>
+        <v>1.042387215067944</v>
       </c>
       <c r="AFR3">
-        <v>1.023041683396875</v>
+        <v>1.042771798626239</v>
       </c>
       <c r="AFS3">
-        <v>1.019117033626501</v>
+        <v>1.042071624067922</v>
       </c>
       <c r="AFT3">
-        <v>1.018301889387749</v>
+        <v>1.042026510704041</v>
       </c>
       <c r="AFU3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097826</v>
       </c>
       <c r="AFV3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097827</v>
       </c>
       <c r="AFW3">
-        <v>1.02167752976726</v>
+        <v>1.042386634185753</v>
       </c>
       <c r="AFX3">
-        <v>1.02303999807878</v>
+        <v>1.042771327859057</v>
       </c>
       <c r="AFY3">
-        <v>1.019096933239465</v>
+        <v>1.04206571240686</v>
       </c>
       <c r="AFZ3">
-        <v>1.018154337493105</v>
+        <v>1.042017761671258</v>
       </c>
       <c r="AGA3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGB3">
-        <v>1.018712254180109</v>
+        <v>1.042050843097826</v>
       </c>
       <c r="AGC3">
-        <v>1.021677068627696</v>
+        <v>1.042386176712547</v>
       </c>
       <c r="AGD3">
-        <v>1.023034175467401</v>
+        <v>1.042769439056055</v>
       </c>
       <c r="AGE3">
-        <v>1.023019491890739</v>
+        <v>1.042766298356759</v>
       </c>
       <c r="AGF3">
-        <v>1.019083862342135</v>
+        <v>1.042061868166452</v>
       </c>
       <c r="AGG3">
-        <v>1.017981074676665</v>
+        <v>1.042007488112323</v>
       </c>
       <c r="AGH3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGI3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGJ3">
-        <v>1.02167657454685</v>
+        <v>1.042385686559964</v>
       </c>
       <c r="AGK3">
-        <v>1.019072430532793</v>
+        <v>1.042058505992878</v>
       </c>
       <c r="AGL3">
-        <v>1.0179585987576</v>
+        <v>1.042006155409905</v>
       </c>
       <c r="AGM3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGN3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGO3">
-        <v>1.021676179246081</v>
+        <v>1.042385294402092</v>
       </c>
       <c r="AGP3">
-        <v>1.019060439317883</v>
+        <v>1.042054979294118</v>
       </c>
       <c r="AGQ3">
-        <v>1.017930917211603</v>
+        <v>1.04200558573479</v>
       </c>
       <c r="AGR3">
-        <v>1.017957332129492</v>
+        <v>1.042003695906228</v>
       </c>
       <c r="AGS3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGT3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGU3">
-        <v>1.021675795425248</v>
+        <v>1.042384913632883</v>
       </c>
       <c r="AGV3">
-        <v>1.019039964517946</v>
+        <v>1.042048957514266</v>
       </c>
       <c r="AGW3">
-        <v>1.017905302740275</v>
+        <v>1.042005058599181</v>
       </c>
       <c r="AGX3">
-        <v>1.01795436787864</v>
+        <v>1.041997940005382</v>
       </c>
       <c r="AGY3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AGZ3">
-        <v>1.018712254180108</v>
+        <v>1.042050843097825</v>
       </c>
       <c r="AHA3">
-        <v>1.021675412577936</v>
+        <v>1.042384533829456</v>
       </c>
       <c r="AHB3">
-        <v>1.019034942491449</v>
+        <v>1.042047480501565</v>
       </c>
       <c r="AHC3">
-        <v>1.017866353695887</v>
+        <v>1.042004257043261</v>
       </c>
       <c r="AHD3">
-        <v>1.017947335789356</v>
+        <v>1.041984285287953</v>
       </c>
       <c r="AHE3">
-        <v>1.021675034209959</v>
+        <v>1.042384158469749</v>
       </c>
       <c r="AHF3">
-        <v>1.019033234676879</v>
+        <v>1.042047480501522</v>
       </c>
       <c r="AHG3">
-        <v>1.01902028135842</v>
+        <v>1.04204124698248</v>
       </c>
       <c r="AHH3">
-        <v>1.017817132762217</v>
+        <v>1.042003244095728</v>
       </c>
       <c r="AHI3">
-        <v>1.021668268204499</v>
+        <v>1.042377446258418</v>
       </c>
       <c r="AHJ3">
-        <v>1.019030430585434</v>
+        <v>1.04204748050145</v>
       </c>
       <c r="AHK3">
-        <v>1.019007846747096</v>
+        <v>1.042035960120026</v>
       </c>
       <c r="AHL3">
-        <v>1.017625516723656</v>
+        <v>1.041999300710638</v>
       </c>
       <c r="AHM3">
-        <v>1.021636410624181</v>
+        <v>1.042361834245974</v>
       </c>
       <c r="AHN3">
-        <v>1.021668268073302</v>
+        <v>1.042368499357476</v>
       </c>
       <c r="AHO3">
-        <v>1.019029876155025</v>
+        <v>1.042047480501436</v>
       </c>
       <c r="AHP3">
-        <v>1.018986946722637</v>
+        <v>1.042027073990531</v>
       </c>
       <c r="AHQ3">
-        <v>1.017277434022843</v>
+        <v>1.041992137292753</v>
       </c>
       <c r="AHR3">
-        <v>1.021615253550848</v>
+        <v>1.042351466085086</v>
       </c>
       <c r="AHS3">
-        <v>1.019029407673271</v>
+        <v>1.042047480501425</v>
       </c>
       <c r="AHT3">
-        <v>1.019029012885257</v>
+        <v>1.042047480501415</v>
       </c>
       <c r="AHU3">
-        <v>1.019028499331883</v>
+        <v>1.042047480501402</v>
       </c>
       <c r="AHV3">
-        <v>1.019027569880267</v>
+        <v>1.042047480501378</v>
       </c>
       <c r="AHW3">
-        <v>1.019025958377621</v>
+        <v>1.042047480501336</v>
       </c>
       <c r="AHX3">
-        <v>1.019012758476465</v>
+        <v>1.04204748050099</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049918239757489</v>
+        <v>1.049878375859344</v>
       </c>
       <c r="D2">
-        <v>1.04987244200211</v>
+        <v>1.049810649146194</v>
       </c>
       <c r="E2">
-        <v>1.049867640748421</v>
+        <v>1.049803548950213</v>
       </c>
       <c r="F2">
-        <v>1.049863142727859</v>
+        <v>1.049796897182172</v>
       </c>
       <c r="G2">
-        <v>1.049859221100017</v>
+        <v>1.049791097796165</v>
       </c>
       <c r="H2">
-        <v>1.049853042996777</v>
+        <v>1.049781961487244</v>
       </c>
       <c r="I2">
-        <v>1.049432344357793</v>
+        <v>1.049159824996238</v>
       </c>
       <c r="J2">
-        <v>1.049413502005897</v>
+        <v>1.049131960666523</v>
       </c>
       <c r="K2">
-        <v>1.049397819169158</v>
+        <v>1.049108768675903</v>
       </c>
       <c r="L2">
-        <v>1.04938405623373</v>
+        <v>1.049088415864639</v>
       </c>
       <c r="M2">
-        <v>1.049373786484864</v>
+        <v>1.049073228826013</v>
       </c>
       <c r="N2">
-        <v>1.049364145719912</v>
+        <v>1.049058971938611</v>
       </c>
       <c r="O2">
-        <v>1.049358217530841</v>
+        <v>1.049050205257018</v>
       </c>
       <c r="P2">
-        <v>1.049343459000061</v>
+        <v>1.049028380156057</v>
       </c>
       <c r="Q2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006305</v>
       </c>
       <c r="R2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006307</v>
       </c>
       <c r="S2">
-        <v>1.04907892082289</v>
+        <v>1.048637178390647</v>
       </c>
       <c r="T2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006308</v>
       </c>
       <c r="U2">
-        <v>1.04906894520045</v>
+        <v>1.048622426360967</v>
       </c>
       <c r="V2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006308</v>
       </c>
       <c r="W2">
-        <v>1.049057743743643</v>
+        <v>1.048605861559679</v>
       </c>
       <c r="X2">
-        <v>1.04922390275156</v>
+        <v>1.04885157900631</v>
       </c>
       <c r="Y2">
-        <v>1.049039505511844</v>
+        <v>1.048578890725405</v>
       </c>
       <c r="Z2">
-        <v>1.049223902751561</v>
+        <v>1.048851579006311</v>
       </c>
       <c r="AA2">
-        <v>1.049006325773215</v>
+        <v>1.048529824292825</v>
       </c>
       <c r="AB2">
-        <v>1.049223902751561</v>
+        <v>1.048851579006311</v>
       </c>
       <c r="AC2">
-        <v>1.048966816625991</v>
+        <v>1.048510636959585</v>
       </c>
       <c r="AD2">
-        <v>1.048616412171826</v>
+        <v>1.047927528247453</v>
       </c>
       <c r="AE2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006312</v>
       </c>
       <c r="AF2">
-        <v>1.048962484686663</v>
+        <v>1.048508522913767</v>
       </c>
       <c r="AG2">
-        <v>1.048960434155359</v>
+        <v>1.048507547364971</v>
       </c>
       <c r="AH2">
-        <v>1.048512611584487</v>
+        <v>1.04776718892298</v>
       </c>
       <c r="AI2">
-        <v>1.04922390275156</v>
+        <v>1.048851579006312</v>
       </c>
       <c r="AJ2">
-        <v>1.048952564240099</v>
+        <v>1.048503681599654</v>
       </c>
       <c r="AK2">
-        <v>1.048960218012444</v>
+        <v>1.048507442735584</v>
       </c>
       <c r="AL2">
-        <v>1.04848209402375</v>
+        <v>1.047744843353796</v>
       </c>
       <c r="AM2">
-        <v>1.048215331891446</v>
+        <v>1.04729451188416</v>
       </c>
       <c r="AN2">
-        <v>1.049223902751559</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="AO2">
-        <v>1.048959907238024</v>
+        <v>1.048507292297447</v>
       </c>
       <c r="AP2">
-        <v>1.048481002081485</v>
+        <v>1.047743802677706</v>
       </c>
       <c r="AQ2">
-        <v>1.048477398368211</v>
+        <v>1.047742493892967</v>
       </c>
       <c r="AR2">
-        <v>1.048009040803578</v>
+        <v>1.04696650860235</v>
       </c>
       <c r="AS2">
-        <v>1.048215331891446</v>
+        <v>1.047294511884161</v>
       </c>
       <c r="AT2">
-        <v>1.049223902751559</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="AU2">
-        <v>1.048959508691044</v>
+        <v>1.048507099370806</v>
       </c>
       <c r="AV2">
-        <v>1.048480509910433</v>
+        <v>1.047743333613854</v>
       </c>
       <c r="AW2">
-        <v>1.048466099732227</v>
+        <v>1.047736840645401</v>
       </c>
       <c r="AX2">
-        <v>1.047853156190027</v>
+        <v>1.046718652358068</v>
       </c>
       <c r="AY2">
-        <v>1.048215331891446</v>
+        <v>1.047294511884161</v>
       </c>
       <c r="AZ2">
-        <v>1.049223902751558</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="BA2">
-        <v>1.048958538049642</v>
+        <v>1.04850662950754</v>
       </c>
       <c r="BB2">
-        <v>1.048479988314481</v>
+        <v>1.047742836506585</v>
       </c>
       <c r="BC2">
-        <v>1.047830680817914</v>
+        <v>1.046682916603382</v>
       </c>
       <c r="BD2">
-        <v>1.047853156190028</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="BE2">
-        <v>1.048215331891446</v>
+        <v>1.047294511884161</v>
       </c>
       <c r="BF2">
-        <v>1.049223902751558</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="BG2">
-        <v>1.04895770700339</v>
+        <v>1.048506227218798</v>
       </c>
       <c r="BH2">
-        <v>1.048479491530433</v>
+        <v>1.047742363046314</v>
       </c>
       <c r="BI2">
-        <v>1.047728873473267</v>
+        <v>1.046521043461435</v>
       </c>
       <c r="BJ2">
-        <v>1.047853156190028</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="BK2">
-        <v>1.048215331891446</v>
+        <v>1.047294511884162</v>
       </c>
       <c r="BL2">
-        <v>1.049223902751557</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="BM2">
-        <v>1.048953723265682</v>
+        <v>1.048504298790828</v>
       </c>
       <c r="BN2">
-        <v>1.048479194005926</v>
+        <v>1.047742079490442</v>
       </c>
       <c r="BO2">
-        <v>1.047708909170129</v>
+        <v>1.046489002898432</v>
       </c>
       <c r="BP2">
-        <v>1.047700944107208</v>
+        <v>1.046487973251991</v>
       </c>
       <c r="BQ2">
-        <v>1.047853156190028</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="BR2">
-        <v>1.048215331891446</v>
+        <v>1.047294511884162</v>
       </c>
       <c r="BS2">
-        <v>1.049223902751557</v>
+        <v>1.048851579006314</v>
       </c>
       <c r="BT2">
-        <v>1.048939642119255</v>
+        <v>1.048497482459199</v>
       </c>
       <c r="BU2">
-        <v>1.048478610284689</v>
+        <v>1.04774152317464</v>
       </c>
       <c r="BV2">
-        <v>1.047473038937452</v>
+        <v>1.04611045720189</v>
       </c>
       <c r="BW2">
-        <v>1.047698056266505</v>
+        <v>1.04647450283177</v>
       </c>
       <c r="BX2">
-        <v>1.047690180268717</v>
+        <v>1.046485279185005</v>
       </c>
       <c r="BY2">
-        <v>1.047853156190028</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="BZ2">
-        <v>1.048215331891445</v>
+        <v>1.047294511884162</v>
       </c>
       <c r="CA2">
-        <v>1.049223902751557</v>
+        <v>1.048851579006316</v>
       </c>
       <c r="CB2">
-        <v>1.048475651963119</v>
+        <v>1.047738703744865</v>
       </c>
       <c r="CC2">
-        <v>1.047390820934786</v>
+        <v>1.04597850668436</v>
       </c>
       <c r="CD2">
-        <v>1.047853156190028</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="CE2">
-        <v>1.048215331891445</v>
+        <v>1.047294511884163</v>
       </c>
       <c r="CF2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006317</v>
       </c>
       <c r="CG2">
-        <v>1.048464504348559</v>
+        <v>1.047728079505506</v>
       </c>
       <c r="CH2">
-        <v>1.047372878293138</v>
+        <v>1.045949710811767</v>
       </c>
       <c r="CI2">
-        <v>1.047853156190027</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="CJ2">
-        <v>1.048215331891444</v>
+        <v>1.047294511884165</v>
       </c>
       <c r="CK2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006318</v>
       </c>
       <c r="CL2">
-        <v>1.047336493466767</v>
+        <v>1.04589131738054</v>
       </c>
       <c r="CM2">
-        <v>1.047853156190027</v>
+        <v>1.046718652358072</v>
       </c>
       <c r="CN2">
-        <v>1.048215331891444</v>
+        <v>1.047294511884165</v>
       </c>
       <c r="CO2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006319</v>
       </c>
       <c r="CP2">
-        <v>1.047302180909747</v>
+        <v>1.045836249729835</v>
       </c>
       <c r="CQ2">
-        <v>1.048215331891444</v>
+        <v>1.047294511884165</v>
       </c>
       <c r="CR2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006319</v>
       </c>
       <c r="CS2">
-        <v>1.047282237179407</v>
+        <v>1.045804242382129</v>
       </c>
       <c r="CT2">
-        <v>1.048215331891445</v>
+        <v>1.047294511884165</v>
       </c>
       <c r="CU2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006319</v>
       </c>
       <c r="CV2">
-        <v>1.047269065839544</v>
+        <v>1.045783103931796</v>
       </c>
       <c r="CW2">
-        <v>1.048215331891445</v>
+        <v>1.047294511884165</v>
       </c>
       <c r="CX2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006319</v>
       </c>
       <c r="CY2">
-        <v>1.047250879899311</v>
+        <v>1.04575391764469</v>
       </c>
       <c r="CZ2">
-        <v>1.048215331891458</v>
+        <v>1.047294511884174</v>
       </c>
       <c r="DA2">
-        <v>1.049223902751556</v>
+        <v>1.048851579006319</v>
       </c>
       <c r="DB2">
-        <v>1.047250616670406</v>
+        <v>1.045753217888561</v>
       </c>
       <c r="DC2">
-        <v>1.047240409428992</v>
+        <v>1.045738732897881</v>
       </c>
       <c r="DD2">
-        <v>1.048215331891459</v>
+        <v>1.047294511884175</v>
       </c>
       <c r="DE2">
-        <v>1.047250298199791</v>
+        <v>1.04575237128053</v>
       </c>
       <c r="DF2">
-        <v>1.047234472154262</v>
+        <v>1.04573012239589</v>
       </c>
       <c r="DG2">
-        <v>1.04821533189146</v>
+        <v>1.047294511884175</v>
       </c>
       <c r="DH2">
-        <v>1.047249929069705</v>
+        <v>1.045751390001932</v>
       </c>
       <c r="DI2">
-        <v>1.047000203805613</v>
+        <v>1.045390376373931</v>
       </c>
       <c r="DJ2">
-        <v>1.048215331891484</v>
+        <v>1.047294511884194</v>
       </c>
       <c r="DK2">
-        <v>1.04724936625597</v>
+        <v>1.045749893844184</v>
       </c>
       <c r="DL2">
-        <v>1.046976735290203</v>
+        <v>1.045356341372132</v>
       </c>
       <c r="DM2">
-        <v>1.048215331891505</v>
+        <v>1.047294511884211</v>
       </c>
       <c r="DN2">
-        <v>1.047248642682937</v>
+        <v>1.045747970332559</v>
       </c>
       <c r="DO2">
-        <v>1.046976055862534</v>
+        <v>1.045355599541803</v>
       </c>
       <c r="DP2">
-        <v>1.046913669820325</v>
+        <v>1.045262399793838</v>
       </c>
       <c r="DQ2">
-        <v>1.048215331891507</v>
+        <v>1.047294511884212</v>
       </c>
       <c r="DR2">
-        <v>1.047248123226831</v>
+        <v>1.045746589436302</v>
       </c>
       <c r="DS2">
-        <v>1.046976055862532</v>
+        <v>1.0453555995418</v>
       </c>
       <c r="DT2">
-        <v>1.046975725053399</v>
+        <v>1.045355238349207</v>
       </c>
       <c r="DU2">
-        <v>1.04679994011162</v>
+        <v>1.045092989859451</v>
       </c>
       <c r="DV2">
-        <v>1.048215331891508</v>
+        <v>1.047294511884213</v>
       </c>
       <c r="DW2">
-        <v>1.047247389239451</v>
+        <v>1.045744638241903</v>
       </c>
       <c r="DX2">
-        <v>1.046976055862531</v>
+        <v>1.045355599541798</v>
       </c>
       <c r="DY2">
-        <v>1.046974171023716</v>
+        <v>1.045353541588362</v>
       </c>
       <c r="DZ2">
-        <v>1.046748796185715</v>
+        <v>1.045016806902454</v>
       </c>
       <c r="EA2">
-        <v>1.048215331891509</v>
+        <v>1.047294511884214</v>
       </c>
       <c r="EB2">
-        <v>1.047246595118222</v>
+        <v>1.045742527192236</v>
       </c>
       <c r="EC2">
-        <v>1.04697605586253</v>
+        <v>1.045355599541796</v>
       </c>
       <c r="ED2">
-        <v>1.04697162189324</v>
+        <v>1.045343578067265</v>
       </c>
       <c r="EE2">
-        <v>1.046970130388684</v>
+        <v>1.045350173713428</v>
       </c>
       <c r="EF2">
-        <v>1.046733579495488</v>
+        <v>1.044994140453527</v>
       </c>
       <c r="EG2">
-        <v>1.048215331891513</v>
+        <v>1.047294511884217</v>
       </c>
       <c r="EH2">
-        <v>1.04724584619832</v>
+        <v>1.045740536304774</v>
       </c>
       <c r="EI2">
-        <v>1.046976055862528</v>
+        <v>1.045355599541794</v>
       </c>
       <c r="EJ2">
-        <v>1.046971402363282</v>
+        <v>1.045342720013377</v>
       </c>
       <c r="EK2">
-        <v>1.046967124376415</v>
+        <v>1.045347668197208</v>
       </c>
       <c r="EL2">
-        <v>1.046716402881569</v>
+        <v>1.044968554558855</v>
       </c>
       <c r="EM2">
-        <v>1.048215331891516</v>
+        <v>1.047294511884219</v>
       </c>
       <c r="EN2">
-        <v>1.047244614855174</v>
+        <v>1.045737262972864</v>
       </c>
       <c r="EO2">
-        <v>1.046976055862526</v>
+        <v>1.045355599541792</v>
       </c>
       <c r="EP2">
-        <v>1.046971186962691</v>
+        <v>1.045341878099517</v>
       </c>
       <c r="EQ2">
-        <v>1.046965111327017</v>
+        <v>1.045345990316809</v>
       </c>
       <c r="ER2">
-        <v>1.046700248607877</v>
+        <v>1.044944491532281</v>
       </c>
       <c r="ES2">
-        <v>1.048215331891516</v>
+        <v>1.04729451188422</v>
       </c>
       <c r="ET2">
-        <v>1.047238760099135</v>
+        <v>1.045721699075939</v>
       </c>
       <c r="EU2">
-        <v>1.046976055862524</v>
+        <v>1.04535559954179</v>
       </c>
       <c r="EV2">
-        <v>1.046971013035837</v>
+        <v>1.045341198289738</v>
       </c>
       <c r="EW2">
-        <v>1.046964031970024</v>
+        <v>1.045345449815371</v>
       </c>
       <c r="EX2">
-        <v>1.046947827710528</v>
+        <v>1.045324916549956</v>
       </c>
       <c r="EY2">
-        <v>1.04668139967702</v>
+        <v>1.044916414623968</v>
       </c>
       <c r="EZ2">
-        <v>1.048215331891516</v>
+        <v>1.04729451188422</v>
       </c>
       <c r="FA2">
-        <v>1.047237484673574</v>
+        <v>1.045718308579862</v>
       </c>
       <c r="FB2">
-        <v>1.046976055862523</v>
+        <v>1.045355599541789</v>
       </c>
       <c r="FC2">
-        <v>1.04697075198545</v>
+        <v>1.045340177949278</v>
       </c>
       <c r="FD2">
-        <v>1.046961169454222</v>
+        <v>1.045344016374208</v>
       </c>
       <c r="FE2">
-        <v>1.046946775718593</v>
+        <v>1.045323633865135</v>
       </c>
       <c r="FF2">
-        <v>1.046675975999434</v>
+        <v>1.044908335649184</v>
       </c>
       <c r="FG2">
-        <v>1.048215331891516</v>
+        <v>1.04729451188422</v>
       </c>
       <c r="FH2">
-        <v>1.047229653379412</v>
+        <v>1.045443895362868</v>
       </c>
       <c r="FI2">
-        <v>1.047232933948305</v>
+        <v>1.045715043891092</v>
       </c>
       <c r="FJ2">
-        <v>1.046976055862521</v>
+        <v>1.045355599541788</v>
       </c>
       <c r="FK2">
-        <v>1.04697043726004</v>
+        <v>1.045338947814857</v>
       </c>
       <c r="FL2">
-        <v>1.046960175147129</v>
+        <v>1.045343518462033</v>
       </c>
       <c r="FM2">
-        <v>1.046945814668245</v>
+        <v>1.045322462064619</v>
       </c>
       <c r="FN2">
-        <v>1.046645163255157</v>
+        <v>1.044862437781773</v>
       </c>
       <c r="FO2">
-        <v>1.048215331891516</v>
+        <v>1.04729451188422</v>
       </c>
       <c r="FP2">
-        <v>1.047228173915614</v>
+        <v>1.045392054115205</v>
       </c>
       <c r="FQ2">
-        <v>1.047226892397024</v>
+        <v>1.045710709680697</v>
       </c>
       <c r="FR2">
-        <v>1.046976055862521</v>
+        <v>1.045355599541787</v>
       </c>
       <c r="FS2">
-        <v>1.046970199491519</v>
+        <v>1.045338018473809</v>
       </c>
       <c r="FT2">
-        <v>1.046960175147123</v>
+        <v>1.045343518462025</v>
       </c>
       <c r="FU2">
-        <v>1.046943755693834</v>
+        <v>1.045335296198332</v>
       </c>
       <c r="FV2">
-        <v>1.046945415434733</v>
+        <v>1.045321975282595</v>
       </c>
       <c r="FW2">
-        <v>1.046627760060494</v>
+        <v>1.044836514453549</v>
       </c>
       <c r="FX2">
-        <v>1.047225121483714</v>
+        <v>1.045285095222467</v>
       </c>
       <c r="FY2">
-        <v>1.047226175226164</v>
+        <v>1.045710398274222</v>
       </c>
       <c r="FZ2">
-        <v>1.047218932285643</v>
+        <v>1.045699620099626</v>
       </c>
       <c r="GA2">
-        <v>1.04697605586252</v>
+        <v>1.045355599541787</v>
       </c>
       <c r="GB2">
-        <v>1.046969924351949</v>
+        <v>1.045336943064448</v>
       </c>
       <c r="GC2">
-        <v>1.046960175147122</v>
+        <v>1.045343518462024</v>
       </c>
       <c r="GD2">
-        <v>1.046941982377302</v>
+        <v>1.04533440818603</v>
       </c>
       <c r="GE2">
-        <v>1.046944554891615</v>
+        <v>1.045320926029693</v>
       </c>
       <c r="GF2">
-        <v>1.046614841203272</v>
+        <v>1.044817270882791</v>
       </c>
       <c r="GG2">
-        <v>1.047223352969341</v>
+        <v>1.045709172806791</v>
       </c>
       <c r="GH2">
-        <v>1.047185987076144</v>
+        <v>1.045653722682157</v>
       </c>
       <c r="GI2">
-        <v>1.04697605586252</v>
+        <v>1.045355599541786</v>
       </c>
       <c r="GJ2">
-        <v>1.046969665649757</v>
+        <v>1.045335931902153</v>
       </c>
       <c r="GK2">
-        <v>1.046960175147122</v>
+        <v>1.045343518462024</v>
       </c>
       <c r="GL2">
-        <v>1.046960175147122</v>
+        <v>1.045343518462023</v>
       </c>
       <c r="GM2">
-        <v>1.046940267092229</v>
+        <v>1.045333549233764</v>
       </c>
       <c r="GN2">
-        <v>1.046942363098683</v>
+        <v>1.045318253595223</v>
       </c>
       <c r="GO2">
-        <v>1.046603226558766</v>
+        <v>1.044799970038088</v>
       </c>
       <c r="GP2">
-        <v>1.04721831397679</v>
+        <v>1.045706984795855</v>
       </c>
       <c r="GQ2">
-        <v>1.047182161922707</v>
+        <v>1.045646061065612</v>
       </c>
       <c r="GR2">
-        <v>1.047184476394084</v>
+        <v>1.045652966235292</v>
       </c>
       <c r="GS2">
-        <v>1.04697605586252</v>
+        <v>1.045355599541786</v>
       </c>
       <c r="GT2">
-        <v>1.046969387301415</v>
+        <v>1.045334843951005</v>
       </c>
       <c r="GU2">
-        <v>1.046960175147122</v>
+        <v>1.045343518462024</v>
       </c>
       <c r="GV2">
-        <v>1.046960175147122</v>
+        <v>1.045343518462023</v>
       </c>
       <c r="GW2">
-        <v>1.046938895036077</v>
+        <v>1.045332862158032</v>
       </c>
       <c r="GX2">
-        <v>1.046941077184827</v>
+        <v>1.045316685691406</v>
       </c>
       <c r="GY2">
-        <v>1.046588797886953</v>
+        <v>1.044778477507473</v>
       </c>
       <c r="GZ2">
-        <v>1.047209861340052</v>
+        <v>1.045702540845843</v>
       </c>
       <c r="HA2">
-        <v>1.047217447579881</v>
+        <v>1.04570664799485</v>
       </c>
       <c r="HB2">
-        <v>1.04717249098965</v>
+        <v>1.04562669060659</v>
       </c>
       <c r="HC2">
-        <v>1.047184262857674</v>
+        <v>1.045652859310775</v>
       </c>
       <c r="HD2">
-        <v>1.04697605586252</v>
+        <v>1.045355599541786</v>
       </c>
       <c r="HE2">
-        <v>1.046968961790343</v>
+        <v>1.045333180800244</v>
       </c>
       <c r="HF2">
-        <v>1.046960175147121</v>
+        <v>1.045343518462023</v>
       </c>
       <c r="HG2">
-        <v>1.046937802085178</v>
+        <v>1.045332314848041</v>
       </c>
       <c r="HH2">
-        <v>1.046940176526439</v>
+        <v>1.045315587526302</v>
       </c>
       <c r="HI2">
-        <v>1.046562172213193</v>
+        <v>1.044738816703855</v>
       </c>
       <c r="HJ2">
-        <v>1.047182194735818</v>
+        <v>1.045687995205718</v>
       </c>
       <c r="HK2">
-        <v>1.047215883882781</v>
+        <v>1.045706040126836</v>
       </c>
       <c r="HL2">
-        <v>1.0471840906466</v>
+        <v>1.045652773079178</v>
       </c>
       <c r="HM2">
-        <v>1.04697605586252</v>
+        <v>1.045355599541786</v>
       </c>
       <c r="HN2">
-        <v>1.04696779976526</v>
+        <v>1.045328638914018</v>
       </c>
       <c r="HO2">
-        <v>1.04696017514712</v>
+        <v>1.045343518462023</v>
       </c>
       <c r="HP2">
-        <v>1.046935491411928</v>
+        <v>1.045331157747055</v>
       </c>
       <c r="HQ2">
-        <v>1.046938444022187</v>
+        <v>1.045313475098623</v>
       </c>
       <c r="HR2">
-        <v>1.046538958887857</v>
+        <v>1.044704238860475</v>
       </c>
       <c r="HS2">
-        <v>1.047170268125697</v>
+        <v>1.045681724823334</v>
       </c>
       <c r="HT2">
-        <v>1.047215325555942</v>
+        <v>1.045705823084067</v>
       </c>
       <c r="HU2">
-        <v>1.047183953024465</v>
+        <v>1.045652704167369</v>
       </c>
       <c r="HV2">
-        <v>1.046967700687258</v>
+        <v>1.045328251658172</v>
       </c>
       <c r="HW2">
-        <v>1.04696017514712</v>
+        <v>1.045343518462023</v>
       </c>
       <c r="HX2">
-        <v>1.046933671701673</v>
+        <v>1.045330246502445</v>
       </c>
       <c r="HY2">
-        <v>1.046937581694018</v>
+        <v>1.045312423669233</v>
       </c>
       <c r="HZ2">
-        <v>1.046523168120538</v>
+        <v>1.044680717442565</v>
       </c>
       <c r="IA2">
-        <v>1.047153015512422</v>
+        <v>1.045681600741488</v>
       </c>
       <c r="IB2">
-        <v>1.047215325555942</v>
+        <v>1.045705823084067</v>
       </c>
       <c r="IC2">
-        <v>1.047183742942959</v>
+        <v>1.045652598972834</v>
       </c>
       <c r="ID2">
-        <v>1.046967654924058</v>
+        <v>1.045328072788326</v>
       </c>
       <c r="IE2">
-        <v>1.046960175147119</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="IF2">
-        <v>1.046932409459955</v>
+        <v>1.045329614417769</v>
       </c>
       <c r="IG2">
-        <v>1.046936969387772</v>
+        <v>1.045311677089444</v>
       </c>
       <c r="IH2">
-        <v>1.046512794947794</v>
+        <v>1.044665265905571</v>
       </c>
       <c r="II2">
-        <v>1.04714396673148</v>
+        <v>1.045678083127212</v>
       </c>
       <c r="IJ2">
-        <v>1.047183496685104</v>
+        <v>1.045652475663643</v>
       </c>
       <c r="IK2">
-        <v>1.046967605974775</v>
+        <v>1.045327881465373</v>
       </c>
       <c r="IL2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="IM2">
-        <v>1.046931150225258</v>
+        <v>1.045328983838898</v>
       </c>
       <c r="IN2">
-        <v>1.046929964866013</v>
+        <v>1.045303136535782</v>
       </c>
       <c r="IO2">
-        <v>1.046490470138221</v>
+        <v>1.044632011621416</v>
       </c>
       <c r="IP2">
-        <v>1.047123264834852</v>
+        <v>1.045670827405687</v>
       </c>
       <c r="IQ2">
-        <v>1.047136893680975</v>
+        <v>1.045674541642382</v>
       </c>
       <c r="IR2">
-        <v>1.047183118447665</v>
+        <v>1.04565228626805</v>
       </c>
       <c r="IS2">
-        <v>1.04696755920158</v>
+        <v>1.045327698647867</v>
       </c>
       <c r="IT2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="IU2">
-        <v>1.046929308021055</v>
+        <v>1.045328061330127</v>
       </c>
       <c r="IV2">
-        <v>1.046927899347251</v>
+        <v>1.045300618066379</v>
       </c>
       <c r="IW2">
-        <v>1.046478588469683</v>
+        <v>1.044616537814451</v>
       </c>
       <c r="IX2">
-        <v>1.046476221348104</v>
+        <v>1.044610687562274</v>
       </c>
       <c r="IY2">
-        <v>1.047181734356141</v>
+        <v>1.045651593209116</v>
       </c>
       <c r="IZ2">
-        <v>1.046967507094237</v>
+        <v>1.045327494981331</v>
       </c>
       <c r="JA2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="JB2">
-        <v>1.046922379399378</v>
+        <v>1.045324591728692</v>
       </c>
       <c r="JC2">
-        <v>1.046927437229376</v>
+        <v>1.045300054609998</v>
       </c>
       <c r="JD2">
-        <v>1.046476946008337</v>
+        <v>1.044614398794209</v>
       </c>
       <c r="JE2">
-        <v>1.046422790585035</v>
+        <v>1.044530725723704</v>
       </c>
       <c r="JF2">
-        <v>1.04717499798194</v>
+        <v>1.045648220090873</v>
       </c>
       <c r="JG2">
-        <v>1.046967399537373</v>
+        <v>1.045327074585046</v>
       </c>
       <c r="JH2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="JI2">
-        <v>1.046920762252367</v>
+        <v>1.045323781920346</v>
       </c>
       <c r="JJ2">
-        <v>1.046920516774857</v>
+        <v>1.045290587516825</v>
       </c>
       <c r="JK2">
-        <v>1.04692727497629</v>
+        <v>1.045299892104319</v>
       </c>
       <c r="JL2">
-        <v>1.046476190908503</v>
+        <v>1.044613415408006</v>
       </c>
       <c r="JM2">
-        <v>1.046417249431968</v>
+        <v>1.044525174533766</v>
       </c>
       <c r="JN2">
-        <v>1.046405177772486</v>
+        <v>1.044504201614375</v>
       </c>
       <c r="JO2">
-        <v>1.04696728751759</v>
+        <v>1.045326636745013</v>
       </c>
       <c r="JP2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="JQ2">
-        <v>1.046920021395202</v>
+        <v>1.04532341092605</v>
       </c>
       <c r="JR2">
-        <v>1.04691365836413</v>
+        <v>1.0452812052989</v>
       </c>
       <c r="JS2">
-        <v>1.046927084744756</v>
+        <v>1.045299701576637</v>
       </c>
       <c r="JT2">
-        <v>1.046475294066295</v>
+        <v>1.044612247427015</v>
       </c>
       <c r="JU2">
-        <v>1.04641684665098</v>
+        <v>1.044524771023206</v>
       </c>
       <c r="JV2">
-        <v>1.046341331498672</v>
+        <v>1.044408052110838</v>
       </c>
       <c r="JW2">
-        <v>1.046966861546227</v>
+        <v>1.045324971795215</v>
       </c>
       <c r="JX2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="JY2">
-        <v>1.046919534337571</v>
+        <v>1.04532316702532</v>
       </c>
       <c r="JZ2">
-        <v>1.046926912828372</v>
+        <v>1.045299529392616</v>
       </c>
       <c r="KA2">
-        <v>1.046473910346139</v>
+        <v>1.044610445372182</v>
       </c>
       <c r="KB2">
-        <v>1.046416514666288</v>
+        <v>1.04452443843718</v>
       </c>
       <c r="KC2">
-        <v>1.046324162475381</v>
+        <v>1.044393064322698</v>
       </c>
       <c r="KD2">
-        <v>1.046331651119129</v>
+        <v>1.044390169111778</v>
       </c>
       <c r="KE2">
-        <v>1.046964600003484</v>
+        <v>1.045316132339398</v>
       </c>
       <c r="KF2">
-        <v>1.046960175147118</v>
+        <v>1.045343518462022</v>
       </c>
       <c r="KG2">
-        <v>1.046917253215847</v>
+        <v>1.045321453579617</v>
       </c>
       <c r="KH2">
-        <v>1.046919393660306</v>
+        <v>1.045323167025321</v>
       </c>
       <c r="KI2">
-        <v>1.046926738711445</v>
+        <v>1.045299355004626</v>
       </c>
       <c r="KJ2">
-        <v>1.046472677354159</v>
+        <v>1.044608839614584</v>
       </c>
       <c r="KK2">
-        <v>1.04641604310764</v>
+        <v>1.044523966024383</v>
       </c>
       <c r="KL2">
-        <v>1.046316259950695</v>
+        <v>1.044386165772424</v>
       </c>
       <c r="KM2">
-        <v>1.046291081081585</v>
+        <v>1.044315222370902</v>
       </c>
       <c r="KN2">
-        <v>1.046916205365158</v>
+        <v>1.045320666495243</v>
       </c>
       <c r="KO2">
-        <v>1.046919294097985</v>
+        <v>1.045323167025322</v>
       </c>
       <c r="KP2">
-        <v>1.046926551500544</v>
+        <v>1.04529916750228</v>
       </c>
       <c r="KQ2">
-        <v>1.046471718730839</v>
+        <v>1.044607591174448</v>
       </c>
       <c r="KR2">
-        <v>1.046413925078895</v>
+        <v>1.044521844159183</v>
       </c>
       <c r="KS2">
-        <v>1.046264635485831</v>
+        <v>1.044341099921593</v>
       </c>
       <c r="KT2">
-        <v>1.046282125705598</v>
+        <v>1.044298678750777</v>
       </c>
       <c r="KU2">
-        <v>1.046914431897097</v>
+        <v>1.045319334369381</v>
       </c>
       <c r="KV2">
-        <v>1.046919178236785</v>
+        <v>1.045323167025322</v>
       </c>
       <c r="KW2">
-        <v>1.046925465781237</v>
+        <v>1.045298080092748</v>
       </c>
       <c r="KX2">
-        <v>1.04647052548511</v>
+        <v>1.044606037179436</v>
       </c>
       <c r="KY2">
-        <v>1.046413517335906</v>
+        <v>1.044521435677634</v>
       </c>
       <c r="KZ2">
-        <v>1.046260779558006</v>
+        <v>1.044337733868631</v>
       </c>
       <c r="LA2">
-        <v>1.046279150017284</v>
+        <v>1.044293181645987</v>
       </c>
       <c r="LB2">
-        <v>1.04691102784041</v>
+        <v>1.045316777440353</v>
       </c>
       <c r="LC2">
-        <v>1.046918956631367</v>
+        <v>1.045323167025322</v>
       </c>
       <c r="LD2">
-        <v>1.046920873599379</v>
+        <v>1.04529348076188</v>
       </c>
       <c r="LE2">
-        <v>1.04646929132115</v>
+        <v>1.044604429895548</v>
       </c>
       <c r="LF2">
-        <v>1.046413215435747</v>
+        <v>1.044521133230633</v>
       </c>
       <c r="LG2">
-        <v>1.046257313263474</v>
+        <v>1.044333668265276</v>
       </c>
       <c r="LH2">
-        <v>1.046205868796862</v>
+        <v>1.044294513609491</v>
       </c>
       <c r="LI2">
-        <v>1.046277596917566</v>
+        <v>1.044290312544831</v>
       </c>
       <c r="LJ2">
-        <v>1.046901005724465</v>
+        <v>1.045309249410777</v>
       </c>
       <c r="LK2">
-        <v>1.046918106736047</v>
+        <v>1.045323167025322</v>
       </c>
       <c r="LL2">
-        <v>1.046467835557814</v>
+        <v>1.044602534017022</v>
       </c>
       <c r="LM2">
-        <v>1.046412867679493</v>
+        <v>1.044520784844478</v>
       </c>
       <c r="LN2">
-        <v>1.046239460803012</v>
+        <v>1.044312729184158</v>
       </c>
       <c r="LO2">
-        <v>1.046179517166782</v>
+        <v>1.044273772237561</v>
       </c>
       <c r="LP2">
-        <v>1.046276267416032</v>
+        <v>1.044287856505447</v>
       </c>
       <c r="LQ2">
-        <v>1.046915206365783</v>
+        <v>1.045323167025322</v>
       </c>
       <c r="LR2">
-        <v>1.046467005966478</v>
+        <v>1.044601453618611</v>
       </c>
       <c r="LS2">
-        <v>1.046412522710299</v>
+        <v>1.044520439250429</v>
       </c>
       <c r="LT2">
-        <v>1.046233228170439</v>
+        <v>1.044305418953852</v>
       </c>
       <c r="LU2">
-        <v>1.046149772815836</v>
+        <v>1.044261555091942</v>
       </c>
       <c r="LV2">
-        <v>1.046137604175492</v>
+        <v>1.044237446889569</v>
       </c>
       <c r="LW2">
-        <v>1.046274755346628</v>
+        <v>1.044285063201633</v>
       </c>
       <c r="LX2">
-        <v>1.046463258206605</v>
+        <v>1.044596572813298</v>
       </c>
       <c r="LY2">
-        <v>1.046409492117727</v>
+        <v>1.044517403168439</v>
       </c>
       <c r="LZ2">
-        <v>1.046219663250608</v>
+        <v>1.044289508712729</v>
       </c>
       <c r="MA2">
-        <v>1.046137992579565</v>
+        <v>1.044256716496807</v>
       </c>
       <c r="MB2">
-        <v>1.04613311519548</v>
+        <v>1.044228563547182</v>
       </c>
       <c r="MC2">
-        <v>1.046130312083455</v>
+        <v>1.044231489779079</v>
       </c>
       <c r="MD2">
-        <v>1.046273564096447</v>
+        <v>1.044282862559648</v>
       </c>
       <c r="ME2">
-        <v>1.046461799656314</v>
+        <v>1.044594673305268</v>
       </c>
       <c r="MF2">
-        <v>1.046403297180681</v>
+        <v>1.044511197010287</v>
       </c>
       <c r="MG2">
-        <v>1.046215595223041</v>
+        <v>1.044283531223099</v>
       </c>
       <c r="MH2">
-        <v>1.046216345515703</v>
+        <v>1.044286184843192</v>
       </c>
       <c r="MI2">
-        <v>1.046130858339942</v>
+        <v>1.044224097405645</v>
       </c>
       <c r="MJ2">
-        <v>1.046124064897939</v>
+        <v>1.044226386281306</v>
       </c>
       <c r="MK2">
-        <v>1.04627256535902</v>
+        <v>1.044281017553946</v>
       </c>
       <c r="ML2">
-        <v>1.046461292957319</v>
+        <v>1.044594013417971</v>
       </c>
       <c r="MM2">
-        <v>1.046209508226809</v>
+        <v>1.044274587095812</v>
       </c>
       <c r="MN2">
-        <v>1.046215883552606</v>
+        <v>1.044285722025905</v>
       </c>
       <c r="MO2">
-        <v>1.046130648317392</v>
+        <v>1.044223681787359</v>
       </c>
       <c r="MP2">
-        <v>1.046119670585822</v>
+        <v>1.044222796446719</v>
       </c>
       <c r="MQ2">
-        <v>1.046271664182002</v>
+        <v>1.044279352775396</v>
       </c>
       <c r="MR2">
-        <v>1.046460911227041</v>
+        <v>1.04459351628069</v>
       </c>
       <c r="MS2">
-        <v>1.046215381828203</v>
+        <v>1.044285219373794</v>
       </c>
       <c r="MT2">
-        <v>1.046130561580697</v>
+        <v>1.044223510142189</v>
       </c>
       <c r="MU2">
-        <v>1.046114118281505</v>
+        <v>1.044218260616313</v>
       </c>
       <c r="MV2">
-        <v>1.04627091833613</v>
+        <v>1.044277974946039</v>
       </c>
       <c r="MW2">
-        <v>1.046460631935723</v>
+        <v>1.044593152552334</v>
       </c>
       <c r="MX2">
-        <v>1.046214942353667</v>
+        <v>1.04428477908665</v>
       </c>
       <c r="MY2">
-        <v>1.046130500378968</v>
+        <v>1.044223389028729</v>
       </c>
       <c r="MZ2">
-        <v>1.046110639253901</v>
+        <v>1.044215418502731</v>
       </c>
       <c r="NA2">
-        <v>1.046270053110832</v>
+        <v>1.044276376582616</v>
       </c>
       <c r="NB2">
-        <v>1.046460490110011</v>
+        <v>1.044592967849017</v>
       </c>
       <c r="NC2">
-        <v>1.04621447541197</v>
+        <v>1.044284311281559</v>
       </c>
       <c r="ND2">
-        <v>1.04613043777911</v>
+        <v>1.044223265148478</v>
       </c>
       <c r="NE2">
-        <v>1.046105296833444</v>
+        <v>1.044211054132061</v>
       </c>
       <c r="NF2">
-        <v>1.046269102167836</v>
+        <v>1.044274619869741</v>
       </c>
       <c r="NG2">
-        <v>1.046460281596106</v>
+        <v>1.04459269629593</v>
       </c>
       <c r="NH2">
-        <v>1.046213808986229</v>
+        <v>1.044283643623569</v>
       </c>
       <c r="NI2">
-        <v>1.046130363915747</v>
+        <v>1.04422311897863</v>
       </c>
       <c r="NJ2">
-        <v>1.04609997106749</v>
+        <v>1.044206703366811</v>
       </c>
       <c r="NK2">
-        <v>1.046263917963722</v>
+        <v>1.044265042895558</v>
       </c>
       <c r="NL2">
-        <v>1.046459932058704</v>
+        <v>1.044592241084271</v>
       </c>
       <c r="NM2">
-        <v>1.046212998823573</v>
+        <v>1.044282831962889</v>
       </c>
       <c r="NN2">
-        <v>1.046130270742389</v>
+        <v>1.044222934595804</v>
       </c>
       <c r="NO2">
-        <v>1.046093995393048</v>
+        <v>1.044201821673252</v>
       </c>
       <c r="NP2">
-        <v>1.046227138704308</v>
+        <v>1.044194077073819</v>
       </c>
       <c r="NQ2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693847</v>
       </c>
       <c r="NR2">
-        <v>1.046458372970854</v>
+        <v>1.044590210643572</v>
       </c>
       <c r="NS2">
-        <v>1.046207977176691</v>
+        <v>1.044277801030778</v>
       </c>
       <c r="NT2">
-        <v>1.046130187296579</v>
+        <v>1.044222769463038</v>
       </c>
       <c r="NU2">
-        <v>1.046089671185223</v>
+        <v>1.044198289108321</v>
       </c>
       <c r="NV2">
-        <v>1.046191912626014</v>
+        <v>1.044126108279374</v>
       </c>
       <c r="NW2">
-        <v>1.046237661915816</v>
+        <v>1.044251232435341</v>
       </c>
       <c r="NX2">
-        <v>1.046260240715221</v>
+        <v>1.044263108693839</v>
       </c>
       <c r="NY2">
-        <v>1.046452641807976</v>
+        <v>1.04458274680099</v>
       </c>
       <c r="NZ2">
-        <v>1.046190794454075</v>
+        <v>1.044260586536613</v>
       </c>
       <c r="OA2">
-        <v>1.046130121268009</v>
+        <v>1.044222638797637</v>
       </c>
       <c r="OB2">
-        <v>1.046084517127017</v>
+        <v>1.044194078615581</v>
       </c>
       <c r="OC2">
-        <v>1.046190344462658</v>
+        <v>1.044123082508288</v>
       </c>
       <c r="OD2">
-        <v>1.046229409926772</v>
+        <v>1.04424689195836</v>
       </c>
       <c r="OE2">
-        <v>1.046260240715223</v>
+        <v>1.044263108693797</v>
       </c>
       <c r="OF2">
-        <v>1.0461300079471</v>
+        <v>1.044222414544375</v>
       </c>
       <c r="OG2">
-        <v>1.046077038669174</v>
+        <v>1.0441879692563</v>
       </c>
       <c r="OH2">
-        <v>1.046171766369178</v>
+        <v>1.044106587589391</v>
       </c>
       <c r="OI2">
-        <v>1.046164744401252</v>
+        <v>1.044070417467416</v>
       </c>
       <c r="OJ2">
-        <v>1.046228569982449</v>
+        <v>1.04424645015469</v>
       </c>
       <c r="OK2">
-        <v>1.046260240715223</v>
+        <v>1.044263108693795</v>
       </c>
       <c r="OL2">
-        <v>1.046129612356028</v>
+        <v>1.044221631700426</v>
       </c>
       <c r="OM2">
-        <v>1.046071494306818</v>
+        <v>1.044183439913044</v>
       </c>
       <c r="ON2">
-        <v>1.046170064136154</v>
+        <v>1.044105076228934</v>
       </c>
       <c r="OO2">
-        <v>1.046152393829892</v>
+        <v>1.044045009619737</v>
       </c>
       <c r="OP2">
-        <v>1.046227983811198</v>
+        <v>1.044246141833528</v>
       </c>
       <c r="OQ2">
-        <v>1.046260240715223</v>
+        <v>1.044263108693794</v>
       </c>
       <c r="OR2">
-        <v>1.046127193858553</v>
+        <v>1.044216845682156</v>
       </c>
       <c r="OS2">
-        <v>1.046066145879671</v>
+        <v>1.044179070634584</v>
       </c>
       <c r="OT2">
-        <v>1.046169096451827</v>
+        <v>1.04410421705172</v>
       </c>
       <c r="OU2">
-        <v>1.046115134126126</v>
+        <v>1.043968358332295</v>
       </c>
       <c r="OV2">
-        <v>1.046152393829885</v>
+        <v>1.044045009619732</v>
       </c>
       <c r="OW2">
-        <v>1.046227376589865</v>
+        <v>1.044245822440198</v>
       </c>
       <c r="OX2">
-        <v>1.046260240715223</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="OY2">
-        <v>1.046060911382377</v>
+        <v>1.044174794428481</v>
       </c>
       <c r="OZ2">
-        <v>1.04616843937092</v>
+        <v>1.044103633649749</v>
       </c>
       <c r="PA2">
-        <v>1.046062067196479</v>
+        <v>1.043859188508268</v>
       </c>
       <c r="PB2">
-        <v>1.046152393829884</v>
+        <v>1.044045009619731</v>
       </c>
       <c r="PC2">
-        <v>1.046224826614646</v>
+        <v>1.044244481174607</v>
       </c>
       <c r="PD2">
-        <v>1.046260240715223</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="PE2">
-        <v>1.046054616110277</v>
+        <v>1.044169651645869</v>
       </c>
       <c r="PF2">
-        <v>1.046167368502951</v>
+        <v>1.044102682858945</v>
       </c>
       <c r="PG2">
-        <v>1.04605096233963</v>
+        <v>1.043836343537104</v>
       </c>
       <c r="PH2">
-        <v>1.046152393829883</v>
+        <v>1.04404500961973</v>
       </c>
       <c r="PI2">
-        <v>1.046224203970518</v>
+        <v>1.044244153669013</v>
       </c>
       <c r="PJ2">
-        <v>1.046260240715221</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="PK2">
-        <v>1.046044072689786</v>
+        <v>1.044161038432535</v>
       </c>
       <c r="PL2">
-        <v>1.046054616110277</v>
+        <v>1.044169651645869</v>
       </c>
       <c r="PM2">
-        <v>1.046163808872397</v>
+        <v>1.044099522372218</v>
       </c>
       <c r="PN2">
-        <v>1.046048124067582</v>
+        <v>1.043830504631521</v>
       </c>
       <c r="PO2">
-        <v>1.046152393829882</v>
+        <v>1.04404500961973</v>
       </c>
       <c r="PP2">
-        <v>1.04622361003577</v>
+        <v>1.044243841264313</v>
       </c>
       <c r="PQ2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="PR2">
-        <v>1.046008510532657</v>
+        <v>1.044131986714679</v>
       </c>
       <c r="PS2">
-        <v>1.046044072689786</v>
+        <v>1.044161038432535</v>
       </c>
       <c r="PT2">
-        <v>1.046159845887732</v>
+        <v>1.044096003759747</v>
       </c>
       <c r="PU2">
-        <v>1.046046637137946</v>
+        <v>1.043827445713891</v>
       </c>
       <c r="PV2">
-        <v>1.046152393829881</v>
+        <v>1.044045009619729</v>
       </c>
       <c r="PW2">
-        <v>1.046223019331473</v>
+        <v>1.044243530558803</v>
       </c>
       <c r="PX2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="PY2">
-        <v>1.045958211578352</v>
+        <v>1.044090896088424</v>
       </c>
       <c r="PZ2">
-        <v>1.046008510532657</v>
+        <v>1.044131986714679</v>
       </c>
       <c r="QA2">
-        <v>1.04615761712075</v>
+        <v>1.044094024905934</v>
       </c>
       <c r="QB2">
-        <v>1.046045404490819</v>
+        <v>1.04382490990751</v>
       </c>
       <c r="QC2">
-        <v>1.046152393829881</v>
+        <v>1.044045009619728</v>
       </c>
       <c r="QD2">
-        <v>1.046222341717513</v>
+        <v>1.044243174139537</v>
       </c>
       <c r="QE2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693794</v>
       </c>
       <c r="QF2">
-        <v>1.045922119230384</v>
+        <v>1.044061411231611</v>
       </c>
       <c r="QG2">
-        <v>1.045958211578352</v>
+        <v>1.044090896088424</v>
       </c>
       <c r="QH2">
-        <v>1.046155523430519</v>
+        <v>1.044092165982621</v>
       </c>
       <c r="QI2">
-        <v>1.046044405498998</v>
+        <v>1.043822854777881</v>
       </c>
       <c r="QJ2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619728</v>
       </c>
       <c r="QK2">
-        <v>1.046220001617678</v>
+        <v>1.044241943266625</v>
       </c>
       <c r="QL2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693794</v>
       </c>
       <c r="QM2">
-        <v>1.0459111688259</v>
+        <v>1.044052465536466</v>
       </c>
       <c r="QN2">
-        <v>1.045922119230384</v>
+        <v>1.044061411231611</v>
       </c>
       <c r="QO2">
-        <v>1.046153525877267</v>
+        <v>1.044090392416378</v>
       </c>
       <c r="QP2">
-        <v>1.046042878471349</v>
+        <v>1.043819713371301</v>
       </c>
       <c r="QQ2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="QR2">
-        <v>1.046208597852287</v>
+        <v>1.044235944981439</v>
       </c>
       <c r="QS2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="QT2">
-        <v>1.045890505919006</v>
+        <v>1.044028860032651</v>
       </c>
       <c r="QU2">
-        <v>1.0459111688259</v>
+        <v>1.044052465536466</v>
       </c>
       <c r="QV2">
-        <v>1.045891476369321</v>
+        <v>1.044047654255829</v>
       </c>
       <c r="QW2">
-        <v>1.046150246192866</v>
+        <v>1.044087480485225</v>
       </c>
       <c r="QX2">
-        <v>1.046041501879329</v>
+        <v>1.043816881441713</v>
       </c>
       <c r="QY2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="QZ2">
-        <v>1.04626024071522</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="RA2">
-        <v>1.045867548467485</v>
+        <v>1.044002633220974</v>
       </c>
       <c r="RB2">
-        <v>1.045890505919006</v>
+        <v>1.044028860032651</v>
       </c>
       <c r="RC2">
-        <v>1.045890505919006</v>
+        <v>1.044028860032651</v>
       </c>
       <c r="RD2">
-        <v>1.045888600530354</v>
+        <v>1.04404695162795</v>
       </c>
       <c r="RE2">
-        <v>1.046147961830353</v>
+        <v>1.044085452269834</v>
       </c>
       <c r="RF2">
-        <v>1.046040191703188</v>
+        <v>1.043814186143349</v>
       </c>
       <c r="RG2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="RH2">
-        <v>1.046260240715219</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="RI2">
-        <v>1.045859135733978</v>
+        <v>1.043993022434474</v>
       </c>
       <c r="RJ2">
-        <v>1.045867548467485</v>
+        <v>1.044002633220974</v>
       </c>
       <c r="RK2">
-        <v>1.045887032410604</v>
+        <v>1.044046568503346</v>
       </c>
       <c r="RL2">
-        <v>1.046146356786966</v>
+        <v>1.044084027201051</v>
       </c>
       <c r="RM2">
-        <v>1.046038715710271</v>
+        <v>1.04381114972651</v>
       </c>
       <c r="RN2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="RO2">
-        <v>1.046260240715219</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="RP2">
-        <v>1.045843804910532</v>
+        <v>1.043980476267433</v>
       </c>
       <c r="RQ2">
-        <v>1.045859135733978</v>
+        <v>1.043993022434474</v>
       </c>
       <c r="RR2">
-        <v>1.045845744279181</v>
+        <v>1.043950762454521</v>
       </c>
       <c r="RS2">
-        <v>1.045885970132481</v>
+        <v>1.04404630896648</v>
       </c>
       <c r="RT2">
-        <v>1.046145589887652</v>
+        <v>1.044083346294677</v>
       </c>
       <c r="RU2">
-        <v>1.046037156586788</v>
+        <v>1.043807942293583</v>
       </c>
       <c r="RV2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="RW2">
-        <v>1.046260240715219</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="RX2">
-        <v>1.045821832237199</v>
+        <v>1.043962494659751</v>
       </c>
       <c r="RY2">
-        <v>1.045843804910532</v>
+        <v>1.043980476267433</v>
       </c>
       <c r="RZ2">
-        <v>1.045844991160536</v>
+        <v>1.043949970244434</v>
       </c>
       <c r="SA2">
-        <v>1.045845744279181</v>
+        <v>1.043939597698379</v>
       </c>
       <c r="SB2">
-        <v>1.045884356600238</v>
+        <v>1.044045914746645</v>
       </c>
       <c r="SC2">
-        <v>1.046145104077964</v>
+        <v>1.044082914959158</v>
       </c>
       <c r="SD2">
-        <v>1.046033747604967</v>
+        <v>1.04380092932847</v>
       </c>
       <c r="SE2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="SF2">
-        <v>1.046260240715219</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="SG2">
-        <v>1.045808423060718</v>
+        <v>1.043951521094268</v>
       </c>
       <c r="SH2">
-        <v>1.045821832237199</v>
+        <v>1.043962494659751</v>
       </c>
       <c r="SI2">
-        <v>1.04584467283514</v>
+        <v>1.043949635396012</v>
       </c>
       <c r="SJ2">
-        <v>1.045845744279181</v>
+        <v>1.043932453526773</v>
       </c>
       <c r="SK2">
-        <v>1.045881907905823</v>
+        <v>1.044045316479137</v>
       </c>
       <c r="SL2">
-        <v>1.046144775610765</v>
+        <v>1.044082623323209</v>
       </c>
       <c r="SM2">
-        <v>1.045956430916836</v>
+        <v>1.043641873723596</v>
       </c>
       <c r="SN2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="SO2">
-        <v>1.046260240715219</v>
+        <v>1.044263108693793</v>
       </c>
       <c r="SP2">
-        <v>1.045806113864501</v>
+        <v>1.043949631334908</v>
       </c>
       <c r="SQ2">
-        <v>1.045808423060718</v>
+        <v>1.043951521094268</v>
       </c>
       <c r="SR2">
-        <v>1.045844485793381</v>
+        <v>1.043949438645646</v>
       </c>
       <c r="SS2">
-        <v>1.045880170638049</v>
+        <v>1.044044892028105</v>
       </c>
       <c r="ST2">
-        <v>1.046144317438763</v>
+        <v>1.044082216526345</v>
       </c>
       <c r="SU2">
-        <v>1.045952715022821</v>
+        <v>1.043638149590661</v>
       </c>
       <c r="SV2">
-        <v>1.045944757324709</v>
+        <v>1.043617634538347</v>
       </c>
       <c r="SW2">
-        <v>1.046152393829879</v>
+        <v>1.044045009619727</v>
       </c>
       <c r="SX2">
-        <v>1.045803495635592</v>
+        <v>1.043945540020159</v>
       </c>
       <c r="SY2">
-        <v>1.045806113864501</v>
+        <v>1.043949631334908</v>
       </c>
       <c r="SZ2">
-        <v>1.0457839156354</v>
+        <v>1.043943454471983</v>
       </c>
       <c r="TA2">
-        <v>1.045844313658673</v>
+        <v>1.0439492575761</v>
       </c>
       <c r="TB2">
-        <v>1.045878983716097</v>
+        <v>1.044044602038124</v>
       </c>
       <c r="TC2">
-        <v>1.046143967758288</v>
+        <v>1.044081906055779</v>
       </c>
       <c r="TD2">
-        <v>1.045949438107658</v>
+        <v>1.043634865409887</v>
       </c>
       <c r="TE2">
-        <v>1.045938459753846</v>
+        <v>1.04360455819605</v>
       </c>
       <c r="TF2">
-        <v>1.046152393829879</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="TG2">
-        <v>1.045801568307169</v>
+        <v>1.043942528325143</v>
       </c>
       <c r="TH2">
-        <v>1.045803495635592</v>
+        <v>1.043945540020159</v>
       </c>
       <c r="TI2">
-        <v>1.045770798245418</v>
+        <v>1.043939804436421</v>
       </c>
       <c r="TJ2">
-        <v>1.045844160301119</v>
+        <v>1.043949096258355</v>
       </c>
       <c r="TK2">
-        <v>1.045878045814836</v>
+        <v>1.04404437288913</v>
       </c>
       <c r="TL2">
-        <v>1.046141472361153</v>
+        <v>1.044079690469215</v>
       </c>
       <c r="TM2">
-        <v>1.045937519248564</v>
+        <v>1.043602605321518</v>
       </c>
       <c r="TN2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="TO2">
-        <v>1.045798944247116</v>
+        <v>1.043938427898748</v>
       </c>
       <c r="TP2">
-        <v>1.045801568307169</v>
+        <v>1.043942528325143</v>
       </c>
       <c r="TQ2">
-        <v>1.045760404731765</v>
+        <v>1.043936912344603</v>
       </c>
       <c r="TR2">
-        <v>1.045844001210078</v>
+        <v>1.043948928909522</v>
       </c>
       <c r="TS2">
-        <v>1.045875038653939</v>
+        <v>1.044043638176504</v>
       </c>
       <c r="TT2">
-        <v>1.046140188707315</v>
+        <v>1.044078404280157</v>
       </c>
       <c r="TU2">
-        <v>1.046119650478018</v>
+        <v>1.044060740857312</v>
       </c>
       <c r="TV2">
-        <v>1.045936801326406</v>
+        <v>1.043601114620893</v>
       </c>
       <c r="TW2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="TX2">
-        <v>1.04579708731397</v>
+        <v>1.043935526205459</v>
       </c>
       <c r="TY2">
-        <v>1.045798944247116</v>
+        <v>1.043938427898748</v>
       </c>
       <c r="TZ2">
-        <v>1.045756110053823</v>
+        <v>1.043935717310496</v>
       </c>
       <c r="UA2">
-        <v>1.045843520939909</v>
+        <v>1.043948423710407</v>
       </c>
       <c r="UB2">
-        <v>1.045850715197168</v>
+        <v>1.044037695444321</v>
       </c>
       <c r="UC2">
-        <v>1.046138771260255</v>
+        <v>1.044076984033635</v>
       </c>
       <c r="UD2">
-        <v>1.045936129883766</v>
+        <v>1.043599720430866</v>
       </c>
       <c r="UE2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="UF2">
-        <v>1.045791894316593</v>
+        <v>1.043927411489568</v>
       </c>
       <c r="UG2">
-        <v>1.04579708731397</v>
+        <v>1.043935526205459</v>
       </c>
       <c r="UH2">
-        <v>1.045755734686813</v>
+        <v>1.043935341288977</v>
       </c>
       <c r="UI2">
-        <v>1.045743271759716</v>
+        <v>1.043935717310496</v>
       </c>
       <c r="UJ2">
-        <v>1.045843036942974</v>
+        <v>1.043947914591084</v>
       </c>
       <c r="UK2">
-        <v>1.045849503912942</v>
+        <v>1.044037399502087</v>
       </c>
       <c r="UL2">
-        <v>1.046134929178229</v>
+        <v>1.044073134363488</v>
       </c>
       <c r="UM2">
-        <v>1.045935413873938</v>
+        <v>1.043598233701171</v>
       </c>
       <c r="UN2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="UO2">
-        <v>1.0457881340766</v>
+        <v>1.043921535638855</v>
       </c>
       <c r="UP2">
-        <v>1.045791894316593</v>
+        <v>1.043927411489568</v>
       </c>
       <c r="UQ2">
-        <v>1.045755596563114</v>
+        <v>1.043935202924439</v>
       </c>
       <c r="UR2">
-        <v>1.045733559518141</v>
+        <v>1.043935717310496</v>
       </c>
       <c r="US2">
-        <v>1.045838514660737</v>
+        <v>1.04394315757487</v>
       </c>
       <c r="UT2">
-        <v>1.045848548167409</v>
+        <v>1.044037165993333</v>
       </c>
       <c r="UU2">
-        <v>1.045934780292606</v>
+        <v>1.043596918126864</v>
       </c>
       <c r="UV2">
-        <v>1.04615239382988</v>
+        <v>1.044045009619726</v>
       </c>
       <c r="UW2">
-        <v>1.045787970468225</v>
+        <v>1.043921215827131</v>
       </c>
       <c r="UX2">
-        <v>1.0457881340766</v>
+        <v>1.043921535638855</v>
       </c>
       <c r="UY2">
-        <v>1.045777602758046</v>
+        <v>1.043906086881258</v>
       </c>
       <c r="UZ2">
-        <v>1.04575539081758</v>
+        <v>1.043934996820157</v>
       </c>
       <c r="VA2">
-        <v>1.045847467671132</v>
+        <v>1.044036902005346</v>
       </c>
       <c r="VB2">
-        <v>1.045934132251392</v>
+        <v>1.043595572527981</v>
       </c>
       <c r="VC2">
-        <v>1.045787931728766</v>
+        <v>1.043921140101588</v>
       </c>
       <c r="VD2">
-        <v>1.045787970468225</v>
+        <v>1.043921215827131</v>
       </c>
       <c r="VE2">
-        <v>1.045776271414594</v>
+        <v>1.043904133887257</v>
       </c>
       <c r="VF2">
-        <v>1.045755267015792</v>
+        <v>1.043934872802502</v>
       </c>
       <c r="VG2">
-        <v>1.045846505995246</v>
+        <v>1.044036667047681</v>
       </c>
       <c r="VH2">
-        <v>1.045930787525632</v>
+        <v>1.043588627508921</v>
       </c>
       <c r="VI2">
-        <v>1.045786881517077</v>
+        <v>1.043919087211456</v>
       </c>
       <c r="VJ2">
-        <v>1.045787931728766</v>
+        <v>1.043921140101588</v>
       </c>
       <c r="VK2">
-        <v>1.045787931728767</v>
+        <v>1.043921140101594</v>
       </c>
       <c r="VL2">
-        <v>1.045775288971429</v>
+        <v>1.043902692707224</v>
       </c>
       <c r="VM2">
-        <v>1.045755117632652</v>
+        <v>1.04393472315889</v>
       </c>
       <c r="VN2">
-        <v>1.045845399106339</v>
+        <v>1.044036396611416</v>
       </c>
       <c r="VO2">
-        <v>1.045918148154729</v>
+        <v>1.043582293774704</v>
       </c>
       <c r="VP2">
-        <v>1.045924098871331</v>
+        <v>1.043573910778758</v>
       </c>
       <c r="VQ2">
-        <v>1.045786145513643</v>
+        <v>1.043917648516602</v>
       </c>
       <c r="VR2">
-        <v>1.045786881517077</v>
+        <v>1.043919087211456</v>
       </c>
       <c r="VS2">
-        <v>1.045787931728767</v>
+        <v>1.043921140101596</v>
       </c>
       <c r="VT2">
-        <v>1.045774333046696</v>
+        <v>1.043901290428005</v>
       </c>
       <c r="VU2">
-        <v>1.045754986467917</v>
+        <v>1.043934591765449</v>
       </c>
       <c r="VV2">
-        <v>1.045844264168579</v>
+        <v>1.044036119322224</v>
       </c>
       <c r="VW2">
-        <v>1.045917419784256</v>
+        <v>1.043581928779872</v>
       </c>
       <c r="VX2">
-        <v>1.045892135881932</v>
+        <v>1.04350358423359</v>
       </c>
       <c r="VY2">
-        <v>1.045784670837615</v>
+        <v>1.043914765909453</v>
       </c>
       <c r="VZ2">
-        <v>1.045786145513643</v>
+        <v>1.043917648516602</v>
       </c>
       <c r="WA2">
-        <v>1.045787931728767</v>
+        <v>1.043921140101598</v>
       </c>
       <c r="WB2">
-        <v>1.045765353429994</v>
+        <v>1.043888117916299</v>
       </c>
       <c r="WC2">
-        <v>1.045754128169732</v>
+        <v>1.043933731970691</v>
       </c>
       <c r="WD2">
-        <v>1.045842899977891</v>
+        <v>1.044035786021714</v>
       </c>
       <c r="WE2">
-        <v>1.045917053969612</v>
+        <v>1.04358174546594</v>
       </c>
       <c r="WF2">
-        <v>1.045861078885942</v>
+        <v>1.043496999680143</v>
       </c>
       <c r="WG2">
-        <v>1.045858301391908</v>
+        <v>1.04342168941869</v>
       </c>
       <c r="WH2">
-        <v>1.045783355744378</v>
+        <v>1.043912195245138</v>
       </c>
       <c r="WI2">
-        <v>1.045784670837615</v>
+        <v>1.043914765909453</v>
       </c>
       <c r="WJ2">
-        <v>1.045784670837615</v>
+        <v>1.043914765909453</v>
       </c>
       <c r="WK2">
-        <v>1.045786145513643</v>
+        <v>1.043917648516603</v>
       </c>
       <c r="WL2">
-        <v>1.045786145513643</v>
+        <v>1.043917648516602</v>
       </c>
       <c r="WM2">
-        <v>1.045787931728768</v>
+        <v>1.043921140101599</v>
       </c>
       <c r="WN2">
-        <v>1.045761174235877</v>
+        <v>1.043881987311362</v>
       </c>
       <c r="WO2">
-        <v>1.045747799683374</v>
+        <v>1.043927392449659</v>
       </c>
       <c r="WP2">
-        <v>1.045842044727492</v>
+        <v>1.044035577066031</v>
       </c>
       <c r="WQ2">
-        <v>1.045916747214197</v>
+        <v>1.043581591747268</v>
       </c>
       <c r="WR2">
-        <v>1.045844690021053</v>
+        <v>1.043493524992245</v>
       </c>
       <c r="WS2">
-        <v>1.045825893992703</v>
+        <v>1.043343249061821</v>
       </c>
       <c r="WT2">
-        <v>1.045780486759496</v>
+        <v>1.043906587128392</v>
       </c>
       <c r="WU2">
-        <v>1.045783355744378</v>
+        <v>1.043912195245138</v>
       </c>
       <c r="WV2">
-        <v>1.045783355744378</v>
+        <v>1.043912195245138</v>
       </c>
       <c r="WW2">
-        <v>1.045786145513643</v>
+        <v>1.043917648516603</v>
       </c>
       <c r="WX2">
-        <v>1.045787931728768</v>
+        <v>1.0439211401016</v>
       </c>
       <c r="WY2">
-        <v>1.045759212770444</v>
+        <v>1.043879109969647</v>
       </c>
       <c r="WZ2">
-        <v>1.045838369148899</v>
+        <v>1.044034679044772</v>
       </c>
       <c r="XA2">
-        <v>1.04591649706589</v>
+        <v>1.04358146639507</v>
       </c>
       <c r="XB2">
-        <v>1.045820470191955</v>
+        <v>1.043338878416397</v>
       </c>
       <c r="XC2">
-        <v>1.045817766373422</v>
+        <v>1.04332197728644</v>
       </c>
       <c r="XD2">
-        <v>1.045776578542214</v>
+        <v>1.043898947583614</v>
       </c>
       <c r="XE2">
-        <v>1.045787931728768</v>
+        <v>1.043921140101601</v>
       </c>
       <c r="XF2">
-        <v>1.04575790444271</v>
+        <v>1.043877190738298</v>
       </c>
       <c r="XG2">
-        <v>1.04582287334662</v>
+        <v>1.044030893093777</v>
       </c>
       <c r="XH2">
-        <v>1.045916104406131</v>
+        <v>1.043581269628741</v>
       </c>
       <c r="XI2">
-        <v>1.045819140260908</v>
+        <v>1.043337806721964</v>
       </c>
       <c r="XJ2">
-        <v>1.045815896456425</v>
+        <v>1.043317083303206</v>
       </c>
       <c r="XK2">
-        <v>1.045775432218456</v>
+        <v>1.043896706819869</v>
       </c>
       <c r="XL2">
-        <v>1.045787931728768</v>
+        <v>1.043921140101601</v>
       </c>
       <c r="XM2">
-        <v>1.045755904253223</v>
+        <v>1.04387425659095</v>
       </c>
       <c r="XN2">
-        <v>1.045915168086236</v>
+        <v>1.043580800428053</v>
       </c>
       <c r="XO2">
-        <v>1.045818227034059</v>
+        <v>1.043337070819051</v>
       </c>
       <c r="XP2">
-        <v>1.045814968514097</v>
+        <v>1.043314654674823</v>
       </c>
       <c r="XQ2">
-        <v>1.045771638100499</v>
+        <v>1.043889290309647</v>
       </c>
       <c r="XR2">
-        <v>1.045787931728768</v>
+        <v>1.043921140101601</v>
       </c>
       <c r="XS2">
-        <v>1.045751997906814</v>
+        <v>1.043868526235929</v>
       </c>
       <c r="XT2">
-        <v>1.045914520304492</v>
+        <v>1.043580475817158</v>
       </c>
       <c r="XU2">
-        <v>1.045816961103955</v>
+        <v>1.043336050698308</v>
       </c>
       <c r="XV2">
-        <v>1.045813948778065</v>
+        <v>1.043311985802489</v>
       </c>
       <c r="XW2">
-        <v>1.045787931728769</v>
+        <v>1.043921140101602</v>
       </c>
       <c r="XX2">
-        <v>1.045750918092438</v>
+        <v>1.043866942218784</v>
       </c>
       <c r="XY2">
-        <v>1.045913696653932</v>
+        <v>1.043580063076371</v>
       </c>
       <c r="XZ2">
-        <v>1.045813959205522</v>
+        <v>1.043333631687292</v>
       </c>
       <c r="YA2">
-        <v>1.045812772154593</v>
+        <v>1.043308906321767</v>
       </c>
       <c r="YB2">
-        <v>1.045787931728769</v>
+        <v>1.043921140101602</v>
       </c>
       <c r="YC2">
-        <v>1.045750604605009</v>
+        <v>1.043866482353207</v>
       </c>
       <c r="YD2">
-        <v>1.04591319629323</v>
+        <v>1.043579812339857</v>
       </c>
       <c r="YE2">
-        <v>1.045811677268215</v>
+        <v>1.043331792840435</v>
       </c>
       <c r="YF2">
-        <v>1.045811582668447</v>
+        <v>1.043305793177022</v>
       </c>
       <c r="YG2">
-        <v>1.045787931728769</v>
+        <v>1.043921140101603</v>
       </c>
       <c r="YH2">
-        <v>1.045750468635552</v>
+        <v>1.043866216407885</v>
       </c>
       <c r="YI2">
-        <v>1.045749882379374</v>
+        <v>1.043865776052437</v>
       </c>
       <c r="YJ2">
-        <v>1.045912744574232</v>
+        <v>1.043579585978261</v>
       </c>
       <c r="YK2">
-        <v>1.04581007538292</v>
+        <v>1.043330501997896</v>
       </c>
       <c r="YL2">
-        <v>1.045810263969468</v>
+        <v>1.043302341854579</v>
       </c>
       <c r="YM2">
-        <v>1.04578793172877</v>
+        <v>1.043921140101603</v>
       </c>
       <c r="YN2">
-        <v>1.045750341379697</v>
+        <v>1.04386596750567</v>
       </c>
       <c r="YO2">
-        <v>1.045748929355212</v>
+        <v>1.043864844042181</v>
       </c>
       <c r="YP2">
-        <v>1.045911982734175</v>
+        <v>1.043579204211428</v>
       </c>
       <c r="YQ2">
-        <v>1.045808397267964</v>
+        <v>1.04332914972743</v>
       </c>
       <c r="YR2">
-        <v>1.045808346305096</v>
+        <v>1.043297322910141</v>
       </c>
       <c r="YS2">
-        <v>1.04578793172877</v>
+        <v>1.043921140101603</v>
       </c>
       <c r="YT2">
-        <v>1.045750210289746</v>
+        <v>1.043865711104271</v>
       </c>
       <c r="YU2">
-        <v>1.045744970052048</v>
+        <v>1.043860972040499</v>
       </c>
       <c r="YV2">
-        <v>1.045911233742348</v>
+        <v>1.04357882888299</v>
       </c>
       <c r="YW2">
-        <v>1.045807019519004</v>
+        <v>1.043328039500015</v>
       </c>
       <c r="YX2">
-        <v>1.04580771284795</v>
+        <v>1.043294735248144</v>
       </c>
       <c r="YY2">
-        <v>1.045803328928974</v>
+        <v>1.043284565844392</v>
       </c>
       <c r="YZ2">
-        <v>1.04578793172877</v>
+        <v>1.043921140101603</v>
       </c>
       <c r="ZA2">
-        <v>1.045749262479951</v>
+        <v>1.043863857264568</v>
       </c>
       <c r="ZB2">
-        <v>1.045743288631011</v>
+        <v>1.043859327694304</v>
       </c>
       <c r="ZC2">
-        <v>1.045910879360245</v>
+        <v>1.043578651298034</v>
       </c>
       <c r="ZD2">
-        <v>1.045804738346004</v>
+        <v>1.043326201269044</v>
       </c>
       <c r="ZE2">
-        <v>1.045807332456976</v>
+        <v>1.043293181357299</v>
       </c>
       <c r="ZF2">
-        <v>1.045771557796384</v>
+        <v>1.043203785445343</v>
       </c>
       <c r="ZG2">
-        <v>1.04578793172877</v>
+        <v>1.043921140101603</v>
       </c>
       <c r="ZH2">
-        <v>1.045742360423916</v>
+        <v>1.043850357398545</v>
       </c>
       <c r="ZI2">
-        <v>1.045910490119579</v>
+        <v>1.043578456245049</v>
       </c>
       <c r="ZJ2">
-        <v>1.045797366271043</v>
+        <v>1.043320260651395</v>
       </c>
       <c r="ZK2">
-        <v>1.045806979589294</v>
+        <v>1.043291739898656</v>
       </c>
       <c r="ZL2">
-        <v>1.045748816130216</v>
+        <v>1.043145963282114</v>
       </c>
       <c r="ZM2">
-        <v>1.045910116531876</v>
+        <v>1.043578269035945</v>
       </c>
       <c r="ZN2">
-        <v>1.045780140505776</v>
+        <v>1.043306379663062</v>
       </c>
       <c r="ZO2">
-        <v>1.04580663528467</v>
+        <v>1.043290333419973</v>
       </c>
       <c r="ZP2">
-        <v>1.04573793686649</v>
+        <v>1.043129470582518</v>
       </c>
       <c r="ZQ2">
-        <v>1.045687098309949</v>
+        <v>1.042985603529654</v>
       </c>
       <c r="ZR2">
-        <v>1.04590966598821</v>
+        <v>1.04357804326332</v>
       </c>
       <c r="ZS2">
-        <v>1.045806377033124</v>
+        <v>1.043289278466692</v>
       </c>
       <c r="ZT2">
-        <v>1.0457379368665</v>
+        <v>1.043128425873758</v>
       </c>
       <c r="ZU2">
-        <v>1.045735096863692</v>
+        <v>1.043128081755126</v>
       </c>
       <c r="ZV2">
-        <v>1.045674741005922</v>
+        <v>1.042883997572627</v>
       </c>
       <c r="ZW2">
-        <v>1.045674932984533</v>
+        <v>1.042957820642679</v>
       </c>
       <c r="ZX2">
-        <v>1.045908947313997</v>
+        <v>1.043577683127387</v>
       </c>
       <c r="ZY2">
-        <v>1.045805966783542</v>
+        <v>1.043287602603965</v>
       </c>
       <c r="ZZ2">
-        <v>1.045737936866503</v>
+        <v>1.043128098977883</v>
       </c>
       <c r="AAA2">
-        <v>1.045729311331712</v>
+        <v>1.043125252495452</v>
       </c>
       <c r="AAB2">
-        <v>1.045667582092628</v>
+        <v>1.042825134575723</v>
       </c>
       <c r="AAC2">
-        <v>1.045652120582086</v>
+        <v>1.042905722542972</v>
       </c>
       <c r="AAD2">
-        <v>1.045906980382582</v>
+        <v>1.043576697475376</v>
       </c>
       <c r="AAE2">
-        <v>1.04580527508683</v>
+        <v>1.043284777034417</v>
       </c>
       <c r="AAF2">
-        <v>1.045737936866505</v>
+        <v>1.043127888793302</v>
       </c>
       <c r="AAG2">
-        <v>1.045591945332449</v>
+        <v>1.042768296769065</v>
       </c>
       <c r="AAH2">
-        <v>1.045652120582087</v>
+        <v>1.042905722542974</v>
       </c>
       <c r="AAI2">
-        <v>1.045904362757932</v>
+        <v>1.043575385753473</v>
       </c>
       <c r="AAJ2">
-        <v>1.045800092243381</v>
+        <v>1.043263605206324</v>
       </c>
       <c r="AAK2">
-        <v>1.045737936866506</v>
+        <v>1.043127762015867</v>
       </c>
       <c r="AAL2">
-        <v>1.045528708914003</v>
+        <v>1.042652632696015</v>
       </c>
       <c r="AAM2">
-        <v>1.045581533286278</v>
+        <v>1.042707448557028</v>
       </c>
       <c r="AAN2">
-        <v>1.045652120582087</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="AAO2">
-        <v>1.045904113437699</v>
+        <v>1.043575260816228</v>
       </c>
       <c r="AAP2">
-        <v>1.045795840388416</v>
+        <v>1.043246236451913</v>
       </c>
       <c r="AAQ2">
-        <v>1.045737936866507</v>
+        <v>1.043127633880362</v>
       </c>
       <c r="AAR2">
-        <v>1.045463442120366</v>
+        <v>1.042533255073095</v>
       </c>
       <c r="AAS2">
-        <v>1.045580418652492</v>
+        <v>1.04270093461527</v>
       </c>
       <c r="AAT2">
-        <v>1.045652120582087</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="AAU2">
-        <v>1.045903916261081</v>
+        <v>1.043575162008749</v>
       </c>
       <c r="AAV2">
-        <v>1.045794493253031</v>
+        <v>1.043240733427299</v>
       </c>
       <c r="AAW2">
-        <v>1.045737936866508</v>
+        <v>1.043127519428396</v>
       </c>
       <c r="AAX2">
-        <v>1.045439565199295</v>
+        <v>1.042488517489978</v>
       </c>
       <c r="AAY2">
-        <v>1.04543846244788</v>
+        <v>1.042495068454906</v>
       </c>
       <c r="AAZ2">
-        <v>1.045579993069879</v>
+        <v>1.042698447502159</v>
       </c>
       <c r="ABA2">
-        <v>1.045652120582087</v>
+        <v>1.042905722542976</v>
       </c>
       <c r="ABB2">
-        <v>1.045903724755325</v>
+        <v>1.043575066043006</v>
       </c>
       <c r="ABC2">
-        <v>1.045793266858397</v>
+        <v>1.043235723626662</v>
       </c>
       <c r="ABD2">
-        <v>1.045737936866508</v>
+        <v>1.043127390480794</v>
       </c>
       <c r="ABE2">
-        <v>1.045407120203501</v>
+        <v>1.042427726158689</v>
       </c>
       <c r="ABF2">
-        <v>1.045435111604558</v>
+        <v>1.042489945995065</v>
       </c>
       <c r="ABG2">
-        <v>1.045579542887705</v>
+        <v>1.042695816628776</v>
       </c>
       <c r="ABH2">
-        <v>1.045652120582087</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="ABI2">
-        <v>1.045903519632019</v>
+        <v>1.043574963253351</v>
       </c>
       <c r="ABJ2">
-        <v>1.045792598898245</v>
+        <v>1.043232995021168</v>
       </c>
       <c r="ABK2">
-        <v>1.045737936866508</v>
+        <v>1.043127287167703</v>
       </c>
       <c r="ABL2">
-        <v>1.045369133684581</v>
+        <v>1.042356551875738</v>
       </c>
       <c r="ABM2">
-        <v>1.045433351149228</v>
+        <v>1.042487254773545</v>
       </c>
       <c r="ABN2">
-        <v>1.045579169275565</v>
+        <v>1.04269363323218</v>
       </c>
       <c r="ABO2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="ABP2">
-        <v>1.045903329980033</v>
+        <v>1.043574868216553</v>
       </c>
       <c r="ABQ2">
-        <v>1.045792065427366</v>
+        <v>1.043230815802015</v>
       </c>
       <c r="ABR2">
-        <v>1.045737936866508</v>
+        <v>1.043127163243576</v>
       </c>
       <c r="ABS2">
-        <v>1.045338632062222</v>
+        <v>1.042299401877104</v>
       </c>
       <c r="ABT2">
-        <v>1.045428477456094</v>
+        <v>1.042476991001245</v>
       </c>
       <c r="ABU2">
-        <v>1.04543318413347</v>
+        <v>1.042487091273658</v>
       </c>
       <c r="ABV2">
-        <v>1.045578726826938</v>
+        <v>1.042691047553851</v>
       </c>
       <c r="ABW2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="ABX2">
-        <v>1.045903151253082</v>
+        <v>1.043574778654416</v>
       </c>
       <c r="ABY2">
-        <v>1.045791610528375</v>
+        <v>1.043228957547657</v>
       </c>
       <c r="ABZ2">
-        <v>1.045737936866509</v>
+        <v>1.043127029700506</v>
       </c>
       <c r="ACA2">
-        <v>1.045328967084716</v>
+        <v>1.042279928220831</v>
       </c>
       <c r="ACB2">
-        <v>1.045322995764775</v>
+        <v>1.042282945544301</v>
       </c>
       <c r="ACC2">
-        <v>1.045424515747338</v>
+        <v>1.04246864782609</v>
       </c>
       <c r="ACD2">
-        <v>1.045433063357071</v>
+        <v>1.042486973039741</v>
       </c>
       <c r="ACE2">
-        <v>1.045578295331978</v>
+        <v>1.042688525888989</v>
       </c>
       <c r="ACF2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542975</v>
       </c>
       <c r="ACG2">
-        <v>1.045902902678093</v>
+        <v>1.043574654090621</v>
       </c>
       <c r="ACH2">
-        <v>1.045791076701219</v>
+        <v>1.04322677687316</v>
       </c>
       <c r="ACI2">
-        <v>1.045737936866508</v>
+        <v>1.04312678605814</v>
       </c>
       <c r="ACJ2">
-        <v>1.04531564189349</v>
+        <v>1.04225307972386</v>
       </c>
       <c r="ACK2">
-        <v>1.045309925872048</v>
+        <v>1.04226919020969</v>
       </c>
       <c r="ACL2">
-        <v>1.045432961432559</v>
+        <v>1.042486873260856</v>
       </c>
       <c r="ACM2">
-        <v>1.045577702118801</v>
+        <v>1.042685059139804</v>
       </c>
       <c r="ACN2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542974</v>
       </c>
       <c r="ACO2">
-        <v>1.045902598059623</v>
+        <v>1.04357450144279</v>
       </c>
       <c r="ACP2">
-        <v>1.045790588922086</v>
+        <v>1.043224784304041</v>
       </c>
       <c r="ACQ2">
-        <v>1.045737936866508</v>
+        <v>1.04312496323297</v>
       </c>
       <c r="ACR2">
-        <v>1.045282861527567</v>
+        <v>1.042187031662379</v>
       </c>
       <c r="ACS2">
-        <v>1.045305114147139</v>
+        <v>1.042264364455833</v>
       </c>
       <c r="ACT2">
-        <v>1.04530975589151</v>
+        <v>1.042269002685203</v>
       </c>
       <c r="ACU2">
-        <v>1.045432789270268</v>
+        <v>1.042486704722777</v>
       </c>
       <c r="ACV2">
-        <v>1.045576886058041</v>
+        <v>1.042680290065168</v>
       </c>
       <c r="ACW2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542974</v>
       </c>
       <c r="ACX2">
-        <v>1.045901154247105</v>
+        <v>1.043573777931676</v>
       </c>
       <c r="ACY2">
-        <v>1.045789832190914</v>
+        <v>1.043221693070634</v>
       </c>
       <c r="ACZ2">
-        <v>1.045737936866508</v>
+        <v>1.04311937719584</v>
       </c>
       <c r="ADA2">
-        <v>1.045256292586255</v>
+        <v>1.042133498831953</v>
       </c>
       <c r="ADB2">
-        <v>1.04530039917279</v>
+        <v>1.04225963573462</v>
       </c>
       <c r="ADC2">
-        <v>1.04530959336831</v>
+        <v>1.042268823387736</v>
       </c>
       <c r="ADD2">
-        <v>1.04543254817736</v>
+        <v>1.04248646870515</v>
       </c>
       <c r="ADE2">
-        <v>1.04557602243469</v>
+        <v>1.042675243033956</v>
       </c>
       <c r="ADF2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="ADG2">
-        <v>1.045888809239872</v>
+        <v>1.043567591705969</v>
       </c>
       <c r="ADH2">
-        <v>1.045788304425968</v>
+        <v>1.043215452178076</v>
       </c>
       <c r="ADI2">
-        <v>1.045235532403782</v>
+        <v>1.042091669891206</v>
       </c>
       <c r="ADJ2">
-        <v>1.04530941815981</v>
+        <v>1.0422686300957</v>
       </c>
       <c r="ADK2">
-        <v>1.045432369280781</v>
+        <v>1.042486293574548</v>
       </c>
       <c r="ADL2">
-        <v>1.045575448753341</v>
+        <v>1.042671890429351</v>
       </c>
       <c r="ADM2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="ADN2">
-        <v>1.045788073426906</v>
+        <v>1.043213813861075</v>
       </c>
       <c r="ADO2">
-        <v>1.045786960891867</v>
+        <v>1.043214105332915</v>
       </c>
       <c r="ADP2">
-        <v>1.0452167692205</v>
+        <v>1.042053864650538</v>
       </c>
       <c r="ADQ2">
-        <v>1.045309261712005</v>
+        <v>1.042268457500679</v>
       </c>
       <c r="ADR2">
-        <v>1.045432072931149</v>
+        <v>1.042486003463414</v>
       </c>
       <c r="ADS2">
-        <v>1.045574864883778</v>
+        <v>1.04266847828469</v>
       </c>
       <c r="ADT2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="ADU2">
-        <v>1.045787871973928</v>
+        <v>1.043212385094086</v>
       </c>
       <c r="ADV2">
-        <v>1.0457848110419</v>
+        <v>1.043211950184771</v>
       </c>
       <c r="ADW2">
-        <v>1.045214986765361</v>
+        <v>1.042049858109896</v>
       </c>
       <c r="ADX2">
-        <v>1.045211523768474</v>
+        <v>1.042044880957716</v>
       </c>
       <c r="ADY2">
-        <v>1.045309088941476</v>
+        <v>1.042268266898242</v>
       </c>
       <c r="ADZ2">
-        <v>1.045430015962735</v>
+        <v>1.042483989796534</v>
       </c>
       <c r="AEA2">
-        <v>1.045574585710662</v>
+        <v>1.042666846791794</v>
       </c>
       <c r="AEB2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="AEC2">
-        <v>1.045787705363144</v>
+        <v>1.043211203438744</v>
       </c>
       <c r="AED2">
-        <v>1.045782974205516</v>
+        <v>1.043210108821613</v>
       </c>
       <c r="AEE2">
-        <v>1.045213199627494</v>
+        <v>1.042045841043632</v>
       </c>
       <c r="AEF2">
-        <v>1.0452031428464</v>
+        <v>1.042030527271468</v>
       </c>
       <c r="AEG2">
-        <v>1.045211523768474</v>
+        <v>1.042044880957716</v>
       </c>
       <c r="AEH2">
-        <v>1.045308977550638</v>
+        <v>1.042268144010586</v>
       </c>
       <c r="AEI2">
-        <v>1.045425472373172</v>
+        <v>1.042479541854717</v>
       </c>
       <c r="AEJ2">
-        <v>1.045574141651986</v>
+        <v>1.042664251704631</v>
       </c>
       <c r="AEK2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="AEL2">
-        <v>1.045787575798505</v>
+        <v>1.04321028452615</v>
       </c>
       <c r="AEM2">
-        <v>1.045781934628141</v>
+        <v>1.043209066682262</v>
       </c>
       <c r="AEN2">
-        <v>1.045211409020963</v>
+        <v>1.042041816180677</v>
       </c>
       <c r="AEO2">
-        <v>1.045196115726904</v>
+        <v>1.042018492192995</v>
       </c>
       <c r="AEP2">
-        <v>1.0452031428464</v>
+        <v>1.042030527271468</v>
       </c>
       <c r="AEQ2">
-        <v>1.04530880646192</v>
+        <v>1.042267955263543</v>
       </c>
       <c r="AER2">
-        <v>1.045573724779514</v>
+        <v>1.042661815494177</v>
       </c>
       <c r="AES2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="AET2">
-        <v>1.045787444023247</v>
+        <v>1.043209349935169</v>
       </c>
       <c r="AEU2">
-        <v>1.04520962925408</v>
+        <v>1.042037815682755</v>
       </c>
       <c r="AEV2">
-        <v>1.045188561752085</v>
+        <v>1.042005554791239</v>
       </c>
       <c r="AEW2">
-        <v>1.045196115726904</v>
+        <v>1.042018492192995</v>
       </c>
       <c r="AEX2">
-        <v>1.04530739921395</v>
+        <v>1.042266402771372</v>
       </c>
       <c r="AEY2">
-        <v>1.045573129138068</v>
+        <v>1.042658334554576</v>
       </c>
       <c r="AEZ2">
-        <v>1.045652120582088</v>
+        <v>1.042905722542973</v>
       </c>
       <c r="AFA2">
-        <v>1.045787329665752</v>
+        <v>1.043208538876367</v>
       </c>
       <c r="AFB2">
-        <v>1.045207842723236</v>
+        <v>1.042033799981086</v>
       </c>
       <c r="AFC2">
-        <v>1.045182359671455</v>
+        <v>1.041994932727881</v>
       </c>
       <c r="AFD2">
-        <v>1.045188561752085</v>
+        <v>1.042005554791239</v>
       </c>
       <c r="AFE2">
-        <v>1.045302549201572</v>
+        <v>1.04226105218186</v>
       </c>
       <c r="AFF2">
-        <v>1.045566841738119</v>
+        <v>1.042621590876711</v>
       </c>
       <c r="AFG2">
-        <v>1.045787247532456</v>
+        <v>1.043207956361573</v>
       </c>
       <c r="AFH2">
-        <v>1.045206057406473</v>
+        <v>1.042029787008437</v>
       </c>
       <c r="AFI2">
-        <v>1.045175701055515</v>
+        <v>1.04198352877546</v>
       </c>
       <c r="AFJ2">
-        <v>1.045182359671455</v>
+        <v>1.041994932727881</v>
       </c>
       <c r="AFK2">
-        <v>1.045564326936631</v>
+        <v>1.042606894333549</v>
       </c>
       <c r="AFL2">
-        <v>1.045787152175548</v>
+        <v>1.043207280060829</v>
       </c>
       <c r="AFM2">
-        <v>1.045204270962483</v>
+        <v>1.042025771502095</v>
       </c>
       <c r="AFN2">
-        <v>1.045140569663282</v>
+        <v>1.041923360638602</v>
       </c>
       <c r="AFO2">
-        <v>1.045175701055514</v>
+        <v>1.041983528775461</v>
       </c>
       <c r="AFP2">
-        <v>1.045175701055515</v>
+        <v>1.04198352877546</v>
       </c>
       <c r="AFQ2">
-        <v>1.045563049924883</v>
+        <v>1.042599431455307</v>
       </c>
       <c r="AFR2">
-        <v>1.045787008519085</v>
+        <v>1.043206261204664</v>
       </c>
       <c r="AFS2">
-        <v>1.045203398942633</v>
+        <v>1.042023811406382</v>
       </c>
       <c r="AFT2">
-        <v>1.045135429838291</v>
+        <v>1.041914557865519</v>
       </c>
       <c r="AFU2">
-        <v>1.045175701055513</v>
+        <v>1.041983528775463</v>
       </c>
       <c r="AFV2">
-        <v>1.045175701055514</v>
+        <v>1.041983528775461</v>
       </c>
       <c r="AFW2">
-        <v>1.045562767346918</v>
+        <v>1.042597780064943</v>
       </c>
       <c r="AFX2">
-        <v>1.045786773813399</v>
+        <v>1.043204596599205</v>
       </c>
       <c r="AFY2">
-        <v>1.045183800175159</v>
+        <v>1.041979757985656</v>
       </c>
       <c r="AFZ2">
-        <v>1.04512094979222</v>
+        <v>1.041889758469409</v>
       </c>
       <c r="AGA2">
-        <v>1.045175701055511</v>
+        <v>1.041983528775465</v>
       </c>
       <c r="AGB2">
-        <v>1.045175701055513</v>
+        <v>1.041983528775463</v>
       </c>
       <c r="AGC2">
-        <v>1.045562544802916</v>
+        <v>1.042596479514069</v>
       </c>
       <c r="AGD2">
-        <v>1.045786773813399</v>
+        <v>1.043199070691442</v>
       </c>
       <c r="AGE2">
-        <v>1.045781758793713</v>
+        <v>1.043183742920859</v>
       </c>
       <c r="AGF2">
-        <v>1.045171055471378</v>
+        <v>1.041951110891664</v>
       </c>
       <c r="AGG2">
-        <v>1.045103946586684</v>
+        <v>1.041860637760379</v>
       </c>
       <c r="AGH2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGI2">
-        <v>1.045175701055511</v>
+        <v>1.041983528775465</v>
       </c>
       <c r="AGJ2">
-        <v>1.045562306361591</v>
+        <v>1.042595086058979</v>
       </c>
       <c r="AGK2">
-        <v>1.04515990895094</v>
+        <v>1.041926056139717</v>
       </c>
       <c r="AGL2">
-        <v>1.045101740903834</v>
+        <v>1.041856860175827</v>
       </c>
       <c r="AGM2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGN2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGO2">
-        <v>1.045562115591112</v>
+        <v>1.042593971193122</v>
       </c>
       <c r="AGP2">
-        <v>1.045148216985258</v>
+        <v>1.041899775357469</v>
       </c>
       <c r="AGQ2">
-        <v>1.045099522958624</v>
+        <v>1.041855747779115</v>
       </c>
       <c r="AGR2">
-        <v>1.0451005072861</v>
+        <v>1.041848770934833</v>
       </c>
       <c r="AGS2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGT2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGU2">
-        <v>1.045561930360801</v>
+        <v>1.042592888704106</v>
       </c>
       <c r="AGV2">
-        <v>1.045128253148308</v>
+        <v>1.041854901363853</v>
       </c>
       <c r="AGW2">
-        <v>1.04509747063466</v>
+        <v>1.04185471844871</v>
       </c>
       <c r="AGX2">
-        <v>1.045097620288417</v>
+        <v>1.0418298399336</v>
       </c>
       <c r="AGY2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AGZ2">
-        <v>1.04517570105551</v>
+        <v>1.041983528775466</v>
       </c>
       <c r="AHA2">
-        <v>1.045561745600308</v>
+        <v>1.042591808960715</v>
       </c>
       <c r="AHB2">
-        <v>1.045123356449985</v>
+        <v>1.041843894742701</v>
       </c>
       <c r="AHC2">
-        <v>1.04509434989612</v>
+        <v>1.041853153261568</v>
       </c>
       <c r="AHD2">
-        <v>1.045090771466749</v>
+        <v>1.041784929943965</v>
       </c>
       <c r="AHE2">
-        <v>1.045561563001522</v>
+        <v>1.042590741850383</v>
       </c>
       <c r="AHF2">
-        <v>1.045121691255284</v>
+        <v>1.04183550111224</v>
       </c>
       <c r="AHG2">
-        <v>1.045109061195162</v>
+        <v>1.041829554497111</v>
       </c>
       <c r="AHH2">
-        <v>1.045090406135882</v>
+        <v>1.04185117529296</v>
       </c>
       <c r="AHI2">
-        <v>1.045558297755859</v>
+        <v>1.042571659701534</v>
       </c>
       <c r="AHJ2">
-        <v>1.045118957142163</v>
+        <v>1.041821719460159</v>
       </c>
       <c r="AHK2">
-        <v>1.045096936897645</v>
+        <v>1.041817392041385</v>
       </c>
       <c r="AHL2">
-        <v>1.04507505315428</v>
+        <v>1.041843475099626</v>
       </c>
       <c r="AHM2">
-        <v>1.045550515588132</v>
+        <v>1.042544248086769</v>
       </c>
       <c r="AHN2">
-        <v>1.045554050307228</v>
+        <v>1.042536729810895</v>
       </c>
       <c r="AHO2">
-        <v>1.045118416548003</v>
+        <v>1.041818994525228</v>
       </c>
       <c r="AHP2">
-        <v>1.045076558446698</v>
+        <v>1.041796949454359</v>
       </c>
       <c r="AHQ2">
-        <v>1.045047163457297</v>
+        <v>1.041829487193276</v>
       </c>
       <c r="AHR2">
-        <v>1.045545347338985</v>
+        <v>1.04252604364212</v>
       </c>
       <c r="AHS2">
-        <v>1.045117959757583</v>
+        <v>1.041816692013931</v>
       </c>
       <c r="AHT2">
-        <v>1.045117574821816</v>
+        <v>1.041814751695345</v>
       </c>
       <c r="AHU2">
-        <v>1.045117074084573</v>
+        <v>1.041812227664448</v>
       </c>
       <c r="AHV2">
-        <v>1.045116167828157</v>
+        <v>1.041807659561737</v>
       </c>
       <c r="AHW2">
-        <v>1.045114596541835</v>
+        <v>1.041799739289964</v>
       </c>
       <c r="AHX2">
-        <v>1.045101726054623</v>
+        <v>1.041734863946518</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049859915982037</v>
+        <v>1.049837878867968</v>
       </c>
       <c r="D3">
-        <v>1.049781970351539</v>
+        <v>1.049748014846335</v>
       </c>
       <c r="E3">
-        <v>1.049773798846498</v>
+        <v>1.049738593866747</v>
       </c>
       <c r="F3">
-        <v>1.049766143430382</v>
+        <v>1.049729767889575</v>
       </c>
       <c r="G3">
-        <v>1.049759469007608</v>
+        <v>1.049722072905964</v>
       </c>
       <c r="H3">
-        <v>1.049748954172653</v>
+        <v>1.049709950287587</v>
       </c>
       <c r="I3">
-        <v>1.049032947835463</v>
+        <v>1.048884463207251</v>
       </c>
       <c r="J3">
-        <v>1.049000879288509</v>
+        <v>1.048847491277432</v>
       </c>
       <c r="K3">
-        <v>1.048974188053543</v>
+        <v>1.048816718870929</v>
       </c>
       <c r="L3">
-        <v>1.048950764379663</v>
+        <v>1.048789713648011</v>
       </c>
       <c r="M3">
-        <v>1.048933285899046</v>
+        <v>1.048769562657462</v>
       </c>
       <c r="N3">
-        <v>1.048916877913066</v>
+        <v>1.048750645844398</v>
       </c>
       <c r="O3">
-        <v>1.048906788503041</v>
+        <v>1.048739013735825</v>
       </c>
       <c r="P3">
-        <v>1.048881670403573</v>
+        <v>1.048710055011663</v>
       </c>
       <c r="Q3">
-        <v>1.048678193348444</v>
+        <v>1.048475465865192</v>
       </c>
       <c r="R3">
-        <v>1.048678193348446</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="S3">
-        <v>1.048431443963167</v>
+        <v>1.048190988181872</v>
       </c>
       <c r="T3">
-        <v>1.048678193348447</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="U3">
-        <v>1.048414466153968</v>
+        <v>1.048171414453038</v>
       </c>
       <c r="V3">
-        <v>1.048678193348447</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="W3">
-        <v>1.048395402064088</v>
+        <v>1.048149435451071</v>
       </c>
       <c r="X3">
-        <v>1.048678193348448</v>
+        <v>1.048475465865189</v>
       </c>
       <c r="Y3">
-        <v>1.048364361886832</v>
+        <v>1.048113649213162</v>
       </c>
       <c r="Z3">
-        <v>1.048678193348449</v>
+        <v>1.048475465865189</v>
       </c>
       <c r="AA3">
-        <v>1.048307892348691</v>
+        <v>1.048048545460881</v>
       </c>
       <c r="AB3">
-        <v>1.04867819334845</v>
+        <v>1.048475465865189</v>
       </c>
       <c r="AC3">
-        <v>1.048232655198188</v>
+        <v>1.048001704804829</v>
       </c>
       <c r="AD3">
-        <v>1.047649524426056</v>
+        <v>1.047263390551967</v>
       </c>
       <c r="AE3">
-        <v>1.048678193348451</v>
+        <v>1.048475465865189</v>
       </c>
       <c r="AF3">
-        <v>1.048215314584434</v>
+        <v>1.047997474627291</v>
       </c>
       <c r="AG3">
-        <v>1.048229358754366</v>
+        <v>1.047993255628711</v>
       </c>
       <c r="AH3">
-        <v>1.047474258161494</v>
+        <v>1.047054372306796</v>
       </c>
       <c r="AI3">
-        <v>1.048678193348453</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="AJ3">
-        <v>1.048175603360769</v>
+        <v>1.047987787222396</v>
       </c>
       <c r="AK3">
-        <v>1.048229247120013</v>
+        <v>1.04799296949664</v>
       </c>
       <c r="AL3">
-        <v>1.047455631739466</v>
+        <v>1.047027911925943</v>
       </c>
       <c r="AM3">
-        <v>1.046954425511184</v>
+        <v>1.046436741617379</v>
       </c>
       <c r="AN3">
-        <v>1.048678193348456</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="AO3">
-        <v>1.048229086610003</v>
+        <v>1.047992558090471</v>
       </c>
       <c r="AP3">
-        <v>1.047455371502536</v>
+        <v>1.047027130887809</v>
       </c>
       <c r="AQ3">
-        <v>1.047450931487014</v>
+        <v>1.047023092194527</v>
       </c>
       <c r="AR3">
-        <v>1.046593700032605</v>
+        <v>1.046008152359812</v>
       </c>
       <c r="AS3">
-        <v>1.046954425511184</v>
+        <v>1.046436741617377</v>
       </c>
       <c r="AT3">
-        <v>1.048678193348456</v>
+        <v>1.04847546586519</v>
       </c>
       <c r="AU3">
-        <v>1.04822888076687</v>
+        <v>1.047992030490142</v>
       </c>
       <c r="AV3">
-        <v>1.047455254205964</v>
+        <v>1.047026778850551</v>
       </c>
       <c r="AW3">
-        <v>1.04743962178999</v>
+        <v>1.047011495008514</v>
       </c>
       <c r="AX3">
-        <v>1.046321117393265</v>
+        <v>1.045684288832008</v>
       </c>
       <c r="AY3">
-        <v>1.046954425511183</v>
+        <v>1.046436741617376</v>
       </c>
       <c r="AZ3">
-        <v>1.048678193348457</v>
+        <v>1.048475465865191</v>
       </c>
       <c r="BA3">
-        <v>1.048228379446129</v>
+        <v>1.047990745545712</v>
       </c>
       <c r="BB3">
-        <v>1.047455129896708</v>
+        <v>1.047026405766421</v>
       </c>
       <c r="BC3">
-        <v>1.046281816616217</v>
+        <v>1.045637594444328</v>
       </c>
       <c r="BD3">
-        <v>1.046321117393269</v>
+        <v>1.045684288832009</v>
       </c>
       <c r="BE3">
-        <v>1.046954425511183</v>
+        <v>1.046436741617375</v>
       </c>
       <c r="BF3">
-        <v>1.048678193348457</v>
+        <v>1.048475465865191</v>
       </c>
       <c r="BG3">
-        <v>1.048227950224045</v>
+        <v>1.047989645398686</v>
       </c>
       <c r="BH3">
-        <v>1.047455011500745</v>
+        <v>1.047026050429606</v>
       </c>
       <c r="BI3">
-        <v>1.046103794945798</v>
+        <v>1.045426081861614</v>
       </c>
       <c r="BJ3">
-        <v>1.04632111739327</v>
+        <v>1.045684288832009</v>
       </c>
       <c r="BK3">
-        <v>1.046954425511182</v>
+        <v>1.046436741617374</v>
       </c>
       <c r="BL3">
-        <v>1.048678193348457</v>
+        <v>1.048475465865191</v>
       </c>
       <c r="BM3">
-        <v>1.048225892687291</v>
+        <v>1.047984371688398</v>
       </c>
       <c r="BN3">
-        <v>1.047454940593273</v>
+        <v>1.047025837618</v>
       </c>
       <c r="BO3">
-        <v>1.046068182457718</v>
+        <v>1.045383950718841</v>
       </c>
       <c r="BP3">
-        <v>1.046081739717622</v>
+        <v>1.045392977117507</v>
       </c>
       <c r="BQ3">
-        <v>1.04632111739327</v>
+        <v>1.045684288832009</v>
       </c>
       <c r="BR3">
-        <v>1.046954425511182</v>
+        <v>1.046436741617373</v>
       </c>
       <c r="BS3">
-        <v>1.048678193348459</v>
+        <v>1.048475465865192</v>
       </c>
       <c r="BT3">
-        <v>1.048218620000396</v>
+        <v>1.047965730931642</v>
       </c>
       <c r="BU3">
-        <v>1.047454801478021</v>
+        <v>1.047025420097254</v>
       </c>
       <c r="BV3">
-        <v>1.045647436211177</v>
+        <v>1.044886189862182</v>
       </c>
       <c r="BW3">
-        <v>1.046076480967609</v>
+        <v>1.045387583346876</v>
       </c>
       <c r="BX3">
-        <v>1.046076218025751</v>
+        <v>1.045382189520511</v>
       </c>
       <c r="BY3">
-        <v>1.04632111739327</v>
+        <v>1.045684288832011</v>
       </c>
       <c r="BZ3">
-        <v>1.046954425511182</v>
+        <v>1.046436741617371</v>
       </c>
       <c r="CA3">
-        <v>1.048678193348464</v>
+        <v>1.048475465865193</v>
       </c>
       <c r="CB3">
-        <v>1.047454096436591</v>
+        <v>1.047023304086131</v>
       </c>
       <c r="CC3">
-        <v>1.045500775855195</v>
+        <v>1.044712684584956</v>
       </c>
       <c r="CD3">
-        <v>1.046321117393271</v>
+        <v>1.045684288832011</v>
       </c>
       <c r="CE3">
-        <v>1.04695442551118</v>
+        <v>1.046436741617364</v>
       </c>
       <c r="CF3">
-        <v>1.048678193348472</v>
+        <v>1.048475465865195</v>
       </c>
       <c r="CG3">
-        <v>1.047451439683376</v>
+        <v>1.047015330484845</v>
       </c>
       <c r="CH3">
-        <v>1.045468769826842</v>
+        <v>1.044674820142178</v>
       </c>
       <c r="CI3">
-        <v>1.046321117393271</v>
+        <v>1.045684288832011</v>
       </c>
       <c r="CJ3">
-        <v>1.046954425511176</v>
+        <v>1.046436741617351</v>
       </c>
       <c r="CK3">
-        <v>1.048678193348477</v>
+        <v>1.048475465865196</v>
       </c>
       <c r="CL3">
-        <v>1.045403866720034</v>
+        <v>1.044598037124095</v>
       </c>
       <c r="CM3">
-        <v>1.046321117393271</v>
+        <v>1.045684288832011</v>
       </c>
       <c r="CN3">
-        <v>1.046954425511175</v>
+        <v>1.046436741617347</v>
       </c>
       <c r="CO3">
-        <v>1.048678193348478</v>
+        <v>1.048475465865196</v>
       </c>
       <c r="CP3">
-        <v>1.045342660159807</v>
+        <v>1.044525627291078</v>
       </c>
       <c r="CQ3">
-        <v>1.046954425511175</v>
+        <v>1.046436741617347</v>
       </c>
       <c r="CR3">
-        <v>1.048678193348479</v>
+        <v>1.048475465865196</v>
       </c>
       <c r="CS3">
-        <v>1.045307084655886</v>
+        <v>1.044483540041867</v>
       </c>
       <c r="CT3">
-        <v>1.046954425511175</v>
+        <v>1.046436741617347</v>
       </c>
       <c r="CU3">
-        <v>1.048678193348479</v>
+        <v>1.048475465865197</v>
       </c>
       <c r="CV3">
-        <v>1.045283589707931</v>
+        <v>1.04445574457889</v>
       </c>
       <c r="CW3">
-        <v>1.046954425511175</v>
+        <v>1.046436741617347</v>
       </c>
       <c r="CX3">
-        <v>1.048678193348479</v>
+        <v>1.048475465865197</v>
       </c>
       <c r="CY3">
-        <v>1.045251149758983</v>
+        <v>1.044417366826727</v>
       </c>
       <c r="CZ3">
-        <v>1.046954425511159</v>
+        <v>1.046436741617338</v>
       </c>
       <c r="DA3">
-        <v>1.048678193348479</v>
+        <v>1.048475465865197</v>
       </c>
       <c r="DB3">
-        <v>1.045250500675005</v>
+        <v>1.044416750359978</v>
       </c>
       <c r="DC3">
-        <v>1.045233520846494</v>
+        <v>1.044395626965873</v>
       </c>
       <c r="DD3">
-        <v>1.046954425511158</v>
+        <v>1.046436741617338</v>
       </c>
       <c r="DE3">
-        <v>1.045249715373237</v>
+        <v>1.044416004520529</v>
       </c>
       <c r="DF3">
-        <v>1.045223524382218</v>
+        <v>1.044383299391734</v>
       </c>
       <c r="DG3">
-        <v>1.046954425511157</v>
+        <v>1.046436741617337</v>
       </c>
       <c r="DH3">
-        <v>1.045248805152903</v>
+        <v>1.044415140039794</v>
       </c>
       <c r="DI3">
-        <v>1.044829092483028</v>
+        <v>1.04389688911086</v>
       </c>
       <c r="DJ3">
-        <v>1.046954425511124</v>
+        <v>1.046436741617306</v>
       </c>
       <c r="DK3">
-        <v>1.045247417337785</v>
+        <v>1.044413821963911</v>
       </c>
       <c r="DL3">
-        <v>1.044789579200485</v>
+        <v>1.043848161704121</v>
       </c>
       <c r="DM3">
-        <v>1.046954425511096</v>
+        <v>1.046436741617279</v>
       </c>
       <c r="DN3">
-        <v>1.045245633115035</v>
+        <v>1.044412127400242</v>
       </c>
       <c r="DO3">
-        <v>1.044788719768827</v>
+        <v>1.043847133888922</v>
       </c>
       <c r="DP3">
-        <v>1.044680499590193</v>
+        <v>1.04371331724712</v>
       </c>
       <c r="DQ3">
-        <v>1.046954425511093</v>
+        <v>1.046436741617277</v>
       </c>
       <c r="DR3">
-        <v>1.045244352214702</v>
+        <v>1.044410910866456</v>
       </c>
       <c r="DS3">
-        <v>1.044788719768825</v>
+        <v>1.043847133888923</v>
       </c>
       <c r="DT3">
-        <v>1.044788301316893</v>
+        <v>1.043846633452123</v>
       </c>
       <c r="DU3">
-        <v>1.044483790708323</v>
+        <v>1.043470145882879</v>
       </c>
       <c r="DV3">
-        <v>1.046954425511091</v>
+        <v>1.046436741617275</v>
       </c>
       <c r="DW3">
-        <v>1.045242542313557</v>
+        <v>1.044409191914615</v>
       </c>
       <c r="DX3">
-        <v>1.044788719768824</v>
+        <v>1.043847133888923</v>
       </c>
       <c r="DY3">
-        <v>1.044786335571184</v>
+        <v>1.043844282569543</v>
       </c>
       <c r="DZ3">
-        <v>1.04439533164562</v>
+        <v>1.043360793108537</v>
       </c>
       <c r="EA3">
-        <v>1.04695442551109</v>
+        <v>1.046436741617274</v>
       </c>
       <c r="EB3">
-        <v>1.0452405841327</v>
+        <v>1.044407332134166</v>
       </c>
       <c r="EC3">
-        <v>1.044788719768823</v>
+        <v>1.043847133888924</v>
       </c>
       <c r="ED3">
-        <v>1.044773625063578</v>
+        <v>1.043834304640167</v>
       </c>
       <c r="EE3">
-        <v>1.044782603524447</v>
+        <v>1.043839060019158</v>
       </c>
       <c r="EF3">
-        <v>1.044369012744213</v>
+        <v>1.043328257807362</v>
       </c>
       <c r="EG3">
-        <v>1.046954425511085</v>
+        <v>1.04643674161727</v>
       </c>
       <c r="EH3">
-        <v>1.045238737412515</v>
+        <v>1.044405578213297</v>
       </c>
       <c r="EI3">
-        <v>1.044788719768822</v>
+        <v>1.043847133888924</v>
       </c>
       <c r="EJ3">
-        <v>1.044772530440475</v>
+        <v>1.043833445345445</v>
       </c>
       <c r="EK3">
-        <v>1.044779827084653</v>
+        <v>1.043835174728504</v>
       </c>
       <c r="EL3">
-        <v>1.044339303967938</v>
+        <v>1.043291531975393</v>
       </c>
       <c r="EM3">
-        <v>1.046954425511081</v>
+        <v>1.046436741617268</v>
       </c>
       <c r="EN3">
-        <v>1.045235701113951</v>
+        <v>1.044402694491218</v>
       </c>
       <c r="EO3">
-        <v>1.044788719768821</v>
+        <v>1.043847133888925</v>
       </c>
       <c r="EP3">
-        <v>1.044771456407277</v>
+        <v>1.04383260221409</v>
       </c>
       <c r="EQ3">
-        <v>1.04477796777387</v>
+        <v>1.043832572849964</v>
       </c>
       <c r="ER3">
-        <v>1.044311363460624</v>
+        <v>1.043256992084075</v>
       </c>
       <c r="ES3">
-        <v>1.046954425511081</v>
+        <v>1.046436741617268</v>
       </c>
       <c r="ET3">
-        <v>1.045221264247546</v>
+        <v>1.044388983085889</v>
       </c>
       <c r="EU3">
-        <v>1.04478871976882</v>
+        <v>1.043847133888926</v>
       </c>
       <c r="EV3">
-        <v>1.044770589170967</v>
+        <v>1.043831921421237</v>
       </c>
       <c r="EW3">
-        <v>1.0447768501067</v>
+        <v>1.04383071429574</v>
       </c>
       <c r="EX3">
-        <v>1.044764245804791</v>
+        <v>1.043818838587533</v>
       </c>
       <c r="EY3">
-        <v>1.044278762289946</v>
+        <v>1.043216690727542</v>
       </c>
       <c r="EZ3">
-        <v>1.046954425511081</v>
+        <v>1.046436741617268</v>
       </c>
       <c r="FA3">
-        <v>1.045218119266729</v>
+        <v>1.044385996141503</v>
       </c>
       <c r="FB3">
-        <v>1.044788719768819</v>
+        <v>1.043847133888927</v>
       </c>
       <c r="FC3">
-        <v>1.04476928751818</v>
+        <v>1.04383089960526</v>
       </c>
       <c r="FD3">
-        <v>1.044773885990261</v>
+        <v>1.043825785308683</v>
       </c>
       <c r="FE3">
-        <v>1.04476341059759</v>
+        <v>1.043818002632079</v>
       </c>
       <c r="FF3">
-        <v>1.044269381485607</v>
+        <v>1.043205094241729</v>
       </c>
       <c r="FG3">
-        <v>1.046954425511081</v>
+        <v>1.046436741617268</v>
       </c>
       <c r="FH3">
-        <v>1.045186732447239</v>
+        <v>1.044378143460759</v>
       </c>
       <c r="FI3">
-        <v>1.045207318583939</v>
+        <v>1.044374973463264</v>
       </c>
       <c r="FJ3">
-        <v>1.044788719768819</v>
+        <v>1.043847133888927</v>
       </c>
       <c r="FK3">
-        <v>1.044767718230321</v>
+        <v>1.043829667691938</v>
       </c>
       <c r="FL3">
-        <v>1.044772856391794</v>
+        <v>1.043824073205291</v>
       </c>
       <c r="FM3">
-        <v>1.044762647591577</v>
+        <v>1.043817238942498</v>
       </c>
       <c r="FN3">
-        <v>1.04421608774513</v>
+        <v>1.043139212919278</v>
       </c>
       <c r="FO3">
-        <v>1.046954425511081</v>
+        <v>1.046436741617268</v>
       </c>
       <c r="FP3">
-        <v>1.045180802947137</v>
+        <v>1.044376659956674</v>
       </c>
       <c r="FQ3">
-        <v>1.045192979634968</v>
+        <v>1.044360339796068</v>
       </c>
       <c r="FR3">
-        <v>1.044788719768819</v>
+        <v>1.043847133888927</v>
       </c>
       <c r="FS3">
-        <v>1.044766532665885</v>
+        <v>1.043828737006968</v>
       </c>
       <c r="FT3">
-        <v>1.044772856391786</v>
+        <v>1.043824073205298</v>
       </c>
       <c r="FU3">
-        <v>1.044755854153344</v>
+        <v>1.043795800522149</v>
       </c>
       <c r="FV3">
-        <v>1.044762330628401</v>
+        <v>1.043816921695358</v>
       </c>
       <c r="FW3">
-        <v>1.044185987205453</v>
+        <v>1.043102002882614</v>
       </c>
       <c r="FX3">
-        <v>1.045168569194215</v>
+        <v>1.044373599188849</v>
       </c>
       <c r="FY3">
-        <v>1.045191054680739</v>
+        <v>1.044358320819589</v>
       </c>
       <c r="FZ3">
-        <v>1.045179989133774</v>
+        <v>1.04434852461827</v>
       </c>
       <c r="GA3">
-        <v>1.04478871976882</v>
+        <v>1.043847133888928</v>
       </c>
       <c r="GB3">
-        <v>1.044765160761466</v>
+        <v>1.043827660042453</v>
       </c>
       <c r="GC3">
-        <v>1.044772856391784</v>
+        <v>1.043824073205299</v>
       </c>
       <c r="GD3">
-        <v>1.044754017895466</v>
+        <v>1.043792747045662</v>
       </c>
       <c r="GE3">
-        <v>1.044761647418019</v>
+        <v>1.043816237872897</v>
       </c>
       <c r="GF3">
-        <v>1.044163642785953</v>
+        <v>1.043074380908764</v>
       </c>
       <c r="GG3">
-        <v>1.045183479489684</v>
+        <v>1.044350375627775</v>
       </c>
       <c r="GH3">
-        <v>1.045126224213691</v>
+        <v>1.044299624110792</v>
       </c>
       <c r="GI3">
-        <v>1.044788719768821</v>
+        <v>1.043847133888928</v>
       </c>
       <c r="GJ3">
-        <v>1.044763870817312</v>
+        <v>1.043826647417913</v>
       </c>
       <c r="GK3">
-        <v>1.044772856391785</v>
+        <v>1.043824073205299</v>
       </c>
       <c r="GL3">
-        <v>1.044772856391784</v>
+        <v>1.0438240732053</v>
       </c>
       <c r="GM3">
-        <v>1.044752241728792</v>
+        <v>1.043789793493655</v>
       </c>
       <c r="GN3">
-        <v>1.044759907289422</v>
+        <v>1.04381449618534</v>
       </c>
       <c r="GO3">
-        <v>1.044143554141355</v>
+        <v>1.043049547512341</v>
       </c>
       <c r="GP3">
-        <v>1.045169954429954</v>
+        <v>1.044336189957463</v>
       </c>
       <c r="GQ3">
-        <v>1.045117025583337</v>
+        <v>1.044293998344406</v>
       </c>
       <c r="GR3">
-        <v>1.045125467387961</v>
+        <v>1.044297351812336</v>
       </c>
       <c r="GS3">
-        <v>1.044788719768821</v>
+        <v>1.043847133888928</v>
       </c>
       <c r="GT3">
-        <v>1.044762482913284</v>
+        <v>1.043825557893475</v>
       </c>
       <c r="GU3">
-        <v>1.044772856391785</v>
+        <v>1.043824073205299</v>
       </c>
       <c r="GV3">
-        <v>1.044772856391783</v>
+        <v>1.0438240732053</v>
       </c>
       <c r="GW3">
-        <v>1.044750820973461</v>
+        <v>1.04378743094807</v>
       </c>
       <c r="GX3">
-        <v>1.04475888636475</v>
+        <v>1.043813474346036</v>
       </c>
       <c r="GY3">
-        <v>1.04411859838203</v>
+        <v>1.043018697444887</v>
       </c>
       <c r="GZ3">
-        <v>1.045121669431783</v>
+        <v>1.044301433481279</v>
       </c>
       <c r="HA3">
-        <v>1.045168932650806</v>
+        <v>1.044334309143932</v>
       </c>
       <c r="HB3">
-        <v>1.04509376917412</v>
+        <v>1.044279775017146</v>
       </c>
       <c r="HC3">
-        <v>1.045125360409891</v>
+        <v>1.044297030620692</v>
       </c>
       <c r="HD3">
-        <v>1.044788719768821</v>
+        <v>1.043847133888927</v>
       </c>
       <c r="HE3">
-        <v>1.044760361224606</v>
+        <v>1.043823892337627</v>
       </c>
       <c r="HF3">
-        <v>1.044772856391783</v>
+        <v>1.0438240732053</v>
       </c>
       <c r="HG3">
-        <v>1.044749689229827</v>
+        <v>1.043785548994257</v>
       </c>
       <c r="HH3">
-        <v>1.044758171305677</v>
+        <v>1.043812758646351</v>
       </c>
       <c r="HI3">
-        <v>1.044072546795402</v>
+        <v>1.042961768952853</v>
       </c>
       <c r="HJ3">
-        <v>1.044963626286291</v>
+        <v>1.044187670948039</v>
       </c>
       <c r="HK3">
-        <v>1.04516708851577</v>
+        <v>1.044330914602329</v>
       </c>
       <c r="HL3">
-        <v>1.045125274135105</v>
+        <v>1.044296771588718</v>
       </c>
       <c r="HM3">
-        <v>1.044788719768821</v>
+        <v>1.043847133888927</v>
       </c>
       <c r="HN3">
-        <v>1.044754567120568</v>
+        <v>1.043819343883364</v>
       </c>
       <c r="HO3">
-        <v>1.044772856391782</v>
+        <v>1.0438240732053</v>
       </c>
       <c r="HP3">
-        <v>1.044747296542523</v>
+        <v>1.043781570242504</v>
       </c>
       <c r="HQ3">
-        <v>1.044756795819809</v>
+        <v>1.0438113819282</v>
       </c>
       <c r="HR3">
-        <v>1.044032397233328</v>
+        <v>1.042912136516405</v>
       </c>
       <c r="HS3">
-        <v>1.04489549656654</v>
+        <v>1.044138629840583</v>
       </c>
       <c r="HT3">
-        <v>1.045166430057058</v>
+        <v>1.044329702562999</v>
       </c>
       <c r="HU3">
-        <v>1.045125205188782</v>
+        <v>1.044296564583834</v>
       </c>
       <c r="HV3">
-        <v>1.044754073096602</v>
+        <v>1.043818956067507</v>
       </c>
       <c r="HW3">
-        <v>1.044772856391782</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="HX3">
-        <v>1.044745412244245</v>
+        <v>1.043778436880699</v>
       </c>
       <c r="HY3">
-        <v>1.044756111192217</v>
+        <v>1.04381069668726</v>
       </c>
       <c r="HZ3">
-        <v>1.044005085688334</v>
+        <v>1.04287837431033</v>
       </c>
       <c r="IA3">
-        <v>1.045092945215113</v>
+        <v>1.044194438170505</v>
       </c>
       <c r="IB3">
-        <v>1.045166430057058</v>
+        <v>1.044329702562999</v>
       </c>
       <c r="IC3">
-        <v>1.04512509994156</v>
+        <v>1.0442962485889</v>
       </c>
       <c r="ID3">
-        <v>1.044753844911562</v>
+        <v>1.043818776938997</v>
       </c>
       <c r="IE3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="IF3">
-        <v>1.044744105201057</v>
+        <v>1.043776263424812</v>
       </c>
       <c r="IG3">
-        <v>1.044755625064354</v>
+        <v>1.04381021012388</v>
       </c>
       <c r="IH3">
-        <v>1.043987144369552</v>
+        <v>1.042856195474148</v>
       </c>
       <c r="II3">
-        <v>1.045082273609452</v>
+        <v>1.044174794827307</v>
       </c>
       <c r="IJ3">
-        <v>1.045124976570609</v>
+        <v>1.044295878179167</v>
       </c>
       <c r="IK3">
-        <v>1.044753600840039</v>
+        <v>1.043818585339371</v>
       </c>
       <c r="IL3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="IM3">
-        <v>1.044742801271619</v>
+        <v>1.04377409514673</v>
       </c>
       <c r="IN3">
-        <v>1.04475006396934</v>
+        <v>1.043804644046743</v>
       </c>
       <c r="IO3">
-        <v>1.043948531670212</v>
+        <v>1.042808462954845</v>
       </c>
       <c r="IP3">
-        <v>1.045060147995965</v>
+        <v>1.044118046783829</v>
       </c>
       <c r="IQ3">
-        <v>1.045071643066877</v>
+        <v>1.04417124825758</v>
       </c>
       <c r="IR3">
-        <v>1.045124787080157</v>
+        <v>1.044295309251818</v>
       </c>
       <c r="IS3">
-        <v>1.044753367618953</v>
+        <v>1.043818402257493</v>
       </c>
       <c r="IT3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="IU3">
-        <v>1.044740893681004</v>
+        <v>1.043770923052616</v>
       </c>
       <c r="IV3">
-        <v>1.044748424093479</v>
+        <v>1.043803002701736</v>
       </c>
       <c r="IW3">
-        <v>1.043930665447031</v>
+        <v>1.042798924129795</v>
       </c>
       <c r="IX3">
-        <v>1.043923767058019</v>
+        <v>1.042777287801665</v>
       </c>
       <c r="IY3">
-        <v>1.045124093674103</v>
+        <v>1.044293227365048</v>
       </c>
       <c r="IZ3">
-        <v>1.044753107800668</v>
+        <v>1.043818198296434</v>
       </c>
       <c r="JA3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="JB3">
-        <v>1.044733719137784</v>
+        <v>1.043758992649019</v>
       </c>
       <c r="JC3">
-        <v>1.044748057204559</v>
+        <v>1.043802635484124</v>
       </c>
       <c r="JD3">
-        <v>1.043928195711379</v>
+        <v>1.042797605531192</v>
       </c>
       <c r="JE3">
-        <v>1.043830903743469</v>
+        <v>1.04266038610983</v>
       </c>
       <c r="JF3">
-        <v>1.045120718866422</v>
+        <v>1.044283094821126</v>
       </c>
       <c r="JG3">
-        <v>1.044752571499302</v>
+        <v>1.043817777292213</v>
       </c>
       <c r="JH3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="JI3">
-        <v>1.044732044592448</v>
+        <v>1.043756208081311</v>
       </c>
       <c r="JJ3">
-        <v>1.044738810641134</v>
+        <v>1.043798120914031</v>
       </c>
       <c r="JK3">
-        <v>1.044748057204556</v>
+        <v>1.043802472745293</v>
       </c>
       <c r="JL3">
-        <v>1.04392706028315</v>
+        <v>1.04279699932296</v>
       </c>
       <c r="JM3">
-        <v>1.043819238174975</v>
+        <v>1.042654824960685</v>
       </c>
       <c r="JN3">
-        <v>1.043800415499969</v>
+        <v>1.042621454381486</v>
       </c>
       <c r="JO3">
-        <v>1.044752012944872</v>
+        <v>1.043817338819019</v>
       </c>
       <c r="JP3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="JQ3">
-        <v>1.044731277439616</v>
+        <v>1.043754932398326</v>
       </c>
       <c r="JR3">
-        <v>1.044729646975832</v>
+        <v>1.043793646818251</v>
       </c>
       <c r="JS3">
-        <v>1.044748057204554</v>
+        <v>1.043802281944256</v>
       </c>
       <c r="JT3">
-        <v>1.043925711719806</v>
+        <v>1.042796279321305</v>
       </c>
       <c r="JU3">
-        <v>1.043818390216243</v>
+        <v>1.0426544207262</v>
       </c>
       <c r="JV3">
-        <v>1.043689896138425</v>
+        <v>1.042480327718984</v>
       </c>
       <c r="JW3">
-        <v>1.044749888961193</v>
+        <v>1.043815671461536</v>
       </c>
       <c r="JX3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="JY3">
-        <v>1.04473077309457</v>
+        <v>1.043754093733113</v>
       </c>
       <c r="JZ3">
-        <v>1.044748057204551</v>
+        <v>1.043802109513198</v>
       </c>
       <c r="KA3">
-        <v>1.043923631048027</v>
+        <v>1.042795168444952</v>
       </c>
       <c r="KB3">
-        <v>1.043817691302131</v>
+        <v>1.042654087543492</v>
       </c>
       <c r="KC3">
-        <v>1.043655006836105</v>
+        <v>1.042443045738313</v>
       </c>
       <c r="KD3">
-        <v>1.043674711197032</v>
+        <v>1.042458727004591</v>
       </c>
       <c r="KE3">
-        <v>1.044738612429158</v>
+        <v>1.043806819222973</v>
       </c>
       <c r="KF3">
-        <v>1.044772856391781</v>
+        <v>1.043824073205301</v>
       </c>
       <c r="KG3">
-        <v>1.044729630155421</v>
+        <v>1.04374940316542</v>
       </c>
       <c r="KH3">
-        <v>1.044730477051757</v>
+        <v>1.04375394557399</v>
       </c>
       <c r="KI3">
-        <v>1.044748057204548</v>
+        <v>1.043801934875009</v>
       </c>
       <c r="KJ3">
-        <v>1.043921777023137</v>
+        <v>1.042794178575987</v>
       </c>
       <c r="KK3">
-        <v>1.043816698548545</v>
+        <v>1.042653614283154</v>
       </c>
       <c r="KL3">
-        <v>1.043638948060909</v>
+        <v>1.042425885666854</v>
       </c>
       <c r="KM3">
-        <v>1.043611071848959</v>
+        <v>1.04236819956756</v>
       </c>
       <c r="KN3">
-        <v>1.04472910513759</v>
+        <v>1.043747248517341</v>
       </c>
       <c r="KO3">
-        <v>1.044730267531694</v>
+        <v>1.043753840716492</v>
       </c>
       <c r="KP3">
-        <v>1.044748057204545</v>
+        <v>1.043801747103646</v>
       </c>
       <c r="KQ3">
-        <v>1.04392033556081</v>
+        <v>1.042793408975301</v>
       </c>
       <c r="KR3">
-        <v>1.043812239547264</v>
+        <v>1.042651488611186</v>
       </c>
       <c r="KS3">
-        <v>1.043534041707053</v>
+        <v>1.042313784941602</v>
       </c>
       <c r="KT3">
-        <v>1.043597024197598</v>
+        <v>1.042348216703287</v>
       </c>
       <c r="KU3">
-        <v>1.044728216554542</v>
+        <v>1.043743601815039</v>
       </c>
       <c r="KV3">
-        <v>1.044730023712087</v>
+        <v>1.043753718693266</v>
       </c>
       <c r="KW3">
-        <v>1.044748057204531</v>
+        <v>1.043800658133975</v>
       </c>
       <c r="KX3">
-        <v>1.043918541301559</v>
+        <v>1.042792451015366</v>
       </c>
       <c r="KY3">
-        <v>1.043811381142249</v>
+        <v>1.042651079396794</v>
       </c>
       <c r="KZ3">
-        <v>1.043526206060802</v>
+        <v>1.042305411935464</v>
       </c>
       <c r="LA3">
-        <v>1.043592356451384</v>
+        <v>1.042341576809431</v>
       </c>
       <c r="LB3">
-        <v>1.044726510977117</v>
+        <v>1.043736602207072</v>
       </c>
       <c r="LC3">
-        <v>1.044729557363162</v>
+        <v>1.043753485301862</v>
       </c>
       <c r="LD3">
-        <v>1.044748057204471</v>
+        <v>1.043796052204303</v>
       </c>
       <c r="LE3">
-        <v>1.043916685514405</v>
+        <v>1.04279146020551</v>
       </c>
       <c r="LF3">
-        <v>1.043810745563914</v>
+        <v>1.042650776407183</v>
       </c>
       <c r="LG3">
-        <v>1.043517559188625</v>
+        <v>1.042300235027252</v>
       </c>
       <c r="LH3">
-        <v>1.043421890509963</v>
+        <v>1.042175519293708</v>
       </c>
       <c r="LI3">
-        <v>1.043589920216833</v>
+        <v>1.042338111253157</v>
       </c>
       <c r="LJ3">
-        <v>1.044721489469961</v>
+        <v>1.043715994183689</v>
       </c>
       <c r="LK3">
-        <v>1.044727768833937</v>
+        <v>1.043752590205237</v>
       </c>
       <c r="LL3">
-        <v>1.043914496512802</v>
+        <v>1.04279029149154</v>
       </c>
       <c r="LM3">
-        <v>1.04381001344658</v>
+        <v>1.042650427396</v>
       </c>
       <c r="LN3">
-        <v>1.043473025197537</v>
+        <v>1.042273572392105</v>
       </c>
       <c r="LO3">
-        <v>1.043371829606003</v>
+        <v>1.042113184004281</v>
       </c>
       <c r="LP3">
-        <v>1.043587834724603</v>
+        <v>1.042335144629845</v>
       </c>
       <c r="LQ3">
-        <v>1.044721665262354</v>
+        <v>1.043749535580073</v>
       </c>
       <c r="LR3">
-        <v>1.043913249073255</v>
+        <v>1.042789625480135</v>
       </c>
       <c r="LS3">
-        <v>1.04380928719673</v>
+        <v>1.042650081181933</v>
       </c>
       <c r="LT3">
-        <v>1.043457477538097</v>
+        <v>1.04226426396075</v>
       </c>
       <c r="LU3">
-        <v>1.043254904274602</v>
+        <v>1.042082577052719</v>
       </c>
       <c r="LV3">
-        <v>1.043310209298901</v>
+        <v>1.04200219285888</v>
       </c>
       <c r="LW3">
-        <v>1.043585462851581</v>
+        <v>1.042331770628615</v>
       </c>
       <c r="LX3">
-        <v>1.043907613643313</v>
+        <v>1.042786616708563</v>
       </c>
       <c r="LY3">
-        <v>1.043802907011445</v>
+        <v>1.042647039653017</v>
       </c>
       <c r="LZ3">
-        <v>1.04342363907035</v>
+        <v>1.042244004765282</v>
       </c>
       <c r="MA3">
-        <v>1.043208596067659</v>
+        <v>1.042070455183925</v>
       </c>
       <c r="MB3">
-        <v>1.043305652582159</v>
+        <v>1.041988393988269</v>
       </c>
       <c r="MC3">
-        <v>1.043299340033472</v>
+        <v>1.041983021362844</v>
       </c>
       <c r="MD3">
-        <v>1.043583594224379</v>
+        <v>1.042329112497243</v>
       </c>
       <c r="ME3">
-        <v>1.04390542045106</v>
+        <v>1.042785445757165</v>
       </c>
       <c r="MF3">
-        <v>1.043789865058722</v>
+        <v>1.042640822360621</v>
       </c>
       <c r="MG3">
-        <v>1.043398620387822</v>
+        <v>1.042238560023625</v>
       </c>
       <c r="MH3">
-        <v>1.043422359618521</v>
+        <v>1.042238752908913</v>
       </c>
       <c r="MI3">
-        <v>1.043303361671666</v>
+        <v>1.041981456542293</v>
       </c>
       <c r="MJ3">
-        <v>1.043290028259615</v>
+        <v>1.041966597014479</v>
       </c>
       <c r="MK3">
-        <v>1.043582027577949</v>
+        <v>1.042326883935111</v>
       </c>
       <c r="ML3">
-        <v>1.043904658538142</v>
+        <v>1.042785038969754</v>
       </c>
       <c r="MM3">
-        <v>1.043361184898164</v>
+        <v>1.042230413047952</v>
       </c>
       <c r="MN3">
-        <v>1.043422181466996</v>
+        <v>1.042238021637763</v>
       </c>
       <c r="MO3">
-        <v>1.043303148479968</v>
+        <v>1.041980810944888</v>
       </c>
       <c r="MP3">
-        <v>1.04328347829596</v>
+        <v>1.04195504402033</v>
       </c>
       <c r="MQ3">
-        <v>1.043580613967456</v>
+        <v>1.042324873067427</v>
       </c>
       <c r="MR3">
-        <v>1.043904084538131</v>
+        <v>1.042784732509562</v>
       </c>
       <c r="MS3">
-        <v>1.043421987981913</v>
+        <v>1.042237227425882</v>
       </c>
       <c r="MT3">
-        <v>1.043303060434455</v>
+        <v>1.04198054432121</v>
       </c>
       <c r="MU3">
-        <v>1.043275202281804</v>
+        <v>1.041940446575995</v>
       </c>
       <c r="MV3">
-        <v>1.043579444013611</v>
+        <v>1.04232320880255</v>
       </c>
       <c r="MW3">
-        <v>1.043903664573487</v>
+        <v>1.042784508289277</v>
       </c>
       <c r="MX3">
-        <v>1.04342181850288</v>
+        <v>1.042236531753326</v>
       </c>
       <c r="MY3">
-        <v>1.043302998309218</v>
+        <v>1.041980356190567</v>
       </c>
       <c r="MZ3">
-        <v>1.043270016600599</v>
+        <v>1.041931299940699</v>
       </c>
       <c r="NA3">
-        <v>1.043578086798037</v>
+        <v>1.042321278157051</v>
       </c>
       <c r="NB3">
-        <v>1.043903451313065</v>
+        <v>1.042784394428949</v>
       </c>
       <c r="NC3">
-        <v>1.043421638431405</v>
+        <v>1.042235792601233</v>
       </c>
       <c r="ND3">
-        <v>1.043302934764754</v>
+        <v>1.041980163762152</v>
       </c>
       <c r="NE3">
-        <v>1.043262053430707</v>
+        <v>1.041917254302533</v>
       </c>
       <c r="NF3">
-        <v>1.043576595123441</v>
+        <v>1.042319156243049</v>
       </c>
       <c r="NG3">
-        <v>1.043903137774971</v>
+        <v>1.042784227030094</v>
       </c>
       <c r="NH3">
-        <v>1.04342138143087</v>
+        <v>1.042234737672997</v>
       </c>
       <c r="NI3">
-        <v>1.043302859786825</v>
+        <v>1.041979936710367</v>
       </c>
       <c r="NJ3">
-        <v>1.043254115085773</v>
+        <v>1.041903252453334</v>
       </c>
       <c r="NK3">
-        <v>1.043568463043284</v>
+        <v>1.042307588323075</v>
       </c>
       <c r="NL3">
-        <v>1.043902612182729</v>
+        <v>1.042783946414942</v>
       </c>
       <c r="NM3">
-        <v>1.043421068999606</v>
+        <v>1.042233455214344</v>
       </c>
       <c r="NN3">
-        <v>1.043302765207522</v>
+        <v>1.041979650300751</v>
       </c>
       <c r="NO3">
-        <v>1.043245208017363</v>
+        <v>1.041887541948175</v>
       </c>
       <c r="NP3">
-        <v>1.043508328913204</v>
+        <v>1.042220416394913</v>
       </c>
       <c r="NQ3">
-        <v>1.043566619714864</v>
+        <v>1.042307588323055</v>
       </c>
       <c r="NR3">
-        <v>1.043900267814224</v>
+        <v>1.042782694750107</v>
       </c>
       <c r="NS3">
-        <v>1.043419132450831</v>
+        <v>1.042225506126109</v>
       </c>
       <c r="NT3">
-        <v>1.04330268050255</v>
+        <v>1.041979393793067</v>
       </c>
       <c r="NU3">
-        <v>1.043238762550346</v>
+        <v>1.041876173277406</v>
       </c>
       <c r="NV3">
-        <v>1.043450734325657</v>
+        <v>1.042136926001054</v>
       </c>
       <c r="NW3">
-        <v>1.043555301430501</v>
+        <v>1.042307588322904</v>
       </c>
       <c r="NX3">
-        <v>1.043566619714867</v>
+        <v>1.04230758832306</v>
       </c>
       <c r="NY3">
-        <v>1.043891649981941</v>
+        <v>1.042778093665529</v>
       </c>
       <c r="NZ3">
-        <v>1.043412506102446</v>
+        <v>1.042198306488937</v>
       </c>
       <c r="OA3">
-        <v>1.043302613477638</v>
+        <v>1.041979190824992</v>
       </c>
       <c r="OB3">
-        <v>1.043231080146629</v>
+        <v>1.041862622869532</v>
       </c>
       <c r="OC3">
-        <v>1.043448170382858</v>
+        <v>1.042133209256023</v>
       </c>
       <c r="OD3">
-        <v>1.043551164879176</v>
+        <v>1.042307588322849</v>
       </c>
       <c r="OE3">
-        <v>1.04356661971488</v>
+        <v>1.042307588323087</v>
       </c>
       <c r="OF3">
-        <v>1.043302498446765</v>
+        <v>1.041978842482951</v>
       </c>
       <c r="OG3">
-        <v>1.043219933099844</v>
+        <v>1.041842961444608</v>
       </c>
       <c r="OH3">
-        <v>1.043425632207414</v>
+        <v>1.042100552948398</v>
       </c>
       <c r="OI3">
-        <v>1.043404990190237</v>
+        <v>1.042070611774459</v>
       </c>
       <c r="OJ3">
-        <v>1.043550743832466</v>
+        <v>1.042307588322844</v>
       </c>
       <c r="OK3">
-        <v>1.043566619714881</v>
+        <v>1.042307588323089</v>
       </c>
       <c r="OL3">
-        <v>1.043302096886396</v>
+        <v>1.041977626458455</v>
       </c>
       <c r="OM3">
-        <v>1.043211668927869</v>
+        <v>1.04182838490515</v>
       </c>
       <c r="ON3">
-        <v>1.043423567128663</v>
+        <v>1.042097560787607</v>
       </c>
       <c r="OO3">
-        <v>1.043384158225479</v>
+        <v>1.042040412111771</v>
       </c>
       <c r="OP3">
-        <v>1.043550449996945</v>
+        <v>1.04230758832284</v>
       </c>
       <c r="OQ3">
-        <v>1.043566619714882</v>
+        <v>1.04230758832309</v>
       </c>
       <c r="OR3">
-        <v>1.043299641894846</v>
+        <v>1.041970192134659</v>
       </c>
       <c r="OS3">
-        <v>1.043203696808446</v>
+        <v>1.041814323496936</v>
       </c>
       <c r="OT3">
-        <v>1.043422393174035</v>
+        <v>1.042095859805989</v>
       </c>
       <c r="OU3">
-        <v>1.043321311583589</v>
+        <v>1.041949304768909</v>
       </c>
       <c r="OV3">
-        <v>1.043384158225471</v>
+        <v>1.042040412111765</v>
       </c>
       <c r="OW3">
-        <v>1.043550145609452</v>
+        <v>1.042307588322836</v>
       </c>
       <c r="OX3">
-        <v>1.043566619714882</v>
+        <v>1.042307588323091</v>
       </c>
       <c r="OY3">
-        <v>1.04319589450812</v>
+        <v>1.041800561621597</v>
       </c>
       <c r="OZ3">
-        <v>1.043421596030639</v>
+        <v>1.042094704798609</v>
       </c>
       <c r="PA3">
-        <v>1.043231802786187</v>
+        <v>1.041819546210379</v>
       </c>
       <c r="PB3">
-        <v>1.043384158225469</v>
+        <v>1.042040412111763</v>
       </c>
       <c r="PC3">
-        <v>1.043548867359624</v>
+        <v>1.042307588322821</v>
       </c>
       <c r="PD3">
-        <v>1.043566619714883</v>
+        <v>1.042307588323092</v>
       </c>
       <c r="PE3">
-        <v>1.043186511066427</v>
+        <v>1.041784010895703</v>
       </c>
       <c r="PF3">
-        <v>1.043420296897884</v>
+        <v>1.04209282244228</v>
       </c>
       <c r="PG3">
-        <v>1.043213072083362</v>
+        <v>1.041792392846268</v>
       </c>
       <c r="PH3">
-        <v>1.043384158225468</v>
+        <v>1.042040412111763</v>
       </c>
       <c r="PI3">
-        <v>1.043548555241</v>
+        <v>1.042307588322818</v>
       </c>
       <c r="PJ3">
-        <v>1.043566619714887</v>
+        <v>1.042307588323105</v>
       </c>
       <c r="PK3">
-        <v>1.043170795532646</v>
+        <v>1.041756291489617</v>
       </c>
       <c r="PL3">
-        <v>1.043186511066427</v>
+        <v>1.041784010895703</v>
       </c>
       <c r="PM3">
-        <v>1.043415978501248</v>
+        <v>1.042086565374903</v>
       </c>
       <c r="PN3">
-        <v>1.04320828473548</v>
+        <v>1.041785452767485</v>
       </c>
       <c r="PO3">
-        <v>1.043384158225466</v>
+        <v>1.042040412111762</v>
       </c>
       <c r="PP3">
-        <v>1.043548257513796</v>
+        <v>1.042307588322814</v>
       </c>
       <c r="PQ3">
-        <v>1.043566619714889</v>
+        <v>1.04230758832311</v>
       </c>
       <c r="PR3">
-        <v>1.04311778824468</v>
+        <v>1.041662796122844</v>
       </c>
       <c r="PS3">
-        <v>1.043170795532646</v>
+        <v>1.041756291489617</v>
       </c>
       <c r="PT3">
-        <v>1.043411170772103</v>
+        <v>1.042079599297587</v>
       </c>
       <c r="PU3">
-        <v>1.043205776713486</v>
+        <v>1.041781816961456</v>
       </c>
       <c r="PV3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="PW3">
-        <v>1.043547961405949</v>
+        <v>1.042307588322811</v>
       </c>
       <c r="PX3">
-        <v>1.04356661971489</v>
+        <v>1.042307588323111</v>
       </c>
       <c r="PY3">
-        <v>1.043042815015058</v>
+        <v>1.041530556925829</v>
       </c>
       <c r="PZ3">
-        <v>1.04311778824468</v>
+        <v>1.041662796122844</v>
       </c>
       <c r="QA3">
-        <v>1.043408466924158</v>
+        <v>1.042075681603165</v>
       </c>
       <c r="QB3">
-        <v>1.043203697592972</v>
+        <v>1.041778802921555</v>
       </c>
       <c r="QC3">
-        <v>1.043384158225464</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="QD3">
-        <v>1.043547621732084</v>
+        <v>1.042307588322807</v>
       </c>
       <c r="QE3">
-        <v>1.04356661971489</v>
+        <v>1.042307588323114</v>
       </c>
       <c r="QF3">
-        <v>1.042989017505415</v>
+        <v>1.041435667977799</v>
       </c>
       <c r="QG3">
-        <v>1.043042815015058</v>
+        <v>1.041530556925829</v>
       </c>
       <c r="QH3">
-        <v>1.04340592694575</v>
+        <v>1.042072001344741</v>
       </c>
       <c r="QI3">
-        <v>1.043202012581719</v>
+        <v>1.041776360210406</v>
       </c>
       <c r="QJ3">
-        <v>1.043384158225463</v>
+        <v>1.04204041211176</v>
       </c>
       <c r="QK3">
-        <v>1.043546448688428</v>
+        <v>1.042307588322793</v>
       </c>
       <c r="QL3">
-        <v>1.043566619714891</v>
+        <v>1.042307588323116</v>
       </c>
       <c r="QM3">
-        <v>1.042972695366333</v>
+        <v>1.041406878734598</v>
       </c>
       <c r="QN3">
-        <v>1.042989017505415</v>
+        <v>1.041435667977799</v>
       </c>
       <c r="QO3">
-        <v>1.043403503596753</v>
+        <v>1.042068490074538</v>
       </c>
       <c r="QP3">
-        <v>1.043199436926378</v>
+        <v>1.041772626359017</v>
       </c>
       <c r="QQ3">
-        <v>1.043384158225463</v>
+        <v>1.04204041211176</v>
       </c>
       <c r="QR3">
-        <v>1.043540732216546</v>
+        <v>1.042307588322727</v>
       </c>
       <c r="QS3">
-        <v>1.043566619714891</v>
+        <v>1.042307588323118</v>
       </c>
       <c r="QT3">
-        <v>1.042927405632417</v>
+        <v>1.041327573775095</v>
       </c>
       <c r="QU3">
-        <v>1.042972695366333</v>
+        <v>1.041406878734598</v>
       </c>
       <c r="QV3">
-        <v>1.042967638288308</v>
+        <v>1.041396990333892</v>
       </c>
       <c r="QW3">
-        <v>1.043399524819285</v>
+        <v>1.042062725092821</v>
       </c>
       <c r="QX3">
-        <v>1.043197115012723</v>
+        <v>1.041769260349702</v>
       </c>
       <c r="QY3">
-        <v>1.043384158225463</v>
+        <v>1.04204041211176</v>
       </c>
       <c r="QZ3">
-        <v>1.043566619714892</v>
+        <v>1.04230758832312</v>
       </c>
       <c r="RA3">
-        <v>1.042877086661709</v>
+        <v>1.041239462407027</v>
       </c>
       <c r="RB3">
-        <v>1.042927405632417</v>
+        <v>1.041327573775095</v>
       </c>
       <c r="RC3">
-        <v>1.042927405632417</v>
+        <v>1.041327573775095</v>
       </c>
       <c r="RD3">
-        <v>1.042966899764769</v>
+        <v>1.041395546255605</v>
       </c>
       <c r="RE3">
-        <v>1.043396753525173</v>
+        <v>1.042058709673543</v>
       </c>
       <c r="RF3">
-        <v>1.043194905123638</v>
+        <v>1.041766056739304</v>
       </c>
       <c r="RG3">
-        <v>1.043384158225463</v>
+        <v>1.04204041211176</v>
       </c>
       <c r="RH3">
-        <v>1.043566619714893</v>
+        <v>1.042307588323131</v>
       </c>
       <c r="RI3">
-        <v>1.042858647337289</v>
+        <v>1.041207174125946</v>
       </c>
       <c r="RJ3">
-        <v>1.042877086661709</v>
+        <v>1.041239462407027</v>
       </c>
       <c r="RK3">
-        <v>1.042966497067201</v>
+        <v>1.041394758837491</v>
       </c>
       <c r="RL3">
-        <v>1.04339480635293</v>
+        <v>1.042055888351591</v>
       </c>
       <c r="RM3">
-        <v>1.043192415549663</v>
+        <v>1.041762447678309</v>
       </c>
       <c r="RN3">
-        <v>1.043384158225463</v>
+        <v>1.04204041211176</v>
       </c>
       <c r="RO3">
-        <v>1.043566619714893</v>
+        <v>1.042307588323132</v>
       </c>
       <c r="RP3">
-        <v>1.04284500502771</v>
+        <v>1.041159066433386</v>
       </c>
       <c r="RQ3">
-        <v>1.042858647337289</v>
+        <v>1.041207174125946</v>
       </c>
       <c r="RR3">
-        <v>1.042720968522279</v>
+        <v>1.041097531713856</v>
       </c>
       <c r="RS3">
-        <v>1.042966224271185</v>
+        <v>1.041394225423484</v>
       </c>
       <c r="RT3">
-        <v>1.043393875982407</v>
+        <v>1.042054540307122</v>
       </c>
       <c r="RU3">
-        <v>1.043189785758608</v>
+        <v>1.041758635349101</v>
       </c>
       <c r="RV3">
-        <v>1.043384158225464</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="RW3">
-        <v>1.043566619714893</v>
+        <v>1.042307588323132</v>
       </c>
       <c r="RX3">
-        <v>1.042825452390655</v>
+        <v>1.041090116870389</v>
       </c>
       <c r="RY3">
-        <v>1.04284500502771</v>
+        <v>1.041159066433386</v>
       </c>
       <c r="RZ3">
-        <v>1.042715567351475</v>
+        <v>1.041092122119865</v>
       </c>
       <c r="SA3">
-        <v>1.042704467639511</v>
+        <v>1.04109220063416</v>
       </c>
       <c r="SB3">
-        <v>1.042965809911556</v>
+        <v>1.041393415201863</v>
       </c>
       <c r="SC3">
-        <v>1.04339328661819</v>
+        <v>1.042053686357915</v>
       </c>
       <c r="SD3">
-        <v>1.043184035791425</v>
+        <v>1.041750299795231</v>
       </c>
       <c r="SE3">
-        <v>1.043384158225464</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="SF3">
-        <v>1.043566619714894</v>
+        <v>1.042307588323133</v>
       </c>
       <c r="SG3">
-        <v>1.042813520079589</v>
+        <v>1.041048039332321</v>
       </c>
       <c r="SH3">
-        <v>1.042825452390655</v>
+        <v>1.041090116870389</v>
       </c>
       <c r="SI3">
-        <v>1.042713284404668</v>
+        <v>1.041089835612777</v>
       </c>
       <c r="SJ3">
-        <v>1.042693908955224</v>
+        <v>1.041088789350587</v>
       </c>
       <c r="SK3">
-        <v>1.042965181079922</v>
+        <v>1.041392185610587</v>
       </c>
       <c r="SL3">
-        <v>1.043392888135373</v>
+        <v>1.04205310898305</v>
       </c>
       <c r="SM3">
-        <v>1.043053625128548</v>
+        <v>1.041561247788331</v>
       </c>
       <c r="SN3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="SO3">
-        <v>1.043566619714894</v>
+        <v>1.042307588323133</v>
       </c>
       <c r="SP3">
-        <v>1.042811465214536</v>
+        <v>1.041040793156412</v>
       </c>
       <c r="SQ3">
-        <v>1.042813520079589</v>
+        <v>1.041048039332321</v>
       </c>
       <c r="SR3">
-        <v>1.042711942989913</v>
+        <v>1.041088492106069</v>
       </c>
       <c r="SS3">
-        <v>1.042964734944651</v>
+        <v>1.041391313256202</v>
       </c>
       <c r="ST3">
-        <v>1.043392332300055</v>
+        <v>1.04205230361497</v>
       </c>
       <c r="SU3">
-        <v>1.043049898892881</v>
+        <v>1.041445636543162</v>
       </c>
       <c r="SV3">
-        <v>1.043033789761134</v>
+        <v>1.041538801617558</v>
       </c>
       <c r="SW3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="SX3">
-        <v>1.042807934895656</v>
+        <v>1.041022765829738</v>
       </c>
       <c r="SY3">
-        <v>1.042811465214536</v>
+        <v>1.041040793156412</v>
       </c>
       <c r="SZ3">
-        <v>1.042799097820976</v>
+        <v>1.041031501863791</v>
       </c>
       <c r="TA3">
-        <v>1.042710708484655</v>
+        <v>1.041087255675586</v>
       </c>
       <c r="TB3">
-        <v>1.042964430139741</v>
+        <v>1.041390717253336</v>
       </c>
       <c r="TC3">
-        <v>1.04339190808217</v>
+        <v>1.042051688951719</v>
       </c>
       <c r="TD3">
-        <v>1.043046612857782</v>
+        <v>1.04134368314607</v>
       </c>
       <c r="TE3">
-        <v>1.043023089149276</v>
+        <v>1.041526692553832</v>
       </c>
       <c r="TF3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="TG3">
-        <v>1.042805336160396</v>
+        <v>1.041009495573821</v>
       </c>
       <c r="TH3">
-        <v>1.042807934895656</v>
+        <v>1.041022765829738</v>
       </c>
       <c r="TI3">
-        <v>1.042791789673523</v>
+        <v>1.041026011447633</v>
       </c>
       <c r="TJ3">
-        <v>1.042709608644253</v>
+        <v>1.041086154119971</v>
       </c>
       <c r="TK3">
-        <v>1.042964189284046</v>
+        <v>1.04139024629411</v>
       </c>
       <c r="TL3">
-        <v>1.043388880769609</v>
+        <v>1.042047302578966</v>
       </c>
       <c r="TM3">
-        <v>1.043021491075914</v>
+        <v>1.041524884136579</v>
       </c>
       <c r="TN3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="TO3">
-        <v>1.042801797979164</v>
+        <v>1.04099142810977</v>
       </c>
       <c r="TP3">
-        <v>1.042805336160396</v>
+        <v>1.041009495573821</v>
       </c>
       <c r="TQ3">
-        <v>1.042785999090744</v>
+        <v>1.041021661137278</v>
       </c>
       <c r="TR3">
-        <v>1.042708467684794</v>
+        <v>1.041085011381173</v>
       </c>
       <c r="TS3">
-        <v>1.042963417036621</v>
+        <v>1.041388736273566</v>
       </c>
       <c r="TT3">
-        <v>1.043383732505354</v>
+        <v>1.042042147688294</v>
       </c>
       <c r="TU3">
-        <v>1.043372835928324</v>
+        <v>1.04201736191275</v>
       </c>
       <c r="TV3">
-        <v>1.043020271207985</v>
+        <v>1.04152350370547</v>
       </c>
       <c r="TW3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="TX3">
-        <v>1.042799294162275</v>
+        <v>1.040978642555589</v>
       </c>
       <c r="TY3">
-        <v>1.042801797979164</v>
+        <v>1.04099142810977</v>
       </c>
       <c r="TZ3">
-        <v>1.042783606378383</v>
+        <v>1.041019863556306</v>
       </c>
       <c r="UA3">
-        <v>1.042705023312397</v>
+        <v>1.04108156163724</v>
       </c>
       <c r="UB3">
-        <v>1.042957170703761</v>
+        <v>1.041376522453926</v>
       </c>
       <c r="UC3">
-        <v>1.043378047645737</v>
+        <v>1.0420364555116</v>
       </c>
       <c r="UD3">
-        <v>1.043019130316446</v>
+        <v>1.041522212645908</v>
       </c>
       <c r="UE3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="UF3">
-        <v>1.042792292125519</v>
+        <v>1.04094288719432</v>
       </c>
       <c r="UG3">
-        <v>1.042799294162275</v>
+        <v>1.040978642555589</v>
       </c>
       <c r="UH3">
-        <v>1.04278322994133</v>
+        <v>1.041019297941383</v>
       </c>
       <c r="UI3">
-        <v>1.042778654554159</v>
+        <v>1.041019863556306</v>
       </c>
       <c r="UJ3">
-        <v>1.042701552212662</v>
+        <v>1.041078085124287</v>
       </c>
       <c r="UK3">
-        <v>1.042956859642511</v>
+        <v>1.041375914217697</v>
       </c>
       <c r="UL3">
-        <v>1.043362638466376</v>
+        <v>1.042021026498833</v>
       </c>
       <c r="UM3">
-        <v>1.043017913697961</v>
+        <v>1.041520835891975</v>
       </c>
       <c r="UN3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="UO3">
-        <v>1.042787221963584</v>
+        <v>1.040916996818764</v>
       </c>
       <c r="UP3">
-        <v>1.042792292125519</v>
+        <v>1.04094288719432</v>
       </c>
       <c r="UQ3">
-        <v>1.042783091423887</v>
+        <v>1.041019089812209</v>
       </c>
       <c r="UR3">
-        <v>1.042774908471186</v>
+        <v>1.041019863556306</v>
       </c>
       <c r="US3">
-        <v>1.042669119587244</v>
+        <v>1.041045601919851</v>
       </c>
       <c r="UT3">
-        <v>1.042956614204326</v>
+        <v>1.041375434298083</v>
       </c>
       <c r="UU3">
-        <v>1.043016837139086</v>
+        <v>1.041519617632785</v>
       </c>
       <c r="UV3">
-        <v>1.043384158225465</v>
+        <v>1.042040412111761</v>
       </c>
       <c r="UW3">
-        <v>1.042786737725826</v>
+        <v>1.040911911837407</v>
       </c>
       <c r="UX3">
-        <v>1.042787221963584</v>
+        <v>1.040916996818764</v>
       </c>
       <c r="UY3">
-        <v>1.042777163289031</v>
+        <v>1.040906668151675</v>
       </c>
       <c r="UZ3">
-        <v>1.042782885091843</v>
+        <v>1.04101877978831</v>
       </c>
       <c r="VA3">
-        <v>1.042956336729792</v>
+        <v>1.041374891735925</v>
       </c>
       <c r="VB3">
-        <v>1.043015736010524</v>
+        <v>1.041518371569976</v>
       </c>
       <c r="VC3">
-        <v>1.042786623067217</v>
+        <v>1.040910707807279</v>
       </c>
       <c r="VD3">
-        <v>1.042786737725826</v>
+        <v>1.040911911837407</v>
       </c>
       <c r="VE3">
-        <v>1.042775891696072</v>
+        <v>1.040905362426923</v>
       </c>
       <c r="VF3">
-        <v>1.042782760937138</v>
+        <v>1.041018593239847</v>
       </c>
       <c r="VG3">
-        <v>1.042956089768673</v>
+        <v>1.04137440883843</v>
       </c>
       <c r="VH3">
-        <v>1.043010052772132</v>
+        <v>1.041511940284815</v>
       </c>
       <c r="VI3">
-        <v>1.042783514716853</v>
+        <v>1.040878067031388</v>
       </c>
       <c r="VJ3">
-        <v>1.042786623067217</v>
+        <v>1.040910707807279</v>
       </c>
       <c r="VK3">
-        <v>1.042786623067225</v>
+        <v>1.040910707807283</v>
       </c>
       <c r="VL3">
-        <v>1.042774953344808</v>
+        <v>1.040904398888659</v>
       </c>
       <c r="VM3">
-        <v>1.042782611128158</v>
+        <v>1.041018368144591</v>
       </c>
       <c r="VN3">
-        <v>1.042955805516434</v>
+        <v>1.041373853023431</v>
       </c>
       <c r="VO3">
-        <v>1.042959347553119</v>
+        <v>1.041496073874976</v>
       </c>
       <c r="VP3">
-        <v>1.042999903671876</v>
+        <v>1.041498728255603</v>
       </c>
       <c r="VQ3">
-        <v>1.042781336340374</v>
+        <v>1.040855191921999</v>
       </c>
       <c r="VR3">
-        <v>1.042783514716853</v>
+        <v>1.040878067031388</v>
       </c>
       <c r="VS3">
-        <v>1.042786623067228</v>
+        <v>1.040910707807284</v>
       </c>
       <c r="VT3">
-        <v>1.042774040321833</v>
+        <v>1.040903461358541</v>
       </c>
       <c r="VU3">
-        <v>1.042782479589516</v>
+        <v>1.041018170501406</v>
       </c>
       <c r="VV3">
-        <v>1.042955514061168</v>
+        <v>1.041373283123933</v>
       </c>
       <c r="VW3">
-        <v>1.042956425557994</v>
+        <v>1.04149515953957</v>
       </c>
       <c r="VX3">
-        <v>1.042951404325402</v>
+        <v>1.041435592176663</v>
       </c>
       <c r="VY3">
-        <v>1.042779857414803</v>
+        <v>1.040824104324996</v>
       </c>
       <c r="VZ3">
-        <v>1.042780993956739</v>
+        <v>1.040853442402238</v>
       </c>
       <c r="WA3">
-        <v>1.04278662306723</v>
+        <v>1.040910707807285</v>
       </c>
       <c r="WB3">
-        <v>1.042765463708961</v>
+        <v>1.040894654534295</v>
       </c>
       <c r="WC3">
-        <v>1.042781618844616</v>
+        <v>1.04101687719047</v>
       </c>
       <c r="WD3">
-        <v>1.042955163733092</v>
+        <v>1.041372598106994</v>
       </c>
       <c r="WE3">
-        <v>1.042954958023768</v>
+        <v>1.041494700326445</v>
       </c>
       <c r="WF3">
-        <v>1.042932238781728</v>
+        <v>1.041416998546261</v>
       </c>
       <c r="WG3">
-        <v>1.042896691694906</v>
+        <v>1.041363600849726</v>
       </c>
       <c r="WH3">
-        <v>1.04277853853189</v>
+        <v>1.040796380906677</v>
       </c>
       <c r="WI3">
-        <v>1.042779857414803</v>
+        <v>1.040824104324996</v>
       </c>
       <c r="WJ3">
-        <v>1.042779857414803</v>
+        <v>1.040824104324996</v>
       </c>
       <c r="WK3">
-        <v>1.042765749889556</v>
+        <v>1.040775547969824</v>
       </c>
       <c r="WL3">
-        <v>1.042780993956739</v>
+        <v>1.040853442402238</v>
       </c>
       <c r="WM3">
-        <v>1.042786623067232</v>
+        <v>1.040910707807286</v>
       </c>
       <c r="WN3">
-        <v>1.042761472076433</v>
+        <v>1.040890555759333</v>
       </c>
       <c r="WO3">
-        <v>1.042775272317904</v>
+        <v>1.041007341226531</v>
       </c>
       <c r="WP3">
-        <v>1.042954944102339</v>
+        <v>1.041372168650161</v>
       </c>
       <c r="WQ3">
-        <v>1.042953727416753</v>
+        <v>1.04149431525134</v>
       </c>
       <c r="WR3">
-        <v>1.042922125069448</v>
+        <v>1.04140718663423</v>
       </c>
       <c r="WS3">
-        <v>1.042844286838722</v>
+        <v>1.041294646190834</v>
       </c>
       <c r="WT3">
-        <v>1.042775661279516</v>
+        <v>1.040735900084717</v>
       </c>
       <c r="WU3">
-        <v>1.04277853853189</v>
+        <v>1.040796380906677</v>
       </c>
       <c r="WV3">
-        <v>1.04277853853189</v>
+        <v>1.040796380906677</v>
       </c>
       <c r="WW3">
-        <v>1.042762161897208</v>
+        <v>1.040757213980392</v>
       </c>
       <c r="WX3">
-        <v>1.042786623067234</v>
+        <v>1.040910707807287</v>
       </c>
       <c r="WY3">
-        <v>1.042759598641265</v>
+        <v>1.040888632037873</v>
       </c>
       <c r="WZ3">
-        <v>1.042954000203216</v>
+        <v>1.04137032298911</v>
       </c>
       <c r="XA3">
-        <v>1.042952723899798</v>
+        <v>1.041494001236067</v>
       </c>
       <c r="XB3">
-        <v>1.042838847528996</v>
+        <v>1.041277127319205</v>
       </c>
       <c r="XC3">
-        <v>1.042830535567209</v>
+        <v>1.041278444564241</v>
       </c>
       <c r="XD3">
-        <v>1.042771741800008</v>
+        <v>1.040653511319104</v>
       </c>
       <c r="XE3">
-        <v>1.042786623067235</v>
+        <v>1.040910707807287</v>
       </c>
       <c r="XF3">
-        <v>1.042758349031078</v>
+        <v>1.040887348885952</v>
       </c>
       <c r="XG3">
-        <v>1.042950020836594</v>
+        <v>1.04136254190138</v>
       </c>
       <c r="XH3">
-        <v>1.042951148671375</v>
+        <v>1.04149350832383</v>
       </c>
       <c r="XI3">
-        <v>1.042837513795105</v>
+        <v>1.04127283164328</v>
       </c>
       <c r="XJ3">
-        <v>1.042827371820313</v>
+        <v>1.041274717065988</v>
       </c>
       <c r="XK3">
-        <v>1.042770592172912</v>
+        <v>1.040629345779775</v>
       </c>
       <c r="XL3">
-        <v>1.042786623067236</v>
+        <v>1.040910707807287</v>
       </c>
       <c r="XM3">
-        <v>1.042756438609785</v>
+        <v>1.040885387185595</v>
       </c>
       <c r="XN3">
-        <v>1.04294739244817</v>
+        <v>1.041492332946106</v>
       </c>
       <c r="XO3">
-        <v>1.042836597956948</v>
+        <v>1.041269881921531</v>
       </c>
       <c r="XP3">
-        <v>1.042825801817758</v>
+        <v>1.041272867303094</v>
       </c>
       <c r="XQ3">
-        <v>1.042766787121526</v>
+        <v>1.040549362366693</v>
       </c>
       <c r="XR3">
-        <v>1.042786623067237</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="XS3">
-        <v>1.042752707579595</v>
+        <v>1.040881556008</v>
       </c>
       <c r="XT3">
-        <v>1.042944793750018</v>
+        <v>1.041491519775058</v>
       </c>
       <c r="XU3">
-        <v>1.042835328407007</v>
+        <v>1.0412657929687</v>
       </c>
       <c r="XV3">
-        <v>1.042824076507838</v>
+        <v>1.041270834558502</v>
       </c>
       <c r="XW3">
-        <v>1.042786623067238</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="XX3">
-        <v>1.04275167622712</v>
+        <v>1.040880496972214</v>
       </c>
       <c r="XY3">
-        <v>1.042941489521112</v>
+        <v>1.041490485833001</v>
       </c>
       <c r="XZ3">
-        <v>1.042832317924859</v>
+        <v>1.041256096840355</v>
       </c>
       <c r="YA3">
-        <v>1.042822085757311</v>
+        <v>1.041268489074232</v>
       </c>
       <c r="YB3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="YC3">
-        <v>1.042751376808958</v>
+        <v>1.040880189517142</v>
       </c>
       <c r="YD3">
-        <v>1.042939482230208</v>
+        <v>1.041489857722006</v>
       </c>
       <c r="YE3">
-        <v>1.042830029462515</v>
+        <v>1.041248726185831</v>
       </c>
       <c r="YF3">
-        <v>1.042820073244306</v>
+        <v>1.041266117949666</v>
       </c>
       <c r="YG3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="YH3">
-        <v>1.042751246941797</v>
+        <v>1.040880056163978</v>
       </c>
       <c r="YI3">
-        <v>1.042750686996651</v>
+        <v>1.040879481189802</v>
       </c>
       <c r="YJ3">
-        <v>1.042937670074648</v>
+        <v>1.04148929067174</v>
       </c>
       <c r="YK3">
-        <v>1.042828422996742</v>
+        <v>1.041243552098542</v>
       </c>
       <c r="YL3">
-        <v>1.042817842113917</v>
+        <v>1.04126348925215</v>
       </c>
       <c r="YM3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="YN3">
-        <v>1.042751125397173</v>
+        <v>1.040879931356752</v>
       </c>
       <c r="YO3">
-        <v>1.042749776744005</v>
+        <v>1.040878546505354</v>
       </c>
       <c r="YP3">
-        <v>1.042934613810272</v>
+        <v>1.041488334321424</v>
       </c>
       <c r="YQ3">
-        <v>1.042826740083336</v>
+        <v>1.041238131789665</v>
       </c>
       <c r="YR3">
-        <v>1.042814597583515</v>
+        <v>1.041259666576089</v>
       </c>
       <c r="YS3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="YT3">
-        <v>1.042751000190527</v>
+        <v>1.040879802789204</v>
       </c>
       <c r="YU3">
-        <v>1.042745995133499</v>
+        <v>1.040874663393842</v>
       </c>
       <c r="YV3">
-        <v>1.042931609089025</v>
+        <v>1.041487394099706</v>
       </c>
       <c r="YW3">
-        <v>1.042825358394801</v>
+        <v>1.041233681662606</v>
       </c>
       <c r="YX3">
-        <v>1.042813327005963</v>
+        <v>1.041255471676247</v>
       </c>
       <c r="YY3">
-        <v>1.042806188678201</v>
+        <v>1.041250845952421</v>
       </c>
       <c r="YZ3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="ZA3">
-        <v>1.042750094918351</v>
+        <v>1.040878873216955</v>
       </c>
       <c r="ZB3">
-        <v>1.042744389174267</v>
+        <v>1.04087301432957</v>
       </c>
       <c r="ZC3">
-        <v>1.042930187418737</v>
+        <v>1.041486949238042</v>
       </c>
       <c r="ZD3">
-        <v>1.04282307069895</v>
+        <v>1.041226313477436</v>
       </c>
       <c r="ZE3">
-        <v>1.042812564024228</v>
+        <v>1.041252952639209</v>
       </c>
       <c r="ZF3">
-        <v>1.042752941679693</v>
+        <v>1.041194991870533</v>
       </c>
       <c r="ZG3">
-        <v>1.042786623067239</v>
+        <v>1.040910707807288</v>
       </c>
       <c r="ZH3">
-        <v>1.042743502625967</v>
+        <v>1.040872103968744</v>
       </c>
       <c r="ZI3">
-        <v>1.042928625906797</v>
+        <v>1.041486460617853</v>
       </c>
       <c r="ZJ3">
-        <v>1.042815677544069</v>
+        <v>1.041202501688451</v>
       </c>
       <c r="ZK3">
-        <v>1.042811856248245</v>
+        <v>1.041250615867805</v>
       </c>
       <c r="ZL3">
-        <v>1.042714827711378</v>
+        <v>1.041155011769569</v>
       </c>
       <c r="ZM3">
-        <v>1.042927127189662</v>
+        <v>1.041485991647086</v>
       </c>
       <c r="ZN3">
-        <v>1.042798402522966</v>
+        <v>1.041146862505937</v>
       </c>
       <c r="ZO3">
-        <v>1.0428111656479</v>
+        <v>1.041248335802979</v>
       </c>
       <c r="ZP3">
-        <v>1.042698727365265</v>
+        <v>1.04113315700425</v>
       </c>
       <c r="ZQ3">
-        <v>1.042610735029794</v>
+        <v>1.041047351656</v>
       </c>
       <c r="ZR3">
-        <v>1.042925319749263</v>
+        <v>1.041485426072237</v>
       </c>
       <c r="ZS3">
-        <v>1.042810647651353</v>
+        <v>1.041246625601546</v>
       </c>
       <c r="ZT3">
-        <v>1.042697731991575</v>
+        <v>1.04113216013578</v>
       </c>
       <c r="ZU3">
-        <v>1.042697303230363</v>
+        <v>1.041130234866711</v>
       </c>
       <c r="ZV3">
-        <v>1.042598341261644</v>
+        <v>1.041034318670584</v>
       </c>
       <c r="ZW3">
-        <v>1.042589752096051</v>
+        <v>1.041025661410943</v>
       </c>
       <c r="ZX3">
-        <v>1.042922436652924</v>
+        <v>1.041484523908719</v>
       </c>
       <c r="ZY3">
-        <v>1.042809824779737</v>
+        <v>1.041243908834012</v>
       </c>
       <c r="ZZ3">
-        <v>1.04269742053295</v>
+        <v>1.04113184820943</v>
       </c>
       <c r="AAA3">
-        <v>1.042694402043742</v>
+        <v>1.041124282013362</v>
       </c>
       <c r="AAB3">
-        <v>1.042591161223722</v>
+        <v>1.041026768317202</v>
       </c>
       <c r="AAC3">
-        <v>1.042550404969848</v>
+        <v>1.04098498820477</v>
       </c>
       <c r="AAD3">
-        <v>1.042914545938981</v>
+        <v>1.041482054787481</v>
       </c>
       <c r="AAE3">
-        <v>1.042808437386274</v>
+        <v>1.041239328258632</v>
       </c>
       <c r="AAF3">
-        <v>1.042697220274074</v>
+        <v>1.04113164764982</v>
       </c>
       <c r="AAG3">
-        <v>1.042446613999367</v>
+        <v>1.04087769926926</v>
       </c>
       <c r="AAH3">
-        <v>1.042550404969848</v>
+        <v>1.040984988204771</v>
       </c>
       <c r="AAI3">
-        <v>1.042904044847603</v>
+        <v>1.041478768840374</v>
       </c>
       <c r="AAJ3">
-        <v>1.042798041727488</v>
+        <v>1.041205006275462</v>
       </c>
       <c r="AAK3">
-        <v>1.042697099483544</v>
+        <v>1.041131526677896</v>
       </c>
       <c r="AAL3">
-        <v>1.04234021506588</v>
+        <v>1.040760769575896</v>
       </c>
       <c r="AAM3">
-        <v>1.042425210444166</v>
+        <v>1.040864528255595</v>
       </c>
       <c r="AAN3">
-        <v>1.042550404969849</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="AAO3">
-        <v>1.042903044652832</v>
+        <v>1.041478455864601</v>
       </c>
       <c r="AAP3">
-        <v>1.042789513429717</v>
+        <v>1.041176849516693</v>
       </c>
       <c r="AAQ3">
-        <v>1.042696977399079</v>
+        <v>1.041131404410093</v>
       </c>
       <c r="AAR3">
-        <v>1.042230400027294</v>
+        <v>1.040640085702747</v>
       </c>
       <c r="AAS3">
-        <v>1.042422919143823</v>
+        <v>1.040863118267927</v>
       </c>
       <c r="AAT3">
-        <v>1.04255040496985</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="AAU3">
-        <v>1.042902253641929</v>
+        <v>1.041478208345561</v>
       </c>
       <c r="AAV3">
-        <v>1.042786811368707</v>
+        <v>1.041167928477989</v>
       </c>
       <c r="AAW3">
-        <v>1.042696868351965</v>
+        <v>1.041131295199219</v>
       </c>
       <c r="AAX3">
-        <v>1.042210899049664</v>
+        <v>1.040596612164745</v>
       </c>
       <c r="AAY3">
-        <v>1.042042731418269</v>
+        <v>1.040589127661499</v>
       </c>
       <c r="AAZ3">
-        <v>1.042422044293628</v>
+        <v>1.040862579915112</v>
       </c>
       <c r="ABA3">
-        <v>1.04255040496985</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="ABB3">
-        <v>1.04290148538076</v>
+        <v>1.041477967945249</v>
       </c>
       <c r="ABC3">
-        <v>1.042784351487438</v>
+        <v>1.041159807012487</v>
       </c>
       <c r="ABD3">
-        <v>1.042696745493753</v>
+        <v>1.041131172156508</v>
       </c>
       <c r="ABE3">
-        <v>1.042184400272293</v>
+        <v>1.040537538469728</v>
       </c>
       <c r="ABF3">
-        <v>1.042017557037795</v>
+        <v>1.040582292007505</v>
       </c>
       <c r="ABG3">
-        <v>1.042421118875278</v>
+        <v>1.040862010444386</v>
       </c>
       <c r="ABH3">
-        <v>1.042550404969849</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="ABI3">
-        <v>1.042900662490242</v>
+        <v>1.041477710450603</v>
       </c>
       <c r="ABJ3">
-        <v>1.04278301170446</v>
+        <v>1.041155383627867</v>
       </c>
       <c r="ABK3">
-        <v>1.042696647059494</v>
+        <v>1.041131073574427</v>
       </c>
       <c r="ABL3">
-        <v>1.042153375566025</v>
+        <v>1.040468375186514</v>
       </c>
       <c r="ABM3">
-        <v>1.042004331003666</v>
+        <v>1.040578700713562</v>
       </c>
       <c r="ABN3">
-        <v>1.042420350858349</v>
+        <v>1.040861537833098</v>
       </c>
       <c r="ABO3">
-        <v>1.042550404969848</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="ABP3">
-        <v>1.042899901665821</v>
+        <v>1.041477472377359</v>
       </c>
       <c r="ABQ3">
-        <v>1.042781941677754</v>
+        <v>1.04115185086198</v>
       </c>
       <c r="ABR3">
-        <v>1.042696528987529</v>
+        <v>1.041130955325151</v>
       </c>
       <c r="ABS3">
-        <v>1.042128463990963</v>
+        <v>1.040412839935006</v>
       </c>
       <c r="ABT3">
-        <v>1.041974257820363</v>
+        <v>1.04057086637913</v>
       </c>
       <c r="ABU3">
-        <v>1.042002862723993</v>
+        <v>1.04057829120908</v>
       </c>
       <c r="ABV3">
-        <v>1.042419441337491</v>
+        <v>1.040860978145141</v>
       </c>
       <c r="ABW3">
-        <v>1.042550404969847</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="ABX3">
-        <v>1.042899184669227</v>
+        <v>1.04147724801849</v>
       </c>
       <c r="ABY3">
-        <v>1.042781029249191</v>
+        <v>1.041148838417113</v>
       </c>
       <c r="ABZ3">
-        <v>1.042696401750864</v>
+        <v>1.041130827897412</v>
       </c>
       <c r="ACA3">
-        <v>1.042124275856555</v>
+        <v>1.040394319525134</v>
       </c>
       <c r="ACB3">
-        <v>1.042080826157296</v>
+        <v>1.040393056284026</v>
       </c>
       <c r="ACC3">
-        <v>1.041949812051001</v>
+        <v>1.040564498035865</v>
       </c>
       <c r="ACD3">
-        <v>1.042001800946763</v>
+        <v>1.040577995078481</v>
       </c>
       <c r="ACE3">
-        <v>1.042418554333573</v>
+        <v>1.040860432313336</v>
       </c>
       <c r="ACF3">
-        <v>1.042550404969846</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="ACG3">
-        <v>1.042898187464165</v>
+        <v>1.041476935978235</v>
       </c>
       <c r="ACH3">
-        <v>1.042779958507879</v>
+        <v>1.041145303291998</v>
       </c>
       <c r="ACI3">
-        <v>1.042696169614204</v>
+        <v>1.041130595412147</v>
       </c>
       <c r="ACJ3">
-        <v>1.042118501637144</v>
+        <v>1.040368785276472</v>
       </c>
       <c r="ACK3">
-        <v>1.042041007186405</v>
+        <v>1.04037651974836</v>
       </c>
       <c r="ACL3">
-        <v>1.042000904901454</v>
+        <v>1.04057774517066</v>
       </c>
       <c r="ACM3">
-        <v>1.042417334893119</v>
+        <v>1.040859681911482</v>
       </c>
       <c r="ACN3">
-        <v>1.042550404969845</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="ACO3">
-        <v>1.042896965430199</v>
+        <v>1.041476553585679</v>
       </c>
       <c r="ACP3">
-        <v>1.042778980128901</v>
+        <v>1.041142073107441</v>
       </c>
       <c r="ACQ3">
-        <v>1.042694432869676</v>
+        <v>1.041128856059513</v>
       </c>
       <c r="ACR3">
-        <v>1.04210429688148</v>
+        <v>1.040305970299616</v>
       </c>
       <c r="ACS3">
-        <v>1.042031353467006</v>
+        <v>1.040366850588242</v>
       </c>
       <c r="ACT3">
-        <v>1.042040308063721</v>
+        <v>1.040376434355539</v>
       </c>
       <c r="ACU3">
-        <v>1.041999391377282</v>
+        <v>1.040577323047441</v>
       </c>
       <c r="ACV3">
-        <v>1.042415657355369</v>
+        <v>1.040858649612251</v>
       </c>
       <c r="ACW3">
-        <v>1.042550404969845</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="ACX3">
-        <v>1.04289117330634</v>
+        <v>1.041474741144179</v>
       </c>
       <c r="ACY3">
-        <v>1.042777462290561</v>
+        <v>1.041137061861294</v>
       </c>
       <c r="ACZ3">
-        <v>1.042689110626169</v>
+        <v>1.041123525823478</v>
       </c>
       <c r="ADA3">
-        <v>1.042092783725242</v>
+        <v>1.040255057923676</v>
       </c>
       <c r="ADB3">
-        <v>1.042021893857621</v>
+        <v>1.040357375848611</v>
       </c>
       <c r="ADC3">
-        <v>1.042039639612752</v>
+        <v>1.040376352709047</v>
       </c>
       <c r="ADD3">
-        <v>1.041997271865862</v>
+        <v>1.040576731913843</v>
       </c>
       <c r="ADE3">
-        <v>1.042413882045445</v>
+        <v>1.040857557147371</v>
       </c>
       <c r="ADF3">
-        <v>1.042550404969844</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="ADG3">
-        <v>1.042841649007509</v>
+        <v>1.041459244254568</v>
       </c>
       <c r="ADH3">
-        <v>1.042774397925993</v>
+        <v>1.041126944654289</v>
       </c>
       <c r="ADI3">
-        <v>1.042083787683596</v>
+        <v>1.040215276524919</v>
       </c>
       <c r="ADJ3">
-        <v>1.042038918987689</v>
+        <v>1.040376264689865</v>
       </c>
       <c r="ADK3">
-        <v>1.041995699138808</v>
+        <v>1.040576293278884</v>
       </c>
       <c r="ADL3">
-        <v>1.042412702755666</v>
+        <v>1.040856831452859</v>
       </c>
       <c r="ADM3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="ADN3">
-        <v>1.042773934593468</v>
+        <v>1.041124624277096</v>
       </c>
       <c r="ADO3">
-        <v>1.042771703080106</v>
+        <v>1.04112276100302</v>
       </c>
       <c r="ADP3">
-        <v>1.042075657002444</v>
+        <v>1.040179321862994</v>
       </c>
       <c r="ADQ3">
-        <v>1.042038275524563</v>
+        <v>1.040376186095459</v>
       </c>
       <c r="ADR3">
-        <v>1.04199309385099</v>
+        <v>1.040575566661811</v>
       </c>
       <c r="ADS3">
-        <v>1.042411502522461</v>
+        <v>1.040856092870477</v>
       </c>
       <c r="ADT3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="ADU3">
-        <v>1.042773530523792</v>
+        <v>1.041122600689281</v>
       </c>
       <c r="ADV3">
-        <v>1.042767390934787</v>
+        <v>1.041116066552654</v>
       </c>
       <c r="ADW3">
-        <v>1.042075119352833</v>
+        <v>1.040177274846177</v>
       </c>
       <c r="ADX3">
-        <v>1.042072487635733</v>
+        <v>1.040164044536956</v>
       </c>
       <c r="ADY3">
-        <v>1.042037564926773</v>
+        <v>1.040376099301035</v>
       </c>
       <c r="ADZ3">
-        <v>1.041975010499785</v>
+        <v>1.040570523198981</v>
       </c>
       <c r="AEA3">
-        <v>1.042410928639417</v>
+        <v>1.040855739722518</v>
       </c>
       <c r="AEB3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204772</v>
       </c>
       <c r="AEC3">
-        <v>1.042773196339773</v>
+        <v>1.041120927090043</v>
       </c>
       <c r="AED3">
-        <v>1.042763706628699</v>
+        <v>1.04111034680016</v>
       </c>
       <c r="AEE3">
-        <v>1.042074580290746</v>
+        <v>1.040175222451599</v>
       </c>
       <c r="AEF3">
-        <v>1.042067423776897</v>
+        <v>1.04013963524122</v>
       </c>
       <c r="AEG3">
-        <v>1.042072487635733</v>
+        <v>1.040164044536956</v>
       </c>
       <c r="AEH3">
-        <v>1.042037106781025</v>
+        <v>1.040376043341817</v>
       </c>
       <c r="AEI3">
-        <v>1.041935066612757</v>
+        <v>1.040559382811844</v>
       </c>
       <c r="AEJ3">
-        <v>1.042410015808882</v>
+        <v>1.040855177997889</v>
       </c>
       <c r="AEK3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="AEL3">
-        <v>1.042772936462046</v>
+        <v>1.041119625617982</v>
       </c>
       <c r="AEM3">
-        <v>1.042761621455923</v>
+        <v>1.041107109644563</v>
       </c>
       <c r="AEN3">
-        <v>1.042074040182387</v>
+        <v>1.040173166073521</v>
       </c>
       <c r="AEO3">
-        <v>1.042063177902342</v>
+        <v>1.040119168880339</v>
       </c>
       <c r="AEP3">
-        <v>1.042067423776897</v>
+        <v>1.04013963524122</v>
       </c>
       <c r="AEQ3">
-        <v>1.042036403100459</v>
+        <v>1.040375957392282</v>
       </c>
       <c r="AER3">
-        <v>1.04240915886375</v>
+        <v>1.040854650663219</v>
       </c>
       <c r="AES3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="AET3">
-        <v>1.042772672150313</v>
+        <v>1.041118301940349</v>
       </c>
       <c r="AEU3">
-        <v>1.042073503343635</v>
+        <v>1.040171122143975</v>
       </c>
       <c r="AEV3">
-        <v>1.042058613694809</v>
+        <v>1.040097168070231</v>
       </c>
       <c r="AEW3">
-        <v>1.042063177902342</v>
+        <v>1.040119168880339</v>
       </c>
       <c r="AEX3">
-        <v>1.042030615149904</v>
+        <v>1.040375250435614</v>
       </c>
       <c r="AEY3">
-        <v>1.042407934431651</v>
+        <v>1.040853897189662</v>
       </c>
       <c r="AEZ3">
-        <v>1.042550404969843</v>
+        <v>1.040984988204773</v>
       </c>
       <c r="AFA3">
-        <v>1.042772442774722</v>
+        <v>1.041117153223514</v>
       </c>
       <c r="AFB3">
-        <v>1.042072964464636</v>
+        <v>1.040169070446527</v>
       </c>
       <c r="AFC3">
-        <v>1.042054866318668</v>
+        <v>1.040079104632472</v>
       </c>
       <c r="AFD3">
-        <v>1.042058613694809</v>
+        <v>1.040097168070231</v>
       </c>
       <c r="AFE3">
-        <v>1.042010667258068</v>
+        <v>1.04037281394347</v>
       </c>
       <c r="AFF3">
-        <v>1.042395009719635</v>
+        <v>1.040845943764641</v>
       </c>
       <c r="AFG3">
-        <v>1.042772278033675</v>
+        <v>1.041116328197575</v>
       </c>
       <c r="AFH3">
-        <v>1.042072425951842</v>
+        <v>1.040167020143364</v>
       </c>
       <c r="AFI3">
-        <v>1.042050843097827</v>
+        <v>1.040059711550485</v>
       </c>
       <c r="AFJ3">
-        <v>1.042054866318668</v>
+        <v>1.040079104632472</v>
       </c>
       <c r="AFK3">
-        <v>1.042389840160765</v>
+        <v>1.040842762595142</v>
       </c>
       <c r="AFL3">
-        <v>1.042772086769018</v>
+        <v>1.04111537034095</v>
       </c>
       <c r="AFM3">
-        <v>1.042071887099033</v>
+        <v>1.040164968545667</v>
       </c>
       <c r="AFN3">
-        <v>1.042029616253316</v>
+        <v>1.039957392268653</v>
       </c>
       <c r="AFO3">
-        <v>1.042050843097827</v>
+        <v>1.040059711550487</v>
       </c>
       <c r="AFP3">
-        <v>1.042050843097827</v>
+        <v>1.040059711550485</v>
       </c>
       <c r="AFQ3">
-        <v>1.042387215067944</v>
+        <v>1.0408411472029</v>
       </c>
       <c r="AFR3">
-        <v>1.042771798626239</v>
+        <v>1.041113927317067</v>
       </c>
       <c r="AFS3">
-        <v>1.042071624067922</v>
+        <v>1.040163967095902</v>
       </c>
       <c r="AFT3">
-        <v>1.042026510704041</v>
+        <v>1.039942422662294</v>
       </c>
       <c r="AFU3">
-        <v>1.042050843097826</v>
+        <v>1.04005971155049</v>
       </c>
       <c r="AFV3">
-        <v>1.042050843097827</v>
+        <v>1.040059711550487</v>
       </c>
       <c r="AFW3">
-        <v>1.042386634185753</v>
+        <v>1.040840789747888</v>
       </c>
       <c r="AFX3">
-        <v>1.042771327859057</v>
+        <v>1.041111569707121</v>
       </c>
       <c r="AFY3">
-        <v>1.04206571240686</v>
+        <v>1.040141459373267</v>
       </c>
       <c r="AFZ3">
-        <v>1.042017761671258</v>
+        <v>1.0399002499089</v>
       </c>
       <c r="AGA3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550495</v>
       </c>
       <c r="AGB3">
-        <v>1.042050843097826</v>
+        <v>1.04005971155049</v>
       </c>
       <c r="AGC3">
-        <v>1.042386176712547</v>
+        <v>1.040840508234539</v>
       </c>
       <c r="AGD3">
-        <v>1.042769439056055</v>
+        <v>1.041096435045738</v>
       </c>
       <c r="AGE3">
-        <v>1.042766298356759</v>
+        <v>1.041101494617095</v>
       </c>
       <c r="AGF3">
-        <v>1.042061868166452</v>
+        <v>1.040126823031765</v>
       </c>
       <c r="AGG3">
-        <v>1.042007488112323</v>
+        <v>1.039850728526484</v>
       </c>
       <c r="AGH3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550497</v>
       </c>
       <c r="AGI3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550495</v>
       </c>
       <c r="AGJ3">
-        <v>1.042385686559964</v>
+        <v>1.04084020661142</v>
       </c>
       <c r="AGK3">
-        <v>1.042058505992878</v>
+        <v>1.040114022084737</v>
       </c>
       <c r="AGL3">
-        <v>1.042006155409905</v>
+        <v>1.039844304534559</v>
       </c>
       <c r="AGM3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550498</v>
       </c>
       <c r="AGN3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550497</v>
       </c>
       <c r="AGO3">
-        <v>1.042385294402092</v>
+        <v>1.04083996529089</v>
       </c>
       <c r="AGP3">
-        <v>1.042054979294118</v>
+        <v>1.040100594734674</v>
       </c>
       <c r="AGQ3">
-        <v>1.04200558573479</v>
+        <v>1.039843733674752</v>
       </c>
       <c r="AGR3">
-        <v>1.042003695906228</v>
+        <v>1.039827609626228</v>
       </c>
       <c r="AGS3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550499</v>
       </c>
       <c r="AGT3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550498</v>
       </c>
       <c r="AGU3">
-        <v>1.042384913632883</v>
+        <v>1.040839730978554</v>
       </c>
       <c r="AGV3">
-        <v>1.042048957514266</v>
+        <v>1.040077667758072</v>
       </c>
       <c r="AGW3">
-        <v>1.042005058599181</v>
+        <v>1.039843205442917</v>
       </c>
       <c r="AGX3">
-        <v>1.041997940005382</v>
+        <v>1.03978853904959</v>
       </c>
       <c r="AGY3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550499</v>
       </c>
       <c r="AGZ3">
-        <v>1.042050843097825</v>
+        <v>1.040059711550499</v>
       </c>
       <c r="AHA3">
-        <v>1.042384533829456</v>
+        <v>1.040839497260526</v>
       </c>
       <c r="AHB3">
-        <v>1.042047480501565</v>
+        <v>1.040072044265607</v>
       </c>
       <c r="AHC3">
-        <v>1.042004257043261</v>
+        <v>1.039842402220087</v>
       </c>
       <c r="AHD3">
-        <v>1.041984285287953</v>
+        <v>1.039695851985252</v>
       </c>
       <c r="AHE3">
-        <v>1.042384158469749</v>
+        <v>1.040839266277012</v>
       </c>
       <c r="AHF3">
-        <v>1.042047480501522</v>
+        <v>1.040067065023717</v>
       </c>
       <c r="AHG3">
-        <v>1.04204124698248</v>
+        <v>1.040067360271228</v>
       </c>
       <c r="AHH3">
-        <v>1.042003244095728</v>
+        <v>1.039841387166038</v>
       </c>
       <c r="AHI3">
-        <v>1.042377446258418</v>
+        <v>1.040835135811892</v>
       </c>
       <c r="AHJ3">
-        <v>1.04204748050145</v>
+        <v>1.040058889517135</v>
       </c>
       <c r="AHK3">
-        <v>1.042035960120026</v>
+        <v>1.04006338761404</v>
       </c>
       <c r="AHL3">
-        <v>1.041999300710638</v>
+        <v>1.03983743558032</v>
       </c>
       <c r="AHM3">
-        <v>1.042361834245974</v>
+        <v>1.040823695539833</v>
       </c>
       <c r="AHN3">
-        <v>1.042368499357476</v>
+        <v>1.04083065575152</v>
       </c>
       <c r="AHO3">
-        <v>1.042047480501436</v>
+        <v>1.040057273040116</v>
       </c>
       <c r="AHP3">
-        <v>1.042027073990531</v>
+        <v>1.040056710393442</v>
       </c>
       <c r="AHQ3">
-        <v>1.041992137292753</v>
+        <v>1.039830257265459</v>
       </c>
       <c r="AHR3">
-        <v>1.042351466085086</v>
+        <v>1.04081609789129</v>
       </c>
       <c r="AHS3">
-        <v>1.042047480501425</v>
+        <v>1.040055907151859</v>
       </c>
       <c r="AHT3">
-        <v>1.042047480501415</v>
+        <v>1.04005475612238</v>
       </c>
       <c r="AHU3">
-        <v>1.042047480501402</v>
+        <v>1.040053258824973</v>
       </c>
       <c r="AHV3">
-        <v>1.042047480501378</v>
+        <v>1.040050548949906</v>
       </c>
       <c r="AHW3">
-        <v>1.042047480501336</v>
+        <v>1.040045850511919</v>
       </c>
       <c r="AHX3">
-        <v>1.04204748050099</v>
+        <v>1.040007365367459</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049878375859344</v>
+        <v>1.049909363372332</v>
       </c>
       <c r="D2">
-        <v>1.049810649146194</v>
+        <v>1.049858651462318</v>
       </c>
       <c r="E2">
-        <v>1.049803548950213</v>
+        <v>1.049853335028634</v>
       </c>
       <c r="F2">
-        <v>1.049796897182172</v>
+        <v>1.049848354365394</v>
       </c>
       <c r="G2">
-        <v>1.049791097796165</v>
+        <v>1.049844011942511</v>
       </c>
       <c r="H2">
-        <v>1.049781961487244</v>
+        <v>1.04983717092199</v>
       </c>
       <c r="I2">
-        <v>1.049159824996238</v>
+        <v>1.049371331108861</v>
       </c>
       <c r="J2">
-        <v>1.049131960666523</v>
+        <v>1.049350466974875</v>
       </c>
       <c r="K2">
-        <v>1.049108768675903</v>
+        <v>1.049333101372407</v>
       </c>
       <c r="L2">
-        <v>1.049088415864639</v>
+        <v>1.049317861676907</v>
       </c>
       <c r="M2">
-        <v>1.049073228826013</v>
+        <v>1.049306489986501</v>
       </c>
       <c r="N2">
-        <v>1.049058971938611</v>
+        <v>1.049295814770099</v>
       </c>
       <c r="O2">
-        <v>1.049050205257018</v>
+        <v>1.049289250488088</v>
       </c>
       <c r="P2">
-        <v>1.049028380156057</v>
+        <v>1.049272908371735</v>
       </c>
       <c r="Q2">
-        <v>1.048851579006305</v>
+        <v>1.049140523799181</v>
       </c>
       <c r="R2">
-        <v>1.048851579006307</v>
+        <v>1.049140523799181</v>
       </c>
       <c r="S2">
-        <v>1.048637178390647</v>
+        <v>1.048979985438252</v>
       </c>
       <c r="T2">
-        <v>1.048851579006308</v>
+        <v>1.049140523799182</v>
       </c>
       <c r="U2">
-        <v>1.048622426360967</v>
+        <v>1.048968939442565</v>
       </c>
       <c r="V2">
-        <v>1.048851579006308</v>
+        <v>1.049140523799182</v>
       </c>
       <c r="W2">
-        <v>1.048605861559679</v>
+        <v>1.048956536082175</v>
       </c>
       <c r="X2">
-        <v>1.04885157900631</v>
+        <v>1.049140523799182</v>
       </c>
       <c r="Y2">
-        <v>1.048578890725405</v>
+        <v>1.048936340909596</v>
       </c>
       <c r="Z2">
-        <v>1.048851579006311</v>
+        <v>1.049140523799183</v>
       </c>
       <c r="AA2">
-        <v>1.048529824292825</v>
+        <v>1.048899601026523</v>
       </c>
       <c r="AB2">
-        <v>1.048851579006311</v>
+        <v>1.049140523799184</v>
       </c>
       <c r="AC2">
-        <v>1.048510636959585</v>
+        <v>1.048876296518203</v>
       </c>
       <c r="AD2">
-        <v>1.047927528247453</v>
+        <v>1.048454465411496</v>
       </c>
       <c r="AE2">
-        <v>1.048851579006312</v>
+        <v>1.049140523799184</v>
       </c>
       <c r="AF2">
-        <v>1.048508522913767</v>
+        <v>1.048873047294406</v>
       </c>
       <c r="AG2">
-        <v>1.048507547364971</v>
+        <v>1.048873208000665</v>
       </c>
       <c r="AH2">
-        <v>1.04776718892298</v>
+        <v>1.048335964032064</v>
       </c>
       <c r="AI2">
-        <v>1.048851579006312</v>
+        <v>1.049140523799185</v>
       </c>
       <c r="AJ2">
-        <v>1.048503681599654</v>
+        <v>1.048865606342692</v>
       </c>
       <c r="AK2">
-        <v>1.048507442735584</v>
+        <v>1.048873103407753</v>
       </c>
       <c r="AL2">
-        <v>1.047744843353796</v>
+        <v>1.048301625415948</v>
       </c>
       <c r="AM2">
-        <v>1.04729451188416</v>
+        <v>1.047996309972863</v>
       </c>
       <c r="AN2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799187</v>
       </c>
       <c r="AO2">
-        <v>1.048507292297447</v>
+        <v>1.048872953022062</v>
       </c>
       <c r="AP2">
-        <v>1.047743802677706</v>
+        <v>1.048299493128291</v>
       </c>
       <c r="AQ2">
-        <v>1.047742493892967</v>
+        <v>1.048300421961607</v>
       </c>
       <c r="AR2">
-        <v>1.04696650860235</v>
+        <v>1.047760614273761</v>
       </c>
       <c r="AS2">
-        <v>1.047294511884161</v>
+        <v>1.047996309972864</v>
       </c>
       <c r="AT2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799187</v>
       </c>
       <c r="AU2">
-        <v>1.048507099370806</v>
+        <v>1.048872760162679</v>
       </c>
       <c r="AV2">
-        <v>1.047743333613854</v>
+        <v>1.048298532042445</v>
       </c>
       <c r="AW2">
-        <v>1.047736840645401</v>
+        <v>1.048297526222586</v>
       </c>
       <c r="AX2">
-        <v>1.046718652358068</v>
+        <v>1.047582510068839</v>
       </c>
       <c r="AY2">
-        <v>1.047294511884161</v>
+        <v>1.047996309972865</v>
       </c>
       <c r="AZ2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799187</v>
       </c>
       <c r="BA2">
-        <v>1.04850662950754</v>
+        <v>1.048872290463216</v>
       </c>
       <c r="BB2">
-        <v>1.047742836506585</v>
+        <v>1.048297513497198</v>
       </c>
       <c r="BC2">
-        <v>1.046682916603382</v>
+        <v>1.047556831094074</v>
       </c>
       <c r="BD2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068842</v>
       </c>
       <c r="BE2">
-        <v>1.047294511884161</v>
+        <v>1.047996309972866</v>
       </c>
       <c r="BF2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799188</v>
       </c>
       <c r="BG2">
-        <v>1.048506227218798</v>
+        <v>1.048871888314721</v>
       </c>
       <c r="BH2">
-        <v>1.047742363046314</v>
+        <v>1.048296543403342</v>
       </c>
       <c r="BI2">
-        <v>1.046521043461435</v>
+        <v>1.047440512322408</v>
       </c>
       <c r="BJ2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068843</v>
       </c>
       <c r="BK2">
-        <v>1.047294511884162</v>
+        <v>1.047996309972866</v>
       </c>
       <c r="BL2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799188</v>
       </c>
       <c r="BM2">
-        <v>1.048504298790828</v>
+        <v>1.048869960559039</v>
       </c>
       <c r="BN2">
-        <v>1.047742079490442</v>
+        <v>1.048295962413077</v>
       </c>
       <c r="BO2">
-        <v>1.046489002898432</v>
+        <v>1.047418866835589</v>
       </c>
       <c r="BP2">
-        <v>1.046487973251991</v>
+        <v>1.047364218172663</v>
       </c>
       <c r="BQ2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068843</v>
       </c>
       <c r="BR2">
-        <v>1.047294511884162</v>
+        <v>1.047996309972867</v>
       </c>
       <c r="BS2">
-        <v>1.048851579006314</v>
+        <v>1.049140523799189</v>
       </c>
       <c r="BT2">
-        <v>1.048497482459199</v>
+        <v>1.04886314660372</v>
       </c>
       <c r="BU2">
-        <v>1.04774152317464</v>
+        <v>1.048294822552837</v>
       </c>
       <c r="BV2">
-        <v>1.04611045720189</v>
+        <v>1.047163134158208</v>
       </c>
       <c r="BW2">
-        <v>1.04647450283177</v>
+        <v>1.047353713487927</v>
       </c>
       <c r="BX2">
-        <v>1.046485279185005</v>
+        <v>1.047337430815917</v>
       </c>
       <c r="BY2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068844</v>
       </c>
       <c r="BZ2">
-        <v>1.047294511884162</v>
+        <v>1.047996309972867</v>
       </c>
       <c r="CA2">
-        <v>1.048851579006316</v>
+        <v>1.049140523799192</v>
       </c>
       <c r="CB2">
-        <v>1.047738703744865</v>
+        <v>1.048289045697571</v>
       </c>
       <c r="CC2">
-        <v>1.04597850668436</v>
+        <v>1.04707399267158</v>
       </c>
       <c r="CD2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068844</v>
       </c>
       <c r="CE2">
-        <v>1.047294511884163</v>
+        <v>1.047996309972867</v>
       </c>
       <c r="CF2">
-        <v>1.048851579006317</v>
+        <v>1.049140523799197</v>
       </c>
       <c r="CG2">
-        <v>1.047728079505506</v>
+        <v>1.048267277221115</v>
       </c>
       <c r="CH2">
-        <v>1.045949710811767</v>
+        <v>1.047054539102573</v>
       </c>
       <c r="CI2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068844</v>
       </c>
       <c r="CJ2">
-        <v>1.047294511884165</v>
+        <v>1.047996309972869</v>
       </c>
       <c r="CK2">
-        <v>1.048851579006318</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="CL2">
-        <v>1.04589131738054</v>
+        <v>1.047015090357755</v>
       </c>
       <c r="CM2">
-        <v>1.046718652358072</v>
+        <v>1.047582510068844</v>
       </c>
       <c r="CN2">
-        <v>1.047294511884165</v>
+        <v>1.047996309972869</v>
       </c>
       <c r="CO2">
-        <v>1.048851579006319</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="CP2">
-        <v>1.045836249729835</v>
+        <v>1.04697788838803</v>
       </c>
       <c r="CQ2">
-        <v>1.047294511884165</v>
+        <v>1.047996309972869</v>
       </c>
       <c r="CR2">
-        <v>1.048851579006319</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="CS2">
-        <v>1.045804242382129</v>
+        <v>1.046956265225082</v>
       </c>
       <c r="CT2">
-        <v>1.047294511884165</v>
+        <v>1.04799630997287</v>
       </c>
       <c r="CU2">
-        <v>1.048851579006319</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="CV2">
-        <v>1.045783103931796</v>
+        <v>1.04694198474627</v>
       </c>
       <c r="CW2">
-        <v>1.047294511884165</v>
+        <v>1.04799630997287</v>
       </c>
       <c r="CX2">
-        <v>1.048851579006319</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="CY2">
-        <v>1.04575391764469</v>
+        <v>1.046922267395671</v>
       </c>
       <c r="CZ2">
-        <v>1.047294511884174</v>
+        <v>1.047996309972875</v>
       </c>
       <c r="DA2">
-        <v>1.048851579006319</v>
+        <v>1.0491405237992</v>
       </c>
       <c r="DB2">
-        <v>1.045753217888561</v>
+        <v>1.046921997180836</v>
       </c>
       <c r="DC2">
-        <v>1.045738732897881</v>
+        <v>1.046910826589358</v>
       </c>
       <c r="DD2">
-        <v>1.047294511884175</v>
+        <v>1.047996309972876</v>
       </c>
       <c r="DE2">
-        <v>1.04575237128053</v>
+        <v>1.046921670258213</v>
       </c>
       <c r="DF2">
-        <v>1.04573012239589</v>
+        <v>1.046904339086228</v>
       </c>
       <c r="DG2">
-        <v>1.047294511884175</v>
+        <v>1.047996309972876</v>
       </c>
       <c r="DH2">
-        <v>1.045751390001932</v>
+        <v>1.046921291331649</v>
       </c>
       <c r="DI2">
-        <v>1.045390376373931</v>
+        <v>1.046648360323631</v>
       </c>
       <c r="DJ2">
-        <v>1.047294511884194</v>
+        <v>1.047996309972892</v>
       </c>
       <c r="DK2">
-        <v>1.045749893844184</v>
+        <v>1.046920713581199</v>
       </c>
       <c r="DL2">
-        <v>1.045356341372132</v>
+        <v>1.046622716911518</v>
       </c>
       <c r="DM2">
-        <v>1.047294511884211</v>
+        <v>1.047996309972907</v>
       </c>
       <c r="DN2">
-        <v>1.045747970332559</v>
+        <v>1.046919970805011</v>
       </c>
       <c r="DO2">
-        <v>1.045355599541803</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="DP2">
-        <v>1.045262399793838</v>
+        <v>1.046550304211865</v>
       </c>
       <c r="DQ2">
-        <v>1.047294511884212</v>
+        <v>1.047996309972908</v>
       </c>
       <c r="DR2">
-        <v>1.045746589436302</v>
+        <v>1.046919437562883</v>
       </c>
       <c r="DS2">
-        <v>1.0453555995418</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="DT2">
-        <v>1.045355238349207</v>
+        <v>1.046622124657543</v>
       </c>
       <c r="DU2">
-        <v>1.045092989859451</v>
+        <v>1.046419718204208</v>
       </c>
       <c r="DV2">
-        <v>1.047294511884213</v>
+        <v>1.047996309972909</v>
       </c>
       <c r="DW2">
-        <v>1.045744638241903</v>
+        <v>1.046918684095973</v>
       </c>
       <c r="DX2">
-        <v>1.045355599541798</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="DY2">
-        <v>1.045353541588362</v>
+        <v>1.046621213603301</v>
       </c>
       <c r="DZ2">
-        <v>1.045016806902454</v>
+        <v>1.046360994097304</v>
       </c>
       <c r="EA2">
-        <v>1.047294511884214</v>
+        <v>1.04799630997291</v>
       </c>
       <c r="EB2">
-        <v>1.045742527192236</v>
+        <v>1.046917868899309</v>
       </c>
       <c r="EC2">
-        <v>1.045355599541796</v>
+        <v>1.046622318595281</v>
       </c>
       <c r="ED2">
-        <v>1.045343578067265</v>
+        <v>1.046616237971068</v>
       </c>
       <c r="EE2">
-        <v>1.045350173713428</v>
+        <v>1.046619350868494</v>
       </c>
       <c r="EF2">
-        <v>1.044994140453527</v>
+        <v>1.046343522105664</v>
       </c>
       <c r="EG2">
-        <v>1.047294511884217</v>
+        <v>1.047996309972912</v>
       </c>
       <c r="EH2">
-        <v>1.045740536304774</v>
+        <v>1.046917100103594</v>
       </c>
       <c r="EI2">
-        <v>1.045355599541794</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="EJ2">
-        <v>1.045342720013377</v>
+        <v>1.046615809471886</v>
       </c>
       <c r="EK2">
-        <v>1.045347668197208</v>
+        <v>1.046617965093863</v>
       </c>
       <c r="EL2">
-        <v>1.044968554558855</v>
+        <v>1.046323799708646</v>
       </c>
       <c r="EM2">
-        <v>1.047294511884219</v>
+        <v>1.047996309972914</v>
       </c>
       <c r="EN2">
-        <v>1.045737262972864</v>
+        <v>1.046915836081475</v>
       </c>
       <c r="EO2">
-        <v>1.045355599541792</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="EP2">
-        <v>1.045341878099517</v>
+        <v>1.046615389032789</v>
       </c>
       <c r="EQ2">
-        <v>1.045345990316809</v>
+        <v>1.04661703707541</v>
       </c>
       <c r="ER2">
-        <v>1.044944491532281</v>
+        <v>1.046305251178217</v>
       </c>
       <c r="ES2">
-        <v>1.04729451188422</v>
+        <v>1.047996309972914</v>
       </c>
       <c r="ET2">
-        <v>1.045721699075939</v>
+        <v>1.046909825944684</v>
       </c>
       <c r="EU2">
-        <v>1.04535559954179</v>
+        <v>1.04662231859528</v>
       </c>
       <c r="EV2">
-        <v>1.045341198289738</v>
+        <v>1.046615049546027</v>
       </c>
       <c r="EW2">
-        <v>1.045345449815371</v>
+        <v>1.046616110328954</v>
       </c>
       <c r="EX2">
-        <v>1.045324916549956</v>
+        <v>1.046617037075349</v>
       </c>
       <c r="EY2">
-        <v>1.044916414623968</v>
+        <v>1.046283608613982</v>
       </c>
       <c r="EZ2">
-        <v>1.04729451188422</v>
+        <v>1.047996309972914</v>
       </c>
       <c r="FA2">
-        <v>1.045718308579862</v>
+        <v>1.046908516670371</v>
       </c>
       <c r="FB2">
-        <v>1.045355599541789</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="FC2">
-        <v>1.045340177949278</v>
+        <v>1.046614540003372</v>
       </c>
       <c r="FD2">
-        <v>1.045344016374208</v>
+        <v>1.046613652544553</v>
       </c>
       <c r="FE2">
-        <v>1.045323633865135</v>
+        <v>1.046617037075346</v>
       </c>
       <c r="FF2">
-        <v>1.044908335649184</v>
+        <v>1.046277381084308</v>
       </c>
       <c r="FG2">
-        <v>1.04729451188422</v>
+        <v>1.047996309972914</v>
       </c>
       <c r="FH2">
-        <v>1.045443895362868</v>
+        <v>1.04689323112166</v>
       </c>
       <c r="FI2">
-        <v>1.045715043891092</v>
+        <v>1.046904097556634</v>
       </c>
       <c r="FJ2">
-        <v>1.045355599541788</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="FK2">
-        <v>1.045338947814857</v>
+        <v>1.046613925692773</v>
       </c>
       <c r="FL2">
-        <v>1.045343518462033</v>
+        <v>1.046612798822514</v>
       </c>
       <c r="FM2">
-        <v>1.045322462064619</v>
+        <v>1.046617037075342</v>
       </c>
       <c r="FN2">
-        <v>1.044862437781773</v>
+        <v>1.046242001539461</v>
       </c>
       <c r="FO2">
-        <v>1.04729451188422</v>
+        <v>1.047996309972914</v>
       </c>
       <c r="FP2">
-        <v>1.045392054115205</v>
+        <v>1.046890343423289</v>
       </c>
       <c r="FQ2">
-        <v>1.045710709680697</v>
+        <v>1.04689823073258</v>
       </c>
       <c r="FR2">
-        <v>1.045355599541787</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="FS2">
-        <v>1.045338018473809</v>
+        <v>1.04661346159385</v>
       </c>
       <c r="FT2">
-        <v>1.045343518462025</v>
+        <v>1.046612798822523</v>
       </c>
       <c r="FU2">
-        <v>1.045335296198332</v>
+        <v>1.046598700908082</v>
       </c>
       <c r="FV2">
-        <v>1.045321975282595</v>
+        <v>1.046617037075341</v>
       </c>
       <c r="FW2">
-        <v>1.044836514453549</v>
+        <v>1.046222018997455</v>
       </c>
       <c r="FX2">
-        <v>1.045285095222467</v>
+        <v>1.046884385519807</v>
       </c>
       <c r="FY2">
-        <v>1.045710398274222</v>
+        <v>1.046897916702691</v>
       </c>
       <c r="FZ2">
-        <v>1.045699620099626</v>
+        <v>1.046880372834862</v>
       </c>
       <c r="GA2">
-        <v>1.045355599541787</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="GB2">
-        <v>1.045336943064448</v>
+        <v>1.046612924550611</v>
       </c>
       <c r="GC2">
-        <v>1.045343518462024</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="GD2">
-        <v>1.04533440818603</v>
+        <v>1.046597178319939</v>
       </c>
       <c r="GE2">
-        <v>1.045320926029693</v>
+        <v>1.046617037075338</v>
       </c>
       <c r="GF2">
-        <v>1.044817270882791</v>
+        <v>1.046207185423918</v>
       </c>
       <c r="GG2">
-        <v>1.045709172806791</v>
+        <v>1.046896680911434</v>
       </c>
       <c r="GH2">
-        <v>1.045653722682157</v>
+        <v>1.046806462801489</v>
       </c>
       <c r="GI2">
-        <v>1.045355599541786</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="GJ2">
-        <v>1.045335931902153</v>
+        <v>1.046612419591387</v>
       </c>
       <c r="GK2">
-        <v>1.045343518462024</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="GL2">
-        <v>1.045343518462023</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="GM2">
-        <v>1.045333549233764</v>
+        <v>1.046595705558212</v>
       </c>
       <c r="GN2">
-        <v>1.045318253595223</v>
+        <v>1.04661703707533</v>
       </c>
       <c r="GO2">
-        <v>1.044799970038088</v>
+        <v>1.046193849363371</v>
       </c>
       <c r="GP2">
-        <v>1.045706984795855</v>
+        <v>1.046894474467836</v>
       </c>
       <c r="GQ2">
-        <v>1.045646061065612</v>
+        <v>1.046799925736339</v>
       </c>
       <c r="GR2">
-        <v>1.045652966235292</v>
+        <v>1.046801892152289</v>
       </c>
       <c r="GS2">
-        <v>1.045355599541786</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="GT2">
-        <v>1.045334843951005</v>
+        <v>1.046611876284964</v>
       </c>
       <c r="GU2">
-        <v>1.045343518462024</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="GV2">
-        <v>1.045343518462023</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="GW2">
-        <v>1.045332862158032</v>
+        <v>1.04659452749643</v>
       </c>
       <c r="GX2">
-        <v>1.045316685691406</v>
+        <v>1.046617037075326</v>
       </c>
       <c r="GY2">
-        <v>1.044778477507473</v>
+        <v>1.046177282208378</v>
       </c>
       <c r="GZ2">
-        <v>1.045702540845843</v>
+        <v>1.046890141246527</v>
       </c>
       <c r="HA2">
-        <v>1.04570664799485</v>
+        <v>1.046894127283466</v>
       </c>
       <c r="HB2">
-        <v>1.04562669060659</v>
+        <v>1.046783398420817</v>
       </c>
       <c r="HC2">
-        <v>1.045652859310775</v>
+        <v>1.046801246086488</v>
       </c>
       <c r="HD2">
-        <v>1.045355599541786</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="HE2">
-        <v>1.045333180800244</v>
+        <v>1.046611045732512</v>
       </c>
       <c r="HF2">
-        <v>1.045343518462023</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="HG2">
-        <v>1.045332314848041</v>
+        <v>1.04659358907734</v>
       </c>
       <c r="HH2">
-        <v>1.045315587526302</v>
+        <v>1.046617037075323</v>
       </c>
       <c r="HI2">
-        <v>1.044738816703855</v>
+        <v>1.046146710331863</v>
       </c>
       <c r="HJ2">
-        <v>1.045687995205718</v>
+        <v>1.046875958036173</v>
       </c>
       <c r="HK2">
-        <v>1.045706040126836</v>
+        <v>1.046893500675265</v>
       </c>
       <c r="HL2">
-        <v>1.045652773079178</v>
+        <v>1.046800725052698</v>
       </c>
       <c r="HM2">
-        <v>1.045355599541786</v>
+        <v>1.046622318595279</v>
       </c>
       <c r="HN2">
-        <v>1.045328638914018</v>
+        <v>1.046608777582887</v>
       </c>
       <c r="HO2">
-        <v>1.045343518462023</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="HP2">
-        <v>1.045331157747055</v>
+        <v>1.046591605109083</v>
       </c>
       <c r="HQ2">
-        <v>1.045313475098623</v>
+        <v>1.046617037075318</v>
       </c>
       <c r="HR2">
-        <v>1.044704238860475</v>
+        <v>1.046120056556104</v>
       </c>
       <c r="HS2">
-        <v>1.045681724823334</v>
+        <v>1.046869843891198</v>
       </c>
       <c r="HT2">
-        <v>1.045705823084067</v>
+        <v>1.046893276941207</v>
       </c>
       <c r="HU2">
-        <v>1.045652704167369</v>
+        <v>1.04680030866959</v>
       </c>
       <c r="HV2">
-        <v>1.045328251658172</v>
+        <v>1.046608584193144</v>
       </c>
       <c r="HW2">
-        <v>1.045343518462023</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="HX2">
-        <v>1.045330246502445</v>
+        <v>1.046590042686793</v>
       </c>
       <c r="HY2">
-        <v>1.045312423669233</v>
+        <v>1.046617037075316</v>
       </c>
       <c r="HZ2">
-        <v>1.044680717442565</v>
+        <v>1.046101925440354</v>
       </c>
       <c r="IA2">
-        <v>1.045681600741488</v>
+        <v>1.04686830784076</v>
       </c>
       <c r="IB2">
-        <v>1.045705823084067</v>
+        <v>1.046893276941207</v>
       </c>
       <c r="IC2">
-        <v>1.045652598972834</v>
+        <v>1.046799673056792</v>
       </c>
       <c r="ID2">
-        <v>1.045328072788326</v>
+        <v>1.046608494868235</v>
       </c>
       <c r="IE2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="IF2">
-        <v>1.045329614417769</v>
+        <v>1.046588958912827</v>
       </c>
       <c r="IG2">
-        <v>1.045311677089444</v>
+        <v>1.046617037075315</v>
       </c>
       <c r="IH2">
-        <v>1.044665265905571</v>
+        <v>1.046090014862028</v>
       </c>
       <c r="II2">
-        <v>1.045678083127212</v>
+        <v>1.046864681780907</v>
       </c>
       <c r="IJ2">
-        <v>1.045652475663643</v>
+        <v>1.046798927990527</v>
       </c>
       <c r="IK2">
-        <v>1.045327881465373</v>
+        <v>1.04660839932443</v>
       </c>
       <c r="IL2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="IM2">
-        <v>1.045328983838898</v>
+        <v>1.04658787772072</v>
       </c>
       <c r="IN2">
-        <v>1.045303136535782</v>
+        <v>1.046617037075301</v>
       </c>
       <c r="IO2">
-        <v>1.044632011621416</v>
+        <v>1.046064381301703</v>
       </c>
       <c r="IP2">
-        <v>1.045670827405687</v>
+        <v>1.046857089162408</v>
       </c>
       <c r="IQ2">
-        <v>1.045674541642382</v>
+        <v>1.046861144322772</v>
       </c>
       <c r="IR2">
-        <v>1.04565228626805</v>
+        <v>1.046797783612998</v>
       </c>
       <c r="IS2">
-        <v>1.045327698647867</v>
+        <v>1.046608308028119</v>
       </c>
       <c r="IT2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822525</v>
       </c>
       <c r="IU2">
-        <v>1.045328061330127</v>
+        <v>1.046586295984883</v>
       </c>
       <c r="IV2">
-        <v>1.045300618066379</v>
+        <v>1.046617037075296</v>
       </c>
       <c r="IW2">
-        <v>1.044616537814451</v>
+        <v>1.046052494805541</v>
       </c>
       <c r="IX2">
-        <v>1.044610687562274</v>
+        <v>1.046047942121066</v>
       </c>
       <c r="IY2">
-        <v>1.045651593209116</v>
+        <v>1.046793595970372</v>
       </c>
       <c r="IZ2">
-        <v>1.045327494981331</v>
+        <v>1.046608206320115</v>
       </c>
       <c r="JA2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="JB2">
-        <v>1.045324591728692</v>
+        <v>1.046580346997673</v>
       </c>
       <c r="JC2">
-        <v>1.045300054609998</v>
+        <v>1.046617037075296</v>
       </c>
       <c r="JD2">
-        <v>1.044614398794209</v>
+        <v>1.04605085167685</v>
       </c>
       <c r="JE2">
-        <v>1.044530725723704</v>
+        <v>1.045986297753495</v>
       </c>
       <c r="JF2">
-        <v>1.045648220090873</v>
+        <v>1.046773214712376</v>
       </c>
       <c r="JG2">
-        <v>1.045327074585046</v>
+        <v>1.046607996380535</v>
       </c>
       <c r="JH2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="JI2">
-        <v>1.045323781920346</v>
+        <v>1.04657895849829</v>
       </c>
       <c r="JJ2">
-        <v>1.045290587516825</v>
+        <v>1.046617037075296</v>
       </c>
       <c r="JK2">
-        <v>1.045299892104319</v>
+        <v>1.046617037075295</v>
       </c>
       <c r="JL2">
-        <v>1.044613415408006</v>
+        <v>1.046050096270212</v>
       </c>
       <c r="JM2">
-        <v>1.044525174533766</v>
+        <v>1.04597777459005</v>
       </c>
       <c r="JN2">
-        <v>1.044504201614375</v>
+        <v>1.04596610616979</v>
       </c>
       <c r="JO2">
-        <v>1.045326636745013</v>
+        <v>1.046607777729809</v>
       </c>
       <c r="JP2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="JQ2">
-        <v>1.04532341092605</v>
+        <v>1.046578322390559</v>
       </c>
       <c r="JR2">
-        <v>1.0452812052989</v>
+        <v>1.046617037075296</v>
       </c>
       <c r="JS2">
-        <v>1.045299701576637</v>
+        <v>1.046617037075294</v>
       </c>
       <c r="JT2">
-        <v>1.044612247427015</v>
+        <v>1.046049199063608</v>
       </c>
       <c r="JU2">
-        <v>1.044524771023206</v>
+        <v>1.045977155049653</v>
       </c>
       <c r="JV2">
-        <v>1.044408052110838</v>
+        <v>1.045892911905317</v>
       </c>
       <c r="JW2">
-        <v>1.045324971795215</v>
+        <v>1.046606946278926</v>
       </c>
       <c r="JX2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="JY2">
-        <v>1.04532316702532</v>
+        <v>1.046577904197768</v>
       </c>
       <c r="JZ2">
-        <v>1.045299529392616</v>
+        <v>1.046617037075293</v>
       </c>
       <c r="KA2">
-        <v>1.044610445372182</v>
+        <v>1.046047814781235</v>
       </c>
       <c r="KB2">
-        <v>1.04452443843718</v>
+        <v>1.045976644405078</v>
       </c>
       <c r="KC2">
-        <v>1.044393064322698</v>
+        <v>1.045874986956159</v>
       </c>
       <c r="KD2">
-        <v>1.044390169111778</v>
+        <v>1.045881279646322</v>
       </c>
       <c r="KE2">
-        <v>1.045316132339398</v>
+        <v>1.046602531987597</v>
       </c>
       <c r="KF2">
-        <v>1.045343518462022</v>
+        <v>1.046612798822524</v>
       </c>
       <c r="KG2">
-        <v>1.045321453579617</v>
+        <v>1.046576135759437</v>
       </c>
       <c r="KH2">
-        <v>1.045323167025321</v>
+        <v>1.04657775995644</v>
       </c>
       <c r="KI2">
-        <v>1.045299355004626</v>
+        <v>1.046617037075293</v>
       </c>
       <c r="KJ2">
-        <v>1.044608839614584</v>
+        <v>1.046046581288279</v>
       </c>
       <c r="KK2">
-        <v>1.044523966024383</v>
+        <v>1.045975919073846</v>
       </c>
       <c r="KL2">
-        <v>1.044386165772424</v>
+        <v>1.045866736495494</v>
       </c>
       <c r="KM2">
-        <v>1.044315222370902</v>
+        <v>1.0458325293861</v>
       </c>
       <c r="KN2">
-        <v>1.045320666495243</v>
+        <v>1.046575323413778</v>
       </c>
       <c r="KO2">
-        <v>1.045323167025322</v>
+        <v>1.046577657871704</v>
       </c>
       <c r="KP2">
-        <v>1.04529916750228</v>
+        <v>1.046617037075293</v>
       </c>
       <c r="KQ2">
-        <v>1.044607591174448</v>
+        <v>1.046045622275461</v>
       </c>
       <c r="KR2">
-        <v>1.044521844159183</v>
+        <v>1.045972661213129</v>
       </c>
       <c r="KS2">
-        <v>1.044341099921593</v>
+        <v>1.045812839086774</v>
       </c>
       <c r="KT2">
-        <v>1.044298678750777</v>
+        <v>1.045821768322317</v>
       </c>
       <c r="KU2">
-        <v>1.045319334369381</v>
+        <v>1.046573948533657</v>
       </c>
       <c r="KV2">
-        <v>1.045323167025322</v>
+        <v>1.046577539075156</v>
       </c>
       <c r="KW2">
-        <v>1.045298080092748</v>
+        <v>1.046617037075293</v>
       </c>
       <c r="KX2">
-        <v>1.044606037179436</v>
+        <v>1.046044428544907</v>
       </c>
       <c r="KY2">
-        <v>1.044521435677634</v>
+        <v>1.045972034040403</v>
       </c>
       <c r="KZ2">
-        <v>1.044337733868631</v>
+        <v>1.045808813388643</v>
       </c>
       <c r="LA2">
-        <v>1.044293181645987</v>
+        <v>1.045818192641163</v>
       </c>
       <c r="LB2">
-        <v>1.045316777440353</v>
+        <v>1.046571309540608</v>
       </c>
       <c r="LC2">
-        <v>1.045323167025322</v>
+        <v>1.046577311855355</v>
       </c>
       <c r="LD2">
-        <v>1.04529348076188</v>
+        <v>1.046617037075293</v>
       </c>
       <c r="LE2">
-        <v>1.044604429895548</v>
+        <v>1.046043193879495</v>
       </c>
       <c r="LF2">
-        <v>1.044521133230633</v>
+        <v>1.045971569670565</v>
       </c>
       <c r="LG2">
-        <v>1.044333668265276</v>
+        <v>1.045806501577983</v>
       </c>
       <c r="LH2">
-        <v>1.044294513609491</v>
+        <v>1.045745558022368</v>
       </c>
       <c r="LI2">
-        <v>1.044290312544831</v>
+        <v>1.045816326387501</v>
       </c>
       <c r="LJ2">
-        <v>1.045309249410777</v>
+        <v>1.046563539900742</v>
       </c>
       <c r="LK2">
-        <v>1.045323167025322</v>
+        <v>1.046576440427903</v>
       </c>
       <c r="LL2">
-        <v>1.044602534017022</v>
+        <v>1.04604173752467</v>
       </c>
       <c r="LM2">
-        <v>1.044520784844478</v>
+        <v>1.045971034766858</v>
       </c>
       <c r="LN2">
-        <v>1.044312729184158</v>
+        <v>1.045794595056817</v>
       </c>
       <c r="LO2">
-        <v>1.044273772237561</v>
+        <v>1.045715201827594</v>
       </c>
       <c r="LP2">
-        <v>1.044287856505447</v>
+        <v>1.045814728816507</v>
       </c>
       <c r="LQ2">
-        <v>1.045323167025322</v>
+        <v>1.046573466576642</v>
       </c>
       <c r="LR2">
-        <v>1.044601453618611</v>
+        <v>1.046040907596264</v>
       </c>
       <c r="LS2">
-        <v>1.044520439250429</v>
+        <v>1.045970504150084</v>
       </c>
       <c r="LT2">
-        <v>1.044305418953852</v>
+        <v>1.045790438264341</v>
       </c>
       <c r="LU2">
-        <v>1.044261555091942</v>
+        <v>1.045666398184389</v>
       </c>
       <c r="LV2">
-        <v>1.044237446889569</v>
+        <v>1.045671251643852</v>
       </c>
       <c r="LW2">
-        <v>1.044285063201633</v>
+        <v>1.045812911866235</v>
       </c>
       <c r="LX2">
-        <v>1.044596572813298</v>
+        <v>1.046037158313644</v>
       </c>
       <c r="LY2">
-        <v>1.044517403168439</v>
+        <v>1.045965842622997</v>
       </c>
       <c r="LZ2">
-        <v>1.044289508712729</v>
+        <v>1.045781391275437</v>
       </c>
       <c r="MA2">
-        <v>1.044256716496807</v>
+        <v>1.045647069525782</v>
       </c>
       <c r="MB2">
-        <v>1.044228563547182</v>
+        <v>1.045662380468823</v>
       </c>
       <c r="MC2">
-        <v>1.044231489779079</v>
+        <v>1.045663907722067</v>
       </c>
       <c r="MD2">
-        <v>1.044282862559648</v>
+        <v>1.045811480422484</v>
       </c>
       <c r="ME2">
-        <v>1.044594673305268</v>
+        <v>1.046035699170732</v>
       </c>
       <c r="MF2">
-        <v>1.044511197010287</v>
+        <v>1.045956313837533</v>
       </c>
       <c r="MG2">
-        <v>1.044283531223099</v>
+        <v>1.045775829286483</v>
       </c>
       <c r="MH2">
-        <v>1.044286184843192</v>
+        <v>1.045780518958783</v>
       </c>
       <c r="MI2">
-        <v>1.044224097405645</v>
+        <v>1.045657920444482</v>
       </c>
       <c r="MJ2">
-        <v>1.044226386281306</v>
+        <v>1.045657616133657</v>
       </c>
       <c r="MK2">
-        <v>1.044281017553946</v>
+        <v>1.045810280308141</v>
       </c>
       <c r="ML2">
-        <v>1.044594013417971</v>
+        <v>1.046035192265861</v>
       </c>
       <c r="MM2">
-        <v>1.044274587095812</v>
+        <v>1.045767506873497</v>
       </c>
       <c r="MN2">
-        <v>1.044285722025905</v>
+        <v>1.045780397496967</v>
       </c>
       <c r="MO2">
-        <v>1.044223681787359</v>
+        <v>1.045657505395461</v>
       </c>
       <c r="MP2">
-        <v>1.044222796446719</v>
+        <v>1.04565319058825</v>
       </c>
       <c r="MQ2">
-        <v>1.044279352775396</v>
+        <v>1.045809197425472</v>
       </c>
       <c r="MR2">
-        <v>1.04459351628069</v>
+        <v>1.046034810380483</v>
       </c>
       <c r="MS2">
-        <v>1.044285219373794</v>
+        <v>1.045780265580895</v>
       </c>
       <c r="MT2">
-        <v>1.044223510142189</v>
+        <v>1.045657333985391</v>
       </c>
       <c r="MU2">
-        <v>1.044218260616313</v>
+        <v>1.045647598820032</v>
       </c>
       <c r="MV2">
-        <v>1.044277974946039</v>
+        <v>1.045808301193607</v>
       </c>
       <c r="MW2">
-        <v>1.044593152552334</v>
+        <v>1.046034530975686</v>
       </c>
       <c r="MX2">
-        <v>1.04428477908665</v>
+        <v>1.045780150031891</v>
       </c>
       <c r="MY2">
-        <v>1.044223389028729</v>
+        <v>1.045657213037818</v>
       </c>
       <c r="MZ2">
-        <v>1.044215418502731</v>
+        <v>1.045644095064677</v>
       </c>
       <c r="NA2">
-        <v>1.044276376582616</v>
+        <v>1.04580726151168</v>
       </c>
       <c r="NB2">
-        <v>1.044592967849017</v>
+        <v>1.046034389092349</v>
       </c>
       <c r="NC2">
-        <v>1.044284311281559</v>
+        <v>1.045780027261074</v>
       </c>
       <c r="ND2">
-        <v>1.044223265148478</v>
+        <v>1.045657089327244</v>
       </c>
       <c r="NE2">
-        <v>1.044211054132061</v>
+        <v>1.04563871467211</v>
       </c>
       <c r="NF2">
-        <v>1.044274619869741</v>
+        <v>1.045806118828686</v>
       </c>
       <c r="NG2">
-        <v>1.04459269629593</v>
+        <v>1.046034180493723</v>
       </c>
       <c r="NH2">
-        <v>1.044283643623569</v>
+        <v>1.045779852040841</v>
       </c>
       <c r="NI2">
-        <v>1.04422311897863</v>
+        <v>1.045656943357602</v>
       </c>
       <c r="NJ2">
-        <v>1.044206703366811</v>
+        <v>1.045633351052426</v>
       </c>
       <c r="NK2">
-        <v>1.044265042895558</v>
+        <v>1.045799889326329</v>
       </c>
       <c r="NL2">
-        <v>1.044592241084271</v>
+        <v>1.0460338308143</v>
       </c>
       <c r="NM2">
-        <v>1.044282831962889</v>
+        <v>1.045779639028527</v>
       </c>
       <c r="NN2">
-        <v>1.044222934595804</v>
+        <v>1.045656759227321</v>
       </c>
       <c r="NO2">
-        <v>1.044201821673252</v>
+        <v>1.045627332904932</v>
       </c>
       <c r="NP2">
-        <v>1.044194077073819</v>
+        <v>1.045753532171557</v>
       </c>
       <c r="NQ2">
-        <v>1.044263108693847</v>
+        <v>1.045798946646872</v>
       </c>
       <c r="NR2">
-        <v>1.044590210643572</v>
+        <v>1.046032271092974</v>
       </c>
       <c r="NS2">
-        <v>1.044277801030778</v>
+        <v>1.045778318710155</v>
       </c>
       <c r="NT2">
-        <v>1.044222769463038</v>
+        <v>1.045656594320735</v>
       </c>
       <c r="NU2">
-        <v>1.044198289108321</v>
+        <v>1.04562297796212</v>
       </c>
       <c r="NV2">
-        <v>1.044126108279374</v>
+        <v>1.045709132698875</v>
       </c>
       <c r="NW2">
-        <v>1.044251232435341</v>
+        <v>1.045793158468114</v>
       </c>
       <c r="NX2">
-        <v>1.044263108693839</v>
+        <v>1.045798946646878</v>
       </c>
       <c r="NY2">
-        <v>1.04458274680099</v>
+        <v>1.046026537601457</v>
       </c>
       <c r="NZ2">
-        <v>1.044260586536613</v>
+        <v>1.045773800936222</v>
       </c>
       <c r="OA2">
-        <v>1.044222638797637</v>
+        <v>1.045656463834303</v>
       </c>
       <c r="OB2">
-        <v>1.044194078615581</v>
+        <v>1.045617787270641</v>
       </c>
       <c r="OC2">
-        <v>1.044123082508288</v>
+        <v>1.045707156163117</v>
       </c>
       <c r="OD2">
-        <v>1.04424689195836</v>
+        <v>1.045791043032748</v>
       </c>
       <c r="OE2">
-        <v>1.044263108693797</v>
+        <v>1.045798946646915</v>
       </c>
       <c r="OF2">
-        <v>1.044222414544375</v>
+        <v>1.045656239888197</v>
       </c>
       <c r="OG2">
-        <v>1.0441879692563</v>
+        <v>1.045610255658499</v>
       </c>
       <c r="OH2">
-        <v>1.044106587589391</v>
+        <v>1.045677323388218</v>
       </c>
       <c r="OI2">
-        <v>1.044070417467416</v>
+        <v>1.045675973695263</v>
       </c>
       <c r="OJ2">
-        <v>1.04424645015469</v>
+        <v>1.045790827709152</v>
       </c>
       <c r="OK2">
-        <v>1.044263108693795</v>
+        <v>1.045798946646918</v>
       </c>
       <c r="OL2">
-        <v>1.044221631700426</v>
+        <v>1.045655458116493</v>
       </c>
       <c r="OM2">
-        <v>1.044183439913044</v>
+        <v>1.045604671888733</v>
       </c>
       <c r="ON2">
-        <v>1.044105076228934</v>
+        <v>1.045674589935889</v>
       </c>
       <c r="OO2">
-        <v>1.044045009619737</v>
+        <v>1.045660929935015</v>
       </c>
       <c r="OP2">
-        <v>1.044246141833528</v>
+        <v>1.045790677441451</v>
       </c>
       <c r="OQ2">
-        <v>1.044263108693794</v>
+        <v>1.045798946646919</v>
       </c>
       <c r="OR2">
-        <v>1.044216845682156</v>
+        <v>1.045650678653538</v>
       </c>
       <c r="OS2">
-        <v>1.044179070634584</v>
+        <v>1.045599285446822</v>
       </c>
       <c r="OT2">
-        <v>1.04410421705172</v>
+        <v>1.045673036024687</v>
       </c>
       <c r="OU2">
-        <v>1.043968358332295</v>
+        <v>1.045615545326656</v>
       </c>
       <c r="OV2">
-        <v>1.044045009619732</v>
+        <v>1.045660929935007</v>
       </c>
       <c r="OW2">
-        <v>1.044245822440198</v>
+        <v>1.045790521777465</v>
       </c>
       <c r="OX2">
-        <v>1.044263108693793</v>
+        <v>1.04579894664692</v>
       </c>
       <c r="OY2">
-        <v>1.044174794428481</v>
+        <v>1.045594013744543</v>
       </c>
       <c r="OZ2">
-        <v>1.044103633649749</v>
+        <v>1.04567198088165</v>
       </c>
       <c r="PA2">
-        <v>1.043859188508268</v>
+        <v>1.045550906589278</v>
       </c>
       <c r="PB2">
-        <v>1.044045009619731</v>
+        <v>1.045660929935005</v>
       </c>
       <c r="PC2">
-        <v>1.044244481174607</v>
+        <v>1.045789868079564</v>
       </c>
       <c r="PD2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646921</v>
       </c>
       <c r="PE2">
-        <v>1.044169651645869</v>
+        <v>1.045587673727846</v>
       </c>
       <c r="PF2">
-        <v>1.044102682858945</v>
+        <v>1.045670261277771</v>
       </c>
       <c r="PG2">
-        <v>1.043836343537104</v>
+        <v>1.045537380206864</v>
       </c>
       <c r="PH2">
-        <v>1.04404500961973</v>
+        <v>1.045660929935003</v>
       </c>
       <c r="PI2">
-        <v>1.044244153669013</v>
+        <v>1.045789708461871</v>
       </c>
       <c r="PJ2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646934</v>
       </c>
       <c r="PK2">
-        <v>1.044161038432535</v>
+        <v>1.04557705536842</v>
       </c>
       <c r="PL2">
-        <v>1.044169651645869</v>
+        <v>1.045587673727846</v>
       </c>
       <c r="PM2">
-        <v>1.044099522372218</v>
+        <v>1.045664545209459</v>
       </c>
       <c r="PN2">
-        <v>1.043830504631521</v>
+        <v>1.045533923021448</v>
       </c>
       <c r="PO2">
-        <v>1.04404500961973</v>
+        <v>1.045660929935001</v>
       </c>
       <c r="PP2">
-        <v>1.044243841264313</v>
+        <v>1.045789556203959</v>
       </c>
       <c r="PQ2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646939</v>
       </c>
       <c r="PR2">
-        <v>1.044131986714679</v>
+        <v>1.045541240448096</v>
       </c>
       <c r="PS2">
-        <v>1.044161038432535</v>
+        <v>1.04557705536842</v>
       </c>
       <c r="PT2">
-        <v>1.044096003759747</v>
+        <v>1.045658181433662</v>
       </c>
       <c r="PU2">
-        <v>1.043827445713891</v>
+        <v>1.045532111852117</v>
       </c>
       <c r="PV2">
-        <v>1.044045009619729</v>
+        <v>1.045660929935</v>
       </c>
       <c r="PW2">
-        <v>1.044243530558803</v>
+        <v>1.045789404774189</v>
       </c>
       <c r="PX2">
-        <v>1.044263108693793</v>
+        <v>1.04579894664694</v>
       </c>
       <c r="PY2">
-        <v>1.044090896088424</v>
+        <v>1.045490583987069</v>
       </c>
       <c r="PZ2">
-        <v>1.044131986714679</v>
+        <v>1.045541240448096</v>
       </c>
       <c r="QA2">
-        <v>1.044094024905934</v>
+        <v>1.04565460247123</v>
       </c>
       <c r="QB2">
-        <v>1.04382490990751</v>
+        <v>1.045530610414137</v>
       </c>
       <c r="QC2">
-        <v>1.044045009619728</v>
+        <v>1.045660929934999</v>
       </c>
       <c r="QD2">
-        <v>1.044243174139537</v>
+        <v>1.045789231064725</v>
       </c>
       <c r="QE2">
-        <v>1.044263108693794</v>
+        <v>1.045798946646943</v>
       </c>
       <c r="QF2">
-        <v>1.044061411231611</v>
+        <v>1.04545423510807</v>
       </c>
       <c r="QG2">
-        <v>1.044090896088424</v>
+        <v>1.045490583987069</v>
       </c>
       <c r="QH2">
-        <v>1.044092165982621</v>
+        <v>1.04565124041558</v>
       </c>
       <c r="QI2">
-        <v>1.043822854777881</v>
+        <v>1.045529393582326</v>
       </c>
       <c r="QJ2">
-        <v>1.044045009619728</v>
+        <v>1.045660929934997</v>
       </c>
       <c r="QK2">
-        <v>1.044241943266625</v>
+        <v>1.045788631169335</v>
       </c>
       <c r="QL2">
-        <v>1.044263108693794</v>
+        <v>1.045798946646944</v>
       </c>
       <c r="QM2">
-        <v>1.044052465536466</v>
+        <v>1.045443206872217</v>
       </c>
       <c r="QN2">
-        <v>1.044061411231611</v>
+        <v>1.04545423510807</v>
       </c>
       <c r="QO2">
-        <v>1.044090392416378</v>
+        <v>1.045648032737073</v>
       </c>
       <c r="QP2">
-        <v>1.043819713371301</v>
+        <v>1.045527533571316</v>
       </c>
       <c r="QQ2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934997</v>
       </c>
       <c r="QR2">
-        <v>1.044235944981439</v>
+        <v>1.045785707761374</v>
       </c>
       <c r="QS2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646946</v>
       </c>
       <c r="QT2">
-        <v>1.044028860032651</v>
+        <v>1.045418019696177</v>
       </c>
       <c r="QU2">
-        <v>1.044052465536466</v>
+        <v>1.045443206872217</v>
       </c>
       <c r="QV2">
-        <v>1.044047654255829</v>
+        <v>1.045430713772362</v>
       </c>
       <c r="QW2">
-        <v>1.044087480485225</v>
+        <v>1.045642766207608</v>
       </c>
       <c r="QX2">
-        <v>1.043816881441713</v>
+        <v>1.045525856799935</v>
       </c>
       <c r="QY2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934996</v>
       </c>
       <c r="QZ2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646949</v>
       </c>
       <c r="RA2">
-        <v>1.044002633220974</v>
+        <v>1.045390035574278</v>
       </c>
       <c r="RB2">
-        <v>1.044028860032651</v>
+        <v>1.045418019696177</v>
       </c>
       <c r="RC2">
-        <v>1.044028860032651</v>
+        <v>1.045418019696177</v>
       </c>
       <c r="RD2">
-        <v>1.04404695162795</v>
+        <v>1.045428889310083</v>
       </c>
       <c r="RE2">
-        <v>1.044085452269834</v>
+        <v>1.045639097969782</v>
       </c>
       <c r="RF2">
-        <v>1.043814186143349</v>
+        <v>1.045524260927099</v>
       </c>
       <c r="RG2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934996</v>
       </c>
       <c r="RH2">
-        <v>1.044263108693793</v>
+        <v>1.04579894664696</v>
       </c>
       <c r="RI2">
-        <v>1.043993022434474</v>
+        <v>1.045379780823662</v>
       </c>
       <c r="RJ2">
-        <v>1.044002633220974</v>
+        <v>1.045390035574278</v>
       </c>
       <c r="RK2">
-        <v>1.044046568503346</v>
+        <v>1.04542789447853</v>
       </c>
       <c r="RL2">
-        <v>1.044084027201051</v>
+        <v>1.045636520585154</v>
       </c>
       <c r="RM2">
-        <v>1.04381114972651</v>
+        <v>1.045522463079558</v>
       </c>
       <c r="RN2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934996</v>
       </c>
       <c r="RO2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646961</v>
       </c>
       <c r="RP2">
-        <v>1.043980476267433</v>
+        <v>1.045362035295574</v>
       </c>
       <c r="RQ2">
-        <v>1.043993022434474</v>
+        <v>1.045379780823662</v>
       </c>
       <c r="RR2">
-        <v>1.043950762454521</v>
+        <v>1.045358344515602</v>
       </c>
       <c r="RS2">
-        <v>1.04404630896648</v>
+        <v>1.045427220558188</v>
       </c>
       <c r="RT2">
-        <v>1.044083346294677</v>
+        <v>1.045635289095394</v>
       </c>
       <c r="RU2">
-        <v>1.043807942293583</v>
+        <v>1.045520563974064</v>
       </c>
       <c r="RV2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934995</v>
       </c>
       <c r="RW2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646961</v>
       </c>
       <c r="RX2">
-        <v>1.043962494659751</v>
+        <v>1.045336601784772</v>
       </c>
       <c r="RY2">
-        <v>1.043980476267433</v>
+        <v>1.045362035295574</v>
       </c>
       <c r="RZ2">
-        <v>1.043949970244434</v>
+        <v>1.045357553372145</v>
       </c>
       <c r="SA2">
-        <v>1.043939597698379</v>
+        <v>1.045355424388666</v>
       </c>
       <c r="SB2">
-        <v>1.044045914746645</v>
+        <v>1.04542619691647</v>
       </c>
       <c r="SC2">
-        <v>1.044082914959158</v>
+        <v>1.045634508980398</v>
       </c>
       <c r="SD2">
-        <v>1.04380092932847</v>
+        <v>1.045516411630816</v>
       </c>
       <c r="SE2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934994</v>
       </c>
       <c r="SF2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646961</v>
       </c>
       <c r="SG2">
-        <v>1.043951521094268</v>
+        <v>1.04532108057775</v>
       </c>
       <c r="SH2">
-        <v>1.043962494659751</v>
+        <v>1.045336601784772</v>
       </c>
       <c r="SI2">
-        <v>1.043949635396012</v>
+        <v>1.045357218974562</v>
       </c>
       <c r="SJ2">
-        <v>1.043932453526773</v>
+        <v>1.045353555840131</v>
       </c>
       <c r="SK2">
-        <v>1.044045316479137</v>
+        <v>1.045424643439134</v>
       </c>
       <c r="SL2">
-        <v>1.044082623323209</v>
+        <v>1.045633981526556</v>
       </c>
       <c r="SM2">
-        <v>1.043641873723596</v>
+        <v>1.04542223534813</v>
       </c>
       <c r="SN2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934993</v>
       </c>
       <c r="SO2">
-        <v>1.044263108693793</v>
+        <v>1.045798946646961</v>
       </c>
       <c r="SP2">
-        <v>1.043949631334908</v>
+        <v>1.04531840766853</v>
       </c>
       <c r="SQ2">
-        <v>1.043951521094268</v>
+        <v>1.04532108057775</v>
       </c>
       <c r="SR2">
-        <v>1.043949438645646</v>
+        <v>1.045357022489101</v>
       </c>
       <c r="SS2">
-        <v>1.044044892028105</v>
+        <v>1.045423541298292</v>
       </c>
       <c r="ST2">
-        <v>1.044082216526345</v>
+        <v>1.045633245792261</v>
       </c>
       <c r="SU2">
-        <v>1.043638149590661</v>
+        <v>1.045414618359729</v>
       </c>
       <c r="SV2">
-        <v>1.043617634538347</v>
+        <v>1.045408193153387</v>
       </c>
       <c r="SW2">
-        <v>1.044045009619727</v>
+        <v>1.045660929934992</v>
       </c>
       <c r="SX2">
-        <v>1.043945540020159</v>
+        <v>1.045312767462333</v>
       </c>
       <c r="SY2">
-        <v>1.043949631334908</v>
+        <v>1.04531840766853</v>
       </c>
       <c r="SZ2">
-        <v>1.043943454471983</v>
+        <v>1.045308768894883</v>
       </c>
       <c r="TA2">
-        <v>1.0439492575761</v>
+        <v>1.045356841663346</v>
       </c>
       <c r="TB2">
-        <v>1.044044602038124</v>
+        <v>1.045422788302592</v>
       </c>
       <c r="TC2">
-        <v>1.044081906055779</v>
+        <v>1.045632684274063</v>
       </c>
       <c r="TD2">
-        <v>1.043634865409887</v>
+        <v>1.045407901207902</v>
       </c>
       <c r="TE2">
-        <v>1.04360455819605</v>
+        <v>1.045400617789734</v>
       </c>
       <c r="TF2">
-        <v>1.044045009619726</v>
+        <v>1.045660929934991</v>
       </c>
       <c r="TG2">
-        <v>1.043942528325143</v>
+        <v>1.045308615598843</v>
       </c>
       <c r="TH2">
-        <v>1.043945540020159</v>
+        <v>1.045312767462333</v>
       </c>
       <c r="TI2">
-        <v>1.043939804436421</v>
+        <v>1.045303073145039</v>
       </c>
       <c r="TJ2">
-        <v>1.043949096258355</v>
+        <v>1.045356680562799</v>
       </c>
       <c r="TK2">
-        <v>1.04404437288913</v>
+        <v>1.045422193288221</v>
       </c>
       <c r="TL2">
-        <v>1.044079690469215</v>
+        <v>1.045628677156146</v>
       </c>
       <c r="TM2">
-        <v>1.043602605321518</v>
+        <v>1.045399486453648</v>
       </c>
       <c r="TN2">
-        <v>1.044045009619726</v>
+        <v>1.045660929934991</v>
       </c>
       <c r="TO2">
-        <v>1.043938427898748</v>
+        <v>1.04530296283188</v>
       </c>
       <c r="TP2">
-        <v>1.043942528325143</v>
+        <v>1.045308615598843</v>
       </c>
       <c r="TQ2">
-        <v>1.043936912344603</v>
+        <v>1.045298560139323</v>
       </c>
       <c r="TR2">
-        <v>1.043948928909522</v>
+        <v>1.045356513439283</v>
       </c>
       <c r="TS2">
-        <v>1.044043638176504</v>
+        <v>1.045420285513886</v>
       </c>
       <c r="TT2">
-        <v>1.044078404280157</v>
+        <v>1.045618402426469</v>
       </c>
       <c r="TU2">
-        <v>1.044060740857312</v>
+        <v>1.045617488071172</v>
       </c>
       <c r="TV2">
-        <v>1.043601114620893</v>
+        <v>1.045398622863351</v>
       </c>
       <c r="TW2">
-        <v>1.044045009619726</v>
+        <v>1.045660929934991</v>
       </c>
       <c r="TX2">
-        <v>1.043935526205459</v>
+        <v>1.045298962614865</v>
       </c>
       <c r="TY2">
-        <v>1.043938427898748</v>
+        <v>1.04530296283188</v>
       </c>
       <c r="TZ2">
-        <v>1.043935717310496</v>
+        <v>1.045296695331404</v>
       </c>
       <c r="UA2">
-        <v>1.043948423710407</v>
+        <v>1.045356008920366</v>
       </c>
       <c r="UB2">
-        <v>1.044037695444321</v>
+        <v>1.045404854457995</v>
       </c>
       <c r="UC2">
-        <v>1.044076984033635</v>
+        <v>1.045607056778468</v>
       </c>
       <c r="UD2">
-        <v>1.043599720430866</v>
+        <v>1.045397815183387</v>
       </c>
       <c r="UE2">
-        <v>1.044045009619726</v>
+        <v>1.04566092993499</v>
       </c>
       <c r="UF2">
-        <v>1.043927411489568</v>
+        <v>1.045287775828501</v>
       </c>
       <c r="UG2">
-        <v>1.043935526205459</v>
+        <v>1.045298962614865</v>
       </c>
       <c r="UH2">
-        <v>1.043935341288977</v>
+        <v>1.045296301022709</v>
       </c>
       <c r="UI2">
-        <v>1.043935717310496</v>
+        <v>1.045294163638891</v>
       </c>
       <c r="UJ2">
-        <v>1.043947914591084</v>
+        <v>1.045355500486519</v>
       </c>
       <c r="UK2">
-        <v>1.044037399502087</v>
+        <v>1.045404086006568</v>
       </c>
       <c r="UL2">
-        <v>1.044073134363488</v>
+        <v>1.045576303668185</v>
       </c>
       <c r="UM2">
-        <v>1.043598233701171</v>
+        <v>1.045396953893453</v>
       </c>
       <c r="UN2">
-        <v>1.044045009619726</v>
+        <v>1.04566092993499</v>
       </c>
       <c r="UO2">
-        <v>1.043921535638855</v>
+        <v>1.045279675497784</v>
       </c>
       <c r="UP2">
-        <v>1.043927411489568</v>
+        <v>1.045287775828501</v>
       </c>
       <c r="UQ2">
-        <v>1.043935202924439</v>
+        <v>1.045296155929042</v>
       </c>
       <c r="UR2">
-        <v>1.043935717310496</v>
+        <v>1.045292248399193</v>
       </c>
       <c r="US2">
-        <v>1.04394315757487</v>
+        <v>1.045350749875132</v>
       </c>
       <c r="UT2">
-        <v>1.044037165993333</v>
+        <v>1.045403479671568</v>
       </c>
       <c r="UU2">
-        <v>1.043596918126864</v>
+        <v>1.045396191756962</v>
       </c>
       <c r="UV2">
-        <v>1.044045009619726</v>
+        <v>1.04566092993499</v>
       </c>
       <c r="UW2">
-        <v>1.043921215827131</v>
+        <v>1.045278517641475</v>
       </c>
       <c r="UX2">
-        <v>1.043921535638855</v>
+        <v>1.045279675497784</v>
       </c>
       <c r="UY2">
-        <v>1.043906086881258</v>
+        <v>1.045269640791854</v>
       </c>
       <c r="UZ2">
-        <v>1.043934996820157</v>
+        <v>1.045295939801223</v>
       </c>
       <c r="VA2">
-        <v>1.044036902005346</v>
+        <v>1.045402794193386</v>
       </c>
       <c r="VB2">
-        <v>1.043595572527981</v>
+        <v>1.04539541222665</v>
       </c>
       <c r="VC2">
-        <v>1.043921140101588</v>
+        <v>1.045278243482365</v>
       </c>
       <c r="VD2">
-        <v>1.043921215827131</v>
+        <v>1.045278517641475</v>
       </c>
       <c r="VE2">
-        <v>1.043904133887257</v>
+        <v>1.045268372228949</v>
       </c>
       <c r="VF2">
-        <v>1.043934872802502</v>
+        <v>1.045295809752177</v>
       </c>
       <c r="VG2">
-        <v>1.044036667047681</v>
+        <v>1.045402184096105</v>
       </c>
       <c r="VH2">
-        <v>1.043588627508921</v>
+        <v>1.045391388848222</v>
       </c>
       <c r="VI2">
-        <v>1.043919087211456</v>
+        <v>1.045270811136001</v>
       </c>
       <c r="VJ2">
-        <v>1.043921140101588</v>
+        <v>1.045278243482365</v>
       </c>
       <c r="VK2">
-        <v>1.043921140101594</v>
+        <v>1.045278243482366</v>
       </c>
       <c r="VL2">
-        <v>1.043902692707224</v>
+        <v>1.045267436113664</v>
       </c>
       <c r="VM2">
-        <v>1.04393472315889</v>
+        <v>1.045295652830897</v>
       </c>
       <c r="VN2">
-        <v>1.044036396611416</v>
+        <v>1.045401481874158</v>
       </c>
       <c r="VO2">
-        <v>1.043582293774704</v>
+        <v>1.045384911817977</v>
       </c>
       <c r="VP2">
-        <v>1.043573910778758</v>
+        <v>1.045382979983446</v>
       </c>
       <c r="VQ2">
-        <v>1.043917648516602</v>
+        <v>1.045265602441627</v>
       </c>
       <c r="VR2">
-        <v>1.043919087211456</v>
+        <v>1.045270811136001</v>
       </c>
       <c r="VS2">
-        <v>1.043921140101596</v>
+        <v>1.045278243482366</v>
       </c>
       <c r="VT2">
-        <v>1.043901290428005</v>
+        <v>1.045266525266313</v>
       </c>
       <c r="VU2">
-        <v>1.043934591765449</v>
+        <v>1.045295515047356</v>
       </c>
       <c r="VV2">
-        <v>1.044036119322224</v>
+        <v>1.045400761857723</v>
       </c>
       <c r="VW2">
-        <v>1.043581928779872</v>
+        <v>1.045384538565407</v>
       </c>
       <c r="VX2">
-        <v>1.04350358423359</v>
+        <v>1.04534279665916</v>
       </c>
       <c r="VY2">
-        <v>1.043914765909453</v>
+        <v>1.04525811699965</v>
       </c>
       <c r="VZ2">
-        <v>1.043917648516602</v>
+        <v>1.045265252333109</v>
       </c>
       <c r="WA2">
-        <v>1.043921140101598</v>
+        <v>1.045278243482366</v>
       </c>
       <c r="WB2">
-        <v>1.043888117916299</v>
+        <v>1.045257969090479</v>
       </c>
       <c r="WC2">
-        <v>1.043933731970691</v>
+        <v>1.045294613437917</v>
       </c>
       <c r="WD2">
-        <v>1.044035786021714</v>
+        <v>1.04539989640082</v>
       </c>
       <c r="WE2">
-        <v>1.04358174546594</v>
+        <v>1.045384351104133</v>
       </c>
       <c r="WF2">
-        <v>1.043496999680143</v>
+        <v>1.045330845731717</v>
       </c>
       <c r="WG2">
-        <v>1.04342168941869</v>
+        <v>1.045296991388305</v>
       </c>
       <c r="WH2">
-        <v>1.043912195245138</v>
+        <v>1.045251441599388</v>
       </c>
       <c r="WI2">
-        <v>1.043914765909453</v>
+        <v>1.04525811699965</v>
       </c>
       <c r="WJ2">
-        <v>1.043914765909453</v>
+        <v>1.04525811699965</v>
       </c>
       <c r="WK2">
-        <v>1.043917648516603</v>
+        <v>1.045249664328298</v>
       </c>
       <c r="WL2">
-        <v>1.043917648516602</v>
+        <v>1.045265252333109</v>
       </c>
       <c r="WM2">
-        <v>1.043921140101599</v>
+        <v>1.045278243482367</v>
       </c>
       <c r="WN2">
-        <v>1.043881987311362</v>
+        <v>1.045253986969531</v>
       </c>
       <c r="WO2">
-        <v>1.043927392449659</v>
+        <v>1.04528796560488</v>
       </c>
       <c r="WP2">
-        <v>1.044035577066031</v>
+        <v>1.04539935382098</v>
       </c>
       <c r="WQ2">
-        <v>1.043581591747268</v>
+        <v>1.045384193907691</v>
       </c>
       <c r="WR2">
-        <v>1.043493524992245</v>
+        <v>1.045324539192886</v>
       </c>
       <c r="WS2">
-        <v>1.043343249061821</v>
+        <v>1.045253118153809</v>
       </c>
       <c r="WT2">
-        <v>1.043906587128392</v>
+        <v>1.045236878665985</v>
       </c>
       <c r="WU2">
-        <v>1.043912195245138</v>
+        <v>1.045251441599388</v>
       </c>
       <c r="WV2">
-        <v>1.043912195245138</v>
+        <v>1.045251441599388</v>
       </c>
       <c r="WW2">
-        <v>1.043917648516603</v>
+        <v>1.045245995383438</v>
       </c>
       <c r="WX2">
-        <v>1.0439211401016</v>
+        <v>1.045278243482367</v>
       </c>
       <c r="WY2">
-        <v>1.043879109969647</v>
+        <v>1.045252117998534</v>
       </c>
       <c r="WZ2">
-        <v>1.044034679044772</v>
+        <v>1.045397021995293</v>
       </c>
       <c r="XA2">
-        <v>1.04358146639507</v>
+        <v>1.045384065719493</v>
       </c>
       <c r="XB2">
-        <v>1.043338878416397</v>
+        <v>1.045249713175683</v>
       </c>
       <c r="XC2">
-        <v>1.04332197728644</v>
+        <v>1.045241395808767</v>
       </c>
       <c r="XD2">
-        <v>1.043898947583614</v>
+        <v>1.045217040602379</v>
       </c>
       <c r="XE2">
-        <v>1.043921140101601</v>
+        <v>1.045278243482368</v>
       </c>
       <c r="XF2">
-        <v>1.043877190738298</v>
+        <v>1.045250871366018</v>
       </c>
       <c r="XG2">
-        <v>1.044030893093777</v>
+        <v>1.045387191295283</v>
       </c>
       <c r="XH2">
-        <v>1.043581269628741</v>
+        <v>1.045383864501472</v>
       </c>
       <c r="XI2">
-        <v>1.043337806721964</v>
+        <v>1.045248878265559</v>
       </c>
       <c r="XJ2">
-        <v>1.043317083303206</v>
+        <v>1.045238698855552</v>
       </c>
       <c r="XK2">
-        <v>1.043896706819869</v>
+        <v>1.045211221877119</v>
       </c>
       <c r="XL2">
-        <v>1.043921140101601</v>
+        <v>1.045278243482368</v>
       </c>
       <c r="XM2">
-        <v>1.04387425659095</v>
+        <v>1.045248965497029</v>
       </c>
       <c r="XN2">
-        <v>1.043580800428053</v>
+        <v>1.045383384685468</v>
       </c>
       <c r="XO2">
-        <v>1.043337070819051</v>
+        <v>1.045248304955879</v>
       </c>
       <c r="XP2">
-        <v>1.043314654674823</v>
+        <v>1.04523736049832</v>
       </c>
       <c r="XQ2">
-        <v>1.043889290309647</v>
+        <v>1.045191962982019</v>
       </c>
       <c r="XR2">
-        <v>1.043921140101601</v>
+        <v>1.045278243482369</v>
       </c>
       <c r="XS2">
-        <v>1.043868526235929</v>
+        <v>1.045245243357434</v>
       </c>
       <c r="XT2">
-        <v>1.043580475817158</v>
+        <v>1.045383052730493</v>
       </c>
       <c r="XU2">
-        <v>1.043336050698308</v>
+        <v>1.045247510224552</v>
       </c>
       <c r="XV2">
-        <v>1.043311985802489</v>
+        <v>1.045235889748454</v>
       </c>
       <c r="XW2">
-        <v>1.043921140101602</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="XX2">
-        <v>1.043866942218784</v>
+        <v>1.045244214462548</v>
       </c>
       <c r="XY2">
-        <v>1.043580063076371</v>
+        <v>1.045382630651754</v>
       </c>
       <c r="XZ2">
-        <v>1.043333631687292</v>
+        <v>1.04524562567917</v>
       </c>
       <c r="YA2">
-        <v>1.043308906321767</v>
+        <v>1.045234192722261</v>
       </c>
       <c r="YB2">
-        <v>1.043921140101602</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="YC2">
-        <v>1.043866482353207</v>
+        <v>1.045243915757863</v>
       </c>
       <c r="YD2">
-        <v>1.043579812339857</v>
+        <v>1.045382374242513</v>
       </c>
       <c r="YE2">
-        <v>1.043331792840435</v>
+        <v>1.045244193114233</v>
       </c>
       <c r="YF2">
-        <v>1.043305793177022</v>
+        <v>1.045232477144491</v>
       </c>
       <c r="YG2">
-        <v>1.043921140101603</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="YH2">
-        <v>1.043866216407885</v>
+        <v>1.045243721420811</v>
       </c>
       <c r="YI2">
-        <v>1.043865776052437</v>
+        <v>1.045243571675809</v>
       </c>
       <c r="YJ2">
-        <v>1.043579585978261</v>
+        <v>1.045382142759655</v>
       </c>
       <c r="YK2">
-        <v>1.043330501997896</v>
+        <v>1.045243187475424</v>
       </c>
       <c r="YL2">
-        <v>1.043302341854579</v>
+        <v>1.045230575205089</v>
       </c>
       <c r="YM2">
-        <v>1.043921140101603</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="YN2">
-        <v>1.04386596750567</v>
+        <v>1.045243539537849</v>
       </c>
       <c r="YO2">
-        <v>1.043864844042181</v>
+        <v>1.045243117636939</v>
       </c>
       <c r="YP2">
-        <v>1.043579204211428</v>
+        <v>1.045381752355631</v>
       </c>
       <c r="YQ2">
-        <v>1.04332914972743</v>
+        <v>1.04524213398081</v>
       </c>
       <c r="YR2">
-        <v>1.043297322910141</v>
+        <v>1.045227809387181</v>
       </c>
       <c r="YS2">
-        <v>1.043921140101603</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="YT2">
-        <v>1.043865711104271</v>
+        <v>1.045243352174929</v>
       </c>
       <c r="YU2">
-        <v>1.043860972040499</v>
+        <v>1.045241231349455</v>
       </c>
       <c r="YV2">
-        <v>1.04357882888299</v>
+        <v>1.045381368535668</v>
       </c>
       <c r="YW2">
-        <v>1.043328039500015</v>
+        <v>1.045241269051319</v>
       </c>
       <c r="YX2">
-        <v>1.043294735248144</v>
+        <v>1.045216935692354</v>
       </c>
       <c r="YY2">
-        <v>1.043284565844392</v>
+        <v>1.045224584654555</v>
       </c>
       <c r="YZ2">
-        <v>1.043921140101603</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="ZA2">
-        <v>1.043863857264568</v>
+        <v>1.045241997498934</v>
       </c>
       <c r="ZB2">
-        <v>1.043859327694304</v>
+        <v>1.045240430288421</v>
       </c>
       <c r="ZC2">
-        <v>1.043578651298034</v>
+        <v>1.045381186932984</v>
       </c>
       <c r="ZD2">
-        <v>1.043326201269044</v>
+        <v>1.045239836966181</v>
       </c>
       <c r="ZE2">
-        <v>1.043293181357299</v>
+        <v>1.045210406039623</v>
       </c>
       <c r="ZF2">
-        <v>1.043203785445343</v>
+        <v>1.045204164927008</v>
       </c>
       <c r="ZG2">
-        <v>1.043921140101603</v>
+        <v>1.04527824348237</v>
       </c>
       <c r="ZH2">
-        <v>1.043850357398545</v>
+        <v>1.045232132598197</v>
       </c>
       <c r="ZI2">
-        <v>1.043578456245049</v>
+        <v>1.045380987467071</v>
       </c>
       <c r="ZJ2">
-        <v>1.043320260651395</v>
+        <v>1.045235208891462</v>
       </c>
       <c r="ZK2">
-        <v>1.043291739898656</v>
+        <v>1.045204348841885</v>
       </c>
       <c r="ZL2">
-        <v>1.043145963282114</v>
+        <v>1.045189548547438</v>
       </c>
       <c r="ZM2">
-        <v>1.043578269035945</v>
+        <v>1.0453807960225</v>
       </c>
       <c r="ZN2">
-        <v>1.043306379663062</v>
+        <v>1.04522439482199</v>
       </c>
       <c r="ZO2">
-        <v>1.043290333419973</v>
+        <v>1.045198438634666</v>
       </c>
       <c r="ZP2">
-        <v>1.043129470582518</v>
+        <v>1.045162069819356</v>
       </c>
       <c r="ZQ2">
-        <v>1.042985603529654</v>
+        <v>1.045156189645197</v>
       </c>
       <c r="ZR2">
-        <v>1.04357804326332</v>
+        <v>1.045380565141939</v>
       </c>
       <c r="ZS2">
-        <v>1.043289278466692</v>
+        <v>1.045194005583221</v>
       </c>
       <c r="ZT2">
-        <v>1.043128425873758</v>
+        <v>1.045160543035075</v>
       </c>
       <c r="ZU2">
-        <v>1.043128081755126</v>
+        <v>1.045159158944889</v>
       </c>
       <c r="ZV2">
-        <v>1.042883997572627</v>
+        <v>1.045131462044581</v>
       </c>
       <c r="ZW2">
-        <v>1.042957820642679</v>
+        <v>1.045150607742312</v>
       </c>
       <c r="ZX2">
-        <v>1.043577683127387</v>
+        <v>1.045380196858199</v>
       </c>
       <c r="ZY2">
-        <v>1.043287602603965</v>
+        <v>1.045186963389371</v>
       </c>
       <c r="ZZ2">
-        <v>1.043128098977883</v>
+        <v>1.045160065294769</v>
       </c>
       <c r="AAA2">
-        <v>1.043125252495452</v>
+        <v>1.045153229036186</v>
       </c>
       <c r="AAB2">
-        <v>1.042825134575723</v>
+        <v>1.045117136691841</v>
       </c>
       <c r="AAC2">
-        <v>1.042905722542972</v>
+        <v>1.045140140515773</v>
       </c>
       <c r="AAD2">
-        <v>1.043576697475376</v>
+        <v>1.045379188906546</v>
       </c>
       <c r="AAE2">
-        <v>1.043284777034417</v>
+        <v>1.045175089977929</v>
       </c>
       <c r="AAF2">
-        <v>1.043127888793302</v>
+        <v>1.045159758121587</v>
       </c>
       <c r="AAG2">
-        <v>1.042768296769065</v>
+        <v>1.045112529731885</v>
       </c>
       <c r="AAH2">
-        <v>1.042905722542974</v>
+        <v>1.045140140515772</v>
       </c>
       <c r="AAI2">
-        <v>1.043575385753473</v>
+        <v>1.045377847507916</v>
       </c>
       <c r="AAJ2">
-        <v>1.043263605206324</v>
+        <v>1.045086123216473</v>
       </c>
       <c r="AAK2">
-        <v>1.043127762015867</v>
+        <v>1.045159572843351</v>
       </c>
       <c r="AAL2">
-        <v>1.042652632696015</v>
+        <v>1.045083798678042</v>
       </c>
       <c r="AAM2">
-        <v>1.042707448557028</v>
+        <v>1.04510738568108</v>
       </c>
       <c r="AAN2">
-        <v>1.042905722542975</v>
+        <v>1.045140140515771</v>
       </c>
       <c r="AAO2">
-        <v>1.043575260816228</v>
+        <v>1.045377719744059</v>
       </c>
       <c r="AAP2">
-        <v>1.043246236451913</v>
+        <v>1.045013137487972</v>
       </c>
       <c r="AAQ2">
-        <v>1.043127633880362</v>
+        <v>1.045159385580372</v>
       </c>
       <c r="AAR2">
-        <v>1.042533255073095</v>
+        <v>1.045054145111095</v>
       </c>
       <c r="AAS2">
-        <v>1.04270093461527</v>
+        <v>1.045106834998455</v>
       </c>
       <c r="AAT2">
-        <v>1.042905722542975</v>
+        <v>1.04514014051577</v>
       </c>
       <c r="AAU2">
-        <v>1.043575162008749</v>
+        <v>1.045377618701134</v>
       </c>
       <c r="AAV2">
-        <v>1.043240733427299</v>
+        <v>1.04499001307913</v>
       </c>
       <c r="AAW2">
-        <v>1.043127519428396</v>
+        <v>1.045159218315132</v>
       </c>
       <c r="AAX2">
-        <v>1.042488517489978</v>
+        <v>1.045045319519836</v>
       </c>
       <c r="AAY2">
-        <v>1.042495068454906</v>
+        <v>1.045028545862794</v>
       </c>
       <c r="AAZ2">
-        <v>1.042698447502159</v>
+        <v>1.045106624740203</v>
       </c>
       <c r="ABA2">
-        <v>1.042905722542976</v>
+        <v>1.045140140515769</v>
       </c>
       <c r="ABB2">
-        <v>1.043575066043006</v>
+        <v>1.045377520564237</v>
       </c>
       <c r="ABC2">
-        <v>1.043235723626662</v>
+        <v>1.044968961262109</v>
       </c>
       <c r="ABD2">
-        <v>1.043127390480794</v>
+        <v>1.045159029865319</v>
       </c>
       <c r="ABE2">
-        <v>1.042427726158689</v>
+        <v>1.045033326918503</v>
       </c>
       <c r="ABF2">
-        <v>1.042489945995065</v>
+        <v>1.045025111907842</v>
       </c>
       <c r="ABG2">
-        <v>1.042695816628776</v>
+        <v>1.045106402328586</v>
       </c>
       <c r="ABH2">
-        <v>1.042905722542975</v>
+        <v>1.045140140515768</v>
       </c>
       <c r="ABI2">
-        <v>1.043574963253351</v>
+        <v>1.045377415449043</v>
       </c>
       <c r="ABJ2">
-        <v>1.043232995021168</v>
+        <v>1.044957495316901</v>
       </c>
       <c r="ABK2">
-        <v>1.043127287167703</v>
+        <v>1.04515887887893</v>
       </c>
       <c r="ABL2">
-        <v>1.042356551875738</v>
+        <v>1.04501928600361</v>
       </c>
       <c r="ABM2">
-        <v>1.042487254773545</v>
+        <v>1.045023307787591</v>
       </c>
       <c r="ABN2">
-        <v>1.04269363323218</v>
+        <v>1.045106217746244</v>
       </c>
       <c r="ABO2">
-        <v>1.042905722542975</v>
+        <v>1.045140140515766</v>
       </c>
       <c r="ABP2">
-        <v>1.043574868216553</v>
+        <v>1.045377318262109</v>
       </c>
       <c r="ABQ2">
-        <v>1.043230815802015</v>
+        <v>1.044948337962946</v>
       </c>
       <c r="ABR2">
-        <v>1.043127163243576</v>
+        <v>1.045158697770648</v>
       </c>
       <c r="ABS2">
-        <v>1.042299401877104</v>
+        <v>1.045008011716791</v>
       </c>
       <c r="ABT2">
-        <v>1.042476991001245</v>
+        <v>1.045013068911665</v>
       </c>
       <c r="ABU2">
-        <v>1.042487091273658</v>
+        <v>1.04502330778759</v>
       </c>
       <c r="ABV2">
-        <v>1.042691047553851</v>
+        <v>1.045105999155371</v>
       </c>
       <c r="ABW2">
-        <v>1.042905722542975</v>
+        <v>1.045140140515765</v>
       </c>
       <c r="ABX2">
-        <v>1.043574778654416</v>
+        <v>1.045377226673695</v>
       </c>
       <c r="ABY2">
-        <v>1.043228957547657</v>
+        <v>1.044940529343861</v>
       </c>
       <c r="ABZ2">
-        <v>1.043127029700506</v>
+        <v>1.045158502604811</v>
       </c>
       <c r="ACA2">
-        <v>1.042279928220831</v>
+        <v>1.045004645895482</v>
       </c>
       <c r="ACB2">
-        <v>1.042282945544301</v>
+        <v>1.045000287739006</v>
       </c>
       <c r="ACC2">
-        <v>1.04246864782609</v>
+        <v>1.045004745974175</v>
       </c>
       <c r="ACD2">
-        <v>1.042486973039741</v>
+        <v>1.045023307787589</v>
       </c>
       <c r="ACE2">
-        <v>1.042688525888989</v>
+        <v>1.045105785976134</v>
       </c>
       <c r="ACF2">
-        <v>1.042905722542975</v>
+        <v>1.045140140515763</v>
       </c>
       <c r="ACG2">
-        <v>1.043574654090621</v>
+        <v>1.045377099291738</v>
       </c>
       <c r="ACH2">
-        <v>1.04322677687316</v>
+        <v>1.044931365875032</v>
       </c>
       <c r="ACI2">
-        <v>1.04312678605814</v>
+        <v>1.045158146534922</v>
       </c>
       <c r="ACJ2">
-        <v>1.04225307972386</v>
+        <v>1.045000005406587</v>
       </c>
       <c r="ACK2">
-        <v>1.04226919020969</v>
+        <v>1.044993831506927</v>
       </c>
       <c r="ACL2">
-        <v>1.042486873260856</v>
+        <v>1.045023307787589</v>
       </c>
       <c r="ACM2">
-        <v>1.042685059139804</v>
+        <v>1.045105492900332</v>
       </c>
       <c r="ACN2">
-        <v>1.042905722542974</v>
+        <v>1.045140140515761</v>
       </c>
       <c r="ACO2">
-        <v>1.04357450144279</v>
+        <v>1.045376943190365</v>
       </c>
       <c r="ACP2">
-        <v>1.043224784304041</v>
+        <v>1.044922992849005</v>
       </c>
       <c r="ACQ2">
-        <v>1.04312496323297</v>
+        <v>1.045155482576412</v>
       </c>
       <c r="ACR2">
-        <v>1.042187031662379</v>
+        <v>1.044988589661975</v>
       </c>
       <c r="ACS2">
-        <v>1.042264364455833</v>
+        <v>1.044989135721847</v>
       </c>
       <c r="ACT2">
-        <v>1.042269002685203</v>
+        <v>1.044993831506928</v>
       </c>
       <c r="ACU2">
-        <v>1.042486704722777</v>
+        <v>1.045023307787588</v>
       </c>
       <c r="ACV2">
-        <v>1.042680290065168</v>
+        <v>1.045105089727119</v>
       </c>
       <c r="ACW2">
-        <v>1.042905722542974</v>
+        <v>1.045140140515761</v>
       </c>
       <c r="ACX2">
-        <v>1.043573777931676</v>
+        <v>1.045376203310355</v>
       </c>
       <c r="ACY2">
-        <v>1.043221693070634</v>
+        <v>1.044910003098061</v>
       </c>
       <c r="ACZ2">
-        <v>1.04311937719584</v>
+        <v>1.045147318891134</v>
       </c>
       <c r="ADA2">
-        <v>1.042133498831953</v>
+        <v>1.044979337038233</v>
       </c>
       <c r="ADB2">
-        <v>1.04225963573462</v>
+        <v>1.044984534356093</v>
       </c>
       <c r="ADC2">
-        <v>1.042268823387736</v>
+        <v>1.044993831506928</v>
       </c>
       <c r="ADD2">
-        <v>1.04248646870515</v>
+        <v>1.045023307787587</v>
       </c>
       <c r="ADE2">
-        <v>1.042675243033956</v>
+        <v>1.0451046630557</v>
       </c>
       <c r="ADF2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515759</v>
       </c>
       <c r="ADG2">
-        <v>1.043567591705969</v>
+        <v>1.045369877125939</v>
       </c>
       <c r="ADH2">
-        <v>1.043215452178076</v>
+        <v>1.044883778086055</v>
       </c>
       <c r="ADI2">
-        <v>1.042091669891206</v>
+        <v>1.044972107309829</v>
       </c>
       <c r="ADJ2">
-        <v>1.0422686300957</v>
+        <v>1.044993831506929</v>
       </c>
       <c r="ADK2">
-        <v>1.042486293574548</v>
+        <v>1.045023307787587</v>
       </c>
       <c r="ADL2">
-        <v>1.042671890429351</v>
+        <v>1.045104379629556</v>
       </c>
       <c r="ADM2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515759</v>
       </c>
       <c r="ADN2">
-        <v>1.043213813861075</v>
+        <v>1.044876869140584</v>
       </c>
       <c r="ADO2">
-        <v>1.043214105332915</v>
+        <v>1.044878264729115</v>
       </c>
       <c r="ADP2">
-        <v>1.042053864650538</v>
+        <v>1.044965573033839</v>
       </c>
       <c r="ADQ2">
-        <v>1.042268457500679</v>
+        <v>1.044993831506929</v>
       </c>
       <c r="ADR2">
-        <v>1.042486003463414</v>
+        <v>1.045023307787587</v>
       </c>
       <c r="ADS2">
-        <v>1.04266847828469</v>
+        <v>1.045104091169946</v>
       </c>
       <c r="ADT2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515759</v>
       </c>
       <c r="ADU2">
-        <v>1.043212385094086</v>
+        <v>1.044870843888492</v>
       </c>
       <c r="ADV2">
-        <v>1.043211950184771</v>
+        <v>1.044869442556409</v>
       </c>
       <c r="ADW2">
-        <v>1.042049858109896</v>
+        <v>1.04496517091935</v>
       </c>
       <c r="ADX2">
-        <v>1.042044880957716</v>
+        <v>1.044962911509549</v>
       </c>
       <c r="ADY2">
-        <v>1.042268266898242</v>
+        <v>1.04499383150693</v>
       </c>
       <c r="ADZ2">
-        <v>1.042483989796534</v>
+        <v>1.045023307787587</v>
       </c>
       <c r="AEA2">
-        <v>1.042666846791794</v>
+        <v>1.045103953245016</v>
       </c>
       <c r="AEB2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515759</v>
       </c>
       <c r="AEC2">
-        <v>1.043211203438744</v>
+        <v>1.044865860730839</v>
       </c>
       <c r="AED2">
-        <v>1.043210108821613</v>
+        <v>1.044861904873548</v>
       </c>
       <c r="AEE2">
-        <v>1.042045841043632</v>
+        <v>1.044964767748454</v>
       </c>
       <c r="AEF2">
-        <v>1.042030527271468</v>
+        <v>1.044958659056012</v>
       </c>
       <c r="AEG2">
-        <v>1.042044880957716</v>
+        <v>1.044962911509549</v>
       </c>
       <c r="AEH2">
-        <v>1.042268144010586</v>
+        <v>1.04499383150693</v>
       </c>
       <c r="AEI2">
-        <v>1.042479541854717</v>
+        <v>1.045023307787587</v>
       </c>
       <c r="AEJ2">
-        <v>1.042664251704631</v>
+        <v>1.045103733858699</v>
       </c>
       <c r="AEK2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515758</v>
       </c>
       <c r="AEL2">
-        <v>1.04321028452615</v>
+        <v>1.04486198558546</v>
       </c>
       <c r="AEM2">
-        <v>1.043209066682262</v>
+        <v>1.044857638840692</v>
       </c>
       <c r="AEN2">
-        <v>1.042041816180677</v>
+        <v>1.044964363795038</v>
       </c>
       <c r="AEO2">
-        <v>1.042018492192995</v>
+        <v>1.044955093517319</v>
       </c>
       <c r="AEP2">
-        <v>1.042030527271468</v>
+        <v>1.044958659056012</v>
       </c>
       <c r="AEQ2">
-        <v>1.042267955263543</v>
+        <v>1.04499383150693</v>
       </c>
       <c r="AER2">
-        <v>1.042661815494177</v>
+        <v>1.045103527903671</v>
       </c>
       <c r="AES2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515758</v>
       </c>
       <c r="AET2">
-        <v>1.043209349935169</v>
+        <v>1.044858044322839</v>
       </c>
       <c r="AEU2">
-        <v>1.042037815682755</v>
+        <v>1.044963962286999</v>
       </c>
       <c r="AEV2">
-        <v>1.042005554791239</v>
+        <v>1.044951260653529</v>
       </c>
       <c r="AEW2">
-        <v>1.042018492192995</v>
+        <v>1.044955093517319</v>
       </c>
       <c r="AEX2">
-        <v>1.042266402771372</v>
+        <v>1.04499383150693</v>
       </c>
       <c r="AEY2">
-        <v>1.042658334554576</v>
+        <v>1.045103233628182</v>
       </c>
       <c r="AEZ2">
-        <v>1.042905722542973</v>
+        <v>1.045140140515758</v>
       </c>
       <c r="AFA2">
-        <v>1.043208538876367</v>
+        <v>1.044854624007688</v>
       </c>
       <c r="AFB2">
-        <v>1.042033799981086</v>
+        <v>1.044963559253035</v>
       </c>
       <c r="AFC2">
-        <v>1.041994932727881</v>
+        <v>1.044948113736467</v>
       </c>
       <c r="AFD2">
-        <v>1.042005554791239</v>
+        <v>1.044951260653529</v>
       </c>
       <c r="AFE2">
-        <v>1.04226105218186</v>
+        <v>1.04499383150693</v>
       </c>
       <c r="AFF2">
-        <v>1.042621590876711</v>
+        <v>1.045100127350532</v>
       </c>
       <c r="AFG2">
-        <v>1.043207956361573</v>
+        <v>1.044852167485245</v>
       </c>
       <c r="AFH2">
-        <v>1.042029787008437</v>
+        <v>1.04496315649296</v>
       </c>
       <c r="AFI2">
-        <v>1.04198352877546</v>
+        <v>1.0449447351745</v>
       </c>
       <c r="AFJ2">
-        <v>1.041994932727881</v>
+        <v>1.044948113736467</v>
       </c>
       <c r="AFK2">
-        <v>1.042606894333549</v>
+        <v>1.04509888491776</v>
       </c>
       <c r="AFL2">
-        <v>1.043207280060829</v>
+        <v>1.04484931545822</v>
       </c>
       <c r="AFM2">
-        <v>1.042025771502095</v>
+        <v>1.044962753478584</v>
       </c>
       <c r="AFN2">
-        <v>1.041923360638602</v>
+        <v>1.044926909602032</v>
       </c>
       <c r="AFO2">
-        <v>1.041983528775461</v>
+        <v>1.044944735174499</v>
       </c>
       <c r="AFP2">
-        <v>1.04198352877546</v>
+        <v>1.0449447351745</v>
       </c>
       <c r="AFQ2">
-        <v>1.042599431455307</v>
+        <v>1.045098254012591</v>
       </c>
       <c r="AFR2">
-        <v>1.043206261204664</v>
+        <v>1.04484501884122</v>
       </c>
       <c r="AFS2">
-        <v>1.042023811406382</v>
+        <v>1.044962556754511</v>
       </c>
       <c r="AFT2">
-        <v>1.041914557865519</v>
+        <v>1.044924301668756</v>
       </c>
       <c r="AFU2">
-        <v>1.041983528775463</v>
+        <v>1.044944735174498</v>
       </c>
       <c r="AFV2">
-        <v>1.041983528775461</v>
+        <v>1.044944735174499</v>
       </c>
       <c r="AFW2">
-        <v>1.042597780064943</v>
+        <v>1.045098114405498</v>
       </c>
       <c r="AFX2">
-        <v>1.043204596599205</v>
+        <v>1.044837999035882</v>
       </c>
       <c r="AFY2">
-        <v>1.041979757985656</v>
+        <v>1.044958135353396</v>
       </c>
       <c r="AFZ2">
-        <v>1.041889758469409</v>
+        <v>1.044916954532455</v>
       </c>
       <c r="AGA2">
-        <v>1.041983528775465</v>
+        <v>1.044944735174496</v>
       </c>
       <c r="AGB2">
-        <v>1.041983528775463</v>
+        <v>1.044944735174498</v>
       </c>
       <c r="AGC2">
-        <v>1.042596479514069</v>
+        <v>1.045098004458067</v>
       </c>
       <c r="AGD2">
-        <v>1.043199070691442</v>
+        <v>1.044836113975854</v>
       </c>
       <c r="AGE2">
-        <v>1.043183742920859</v>
+        <v>1.044693024562029</v>
       </c>
       <c r="AGF2">
-        <v>1.041951110891664</v>
+        <v>1.044955260200581</v>
       </c>
       <c r="AGG2">
-        <v>1.041860637760379</v>
+        <v>1.044908327151556</v>
       </c>
       <c r="AGH2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174495</v>
       </c>
       <c r="AGI2">
-        <v>1.041983528775465</v>
+        <v>1.044944735174496</v>
       </c>
       <c r="AGJ2">
-        <v>1.042595086058979</v>
+        <v>1.045097886656594</v>
       </c>
       <c r="AGK2">
-        <v>1.041926056139717</v>
+        <v>1.044952745591232</v>
       </c>
       <c r="AGL2">
-        <v>1.041856860175827</v>
+        <v>1.044907207993969</v>
       </c>
       <c r="AGM2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174495</v>
       </c>
       <c r="AGN2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174495</v>
       </c>
       <c r="AGO2">
-        <v>1.042593971193122</v>
+        <v>1.04509779240681</v>
       </c>
       <c r="AGP2">
-        <v>1.041899775357469</v>
+        <v>1.044950107931541</v>
       </c>
       <c r="AGQ2">
-        <v>1.041855747779115</v>
+        <v>1.044906342321312</v>
       </c>
       <c r="AGR2">
-        <v>1.041848770934833</v>
+        <v>1.044906004240673</v>
       </c>
       <c r="AGS2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174494</v>
       </c>
       <c r="AGT2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174495</v>
       </c>
       <c r="AGU2">
-        <v>1.042592888704106</v>
+        <v>1.045097700894135</v>
       </c>
       <c r="AGV2">
-        <v>1.041854901363853</v>
+        <v>1.044945604171177</v>
       </c>
       <c r="AGW2">
-        <v>1.04185471844871</v>
+        <v>1.044905541291268</v>
       </c>
       <c r="AGX2">
-        <v>1.0418298399336</v>
+        <v>1.044903187133819</v>
       </c>
       <c r="AGY2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174494</v>
       </c>
       <c r="AGZ2">
-        <v>1.041983528775466</v>
+        <v>1.044944735174494</v>
       </c>
       <c r="AHA2">
-        <v>1.042591808960715</v>
+        <v>1.045097609613573</v>
       </c>
       <c r="AHB2">
-        <v>1.041843894742701</v>
+        <v>1.044944499495905</v>
       </c>
       <c r="AHC2">
-        <v>1.041853153261568</v>
+        <v>1.044904323254842</v>
       </c>
       <c r="AHD2">
-        <v>1.041784929943965</v>
+        <v>1.04489650411409</v>
       </c>
       <c r="AHE2">
-        <v>1.042590741850383</v>
+        <v>1.045097519400998</v>
       </c>
       <c r="AHF2">
-        <v>1.04183550111224</v>
+        <v>1.044943687075809</v>
       </c>
       <c r="AHG2">
-        <v>1.041829554497111</v>
+        <v>1.044942945458322</v>
       </c>
       <c r="AHH2">
-        <v>1.04185117529296</v>
+        <v>1.044902783989822</v>
       </c>
       <c r="AHI2">
-        <v>1.042571659701534</v>
+        <v>1.045095906212727</v>
       </c>
       <c r="AHJ2">
-        <v>1.041821719460159</v>
+        <v>1.044942353148637</v>
       </c>
       <c r="AHK2">
-        <v>1.041817392041385</v>
+        <v>1.044941627425406</v>
       </c>
       <c r="AHL2">
-        <v>1.041843475099626</v>
+        <v>1.044896791660999</v>
       </c>
       <c r="AHM2">
-        <v>1.042544248086769</v>
+        <v>1.045088310496479</v>
       </c>
       <c r="AHN2">
-        <v>1.042536729810895</v>
+        <v>1.045095906212727</v>
       </c>
       <c r="AHO2">
-        <v>1.041818994525228</v>
+        <v>1.044942089401963</v>
       </c>
       <c r="AHP2">
-        <v>1.041796949454359</v>
+        <v>1.044939412082763</v>
       </c>
       <c r="AHQ2">
-        <v>1.041829487193276</v>
+        <v>1.044885906202458</v>
       </c>
       <c r="AHR2">
-        <v>1.04252604364212</v>
+        <v>1.045083266072427</v>
       </c>
       <c r="AHS2">
-        <v>1.041816692013931</v>
+        <v>1.044941866541704</v>
       </c>
       <c r="AHT2">
-        <v>1.041814751695345</v>
+        <v>1.044941678738106</v>
       </c>
       <c r="AHU2">
-        <v>1.041812227664448</v>
+        <v>1.044941434436941</v>
       </c>
       <c r="AHV2">
-        <v>1.041807659561737</v>
+        <v>1.044940992289883</v>
       </c>
       <c r="AHW2">
-        <v>1.041799739289964</v>
+        <v>1.044940225686068</v>
       </c>
       <c r="AHX2">
-        <v>1.041734863946518</v>
+        <v>1.044933946394593</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1.049999952316284</v>
       </c>
       <c r="C3">
-        <v>1.049837878867968</v>
+        <v>1.049886734257127</v>
       </c>
       <c r="D3">
-        <v>1.049748014846335</v>
+        <v>1.049823661266404</v>
       </c>
       <c r="E3">
-        <v>1.049738593866747</v>
+        <v>1.049817048947543</v>
       </c>
       <c r="F3">
-        <v>1.049729767889575</v>
+        <v>1.049810854243636</v>
       </c>
       <c r="G3">
-        <v>1.049722072905964</v>
+        <v>1.049805453351828</v>
       </c>
       <c r="H3">
-        <v>1.049709950287587</v>
+        <v>1.049796944827554</v>
       </c>
       <c r="I3">
-        <v>1.048884463207251</v>
+        <v>1.049217556998495</v>
       </c>
       <c r="J3">
-        <v>1.048847491277432</v>
+        <v>1.049191607287457</v>
       </c>
       <c r="K3">
-        <v>1.048816718870929</v>
+        <v>1.049170008868026</v>
       </c>
       <c r="L3">
-        <v>1.048789713648011</v>
+        <v>1.049151054541193</v>
       </c>
       <c r="M3">
-        <v>1.048769562657462</v>
+        <v>1.049136911035489</v>
       </c>
       <c r="N3">
-        <v>1.048750645844398</v>
+        <v>1.049123633768065</v>
       </c>
       <c r="O3">
-        <v>1.048739013735825</v>
+        <v>1.049115469462992</v>
       </c>
       <c r="P3">
-        <v>1.048710055011663</v>
+        <v>1.049095144008585</v>
       </c>
       <c r="Q3">
-        <v>1.048475465865192</v>
+        <v>1.048930491194132</v>
       </c>
       <c r="R3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194133</v>
       </c>
       <c r="S3">
-        <v>1.048190988181872</v>
+        <v>1.048730822378218</v>
       </c>
       <c r="T3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194133</v>
       </c>
       <c r="U3">
-        <v>1.048171414453038</v>
+        <v>1.048717083980832</v>
       </c>
       <c r="V3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194133</v>
       </c>
       <c r="W3">
-        <v>1.048149435451071</v>
+        <v>1.048701657369473</v>
       </c>
       <c r="X3">
-        <v>1.048475465865189</v>
+        <v>1.048930491194134</v>
       </c>
       <c r="Y3">
-        <v>1.048113649213162</v>
+        <v>1.04867653973684</v>
       </c>
       <c r="Z3">
-        <v>1.048475465865189</v>
+        <v>1.048930491194134</v>
       </c>
       <c r="AA3">
-        <v>1.048048545460881</v>
+        <v>1.048630844720758</v>
       </c>
       <c r="AB3">
-        <v>1.048475465865189</v>
+        <v>1.048930491194134</v>
       </c>
       <c r="AC3">
-        <v>1.048001704804829</v>
+        <v>1.048610699916876</v>
       </c>
       <c r="AD3">
-        <v>1.047263390551967</v>
+        <v>1.04807142293262</v>
       </c>
       <c r="AE3">
-        <v>1.048475465865189</v>
+        <v>1.048930491194135</v>
       </c>
       <c r="AF3">
-        <v>1.047997474627291</v>
+        <v>1.048608533222076</v>
       </c>
       <c r="AG3">
-        <v>1.047993255628711</v>
+        <v>1.048607404661514</v>
       </c>
       <c r="AH3">
-        <v>1.047054372306796</v>
+        <v>1.047922497215405</v>
       </c>
       <c r="AI3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194137</v>
       </c>
       <c r="AJ3">
-        <v>1.047987787222396</v>
+        <v>1.048603571338081</v>
       </c>
       <c r="AK3">
-        <v>1.04799296949664</v>
+        <v>1.048607293067408</v>
       </c>
       <c r="AL3">
-        <v>1.047027911925943</v>
+        <v>1.047903832195991</v>
       </c>
       <c r="AM3">
-        <v>1.046436741617379</v>
+        <v>1.047482331267828</v>
       </c>
       <c r="AN3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194139</v>
       </c>
       <c r="AO3">
-        <v>1.047992558090471</v>
+        <v>1.048607132615266</v>
       </c>
       <c r="AP3">
-        <v>1.047027130887809</v>
+        <v>1.047902791678827</v>
       </c>
       <c r="AQ3">
-        <v>1.047023092194527</v>
+        <v>1.047902642966896</v>
       </c>
       <c r="AR3">
-        <v>1.046008152359812</v>
+        <v>1.047176888100246</v>
       </c>
       <c r="AS3">
-        <v>1.046436741617377</v>
+        <v>1.047482331267829</v>
       </c>
       <c r="AT3">
-        <v>1.04847546586519</v>
+        <v>1.048930491194139</v>
       </c>
       <c r="AU3">
-        <v>1.047992030490142</v>
+        <v>1.048606926846346</v>
       </c>
       <c r="AV3">
-        <v>1.047026778850551</v>
+        <v>1.047902322686607</v>
       </c>
       <c r="AW3">
-        <v>1.047011495008514</v>
+        <v>1.047899781456512</v>
       </c>
       <c r="AX3">
-        <v>1.045684288832008</v>
+        <v>1.046946079333823</v>
       </c>
       <c r="AY3">
-        <v>1.046436741617376</v>
+        <v>1.047482331267829</v>
       </c>
       <c r="AZ3">
-        <v>1.048475465865191</v>
+        <v>1.048930491194139</v>
       </c>
       <c r="BA3">
-        <v>1.047990745545712</v>
+        <v>1.048606425706345</v>
       </c>
       <c r="BB3">
-        <v>1.047026405766421</v>
+        <v>1.047901825655253</v>
       </c>
       <c r="BC3">
-        <v>1.045637594444328</v>
+        <v>1.046912801465677</v>
       </c>
       <c r="BD3">
-        <v>1.045684288832009</v>
+        <v>1.046946079333824</v>
       </c>
       <c r="BE3">
-        <v>1.046436741617375</v>
+        <v>1.04748233126783</v>
       </c>
       <c r="BF3">
-        <v>1.048475465865191</v>
+        <v>1.04893049119414</v>
       </c>
       <c r="BG3">
-        <v>1.047989645398686</v>
+        <v>1.04860599663901</v>
       </c>
       <c r="BH3">
-        <v>1.047026050429606</v>
+        <v>1.047901352267288</v>
       </c>
       <c r="BI3">
-        <v>1.045426081861614</v>
+        <v>1.046762061848893</v>
       </c>
       <c r="BJ3">
-        <v>1.045684288832009</v>
+        <v>1.046946079333824</v>
       </c>
       <c r="BK3">
-        <v>1.046436741617374</v>
+        <v>1.04748233126783</v>
       </c>
       <c r="BL3">
-        <v>1.048475465865191</v>
+        <v>1.048930491194142</v>
       </c>
       <c r="BM3">
-        <v>1.047984371688398</v>
+        <v>1.048603939844061</v>
       </c>
       <c r="BN3">
-        <v>1.047025837618</v>
+        <v>1.04790106875472</v>
       </c>
       <c r="BO3">
-        <v>1.045383950718841</v>
+        <v>1.046732545440324</v>
       </c>
       <c r="BP3">
-        <v>1.045392977117507</v>
+        <v>1.046719053104789</v>
       </c>
       <c r="BQ3">
-        <v>1.045684288832009</v>
+        <v>1.046946079333824</v>
       </c>
       <c r="BR3">
-        <v>1.046436741617373</v>
+        <v>1.047482331267831</v>
       </c>
       <c r="BS3">
-        <v>1.048475465865192</v>
+        <v>1.048930491194143</v>
       </c>
       <c r="BT3">
-        <v>1.047965730931642</v>
+        <v>1.048596669779193</v>
       </c>
       <c r="BU3">
-        <v>1.047025420097254</v>
+        <v>1.047900512523877</v>
       </c>
       <c r="BV3">
-        <v>1.044886189862182</v>
+        <v>1.046383821422921</v>
       </c>
       <c r="BW3">
-        <v>1.045387583346876</v>
+        <v>1.046713797545903</v>
       </c>
       <c r="BX3">
-        <v>1.045382189520511</v>
+        <v>1.046703286290868</v>
       </c>
       <c r="BY3">
-        <v>1.045684288832011</v>
+        <v>1.046946079333824</v>
       </c>
       <c r="BZ3">
-        <v>1.046436741617371</v>
+        <v>1.047482331267832</v>
       </c>
       <c r="CA3">
-        <v>1.048475465865193</v>
+        <v>1.048930491194147</v>
       </c>
       <c r="CB3">
-        <v>1.047023304086131</v>
+        <v>1.047897693524677</v>
       </c>
       <c r="CC3">
-        <v>1.044712684584956</v>
+        <v>1.046262265854883</v>
       </c>
       <c r="CD3">
-        <v>1.045684288832011</v>
+        <v>1.046946079333824</v>
       </c>
       <c r="CE3">
-        <v>1.046436741617364</v>
+        <v>1.047482331267835</v>
       </c>
       <c r="CF3">
-        <v>1.048475465865195</v>
+        <v>1.048930491194154</v>
       </c>
       <c r="CG3">
-        <v>1.047015330484845</v>
+        <v>1.047887070907819</v>
       </c>
       <c r="CH3">
-        <v>1.044674820142178</v>
+        <v>1.046235738492524</v>
       </c>
       <c r="CI3">
-        <v>1.045684288832011</v>
+        <v>1.046946079333825</v>
       </c>
       <c r="CJ3">
-        <v>1.046436741617351</v>
+        <v>1.047482331267841</v>
       </c>
       <c r="CK3">
-        <v>1.048475465865196</v>
+        <v>1.048930491194157</v>
       </c>
       <c r="CL3">
-        <v>1.044598037124095</v>
+        <v>1.046181945233276</v>
       </c>
       <c r="CM3">
-        <v>1.045684288832011</v>
+        <v>1.046946079333825</v>
       </c>
       <c r="CN3">
-        <v>1.046436741617347</v>
+        <v>1.047482331267842</v>
       </c>
       <c r="CO3">
-        <v>1.048475465865196</v>
+        <v>1.048930491194158</v>
       </c>
       <c r="CP3">
-        <v>1.044525627291078</v>
+        <v>1.046131215747576</v>
       </c>
       <c r="CQ3">
-        <v>1.046436741617347</v>
+        <v>1.047482331267842</v>
       </c>
       <c r="CR3">
-        <v>1.048475465865196</v>
+        <v>1.048930491194159</v>
       </c>
       <c r="CS3">
-        <v>1.044483540041867</v>
+        <v>1.046101729898749</v>
       </c>
       <c r="CT3">
-        <v>1.046436741617347</v>
+        <v>1.047482331267843</v>
       </c>
       <c r="CU3">
-        <v>1.048475465865197</v>
+        <v>1.048930491194159</v>
       </c>
       <c r="CV3">
-        <v>1.04445574457889</v>
+        <v>1.046082256708134</v>
       </c>
       <c r="CW3">
-        <v>1.046436741617347</v>
+        <v>1.047482331267843</v>
       </c>
       <c r="CX3">
-        <v>1.048475465865197</v>
+        <v>1.048930491194159</v>
       </c>
       <c r="CY3">
-        <v>1.044417366826727</v>
+        <v>1.046055369677594</v>
       </c>
       <c r="CZ3">
-        <v>1.046436741617338</v>
+        <v>1.047482331267843</v>
       </c>
       <c r="DA3">
-        <v>1.048475465865197</v>
+        <v>1.048930491194159</v>
       </c>
       <c r="DB3">
-        <v>1.044416750359978</v>
+        <v>1.04605512560024</v>
       </c>
       <c r="DC3">
-        <v>1.044395626965873</v>
+        <v>1.046039042401554</v>
       </c>
       <c r="DD3">
-        <v>1.046436741617338</v>
+        <v>1.047482331267843</v>
       </c>
       <c r="DE3">
-        <v>1.044416004520529</v>
+        <v>1.046054830300353</v>
       </c>
       <c r="DF3">
-        <v>1.044383299391734</v>
+        <v>1.046029784029213</v>
       </c>
       <c r="DG3">
-        <v>1.046436741617337</v>
+        <v>1.047482331267843</v>
       </c>
       <c r="DH3">
-        <v>1.044415140039794</v>
+        <v>1.046054488026783</v>
       </c>
       <c r="DI3">
-        <v>1.04389688911086</v>
+        <v>1.045664474992472</v>
       </c>
       <c r="DJ3">
-        <v>1.046436741617306</v>
+        <v>1.04748233126785</v>
       </c>
       <c r="DK3">
-        <v>1.044413821963911</v>
+        <v>1.046053966161246</v>
       </c>
       <c r="DL3">
-        <v>1.043848161704121</v>
+        <v>1.045627879156933</v>
       </c>
       <c r="DM3">
-        <v>1.046436741617279</v>
+        <v>1.047482331267855</v>
       </c>
       <c r="DN3">
-        <v>1.044412127400242</v>
+        <v>1.046053295232635</v>
       </c>
       <c r="DO3">
-        <v>1.043847133888922</v>
+        <v>1.045627413549796</v>
       </c>
       <c r="DP3">
-        <v>1.04371331724712</v>
+        <v>1.045523489154768</v>
       </c>
       <c r="DQ3">
-        <v>1.046436741617277</v>
+        <v>1.047482331267855</v>
       </c>
       <c r="DR3">
-        <v>1.044410910866456</v>
+        <v>1.046052813570167</v>
       </c>
       <c r="DS3">
-        <v>1.043847133888923</v>
+        <v>1.045627413549796</v>
       </c>
       <c r="DT3">
-        <v>1.043846633452123</v>
+        <v>1.045627186848537</v>
       </c>
       <c r="DU3">
-        <v>1.043470145882879</v>
+        <v>1.045335237198027</v>
       </c>
       <c r="DV3">
-        <v>1.046436741617275</v>
+        <v>1.047482331267856</v>
       </c>
       <c r="DW3">
-        <v>1.044409191914615</v>
+        <v>1.046052132984883</v>
       </c>
       <c r="DX3">
-        <v>1.043847133888923</v>
+        <v>1.045627413549797</v>
       </c>
       <c r="DY3">
-        <v>1.043844282569543</v>
+        <v>1.045626121882353</v>
       </c>
       <c r="DZ3">
-        <v>1.043360793108537</v>
+        <v>1.045250581138488</v>
       </c>
       <c r="EA3">
-        <v>1.046436741617274</v>
+        <v>1.047482331267857</v>
       </c>
       <c r="EB3">
-        <v>1.044407332134166</v>
+        <v>1.046051396640836</v>
       </c>
       <c r="EC3">
-        <v>1.043847133888924</v>
+        <v>1.045627413549798</v>
       </c>
       <c r="ED3">
-        <v>1.043834304640167</v>
+        <v>1.045620643468946</v>
       </c>
       <c r="EE3">
-        <v>1.043839060019158</v>
+        <v>1.045623895351919</v>
       </c>
       <c r="EF3">
-        <v>1.043328257807362</v>
+        <v>1.045225393726336</v>
       </c>
       <c r="EG3">
-        <v>1.04643674161727</v>
+        <v>1.047482331267858</v>
       </c>
       <c r="EH3">
-        <v>1.044405578213297</v>
+        <v>1.046050702209421</v>
       </c>
       <c r="EI3">
-        <v>1.043847133888924</v>
+        <v>1.045627413549798</v>
       </c>
       <c r="EJ3">
-        <v>1.043833445345445</v>
+        <v>1.045620171670478</v>
       </c>
       <c r="EK3">
-        <v>1.043835174728504</v>
+        <v>1.045622238933175</v>
       </c>
       <c r="EL3">
-        <v>1.043291531975393</v>
+        <v>1.045196962172741</v>
       </c>
       <c r="EM3">
-        <v>1.046436741617268</v>
+        <v>1.047482331267859</v>
       </c>
       <c r="EN3">
-        <v>1.044402694491218</v>
+        <v>1.046049560453948</v>
       </c>
       <c r="EO3">
-        <v>1.043847133888925</v>
+        <v>1.045627413549798</v>
       </c>
       <c r="EP3">
-        <v>1.04383260221409</v>
+        <v>1.045619708746557</v>
       </c>
       <c r="EQ3">
-        <v>1.043832572849964</v>
+        <v>1.045621129671297</v>
       </c>
       <c r="ER3">
-        <v>1.043256992084075</v>
+        <v>1.045170222865372</v>
       </c>
       <c r="ES3">
-        <v>1.046436741617268</v>
+        <v>1.047482331267859</v>
       </c>
       <c r="ET3">
-        <v>1.044388983085889</v>
+        <v>1.046044131666121</v>
       </c>
       <c r="EU3">
-        <v>1.043847133888926</v>
+        <v>1.045627413549799</v>
       </c>
       <c r="EV3">
-        <v>1.043831921421237</v>
+        <v>1.045619334955099</v>
       </c>
       <c r="EW3">
-        <v>1.04383071429574</v>
+        <v>1.045620391170106</v>
       </c>
       <c r="EX3">
-        <v>1.043818838587533</v>
+        <v>1.045614274378936</v>
       </c>
       <c r="EY3">
-        <v>1.043216690727542</v>
+        <v>1.045139023259962</v>
       </c>
       <c r="EZ3">
-        <v>1.046436741617268</v>
+        <v>1.047482331267858</v>
       </c>
       <c r="FA3">
-        <v>1.044385996141503</v>
+        <v>1.046042949035164</v>
       </c>
       <c r="FB3">
-        <v>1.043847133888927</v>
+        <v>1.045627413549799</v>
       </c>
       <c r="FC3">
-        <v>1.04383089960526</v>
+        <v>1.045618773923822</v>
       </c>
       <c r="FD3">
-        <v>1.043825785308683</v>
+        <v>1.045618432622507</v>
       </c>
       <c r="FE3">
-        <v>1.043818002632079</v>
+        <v>1.045613857121789</v>
       </c>
       <c r="FF3">
-        <v>1.043205094241729</v>
+        <v>1.045130045747612</v>
       </c>
       <c r="FG3">
-        <v>1.046436741617268</v>
+        <v>1.047482331267858</v>
       </c>
       <c r="FH3">
-        <v>1.044378143460759</v>
+        <v>1.046026120949928</v>
       </c>
       <c r="FI3">
-        <v>1.044374973463264</v>
+        <v>1.046039062592799</v>
       </c>
       <c r="FJ3">
-        <v>1.043847133888927</v>
+        <v>1.045627413549799</v>
       </c>
       <c r="FK3">
-        <v>1.043829667691938</v>
+        <v>1.045618097537935</v>
       </c>
       <c r="FL3">
-        <v>1.043824073205291</v>
+        <v>1.045617752312404</v>
       </c>
       <c r="FM3">
-        <v>1.043817238942498</v>
+        <v>1.045613475935287</v>
       </c>
       <c r="FN3">
-        <v>1.043139212919278</v>
+        <v>1.045079043163892</v>
       </c>
       <c r="FO3">
-        <v>1.046436741617268</v>
+        <v>1.047482331267858</v>
       </c>
       <c r="FP3">
-        <v>1.044376659956674</v>
+        <v>1.046022941840365</v>
       </c>
       <c r="FQ3">
-        <v>1.044360339796068</v>
+        <v>1.046033902942554</v>
       </c>
       <c r="FR3">
-        <v>1.043847133888927</v>
+        <v>1.045627413549799</v>
       </c>
       <c r="FS3">
-        <v>1.043828737006968</v>
+        <v>1.045617586542421</v>
       </c>
       <c r="FT3">
-        <v>1.043824073205298</v>
+        <v>1.045617752312398</v>
       </c>
       <c r="FU3">
-        <v>1.043795800522149</v>
+        <v>1.045606518031436</v>
       </c>
       <c r="FV3">
-        <v>1.043816921695358</v>
+        <v>1.045613317585178</v>
       </c>
       <c r="FW3">
-        <v>1.043102002882614</v>
+        <v>1.045050236676024</v>
       </c>
       <c r="FX3">
-        <v>1.044373599188849</v>
+        <v>1.046016382696905</v>
       </c>
       <c r="FY3">
-        <v>1.044358320819589</v>
+        <v>1.046033407665809</v>
       </c>
       <c r="FZ3">
-        <v>1.04434852461827</v>
+        <v>1.046024000505609</v>
       </c>
       <c r="GA3">
-        <v>1.043847133888928</v>
+        <v>1.0456274135498</v>
       </c>
       <c r="GB3">
-        <v>1.043827660042453</v>
+        <v>1.04561699523166</v>
       </c>
       <c r="GC3">
-        <v>1.043824073205299</v>
+        <v>1.045617752312398</v>
       </c>
       <c r="GD3">
-        <v>1.043792747045662</v>
+        <v>1.045605304718414</v>
       </c>
       <c r="GE3">
-        <v>1.043816237872897</v>
+        <v>1.045612976263389</v>
       </c>
       <c r="GF3">
-        <v>1.043074380908764</v>
+        <v>1.045028852863401</v>
       </c>
       <c r="GG3">
-        <v>1.044350375627775</v>
+        <v>1.046031458620372</v>
       </c>
       <c r="GH3">
-        <v>1.044299624110792</v>
+        <v>1.04598301642449</v>
       </c>
       <c r="GI3">
-        <v>1.043847133888928</v>
+        <v>1.0456274135498</v>
       </c>
       <c r="GJ3">
-        <v>1.043826647417913</v>
+        <v>1.045616439246964</v>
       </c>
       <c r="GK3">
-        <v>1.043824073205299</v>
+        <v>1.045617752312398</v>
       </c>
       <c r="GL3">
-        <v>1.0438240732053</v>
+        <v>1.045617752312397</v>
       </c>
       <c r="GM3">
-        <v>1.043789793493655</v>
+        <v>1.045604131110836</v>
       </c>
       <c r="GN3">
-        <v>1.04381449618534</v>
+        <v>1.045612106920907</v>
       </c>
       <c r="GO3">
-        <v>1.043049547512341</v>
+        <v>1.045009627846635</v>
       </c>
       <c r="GP3">
-        <v>1.044336189957463</v>
+        <v>1.046027978698948</v>
       </c>
       <c r="GQ3">
-        <v>1.044293998344406</v>
+        <v>1.04597909113173</v>
       </c>
       <c r="GR3">
-        <v>1.044297351812336</v>
+        <v>1.045980655559105</v>
       </c>
       <c r="GS3">
-        <v>1.043847133888928</v>
+        <v>1.045627413549801</v>
       </c>
       <c r="GT3">
-        <v>1.043825557893475</v>
+        <v>1.045615841040135</v>
       </c>
       <c r="GU3">
-        <v>1.043824073205299</v>
+        <v>1.045617752312398</v>
       </c>
       <c r="GV3">
-        <v>1.0438240732053</v>
+        <v>1.045617752312397</v>
       </c>
       <c r="GW3">
-        <v>1.04378743094807</v>
+        <v>1.04560319234239</v>
       </c>
       <c r="GX3">
-        <v>1.043813474346036</v>
+        <v>1.045611596882057</v>
       </c>
       <c r="GY3">
-        <v>1.043018697444887</v>
+        <v>1.044985744954894</v>
       </c>
       <c r="GZ3">
-        <v>1.044301433481279</v>
+        <v>1.046019304872007</v>
       </c>
       <c r="HA3">
-        <v>1.044334309143932</v>
+        <v>1.046027524824675</v>
       </c>
       <c r="HB3">
-        <v>1.044279775017146</v>
+        <v>1.045969167021732</v>
       </c>
       <c r="HC3">
-        <v>1.044297030620692</v>
+        <v>1.045980321848438</v>
       </c>
       <c r="HD3">
-        <v>1.043847133888927</v>
+        <v>1.0456274135498</v>
       </c>
       <c r="HE3">
-        <v>1.043823892337627</v>
+        <v>1.045614926561439</v>
       </c>
       <c r="HF3">
-        <v>1.0438240732053</v>
+        <v>1.045617752312397</v>
       </c>
       <c r="HG3">
-        <v>1.043785548994257</v>
+        <v>1.045602444539308</v>
       </c>
       <c r="HH3">
-        <v>1.043812758646351</v>
+        <v>1.045611239649129</v>
       </c>
       <c r="HI3">
-        <v>1.042961768952853</v>
+        <v>1.044941673157209</v>
       </c>
       <c r="HJ3">
-        <v>1.044187670948039</v>
+        <v>1.045990914282901</v>
       </c>
       <c r="HK3">
-        <v>1.044330914602329</v>
+        <v>1.046026705659575</v>
       </c>
       <c r="HL3">
-        <v>1.044296771588718</v>
+        <v>1.045980052720225</v>
       </c>
       <c r="HM3">
-        <v>1.043847133888927</v>
+        <v>1.0456274135498</v>
       </c>
       <c r="HN3">
-        <v>1.043819343883364</v>
+        <v>1.045612429218252</v>
       </c>
       <c r="HO3">
-        <v>1.0438240732053</v>
+        <v>1.045617752312397</v>
       </c>
       <c r="HP3">
-        <v>1.043781570242504</v>
+        <v>1.045600863563817</v>
       </c>
       <c r="HQ3">
-        <v>1.0438113819282</v>
+        <v>1.045610552476749</v>
       </c>
       <c r="HR3">
-        <v>1.042912136516405</v>
+        <v>1.044903249647025</v>
       </c>
       <c r="HS3">
-        <v>1.044138629840583</v>
+        <v>1.045978675575055</v>
       </c>
       <c r="HT3">
-        <v>1.044329702562999</v>
+        <v>1.04602641317199</v>
       </c>
       <c r="HU3">
-        <v>1.044296564583834</v>
+        <v>1.045979837646954</v>
       </c>
       <c r="HV3">
-        <v>1.043818956067507</v>
+        <v>1.045612216286728</v>
       </c>
       <c r="HW3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="HX3">
-        <v>1.043778436880699</v>
+        <v>1.045599618507934</v>
       </c>
       <c r="HY3">
-        <v>1.04381069668726</v>
+        <v>1.045610210446937</v>
       </c>
       <c r="HZ3">
-        <v>1.04287837431033</v>
+        <v>1.044877112237793</v>
       </c>
       <c r="IA3">
-        <v>1.044194438170505</v>
+        <v>1.045993771081819</v>
       </c>
       <c r="IB3">
-        <v>1.044329702562999</v>
+        <v>1.04602641317199</v>
       </c>
       <c r="IC3">
-        <v>1.0442962485889</v>
+        <v>1.045979509335546</v>
       </c>
       <c r="ID3">
-        <v>1.043818776938997</v>
+        <v>1.045612117935653</v>
       </c>
       <c r="IE3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="IF3">
-        <v>1.043776263424812</v>
+        <v>1.045598754875124</v>
       </c>
       <c r="IG3">
-        <v>1.04381021012388</v>
+        <v>1.045609967584651</v>
       </c>
       <c r="IH3">
-        <v>1.042856195474148</v>
+        <v>1.044859942223303</v>
       </c>
       <c r="II3">
-        <v>1.044174794827307</v>
+        <v>1.045989030736045</v>
       </c>
       <c r="IJ3">
-        <v>1.044295878179167</v>
+        <v>1.045979124488427</v>
       </c>
       <c r="IK3">
-        <v>1.043818585339371</v>
+        <v>1.045612012737273</v>
       </c>
       <c r="IL3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="IM3">
-        <v>1.04377409514673</v>
+        <v>1.045597893299732</v>
       </c>
       <c r="IN3">
-        <v>1.043804644046743</v>
+        <v>1.045607189343859</v>
       </c>
       <c r="IO3">
-        <v>1.042808462954845</v>
+        <v>1.044822989495802</v>
       </c>
       <c r="IP3">
-        <v>1.044118046783829</v>
+        <v>1.045977977637089</v>
       </c>
       <c r="IQ3">
-        <v>1.04417124825758</v>
+        <v>1.045985533492959</v>
       </c>
       <c r="IR3">
-        <v>1.044295309251818</v>
+        <v>1.045978533386108</v>
       </c>
       <c r="IS3">
-        <v>1.043818402257493</v>
+        <v>1.045611912215588</v>
       </c>
       <c r="IT3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="IU3">
-        <v>1.043770923052616</v>
+        <v>1.045596632853354</v>
       </c>
       <c r="IV3">
-        <v>1.043803002701736</v>
+        <v>1.045606370086133</v>
       </c>
       <c r="IW3">
-        <v>1.042798924129795</v>
+        <v>1.044813469063686</v>
       </c>
       <c r="IX3">
-        <v>1.042777287801665</v>
+        <v>1.044798950422542</v>
       </c>
       <c r="IY3">
-        <v>1.044293227365048</v>
+        <v>1.045976370354049</v>
       </c>
       <c r="IZ3">
-        <v>1.043818198296434</v>
+        <v>1.045611800230123</v>
       </c>
       <c r="JA3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="JB3">
-        <v>1.043758992649019</v>
+        <v>1.045591892251772</v>
       </c>
       <c r="JC3">
-        <v>1.043802635484124</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="JD3">
-        <v>1.042797605531192</v>
+        <v>1.044812153007628</v>
       </c>
       <c r="JE3">
-        <v>1.04266038610983</v>
+        <v>1.044708807751205</v>
       </c>
       <c r="JF3">
-        <v>1.044283094821126</v>
+        <v>1.045965842875977</v>
       </c>
       <c r="JG3">
-        <v>1.043817777292213</v>
+        <v>1.045611569076422</v>
       </c>
       <c r="JH3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="JI3">
-        <v>1.043756208081311</v>
+        <v>1.045590785790762</v>
       </c>
       <c r="JJ3">
-        <v>1.043798120914031</v>
+        <v>1.04560156734742</v>
       </c>
       <c r="JK3">
-        <v>1.043802472745293</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="JL3">
-        <v>1.04279699932296</v>
+        <v>1.044811547968297</v>
       </c>
       <c r="JM3">
-        <v>1.042654824960685</v>
+        <v>1.044705963276984</v>
       </c>
       <c r="JN3">
-        <v>1.042621454381486</v>
+        <v>1.044678700282657</v>
       </c>
       <c r="JO3">
-        <v>1.043817338819019</v>
+        <v>1.045611328331326</v>
       </c>
       <c r="JP3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="JQ3">
-        <v>1.043754932398326</v>
+        <v>1.045590278892154</v>
       </c>
       <c r="JR3">
-        <v>1.043793646818251</v>
+        <v>1.045596989315545</v>
       </c>
       <c r="JS3">
-        <v>1.043802281944256</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="JT3">
-        <v>1.042796279321305</v>
+        <v>1.044810829354963</v>
       </c>
       <c r="JU3">
-        <v>1.0426544207262</v>
+        <v>1.044705756514938</v>
       </c>
       <c r="JV3">
-        <v>1.042480327718984</v>
+        <v>1.044569561216399</v>
       </c>
       <c r="JW3">
-        <v>1.043815671461536</v>
+        <v>1.045610412863417</v>
       </c>
       <c r="JX3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="JY3">
-        <v>1.043754093733113</v>
+        <v>1.045589945644604</v>
       </c>
       <c r="JZ3">
-        <v>1.043802109513198</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="KA3">
-        <v>1.042795168444952</v>
+        <v>1.044809720620621</v>
       </c>
       <c r="KB3">
-        <v>1.042654087543492</v>
+        <v>1.04470558609519</v>
       </c>
       <c r="KC3">
-        <v>1.042443045738313</v>
+        <v>1.044543636700002</v>
       </c>
       <c r="KD3">
-        <v>1.042458727004591</v>
+        <v>1.044551972381541</v>
       </c>
       <c r="KE3">
-        <v>1.043806819222973</v>
+        <v>1.045605552513722</v>
       </c>
       <c r="KF3">
-        <v>1.043824073205301</v>
+        <v>1.045617752312396</v>
       </c>
       <c r="KG3">
-        <v>1.04374940316542</v>
+        <v>1.045587604521724</v>
       </c>
       <c r="KH3">
-        <v>1.04375394557399</v>
+        <v>1.045589945644603</v>
       </c>
       <c r="KI3">
-        <v>1.043801934875009</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="KJ3">
-        <v>1.042794178575987</v>
+        <v>1.044808732660339</v>
       </c>
       <c r="KK3">
-        <v>1.042653614283154</v>
+        <v>1.044705344027083</v>
       </c>
       <c r="KL3">
-        <v>1.042425885666854</v>
+        <v>1.044531704215823</v>
       </c>
       <c r="KM3">
-        <v>1.04236819956756</v>
+        <v>1.04447825846415</v>
       </c>
       <c r="KN3">
-        <v>1.043747248517341</v>
+        <v>1.045586529109046</v>
       </c>
       <c r="KO3">
-        <v>1.043753840716492</v>
+        <v>1.045589945644603</v>
       </c>
       <c r="KP3">
-        <v>1.043801747103646</v>
+        <v>1.045606186793854</v>
       </c>
       <c r="KQ3">
-        <v>1.042793408975301</v>
+        <v>1.044807964543611</v>
       </c>
       <c r="KR3">
-        <v>1.042651488611186</v>
+        <v>1.04470425676633</v>
       </c>
       <c r="KS3">
-        <v>1.042313784941602</v>
+        <v>1.044453753446164</v>
       </c>
       <c r="KT3">
-        <v>1.042348216703287</v>
+        <v>1.044461986974635</v>
       </c>
       <c r="KU3">
-        <v>1.043743601815039</v>
+        <v>1.045584708992825</v>
       </c>
       <c r="KV3">
-        <v>1.043753718693266</v>
+        <v>1.045589945644603</v>
       </c>
       <c r="KW3">
-        <v>1.043800658133975</v>
+        <v>1.045606186793853</v>
       </c>
       <c r="KX3">
-        <v>1.042792451015366</v>
+        <v>1.044807008430832</v>
       </c>
       <c r="KY3">
-        <v>1.042651079396794</v>
+        <v>1.044704047457106</v>
       </c>
       <c r="KZ3">
-        <v>1.042305411935464</v>
+        <v>1.044447931159416</v>
       </c>
       <c r="LA3">
-        <v>1.042341576809431</v>
+        <v>1.044456580293186</v>
       </c>
       <c r="LB3">
-        <v>1.043736602207072</v>
+        <v>1.045581215398027</v>
       </c>
       <c r="LC3">
-        <v>1.043753485301862</v>
+        <v>1.045589945644602</v>
       </c>
       <c r="LD3">
-        <v>1.043796052204303</v>
+        <v>1.045606186793853</v>
       </c>
       <c r="LE3">
-        <v>1.04279146020551</v>
+        <v>1.044806019531474</v>
       </c>
       <c r="LF3">
-        <v>1.042650776407183</v>
+        <v>1.044703892480835</v>
       </c>
       <c r="LG3">
-        <v>1.042300235027252</v>
+        <v>1.044445616336312</v>
       </c>
       <c r="LH3">
-        <v>1.042175519293708</v>
+        <v>1.044351781628636</v>
       </c>
       <c r="LI3">
-        <v>1.042338111253157</v>
+        <v>1.044453758386626</v>
       </c>
       <c r="LJ3">
-        <v>1.043715994183689</v>
+        <v>1.045570929666824</v>
       </c>
       <c r="LK3">
-        <v>1.043752590205237</v>
+        <v>1.045589945644599</v>
       </c>
       <c r="LL3">
-        <v>1.04279029149154</v>
+        <v>1.044804853071038</v>
       </c>
       <c r="LM3">
-        <v>1.042650427396</v>
+        <v>1.044703713964973</v>
       </c>
       <c r="LN3">
-        <v>1.042273572392105</v>
+        <v>1.044433694300152</v>
       </c>
       <c r="LO3">
-        <v>1.042113184004281</v>
+        <v>1.044305639580642</v>
       </c>
       <c r="LP3">
-        <v>1.042335144629845</v>
+        <v>1.04445134274727</v>
       </c>
       <c r="LQ3">
-        <v>1.043749535580073</v>
+        <v>1.045589945644589</v>
       </c>
       <c r="LR3">
-        <v>1.042789625480135</v>
+        <v>1.044804188343848</v>
       </c>
       <c r="LS3">
-        <v>1.042650081181933</v>
+        <v>1.044703536879808</v>
       </c>
       <c r="LT3">
-        <v>1.04226426396075</v>
+        <v>1.044429532091097</v>
       </c>
       <c r="LU3">
-        <v>1.042082577052719</v>
+        <v>1.044305639580353</v>
       </c>
       <c r="LV3">
-        <v>1.04200219285888</v>
+        <v>1.044216730575317</v>
       </c>
       <c r="LW3">
-        <v>1.042331770628615</v>
+        <v>1.044448595391226</v>
       </c>
       <c r="LX3">
-        <v>1.042786616708563</v>
+        <v>1.044801185373845</v>
       </c>
       <c r="LY3">
-        <v>1.042647039653017</v>
+        <v>1.044701981167021</v>
       </c>
       <c r="LZ3">
-        <v>1.042244004765282</v>
+        <v>1.044420473313364</v>
       </c>
       <c r="MA3">
-        <v>1.042070455183925</v>
+        <v>1.044305639580238</v>
       </c>
       <c r="MB3">
-        <v>1.041988393988269</v>
+        <v>1.04420784706034</v>
       </c>
       <c r="MC3">
-        <v>1.041983021362844</v>
+        <v>1.04420121562336</v>
       </c>
       <c r="MD3">
-        <v>1.042329112497243</v>
+        <v>1.044446430948158</v>
       </c>
       <c r="ME3">
-        <v>1.042785445757165</v>
+        <v>1.044800016680296</v>
       </c>
       <c r="MF3">
-        <v>1.042640822360621</v>
+        <v>1.044698801081716</v>
       </c>
       <c r="MG3">
-        <v>1.042238560023625</v>
+        <v>1.044414904076333</v>
       </c>
       <c r="MH3">
-        <v>1.042238752908913</v>
+        <v>1.044419599860229</v>
       </c>
       <c r="MI3">
-        <v>1.041981456542293</v>
+        <v>1.044203380832034</v>
       </c>
       <c r="MJ3">
-        <v>1.041966597014479</v>
+        <v>1.044187923859553</v>
       </c>
       <c r="MK3">
-        <v>1.042326883935111</v>
+        <v>1.044444616291418</v>
       </c>
       <c r="ML3">
-        <v>1.042785038969754</v>
+        <v>1.04479961067726</v>
       </c>
       <c r="MM3">
-        <v>1.042230413047952</v>
+        <v>1.044406570818037</v>
       </c>
       <c r="MN3">
-        <v>1.042238021637763</v>
+        <v>1.044419478240169</v>
       </c>
       <c r="MO3">
-        <v>1.041980810944888</v>
+        <v>1.044202965205673</v>
       </c>
       <c r="MP3">
-        <v>1.04195504402033</v>
+        <v>1.044178574345272</v>
       </c>
       <c r="MQ3">
-        <v>1.042324873067427</v>
+        <v>1.044442978897225</v>
       </c>
       <c r="MR3">
-        <v>1.042784732509562</v>
+        <v>1.044799304807989</v>
       </c>
       <c r="MS3">
-        <v>1.042237227425882</v>
+        <v>1.044419346152232</v>
       </c>
       <c r="MT3">
-        <v>1.04198054432121</v>
+        <v>1.044202793557168</v>
       </c>
       <c r="MU3">
-        <v>1.041940446575995</v>
+        <v>1.04416676104208</v>
       </c>
       <c r="MV3">
-        <v>1.04232320880255</v>
+        <v>1.044441623732125</v>
       </c>
       <c r="MW3">
-        <v>1.042784508289277</v>
+        <v>1.044799081020051</v>
       </c>
       <c r="MX3">
-        <v>1.042236531753326</v>
+        <v>1.044419230452688</v>
       </c>
       <c r="MY3">
-        <v>1.041980356190567</v>
+        <v>1.044202672441355</v>
       </c>
       <c r="MZ3">
-        <v>1.041931299940699</v>
+        <v>1.044159358925689</v>
       </c>
       <c r="NA3">
-        <v>1.042321278157051</v>
+        <v>1.044440051660575</v>
       </c>
       <c r="NB3">
-        <v>1.042784394428949</v>
+        <v>1.04479896737927</v>
       </c>
       <c r="NC3">
-        <v>1.042235792601233</v>
+        <v>1.044419107521921</v>
       </c>
       <c r="ND3">
-        <v>1.041980163762152</v>
+        <v>1.044202548558698</v>
       </c>
       <c r="NE3">
-        <v>1.041917254302533</v>
+        <v>1.044147992182531</v>
       </c>
       <c r="NF3">
-        <v>1.042319156243049</v>
+        <v>1.044438323844299</v>
       </c>
       <c r="NG3">
-        <v>1.042784227030094</v>
+        <v>1.044798800303197</v>
       </c>
       <c r="NH3">
-        <v>1.042234737672997</v>
+        <v>1.044418932073407</v>
       </c>
       <c r="NI3">
-        <v>1.041979936710367</v>
+        <v>1.04420240238601</v>
       </c>
       <c r="NJ3">
-        <v>1.041903252453334</v>
+        <v>1.044136660875816</v>
       </c>
       <c r="NK3">
-        <v>1.042307588323075</v>
+        <v>1.044428904404049</v>
       </c>
       <c r="NL3">
-        <v>1.042783946414942</v>
+        <v>1.044798520229133</v>
       </c>
       <c r="NM3">
-        <v>1.042233455214344</v>
+        <v>1.044418718783573</v>
       </c>
       <c r="NN3">
-        <v>1.041979650300751</v>
+        <v>1.044202217999602</v>
       </c>
       <c r="NO3">
-        <v>1.041887541948175</v>
+        <v>1.044123946800517</v>
       </c>
       <c r="NP3">
-        <v>1.042220416394913</v>
+        <v>1.044359684013333</v>
       </c>
       <c r="NQ3">
-        <v>1.042307588323055</v>
+        <v>1.044426072583211</v>
       </c>
       <c r="NR3">
-        <v>1.042782694750107</v>
+        <v>1.044797270977783</v>
       </c>
       <c r="NS3">
-        <v>1.042225506126109</v>
+        <v>1.044417396745053</v>
       </c>
       <c r="NT3">
-        <v>1.041979393793067</v>
+        <v>1.044202052863628</v>
       </c>
       <c r="NU3">
-        <v>1.041876173277406</v>
+        <v>1.044114746450563</v>
       </c>
       <c r="NV3">
-        <v>1.042136926001054</v>
+        <v>1.044293386929307</v>
       </c>
       <c r="NW3">
-        <v>1.042307588322904</v>
+        <v>1.044408684822816</v>
       </c>
       <c r="NX3">
-        <v>1.04230758832306</v>
+        <v>1.044426072583218</v>
       </c>
       <c r="NY3">
-        <v>1.042778093665529</v>
+        <v>1.04479267876511</v>
       </c>
       <c r="NZ3">
-        <v>1.042198306488937</v>
+        <v>1.044412873085234</v>
       </c>
       <c r="OA3">
-        <v>1.041979190824992</v>
+        <v>1.044201922195689</v>
       </c>
       <c r="OB3">
-        <v>1.041862622869532</v>
+        <v>1.044103780480635</v>
       </c>
       <c r="OC3">
-        <v>1.042133209256023</v>
+        <v>1.044290435577685</v>
       </c>
       <c r="OD3">
-        <v>1.042307588322849</v>
+        <v>1.044402330029164</v>
       </c>
       <c r="OE3">
-        <v>1.042307588323087</v>
+        <v>1.044426072583252</v>
       </c>
       <c r="OF3">
-        <v>1.041978842482951</v>
+        <v>1.044201697938071</v>
       </c>
       <c r="OG3">
-        <v>1.041842961444608</v>
+        <v>1.04408786903256</v>
       </c>
       <c r="OH3">
-        <v>1.042100552948398</v>
+        <v>1.044282421492826</v>
       </c>
       <c r="OI3">
-        <v>1.042070611774459</v>
+        <v>1.044237701409989</v>
       </c>
       <c r="OJ3">
-        <v>1.042307588322844</v>
+        <v>1.044401683194461</v>
       </c>
       <c r="OK3">
-        <v>1.042307588323089</v>
+        <v>1.044426072583255</v>
       </c>
       <c r="OL3">
-        <v>1.041977626458455</v>
+        <v>1.044200915078914</v>
       </c>
       <c r="OM3">
-        <v>1.04182838490515</v>
+        <v>1.044076072640879</v>
       </c>
       <c r="ON3">
-        <v>1.042097560787607</v>
+        <v>1.044281687195716</v>
       </c>
       <c r="OO3">
-        <v>1.042040412111771</v>
+        <v>1.044212260212712</v>
       </c>
       <c r="OP3">
-        <v>1.04230758832284</v>
+        <v>1.044401231788461</v>
       </c>
       <c r="OQ3">
-        <v>1.04230758832309</v>
+        <v>1.044426072583255</v>
       </c>
       <c r="OR3">
-        <v>1.041970192134659</v>
+        <v>1.044196128967667</v>
       </c>
       <c r="OS3">
-        <v>1.041814323496936</v>
+        <v>1.044064693129952</v>
       </c>
       <c r="OT3">
-        <v>1.042095859805989</v>
+        <v>1.044281269762969</v>
       </c>
       <c r="OU3">
-        <v>1.041949304768909</v>
+        <v>1.044135508315419</v>
       </c>
       <c r="OV3">
-        <v>1.042040412111765</v>
+        <v>1.044212260212712</v>
       </c>
       <c r="OW3">
-        <v>1.042307588322836</v>
+        <v>1.044400764171953</v>
       </c>
       <c r="OX3">
-        <v>1.042307588323091</v>
+        <v>1.044426072583256</v>
       </c>
       <c r="OY3">
-        <v>1.041800561621597</v>
+        <v>1.044053556022012</v>
       </c>
       <c r="OZ3">
-        <v>1.042094704798609</v>
+        <v>1.044280986316104</v>
       </c>
       <c r="PA3">
-        <v>1.041819546210379</v>
+        <v>1.044026195199978</v>
       </c>
       <c r="PB3">
-        <v>1.042040412111763</v>
+        <v>1.044212260212712</v>
       </c>
       <c r="PC3">
-        <v>1.042307588322821</v>
+        <v>1.04439880045552</v>
       </c>
       <c r="PD3">
-        <v>1.042307588323092</v>
+        <v>1.044426072583256</v>
       </c>
       <c r="PE3">
-        <v>1.041784010895703</v>
+        <v>1.044040161972919</v>
       </c>
       <c r="PF3">
-        <v>1.04209282244228</v>
+        <v>1.044280524372732</v>
       </c>
       <c r="PG3">
-        <v>1.041792392846268</v>
+        <v>1.044003320243701</v>
       </c>
       <c r="PH3">
-        <v>1.042040412111763</v>
+        <v>1.044212260212712</v>
       </c>
       <c r="PI3">
-        <v>1.042307588322818</v>
+        <v>1.044398320962033</v>
       </c>
       <c r="PJ3">
-        <v>1.042307588323105</v>
+        <v>1.044426072583261</v>
       </c>
       <c r="PK3">
-        <v>1.041756291489617</v>
+        <v>1.044017729414553</v>
       </c>
       <c r="PL3">
-        <v>1.041784010895703</v>
+        <v>1.044040161972919</v>
       </c>
       <c r="PM3">
-        <v>1.042086565374903</v>
+        <v>1.044278988844732</v>
       </c>
       <c r="PN3">
-        <v>1.041785452767485</v>
+        <v>1.043997473674287</v>
       </c>
       <c r="PO3">
-        <v>1.042040412111762</v>
+        <v>1.044212260212713</v>
       </c>
       <c r="PP3">
-        <v>1.042307588322814</v>
+        <v>1.044397863577421</v>
       </c>
       <c r="PQ3">
-        <v>1.04230758832311</v>
+        <v>1.044426072583263</v>
       </c>
       <c r="PR3">
-        <v>1.041662796122844</v>
+        <v>1.043942066145864</v>
       </c>
       <c r="PS3">
-        <v>1.041756291489617</v>
+        <v>1.044017729414553</v>
       </c>
       <c r="PT3">
-        <v>1.042079599297587</v>
+        <v>1.044277279320696</v>
       </c>
       <c r="PU3">
-        <v>1.041781816961456</v>
+        <v>1.043994410741687</v>
       </c>
       <c r="PV3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212714</v>
       </c>
       <c r="PW3">
-        <v>1.042307588322811</v>
+        <v>1.044397408680554</v>
       </c>
       <c r="PX3">
-        <v>1.042307588323111</v>
+        <v>1.044426072583264</v>
       </c>
       <c r="PY3">
-        <v>1.041530556925829</v>
+        <v>1.043835048487564</v>
       </c>
       <c r="PZ3">
-        <v>1.041662796122844</v>
+        <v>1.043942066145864</v>
       </c>
       <c r="QA3">
-        <v>1.042075681603165</v>
+        <v>1.044276317891095</v>
       </c>
       <c r="QB3">
-        <v>1.041778802921555</v>
+        <v>1.043991871606946</v>
       </c>
       <c r="QC3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212715</v>
       </c>
       <c r="QD3">
-        <v>1.042307588322807</v>
+        <v>1.044396886855218</v>
       </c>
       <c r="QE3">
-        <v>1.042307588323114</v>
+        <v>1.044426072583265</v>
       </c>
       <c r="QF3">
-        <v>1.041435667977799</v>
+        <v>1.043758257349377</v>
       </c>
       <c r="QG3">
-        <v>1.041530556925829</v>
+        <v>1.043835048487564</v>
       </c>
       <c r="QH3">
-        <v>1.042072001344741</v>
+        <v>1.044275414729934</v>
       </c>
       <c r="QI3">
-        <v>1.041776360210406</v>
+        <v>1.043989813779867</v>
       </c>
       <c r="QJ3">
-        <v>1.04204041211176</v>
+        <v>1.044212260212716</v>
       </c>
       <c r="QK3">
-        <v>1.042307588322793</v>
+        <v>1.044395084762205</v>
       </c>
       <c r="QL3">
-        <v>1.042307588323116</v>
+        <v>1.044426072583265</v>
       </c>
       <c r="QM3">
-        <v>1.041406878734598</v>
+        <v>1.043734958962754</v>
       </c>
       <c r="QN3">
-        <v>1.041435667977799</v>
+        <v>1.043758257349377</v>
       </c>
       <c r="QO3">
-        <v>1.042068490074538</v>
+        <v>1.044274553039651</v>
       </c>
       <c r="QP3">
-        <v>1.041772626359017</v>
+        <v>1.04398666825005</v>
       </c>
       <c r="QQ3">
-        <v>1.04204041211176</v>
+        <v>1.044212260212717</v>
       </c>
       <c r="QR3">
-        <v>1.042307588322727</v>
+        <v>1.044386302809481</v>
       </c>
       <c r="QS3">
-        <v>1.042307588323118</v>
+        <v>1.044426072583265</v>
       </c>
       <c r="QT3">
-        <v>1.041327573775095</v>
+        <v>1.043668877077111</v>
       </c>
       <c r="QU3">
-        <v>1.041406878734598</v>
+        <v>1.043734958962754</v>
       </c>
       <c r="QV3">
-        <v>1.041396990333892</v>
+        <v>1.043730146220298</v>
       </c>
       <c r="QW3">
-        <v>1.042062725092821</v>
+        <v>1.044273138272761</v>
       </c>
       <c r="QX3">
-        <v>1.041769260349702</v>
+        <v>1.043983832603429</v>
       </c>
       <c r="QY3">
-        <v>1.04204041211176</v>
+        <v>1.044212260212717</v>
       </c>
       <c r="QZ3">
-        <v>1.04230758832312</v>
+        <v>1.044426072583265</v>
       </c>
       <c r="RA3">
-        <v>1.041239462407027</v>
+        <v>1.043595457111988</v>
       </c>
       <c r="RB3">
-        <v>1.041327573775095</v>
+        <v>1.043668877077111</v>
       </c>
       <c r="RC3">
-        <v>1.041327573775095</v>
+        <v>1.043668877077111</v>
       </c>
       <c r="RD3">
-        <v>1.041395546255605</v>
+        <v>1.043729443378939</v>
       </c>
       <c r="RE3">
-        <v>1.042058709673543</v>
+        <v>1.044272152860726</v>
       </c>
       <c r="RF3">
-        <v>1.041766056739304</v>
+        <v>1.043981133767367</v>
       </c>
       <c r="RG3">
-        <v>1.04204041211176</v>
+        <v>1.044212260212718</v>
       </c>
       <c r="RH3">
-        <v>1.042307588323131</v>
+        <v>1.044426072583267</v>
       </c>
       <c r="RI3">
-        <v>1.041207174125946</v>
+        <v>1.043568552467192</v>
       </c>
       <c r="RJ3">
-        <v>1.041239462407027</v>
+        <v>1.043595457111988</v>
       </c>
       <c r="RK3">
-        <v>1.041394758837491</v>
+        <v>1.04372906013793</v>
       </c>
       <c r="RL3">
-        <v>1.042055888351591</v>
+        <v>1.044271460488535</v>
       </c>
       <c r="RM3">
-        <v>1.041762447678309</v>
+        <v>1.043978093365098</v>
       </c>
       <c r="RN3">
-        <v>1.04204041211176</v>
+        <v>1.044212260212718</v>
       </c>
       <c r="RO3">
-        <v>1.042307588323132</v>
+        <v>1.044426072583267</v>
       </c>
       <c r="RP3">
-        <v>1.041159066433386</v>
+        <v>1.043530552216829</v>
       </c>
       <c r="RQ3">
-        <v>1.041207174125946</v>
+        <v>1.043568552467192</v>
       </c>
       <c r="RR3">
-        <v>1.041097531713856</v>
+        <v>1.043465869713273</v>
       </c>
       <c r="RS3">
-        <v>1.041394225423484</v>
+        <v>1.043728800522208</v>
       </c>
       <c r="RT3">
-        <v>1.042054540307122</v>
+        <v>1.044271129668966</v>
       </c>
       <c r="RU3">
-        <v>1.041758635349101</v>
+        <v>1.043974881722276</v>
       </c>
       <c r="RV3">
-        <v>1.042040412111761</v>
+        <v>1.04421226021272</v>
       </c>
       <c r="RW3">
-        <v>1.042307588323132</v>
+        <v>1.044426072583267</v>
       </c>
       <c r="RX3">
-        <v>1.041090116870389</v>
+        <v>1.043476088963386</v>
       </c>
       <c r="RY3">
-        <v>1.041159066433386</v>
+        <v>1.043530552216829</v>
       </c>
       <c r="RZ3">
-        <v>1.041092122119865</v>
+        <v>1.043465114875344</v>
       </c>
       <c r="SA3">
-        <v>1.04109220063416</v>
+        <v>1.043430496876938</v>
       </c>
       <c r="SB3">
-        <v>1.041393415201863</v>
+        <v>1.043728406182598</v>
       </c>
       <c r="SC3">
-        <v>1.042053686357915</v>
+        <v>1.044270920103839</v>
       </c>
       <c r="SD3">
-        <v>1.041750299795231</v>
+        <v>1.043967859552346</v>
       </c>
       <c r="SE3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212721</v>
       </c>
       <c r="SF3">
-        <v>1.042307588323133</v>
+        <v>1.044426072583267</v>
       </c>
       <c r="SG3">
-        <v>1.041048039332321</v>
+        <v>1.043442851910369</v>
       </c>
       <c r="SH3">
-        <v>1.041090116870389</v>
+        <v>1.043476088963386</v>
       </c>
       <c r="SI3">
-        <v>1.041089835612777</v>
+        <v>1.043464795823247</v>
       </c>
       <c r="SJ3">
-        <v>1.041088789350587</v>
+        <v>1.043407862295259</v>
       </c>
       <c r="SK3">
-        <v>1.041392185610587</v>
+        <v>1.043727807733318</v>
       </c>
       <c r="SL3">
-        <v>1.04205310898305</v>
+        <v>1.044270778411995</v>
       </c>
       <c r="SM3">
-        <v>1.041561247788331</v>
+        <v>1.0438085951817</v>
       </c>
       <c r="SN3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212722</v>
       </c>
       <c r="SO3">
-        <v>1.042307588323133</v>
+        <v>1.044426072583267</v>
       </c>
       <c r="SP3">
-        <v>1.041040793156412</v>
+        <v>1.043437128154306</v>
       </c>
       <c r="SQ3">
-        <v>1.041048039332321</v>
+        <v>1.043442851910369</v>
       </c>
       <c r="SR3">
-        <v>1.041088492106069</v>
+        <v>1.043464608354492</v>
       </c>
       <c r="SS3">
-        <v>1.041391313256202</v>
+        <v>1.043727383153324</v>
       </c>
       <c r="ST3">
-        <v>1.04205230361497</v>
+        <v>1.044270580769016</v>
       </c>
       <c r="SU3">
-        <v>1.041445636543162</v>
+        <v>1.043778805460805</v>
       </c>
       <c r="SV3">
-        <v>1.041538801617558</v>
+        <v>1.043785815903979</v>
       </c>
       <c r="SW3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212722</v>
       </c>
       <c r="SX3">
-        <v>1.041022765829738</v>
+        <v>1.043431427578899</v>
       </c>
       <c r="SY3">
-        <v>1.041040793156412</v>
+        <v>1.043437128154306</v>
       </c>
       <c r="SZ3">
-        <v>1.041031501863791</v>
+        <v>1.043377250442778</v>
       </c>
       <c r="TA3">
-        <v>1.041087255675586</v>
+        <v>1.043464435826819</v>
       </c>
       <c r="TB3">
-        <v>1.041390717253336</v>
+        <v>1.043727093075235</v>
       </c>
       <c r="TC3">
-        <v>1.042051688951719</v>
+        <v>1.04427042992634</v>
       </c>
       <c r="TD3">
-        <v>1.04134368314607</v>
+        <v>1.043752534965935</v>
       </c>
       <c r="TE3">
-        <v>1.041526692553832</v>
+        <v>1.043773527138812</v>
       </c>
       <c r="TF3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212723</v>
       </c>
       <c r="TG3">
-        <v>1.041009495573821</v>
+        <v>1.043427231276486</v>
       </c>
       <c r="TH3">
-        <v>1.041022765829738</v>
+        <v>1.043431427578899</v>
       </c>
       <c r="TI3">
-        <v>1.041026011447633</v>
+        <v>1.043341867477878</v>
       </c>
       <c r="TJ3">
-        <v>1.041086154119971</v>
+        <v>1.043464282119167</v>
       </c>
       <c r="TK3">
-        <v>1.04139024629411</v>
+        <v>1.043726863856619</v>
       </c>
       <c r="TL3">
-        <v>1.042047302578966</v>
+        <v>1.044269353479668</v>
       </c>
       <c r="TM3">
-        <v>1.041524884136579</v>
+        <v>1.04377169188422</v>
       </c>
       <c r="TN3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212723</v>
       </c>
       <c r="TO3">
-        <v>1.04099142810977</v>
+        <v>1.043421518005888</v>
       </c>
       <c r="TP3">
-        <v>1.041009495573821</v>
+        <v>1.043427231276486</v>
       </c>
       <c r="TQ3">
-        <v>1.041021661137278</v>
+        <v>1.043313831924465</v>
       </c>
       <c r="TR3">
-        <v>1.041085011381173</v>
+        <v>1.04346412266494</v>
       </c>
       <c r="TS3">
-        <v>1.041388736273566</v>
+        <v>1.043726128920764</v>
       </c>
       <c r="TT3">
-        <v>1.042042147688294</v>
+        <v>1.04426684428353</v>
       </c>
       <c r="TU3">
-        <v>1.04201736191275</v>
+        <v>1.044265618956083</v>
       </c>
       <c r="TV3">
-        <v>1.04152350370547</v>
+        <v>1.04377029096719</v>
       </c>
       <c r="TW3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212723</v>
       </c>
       <c r="TX3">
-        <v>1.040978642555589</v>
+        <v>1.043417474973091</v>
       </c>
       <c r="TY3">
-        <v>1.04099142810977</v>
+        <v>1.043421518005888</v>
       </c>
       <c r="TZ3">
-        <v>1.041019863556306</v>
+        <v>1.043302247423932</v>
       </c>
       <c r="UA3">
-        <v>1.04108156163724</v>
+        <v>1.043463641298368</v>
       </c>
       <c r="UB3">
-        <v>1.041376522453926</v>
+        <v>1.043720184383004</v>
       </c>
       <c r="UC3">
-        <v>1.0420364555116</v>
+        <v>1.044264073557842</v>
       </c>
       <c r="UD3">
-        <v>1.041522212645908</v>
+        <v>1.043768980748003</v>
       </c>
       <c r="UE3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212723</v>
       </c>
       <c r="UF3">
-        <v>1.04094288719432</v>
+        <v>1.043406168450496</v>
       </c>
       <c r="UG3">
-        <v>1.040978642555589</v>
+        <v>1.043417474973091</v>
       </c>
       <c r="UH3">
-        <v>1.041019297941383</v>
+        <v>1.043299180809636</v>
       </c>
       <c r="UI3">
-        <v>1.041019863556306</v>
+        <v>1.043294637750958</v>
       </c>
       <c r="UJ3">
-        <v>1.041078085124287</v>
+        <v>1.043463156196522</v>
       </c>
       <c r="UK3">
-        <v>1.041375914217697</v>
+        <v>1.043719888350854</v>
       </c>
       <c r="UL3">
-        <v>1.042021026498833</v>
+        <v>1.044256563326587</v>
       </c>
       <c r="UM3">
-        <v>1.041520835891975</v>
+        <v>1.043767583562723</v>
       </c>
       <c r="UN3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212724</v>
       </c>
       <c r="UO3">
-        <v>1.040916996818764</v>
+        <v>1.043397981419028</v>
       </c>
       <c r="UP3">
-        <v>1.04094288719432</v>
+        <v>1.043406168450496</v>
       </c>
       <c r="UQ3">
-        <v>1.041019089812209</v>
+        <v>1.043298052388397</v>
       </c>
       <c r="UR3">
-        <v>1.041019863556306</v>
+        <v>1.043288880990479</v>
       </c>
       <c r="US3">
-        <v>1.041045601919851</v>
+        <v>1.04345862359042</v>
       </c>
       <c r="UT3">
-        <v>1.041375434298083</v>
+        <v>1.043719654771154</v>
       </c>
       <c r="UU3">
-        <v>1.041519617632785</v>
+        <v>1.043766347224286</v>
       </c>
       <c r="UV3">
-        <v>1.042040412111761</v>
+        <v>1.044212260212724</v>
       </c>
       <c r="UW3">
-        <v>1.040911911837407</v>
+        <v>1.043397149481033</v>
       </c>
       <c r="UX3">
-        <v>1.040916996818764</v>
+        <v>1.043397981419028</v>
       </c>
       <c r="UY3">
-        <v>1.040906668151675</v>
+        <v>1.043382524891734</v>
       </c>
       <c r="UZ3">
-        <v>1.04101877978831</v>
+        <v>1.043296371520954</v>
       </c>
       <c r="VA3">
-        <v>1.041374891735925</v>
+        <v>1.043719390702959</v>
       </c>
       <c r="VB3">
-        <v>1.041518371569976</v>
+        <v>1.043765082669619</v>
       </c>
       <c r="VC3">
-        <v>1.040910707807279</v>
+        <v>1.043396952493394</v>
       </c>
       <c r="VD3">
-        <v>1.040911911837407</v>
+        <v>1.043397149481033</v>
       </c>
       <c r="VE3">
-        <v>1.040905362426923</v>
+        <v>1.043380570915508</v>
       </c>
       <c r="VF3">
-        <v>1.041018593239847</v>
+        <v>1.043295360104621</v>
       </c>
       <c r="VG3">
-        <v>1.04137440883843</v>
+        <v>1.043719155673906</v>
       </c>
       <c r="VH3">
-        <v>1.041511940284815</v>
+        <v>1.043758555942737</v>
       </c>
       <c r="VI3">
-        <v>1.040878067031388</v>
+        <v>1.043391612235273</v>
       </c>
       <c r="VJ3">
-        <v>1.040910707807279</v>
+        <v>1.043396952493394</v>
       </c>
       <c r="VK3">
-        <v>1.040910707807283</v>
+        <v>1.043396952493398</v>
       </c>
       <c r="VL3">
-        <v>1.040904398888659</v>
+        <v>1.043379129010658</v>
       </c>
       <c r="VM3">
-        <v>1.041018368144591</v>
+        <v>1.043294139697798</v>
       </c>
       <c r="VN3">
-        <v>1.041373853023431</v>
+        <v>1.043718885155476</v>
       </c>
       <c r="VO3">
-        <v>1.041496073874976</v>
+        <v>1.043752377697052</v>
       </c>
       <c r="VP3">
-        <v>1.041498728255603</v>
+        <v>1.043744734988991</v>
       </c>
       <c r="VQ3">
-        <v>1.040855191921999</v>
+        <v>1.043387869706027</v>
       </c>
       <c r="VR3">
-        <v>1.040878067031388</v>
+        <v>1.043391612235273</v>
       </c>
       <c r="VS3">
-        <v>1.040910707807284</v>
+        <v>1.043396952493399</v>
       </c>
       <c r="VT3">
-        <v>1.040903461358541</v>
+        <v>1.043377726026185</v>
       </c>
       <c r="VU3">
-        <v>1.041018170501406</v>
+        <v>1.043293068128831</v>
       </c>
       <c r="VV3">
-        <v>1.041373283123933</v>
+        <v>1.043718607782036</v>
       </c>
       <c r="VW3">
-        <v>1.04149515953957</v>
+        <v>1.043752021662574</v>
       </c>
       <c r="VX3">
-        <v>1.041435592176663</v>
+        <v>1.043678689061178</v>
       </c>
       <c r="VY3">
-        <v>1.040824104324996</v>
+        <v>1.043386283486378</v>
       </c>
       <c r="VZ3">
-        <v>1.040853442402238</v>
+        <v>1.043387168214667</v>
       </c>
       <c r="WA3">
-        <v>1.040910707807285</v>
+        <v>1.043396952493401</v>
       </c>
       <c r="WB3">
-        <v>1.040894654534295</v>
+        <v>1.043364546889579</v>
       </c>
       <c r="WC3">
-        <v>1.04101687719047</v>
+        <v>1.043286056139834</v>
       </c>
       <c r="WD3">
-        <v>1.041372598106994</v>
+        <v>1.04371827438026</v>
       </c>
       <c r="WE3">
-        <v>1.041494700326445</v>
+        <v>1.043751842848865</v>
       </c>
       <c r="WF3">
-        <v>1.041416998546261</v>
+        <v>1.043678689061073</v>
       </c>
       <c r="WG3">
-        <v>1.041363600849726</v>
+        <v>1.043601032828082</v>
       </c>
       <c r="WH3">
-        <v>1.040796380906677</v>
+        <v>1.043384868920272</v>
       </c>
       <c r="WI3">
-        <v>1.040824104324996</v>
+        <v>1.043386283486378</v>
       </c>
       <c r="WJ3">
-        <v>1.040824104324996</v>
+        <v>1.043386283486378</v>
       </c>
       <c r="WK3">
-        <v>1.040775547969824</v>
+        <v>1.043355935473064</v>
       </c>
       <c r="WL3">
-        <v>1.040853442402238</v>
+        <v>1.043387168214667</v>
       </c>
       <c r="WM3">
-        <v>1.040910707807286</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="WN3">
-        <v>1.040890555759333</v>
+        <v>1.043358413201354</v>
       </c>
       <c r="WO3">
-        <v>1.041007341226531</v>
+        <v>1.043234354678611</v>
       </c>
       <c r="WP3">
-        <v>1.041372168650161</v>
+        <v>1.043718065361091</v>
       </c>
       <c r="WQ3">
-        <v>1.04149431525134</v>
+        <v>1.043751692903873</v>
       </c>
       <c r="WR3">
-        <v>1.04140718663423</v>
+        <v>1.043678689061018</v>
       </c>
       <c r="WS3">
-        <v>1.041294646190834</v>
+        <v>1.043526652241811</v>
       </c>
       <c r="WT3">
-        <v>1.040735900084717</v>
+        <v>1.043381782927103</v>
       </c>
       <c r="WU3">
-        <v>1.040796380906677</v>
+        <v>1.043384868920272</v>
       </c>
       <c r="WV3">
-        <v>1.040796380906677</v>
+        <v>1.043384868920272</v>
       </c>
       <c r="WW3">
-        <v>1.040757213980392</v>
+        <v>1.043348584230752</v>
       </c>
       <c r="WX3">
-        <v>1.040910707807287</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="WY3">
-        <v>1.040888632037873</v>
+        <v>1.043355534412527</v>
       </c>
       <c r="WZ3">
-        <v>1.04137032298911</v>
+        <v>1.043717167066989</v>
       </c>
       <c r="XA3">
-        <v>1.041494001236067</v>
+        <v>1.04375157062898</v>
       </c>
       <c r="XB3">
-        <v>1.041277127319205</v>
+        <v>1.043521323077801</v>
       </c>
       <c r="XC3">
-        <v>1.041278444564241</v>
+        <v>1.043506697774058</v>
       </c>
       <c r="XD3">
-        <v>1.040653511319104</v>
+        <v>1.043377579094628</v>
       </c>
       <c r="XE3">
-        <v>1.040910707807287</v>
+        <v>1.043396952493404</v>
       </c>
       <c r="XF3">
-        <v>1.040887348885952</v>
+        <v>1.043353614215932</v>
       </c>
       <c r="XG3">
-        <v>1.04136254190138</v>
+        <v>1.043713379965718</v>
       </c>
       <c r="XH3">
-        <v>1.04149350832383</v>
+        <v>1.04375137869312</v>
       </c>
       <c r="XI3">
-        <v>1.04127283164328</v>
+        <v>1.043520016351946</v>
       </c>
       <c r="XJ3">
-        <v>1.041274717065988</v>
+        <v>1.043502106862663</v>
       </c>
       <c r="XK3">
-        <v>1.040629345779775</v>
+        <v>1.043376346063633</v>
       </c>
       <c r="XL3">
-        <v>1.040910707807287</v>
+        <v>1.043396952493404</v>
       </c>
       <c r="XM3">
-        <v>1.040885387185595</v>
+        <v>1.043350678592901</v>
       </c>
       <c r="XN3">
-        <v>1.041492332946106</v>
+        <v>1.043750921010967</v>
       </c>
       <c r="XO3">
-        <v>1.041269881921531</v>
+        <v>1.043519119059459</v>
       </c>
       <c r="XP3">
-        <v>1.041272867303094</v>
+        <v>1.043499828632977</v>
       </c>
       <c r="XQ3">
-        <v>1.040549362366693</v>
+        <v>1.043372264960893</v>
       </c>
       <c r="XR3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493404</v>
       </c>
       <c r="XS3">
-        <v>1.040881556008</v>
+        <v>1.043344945355892</v>
       </c>
       <c r="XT3">
-        <v>1.041491519775058</v>
+        <v>1.043750604369031</v>
       </c>
       <c r="XU3">
-        <v>1.0412657929687</v>
+        <v>1.043517875217832</v>
       </c>
       <c r="XV3">
-        <v>1.041270834558502</v>
+        <v>1.043497325037001</v>
       </c>
       <c r="XW3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493404</v>
       </c>
       <c r="XX3">
-        <v>1.040880496972214</v>
+        <v>1.043343360542092</v>
       </c>
       <c r="XY3">
-        <v>1.041490485833001</v>
+        <v>1.043750201760729</v>
       </c>
       <c r="XZ3">
-        <v>1.041256096840355</v>
+        <v>1.043514925697775</v>
       </c>
       <c r="YA3">
-        <v>1.041268489074232</v>
+        <v>1.043494436260518</v>
       </c>
       <c r="YB3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493405</v>
       </c>
       <c r="YC3">
-        <v>1.040880189517142</v>
+        <v>1.043342900445232</v>
       </c>
       <c r="YD3">
-        <v>1.041489857722006</v>
+        <v>1.043749957179613</v>
       </c>
       <c r="YE3">
-        <v>1.041248726185831</v>
+        <v>1.043512683576663</v>
       </c>
       <c r="YF3">
-        <v>1.041266117949666</v>
+        <v>1.043491515904699</v>
       </c>
       <c r="YG3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493405</v>
       </c>
       <c r="YH3">
-        <v>1.040880056163978</v>
+        <v>1.043342634366121</v>
       </c>
       <c r="YI3">
-        <v>1.040879481189802</v>
+        <v>1.043342193789434</v>
       </c>
       <c r="YJ3">
-        <v>1.04148929067174</v>
+        <v>1.043749736375029</v>
       </c>
       <c r="YK3">
-        <v>1.041243552098542</v>
+        <v>1.04351110964173</v>
       </c>
       <c r="YL3">
-        <v>1.04126348925215</v>
+        <v>1.043488278313599</v>
       </c>
       <c r="YM3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="YN3">
-        <v>1.040879931356752</v>
+        <v>1.04334238533869</v>
       </c>
       <c r="YO3">
-        <v>1.040878546505354</v>
+        <v>1.043341261310696</v>
       </c>
       <c r="YP3">
-        <v>1.041488334321424</v>
+        <v>1.043749363980293</v>
       </c>
       <c r="YQ3">
-        <v>1.041238131789665</v>
+        <v>1.043509460807223</v>
       </c>
       <c r="YR3">
-        <v>1.041259666576089</v>
+        <v>1.043483570179139</v>
       </c>
       <c r="YS3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="YT3">
-        <v>1.040879802789204</v>
+        <v>1.043342128808302</v>
       </c>
       <c r="YU3">
-        <v>1.040874663393842</v>
+        <v>1.043337387362721</v>
       </c>
       <c r="YV3">
-        <v>1.041487394099706</v>
+        <v>1.043748997865895</v>
       </c>
       <c r="YW3">
-        <v>1.041233681662606</v>
+        <v>1.0435081070978</v>
       </c>
       <c r="YX3">
-        <v>1.041255471676247</v>
+        <v>1.043481022686229</v>
       </c>
       <c r="YY3">
-        <v>1.041250845952421</v>
+        <v>1.0434716514894</v>
       </c>
       <c r="YZ3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="ZA3">
-        <v>1.040878873216955</v>
+        <v>1.04334027403599</v>
       </c>
       <c r="ZB3">
-        <v>1.04087301432957</v>
+        <v>1.043335742189984</v>
       </c>
       <c r="ZC3">
-        <v>1.041486949238042</v>
+        <v>1.043748824640519</v>
       </c>
       <c r="ZD3">
-        <v>1.041226313477436</v>
+        <v>1.043505865727657</v>
       </c>
       <c r="ZE3">
-        <v>1.041252952639209</v>
+        <v>1.043479492916916</v>
       </c>
       <c r="ZF3">
-        <v>1.041194991870533</v>
+        <v>1.043396179846273</v>
       </c>
       <c r="ZG3">
-        <v>1.040910707807288</v>
+        <v>1.043396952493403</v>
       </c>
       <c r="ZH3">
-        <v>1.040872103968744</v>
+        <v>1.043326767378595</v>
       </c>
       <c r="ZI3">
-        <v>1.041486460617853</v>
+        <v>1.043748634375942</v>
       </c>
       <c r="ZJ3">
-        <v>1.041202501688451</v>
+        <v>1.043498622283727</v>
       </c>
       <c r="ZK3">
-        <v>1.041250615867805</v>
+        <v>1.043478073834486</v>
       </c>
       <c r="ZL3">
-        <v>1.041155011769569</v>
+        <v>1.043342157644539</v>
       </c>
       <c r="ZM3">
-        <v>1.041485991647086</v>
+        <v>1.043748451762684</v>
       </c>
       <c r="ZN3">
-        <v>1.041146862505937</v>
+        <v>1.043481697080761</v>
       </c>
       <c r="ZO3">
-        <v>1.041248335802979</v>
+        <v>1.043476689189011</v>
       </c>
       <c r="ZP3">
-        <v>1.04113315700425</v>
+        <v>1.043298538431941</v>
       </c>
       <c r="ZQ3">
-        <v>1.041047351656</v>
+        <v>1.043201022599845</v>
       </c>
       <c r="ZR3">
-        <v>1.041485426072237</v>
+        <v>1.043748231532612</v>
       </c>
       <c r="ZS3">
-        <v>1.041246625601546</v>
+        <v>1.043475650612099</v>
       </c>
       <c r="ZT3">
-        <v>1.04113216013578</v>
+        <v>1.04329649907342</v>
       </c>
       <c r="ZU3">
-        <v>1.041130234866711</v>
+        <v>1.043292845098168</v>
       </c>
       <c r="ZV3">
-        <v>1.041034318670584</v>
+        <v>1.043173771158735</v>
       </c>
       <c r="ZW3">
-        <v>1.041025661410943</v>
+        <v>1.043173147844584</v>
       </c>
       <c r="ZX3">
-        <v>1.041484523908719</v>
+        <v>1.043747880237751</v>
       </c>
       <c r="ZY3">
-        <v>1.041243908834012</v>
+        <v>1.043474000764312</v>
       </c>
       <c r="ZZ3">
-        <v>1.04113184820943</v>
+        <v>1.043295860945445</v>
       </c>
       <c r="AAA3">
-        <v>1.041124282013362</v>
+        <v>1.043281246882898</v>
       </c>
       <c r="AAB3">
-        <v>1.041026768317202</v>
+        <v>1.043157983678658</v>
       </c>
       <c r="AAC3">
-        <v>1.04098498820477</v>
+        <v>1.043120877306768</v>
       </c>
       <c r="AAD3">
-        <v>1.041482054787481</v>
+        <v>1.043746918782773</v>
       </c>
       <c r="AAE3">
-        <v>1.041239328258632</v>
+        <v>1.043471219056963</v>
       </c>
       <c r="AAF3">
-        <v>1.04113164764982</v>
+        <v>1.043295450647637</v>
       </c>
       <c r="AAG3">
-        <v>1.04087769926926</v>
+        <v>1.042982996672214</v>
       </c>
       <c r="AAH3">
-        <v>1.040984988204771</v>
+        <v>1.043120877306768</v>
       </c>
       <c r="AAI3">
-        <v>1.041478768840374</v>
+        <v>1.043745639262678</v>
       </c>
       <c r="AAJ3">
-        <v>1.041205006275462</v>
+        <v>1.043450375885748</v>
       </c>
       <c r="AAK3">
-        <v>1.041131526677896</v>
+        <v>1.043295203167522</v>
       </c>
       <c r="AAL3">
-        <v>1.040760769575896</v>
+        <v>1.042880984372035</v>
       </c>
       <c r="AAM3">
-        <v>1.040864528255595</v>
+        <v>1.042903852687892</v>
       </c>
       <c r="AAN3">
-        <v>1.040984988204772</v>
+        <v>1.043120877306768</v>
       </c>
       <c r="AAO3">
-        <v>1.041478455864601</v>
+        <v>1.043745517392551</v>
       </c>
       <c r="AAP3">
-        <v>1.041176849516693</v>
+        <v>1.043433276751888</v>
       </c>
       <c r="AAQ3">
-        <v>1.041131404410093</v>
+        <v>1.043294953036344</v>
       </c>
       <c r="AAR3">
-        <v>1.040640085702747</v>
+        <v>1.042775696794787</v>
       </c>
       <c r="AAS3">
-        <v>1.040863118267927</v>
+        <v>1.042895380141899</v>
       </c>
       <c r="AAT3">
-        <v>1.040984988204772</v>
+        <v>1.043120877306768</v>
       </c>
       <c r="AAU3">
-        <v>1.041478208345561</v>
+        <v>1.043745421010724</v>
       </c>
       <c r="AAV3">
-        <v>1.041167928477989</v>
+        <v>1.043427859152425</v>
       </c>
       <c r="AAW3">
-        <v>1.041131295199219</v>
+        <v>1.043294729616574</v>
       </c>
       <c r="AAX3">
-        <v>1.040596612164745</v>
+        <v>1.042736661281386</v>
       </c>
       <c r="AAY3">
-        <v>1.040589127661499</v>
+        <v>1.04273904623973</v>
       </c>
       <c r="AAZ3">
-        <v>1.040862579915112</v>
+        <v>1.04289214520661</v>
       </c>
       <c r="ABA3">
-        <v>1.040984988204773</v>
+        <v>1.043120877306768</v>
       </c>
       <c r="ABB3">
-        <v>1.041477967945249</v>
+        <v>1.043745327400868</v>
       </c>
       <c r="ABC3">
-        <v>1.041159807012487</v>
+        <v>1.043422927120468</v>
       </c>
       <c r="ABD3">
-        <v>1.041131172156508</v>
+        <v>1.043294477900116</v>
       </c>
       <c r="ABE3">
-        <v>1.040537538469728</v>
+        <v>1.04268361815631</v>
       </c>
       <c r="ABF3">
-        <v>1.040582292007505</v>
+        <v>1.042734129831673</v>
       </c>
       <c r="ABG3">
-        <v>1.040862010444386</v>
+        <v>1.042888723285398</v>
       </c>
       <c r="ABH3">
-        <v>1.040984988204773</v>
+        <v>1.043120877306767</v>
       </c>
       <c r="ABI3">
-        <v>1.041477710450603</v>
+        <v>1.043745227134623</v>
       </c>
       <c r="ABJ3">
-        <v>1.041155383627867</v>
+        <v>1.043420240871957</v>
       </c>
       <c r="ABK3">
-        <v>1.041131073574427</v>
+        <v>1.043294276224358</v>
       </c>
       <c r="ABL3">
-        <v>1.040468375186514</v>
+        <v>1.042621515433958</v>
       </c>
       <c r="ABM3">
-        <v>1.040578700713562</v>
+        <v>1.042731546864975</v>
       </c>
       <c r="ABN3">
-        <v>1.040861537833098</v>
+        <v>1.042885883387765</v>
       </c>
       <c r="ABO3">
-        <v>1.040984988204773</v>
+        <v>1.043120877306766</v>
       </c>
       <c r="ABP3">
-        <v>1.041477472377359</v>
+        <v>1.043745134430909</v>
       </c>
       <c r="ABQ3">
-        <v>1.04115185086198</v>
+        <v>1.043418095481492</v>
       </c>
       <c r="ABR3">
-        <v>1.041130955325151</v>
+        <v>1.043294034314141</v>
       </c>
       <c r="ABS3">
-        <v>1.040412839935006</v>
+        <v>1.042571649512456</v>
       </c>
       <c r="ABT3">
-        <v>1.04057086637913</v>
+        <v>1.042721774137838</v>
       </c>
       <c r="ABU3">
-        <v>1.04057829120908</v>
+        <v>1.04273138739023</v>
       </c>
       <c r="ABV3">
-        <v>1.040860978145141</v>
+        <v>1.042882520250827</v>
       </c>
       <c r="ABW3">
-        <v>1.040984988204773</v>
+        <v>1.043120877306764</v>
       </c>
       <c r="ABX3">
-        <v>1.04147724801849</v>
+        <v>1.043745047067457</v>
       </c>
       <c r="ABY3">
-        <v>1.041148838417113</v>
+        <v>1.043416266073389</v>
       </c>
       <c r="ABZ3">
-        <v>1.041130827897412</v>
+        <v>1.043293773626947</v>
       </c>
       <c r="ACA3">
-        <v>1.040394319525134</v>
+        <v>1.042567411764528</v>
       </c>
       <c r="ACB3">
-        <v>1.040393056284026</v>
+        <v>1.042437283321546</v>
       </c>
       <c r="ACC3">
-        <v>1.040564498035865</v>
+        <v>1.042713830121538</v>
       </c>
       <c r="ACD3">
-        <v>1.040577995078481</v>
+        <v>1.042731272067068</v>
       </c>
       <c r="ACE3">
-        <v>1.040860432313336</v>
+        <v>1.042879240374863</v>
       </c>
       <c r="ACF3">
-        <v>1.040984988204773</v>
+        <v>1.043120877306763</v>
       </c>
       <c r="ACG3">
-        <v>1.041476935978235</v>
+        <v>1.043744925561611</v>
       </c>
       <c r="ACH3">
-        <v>1.041145303291998</v>
+        <v>1.043414119250172</v>
       </c>
       <c r="ACI3">
-        <v>1.041130595412147</v>
+        <v>1.043293298016758</v>
       </c>
       <c r="ACJ3">
-        <v>1.040368785276472</v>
+        <v>1.04256156914251</v>
       </c>
       <c r="ACK3">
-        <v>1.04037651974836</v>
+        <v>1.042324970887454</v>
       </c>
       <c r="ACL3">
-        <v>1.04057774517066</v>
+        <v>1.042731174744601</v>
       </c>
       <c r="ACM3">
-        <v>1.040859681911482</v>
+        <v>1.042874731247802</v>
       </c>
       <c r="ACN3">
-        <v>1.040984988204772</v>
+        <v>1.043120877306762</v>
       </c>
       <c r="ACO3">
-        <v>1.041476553585679</v>
+        <v>1.043744776661173</v>
       </c>
       <c r="ACP3">
-        <v>1.041142073107441</v>
+        <v>1.043412157612316</v>
       </c>
       <c r="ACQ3">
-        <v>1.041128856059513</v>
+        <v>1.043289739710241</v>
       </c>
       <c r="ACR3">
-        <v>1.040305970299616</v>
+        <v>1.042547196114388</v>
       </c>
       <c r="ACS3">
-        <v>1.040366850588242</v>
+        <v>1.042315555194041</v>
       </c>
       <c r="ACT3">
-        <v>1.040376434355539</v>
+        <v>1.042322353944467</v>
       </c>
       <c r="ACU3">
-        <v>1.040577323047441</v>
+        <v>1.042731010355697</v>
       </c>
       <c r="ACV3">
-        <v>1.040858649612251</v>
+        <v>1.042868528213719</v>
       </c>
       <c r="ACW3">
-        <v>1.040984988204772</v>
+        <v>1.043120877306761</v>
       </c>
       <c r="ACX3">
-        <v>1.041474741144179</v>
+        <v>1.043744070911726</v>
       </c>
       <c r="ACY3">
-        <v>1.041137061861294</v>
+        <v>1.043409114365075</v>
       </c>
       <c r="ACZ3">
-        <v>1.041123525823478</v>
+        <v>1.043278835300833</v>
       </c>
       <c r="ADA3">
-        <v>1.040255057923676</v>
+        <v>1.042535546570976</v>
       </c>
       <c r="ADB3">
-        <v>1.040357375848611</v>
+        <v>1.042306328824576</v>
       </c>
       <c r="ADC3">
-        <v>1.040376352709047</v>
+        <v>1.042319851811295</v>
       </c>
       <c r="ADD3">
-        <v>1.040576731913843</v>
+        <v>1.042730780148496</v>
       </c>
       <c r="ADE3">
-        <v>1.040857557147371</v>
+        <v>1.042861963647475</v>
       </c>
       <c r="ADF3">
-        <v>1.040984988204772</v>
+        <v>1.043120877306761</v>
       </c>
       <c r="ADG3">
-        <v>1.041459244254568</v>
+        <v>1.043738036553328</v>
       </c>
       <c r="ADH3">
-        <v>1.041126944654289</v>
+        <v>1.043402970351806</v>
       </c>
       <c r="ADI3">
-        <v>1.040215276524919</v>
+        <v>1.04252644396043</v>
       </c>
       <c r="ADJ3">
-        <v>1.040376264689865</v>
+        <v>1.042317154381057</v>
       </c>
       <c r="ADK3">
-        <v>1.040576293278884</v>
+        <v>1.042730609329367</v>
       </c>
       <c r="ADL3">
-        <v>1.040856831452859</v>
+        <v>1.042857602985942</v>
       </c>
       <c r="ADM3">
-        <v>1.040984988204772</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="ADN3">
-        <v>1.041124624277096</v>
+        <v>1.043402061177479</v>
       </c>
       <c r="ADO3">
-        <v>1.04112276100302</v>
+        <v>1.043397449169249</v>
       </c>
       <c r="ADP3">
-        <v>1.040179321862994</v>
+        <v>1.04251821696163</v>
       </c>
       <c r="ADQ3">
-        <v>1.040376186095459</v>
+        <v>1.042314745781961</v>
       </c>
       <c r="ADR3">
-        <v>1.040575566661811</v>
+        <v>1.042730326360367</v>
       </c>
       <c r="ADS3">
-        <v>1.040856092870477</v>
+        <v>1.04285316488195</v>
       </c>
       <c r="ADT3">
-        <v>1.040984988204772</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="ADU3">
-        <v>1.041122600689281</v>
+        <v>1.043401268291688</v>
       </c>
       <c r="ADV3">
-        <v>1.041116066552654</v>
+        <v>1.043388614474419</v>
       </c>
       <c r="ADW3">
-        <v>1.040177274846177</v>
+        <v>1.042517518312668</v>
       </c>
       <c r="ADX3">
-        <v>1.040164044536956</v>
+        <v>1.042515600487688</v>
       </c>
       <c r="ADY3">
-        <v>1.040376099301035</v>
+        <v>1.04231208588568</v>
       </c>
       <c r="ADZ3">
-        <v>1.040570523198981</v>
+        <v>1.042728362267173</v>
       </c>
       <c r="AEA3">
-        <v>1.040855739722518</v>
+        <v>1.042851042833846</v>
       </c>
       <c r="AEB3">
-        <v>1.040984988204772</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="AEC3">
-        <v>1.041120927090043</v>
+        <v>1.043400612539042</v>
       </c>
       <c r="AED3">
-        <v>1.04111034680016</v>
+        <v>1.043381066092631</v>
       </c>
       <c r="AEE3">
-        <v>1.040175222451599</v>
+        <v>1.042516817828267</v>
       </c>
       <c r="AEF3">
-        <v>1.04013963524122</v>
+        <v>1.042511420013403</v>
       </c>
       <c r="AEG3">
-        <v>1.040164044536956</v>
+        <v>1.042515600487688</v>
       </c>
       <c r="AEH3">
-        <v>1.040376043341817</v>
+        <v>1.042310370963152</v>
       </c>
       <c r="AEI3">
-        <v>1.040559382811844</v>
+        <v>1.042724023827513</v>
       </c>
       <c r="AEJ3">
-        <v>1.040855177997889</v>
+        <v>1.042847667459191</v>
       </c>
       <c r="AEK3">
-        <v>1.040984988204773</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="AEL3">
-        <v>1.041119625617982</v>
+        <v>1.04340010259393</v>
       </c>
       <c r="AEM3">
-        <v>1.041107109644563</v>
+        <v>1.043376794004602</v>
       </c>
       <c r="AEN3">
-        <v>1.040173166073521</v>
+        <v>1.042516115984288</v>
       </c>
       <c r="AEO3">
-        <v>1.040119168880339</v>
+        <v>1.042507914826877</v>
       </c>
       <c r="AEP3">
-        <v>1.04013963524122</v>
+        <v>1.042511420013403</v>
       </c>
       <c r="AEQ3">
-        <v>1.040375957392282</v>
+        <v>1.04230773695934</v>
       </c>
       <c r="AER3">
-        <v>1.040854650663219</v>
+        <v>1.042844498732105</v>
       </c>
       <c r="AES3">
-        <v>1.040984988204773</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="AET3">
-        <v>1.041118301940349</v>
+        <v>1.043399583948189</v>
       </c>
       <c r="AEU3">
-        <v>1.040171122143975</v>
+        <v>1.042515418389001</v>
       </c>
       <c r="AEV3">
-        <v>1.040097168070231</v>
+        <v>1.042504146840134</v>
       </c>
       <c r="AEW3">
-        <v>1.040119168880339</v>
+        <v>1.042507914826877</v>
       </c>
       <c r="AEX3">
-        <v>1.040375250435614</v>
+        <v>1.042286071613173</v>
       </c>
       <c r="AEY3">
-        <v>1.040853897189662</v>
+        <v>1.042839971148074</v>
       </c>
       <c r="AEZ3">
-        <v>1.040984988204773</v>
+        <v>1.04312087730676</v>
       </c>
       <c r="AFA3">
-        <v>1.041117153223514</v>
+        <v>1.0433991338559</v>
       </c>
       <c r="AFB3">
-        <v>1.040169070446527</v>
+        <v>1.042514718142515</v>
       </c>
       <c r="AFC3">
-        <v>1.040079104632472</v>
+        <v>1.042501053189425</v>
       </c>
       <c r="AFD3">
-        <v>1.040097168070231</v>
+        <v>1.042504146840134</v>
       </c>
       <c r="AFE3">
-        <v>1.04037281394347</v>
+        <v>1.042211403059575</v>
       </c>
       <c r="AFF3">
-        <v>1.040845943764641</v>
+        <v>1.042792179430169</v>
       </c>
       <c r="AFG3">
-        <v>1.041116328197575</v>
+        <v>1.043398810592756</v>
       </c>
       <c r="AFH3">
-        <v>1.040167020143364</v>
+        <v>1.042514018371895</v>
       </c>
       <c r="AFI3">
-        <v>1.040059711550485</v>
+        <v>1.042497731814749</v>
       </c>
       <c r="AFJ3">
-        <v>1.040079104632472</v>
+        <v>1.042501053189425</v>
       </c>
       <c r="AFK3">
-        <v>1.040842762595142</v>
+        <v>1.042773063950844</v>
       </c>
       <c r="AFL3">
-        <v>1.04111537034095</v>
+        <v>1.043398435283654</v>
       </c>
       <c r="AFM3">
-        <v>1.040164968545667</v>
+        <v>1.042513318159444</v>
       </c>
       <c r="AFN3">
-        <v>1.039957392268653</v>
+        <v>1.042480207967261</v>
       </c>
       <c r="AFO3">
-        <v>1.040059711550487</v>
+        <v>1.04249773181475</v>
       </c>
       <c r="AFP3">
-        <v>1.040059711550485</v>
+        <v>1.042497731814749</v>
       </c>
       <c r="AFQ3">
-        <v>1.0408411472029</v>
+        <v>1.042763357144933</v>
       </c>
       <c r="AFR3">
-        <v>1.041113927317067</v>
+        <v>1.043397869875443</v>
       </c>
       <c r="AFS3">
-        <v>1.040163967095902</v>
+        <v>1.042512976363584</v>
       </c>
       <c r="AFT3">
-        <v>1.039942422662294</v>
+        <v>1.042477644177229</v>
       </c>
       <c r="AFU3">
-        <v>1.04005971155049</v>
+        <v>1.042497731814751</v>
       </c>
       <c r="AFV3">
-        <v>1.040059711550487</v>
+        <v>1.04249773181475</v>
       </c>
       <c r="AFW3">
-        <v>1.040840789747888</v>
+        <v>1.042761209216866</v>
       </c>
       <c r="AFX3">
-        <v>1.041111569707121</v>
+        <v>1.043396946112472</v>
       </c>
       <c r="AFY3">
-        <v>1.040141459373267</v>
+        <v>1.042505294453802</v>
       </c>
       <c r="AFZ3">
-        <v>1.0399002499089</v>
+        <v>1.042470421402399</v>
       </c>
       <c r="AGA3">
-        <v>1.040059711550495</v>
+        <v>1.042497731814753</v>
       </c>
       <c r="AGB3">
-        <v>1.04005971155049</v>
+        <v>1.042497731814751</v>
       </c>
       <c r="AGC3">
-        <v>1.040840508234539</v>
+        <v>1.042759517618214</v>
       </c>
       <c r="AGD3">
-        <v>1.041096435045738</v>
+        <v>1.043395058447982</v>
       </c>
       <c r="AGE3">
-        <v>1.041101494617095</v>
+        <v>1.04338223429579</v>
       </c>
       <c r="AGF3">
-        <v>1.040126823031765</v>
+        <v>1.042500299054467</v>
       </c>
       <c r="AGG3">
-        <v>1.039850728526484</v>
+        <v>1.042461940053057</v>
       </c>
       <c r="AGH3">
-        <v>1.040059711550497</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGI3">
-        <v>1.040059711550495</v>
+        <v>1.042497731814753</v>
       </c>
       <c r="AGJ3">
-        <v>1.04084020661142</v>
+        <v>1.042757705181042</v>
       </c>
       <c r="AGK3">
-        <v>1.040114022084737</v>
+        <v>1.042495930077047</v>
       </c>
       <c r="AGL3">
-        <v>1.039844304534559</v>
+        <v>1.042460839838915</v>
       </c>
       <c r="AGM3">
-        <v>1.040059711550498</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGN3">
-        <v>1.040059711550497</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGO3">
-        <v>1.04083996529089</v>
+        <v>1.042756255098918</v>
       </c>
       <c r="AGP3">
-        <v>1.040100594734674</v>
+        <v>1.042491347307354</v>
       </c>
       <c r="AGQ3">
-        <v>1.039843733674752</v>
+        <v>1.042460568684721</v>
       </c>
       <c r="AGR3">
-        <v>1.039827609626228</v>
+        <v>1.042458366324104</v>
       </c>
       <c r="AGS3">
-        <v>1.040059711550499</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGT3">
-        <v>1.040059711550498</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGU3">
-        <v>1.040839730978554</v>
+        <v>1.04275484712866</v>
       </c>
       <c r="AGV3">
-        <v>1.040077667758072</v>
+        <v>1.0424835223039</v>
       </c>
       <c r="AGW3">
-        <v>1.039843205442917</v>
+        <v>1.042460317778497</v>
       </c>
       <c r="AGX3">
-        <v>1.03978853904959</v>
+        <v>1.042452577633435</v>
       </c>
       <c r="AGY3">
-        <v>1.040059711550499</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AGZ3">
-        <v>1.040059711550499</v>
+        <v>1.042497731814754</v>
       </c>
       <c r="AHA3">
-        <v>1.040839497260526</v>
+        <v>1.04275344272958</v>
       </c>
       <c r="AHB3">
-        <v>1.040072044265607</v>
+        <v>1.042481602999359</v>
       </c>
       <c r="AHC3">
-        <v>1.039842402220087</v>
+        <v>1.042459936253581</v>
       </c>
       <c r="AHD3">
-        <v>1.039695851985252</v>
+        <v>1.042438845128743</v>
       </c>
       <c r="AHE3">
-        <v>1.040839266277012</v>
+        <v>1.042752054762053</v>
       </c>
       <c r="AHF3">
-        <v>1.040067065023717</v>
+        <v>1.042480707223395</v>
       </c>
       <c r="AHG3">
-        <v>1.040067360271228</v>
+        <v>1.04247692983189</v>
       </c>
       <c r="AHH3">
-        <v>1.039841387166038</v>
+        <v>1.042459454110398</v>
       </c>
       <c r="AHI3">
-        <v>1.040835135811892</v>
+        <v>1.042727235020629</v>
       </c>
       <c r="AHJ3">
-        <v>1.040058889517135</v>
+        <v>1.042479236432724</v>
       </c>
       <c r="AHK3">
-        <v>1.04006338761404</v>
+        <v>1.042472966357376</v>
       </c>
       <c r="AHL3">
-        <v>1.03983743558032</v>
+        <v>1.042457577136328</v>
       </c>
       <c r="AHM3">
-        <v>1.040823695539833</v>
+        <v>1.042719622064267</v>
       </c>
       <c r="AHN3">
-        <v>1.04083065575152</v>
+        <v>1.042666115268386</v>
       </c>
       <c r="AHO3">
-        <v>1.040057273040116</v>
+        <v>1.042478945625133</v>
       </c>
       <c r="AHP3">
-        <v>1.040056710393442</v>
+        <v>1.042466304570966</v>
       </c>
       <c r="AHQ3">
-        <v>1.039830257265459</v>
+        <v>1.042454167489671</v>
       </c>
       <c r="AHR3">
-        <v>1.04081609789129</v>
+        <v>1.04271456619081</v>
       </c>
       <c r="AHS3">
-        <v>1.040055907151859</v>
+        <v>1.042478699898983</v>
       </c>
       <c r="AHT3">
-        <v>1.04005475612238</v>
+        <v>1.042478492826374</v>
       </c>
       <c r="AHU3">
-        <v>1.040053258824973</v>
+        <v>1.042478223459439</v>
       </c>
       <c r="AHV3">
-        <v>1.040050548949906</v>
+        <v>1.042477735947242</v>
       </c>
       <c r="AHW3">
-        <v>1.040045850511919</v>
+        <v>1.042476890688399</v>
       </c>
       <c r="AHX3">
-        <v>1.040007365367459</v>
+        <v>1.042469967129544</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/vm.xlsx
+++ b/results/ppc_bus/vm.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C2">
-        <v>1.049909363372332</v>
+        <v>1.049928423418347</v>
       </c>
       <c r="D2">
-        <v>1.049858651462318</v>
+        <v>1.049888306189654</v>
       </c>
       <c r="E2">
-        <v>1.049853335028634</v>
+        <v>1.049884100459371</v>
       </c>
       <c r="F2">
-        <v>1.049848354365394</v>
+        <v>1.049880160350644</v>
       </c>
       <c r="G2">
-        <v>1.049844011942511</v>
+        <v>1.049876725141743</v>
       </c>
       <c r="H2">
-        <v>1.04983717092199</v>
+        <v>1.049871313339192</v>
       </c>
       <c r="I2">
-        <v>1.049371331108861</v>
+        <v>1.049502795798778</v>
       </c>
       <c r="J2">
-        <v>1.049350466974875</v>
+        <v>1.049486290535706</v>
       </c>
       <c r="K2">
-        <v>1.049333101372407</v>
+        <v>1.049472552900362</v>
       </c>
       <c r="L2">
-        <v>1.049317861676907</v>
+        <v>1.0494604970332</v>
       </c>
       <c r="M2">
-        <v>1.049306489986501</v>
+        <v>1.049451501079307</v>
       </c>
       <c r="N2">
-        <v>1.049295814770099</v>
+        <v>1.049443056093876</v>
       </c>
       <c r="O2">
-        <v>1.049289250488088</v>
+        <v>1.049437863199769</v>
       </c>
       <c r="P2">
-        <v>1.049272908371735</v>
+        <v>1.049424935223122</v>
       </c>
       <c r="Q2">
-        <v>1.049140523799181</v>
+        <v>1.049320207949085</v>
       </c>
       <c r="R2">
-        <v>1.049140523799181</v>
+        <v>1.049320207949085</v>
       </c>
       <c r="S2">
-        <v>1.048979985438252</v>
+        <v>1.049193208579817</v>
       </c>
       <c r="T2">
-        <v>1.049140523799182</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="U2">
-        <v>1.048968939442565</v>
+        <v>1.049184470262829</v>
       </c>
       <c r="V2">
-        <v>1.049140523799182</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="W2">
-        <v>1.048956536082175</v>
+        <v>1.049174658154963</v>
       </c>
       <c r="X2">
-        <v>1.049140523799182</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="Y2">
-        <v>1.048936340909596</v>
+        <v>1.04915868206287</v>
       </c>
       <c r="Z2">
-        <v>1.049140523799183</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="AA2">
-        <v>1.048899601026523</v>
+        <v>1.049129617699261</v>
       </c>
       <c r="AB2">
-        <v>1.049140523799184</v>
+        <v>1.049320207949083</v>
       </c>
       <c r="AC2">
-        <v>1.048876296518203</v>
+        <v>1.049110441336863</v>
       </c>
       <c r="AD2">
-        <v>1.048454465411496</v>
+        <v>1.048777962079957</v>
       </c>
       <c r="AE2">
-        <v>1.049140523799184</v>
+        <v>1.049320207949083</v>
       </c>
       <c r="AF2">
-        <v>1.048873047294406</v>
+        <v>1.049107272068392</v>
       </c>
       <c r="AG2">
-        <v>1.048873208000665</v>
+        <v>1.049108382790555</v>
       </c>
       <c r="AH2">
-        <v>1.048335964032064</v>
+        <v>1.048684346261145</v>
       </c>
       <c r="AI2">
-        <v>1.049140523799185</v>
+        <v>1.049320207949083</v>
       </c>
       <c r="AJ2">
-        <v>1.048865606342692</v>
+        <v>1.049100014220006</v>
       </c>
       <c r="AK2">
-        <v>1.048873103407753</v>
+        <v>1.049108313077708</v>
       </c>
       <c r="AL2">
-        <v>1.048301625415948</v>
+        <v>1.048668718237326</v>
       </c>
       <c r="AM2">
-        <v>1.047996309972863</v>
+        <v>1.048409770689863</v>
       </c>
       <c r="AN2">
-        <v>1.049140523799187</v>
+        <v>1.049320207949083</v>
       </c>
       <c r="AO2">
-        <v>1.048872953022062</v>
+        <v>1.049108212843241</v>
       </c>
       <c r="AP2">
-        <v>1.048299493128291</v>
+        <v>1.048668172368495</v>
       </c>
       <c r="AQ2">
-        <v>1.048300421961607</v>
+        <v>1.0486662534776</v>
       </c>
       <c r="AR2">
-        <v>1.047760614273761</v>
+        <v>1.048219234569255</v>
       </c>
       <c r="AS2">
-        <v>1.047996309972864</v>
+        <v>1.048409770689861</v>
       </c>
       <c r="AT2">
-        <v>1.049140523799187</v>
+        <v>1.049320207949083</v>
       </c>
       <c r="AU2">
-        <v>1.048872760162679</v>
+        <v>1.049108084299378</v>
       </c>
       <c r="AV2">
-        <v>1.048298532042445</v>
+        <v>1.048667926329078</v>
       </c>
       <c r="AW2">
-        <v>1.048297526222586</v>
+        <v>1.048660322799065</v>
       </c>
       <c r="AX2">
-        <v>1.047582510068839</v>
+        <v>1.048075255206307</v>
       </c>
       <c r="AY2">
-        <v>1.047996309972865</v>
+        <v>1.048409770689861</v>
       </c>
       <c r="AZ2">
-        <v>1.049140523799187</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="BA2">
-        <v>1.048872290463216</v>
+        <v>1.049107771237175</v>
       </c>
       <c r="BB2">
-        <v>1.048297513497198</v>
+        <v>1.048667665579967</v>
       </c>
       <c r="BC2">
-        <v>1.047556831094074</v>
+        <v>1.048054496324357</v>
       </c>
       <c r="BD2">
-        <v>1.047582510068842</v>
+        <v>1.048075255206314</v>
       </c>
       <c r="BE2">
-        <v>1.047996309972866</v>
+        <v>1.04840977068986</v>
       </c>
       <c r="BF2">
-        <v>1.049140523799188</v>
+        <v>1.049320207949084</v>
       </c>
       <c r="BG2">
-        <v>1.048871888314721</v>
+        <v>1.049107503198773</v>
       </c>
       <c r="BH2">
-        <v>1.048296543403342</v>
+        <v>1.048667417234484</v>
       </c>
       <c r="BI2">
-        <v>1.047440512322408</v>
+        <v>1.047960464204212</v>
       </c>
       <c r="BJ2">
-        <v>1.047582510068843</v>
+        <v>1.048075255206315</v>
       </c>
       <c r="BK2">
-        <v>1.047996309972866</v>
+        <v>1.04840977068986</v>
       </c>
       <c r="BL2">
-        <v>1.049140523799188</v>
+        <v>1.049320207949085</v>
       </c>
       <c r="BM2">
-        <v>1.048869960559039</v>
+        <v>1.049106218318784</v>
       </c>
       <c r="BN2">
-        <v>1.048295962413077</v>
+        <v>1.048667268500104</v>
       </c>
       <c r="BO2">
-        <v>1.047418866835589</v>
+        <v>1.047941784544846</v>
       </c>
       <c r="BP2">
-        <v>1.047364218172663</v>
+        <v>1.047943817884829</v>
       </c>
       <c r="BQ2">
-        <v>1.047582510068843</v>
+        <v>1.048075255206315</v>
       </c>
       <c r="BR2">
-        <v>1.047996309972867</v>
+        <v>1.048409770689859</v>
       </c>
       <c r="BS2">
-        <v>1.049140523799189</v>
+        <v>1.049320207949086</v>
       </c>
       <c r="BT2">
-        <v>1.04886314660372</v>
+        <v>1.049101676708561</v>
       </c>
       <c r="BU2">
-        <v>1.048294822552837</v>
+        <v>1.048666976694169</v>
       </c>
       <c r="BV2">
-        <v>1.047163134158208</v>
+        <v>1.047721091819203</v>
       </c>
       <c r="BW2">
-        <v>1.047353713487927</v>
+        <v>1.047935681279821</v>
       </c>
       <c r="BX2">
-        <v>1.047337430815917</v>
+        <v>1.047943817884829</v>
       </c>
       <c r="BY2">
-        <v>1.047582510068844</v>
+        <v>1.048075255206317</v>
       </c>
       <c r="BZ2">
-        <v>1.047996309972867</v>
+        <v>1.048409770689858</v>
       </c>
       <c r="CA2">
-        <v>1.049140523799192</v>
+        <v>1.04932020794909</v>
       </c>
       <c r="CB2">
-        <v>1.048289045697571</v>
+        <v>1.048665497810521</v>
       </c>
       <c r="CC2">
-        <v>1.04707399267158</v>
+        <v>1.047644164267234</v>
       </c>
       <c r="CD2">
-        <v>1.047582510068844</v>
+        <v>1.048075255206318</v>
       </c>
       <c r="CE2">
-        <v>1.047996309972867</v>
+        <v>1.048409770689854</v>
       </c>
       <c r="CF2">
-        <v>1.049140523799197</v>
+        <v>1.049320207949095</v>
       </c>
       <c r="CG2">
-        <v>1.048267277221115</v>
+        <v>1.048659925047444</v>
       </c>
       <c r="CH2">
-        <v>1.047054539102573</v>
+        <v>1.047627376172651</v>
       </c>
       <c r="CI2">
-        <v>1.047582510068844</v>
+        <v>1.048075255206318</v>
       </c>
       <c r="CJ2">
-        <v>1.047996309972869</v>
+        <v>1.048409770689846</v>
       </c>
       <c r="CK2">
-        <v>1.0491405237992</v>
+        <v>1.049320207949098</v>
       </c>
       <c r="CL2">
-        <v>1.047015090357755</v>
+        <v>1.047593332582847</v>
       </c>
       <c r="CM2">
-        <v>1.047582510068844</v>
+        <v>1.048075255206318</v>
       </c>
       <c r="CN2">
-        <v>1.047996309972869</v>
+        <v>1.048409770689844</v>
       </c>
       <c r="CO2">
-        <v>1.0491405237992</v>
+        <v>1.049320207949099</v>
       </c>
       <c r="CP2">
-        <v>1.04697788838803</v>
+        <v>1.047561227917333</v>
       </c>
       <c r="CQ2">
-        <v>1.047996309972869</v>
+        <v>1.048409770689844</v>
       </c>
       <c r="CR2">
-        <v>1.0491405237992</v>
+        <v>1.0493202079491</v>
       </c>
       <c r="CS2">
-        <v>1.046956265225082</v>
+        <v>1.047542567494611</v>
       </c>
       <c r="CT2">
-        <v>1.04799630997287</v>
+        <v>1.048409770689844</v>
       </c>
       <c r="CU2">
-        <v>1.0491405237992</v>
+        <v>1.0493202079491</v>
       </c>
       <c r="CV2">
-        <v>1.04694198474627</v>
+        <v>1.047530243682978</v>
       </c>
       <c r="CW2">
-        <v>1.04799630997287</v>
+        <v>1.048409770689844</v>
       </c>
       <c r="CX2">
-        <v>1.0491405237992</v>
+        <v>1.0493202079491</v>
       </c>
       <c r="CY2">
-        <v>1.046922267395671</v>
+        <v>1.047513227942012</v>
       </c>
       <c r="CZ2">
-        <v>1.047996309972875</v>
+        <v>1.048409770689856</v>
       </c>
       <c r="DA2">
-        <v>1.0491405237992</v>
+        <v>1.0493202079491</v>
       </c>
       <c r="DB2">
-        <v>1.046921997180836</v>
+        <v>1.047513021045233</v>
       </c>
       <c r="DC2">
-        <v>1.046910826589358</v>
+        <v>1.047503201188433</v>
       </c>
       <c r="DD2">
-        <v>1.047996309972876</v>
+        <v>1.048409770689857</v>
       </c>
       <c r="DE2">
-        <v>1.046921670258213</v>
+        <v>1.047512770728701</v>
       </c>
       <c r="DF2">
-        <v>1.046904339086228</v>
+        <v>1.047497515523001</v>
       </c>
       <c r="DG2">
-        <v>1.047996309972876</v>
+        <v>1.048409770689858</v>
       </c>
       <c r="DH2">
-        <v>1.046921291331649</v>
+        <v>1.04751248059403</v>
       </c>
       <c r="DI2">
-        <v>1.046648360323631</v>
+        <v>1.047273174949981</v>
       </c>
       <c r="DJ2">
-        <v>1.047996309972892</v>
+        <v>1.048409770689884</v>
       </c>
       <c r="DK2">
-        <v>1.046920713581199</v>
+        <v>1.047512038224815</v>
       </c>
       <c r="DL2">
-        <v>1.046622716911518</v>
+        <v>1.047250700975502</v>
       </c>
       <c r="DM2">
-        <v>1.047996309972907</v>
+        <v>1.048409770689908</v>
       </c>
       <c r="DN2">
-        <v>1.046919970805011</v>
+        <v>1.047511469499429</v>
       </c>
       <c r="DO2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551528</v>
       </c>
       <c r="DP2">
-        <v>1.046550304211865</v>
+        <v>1.047188870779909</v>
       </c>
       <c r="DQ2">
-        <v>1.047996309972908</v>
+        <v>1.04840977068991</v>
       </c>
       <c r="DR2">
-        <v>1.046919437562883</v>
+        <v>1.047511061209066</v>
       </c>
       <c r="DS2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551528</v>
       </c>
       <c r="DT2">
-        <v>1.046622124657543</v>
+        <v>1.047249943516125</v>
       </c>
       <c r="DU2">
-        <v>1.046419718204208</v>
+        <v>1.047077368701613</v>
       </c>
       <c r="DV2">
-        <v>1.047996309972909</v>
+        <v>1.048409770689912</v>
       </c>
       <c r="DW2">
-        <v>1.046918684095973</v>
+        <v>1.047510484297962</v>
       </c>
       <c r="DX2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551528</v>
       </c>
       <c r="DY2">
-        <v>1.046621213603301</v>
+        <v>1.04724877832935</v>
       </c>
       <c r="DZ2">
-        <v>1.046360994097304</v>
+        <v>1.047027226529258</v>
       </c>
       <c r="EA2">
-        <v>1.04799630997291</v>
+        <v>1.048409770689914</v>
       </c>
       <c r="EB2">
-        <v>1.046917868899309</v>
+        <v>1.047509860121841</v>
       </c>
       <c r="EC2">
-        <v>1.046622318595281</v>
+        <v>1.047250191551528</v>
       </c>
       <c r="ED2">
-        <v>1.046616237971068</v>
+        <v>1.047243557038966</v>
       </c>
       <c r="EE2">
-        <v>1.046619350868494</v>
+        <v>1.047246229934477</v>
       </c>
       <c r="EF2">
-        <v>1.046343522105664</v>
+        <v>1.047012307886932</v>
       </c>
       <c r="EG2">
-        <v>1.047996309972912</v>
+        <v>1.048409770689919</v>
       </c>
       <c r="EH2">
-        <v>1.046917100103594</v>
+        <v>1.047509271473729</v>
       </c>
       <c r="EI2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="EJ2">
-        <v>1.046615809471886</v>
+        <v>1.047243107383816</v>
       </c>
       <c r="EK2">
-        <v>1.046617965093863</v>
+        <v>1.047244334066212</v>
       </c>
       <c r="EL2">
-        <v>1.046323799708646</v>
+        <v>1.046995467709395</v>
       </c>
       <c r="EM2">
-        <v>1.047996309972914</v>
+        <v>1.048409770689923</v>
       </c>
       <c r="EN2">
-        <v>1.046915836081475</v>
+        <v>1.047508303642722</v>
       </c>
       <c r="EO2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="EP2">
-        <v>1.046615389032789</v>
+        <v>1.047242666186696</v>
       </c>
       <c r="EQ2">
-        <v>1.04661703707541</v>
+        <v>1.047243064451164</v>
       </c>
       <c r="ER2">
-        <v>1.046305251178217</v>
+        <v>1.046979629847273</v>
       </c>
       <c r="ES2">
-        <v>1.047996309972914</v>
+        <v>1.048409770689923</v>
       </c>
       <c r="ET2">
-        <v>1.046909825944684</v>
+        <v>1.047503701824934</v>
       </c>
       <c r="EU2">
-        <v>1.04662231859528</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="EV2">
-        <v>1.046615049546027</v>
+        <v>1.04724230993871</v>
       </c>
       <c r="EW2">
-        <v>1.046616110328954</v>
+        <v>1.047242520436973</v>
       </c>
       <c r="EX2">
-        <v>1.046617037075349</v>
+        <v>1.047229625309872</v>
       </c>
       <c r="EY2">
-        <v>1.046283608613982</v>
+        <v>1.04696115010744</v>
       </c>
       <c r="EZ2">
-        <v>1.047996309972914</v>
+        <v>1.048409770689923</v>
       </c>
       <c r="FA2">
-        <v>1.046908516670371</v>
+        <v>1.047502699344479</v>
       </c>
       <c r="FB2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="FC2">
-        <v>1.046614540003372</v>
+        <v>1.04724177523879</v>
       </c>
       <c r="FD2">
-        <v>1.046613652544553</v>
+        <v>1.047241077679791</v>
       </c>
       <c r="FE2">
-        <v>1.046617037075346</v>
+        <v>1.047228807317386</v>
       </c>
       <c r="FF2">
-        <v>1.046277381084308</v>
+        <v>1.046955832662483</v>
       </c>
       <c r="FG2">
-        <v>1.047996309972914</v>
+        <v>1.048409770689923</v>
       </c>
       <c r="FH2">
-        <v>1.04689323112166</v>
+        <v>1.047502699344479</v>
       </c>
       <c r="FI2">
-        <v>1.046904097556634</v>
+        <v>1.047498908103685</v>
       </c>
       <c r="FJ2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="FK2">
-        <v>1.046613925692773</v>
+        <v>1.047241130598295</v>
       </c>
       <c r="FL2">
-        <v>1.046612798822514</v>
+        <v>1.047240576531657</v>
       </c>
       <c r="FM2">
-        <v>1.046617037075342</v>
+        <v>1.047228060037927</v>
       </c>
       <c r="FN2">
-        <v>1.046242001539461</v>
+        <v>1.046925623441333</v>
       </c>
       <c r="FO2">
-        <v>1.047996309972914</v>
+        <v>1.048409770689923</v>
       </c>
       <c r="FP2">
-        <v>1.046890343423289</v>
+        <v>1.047502699344478</v>
       </c>
       <c r="FQ2">
-        <v>1.04689823073258</v>
+        <v>1.047493874842952</v>
       </c>
       <c r="FR2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="FS2">
-        <v>1.04661346159385</v>
+        <v>1.047240643585766</v>
       </c>
       <c r="FT2">
-        <v>1.046612798822523</v>
+        <v>1.047240576531657</v>
       </c>
       <c r="FU2">
-        <v>1.046598700908082</v>
+        <v>1.047232300828023</v>
       </c>
       <c r="FV2">
-        <v>1.046617037075341</v>
+        <v>1.047227749607778</v>
       </c>
       <c r="FW2">
-        <v>1.046222018997455</v>
+        <v>1.046908561119055</v>
       </c>
       <c r="FX2">
-        <v>1.046884385519807</v>
+        <v>1.047502699344478</v>
       </c>
       <c r="FY2">
-        <v>1.046897916702691</v>
+        <v>1.047493267943211</v>
       </c>
       <c r="FZ2">
-        <v>1.046880372834862</v>
+        <v>1.047487492684168</v>
       </c>
       <c r="GA2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="GB2">
-        <v>1.046612924550611</v>
+        <v>1.047240080027496</v>
       </c>
       <c r="GC2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531657</v>
       </c>
       <c r="GD2">
-        <v>1.046597178319939</v>
+        <v>1.047231407044157</v>
       </c>
       <c r="GE2">
-        <v>1.046617037075338</v>
+        <v>1.047227080479259</v>
       </c>
       <c r="GF2">
-        <v>1.046207185423918</v>
+        <v>1.046895895300272</v>
       </c>
       <c r="GG2">
-        <v>1.046896680911434</v>
+        <v>1.047490879632024</v>
       </c>
       <c r="GH2">
-        <v>1.046806462801489</v>
+        <v>1.047461078284558</v>
       </c>
       <c r="GI2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="GJ2">
-        <v>1.046612419591387</v>
+        <v>1.047239550137302</v>
       </c>
       <c r="GK2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531657</v>
       </c>
       <c r="GL2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531656</v>
       </c>
       <c r="GM2">
-        <v>1.046595705558212</v>
+        <v>1.047230542509201</v>
       </c>
       <c r="GN2">
-        <v>1.04661703707533</v>
+        <v>1.047225376216997</v>
       </c>
       <c r="GO2">
-        <v>1.046193849363371</v>
+        <v>1.04688450814873</v>
       </c>
       <c r="GP2">
-        <v>1.046894474467836</v>
+        <v>1.047486615425383</v>
       </c>
       <c r="GQ2">
-        <v>1.046799925736339</v>
+        <v>1.047458465127239</v>
       </c>
       <c r="GR2">
-        <v>1.046801892152289</v>
+        <v>1.047459604835769</v>
       </c>
       <c r="GS2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="GT2">
-        <v>1.046611876284964</v>
+        <v>1.047238980006622</v>
       </c>
       <c r="GU2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531657</v>
       </c>
       <c r="GV2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531656</v>
       </c>
       <c r="GW2">
-        <v>1.04659452749643</v>
+        <v>1.047229850967877</v>
       </c>
       <c r="GX2">
-        <v>1.046617037075326</v>
+        <v>1.047224376334924</v>
       </c>
       <c r="GY2">
-        <v>1.046177282208378</v>
+        <v>1.046870362087243</v>
       </c>
       <c r="GZ2">
-        <v>1.046890141246527</v>
+        <v>1.047477742402011</v>
       </c>
       <c r="HA2">
-        <v>1.046894127283466</v>
+        <v>1.047485969844865</v>
       </c>
       <c r="HB2">
-        <v>1.046783398420817</v>
+        <v>1.047451858419762</v>
       </c>
       <c r="HC2">
-        <v>1.046801246086488</v>
+        <v>1.047459396562319</v>
       </c>
       <c r="HD2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="HE2">
-        <v>1.046611045732512</v>
+        <v>1.047238108447931</v>
       </c>
       <c r="HF2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531656</v>
       </c>
       <c r="HG2">
-        <v>1.04659358907734</v>
+        <v>1.047229300100689</v>
       </c>
       <c r="HH2">
-        <v>1.046617037075323</v>
+        <v>1.047223676014157</v>
       </c>
       <c r="HI2">
-        <v>1.046146710331863</v>
+        <v>1.046844257922333</v>
       </c>
       <c r="HJ2">
-        <v>1.046875958036173</v>
+        <v>1.047448699816561</v>
       </c>
       <c r="HK2">
-        <v>1.046893500675265</v>
+        <v>1.047484804683094</v>
       </c>
       <c r="HL2">
-        <v>1.046800725052698</v>
+        <v>1.047459228595673</v>
       </c>
       <c r="HM2">
-        <v>1.046622318595279</v>
+        <v>1.047250191551529</v>
       </c>
       <c r="HN2">
-        <v>1.046608777582887</v>
+        <v>1.04723572831467</v>
       </c>
       <c r="HO2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531655</v>
       </c>
       <c r="HP2">
-        <v>1.046591605109083</v>
+        <v>1.047228135479219</v>
       </c>
       <c r="HQ2">
-        <v>1.046617037075318</v>
+        <v>1.047222328878855</v>
       </c>
       <c r="HR2">
-        <v>1.046120056556104</v>
+        <v>1.046821499268478</v>
       </c>
       <c r="HS2">
-        <v>1.046869843891198</v>
+        <v>1.047436180044032</v>
       </c>
       <c r="HT2">
-        <v>1.046893276941207</v>
+        <v>1.047484388655473</v>
       </c>
       <c r="HU2">
-        <v>1.04680030866959</v>
+        <v>1.047459094365464</v>
       </c>
       <c r="HV2">
-        <v>1.046608584193144</v>
+        <v>1.047235525376843</v>
       </c>
       <c r="HW2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531655</v>
       </c>
       <c r="HX2">
-        <v>1.046590042686793</v>
+        <v>1.047227218312049</v>
       </c>
       <c r="HY2">
-        <v>1.046617037075316</v>
+        <v>1.047221658362337</v>
       </c>
       <c r="HZ2">
-        <v>1.046101925440354</v>
+        <v>1.046806017789127</v>
       </c>
       <c r="IA2">
-        <v>1.04686830784076</v>
+        <v>1.047437959341265</v>
       </c>
       <c r="IB2">
-        <v>1.046893276941207</v>
+        <v>1.047484388655473</v>
       </c>
       <c r="IC2">
-        <v>1.046799673056792</v>
+        <v>1.047458889461766</v>
       </c>
       <c r="ID2">
-        <v>1.046608494868235</v>
+        <v>1.047235431641762</v>
       </c>
       <c r="IE2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531654</v>
       </c>
       <c r="IF2">
-        <v>1.046588958912827</v>
+        <v>1.047226582119191</v>
       </c>
       <c r="IG2">
-        <v>1.046617037075315</v>
+        <v>1.047221182254206</v>
       </c>
       <c r="IH2">
-        <v>1.046090014862028</v>
+        <v>1.046795847791735</v>
       </c>
       <c r="II2">
-        <v>1.046864681780907</v>
+        <v>1.047431216789164</v>
       </c>
       <c r="IJ2">
-        <v>1.046798927990527</v>
+        <v>1.047458649273346</v>
       </c>
       <c r="IK2">
-        <v>1.04660839932443</v>
+        <v>1.047235331380746</v>
       </c>
       <c r="IL2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="IM2">
-        <v>1.04658787772072</v>
+        <v>1.047225947441923</v>
       </c>
       <c r="IN2">
-        <v>1.046617037075301</v>
+        <v>1.047215735780642</v>
       </c>
       <c r="IO2">
-        <v>1.046064381301703</v>
+        <v>1.04677396024916</v>
       </c>
       <c r="IP2">
-        <v>1.046857089162408</v>
+        <v>1.047417419396121</v>
       </c>
       <c r="IQ2">
-        <v>1.046861144322772</v>
+        <v>1.047424318131147</v>
       </c>
       <c r="IR2">
-        <v>1.046797783612998</v>
+        <v>1.047458280358198</v>
       </c>
       <c r="IS2">
-        <v>1.046608308028119</v>
+        <v>1.047235235576931</v>
       </c>
       <c r="IT2">
-        <v>1.046612798822525</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="IU2">
-        <v>1.046586295984883</v>
+        <v>1.047225018937381</v>
       </c>
       <c r="IV2">
-        <v>1.046617037075296</v>
+        <v>1.047214129704769</v>
       </c>
       <c r="IW2">
-        <v>1.046052494805541</v>
+        <v>1.046770990717972</v>
       </c>
       <c r="IX2">
-        <v>1.046047942121066</v>
+        <v>1.046759602146703</v>
       </c>
       <c r="IY2">
-        <v>1.046793595970372</v>
+        <v>1.047456930379915</v>
       </c>
       <c r="IZ2">
-        <v>1.046608206320115</v>
+        <v>1.047235128847375</v>
       </c>
       <c r="JA2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="JB2">
-        <v>1.046580346997673</v>
+        <v>1.047221526785553</v>
       </c>
       <c r="JC2">
-        <v>1.046617037075296</v>
+        <v>1.047213770377909</v>
       </c>
       <c r="JD2">
-        <v>1.04605085167685</v>
+        <v>1.046770580225093</v>
       </c>
       <c r="JE2">
-        <v>1.045986297753495</v>
+        <v>1.046705761480179</v>
       </c>
       <c r="JF2">
-        <v>1.046773214712376</v>
+        <v>1.047450360034871</v>
       </c>
       <c r="JG2">
-        <v>1.046607996380535</v>
+        <v>1.047234908542608</v>
       </c>
       <c r="JH2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="JI2">
-        <v>1.04657895849829</v>
+        <v>1.047220711713923</v>
       </c>
       <c r="JJ2">
-        <v>1.046617037075296</v>
+        <v>1.047207020561851</v>
       </c>
       <c r="JK2">
-        <v>1.046617037075295</v>
+        <v>1.047213691204823</v>
       </c>
       <c r="JL2">
-        <v>1.046050096270212</v>
+        <v>1.046770391506432</v>
       </c>
       <c r="JM2">
-        <v>1.04597777459005</v>
+        <v>1.04670292243188</v>
       </c>
       <c r="JN2">
-        <v>1.04596610616979</v>
+        <v>1.046687847678614</v>
       </c>
       <c r="JO2">
-        <v>1.046607777729809</v>
+        <v>1.047234679096608</v>
       </c>
       <c r="JP2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="JQ2">
-        <v>1.046578322390559</v>
+        <v>1.04722033830838</v>
       </c>
       <c r="JR2">
-        <v>1.046617037075296</v>
+        <v>1.047200331259758</v>
       </c>
       <c r="JS2">
-        <v>1.046617037075294</v>
+        <v>1.047213598379363</v>
       </c>
       <c r="JT2">
-        <v>1.046049199063608</v>
+        <v>1.046770167362744</v>
       </c>
       <c r="JU2">
-        <v>1.045977155049653</v>
+        <v>1.046702716064239</v>
       </c>
       <c r="JV2">
-        <v>1.045892911905317</v>
+        <v>1.046622910325608</v>
       </c>
       <c r="JW2">
-        <v>1.046606946278926</v>
+        <v>1.047233806595136</v>
       </c>
       <c r="JX2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="JY2">
-        <v>1.046577904197768</v>
+        <v>1.047220092822437</v>
       </c>
       <c r="JZ2">
-        <v>1.046617037075293</v>
+        <v>1.04721351449097</v>
       </c>
       <c r="KA2">
-        <v>1.046047814781235</v>
+        <v>1.046769821535867</v>
       </c>
       <c r="KB2">
-        <v>1.045976644405078</v>
+        <v>1.046702545969572</v>
       </c>
       <c r="KC2">
-        <v>1.045874986956159</v>
+        <v>1.046599481562393</v>
       </c>
       <c r="KD2">
-        <v>1.045881279646322</v>
+        <v>1.046614878828143</v>
       </c>
       <c r="KE2">
-        <v>1.046602531987597</v>
+        <v>1.047229174360382</v>
       </c>
       <c r="KF2">
-        <v>1.046612798822524</v>
+        <v>1.047240576531653</v>
       </c>
       <c r="KG2">
-        <v>1.046576135759437</v>
+        <v>1.047218952600233</v>
       </c>
       <c r="KH2">
-        <v>1.04657775995644</v>
+        <v>1.04722002074618</v>
       </c>
       <c r="KI2">
-        <v>1.046617037075293</v>
+        <v>1.047213429528799</v>
       </c>
       <c r="KJ2">
-        <v>1.046046581288279</v>
+        <v>1.046769513379795</v>
       </c>
       <c r="KK2">
-        <v>1.045975919073846</v>
+        <v>1.046702304363218</v>
       </c>
       <c r="KL2">
-        <v>1.045866736495494</v>
+        <v>1.046588697817976</v>
       </c>
       <c r="KM2">
-        <v>1.0458325293861</v>
+        <v>1.04658121917186</v>
       </c>
       <c r="KN2">
-        <v>1.046575323413778</v>
+        <v>1.047218428830452</v>
       </c>
       <c r="KO2">
-        <v>1.046577657871704</v>
+        <v>1.047219969735241</v>
       </c>
       <c r="KP2">
-        <v>1.046617037075293</v>
+        <v>1.047213338177288</v>
       </c>
       <c r="KQ2">
-        <v>1.046045622275461</v>
+        <v>1.046769273795432</v>
       </c>
       <c r="KR2">
-        <v>1.045972661213129</v>
+        <v>1.046701219176447</v>
       </c>
       <c r="KS2">
-        <v>1.045812839086774</v>
+        <v>1.046518251358195</v>
       </c>
       <c r="KT2">
-        <v>1.045821768322317</v>
+        <v>1.046573789182097</v>
       </c>
       <c r="KU2">
-        <v>1.046573948533657</v>
+        <v>1.047217542359705</v>
       </c>
       <c r="KV2">
-        <v>1.046577539075156</v>
+        <v>1.047219910373542</v>
       </c>
       <c r="KW2">
-        <v>1.046617037075293</v>
+        <v>1.047212808389229</v>
       </c>
       <c r="KX2">
-        <v>1.046044428544907</v>
+        <v>1.046768975572957</v>
       </c>
       <c r="KY2">
-        <v>1.045972034040403</v>
+        <v>1.046701010266487</v>
       </c>
       <c r="KZ2">
-        <v>1.045808813388643</v>
+        <v>1.046512989581668</v>
       </c>
       <c r="LA2">
-        <v>1.045818192641163</v>
+        <v>1.046571320348261</v>
       </c>
       <c r="LB2">
-        <v>1.046571309540608</v>
+        <v>1.047215840836704</v>
       </c>
       <c r="LC2">
-        <v>1.046577311855355</v>
+        <v>1.047219796833595</v>
       </c>
       <c r="LD2">
-        <v>1.046617037075293</v>
+        <v>1.04721056758618</v>
       </c>
       <c r="LE2">
-        <v>1.046043193879495</v>
+        <v>1.046768667123974</v>
       </c>
       <c r="LF2">
-        <v>1.045971569670565</v>
+        <v>1.046700855585838</v>
       </c>
       <c r="LG2">
-        <v>1.045806501577983</v>
+        <v>1.046505593271646</v>
       </c>
       <c r="LH2">
-        <v>1.045745558022368</v>
+        <v>1.046450148567368</v>
       </c>
       <c r="LI2">
-        <v>1.045816326387501</v>
+        <v>1.04657003179085</v>
       </c>
       <c r="LJ2">
-        <v>1.046563539900742</v>
+        <v>1.047210831266453</v>
       </c>
       <c r="LK2">
-        <v>1.046576440427903</v>
+        <v>1.047219361388156</v>
       </c>
       <c r="LL2">
-        <v>1.04604173752467</v>
+        <v>1.046768303291664</v>
       </c>
       <c r="LM2">
-        <v>1.045971034766858</v>
+        <v>1.046700677410501</v>
       </c>
       <c r="LN2">
-        <v>1.045794595056817</v>
+        <v>1.046467500050751</v>
       </c>
       <c r="LO2">
-        <v>1.045715201827594</v>
+        <v>1.046419991219483</v>
       </c>
       <c r="LP2">
-        <v>1.045814728816507</v>
+        <v>1.046568928745718</v>
       </c>
       <c r="LQ2">
-        <v>1.046573466576642</v>
+        <v>1.047217875378078</v>
       </c>
       <c r="LR2">
-        <v>1.046040907596264</v>
+        <v>1.046768095955674</v>
       </c>
       <c r="LS2">
-        <v>1.045970504150084</v>
+        <v>1.046700500663132</v>
       </c>
       <c r="LT2">
-        <v>1.045790438264341</v>
+        <v>1.046454200985797</v>
       </c>
       <c r="LU2">
-        <v>1.045666398184389</v>
+        <v>1.046407947804235</v>
       </c>
       <c r="LV2">
-        <v>1.045671251643852</v>
+        <v>1.046365470893043</v>
       </c>
       <c r="LW2">
-        <v>1.045812911866235</v>
+        <v>1.04656767422981</v>
       </c>
       <c r="LX2">
-        <v>1.046037158313644</v>
+        <v>1.04676715929508</v>
       </c>
       <c r="LY2">
-        <v>1.045965842622997</v>
+        <v>1.046698947917915</v>
       </c>
       <c r="LZ2">
-        <v>1.045781391275437</v>
+        <v>1.046425256436851</v>
       </c>
       <c r="MA2">
-        <v>1.045647069525782</v>
+        <v>1.046403178014933</v>
       </c>
       <c r="MB2">
-        <v>1.045662380468823</v>
+        <v>1.046361038292033</v>
       </c>
       <c r="MC2">
-        <v>1.045663907722067</v>
+        <v>1.046355883134119</v>
       </c>
       <c r="MD2">
-        <v>1.045811480422484</v>
+        <v>1.046566685887395</v>
       </c>
       <c r="ME2">
-        <v>1.046035699170732</v>
+        <v>1.04676679476623</v>
       </c>
       <c r="MF2">
-        <v>1.045956313837533</v>
+        <v>1.046695773898723</v>
       </c>
       <c r="MG2">
-        <v>1.045775829286483</v>
+        <v>1.04640437715826</v>
       </c>
       <c r="MH2">
-        <v>1.045780518958783</v>
+        <v>1.046423916865709</v>
       </c>
       <c r="MI2">
-        <v>1.045657920444482</v>
+        <v>1.046358809781299</v>
       </c>
       <c r="MJ2">
-        <v>1.045657616133657</v>
+        <v>1.046347669235385</v>
       </c>
       <c r="MK2">
-        <v>1.045810280308141</v>
+        <v>1.046565857266684</v>
       </c>
       <c r="ML2">
-        <v>1.046035192265861</v>
+        <v>1.046766668129251</v>
       </c>
       <c r="MM2">
-        <v>1.045767506873497</v>
+        <v>1.046373135463583</v>
       </c>
       <c r="MN2">
-        <v>1.045780397496967</v>
+        <v>1.046423730343139</v>
       </c>
       <c r="MO2">
-        <v>1.045657505395461</v>
+        <v>1.046358602396511</v>
       </c>
       <c r="MP2">
-        <v>1.04565319058825</v>
+        <v>1.046341891524257</v>
       </c>
       <c r="MQ2">
-        <v>1.045809197425472</v>
+        <v>1.046565109588736</v>
       </c>
       <c r="MR2">
-        <v>1.046034810380483</v>
+        <v>1.046766572725136</v>
       </c>
       <c r="MS2">
-        <v>1.045780265580895</v>
+        <v>1.046423527766516</v>
       </c>
       <c r="MT2">
-        <v>1.045657333985391</v>
+        <v>1.046358516749178</v>
       </c>
       <c r="MU2">
-        <v>1.045647598820032</v>
+        <v>1.046334591266935</v>
       </c>
       <c r="MV2">
-        <v>1.045808301193607</v>
+        <v>1.0465644907841</v>
       </c>
       <c r="MW2">
-        <v>1.046034530975686</v>
+        <v>1.046766502923125</v>
       </c>
       <c r="MX2">
-        <v>1.045780150031891</v>
+        <v>1.046423350323944</v>
       </c>
       <c r="MY2">
-        <v>1.045657213037818</v>
+        <v>1.046358456316107</v>
       </c>
       <c r="MZ2">
-        <v>1.045